--- a/Outputs/stacks_over_time_avg.xlsx
+++ b/Outputs/stacks_over_time_avg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joseph.phillips\Documents\GitHub\Poker-Stats\Outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418DDB94-092D-4E45-9CC0-4E1F0DBB4FE5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20066A5B-D326-4B7E-A0B0-55B418FCDC06}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -110,21 +110,31 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="113"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="13"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -134,6 +144,33 @@
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -156,9 +193,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -200,439 +241,439 @@
                   <c:v>21.73</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>21.76</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21.78</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21.79</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21.79</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21.74</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21.71</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21.82</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21.84</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21.85</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>21.84</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>21.83</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>21.81</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>21.8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>21.78</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>21.75</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>21.73</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="29">
+                  <c:v>21.76</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>21.78</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>21.77</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>21.75</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>21.74</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>21.74</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>21.7</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>21.66</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>21.63</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>21.6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>21.57</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>21.54</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>21.51</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>21.48</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>21.45</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>21.42</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>21.37</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>21.33</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>21.28</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>21.24</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>21.2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>21.2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>21.18</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>21.16</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>21.09</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>21.02</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>20.95</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>20.85</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>20.76</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>20.66</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>20.57</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>20.46</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>20.36</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>20.260000000000002</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>20.16</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>20.059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>19.96</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>19.86</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>19.78</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>19.690000000000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>19.55</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>19.440000000000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>19.329999999999998</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>19.079999999999998</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>18.96</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>18.850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>18.73</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>18.68</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>18.63</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>18.579999999999998</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>18.489999999999998</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>18.420000000000002</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>18.350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>18.3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>18.25</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>18.190000000000001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>18.16</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>18.12</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>18.09</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>18.04</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>17.95</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>17.89</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>17.829999999999998</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>17.98</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>18.14</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>18.309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>18.48</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>18.649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>18.829999999999998</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>19.170000000000002</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>19.649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>20.13</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>20.48</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>20.83</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>21.21</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>21.57</c:v>
+                </c:pt>
+                <c:pt idx="108">
                   <c:v>21.93</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>22.13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>22.09</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>22.06</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>22.01</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>21.95</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>21.84</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>21.77</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>21.91</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21.91</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21.92</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>21.94</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>21.92</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>21.88</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>21.84</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>21.82</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>21.84</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>21.83</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>21.59</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>21.64</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>21.65</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>21.59</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>21.55</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>21.52</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>21.54</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>21.43</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>21.36</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>21.29</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>21.22</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>20.99</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>20.8</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>20.69</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>20.57</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>20.45</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>20.3</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>20.21</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>20.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>19.97</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>19.84</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>19.71</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>19.579999999999998</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>19.45</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>19.329999999999998</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>19.21</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>19.079999999999998</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>18.87</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>18.649999999999999</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>18.46</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>18.27</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>18.07</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>17.86</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>17.64</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>17.43</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>17.23</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>17.05</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>16.940000000000001</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>16.88</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>16.82</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>16.78</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>16.75</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>16.64</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>16.510000000000002</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>16.39</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>16.260000000000002</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>16.16</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>16.37</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>16.55</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>16.739999999999998</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>16.91</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>17.09</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>17.36</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>17.670000000000002</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>17.98</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>18.29</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>18.59</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>18.57</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>18.559999999999999</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>18.54</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>18.52</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>18.48</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>18.38</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>18.190000000000001</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>19.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>20.02</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>20.93</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>21.87</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>22.82</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>23.78</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>24.73</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>25.68</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>28.24</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>30.85</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>31.72</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>32.54</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>33.35</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>34.090000000000003</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>34.82</c:v>
-                </c:pt>
                 <c:pt idx="109">
-                  <c:v>35.54</c:v>
+                  <c:v>22.28</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>36.29</c:v>
+                  <c:v>22.65</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>37.049999999999997</c:v>
+                  <c:v>23.01</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>35.950000000000003</c:v>
+                  <c:v>23.31</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>34.86</c:v>
+                  <c:v>23.62</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>34.39</c:v>
+                  <c:v>23.92</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>33.96</c:v>
+                  <c:v>24.21</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>33.53</c:v>
+                  <c:v>24.51</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>32.700000000000003</c:v>
+                  <c:v>24.72</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>32.020000000000003</c:v>
+                  <c:v>24.95</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>31.27</c:v>
+                  <c:v>25.17</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>30.53</c:v>
+                  <c:v>25.4</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>29.76</c:v>
+                  <c:v>25.61</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>29.3</c:v>
+                  <c:v>25.85</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>28.74</c:v>
+                  <c:v>26.06</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>28.2</c:v>
+                  <c:v>26.28</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>27.66</c:v>
+                  <c:v>26.49</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>27.06</c:v>
+                  <c:v>26.69</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>26.94</c:v>
+                  <c:v>26.83</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>26.68</c:v>
+                  <c:v>26.98</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>26.49</c:v>
+                  <c:v>27.12</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>26.27</c:v>
+                  <c:v>27.27</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>26.06</c:v>
+                  <c:v>27.41</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>25.69</c:v>
+                  <c:v>27.51</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>25.71</c:v>
+                  <c:v>27.67</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>25.49</c:v>
+                  <c:v>27.78</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>25.25</c:v>
+                  <c:v>27.88</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>25.05</c:v>
+                  <c:v>27.99</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>24.5</c:v>
+                  <c:v>28.02</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>24.04</c:v>
+                  <c:v>28.07</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>23.56</c:v>
+                  <c:v>28.13</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>23.1</c:v>
+                  <c:v>28.18</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>22.08</c:v>
+                  <c:v>28.13</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>21.39</c:v>
+                  <c:v>28.11</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>20.41</c:v>
+                  <c:v>28.12</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>19.68</c:v>
+                  <c:v>27.9</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>18.850000000000001</c:v>
+                  <c:v>27.65</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>17.989999999999998</c:v>
+                  <c:v>27.4</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>17.489999999999998</c:v>
+                  <c:v>27.14</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>16.809999999999999</c:v>
+                  <c:v>26.87</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>16.079999999999998</c:v>
+                  <c:v>26.59</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>15.34</c:v>
+                  <c:v>26.31</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>15.06</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>14.74</c:v>
+                  <c:v>25.41</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>14.48</c:v>
+                  <c:v>24.84</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>14.18</c:v>
+                  <c:v>24.39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -640,7 +681,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-234F-4F9A-B1B4-5301B9D68B1D}"/>
+              <c16:uniqueId val="{00000000-F6A6-478C-A1D3-719247FD03A2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -659,9 +700,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -703,439 +748,439 @@
                   <c:v>20.27</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20.27</c:v>
+                  <c:v>20.329999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20.36</c:v>
+                  <c:v>20.309999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>20.38</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20.51</c:v>
+                  <c:v>20.49</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>20.69</c:v>
+                  <c:v>20.58</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20.89</c:v>
+                  <c:v>20.64</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>21.05</c:v>
+                  <c:v>20.68</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>21.2</c:v>
+                  <c:v>20.72</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>21.22</c:v>
+                  <c:v>20.75</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>20.83</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20.9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20.96</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>21.02</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>21.25</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="24">
+                  <c:v>21.33</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>21.4</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>21.53</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>21.74</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>21.85</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>22.32</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>22.45</c:v>
-                </c:pt>
                 <c:pt idx="26">
-                  <c:v>22.61</c:v>
+                  <c:v>20.95</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>21.4</c:v>
+                  <c:v>20.52</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>20.16</c:v>
+                  <c:v>20.149999999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>19.010000000000002</c:v>
+                  <c:v>19.8</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>17.73</c:v>
+                  <c:v>19.489999999999998</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>19.170000000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>18.809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>17.920000000000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>17.64</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>17.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>17.2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>17.04</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>16.87</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>16.63</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>16.38</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>15.65</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>15.74</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>15.83</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>15.92</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>15.99</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>16.07</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>16.07</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>16.059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>16.04</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>16.02</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>16.059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>16.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>16.14</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>16.190000000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>16.21</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>16.25</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>16.21</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>16.170000000000002</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>16.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>16.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>16.02</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>15.94</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>15.88</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>15.82</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>15.74</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>15.67</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>15.57</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>15.54</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>15.46</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>15.33</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>15.14</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>14.94</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>15.01</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>15.08</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>15.14</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>15.25</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>15.31</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>15.41</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>15.24</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>15.08</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>14.92</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>15.17</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>15.42</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>15.6</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>15.71</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>15.81</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>16.2</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>16.52</c:v>
                 </c:pt>
-                <c:pt idx="32">
-                  <c:v>15.21</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>13.74</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>11.89</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>10.38</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>8.86</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>8.69</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>8.5500000000000007</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>8.65</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>8.75</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>8.7799999999999994</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>8.5</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>8.33</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>7.52</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>6.72</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>7.92</c:v>
-                </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="95">
+                  <c:v>16.86</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>16.809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>16.75</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>16.78</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>16.82</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>16.829999999999998</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>16.579999999999998</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>16.329999999999998</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>16.010000000000002</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>15.69</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>15.36</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>15.01</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>14.66</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>14.36</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>14.13</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>13.9</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>13.68</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>13.45</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>13.23</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>13.01</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>12.78</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>12.53</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>12.29</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>12.06</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>11.83</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>11.53</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>11.22</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>10.92</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>10.62</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>10.43</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>10.17</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>9.92</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>9.66</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>9.41</c:v>
+                </c:pt>
+                <c:pt idx="130">
                   <c:v>9.16</c:v>
                 </c:pt>
-                <c:pt idx="48">
-                  <c:v>10.38</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>11.27</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>12.2</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>13.13</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>14.37</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>15.68</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>17.87</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>20.059999999999999</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>20.23</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>20.48</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>20.75</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>21.04</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>20.96</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>20.9</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>20.9</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>20.89</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>20.5</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>20.11</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>19.77</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>19.350000000000001</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>18.87</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>18.37</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>18.21</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>18.350000000000001</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>18.510000000000002</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>18.68</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>18.850000000000001</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>18.43</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>17.920000000000002</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>17.350000000000001</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>16.850000000000001</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>16.36</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>15.87</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>15.08</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>14.26</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>13.45</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>11.48</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>10.09</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>8.77</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>9.51</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>10.25</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>10.97</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>11.29</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>11.6</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>11.95</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>12.3</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>13.88</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>15.61</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>17.329999999999998</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>17.05</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>17.16</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>17.260000000000002</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>17.79</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>18.2</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>17.28</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>16.34</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>15.35</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>14.21</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>12.99</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>11.78</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>10.18</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>8.8699999999999992</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>7.52</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>6.28</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>6.39</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>6.46</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>6.59</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>6.7</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>6.87</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>6.95</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>7.04</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>6.86</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>6.67</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>6.46</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>6.24</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>6.04</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>5.82</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>5.55</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>4.87</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>4.28</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>3.69</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>3.1</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>2.52</c:v>
-                </c:pt>
                 <c:pt idx="131">
-                  <c:v>1.97</c:v>
+                  <c:v>8.91</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>1.44</c:v>
+                  <c:v>8.66</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.92</c:v>
+                  <c:v>8.41</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.42</c:v>
+                  <c:v>8.41</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0</c:v>
+                  <c:v>8.41</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0</c:v>
+                  <c:v>8.41</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0</c:v>
+                  <c:v>8.01</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0</c:v>
+                  <c:v>7.61</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0</c:v>
+                  <c:v>7.22</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0</c:v>
+                  <c:v>6.9</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0</c:v>
+                  <c:v>6.58</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0</c:v>
+                  <c:v>6.27</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0</c:v>
+                  <c:v>5.95</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0</c:v>
+                  <c:v>5.64</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0</c:v>
+                  <c:v>5.29</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0</c:v>
+                  <c:v>4.95</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0</c:v>
+                  <c:v>4.5999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0</c:v>
+                  <c:v>4.18</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0</c:v>
+                  <c:v>3.76</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0</c:v>
+                  <c:v>3.34</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>0</c:v>
+                  <c:v>2.94</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0</c:v>
+                  <c:v>2.81</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>0</c:v>
+                  <c:v>2.68</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>0</c:v>
+                  <c:v>2.57</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1143,7 +1188,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-234F-4F9A-B1B4-5301B9D68B1D}"/>
+              <c16:uniqueId val="{00000001-F6A6-478C-A1D3-719247FD03A2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1162,9 +1207,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -1206,439 +1255,439 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20</c:v>
+                  <c:v>20.02</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20.02</c:v>
+                  <c:v>20.03</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20.05</c:v>
+                  <c:v>20.010000000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20.03</c:v>
+                  <c:v>19.97</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>19.97</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>19.989999999999998</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>19.97</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>20.02</c:v>
+                  <c:v>19.98</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>20</c:v>
+                  <c:v>19.95</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19.97</c:v>
+                  <c:v>19.88</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19.79</c:v>
+                  <c:v>19.82</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>19.63</c:v>
+                  <c:v>19.78</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>19.510000000000002</c:v>
+                  <c:v>19.7</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>19.670000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>19.47</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>19.45</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>19.43</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>19.420000000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>19.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>19.38</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>19.350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>19.309999999999999</c:v>
                 </c:pt>
-                <c:pt idx="23">
-                  <c:v>19.23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>18.760000000000002</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>18.68</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>18.53</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>18.46</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>18.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>18.43</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>18.43</c:v>
-                </c:pt>
                 <c:pt idx="31">
-                  <c:v>18.350000000000001</c:v>
+                  <c:v>19.28</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>18.350000000000001</c:v>
+                  <c:v>19.25</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>18.28</c:v>
+                  <c:v>19.21</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>18.61</c:v>
+                  <c:v>19.18</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>18.5</c:v>
+                  <c:v>19.079999999999998</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>18.149999999999999</c:v>
+                  <c:v>18.98</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>17.8</c:v>
+                  <c:v>18.89</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>17.440000000000001</c:v>
+                  <c:v>18.8</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>17.11</c:v>
+                  <c:v>18.690000000000001</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>16.71</c:v>
+                  <c:v>18.52</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>16.07</c:v>
+                  <c:v>18.36</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>15.43</c:v>
+                  <c:v>18.190000000000001</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>14.72</c:v>
+                  <c:v>17.98</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>13.76</c:v>
+                  <c:v>17.77</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>12.83</c:v>
+                  <c:v>17.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>11.88</c:v>
+                  <c:v>17.260000000000002</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>10.92</c:v>
+                  <c:v>17.03</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>9.9600000000000009</c:v>
+                  <c:v>16.8</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>9</c:v>
+                  <c:v>16.579999999999998</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>8.1300000000000008</c:v>
+                  <c:v>16.579999999999998</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>7.71</c:v>
+                  <c:v>16.329999999999998</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>7.29</c:v>
+                  <c:v>16.079999999999998</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>6.84</c:v>
+                  <c:v>15.82</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>6.65</c:v>
+                  <c:v>15.55</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>6.45</c:v>
+                  <c:v>15.28</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>6.51</c:v>
+                  <c:v>15.02</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>6.59</c:v>
+                  <c:v>14.75</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>6.74</c:v>
+                  <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>6.88</c:v>
+                  <c:v>14.24</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>7.02</c:v>
+                  <c:v>13.98</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>6.98</c:v>
+                  <c:v>13.72</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>6.96</c:v>
+                  <c:v>13.47</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>7.02</c:v>
+                  <c:v>13.22</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>7.06</c:v>
+                  <c:v>12.97</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>7.09</c:v>
+                  <c:v>12.71</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>7.12</c:v>
+                  <c:v>12.44</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>7.15</c:v>
+                  <c:v>12.18</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>7.11</c:v>
+                  <c:v>11.93</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>7.08</c:v>
+                  <c:v>11.7</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>7.09</c:v>
+                  <c:v>11.47</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>6.96</c:v>
+                  <c:v>11.21</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>6.83</c:v>
+                  <c:v>10.97</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>6.68</c:v>
+                  <c:v>10.71</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>6.6</c:v>
+                  <c:v>10.53</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>7.29</c:v>
+                  <c:v>10.43</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>7.96</c:v>
+                  <c:v>10.32</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>8.6300000000000008</c:v>
+                  <c:v>10.220000000000001</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>9.3000000000000007</c:v>
+                  <c:v>10.11</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>9.9600000000000009</c:v>
+                  <c:v>10.01</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>10.46</c:v>
+                  <c:v>9.8800000000000008</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>11.08</c:v>
+                  <c:v>9.76</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>11.69</c:v>
+                  <c:v>9.64</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>12.3</c:v>
+                  <c:v>9.51</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>12.87</c:v>
+                  <c:v>9.39</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>12.67</c:v>
+                  <c:v>9.26</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>12.49</c:v>
+                  <c:v>9.19</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>12.31</c:v>
+                  <c:v>9.1199999999999992</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>12.1</c:v>
+                  <c:v>9.0399999999999991</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>11.9</c:v>
+                  <c:v>8.9600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>11.82</c:v>
+                  <c:v>8.9</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>11.74</c:v>
+                  <c:v>8.9</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>11.53</c:v>
+                  <c:v>8.86</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>11.35</c:v>
+                  <c:v>8.84</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>11.16</c:v>
+                  <c:v>8.8699999999999992</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>10.97</c:v>
+                  <c:v>8.89</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>10.79</c:v>
+                  <c:v>8.9700000000000006</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>10.6</c:v>
+                  <c:v>9.06</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>10.42</c:v>
+                  <c:v>9.1300000000000008</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>10.220000000000001</c:v>
+                  <c:v>9.2100000000000009</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>10.029999999999999</c:v>
+                  <c:v>9.2799999999999994</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>9.85</c:v>
+                  <c:v>9.32</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>9.73</c:v>
+                  <c:v>9.35</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>9.61</c:v>
+                  <c:v>9.39</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>9.49</c:v>
+                  <c:v>9.43</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>9.35</c:v>
+                  <c:v>9.4700000000000006</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>9.1999999999999993</c:v>
+                  <c:v>9.51</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>9.0500000000000007</c:v>
+                  <c:v>9.5500000000000007</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>8.92</c:v>
+                  <c:v>9.57</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>8.81</c:v>
+                  <c:v>9.59</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>8.6999999999999993</c:v>
+                  <c:v>9.6199999999999992</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>8.59</c:v>
+                  <c:v>9.64</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>8.5399999999999991</c:v>
+                  <c:v>9.67</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>8.48</c:v>
+                  <c:v>9.68</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>10.1</c:v>
+                  <c:v>10.039999999999999</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>12.37</c:v>
+                  <c:v>10.53</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>14.62</c:v>
+                  <c:v>11.01</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>11.84</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>22.58</c:v>
+                  <c:v>12.66</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>26.5</c:v>
+                  <c:v>13.48</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>30.41</c:v>
+                  <c:v>14.28</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>34.799999999999997</c:v>
+                  <c:v>15.21</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>39.21</c:v>
+                  <c:v>16.14</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>43.63</c:v>
+                  <c:v>17.07</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>46.63</c:v>
+                  <c:v>18.05</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>50.93</c:v>
+                  <c:v>19.260000000000002</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>55.21</c:v>
+                  <c:v>20.46</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>57.75</c:v>
+                  <c:v>21.66</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>60.25</c:v>
+                  <c:v>22.85</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>63.52</c:v>
+                  <c:v>24.19</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>66.73</c:v>
+                  <c:v>25.54</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>69.540000000000006</c:v>
+                  <c:v>26.9</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>72.349999999999994</c:v>
+                  <c:v>28.27</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>75.02</c:v>
+                  <c:v>29.62</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>77.41</c:v>
+                  <c:v>30.96</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>77.87</c:v>
+                  <c:v>32.299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>78.38</c:v>
+                  <c:v>33.64</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>78.849999999999994</c:v>
+                  <c:v>34.97</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>79.3</c:v>
+                  <c:v>36.29</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>79.02</c:v>
+                  <c:v>37.61</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>79.34</c:v>
+                  <c:v>39.04</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>79.540000000000006</c:v>
+                  <c:v>40.46</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>79.73</c:v>
+                  <c:v>41.91</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>80.06</c:v>
+                  <c:v>43.36</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>80.58</c:v>
+                  <c:v>44.84</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>80.739999999999995</c:v>
+                  <c:v>46.25</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>80.819999999999993</c:v>
+                  <c:v>47.65</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>81.61</c:v>
+                  <c:v>49.17</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>82.39</c:v>
+                  <c:v>50.69</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>83.13</c:v>
+                  <c:v>52.2</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>83.33</c:v>
+                  <c:v>53.7</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>83.7</c:v>
+                  <c:v>55.23</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>84.08</c:v>
+                  <c:v>56.78</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>84.43</c:v>
+                  <c:v>58.32</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>84.86</c:v>
+                  <c:v>59.92</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1646,7 +1695,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-234F-4F9A-B1B4-5301B9D68B1D}"/>
+              <c16:uniqueId val="{00000002-F6A6-478C-A1D3-719247FD03A2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1665,9 +1714,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -1709,439 +1762,439 @@
                   <c:v>18.010000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18.010000000000002</c:v>
+                  <c:v>17.899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>17.88</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.829999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17.739999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.66</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17.579999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.61</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17.62</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17.57</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17.53</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17.489999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>17.48</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>17.47</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>17.45</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>17.41</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17.38</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>17.91</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>18.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>18.84</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>19.21</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>19.57</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>19.97</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>20.329999999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>20.67</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>20.99</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>21.39</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>21.78</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>22.13</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>22.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>22.67</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>23.21</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>23.7</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>24.16</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>24.61</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>25.03</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>25.52</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>25.99</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>26.43</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>26.83</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>27.22</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>27.22</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>27.72</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>28.21</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>28.56</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>28.88</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>29.16</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>29.43</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>29.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>29.99</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>30.28</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>30.41</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>30.54</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>30.65</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>30.77</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>30.9</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>31.06</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>31.22</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>31.35</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>31.48</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>31.56</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>31.65</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>31.73</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>31.76</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>31.81</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>31.86</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>31.9</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>31.94</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>31.63</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>31.3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>30.98</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>30.69</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>30.38</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>30.03</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>29.68</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>29.33</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>28.98</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>28.54</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>28.08</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>27.65</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>27.29</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>26.88</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>26.22</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>25.63</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>25.06</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>24.48</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>23.9</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>23.16</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>22.6</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>21.96</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>21.36</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>20.76</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>19.649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>19.28</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>18.940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>18.64</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>18.329999999999998</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="108">
                   <c:v>17.68</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>17.45</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>17.37</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>17.260000000000002</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>17.13</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16.98</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>16.96</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>17.04</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>17.04</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>17.059999999999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>17.04</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>17.010000000000002</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>17.010000000000002</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>17.04</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>17.04</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>17.059999999999999</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>18.43</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>19.8</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>21.25</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>22.57</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>23.95</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>25.42</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>26.92</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>28.39</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>29.93</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>31.82</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>32.22</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>32.57</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>32.65</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>33.049999999999997</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>34.47</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>35.64</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>36.799999999999997</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>38.01</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>39.19</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>40.39</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>41.55</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>42.78</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>44.2</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>45.41</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>45.47</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>45.53</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>44.68</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>43.7</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>42.51</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>40.909999999999997</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>39.33</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>37.75</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>36.270000000000003</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>33.96</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>31.76</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>29.63</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>28.43</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>27.35</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>26.64</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>25.92</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>25.2</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>24.5</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>23.45</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>23.26</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>23.02</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>22.6</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>22.22</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>21.84</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>21.26</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>20.66</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>19.829999999999998</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>18.920000000000002</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>18.350000000000001</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>17.75</c:v>
-                </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="109">
+                  <c:v>17.350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="110">
                   <c:v>17.18</c:v>
                 </c:pt>
-                <c:pt idx="82">
-                  <c:v>16.77</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>16.29</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>15.76</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>15.28</c:v>
-                </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="111">
+                  <c:v>16.95</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>16.61</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>16.420000000000002</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>16.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>15.87</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>15.39</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>14.88</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>14.89</c:v>
+                </c:pt>
+                <c:pt idx="121">
                   <c:v>14.81</c:v>
                 </c:pt>
-                <c:pt idx="87">
-                  <c:v>14.49</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>14.32</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>14.2</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>13.68</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>13.64</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>13.67</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>13.76</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>13.79</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>13.52</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>14.14</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>14.33</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>14.53</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>14.81</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>15.38</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>15.62</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>15.79</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>15.96</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>16.22</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>16.73</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>16.329999999999998</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>16.350000000000001</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>16.23</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>16.059999999999999</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>15.47</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>15.36</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>15.08</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>14.78</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>14.19</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>13.66</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>12.14</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>10.58</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>11.09</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>11.8</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>12.36</c:v>
-                </c:pt>
                 <c:pt idx="122">
-                  <c:v>12.45</c:v>
+                  <c:v>14.77</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>12.83</c:v>
+                  <c:v>14.73</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>13.13</c:v>
+                  <c:v>14.68</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>12.04</c:v>
+                  <c:v>14.31</c:v>
                 </c:pt>
                 <c:pt idx="126">
+                  <c:v>13.94</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>13.62</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>13.31</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>12.7</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>12.1</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>11.81</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>11.53</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="136">
                   <c:v>10.97</c:v>
                 </c:pt>
-                <c:pt idx="127">
-                  <c:v>10.97</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>10.97</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>8.9700000000000006</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>6.83</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>5.1100000000000003</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>3.45</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>1.67</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="137">
-                  <c:v>0</c:v>
+                  <c:v>10.72</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0</c:v>
+                  <c:v>10.45</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0</c:v>
+                  <c:v>10.16</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0</c:v>
+                  <c:v>9.9</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0</c:v>
+                  <c:v>9.66</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0</c:v>
+                  <c:v>9.3800000000000008</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0</c:v>
+                  <c:v>9.07</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0</c:v>
+                  <c:v>8.77</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0</c:v>
+                  <c:v>8.49</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0</c:v>
+                  <c:v>8.27</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0</c:v>
+                  <c:v>7.89</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0</c:v>
+                  <c:v>7.58</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0</c:v>
+                  <c:v>7.26</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0</c:v>
+                  <c:v>6.94</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>0</c:v>
+                  <c:v>6.59</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>0</c:v>
+                  <c:v>5.92</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>0</c:v>
+                  <c:v>5.58</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2149,7 +2202,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-234F-4F9A-B1B4-5301B9D68B1D}"/>
+              <c16:uniqueId val="{00000003-F6A6-478C-A1D3-719247FD03A2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2161,13 +2214,20 @@
               <c:f>data!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -2178,13 +2238,406 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="155"/>
+                <c:pt idx="24">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>19.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>19.533333333333331</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>19.524999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>19.440000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>19.383333333333329</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>19.342857142857149</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>19.287500000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>19.455555555555559</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>19.579999999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>19.68181818181818</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>19.766666666666669</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>19.838461538461541</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>19.885714285714279</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>19.91333333333333</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>19.9375</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>19.95882352941177</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>19.977777777777781</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>19.984210526315788</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>19.97</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>19.976190476190471</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>19.981818181818181</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>19.978260869565219</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>19.995833333333341</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>20.004000000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>20.007692307692309</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20.011111111111109</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>20.014285714285709</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>19.989655172413791</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>19.96</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>19.9258064516129</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>19.948125000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>19.956969696969701</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>19.95941176470588</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>19.96171428571428</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>19.963888888888889</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>19.960540540540539</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>19.936315789473689</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>19.913333333333341</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>19.871500000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>19.831707317073171</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>19.793809523809529</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>19.75302325581395</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>19.711818181818181</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>19.756888888888891</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>19.782608695652179</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>19.802978723404259</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>19.87875</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>19.94734693877551</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>20.011199999999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>20.011199999999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>20.07</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>20.157800000000009</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>20.26560000000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>20.359400000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>20.463200000000011</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>20.565000000000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>20.674800000000001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>20.784600000000001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>20.856400000000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>20.926200000000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>20.994</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>21.061800000000002</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>21.125599999999999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>21.189399999999999</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>21.2532</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>21.312999999999999</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>21.3688</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>21.424599999999991</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>21.484400000000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>21.536200000000001</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>21.577999999999999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>21.619800000000009</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>21.6616</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>21.6934</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>21.729199999999999</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>21.766999999999999</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>21.800799999999999</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>21.8306</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>21.8764</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>21.926200000000009</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>21.980000000000011</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>21.97900000000001</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>21.986000000000001</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>21.993000000000009</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>21.984000000000009</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>21.87</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>21.81600000000001</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>21.778000000000009</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>21.78400000000001</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>21.64220000000001</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>21.44240000000001</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>21.258600000000008</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>21.078800000000012</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>20.90100000000001</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>20.466200000000011</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>20.04740000000001</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>19.632600000000011</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>19.163800000000009</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>18.699000000000009</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>18.236200000000011</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>17.777400000000011</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>17.293600000000001</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>16.80980000000001</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>16.326000000000001</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>15.840199999999999</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>15.356400000000001</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>14.864599999999999</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>14.376799999999999</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>13.888999999999999</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>13.405200000000001</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>12.923400000000001</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>12.441599999999999</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>11.963800000000001</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>11.49</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>11.020200000000001</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>10.554399999999999</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>10.092599999999999</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>9.6308000000000007</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>9.1690000000000005</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>8.7232000000000003</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>8.2794000000000008</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>7.8356000000000003</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>7.3958000000000004</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>6.9560000000000004</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>6.5162000000000004</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>6.0763999999999996</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>5.6405999999999992</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>5.2088000000000001</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>4.7770000000000001</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>4.3452000000000002</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-234F-4F9A-B1B4-5301B9D68B1D}"/>
+              <c16:uniqueId val="{00000004-F6A6-478C-A1D3-719247FD03A2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2196,13 +2649,20 @@
               <c:f>data!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -2213,13 +2673,373 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="155"/>
+                <c:pt idx="35">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20.366666666666671</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20.55</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20.48</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>19.141666666666669</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>18.87857142857143</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>18.893750000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>19.888888888888889</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>20.664999999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>21.234545454545451</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>21.759166666666669</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>22.203076923076921</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>22.690714285714289</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>23.11333333333334</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>23.433125</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>23.821176470588242</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>24.766111111111119</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>25.54315789473684</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>26.375</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>27.127619047619049</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>27.802727272727271</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>28.397391304347831</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>28.94250000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>29.931999999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>30.84538461538461</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>31.728148148148151</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>32.551428571428573</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>33.380000000000003</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>34.11333333333333</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>34.799354838709682</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>35.451874999999987</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>36.086060606060592</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>36.677058823529407</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>37.245714285714278</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>37.749444444444443</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>38.225945945945938</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>38.67736842105262</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>39.117179487179477</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>39.514999999999993</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>39.888536585365841</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>40.244285714285702</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>40.606744186046512</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>40.952727272727273</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>41.31666666666667</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>41.660434782608696</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>42.006595744680851</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>42.338333333333331</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>42.925714285714292</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>43.495600000000003</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>43.495600000000003</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>44.527999999999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45.584400000000016</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>46.618800000000029</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>47.653200000000027</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>48.809600000000039</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>50.157000000000018</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>51.407400000000017</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>52.623800000000017</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>53.663200000000003</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>54.678600000000003</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>55.792400000000008</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>56.738200000000013</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>57.682000000000002</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>58.595799999999997</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>59.509599999999992</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>60.439399999999978</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>61.333199999999977</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>62.016999999999989</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>62.867599999999982</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>63.691999999999993</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>64.574399999999983</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>65.492799999999988</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>66.421199999999985</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>67.33359999999999</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>68.463599999999985</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>69.58959999999999</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>70.68119999999999</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>71.770799999999994</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>72.824399999999997</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>73.902000000000001</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>74.979600000000005</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>76.051200000000023</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>77.085000000000022</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>78.338000000000022</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>79.583000000000027</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>80.852000000000004</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>81.94959999999999</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>83.047199999999989</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>84.131799999999984</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>85.216399999999993</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>86.305000000000007</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>87.393600000000006</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>88.454200000000014</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>89.385800000000017</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>90.315400000000011</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>91.248999999999995</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>92.213399999999979</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>93.175799999999995</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>93.87439999999998</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>94.566999999999965</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>95.259599999999978</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>96.023999999999972</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>96.788399999999982</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>97.552799999999991</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>98.116400000000013</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>98.635000000000019</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>99.15360000000004</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>99.672200000000061</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>100.1868000000001</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>100.7274</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>101.1840000000001</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>101.7966000000001</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>102.4624000000001</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>103.16240000000001</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>103.8844000000001</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>104.60640000000009</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>105.31699999999999</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>106.0196</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>106.5814</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-234F-4F9A-B1B4-5301B9D68B1D}"/>
+              <c16:uniqueId val="{00000005-F6A6-478C-A1D3-719247FD03A2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2231,13 +3051,22 @@
               <c:f>data!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -2248,13 +3077,208 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="155"/>
+                <c:pt idx="90">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.7149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.6199999999999992</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>7.2149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.7720000000000002</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>11.34333333333333</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>12.437142857142859</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>13.2575</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>13.895555555555561</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>14.406000000000001</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>14.80545454545455</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>15.12166666666667</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>15.373846153846159</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>15.582857142857151</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>15.726000000000001</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>15.838749999999999</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>15.93823529411765</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>16.015555555555551</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>16.074210526315792</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>15.2705</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>14.543333333333329</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>14.79136363636364</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>15.01782608695652</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>14.884166666666671</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>14.7532</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>14.624615384615391</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>14.473333333333329</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>14.32928571428571</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>14.17551724137931</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>13.99533333333334</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>13.82032258064516</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>13.952187500000001</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>14.07</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>14.148529411764709</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>14.19971428571429</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>14.39</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>14.578108108108109</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>14.77736842105263</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>14.951025641025639</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>15.101000000000001</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>15.22658536585366</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>15.332619047619049</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>15.39953488372093</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>15.52090909090909</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>15.645777777777781</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>15.760869565217391</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>15.858936170212759</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>15.94875</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>16.041020408163259</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>16.118200000000002</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>16.118200000000002</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>16.450199999999999</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>16.7636</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>17.073</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>17.539000000000001</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>17.710799999999999</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>17.916599999999999</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>17.9984</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>18.061800000000002</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>18.113800000000001</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>18.149799999999999</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>18.1858</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>18.214400000000001</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>18.235600000000002</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>18.218800000000002</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-234F-4F9A-B1B4-5301B9D68B1D}"/>
+              <c16:uniqueId val="{00000006-F6A6-478C-A1D3-719247FD03A2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2280,11 +3304,21 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
@@ -2294,10 +3328,70 @@
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="100"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
@@ -2312,24 +3406,123 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="10"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -2338,16 +3531,572 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="12325350" cy="6638925"/>
+    <xdr:ext cx="12211050" cy="6505575"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -2659,13 +4408,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E156"/>
+  <dimension ref="A1:H156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2681,8 +4430,17 @@
       <c r="E1" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2699,7 +4457,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2716,7 +4474,7 @@
         <v>20.05</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2733,7 +4491,7 @@
         <v>19.350000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2750,7 +4508,7 @@
         <v>18.95</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2767,7 +4525,7 @@
         <v>18.71</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2784,7 +4542,7 @@
         <v>18.579999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2801,7 +4559,7 @@
         <v>18.52</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2818,7 +4576,7 @@
         <v>18.329999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2835,7 +4593,7 @@
         <v>18.16</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2852,2469 +4610,3417 @@
         <v>18.010000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.73</v>
+        <v>21.76</v>
       </c>
       <c r="C12">
-        <v>20.27</v>
+        <v>20.329999999999998</v>
       </c>
       <c r="D12">
-        <v>20</v>
+        <v>20.02</v>
       </c>
       <c r="E12">
-        <v>18.010000000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17.899999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.93</v>
+        <v>21.78</v>
       </c>
       <c r="C13">
-        <v>20.36</v>
+        <v>20.309999999999999</v>
       </c>
       <c r="D13">
-        <v>20.02</v>
+        <v>20.03</v>
       </c>
       <c r="E13">
-        <v>17.68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17.88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.13</v>
+        <v>21.79</v>
       </c>
       <c r="C14">
         <v>20.38</v>
       </c>
       <c r="D14">
-        <v>20.05</v>
+        <v>20.010000000000002</v>
       </c>
       <c r="E14">
-        <v>17.45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17.829999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.09</v>
+        <v>21.8</v>
       </c>
       <c r="C15">
-        <v>20.51</v>
+        <v>20.49</v>
       </c>
       <c r="D15">
-        <v>20.03</v>
+        <v>19.97</v>
       </c>
       <c r="E15">
-        <v>17.37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17.739999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.06</v>
+        <v>21.8</v>
       </c>
       <c r="C16">
-        <v>20.69</v>
+        <v>20.58</v>
       </c>
       <c r="D16">
-        <v>19.989999999999998</v>
+        <v>19.97</v>
       </c>
       <c r="E16">
-        <v>17.260000000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17.66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.01</v>
+        <v>21.79</v>
       </c>
       <c r="C17">
-        <v>20.89</v>
+        <v>20.64</v>
       </c>
       <c r="D17">
-        <v>19.97</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="E17">
-        <v>17.13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17.579999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.95</v>
+        <v>21.74</v>
       </c>
       <c r="C18">
-        <v>21.05</v>
+        <v>20.68</v>
       </c>
       <c r="D18">
-        <v>20.02</v>
+        <v>19.98</v>
       </c>
       <c r="E18">
-        <v>16.98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17.61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.84</v>
+        <v>21.71</v>
       </c>
       <c r="C19">
-        <v>21.2</v>
+        <v>20.72</v>
       </c>
       <c r="D19">
-        <v>20</v>
+        <v>19.95</v>
       </c>
       <c r="E19">
-        <v>16.96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17.62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.77</v>
+        <v>21.8</v>
       </c>
       <c r="C20">
-        <v>21.22</v>
+        <v>20.75</v>
       </c>
       <c r="D20">
-        <v>19.97</v>
+        <v>19.88</v>
       </c>
       <c r="E20">
-        <v>17.04</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17.57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.91</v>
+        <v>21.82</v>
       </c>
       <c r="C21">
-        <v>21.25</v>
+        <v>20.83</v>
       </c>
       <c r="D21">
-        <v>19.79</v>
+        <v>19.82</v>
       </c>
       <c r="E21">
-        <v>17.04</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17.53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.91</v>
+        <v>21.84</v>
       </c>
       <c r="C22">
-        <v>21.4</v>
+        <v>20.9</v>
       </c>
       <c r="D22">
-        <v>19.63</v>
+        <v>19.78</v>
       </c>
       <c r="E22">
-        <v>17.059999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17.489999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.92</v>
+        <v>21.85</v>
       </c>
       <c r="C23">
-        <v>21.53</v>
+        <v>20.96</v>
       </c>
       <c r="D23">
-        <v>19.510000000000002</v>
+        <v>19.7</v>
       </c>
       <c r="E23">
-        <v>17.04</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17.48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.94</v>
+        <v>21.84</v>
       </c>
       <c r="C24">
-        <v>21.74</v>
+        <v>21.02</v>
       </c>
       <c r="D24">
-        <v>19.309999999999999</v>
+        <v>19.670000000000002</v>
       </c>
       <c r="E24">
-        <v>17.010000000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17.47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.92</v>
+        <v>21.83</v>
       </c>
       <c r="C25">
-        <v>21.85</v>
+        <v>21.25</v>
       </c>
       <c r="D25">
-        <v>19.23</v>
+        <v>19.47</v>
       </c>
       <c r="E25">
-        <v>17.010000000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17.45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>21.88</v>
+        <v>21.81</v>
       </c>
       <c r="C26">
-        <v>22.32</v>
+        <v>21.33</v>
       </c>
       <c r="D26">
-        <v>18.760000000000002</v>
+        <v>19.45</v>
       </c>
       <c r="E26">
-        <v>17.04</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17.41</v>
+      </c>
+      <c r="F26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>21.84</v>
+        <v>21.8</v>
       </c>
       <c r="C27">
-        <v>22.45</v>
+        <v>21.4</v>
       </c>
       <c r="D27">
-        <v>18.68</v>
+        <v>19.43</v>
       </c>
       <c r="E27">
-        <v>17.04</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17.38</v>
+      </c>
+      <c r="F27">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>21.82</v>
+        <v>21.78</v>
       </c>
       <c r="C28">
-        <v>22.61</v>
+        <v>20.95</v>
       </c>
       <c r="D28">
-        <v>18.53</v>
+        <v>19.420000000000002</v>
       </c>
       <c r="E28">
-        <v>17.059999999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17.91</v>
+      </c>
+      <c r="F28">
+        <v>19.533333333333331</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>21.84</v>
+        <v>21.75</v>
       </c>
       <c r="C29">
-        <v>21.4</v>
+        <v>20.52</v>
       </c>
       <c r="D29">
-        <v>18.46</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="E29">
-        <v>18.43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="F29">
+        <v>19.524999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>21.83</v>
+        <v>21.73</v>
       </c>
       <c r="C30">
-        <v>20.16</v>
+        <v>20.149999999999999</v>
       </c>
       <c r="D30">
-        <v>18.399999999999999</v>
+        <v>19.38</v>
       </c>
       <c r="E30">
-        <v>19.8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18.84</v>
+      </c>
+      <c r="F30">
+        <v>19.440000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>21.59</v>
+        <v>21.76</v>
       </c>
       <c r="C31">
-        <v>19.010000000000002</v>
+        <v>19.8</v>
       </c>
       <c r="D31">
-        <v>18.43</v>
+        <v>19.350000000000001</v>
       </c>
       <c r="E31">
-        <v>21.25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>19.21</v>
+      </c>
+      <c r="F31">
+        <v>19.383333333333329</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>21.64</v>
+        <v>21.78</v>
       </c>
       <c r="C32">
-        <v>17.73</v>
+        <v>19.489999999999998</v>
       </c>
       <c r="D32">
-        <v>18.43</v>
+        <v>19.309999999999999</v>
       </c>
       <c r="E32">
-        <v>22.57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>19.57</v>
+      </c>
+      <c r="F32">
+        <v>19.342857142857149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>21.65</v>
+        <v>21.77</v>
       </c>
       <c r="C33">
-        <v>16.52</v>
+        <v>19.170000000000002</v>
       </c>
       <c r="D33">
-        <v>18.350000000000001</v>
+        <v>19.28</v>
       </c>
       <c r="E33">
-        <v>23.95</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>19.97</v>
+      </c>
+      <c r="F33">
+        <v>19.287500000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>21.59</v>
+        <v>21.75</v>
       </c>
       <c r="C34">
-        <v>15.21</v>
+        <v>18.809999999999999</v>
       </c>
       <c r="D34">
-        <v>18.350000000000001</v>
+        <v>19.25</v>
       </c>
       <c r="E34">
-        <v>25.42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20.329999999999998</v>
+      </c>
+      <c r="F34">
+        <v>19.455555555555559</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>21.55</v>
+        <v>21.74</v>
       </c>
       <c r="C35">
-        <v>13.74</v>
+        <v>18.5</v>
       </c>
       <c r="D35">
-        <v>18.28</v>
+        <v>19.21</v>
       </c>
       <c r="E35">
-        <v>26.92</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20.67</v>
+      </c>
+      <c r="F35">
+        <v>19.579999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>21.52</v>
+        <v>21.74</v>
       </c>
       <c r="C36">
-        <v>11.89</v>
+        <v>18.2</v>
       </c>
       <c r="D36">
-        <v>18.61</v>
+        <v>19.18</v>
       </c>
       <c r="E36">
-        <v>28.39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20.99</v>
+      </c>
+      <c r="F36">
+        <v>19.68181818181818</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>21.54</v>
+        <v>21.7</v>
       </c>
       <c r="C37">
-        <v>10.38</v>
+        <v>17.920000000000002</v>
       </c>
       <c r="D37">
-        <v>18.5</v>
+        <v>19.079999999999998</v>
       </c>
       <c r="E37">
-        <v>29.93</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>21.39</v>
+      </c>
+      <c r="F37">
+        <v>19.766666666666669</v>
+      </c>
+      <c r="G37">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>21.43</v>
+        <v>21.66</v>
       </c>
       <c r="C38">
-        <v>8.86</v>
+        <v>17.64</v>
       </c>
       <c r="D38">
-        <v>18.149999999999999</v>
+        <v>18.98</v>
       </c>
       <c r="E38">
-        <v>31.82</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>21.78</v>
+      </c>
+      <c r="F38">
+        <v>19.838461538461541</v>
+      </c>
+      <c r="G38">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>21.36</v>
+        <v>21.63</v>
       </c>
       <c r="C39">
-        <v>8.69</v>
+        <v>17.37</v>
       </c>
       <c r="D39">
-        <v>17.8</v>
+        <v>18.89</v>
       </c>
       <c r="E39">
-        <v>32.22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22.13</v>
+      </c>
+      <c r="F39">
+        <v>19.885714285714279</v>
+      </c>
+      <c r="G39">
+        <v>20.366666666666671</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>21.29</v>
+        <v>21.6</v>
       </c>
       <c r="C40">
-        <v>8.5500000000000007</v>
+        <v>17.2</v>
       </c>
       <c r="D40">
-        <v>17.440000000000001</v>
+        <v>18.8</v>
       </c>
       <c r="E40">
-        <v>32.57</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22.38</v>
+      </c>
+      <c r="F40">
+        <v>19.91333333333333</v>
+      </c>
+      <c r="G40">
+        <v>20.55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>21.22</v>
+        <v>21.57</v>
       </c>
       <c r="C41">
-        <v>8.65</v>
+        <v>17.04</v>
       </c>
       <c r="D41">
-        <v>17.11</v>
+        <v>18.690000000000001</v>
       </c>
       <c r="E41">
-        <v>32.65</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22.67</v>
+      </c>
+      <c r="F41">
+        <v>19.9375</v>
+      </c>
+      <c r="G41">
+        <v>20.48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>20.99</v>
+        <v>21.54</v>
       </c>
       <c r="C42">
-        <v>8.75</v>
+        <v>16.87</v>
       </c>
       <c r="D42">
-        <v>16.71</v>
+        <v>18.52</v>
       </c>
       <c r="E42">
-        <v>33.049999999999997</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>23.21</v>
+      </c>
+      <c r="F42">
+        <v>19.95882352941177</v>
+      </c>
+      <c r="G42">
+        <v>19.141666666666669</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>20.8</v>
+        <v>21.51</v>
       </c>
       <c r="C43">
-        <v>8.7799999999999994</v>
+        <v>16.63</v>
       </c>
       <c r="D43">
-        <v>16.07</v>
+        <v>18.36</v>
       </c>
       <c r="E43">
-        <v>34.47</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>23.7</v>
+      </c>
+      <c r="F43">
+        <v>19.977777777777781</v>
+      </c>
+      <c r="G43">
+        <v>18.87857142857143</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>20.69</v>
+        <v>21.48</v>
       </c>
       <c r="C44">
-        <v>8.5</v>
+        <v>16.38</v>
       </c>
       <c r="D44">
-        <v>15.43</v>
+        <v>18.190000000000001</v>
       </c>
       <c r="E44">
-        <v>35.64</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>24.16</v>
+      </c>
+      <c r="F44">
+        <v>19.984210526315788</v>
+      </c>
+      <c r="G44">
+        <v>18.893750000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>20.57</v>
+        <v>21.45</v>
       </c>
       <c r="C45">
-        <v>8.33</v>
+        <v>16</v>
       </c>
       <c r="D45">
-        <v>14.72</v>
+        <v>17.98</v>
       </c>
       <c r="E45">
-        <v>36.799999999999997</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>24.61</v>
+      </c>
+      <c r="F45">
+        <v>19.97</v>
+      </c>
+      <c r="G45">
+        <v>19.888888888888889</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>20.45</v>
+        <v>21.42</v>
       </c>
       <c r="C46">
-        <v>7.52</v>
+        <v>15.65</v>
       </c>
       <c r="D46">
-        <v>13.76</v>
+        <v>17.77</v>
       </c>
       <c r="E46">
-        <v>38.01</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>25.03</v>
+      </c>
+      <c r="F46">
+        <v>19.976190476190471</v>
+      </c>
+      <c r="G46">
+        <v>20.664999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>20.3</v>
+        <v>21.37</v>
       </c>
       <c r="C47">
-        <v>6.72</v>
+        <v>15.74</v>
       </c>
       <c r="D47">
-        <v>12.83</v>
+        <v>17.510000000000002</v>
       </c>
       <c r="E47">
-        <v>39.19</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>25.52</v>
+      </c>
+      <c r="F47">
+        <v>19.981818181818181</v>
+      </c>
+      <c r="G47">
+        <v>21.234545454545451</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>20.21</v>
+        <v>21.33</v>
       </c>
       <c r="C48">
-        <v>7.92</v>
+        <v>15.83</v>
       </c>
       <c r="D48">
-        <v>11.88</v>
+        <v>17.260000000000002</v>
       </c>
       <c r="E48">
-        <v>40.39</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>25.99</v>
+      </c>
+      <c r="F48">
+        <v>19.978260869565219</v>
+      </c>
+      <c r="G48">
+        <v>21.759166666666669</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>20.100000000000001</v>
+        <v>21.28</v>
       </c>
       <c r="C49">
-        <v>9.16</v>
+        <v>15.92</v>
       </c>
       <c r="D49">
-        <v>10.92</v>
+        <v>17.03</v>
       </c>
       <c r="E49">
-        <v>41.55</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26.43</v>
+      </c>
+      <c r="F49">
+        <v>19.995833333333341</v>
+      </c>
+      <c r="G49">
+        <v>22.203076923076921</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>19.97</v>
+        <v>21.24</v>
       </c>
       <c r="C50">
-        <v>10.38</v>
+        <v>15.99</v>
       </c>
       <c r="D50">
-        <v>9.9600000000000009</v>
+        <v>16.8</v>
       </c>
       <c r="E50">
-        <v>42.78</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26.83</v>
+      </c>
+      <c r="F50">
+        <v>20.004000000000001</v>
+      </c>
+      <c r="G50">
+        <v>22.690714285714289</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>19.84</v>
+        <v>21.2</v>
       </c>
       <c r="C51">
-        <v>11.27</v>
+        <v>16.07</v>
       </c>
       <c r="D51">
-        <v>9</v>
+        <v>16.579999999999998</v>
       </c>
       <c r="E51">
-        <v>44.2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27.22</v>
+      </c>
+      <c r="F51">
+        <v>20.007692307692309</v>
+      </c>
+      <c r="G51">
+        <v>23.11333333333334</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>19.71</v>
+        <v>21.2</v>
       </c>
       <c r="C52">
-        <v>12.2</v>
+        <v>16.07</v>
       </c>
       <c r="D52">
-        <v>8.1300000000000008</v>
+        <v>16.579999999999998</v>
       </c>
       <c r="E52">
-        <v>45.41</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27.22</v>
+      </c>
+      <c r="F52">
+        <v>20.011111111111109</v>
+      </c>
+      <c r="G52">
+        <v>23.433125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>19.579999999999998</v>
+        <v>21.18</v>
       </c>
       <c r="C53">
-        <v>13.13</v>
+        <v>16.059999999999999</v>
       </c>
       <c r="D53">
-        <v>7.71</v>
+        <v>16.329999999999998</v>
       </c>
       <c r="E53">
-        <v>45.47</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27.72</v>
+      </c>
+      <c r="F53">
+        <v>20.014285714285709</v>
+      </c>
+      <c r="G53">
+        <v>23.821176470588242</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>19.45</v>
+        <v>21.16</v>
       </c>
       <c r="C54">
-        <v>14.37</v>
+        <v>16.04</v>
       </c>
       <c r="D54">
-        <v>7.29</v>
+        <v>16.079999999999998</v>
       </c>
       <c r="E54">
-        <v>45.53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28.21</v>
+      </c>
+      <c r="F54">
+        <v>19.989655172413791</v>
+      </c>
+      <c r="G54">
+        <v>24.766111111111119</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>19.329999999999998</v>
+        <v>21.09</v>
       </c>
       <c r="C55">
-        <v>15.68</v>
+        <v>16.02</v>
       </c>
       <c r="D55">
-        <v>6.84</v>
+        <v>15.82</v>
       </c>
       <c r="E55">
-        <v>44.68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28.56</v>
+      </c>
+      <c r="F55">
+        <v>19.96</v>
+      </c>
+      <c r="G55">
+        <v>25.54315789473684</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>19.21</v>
+        <v>21.02</v>
       </c>
       <c r="C56">
-        <v>17.87</v>
+        <v>16.059999999999999</v>
       </c>
       <c r="D56">
-        <v>6.65</v>
+        <v>15.55</v>
       </c>
       <c r="E56">
-        <v>43.7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28.88</v>
+      </c>
+      <c r="F56">
+        <v>19.9258064516129</v>
+      </c>
+      <c r="G56">
+        <v>26.375</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>19.079999999999998</v>
+        <v>20.95</v>
       </c>
       <c r="C57">
-        <v>20.059999999999999</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="D57">
-        <v>6.45</v>
+        <v>15.28</v>
       </c>
       <c r="E57">
-        <v>42.51</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29.16</v>
+      </c>
+      <c r="F57">
+        <v>19.948125000000001</v>
+      </c>
+      <c r="G57">
+        <v>27.127619047619049</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>18.87</v>
+        <v>20.85</v>
       </c>
       <c r="C58">
-        <v>20.23</v>
+        <v>16.14</v>
       </c>
       <c r="D58">
-        <v>6.51</v>
+        <v>15.02</v>
       </c>
       <c r="E58">
-        <v>40.909999999999997</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29.43</v>
+      </c>
+      <c r="F58">
+        <v>19.956969696969701</v>
+      </c>
+      <c r="G58">
+        <v>27.802727272727271</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>18.649999999999999</v>
+        <v>20.76</v>
       </c>
       <c r="C59">
-        <v>20.48</v>
+        <v>16.190000000000001</v>
       </c>
       <c r="D59">
-        <v>6.59</v>
+        <v>14.75</v>
       </c>
       <c r="E59">
-        <v>39.33</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29.7</v>
+      </c>
+      <c r="F59">
+        <v>19.95941176470588</v>
+      </c>
+      <c r="G59">
+        <v>28.397391304347831</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>18.46</v>
+        <v>20.66</v>
       </c>
       <c r="C60">
-        <v>20.75</v>
+        <v>16.21</v>
       </c>
       <c r="D60">
-        <v>6.74</v>
+        <v>14.5</v>
       </c>
       <c r="E60">
-        <v>37.75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29.99</v>
+      </c>
+      <c r="F60">
+        <v>19.96171428571428</v>
+      </c>
+      <c r="G60">
+        <v>28.94250000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>18.27</v>
+        <v>20.57</v>
       </c>
       <c r="C61">
-        <v>21.04</v>
+        <v>16.25</v>
       </c>
       <c r="D61">
-        <v>6.88</v>
+        <v>14.24</v>
       </c>
       <c r="E61">
-        <v>36.270000000000003</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30.28</v>
+      </c>
+      <c r="F61">
+        <v>19.963888888888889</v>
+      </c>
+      <c r="G61">
+        <v>29.931999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>18.07</v>
+        <v>20.46</v>
       </c>
       <c r="C62">
-        <v>20.96</v>
+        <v>16.21</v>
       </c>
       <c r="D62">
-        <v>7.02</v>
+        <v>13.98</v>
       </c>
       <c r="E62">
-        <v>33.96</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30.41</v>
+      </c>
+      <c r="F62">
+        <v>19.960540540540539</v>
+      </c>
+      <c r="G62">
+        <v>30.84538461538461</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>17.86</v>
+        <v>20.36</v>
       </c>
       <c r="C63">
-        <v>20.9</v>
+        <v>16.170000000000002</v>
       </c>
       <c r="D63">
-        <v>6.98</v>
+        <v>13.72</v>
       </c>
       <c r="E63">
-        <v>31.76</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30.54</v>
+      </c>
+      <c r="F63">
+        <v>19.936315789473689</v>
+      </c>
+      <c r="G63">
+        <v>31.728148148148151</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>17.64</v>
+        <v>20.260000000000002</v>
       </c>
       <c r="C64">
-        <v>20.9</v>
+        <v>16.149999999999999</v>
       </c>
       <c r="D64">
-        <v>6.96</v>
+        <v>13.47</v>
       </c>
       <c r="E64">
-        <v>29.63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30.65</v>
+      </c>
+      <c r="F64">
+        <v>19.913333333333341</v>
+      </c>
+      <c r="G64">
+        <v>32.551428571428573</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>17.43</v>
+        <v>20.16</v>
       </c>
       <c r="C65">
-        <v>20.89</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="D65">
-        <v>7.02</v>
+        <v>13.22</v>
       </c>
       <c r="E65">
-        <v>28.43</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30.77</v>
+      </c>
+      <c r="F65">
+        <v>19.871500000000001</v>
+      </c>
+      <c r="G65">
+        <v>33.380000000000003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66">
-        <v>17.23</v>
+        <v>20.059999999999999</v>
       </c>
       <c r="C66">
-        <v>20.5</v>
+        <v>16.02</v>
       </c>
       <c r="D66">
-        <v>7.06</v>
+        <v>12.97</v>
       </c>
       <c r="E66">
-        <v>27.35</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30.9</v>
+      </c>
+      <c r="F66">
+        <v>19.831707317073171</v>
+      </c>
+      <c r="G66">
+        <v>34.11333333333333</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>17.05</v>
+        <v>19.96</v>
       </c>
       <c r="C67">
-        <v>20.11</v>
+        <v>15.94</v>
       </c>
       <c r="D67">
-        <v>7.09</v>
+        <v>12.71</v>
       </c>
       <c r="E67">
-        <v>26.64</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31.06</v>
+      </c>
+      <c r="F67">
+        <v>19.793809523809529</v>
+      </c>
+      <c r="G67">
+        <v>34.799354838709682</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>17</v>
+        <v>19.86</v>
       </c>
       <c r="C68">
-        <v>19.77</v>
+        <v>15.88</v>
       </c>
       <c r="D68">
-        <v>7.12</v>
+        <v>12.44</v>
       </c>
       <c r="E68">
-        <v>25.92</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31.22</v>
+      </c>
+      <c r="F68">
+        <v>19.75302325581395</v>
+      </c>
+      <c r="G68">
+        <v>35.451874999999987</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69">
-        <v>16.940000000000001</v>
+        <v>19.78</v>
       </c>
       <c r="C69">
-        <v>19.350000000000001</v>
+        <v>15.82</v>
       </c>
       <c r="D69">
-        <v>7.15</v>
+        <v>12.18</v>
       </c>
       <c r="E69">
-        <v>25.2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31.35</v>
+      </c>
+      <c r="F69">
+        <v>19.711818181818181</v>
+      </c>
+      <c r="G69">
+        <v>36.086060606060592</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70">
-        <v>16.88</v>
+        <v>19.690000000000001</v>
       </c>
       <c r="C70">
-        <v>18.87</v>
+        <v>15.74</v>
       </c>
       <c r="D70">
-        <v>7.11</v>
+        <v>11.93</v>
       </c>
       <c r="E70">
-        <v>24.5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31.48</v>
+      </c>
+      <c r="F70">
+        <v>19.756888888888891</v>
+      </c>
+      <c r="G70">
+        <v>36.677058823529407</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71">
-        <v>16.82</v>
+        <v>19.55</v>
       </c>
       <c r="C71">
-        <v>18.37</v>
+        <v>15.67</v>
       </c>
       <c r="D71">
-        <v>7.08</v>
+        <v>11.7</v>
       </c>
       <c r="E71">
-        <v>23.45</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31.56</v>
+      </c>
+      <c r="F71">
+        <v>19.782608695652179</v>
+      </c>
+      <c r="G71">
+        <v>37.245714285714278</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72">
-        <v>16.78</v>
+        <v>19.440000000000001</v>
       </c>
       <c r="C72">
-        <v>18.21</v>
+        <v>15.57</v>
       </c>
       <c r="D72">
-        <v>7.09</v>
+        <v>11.47</v>
       </c>
       <c r="E72">
-        <v>23.26</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31.65</v>
+      </c>
+      <c r="F72">
+        <v>19.802978723404259</v>
+      </c>
+      <c r="G72">
+        <v>37.749444444444443</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73">
-        <v>16.75</v>
+        <v>19.329999999999998</v>
       </c>
       <c r="C73">
-        <v>18.350000000000001</v>
+        <v>15.54</v>
       </c>
       <c r="D73">
-        <v>6.96</v>
+        <v>11.21</v>
       </c>
       <c r="E73">
-        <v>23.02</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31.73</v>
+      </c>
+      <c r="F73">
+        <v>19.87875</v>
+      </c>
+      <c r="G73">
+        <v>38.225945945945938</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74">
-        <v>16.64</v>
+        <v>19.2</v>
       </c>
       <c r="C74">
-        <v>18.510000000000002</v>
+        <v>15.5</v>
       </c>
       <c r="D74">
-        <v>6.83</v>
+        <v>10.97</v>
       </c>
       <c r="E74">
-        <v>22.6</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31.76</v>
+      </c>
+      <c r="F74">
+        <v>19.94734693877551</v>
+      </c>
+      <c r="G74">
+        <v>38.67736842105262</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75">
-        <v>16.510000000000002</v>
+        <v>19.079999999999998</v>
       </c>
       <c r="C75">
-        <v>18.68</v>
+        <v>15.46</v>
       </c>
       <c r="D75">
-        <v>6.68</v>
+        <v>10.71</v>
       </c>
       <c r="E75">
-        <v>22.22</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31.81</v>
+      </c>
+      <c r="F75">
+        <v>20.011199999999999</v>
+      </c>
+      <c r="G75">
+        <v>39.117179487179477</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76">
-        <v>16.39</v>
+        <v>18.96</v>
       </c>
       <c r="C76">
-        <v>18.850000000000001</v>
+        <v>15.33</v>
       </c>
       <c r="D76">
-        <v>6.6</v>
+        <v>10.53</v>
       </c>
       <c r="E76">
-        <v>21.84</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31.86</v>
+      </c>
+      <c r="F76">
+        <v>20.011199999999999</v>
+      </c>
+      <c r="G76">
+        <v>39.514999999999993</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77">
-        <v>16.260000000000002</v>
+        <v>18.850000000000001</v>
       </c>
       <c r="C77">
-        <v>18.43</v>
+        <v>15.14</v>
       </c>
       <c r="D77">
-        <v>7.29</v>
+        <v>10.43</v>
       </c>
       <c r="E77">
-        <v>21.26</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31.9</v>
+      </c>
+      <c r="F77">
+        <v>20.07</v>
+      </c>
+      <c r="G77">
+        <v>39.888536585365841</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78">
-        <v>16.16</v>
+        <v>18.73</v>
       </c>
       <c r="C78">
-        <v>17.920000000000002</v>
+        <v>14.94</v>
       </c>
       <c r="D78">
-        <v>7.96</v>
+        <v>10.32</v>
       </c>
       <c r="E78">
-        <v>20.66</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31.94</v>
+      </c>
+      <c r="F78">
+        <v>20.157800000000009</v>
+      </c>
+      <c r="G78">
+        <v>40.244285714285702</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79">
-        <v>16.37</v>
+        <v>18.68</v>
       </c>
       <c r="C79">
-        <v>17.350000000000001</v>
+        <v>15.01</v>
       </c>
       <c r="D79">
-        <v>8.6300000000000008</v>
+        <v>10.220000000000001</v>
       </c>
       <c r="E79">
-        <v>19.829999999999998</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31.63</v>
+      </c>
+      <c r="F79">
+        <v>20.26560000000001</v>
+      </c>
+      <c r="G79">
+        <v>40.606744186046512</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80">
-        <v>16.55</v>
+        <v>18.63</v>
       </c>
       <c r="C80">
-        <v>16.850000000000001</v>
+        <v>15.08</v>
       </c>
       <c r="D80">
-        <v>9.3000000000000007</v>
+        <v>10.11</v>
       </c>
       <c r="E80">
-        <v>18.920000000000002</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31.3</v>
+      </c>
+      <c r="F80">
+        <v>20.359400000000001</v>
+      </c>
+      <c r="G80">
+        <v>40.952727272727273</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81">
-        <v>16.739999999999998</v>
+        <v>18.579999999999998</v>
       </c>
       <c r="C81">
-        <v>16.36</v>
+        <v>15.14</v>
       </c>
       <c r="D81">
-        <v>9.9600000000000009</v>
+        <v>10.01</v>
       </c>
       <c r="E81">
-        <v>18.350000000000001</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30.98</v>
+      </c>
+      <c r="F81">
+        <v>20.463200000000011</v>
+      </c>
+      <c r="G81">
+        <v>41.31666666666667</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82">
-        <v>16.91</v>
+        <v>18.489999999999998</v>
       </c>
       <c r="C82">
-        <v>15.87</v>
+        <v>15.2</v>
       </c>
       <c r="D82">
-        <v>10.46</v>
+        <v>9.8800000000000008</v>
       </c>
       <c r="E82">
-        <v>17.75</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30.69</v>
+      </c>
+      <c r="F82">
+        <v>20.565000000000001</v>
+      </c>
+      <c r="G82">
+        <v>41.660434782608696</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83">
-        <v>17.09</v>
+        <v>18.420000000000002</v>
       </c>
       <c r="C83">
-        <v>15.08</v>
+        <v>15.25</v>
       </c>
       <c r="D83">
-        <v>11.08</v>
+        <v>9.76</v>
       </c>
       <c r="E83">
-        <v>17.18</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30.38</v>
+      </c>
+      <c r="F83">
+        <v>20.674800000000001</v>
+      </c>
+      <c r="G83">
+        <v>42.006595744680851</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84">
-        <v>17.36</v>
+        <v>18.350000000000001</v>
       </c>
       <c r="C84">
-        <v>14.26</v>
+        <v>15.31</v>
       </c>
       <c r="D84">
-        <v>11.69</v>
+        <v>9.64</v>
       </c>
       <c r="E84">
-        <v>16.77</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30.03</v>
+      </c>
+      <c r="F84">
+        <v>20.784600000000001</v>
+      </c>
+      <c r="G84">
+        <v>42.338333333333331</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85">
-        <v>17.670000000000002</v>
+        <v>18.3</v>
       </c>
       <c r="C85">
-        <v>13.45</v>
+        <v>15.41</v>
       </c>
       <c r="D85">
-        <v>12.3</v>
+        <v>9.51</v>
       </c>
       <c r="E85">
-        <v>16.29</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29.68</v>
+      </c>
+      <c r="F85">
+        <v>20.856400000000001</v>
+      </c>
+      <c r="G85">
+        <v>42.925714285714292</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86">
-        <v>17.98</v>
+        <v>18.25</v>
       </c>
       <c r="C86">
-        <v>11.48</v>
+        <v>15.24</v>
       </c>
       <c r="D86">
-        <v>12.87</v>
+        <v>9.39</v>
       </c>
       <c r="E86">
-        <v>15.76</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29.33</v>
+      </c>
+      <c r="F86">
+        <v>20.926200000000001</v>
+      </c>
+      <c r="G86">
+        <v>43.495600000000003</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87">
-        <v>18.29</v>
+        <v>18.190000000000001</v>
       </c>
       <c r="C87">
-        <v>10.09</v>
+        <v>15.08</v>
       </c>
       <c r="D87">
-        <v>12.67</v>
+        <v>9.26</v>
       </c>
       <c r="E87">
-        <v>15.28</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28.98</v>
+      </c>
+      <c r="F87">
+        <v>20.994</v>
+      </c>
+      <c r="G87">
+        <v>43.495600000000003</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88">
-        <v>18.59</v>
+        <v>18.16</v>
       </c>
       <c r="C88">
-        <v>8.77</v>
+        <v>14.92</v>
       </c>
       <c r="D88">
-        <v>12.49</v>
+        <v>9.19</v>
       </c>
       <c r="E88">
-        <v>14.81</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28.54</v>
+      </c>
+      <c r="F88">
+        <v>21.061800000000002</v>
+      </c>
+      <c r="G88">
+        <v>44.527999999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89">
-        <v>18.57</v>
+        <v>18.12</v>
       </c>
       <c r="C89">
-        <v>9.51</v>
+        <v>15.17</v>
       </c>
       <c r="D89">
-        <v>12.31</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="E89">
-        <v>14.49</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28.08</v>
+      </c>
+      <c r="F89">
+        <v>21.125599999999999</v>
+      </c>
+      <c r="G89">
+        <v>45.584400000000016</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90">
-        <v>18.559999999999999</v>
+        <v>18.09</v>
       </c>
       <c r="C90">
-        <v>10.25</v>
+        <v>15.42</v>
       </c>
       <c r="D90">
-        <v>12.1</v>
+        <v>9.0399999999999991</v>
       </c>
       <c r="E90">
-        <v>14.32</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27.65</v>
+      </c>
+      <c r="F90">
+        <v>21.189399999999999</v>
+      </c>
+      <c r="G90">
+        <v>46.618800000000029</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91">
-        <v>18.54</v>
+        <v>18.04</v>
       </c>
       <c r="C91">
-        <v>10.97</v>
+        <v>15.6</v>
       </c>
       <c r="D91">
-        <v>11.9</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="E91">
-        <v>14.2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27.29</v>
+      </c>
+      <c r="F91">
+        <v>21.2532</v>
+      </c>
+      <c r="G91">
+        <v>47.653200000000027</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92">
-        <v>18.52</v>
+        <v>18</v>
       </c>
       <c r="C92">
-        <v>11.29</v>
+        <v>15.71</v>
       </c>
       <c r="D92">
-        <v>11.82</v>
+        <v>8.9</v>
       </c>
       <c r="E92">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26.88</v>
+      </c>
+      <c r="F92">
+        <v>21.312999999999999</v>
+      </c>
+      <c r="G92">
+        <v>48.809600000000039</v>
+      </c>
+      <c r="H92">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93">
-        <v>18.48</v>
+        <v>17.95</v>
       </c>
       <c r="C93">
-        <v>11.6</v>
+        <v>15.81</v>
       </c>
       <c r="D93">
-        <v>11.74</v>
+        <v>8.9</v>
       </c>
       <c r="E93">
-        <v>13.68</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26.22</v>
+      </c>
+      <c r="F93">
+        <v>21.3688</v>
+      </c>
+      <c r="G93">
+        <v>50.157000000000018</v>
+      </c>
+      <c r="H93">
+        <v>9.7149999999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94">
-        <v>18.38</v>
+        <v>17.89</v>
       </c>
       <c r="C94">
-        <v>11.95</v>
+        <v>16</v>
       </c>
       <c r="D94">
-        <v>11.53</v>
+        <v>8.86</v>
       </c>
       <c r="E94">
-        <v>13.64</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+        <v>25.63</v>
+      </c>
+      <c r="F94">
+        <v>21.424599999999991</v>
+      </c>
+      <c r="G94">
+        <v>51.407400000000017</v>
+      </c>
+      <c r="H94">
+        <v>9.6199999999999992</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95">
-        <v>18.190000000000001</v>
+        <v>17.829999999999998</v>
       </c>
       <c r="C95">
-        <v>12.3</v>
+        <v>16.2</v>
       </c>
       <c r="D95">
-        <v>11.35</v>
+        <v>8.84</v>
       </c>
       <c r="E95">
-        <v>13.67</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+        <v>25.06</v>
+      </c>
+      <c r="F95">
+        <v>21.484400000000001</v>
+      </c>
+      <c r="G95">
+        <v>52.623800000000017</v>
+      </c>
+      <c r="H95">
+        <v>7.2149999999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96">
-        <v>19.100000000000001</v>
+        <v>17.98</v>
       </c>
       <c r="C96">
-        <v>13.88</v>
+        <v>16.52</v>
       </c>
       <c r="D96">
-        <v>11.16</v>
+        <v>8.8699999999999992</v>
       </c>
       <c r="E96">
-        <v>13.76</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+        <v>24.48</v>
+      </c>
+      <c r="F96">
+        <v>21.536200000000001</v>
+      </c>
+      <c r="G96">
+        <v>53.663200000000003</v>
+      </c>
+      <c r="H96">
+        <v>9.7720000000000002</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97">
-        <v>20.02</v>
+        <v>18.14</v>
       </c>
       <c r="C97">
-        <v>15.61</v>
+        <v>16.86</v>
       </c>
       <c r="D97">
-        <v>10.97</v>
+        <v>8.89</v>
       </c>
       <c r="E97">
-        <v>13.79</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+        <v>23.9</v>
+      </c>
+      <c r="F97">
+        <v>21.577999999999999</v>
+      </c>
+      <c r="G97">
+        <v>54.678600000000003</v>
+      </c>
+      <c r="H97">
+        <v>11.34333333333333</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98">
-        <v>20.93</v>
+        <v>18.309999999999999</v>
       </c>
       <c r="C98">
-        <v>17.329999999999998</v>
+        <v>16.809999999999999</v>
       </c>
       <c r="D98">
-        <v>10.79</v>
+        <v>8.9700000000000006</v>
       </c>
       <c r="E98">
-        <v>13.52</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+        <v>23.16</v>
+      </c>
+      <c r="F98">
+        <v>21.619800000000009</v>
+      </c>
+      <c r="G98">
+        <v>55.792400000000008</v>
+      </c>
+      <c r="H98">
+        <v>12.437142857142859</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99">
-        <v>21.87</v>
+        <v>18.48</v>
       </c>
       <c r="C99">
-        <v>17.05</v>
+        <v>16.75</v>
       </c>
       <c r="D99">
-        <v>10.6</v>
+        <v>9.06</v>
       </c>
       <c r="E99">
-        <v>14.14</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22.6</v>
+      </c>
+      <c r="F99">
+        <v>21.6616</v>
+      </c>
+      <c r="G99">
+        <v>56.738200000000013</v>
+      </c>
+      <c r="H99">
+        <v>13.2575</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100">
-        <v>22.82</v>
+        <v>18.649999999999999</v>
       </c>
       <c r="C100">
-        <v>17.16</v>
+        <v>16.78</v>
       </c>
       <c r="D100">
-        <v>10.42</v>
+        <v>9.1300000000000008</v>
       </c>
       <c r="E100">
-        <v>14.33</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+        <v>21.96</v>
+      </c>
+      <c r="F100">
+        <v>21.6934</v>
+      </c>
+      <c r="G100">
+        <v>57.682000000000002</v>
+      </c>
+      <c r="H100">
+        <v>13.895555555555561</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101">
-        <v>23.78</v>
+        <v>18.829999999999998</v>
       </c>
       <c r="C101">
-        <v>17.260000000000002</v>
+        <v>16.8</v>
       </c>
       <c r="D101">
-        <v>10.220000000000001</v>
+        <v>9.2100000000000009</v>
       </c>
       <c r="E101">
-        <v>14.53</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+        <v>21.36</v>
+      </c>
+      <c r="F101">
+        <v>21.729199999999999</v>
+      </c>
+      <c r="G101">
+        <v>58.595799999999997</v>
+      </c>
+      <c r="H101">
+        <v>14.406000000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102">
-        <v>24.73</v>
+        <v>19</v>
       </c>
       <c r="C102">
-        <v>17.79</v>
+        <v>16.82</v>
       </c>
       <c r="D102">
-        <v>10.029999999999999</v>
+        <v>9.2799999999999994</v>
       </c>
       <c r="E102">
-        <v>14.81</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20.76</v>
+      </c>
+      <c r="F102">
+        <v>21.766999999999999</v>
+      </c>
+      <c r="G102">
+        <v>59.509599999999992</v>
+      </c>
+      <c r="H102">
+        <v>14.80545454545455</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103">
-        <v>25.68</v>
+        <v>19.170000000000002</v>
       </c>
       <c r="C103">
-        <v>18.2</v>
+        <v>16.829999999999998</v>
       </c>
       <c r="D103">
-        <v>9.85</v>
+        <v>9.32</v>
       </c>
       <c r="E103">
-        <v>15.38</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20.2</v>
+      </c>
+      <c r="F103">
+        <v>21.800799999999999</v>
+      </c>
+      <c r="G103">
+        <v>60.439399999999978</v>
+      </c>
+      <c r="H103">
+        <v>15.12166666666667</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104">
-        <v>28.24</v>
+        <v>19.649999999999999</v>
       </c>
       <c r="C104">
-        <v>17.28</v>
+        <v>16.579999999999998</v>
       </c>
       <c r="D104">
-        <v>9.73</v>
+        <v>9.35</v>
       </c>
       <c r="E104">
-        <v>15.62</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+        <v>19.649999999999999</v>
+      </c>
+      <c r="F104">
+        <v>21.8306</v>
+      </c>
+      <c r="G104">
+        <v>61.333199999999977</v>
+      </c>
+      <c r="H104">
+        <v>15.373846153846159</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105">
-        <v>30.85</v>
+        <v>20.13</v>
       </c>
       <c r="C105">
-        <v>16.34</v>
+        <v>16.329999999999998</v>
       </c>
       <c r="D105">
-        <v>9.61</v>
+        <v>9.39</v>
       </c>
       <c r="E105">
-        <v>15.79</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+        <v>19.28</v>
+      </c>
+      <c r="F105">
+        <v>21.8764</v>
+      </c>
+      <c r="G105">
+        <v>62.016999999999989</v>
+      </c>
+      <c r="H105">
+        <v>15.582857142857151</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106">
-        <v>31.72</v>
+        <v>20.48</v>
       </c>
       <c r="C106">
-        <v>15.35</v>
+        <v>16.010000000000002</v>
       </c>
       <c r="D106">
-        <v>9.49</v>
+        <v>9.43</v>
       </c>
       <c r="E106">
-        <v>15.96</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18.940000000000001</v>
+      </c>
+      <c r="F106">
+        <v>21.926200000000009</v>
+      </c>
+      <c r="G106">
+        <v>62.867599999999982</v>
+      </c>
+      <c r="H106">
+        <v>15.726000000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107">
-        <v>32.54</v>
+        <v>20.83</v>
       </c>
       <c r="C107">
-        <v>14.21</v>
+        <v>15.69</v>
       </c>
       <c r="D107">
-        <v>9.35</v>
+        <v>9.4700000000000006</v>
       </c>
       <c r="E107">
-        <v>16.22</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18.64</v>
+      </c>
+      <c r="F107">
+        <v>21.980000000000011</v>
+      </c>
+      <c r="G107">
+        <v>63.691999999999993</v>
+      </c>
+      <c r="H107">
+        <v>15.838749999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108">
-        <v>33.35</v>
+        <v>21.21</v>
       </c>
       <c r="C108">
-        <v>12.99</v>
+        <v>15.36</v>
       </c>
       <c r="D108">
-        <v>9.1999999999999993</v>
+        <v>9.51</v>
       </c>
       <c r="E108">
-        <v>16.73</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18.329999999999998</v>
+      </c>
+      <c r="F108">
+        <v>21.97900000000001</v>
+      </c>
+      <c r="G108">
+        <v>64.574399999999983</v>
+      </c>
+      <c r="H108">
+        <v>15.93823529411765</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109">
-        <v>34.090000000000003</v>
+        <v>21.57</v>
       </c>
       <c r="C109">
-        <v>11.78</v>
+        <v>15.01</v>
       </c>
       <c r="D109">
-        <v>9.0500000000000007</v>
+        <v>9.5500000000000007</v>
       </c>
       <c r="E109">
-        <v>16.329999999999998</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="F109">
+        <v>21.986000000000001</v>
+      </c>
+      <c r="G109">
+        <v>65.492799999999988</v>
+      </c>
+      <c r="H109">
+        <v>16.015555555555551</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110">
-        <v>34.82</v>
+        <v>21.93</v>
       </c>
       <c r="C110">
-        <v>10.18</v>
+        <v>14.66</v>
       </c>
       <c r="D110">
-        <v>8.92</v>
+        <v>9.57</v>
       </c>
       <c r="E110">
-        <v>16.350000000000001</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17.68</v>
+      </c>
+      <c r="F110">
+        <v>21.993000000000009</v>
+      </c>
+      <c r="G110">
+        <v>66.421199999999985</v>
+      </c>
+      <c r="H110">
+        <v>16.074210526315792</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111">
-        <v>35.54</v>
+        <v>22.28</v>
       </c>
       <c r="C111">
-        <v>8.8699999999999992</v>
+        <v>14.36</v>
       </c>
       <c r="D111">
-        <v>8.81</v>
+        <v>9.59</v>
       </c>
       <c r="E111">
-        <v>16.23</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17.350000000000001</v>
+      </c>
+      <c r="F111">
+        <v>21.984000000000009</v>
+      </c>
+      <c r="G111">
+        <v>67.33359999999999</v>
+      </c>
+      <c r="H111">
+        <v>15.2705</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112">
-        <v>36.29</v>
+        <v>22.65</v>
       </c>
       <c r="C112">
-        <v>7.52</v>
+        <v>14.13</v>
       </c>
       <c r="D112">
-        <v>8.6999999999999993</v>
+        <v>9.6199999999999992</v>
       </c>
       <c r="E112">
-        <v>16.059999999999999</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17.18</v>
+      </c>
+      <c r="F112">
+        <v>21.87</v>
+      </c>
+      <c r="G112">
+        <v>68.463599999999985</v>
+      </c>
+      <c r="H112">
+        <v>14.543333333333329</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113">
-        <v>37.049999999999997</v>
+        <v>23.01</v>
       </c>
       <c r="C113">
-        <v>6.28</v>
+        <v>13.9</v>
       </c>
       <c r="D113">
-        <v>8.59</v>
+        <v>9.64</v>
       </c>
       <c r="E113">
-        <v>15.47</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16.95</v>
+      </c>
+      <c r="F113">
+        <v>21.81600000000001</v>
+      </c>
+      <c r="G113">
+        <v>69.58959999999999</v>
+      </c>
+      <c r="H113">
+        <v>14.79136363636364</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114">
-        <v>35.950000000000003</v>
+        <v>23.31</v>
       </c>
       <c r="C114">
-        <v>6.39</v>
+        <v>13.68</v>
       </c>
       <c r="D114">
-        <v>8.5399999999999991</v>
+        <v>9.67</v>
       </c>
       <c r="E114">
-        <v>15.36</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16.8</v>
+      </c>
+      <c r="F114">
+        <v>21.778000000000009</v>
+      </c>
+      <c r="G114">
+        <v>70.68119999999999</v>
+      </c>
+      <c r="H114">
+        <v>15.01782608695652</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115">
-        <v>34.86</v>
+        <v>23.62</v>
       </c>
       <c r="C115">
-        <v>6.46</v>
+        <v>13.45</v>
       </c>
       <c r="D115">
-        <v>8.48</v>
+        <v>9.68</v>
       </c>
       <c r="E115">
-        <v>15.08</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16.61</v>
+      </c>
+      <c r="F115">
+        <v>21.78400000000001</v>
+      </c>
+      <c r="G115">
+        <v>71.770799999999994</v>
+      </c>
+      <c r="H115">
+        <v>14.884166666666671</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116">
-        <v>34.39</v>
+        <v>23.92</v>
       </c>
       <c r="C116">
-        <v>6.59</v>
+        <v>13.23</v>
       </c>
       <c r="D116">
-        <v>10.1</v>
+        <v>10.039999999999999</v>
       </c>
       <c r="E116">
-        <v>14.78</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16.420000000000002</v>
+      </c>
+      <c r="F116">
+        <v>21.64220000000001</v>
+      </c>
+      <c r="G116">
+        <v>72.824399999999997</v>
+      </c>
+      <c r="H116">
+        <v>14.7532</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117">
-        <v>33.96</v>
+        <v>24.21</v>
       </c>
       <c r="C117">
-        <v>6.7</v>
+        <v>13.01</v>
       </c>
       <c r="D117">
-        <v>12.37</v>
+        <v>10.53</v>
       </c>
       <c r="E117">
-        <v>14.19</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16.149999999999999</v>
+      </c>
+      <c r="F117">
+        <v>21.44240000000001</v>
+      </c>
+      <c r="G117">
+        <v>73.902000000000001</v>
+      </c>
+      <c r="H117">
+        <v>14.624615384615391</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118">
-        <v>33.53</v>
+        <v>24.51</v>
       </c>
       <c r="C118">
-        <v>6.87</v>
+        <v>12.78</v>
       </c>
       <c r="D118">
-        <v>14.62</v>
+        <v>11.01</v>
       </c>
       <c r="E118">
-        <v>13.66</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15.87</v>
+      </c>
+      <c r="F118">
+        <v>21.258600000000008</v>
+      </c>
+      <c r="G118">
+        <v>74.979600000000005</v>
+      </c>
+      <c r="H118">
+        <v>14.473333333333329</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119">
-        <v>32.700000000000003</v>
+        <v>24.72</v>
       </c>
       <c r="C119">
-        <v>6.95</v>
+        <v>12.53</v>
       </c>
       <c r="D119">
-        <v>18.600000000000001</v>
+        <v>11.84</v>
       </c>
       <c r="E119">
-        <v>12.14</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15.39</v>
+      </c>
+      <c r="F119">
+        <v>21.078800000000012</v>
+      </c>
+      <c r="G119">
+        <v>76.051200000000023</v>
+      </c>
+      <c r="H119">
+        <v>14.32928571428571</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120">
-        <v>32.020000000000003</v>
+        <v>24.95</v>
       </c>
       <c r="C120">
-        <v>7.04</v>
+        <v>12.29</v>
       </c>
       <c r="D120">
-        <v>22.58</v>
+        <v>12.66</v>
       </c>
       <c r="E120">
-        <v>10.58</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14.9</v>
+      </c>
+      <c r="F120">
+        <v>20.90100000000001</v>
+      </c>
+      <c r="G120">
+        <v>77.085000000000022</v>
+      </c>
+      <c r="H120">
+        <v>14.17551724137931</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121">
-        <v>31.27</v>
+        <v>25.17</v>
       </c>
       <c r="C121">
-        <v>6.86</v>
+        <v>12.06</v>
       </c>
       <c r="D121">
-        <v>26.5</v>
+        <v>13.48</v>
       </c>
       <c r="E121">
-        <v>11.09</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14.88</v>
+      </c>
+      <c r="F121">
+        <v>20.466200000000011</v>
+      </c>
+      <c r="G121">
+        <v>78.338000000000022</v>
+      </c>
+      <c r="H121">
+        <v>13.99533333333334</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122">
-        <v>30.53</v>
+        <v>25.4</v>
       </c>
       <c r="C122">
-        <v>6.67</v>
+        <v>11.83</v>
       </c>
       <c r="D122">
-        <v>30.41</v>
+        <v>14.28</v>
       </c>
       <c r="E122">
-        <v>11.8</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14.89</v>
+      </c>
+      <c r="F122">
+        <v>20.04740000000001</v>
+      </c>
+      <c r="G122">
+        <v>79.583000000000027</v>
+      </c>
+      <c r="H122">
+        <v>13.82032258064516</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123">
-        <v>29.76</v>
+        <v>25.61</v>
       </c>
       <c r="C123">
-        <v>6.46</v>
+        <v>11.53</v>
       </c>
       <c r="D123">
-        <v>34.799999999999997</v>
+        <v>15.21</v>
       </c>
       <c r="E123">
-        <v>12.36</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14.81</v>
+      </c>
+      <c r="F123">
+        <v>19.632600000000011</v>
+      </c>
+      <c r="G123">
+        <v>80.852000000000004</v>
+      </c>
+      <c r="H123">
+        <v>13.952187500000001</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124">
-        <v>29.3</v>
+        <v>25.85</v>
       </c>
       <c r="C124">
-        <v>6.24</v>
+        <v>11.22</v>
       </c>
       <c r="D124">
-        <v>39.21</v>
+        <v>16.14</v>
       </c>
       <c r="E124">
-        <v>12.45</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14.77</v>
+      </c>
+      <c r="F124">
+        <v>19.163800000000009</v>
+      </c>
+      <c r="G124">
+        <v>81.94959999999999</v>
+      </c>
+      <c r="H124">
+        <v>14.07</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125">
-        <v>28.74</v>
+        <v>26.06</v>
       </c>
       <c r="C125">
-        <v>6.04</v>
+        <v>10.92</v>
       </c>
       <c r="D125">
-        <v>43.63</v>
+        <v>17.07</v>
       </c>
       <c r="E125">
-        <v>12.83</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14.73</v>
+      </c>
+      <c r="F125">
+        <v>18.699000000000009</v>
+      </c>
+      <c r="G125">
+        <v>83.047199999999989</v>
+      </c>
+      <c r="H125">
+        <v>14.148529411764709</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126">
-        <v>28.2</v>
+        <v>26.28</v>
       </c>
       <c r="C126">
-        <v>5.82</v>
+        <v>10.62</v>
       </c>
       <c r="D126">
-        <v>46.63</v>
+        <v>18.05</v>
       </c>
       <c r="E126">
-        <v>13.13</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14.68</v>
+      </c>
+      <c r="F126">
+        <v>18.236200000000011</v>
+      </c>
+      <c r="G126">
+        <v>84.131799999999984</v>
+      </c>
+      <c r="H126">
+        <v>14.19971428571429</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127">
-        <v>27.66</v>
+        <v>26.49</v>
       </c>
       <c r="C127">
-        <v>5.55</v>
+        <v>10.43</v>
       </c>
       <c r="D127">
-        <v>50.93</v>
+        <v>19.260000000000002</v>
       </c>
       <c r="E127">
-        <v>12.04</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14.31</v>
+      </c>
+      <c r="F127">
+        <v>17.777400000000011</v>
+      </c>
+      <c r="G127">
+        <v>85.216399999999993</v>
+      </c>
+      <c r="H127">
+        <v>14.39</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128">
-        <v>27.06</v>
+        <v>26.69</v>
       </c>
       <c r="C128">
-        <v>4.87</v>
+        <v>10.17</v>
       </c>
       <c r="D128">
-        <v>55.21</v>
+        <v>20.46</v>
       </c>
       <c r="E128">
-        <v>10.97</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13.94</v>
+      </c>
+      <c r="F128">
+        <v>17.293600000000001</v>
+      </c>
+      <c r="G128">
+        <v>86.305000000000007</v>
+      </c>
+      <c r="H128">
+        <v>14.578108108108109</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129">
-        <v>26.94</v>
+        <v>26.83</v>
       </c>
       <c r="C129">
-        <v>4.28</v>
+        <v>9.92</v>
       </c>
       <c r="D129">
-        <v>57.75</v>
+        <v>21.66</v>
       </c>
       <c r="E129">
-        <v>10.97</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13.62</v>
+      </c>
+      <c r="F129">
+        <v>16.80980000000001</v>
+      </c>
+      <c r="G129">
+        <v>87.393600000000006</v>
+      </c>
+      <c r="H129">
+        <v>14.77736842105263</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130">
-        <v>26.68</v>
+        <v>26.98</v>
       </c>
       <c r="C130">
-        <v>3.69</v>
+        <v>9.66</v>
       </c>
       <c r="D130">
-        <v>60.25</v>
+        <v>22.85</v>
       </c>
       <c r="E130">
-        <v>10.97</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13.31</v>
+      </c>
+      <c r="F130">
+        <v>16.326000000000001</v>
+      </c>
+      <c r="G130">
+        <v>88.454200000000014</v>
+      </c>
+      <c r="H130">
+        <v>14.951025641025639</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131">
-        <v>26.49</v>
+        <v>27.12</v>
       </c>
       <c r="C131">
-        <v>3.1</v>
+        <v>9.41</v>
       </c>
       <c r="D131">
-        <v>63.52</v>
+        <v>24.19</v>
       </c>
       <c r="E131">
-        <v>8.9700000000000006</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="F131">
+        <v>15.840199999999999</v>
+      </c>
+      <c r="G131">
+        <v>89.385800000000017</v>
+      </c>
+      <c r="H131">
+        <v>15.101000000000001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132">
-        <v>26.27</v>
+        <v>27.27</v>
       </c>
       <c r="C132">
-        <v>2.52</v>
+        <v>9.16</v>
       </c>
       <c r="D132">
-        <v>66.73</v>
+        <v>25.54</v>
       </c>
       <c r="E132">
-        <v>6.83</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12.7</v>
+      </c>
+      <c r="F132">
+        <v>15.356400000000001</v>
+      </c>
+      <c r="G132">
+        <v>90.315400000000011</v>
+      </c>
+      <c r="H132">
+        <v>15.22658536585366</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133">
-        <v>26.06</v>
+        <v>27.41</v>
       </c>
       <c r="C133">
-        <v>1.97</v>
+        <v>8.91</v>
       </c>
       <c r="D133">
-        <v>69.540000000000006</v>
+        <v>26.9</v>
       </c>
       <c r="E133">
-        <v>5.1100000000000003</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12.4</v>
+      </c>
+      <c r="F133">
+        <v>14.864599999999999</v>
+      </c>
+      <c r="G133">
+        <v>91.248999999999995</v>
+      </c>
+      <c r="H133">
+        <v>15.332619047619049</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134">
-        <v>25.69</v>
+        <v>27.51</v>
       </c>
       <c r="C134">
-        <v>1.44</v>
+        <v>8.66</v>
       </c>
       <c r="D134">
-        <v>72.349999999999994</v>
+        <v>28.27</v>
       </c>
       <c r="E134">
-        <v>3.45</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12.1</v>
+      </c>
+      <c r="F134">
+        <v>14.376799999999999</v>
+      </c>
+      <c r="G134">
+        <v>92.213399999999979</v>
+      </c>
+      <c r="H134">
+        <v>15.39953488372093</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135">
-        <v>25.71</v>
+        <v>27.67</v>
       </c>
       <c r="C135">
-        <v>0.92</v>
+        <v>8.41</v>
       </c>
       <c r="D135">
-        <v>75.02</v>
+        <v>29.62</v>
       </c>
       <c r="E135">
-        <v>1.67</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+        <v>11.81</v>
+      </c>
+      <c r="F135">
+        <v>13.888999999999999</v>
+      </c>
+      <c r="G135">
+        <v>93.175799999999995</v>
+      </c>
+      <c r="H135">
+        <v>15.52090909090909</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136">
-        <v>25.49</v>
+        <v>27.78</v>
       </c>
       <c r="C136">
-        <v>0.42</v>
+        <v>8.41</v>
       </c>
       <c r="D136">
-        <v>77.41</v>
+        <v>30.96</v>
       </c>
       <c r="E136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+        <v>11.53</v>
+      </c>
+      <c r="F136">
+        <v>13.405200000000001</v>
+      </c>
+      <c r="G136">
+        <v>93.87439999999998</v>
+      </c>
+      <c r="H136">
+        <v>15.645777777777781</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137">
-        <v>25.25</v>
+        <v>27.88</v>
       </c>
       <c r="C137">
-        <v>0</v>
+        <v>8.41</v>
       </c>
       <c r="D137">
-        <v>77.87</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="E137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+        <v>11.25</v>
+      </c>
+      <c r="F137">
+        <v>12.923400000000001</v>
+      </c>
+      <c r="G137">
+        <v>94.566999999999965</v>
+      </c>
+      <c r="H137">
+        <v>15.760869565217391</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138">
-        <v>25.05</v>
+        <v>27.99</v>
       </c>
       <c r="C138">
-        <v>0</v>
+        <v>8.41</v>
       </c>
       <c r="D138">
-        <v>78.38</v>
+        <v>33.64</v>
       </c>
       <c r="E138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10.97</v>
+      </c>
+      <c r="F138">
+        <v>12.441599999999999</v>
+      </c>
+      <c r="G138">
+        <v>95.259599999999978</v>
+      </c>
+      <c r="H138">
+        <v>15.858936170212759</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139">
-        <v>24.5</v>
+        <v>28.02</v>
       </c>
       <c r="C139">
-        <v>0</v>
+        <v>8.01</v>
       </c>
       <c r="D139">
-        <v>78.849999999999994</v>
+        <v>34.97</v>
       </c>
       <c r="E139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10.72</v>
+      </c>
+      <c r="F139">
+        <v>11.963800000000001</v>
+      </c>
+      <c r="G139">
+        <v>96.023999999999972</v>
+      </c>
+      <c r="H139">
+        <v>15.94875</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140">
-        <v>24.04</v>
+        <v>28.07</v>
       </c>
       <c r="C140">
-        <v>0</v>
+        <v>7.61</v>
       </c>
       <c r="D140">
-        <v>79.3</v>
+        <v>36.29</v>
       </c>
       <c r="E140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10.45</v>
+      </c>
+      <c r="F140">
+        <v>11.49</v>
+      </c>
+      <c r="G140">
+        <v>96.788399999999982</v>
+      </c>
+      <c r="H140">
+        <v>16.041020408163259</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141">
-        <v>23.56</v>
+        <v>28.13</v>
       </c>
       <c r="C141">
-        <v>0</v>
+        <v>7.22</v>
       </c>
       <c r="D141">
-        <v>79.02</v>
+        <v>37.61</v>
       </c>
       <c r="E141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10.16</v>
+      </c>
+      <c r="F141">
+        <v>11.020200000000001</v>
+      </c>
+      <c r="G141">
+        <v>97.552799999999991</v>
+      </c>
+      <c r="H141">
+        <v>16.118200000000002</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142">
-        <v>23.1</v>
+        <v>28.18</v>
       </c>
       <c r="C142">
-        <v>0</v>
+        <v>6.9</v>
       </c>
       <c r="D142">
-        <v>79.34</v>
+        <v>39.04</v>
       </c>
       <c r="E142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9.9</v>
+      </c>
+      <c r="F142">
+        <v>10.554399999999999</v>
+      </c>
+      <c r="G142">
+        <v>98.116400000000013</v>
+      </c>
+      <c r="H142">
+        <v>16.118200000000002</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143">
-        <v>22.08</v>
+        <v>28.13</v>
       </c>
       <c r="C143">
-        <v>0</v>
+        <v>6.58</v>
       </c>
       <c r="D143">
-        <v>79.540000000000006</v>
+        <v>40.46</v>
       </c>
       <c r="E143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9.66</v>
+      </c>
+      <c r="F143">
+        <v>10.092599999999999</v>
+      </c>
+      <c r="G143">
+        <v>98.635000000000019</v>
+      </c>
+      <c r="H143">
+        <v>16.450199999999999</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144">
-        <v>21.39</v>
+        <v>28.11</v>
       </c>
       <c r="C144">
-        <v>0</v>
+        <v>6.27</v>
       </c>
       <c r="D144">
-        <v>79.73</v>
+        <v>41.91</v>
       </c>
       <c r="E144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="F144">
+        <v>9.6308000000000007</v>
+      </c>
+      <c r="G144">
+        <v>99.15360000000004</v>
+      </c>
+      <c r="H144">
+        <v>16.7636</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145">
-        <v>20.41</v>
+        <v>28.12</v>
       </c>
       <c r="C145">
-        <v>0</v>
+        <v>5.95</v>
       </c>
       <c r="D145">
-        <v>80.06</v>
+        <v>43.36</v>
       </c>
       <c r="E145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9.07</v>
+      </c>
+      <c r="F145">
+        <v>9.1690000000000005</v>
+      </c>
+      <c r="G145">
+        <v>99.672200000000061</v>
+      </c>
+      <c r="H145">
+        <v>17.073</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146">
-        <v>19.68</v>
+        <v>27.9</v>
       </c>
       <c r="C146">
-        <v>0</v>
+        <v>5.64</v>
       </c>
       <c r="D146">
-        <v>80.58</v>
+        <v>44.84</v>
       </c>
       <c r="E146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8.77</v>
+      </c>
+      <c r="F146">
+        <v>8.7232000000000003</v>
+      </c>
+      <c r="G146">
+        <v>100.1868000000001</v>
+      </c>
+      <c r="H146">
+        <v>17.539000000000001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147">
-        <v>18.850000000000001</v>
+        <v>27.65</v>
       </c>
       <c r="C147">
-        <v>0</v>
+        <v>5.29</v>
       </c>
       <c r="D147">
-        <v>80.739999999999995</v>
+        <v>46.25</v>
       </c>
       <c r="E147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8.49</v>
+      </c>
+      <c r="F147">
+        <v>8.2794000000000008</v>
+      </c>
+      <c r="G147">
+        <v>100.7274</v>
+      </c>
+      <c r="H147">
+        <v>17.710799999999999</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148">
-        <v>17.989999999999998</v>
+        <v>27.4</v>
       </c>
       <c r="C148">
-        <v>0</v>
+        <v>4.95</v>
       </c>
       <c r="D148">
-        <v>80.819999999999993</v>
+        <v>47.65</v>
       </c>
       <c r="E148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8.27</v>
+      </c>
+      <c r="F148">
+        <v>7.8356000000000003</v>
+      </c>
+      <c r="G148">
+        <v>101.1840000000001</v>
+      </c>
+      <c r="H148">
+        <v>17.916599999999999</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149">
-        <v>17.489999999999998</v>
+        <v>27.14</v>
       </c>
       <c r="C149">
-        <v>0</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D149">
-        <v>81.61</v>
+        <v>49.17</v>
       </c>
       <c r="E149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7.89</v>
+      </c>
+      <c r="F149">
+        <v>7.3958000000000004</v>
+      </c>
+      <c r="G149">
+        <v>101.7966000000001</v>
+      </c>
+      <c r="H149">
+        <v>17.9984</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150">
-        <v>16.809999999999999</v>
+        <v>26.87</v>
       </c>
       <c r="C150">
-        <v>0</v>
+        <v>4.18</v>
       </c>
       <c r="D150">
-        <v>82.39</v>
+        <v>50.69</v>
       </c>
       <c r="E150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7.58</v>
+      </c>
+      <c r="F150">
+        <v>6.9560000000000004</v>
+      </c>
+      <c r="G150">
+        <v>102.4624000000001</v>
+      </c>
+      <c r="H150">
+        <v>18.061800000000002</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151">
-        <v>16.079999999999998</v>
+        <v>26.59</v>
       </c>
       <c r="C151">
-        <v>0</v>
+        <v>3.76</v>
       </c>
       <c r="D151">
-        <v>83.13</v>
+        <v>52.2</v>
       </c>
       <c r="E151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7.26</v>
+      </c>
+      <c r="F151">
+        <v>6.5162000000000004</v>
+      </c>
+      <c r="G151">
+        <v>103.16240000000001</v>
+      </c>
+      <c r="H151">
+        <v>18.113800000000001</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>150</v>
       </c>
       <c r="B152">
-        <v>15.34</v>
+        <v>26.31</v>
       </c>
       <c r="C152">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="D152">
-        <v>83.33</v>
+        <v>53.7</v>
       </c>
       <c r="E152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6.94</v>
+      </c>
+      <c r="F152">
+        <v>6.0763999999999996</v>
+      </c>
+      <c r="G152">
+        <v>103.8844000000001</v>
+      </c>
+      <c r="H152">
+        <v>18.149799999999999</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>151</v>
       </c>
       <c r="B153">
-        <v>15.06</v>
+        <v>26</v>
       </c>
       <c r="C153">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="D153">
-        <v>83.7</v>
+        <v>55.23</v>
       </c>
       <c r="E153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6.59</v>
+      </c>
+      <c r="F153">
+        <v>5.6405999999999992</v>
+      </c>
+      <c r="G153">
+        <v>104.60640000000009</v>
+      </c>
+      <c r="H153">
+        <v>18.1858</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154">
-        <v>14.74</v>
+        <v>25.41</v>
       </c>
       <c r="C154">
-        <v>0</v>
+        <v>2.81</v>
       </c>
       <c r="D154">
-        <v>84.08</v>
+        <v>56.78</v>
       </c>
       <c r="E154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6.25</v>
+      </c>
+      <c r="F154">
+        <v>5.2088000000000001</v>
+      </c>
+      <c r="G154">
+        <v>105.31699999999999</v>
+      </c>
+      <c r="H154">
+        <v>18.214400000000001</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>153</v>
       </c>
       <c r="B155">
-        <v>14.48</v>
+        <v>24.84</v>
       </c>
       <c r="C155">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="D155">
-        <v>84.43</v>
+        <v>58.32</v>
       </c>
       <c r="E155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5.92</v>
+      </c>
+      <c r="F155">
+        <v>4.7770000000000001</v>
+      </c>
+      <c r="G155">
+        <v>106.0196</v>
+      </c>
+      <c r="H155">
+        <v>18.235600000000002</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>154</v>
       </c>
       <c r="B156">
-        <v>14.18</v>
+        <v>24.39</v>
       </c>
       <c r="C156">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="D156">
-        <v>84.86</v>
+        <v>59.92</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>5.58</v>
+      </c>
+      <c r="F156">
+        <v>4.3452000000000002</v>
+      </c>
+      <c r="G156">
+        <v>106.5814</v>
+      </c>
+      <c r="H156">
+        <v>18.218800000000002</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/stacks_over_time_avg.xlsx
+++ b/Outputs/stacks_over_time_avg.xlsx
@@ -194,7 +194,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$B$2:$B$156</f>
+              <f>'data'!$B$2:$B$189</f>
             </numRef>
           </val>
         </ser>
@@ -221,7 +221,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$C$2:$C$156</f>
+              <f>'data'!$C$2:$C$189</f>
             </numRef>
           </val>
         </ser>
@@ -248,7 +248,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$D$2:$D$156</f>
+              <f>'data'!$D$2:$D$189</f>
             </numRef>
           </val>
         </ser>
@@ -275,7 +275,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$E$2:$E$156</f>
+              <f>'data'!$E$2:$E$189</f>
             </numRef>
           </val>
         </ser>
@@ -302,61 +302,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$F$2:$F$156</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="5"/>
-          <order val="5"/>
-          <tx>
-            <strRef>
-              <f>'data'!G1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'data'!$G$2:$G$156</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="6"/>
-          <order val="6"/>
-          <tx>
-            <strRef>
-              <f>'data'!H1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'data'!$H$2:$H$156</f>
+              <f>'data'!$F$2:$F$189</f>
             </numRef>
           </val>
         </ser>
@@ -726,7 +672,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H156"/>
+  <dimension ref="A1:F189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -742,37 +688,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Raymond</t>
+          <t>Scott</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Regan</t>
+          <t>Ben</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Fish</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Cedric</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Fish</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Cheyenne</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Scott</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Jacob</t>
+          <t>Raymond</t>
         </is>
       </c>
     </row>
@@ -798,16 +734,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="D3" t="n">
         <v>20</v>
       </c>
-      <c r="C3" t="n">
+      <c r="E3" t="n">
         <v>20</v>
-      </c>
-      <c r="D3" t="n">
-        <v>19.95</v>
-      </c>
-      <c r="E3" t="n">
-        <v>20.05</v>
       </c>
     </row>
     <row r="4">
@@ -815,16 +751,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20.78</v>
+        <v>20.67</v>
       </c>
       <c r="C4" t="n">
-        <v>19.93</v>
+        <v>19.33</v>
       </c>
       <c r="D4" t="n">
-        <v>19.93</v>
+        <v>20</v>
       </c>
       <c r="E4" t="n">
-        <v>19.35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -832,16 +768,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>21.15</v>
+        <v>21.2</v>
       </c>
       <c r="C5" t="n">
-        <v>19.98</v>
+        <v>19.05</v>
       </c>
       <c r="D5" t="n">
-        <v>19.92</v>
+        <v>19.8</v>
       </c>
       <c r="E5" t="n">
-        <v>18.95</v>
+        <v>19.95</v>
       </c>
     </row>
     <row r="6">
@@ -849,16 +785,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>21.37</v>
+        <v>21.44</v>
       </c>
       <c r="C6" t="n">
-        <v>19.96</v>
+        <v>18.84</v>
       </c>
       <c r="D6" t="n">
-        <v>19.96</v>
+        <v>19.68</v>
       </c>
       <c r="E6" t="n">
-        <v>18.71</v>
+        <v>20.04</v>
       </c>
     </row>
     <row r="7">
@@ -866,16 +802,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>21.52</v>
+        <v>21.15</v>
       </c>
       <c r="C7" t="n">
-        <v>19.95</v>
+        <v>17.92</v>
       </c>
       <c r="D7" t="n">
-        <v>19.95</v>
+        <v>20.83</v>
       </c>
       <c r="E7" t="n">
-        <v>18.58</v>
+        <v>20.1</v>
       </c>
     </row>
     <row r="8">
@@ -883,16 +819,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>21.59</v>
+        <v>20.94</v>
       </c>
       <c r="C8" t="n">
-        <v>19.94</v>
+        <v>17.2</v>
       </c>
       <c r="D8" t="n">
-        <v>19.94</v>
+        <v>21.71</v>
       </c>
       <c r="E8" t="n">
-        <v>18.52</v>
+        <v>20.14</v>
       </c>
     </row>
     <row r="9">
@@ -900,16 +836,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>21.64</v>
+        <v>21.01</v>
       </c>
       <c r="C9" t="n">
-        <v>20.09</v>
+        <v>16.56</v>
       </c>
       <c r="D9" t="n">
-        <v>19.94</v>
+        <v>22.28</v>
       </c>
       <c r="E9" t="n">
-        <v>18.33</v>
+        <v>20.15</v>
       </c>
     </row>
     <row r="10">
@@ -917,16 +853,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>21.67</v>
+        <v>20.88</v>
       </c>
       <c r="C10" t="n">
-        <v>20.19</v>
+        <v>16.29</v>
       </c>
       <c r="D10" t="n">
-        <v>19.98</v>
+        <v>22.69</v>
       </c>
       <c r="E10" t="n">
-        <v>18.16</v>
+        <v>20.14</v>
       </c>
     </row>
     <row r="11">
@@ -934,16 +870,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>21.73</v>
+        <v>21.06</v>
       </c>
       <c r="C11" t="n">
-        <v>20.27</v>
+        <v>16.05</v>
       </c>
       <c r="D11" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E11" t="n">
-        <v>18.01</v>
+        <v>19.89</v>
       </c>
     </row>
     <row r="12">
@@ -951,16 +887,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>21.73</v>
+        <v>21.06</v>
       </c>
       <c r="C12" t="n">
-        <v>20.27</v>
+        <v>16.05</v>
       </c>
       <c r="D12" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E12" t="n">
-        <v>18.01</v>
+        <v>19.89</v>
       </c>
     </row>
     <row r="13">
@@ -968,16 +904,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>21.93</v>
+        <v>21.32</v>
       </c>
       <c r="C13" t="n">
-        <v>20.36</v>
+        <v>15.47</v>
       </c>
       <c r="D13" t="n">
-        <v>20.02</v>
+        <v>23.56</v>
       </c>
       <c r="E13" t="n">
-        <v>17.68</v>
+        <v>19.65</v>
       </c>
     </row>
     <row r="14">
@@ -985,16 +921,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>22.13</v>
+        <v>21.23</v>
       </c>
       <c r="C14" t="n">
-        <v>20.38</v>
+        <v>14.92</v>
       </c>
       <c r="D14" t="n">
-        <v>20.05</v>
+        <v>24.46</v>
       </c>
       <c r="E14" t="n">
-        <v>17.45</v>
+        <v>19.39</v>
       </c>
     </row>
     <row r="15">
@@ -1002,16 +938,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>22.09</v>
+        <v>21.2</v>
       </c>
       <c r="C15" t="n">
-        <v>20.51</v>
+        <v>14.37</v>
       </c>
       <c r="D15" t="n">
-        <v>20.03</v>
+        <v>25.31</v>
       </c>
       <c r="E15" t="n">
-        <v>17.37</v>
+        <v>19.12</v>
       </c>
     </row>
     <row r="16">
@@ -1019,16 +955,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>22.06</v>
+        <v>21.14</v>
       </c>
       <c r="C16" t="n">
-        <v>20.69</v>
+        <v>13.88</v>
       </c>
       <c r="D16" t="n">
-        <v>19.99</v>
+        <v>26.11</v>
       </c>
       <c r="E16" t="n">
-        <v>17.26</v>
+        <v>18.87</v>
       </c>
     </row>
     <row r="17">
@@ -1036,16 +972,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>22.01</v>
+        <v>21.12</v>
       </c>
       <c r="C17" t="n">
-        <v>20.89</v>
+        <v>13.43</v>
       </c>
       <c r="D17" t="n">
-        <v>19.97</v>
+        <v>26.91</v>
       </c>
       <c r="E17" t="n">
-        <v>17.13</v>
+        <v>18.56</v>
       </c>
     </row>
     <row r="18">
@@ -1053,16 +989,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>21.95</v>
+        <v>22.27</v>
       </c>
       <c r="C18" t="n">
-        <v>21.05</v>
+        <v>12.58</v>
       </c>
       <c r="D18" t="n">
-        <v>20.02</v>
+        <v>26.96</v>
       </c>
       <c r="E18" t="n">
-        <v>16.98</v>
+        <v>18.23</v>
       </c>
     </row>
     <row r="19">
@@ -1070,16 +1006,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>21.84</v>
+        <v>23.37</v>
       </c>
       <c r="C19" t="n">
-        <v>21.2</v>
+        <v>11.7</v>
       </c>
       <c r="D19" t="n">
-        <v>20</v>
+        <v>26.96</v>
       </c>
       <c r="E19" t="n">
-        <v>16.96</v>
+        <v>18.02</v>
       </c>
     </row>
     <row r="20">
@@ -1087,16 +1023,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>21.77</v>
+        <v>24.43</v>
       </c>
       <c r="C20" t="n">
-        <v>21.22</v>
+        <v>10.78</v>
       </c>
       <c r="D20" t="n">
-        <v>19.97</v>
+        <v>27</v>
       </c>
       <c r="E20" t="n">
-        <v>17.04</v>
+        <v>17.83</v>
       </c>
     </row>
     <row r="21">
@@ -1104,16 +1040,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>21.91</v>
+        <v>26.44</v>
       </c>
       <c r="C21" t="n">
-        <v>21.25</v>
+        <v>9.65</v>
       </c>
       <c r="D21" t="n">
-        <v>19.79</v>
+        <v>26.3</v>
       </c>
       <c r="E21" t="n">
-        <v>17.04</v>
+        <v>17.65</v>
       </c>
     </row>
     <row r="22">
@@ -1121,16 +1057,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>21.91</v>
+        <v>28.16</v>
       </c>
       <c r="C22" t="n">
-        <v>21.4</v>
+        <v>8.52</v>
       </c>
       <c r="D22" t="n">
-        <v>19.63</v>
+        <v>25.61</v>
       </c>
       <c r="E22" t="n">
-        <v>17.06</v>
+        <v>17.76</v>
       </c>
     </row>
     <row r="23">
@@ -1138,16 +1074,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>21.92</v>
+        <v>29.61</v>
       </c>
       <c r="C23" t="n">
-        <v>21.53</v>
+        <v>7.71</v>
       </c>
       <c r="D23" t="n">
-        <v>19.51</v>
+        <v>24.87</v>
       </c>
       <c r="E23" t="n">
-        <v>17.04</v>
+        <v>17.86</v>
       </c>
     </row>
     <row r="24">
@@ -1155,16 +1091,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>21.94</v>
+        <v>32.01</v>
       </c>
       <c r="C24" t="n">
-        <v>21.74</v>
+        <v>6.35</v>
       </c>
       <c r="D24" t="n">
-        <v>19.31</v>
+        <v>23.7</v>
       </c>
       <c r="E24" t="n">
-        <v>17.01</v>
+        <v>17.98</v>
       </c>
     </row>
     <row r="25">
@@ -1172,16 +1108,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>21.92</v>
+        <v>34.37</v>
       </c>
       <c r="C25" t="n">
-        <v>21.85</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>19.23</v>
+        <v>22.56</v>
       </c>
       <c r="E25" t="n">
-        <v>17.01</v>
+        <v>18.11</v>
       </c>
     </row>
     <row r="26">
@@ -1189,19 +1125,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>21.88</v>
+        <v>36.6</v>
       </c>
       <c r="C26" t="n">
-        <v>22.32</v>
+        <v>3.67</v>
       </c>
       <c r="D26" t="n">
-        <v>18.76</v>
+        <v>21.55</v>
       </c>
       <c r="E26" t="n">
-        <v>17.04</v>
-      </c>
-      <c r="F26" t="n">
-        <v>20</v>
+        <v>18.22</v>
       </c>
     </row>
     <row r="27">
@@ -1209,19 +1142,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>21.84</v>
+        <v>38.81</v>
       </c>
       <c r="C27" t="n">
-        <v>22.45</v>
+        <v>2.32</v>
       </c>
       <c r="D27" t="n">
-        <v>18.68</v>
+        <v>20.57</v>
       </c>
       <c r="E27" t="n">
-        <v>17.04</v>
-      </c>
-      <c r="F27" t="n">
-        <v>19.9</v>
+        <v>18.32</v>
       </c>
     </row>
     <row r="28">
@@ -1229,19 +1159,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>21.82</v>
+        <v>39.82</v>
       </c>
       <c r="C28" t="n">
-        <v>22.61</v>
+        <v>1.85</v>
       </c>
       <c r="D28" t="n">
-        <v>18.53</v>
+        <v>19.89</v>
       </c>
       <c r="E28" t="n">
-        <v>17.06</v>
-      </c>
-      <c r="F28" t="n">
-        <v>19.53333333333333</v>
+        <v>18.44</v>
       </c>
     </row>
     <row r="29">
@@ -1249,19 +1176,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>21.84</v>
+        <v>40.9</v>
       </c>
       <c r="C29" t="n">
-        <v>21.4</v>
+        <v>1.44</v>
       </c>
       <c r="D29" t="n">
-        <v>18.46</v>
+        <v>19.22</v>
       </c>
       <c r="E29" t="n">
-        <v>18.43</v>
-      </c>
-      <c r="F29" t="n">
-        <v>19.525</v>
+        <v>18.45</v>
       </c>
     </row>
     <row r="30">
@@ -1269,19 +1193,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>21.83</v>
+        <v>41.83</v>
       </c>
       <c r="C30" t="n">
-        <v>20.16</v>
+        <v>1.14</v>
       </c>
       <c r="D30" t="n">
-        <v>18.4</v>
+        <v>18.58</v>
       </c>
       <c r="E30" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="F30" t="n">
-        <v>19.44</v>
+        <v>18.45</v>
       </c>
     </row>
     <row r="31">
@@ -1289,19 +1210,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>21.59</v>
+        <v>42.03</v>
       </c>
       <c r="C31" t="n">
-        <v>19.01</v>
+        <v>0.86</v>
       </c>
       <c r="D31" t="n">
+        <v>18.68</v>
+      </c>
+      <c r="E31" t="n">
         <v>18.43</v>
-      </c>
-      <c r="E31" t="n">
-        <v>21.25</v>
-      </c>
-      <c r="F31" t="n">
-        <v>19.38333333333333</v>
       </c>
     </row>
     <row r="32">
@@ -1309,19 +1227,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>21.64</v>
+        <v>42.23</v>
       </c>
       <c r="C32" t="n">
-        <v>17.73</v>
+        <v>0.6</v>
       </c>
       <c r="D32" t="n">
-        <v>18.43</v>
+        <v>18.48</v>
       </c>
       <c r="E32" t="n">
-        <v>22.57</v>
-      </c>
-      <c r="F32" t="n">
-        <v>19.34285714285715</v>
+        <v>18.69</v>
       </c>
     </row>
     <row r="33">
@@ -1329,19 +1244,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>21.65</v>
+        <v>42.05</v>
       </c>
       <c r="C33" t="n">
-        <v>16.52</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>18.35</v>
       </c>
       <c r="E33" t="n">
-        <v>23.95</v>
-      </c>
-      <c r="F33" t="n">
-        <v>19.2875</v>
+        <v>19.6</v>
       </c>
     </row>
     <row r="34">
@@ -1349,19 +1261,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>21.59</v>
+        <v>41.21</v>
       </c>
       <c r="C34" t="n">
-        <v>15.21</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>18.35</v>
+        <v>18.28</v>
       </c>
       <c r="E34" t="n">
-        <v>25.42</v>
-      </c>
-      <c r="F34" t="n">
-        <v>19.45555555555556</v>
+        <v>20.51</v>
       </c>
     </row>
     <row r="35">
@@ -1369,19 +1278,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>21.55</v>
+        <v>40.35</v>
       </c>
       <c r="C35" t="n">
-        <v>13.74</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>18.28</v>
+        <v>18.21</v>
       </c>
       <c r="E35" t="n">
-        <v>26.92</v>
-      </c>
-      <c r="F35" t="n">
-        <v>19.58</v>
+        <v>21.44</v>
       </c>
     </row>
     <row r="36">
@@ -1389,19 +1295,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>21.52</v>
+        <v>39.47</v>
       </c>
       <c r="C36" t="n">
-        <v>11.89</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>18.61</v>
+        <v>18.15</v>
       </c>
       <c r="E36" t="n">
-        <v>28.39</v>
-      </c>
-      <c r="F36" t="n">
-        <v>19.58</v>
+        <v>22.38</v>
       </c>
     </row>
     <row r="37">
@@ -1409,22 +1312,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>21.54</v>
+        <v>38.69</v>
       </c>
       <c r="C37" t="n">
-        <v>10.38</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>18.5</v>
+        <v>17.98</v>
       </c>
       <c r="E37" t="n">
-        <v>29.93</v>
-      </c>
-      <c r="F37" t="n">
-        <v>19.65</v>
-      </c>
-      <c r="G37" t="n">
-        <v>20</v>
+        <v>23.33</v>
       </c>
     </row>
     <row r="38">
@@ -1432,22 +1329,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>21.43</v>
+        <v>38.21</v>
       </c>
       <c r="C38" t="n">
-        <v>8.859999999999999</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>18.15</v>
+        <v>17.55</v>
       </c>
       <c r="E38" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="F38" t="n">
-        <v>19.74</v>
-      </c>
-      <c r="G38" t="n">
-        <v>20</v>
+        <v>24.24</v>
       </c>
     </row>
     <row r="39">
@@ -1455,22 +1346,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>21.36</v>
+        <v>37.65</v>
       </c>
       <c r="C39" t="n">
-        <v>8.69</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>17.8</v>
+        <v>17.22</v>
       </c>
       <c r="E39" t="n">
-        <v>32.22</v>
-      </c>
-      <c r="F39" t="n">
-        <v>19.93</v>
-      </c>
-      <c r="G39" t="n">
-        <v>20.36666666666667</v>
+        <v>25.13</v>
       </c>
     </row>
     <row r="40">
@@ -1478,22 +1363,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>21.29</v>
+        <v>36.82</v>
       </c>
       <c r="C40" t="n">
-        <v>8.550000000000001</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>17.44</v>
+        <v>16.87</v>
       </c>
       <c r="E40" t="n">
-        <v>32.57</v>
-      </c>
-      <c r="F40" t="n">
-        <v>20.03</v>
-      </c>
-      <c r="G40" t="n">
-        <v>20.55</v>
+        <v>26.31</v>
       </c>
     </row>
     <row r="41">
@@ -1501,22 +1380,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>21.22</v>
+        <v>35.94</v>
       </c>
       <c r="C41" t="n">
-        <v>8.65</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>17.11</v>
+        <v>16.52</v>
       </c>
       <c r="E41" t="n">
-        <v>32.65</v>
-      </c>
-      <c r="F41" t="n">
-        <v>20.15</v>
-      </c>
-      <c r="G41" t="n">
-        <v>20.48</v>
+        <v>27.54</v>
       </c>
     </row>
     <row r="42">
@@ -1524,22 +1397,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>20.99</v>
+        <v>34.99</v>
       </c>
       <c r="C42" t="n">
-        <v>8.75</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>16.71</v>
+        <v>16.57</v>
       </c>
       <c r="E42" t="n">
-        <v>33.05</v>
-      </c>
-      <c r="F42" t="n">
-        <v>20.27</v>
-      </c>
-      <c r="G42" t="n">
-        <v>19.14166666666667</v>
+        <v>28.44</v>
       </c>
     </row>
     <row r="43">
@@ -1547,22 +1414,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>20.8</v>
+        <v>34.79</v>
       </c>
       <c r="C43" t="n">
-        <v>8.779999999999999</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>16.07</v>
+        <v>16.6</v>
       </c>
       <c r="E43" t="n">
-        <v>34.47</v>
-      </c>
-      <c r="F43" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="G43" t="n">
-        <v>18.87857142857143</v>
+        <v>28.61</v>
       </c>
     </row>
     <row r="44">
@@ -1570,22 +1431,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>20.69</v>
+        <v>34.56</v>
       </c>
       <c r="C44" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>15.43</v>
+        <v>16.64</v>
       </c>
       <c r="E44" t="n">
-        <v>35.64</v>
-      </c>
-      <c r="F44" t="n">
-        <v>20.53</v>
-      </c>
-      <c r="G44" t="n">
-        <v>18.89375</v>
+        <v>28.79</v>
       </c>
     </row>
     <row r="45">
@@ -1593,22 +1448,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>20.57</v>
+        <v>34.34</v>
       </c>
       <c r="C45" t="n">
-        <v>8.33</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>14.72</v>
+        <v>16.73</v>
       </c>
       <c r="E45" t="n">
-        <v>36.8</v>
-      </c>
-      <c r="F45" t="n">
-        <v>20.46</v>
-      </c>
-      <c r="G45" t="n">
-        <v>19.88888888888889</v>
+        <v>28.95</v>
       </c>
     </row>
     <row r="46">
@@ -1616,22 +1465,16 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>20.45</v>
+        <v>34.11</v>
       </c>
       <c r="C46" t="n">
-        <v>7.52</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>13.76</v>
+        <v>16.83</v>
       </c>
       <c r="E46" t="n">
-        <v>38.01</v>
-      </c>
-      <c r="F46" t="n">
-        <v>20.36</v>
-      </c>
-      <c r="G46" t="n">
-        <v>20.665</v>
+        <v>29.11</v>
       </c>
     </row>
     <row r="47">
@@ -1639,22 +1482,16 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>20.3</v>
+        <v>33.79</v>
       </c>
       <c r="C47" t="n">
-        <v>6.72</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>12.83</v>
+        <v>16.96</v>
       </c>
       <c r="E47" t="n">
-        <v>39.19</v>
-      </c>
-      <c r="F47" t="n">
-        <v>20.3</v>
-      </c>
-      <c r="G47" t="n">
-        <v>20.665</v>
+        <v>29.31</v>
       </c>
     </row>
     <row r="48">
@@ -1662,22 +1499,16 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>20.21</v>
+        <v>33.48</v>
       </c>
       <c r="C48" t="n">
-        <v>7.92</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>11.88</v>
+        <v>17.06</v>
       </c>
       <c r="E48" t="n">
-        <v>40.39</v>
-      </c>
-      <c r="F48" t="n">
-        <v>20.24</v>
-      </c>
-      <c r="G48" t="n">
-        <v>21.358</v>
+        <v>29.54</v>
       </c>
     </row>
     <row r="49">
@@ -1685,22 +1516,16 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>20.1</v>
+        <v>33.24</v>
       </c>
       <c r="C49" t="n">
-        <v>9.16</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>10.92</v>
+        <v>17.06</v>
       </c>
       <c r="E49" t="n">
-        <v>41.55</v>
-      </c>
-      <c r="F49" t="n">
-        <v>20.16</v>
-      </c>
-      <c r="G49" t="n">
-        <v>22.111</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="50">
@@ -1708,22 +1533,16 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>19.97</v>
+        <v>33.27</v>
       </c>
       <c r="C50" t="n">
-        <v>10.38</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>9.960000000000001</v>
+        <v>17.26</v>
       </c>
       <c r="E50" t="n">
-        <v>42.78</v>
-      </c>
-      <c r="F50" t="n">
-        <v>20.15000000000001</v>
-      </c>
-      <c r="G50" t="n">
-        <v>22.754</v>
+        <v>29.59</v>
       </c>
     </row>
     <row r="51">
@@ -1731,22 +1550,16 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>19.84</v>
+        <v>33.3</v>
       </c>
       <c r="C51" t="n">
-        <v>11.27</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>9</v>
+        <v>17.47</v>
       </c>
       <c r="E51" t="n">
-        <v>44.2</v>
-      </c>
-      <c r="F51" t="n">
-        <v>20.14</v>
-      </c>
-      <c r="G51" t="n">
-        <v>23.547</v>
+        <v>29.37</v>
       </c>
     </row>
     <row r="52">
@@ -1754,22 +1567,16 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>19.71</v>
+        <v>33.4</v>
       </c>
       <c r="C52" t="n">
-        <v>12.2</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>8.130000000000001</v>
+        <v>17.61</v>
       </c>
       <c r="E52" t="n">
-        <v>45.41</v>
-      </c>
-      <c r="F52" t="n">
-        <v>20.12</v>
-      </c>
-      <c r="G52" t="n">
-        <v>24.43</v>
+        <v>29.15</v>
       </c>
     </row>
     <row r="53">
@@ -1777,22 +1584,16 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>19.58</v>
+        <v>33.4</v>
       </c>
       <c r="C53" t="n">
-        <v>13.13</v>
+        <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>7.71</v>
+        <v>17.46</v>
       </c>
       <c r="E53" t="n">
-        <v>45.47</v>
-      </c>
-      <c r="F53" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="G53" t="n">
-        <v>26.008</v>
+        <v>29.32</v>
       </c>
     </row>
     <row r="54">
@@ -1800,22 +1601,16 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>19.45</v>
+        <v>33.4</v>
       </c>
       <c r="C54" t="n">
-        <v>14.37</v>
+        <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>7.29</v>
+        <v>17.34</v>
       </c>
       <c r="E54" t="n">
-        <v>45.53</v>
-      </c>
-      <c r="F54" t="n">
-        <v>20.08</v>
-      </c>
-      <c r="G54" t="n">
-        <v>27.28100000000001</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="55">
@@ -1823,22 +1618,16 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>19.33</v>
+        <v>33.4</v>
       </c>
       <c r="C55" t="n">
-        <v>15.68</v>
+        <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>6.84</v>
+        <v>17.2</v>
       </c>
       <c r="E55" t="n">
-        <v>44.68</v>
-      </c>
-      <c r="F55" t="n">
-        <v>20</v>
-      </c>
-      <c r="G55" t="n">
-        <v>29.46400000000001</v>
+        <v>29.6</v>
       </c>
     </row>
     <row r="56">
@@ -1846,22 +1635,16 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>19.21</v>
+        <v>33.4</v>
       </c>
       <c r="C56" t="n">
-        <v>17.87</v>
+        <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>6.65</v>
+        <v>17.04</v>
       </c>
       <c r="E56" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="F56" t="n">
-        <v>19.94</v>
-      </c>
-      <c r="G56" t="n">
-        <v>30.632</v>
+        <v>29.76</v>
       </c>
     </row>
     <row r="57">
@@ -1869,22 +1652,16 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>19.08</v>
+        <v>33.4</v>
       </c>
       <c r="C57" t="n">
-        <v>20.06</v>
+        <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>6.45</v>
+        <v>16.91</v>
       </c>
       <c r="E57" t="n">
-        <v>42.51</v>
-      </c>
-      <c r="F57" t="n">
-        <v>19.82</v>
-      </c>
-      <c r="G57" t="n">
-        <v>32.08499999999999</v>
+        <v>29.89</v>
       </c>
     </row>
     <row r="58">
@@ -1892,22 +1669,16 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>18.87</v>
+        <v>33.4</v>
       </c>
       <c r="C58" t="n">
-        <v>20.23</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>6.51</v>
+        <v>16.71</v>
       </c>
       <c r="E58" t="n">
-        <v>40.91</v>
-      </c>
-      <c r="F58" t="n">
-        <v>19.874</v>
-      </c>
-      <c r="G58" t="n">
-        <v>33.60999999999999</v>
+        <v>30.09</v>
       </c>
     </row>
     <row r="59">
@@ -1915,22 +1686,16 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>18.65</v>
+        <v>33.4</v>
       </c>
       <c r="C59" t="n">
-        <v>20.48</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>6.59</v>
+        <v>16.57</v>
       </c>
       <c r="E59" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="F59" t="n">
-        <v>19.908</v>
-      </c>
-      <c r="G59" t="n">
-        <v>35.05499999999999</v>
+        <v>30.23</v>
       </c>
     </row>
     <row r="60">
@@ -1938,22 +1703,16 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>18.46</v>
+        <v>33.4</v>
       </c>
       <c r="C60" t="n">
-        <v>20.75</v>
+        <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>6.74</v>
+        <v>16.18</v>
       </c>
       <c r="E60" t="n">
-        <v>37.75</v>
-      </c>
-      <c r="F60" t="n">
-        <v>19.872</v>
-      </c>
-      <c r="G60" t="n">
-        <v>36.45</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="61">
@@ -1961,22 +1720,16 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>18.27</v>
+        <v>33.4</v>
       </c>
       <c r="C61" t="n">
-        <v>21.04</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>6.88</v>
+        <v>15.83</v>
       </c>
       <c r="E61" t="n">
-        <v>36.27</v>
-      </c>
-      <c r="F61" t="n">
-        <v>19.856</v>
-      </c>
-      <c r="G61" t="n">
-        <v>37.69500000000001</v>
+        <v>30.97</v>
       </c>
     </row>
     <row r="62">
@@ -1984,22 +1737,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>18.07</v>
+        <v>33.4</v>
       </c>
       <c r="C62" t="n">
-        <v>20.96</v>
+        <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>7.02</v>
+        <v>15.53</v>
       </c>
       <c r="E62" t="n">
-        <v>33.96</v>
-      </c>
-      <c r="F62" t="n">
-        <v>19.85</v>
-      </c>
-      <c r="G62" t="n">
-        <v>40.16</v>
+        <v>31.27</v>
       </c>
     </row>
     <row r="63">
@@ -2007,22 +1754,16 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>17.86</v>
+        <v>33.4</v>
       </c>
       <c r="C63" t="n">
-        <v>20.9</v>
+        <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>6.98</v>
+        <v>15.56</v>
       </c>
       <c r="E63" t="n">
-        <v>31.76</v>
-      </c>
-      <c r="F63" t="n">
-        <v>19.824</v>
-      </c>
-      <c r="G63" t="n">
-        <v>42.705</v>
+        <v>31.24</v>
       </c>
     </row>
     <row r="64">
@@ -2030,22 +1771,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>17.64</v>
+        <v>33.4</v>
       </c>
       <c r="C64" t="n">
-        <v>20.9</v>
+        <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>6.96</v>
+        <v>15.55</v>
       </c>
       <c r="E64" t="n">
-        <v>29.63</v>
-      </c>
-      <c r="F64" t="n">
-        <v>19.718</v>
-      </c>
-      <c r="G64" t="n">
-        <v>45.17</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="65">
@@ -2053,22 +1788,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>17.43</v>
+        <v>33.4</v>
       </c>
       <c r="C65" t="n">
-        <v>20.89</v>
+        <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>7.02</v>
+        <v>15.46</v>
       </c>
       <c r="E65" t="n">
-        <v>28.43</v>
-      </c>
-      <c r="F65" t="n">
-        <v>19.692</v>
-      </c>
-      <c r="G65" t="n">
-        <v>46.56500000000001</v>
+        <v>31.34</v>
       </c>
     </row>
     <row r="66">
@@ -2076,22 +1805,16 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>17.23</v>
+        <v>33.4</v>
       </c>
       <c r="C66" t="n">
-        <v>20.5</v>
+        <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>7.06</v>
+        <v>15.27</v>
       </c>
       <c r="E66" t="n">
-        <v>27.35</v>
-      </c>
-      <c r="F66" t="n">
-        <v>19.606</v>
-      </c>
-      <c r="G66" t="n">
-        <v>48.27</v>
+        <v>31.53</v>
       </c>
     </row>
     <row r="67">
@@ -2099,22 +1822,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>17.05</v>
+        <v>33.4</v>
       </c>
       <c r="C67" t="n">
-        <v>20.11</v>
+        <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>7.09</v>
+        <v>15.09</v>
       </c>
       <c r="E67" t="n">
-        <v>26.64</v>
-      </c>
-      <c r="F67" t="n">
-        <v>19.54</v>
-      </c>
-      <c r="G67" t="n">
-        <v>49.59000000000001</v>
+        <v>31.71</v>
       </c>
     </row>
     <row r="68">
@@ -2122,22 +1839,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>17</v>
+        <v>33.4</v>
       </c>
       <c r="C68" t="n">
-        <v>19.77</v>
+        <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>7.12</v>
+        <v>14.98</v>
       </c>
       <c r="E68" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="F68" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="G68" t="n">
-        <v>50.91000000000001</v>
+        <v>31.82</v>
       </c>
     </row>
     <row r="69">
@@ -2145,22 +1856,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>16.94</v>
+        <v>33.4</v>
       </c>
       <c r="C69" t="n">
-        <v>19.35</v>
+        <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>7.15</v>
+        <v>14.84</v>
       </c>
       <c r="E69" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="F69" t="n">
-        <v>19.07999999999999</v>
-      </c>
-      <c r="G69" t="n">
-        <v>52.27999999999999</v>
+        <v>31.96</v>
       </c>
     </row>
     <row r="70">
@@ -2168,22 +1873,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>16.88</v>
+        <v>33.4</v>
       </c>
       <c r="C70" t="n">
-        <v>18.87</v>
+        <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>7.11</v>
+        <v>14.77</v>
       </c>
       <c r="E70" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="F70" t="n">
-        <v>18.87</v>
-      </c>
-      <c r="G70" t="n">
-        <v>53.77</v>
+        <v>32.03</v>
       </c>
     </row>
     <row r="71">
@@ -2191,22 +1890,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>16.82</v>
+        <v>33.4</v>
       </c>
       <c r="C71" t="n">
-        <v>18.37</v>
+        <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>7.08</v>
+        <v>14.62</v>
       </c>
       <c r="E71" t="n">
-        <v>23.45</v>
-      </c>
-      <c r="F71" t="n">
-        <v>19.04</v>
-      </c>
-      <c r="G71" t="n">
-        <v>55.23999999999999</v>
+        <v>32.18</v>
       </c>
     </row>
     <row r="72">
@@ -2214,22 +1907,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>16.78</v>
+        <v>33.4</v>
       </c>
       <c r="C72" t="n">
-        <v>18.21</v>
+        <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>7.09</v>
+        <v>14.42</v>
       </c>
       <c r="E72" t="n">
-        <v>23.26</v>
-      </c>
-      <c r="F72" t="n">
-        <v>19.13</v>
-      </c>
-      <c r="G72" t="n">
-        <v>55.52999999999999</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="73">
@@ -2237,22 +1924,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>16.75</v>
+        <v>33.4</v>
       </c>
       <c r="C73" t="n">
-        <v>18.35</v>
+        <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>6.96</v>
+        <v>14.22</v>
       </c>
       <c r="E73" t="n">
-        <v>23.02</v>
-      </c>
-      <c r="F73" t="n">
-        <v>19.22</v>
-      </c>
-      <c r="G73" t="n">
-        <v>55.69999999999999</v>
+        <v>32.58</v>
       </c>
     </row>
     <row r="74">
@@ -2260,22 +1941,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>16.64</v>
+        <v>33.4</v>
       </c>
       <c r="C74" t="n">
-        <v>18.51</v>
+        <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>6.83</v>
+        <v>14.05</v>
       </c>
       <c r="E74" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="F74" t="n">
-        <v>19.66</v>
-      </c>
-      <c r="G74" t="n">
-        <v>55.77</v>
+        <v>32.75</v>
       </c>
     </row>
     <row r="75">
@@ -2283,22 +1958,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>16.51</v>
+        <v>33.4</v>
       </c>
       <c r="C75" t="n">
-        <v>18.68</v>
+        <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>6.68</v>
+        <v>13.92</v>
       </c>
       <c r="E75" t="n">
-        <v>22.22</v>
-      </c>
-      <c r="F75" t="n">
-        <v>20.08</v>
-      </c>
-      <c r="G75" t="n">
-        <v>55.83000000000001</v>
+        <v>32.88</v>
       </c>
     </row>
     <row r="76">
@@ -2306,22 +1975,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>16.39</v>
+        <v>33.4</v>
       </c>
       <c r="C76" t="n">
-        <v>18.85</v>
+        <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>6.6</v>
+        <v>13.92</v>
       </c>
       <c r="E76" t="n">
-        <v>21.84</v>
-      </c>
-      <c r="F76" t="n">
-        <v>20.57</v>
-      </c>
-      <c r="G76" t="n">
-        <v>55.75500000000001</v>
+        <v>32.88</v>
       </c>
     </row>
     <row r="77">
@@ -2329,22 +1992,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>16.26</v>
+        <v>33.4</v>
       </c>
       <c r="C77" t="n">
-        <v>18.43</v>
+        <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>7.29</v>
+        <v>13.99</v>
       </c>
       <c r="E77" t="n">
-        <v>21.26</v>
-      </c>
-      <c r="F77" t="n">
-        <v>21.04</v>
-      </c>
-      <c r="G77" t="n">
-        <v>55.72000000000001</v>
+        <v>32.81</v>
       </c>
     </row>
     <row r="78">
@@ -2352,22 +2009,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>16.16</v>
+        <v>33.4</v>
       </c>
       <c r="C78" t="n">
-        <v>17.92</v>
+        <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>7.96</v>
+        <v>14.06</v>
       </c>
       <c r="E78" t="n">
-        <v>20.66</v>
-      </c>
-      <c r="F78" t="n">
-        <v>21.635</v>
-      </c>
-      <c r="G78" t="n">
-        <v>55.665</v>
+        <v>32.74</v>
       </c>
     </row>
     <row r="79">
@@ -2375,22 +2026,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>16.37</v>
+        <v>33.4</v>
       </c>
       <c r="C79" t="n">
-        <v>17.35</v>
+        <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>8.630000000000001</v>
+        <v>14.13</v>
       </c>
       <c r="E79" t="n">
-        <v>19.83</v>
-      </c>
-      <c r="F79" t="n">
-        <v>22.25</v>
-      </c>
-      <c r="G79" t="n">
-        <v>55.58</v>
+        <v>32.67</v>
       </c>
     </row>
     <row r="80">
@@ -2398,22 +2043,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>16.55</v>
+        <v>33.4</v>
       </c>
       <c r="C80" t="n">
-        <v>16.85</v>
+        <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>9.300000000000001</v>
+        <v>14.21</v>
       </c>
       <c r="E80" t="n">
-        <v>18.92</v>
-      </c>
-      <c r="F80" t="n">
-        <v>22.875</v>
-      </c>
-      <c r="G80" t="n">
-        <v>55.525</v>
+        <v>32.59</v>
       </c>
     </row>
     <row r="81">
@@ -2421,22 +2060,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>16.74</v>
+        <v>33.4</v>
       </c>
       <c r="C81" t="n">
-        <v>16.36</v>
+        <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>9.960000000000001</v>
+        <v>14.37</v>
       </c>
       <c r="E81" t="n">
-        <v>18.35</v>
-      </c>
-      <c r="F81" t="n">
-        <v>23.13</v>
-      </c>
-      <c r="G81" t="n">
-        <v>55.48999999999999</v>
+        <v>32.43</v>
       </c>
     </row>
     <row r="82">
@@ -2444,22 +2077,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>16.91</v>
+        <v>33.4</v>
       </c>
       <c r="C82" t="n">
-        <v>15.87</v>
+        <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>10.46</v>
+        <v>14.7</v>
       </c>
       <c r="E82" t="n">
-        <v>17.75</v>
-      </c>
-      <c r="F82" t="n">
-        <v>23.455</v>
-      </c>
-      <c r="G82" t="n">
-        <v>55.565</v>
+        <v>32.1</v>
       </c>
     </row>
     <row r="83">
@@ -2467,22 +2094,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>17.09</v>
+        <v>33.4</v>
       </c>
       <c r="C83" t="n">
-        <v>15.08</v>
+        <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>11.08</v>
+        <v>14.99</v>
       </c>
       <c r="E83" t="n">
-        <v>17.18</v>
-      </c>
-      <c r="F83" t="n">
-        <v>23.84</v>
-      </c>
-      <c r="G83" t="n">
-        <v>55.73999999999999</v>
+        <v>31.81</v>
       </c>
     </row>
     <row r="84">
@@ -2490,22 +2111,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>17.36</v>
+        <v>33.4</v>
       </c>
       <c r="C84" t="n">
-        <v>14.26</v>
+        <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>11.69</v>
+        <v>15.28</v>
       </c>
       <c r="E84" t="n">
-        <v>16.77</v>
-      </c>
-      <c r="F84" t="n">
-        <v>23.935</v>
-      </c>
-      <c r="G84" t="n">
-        <v>55.99499999999999</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="85">
@@ -2513,22 +2128,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>17.67</v>
+        <v>33.4</v>
       </c>
       <c r="C85" t="n">
-        <v>13.45</v>
+        <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>12.3</v>
+        <v>15.58</v>
       </c>
       <c r="E85" t="n">
-        <v>16.29</v>
-      </c>
-      <c r="F85" t="n">
-        <v>24.05</v>
-      </c>
-      <c r="G85" t="n">
-        <v>56.25</v>
+        <v>31.22</v>
       </c>
     </row>
     <row r="86">
@@ -2536,22 +2145,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>17.98</v>
+        <v>33.4</v>
       </c>
       <c r="C86" t="n">
-        <v>11.48</v>
+        <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>12.87</v>
+        <v>15.85</v>
       </c>
       <c r="E86" t="n">
-        <v>15.76</v>
-      </c>
-      <c r="F86" t="n">
-        <v>24.155</v>
-      </c>
-      <c r="G86" t="n">
-        <v>57.779</v>
+        <v>30.95</v>
       </c>
     </row>
     <row r="87">
@@ -2559,22 +2162,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>18.29</v>
+        <v>33.4</v>
       </c>
       <c r="C87" t="n">
-        <v>10.09</v>
+        <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>12.67</v>
+        <v>16.08</v>
       </c>
       <c r="E87" t="n">
-        <v>15.28</v>
-      </c>
-      <c r="F87" t="n">
-        <v>24.27</v>
-      </c>
-      <c r="G87" t="n">
-        <v>59.41800000000001</v>
+        <v>30.72</v>
       </c>
     </row>
     <row r="88">
@@ -2582,22 +2179,16 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>18.59</v>
+        <v>33.4</v>
       </c>
       <c r="C88" t="n">
-        <v>8.77</v>
+        <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>12.49</v>
+        <v>16.31</v>
       </c>
       <c r="E88" t="n">
-        <v>14.81</v>
-      </c>
-      <c r="F88" t="n">
-        <v>24.26</v>
-      </c>
-      <c r="G88" t="n">
-        <v>61.097</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="89">
@@ -2605,22 +2196,16 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>18.57</v>
+        <v>33.4</v>
       </c>
       <c r="C89" t="n">
-        <v>9.51</v>
+        <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>12.31</v>
+        <v>16.66</v>
       </c>
       <c r="E89" t="n">
-        <v>14.49</v>
-      </c>
-      <c r="F89" t="n">
-        <v>24.23</v>
-      </c>
-      <c r="G89" t="n">
-        <v>62.89600000000002</v>
+        <v>30.14</v>
       </c>
     </row>
     <row r="90">
@@ -2628,22 +2213,16 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>18.56</v>
+        <v>33.4</v>
       </c>
       <c r="C90" t="n">
-        <v>10.25</v>
+        <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>12.1</v>
+        <v>17</v>
       </c>
       <c r="E90" t="n">
-        <v>14.32</v>
-      </c>
-      <c r="F90" t="n">
-        <v>24.18</v>
-      </c>
-      <c r="G90" t="n">
-        <v>64.59500000000001</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="91">
@@ -2651,22 +2230,16 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>18.54</v>
+        <v>33.4</v>
       </c>
       <c r="C91" t="n">
-        <v>10.97</v>
+        <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>11.9</v>
+        <v>16.95</v>
       </c>
       <c r="E91" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="F91" t="n">
-        <v>24.1</v>
-      </c>
-      <c r="G91" t="n">
-        <v>66.29400000000001</v>
+        <v>29.86</v>
       </c>
     </row>
     <row r="92">
@@ -2674,25 +2247,16 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>18.52</v>
+        <v>33.4</v>
       </c>
       <c r="C92" t="n">
-        <v>11.29</v>
+        <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>11.82</v>
+        <v>16.75</v>
       </c>
       <c r="E92" t="n">
-        <v>14</v>
-      </c>
-      <c r="F92" t="n">
-        <v>24.01</v>
-      </c>
-      <c r="G92" t="n">
-        <v>68.36299999999999</v>
-      </c>
-      <c r="H92" t="n">
-        <v>10</v>
+        <v>30.05</v>
       </c>
     </row>
     <row r="93">
@@ -2700,25 +2264,16 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>18.48</v>
+        <v>33.4</v>
       </c>
       <c r="C93" t="n">
-        <v>11.6</v>
+        <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>11.74</v>
+        <v>16.57</v>
       </c>
       <c r="E93" t="n">
-        <v>13.68</v>
-      </c>
-      <c r="F93" t="n">
-        <v>23.86</v>
-      </c>
-      <c r="G93" t="n">
-        <v>70.63199999999998</v>
-      </c>
-      <c r="H93" t="n">
-        <v>9.715</v>
+        <v>30.24</v>
       </c>
     </row>
     <row r="94">
@@ -2726,25 +2281,16 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>18.38</v>
+        <v>33.4</v>
       </c>
       <c r="C94" t="n">
-        <v>11.95</v>
+        <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>11.53</v>
+        <v>16.38</v>
       </c>
       <c r="E94" t="n">
-        <v>13.64</v>
-      </c>
-      <c r="F94" t="n">
-        <v>23.73</v>
-      </c>
-      <c r="G94" t="n">
-        <v>72.821</v>
-      </c>
-      <c r="H94" t="n">
-        <v>9.619999999999999</v>
+        <v>30.42</v>
       </c>
     </row>
     <row r="95">
@@ -2752,25 +2298,16 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>18.19</v>
+        <v>33.4</v>
       </c>
       <c r="C95" t="n">
-        <v>12.3</v>
+        <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>11.35</v>
+        <v>16.02</v>
       </c>
       <c r="E95" t="n">
-        <v>13.67</v>
-      </c>
-      <c r="F95" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="G95" t="n">
-        <v>75.00999999999999</v>
-      </c>
-      <c r="H95" t="n">
-        <v>7.215</v>
+        <v>30.78</v>
       </c>
     </row>
     <row r="96">
@@ -2778,25 +2315,16 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>19.1</v>
+        <v>33.4</v>
       </c>
       <c r="C96" t="n">
-        <v>13.88</v>
+        <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>11.16</v>
+        <v>15.87</v>
       </c>
       <c r="E96" t="n">
-        <v>13.76</v>
-      </c>
-      <c r="F96" t="n">
-        <v>23.41</v>
-      </c>
-      <c r="G96" t="n">
-        <v>75.88</v>
-      </c>
-      <c r="H96" t="n">
-        <v>9.772</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="97">
@@ -2804,25 +2332,16 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>20.02</v>
+        <v>33.4</v>
       </c>
       <c r="C97" t="n">
-        <v>15.61</v>
+        <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>10.97</v>
+        <v>15.72</v>
       </c>
       <c r="E97" t="n">
-        <v>13.79</v>
-      </c>
-      <c r="F97" t="n">
-        <v>23.22</v>
-      </c>
-      <c r="G97" t="n">
-        <v>76.57999999999998</v>
-      </c>
-      <c r="H97" t="n">
-        <v>11.34333333333333</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="98">
@@ -2830,25 +2349,16 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>20.93</v>
+        <v>33.4</v>
       </c>
       <c r="C98" t="n">
-        <v>17.33</v>
+        <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>10.79</v>
+        <v>15.56</v>
       </c>
       <c r="E98" t="n">
-        <v>13.52</v>
-      </c>
-      <c r="F98" t="n">
-        <v>23.03</v>
-      </c>
-      <c r="G98" t="n">
-        <v>77.67999999999999</v>
-      </c>
-      <c r="H98" t="n">
-        <v>12.43714285714286</v>
+        <v>31.24</v>
       </c>
     </row>
     <row r="99">
@@ -2856,25 +2366,16 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>21.87</v>
+        <v>33.4</v>
       </c>
       <c r="C99" t="n">
-        <v>17.05</v>
+        <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>10.6</v>
+        <v>16.35</v>
       </c>
       <c r="E99" t="n">
-        <v>14.14</v>
-      </c>
-      <c r="F99" t="n">
-        <v>22.84</v>
-      </c>
-      <c r="G99" t="n">
-        <v>77.88</v>
-      </c>
-      <c r="H99" t="n">
-        <v>13.2575</v>
+        <v>30.46</v>
       </c>
     </row>
     <row r="100">
@@ -2882,25 +2383,16 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>22.82</v>
+        <v>33.4</v>
       </c>
       <c r="C100" t="n">
-        <v>17.16</v>
+        <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>10.42</v>
+        <v>17.2</v>
       </c>
       <c r="E100" t="n">
-        <v>14.33</v>
-      </c>
-      <c r="F100" t="n">
-        <v>22.67</v>
-      </c>
-      <c r="G100" t="n">
-        <v>78.06999999999998</v>
-      </c>
-      <c r="H100" t="n">
-        <v>13.89555555555556</v>
+        <v>29.6</v>
       </c>
     </row>
     <row r="101">
@@ -2908,25 +2400,16 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>23.78</v>
+        <v>33.4</v>
       </c>
       <c r="C101" t="n">
-        <v>17.26</v>
+        <v>0</v>
       </c>
       <c r="D101" t="n">
-        <v>10.22</v>
+        <v>18.49</v>
       </c>
       <c r="E101" t="n">
-        <v>14.53</v>
-      </c>
-      <c r="F101" t="n">
-        <v>22.52</v>
-      </c>
-      <c r="G101" t="n">
-        <v>78.25999999999999</v>
-      </c>
-      <c r="H101" t="n">
-        <v>14.406</v>
+        <v>28.31</v>
       </c>
     </row>
     <row r="102">
@@ -2934,25 +2417,16 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>24.73</v>
+        <v>33.4</v>
       </c>
       <c r="C102" t="n">
-        <v>17.79</v>
+        <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>10.03</v>
+        <v>19.56</v>
       </c>
       <c r="E102" t="n">
-        <v>14.81</v>
-      </c>
-      <c r="F102" t="n">
-        <v>22.39</v>
-      </c>
-      <c r="G102" t="n">
-        <v>77.92999999999999</v>
-      </c>
-      <c r="H102" t="n">
-        <v>14.406</v>
+        <v>27.24</v>
       </c>
     </row>
     <row r="103">
@@ -2960,25 +2434,16 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>25.68</v>
+        <v>33.4</v>
       </c>
       <c r="C103" t="n">
-        <v>18.2</v>
+        <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>9.85</v>
+        <v>20.46</v>
       </c>
       <c r="E103" t="n">
-        <v>15.38</v>
-      </c>
-      <c r="F103" t="n">
-        <v>22.26</v>
-      </c>
-      <c r="G103" t="n">
-        <v>77.41999999999999</v>
-      </c>
-      <c r="H103" t="n">
-        <v>15.286</v>
+        <v>26.34</v>
       </c>
     </row>
     <row r="104">
@@ -2986,25 +2451,16 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>28.24</v>
+        <v>33.4</v>
       </c>
       <c r="C104" t="n">
-        <v>17.28</v>
+        <v>0</v>
       </c>
       <c r="D104" t="n">
-        <v>9.73</v>
+        <v>21.43</v>
       </c>
       <c r="E104" t="n">
-        <v>15.62</v>
-      </c>
-      <c r="F104" t="n">
-        <v>22.11</v>
-      </c>
-      <c r="G104" t="n">
-        <v>76.91</v>
-      </c>
-      <c r="H104" t="n">
-        <v>16.203</v>
+        <v>25.37</v>
       </c>
     </row>
     <row r="105">
@@ -3012,25 +2468,16 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>30.85</v>
+        <v>33.4</v>
       </c>
       <c r="C105" t="n">
-        <v>16.34</v>
+        <v>0</v>
       </c>
       <c r="D105" t="n">
-        <v>9.609999999999999</v>
+        <v>22.57</v>
       </c>
       <c r="E105" t="n">
-        <v>15.79</v>
-      </c>
-      <c r="F105" t="n">
-        <v>21.96</v>
-      </c>
-      <c r="G105" t="n">
-        <v>76.42999999999999</v>
-      </c>
-      <c r="H105" t="n">
-        <v>17.1</v>
+        <v>24.23</v>
       </c>
     </row>
     <row r="106">
@@ -3038,25 +2485,16 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>31.72</v>
+        <v>33.4</v>
       </c>
       <c r="C106" t="n">
-        <v>15.35</v>
+        <v>0</v>
       </c>
       <c r="D106" t="n">
-        <v>9.49</v>
+        <v>23.47</v>
       </c>
       <c r="E106" t="n">
-        <v>15.96</v>
-      </c>
-      <c r="F106" t="n">
-        <v>21.89</v>
-      </c>
-      <c r="G106" t="n">
-        <v>76.654</v>
-      </c>
-      <c r="H106" t="n">
-        <v>18.93</v>
+        <v>23.33</v>
       </c>
     </row>
     <row r="107">
@@ -3064,25 +2502,16 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>32.54</v>
+        <v>33.4</v>
       </c>
       <c r="C107" t="n">
-        <v>14.21</v>
+        <v>0</v>
       </c>
       <c r="D107" t="n">
-        <v>9.35</v>
+        <v>24.37</v>
       </c>
       <c r="E107" t="n">
-        <v>16.22</v>
-      </c>
-      <c r="F107" t="n">
-        <v>21.83000000000001</v>
-      </c>
-      <c r="G107" t="n">
-        <v>77.15200000000002</v>
-      </c>
-      <c r="H107" t="n">
-        <v>18.703</v>
+        <v>22.43</v>
       </c>
     </row>
     <row r="108">
@@ -3090,25 +2519,16 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>33.35</v>
+        <v>33.4</v>
       </c>
       <c r="C108" t="n">
-        <v>12.99</v>
+        <v>0</v>
       </c>
       <c r="D108" t="n">
-        <v>9.199999999999999</v>
+        <v>25.32</v>
       </c>
       <c r="E108" t="n">
-        <v>16.73</v>
-      </c>
-      <c r="F108" t="n">
-        <v>21.67000000000001</v>
-      </c>
-      <c r="G108" t="n">
-        <v>77.52000000000001</v>
-      </c>
-      <c r="H108" t="n">
-        <v>18.536</v>
+        <v>21.48</v>
       </c>
     </row>
     <row r="109">
@@ -3116,25 +2536,16 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>34.09</v>
+        <v>33.38</v>
       </c>
       <c r="C109" t="n">
-        <v>11.78</v>
+        <v>0</v>
       </c>
       <c r="D109" t="n">
-        <v>9.050000000000001</v>
+        <v>25.21</v>
       </c>
       <c r="E109" t="n">
-        <v>16.33</v>
-      </c>
-      <c r="F109" t="n">
-        <v>21.53</v>
-      </c>
-      <c r="G109" t="n">
-        <v>78.828</v>
-      </c>
-      <c r="H109" t="n">
-        <v>18.389</v>
+        <v>21.59</v>
       </c>
     </row>
     <row r="110">
@@ -3142,25 +2553,16 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>34.82</v>
+        <v>33.52</v>
       </c>
       <c r="C110" t="n">
-        <v>10.18</v>
+        <v>0</v>
       </c>
       <c r="D110" t="n">
-        <v>8.92</v>
+        <v>24.86</v>
       </c>
       <c r="E110" t="n">
-        <v>16.35</v>
-      </c>
-      <c r="F110" t="n">
-        <v>21.37</v>
-      </c>
-      <c r="G110" t="n">
-        <v>80.146</v>
-      </c>
-      <c r="H110" t="n">
-        <v>18.222</v>
+        <v>21.78</v>
       </c>
     </row>
     <row r="111">
@@ -3168,25 +2570,16 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>35.54</v>
+        <v>33.66</v>
       </c>
       <c r="C111" t="n">
-        <v>8.869999999999999</v>
+        <v>0</v>
       </c>
       <c r="D111" t="n">
-        <v>8.81</v>
+        <v>24.44</v>
       </c>
       <c r="E111" t="n">
-        <v>16.23</v>
-      </c>
-      <c r="F111" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="G111" t="n">
-        <v>81.38400000000001</v>
-      </c>
-      <c r="H111" t="n">
-        <v>18.035</v>
+        <v>22.04</v>
       </c>
     </row>
     <row r="112">
@@ -3194,25 +2587,16 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>36.29</v>
+        <v>33.98</v>
       </c>
       <c r="C112" t="n">
-        <v>7.52</v>
+        <v>0</v>
       </c>
       <c r="D112" t="n">
-        <v>8.699999999999999</v>
+        <v>24.11</v>
       </c>
       <c r="E112" t="n">
-        <v>16.06</v>
-      </c>
-      <c r="F112" t="n">
-        <v>20.365</v>
-      </c>
-      <c r="G112" t="n">
-        <v>84.93000000000002</v>
-      </c>
-      <c r="H112" t="n">
-        <v>16.135</v>
+        <v>22.03</v>
       </c>
     </row>
     <row r="113">
@@ -3220,25 +2604,16 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>37.05</v>
+        <v>34.36</v>
       </c>
       <c r="C113" t="n">
-        <v>6.28</v>
+        <v>0</v>
       </c>
       <c r="D113" t="n">
-        <v>8.59</v>
+        <v>23.9</v>
       </c>
       <c r="E113" t="n">
-        <v>15.47</v>
-      </c>
-      <c r="F113" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="G113" t="n">
-        <v>88.45599999999999</v>
-      </c>
-      <c r="H113" t="n">
-        <v>14.255</v>
+        <v>21.84</v>
       </c>
     </row>
     <row r="114">
@@ -3246,25 +2621,16 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>35.95</v>
+        <v>34.27</v>
       </c>
       <c r="C114" t="n">
-        <v>6.39</v>
+        <v>0</v>
       </c>
       <c r="D114" t="n">
-        <v>8.539999999999999</v>
+        <v>24.1</v>
       </c>
       <c r="E114" t="n">
-        <v>15.36</v>
-      </c>
-      <c r="F114" t="n">
-        <v>19.455</v>
-      </c>
-      <c r="G114" t="n">
-        <v>91.91</v>
-      </c>
-      <c r="H114" t="n">
-        <v>14.395</v>
+        <v>21.71</v>
       </c>
     </row>
     <row r="115">
@@ -3272,25 +2638,16 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>34.86</v>
+        <v>34.36</v>
       </c>
       <c r="C115" t="n">
-        <v>6.46</v>
+        <v>0</v>
       </c>
       <c r="D115" t="n">
-        <v>8.48</v>
+        <v>24.31</v>
       </c>
       <c r="E115" t="n">
-        <v>15.08</v>
-      </c>
-      <c r="F115" t="n">
-        <v>19.23</v>
-      </c>
-      <c r="G115" t="n">
-        <v>95.33399999999999</v>
-      </c>
-      <c r="H115" t="n">
-        <v>14.555</v>
+        <v>21.39</v>
       </c>
     </row>
     <row r="116">
@@ -3298,25 +2655,16 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>34.39</v>
+        <v>34.75</v>
       </c>
       <c r="C116" t="n">
-        <v>6.59</v>
+        <v>0</v>
       </c>
       <c r="D116" t="n">
-        <v>10.1</v>
+        <v>24.34</v>
       </c>
       <c r="E116" t="n">
-        <v>14.78</v>
-      </c>
-      <c r="F116" t="n">
-        <v>18.186</v>
-      </c>
-      <c r="G116" t="n">
-        <v>98.054</v>
-      </c>
-      <c r="H116" t="n">
-        <v>13.906</v>
+        <v>20.95</v>
       </c>
     </row>
     <row r="117">
@@ -3324,25 +2672,16 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>33.96</v>
+        <v>35.08</v>
       </c>
       <c r="C117" t="n">
-        <v>6.7</v>
+        <v>0</v>
       </c>
       <c r="D117" t="n">
-        <v>12.37</v>
+        <v>24.29</v>
       </c>
       <c r="E117" t="n">
-        <v>14.19</v>
-      </c>
-      <c r="F117" t="n">
-        <v>16.852</v>
-      </c>
-      <c r="G117" t="n">
-        <v>100.64</v>
-      </c>
-      <c r="H117" t="n">
-        <v>13.294</v>
+        <v>20.65</v>
       </c>
     </row>
     <row r="118">
@@ -3350,25 +2689,16 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>33.53</v>
+        <v>35.72</v>
       </c>
       <c r="C118" t="n">
-        <v>6.87</v>
+        <v>0</v>
       </c>
       <c r="D118" t="n">
-        <v>14.62</v>
+        <v>23.88</v>
       </c>
       <c r="E118" t="n">
-        <v>13.66</v>
-      </c>
-      <c r="F118" t="n">
-        <v>15.698</v>
-      </c>
-      <c r="G118" t="n">
-        <v>102.936</v>
-      </c>
-      <c r="H118" t="n">
-        <v>12.682</v>
+        <v>20.4</v>
       </c>
     </row>
     <row r="119">
@@ -3376,25 +2706,16 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>32.7</v>
+        <v>36.18</v>
       </c>
       <c r="C119" t="n">
-        <v>6.95</v>
+        <v>0</v>
       </c>
       <c r="D119" t="n">
-        <v>18.6</v>
+        <v>23.65</v>
       </c>
       <c r="E119" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="F119" t="n">
-        <v>14.544</v>
-      </c>
-      <c r="G119" t="n">
-        <v>105.072</v>
-      </c>
-      <c r="H119" t="n">
-        <v>11.983</v>
+        <v>20.17</v>
       </c>
     </row>
     <row r="120">
@@ -3402,25 +2723,16 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>32.02</v>
+        <v>36.48</v>
       </c>
       <c r="C120" t="n">
-        <v>7.04</v>
+        <v>0</v>
       </c>
       <c r="D120" t="n">
-        <v>22.58</v>
+        <v>23.64</v>
       </c>
       <c r="E120" t="n">
-        <v>10.58</v>
-      </c>
-      <c r="F120" t="n">
-        <v>13.41</v>
-      </c>
-      <c r="G120" t="n">
-        <v>107.089</v>
-      </c>
-      <c r="H120" t="n">
-        <v>11.294</v>
+        <v>19.88</v>
       </c>
     </row>
     <row r="121">
@@ -3428,25 +2740,16 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>31.27</v>
+        <v>37.12</v>
       </c>
       <c r="C121" t="n">
-        <v>6.86</v>
+        <v>0</v>
       </c>
       <c r="D121" t="n">
-        <v>26.5</v>
+        <v>23.37</v>
       </c>
       <c r="E121" t="n">
-        <v>11.09</v>
-      </c>
-      <c r="F121" t="n">
-        <v>11.451</v>
-      </c>
-      <c r="G121" t="n">
-        <v>110.262</v>
-      </c>
-      <c r="H121" t="n">
-        <v>10.568</v>
+        <v>19.51</v>
       </c>
     </row>
     <row r="122">
@@ -3454,25 +2757,16 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>30.53</v>
+        <v>37.57</v>
       </c>
       <c r="C122" t="n">
-        <v>6.67</v>
+        <v>0</v>
       </c>
       <c r="D122" t="n">
-        <v>30.41</v>
+        <v>23.17</v>
       </c>
       <c r="E122" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F122" t="n">
-        <v>10.017</v>
-      </c>
-      <c r="G122" t="n">
-        <v>111.127</v>
-      </c>
-      <c r="H122" t="n">
-        <v>11.445</v>
+        <v>19.26</v>
       </c>
     </row>
     <row r="123">
@@ -3480,25 +2774,16 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>29.76</v>
+        <v>37.88</v>
       </c>
       <c r="C123" t="n">
-        <v>6.46</v>
+        <v>0</v>
       </c>
       <c r="D123" t="n">
-        <v>34.8</v>
+        <v>23.19</v>
       </c>
       <c r="E123" t="n">
-        <v>12.36</v>
-      </c>
-      <c r="F123" t="n">
-        <v>8.303000000000001</v>
-      </c>
-      <c r="G123" t="n">
-        <v>112.012</v>
-      </c>
-      <c r="H123" t="n">
-        <v>12.302</v>
+        <v>18.93</v>
       </c>
     </row>
     <row r="124">
@@ -3506,25 +2791,16 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>29.3</v>
+        <v>37.21</v>
       </c>
       <c r="C124" t="n">
-        <v>6.24</v>
+        <v>0</v>
       </c>
       <c r="D124" t="n">
-        <v>39.21</v>
+        <v>24.18</v>
       </c>
       <c r="E124" t="n">
-        <v>12.45</v>
-      </c>
-      <c r="F124" t="n">
-        <v>6.589</v>
-      </c>
-      <c r="G124" t="n">
-        <v>112.112</v>
-      </c>
-      <c r="H124" t="n">
-        <v>12.106</v>
+        <v>18.61</v>
       </c>
     </row>
     <row r="125">
@@ -3532,25 +2808,16 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>28.74</v>
+        <v>36.38</v>
       </c>
       <c r="C125" t="n">
-        <v>6.04</v>
+        <v>0</v>
       </c>
       <c r="D125" t="n">
-        <v>43.63</v>
+        <v>25.15</v>
       </c>
       <c r="E125" t="n">
-        <v>12.83</v>
-      </c>
-      <c r="F125" t="n">
-        <v>4.655</v>
-      </c>
-      <c r="G125" t="n">
-        <v>112.212</v>
-      </c>
-      <c r="H125" t="n">
-        <v>11.89</v>
+        <v>18.47</v>
       </c>
     </row>
     <row r="126">
@@ -3558,25 +2825,16 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>28.2</v>
+        <v>35.25</v>
       </c>
       <c r="C126" t="n">
-        <v>5.82</v>
+        <v>0</v>
       </c>
       <c r="D126" t="n">
-        <v>46.63</v>
+        <v>26.38</v>
       </c>
       <c r="E126" t="n">
-        <v>13.13</v>
-      </c>
-      <c r="F126" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="G126" t="n">
-        <v>112.292</v>
-      </c>
-      <c r="H126" t="n">
-        <v>12.383</v>
+        <v>18.37</v>
       </c>
     </row>
     <row r="127">
@@ -3584,25 +2842,16 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>27.66</v>
+        <v>34.11</v>
       </c>
       <c r="C127" t="n">
-        <v>5.55</v>
+        <v>0</v>
       </c>
       <c r="D127" t="n">
-        <v>50.93</v>
+        <v>27.6</v>
       </c>
       <c r="E127" t="n">
-        <v>12.04</v>
-      </c>
-      <c r="F127" t="n">
-        <v>2.715</v>
-      </c>
-      <c r="G127" t="n">
-        <v>112.292</v>
-      </c>
-      <c r="H127" t="n">
-        <v>12.816</v>
+        <v>18.29</v>
       </c>
     </row>
     <row r="128">
@@ -3610,25 +2859,16 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>27.06</v>
+        <v>32.21</v>
       </c>
       <c r="C128" t="n">
-        <v>4.87</v>
+        <v>0</v>
       </c>
       <c r="D128" t="n">
-        <v>55.21</v>
+        <v>29.57</v>
       </c>
       <c r="E128" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="F128" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="G128" t="n">
-        <v>112.292</v>
-      </c>
-      <c r="H128" t="n">
-        <v>13.78</v>
+        <v>18.22</v>
       </c>
     </row>
     <row r="129">
@@ -3636,25 +2876,16 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>26.94</v>
+        <v>30.75</v>
       </c>
       <c r="C129" t="n">
-        <v>4.28</v>
+        <v>0</v>
       </c>
       <c r="D129" t="n">
-        <v>57.75</v>
+        <v>31.12</v>
       </c>
       <c r="E129" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="F129" t="n">
-        <v>0.905</v>
-      </c>
-      <c r="G129" t="n">
-        <v>112.292</v>
-      </c>
-      <c r="H129" t="n">
-        <v>14.861</v>
+        <v>18.13</v>
       </c>
     </row>
     <row r="130">
@@ -3662,25 +2893,16 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>26.68</v>
+        <v>29.08</v>
       </c>
       <c r="C130" t="n">
-        <v>3.69</v>
+        <v>0</v>
       </c>
       <c r="D130" t="n">
-        <v>60.25</v>
+        <v>32.62</v>
       </c>
       <c r="E130" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="F130" t="n">
-        <v>0</v>
-      </c>
-      <c r="G130" t="n">
-        <v>112.371</v>
-      </c>
-      <c r="H130" t="n">
-        <v>16.032</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="131">
@@ -3688,25 +2910,16 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>26.49</v>
+        <v>26.98</v>
       </c>
       <c r="C131" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="D131" t="n">
-        <v>63.52</v>
+        <v>34.48</v>
       </c>
       <c r="E131" t="n">
-        <v>8.970000000000001</v>
-      </c>
-      <c r="F131" t="n">
-        <v>0</v>
-      </c>
-      <c r="G131" t="n">
-        <v>110.729</v>
-      </c>
-      <c r="H131" t="n">
-        <v>17.2</v>
+        <v>18.54</v>
       </c>
     </row>
     <row r="132">
@@ -3714,25 +2927,16 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>26.27</v>
+        <v>26.6</v>
       </c>
       <c r="C132" t="n">
-        <v>2.52</v>
+        <v>0</v>
       </c>
       <c r="D132" t="n">
-        <v>66.73</v>
+        <v>34.67</v>
       </c>
       <c r="E132" t="n">
-        <v>6.83</v>
-      </c>
-      <c r="F132" t="n">
-        <v>0</v>
-      </c>
-      <c r="G132" t="n">
-        <v>109.227</v>
-      </c>
-      <c r="H132" t="n">
-        <v>18.418</v>
+        <v>18.73</v>
       </c>
     </row>
     <row r="133">
@@ -3740,25 +2944,16 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>26.06</v>
+        <v>26.25</v>
       </c>
       <c r="C133" t="n">
-        <v>1.97</v>
+        <v>0</v>
       </c>
       <c r="D133" t="n">
-        <v>69.54000000000001</v>
+        <v>34.77</v>
       </c>
       <c r="E133" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="F133" t="n">
-        <v>0</v>
-      </c>
-      <c r="G133" t="n">
-        <v>107.725</v>
-      </c>
-      <c r="H133" t="n">
-        <v>19.586</v>
+        <v>18.99</v>
       </c>
     </row>
     <row r="134">
@@ -3766,25 +2961,16 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>25.69</v>
+        <v>27.77</v>
       </c>
       <c r="C134" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="D134" t="n">
-        <v>72.34999999999999</v>
+        <v>33.4</v>
       </c>
       <c r="E134" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="F134" t="n">
-        <v>0</v>
-      </c>
-      <c r="G134" t="n">
-        <v>107.314</v>
-      </c>
-      <c r="H134" t="n">
-        <v>19.75</v>
+        <v>19.26</v>
       </c>
     </row>
     <row r="135">
@@ -3792,25 +2978,16 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>25.71</v>
+        <v>29.36</v>
       </c>
       <c r="C135" t="n">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="D135" t="n">
-        <v>75.02</v>
+        <v>32.05</v>
       </c>
       <c r="E135" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="F135" t="n">
-        <v>0</v>
-      </c>
-      <c r="G135" t="n">
-        <v>106.893</v>
-      </c>
-      <c r="H135" t="n">
-        <v>19.787</v>
+        <v>19.45</v>
       </c>
     </row>
     <row r="136">
@@ -3818,25 +2995,16 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>25.49</v>
+        <v>31.62</v>
       </c>
       <c r="C136" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="D136" t="n">
-        <v>77.41</v>
+        <v>30.69</v>
       </c>
       <c r="E136" t="n">
-        <v>0</v>
-      </c>
-      <c r="F136" t="n">
-        <v>0</v>
-      </c>
-      <c r="G136" t="n">
-        <v>106.492</v>
-      </c>
-      <c r="H136" t="n">
-        <v>20.187</v>
+        <v>18.98</v>
       </c>
     </row>
     <row r="137">
@@ -3844,25 +3012,16 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>25.25</v>
+        <v>33.97</v>
       </c>
       <c r="C137" t="n">
         <v>0</v>
       </c>
       <c r="D137" t="n">
-        <v>77.87</v>
+        <v>29.39</v>
       </c>
       <c r="E137" t="n">
-        <v>0</v>
-      </c>
-      <c r="F137" t="n">
-        <v>0</v>
-      </c>
-      <c r="G137" t="n">
-        <v>106.171</v>
-      </c>
-      <c r="H137" t="n">
-        <v>20.707</v>
+        <v>18.35</v>
       </c>
     </row>
     <row r="138">
@@ -3870,25 +3029,16 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>25.05</v>
+        <v>36.79</v>
       </c>
       <c r="C138" t="n">
         <v>0</v>
       </c>
       <c r="D138" t="n">
-        <v>78.38</v>
+        <v>27.22</v>
       </c>
       <c r="E138" t="n">
-        <v>0</v>
-      </c>
-      <c r="F138" t="n">
-        <v>0</v>
-      </c>
-      <c r="G138" t="n">
-        <v>105.87</v>
-      </c>
-      <c r="H138" t="n">
-        <v>20.696</v>
+        <v>17.71</v>
       </c>
     </row>
     <row r="139">
@@ -3896,25 +3046,16 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>24.5</v>
+        <v>39.37</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
       </c>
       <c r="D139" t="n">
-        <v>78.84999999999999</v>
+        <v>25.28</v>
       </c>
       <c r="E139" t="n">
-        <v>0</v>
-      </c>
-      <c r="F139" t="n">
-        <v>0</v>
-      </c>
-      <c r="G139" t="n">
-        <v>106.048</v>
-      </c>
-      <c r="H139" t="n">
-        <v>20.598</v>
+        <v>17.07</v>
       </c>
     </row>
     <row r="140">
@@ -3922,25 +3063,16 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>24.04</v>
+        <v>42.07</v>
       </c>
       <c r="C140" t="n">
         <v>0</v>
       </c>
       <c r="D140" t="n">
-        <v>79.3</v>
+        <v>23.26</v>
       </c>
       <c r="E140" t="n">
-        <v>0</v>
-      </c>
-      <c r="F140" t="n">
-        <v>0</v>
-      </c>
-      <c r="G140" t="n">
-        <v>106.266</v>
-      </c>
-      <c r="H140" t="n">
-        <v>20.4</v>
+        <v>16.39</v>
       </c>
     </row>
     <row r="141">
@@ -3948,25 +3080,19 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>23.56</v>
+        <v>44.39</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
       </c>
       <c r="D141" t="n">
-        <v>79.02</v>
+        <v>21.62</v>
       </c>
       <c r="E141" t="n">
-        <v>0</v>
+        <v>15.71</v>
       </c>
       <c r="F141" t="n">
-        <v>0</v>
-      </c>
-      <c r="G141" t="n">
-        <v>107.129</v>
-      </c>
-      <c r="H141" t="n">
-        <v>20.292</v>
+        <v>20</v>
       </c>
     </row>
     <row r="142">
@@ -3974,25 +3100,19 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>23.1</v>
+        <v>44.81</v>
       </c>
       <c r="C142" t="n">
         <v>0</v>
       </c>
       <c r="D142" t="n">
-        <v>79.34</v>
+        <v>22.58</v>
       </c>
       <c r="E142" t="n">
-        <v>0</v>
+        <v>14.33</v>
       </c>
       <c r="F142" t="n">
-        <v>0</v>
-      </c>
-      <c r="G142" t="n">
-        <v>107.368</v>
-      </c>
-      <c r="H142" t="n">
-        <v>20.187</v>
+        <v>19.715</v>
       </c>
     </row>
     <row r="143">
@@ -4000,25 +3120,19 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>22.08</v>
+        <v>45.23</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
       </c>
       <c r="D143" t="n">
-        <v>79.54000000000001</v>
+        <v>23.41</v>
       </c>
       <c r="E143" t="n">
-        <v>0</v>
+        <v>13.13</v>
       </c>
       <c r="F143" t="n">
-        <v>0</v>
-      </c>
-      <c r="G143" t="n">
-        <v>107.562</v>
-      </c>
-      <c r="H143" t="n">
-        <v>20.82200000000001</v>
+        <v>19.55333333333333</v>
       </c>
     </row>
     <row r="144">
@@ -4026,25 +3140,19 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>21.39</v>
+        <v>45.27</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
       </c>
       <c r="D144" t="n">
-        <v>79.73</v>
+        <v>24.23</v>
       </c>
       <c r="E144" t="n">
-        <v>0</v>
+        <v>11.93</v>
       </c>
       <c r="F144" t="n">
-        <v>0</v>
-      </c>
-      <c r="G144" t="n">
-        <v>107.522</v>
-      </c>
-      <c r="H144" t="n">
-        <v>21.364</v>
+        <v>19.4475</v>
       </c>
     </row>
     <row r="145">
@@ -4052,25 +3160,19 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>20.41</v>
+        <v>45.48</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
       </c>
       <c r="D145" t="n">
-        <v>80.06</v>
+        <v>24.79</v>
       </c>
       <c r="E145" t="n">
-        <v>0</v>
+        <v>10.81</v>
       </c>
       <c r="F145" t="n">
-        <v>0</v>
-      </c>
-      <c r="G145" t="n">
-        <v>107.492</v>
-      </c>
-      <c r="H145" t="n">
-        <v>22.033</v>
+        <v>19.384</v>
       </c>
     </row>
     <row r="146">
@@ -4078,25 +3180,19 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>19.68</v>
+        <v>45.01</v>
       </c>
       <c r="C146" t="n">
         <v>0</v>
       </c>
       <c r="D146" t="n">
-        <v>80.58</v>
+        <v>25.31</v>
       </c>
       <c r="E146" t="n">
-        <v>0</v>
+        <v>10.41</v>
       </c>
       <c r="F146" t="n">
-        <v>0</v>
-      </c>
-      <c r="G146" t="n">
-        <v>107.442</v>
-      </c>
-      <c r="H146" t="n">
-        <v>22.289</v>
+        <v>18.96166666666667</v>
       </c>
     </row>
     <row r="147">
@@ -4104,25 +3200,19 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>18.85</v>
+        <v>44.47</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
       </c>
       <c r="D147" t="n">
-        <v>80.73999999999999</v>
+        <v>25.78</v>
       </c>
       <c r="E147" t="n">
-        <v>0</v>
+        <v>10.38</v>
       </c>
       <c r="F147" t="n">
-        <v>0</v>
-      </c>
-      <c r="G147" t="n">
-        <v>107.382</v>
-      </c>
-      <c r="H147" t="n">
-        <v>23.034</v>
+        <v>18.53142857142857</v>
       </c>
     </row>
     <row r="148">
@@ -4130,25 +3220,19 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>17.99</v>
+        <v>43.9</v>
       </c>
       <c r="C148" t="n">
         <v>0</v>
       </c>
       <c r="D148" t="n">
-        <v>80.81999999999999</v>
+        <v>26.77</v>
       </c>
       <c r="E148" t="n">
-        <v>0</v>
+        <v>10.35</v>
       </c>
       <c r="F148" t="n">
-        <v>0</v>
-      </c>
-      <c r="G148" t="n">
-        <v>107.302</v>
-      </c>
-      <c r="H148" t="n">
-        <v>23.889</v>
+        <v>18.23375</v>
       </c>
     </row>
     <row r="149">
@@ -4156,25 +3240,19 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>17.49</v>
+        <v>43.34</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
       </c>
       <c r="D149" t="n">
-        <v>81.61</v>
+        <v>27.73</v>
       </c>
       <c r="E149" t="n">
-        <v>0</v>
+        <v>10.34</v>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
-      </c>
-      <c r="G149" t="n">
-        <v>106.743</v>
-      </c>
-      <c r="H149" t="n">
-        <v>24.161</v>
+        <v>17.93555555555555</v>
       </c>
     </row>
     <row r="150">
@@ -4182,25 +3260,19 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>16.81</v>
+        <v>42.8</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
       </c>
       <c r="D150" t="n">
-        <v>82.39</v>
+        <v>28.91</v>
       </c>
       <c r="E150" t="n">
-        <v>0</v>
+        <v>10.16</v>
       </c>
       <c r="F150" t="n">
-        <v>0</v>
-      </c>
-      <c r="G150" t="n">
-        <v>106.44</v>
-      </c>
-      <c r="H150" t="n">
-        <v>24.361</v>
+        <v>16.512</v>
       </c>
     </row>
     <row r="151">
@@ -4208,25 +3280,19 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>16.08</v>
+        <v>42.68</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
       </c>
       <c r="D151" t="n">
-        <v>83.13</v>
+        <v>29.6</v>
       </c>
       <c r="E151" t="n">
-        <v>0</v>
+        <v>11.21</v>
       </c>
       <c r="F151" t="n">
-        <v>0</v>
-      </c>
-      <c r="G151" t="n">
-        <v>106.308</v>
-      </c>
-      <c r="H151" t="n">
-        <v>24.474</v>
+        <v>16.512</v>
       </c>
     </row>
     <row r="152">
@@ -4234,25 +3300,19 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>15.34</v>
+        <v>42.85</v>
       </c>
       <c r="C152" t="n">
         <v>0</v>
       </c>
       <c r="D152" t="n">
-        <v>83.33</v>
+        <v>29.34</v>
       </c>
       <c r="E152" t="n">
-        <v>0</v>
+        <v>12.99</v>
       </c>
       <c r="F152" t="n">
-        <v>0</v>
-      </c>
-      <c r="G152" t="n">
-        <v>106.77</v>
-      </c>
-      <c r="H152" t="n">
-        <v>24.564</v>
+        <v>14.822</v>
       </c>
     </row>
     <row r="153">
@@ -4260,25 +3320,19 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>15.06</v>
+        <v>43.98</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
       </c>
       <c r="D153" t="n">
-        <v>83.7</v>
+        <v>28.31</v>
       </c>
       <c r="E153" t="n">
-        <v>0</v>
+        <v>14.53</v>
       </c>
       <c r="F153" t="n">
-        <v>0</v>
-      </c>
-      <c r="G153" t="n">
-        <v>107.277</v>
-      </c>
-      <c r="H153" t="n">
-        <v>23.96400000000001</v>
+        <v>13.179</v>
       </c>
     </row>
     <row r="154">
@@ -4286,25 +3340,19 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>14.74</v>
+        <v>45.21</v>
       </c>
       <c r="C154" t="n">
         <v>0</v>
       </c>
       <c r="D154" t="n">
-        <v>84.08</v>
+        <v>27.24</v>
       </c>
       <c r="E154" t="n">
-        <v>0</v>
+        <v>15.99</v>
       </c>
       <c r="F154" t="n">
-        <v>0</v>
-      </c>
-      <c r="G154" t="n">
-        <v>107.727</v>
-      </c>
-      <c r="H154" t="n">
-        <v>23.457</v>
+        <v>11.556</v>
       </c>
     </row>
     <row r="155">
@@ -4312,25 +3360,19 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>14.48</v>
+        <v>45.84</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
       </c>
       <c r="D155" t="n">
-        <v>84.43000000000001</v>
+        <v>26.41</v>
       </c>
       <c r="E155" t="n">
-        <v>0</v>
+        <v>17.81</v>
       </c>
       <c r="F155" t="n">
-        <v>0</v>
-      </c>
-      <c r="G155" t="n">
-        <v>108.167</v>
-      </c>
-      <c r="H155" t="n">
-        <v>22.913</v>
+        <v>9.943000000000001</v>
       </c>
     </row>
     <row r="156">
@@ -4338,25 +3380,679 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>14.18</v>
+        <v>46.5</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
       </c>
       <c r="D156" t="n">
-        <v>84.86</v>
+        <v>25.61</v>
       </c>
       <c r="E156" t="n">
-        <v>0</v>
+        <v>19.58</v>
       </c>
       <c r="F156" t="n">
-        <v>0</v>
-      </c>
-      <c r="G156" t="n">
-        <v>108.627</v>
-      </c>
-      <c r="H156" t="n">
-        <v>22.329</v>
+        <v>8.309999999999999</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0</v>
+      </c>
+      <c r="D157" t="n">
+        <v>24.79</v>
+      </c>
+      <c r="E157" t="n">
+        <v>21.01</v>
+      </c>
+      <c r="F157" t="n">
+        <v>6.895</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>48.11</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0</v>
+      </c>
+      <c r="D158" t="n">
+        <v>23.95</v>
+      </c>
+      <c r="E158" t="n">
+        <v>22.43</v>
+      </c>
+      <c r="F158" t="n">
+        <v>5.513</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>49.02</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0</v>
+      </c>
+      <c r="D159" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="E159" t="n">
+        <v>23.83</v>
+      </c>
+      <c r="F159" t="n">
+        <v>4.111</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>50.08</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0</v>
+      </c>
+      <c r="D160" t="n">
+        <v>20.05</v>
+      </c>
+      <c r="E160" t="n">
+        <v>25.17</v>
+      </c>
+      <c r="F160" t="n">
+        <v>2.749</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0</v>
+      </c>
+      <c r="D161" t="n">
+        <v>18.99</v>
+      </c>
+      <c r="E161" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="F161" t="n">
+        <v>4.561999999999999</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>52.69</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0</v>
+      </c>
+      <c r="D162" t="n">
+        <v>17.97</v>
+      </c>
+      <c r="E162" t="n">
+        <v>25.42</v>
+      </c>
+      <c r="F162" t="n">
+        <v>5.976</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>53.27</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0</v>
+      </c>
+      <c r="D163" t="n">
+        <v>17.67</v>
+      </c>
+      <c r="E163" t="n">
+        <v>25.72</v>
+      </c>
+      <c r="F163" t="n">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>53.7</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0</v>
+      </c>
+      <c r="D164" t="n">
+        <v>17.45</v>
+      </c>
+      <c r="E164" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="F164" t="n">
+        <v>8.803999999999998</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>54.97</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0</v>
+      </c>
+      <c r="D165" t="n">
+        <v>16.78</v>
+      </c>
+      <c r="E165" t="n">
+        <v>26.11</v>
+      </c>
+      <c r="F165" t="n">
+        <v>10.198</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>56.22</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0</v>
+      </c>
+      <c r="D166" t="n">
+        <v>16.09</v>
+      </c>
+      <c r="E166" t="n">
+        <v>26.16</v>
+      </c>
+      <c r="F166" t="n">
+        <v>11.592</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>57.29</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0</v>
+      </c>
+      <c r="D167" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="E167" t="n">
+        <v>26.13</v>
+      </c>
+      <c r="F167" t="n">
+        <v>12.996</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>58.36</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0</v>
+      </c>
+      <c r="D168" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="E168" t="n">
+        <v>26.12</v>
+      </c>
+      <c r="F168" t="n">
+        <v>14.387</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>59.34</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0</v>
+      </c>
+      <c r="D169" t="n">
+        <v>16.84</v>
+      </c>
+      <c r="E169" t="n">
+        <v>26.12</v>
+      </c>
+      <c r="F169" t="n">
+        <v>15.768</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0</v>
+      </c>
+      <c r="D170" t="n">
+        <v>16.47</v>
+      </c>
+      <c r="E170" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="F170" t="n">
+        <v>17.169</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0</v>
+      </c>
+      <c r="D171" t="n">
+        <v>16.18</v>
+      </c>
+      <c r="E171" t="n">
+        <v>26.25</v>
+      </c>
+      <c r="F171" t="n">
+        <v>16.58</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>62.23</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0</v>
+      </c>
+      <c r="D172" t="n">
+        <v>15.31</v>
+      </c>
+      <c r="E172" t="n">
+        <v>26.31</v>
+      </c>
+      <c r="F172" t="n">
+        <v>16.43</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>63.06</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0</v>
+      </c>
+      <c r="D173" t="n">
+        <v>14.54</v>
+      </c>
+      <c r="E173" t="n">
+        <v>26.25</v>
+      </c>
+      <c r="F173" t="n">
+        <v>16.52</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>63.92</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0</v>
+      </c>
+      <c r="D174" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="E174" t="n">
+        <v>26.19</v>
+      </c>
+      <c r="F174" t="n">
+        <v>16.61</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>64.27</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0</v>
+      </c>
+      <c r="D175" t="n">
+        <v>13.31</v>
+      </c>
+      <c r="E175" t="n">
+        <v>26.15</v>
+      </c>
+      <c r="F175" t="n">
+        <v>16.777</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>64.72</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0</v>
+      </c>
+      <c r="D176" t="n">
+        <v>12.85</v>
+      </c>
+      <c r="E176" t="n">
+        <v>26.07</v>
+      </c>
+      <c r="F176" t="n">
+        <v>16.944</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>65.38</v>
+      </c>
+      <c r="C177" t="n">
+        <v>0</v>
+      </c>
+      <c r="D177" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="E177" t="n">
+        <v>26.07</v>
+      </c>
+      <c r="F177" t="n">
+        <v>17.046</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>66.28</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0</v>
+      </c>
+      <c r="D178" t="n">
+        <v>11.36</v>
+      </c>
+      <c r="E178" t="n">
+        <v>26.07</v>
+      </c>
+      <c r="F178" t="n">
+        <v>17.003</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="C179" t="n">
+        <v>0</v>
+      </c>
+      <c r="D179" t="n">
+        <v>10.55</v>
+      </c>
+      <c r="E179" t="n">
+        <v>26.07</v>
+      </c>
+      <c r="F179" t="n">
+        <v>16.925</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>68.15000000000001</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0</v>
+      </c>
+      <c r="D180" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="E180" t="n">
+        <v>26.07</v>
+      </c>
+      <c r="F180" t="n">
+        <v>16.827</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>69.18000000000001</v>
+      </c>
+      <c r="C181" t="n">
+        <v>0</v>
+      </c>
+      <c r="D181" t="n">
+        <v>8.76</v>
+      </c>
+      <c r="E181" t="n">
+        <v>26.07</v>
+      </c>
+      <c r="F181" t="n">
+        <v>16.709</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>69.53</v>
+      </c>
+      <c r="C182" t="n">
+        <v>0</v>
+      </c>
+      <c r="D182" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="E182" t="n">
+        <v>26.07</v>
+      </c>
+      <c r="F182" t="n">
+        <v>16.611</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>70.33</v>
+      </c>
+      <c r="C183" t="n">
+        <v>0</v>
+      </c>
+      <c r="D183" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="E183" t="n">
+        <v>26.07</v>
+      </c>
+      <c r="F183" t="n">
+        <v>16.253</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="C184" t="n">
+        <v>0</v>
+      </c>
+      <c r="D184" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="E184" t="n">
+        <v>26.07</v>
+      </c>
+      <c r="F184" t="n">
+        <v>16.035</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>72.36</v>
+      </c>
+      <c r="C185" t="n">
+        <v>0</v>
+      </c>
+      <c r="D185" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="E185" t="n">
+        <v>26.07</v>
+      </c>
+      <c r="F185" t="n">
+        <v>15.73</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>74.84999999999999</v>
+      </c>
+      <c r="C186" t="n">
+        <v>0</v>
+      </c>
+      <c r="D186" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="E186" t="n">
+        <v>26.07</v>
+      </c>
+      <c r="F186" t="n">
+        <v>14.105</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>77.23</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0</v>
+      </c>
+      <c r="D187" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="E187" t="n">
+        <v>26.07</v>
+      </c>
+      <c r="F187" t="n">
+        <v>12.535</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>79.37</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0</v>
+      </c>
+      <c r="D188" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="E188" t="n">
+        <v>26.07</v>
+      </c>
+      <c r="F188" t="n">
+        <v>11.18</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>81.54000000000001</v>
+      </c>
+      <c r="C189" t="n">
+        <v>0</v>
+      </c>
+      <c r="D189" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="E189" t="n">
+        <v>26.07</v>
+      </c>
+      <c r="F189" t="n">
+        <v>9.860000000000003</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/stacks_over_time_avg.xlsx
+++ b/Outputs/stacks_over_time_avg.xlsx
@@ -194,7 +194,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$B$2:$B$189</f>
+              <f>'data'!$B$2:$B$227</f>
             </numRef>
           </val>
         </ser>
@@ -221,7 +221,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$C$2:$C$189</f>
+              <f>'data'!$C$2:$C$227</f>
             </numRef>
           </val>
         </ser>
@@ -248,61 +248,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$D$2:$D$189</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="3"/>
-          <order val="3"/>
-          <tx>
-            <strRef>
-              <f>'data'!E1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'data'!$E$2:$E$189</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="4"/>
-          <order val="4"/>
-          <tx>
-            <strRef>
-              <f>'data'!F1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'data'!$F$2:$F$189</f>
+              <f>'data'!$D$2:$D$227</f>
             </numRef>
           </val>
         </ser>
@@ -672,7 +618,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F189"/>
+  <dimension ref="A1:D227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -688,12 +634,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Scott</t>
+          <t>Raymond</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Ben</t>
+          <t>Cedric</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -701,16 +647,6 @@
           <t>Fish</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Cedric</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Raymond</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -725,25 +661,19 @@
       <c r="D2" t="n">
         <v>20</v>
       </c>
-      <c r="E2" t="n">
-        <v>20</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20.5</v>
+        <v>20.38</v>
       </c>
       <c r="C3" t="n">
-        <v>19.5</v>
+        <v>19.71</v>
       </c>
       <c r="D3" t="n">
-        <v>20</v>
-      </c>
-      <c r="E3" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
     </row>
     <row r="4">
@@ -751,16 +681,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20.67</v>
+        <v>20.21</v>
       </c>
       <c r="C4" t="n">
-        <v>19.33</v>
+        <v>19.55</v>
       </c>
       <c r="D4" t="n">
-        <v>20</v>
-      </c>
-      <c r="E4" t="n">
-        <v>20</v>
+        <v>20.23</v>
       </c>
     </row>
     <row r="5">
@@ -768,16 +695,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>21.2</v>
+        <v>20.18</v>
       </c>
       <c r="C5" t="n">
-        <v>19.05</v>
+        <v>19.42</v>
       </c>
       <c r="D5" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="E5" t="n">
-        <v>19.95</v>
+        <v>20.4</v>
       </c>
     </row>
     <row r="6">
@@ -785,16 +709,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>21.44</v>
+        <v>20.16</v>
       </c>
       <c r="C6" t="n">
-        <v>18.84</v>
+        <v>19.32</v>
       </c>
       <c r="D6" t="n">
-        <v>19.68</v>
-      </c>
-      <c r="E6" t="n">
-        <v>20.04</v>
+        <v>20.52</v>
       </c>
     </row>
     <row r="7">
@@ -802,16 +723,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>21.15</v>
+        <v>20.19</v>
       </c>
       <c r="C7" t="n">
-        <v>17.92</v>
+        <v>19.22</v>
       </c>
       <c r="D7" t="n">
-        <v>20.83</v>
-      </c>
-      <c r="E7" t="n">
-        <v>20.1</v>
+        <v>20.58</v>
       </c>
     </row>
     <row r="8">
@@ -819,16 +737,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>20.94</v>
+        <v>20.12</v>
       </c>
       <c r="C8" t="n">
-        <v>17.2</v>
+        <v>19.34</v>
       </c>
       <c r="D8" t="n">
-        <v>21.71</v>
-      </c>
-      <c r="E8" t="n">
-        <v>20.14</v>
+        <v>20.54</v>
       </c>
     </row>
     <row r="9">
@@ -836,16 +751,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>21.01</v>
+        <v>20.07</v>
       </c>
       <c r="C9" t="n">
-        <v>16.56</v>
+        <v>19.35</v>
       </c>
       <c r="D9" t="n">
-        <v>22.28</v>
-      </c>
-      <c r="E9" t="n">
-        <v>20.15</v>
+        <v>20.58</v>
       </c>
     </row>
     <row r="10">
@@ -853,16 +765,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>20.88</v>
+        <v>19.99</v>
       </c>
       <c r="C10" t="n">
-        <v>16.29</v>
+        <v>19.36</v>
       </c>
       <c r="D10" t="n">
-        <v>22.69</v>
-      </c>
-      <c r="E10" t="n">
-        <v>20.14</v>
+        <v>20.65</v>
       </c>
     </row>
     <row r="11">
@@ -870,16 +779,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>21.06</v>
+        <v>19.9</v>
       </c>
       <c r="C11" t="n">
-        <v>16.05</v>
+        <v>19.41</v>
       </c>
       <c r="D11" t="n">
-        <v>23</v>
-      </c>
-      <c r="E11" t="n">
-        <v>19.89</v>
+        <v>20.69</v>
       </c>
     </row>
     <row r="12">
@@ -887,16 +793,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>21.06</v>
+        <v>19.9</v>
       </c>
       <c r="C12" t="n">
-        <v>16.05</v>
+        <v>19.41</v>
       </c>
       <c r="D12" t="n">
-        <v>23</v>
-      </c>
-      <c r="E12" t="n">
-        <v>19.89</v>
+        <v>20.69</v>
       </c>
     </row>
     <row r="13">
@@ -904,16 +807,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>21.32</v>
+        <v>19.82</v>
       </c>
       <c r="C13" t="n">
-        <v>15.47</v>
+        <v>19.41</v>
       </c>
       <c r="D13" t="n">
-        <v>23.56</v>
-      </c>
-      <c r="E13" t="n">
-        <v>19.65</v>
+        <v>20.78</v>
       </c>
     </row>
     <row r="14">
@@ -921,16 +821,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>21.23</v>
+        <v>19.67</v>
       </c>
       <c r="C14" t="n">
-        <v>14.92</v>
+        <v>19.47</v>
       </c>
       <c r="D14" t="n">
-        <v>24.46</v>
-      </c>
-      <c r="E14" t="n">
-        <v>19.39</v>
+        <v>20.86</v>
       </c>
     </row>
     <row r="15">
@@ -938,16 +835,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>21.2</v>
+        <v>19.59</v>
       </c>
       <c r="C15" t="n">
-        <v>14.37</v>
+        <v>19.83</v>
       </c>
       <c r="D15" t="n">
-        <v>25.31</v>
-      </c>
-      <c r="E15" t="n">
-        <v>19.12</v>
+        <v>20.58</v>
       </c>
     </row>
     <row r="16">
@@ -955,16 +849,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>21.14</v>
+        <v>19.57</v>
       </c>
       <c r="C16" t="n">
-        <v>13.88</v>
+        <v>20.2</v>
       </c>
       <c r="D16" t="n">
-        <v>26.11</v>
-      </c>
-      <c r="E16" t="n">
-        <v>18.87</v>
+        <v>20.23</v>
       </c>
     </row>
     <row r="17">
@@ -972,16 +863,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>21.12</v>
+        <v>19.56</v>
       </c>
       <c r="C17" t="n">
-        <v>13.43</v>
+        <v>20.58</v>
       </c>
       <c r="D17" t="n">
-        <v>26.91</v>
-      </c>
-      <c r="E17" t="n">
-        <v>18.56</v>
+        <v>19.86</v>
       </c>
     </row>
     <row r="18">
@@ -989,16 +877,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>22.27</v>
+        <v>19.37</v>
       </c>
       <c r="C18" t="n">
-        <v>12.58</v>
+        <v>21.13</v>
       </c>
       <c r="D18" t="n">
-        <v>26.96</v>
-      </c>
-      <c r="E18" t="n">
-        <v>18.23</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="19">
@@ -1006,16 +891,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>23.37</v>
+        <v>19.25</v>
       </c>
       <c r="C19" t="n">
-        <v>11.7</v>
+        <v>21.5</v>
       </c>
       <c r="D19" t="n">
-        <v>26.96</v>
-      </c>
-      <c r="E19" t="n">
-        <v>18.02</v>
+        <v>19.25</v>
       </c>
     </row>
     <row r="20">
@@ -1023,16 +905,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>24.43</v>
+        <v>19.13</v>
       </c>
       <c r="C20" t="n">
-        <v>10.78</v>
+        <v>21.93</v>
       </c>
       <c r="D20" t="n">
-        <v>27</v>
-      </c>
-      <c r="E20" t="n">
-        <v>17.83</v>
+        <v>18.94</v>
       </c>
     </row>
     <row r="21">
@@ -1040,16 +919,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>26.44</v>
+        <v>19.11</v>
       </c>
       <c r="C21" t="n">
-        <v>9.65</v>
+        <v>22.31</v>
       </c>
       <c r="D21" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="E21" t="n">
-        <v>17.65</v>
+        <v>18.58</v>
       </c>
     </row>
     <row r="22">
@@ -1057,16 +933,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>28.16</v>
+        <v>19.18</v>
       </c>
       <c r="C22" t="n">
-        <v>8.52</v>
+        <v>22.64</v>
       </c>
       <c r="D22" t="n">
-        <v>25.61</v>
-      </c>
-      <c r="E22" t="n">
-        <v>17.76</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="23">
@@ -1074,16 +947,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>29.61</v>
+        <v>19.22</v>
       </c>
       <c r="C23" t="n">
-        <v>7.71</v>
+        <v>22.99</v>
       </c>
       <c r="D23" t="n">
-        <v>24.87</v>
-      </c>
-      <c r="E23" t="n">
-        <v>17.86</v>
+        <v>17.79</v>
       </c>
     </row>
     <row r="24">
@@ -1091,16 +961,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>32.01</v>
+        <v>19.28</v>
       </c>
       <c r="C24" t="n">
-        <v>6.35</v>
+        <v>23.32</v>
       </c>
       <c r="D24" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="E24" t="n">
-        <v>17.98</v>
+        <v>17.4</v>
       </c>
     </row>
     <row r="25">
@@ -1108,16 +975,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>34.37</v>
+        <v>19.37</v>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>23.39</v>
       </c>
       <c r="D25" t="n">
-        <v>22.56</v>
-      </c>
-      <c r="E25" t="n">
-        <v>18.11</v>
+        <v>17.24</v>
       </c>
     </row>
     <row r="26">
@@ -1125,16 +989,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>36.6</v>
+        <v>19.43</v>
       </c>
       <c r="C26" t="n">
-        <v>3.67</v>
+        <v>23.45</v>
       </c>
       <c r="D26" t="n">
-        <v>21.55</v>
-      </c>
-      <c r="E26" t="n">
-        <v>18.22</v>
+        <v>17.12</v>
       </c>
     </row>
     <row r="27">
@@ -1142,16 +1003,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>38.81</v>
+        <v>19.45</v>
       </c>
       <c r="C27" t="n">
-        <v>2.32</v>
+        <v>23.54</v>
       </c>
       <c r="D27" t="n">
-        <v>20.57</v>
-      </c>
-      <c r="E27" t="n">
-        <v>18.32</v>
+        <v>17.01</v>
       </c>
     </row>
     <row r="28">
@@ -1159,16 +1017,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>39.82</v>
+        <v>19.63</v>
       </c>
       <c r="C28" t="n">
-        <v>1.85</v>
+        <v>23.47</v>
       </c>
       <c r="D28" t="n">
-        <v>19.89</v>
-      </c>
-      <c r="E28" t="n">
-        <v>18.44</v>
+        <v>16.9</v>
       </c>
     </row>
     <row r="29">
@@ -1176,16 +1031,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>40.9</v>
+        <v>19.75</v>
       </c>
       <c r="C29" t="n">
-        <v>1.44</v>
+        <v>23.45</v>
       </c>
       <c r="D29" t="n">
-        <v>19.22</v>
-      </c>
-      <c r="E29" t="n">
-        <v>18.45</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="30">
@@ -1193,16 +1045,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>41.83</v>
+        <v>19.77</v>
       </c>
       <c r="C30" t="n">
-        <v>1.14</v>
+        <v>23.22</v>
       </c>
       <c r="D30" t="n">
-        <v>18.58</v>
-      </c>
-      <c r="E30" t="n">
-        <v>18.45</v>
+        <v>17.01</v>
       </c>
     </row>
     <row r="31">
@@ -1210,16 +1059,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>42.03</v>
+        <v>19.77</v>
       </c>
       <c r="C31" t="n">
-        <v>0.86</v>
+        <v>23.03</v>
       </c>
       <c r="D31" t="n">
-        <v>18.68</v>
-      </c>
-      <c r="E31" t="n">
-        <v>18.43</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="32">
@@ -1227,16 +1073,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>42.23</v>
+        <v>19.76</v>
       </c>
       <c r="C32" t="n">
-        <v>0.6</v>
+        <v>22.84</v>
       </c>
       <c r="D32" t="n">
-        <v>18.48</v>
-      </c>
-      <c r="E32" t="n">
-        <v>18.69</v>
+        <v>17.4</v>
       </c>
     </row>
     <row r="33">
@@ -1244,16 +1087,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>42.05</v>
+        <v>19.74</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>22.72</v>
       </c>
       <c r="D33" t="n">
-        <v>18.35</v>
-      </c>
-      <c r="E33" t="n">
-        <v>19.6</v>
+        <v>17.54</v>
       </c>
     </row>
     <row r="34">
@@ -1261,16 +1101,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>41.21</v>
+        <v>19.68</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>22.61</v>
       </c>
       <c r="D34" t="n">
-        <v>18.28</v>
-      </c>
-      <c r="E34" t="n">
-        <v>20.51</v>
+        <v>17.71</v>
       </c>
     </row>
     <row r="35">
@@ -1278,16 +1115,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>40.35</v>
+        <v>19.59</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>22.56</v>
       </c>
       <c r="D35" t="n">
-        <v>18.21</v>
-      </c>
-      <c r="E35" t="n">
-        <v>21.44</v>
+        <v>17.85</v>
       </c>
     </row>
     <row r="36">
@@ -1295,16 +1129,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>39.47</v>
+        <v>19.44</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>22.56</v>
       </c>
       <c r="D36" t="n">
-        <v>18.15</v>
-      </c>
-      <c r="E36" t="n">
-        <v>22.38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37">
@@ -1312,16 +1143,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>38.69</v>
+        <v>19.31</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>22.54</v>
       </c>
       <c r="D37" t="n">
-        <v>17.98</v>
-      </c>
-      <c r="E37" t="n">
-        <v>23.33</v>
+        <v>18.15</v>
       </c>
     </row>
     <row r="38">
@@ -1329,16 +1157,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>38.21</v>
+        <v>18.58</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>22.54</v>
       </c>
       <c r="D38" t="n">
-        <v>17.55</v>
-      </c>
-      <c r="E38" t="n">
-        <v>24.24</v>
+        <v>18.88</v>
       </c>
     </row>
     <row r="39">
@@ -1346,16 +1171,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>37.65</v>
+        <v>17.94</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>22.52</v>
       </c>
       <c r="D39" t="n">
-        <v>17.22</v>
-      </c>
-      <c r="E39" t="n">
-        <v>25.13</v>
+        <v>19.54</v>
       </c>
     </row>
     <row r="40">
@@ -1363,16 +1185,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>36.82</v>
+        <v>17.39</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>22.7</v>
       </c>
       <c r="D40" t="n">
-        <v>16.87</v>
-      </c>
-      <c r="E40" t="n">
-        <v>26.31</v>
+        <v>19.91</v>
       </c>
     </row>
     <row r="41">
@@ -1380,16 +1199,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>35.94</v>
+        <v>16.79</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>22.89</v>
       </c>
       <c r="D41" t="n">
-        <v>16.52</v>
-      </c>
-      <c r="E41" t="n">
-        <v>27.54</v>
+        <v>20.32</v>
       </c>
     </row>
     <row r="42">
@@ -1397,16 +1213,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>34.99</v>
+        <v>17.12</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>23.06</v>
       </c>
       <c r="D42" t="n">
-        <v>16.57</v>
-      </c>
-      <c r="E42" t="n">
-        <v>28.44</v>
+        <v>20.82</v>
       </c>
     </row>
     <row r="43">
@@ -1414,16 +1227,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>34.79</v>
+        <v>17.47</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>23.15</v>
       </c>
       <c r="D43" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="E43" t="n">
-        <v>28.61</v>
+        <v>21.38</v>
       </c>
     </row>
     <row r="44">
@@ -1431,16 +1241,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>34.56</v>
+        <v>17.75</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>23.23</v>
       </c>
       <c r="D44" t="n">
-        <v>16.64</v>
-      </c>
-      <c r="E44" t="n">
-        <v>28.79</v>
+        <v>22.01</v>
       </c>
     </row>
     <row r="45">
@@ -1448,16 +1255,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>34.34</v>
+        <v>18.1</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>23.21</v>
       </c>
       <c r="D45" t="n">
-        <v>16.73</v>
-      </c>
-      <c r="E45" t="n">
-        <v>28.95</v>
+        <v>22.69</v>
       </c>
     </row>
     <row r="46">
@@ -1465,16 +1269,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>34.11</v>
+        <v>18.29</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>23.1</v>
       </c>
       <c r="D46" t="n">
-        <v>16.83</v>
-      </c>
-      <c r="E46" t="n">
-        <v>29.11</v>
+        <v>23.6</v>
       </c>
     </row>
     <row r="47">
@@ -1482,16 +1283,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>33.79</v>
+        <v>18.47</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>22.98</v>
       </c>
       <c r="D47" t="n">
-        <v>16.96</v>
-      </c>
-      <c r="E47" t="n">
-        <v>29.31</v>
+        <v>24.56</v>
       </c>
     </row>
     <row r="48">
@@ -1499,16 +1297,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>33.48</v>
+        <v>19.23</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>22.86</v>
       </c>
       <c r="D48" t="n">
-        <v>17.06</v>
-      </c>
-      <c r="E48" t="n">
-        <v>29.54</v>
+        <v>24.91</v>
       </c>
     </row>
     <row r="49">
@@ -1516,16 +1311,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>33.24</v>
+        <v>19.89</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>22.88</v>
       </c>
       <c r="D49" t="n">
-        <v>17.06</v>
-      </c>
-      <c r="E49" t="n">
-        <v>29.8</v>
+        <v>25.23</v>
       </c>
     </row>
     <row r="50">
@@ -1533,16 +1325,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>33.27</v>
+        <v>20.54</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>22.94</v>
       </c>
       <c r="D50" t="n">
-        <v>17.26</v>
-      </c>
-      <c r="E50" t="n">
-        <v>29.59</v>
+        <v>25.52</v>
       </c>
     </row>
     <row r="51">
@@ -1550,16 +1339,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>33.3</v>
+        <v>21.2</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>23.02</v>
       </c>
       <c r="D51" t="n">
-        <v>17.47</v>
-      </c>
-      <c r="E51" t="n">
-        <v>29.37</v>
+        <v>25.78</v>
       </c>
     </row>
     <row r="52">
@@ -1567,16 +1353,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>33.4</v>
+        <v>20.9</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>23.11</v>
       </c>
       <c r="D52" t="n">
-        <v>17.61</v>
-      </c>
-      <c r="E52" t="n">
-        <v>29.15</v>
+        <v>25.99</v>
       </c>
     </row>
     <row r="53">
@@ -1584,16 +1367,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>33.4</v>
+        <v>20.18</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>23.62</v>
       </c>
       <c r="D53" t="n">
-        <v>17.46</v>
-      </c>
-      <c r="E53" t="n">
-        <v>29.32</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="54">
@@ -1601,16 +1381,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>33.4</v>
+        <v>19.44</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>24.31</v>
       </c>
       <c r="D54" t="n">
-        <v>17.34</v>
-      </c>
-      <c r="E54" t="n">
-        <v>29.46</v>
+        <v>26.25</v>
       </c>
     </row>
     <row r="55">
@@ -1618,16 +1395,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>33.4</v>
+        <v>18.67</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>25.04</v>
       </c>
       <c r="D55" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="E55" t="n">
-        <v>29.6</v>
+        <v>26.29</v>
       </c>
     </row>
     <row r="56">
@@ -1635,16 +1409,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>33.4</v>
+        <v>18.05</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>25.86</v>
       </c>
       <c r="D56" t="n">
-        <v>17.04</v>
-      </c>
-      <c r="E56" t="n">
-        <v>29.76</v>
+        <v>26.09</v>
       </c>
     </row>
     <row r="57">
@@ -1652,16 +1423,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>33.4</v>
+        <v>17.55</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>26.67</v>
       </c>
       <c r="D57" t="n">
-        <v>16.91</v>
-      </c>
-      <c r="E57" t="n">
-        <v>29.89</v>
+        <v>25.79</v>
       </c>
     </row>
     <row r="58">
@@ -1669,16 +1437,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>33.4</v>
+        <v>17.05</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>27.36</v>
       </c>
       <c r="D58" t="n">
-        <v>16.71</v>
-      </c>
-      <c r="E58" t="n">
-        <v>30.09</v>
+        <v>25.59</v>
       </c>
     </row>
     <row r="59">
@@ -1686,16 +1451,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>33.4</v>
+        <v>16.45</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>27.94</v>
       </c>
       <c r="D59" t="n">
-        <v>16.57</v>
-      </c>
-      <c r="E59" t="n">
-        <v>30.23</v>
+        <v>25.62</v>
       </c>
     </row>
     <row r="60">
@@ -1703,16 +1465,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>33.4</v>
+        <v>15.84</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>28.46</v>
       </c>
       <c r="D60" t="n">
-        <v>16.18</v>
-      </c>
-      <c r="E60" t="n">
-        <v>30.62</v>
+        <v>25.7</v>
       </c>
     </row>
     <row r="61">
@@ -1720,16 +1479,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>33.4</v>
+        <v>15.25</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>28.95</v>
       </c>
       <c r="D61" t="n">
-        <v>15.83</v>
-      </c>
-      <c r="E61" t="n">
-        <v>30.97</v>
+        <v>25.79</v>
       </c>
     </row>
     <row r="62">
@@ -1737,16 +1493,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>33.4</v>
+        <v>14.58</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>29.45</v>
       </c>
       <c r="D62" t="n">
-        <v>15.53</v>
-      </c>
-      <c r="E62" t="n">
-        <v>31.27</v>
+        <v>25.96</v>
       </c>
     </row>
     <row r="63">
@@ -1754,16 +1507,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>33.4</v>
+        <v>14.33</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>29.48</v>
       </c>
       <c r="D63" t="n">
-        <v>15.56</v>
-      </c>
-      <c r="E63" t="n">
-        <v>31.24</v>
+        <v>26.18</v>
       </c>
     </row>
     <row r="64">
@@ -1771,16 +1521,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>33.4</v>
+        <v>14.17</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>29.38</v>
       </c>
       <c r="D64" t="n">
-        <v>15.55</v>
-      </c>
-      <c r="E64" t="n">
-        <v>31.25</v>
+        <v>26.45</v>
       </c>
     </row>
     <row r="65">
@@ -1788,16 +1535,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>33.4</v>
+        <v>13.94</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>29.49</v>
       </c>
       <c r="D65" t="n">
-        <v>15.46</v>
-      </c>
-      <c r="E65" t="n">
-        <v>31.34</v>
+        <v>26.57</v>
       </c>
     </row>
     <row r="66">
@@ -1805,16 +1549,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>33.4</v>
+        <v>13.71</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>29.73</v>
       </c>
       <c r="D66" t="n">
-        <v>15.27</v>
-      </c>
-      <c r="E66" t="n">
-        <v>31.53</v>
+        <v>26.56</v>
       </c>
     </row>
     <row r="67">
@@ -1822,16 +1563,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>33.4</v>
+        <v>13.38</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>29.99</v>
       </c>
       <c r="D67" t="n">
-        <v>15.09</v>
-      </c>
-      <c r="E67" t="n">
-        <v>31.71</v>
+        <v>26.63</v>
       </c>
     </row>
     <row r="68">
@@ -1839,16 +1577,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>33.4</v>
+        <v>13.03</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>30.39</v>
       </c>
       <c r="D68" t="n">
-        <v>14.98</v>
-      </c>
-      <c r="E68" t="n">
-        <v>31.82</v>
+        <v>26.58</v>
       </c>
     </row>
     <row r="69">
@@ -1856,16 +1591,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>33.4</v>
+        <v>12.84</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>30.82</v>
       </c>
       <c r="D69" t="n">
-        <v>14.84</v>
-      </c>
-      <c r="E69" t="n">
-        <v>31.96</v>
+        <v>26.34</v>
       </c>
     </row>
     <row r="70">
@@ -1873,16 +1605,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>33.4</v>
+        <v>12.67</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>31.28</v>
       </c>
       <c r="D70" t="n">
-        <v>14.77</v>
-      </c>
-      <c r="E70" t="n">
-        <v>32.03</v>
+        <v>26.05</v>
       </c>
     </row>
     <row r="71">
@@ -1890,16 +1619,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>33.4</v>
+        <v>12.54</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>31.75</v>
       </c>
       <c r="D71" t="n">
-        <v>14.62</v>
-      </c>
-      <c r="E71" t="n">
-        <v>32.18</v>
+        <v>25.72</v>
       </c>
     </row>
     <row r="72">
@@ -1907,16 +1633,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>33.4</v>
+        <v>12.53</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>32.2</v>
       </c>
       <c r="D72" t="n">
-        <v>14.42</v>
-      </c>
-      <c r="E72" t="n">
-        <v>32.38</v>
+        <v>25.27</v>
       </c>
     </row>
     <row r="73">
@@ -1924,16 +1647,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>33.4</v>
+        <v>12.54</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>32.65</v>
       </c>
       <c r="D73" t="n">
-        <v>14.22</v>
-      </c>
-      <c r="E73" t="n">
-        <v>32.58</v>
+        <v>24.8</v>
       </c>
     </row>
     <row r="74">
@@ -1941,16 +1661,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>33.4</v>
+        <v>12.88</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>32.93</v>
       </c>
       <c r="D74" t="n">
-        <v>14.05</v>
-      </c>
-      <c r="E74" t="n">
-        <v>32.75</v>
+        <v>24.19</v>
       </c>
     </row>
     <row r="75">
@@ -1958,16 +1675,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>33.4</v>
+        <v>13.27</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>32.89</v>
       </c>
       <c r="D75" t="n">
-        <v>13.92</v>
-      </c>
-      <c r="E75" t="n">
-        <v>32.88</v>
+        <v>23.85</v>
       </c>
     </row>
     <row r="76">
@@ -1975,16 +1689,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>33.4</v>
+        <v>13.68</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>32.65</v>
       </c>
       <c r="D76" t="n">
-        <v>13.92</v>
-      </c>
-      <c r="E76" t="n">
-        <v>32.88</v>
+        <v>23.67</v>
       </c>
     </row>
     <row r="77">
@@ -1992,16 +1703,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>33.4</v>
+        <v>13.94</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>32.43</v>
       </c>
       <c r="D77" t="n">
-        <v>13.99</v>
-      </c>
-      <c r="E77" t="n">
-        <v>32.81</v>
+        <v>23.63</v>
       </c>
     </row>
     <row r="78">
@@ -2009,16 +1717,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>33.4</v>
+        <v>14.2</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>32.45</v>
       </c>
       <c r="D78" t="n">
-        <v>14.06</v>
-      </c>
-      <c r="E78" t="n">
-        <v>32.74</v>
+        <v>23.35</v>
       </c>
     </row>
     <row r="79">
@@ -2026,16 +1731,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>33.4</v>
+        <v>14.66</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>32.43</v>
       </c>
       <c r="D79" t="n">
-        <v>14.13</v>
-      </c>
-      <c r="E79" t="n">
-        <v>32.67</v>
+        <v>22.91</v>
       </c>
     </row>
     <row r="80">
@@ -2043,16 +1745,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>33.4</v>
+        <v>15.11</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>32.39</v>
       </c>
       <c r="D80" t="n">
-        <v>14.21</v>
-      </c>
-      <c r="E80" t="n">
-        <v>32.59</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="81">
@@ -2060,16 +1759,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>33.4</v>
+        <v>15.51</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>32.39</v>
       </c>
       <c r="D81" t="n">
-        <v>14.37</v>
-      </c>
-      <c r="E81" t="n">
-        <v>32.43</v>
+        <v>22.09</v>
       </c>
     </row>
     <row r="82">
@@ -2077,16 +1773,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>33.4</v>
+        <v>15.77</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>32.54</v>
       </c>
       <c r="D82" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="E82" t="n">
-        <v>32.1</v>
+        <v>21.7</v>
       </c>
     </row>
     <row r="83">
@@ -2094,16 +1787,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>33.4</v>
+        <v>16.01</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>32.65</v>
       </c>
       <c r="D83" t="n">
-        <v>14.99</v>
-      </c>
-      <c r="E83" t="n">
-        <v>31.81</v>
+        <v>21.35</v>
       </c>
     </row>
     <row r="84">
@@ -2111,16 +1801,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>33.4</v>
+        <v>15.84</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>33.02</v>
       </c>
       <c r="D84" t="n">
-        <v>15.28</v>
-      </c>
-      <c r="E84" t="n">
-        <v>31.52</v>
+        <v>21.14</v>
       </c>
     </row>
     <row r="85">
@@ -2128,16 +1815,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>33.4</v>
+        <v>15.68</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>33.69</v>
       </c>
       <c r="D85" t="n">
-        <v>15.58</v>
-      </c>
-      <c r="E85" t="n">
-        <v>31.22</v>
+        <v>20.63</v>
       </c>
     </row>
     <row r="86">
@@ -2145,16 +1829,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>33.4</v>
+        <v>15.51</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>34.36</v>
       </c>
       <c r="D86" t="n">
-        <v>15.85</v>
-      </c>
-      <c r="E86" t="n">
-        <v>30.95</v>
+        <v>20.13</v>
       </c>
     </row>
     <row r="87">
@@ -2162,16 +1843,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>33.4</v>
+        <v>15.47</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>35.06</v>
       </c>
       <c r="D87" t="n">
-        <v>16.08</v>
-      </c>
-      <c r="E87" t="n">
-        <v>30.72</v>
+        <v>19.47</v>
       </c>
     </row>
     <row r="88">
@@ -2179,16 +1857,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>33.4</v>
+        <v>15.45</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>35.47</v>
       </c>
       <c r="D88" t="n">
-        <v>16.31</v>
-      </c>
-      <c r="E88" t="n">
-        <v>30.49</v>
+        <v>19.08</v>
       </c>
     </row>
     <row r="89">
@@ -2196,16 +1871,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>33.4</v>
+        <v>15.24</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>35.88</v>
       </c>
       <c r="D89" t="n">
-        <v>16.66</v>
-      </c>
-      <c r="E89" t="n">
-        <v>30.14</v>
+        <v>18.87</v>
       </c>
     </row>
     <row r="90">
@@ -2213,16 +1885,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>33.4</v>
+        <v>15.08</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>36.28</v>
       </c>
       <c r="D90" t="n">
-        <v>17</v>
-      </c>
-      <c r="E90" t="n">
-        <v>29.8</v>
+        <v>18.65</v>
       </c>
     </row>
     <row r="91">
@@ -2230,16 +1899,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>33.4</v>
+        <v>14.92</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>36.63</v>
       </c>
       <c r="D91" t="n">
-        <v>16.95</v>
-      </c>
-      <c r="E91" t="n">
-        <v>29.86</v>
+        <v>18.45</v>
       </c>
     </row>
     <row r="92">
@@ -2247,16 +1913,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>33.4</v>
+        <v>14.8</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>36.91</v>
       </c>
       <c r="D92" t="n">
-        <v>16.75</v>
-      </c>
-      <c r="E92" t="n">
-        <v>30.05</v>
+        <v>18.29</v>
       </c>
     </row>
     <row r="93">
@@ -2264,16 +1927,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>33.4</v>
+        <v>14.72</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>37.21</v>
       </c>
       <c r="D93" t="n">
-        <v>16.57</v>
-      </c>
-      <c r="E93" t="n">
-        <v>30.24</v>
+        <v>18.07</v>
       </c>
     </row>
     <row r="94">
@@ -2281,16 +1941,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>33.4</v>
+        <v>14.72</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>37.45</v>
       </c>
       <c r="D94" t="n">
-        <v>16.38</v>
-      </c>
-      <c r="E94" t="n">
-        <v>30.42</v>
+        <v>17.83</v>
       </c>
     </row>
     <row r="95">
@@ -2298,16 +1955,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>33.4</v>
+        <v>14.96</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>37.49</v>
       </c>
       <c r="D95" t="n">
-        <v>16.02</v>
-      </c>
-      <c r="E95" t="n">
-        <v>30.78</v>
+        <v>17.55</v>
       </c>
     </row>
     <row r="96">
@@ -2315,16 +1969,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>33.4</v>
+        <v>15.21</v>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>37.46</v>
       </c>
       <c r="D96" t="n">
-        <v>15.87</v>
-      </c>
-      <c r="E96" t="n">
-        <v>30.93</v>
+        <v>17.33</v>
       </c>
     </row>
     <row r="97">
@@ -2332,16 +1983,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>33.4</v>
+        <v>15.47</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="D97" t="n">
-        <v>15.72</v>
-      </c>
-      <c r="E97" t="n">
-        <v>31.09</v>
+        <v>17.03</v>
       </c>
     </row>
     <row r="98">
@@ -2349,16 +1997,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>33.4</v>
+        <v>15.77</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>37.54</v>
       </c>
       <c r="D98" t="n">
-        <v>15.56</v>
-      </c>
-      <c r="E98" t="n">
-        <v>31.24</v>
+        <v>16.69</v>
       </c>
     </row>
     <row r="99">
@@ -2366,16 +2011,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>33.4</v>
+        <v>16.05</v>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>37.56</v>
       </c>
       <c r="D99" t="n">
-        <v>16.35</v>
-      </c>
-      <c r="E99" t="n">
-        <v>30.46</v>
+        <v>16.39</v>
       </c>
     </row>
     <row r="100">
@@ -2383,16 +2025,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>33.4</v>
+        <v>16.31</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>37.6</v>
       </c>
       <c r="D100" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="E100" t="n">
-        <v>29.6</v>
+        <v>16.1</v>
       </c>
     </row>
     <row r="101">
@@ -2400,16 +2039,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>33.4</v>
+        <v>16.43</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>37.65</v>
       </c>
       <c r="D101" t="n">
-        <v>18.49</v>
-      </c>
-      <c r="E101" t="n">
-        <v>28.31</v>
+        <v>15.94</v>
       </c>
     </row>
     <row r="102">
@@ -2417,16 +2053,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>33.4</v>
+        <v>16.56</v>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>37.66</v>
       </c>
       <c r="D102" t="n">
-        <v>19.56</v>
-      </c>
-      <c r="E102" t="n">
-        <v>27.24</v>
+        <v>15.81</v>
       </c>
     </row>
     <row r="103">
@@ -2434,16 +2067,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>33.4</v>
+        <v>16.63</v>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>37.69</v>
       </c>
       <c r="D103" t="n">
-        <v>20.46</v>
-      </c>
-      <c r="E103" t="n">
-        <v>26.34</v>
+        <v>15.72</v>
       </c>
     </row>
     <row r="104">
@@ -2451,16 +2081,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>33.4</v>
+        <v>16.75</v>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>37.68</v>
       </c>
       <c r="D104" t="n">
-        <v>21.43</v>
-      </c>
-      <c r="E104" t="n">
-        <v>25.37</v>
+        <v>15.62</v>
       </c>
     </row>
     <row r="105">
@@ -2468,16 +2095,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>33.4</v>
+        <v>16.51</v>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>37.66</v>
       </c>
       <c r="D105" t="n">
-        <v>22.57</v>
-      </c>
-      <c r="E105" t="n">
-        <v>24.23</v>
+        <v>15.88</v>
       </c>
     </row>
     <row r="106">
@@ -2485,16 +2109,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>33.4</v>
+        <v>16.28</v>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>37.68</v>
       </c>
       <c r="D106" t="n">
-        <v>23.47</v>
-      </c>
-      <c r="E106" t="n">
-        <v>23.33</v>
+        <v>16.09</v>
       </c>
     </row>
     <row r="107">
@@ -2502,16 +2123,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>33.4</v>
+        <v>16.13</v>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>37.54</v>
       </c>
       <c r="D107" t="n">
-        <v>24.37</v>
-      </c>
-      <c r="E107" t="n">
-        <v>22.43</v>
+        <v>16.38</v>
       </c>
     </row>
     <row r="108">
@@ -2519,16 +2137,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>33.4</v>
+        <v>15.93</v>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>37.51</v>
       </c>
       <c r="D108" t="n">
-        <v>25.32</v>
-      </c>
-      <c r="E108" t="n">
-        <v>21.48</v>
+        <v>16.61</v>
       </c>
     </row>
     <row r="109">
@@ -2536,16 +2151,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>33.38</v>
+        <v>15.73</v>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="D109" t="n">
-        <v>25.21</v>
-      </c>
-      <c r="E109" t="n">
-        <v>21.59</v>
+        <v>16.82</v>
       </c>
     </row>
     <row r="110">
@@ -2553,16 +2165,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>33.52</v>
+        <v>15.52</v>
       </c>
       <c r="C110" t="n">
-        <v>0</v>
+        <v>37.48</v>
       </c>
       <c r="D110" t="n">
-        <v>24.86</v>
-      </c>
-      <c r="E110" t="n">
-        <v>21.78</v>
+        <v>17.04</v>
       </c>
     </row>
     <row r="111">
@@ -2570,16 +2179,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>33.66</v>
+        <v>15.48</v>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>37.45</v>
       </c>
       <c r="D111" t="n">
-        <v>24.44</v>
-      </c>
-      <c r="E111" t="n">
-        <v>22.04</v>
+        <v>17.1</v>
       </c>
     </row>
     <row r="112">
@@ -2587,16 +2193,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>33.98</v>
+        <v>15.46</v>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>37.4</v>
       </c>
       <c r="D112" t="n">
-        <v>24.11</v>
-      </c>
-      <c r="E112" t="n">
-        <v>22.03</v>
+        <v>17.16</v>
       </c>
     </row>
     <row r="113">
@@ -2604,16 +2207,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>34.36</v>
+        <v>15.45</v>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>37.31</v>
       </c>
       <c r="D113" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="E113" t="n">
-        <v>21.84</v>
+        <v>17.24</v>
       </c>
     </row>
     <row r="114">
@@ -2621,16 +2221,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>34.27</v>
+        <v>15.33</v>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>37.21</v>
       </c>
       <c r="D114" t="n">
-        <v>24.1</v>
-      </c>
-      <c r="E114" t="n">
-        <v>21.71</v>
+        <v>17.45</v>
       </c>
     </row>
     <row r="115">
@@ -2638,16 +2235,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>34.36</v>
+        <v>15.28</v>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>37.11</v>
       </c>
       <c r="D115" t="n">
-        <v>24.31</v>
-      </c>
-      <c r="E115" t="n">
-        <v>21.39</v>
+        <v>17.62</v>
       </c>
     </row>
     <row r="116">
@@ -2655,16 +2249,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>34.75</v>
+        <v>15.2</v>
       </c>
       <c r="C116" t="n">
-        <v>0</v>
+        <v>37.01</v>
       </c>
       <c r="D116" t="n">
-        <v>24.34</v>
-      </c>
-      <c r="E116" t="n">
-        <v>20.95</v>
+        <v>17.79</v>
       </c>
     </row>
     <row r="117">
@@ -2672,16 +2263,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>35.08</v>
+        <v>15.14</v>
       </c>
       <c r="C117" t="n">
-        <v>0</v>
+        <v>36.96</v>
       </c>
       <c r="D117" t="n">
-        <v>24.29</v>
-      </c>
-      <c r="E117" t="n">
-        <v>20.65</v>
+        <v>17.9</v>
       </c>
     </row>
     <row r="118">
@@ -2689,16 +2277,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>35.72</v>
+        <v>15.11</v>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>36.83</v>
       </c>
       <c r="D118" t="n">
-        <v>23.88</v>
-      </c>
-      <c r="E118" t="n">
-        <v>20.4</v>
+        <v>18.06</v>
       </c>
     </row>
     <row r="119">
@@ -2706,16 +2291,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>36.18</v>
+        <v>15.03</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>36.67</v>
       </c>
       <c r="D119" t="n">
-        <v>23.65</v>
-      </c>
-      <c r="E119" t="n">
-        <v>20.17</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="120">
@@ -2723,16 +2305,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>36.48</v>
+        <v>14.99</v>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>36.49</v>
       </c>
       <c r="D120" t="n">
-        <v>23.64</v>
-      </c>
-      <c r="E120" t="n">
-        <v>19.88</v>
+        <v>18.52</v>
       </c>
     </row>
     <row r="121">
@@ -2740,16 +2319,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>37.12</v>
+        <v>14.92</v>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>36.31</v>
       </c>
       <c r="D121" t="n">
-        <v>23.37</v>
-      </c>
-      <c r="E121" t="n">
-        <v>19.51</v>
+        <v>18.77</v>
       </c>
     </row>
     <row r="122">
@@ -2757,16 +2333,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>37.57</v>
+        <v>14.94</v>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
+        <v>36.14</v>
       </c>
       <c r="D122" t="n">
-        <v>23.17</v>
-      </c>
-      <c r="E122" t="n">
-        <v>19.26</v>
+        <v>18.92</v>
       </c>
     </row>
     <row r="123">
@@ -2774,16 +2347,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>37.88</v>
+        <v>15.26</v>
       </c>
       <c r="C123" t="n">
-        <v>0</v>
+        <v>35.8</v>
       </c>
       <c r="D123" t="n">
-        <v>23.19</v>
-      </c>
-      <c r="E123" t="n">
-        <v>18.93</v>
+        <v>18.94</v>
       </c>
     </row>
     <row r="124">
@@ -2791,16 +2361,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>37.21</v>
+        <v>15.64</v>
       </c>
       <c r="C124" t="n">
-        <v>0</v>
+        <v>35.46</v>
       </c>
       <c r="D124" t="n">
-        <v>24.18</v>
-      </c>
-      <c r="E124" t="n">
-        <v>18.61</v>
+        <v>18.9</v>
       </c>
     </row>
     <row r="125">
@@ -2808,16 +2375,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>36.38</v>
+        <v>16.06</v>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
+        <v>35.17</v>
       </c>
       <c r="D125" t="n">
-        <v>25.15</v>
-      </c>
-      <c r="E125" t="n">
-        <v>18.47</v>
+        <v>18.77</v>
       </c>
     </row>
     <row r="126">
@@ -2825,16 +2389,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>35.25</v>
+        <v>16.49</v>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>34.88</v>
       </c>
       <c r="D126" t="n">
-        <v>26.38</v>
-      </c>
-      <c r="E126" t="n">
-        <v>18.37</v>
+        <v>18.63</v>
       </c>
     </row>
     <row r="127">
@@ -2842,16 +2403,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>34.11</v>
+        <v>16.82</v>
       </c>
       <c r="C127" t="n">
-        <v>0</v>
+        <v>34.6</v>
       </c>
       <c r="D127" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E127" t="n">
-        <v>18.29</v>
+        <v>18.59</v>
       </c>
     </row>
     <row r="128">
@@ -2859,16 +2417,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>32.21</v>
+        <v>17.19</v>
       </c>
       <c r="C128" t="n">
-        <v>0</v>
+        <v>34.27</v>
       </c>
       <c r="D128" t="n">
-        <v>29.57</v>
-      </c>
-      <c r="E128" t="n">
-        <v>18.22</v>
+        <v>18.54</v>
       </c>
     </row>
     <row r="129">
@@ -2876,16 +2431,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>30.75</v>
+        <v>17.55</v>
       </c>
       <c r="C129" t="n">
-        <v>0</v>
+        <v>34.01</v>
       </c>
       <c r="D129" t="n">
-        <v>31.12</v>
-      </c>
-      <c r="E129" t="n">
-        <v>18.13</v>
+        <v>18.43</v>
       </c>
     </row>
     <row r="130">
@@ -2893,16 +2445,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>29.08</v>
+        <v>17.96</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>33.76</v>
       </c>
       <c r="D130" t="n">
-        <v>32.62</v>
-      </c>
-      <c r="E130" t="n">
-        <v>18.3</v>
+        <v>18.27</v>
       </c>
     </row>
     <row r="131">
@@ -2910,16 +2459,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>26.98</v>
+        <v>18.1</v>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
+        <v>33.53</v>
       </c>
       <c r="D131" t="n">
-        <v>34.48</v>
-      </c>
-      <c r="E131" t="n">
-        <v>18.54</v>
+        <v>18.37</v>
       </c>
     </row>
     <row r="132">
@@ -2927,16 +2473,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>26.6</v>
+        <v>18.09</v>
       </c>
       <c r="C132" t="n">
-        <v>0</v>
+        <v>33.38</v>
       </c>
       <c r="D132" t="n">
-        <v>34.67</v>
-      </c>
-      <c r="E132" t="n">
-        <v>18.73</v>
+        <v>18.53</v>
       </c>
     </row>
     <row r="133">
@@ -2944,16 +2487,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>26.25</v>
+        <v>17.81</v>
       </c>
       <c r="C133" t="n">
-        <v>0</v>
+        <v>33.43</v>
       </c>
       <c r="D133" t="n">
-        <v>34.77</v>
-      </c>
-      <c r="E133" t="n">
-        <v>18.99</v>
+        <v>18.76</v>
       </c>
     </row>
     <row r="134">
@@ -2961,16 +2501,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>27.77</v>
+        <v>17.59</v>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
+        <v>33.48</v>
       </c>
       <c r="D134" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="E134" t="n">
-        <v>19.26</v>
+        <v>18.93</v>
       </c>
     </row>
     <row r="135">
@@ -2978,16 +2515,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>29.36</v>
+        <v>17.38</v>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
+        <v>33.12</v>
       </c>
       <c r="D135" t="n">
-        <v>32.05</v>
-      </c>
-      <c r="E135" t="n">
-        <v>19.45</v>
+        <v>19.49</v>
       </c>
     </row>
     <row r="136">
@@ -2995,16 +2529,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>31.62</v>
+        <v>17.18</v>
       </c>
       <c r="C136" t="n">
-        <v>0</v>
+        <v>32.78</v>
       </c>
       <c r="D136" t="n">
-        <v>30.69</v>
-      </c>
-      <c r="E136" t="n">
-        <v>18.98</v>
+        <v>20.04</v>
       </c>
     </row>
     <row r="137">
@@ -3012,16 +2543,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>33.97</v>
+        <v>16.96</v>
       </c>
       <c r="C137" t="n">
-        <v>0</v>
+        <v>32.45</v>
       </c>
       <c r="D137" t="n">
-        <v>29.39</v>
-      </c>
-      <c r="E137" t="n">
-        <v>18.35</v>
+        <v>20.6</v>
       </c>
     </row>
     <row r="138">
@@ -3029,16 +2557,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>36.79</v>
+        <v>16.55</v>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>32.11</v>
       </c>
       <c r="D138" t="n">
-        <v>27.22</v>
-      </c>
-      <c r="E138" t="n">
-        <v>17.71</v>
+        <v>21.34</v>
       </c>
     </row>
     <row r="139">
@@ -3046,16 +2571,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>39.37</v>
+        <v>16.19</v>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
+        <v>31.77</v>
       </c>
       <c r="D139" t="n">
-        <v>25.28</v>
-      </c>
-      <c r="E139" t="n">
-        <v>17.07</v>
+        <v>22.04</v>
       </c>
     </row>
     <row r="140">
@@ -3063,16 +2585,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>42.07</v>
+        <v>15.72</v>
       </c>
       <c r="C140" t="n">
-        <v>0</v>
+        <v>31.45</v>
       </c>
       <c r="D140" t="n">
-        <v>23.26</v>
-      </c>
-      <c r="E140" t="n">
-        <v>16.39</v>
+        <v>22.83</v>
       </c>
     </row>
     <row r="141">
@@ -3080,19 +2599,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>44.39</v>
+        <v>15.52</v>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>31.11</v>
       </c>
       <c r="D141" t="n">
-        <v>21.62</v>
-      </c>
-      <c r="E141" t="n">
-        <v>15.71</v>
-      </c>
-      <c r="F141" t="n">
-        <v>20</v>
+        <v>23.38</v>
       </c>
     </row>
     <row r="142">
@@ -3100,19 +2613,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>44.81</v>
+        <v>15.36</v>
       </c>
       <c r="C142" t="n">
-        <v>0</v>
+        <v>30.66</v>
       </c>
       <c r="D142" t="n">
-        <v>22.58</v>
-      </c>
-      <c r="E142" t="n">
-        <v>14.33</v>
-      </c>
-      <c r="F142" t="n">
-        <v>19.715</v>
+        <v>23.98</v>
       </c>
     </row>
     <row r="143">
@@ -3120,19 +2627,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>45.23</v>
+        <v>15.25</v>
       </c>
       <c r="C143" t="n">
-        <v>0</v>
+        <v>30.23</v>
       </c>
       <c r="D143" t="n">
-        <v>23.41</v>
-      </c>
-      <c r="E143" t="n">
-        <v>13.13</v>
-      </c>
-      <c r="F143" t="n">
-        <v>19.55333333333333</v>
+        <v>24.53</v>
       </c>
     </row>
     <row r="144">
@@ -3140,19 +2641,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>45.27</v>
+        <v>15</v>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>29.88</v>
       </c>
       <c r="D144" t="n">
-        <v>24.23</v>
-      </c>
-      <c r="E144" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="F144" t="n">
-        <v>19.4475</v>
+        <v>25.12</v>
       </c>
     </row>
     <row r="145">
@@ -3160,19 +2655,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>45.48</v>
+        <v>14.77</v>
       </c>
       <c r="C145" t="n">
-        <v>0</v>
+        <v>29.89</v>
       </c>
       <c r="D145" t="n">
-        <v>24.79</v>
-      </c>
-      <c r="E145" t="n">
-        <v>10.81</v>
-      </c>
-      <c r="F145" t="n">
-        <v>19.384</v>
+        <v>25.34</v>
       </c>
     </row>
     <row r="146">
@@ -3180,19 +2669,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>45.01</v>
+        <v>14.47</v>
       </c>
       <c r="C146" t="n">
-        <v>0</v>
+        <v>30.05</v>
       </c>
       <c r="D146" t="n">
-        <v>25.31</v>
-      </c>
-      <c r="E146" t="n">
-        <v>10.41</v>
-      </c>
-      <c r="F146" t="n">
-        <v>18.96166666666667</v>
+        <v>25.48</v>
       </c>
     </row>
     <row r="147">
@@ -3200,19 +2683,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>44.47</v>
+        <v>14.21</v>
       </c>
       <c r="C147" t="n">
-        <v>0</v>
+        <v>30.19</v>
       </c>
       <c r="D147" t="n">
-        <v>25.78</v>
-      </c>
-      <c r="E147" t="n">
-        <v>10.38</v>
-      </c>
-      <c r="F147" t="n">
-        <v>18.53142857142857</v>
+        <v>25.6</v>
       </c>
     </row>
     <row r="148">
@@ -3220,19 +2697,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>43.9</v>
+        <v>14.16</v>
       </c>
       <c r="C148" t="n">
-        <v>0</v>
+        <v>30.34</v>
       </c>
       <c r="D148" t="n">
-        <v>26.77</v>
-      </c>
-      <c r="E148" t="n">
-        <v>10.35</v>
-      </c>
-      <c r="F148" t="n">
-        <v>18.23375</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="149">
@@ -3240,19 +2711,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>43.34</v>
+        <v>14.12</v>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
+        <v>30.47</v>
       </c>
       <c r="D149" t="n">
-        <v>27.73</v>
-      </c>
-      <c r="E149" t="n">
-        <v>10.34</v>
-      </c>
-      <c r="F149" t="n">
-        <v>17.93555555555555</v>
+        <v>25.43</v>
       </c>
     </row>
     <row r="150">
@@ -3260,19 +2725,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>42.8</v>
+        <v>14.11</v>
       </c>
       <c r="C150" t="n">
-        <v>0</v>
+        <v>30.62</v>
       </c>
       <c r="D150" t="n">
-        <v>28.91</v>
-      </c>
-      <c r="E150" t="n">
-        <v>10.16</v>
-      </c>
-      <c r="F150" t="n">
-        <v>16.512</v>
+        <v>25.31</v>
       </c>
     </row>
     <row r="151">
@@ -3280,19 +2739,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>42.68</v>
+        <v>15.23</v>
       </c>
       <c r="C151" t="n">
-        <v>0</v>
+        <v>29.66</v>
       </c>
       <c r="D151" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="E151" t="n">
-        <v>11.21</v>
-      </c>
-      <c r="F151" t="n">
-        <v>16.512</v>
+        <v>25.14</v>
       </c>
     </row>
     <row r="152">
@@ -3300,19 +2753,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>42.85</v>
+        <v>16.36</v>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>28.75</v>
       </c>
       <c r="D152" t="n">
-        <v>29.34</v>
-      </c>
-      <c r="E152" t="n">
-        <v>12.99</v>
-      </c>
-      <c r="F152" t="n">
-        <v>14.822</v>
+        <v>24.93</v>
       </c>
     </row>
     <row r="153">
@@ -3320,19 +2767,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>43.98</v>
+        <v>17.41</v>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>27.88</v>
       </c>
       <c r="D153" t="n">
-        <v>28.31</v>
-      </c>
-      <c r="E153" t="n">
-        <v>14.53</v>
-      </c>
-      <c r="F153" t="n">
-        <v>13.179</v>
+        <v>24.76</v>
       </c>
     </row>
     <row r="154">
@@ -3340,19 +2781,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>45.21</v>
+        <v>18.55</v>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
+        <v>26.91</v>
       </c>
       <c r="D154" t="n">
-        <v>27.24</v>
-      </c>
-      <c r="E154" t="n">
-        <v>15.99</v>
-      </c>
-      <c r="F154" t="n">
-        <v>11.556</v>
+        <v>24.58</v>
       </c>
     </row>
     <row r="155">
@@ -3360,19 +2795,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>45.84</v>
+        <v>19.63</v>
       </c>
       <c r="C155" t="n">
-        <v>0</v>
+        <v>25.95</v>
       </c>
       <c r="D155" t="n">
-        <v>26.41</v>
-      </c>
-      <c r="E155" t="n">
-        <v>17.81</v>
-      </c>
-      <c r="F155" t="n">
-        <v>9.943000000000001</v>
+        <v>24.46</v>
       </c>
     </row>
     <row r="156">
@@ -3380,19 +2809,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>46.5</v>
+        <v>20.82</v>
       </c>
       <c r="C156" t="n">
-        <v>0</v>
+        <v>24.82</v>
       </c>
       <c r="D156" t="n">
-        <v>25.61</v>
-      </c>
-      <c r="E156" t="n">
-        <v>19.58</v>
-      </c>
-      <c r="F156" t="n">
-        <v>8.309999999999999</v>
+        <v>24.4</v>
       </c>
     </row>
     <row r="157">
@@ -3400,19 +2823,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>47.3</v>
+        <v>22.04</v>
       </c>
       <c r="C157" t="n">
-        <v>0</v>
+        <v>23.66</v>
       </c>
       <c r="D157" t="n">
-        <v>24.79</v>
-      </c>
-      <c r="E157" t="n">
-        <v>21.01</v>
-      </c>
-      <c r="F157" t="n">
-        <v>6.895</v>
+        <v>24.33</v>
       </c>
     </row>
     <row r="158">
@@ -3420,19 +2837,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>48.11</v>
+        <v>23.2</v>
       </c>
       <c r="C158" t="n">
-        <v>0</v>
+        <v>22.51</v>
       </c>
       <c r="D158" t="n">
-        <v>23.95</v>
-      </c>
-      <c r="E158" t="n">
-        <v>22.43</v>
-      </c>
-      <c r="F158" t="n">
-        <v>5.513</v>
+        <v>24.33</v>
       </c>
     </row>
     <row r="159">
@@ -3440,19 +2851,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>49.02</v>
+        <v>24.32</v>
       </c>
       <c r="C159" t="n">
-        <v>0</v>
+        <v>21.4</v>
       </c>
       <c r="D159" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="E159" t="n">
-        <v>23.83</v>
-      </c>
-      <c r="F159" t="n">
-        <v>4.111</v>
+        <v>24.31</v>
       </c>
     </row>
     <row r="160">
@@ -3460,19 +2865,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>50.08</v>
+        <v>25.58</v>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
+        <v>20.2</v>
       </c>
       <c r="D160" t="n">
-        <v>20.05</v>
-      </c>
-      <c r="E160" t="n">
-        <v>25.17</v>
-      </c>
-      <c r="F160" t="n">
-        <v>2.749</v>
+        <v>24.23</v>
       </c>
     </row>
     <row r="161">
@@ -3480,19 +2879,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>51.2</v>
+        <v>25.72</v>
       </c>
       <c r="C161" t="n">
-        <v>0</v>
+        <v>20.14</v>
       </c>
       <c r="D161" t="n">
-        <v>18.99</v>
-      </c>
-      <c r="E161" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="F161" t="n">
-        <v>4.561999999999999</v>
+        <v>24.14</v>
       </c>
     </row>
     <row r="162">
@@ -3500,19 +2893,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>52.69</v>
+        <v>25.88</v>
       </c>
       <c r="C162" t="n">
-        <v>0</v>
+        <v>20.06</v>
       </c>
       <c r="D162" t="n">
-        <v>17.97</v>
-      </c>
-      <c r="E162" t="n">
-        <v>25.42</v>
-      </c>
-      <c r="F162" t="n">
-        <v>5.976</v>
+        <v>24.05</v>
       </c>
     </row>
     <row r="163">
@@ -3520,19 +2907,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>53.27</v>
+        <v>25.7</v>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>19.88</v>
       </c>
       <c r="D163" t="n">
-        <v>17.67</v>
-      </c>
-      <c r="E163" t="n">
-        <v>25.72</v>
-      </c>
-      <c r="F163" t="n">
-        <v>7.4</v>
+        <v>24.41</v>
       </c>
     </row>
     <row r="164">
@@ -3540,19 +2921,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>53.7</v>
+        <v>25.49</v>
       </c>
       <c r="C164" t="n">
-        <v>0</v>
+        <v>19.76</v>
       </c>
       <c r="D164" t="n">
-        <v>17.45</v>
-      </c>
-      <c r="E164" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="F164" t="n">
-        <v>8.803999999999998</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="165">
@@ -3560,19 +2935,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>54.97</v>
+        <v>25.17</v>
       </c>
       <c r="C165" t="n">
-        <v>0</v>
+        <v>19.98</v>
       </c>
       <c r="D165" t="n">
-        <v>16.78</v>
-      </c>
-      <c r="E165" t="n">
-        <v>26.11</v>
-      </c>
-      <c r="F165" t="n">
-        <v>10.198</v>
+        <v>24.85</v>
       </c>
     </row>
     <row r="166">
@@ -3580,19 +2949,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>56.22</v>
+        <v>24.8</v>
       </c>
       <c r="C166" t="n">
-        <v>0</v>
+        <v>20.24</v>
       </c>
       <c r="D166" t="n">
-        <v>16.09</v>
-      </c>
-      <c r="E166" t="n">
-        <v>26.16</v>
-      </c>
-      <c r="F166" t="n">
-        <v>11.592</v>
+        <v>24.96</v>
       </c>
     </row>
     <row r="167">
@@ -3600,19 +2963,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>57.29</v>
+        <v>24.38</v>
       </c>
       <c r="C167" t="n">
-        <v>0</v>
+        <v>20.56</v>
       </c>
       <c r="D167" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="E167" t="n">
-        <v>26.13</v>
-      </c>
-      <c r="F167" t="n">
-        <v>12.996</v>
+        <v>25.06</v>
       </c>
     </row>
     <row r="168">
@@ -3620,19 +2977,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>58.36</v>
+        <v>23.9</v>
       </c>
       <c r="C168" t="n">
-        <v>0</v>
+        <v>20.82</v>
       </c>
       <c r="D168" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="E168" t="n">
-        <v>26.12</v>
-      </c>
-      <c r="F168" t="n">
-        <v>14.387</v>
+        <v>25.28</v>
       </c>
     </row>
     <row r="169">
@@ -3640,19 +2991,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>59.34</v>
+        <v>23.34</v>
       </c>
       <c r="C169" t="n">
-        <v>0</v>
+        <v>21.13</v>
       </c>
       <c r="D169" t="n">
-        <v>16.84</v>
-      </c>
-      <c r="E169" t="n">
-        <v>26.12</v>
-      </c>
-      <c r="F169" t="n">
-        <v>15.768</v>
+        <v>25.53</v>
       </c>
     </row>
     <row r="170">
@@ -3660,19 +3005,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>60.3</v>
+        <v>22.64</v>
       </c>
       <c r="C170" t="n">
-        <v>0</v>
+        <v>21.51</v>
       </c>
       <c r="D170" t="n">
-        <v>16.47</v>
-      </c>
-      <c r="E170" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="F170" t="n">
-        <v>17.169</v>
+        <v>25.85</v>
       </c>
     </row>
     <row r="171">
@@ -3680,19 +3019,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>61.2</v>
+        <v>22</v>
       </c>
       <c r="C171" t="n">
-        <v>0</v>
+        <v>21.86</v>
       </c>
       <c r="D171" t="n">
-        <v>16.18</v>
-      </c>
-      <c r="E171" t="n">
-        <v>26.25</v>
-      </c>
-      <c r="F171" t="n">
-        <v>16.58</v>
+        <v>26.14</v>
       </c>
     </row>
     <row r="172">
@@ -3700,19 +3033,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>62.23</v>
+        <v>21.33</v>
       </c>
       <c r="C172" t="n">
-        <v>0</v>
+        <v>22.2</v>
       </c>
       <c r="D172" t="n">
-        <v>15.31</v>
-      </c>
-      <c r="E172" t="n">
-        <v>26.31</v>
-      </c>
-      <c r="F172" t="n">
-        <v>16.43</v>
+        <v>26.47</v>
       </c>
     </row>
     <row r="173">
@@ -3720,19 +3047,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>63.06</v>
+        <v>21.01</v>
       </c>
       <c r="C173" t="n">
-        <v>0</v>
+        <v>22.66</v>
       </c>
       <c r="D173" t="n">
-        <v>14.54</v>
-      </c>
-      <c r="E173" t="n">
-        <v>26.25</v>
-      </c>
-      <c r="F173" t="n">
-        <v>16.52</v>
+        <v>26.33</v>
       </c>
     </row>
     <row r="174">
@@ -3740,19 +3061,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>63.92</v>
+        <v>20.7</v>
       </c>
       <c r="C174" t="n">
-        <v>0</v>
+        <v>23.05</v>
       </c>
       <c r="D174" t="n">
-        <v>13.72</v>
-      </c>
-      <c r="E174" t="n">
-        <v>26.19</v>
-      </c>
-      <c r="F174" t="n">
-        <v>16.61</v>
+        <v>26.25</v>
       </c>
     </row>
     <row r="175">
@@ -3760,19 +3075,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>64.27</v>
+        <v>20.48</v>
       </c>
       <c r="C175" t="n">
-        <v>0</v>
+        <v>23.11</v>
       </c>
       <c r="D175" t="n">
-        <v>13.31</v>
-      </c>
-      <c r="E175" t="n">
-        <v>26.15</v>
-      </c>
-      <c r="F175" t="n">
-        <v>16.777</v>
+        <v>26.41</v>
       </c>
     </row>
     <row r="176">
@@ -3780,19 +3089,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>64.72</v>
+        <v>20.38</v>
       </c>
       <c r="C176" t="n">
-        <v>0</v>
+        <v>23.08</v>
       </c>
       <c r="D176" t="n">
-        <v>12.85</v>
-      </c>
-      <c r="E176" t="n">
-        <v>26.07</v>
-      </c>
-      <c r="F176" t="n">
-        <v>16.944</v>
+        <v>26.54</v>
       </c>
     </row>
     <row r="177">
@@ -3800,19 +3103,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>65.38</v>
+        <v>20.26</v>
       </c>
       <c r="C177" t="n">
-        <v>0</v>
+        <v>23.05</v>
       </c>
       <c r="D177" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="E177" t="n">
-        <v>26.07</v>
-      </c>
-      <c r="F177" t="n">
-        <v>17.046</v>
+        <v>26.69</v>
       </c>
     </row>
     <row r="178">
@@ -3820,19 +3117,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>66.28</v>
+        <v>20.2</v>
       </c>
       <c r="C178" t="n">
-        <v>0</v>
+        <v>23.06</v>
       </c>
       <c r="D178" t="n">
-        <v>11.36</v>
-      </c>
-      <c r="E178" t="n">
-        <v>26.07</v>
-      </c>
-      <c r="F178" t="n">
-        <v>17.003</v>
+        <v>26.74</v>
       </c>
     </row>
     <row r="179">
@@ -3840,19 +3131,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>67.17</v>
+        <v>20.24</v>
       </c>
       <c r="C179" t="n">
-        <v>0</v>
+        <v>23.03</v>
       </c>
       <c r="D179" t="n">
-        <v>10.55</v>
-      </c>
-      <c r="E179" t="n">
-        <v>26.07</v>
-      </c>
-      <c r="F179" t="n">
-        <v>16.925</v>
+        <v>26.73</v>
       </c>
     </row>
     <row r="180">
@@ -3860,19 +3145,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>68.15000000000001</v>
+        <v>20.26</v>
       </c>
       <c r="C180" t="n">
-        <v>0</v>
+        <v>22.89</v>
       </c>
       <c r="D180" t="n">
-        <v>9.68</v>
-      </c>
-      <c r="E180" t="n">
-        <v>26.07</v>
-      </c>
-      <c r="F180" t="n">
-        <v>16.827</v>
+        <v>26.85</v>
       </c>
     </row>
     <row r="181">
@@ -3880,19 +3159,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>69.18000000000001</v>
+        <v>20.42</v>
       </c>
       <c r="C181" t="n">
-        <v>0</v>
+        <v>22.73</v>
       </c>
       <c r="D181" t="n">
-        <v>8.76</v>
-      </c>
-      <c r="E181" t="n">
-        <v>26.07</v>
-      </c>
-      <c r="F181" t="n">
-        <v>16.709</v>
+        <v>26.85</v>
       </c>
     </row>
     <row r="182">
@@ -3900,19 +3173,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>69.53</v>
+        <v>20.59</v>
       </c>
       <c r="C182" t="n">
-        <v>0</v>
+        <v>22.58</v>
       </c>
       <c r="D182" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="E182" t="n">
-        <v>26.07</v>
-      </c>
-      <c r="F182" t="n">
-        <v>16.611</v>
+        <v>26.83</v>
       </c>
     </row>
     <row r="183">
@@ -3920,19 +3187,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>70.33</v>
+        <v>20.78</v>
       </c>
       <c r="C183" t="n">
-        <v>0</v>
+        <v>22.37</v>
       </c>
       <c r="D183" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="E183" t="n">
-        <v>26.07</v>
-      </c>
-      <c r="F183" t="n">
-        <v>16.253</v>
+        <v>26.86</v>
       </c>
     </row>
     <row r="184">
@@ -3940,19 +3201,13 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>71.09999999999999</v>
+        <v>20.98</v>
       </c>
       <c r="C184" t="n">
-        <v>0</v>
+        <v>22.21</v>
       </c>
       <c r="D184" t="n">
-        <v>7.49</v>
-      </c>
-      <c r="E184" t="n">
-        <v>26.07</v>
-      </c>
-      <c r="F184" t="n">
-        <v>16.035</v>
+        <v>26.82</v>
       </c>
     </row>
     <row r="185">
@@ -3960,19 +3215,13 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>72.36</v>
+        <v>21.24</v>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>22.09</v>
       </c>
       <c r="D185" t="n">
-        <v>6.54</v>
-      </c>
-      <c r="E185" t="n">
-        <v>26.07</v>
-      </c>
-      <c r="F185" t="n">
-        <v>15.73</v>
+        <v>26.67</v>
       </c>
     </row>
     <row r="186">
@@ -3980,19 +3229,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>74.84999999999999</v>
+        <v>21.41</v>
       </c>
       <c r="C186" t="n">
-        <v>0</v>
+        <v>22.02</v>
       </c>
       <c r="D186" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="E186" t="n">
-        <v>26.07</v>
-      </c>
-      <c r="F186" t="n">
-        <v>14.105</v>
+        <v>26.57</v>
       </c>
     </row>
     <row r="187">
@@ -4000,19 +3243,13 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>77.23</v>
+        <v>21.7</v>
       </c>
       <c r="C187" t="n">
-        <v>0</v>
+        <v>21.94</v>
       </c>
       <c r="D187" t="n">
-        <v>4.87</v>
-      </c>
-      <c r="E187" t="n">
-        <v>26.07</v>
-      </c>
-      <c r="F187" t="n">
-        <v>12.535</v>
+        <v>26.36</v>
       </c>
     </row>
     <row r="188">
@@ -4020,19 +3257,13 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>79.37</v>
+        <v>22</v>
       </c>
       <c r="C188" t="n">
-        <v>0</v>
+        <v>21.86</v>
       </c>
       <c r="D188" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="E188" t="n">
-        <v>26.07</v>
-      </c>
-      <c r="F188" t="n">
-        <v>11.18</v>
+        <v>26.14</v>
       </c>
     </row>
     <row r="189">
@@ -4040,19 +3271,545 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>81.54000000000001</v>
+        <v>22.28</v>
       </c>
       <c r="C189" t="n">
-        <v>0</v>
+        <v>21.77</v>
       </c>
       <c r="D189" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="E189" t="n">
-        <v>26.07</v>
-      </c>
-      <c r="F189" t="n">
-        <v>9.860000000000003</v>
+        <v>25.95</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>22.57</v>
+      </c>
+      <c r="C190" t="n">
+        <v>21.83</v>
+      </c>
+      <c r="D190" t="n">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>22.67</v>
+      </c>
+      <c r="C191" t="n">
+        <v>21.67</v>
+      </c>
+      <c r="D191" t="n">
+        <v>25.66</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>22.75</v>
+      </c>
+      <c r="C192" t="n">
+        <v>21.56</v>
+      </c>
+      <c r="D192" t="n">
+        <v>25.69</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>22.83</v>
+      </c>
+      <c r="C193" t="n">
+        <v>21.43</v>
+      </c>
+      <c r="D193" t="n">
+        <v>25.74</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>22.92</v>
+      </c>
+      <c r="C194" t="n">
+        <v>21.29</v>
+      </c>
+      <c r="D194" t="n">
+        <v>25.79</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>22.92</v>
+      </c>
+      <c r="C195" t="n">
+        <v>21.04</v>
+      </c>
+      <c r="D195" t="n">
+        <v>25.86</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>22.86</v>
+      </c>
+      <c r="C196" t="n">
+        <v>20.85</v>
+      </c>
+      <c r="D196" t="n">
+        <v>25.95</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>22.71</v>
+      </c>
+      <c r="C197" t="n">
+        <v>20.66</v>
+      </c>
+      <c r="D197" t="n">
+        <v>26.12</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="C198" t="n">
+        <v>20.44</v>
+      </c>
+      <c r="D198" t="n">
+        <v>26.28</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>22.52</v>
+      </c>
+      <c r="C199" t="n">
+        <v>20.16</v>
+      </c>
+      <c r="D199" t="n">
+        <v>26.63</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>22.46</v>
+      </c>
+      <c r="C200" t="n">
+        <v>19.93</v>
+      </c>
+      <c r="D200" t="n">
+        <v>26.93</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>22.54</v>
+      </c>
+      <c r="C201" t="n">
+        <v>19.93</v>
+      </c>
+      <c r="D201" t="n">
+        <v>26.85</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>22.63</v>
+      </c>
+      <c r="C202" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="D202" t="n">
+        <v>26.7</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="C203" t="n">
+        <v>20.06</v>
+      </c>
+      <c r="D203" t="n">
+        <v>26.56</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>22.56</v>
+      </c>
+      <c r="C204" t="n">
+        <v>20.12</v>
+      </c>
+      <c r="D204" t="n">
+        <v>26.64</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="C205" t="n">
+        <v>20.28</v>
+      </c>
+      <c r="D205" t="n">
+        <v>26.71</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>22.49</v>
+      </c>
+      <c r="C206" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="D206" t="n">
+        <v>26.78</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>23.01</v>
+      </c>
+      <c r="C207" t="n">
+        <v>20.11</v>
+      </c>
+      <c r="D207" t="n">
+        <v>26.71</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>23.46</v>
+      </c>
+      <c r="C208" t="n">
+        <v>19.89</v>
+      </c>
+      <c r="D208" t="n">
+        <v>26.65</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>23.79</v>
+      </c>
+      <c r="C209" t="n">
+        <v>19.67</v>
+      </c>
+      <c r="D209" t="n">
+        <v>26.54</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>24.09</v>
+      </c>
+      <c r="C210" t="n">
+        <v>19.37</v>
+      </c>
+      <c r="D210" t="n">
+        <v>26.54</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>24.24</v>
+      </c>
+      <c r="C211" t="n">
+        <v>19.13</v>
+      </c>
+      <c r="D211" t="n">
+        <v>26.63</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="C212" t="n">
+        <v>18.78</v>
+      </c>
+      <c r="D212" t="n">
+        <v>26.81</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>24.51</v>
+      </c>
+      <c r="C213" t="n">
+        <v>18.58</v>
+      </c>
+      <c r="D213" t="n">
+        <v>26.92</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>24.76</v>
+      </c>
+      <c r="C214" t="n">
+        <v>18.42</v>
+      </c>
+      <c r="D214" t="n">
+        <v>26.83</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>25.02</v>
+      </c>
+      <c r="C215" t="n">
+        <v>18.22</v>
+      </c>
+      <c r="D215" t="n">
+        <v>26.76</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>25.34</v>
+      </c>
+      <c r="C216" t="n">
+        <v>18.03</v>
+      </c>
+      <c r="D216" t="n">
+        <v>26.63</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="C217" t="n">
+        <v>18.17</v>
+      </c>
+      <c r="D217" t="n">
+        <v>26.58</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>25.79</v>
+      </c>
+      <c r="C218" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="D218" t="n">
+        <v>25.91</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>26.56</v>
+      </c>
+      <c r="C219" t="n">
+        <v>18.43</v>
+      </c>
+      <c r="D219" t="n">
+        <v>25.01</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>27.51</v>
+      </c>
+      <c r="C220" t="n">
+        <v>18.56</v>
+      </c>
+      <c r="D220" t="n">
+        <v>23.93</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>28.46</v>
+      </c>
+      <c r="C221" t="n">
+        <v>18.65</v>
+      </c>
+      <c r="D221" t="n">
+        <v>22.89</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>29.35</v>
+      </c>
+      <c r="C222" t="n">
+        <v>18.87</v>
+      </c>
+      <c r="D222" t="n">
+        <v>21.78</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>30.29</v>
+      </c>
+      <c r="C223" t="n">
+        <v>18.99</v>
+      </c>
+      <c r="D223" t="n">
+        <v>20.71</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>31.29</v>
+      </c>
+      <c r="C224" t="n">
+        <v>19.09</v>
+      </c>
+      <c r="D224" t="n">
+        <v>19.62</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>32.21</v>
+      </c>
+      <c r="C225" t="n">
+        <v>18.91</v>
+      </c>
+      <c r="D225" t="n">
+        <v>18.88</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>33.02</v>
+      </c>
+      <c r="C226" t="n">
+        <v>17.89</v>
+      </c>
+      <c r="D226" t="n">
+        <v>19.09</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>33.57</v>
+      </c>
+      <c r="C227" t="n">
+        <v>16.93</v>
+      </c>
+      <c r="D227" t="n">
+        <v>19.5</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/stacks_over_time_avg.xlsx
+++ b/Outputs/stacks_over_time_avg.xlsx
@@ -194,7 +194,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$B$2:$B$227</f>
+              <f>'data'!$B$2:$B$189</f>
             </numRef>
           </val>
         </ser>
@@ -221,7 +221,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$C$2:$C$227</f>
+              <f>'data'!$C$2:$C$189</f>
             </numRef>
           </val>
         </ser>
@@ -248,7 +248,61 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$D$2:$D$227</f>
+              <f>'data'!$D$2:$D$189</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'data'!E1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'data'!$E$2:$E$189</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <strRef>
+              <f>'data'!F1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'data'!$F$2:$F$189</f>
             </numRef>
           </val>
         </ser>
@@ -618,7 +672,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D227"/>
+  <dimension ref="A1:F189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -634,12 +688,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Raymond</t>
+          <t>Scott</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Cedric</t>
+          <t>Ben</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -647,6 +701,16 @@
           <t>Fish</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Cedric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Raymond</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -659,6 +723,9 @@
         <v>20</v>
       </c>
       <c r="D2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E2" t="n">
         <v>20</v>
       </c>
     </row>
@@ -667,13 +734,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20.38</v>
+        <v>20.5</v>
       </c>
       <c r="C3" t="n">
-        <v>19.71</v>
+        <v>19.5</v>
       </c>
       <c r="D3" t="n">
-        <v>19.9</v>
+        <v>20</v>
+      </c>
+      <c r="E3" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -681,13 +751,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20.21</v>
+        <v>20.67</v>
       </c>
       <c r="C4" t="n">
-        <v>19.55</v>
+        <v>19.33</v>
       </c>
       <c r="D4" t="n">
-        <v>20.23</v>
+        <v>20</v>
+      </c>
+      <c r="E4" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -695,13 +768,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20.18</v>
+        <v>21.2</v>
       </c>
       <c r="C5" t="n">
-        <v>19.42</v>
+        <v>19.05</v>
       </c>
       <c r="D5" t="n">
-        <v>20.4</v>
+        <v>19.8</v>
+      </c>
+      <c r="E5" t="n">
+        <v>19.95</v>
       </c>
     </row>
     <row r="6">
@@ -709,13 +785,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20.16</v>
+        <v>21.44</v>
       </c>
       <c r="C6" t="n">
-        <v>19.32</v>
+        <v>18.84</v>
       </c>
       <c r="D6" t="n">
-        <v>20.52</v>
+        <v>19.68</v>
+      </c>
+      <c r="E6" t="n">
+        <v>20.04</v>
       </c>
     </row>
     <row r="7">
@@ -723,13 +802,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20.19</v>
+        <v>21.15</v>
       </c>
       <c r="C7" t="n">
-        <v>19.22</v>
+        <v>17.92</v>
       </c>
       <c r="D7" t="n">
-        <v>20.58</v>
+        <v>20.83</v>
+      </c>
+      <c r="E7" t="n">
+        <v>20.1</v>
       </c>
     </row>
     <row r="8">
@@ -737,13 +819,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>20.12</v>
+        <v>20.94</v>
       </c>
       <c r="C8" t="n">
-        <v>19.34</v>
+        <v>17.2</v>
       </c>
       <c r="D8" t="n">
-        <v>20.54</v>
+        <v>21.71</v>
+      </c>
+      <c r="E8" t="n">
+        <v>20.14</v>
       </c>
     </row>
     <row r="9">
@@ -751,13 +836,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>20.07</v>
+        <v>21.01</v>
       </c>
       <c r="C9" t="n">
-        <v>19.35</v>
+        <v>16.56</v>
       </c>
       <c r="D9" t="n">
-        <v>20.58</v>
+        <v>22.28</v>
+      </c>
+      <c r="E9" t="n">
+        <v>20.15</v>
       </c>
     </row>
     <row r="10">
@@ -765,13 +853,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>19.99</v>
+        <v>20.88</v>
       </c>
       <c r="C10" t="n">
-        <v>19.36</v>
+        <v>16.29</v>
       </c>
       <c r="D10" t="n">
-        <v>20.65</v>
+        <v>22.69</v>
+      </c>
+      <c r="E10" t="n">
+        <v>20.14</v>
       </c>
     </row>
     <row r="11">
@@ -779,13 +870,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>19.9</v>
+        <v>21.06</v>
       </c>
       <c r="C11" t="n">
-        <v>19.41</v>
+        <v>16.05</v>
       </c>
       <c r="D11" t="n">
-        <v>20.69</v>
+        <v>23</v>
+      </c>
+      <c r="E11" t="n">
+        <v>19.89</v>
       </c>
     </row>
     <row r="12">
@@ -793,13 +887,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>19.9</v>
+        <v>21.06</v>
       </c>
       <c r="C12" t="n">
-        <v>19.41</v>
+        <v>16.05</v>
       </c>
       <c r="D12" t="n">
-        <v>20.69</v>
+        <v>23</v>
+      </c>
+      <c r="E12" t="n">
+        <v>19.89</v>
       </c>
     </row>
     <row r="13">
@@ -807,13 +904,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>19.82</v>
+        <v>21.32</v>
       </c>
       <c r="C13" t="n">
-        <v>19.41</v>
+        <v>15.47</v>
       </c>
       <c r="D13" t="n">
-        <v>20.78</v>
+        <v>23.56</v>
+      </c>
+      <c r="E13" t="n">
+        <v>19.65</v>
       </c>
     </row>
     <row r="14">
@@ -821,13 +921,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>19.67</v>
+        <v>21.23</v>
       </c>
       <c r="C14" t="n">
-        <v>19.47</v>
+        <v>14.92</v>
       </c>
       <c r="D14" t="n">
-        <v>20.86</v>
+        <v>24.46</v>
+      </c>
+      <c r="E14" t="n">
+        <v>19.39</v>
       </c>
     </row>
     <row r="15">
@@ -835,13 +938,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>19.59</v>
+        <v>21.2</v>
       </c>
       <c r="C15" t="n">
-        <v>19.83</v>
+        <v>14.37</v>
       </c>
       <c r="D15" t="n">
-        <v>20.58</v>
+        <v>25.31</v>
+      </c>
+      <c r="E15" t="n">
+        <v>19.12</v>
       </c>
     </row>
     <row r="16">
@@ -849,13 +955,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>19.57</v>
+        <v>21.14</v>
       </c>
       <c r="C16" t="n">
-        <v>20.2</v>
+        <v>13.88</v>
       </c>
       <c r="D16" t="n">
-        <v>20.23</v>
+        <v>26.11</v>
+      </c>
+      <c r="E16" t="n">
+        <v>18.87</v>
       </c>
     </row>
     <row r="17">
@@ -863,13 +972,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>19.56</v>
+        <v>21.12</v>
       </c>
       <c r="C17" t="n">
-        <v>20.58</v>
+        <v>13.43</v>
       </c>
       <c r="D17" t="n">
-        <v>19.86</v>
+        <v>26.91</v>
+      </c>
+      <c r="E17" t="n">
+        <v>18.56</v>
       </c>
     </row>
     <row r="18">
@@ -877,13 +989,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>19.37</v>
+        <v>22.27</v>
       </c>
       <c r="C18" t="n">
-        <v>21.13</v>
+        <v>12.58</v>
       </c>
       <c r="D18" t="n">
-        <v>19.5</v>
+        <v>26.96</v>
+      </c>
+      <c r="E18" t="n">
+        <v>18.23</v>
       </c>
     </row>
     <row r="19">
@@ -891,13 +1006,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>19.25</v>
+        <v>23.37</v>
       </c>
       <c r="C19" t="n">
-        <v>21.5</v>
+        <v>11.7</v>
       </c>
       <c r="D19" t="n">
-        <v>19.25</v>
+        <v>26.96</v>
+      </c>
+      <c r="E19" t="n">
+        <v>18.02</v>
       </c>
     </row>
     <row r="20">
@@ -905,13 +1023,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>19.13</v>
+        <v>24.43</v>
       </c>
       <c r="C20" t="n">
-        <v>21.93</v>
+        <v>10.78</v>
       </c>
       <c r="D20" t="n">
-        <v>18.94</v>
+        <v>27</v>
+      </c>
+      <c r="E20" t="n">
+        <v>17.83</v>
       </c>
     </row>
     <row r="21">
@@ -919,13 +1040,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>19.11</v>
+        <v>26.44</v>
       </c>
       <c r="C21" t="n">
-        <v>22.31</v>
+        <v>9.65</v>
       </c>
       <c r="D21" t="n">
-        <v>18.58</v>
+        <v>26.3</v>
+      </c>
+      <c r="E21" t="n">
+        <v>17.65</v>
       </c>
     </row>
     <row r="22">
@@ -933,13 +1057,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>19.18</v>
+        <v>28.16</v>
       </c>
       <c r="C22" t="n">
-        <v>22.64</v>
+        <v>8.52</v>
       </c>
       <c r="D22" t="n">
-        <v>18.18</v>
+        <v>25.61</v>
+      </c>
+      <c r="E22" t="n">
+        <v>17.76</v>
       </c>
     </row>
     <row r="23">
@@ -947,13 +1074,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>19.22</v>
+        <v>29.61</v>
       </c>
       <c r="C23" t="n">
-        <v>22.99</v>
+        <v>7.71</v>
       </c>
       <c r="D23" t="n">
-        <v>17.79</v>
+        <v>24.87</v>
+      </c>
+      <c r="E23" t="n">
+        <v>17.86</v>
       </c>
     </row>
     <row r="24">
@@ -961,13 +1091,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>19.28</v>
+        <v>32.01</v>
       </c>
       <c r="C24" t="n">
-        <v>23.32</v>
+        <v>6.35</v>
       </c>
       <c r="D24" t="n">
-        <v>17.4</v>
+        <v>23.7</v>
+      </c>
+      <c r="E24" t="n">
+        <v>17.98</v>
       </c>
     </row>
     <row r="25">
@@ -975,13 +1108,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>19.37</v>
+        <v>34.37</v>
       </c>
       <c r="C25" t="n">
-        <v>23.39</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>17.24</v>
+        <v>22.56</v>
+      </c>
+      <c r="E25" t="n">
+        <v>18.11</v>
       </c>
     </row>
     <row r="26">
@@ -989,13 +1125,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>19.43</v>
+        <v>36.6</v>
       </c>
       <c r="C26" t="n">
-        <v>23.45</v>
+        <v>3.67</v>
       </c>
       <c r="D26" t="n">
-        <v>17.12</v>
+        <v>21.55</v>
+      </c>
+      <c r="E26" t="n">
+        <v>18.22</v>
       </c>
     </row>
     <row r="27">
@@ -1003,13 +1142,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>19.45</v>
+        <v>38.81</v>
       </c>
       <c r="C27" t="n">
-        <v>23.54</v>
+        <v>2.32</v>
       </c>
       <c r="D27" t="n">
-        <v>17.01</v>
+        <v>20.57</v>
+      </c>
+      <c r="E27" t="n">
+        <v>18.32</v>
       </c>
     </row>
     <row r="28">
@@ -1017,13 +1159,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>19.63</v>
+        <v>39.82</v>
       </c>
       <c r="C28" t="n">
-        <v>23.47</v>
+        <v>1.85</v>
       </c>
       <c r="D28" t="n">
-        <v>16.9</v>
+        <v>19.89</v>
+      </c>
+      <c r="E28" t="n">
+        <v>18.44</v>
       </c>
     </row>
     <row r="29">
@@ -1031,13 +1176,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>19.75</v>
+        <v>40.9</v>
       </c>
       <c r="C29" t="n">
-        <v>23.45</v>
+        <v>1.44</v>
       </c>
       <c r="D29" t="n">
-        <v>16.8</v>
+        <v>19.22</v>
+      </c>
+      <c r="E29" t="n">
+        <v>18.45</v>
       </c>
     </row>
     <row r="30">
@@ -1045,13 +1193,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>19.77</v>
+        <v>41.83</v>
       </c>
       <c r="C30" t="n">
-        <v>23.22</v>
+        <v>1.14</v>
       </c>
       <c r="D30" t="n">
-        <v>17.01</v>
+        <v>18.58</v>
+      </c>
+      <c r="E30" t="n">
+        <v>18.45</v>
       </c>
     </row>
     <row r="31">
@@ -1059,13 +1210,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>19.77</v>
+        <v>42.03</v>
       </c>
       <c r="C31" t="n">
-        <v>23.03</v>
+        <v>0.86</v>
       </c>
       <c r="D31" t="n">
-        <v>17.2</v>
+        <v>18.68</v>
+      </c>
+      <c r="E31" t="n">
+        <v>18.43</v>
       </c>
     </row>
     <row r="32">
@@ -1073,13 +1227,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>19.76</v>
+        <v>42.23</v>
       </c>
       <c r="C32" t="n">
-        <v>22.84</v>
+        <v>0.6</v>
       </c>
       <c r="D32" t="n">
-        <v>17.4</v>
+        <v>18.48</v>
+      </c>
+      <c r="E32" t="n">
+        <v>18.69</v>
       </c>
     </row>
     <row r="33">
@@ -1087,13 +1244,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>19.74</v>
+        <v>42.05</v>
       </c>
       <c r="C33" t="n">
-        <v>22.72</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>17.54</v>
+        <v>18.35</v>
+      </c>
+      <c r="E33" t="n">
+        <v>19.6</v>
       </c>
     </row>
     <row r="34">
@@ -1101,13 +1261,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>19.68</v>
+        <v>41.21</v>
       </c>
       <c r="C34" t="n">
-        <v>22.61</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>17.71</v>
+        <v>18.28</v>
+      </c>
+      <c r="E34" t="n">
+        <v>20.51</v>
       </c>
     </row>
     <row r="35">
@@ -1115,13 +1278,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>19.59</v>
+        <v>40.35</v>
       </c>
       <c r="C35" t="n">
-        <v>22.56</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>17.85</v>
+        <v>18.21</v>
+      </c>
+      <c r="E35" t="n">
+        <v>21.44</v>
       </c>
     </row>
     <row r="36">
@@ -1129,13 +1295,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>19.44</v>
+        <v>39.47</v>
       </c>
       <c r="C36" t="n">
-        <v>22.56</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>18</v>
+        <v>18.15</v>
+      </c>
+      <c r="E36" t="n">
+        <v>22.38</v>
       </c>
     </row>
     <row r="37">
@@ -1143,13 +1312,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>19.31</v>
+        <v>38.69</v>
       </c>
       <c r="C37" t="n">
-        <v>22.54</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>18.15</v>
+        <v>17.98</v>
+      </c>
+      <c r="E37" t="n">
+        <v>23.33</v>
       </c>
     </row>
     <row r="38">
@@ -1157,13 +1329,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>18.58</v>
+        <v>38.21</v>
       </c>
       <c r="C38" t="n">
-        <v>22.54</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>18.88</v>
+        <v>17.55</v>
+      </c>
+      <c r="E38" t="n">
+        <v>24.24</v>
       </c>
     </row>
     <row r="39">
@@ -1171,13 +1346,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>17.94</v>
+        <v>37.65</v>
       </c>
       <c r="C39" t="n">
-        <v>22.52</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>19.54</v>
+        <v>17.22</v>
+      </c>
+      <c r="E39" t="n">
+        <v>25.13</v>
       </c>
     </row>
     <row r="40">
@@ -1185,13 +1363,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>17.39</v>
+        <v>36.82</v>
       </c>
       <c r="C40" t="n">
-        <v>22.7</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>19.91</v>
+        <v>16.87</v>
+      </c>
+      <c r="E40" t="n">
+        <v>26.31</v>
       </c>
     </row>
     <row r="41">
@@ -1199,13 +1380,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>16.79</v>
+        <v>35.94</v>
       </c>
       <c r="C41" t="n">
-        <v>22.89</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>20.32</v>
+        <v>16.52</v>
+      </c>
+      <c r="E41" t="n">
+        <v>27.54</v>
       </c>
     </row>
     <row r="42">
@@ -1213,13 +1397,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>17.12</v>
+        <v>34.99</v>
       </c>
       <c r="C42" t="n">
-        <v>23.06</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>20.82</v>
+        <v>16.57</v>
+      </c>
+      <c r="E42" t="n">
+        <v>28.44</v>
       </c>
     </row>
     <row r="43">
@@ -1227,13 +1414,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>17.47</v>
+        <v>34.79</v>
       </c>
       <c r="C43" t="n">
-        <v>23.15</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>21.38</v>
+        <v>16.6</v>
+      </c>
+      <c r="E43" t="n">
+        <v>28.61</v>
       </c>
     </row>
     <row r="44">
@@ -1241,13 +1431,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>17.75</v>
+        <v>34.56</v>
       </c>
       <c r="C44" t="n">
-        <v>23.23</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>22.01</v>
+        <v>16.64</v>
+      </c>
+      <c r="E44" t="n">
+        <v>28.79</v>
       </c>
     </row>
     <row r="45">
@@ -1255,13 +1448,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>18.1</v>
+        <v>34.34</v>
       </c>
       <c r="C45" t="n">
-        <v>23.21</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>22.69</v>
+        <v>16.73</v>
+      </c>
+      <c r="E45" t="n">
+        <v>28.95</v>
       </c>
     </row>
     <row r="46">
@@ -1269,13 +1465,16 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>18.29</v>
+        <v>34.11</v>
       </c>
       <c r="C46" t="n">
-        <v>23.1</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>23.6</v>
+        <v>16.83</v>
+      </c>
+      <c r="E46" t="n">
+        <v>29.11</v>
       </c>
     </row>
     <row r="47">
@@ -1283,13 +1482,16 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>18.47</v>
+        <v>33.79</v>
       </c>
       <c r="C47" t="n">
-        <v>22.98</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>24.56</v>
+        <v>16.96</v>
+      </c>
+      <c r="E47" t="n">
+        <v>29.31</v>
       </c>
     </row>
     <row r="48">
@@ -1297,13 +1499,16 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>19.23</v>
+        <v>33.48</v>
       </c>
       <c r="C48" t="n">
-        <v>22.86</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>24.91</v>
+        <v>17.06</v>
+      </c>
+      <c r="E48" t="n">
+        <v>29.54</v>
       </c>
     </row>
     <row r="49">
@@ -1311,13 +1516,16 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>19.89</v>
+        <v>33.24</v>
       </c>
       <c r="C49" t="n">
-        <v>22.88</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>25.23</v>
+        <v>17.06</v>
+      </c>
+      <c r="E49" t="n">
+        <v>29.8</v>
       </c>
     </row>
     <row r="50">
@@ -1325,13 +1533,16 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>20.54</v>
+        <v>33.27</v>
       </c>
       <c r="C50" t="n">
-        <v>22.94</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>25.52</v>
+        <v>17.26</v>
+      </c>
+      <c r="E50" t="n">
+        <v>29.59</v>
       </c>
     </row>
     <row r="51">
@@ -1339,13 +1550,16 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>21.2</v>
+        <v>33.3</v>
       </c>
       <c r="C51" t="n">
-        <v>23.02</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>25.78</v>
+        <v>17.47</v>
+      </c>
+      <c r="E51" t="n">
+        <v>29.37</v>
       </c>
     </row>
     <row r="52">
@@ -1353,13 +1567,16 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>20.9</v>
+        <v>33.4</v>
       </c>
       <c r="C52" t="n">
-        <v>23.11</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>25.99</v>
+        <v>17.61</v>
+      </c>
+      <c r="E52" t="n">
+        <v>29.15</v>
       </c>
     </row>
     <row r="53">
@@ -1367,13 +1584,16 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>20.18</v>
+        <v>33.4</v>
       </c>
       <c r="C53" t="n">
-        <v>23.62</v>
+        <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>26.2</v>
+        <v>17.46</v>
+      </c>
+      <c r="E53" t="n">
+        <v>29.32</v>
       </c>
     </row>
     <row r="54">
@@ -1381,13 +1601,16 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>19.44</v>
+        <v>33.4</v>
       </c>
       <c r="C54" t="n">
-        <v>24.31</v>
+        <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>26.25</v>
+        <v>17.34</v>
+      </c>
+      <c r="E54" t="n">
+        <v>29.46</v>
       </c>
     </row>
     <row r="55">
@@ -1395,13 +1618,16 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>18.67</v>
+        <v>33.4</v>
       </c>
       <c r="C55" t="n">
-        <v>25.04</v>
+        <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>26.29</v>
+        <v>17.2</v>
+      </c>
+      <c r="E55" t="n">
+        <v>29.6</v>
       </c>
     </row>
     <row r="56">
@@ -1409,13 +1635,16 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>18.05</v>
+        <v>33.4</v>
       </c>
       <c r="C56" t="n">
-        <v>25.86</v>
+        <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>26.09</v>
+        <v>17.04</v>
+      </c>
+      <c r="E56" t="n">
+        <v>29.76</v>
       </c>
     </row>
     <row r="57">
@@ -1423,13 +1652,16 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>17.55</v>
+        <v>33.4</v>
       </c>
       <c r="C57" t="n">
-        <v>26.67</v>
+        <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>25.79</v>
+        <v>16.91</v>
+      </c>
+      <c r="E57" t="n">
+        <v>29.89</v>
       </c>
     </row>
     <row r="58">
@@ -1437,13 +1669,16 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>17.05</v>
+        <v>33.4</v>
       </c>
       <c r="C58" t="n">
-        <v>27.36</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>25.59</v>
+        <v>16.71</v>
+      </c>
+      <c r="E58" t="n">
+        <v>30.09</v>
       </c>
     </row>
     <row r="59">
@@ -1451,13 +1686,16 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>16.45</v>
+        <v>33.4</v>
       </c>
       <c r="C59" t="n">
-        <v>27.94</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>25.62</v>
+        <v>16.57</v>
+      </c>
+      <c r="E59" t="n">
+        <v>30.23</v>
       </c>
     </row>
     <row r="60">
@@ -1465,13 +1703,16 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>15.84</v>
+        <v>33.4</v>
       </c>
       <c r="C60" t="n">
-        <v>28.46</v>
+        <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>25.7</v>
+        <v>16.18</v>
+      </c>
+      <c r="E60" t="n">
+        <v>30.62</v>
       </c>
     </row>
     <row r="61">
@@ -1479,13 +1720,16 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>15.25</v>
+        <v>33.4</v>
       </c>
       <c r="C61" t="n">
-        <v>28.95</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>25.79</v>
+        <v>15.83</v>
+      </c>
+      <c r="E61" t="n">
+        <v>30.97</v>
       </c>
     </row>
     <row r="62">
@@ -1493,13 +1737,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>14.58</v>
+        <v>33.4</v>
       </c>
       <c r="C62" t="n">
-        <v>29.45</v>
+        <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>25.96</v>
+        <v>15.53</v>
+      </c>
+      <c r="E62" t="n">
+        <v>31.27</v>
       </c>
     </row>
     <row r="63">
@@ -1507,13 +1754,16 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>14.33</v>
+        <v>33.4</v>
       </c>
       <c r="C63" t="n">
-        <v>29.48</v>
+        <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>26.18</v>
+        <v>15.56</v>
+      </c>
+      <c r="E63" t="n">
+        <v>31.24</v>
       </c>
     </row>
     <row r="64">
@@ -1521,13 +1771,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>14.17</v>
+        <v>33.4</v>
       </c>
       <c r="C64" t="n">
-        <v>29.38</v>
+        <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>26.45</v>
+        <v>15.55</v>
+      </c>
+      <c r="E64" t="n">
+        <v>31.25</v>
       </c>
     </row>
     <row r="65">
@@ -1535,13 +1788,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>13.94</v>
+        <v>33.4</v>
       </c>
       <c r="C65" t="n">
-        <v>29.49</v>
+        <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>26.57</v>
+        <v>15.46</v>
+      </c>
+      <c r="E65" t="n">
+        <v>31.34</v>
       </c>
     </row>
     <row r="66">
@@ -1549,13 +1805,16 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>13.71</v>
+        <v>33.4</v>
       </c>
       <c r="C66" t="n">
-        <v>29.73</v>
+        <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>26.56</v>
+        <v>15.27</v>
+      </c>
+      <c r="E66" t="n">
+        <v>31.53</v>
       </c>
     </row>
     <row r="67">
@@ -1563,13 +1822,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>13.38</v>
+        <v>33.4</v>
       </c>
       <c r="C67" t="n">
-        <v>29.99</v>
+        <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>26.63</v>
+        <v>15.09</v>
+      </c>
+      <c r="E67" t="n">
+        <v>31.71</v>
       </c>
     </row>
     <row r="68">
@@ -1577,13 +1839,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>13.03</v>
+        <v>33.4</v>
       </c>
       <c r="C68" t="n">
-        <v>30.39</v>
+        <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>26.58</v>
+        <v>14.98</v>
+      </c>
+      <c r="E68" t="n">
+        <v>31.82</v>
       </c>
     </row>
     <row r="69">
@@ -1591,13 +1856,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>12.84</v>
+        <v>33.4</v>
       </c>
       <c r="C69" t="n">
-        <v>30.82</v>
+        <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>26.34</v>
+        <v>14.84</v>
+      </c>
+      <c r="E69" t="n">
+        <v>31.96</v>
       </c>
     </row>
     <row r="70">
@@ -1605,13 +1873,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>12.67</v>
+        <v>33.4</v>
       </c>
       <c r="C70" t="n">
-        <v>31.28</v>
+        <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>26.05</v>
+        <v>14.77</v>
+      </c>
+      <c r="E70" t="n">
+        <v>32.03</v>
       </c>
     </row>
     <row r="71">
@@ -1619,13 +1890,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>12.54</v>
+        <v>33.4</v>
       </c>
       <c r="C71" t="n">
-        <v>31.75</v>
+        <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>25.72</v>
+        <v>14.62</v>
+      </c>
+      <c r="E71" t="n">
+        <v>32.18</v>
       </c>
     </row>
     <row r="72">
@@ -1633,13 +1907,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>12.53</v>
+        <v>33.4</v>
       </c>
       <c r="C72" t="n">
-        <v>32.2</v>
+        <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>25.27</v>
+        <v>14.42</v>
+      </c>
+      <c r="E72" t="n">
+        <v>32.38</v>
       </c>
     </row>
     <row r="73">
@@ -1647,13 +1924,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>12.54</v>
+        <v>33.4</v>
       </c>
       <c r="C73" t="n">
-        <v>32.65</v>
+        <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>24.8</v>
+        <v>14.22</v>
+      </c>
+      <c r="E73" t="n">
+        <v>32.58</v>
       </c>
     </row>
     <row r="74">
@@ -1661,13 +1941,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>12.88</v>
+        <v>33.4</v>
       </c>
       <c r="C74" t="n">
-        <v>32.93</v>
+        <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>24.19</v>
+        <v>14.05</v>
+      </c>
+      <c r="E74" t="n">
+        <v>32.75</v>
       </c>
     </row>
     <row r="75">
@@ -1675,13 +1958,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>13.27</v>
+        <v>33.4</v>
       </c>
       <c r="C75" t="n">
-        <v>32.89</v>
+        <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>23.85</v>
+        <v>13.92</v>
+      </c>
+      <c r="E75" t="n">
+        <v>32.88</v>
       </c>
     </row>
     <row r="76">
@@ -1689,13 +1975,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>13.68</v>
+        <v>33.4</v>
       </c>
       <c r="C76" t="n">
-        <v>32.65</v>
+        <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>23.67</v>
+        <v>13.92</v>
+      </c>
+      <c r="E76" t="n">
+        <v>32.88</v>
       </c>
     </row>
     <row r="77">
@@ -1703,13 +1992,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>13.94</v>
+        <v>33.4</v>
       </c>
       <c r="C77" t="n">
-        <v>32.43</v>
+        <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>23.63</v>
+        <v>13.99</v>
+      </c>
+      <c r="E77" t="n">
+        <v>32.81</v>
       </c>
     </row>
     <row r="78">
@@ -1717,13 +2009,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>14.2</v>
+        <v>33.4</v>
       </c>
       <c r="C78" t="n">
-        <v>32.45</v>
+        <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>23.35</v>
+        <v>14.06</v>
+      </c>
+      <c r="E78" t="n">
+        <v>32.74</v>
       </c>
     </row>
     <row r="79">
@@ -1731,13 +2026,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>14.66</v>
+        <v>33.4</v>
       </c>
       <c r="C79" t="n">
-        <v>32.43</v>
+        <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>22.91</v>
+        <v>14.13</v>
+      </c>
+      <c r="E79" t="n">
+        <v>32.67</v>
       </c>
     </row>
     <row r="80">
@@ -1745,13 +2043,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>15.11</v>
+        <v>33.4</v>
       </c>
       <c r="C80" t="n">
-        <v>32.39</v>
+        <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>22.5</v>
+        <v>14.21</v>
+      </c>
+      <c r="E80" t="n">
+        <v>32.59</v>
       </c>
     </row>
     <row r="81">
@@ -1759,13 +2060,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>15.51</v>
+        <v>33.4</v>
       </c>
       <c r="C81" t="n">
-        <v>32.39</v>
+        <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>22.09</v>
+        <v>14.37</v>
+      </c>
+      <c r="E81" t="n">
+        <v>32.43</v>
       </c>
     </row>
     <row r="82">
@@ -1773,13 +2077,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>15.77</v>
+        <v>33.4</v>
       </c>
       <c r="C82" t="n">
-        <v>32.54</v>
+        <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>21.7</v>
+        <v>14.7</v>
+      </c>
+      <c r="E82" t="n">
+        <v>32.1</v>
       </c>
     </row>
     <row r="83">
@@ -1787,13 +2094,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>16.01</v>
+        <v>33.4</v>
       </c>
       <c r="C83" t="n">
-        <v>32.65</v>
+        <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>21.35</v>
+        <v>14.99</v>
+      </c>
+      <c r="E83" t="n">
+        <v>31.81</v>
       </c>
     </row>
     <row r="84">
@@ -1801,13 +2111,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>15.84</v>
+        <v>33.4</v>
       </c>
       <c r="C84" t="n">
-        <v>33.02</v>
+        <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>21.14</v>
+        <v>15.28</v>
+      </c>
+      <c r="E84" t="n">
+        <v>31.52</v>
       </c>
     </row>
     <row r="85">
@@ -1815,13 +2128,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>15.68</v>
+        <v>33.4</v>
       </c>
       <c r="C85" t="n">
-        <v>33.69</v>
+        <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>20.63</v>
+        <v>15.58</v>
+      </c>
+      <c r="E85" t="n">
+        <v>31.22</v>
       </c>
     </row>
     <row r="86">
@@ -1829,13 +2145,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>15.51</v>
+        <v>33.4</v>
       </c>
       <c r="C86" t="n">
-        <v>34.36</v>
+        <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>20.13</v>
+        <v>15.85</v>
+      </c>
+      <c r="E86" t="n">
+        <v>30.95</v>
       </c>
     </row>
     <row r="87">
@@ -1843,13 +2162,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>15.47</v>
+        <v>33.4</v>
       </c>
       <c r="C87" t="n">
-        <v>35.06</v>
+        <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>19.47</v>
+        <v>16.08</v>
+      </c>
+      <c r="E87" t="n">
+        <v>30.72</v>
       </c>
     </row>
     <row r="88">
@@ -1857,13 +2179,16 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>15.45</v>
+        <v>33.4</v>
       </c>
       <c r="C88" t="n">
-        <v>35.47</v>
+        <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>19.08</v>
+        <v>16.31</v>
+      </c>
+      <c r="E88" t="n">
+        <v>30.49</v>
       </c>
     </row>
     <row r="89">
@@ -1871,13 +2196,16 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>15.24</v>
+        <v>33.4</v>
       </c>
       <c r="C89" t="n">
-        <v>35.88</v>
+        <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>18.87</v>
+        <v>16.66</v>
+      </c>
+      <c r="E89" t="n">
+        <v>30.14</v>
       </c>
     </row>
     <row r="90">
@@ -1885,13 +2213,16 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>15.08</v>
+        <v>33.4</v>
       </c>
       <c r="C90" t="n">
-        <v>36.28</v>
+        <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>18.65</v>
+        <v>17</v>
+      </c>
+      <c r="E90" t="n">
+        <v>29.8</v>
       </c>
     </row>
     <row r="91">
@@ -1899,13 +2230,16 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>14.92</v>
+        <v>33.4</v>
       </c>
       <c r="C91" t="n">
-        <v>36.63</v>
+        <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>18.45</v>
+        <v>16.95</v>
+      </c>
+      <c r="E91" t="n">
+        <v>29.86</v>
       </c>
     </row>
     <row r="92">
@@ -1913,13 +2247,16 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>14.8</v>
+        <v>33.4</v>
       </c>
       <c r="C92" t="n">
-        <v>36.91</v>
+        <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>18.29</v>
+        <v>16.75</v>
+      </c>
+      <c r="E92" t="n">
+        <v>30.05</v>
       </c>
     </row>
     <row r="93">
@@ -1927,13 +2264,16 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>14.72</v>
+        <v>33.4</v>
       </c>
       <c r="C93" t="n">
-        <v>37.21</v>
+        <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>18.07</v>
+        <v>16.57</v>
+      </c>
+      <c r="E93" t="n">
+        <v>30.24</v>
       </c>
     </row>
     <row r="94">
@@ -1941,13 +2281,16 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>14.72</v>
+        <v>33.4</v>
       </c>
       <c r="C94" t="n">
-        <v>37.45</v>
+        <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>17.83</v>
+        <v>16.38</v>
+      </c>
+      <c r="E94" t="n">
+        <v>30.42</v>
       </c>
     </row>
     <row r="95">
@@ -1955,13 +2298,16 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>14.96</v>
+        <v>33.4</v>
       </c>
       <c r="C95" t="n">
-        <v>37.49</v>
+        <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>17.55</v>
+        <v>16.02</v>
+      </c>
+      <c r="E95" t="n">
+        <v>30.78</v>
       </c>
     </row>
     <row r="96">
@@ -1969,13 +2315,16 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>15.21</v>
+        <v>33.4</v>
       </c>
       <c r="C96" t="n">
-        <v>37.46</v>
+        <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>17.33</v>
+        <v>15.87</v>
+      </c>
+      <c r="E96" t="n">
+        <v>30.93</v>
       </c>
     </row>
     <row r="97">
@@ -1983,13 +2332,16 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>15.47</v>
+        <v>33.4</v>
       </c>
       <c r="C97" t="n">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>17.03</v>
+        <v>15.72</v>
+      </c>
+      <c r="E97" t="n">
+        <v>31.09</v>
       </c>
     </row>
     <row r="98">
@@ -1997,13 +2349,16 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>15.77</v>
+        <v>33.4</v>
       </c>
       <c r="C98" t="n">
-        <v>37.54</v>
+        <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>16.69</v>
+        <v>15.56</v>
+      </c>
+      <c r="E98" t="n">
+        <v>31.24</v>
       </c>
     </row>
     <row r="99">
@@ -2011,13 +2366,16 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>16.05</v>
+        <v>33.4</v>
       </c>
       <c r="C99" t="n">
-        <v>37.56</v>
+        <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>16.39</v>
+        <v>16.35</v>
+      </c>
+      <c r="E99" t="n">
+        <v>30.46</v>
       </c>
     </row>
     <row r="100">
@@ -2025,13 +2383,16 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>16.31</v>
+        <v>33.4</v>
       </c>
       <c r="C100" t="n">
-        <v>37.6</v>
+        <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>16.1</v>
+        <v>17.2</v>
+      </c>
+      <c r="E100" t="n">
+        <v>29.6</v>
       </c>
     </row>
     <row r="101">
@@ -2039,13 +2400,16 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>16.43</v>
+        <v>33.4</v>
       </c>
       <c r="C101" t="n">
-        <v>37.65</v>
+        <v>0</v>
       </c>
       <c r="D101" t="n">
-        <v>15.94</v>
+        <v>18.49</v>
+      </c>
+      <c r="E101" t="n">
+        <v>28.31</v>
       </c>
     </row>
     <row r="102">
@@ -2053,13 +2417,16 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>16.56</v>
+        <v>33.4</v>
       </c>
       <c r="C102" t="n">
-        <v>37.66</v>
+        <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>15.81</v>
+        <v>19.56</v>
+      </c>
+      <c r="E102" t="n">
+        <v>27.24</v>
       </c>
     </row>
     <row r="103">
@@ -2067,13 +2434,16 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>16.63</v>
+        <v>33.4</v>
       </c>
       <c r="C103" t="n">
-        <v>37.69</v>
+        <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>15.72</v>
+        <v>20.46</v>
+      </c>
+      <c r="E103" t="n">
+        <v>26.34</v>
       </c>
     </row>
     <row r="104">
@@ -2081,13 +2451,16 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>16.75</v>
+        <v>33.4</v>
       </c>
       <c r="C104" t="n">
-        <v>37.68</v>
+        <v>0</v>
       </c>
       <c r="D104" t="n">
-        <v>15.62</v>
+        <v>21.43</v>
+      </c>
+      <c r="E104" t="n">
+        <v>25.37</v>
       </c>
     </row>
     <row r="105">
@@ -2095,13 +2468,16 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>16.51</v>
+        <v>33.4</v>
       </c>
       <c r="C105" t="n">
-        <v>37.66</v>
+        <v>0</v>
       </c>
       <c r="D105" t="n">
-        <v>15.88</v>
+        <v>22.57</v>
+      </c>
+      <c r="E105" t="n">
+        <v>24.23</v>
       </c>
     </row>
     <row r="106">
@@ -2109,13 +2485,16 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>16.28</v>
+        <v>33.4</v>
       </c>
       <c r="C106" t="n">
-        <v>37.68</v>
+        <v>0</v>
       </c>
       <c r="D106" t="n">
-        <v>16.09</v>
+        <v>23.47</v>
+      </c>
+      <c r="E106" t="n">
+        <v>23.33</v>
       </c>
     </row>
     <row r="107">
@@ -2123,13 +2502,16 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>16.13</v>
+        <v>33.4</v>
       </c>
       <c r="C107" t="n">
-        <v>37.54</v>
+        <v>0</v>
       </c>
       <c r="D107" t="n">
-        <v>16.38</v>
+        <v>24.37</v>
+      </c>
+      <c r="E107" t="n">
+        <v>22.43</v>
       </c>
     </row>
     <row r="108">
@@ -2137,13 +2519,16 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>15.93</v>
+        <v>33.4</v>
       </c>
       <c r="C108" t="n">
-        <v>37.51</v>
+        <v>0</v>
       </c>
       <c r="D108" t="n">
-        <v>16.61</v>
+        <v>25.32</v>
+      </c>
+      <c r="E108" t="n">
+        <v>21.48</v>
       </c>
     </row>
     <row r="109">
@@ -2151,13 +2536,16 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>15.73</v>
+        <v>33.38</v>
       </c>
       <c r="C109" t="n">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="D109" t="n">
-        <v>16.82</v>
+        <v>25.21</v>
+      </c>
+      <c r="E109" t="n">
+        <v>21.59</v>
       </c>
     </row>
     <row r="110">
@@ -2165,13 +2553,16 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>15.52</v>
+        <v>33.52</v>
       </c>
       <c r="C110" t="n">
-        <v>37.48</v>
+        <v>0</v>
       </c>
       <c r="D110" t="n">
-        <v>17.04</v>
+        <v>24.86</v>
+      </c>
+      <c r="E110" t="n">
+        <v>21.78</v>
       </c>
     </row>
     <row r="111">
@@ -2179,13 +2570,16 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>15.48</v>
+        <v>33.66</v>
       </c>
       <c r="C111" t="n">
-        <v>37.45</v>
+        <v>0</v>
       </c>
       <c r="D111" t="n">
-        <v>17.1</v>
+        <v>24.44</v>
+      </c>
+      <c r="E111" t="n">
+        <v>22.04</v>
       </c>
     </row>
     <row r="112">
@@ -2193,13 +2587,16 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>15.46</v>
+        <v>33.98</v>
       </c>
       <c r="C112" t="n">
-        <v>37.4</v>
+        <v>0</v>
       </c>
       <c r="D112" t="n">
-        <v>17.16</v>
+        <v>24.11</v>
+      </c>
+      <c r="E112" t="n">
+        <v>22.03</v>
       </c>
     </row>
     <row r="113">
@@ -2207,13 +2604,16 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>15.45</v>
+        <v>34.36</v>
       </c>
       <c r="C113" t="n">
-        <v>37.31</v>
+        <v>0</v>
       </c>
       <c r="D113" t="n">
-        <v>17.24</v>
+        <v>23.9</v>
+      </c>
+      <c r="E113" t="n">
+        <v>21.84</v>
       </c>
     </row>
     <row r="114">
@@ -2221,13 +2621,16 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>15.33</v>
+        <v>34.27</v>
       </c>
       <c r="C114" t="n">
-        <v>37.21</v>
+        <v>0</v>
       </c>
       <c r="D114" t="n">
-        <v>17.45</v>
+        <v>24.1</v>
+      </c>
+      <c r="E114" t="n">
+        <v>21.71</v>
       </c>
     </row>
     <row r="115">
@@ -2235,13 +2638,16 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>15.28</v>
+        <v>34.36</v>
       </c>
       <c r="C115" t="n">
-        <v>37.11</v>
+        <v>0</v>
       </c>
       <c r="D115" t="n">
-        <v>17.62</v>
+        <v>24.31</v>
+      </c>
+      <c r="E115" t="n">
+        <v>21.39</v>
       </c>
     </row>
     <row r="116">
@@ -2249,13 +2655,16 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>15.2</v>
+        <v>34.75</v>
       </c>
       <c r="C116" t="n">
-        <v>37.01</v>
+        <v>0</v>
       </c>
       <c r="D116" t="n">
-        <v>17.79</v>
+        <v>24.34</v>
+      </c>
+      <c r="E116" t="n">
+        <v>20.95</v>
       </c>
     </row>
     <row r="117">
@@ -2263,13 +2672,16 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>15.14</v>
+        <v>35.08</v>
       </c>
       <c r="C117" t="n">
-        <v>36.96</v>
+        <v>0</v>
       </c>
       <c r="D117" t="n">
-        <v>17.9</v>
+        <v>24.29</v>
+      </c>
+      <c r="E117" t="n">
+        <v>20.65</v>
       </c>
     </row>
     <row r="118">
@@ -2277,13 +2689,16 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>15.11</v>
+        <v>35.72</v>
       </c>
       <c r="C118" t="n">
-        <v>36.83</v>
+        <v>0</v>
       </c>
       <c r="D118" t="n">
-        <v>18.06</v>
+        <v>23.88</v>
+      </c>
+      <c r="E118" t="n">
+        <v>20.4</v>
       </c>
     </row>
     <row r="119">
@@ -2291,13 +2706,16 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>15.03</v>
+        <v>36.18</v>
       </c>
       <c r="C119" t="n">
-        <v>36.67</v>
+        <v>0</v>
       </c>
       <c r="D119" t="n">
-        <v>18.3</v>
+        <v>23.65</v>
+      </c>
+      <c r="E119" t="n">
+        <v>20.17</v>
       </c>
     </row>
     <row r="120">
@@ -2305,13 +2723,16 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>14.99</v>
+        <v>36.48</v>
       </c>
       <c r="C120" t="n">
-        <v>36.49</v>
+        <v>0</v>
       </c>
       <c r="D120" t="n">
-        <v>18.52</v>
+        <v>23.64</v>
+      </c>
+      <c r="E120" t="n">
+        <v>19.88</v>
       </c>
     </row>
     <row r="121">
@@ -2319,13 +2740,16 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>14.92</v>
+        <v>37.12</v>
       </c>
       <c r="C121" t="n">
-        <v>36.31</v>
+        <v>0</v>
       </c>
       <c r="D121" t="n">
-        <v>18.77</v>
+        <v>23.37</v>
+      </c>
+      <c r="E121" t="n">
+        <v>19.51</v>
       </c>
     </row>
     <row r="122">
@@ -2333,13 +2757,16 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>14.94</v>
+        <v>37.57</v>
       </c>
       <c r="C122" t="n">
-        <v>36.14</v>
+        <v>0</v>
       </c>
       <c r="D122" t="n">
-        <v>18.92</v>
+        <v>23.17</v>
+      </c>
+      <c r="E122" t="n">
+        <v>19.26</v>
       </c>
     </row>
     <row r="123">
@@ -2347,13 +2774,16 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>15.26</v>
+        <v>37.88</v>
       </c>
       <c r="C123" t="n">
-        <v>35.8</v>
+        <v>0</v>
       </c>
       <c r="D123" t="n">
-        <v>18.94</v>
+        <v>23.19</v>
+      </c>
+      <c r="E123" t="n">
+        <v>18.93</v>
       </c>
     </row>
     <row r="124">
@@ -2361,13 +2791,16 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>15.64</v>
+        <v>37.21</v>
       </c>
       <c r="C124" t="n">
-        <v>35.46</v>
+        <v>0</v>
       </c>
       <c r="D124" t="n">
-        <v>18.9</v>
+        <v>24.18</v>
+      </c>
+      <c r="E124" t="n">
+        <v>18.61</v>
       </c>
     </row>
     <row r="125">
@@ -2375,13 +2808,16 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>16.06</v>
+        <v>36.38</v>
       </c>
       <c r="C125" t="n">
-        <v>35.17</v>
+        <v>0</v>
       </c>
       <c r="D125" t="n">
-        <v>18.77</v>
+        <v>25.15</v>
+      </c>
+      <c r="E125" t="n">
+        <v>18.47</v>
       </c>
     </row>
     <row r="126">
@@ -2389,13 +2825,16 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>16.49</v>
+        <v>35.25</v>
       </c>
       <c r="C126" t="n">
-        <v>34.88</v>
+        <v>0</v>
       </c>
       <c r="D126" t="n">
-        <v>18.63</v>
+        <v>26.38</v>
+      </c>
+      <c r="E126" t="n">
+        <v>18.37</v>
       </c>
     </row>
     <row r="127">
@@ -2403,13 +2842,16 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>16.82</v>
+        <v>34.11</v>
       </c>
       <c r="C127" t="n">
-        <v>34.6</v>
+        <v>0</v>
       </c>
       <c r="D127" t="n">
-        <v>18.59</v>
+        <v>27.6</v>
+      </c>
+      <c r="E127" t="n">
+        <v>18.29</v>
       </c>
     </row>
     <row r="128">
@@ -2417,13 +2859,16 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>17.19</v>
+        <v>32.21</v>
       </c>
       <c r="C128" t="n">
-        <v>34.27</v>
+        <v>0</v>
       </c>
       <c r="D128" t="n">
-        <v>18.54</v>
+        <v>29.57</v>
+      </c>
+      <c r="E128" t="n">
+        <v>18.22</v>
       </c>
     </row>
     <row r="129">
@@ -2431,13 +2876,16 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>17.55</v>
+        <v>30.75</v>
       </c>
       <c r="C129" t="n">
-        <v>34.01</v>
+        <v>0</v>
       </c>
       <c r="D129" t="n">
-        <v>18.43</v>
+        <v>31.12</v>
+      </c>
+      <c r="E129" t="n">
+        <v>18.13</v>
       </c>
     </row>
     <row r="130">
@@ -2445,13 +2893,16 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>17.96</v>
+        <v>29.08</v>
       </c>
       <c r="C130" t="n">
-        <v>33.76</v>
+        <v>0</v>
       </c>
       <c r="D130" t="n">
-        <v>18.27</v>
+        <v>32.62</v>
+      </c>
+      <c r="E130" t="n">
+        <v>18.3</v>
       </c>
     </row>
     <row r="131">
@@ -2459,13 +2910,16 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>18.1</v>
+        <v>26.98</v>
       </c>
       <c r="C131" t="n">
-        <v>33.53</v>
+        <v>0</v>
       </c>
       <c r="D131" t="n">
-        <v>18.37</v>
+        <v>34.48</v>
+      </c>
+      <c r="E131" t="n">
+        <v>18.54</v>
       </c>
     </row>
     <row r="132">
@@ -2473,13 +2927,16 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>18.09</v>
+        <v>26.6</v>
       </c>
       <c r="C132" t="n">
-        <v>33.38</v>
+        <v>0</v>
       </c>
       <c r="D132" t="n">
-        <v>18.53</v>
+        <v>34.67</v>
+      </c>
+      <c r="E132" t="n">
+        <v>18.73</v>
       </c>
     </row>
     <row r="133">
@@ -2487,13 +2944,16 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>17.81</v>
+        <v>26.25</v>
       </c>
       <c r="C133" t="n">
-        <v>33.43</v>
+        <v>0</v>
       </c>
       <c r="D133" t="n">
-        <v>18.76</v>
+        <v>34.77</v>
+      </c>
+      <c r="E133" t="n">
+        <v>18.99</v>
       </c>
     </row>
     <row r="134">
@@ -2501,13 +2961,16 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>17.59</v>
+        <v>27.77</v>
       </c>
       <c r="C134" t="n">
-        <v>33.48</v>
+        <v>0</v>
       </c>
       <c r="D134" t="n">
-        <v>18.93</v>
+        <v>33.4</v>
+      </c>
+      <c r="E134" t="n">
+        <v>19.26</v>
       </c>
     </row>
     <row r="135">
@@ -2515,13 +2978,16 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>17.38</v>
+        <v>29.36</v>
       </c>
       <c r="C135" t="n">
-        <v>33.12</v>
+        <v>0</v>
       </c>
       <c r="D135" t="n">
-        <v>19.49</v>
+        <v>32.05</v>
+      </c>
+      <c r="E135" t="n">
+        <v>19.45</v>
       </c>
     </row>
     <row r="136">
@@ -2529,13 +2995,16 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>17.18</v>
+        <v>31.62</v>
       </c>
       <c r="C136" t="n">
-        <v>32.78</v>
+        <v>0</v>
       </c>
       <c r="D136" t="n">
-        <v>20.04</v>
+        <v>30.69</v>
+      </c>
+      <c r="E136" t="n">
+        <v>18.98</v>
       </c>
     </row>
     <row r="137">
@@ -2543,13 +3012,16 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>16.96</v>
+        <v>33.97</v>
       </c>
       <c r="C137" t="n">
-        <v>32.45</v>
+        <v>0</v>
       </c>
       <c r="D137" t="n">
-        <v>20.6</v>
+        <v>29.39</v>
+      </c>
+      <c r="E137" t="n">
+        <v>18.35</v>
       </c>
     </row>
     <row r="138">
@@ -2557,13 +3029,16 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>16.55</v>
+        <v>36.79</v>
       </c>
       <c r="C138" t="n">
-        <v>32.11</v>
+        <v>0</v>
       </c>
       <c r="D138" t="n">
-        <v>21.34</v>
+        <v>27.22</v>
+      </c>
+      <c r="E138" t="n">
+        <v>17.71</v>
       </c>
     </row>
     <row r="139">
@@ -2571,13 +3046,16 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>16.19</v>
+        <v>39.37</v>
       </c>
       <c r="C139" t="n">
-        <v>31.77</v>
+        <v>0</v>
       </c>
       <c r="D139" t="n">
-        <v>22.04</v>
+        <v>25.28</v>
+      </c>
+      <c r="E139" t="n">
+        <v>17.07</v>
       </c>
     </row>
     <row r="140">
@@ -2585,13 +3063,16 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>15.72</v>
+        <v>42.07</v>
       </c>
       <c r="C140" t="n">
-        <v>31.45</v>
+        <v>0</v>
       </c>
       <c r="D140" t="n">
-        <v>22.83</v>
+        <v>23.26</v>
+      </c>
+      <c r="E140" t="n">
+        <v>16.39</v>
       </c>
     </row>
     <row r="141">
@@ -2599,13 +3080,19 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>15.52</v>
+        <v>44.39</v>
       </c>
       <c r="C141" t="n">
-        <v>31.11</v>
+        <v>0</v>
       </c>
       <c r="D141" t="n">
-        <v>23.38</v>
+        <v>21.62</v>
+      </c>
+      <c r="E141" t="n">
+        <v>15.71</v>
+      </c>
+      <c r="F141" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="142">
@@ -2613,13 +3100,19 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>15.36</v>
+        <v>44.81</v>
       </c>
       <c r="C142" t="n">
-        <v>30.66</v>
+        <v>0</v>
       </c>
       <c r="D142" t="n">
-        <v>23.98</v>
+        <v>22.58</v>
+      </c>
+      <c r="E142" t="n">
+        <v>14.33</v>
+      </c>
+      <c r="F142" t="n">
+        <v>19.715</v>
       </c>
     </row>
     <row r="143">
@@ -2627,13 +3120,19 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>15.25</v>
+        <v>45.23</v>
       </c>
       <c r="C143" t="n">
-        <v>30.23</v>
+        <v>0</v>
       </c>
       <c r="D143" t="n">
-        <v>24.53</v>
+        <v>23.41</v>
+      </c>
+      <c r="E143" t="n">
+        <v>13.13</v>
+      </c>
+      <c r="F143" t="n">
+        <v>19.55333333333333</v>
       </c>
     </row>
     <row r="144">
@@ -2641,13 +3140,19 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>15</v>
+        <v>45.27</v>
       </c>
       <c r="C144" t="n">
-        <v>29.88</v>
+        <v>0</v>
       </c>
       <c r="D144" t="n">
-        <v>25.12</v>
+        <v>24.23</v>
+      </c>
+      <c r="E144" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="F144" t="n">
+        <v>19.4475</v>
       </c>
     </row>
     <row r="145">
@@ -2655,13 +3160,19 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>14.77</v>
+        <v>45.48</v>
       </c>
       <c r="C145" t="n">
-        <v>29.89</v>
+        <v>0</v>
       </c>
       <c r="D145" t="n">
-        <v>25.34</v>
+        <v>24.79</v>
+      </c>
+      <c r="E145" t="n">
+        <v>10.81</v>
+      </c>
+      <c r="F145" t="n">
+        <v>19.384</v>
       </c>
     </row>
     <row r="146">
@@ -2669,13 +3180,19 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>14.47</v>
+        <v>45.01</v>
       </c>
       <c r="C146" t="n">
-        <v>30.05</v>
+        <v>0</v>
       </c>
       <c r="D146" t="n">
-        <v>25.48</v>
+        <v>25.31</v>
+      </c>
+      <c r="E146" t="n">
+        <v>10.41</v>
+      </c>
+      <c r="F146" t="n">
+        <v>18.96166666666667</v>
       </c>
     </row>
     <row r="147">
@@ -2683,13 +3200,19 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>14.21</v>
+        <v>44.47</v>
       </c>
       <c r="C147" t="n">
-        <v>30.19</v>
+        <v>0</v>
       </c>
       <c r="D147" t="n">
-        <v>25.6</v>
+        <v>25.78</v>
+      </c>
+      <c r="E147" t="n">
+        <v>10.38</v>
+      </c>
+      <c r="F147" t="n">
+        <v>18.53142857142857</v>
       </c>
     </row>
     <row r="148">
@@ -2697,13 +3220,19 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>14.16</v>
+        <v>43.9</v>
       </c>
       <c r="C148" t="n">
-        <v>30.34</v>
+        <v>0</v>
       </c>
       <c r="D148" t="n">
-        <v>25.5</v>
+        <v>26.77</v>
+      </c>
+      <c r="E148" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="F148" t="n">
+        <v>18.23375</v>
       </c>
     </row>
     <row r="149">
@@ -2711,13 +3240,19 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>14.12</v>
+        <v>43.34</v>
       </c>
       <c r="C149" t="n">
-        <v>30.47</v>
+        <v>0</v>
       </c>
       <c r="D149" t="n">
-        <v>25.43</v>
+        <v>27.73</v>
+      </c>
+      <c r="E149" t="n">
+        <v>10.34</v>
+      </c>
+      <c r="F149" t="n">
+        <v>17.93555555555555</v>
       </c>
     </row>
     <row r="150">
@@ -2725,13 +3260,19 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>14.11</v>
+        <v>42.8</v>
       </c>
       <c r="C150" t="n">
-        <v>30.62</v>
+        <v>0</v>
       </c>
       <c r="D150" t="n">
-        <v>25.31</v>
+        <v>28.91</v>
+      </c>
+      <c r="E150" t="n">
+        <v>10.16</v>
+      </c>
+      <c r="F150" t="n">
+        <v>16.512</v>
       </c>
     </row>
     <row r="151">
@@ -2739,13 +3280,19 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>15.23</v>
+        <v>42.68</v>
       </c>
       <c r="C151" t="n">
-        <v>29.66</v>
+        <v>0</v>
       </c>
       <c r="D151" t="n">
-        <v>25.14</v>
+        <v>29.6</v>
+      </c>
+      <c r="E151" t="n">
+        <v>11.21</v>
+      </c>
+      <c r="F151" t="n">
+        <v>16.512</v>
       </c>
     </row>
     <row r="152">
@@ -2753,13 +3300,19 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>16.36</v>
+        <v>42.85</v>
       </c>
       <c r="C152" t="n">
-        <v>28.75</v>
+        <v>0</v>
       </c>
       <c r="D152" t="n">
-        <v>24.93</v>
+        <v>29.34</v>
+      </c>
+      <c r="E152" t="n">
+        <v>12.99</v>
+      </c>
+      <c r="F152" t="n">
+        <v>14.822</v>
       </c>
     </row>
     <row r="153">
@@ -2767,13 +3320,19 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>17.41</v>
+        <v>43.98</v>
       </c>
       <c r="C153" t="n">
-        <v>27.88</v>
+        <v>0</v>
       </c>
       <c r="D153" t="n">
-        <v>24.76</v>
+        <v>28.31</v>
+      </c>
+      <c r="E153" t="n">
+        <v>14.53</v>
+      </c>
+      <c r="F153" t="n">
+        <v>13.179</v>
       </c>
     </row>
     <row r="154">
@@ -2781,13 +3340,19 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>18.55</v>
+        <v>45.21</v>
       </c>
       <c r="C154" t="n">
-        <v>26.91</v>
+        <v>0</v>
       </c>
       <c r="D154" t="n">
-        <v>24.58</v>
+        <v>27.24</v>
+      </c>
+      <c r="E154" t="n">
+        <v>15.99</v>
+      </c>
+      <c r="F154" t="n">
+        <v>11.556</v>
       </c>
     </row>
     <row r="155">
@@ -2795,13 +3360,19 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>19.63</v>
+        <v>45.84</v>
       </c>
       <c r="C155" t="n">
-        <v>25.95</v>
+        <v>0</v>
       </c>
       <c r="D155" t="n">
-        <v>24.46</v>
+        <v>26.41</v>
+      </c>
+      <c r="E155" t="n">
+        <v>17.81</v>
+      </c>
+      <c r="F155" t="n">
+        <v>9.943000000000001</v>
       </c>
     </row>
     <row r="156">
@@ -2809,13 +3380,19 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>20.82</v>
+        <v>46.5</v>
       </c>
       <c r="C156" t="n">
-        <v>24.82</v>
+        <v>0</v>
       </c>
       <c r="D156" t="n">
-        <v>24.4</v>
+        <v>25.61</v>
+      </c>
+      <c r="E156" t="n">
+        <v>19.58</v>
+      </c>
+      <c r="F156" t="n">
+        <v>8.309999999999999</v>
       </c>
     </row>
     <row r="157">
@@ -2823,13 +3400,19 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>22.04</v>
+        <v>47.3</v>
       </c>
       <c r="C157" t="n">
-        <v>23.66</v>
+        <v>0</v>
       </c>
       <c r="D157" t="n">
-        <v>24.33</v>
+        <v>24.79</v>
+      </c>
+      <c r="E157" t="n">
+        <v>21.01</v>
+      </c>
+      <c r="F157" t="n">
+        <v>6.895</v>
       </c>
     </row>
     <row r="158">
@@ -2837,13 +3420,19 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>23.2</v>
+        <v>48.11</v>
       </c>
       <c r="C158" t="n">
-        <v>22.51</v>
+        <v>0</v>
       </c>
       <c r="D158" t="n">
-        <v>24.33</v>
+        <v>23.95</v>
+      </c>
+      <c r="E158" t="n">
+        <v>22.43</v>
+      </c>
+      <c r="F158" t="n">
+        <v>5.513</v>
       </c>
     </row>
     <row r="159">
@@ -2851,13 +3440,19 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>24.32</v>
+        <v>49.02</v>
       </c>
       <c r="C159" t="n">
-        <v>21.4</v>
+        <v>0</v>
       </c>
       <c r="D159" t="n">
-        <v>24.31</v>
+        <v>21.1</v>
+      </c>
+      <c r="E159" t="n">
+        <v>23.83</v>
+      </c>
+      <c r="F159" t="n">
+        <v>4.111</v>
       </c>
     </row>
     <row r="160">
@@ -2865,13 +3460,19 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>25.58</v>
+        <v>50.08</v>
       </c>
       <c r="C160" t="n">
-        <v>20.2</v>
+        <v>0</v>
       </c>
       <c r="D160" t="n">
-        <v>24.23</v>
+        <v>20.05</v>
+      </c>
+      <c r="E160" t="n">
+        <v>25.17</v>
+      </c>
+      <c r="F160" t="n">
+        <v>2.749</v>
       </c>
     </row>
     <row r="161">
@@ -2879,13 +3480,19 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>25.72</v>
+        <v>51.2</v>
       </c>
       <c r="C161" t="n">
-        <v>20.14</v>
+        <v>0</v>
       </c>
       <c r="D161" t="n">
-        <v>24.14</v>
+        <v>18.99</v>
+      </c>
+      <c r="E161" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="F161" t="n">
+        <v>4.561999999999999</v>
       </c>
     </row>
     <row r="162">
@@ -2893,13 +3500,19 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>25.88</v>
+        <v>52.69</v>
       </c>
       <c r="C162" t="n">
-        <v>20.06</v>
+        <v>0</v>
       </c>
       <c r="D162" t="n">
-        <v>24.05</v>
+        <v>17.97</v>
+      </c>
+      <c r="E162" t="n">
+        <v>25.42</v>
+      </c>
+      <c r="F162" t="n">
+        <v>5.976</v>
       </c>
     </row>
     <row r="163">
@@ -2907,13 +3520,19 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>25.7</v>
+        <v>53.27</v>
       </c>
       <c r="C163" t="n">
-        <v>19.88</v>
+        <v>0</v>
       </c>
       <c r="D163" t="n">
-        <v>24.41</v>
+        <v>17.67</v>
+      </c>
+      <c r="E163" t="n">
+        <v>25.72</v>
+      </c>
+      <c r="F163" t="n">
+        <v>7.4</v>
       </c>
     </row>
     <row r="164">
@@ -2921,13 +3540,19 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>25.49</v>
+        <v>53.7</v>
       </c>
       <c r="C164" t="n">
-        <v>19.76</v>
+        <v>0</v>
       </c>
       <c r="D164" t="n">
-        <v>24.75</v>
+        <v>17.45</v>
+      </c>
+      <c r="E164" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="F164" t="n">
+        <v>8.803999999999998</v>
       </c>
     </row>
     <row r="165">
@@ -2935,13 +3560,19 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>25.17</v>
+        <v>54.97</v>
       </c>
       <c r="C165" t="n">
-        <v>19.98</v>
+        <v>0</v>
       </c>
       <c r="D165" t="n">
-        <v>24.85</v>
+        <v>16.78</v>
+      </c>
+      <c r="E165" t="n">
+        <v>26.11</v>
+      </c>
+      <c r="F165" t="n">
+        <v>10.198</v>
       </c>
     </row>
     <row r="166">
@@ -2949,13 +3580,19 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>24.8</v>
+        <v>56.22</v>
       </c>
       <c r="C166" t="n">
-        <v>20.24</v>
+        <v>0</v>
       </c>
       <c r="D166" t="n">
-        <v>24.96</v>
+        <v>16.09</v>
+      </c>
+      <c r="E166" t="n">
+        <v>26.16</v>
+      </c>
+      <c r="F166" t="n">
+        <v>11.592</v>
       </c>
     </row>
     <row r="167">
@@ -2963,13 +3600,19 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>24.38</v>
+        <v>57.29</v>
       </c>
       <c r="C167" t="n">
-        <v>20.56</v>
+        <v>0</v>
       </c>
       <c r="D167" t="n">
-        <v>25.06</v>
+        <v>15.63</v>
+      </c>
+      <c r="E167" t="n">
+        <v>26.13</v>
+      </c>
+      <c r="F167" t="n">
+        <v>12.996</v>
       </c>
     </row>
     <row r="168">
@@ -2977,13 +3620,19 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>23.9</v>
+        <v>58.36</v>
       </c>
       <c r="C168" t="n">
-        <v>20.82</v>
+        <v>0</v>
       </c>
       <c r="D168" t="n">
-        <v>25.28</v>
+        <v>15.18</v>
+      </c>
+      <c r="E168" t="n">
+        <v>26.12</v>
+      </c>
+      <c r="F168" t="n">
+        <v>14.387</v>
       </c>
     </row>
     <row r="169">
@@ -2991,13 +3640,19 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>23.34</v>
+        <v>59.34</v>
       </c>
       <c r="C169" t="n">
-        <v>21.13</v>
+        <v>0</v>
       </c>
       <c r="D169" t="n">
-        <v>25.53</v>
+        <v>16.84</v>
+      </c>
+      <c r="E169" t="n">
+        <v>26.12</v>
+      </c>
+      <c r="F169" t="n">
+        <v>15.768</v>
       </c>
     </row>
     <row r="170">
@@ -3005,13 +3660,19 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>22.64</v>
+        <v>60.3</v>
       </c>
       <c r="C170" t="n">
-        <v>21.51</v>
+        <v>0</v>
       </c>
       <c r="D170" t="n">
-        <v>25.85</v>
+        <v>16.47</v>
+      </c>
+      <c r="E170" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="F170" t="n">
+        <v>17.169</v>
       </c>
     </row>
     <row r="171">
@@ -3019,13 +3680,19 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>22</v>
+        <v>61.2</v>
       </c>
       <c r="C171" t="n">
-        <v>21.86</v>
+        <v>0</v>
       </c>
       <c r="D171" t="n">
-        <v>26.14</v>
+        <v>16.18</v>
+      </c>
+      <c r="E171" t="n">
+        <v>26.25</v>
+      </c>
+      <c r="F171" t="n">
+        <v>16.58</v>
       </c>
     </row>
     <row r="172">
@@ -3033,13 +3700,19 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>21.33</v>
+        <v>62.23</v>
       </c>
       <c r="C172" t="n">
-        <v>22.2</v>
+        <v>0</v>
       </c>
       <c r="D172" t="n">
-        <v>26.47</v>
+        <v>15.31</v>
+      </c>
+      <c r="E172" t="n">
+        <v>26.31</v>
+      </c>
+      <c r="F172" t="n">
+        <v>16.43</v>
       </c>
     </row>
     <row r="173">
@@ -3047,13 +3720,19 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>21.01</v>
+        <v>63.06</v>
       </c>
       <c r="C173" t="n">
-        <v>22.66</v>
+        <v>0</v>
       </c>
       <c r="D173" t="n">
-        <v>26.33</v>
+        <v>14.54</v>
+      </c>
+      <c r="E173" t="n">
+        <v>26.25</v>
+      </c>
+      <c r="F173" t="n">
+        <v>16.52</v>
       </c>
     </row>
     <row r="174">
@@ -3061,13 +3740,19 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>20.7</v>
+        <v>63.92</v>
       </c>
       <c r="C174" t="n">
-        <v>23.05</v>
+        <v>0</v>
       </c>
       <c r="D174" t="n">
-        <v>26.25</v>
+        <v>13.72</v>
+      </c>
+      <c r="E174" t="n">
+        <v>26.19</v>
+      </c>
+      <c r="F174" t="n">
+        <v>16.61</v>
       </c>
     </row>
     <row r="175">
@@ -3075,13 +3760,19 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>20.48</v>
+        <v>64.27</v>
       </c>
       <c r="C175" t="n">
-        <v>23.11</v>
+        <v>0</v>
       </c>
       <c r="D175" t="n">
-        <v>26.41</v>
+        <v>13.31</v>
+      </c>
+      <c r="E175" t="n">
+        <v>26.15</v>
+      </c>
+      <c r="F175" t="n">
+        <v>16.777</v>
       </c>
     </row>
     <row r="176">
@@ -3089,13 +3780,19 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>20.38</v>
+        <v>64.72</v>
       </c>
       <c r="C176" t="n">
-        <v>23.08</v>
+        <v>0</v>
       </c>
       <c r="D176" t="n">
-        <v>26.54</v>
+        <v>12.85</v>
+      </c>
+      <c r="E176" t="n">
+        <v>26.07</v>
+      </c>
+      <c r="F176" t="n">
+        <v>16.944</v>
       </c>
     </row>
     <row r="177">
@@ -3103,13 +3800,19 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>20.26</v>
+        <v>65.38</v>
       </c>
       <c r="C177" t="n">
-        <v>23.05</v>
+        <v>0</v>
       </c>
       <c r="D177" t="n">
-        <v>26.69</v>
+        <v>12.15</v>
+      </c>
+      <c r="E177" t="n">
+        <v>26.07</v>
+      </c>
+      <c r="F177" t="n">
+        <v>17.046</v>
       </c>
     </row>
     <row r="178">
@@ -3117,13 +3820,19 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>20.2</v>
+        <v>66.28</v>
       </c>
       <c r="C178" t="n">
-        <v>23.06</v>
+        <v>0</v>
       </c>
       <c r="D178" t="n">
-        <v>26.74</v>
+        <v>11.36</v>
+      </c>
+      <c r="E178" t="n">
+        <v>26.07</v>
+      </c>
+      <c r="F178" t="n">
+        <v>17.003</v>
       </c>
     </row>
     <row r="179">
@@ -3131,13 +3840,19 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>20.24</v>
+        <v>67.17</v>
       </c>
       <c r="C179" t="n">
-        <v>23.03</v>
+        <v>0</v>
       </c>
       <c r="D179" t="n">
-        <v>26.73</v>
+        <v>10.55</v>
+      </c>
+      <c r="E179" t="n">
+        <v>26.07</v>
+      </c>
+      <c r="F179" t="n">
+        <v>16.925</v>
       </c>
     </row>
     <row r="180">
@@ -3145,13 +3860,19 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>20.26</v>
+        <v>68.15000000000001</v>
       </c>
       <c r="C180" t="n">
-        <v>22.89</v>
+        <v>0</v>
       </c>
       <c r="D180" t="n">
-        <v>26.85</v>
+        <v>9.68</v>
+      </c>
+      <c r="E180" t="n">
+        <v>26.07</v>
+      </c>
+      <c r="F180" t="n">
+        <v>16.827</v>
       </c>
     </row>
     <row r="181">
@@ -3159,13 +3880,19 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>20.42</v>
+        <v>69.18000000000001</v>
       </c>
       <c r="C181" t="n">
-        <v>22.73</v>
+        <v>0</v>
       </c>
       <c r="D181" t="n">
-        <v>26.85</v>
+        <v>8.76</v>
+      </c>
+      <c r="E181" t="n">
+        <v>26.07</v>
+      </c>
+      <c r="F181" t="n">
+        <v>16.709</v>
       </c>
     </row>
     <row r="182">
@@ -3173,13 +3900,19 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>20.59</v>
+        <v>69.53</v>
       </c>
       <c r="C182" t="n">
-        <v>22.58</v>
+        <v>0</v>
       </c>
       <c r="D182" t="n">
-        <v>26.83</v>
+        <v>8.5</v>
+      </c>
+      <c r="E182" t="n">
+        <v>26.07</v>
+      </c>
+      <c r="F182" t="n">
+        <v>16.611</v>
       </c>
     </row>
     <row r="183">
@@ -3187,13 +3920,19 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>20.78</v>
+        <v>70.33</v>
       </c>
       <c r="C183" t="n">
-        <v>22.37</v>
+        <v>0</v>
       </c>
       <c r="D183" t="n">
-        <v>26.86</v>
+        <v>8.050000000000001</v>
+      </c>
+      <c r="E183" t="n">
+        <v>26.07</v>
+      </c>
+      <c r="F183" t="n">
+        <v>16.253</v>
       </c>
     </row>
     <row r="184">
@@ -3201,13 +3940,19 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>20.98</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="C184" t="n">
-        <v>22.21</v>
+        <v>0</v>
       </c>
       <c r="D184" t="n">
-        <v>26.82</v>
+        <v>7.49</v>
+      </c>
+      <c r="E184" t="n">
+        <v>26.07</v>
+      </c>
+      <c r="F184" t="n">
+        <v>16.035</v>
       </c>
     </row>
     <row r="185">
@@ -3215,13 +3960,19 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>21.24</v>
+        <v>72.36</v>
       </c>
       <c r="C185" t="n">
-        <v>22.09</v>
+        <v>0</v>
       </c>
       <c r="D185" t="n">
-        <v>26.67</v>
+        <v>6.54</v>
+      </c>
+      <c r="E185" t="n">
+        <v>26.07</v>
+      </c>
+      <c r="F185" t="n">
+        <v>15.73</v>
       </c>
     </row>
     <row r="186">
@@ -3229,13 +3980,19 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>21.41</v>
+        <v>74.84999999999999</v>
       </c>
       <c r="C186" t="n">
-        <v>22.02</v>
+        <v>0</v>
       </c>
       <c r="D186" t="n">
-        <v>26.57</v>
+        <v>5.67</v>
+      </c>
+      <c r="E186" t="n">
+        <v>26.07</v>
+      </c>
+      <c r="F186" t="n">
+        <v>14.105</v>
       </c>
     </row>
     <row r="187">
@@ -3243,13 +4000,19 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>21.7</v>
+        <v>77.23</v>
       </c>
       <c r="C187" t="n">
-        <v>21.94</v>
+        <v>0</v>
       </c>
       <c r="D187" t="n">
-        <v>26.36</v>
+        <v>4.87</v>
+      </c>
+      <c r="E187" t="n">
+        <v>26.07</v>
+      </c>
+      <c r="F187" t="n">
+        <v>12.535</v>
       </c>
     </row>
     <row r="188">
@@ -3257,13 +4020,19 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>22</v>
+        <v>79.37</v>
       </c>
       <c r="C188" t="n">
-        <v>21.86</v>
+        <v>0</v>
       </c>
       <c r="D188" t="n">
-        <v>26.14</v>
+        <v>4.08</v>
+      </c>
+      <c r="E188" t="n">
+        <v>26.07</v>
+      </c>
+      <c r="F188" t="n">
+        <v>11.18</v>
       </c>
     </row>
     <row r="189">
@@ -3271,545 +4040,19 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>22.28</v>
+        <v>81.54000000000001</v>
       </c>
       <c r="C189" t="n">
-        <v>21.77</v>
+        <v>0</v>
       </c>
       <c r="D189" t="n">
-        <v>25.95</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>22.57</v>
-      </c>
-      <c r="C190" t="n">
-        <v>21.83</v>
-      </c>
-      <c r="D190" t="n">
-        <v>25.6</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>22.67</v>
-      </c>
-      <c r="C191" t="n">
-        <v>21.67</v>
-      </c>
-      <c r="D191" t="n">
-        <v>25.66</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>22.75</v>
-      </c>
-      <c r="C192" t="n">
-        <v>21.56</v>
-      </c>
-      <c r="D192" t="n">
-        <v>25.69</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>22.83</v>
-      </c>
-      <c r="C193" t="n">
-        <v>21.43</v>
-      </c>
-      <c r="D193" t="n">
-        <v>25.74</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>22.92</v>
-      </c>
-      <c r="C194" t="n">
-        <v>21.29</v>
-      </c>
-      <c r="D194" t="n">
-        <v>25.79</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>22.92</v>
-      </c>
-      <c r="C195" t="n">
-        <v>21.04</v>
-      </c>
-      <c r="D195" t="n">
-        <v>25.86</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>22.86</v>
-      </c>
-      <c r="C196" t="n">
-        <v>20.85</v>
-      </c>
-      <c r="D196" t="n">
-        <v>25.95</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>22.71</v>
-      </c>
-      <c r="C197" t="n">
-        <v>20.66</v>
-      </c>
-      <c r="D197" t="n">
-        <v>26.12</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="C198" t="n">
-        <v>20.44</v>
-      </c>
-      <c r="D198" t="n">
-        <v>26.28</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>22.52</v>
-      </c>
-      <c r="C199" t="n">
-        <v>20.16</v>
-      </c>
-      <c r="D199" t="n">
-        <v>26.63</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>22.46</v>
-      </c>
-      <c r="C200" t="n">
-        <v>19.93</v>
-      </c>
-      <c r="D200" t="n">
-        <v>26.93</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>22.54</v>
-      </c>
-      <c r="C201" t="n">
-        <v>19.93</v>
-      </c>
-      <c r="D201" t="n">
-        <v>26.85</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>22.63</v>
-      </c>
-      <c r="C202" t="n">
-        <v>19.99</v>
-      </c>
-      <c r="D202" t="n">
-        <v>26.7</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="C203" t="n">
-        <v>20.06</v>
-      </c>
-      <c r="D203" t="n">
-        <v>26.56</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>22.56</v>
-      </c>
-      <c r="C204" t="n">
-        <v>20.12</v>
-      </c>
-      <c r="D204" t="n">
-        <v>26.64</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="C205" t="n">
-        <v>20.28</v>
-      </c>
-      <c r="D205" t="n">
-        <v>26.71</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>22.49</v>
-      </c>
-      <c r="C206" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="D206" t="n">
-        <v>26.78</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>23.01</v>
-      </c>
-      <c r="C207" t="n">
-        <v>20.11</v>
-      </c>
-      <c r="D207" t="n">
-        <v>26.71</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>23.46</v>
-      </c>
-      <c r="C208" t="n">
-        <v>19.89</v>
-      </c>
-      <c r="D208" t="n">
-        <v>26.65</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>23.79</v>
-      </c>
-      <c r="C209" t="n">
-        <v>19.67</v>
-      </c>
-      <c r="D209" t="n">
-        <v>26.54</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>24.09</v>
-      </c>
-      <c r="C210" t="n">
-        <v>19.37</v>
-      </c>
-      <c r="D210" t="n">
-        <v>26.54</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>24.24</v>
-      </c>
-      <c r="C211" t="n">
-        <v>19.13</v>
-      </c>
-      <c r="D211" t="n">
-        <v>26.63</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="C212" t="n">
-        <v>18.78</v>
-      </c>
-      <c r="D212" t="n">
-        <v>26.81</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>24.51</v>
-      </c>
-      <c r="C213" t="n">
-        <v>18.58</v>
-      </c>
-      <c r="D213" t="n">
-        <v>26.92</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>24.76</v>
-      </c>
-      <c r="C214" t="n">
-        <v>18.42</v>
-      </c>
-      <c r="D214" t="n">
-        <v>26.83</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>25.02</v>
-      </c>
-      <c r="C215" t="n">
-        <v>18.22</v>
-      </c>
-      <c r="D215" t="n">
-        <v>26.76</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>25.34</v>
-      </c>
-      <c r="C216" t="n">
-        <v>18.03</v>
-      </c>
-      <c r="D216" t="n">
-        <v>26.63</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>25.25</v>
-      </c>
-      <c r="C217" t="n">
-        <v>18.17</v>
-      </c>
-      <c r="D217" t="n">
-        <v>26.58</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>25.79</v>
-      </c>
-      <c r="C218" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="D218" t="n">
-        <v>25.91</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>26.56</v>
-      </c>
-      <c r="C219" t="n">
-        <v>18.43</v>
-      </c>
-      <c r="D219" t="n">
-        <v>25.01</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>27.51</v>
-      </c>
-      <c r="C220" t="n">
-        <v>18.56</v>
-      </c>
-      <c r="D220" t="n">
-        <v>23.93</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>28.46</v>
-      </c>
-      <c r="C221" t="n">
-        <v>18.65</v>
-      </c>
-      <c r="D221" t="n">
-        <v>22.89</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>29.35</v>
-      </c>
-      <c r="C222" t="n">
-        <v>18.87</v>
-      </c>
-      <c r="D222" t="n">
-        <v>21.78</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>30.29</v>
-      </c>
-      <c r="C223" t="n">
-        <v>18.99</v>
-      </c>
-      <c r="D223" t="n">
-        <v>20.71</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>31.29</v>
-      </c>
-      <c r="C224" t="n">
-        <v>19.09</v>
-      </c>
-      <c r="D224" t="n">
-        <v>19.62</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>32.21</v>
-      </c>
-      <c r="C225" t="n">
-        <v>18.91</v>
-      </c>
-      <c r="D225" t="n">
-        <v>18.88</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>33.02</v>
-      </c>
-      <c r="C226" t="n">
-        <v>17.89</v>
-      </c>
-      <c r="D226" t="n">
-        <v>19.09</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>33.57</v>
-      </c>
-      <c r="C227" t="n">
-        <v>16.93</v>
-      </c>
-      <c r="D227" t="n">
-        <v>19.5</v>
+        <v>3.24</v>
+      </c>
+      <c r="E189" t="n">
+        <v>26.07</v>
+      </c>
+      <c r="F189" t="n">
+        <v>9.860000000000003</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/stacks_over_time_avg.xlsx
+++ b/Outputs/stacks_over_time_avg.xlsx
@@ -194,7 +194,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$B$2:$B$189</f>
+              <f>'data'!$B$2:$B$148</f>
             </numRef>
           </val>
         </ser>
@@ -221,7 +221,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$C$2:$C$189</f>
+              <f>'data'!$C$2:$C$148</f>
             </numRef>
           </val>
         </ser>
@@ -248,7 +248,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$D$2:$D$189</f>
+              <f>'data'!$D$2:$D$148</f>
             </numRef>
           </val>
         </ser>
@@ -275,7 +275,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$E$2:$E$189</f>
+              <f>'data'!$E$2:$E$148</f>
             </numRef>
           </val>
         </ser>
@@ -302,7 +302,142 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$F$2:$F$189</f>
+              <f>'data'!$F$2:$F$148</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="5"/>
+          <order val="5"/>
+          <tx>
+            <strRef>
+              <f>'data'!G1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'data'!$G$2:$G$148</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="6"/>
+          <order val="6"/>
+          <tx>
+            <strRef>
+              <f>'data'!H1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'data'!$H$2:$H$148</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="7"/>
+          <order val="7"/>
+          <tx>
+            <strRef>
+              <f>'data'!I1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'data'!$I$2:$I$148</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="8"/>
+          <order val="8"/>
+          <tx>
+            <strRef>
+              <f>'data'!J1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'data'!$J$2:$J$148</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="9"/>
+          <order val="9"/>
+          <tx>
+            <strRef>
+              <f>'data'!K1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'data'!$K$2:$K$148</f>
             </numRef>
           </val>
         </ser>
@@ -672,7 +807,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F189"/>
+  <dimension ref="A1:K148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -693,22 +828,47 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Ben</t>
+          <t>Cedric</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Kynan</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Jonathan</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Fish</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Cedric</t>
+          <t>Jacob</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Raymond</t>
+          <t>Marshall</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Regan</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Cheyenne</t>
         </is>
       </c>
     </row>
@@ -717,16 +877,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="F2" t="n">
+        <v>10</v>
+      </c>
+      <c r="G2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -734,16 +900,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20.5</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>19.5</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E3" t="n">
-        <v>20</v>
+        <v>9.949999999999999</v>
+      </c>
+      <c r="F3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G3" t="n">
+        <v>10.15</v>
       </c>
     </row>
     <row r="4">
@@ -751,16 +923,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20.67</v>
+        <v>9.93</v>
       </c>
       <c r="C4" t="n">
-        <v>19.33</v>
+        <v>9.92</v>
       </c>
       <c r="D4" t="n">
-        <v>20</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>20</v>
+        <v>10.02</v>
+      </c>
+      <c r="F4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G4" t="n">
+        <v>10.17</v>
       </c>
     </row>
     <row r="5">
@@ -768,16 +946,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>21.2</v>
+        <v>9.93</v>
       </c>
       <c r="C5" t="n">
-        <v>19.05</v>
+        <v>9.9</v>
       </c>
       <c r="D5" t="n">
-        <v>19.8</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>19.95</v>
+        <v>10.03</v>
+      </c>
+      <c r="F5" t="n">
+        <v>9.970000000000001</v>
+      </c>
+      <c r="G5" t="n">
+        <v>10.3</v>
       </c>
     </row>
     <row r="6">
@@ -785,16 +969,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>21.44</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>18.84</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>19.68</v>
+        <v>9.82</v>
       </c>
       <c r="E6" t="n">
-        <v>20.04</v>
+        <v>10.02</v>
+      </c>
+      <c r="F6" t="n">
+        <v>9.94</v>
+      </c>
+      <c r="G6" t="n">
+        <v>10.38</v>
       </c>
     </row>
     <row r="7">
@@ -802,16 +992,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>21.15</v>
+        <v>10.32</v>
       </c>
       <c r="C7" t="n">
-        <v>17.92</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>20.83</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>20.1</v>
+        <v>9.93</v>
+      </c>
+      <c r="F7" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="G7" t="n">
+        <v>10.42</v>
       </c>
     </row>
     <row r="8">
@@ -819,16 +1015,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>20.94</v>
+        <v>10.58</v>
       </c>
       <c r="C8" t="n">
-        <v>17.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>21.71</v>
+        <v>9.31</v>
       </c>
       <c r="E8" t="n">
-        <v>20.14</v>
+        <v>9.98</v>
+      </c>
+      <c r="F8" t="n">
+        <v>9.890000000000001</v>
+      </c>
+      <c r="G8" t="n">
+        <v>10.44</v>
       </c>
     </row>
     <row r="9">
@@ -836,16 +1038,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>21.01</v>
+        <v>10.73</v>
       </c>
       <c r="C9" t="n">
-        <v>16.56</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>22.28</v>
+        <v>9.31</v>
       </c>
       <c r="E9" t="n">
-        <v>20.15</v>
+        <v>9.98</v>
+      </c>
+      <c r="F9" t="n">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10.41</v>
       </c>
     </row>
     <row r="10">
@@ -853,16 +1061,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>20.88</v>
+        <v>10.85</v>
       </c>
       <c r="C10" t="n">
-        <v>16.29</v>
+        <v>9.59</v>
       </c>
       <c r="D10" t="n">
-        <v>22.69</v>
+        <v>9.56</v>
       </c>
       <c r="E10" t="n">
-        <v>20.14</v>
+        <v>9.93</v>
+      </c>
+      <c r="F10" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="G10" t="n">
+        <v>10.27</v>
       </c>
     </row>
     <row r="11">
@@ -870,16 +1084,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>21.06</v>
+        <v>10.94</v>
       </c>
       <c r="C11" t="n">
-        <v>16.05</v>
+        <v>9.49</v>
       </c>
       <c r="D11" t="n">
-        <v>23</v>
+        <v>9.76</v>
       </c>
       <c r="E11" t="n">
-        <v>19.89</v>
+        <v>9.99</v>
+      </c>
+      <c r="F11" t="n">
+        <v>9.66</v>
+      </c>
+      <c r="G11" t="n">
+        <v>10.16</v>
       </c>
     </row>
     <row r="12">
@@ -887,16 +1107,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>21.06</v>
+        <v>10.94</v>
       </c>
       <c r="C12" t="n">
-        <v>16.05</v>
+        <v>9.49</v>
       </c>
       <c r="D12" t="n">
-        <v>23</v>
+        <v>9.76</v>
       </c>
       <c r="E12" t="n">
-        <v>19.89</v>
+        <v>9.99</v>
+      </c>
+      <c r="F12" t="n">
+        <v>9.66</v>
+      </c>
+      <c r="G12" t="n">
+        <v>10.16</v>
       </c>
     </row>
     <row r="13">
@@ -904,16 +1130,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>21.32</v>
+        <v>11.31</v>
       </c>
       <c r="C13" t="n">
-        <v>15.47</v>
+        <v>9.35</v>
       </c>
       <c r="D13" t="n">
-        <v>23.56</v>
+        <v>9.85</v>
       </c>
       <c r="E13" t="n">
-        <v>19.65</v>
+        <v>9.98</v>
+      </c>
+      <c r="F13" t="n">
+        <v>9.49</v>
+      </c>
+      <c r="G13" t="n">
+        <v>10.02</v>
       </c>
     </row>
     <row r="14">
@@ -921,16 +1153,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>21.23</v>
+        <v>11.69</v>
       </c>
       <c r="C14" t="n">
-        <v>14.92</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>24.46</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>19.39</v>
+        <v>9.960000000000001</v>
+      </c>
+      <c r="F14" t="n">
+        <v>9.43</v>
+      </c>
+      <c r="G14" t="n">
+        <v>9.84</v>
       </c>
     </row>
     <row r="15">
@@ -938,16 +1176,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>21.2</v>
+        <v>13.07</v>
       </c>
       <c r="C15" t="n">
-        <v>14.37</v>
+        <v>9.09</v>
       </c>
       <c r="D15" t="n">
-        <v>25.31</v>
+        <v>8.94</v>
       </c>
       <c r="E15" t="n">
-        <v>19.12</v>
+        <v>9.859999999999999</v>
+      </c>
+      <c r="F15" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="G15" t="n">
+        <v>9.66</v>
       </c>
     </row>
     <row r="16">
@@ -955,16 +1199,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>21.14</v>
+        <v>14.38</v>
       </c>
       <c r="C16" t="n">
-        <v>13.88</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>26.11</v>
+        <v>7.99</v>
       </c>
       <c r="E16" t="n">
-        <v>18.87</v>
+        <v>9.710000000000001</v>
+      </c>
+      <c r="F16" t="n">
+        <v>9.59</v>
+      </c>
+      <c r="G16" t="n">
+        <v>9.359999999999999</v>
       </c>
     </row>
     <row r="17">
@@ -972,16 +1222,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>21.12</v>
+        <v>15.61</v>
       </c>
       <c r="C17" t="n">
-        <v>13.43</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>26.91</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>18.56</v>
+        <v>9.5</v>
+      </c>
+      <c r="F17" t="n">
+        <v>9.74</v>
+      </c>
+      <c r="G17" t="n">
+        <v>8.73</v>
       </c>
     </row>
     <row r="18">
@@ -989,16 +1245,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>22.27</v>
+        <v>16.65</v>
       </c>
       <c r="C18" t="n">
-        <v>12.58</v>
+        <v>9.81</v>
       </c>
       <c r="D18" t="n">
-        <v>26.96</v>
+        <v>8.27</v>
       </c>
       <c r="E18" t="n">
-        <v>18.23</v>
+        <v>9.279999999999999</v>
+      </c>
+      <c r="F18" t="n">
+        <v>9.890000000000001</v>
+      </c>
+      <c r="G18" t="n">
+        <v>8.1</v>
       </c>
     </row>
     <row r="19">
@@ -1006,16 +1268,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>23.37</v>
+        <v>17.67</v>
       </c>
       <c r="C19" t="n">
-        <v>11.7</v>
+        <v>10.28</v>
       </c>
       <c r="D19" t="n">
-        <v>26.96</v>
+        <v>8.5</v>
       </c>
       <c r="E19" t="n">
-        <v>18.02</v>
+        <v>9.1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="G19" t="n">
+        <v>7.44</v>
       </c>
     </row>
     <row r="20">
@@ -1023,16 +1291,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>24.43</v>
+        <v>18.32</v>
       </c>
       <c r="C20" t="n">
-        <v>10.78</v>
+        <v>10.79</v>
       </c>
       <c r="D20" t="n">
-        <v>27</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>17.83</v>
+        <v>8.9</v>
+      </c>
+      <c r="F20" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="G20" t="n">
+        <v>7.26</v>
       </c>
     </row>
     <row r="21">
@@ -1040,16 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>26.44</v>
+        <v>18.97</v>
       </c>
       <c r="C21" t="n">
-        <v>9.65</v>
+        <v>11.33</v>
       </c>
       <c r="D21" t="n">
-        <v>26.3</v>
+        <v>8.48</v>
       </c>
       <c r="E21" t="n">
-        <v>17.65</v>
+        <v>8.77</v>
+      </c>
+      <c r="F21" t="n">
+        <v>10.28</v>
+      </c>
+      <c r="G21" t="n">
+        <v>7.18</v>
       </c>
     </row>
     <row r="22">
@@ -1057,16 +1337,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>28.16</v>
+        <v>19.62</v>
       </c>
       <c r="C22" t="n">
-        <v>8.52</v>
+        <v>11.78</v>
       </c>
       <c r="D22" t="n">
-        <v>25.61</v>
+        <v>8.35</v>
       </c>
       <c r="E22" t="n">
-        <v>17.76</v>
+        <v>8.550000000000001</v>
+      </c>
+      <c r="F22" t="n">
+        <v>10.51</v>
+      </c>
+      <c r="G22" t="n">
+        <v>7.2</v>
       </c>
     </row>
     <row r="23">
@@ -1074,16 +1360,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>29.61</v>
+        <v>20.09</v>
       </c>
       <c r="C23" t="n">
-        <v>7.71</v>
+        <v>12.23</v>
       </c>
       <c r="D23" t="n">
-        <v>24.87</v>
+        <v>8.25</v>
       </c>
       <c r="E23" t="n">
-        <v>17.86</v>
+        <v>8.43</v>
+      </c>
+      <c r="F23" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="G23" t="n">
+        <v>7.29</v>
       </c>
     </row>
     <row r="24">
@@ -1091,16 +1383,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>32.01</v>
+        <v>20.55</v>
       </c>
       <c r="C24" t="n">
-        <v>6.35</v>
+        <v>12.67</v>
       </c>
       <c r="D24" t="n">
-        <v>23.7</v>
+        <v>8.18</v>
       </c>
       <c r="E24" t="n">
-        <v>17.98</v>
+        <v>8.380000000000001</v>
+      </c>
+      <c r="F24" t="n">
+        <v>10.89</v>
+      </c>
+      <c r="G24" t="n">
+        <v>7.37</v>
       </c>
     </row>
     <row r="25">
@@ -1108,16 +1406,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>34.37</v>
+        <v>20.01</v>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>13.08</v>
       </c>
       <c r="D25" t="n">
-        <v>22.56</v>
+        <v>9.06</v>
       </c>
       <c r="E25" t="n">
-        <v>18.11</v>
+        <v>8.449999999999999</v>
+      </c>
+      <c r="F25" t="n">
+        <v>11.02</v>
+      </c>
+      <c r="G25" t="n">
+        <v>7.44</v>
       </c>
     </row>
     <row r="26">
@@ -1125,16 +1429,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>36.6</v>
+        <v>19.54</v>
       </c>
       <c r="C26" t="n">
-        <v>3.67</v>
+        <v>13.49</v>
       </c>
       <c r="D26" t="n">
-        <v>21.55</v>
+        <v>9.99</v>
       </c>
       <c r="E26" t="n">
-        <v>18.22</v>
+        <v>8.56</v>
+      </c>
+      <c r="F26" t="n">
+        <v>10.88</v>
+      </c>
+      <c r="G26" t="n">
+        <v>7.6</v>
       </c>
     </row>
     <row r="27">
@@ -1142,16 +1452,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>38.81</v>
+        <v>19.13</v>
       </c>
       <c r="C27" t="n">
-        <v>2.32</v>
+        <v>13.38</v>
       </c>
       <c r="D27" t="n">
-        <v>20.57</v>
+        <v>9.92</v>
       </c>
       <c r="E27" t="n">
-        <v>18.32</v>
+        <v>8.720000000000001</v>
+      </c>
+      <c r="F27" t="n">
+        <v>10.81</v>
+      </c>
+      <c r="G27" t="n">
+        <v>8.1</v>
       </c>
     </row>
     <row r="28">
@@ -1159,16 +1475,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>39.82</v>
+        <v>18.7</v>
       </c>
       <c r="C28" t="n">
-        <v>1.85</v>
+        <v>13.26</v>
       </c>
       <c r="D28" t="n">
-        <v>19.89</v>
+        <v>9.9</v>
       </c>
       <c r="E28" t="n">
-        <v>18.44</v>
+        <v>8.94</v>
+      </c>
+      <c r="F28" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="G28" t="n">
+        <v>8.59</v>
       </c>
     </row>
     <row r="29">
@@ -1176,16 +1498,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>40.9</v>
+        <v>18.31</v>
       </c>
       <c r="C29" t="n">
-        <v>1.44</v>
+        <v>13.12</v>
       </c>
       <c r="D29" t="n">
-        <v>19.22</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="E29" t="n">
-        <v>18.45</v>
+        <v>9.06</v>
+      </c>
+      <c r="F29" t="n">
+        <v>10.61</v>
+      </c>
+      <c r="G29" t="n">
+        <v>9.130000000000001</v>
       </c>
     </row>
     <row r="30">
@@ -1193,16 +1521,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>41.83</v>
+        <v>18.31</v>
       </c>
       <c r="C30" t="n">
-        <v>1.14</v>
+        <v>12.98</v>
       </c>
       <c r="D30" t="n">
-        <v>18.58</v>
+        <v>9.56</v>
       </c>
       <c r="E30" t="n">
-        <v>18.45</v>
+        <v>9.23</v>
+      </c>
+      <c r="F30" t="n">
+        <v>10.81</v>
+      </c>
+      <c r="G30" t="n">
+        <v>9.210000000000001</v>
       </c>
     </row>
     <row r="31">
@@ -1210,16 +1544,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>42.03</v>
+        <v>18.31</v>
       </c>
       <c r="C31" t="n">
-        <v>0.86</v>
+        <v>12.87</v>
       </c>
       <c r="D31" t="n">
-        <v>18.68</v>
+        <v>9.27</v>
       </c>
       <c r="E31" t="n">
-        <v>18.43</v>
+        <v>9.35</v>
+      </c>
+      <c r="F31" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="G31" t="n">
+        <v>9.289999999999999</v>
       </c>
     </row>
     <row r="32">
@@ -1227,16 +1567,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>42.23</v>
+        <v>18.31</v>
       </c>
       <c r="C32" t="n">
-        <v>0.6</v>
+        <v>13.55</v>
       </c>
       <c r="D32" t="n">
-        <v>18.48</v>
+        <v>8.98</v>
       </c>
       <c r="E32" t="n">
-        <v>18.69</v>
+        <v>9.16</v>
+      </c>
+      <c r="F32" t="n">
+        <v>11.14</v>
+      </c>
+      <c r="G32" t="n">
+        <v>8.960000000000001</v>
       </c>
     </row>
     <row r="33">
@@ -1244,16 +1590,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>42.05</v>
+        <v>18.31</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>14.23</v>
       </c>
       <c r="D33" t="n">
-        <v>18.35</v>
+        <v>8.68</v>
       </c>
       <c r="E33" t="n">
-        <v>19.6</v>
+        <v>8.890000000000001</v>
+      </c>
+      <c r="F33" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="G33" t="n">
+        <v>8.619999999999999</v>
       </c>
     </row>
     <row r="34">
@@ -1261,16 +1613,28 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>41.21</v>
+        <v>18.31</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>14.91</v>
       </c>
       <c r="D34" t="n">
-        <v>18.28</v>
+        <v>8.35</v>
       </c>
       <c r="E34" t="n">
-        <v>20.51</v>
+        <v>8.5</v>
+      </c>
+      <c r="F34" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="G34" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+      <c r="I34" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="35">
@@ -1278,16 +1642,28 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>40.35</v>
+        <v>18.3</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>16.23</v>
       </c>
       <c r="D35" t="n">
-        <v>18.21</v>
+        <v>7.72</v>
       </c>
       <c r="E35" t="n">
-        <v>21.44</v>
+        <v>7.77</v>
+      </c>
+      <c r="F35" t="n">
+        <v>12.55</v>
+      </c>
+      <c r="G35" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+      <c r="I35" t="n">
+        <v>9.75</v>
       </c>
     </row>
     <row r="36">
@@ -1295,16 +1671,28 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>39.47</v>
+        <v>18.04</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>17.55</v>
       </c>
       <c r="D36" t="n">
-        <v>18.15</v>
+        <v>7.05</v>
       </c>
       <c r="E36" t="n">
-        <v>22.38</v>
+        <v>7.44</v>
+      </c>
+      <c r="F36" t="n">
+        <v>13.09</v>
+      </c>
+      <c r="G36" t="n">
+        <v>6.96</v>
+      </c>
+      <c r="H36" t="n">
+        <v>9.866666666666667</v>
+      </c>
+      <c r="I36" t="n">
+        <v>9.533333333333333</v>
       </c>
     </row>
     <row r="37">
@@ -1312,16 +1700,28 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>38.69</v>
+        <v>17.74</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>18.84</v>
       </c>
       <c r="D37" t="n">
-        <v>17.98</v>
+        <v>6.76</v>
       </c>
       <c r="E37" t="n">
-        <v>23.33</v>
+        <v>7.1</v>
+      </c>
+      <c r="F37" t="n">
+        <v>13.59</v>
+      </c>
+      <c r="G37" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="H37" t="n">
+        <v>9.725</v>
+      </c>
+      <c r="I37" t="n">
+        <v>9.175000000000001</v>
       </c>
     </row>
     <row r="38">
@@ -1329,16 +1729,28 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>38.21</v>
+        <v>17.88</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>20.13</v>
       </c>
       <c r="D38" t="n">
-        <v>17.55</v>
+        <v>6.4</v>
       </c>
       <c r="E38" t="n">
-        <v>24.24</v>
+        <v>6.76</v>
+      </c>
+      <c r="F38" t="n">
+        <v>14.04</v>
+      </c>
+      <c r="G38" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H38" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="I38" t="n">
+        <v>8.940000000000001</v>
       </c>
     </row>
     <row r="39">
@@ -1346,16 +1758,28 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>37.65</v>
+        <v>18.14</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>21.45</v>
       </c>
       <c r="D39" t="n">
-        <v>17.22</v>
+        <v>5.99</v>
       </c>
       <c r="E39" t="n">
-        <v>25.13</v>
+        <v>6.4</v>
+      </c>
+      <c r="F39" t="n">
+        <v>14.49</v>
+      </c>
+      <c r="G39" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="H39" t="n">
+        <v>9.366666666666665</v>
+      </c>
+      <c r="I39" t="n">
+        <v>7.725000000000001</v>
       </c>
     </row>
     <row r="40">
@@ -1363,16 +1787,28 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>36.82</v>
+        <v>19.26</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>22.76</v>
       </c>
       <c r="D40" t="n">
-        <v>16.87</v>
+        <v>5.85</v>
       </c>
       <c r="E40" t="n">
-        <v>26.31</v>
+        <v>5.97</v>
+      </c>
+      <c r="F40" t="n">
+        <v>14.65</v>
+      </c>
+      <c r="G40" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="H40" t="n">
+        <v>9.185714285714287</v>
+      </c>
+      <c r="I40" t="n">
+        <v>6.857142857142857</v>
       </c>
     </row>
     <row r="41">
@@ -1380,16 +1816,28 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>35.94</v>
+        <v>19.93</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>24.04</v>
       </c>
       <c r="D41" t="n">
-        <v>16.52</v>
+        <v>5.65</v>
       </c>
       <c r="E41" t="n">
-        <v>27.54</v>
+        <v>5.49</v>
+      </c>
+      <c r="F41" t="n">
+        <v>14.82</v>
+      </c>
+      <c r="G41" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="H41" t="n">
+        <v>10.0875</v>
+      </c>
+      <c r="I41" t="n">
+        <v>6.20625</v>
       </c>
     </row>
     <row r="42">
@@ -1397,16 +1845,28 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>34.99</v>
+        <v>20.17</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>24.57</v>
       </c>
       <c r="D42" t="n">
-        <v>16.57</v>
+        <v>5.28</v>
       </c>
       <c r="E42" t="n">
-        <v>28.44</v>
+        <v>5.27</v>
+      </c>
+      <c r="F42" t="n">
+        <v>15.04</v>
+      </c>
+      <c r="G42" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="H42" t="n">
+        <v>10.72222222222222</v>
+      </c>
+      <c r="I42" t="n">
+        <v>5.794444444444444</v>
       </c>
     </row>
     <row r="43">
@@ -1414,16 +1874,31 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>34.79</v>
+        <v>20.5</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>25.05</v>
       </c>
       <c r="D43" t="n">
-        <v>16.6</v>
+        <v>4.96</v>
       </c>
       <c r="E43" t="n">
-        <v>28.61</v>
+        <v>5.06</v>
+      </c>
+      <c r="F43" t="n">
+        <v>15.12</v>
+      </c>
+      <c r="G43" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="H43" t="n">
+        <v>12.122</v>
+      </c>
+      <c r="I43" t="n">
+        <v>5.395</v>
+      </c>
+      <c r="J43" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="44">
@@ -1431,16 +1906,31 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>34.56</v>
+        <v>20.83</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>25.52</v>
       </c>
       <c r="D44" t="n">
-        <v>16.64</v>
+        <v>4.34</v>
       </c>
       <c r="E44" t="n">
-        <v>28.79</v>
+        <v>4.92</v>
+      </c>
+      <c r="F44" t="n">
+        <v>14.41</v>
+      </c>
+      <c r="G44" t="n">
+        <v>8.609999999999999</v>
+      </c>
+      <c r="H44" t="n">
+        <v>12.122</v>
+      </c>
+      <c r="I44" t="n">
+        <v>5.395</v>
+      </c>
+      <c r="J44" t="n">
+        <v>9.949999999999999</v>
       </c>
     </row>
     <row r="45">
@@ -1448,16 +1938,31 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>34.34</v>
+        <v>21.46</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>25.4</v>
       </c>
       <c r="D45" t="n">
-        <v>16.73</v>
+        <v>4.02</v>
       </c>
       <c r="E45" t="n">
-        <v>28.95</v>
+        <v>5.07</v>
+      </c>
+      <c r="F45" t="n">
+        <v>13.71</v>
+      </c>
+      <c r="G45" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="H45" t="n">
+        <v>13.315</v>
+      </c>
+      <c r="I45" t="n">
+        <v>4.575</v>
+      </c>
+      <c r="J45" t="n">
+        <v>9.916666666666666</v>
       </c>
     </row>
     <row r="46">
@@ -1465,16 +1970,31 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>34.11</v>
+        <v>22.33</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>25.26</v>
       </c>
       <c r="D46" t="n">
-        <v>16.83</v>
+        <v>4.74</v>
       </c>
       <c r="E46" t="n">
-        <v>29.11</v>
+        <v>4.87</v>
+      </c>
+      <c r="F46" t="n">
+        <v>13.06</v>
+      </c>
+      <c r="G46" t="n">
+        <v>10.61</v>
+      </c>
+      <c r="H46" t="n">
+        <v>14.498</v>
+      </c>
+      <c r="I46" t="n">
+        <v>3.795</v>
+      </c>
+      <c r="J46" t="n">
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="47">
@@ -1482,16 +2002,31 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>33.79</v>
+        <v>23.25</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>25.12</v>
       </c>
       <c r="D47" t="n">
-        <v>16.96</v>
+        <v>5.01</v>
       </c>
       <c r="E47" t="n">
-        <v>29.31</v>
+        <v>4.62</v>
+      </c>
+      <c r="F47" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="G47" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="H47" t="n">
+        <v>15.716</v>
+      </c>
+      <c r="I47" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="J47" t="n">
+        <v>9.790000000000001</v>
       </c>
     </row>
     <row r="48">
@@ -1499,16 +2034,31 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>33.48</v>
+        <v>23.73</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>24.99</v>
       </c>
       <c r="D48" t="n">
-        <v>17.06</v>
+        <v>5.23</v>
       </c>
       <c r="E48" t="n">
-        <v>29.54</v>
+        <v>4.38</v>
+      </c>
+      <c r="F48" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="G48" t="n">
+        <v>13</v>
+      </c>
+      <c r="H48" t="n">
+        <v>16.964</v>
+      </c>
+      <c r="I48" t="n">
+        <v>3.015</v>
+      </c>
+      <c r="J48" t="n">
+        <v>9.85</v>
       </c>
     </row>
     <row r="49">
@@ -1516,16 +2066,31 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>33.24</v>
+        <v>23.85</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>24.86</v>
       </c>
       <c r="D49" t="n">
-        <v>17.06</v>
+        <v>5.78</v>
       </c>
       <c r="E49" t="n">
-        <v>29.8</v>
+        <v>4.13</v>
+      </c>
+      <c r="F49" t="n">
+        <v>11.43</v>
+      </c>
+      <c r="G49" t="n">
+        <v>13.27</v>
+      </c>
+      <c r="H49" t="n">
+        <v>18.272</v>
+      </c>
+      <c r="I49" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="J49" t="n">
+        <v>9.892857142857142</v>
       </c>
     </row>
     <row r="50">
@@ -1533,16 +2098,31 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>33.27</v>
+        <v>23.2</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>24.71</v>
       </c>
       <c r="D50" t="n">
-        <v>17.26</v>
+        <v>6.33</v>
       </c>
       <c r="E50" t="n">
-        <v>29.59</v>
+        <v>3.96</v>
+      </c>
+      <c r="F50" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="G50" t="n">
+        <v>13.61</v>
+      </c>
+      <c r="H50" t="n">
+        <v>19.58</v>
+      </c>
+      <c r="I50" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="J50" t="n">
+        <v>9.925000000000001</v>
       </c>
     </row>
     <row r="51">
@@ -1550,16 +2130,31 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>33.3</v>
+        <v>23</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>24.46</v>
       </c>
       <c r="D51" t="n">
-        <v>17.47</v>
+        <v>6.92</v>
       </c>
       <c r="E51" t="n">
-        <v>29.37</v>
+        <v>3.83</v>
+      </c>
+      <c r="F51" t="n">
+        <v>10.44</v>
+      </c>
+      <c r="G51" t="n">
+        <v>13.39</v>
+      </c>
+      <c r="H51" t="n">
+        <v>20.918</v>
+      </c>
+      <c r="I51" t="n">
+        <v>3.095</v>
+      </c>
+      <c r="J51" t="n">
+        <v>9.949999999999999</v>
       </c>
     </row>
     <row r="52">
@@ -1567,16 +2162,31 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>33.4</v>
+        <v>23.83</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>24.29</v>
       </c>
       <c r="D52" t="n">
-        <v>17.61</v>
+        <v>7.68</v>
       </c>
       <c r="E52" t="n">
-        <v>29.15</v>
+        <v>3.41</v>
+      </c>
+      <c r="F52" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="G52" t="n">
+        <v>13.09</v>
+      </c>
+      <c r="H52" t="n">
+        <v>21.426</v>
+      </c>
+      <c r="I52" t="n">
+        <v>3.359999999999999</v>
+      </c>
+      <c r="J52" t="n">
+        <v>9.959999999999999</v>
       </c>
     </row>
     <row r="53">
@@ -1584,16 +2194,31 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>33.4</v>
+        <v>24.56</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>24.17</v>
       </c>
       <c r="D53" t="n">
-        <v>17.46</v>
+        <v>8.44</v>
       </c>
       <c r="E53" t="n">
-        <v>29.32</v>
+        <v>4.01</v>
+      </c>
+      <c r="F53" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G53" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="H53" t="n">
+        <v>21.934</v>
+      </c>
+      <c r="I53" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="J53" t="n">
+        <v>9.959999999999999</v>
       </c>
     </row>
     <row r="54">
@@ -1601,16 +2226,31 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>33.4</v>
+        <v>24.94</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>24.05</v>
       </c>
       <c r="D54" t="n">
-        <v>17.34</v>
+        <v>10.92</v>
       </c>
       <c r="E54" t="n">
-        <v>29.46</v>
+        <v>4.61</v>
+      </c>
+      <c r="F54" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G54" t="n">
+        <v>11.98</v>
+      </c>
+      <c r="H54" t="n">
+        <v>21.54</v>
+      </c>
+      <c r="I54" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="J54" t="n">
+        <v>8.959999999999999</v>
       </c>
     </row>
     <row r="55">
@@ -1618,16 +2258,31 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>33.4</v>
+        <v>25.03</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>23.86</v>
       </c>
       <c r="D55" t="n">
-        <v>17.2</v>
+        <v>13.32</v>
       </c>
       <c r="E55" t="n">
-        <v>29.6</v>
+        <v>6.21</v>
+      </c>
+      <c r="F55" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G55" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="H55" t="n">
+        <v>21.42</v>
+      </c>
+      <c r="I55" t="n">
+        <v>5.080000000000001</v>
+      </c>
+      <c r="J55" t="n">
+        <v>8.969999999999999</v>
       </c>
     </row>
     <row r="56">
@@ -1635,16 +2290,31 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>33.4</v>
+        <v>24.8</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>23.67</v>
       </c>
       <c r="D56" t="n">
-        <v>17.04</v>
+        <v>16.05</v>
       </c>
       <c r="E56" t="n">
-        <v>29.76</v>
+        <v>7.75</v>
+      </c>
+      <c r="F56" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G56" t="n">
+        <v>10.23</v>
+      </c>
+      <c r="H56" t="n">
+        <v>20.385</v>
+      </c>
+      <c r="I56" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="J56" t="n">
+        <v>8.93</v>
       </c>
     </row>
     <row r="57">
@@ -1652,16 +2322,31 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>33.4</v>
+        <v>24.56</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>23.49</v>
       </c>
       <c r="D57" t="n">
-        <v>16.91</v>
+        <v>18.86</v>
       </c>
       <c r="E57" t="n">
-        <v>29.89</v>
+        <v>9.369999999999999</v>
+      </c>
+      <c r="F57" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G57" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="H57" t="n">
+        <v>19.355</v>
+      </c>
+      <c r="I57" t="n">
+        <v>5.924999999999999</v>
+      </c>
+      <c r="J57" t="n">
+        <v>9.005000000000001</v>
       </c>
     </row>
     <row r="58">
@@ -1669,16 +2354,31 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>33.4</v>
+        <v>24.27</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>23.26</v>
       </c>
       <c r="D58" t="n">
-        <v>16.71</v>
+        <v>21.68</v>
       </c>
       <c r="E58" t="n">
-        <v>30.09</v>
+        <v>10.87</v>
+      </c>
+      <c r="F58" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G58" t="n">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="H58" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="I58" t="n">
+        <v>7.164999999999999</v>
+      </c>
+      <c r="J58" t="n">
+        <v>8.81</v>
       </c>
     </row>
     <row r="59">
@@ -1686,16 +2386,31 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>33.4</v>
+        <v>24.21</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>23.03</v>
       </c>
       <c r="D59" t="n">
-        <v>16.57</v>
+        <v>24.23</v>
       </c>
       <c r="E59" t="n">
-        <v>30.23</v>
+        <v>12.37</v>
+      </c>
+      <c r="F59" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G59" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="H59" t="n">
+        <v>16.245</v>
+      </c>
+      <c r="I59" t="n">
+        <v>8.425000000000001</v>
+      </c>
+      <c r="J59" t="n">
+        <v>8.665000000000003</v>
       </c>
     </row>
     <row r="60">
@@ -1703,16 +2418,31 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>33.4</v>
+        <v>23.8</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>22.71</v>
       </c>
       <c r="D60" t="n">
-        <v>16.18</v>
+        <v>26.23</v>
       </c>
       <c r="E60" t="n">
-        <v>30.62</v>
+        <v>13.32</v>
+      </c>
+      <c r="F60" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G60" t="n">
+        <v>10.51</v>
+      </c>
+      <c r="H60" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="I60" t="n">
+        <v>9.703999999999999</v>
+      </c>
+      <c r="J60" t="n">
+        <v>8.52</v>
       </c>
     </row>
     <row r="61">
@@ -1720,16 +2450,31 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>33.4</v>
+        <v>23.4</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>22.49</v>
       </c>
       <c r="D61" t="n">
-        <v>15.83</v>
+        <v>28.29</v>
       </c>
       <c r="E61" t="n">
-        <v>30.97</v>
+        <v>14.26</v>
+      </c>
+      <c r="F61" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G61" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="H61" t="n">
+        <v>13.175</v>
+      </c>
+      <c r="I61" t="n">
+        <v>10.908</v>
+      </c>
+      <c r="J61" t="n">
+        <v>8.355</v>
       </c>
     </row>
     <row r="62">
@@ -1737,16 +2482,31 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>33.4</v>
+        <v>22.24</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>22.27</v>
       </c>
       <c r="D62" t="n">
-        <v>15.53</v>
+        <v>30.31</v>
       </c>
       <c r="E62" t="n">
-        <v>31.27</v>
+        <v>15.55</v>
+      </c>
+      <c r="F62" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G62" t="n">
+        <v>12.94</v>
+      </c>
+      <c r="H62" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="I62" t="n">
+        <v>12.392</v>
+      </c>
+      <c r="J62" t="n">
+        <v>8.139999999999999</v>
       </c>
     </row>
     <row r="63">
@@ -1754,16 +2514,31 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>33.4</v>
+        <v>20.11</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>22.05</v>
       </c>
       <c r="D63" t="n">
-        <v>15.56</v>
+        <v>33.52</v>
       </c>
       <c r="E63" t="n">
-        <v>31.24</v>
+        <v>15.84</v>
+      </c>
+      <c r="F63" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G63" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="H63" t="n">
+        <v>10.185</v>
+      </c>
+      <c r="I63" t="n">
+        <v>13.356</v>
+      </c>
+      <c r="J63" t="n">
+        <v>7.935</v>
       </c>
     </row>
     <row r="64">
@@ -1771,16 +2546,31 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>33.4</v>
+        <v>18.76</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>21.82</v>
       </c>
       <c r="D64" t="n">
-        <v>15.55</v>
+        <v>35.34</v>
       </c>
       <c r="E64" t="n">
-        <v>31.25</v>
+        <v>15.88</v>
+      </c>
+      <c r="F64" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G64" t="n">
+        <v>15.97</v>
+      </c>
+      <c r="H64" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="I64" t="n">
+        <v>14.32</v>
+      </c>
+      <c r="J64" t="n">
+        <v>8.735000000000001</v>
       </c>
     </row>
     <row r="65">
@@ -1788,16 +2578,31 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>33.4</v>
+        <v>17.41</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>21.67</v>
       </c>
       <c r="D65" t="n">
-        <v>15.46</v>
+        <v>37.24</v>
       </c>
       <c r="E65" t="n">
-        <v>31.34</v>
+        <v>14.93</v>
+      </c>
+      <c r="F65" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G65" t="n">
+        <v>18.29</v>
+      </c>
+      <c r="H65" t="n">
+        <v>7.280000000000001</v>
+      </c>
+      <c r="I65" t="n">
+        <v>15.294</v>
+      </c>
+      <c r="J65" t="n">
+        <v>8.535</v>
       </c>
     </row>
     <row r="66">
@@ -1805,16 +2610,31 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>33.4</v>
+        <v>15.95</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>21.51</v>
       </c>
       <c r="D66" t="n">
-        <v>15.27</v>
+        <v>37.75</v>
       </c>
       <c r="E66" t="n">
-        <v>31.53</v>
+        <v>13.97</v>
+      </c>
+      <c r="F66" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G66" t="n">
+        <v>20.17</v>
+      </c>
+      <c r="H66" t="n">
+        <v>6.755000000000001</v>
+      </c>
+      <c r="I66" t="n">
+        <v>16.198</v>
+      </c>
+      <c r="J66" t="n">
+        <v>8.34</v>
       </c>
     </row>
     <row r="67">
@@ -1822,16 +2642,31 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>33.4</v>
+        <v>14.54</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>21.35</v>
       </c>
       <c r="D67" t="n">
-        <v>15.09</v>
+        <v>38.19</v>
       </c>
       <c r="E67" t="n">
-        <v>31.71</v>
+        <v>13.08</v>
+      </c>
+      <c r="F67" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G67" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="H67" t="n">
+        <v>6.167000000000002</v>
+      </c>
+      <c r="I67" t="n">
+        <v>17.107</v>
+      </c>
+      <c r="J67" t="n">
+        <v>8.1</v>
       </c>
     </row>
     <row r="68">
@@ -1839,16 +2674,31 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>33.4</v>
+        <v>13.14</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>21.23</v>
       </c>
       <c r="D68" t="n">
-        <v>14.98</v>
+        <v>38.67</v>
       </c>
       <c r="E68" t="n">
-        <v>31.82</v>
+        <v>12.3</v>
+      </c>
+      <c r="F68" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G68" t="n">
+        <v>23.99</v>
+      </c>
+      <c r="H68" t="n">
+        <v>6.104000000000002</v>
+      </c>
+      <c r="I68" t="n">
+        <v>17.896</v>
+      </c>
+      <c r="J68" t="n">
+        <v>7.325</v>
       </c>
     </row>
     <row r="69">
@@ -1856,16 +2706,31 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>33.4</v>
+        <v>11.69</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>21.11</v>
       </c>
       <c r="D69" t="n">
-        <v>14.84</v>
+        <v>39.15</v>
       </c>
       <c r="E69" t="n">
-        <v>31.96</v>
+        <v>11.52</v>
+      </c>
+      <c r="F69" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G69" t="n">
+        <v>25.91</v>
+      </c>
+      <c r="H69" t="n">
+        <v>5.996000000000002</v>
+      </c>
+      <c r="I69" t="n">
+        <v>18.64</v>
+      </c>
+      <c r="J69" t="n">
+        <v>6.645</v>
       </c>
     </row>
     <row r="70">
@@ -1873,16 +2738,31 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>33.4</v>
+        <v>10.43</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>21.03</v>
       </c>
       <c r="D70" t="n">
-        <v>14.77</v>
+        <v>40.44</v>
       </c>
       <c r="E70" t="n">
-        <v>32.03</v>
+        <v>11.29</v>
+      </c>
+      <c r="F70" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G70" t="n">
+        <v>26.24</v>
+      </c>
+      <c r="H70" t="n">
+        <v>5.828000000000001</v>
+      </c>
+      <c r="I70" t="n">
+        <v>19.435</v>
+      </c>
+      <c r="J70" t="n">
+        <v>5.965</v>
       </c>
     </row>
     <row r="71">
@@ -1890,16 +2770,31 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>33.4</v>
+        <v>9.16</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>20.86</v>
       </c>
       <c r="D71" t="n">
-        <v>14.62</v>
+        <v>41.66</v>
       </c>
       <c r="E71" t="n">
-        <v>32.18</v>
+        <v>10.88</v>
+      </c>
+      <c r="F71" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G71" t="n">
+        <v>26.61</v>
+      </c>
+      <c r="H71" t="n">
+        <v>5.650000000000001</v>
+      </c>
+      <c r="I71" t="n">
+        <v>20.22</v>
+      </c>
+      <c r="J71" t="n">
+        <v>5.617</v>
       </c>
     </row>
     <row r="72">
@@ -1907,16 +2802,31 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>33.4</v>
+        <v>8.73</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>20.65</v>
       </c>
       <c r="D72" t="n">
-        <v>14.42</v>
+        <v>42.9</v>
       </c>
       <c r="E72" t="n">
-        <v>32.38</v>
+        <v>10.43</v>
+      </c>
+      <c r="F72" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G72" t="n">
+        <v>26.92</v>
+      </c>
+      <c r="H72" t="n">
+        <v>5.027000000000001</v>
+      </c>
+      <c r="I72" t="n">
+        <v>20.68</v>
+      </c>
+      <c r="J72" t="n">
+        <v>5.319</v>
       </c>
     </row>
     <row r="73">
@@ -1924,16 +2834,31 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>33.4</v>
+        <v>9.26</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>20.65</v>
       </c>
       <c r="D73" t="n">
-        <v>14.22</v>
+        <v>42.85</v>
       </c>
       <c r="E73" t="n">
-        <v>32.58</v>
+        <v>9.880000000000001</v>
+      </c>
+      <c r="F73" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G73" t="n">
+        <v>27.28</v>
+      </c>
+      <c r="H73" t="n">
+        <v>5.404000000000001</v>
+      </c>
+      <c r="I73" t="n">
+        <v>21.29</v>
+      </c>
+      <c r="J73" t="n">
+        <v>5.020999999999999</v>
       </c>
     </row>
     <row r="74">
@@ -1941,16 +2866,31 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>33.4</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>20.65</v>
       </c>
       <c r="D74" t="n">
-        <v>14.05</v>
+        <v>42.82</v>
       </c>
       <c r="E74" t="n">
-        <v>32.75</v>
+        <v>9.58</v>
+      </c>
+      <c r="F74" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G74" t="n">
+        <v>28.04</v>
+      </c>
+      <c r="H74" t="n">
+        <v>5.501</v>
+      </c>
+      <c r="I74" t="n">
+        <v>21.89</v>
+      </c>
+      <c r="J74" t="n">
+        <v>4.723</v>
       </c>
     </row>
     <row r="75">
@@ -1958,16 +2898,31 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>33.4</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>20.66</v>
       </c>
       <c r="D75" t="n">
-        <v>13.92</v>
+        <v>43.1</v>
       </c>
       <c r="E75" t="n">
-        <v>32.88</v>
+        <v>9.27</v>
+      </c>
+      <c r="F75" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G75" t="n">
+        <v>28.69</v>
+      </c>
+      <c r="H75" t="n">
+        <v>5.518000000000001</v>
+      </c>
+      <c r="I75" t="n">
+        <v>22.39</v>
+      </c>
+      <c r="J75" t="n">
+        <v>6.415000000000001</v>
       </c>
     </row>
     <row r="76">
@@ -1975,16 +2930,31 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>33.4</v>
+        <v>10</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>20.66</v>
       </c>
       <c r="D76" t="n">
-        <v>13.92</v>
+        <v>43.44</v>
       </c>
       <c r="E76" t="n">
-        <v>32.88</v>
+        <v>8.92</v>
+      </c>
+      <c r="F76" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G76" t="n">
+        <v>28.76</v>
+      </c>
+      <c r="H76" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="I76" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="J76" t="n">
+        <v>7.827000000000001</v>
       </c>
     </row>
     <row r="77">
@@ -1992,16 +2962,31 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>33.4</v>
+        <v>10.48</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>20.67</v>
       </c>
       <c r="D77" t="n">
-        <v>13.99</v>
+        <v>43.85</v>
       </c>
       <c r="E77" t="n">
-        <v>32.81</v>
+        <v>8.52</v>
+      </c>
+      <c r="F77" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G77" t="n">
+        <v>28.71</v>
+      </c>
+      <c r="H77" t="n">
+        <v>5.515000000000001</v>
+      </c>
+      <c r="I77" t="n">
+        <v>24.935</v>
+      </c>
+      <c r="J77" t="n">
+        <v>8.818999999999999</v>
       </c>
     </row>
     <row r="78">
@@ -2009,16 +2994,31 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>33.4</v>
+        <v>11.03</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>20.62</v>
       </c>
       <c r="D78" t="n">
-        <v>14.06</v>
+        <v>44.25</v>
       </c>
       <c r="E78" t="n">
-        <v>32.74</v>
+        <v>8.43</v>
+      </c>
+      <c r="F78" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G78" t="n">
+        <v>28.71</v>
+      </c>
+      <c r="H78" t="n">
+        <v>5.535</v>
+      </c>
+      <c r="I78" t="n">
+        <v>25.418</v>
+      </c>
+      <c r="J78" t="n">
+        <v>10.506</v>
       </c>
     </row>
     <row r="79">
@@ -2026,16 +3026,31 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>33.4</v>
+        <v>11.61</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>20.58</v>
       </c>
       <c r="D79" t="n">
-        <v>14.13</v>
+        <v>44.66</v>
       </c>
       <c r="E79" t="n">
-        <v>32.67</v>
+        <v>8.35</v>
+      </c>
+      <c r="F79" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G79" t="n">
+        <v>28.69</v>
+      </c>
+      <c r="H79" t="n">
+        <v>5.555000000000001</v>
+      </c>
+      <c r="I79" t="n">
+        <v>25.901</v>
+      </c>
+      <c r="J79" t="n">
+        <v>12.163</v>
       </c>
     </row>
     <row r="80">
@@ -2043,16 +3058,31 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>33.4</v>
+        <v>12.23</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>20.47</v>
       </c>
       <c r="D80" t="n">
-        <v>14.21</v>
+        <v>44.8</v>
       </c>
       <c r="E80" t="n">
-        <v>32.59</v>
+        <v>8.140000000000001</v>
+      </c>
+      <c r="F80" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G80" t="n">
+        <v>28.61</v>
+      </c>
+      <c r="H80" t="n">
+        <v>6.065</v>
+      </c>
+      <c r="I80" t="n">
+        <v>26.364</v>
+      </c>
+      <c r="J80" t="n">
+        <v>13.82</v>
       </c>
     </row>
     <row r="81">
@@ -2060,16 +3090,31 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>33.4</v>
+        <v>12.78</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>20.44</v>
       </c>
       <c r="D81" t="n">
-        <v>14.37</v>
+        <v>44.94</v>
       </c>
       <c r="E81" t="n">
-        <v>32.43</v>
+        <v>8.119999999999999</v>
+      </c>
+      <c r="F81" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G81" t="n">
+        <v>29.11</v>
+      </c>
+      <c r="H81" t="n">
+        <v>6.505000000000001</v>
+      </c>
+      <c r="I81" t="n">
+        <v>26.757</v>
+      </c>
+      <c r="J81" t="n">
+        <v>14.855</v>
       </c>
     </row>
     <row r="82">
@@ -2077,16 +3122,31 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>33.4</v>
+        <v>12.66</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>20.52</v>
       </c>
       <c r="D82" t="n">
-        <v>14.7</v>
+        <v>45.12</v>
       </c>
       <c r="E82" t="n">
-        <v>32.1</v>
+        <v>8.130000000000001</v>
+      </c>
+      <c r="F82" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G82" t="n">
+        <v>29.64</v>
+      </c>
+      <c r="H82" t="n">
+        <v>7.390000000000001</v>
+      </c>
+      <c r="I82" t="n">
+        <v>27.195</v>
+      </c>
+      <c r="J82" t="n">
+        <v>15.845</v>
       </c>
     </row>
     <row r="83">
@@ -2094,16 +3154,31 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>33.4</v>
+        <v>12.15</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>20.38</v>
       </c>
       <c r="D83" t="n">
-        <v>14.99</v>
+        <v>45.39</v>
       </c>
       <c r="E83" t="n">
-        <v>31.81</v>
+        <v>8.18</v>
+      </c>
+      <c r="F83" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G83" t="n">
+        <v>30.13</v>
+      </c>
+      <c r="H83" t="n">
+        <v>7.275</v>
+      </c>
+      <c r="I83" t="n">
+        <v>27.653</v>
+      </c>
+      <c r="J83" t="n">
+        <v>17.335</v>
       </c>
     </row>
     <row r="84">
@@ -2111,16 +3186,31 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>33.4</v>
+        <v>11.64</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>20.25</v>
       </c>
       <c r="D84" t="n">
-        <v>15.28</v>
+        <v>45.83</v>
       </c>
       <c r="E84" t="n">
-        <v>31.52</v>
+        <v>8.19</v>
+      </c>
+      <c r="F84" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G84" t="n">
+        <v>30.26</v>
+      </c>
+      <c r="H84" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="I84" t="n">
+        <v>28.121</v>
+      </c>
+      <c r="J84" t="n">
+        <v>18.77</v>
       </c>
     </row>
     <row r="85">
@@ -2128,16 +3218,31 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>33.4</v>
+        <v>11.08</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>19.8</v>
       </c>
       <c r="D85" t="n">
-        <v>15.58</v>
+        <v>45.96</v>
       </c>
       <c r="E85" t="n">
-        <v>31.22</v>
+        <v>8.16</v>
+      </c>
+      <c r="F85" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G85" t="n">
+        <v>30.48</v>
+      </c>
+      <c r="H85" t="n">
+        <v>7.675</v>
+      </c>
+      <c r="I85" t="n">
+        <v>28.639</v>
+      </c>
+      <c r="J85" t="n">
+        <v>18.69</v>
       </c>
     </row>
     <row r="86">
@@ -2145,16 +3250,31 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>33.4</v>
+        <v>10.52</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>19.69</v>
       </c>
       <c r="D86" t="n">
-        <v>15.85</v>
+        <v>46.02</v>
       </c>
       <c r="E86" t="n">
-        <v>30.95</v>
+        <v>8.1</v>
+      </c>
+      <c r="F86" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G86" t="n">
+        <v>30.63</v>
+      </c>
+      <c r="H86" t="n">
+        <v>7.949999999999998</v>
+      </c>
+      <c r="I86" t="n">
+        <v>28.647</v>
+      </c>
+      <c r="J86" t="n">
+        <v>18.94</v>
       </c>
     </row>
     <row r="87">
@@ -2162,16 +3282,31 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>33.4</v>
+        <v>9.91</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>19.53</v>
       </c>
       <c r="D87" t="n">
-        <v>16.08</v>
+        <v>46.02</v>
       </c>
       <c r="E87" t="n">
-        <v>30.72</v>
+        <v>8.029999999999999</v>
+      </c>
+      <c r="F87" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G87" t="n">
+        <v>31.12</v>
+      </c>
+      <c r="H87" t="n">
+        <v>8.234999999999999</v>
+      </c>
+      <c r="I87" t="n">
+        <v>28.085</v>
+      </c>
+      <c r="J87" t="n">
+        <v>19.57</v>
       </c>
     </row>
     <row r="88">
@@ -2179,16 +3314,31 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>33.4</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>19.41</v>
       </c>
       <c r="D88" t="n">
-        <v>16.31</v>
+        <v>45.98</v>
       </c>
       <c r="E88" t="n">
-        <v>30.49</v>
+        <v>7.64</v>
+      </c>
+      <c r="F88" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G88" t="n">
+        <v>31.61</v>
+      </c>
+      <c r="H88" t="n">
+        <v>8.525</v>
+      </c>
+      <c r="I88" t="n">
+        <v>27.75</v>
+      </c>
+      <c r="J88" t="n">
+        <v>20.2</v>
       </c>
     </row>
     <row r="89">
@@ -2196,16 +3346,31 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>33.4</v>
+        <v>8.84</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>19.29</v>
       </c>
       <c r="D89" t="n">
-        <v>16.66</v>
+        <v>45.94</v>
       </c>
       <c r="E89" t="n">
-        <v>30.14</v>
+        <v>7.26</v>
+      </c>
+      <c r="F89" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G89" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="H89" t="n">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="I89" t="n">
+        <v>27.58</v>
+      </c>
+      <c r="J89" t="n">
+        <v>20.65</v>
       </c>
     </row>
     <row r="90">
@@ -2213,16 +3378,34 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>33.4</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>19.24</v>
       </c>
       <c r="D90" t="n">
-        <v>17</v>
+        <v>45.9</v>
       </c>
       <c r="E90" t="n">
-        <v>29.8</v>
+        <v>6.99</v>
+      </c>
+      <c r="F90" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G90" t="n">
+        <v>32.66</v>
+      </c>
+      <c r="H90" t="n">
+        <v>8.719999999999999</v>
+      </c>
+      <c r="I90" t="n">
+        <v>27.43</v>
+      </c>
+      <c r="J90" t="n">
+        <v>21.245</v>
+      </c>
+      <c r="K90" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="91">
@@ -2230,16 +3413,34 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>33.4</v>
+        <v>8.65</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>18.51</v>
       </c>
       <c r="D91" t="n">
-        <v>16.95</v>
+        <v>45.88</v>
       </c>
       <c r="E91" t="n">
-        <v>29.86</v>
+        <v>6.68</v>
+      </c>
+      <c r="F91" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G91" t="n">
+        <v>32.68</v>
+      </c>
+      <c r="H91" t="n">
+        <v>8.649999999999999</v>
+      </c>
+      <c r="I91" t="n">
+        <v>27.36</v>
+      </c>
+      <c r="J91" t="n">
+        <v>22.09</v>
+      </c>
+      <c r="K91" t="n">
+        <v>11.435</v>
       </c>
     </row>
     <row r="92">
@@ -2247,16 +3448,34 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>33.4</v>
+        <v>9.01</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>17.71</v>
       </c>
       <c r="D92" t="n">
-        <v>16.75</v>
+        <v>45.84</v>
       </c>
       <c r="E92" t="n">
-        <v>30.05</v>
+        <v>6.37</v>
+      </c>
+      <c r="F92" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G92" t="n">
+        <v>32.69</v>
+      </c>
+      <c r="H92" t="n">
+        <v>8.514999999999999</v>
+      </c>
+      <c r="I92" t="n">
+        <v>27.108</v>
+      </c>
+      <c r="J92" t="n">
+        <v>22.97000000000001</v>
+      </c>
+      <c r="K92" t="n">
+        <v>11.91333333333333</v>
       </c>
     </row>
     <row r="93">
@@ -2264,16 +3483,34 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>33.4</v>
+        <v>9.85</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>16.9</v>
       </c>
       <c r="D93" t="n">
-        <v>16.57</v>
+        <v>45.8</v>
       </c>
       <c r="E93" t="n">
-        <v>30.24</v>
+        <v>6.1</v>
+      </c>
+      <c r="F93" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G93" t="n">
+        <v>32.75</v>
+      </c>
+      <c r="H93" t="n">
+        <v>8.32</v>
+      </c>
+      <c r="I93" t="n">
+        <v>26.856</v>
+      </c>
+      <c r="J93" t="n">
+        <v>23.345</v>
+      </c>
+      <c r="K93" t="n">
+        <v>12.1525</v>
       </c>
     </row>
     <row r="94">
@@ -2281,16 +3518,34 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>33.4</v>
+        <v>10.61</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>15.93</v>
       </c>
       <c r="D94" t="n">
-        <v>16.38</v>
+        <v>46.84</v>
       </c>
       <c r="E94" t="n">
-        <v>30.42</v>
+        <v>5.83</v>
+      </c>
+      <c r="F94" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G94" t="n">
+        <v>31.92</v>
+      </c>
+      <c r="H94" t="n">
+        <v>8.120000000000001</v>
+      </c>
+      <c r="I94" t="n">
+        <v>26.604</v>
+      </c>
+      <c r="J94" t="n">
+        <v>23.775</v>
+      </c>
+      <c r="K94" t="n">
+        <v>12.276</v>
       </c>
     </row>
     <row r="95">
@@ -2298,16 +3553,34 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>33.4</v>
+        <v>11.42</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>15.28</v>
       </c>
       <c r="D95" t="n">
-        <v>16.02</v>
+        <v>47.82</v>
       </c>
       <c r="E95" t="n">
-        <v>30.78</v>
+        <v>5.61</v>
+      </c>
+      <c r="F95" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G95" t="n">
+        <v>31.04</v>
+      </c>
+      <c r="H95" t="n">
+        <v>7.930000000000001</v>
+      </c>
+      <c r="I95" t="n">
+        <v>26.30700000000001</v>
+      </c>
+      <c r="J95" t="n">
+        <v>23.945</v>
+      </c>
+      <c r="K95" t="n">
+        <v>12.29166666666667</v>
       </c>
     </row>
     <row r="96">
@@ -2315,16 +3588,34 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>33.4</v>
+        <v>12.22</v>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>14.3</v>
       </c>
       <c r="D96" t="n">
-        <v>15.87</v>
+        <v>48.88</v>
       </c>
       <c r="E96" t="n">
-        <v>30.93</v>
+        <v>5.6</v>
+      </c>
+      <c r="F96" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G96" t="n">
+        <v>30.21</v>
+      </c>
+      <c r="H96" t="n">
+        <v>7.745</v>
+      </c>
+      <c r="I96" t="n">
+        <v>26.05</v>
+      </c>
+      <c r="J96" t="n">
+        <v>24.115</v>
+      </c>
+      <c r="K96" t="n">
+        <v>12.22428571428571</v>
       </c>
     </row>
     <row r="97">
@@ -2332,16 +3623,34 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>33.4</v>
+        <v>13.29</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>13.36</v>
       </c>
       <c r="D97" t="n">
-        <v>15.72</v>
+        <v>49.99</v>
       </c>
       <c r="E97" t="n">
-        <v>31.09</v>
+        <v>5.59</v>
+      </c>
+      <c r="F97" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G97" t="n">
+        <v>29.07</v>
+      </c>
+      <c r="H97" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="I97" t="n">
+        <v>25.788</v>
+      </c>
+      <c r="J97" t="n">
+        <v>24.28</v>
+      </c>
+      <c r="K97" t="n">
+        <v>12.16125</v>
       </c>
     </row>
     <row r="98">
@@ -2349,16 +3658,34 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>33.4</v>
+        <v>13.39</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>12.42</v>
       </c>
       <c r="D98" t="n">
-        <v>15.56</v>
+        <v>51.14</v>
       </c>
       <c r="E98" t="n">
-        <v>31.24</v>
+        <v>5.54</v>
+      </c>
+      <c r="F98" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G98" t="n">
+        <v>27.88</v>
+      </c>
+      <c r="H98" t="n">
+        <v>7.375</v>
+      </c>
+      <c r="I98" t="n">
+        <v>25.536</v>
+      </c>
+      <c r="J98" t="n">
+        <v>25.482</v>
+      </c>
+      <c r="K98" t="n">
+        <v>12.06777777777778</v>
       </c>
     </row>
     <row r="99">
@@ -2366,16 +3693,34 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>33.4</v>
+        <v>13.94</v>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>11.48</v>
       </c>
       <c r="D99" t="n">
-        <v>16.35</v>
+        <v>52.29</v>
       </c>
       <c r="E99" t="n">
-        <v>30.46</v>
+        <v>5.45</v>
+      </c>
+      <c r="F99" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G99" t="n">
+        <v>26.74</v>
+      </c>
+      <c r="H99" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="I99" t="n">
+        <v>24.824</v>
+      </c>
+      <c r="J99" t="n">
+        <v>26.749</v>
+      </c>
+      <c r="K99" t="n">
+        <v>11.993</v>
       </c>
     </row>
     <row r="100">
@@ -2383,16 +3728,34 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>33.4</v>
+        <v>14.54</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>10.6</v>
       </c>
       <c r="D100" t="n">
-        <v>17.2</v>
+        <v>55.72</v>
       </c>
       <c r="E100" t="n">
-        <v>29.6</v>
+        <v>5.36</v>
+      </c>
+      <c r="F100" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G100" t="n">
+        <v>25.58</v>
+      </c>
+      <c r="H100" t="n">
+        <v>8.275000000000002</v>
+      </c>
+      <c r="I100" t="n">
+        <v>24.112</v>
+      </c>
+      <c r="J100" t="n">
+        <v>24.307</v>
+      </c>
+      <c r="K100" t="n">
+        <v>11.993</v>
       </c>
     </row>
     <row r="101">
@@ -2400,16 +3763,34 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>33.4</v>
+        <v>14.31</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>10.41</v>
       </c>
       <c r="D101" t="n">
-        <v>18.49</v>
+        <v>59.12</v>
       </c>
       <c r="E101" t="n">
-        <v>28.31</v>
+        <v>5.32</v>
+      </c>
+      <c r="F101" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G101" t="n">
+        <v>24.32</v>
+      </c>
+      <c r="H101" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="I101" t="n">
+        <v>23.58</v>
+      </c>
+      <c r="J101" t="n">
+        <v>21.925</v>
+      </c>
+      <c r="K101" t="n">
+        <v>12.105</v>
       </c>
     </row>
     <row r="102">
@@ -2417,16 +3798,34 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>33.4</v>
+        <v>14.07</v>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>19.56</v>
+        <v>62.49</v>
       </c>
       <c r="E102" t="n">
-        <v>27.24</v>
+        <v>5.25</v>
+      </c>
+      <c r="F102" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G102" t="n">
+        <v>23.95</v>
+      </c>
+      <c r="H102" t="n">
+        <v>10.585</v>
+      </c>
+      <c r="I102" t="n">
+        <v>23.089</v>
+      </c>
+      <c r="J102" t="n">
+        <v>19.553</v>
+      </c>
+      <c r="K102" t="n">
+        <v>11.894</v>
       </c>
     </row>
     <row r="103">
@@ -2434,16 +3833,34 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>33.4</v>
+        <v>13.76</v>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="D103" t="n">
-        <v>20.46</v>
+        <v>66.05</v>
       </c>
       <c r="E103" t="n">
-        <v>26.34</v>
+        <v>5.15</v>
+      </c>
+      <c r="F103" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G103" t="n">
+        <v>23.52</v>
+      </c>
+      <c r="H103" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="I103" t="n">
+        <v>22.568</v>
+      </c>
+      <c r="J103" t="n">
+        <v>17.186</v>
+      </c>
+      <c r="K103" t="n">
+        <v>11.653</v>
       </c>
     </row>
     <row r="104">
@@ -2451,16 +3868,34 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>33.4</v>
+        <v>13.52</v>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="D104" t="n">
-        <v>21.43</v>
+        <v>68.34</v>
       </c>
       <c r="E104" t="n">
-        <v>25.37</v>
+        <v>5.11</v>
+      </c>
+      <c r="F104" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G104" t="n">
+        <v>24.02</v>
+      </c>
+      <c r="H104" t="n">
+        <v>13.05</v>
+      </c>
+      <c r="I104" t="n">
+        <v>22.137</v>
+      </c>
+      <c r="J104" t="n">
+        <v>16.819</v>
+      </c>
+      <c r="K104" t="n">
+        <v>11.392</v>
       </c>
     </row>
     <row r="105">
@@ -2468,16 +3903,34 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>33.4</v>
+        <v>13.23</v>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="D105" t="n">
-        <v>22.57</v>
+        <v>70.63</v>
       </c>
       <c r="E105" t="n">
-        <v>24.23</v>
+        <v>5.06</v>
+      </c>
+      <c r="F105" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G105" t="n">
+        <v>24.96</v>
+      </c>
+      <c r="H105" t="n">
+        <v>14.28</v>
+      </c>
+      <c r="I105" t="n">
+        <v>21.80099999999999</v>
+      </c>
+      <c r="J105" t="n">
+        <v>15.967</v>
+      </c>
+      <c r="K105" t="n">
+        <v>11.131</v>
       </c>
     </row>
     <row r="106">
@@ -2485,16 +3938,34 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>33.4</v>
+        <v>12.95</v>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>10.77</v>
       </c>
       <c r="D106" t="n">
-        <v>23.47</v>
+        <v>72.93000000000001</v>
       </c>
       <c r="E106" t="n">
-        <v>23.33</v>
+        <v>4.87</v>
+      </c>
+      <c r="F106" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G106" t="n">
+        <v>25.93</v>
+      </c>
+      <c r="H106" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="I106" t="n">
+        <v>21.505</v>
+      </c>
+      <c r="J106" t="n">
+        <v>15.13</v>
+      </c>
+      <c r="K106" t="n">
+        <v>10.905</v>
       </c>
     </row>
     <row r="107">
@@ -2502,16 +3973,34 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>33.4</v>
+        <v>12.44</v>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>12.11</v>
       </c>
       <c r="D107" t="n">
-        <v>24.37</v>
+        <v>75.11</v>
       </c>
       <c r="E107" t="n">
-        <v>22.43</v>
+        <v>5.34</v>
+      </c>
+      <c r="F107" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G107" t="n">
+        <v>26.95</v>
+      </c>
+      <c r="H107" t="n">
+        <v>16.73</v>
+      </c>
+      <c r="I107" t="n">
+        <v>21.154</v>
+      </c>
+      <c r="J107" t="n">
+        <v>13.933</v>
+      </c>
+      <c r="K107" t="n">
+        <v>10.724</v>
       </c>
     </row>
     <row r="108">
@@ -2519,16 +4008,34 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>33.4</v>
+        <v>13.3</v>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>13.45</v>
       </c>
       <c r="D108" t="n">
-        <v>25.32</v>
+        <v>77.31</v>
       </c>
       <c r="E108" t="n">
-        <v>21.48</v>
+        <v>5.86</v>
+      </c>
+      <c r="F108" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G108" t="n">
+        <v>27.59</v>
+      </c>
+      <c r="H108" t="n">
+        <v>17.94</v>
+      </c>
+      <c r="I108" t="n">
+        <v>20.803</v>
+      </c>
+      <c r="J108" t="n">
+        <v>11.689</v>
+      </c>
+      <c r="K108" t="n">
+        <v>10.553</v>
       </c>
     </row>
     <row r="109">
@@ -2536,16 +4043,34 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>33.38</v>
+        <v>13.69</v>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>14.79</v>
       </c>
       <c r="D109" t="n">
-        <v>25.21</v>
+        <v>79.5</v>
       </c>
       <c r="E109" t="n">
-        <v>21.59</v>
+        <v>6.43</v>
+      </c>
+      <c r="F109" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G109" t="n">
+        <v>28.21</v>
+      </c>
+      <c r="H109" t="n">
+        <v>19.18</v>
+      </c>
+      <c r="I109" t="n">
+        <v>20.792</v>
+      </c>
+      <c r="J109" t="n">
+        <v>9.434999999999999</v>
+      </c>
+      <c r="K109" t="n">
+        <v>10.472</v>
       </c>
     </row>
     <row r="110">
@@ -2553,16 +4078,34 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>33.52</v>
+        <v>14.09</v>
       </c>
       <c r="C110" t="n">
-        <v>0</v>
+        <v>16.13</v>
       </c>
       <c r="D110" t="n">
-        <v>24.86</v>
+        <v>79.41</v>
       </c>
       <c r="E110" t="n">
-        <v>21.78</v>
+        <v>5.92</v>
+      </c>
+      <c r="F110" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G110" t="n">
+        <v>31.37</v>
+      </c>
+      <c r="H110" t="n">
+        <v>19.05</v>
+      </c>
+      <c r="I110" t="n">
+        <v>20.716</v>
+      </c>
+      <c r="J110" t="n">
+        <v>9.434999999999999</v>
+      </c>
+      <c r="K110" t="n">
+        <v>10.381</v>
       </c>
     </row>
     <row r="111">
@@ -2570,16 +4113,34 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>33.66</v>
+        <v>14.47</v>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>17.48</v>
       </c>
       <c r="D111" t="n">
-        <v>24.44</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="E111" t="n">
-        <v>22.04</v>
+        <v>6.42</v>
+      </c>
+      <c r="F111" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G111" t="n">
+        <v>34.71</v>
+      </c>
+      <c r="H111" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="I111" t="n">
+        <v>20.46</v>
+      </c>
+      <c r="J111" t="n">
+        <v>9.434999999999999</v>
+      </c>
+      <c r="K111" t="n">
+        <v>10.29</v>
       </c>
     </row>
     <row r="112">
@@ -2587,16 +4148,34 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>33.98</v>
+        <v>14.84</v>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>19.98</v>
       </c>
       <c r="D112" t="n">
-        <v>24.11</v>
+        <v>79.16</v>
       </c>
       <c r="E112" t="n">
-        <v>22.03</v>
+        <v>6.95</v>
+      </c>
+      <c r="F112" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G112" t="n">
+        <v>37.14</v>
+      </c>
+      <c r="H112" t="n">
+        <v>18.555</v>
+      </c>
+      <c r="I112" t="n">
+        <v>20.225</v>
+      </c>
+      <c r="J112" t="n">
+        <v>13.435</v>
+      </c>
+      <c r="K112" t="n">
+        <v>10.215</v>
       </c>
     </row>
     <row r="113">
@@ -2604,16 +4183,34 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>34.36</v>
+        <v>15.2</v>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>22.49</v>
       </c>
       <c r="D113" t="n">
-        <v>23.9</v>
+        <v>78.66</v>
       </c>
       <c r="E113" t="n">
-        <v>21.84</v>
+        <v>7.41</v>
+      </c>
+      <c r="F113" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G113" t="n">
+        <v>39.64</v>
+      </c>
+      <c r="H113" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="I113" t="n">
+        <v>20.015</v>
+      </c>
+      <c r="J113" t="n">
+        <v>17.435</v>
+      </c>
+      <c r="K113" t="n">
+        <v>10.445</v>
       </c>
     </row>
     <row r="114">
@@ -2621,16 +4218,34 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>34.27</v>
+        <v>15.51</v>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>25.03</v>
       </c>
       <c r="D114" t="n">
-        <v>24.1</v>
+        <v>78.18000000000001</v>
       </c>
       <c r="E114" t="n">
-        <v>21.71</v>
+        <v>7.87</v>
+      </c>
+      <c r="F114" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G114" t="n">
+        <v>42.13</v>
+      </c>
+      <c r="H114" t="n">
+        <v>17.845</v>
+      </c>
+      <c r="I114" t="n">
+        <v>19.715</v>
+      </c>
+      <c r="J114" t="n">
+        <v>19.545</v>
+      </c>
+      <c r="K114" t="n">
+        <v>10.685</v>
       </c>
     </row>
     <row r="115">
@@ -2638,16 +4253,34 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>34.36</v>
+        <v>15.87</v>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>25.56</v>
       </c>
       <c r="D115" t="n">
-        <v>24.31</v>
+        <v>77.73999999999999</v>
       </c>
       <c r="E115" t="n">
-        <v>21.39</v>
+        <v>8.32</v>
+      </c>
+      <c r="F115" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G115" t="n">
+        <v>44.18</v>
+      </c>
+      <c r="H115" t="n">
+        <v>17.49</v>
+      </c>
+      <c r="I115" t="n">
+        <v>19.405</v>
+      </c>
+      <c r="J115" t="n">
+        <v>22.015</v>
+      </c>
+      <c r="K115" t="n">
+        <v>10.925</v>
       </c>
     </row>
     <row r="116">
@@ -2655,16 +4288,34 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>34.75</v>
+        <v>15.83</v>
       </c>
       <c r="C116" t="n">
-        <v>0</v>
+        <v>26.09</v>
       </c>
       <c r="D116" t="n">
-        <v>24.34</v>
+        <v>80.8</v>
       </c>
       <c r="E116" t="n">
-        <v>20.95</v>
+        <v>8.789999999999999</v>
+      </c>
+      <c r="F116" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G116" t="n">
+        <v>46.22</v>
+      </c>
+      <c r="H116" t="n">
+        <v>17.125</v>
+      </c>
+      <c r="I116" t="n">
+        <v>19.025</v>
+      </c>
+      <c r="J116" t="n">
+        <v>21.47</v>
+      </c>
+      <c r="K116" t="n">
+        <v>11.165</v>
       </c>
     </row>
     <row r="117">
@@ -2672,16 +4323,34 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>35.08</v>
+        <v>15.75</v>
       </c>
       <c r="C117" t="n">
-        <v>0</v>
+        <v>26.61</v>
       </c>
       <c r="D117" t="n">
-        <v>24.29</v>
+        <v>83.97</v>
       </c>
       <c r="E117" t="n">
-        <v>20.65</v>
+        <v>8.58</v>
+      </c>
+      <c r="F117" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G117" t="n">
+        <v>48.27</v>
+      </c>
+      <c r="H117" t="n">
+        <v>16.76</v>
+      </c>
+      <c r="I117" t="n">
+        <v>18.755</v>
+      </c>
+      <c r="J117" t="n">
+        <v>21.405</v>
+      </c>
+      <c r="K117" t="n">
+        <v>11.415</v>
       </c>
     </row>
     <row r="118">
@@ -2689,16 +4358,34 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>35.72</v>
+        <v>15.22</v>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>27.12</v>
       </c>
       <c r="D118" t="n">
-        <v>23.88</v>
+        <v>87.14</v>
       </c>
       <c r="E118" t="n">
-        <v>20.4</v>
+        <v>8.359999999999999</v>
+      </c>
+      <c r="F118" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G118" t="n">
+        <v>50.73</v>
+      </c>
+      <c r="H118" t="n">
+        <v>16.385</v>
+      </c>
+      <c r="I118" t="n">
+        <v>18.465</v>
+      </c>
+      <c r="J118" t="n">
+        <v>21.34</v>
+      </c>
+      <c r="K118" t="n">
+        <v>11.755</v>
       </c>
     </row>
     <row r="119">
@@ -2706,16 +4393,34 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>36.18</v>
+        <v>14.64</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>27.3</v>
       </c>
       <c r="D119" t="n">
-        <v>23.65</v>
+        <v>90.3</v>
       </c>
       <c r="E119" t="n">
-        <v>20.17</v>
+        <v>8.140000000000001</v>
+      </c>
+      <c r="F119" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G119" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="H119" t="n">
+        <v>16.015</v>
+      </c>
+      <c r="I119" t="n">
+        <v>18.175</v>
+      </c>
+      <c r="J119" t="n">
+        <v>20.03</v>
+      </c>
+      <c r="K119" t="n">
+        <v>11.995</v>
       </c>
     </row>
     <row r="120">
@@ -2723,16 +4428,34 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>36.48</v>
+        <v>14.05</v>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>27.48</v>
       </c>
       <c r="D120" t="n">
-        <v>23.64</v>
+        <v>93.79000000000001</v>
       </c>
       <c r="E120" t="n">
-        <v>19.88</v>
+        <v>9</v>
+      </c>
+      <c r="F120" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G120" t="n">
+        <v>56.42</v>
+      </c>
+      <c r="H120" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="I120" t="n">
+        <v>17.93</v>
+      </c>
+      <c r="J120" t="n">
+        <v>20.03</v>
+      </c>
+      <c r="K120" t="n">
+        <v>12.12</v>
       </c>
     </row>
     <row r="121">
@@ -2740,16 +4463,34 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>37.12</v>
+        <v>13.34</v>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>27.64</v>
       </c>
       <c r="D121" t="n">
-        <v>23.37</v>
+        <v>97.23999999999999</v>
       </c>
       <c r="E121" t="n">
-        <v>19.51</v>
+        <v>8.85</v>
+      </c>
+      <c r="F121" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G121" t="n">
+        <v>57.88</v>
+      </c>
+      <c r="H121" t="n">
+        <v>15.735</v>
+      </c>
+      <c r="I121" t="n">
+        <v>17.55</v>
+      </c>
+      <c r="J121" t="n">
+        <v>22.03</v>
+      </c>
+      <c r="K121" t="n">
+        <v>12.255</v>
       </c>
     </row>
     <row r="122">
@@ -2757,16 +4498,34 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>37.57</v>
+        <v>12.6</v>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
+        <v>27.46</v>
       </c>
       <c r="D122" t="n">
-        <v>23.17</v>
+        <v>100.81</v>
       </c>
       <c r="E122" t="n">
-        <v>19.26</v>
+        <v>8.699999999999999</v>
+      </c>
+      <c r="F122" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G122" t="n">
+        <v>59.24</v>
+      </c>
+      <c r="H122" t="n">
+        <v>16</v>
+      </c>
+      <c r="I122" t="n">
+        <v>17.27999999999999</v>
+      </c>
+      <c r="J122" t="n">
+        <v>20.03</v>
+      </c>
+      <c r="K122" t="n">
+        <v>12.4</v>
       </c>
     </row>
     <row r="123">
@@ -2774,16 +4533,34 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>37.88</v>
+        <v>11.87</v>
       </c>
       <c r="C123" t="n">
-        <v>0</v>
+        <v>27.27</v>
       </c>
       <c r="D123" t="n">
-        <v>23.19</v>
+        <v>102.54</v>
       </c>
       <c r="E123" t="n">
-        <v>18.93</v>
+        <v>8.65</v>
+      </c>
+      <c r="F123" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G123" t="n">
+        <v>60.45</v>
+      </c>
+      <c r="H123" t="n">
+        <v>16.116</v>
+      </c>
+      <c r="I123" t="n">
+        <v>16.991</v>
+      </c>
+      <c r="J123" t="n">
+        <v>20.381</v>
+      </c>
+      <c r="K123" t="n">
+        <v>12.246</v>
       </c>
     </row>
     <row r="124">
@@ -2791,16 +4568,34 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>37.21</v>
+        <v>11.18</v>
       </c>
       <c r="C124" t="n">
-        <v>0</v>
+        <v>27.08</v>
       </c>
       <c r="D124" t="n">
-        <v>24.18</v>
+        <v>104.27</v>
       </c>
       <c r="E124" t="n">
-        <v>18.61</v>
+        <v>8.6</v>
+      </c>
+      <c r="F124" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G124" t="n">
+        <v>63.13</v>
+      </c>
+      <c r="H124" t="n">
+        <v>15.331</v>
+      </c>
+      <c r="I124" t="n">
+        <v>16.702</v>
+      </c>
+      <c r="J124" t="n">
+        <v>20.612</v>
+      </c>
+      <c r="K124" t="n">
+        <v>11.591</v>
       </c>
     </row>
     <row r="125">
@@ -2808,16 +4603,34 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>36.38</v>
+        <v>10.5</v>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
+        <v>26.6</v>
       </c>
       <c r="D125" t="n">
-        <v>25.15</v>
+        <v>105.95</v>
       </c>
       <c r="E125" t="n">
-        <v>18.47</v>
+        <v>8.56</v>
+      </c>
+      <c r="F125" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G125" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="H125" t="n">
+        <v>14.481</v>
+      </c>
+      <c r="I125" t="n">
+        <v>17.87</v>
+      </c>
+      <c r="J125" t="n">
+        <v>19.868</v>
+      </c>
+      <c r="K125" t="n">
+        <v>10.881</v>
       </c>
     </row>
     <row r="126">
@@ -2825,16 +4638,34 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>35.25</v>
+        <v>10.21</v>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>26.12</v>
       </c>
       <c r="D126" t="n">
-        <v>26.38</v>
+        <v>103.9</v>
       </c>
       <c r="E126" t="n">
-        <v>18.37</v>
+        <v>8.51</v>
+      </c>
+      <c r="F126" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G126" t="n">
+        <v>68.28</v>
+      </c>
+      <c r="H126" t="n">
+        <v>13.631</v>
+      </c>
+      <c r="I126" t="n">
+        <v>19.758</v>
+      </c>
+      <c r="J126" t="n">
+        <v>21.914</v>
+      </c>
+      <c r="K126" t="n">
+        <v>10.176</v>
       </c>
     </row>
     <row r="127">
@@ -2842,16 +4673,34 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>34.11</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="C127" t="n">
-        <v>0</v>
+        <v>25.64</v>
       </c>
       <c r="D127" t="n">
-        <v>27.6</v>
+        <v>101.86</v>
       </c>
       <c r="E127" t="n">
-        <v>18.29</v>
+        <v>8.460000000000001</v>
+      </c>
+      <c r="F127" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G127" t="n">
+        <v>70.43000000000001</v>
+      </c>
+      <c r="H127" t="n">
+        <v>13.184</v>
+      </c>
+      <c r="I127" t="n">
+        <v>21.546</v>
+      </c>
+      <c r="J127" t="n">
+        <v>24.289</v>
+      </c>
+      <c r="K127" t="n">
+        <v>9.471</v>
       </c>
     </row>
     <row r="128">
@@ -2859,16 +4708,34 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>32.21</v>
+        <v>10.03</v>
       </c>
       <c r="C128" t="n">
-        <v>0</v>
+        <v>25.19</v>
       </c>
       <c r="D128" t="n">
-        <v>29.57</v>
+        <v>99.77</v>
       </c>
       <c r="E128" t="n">
-        <v>18.22</v>
+        <v>8.43</v>
+      </c>
+      <c r="F128" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G128" t="n">
+        <v>72.54000000000001</v>
+      </c>
+      <c r="H128" t="n">
+        <v>12.252</v>
+      </c>
+      <c r="I128" t="n">
+        <v>23.344</v>
+      </c>
+      <c r="J128" t="n">
+        <v>27.461</v>
+      </c>
+      <c r="K128" t="n">
+        <v>8.494</v>
       </c>
     </row>
     <row r="129">
@@ -2876,16 +4743,34 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>30.75</v>
+        <v>10.38</v>
       </c>
       <c r="C129" t="n">
-        <v>0</v>
+        <v>25.05</v>
       </c>
       <c r="D129" t="n">
-        <v>31.12</v>
+        <v>97.68000000000001</v>
       </c>
       <c r="E129" t="n">
-        <v>18.13</v>
+        <v>8.289999999999999</v>
+      </c>
+      <c r="F129" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G129" t="n">
+        <v>72.86</v>
+      </c>
+      <c r="H129" t="n">
+        <v>11.221</v>
+      </c>
+      <c r="I129" t="n">
+        <v>24.168</v>
+      </c>
+      <c r="J129" t="n">
+        <v>33.31</v>
+      </c>
+      <c r="K129" t="n">
+        <v>7.540000000000001</v>
       </c>
     </row>
     <row r="130">
@@ -2893,16 +4778,34 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>29.08</v>
+        <v>11.2</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>24.92</v>
       </c>
       <c r="D130" t="n">
-        <v>32.62</v>
+        <v>95.28</v>
       </c>
       <c r="E130" t="n">
-        <v>18.3</v>
+        <v>8.15</v>
+      </c>
+      <c r="F130" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G130" t="n">
+        <v>73.19</v>
+      </c>
+      <c r="H130" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="I130" t="n">
+        <v>25.002</v>
+      </c>
+      <c r="J130" t="n">
+        <v>38.842</v>
+      </c>
+      <c r="K130" t="n">
+        <v>6.711</v>
       </c>
     </row>
     <row r="131">
@@ -2910,16 +4813,34 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>26.98</v>
+        <v>11.71</v>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
+        <v>24.79</v>
       </c>
       <c r="D131" t="n">
-        <v>34.48</v>
+        <v>92.48999999999999</v>
       </c>
       <c r="E131" t="n">
-        <v>18.54</v>
+        <v>8.02</v>
+      </c>
+      <c r="F131" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G131" t="n">
+        <v>73.47</v>
+      </c>
+      <c r="H131" t="n">
+        <v>8.803999999999998</v>
+      </c>
+      <c r="I131" t="n">
+        <v>25.871</v>
+      </c>
+      <c r="J131" t="n">
+        <v>43.765</v>
+      </c>
+      <c r="K131" t="n">
+        <v>5.555000000000001</v>
       </c>
     </row>
     <row r="132">
@@ -2927,16 +4848,34 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>26.6</v>
+        <v>12.27</v>
       </c>
       <c r="C132" t="n">
-        <v>0</v>
+        <v>24.94</v>
       </c>
       <c r="D132" t="n">
-        <v>34.67</v>
+        <v>89.7</v>
       </c>
       <c r="E132" t="n">
-        <v>18.73</v>
+        <v>7.88</v>
+      </c>
+      <c r="F132" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G132" t="n">
+        <v>73.87</v>
+      </c>
+      <c r="H132" t="n">
+        <v>7.407999999999999</v>
+      </c>
+      <c r="I132" t="n">
+        <v>26.338</v>
+      </c>
+      <c r="J132" t="n">
+        <v>48.678</v>
+      </c>
+      <c r="K132" t="n">
+        <v>4.409000000000001</v>
       </c>
     </row>
     <row r="133">
@@ -2944,16 +4883,34 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>26.25</v>
+        <v>12.82</v>
       </c>
       <c r="C133" t="n">
-        <v>0</v>
+        <v>25.09</v>
       </c>
       <c r="D133" t="n">
-        <v>34.77</v>
+        <v>88.89</v>
       </c>
       <c r="E133" t="n">
-        <v>18.99</v>
+        <v>7.73</v>
+      </c>
+      <c r="F133" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G133" t="n">
+        <v>74.48999999999999</v>
+      </c>
+      <c r="H133" t="n">
+        <v>6.151</v>
+      </c>
+      <c r="I133" t="n">
+        <v>26.809</v>
+      </c>
+      <c r="J133" t="n">
+        <v>51.23</v>
+      </c>
+      <c r="K133" t="n">
+        <v>3.287</v>
       </c>
     </row>
     <row r="134">
@@ -2961,16 +4918,34 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>27.77</v>
+        <v>13.39</v>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
+        <v>25.24</v>
       </c>
       <c r="D134" t="n">
-        <v>33.4</v>
+        <v>88.08</v>
       </c>
       <c r="E134" t="n">
-        <v>19.26</v>
+        <v>7.57</v>
+      </c>
+      <c r="F134" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G134" t="n">
+        <v>73.64</v>
+      </c>
+      <c r="H134" t="n">
+        <v>5.375999999999999</v>
+      </c>
+      <c r="I134" t="n">
+        <v>27.734</v>
+      </c>
+      <c r="J134" t="n">
+        <v>53.79199999999999</v>
+      </c>
+      <c r="K134" t="n">
+        <v>2.676</v>
       </c>
     </row>
     <row r="135">
@@ -2978,16 +4953,34 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>29.36</v>
+        <v>14.2</v>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
+        <v>25.52</v>
       </c>
       <c r="D135" t="n">
-        <v>32.05</v>
+        <v>87.26000000000001</v>
       </c>
       <c r="E135" t="n">
-        <v>19.45</v>
+        <v>7.4</v>
+      </c>
+      <c r="F135" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G135" t="n">
+        <v>72.86</v>
+      </c>
+      <c r="H135" t="n">
+        <v>4.665999999999999</v>
+      </c>
+      <c r="I135" t="n">
+        <v>27.212</v>
+      </c>
+      <c r="J135" t="n">
+        <v>57.23900000000001</v>
+      </c>
+      <c r="K135" t="n">
+        <v>2.13</v>
       </c>
     </row>
     <row r="136">
@@ -2995,16 +4988,34 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>31.62</v>
+        <v>14.8</v>
       </c>
       <c r="C136" t="n">
-        <v>0</v>
+        <v>25.58</v>
       </c>
       <c r="D136" t="n">
-        <v>30.69</v>
+        <v>84.2</v>
       </c>
       <c r="E136" t="n">
-        <v>18.98</v>
+        <v>6.57</v>
+      </c>
+      <c r="F136" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G136" t="n">
+        <v>72.06999999999999</v>
+      </c>
+      <c r="H136" t="n">
+        <v>3.966</v>
+      </c>
+      <c r="I136" t="n">
+        <v>30.03100000000001</v>
+      </c>
+      <c r="J136" t="n">
+        <v>60.691</v>
+      </c>
+      <c r="K136" t="n">
+        <v>1.584</v>
       </c>
     </row>
     <row r="137">
@@ -3012,16 +5023,34 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>33.97</v>
+        <v>15.45</v>
       </c>
       <c r="C137" t="n">
-        <v>0</v>
+        <v>25.65</v>
       </c>
       <c r="D137" t="n">
-        <v>29.39</v>
+        <v>81.14</v>
       </c>
       <c r="E137" t="n">
-        <v>18.35</v>
+        <v>5.75</v>
+      </c>
+      <c r="F137" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G137" t="n">
+        <v>71.54000000000001</v>
+      </c>
+      <c r="H137" t="n">
+        <v>2.873</v>
+      </c>
+      <c r="I137" t="n">
+        <v>33.31</v>
+      </c>
+      <c r="J137" t="n">
+        <v>63.749</v>
+      </c>
+      <c r="K137" t="n">
+        <v>1.038</v>
       </c>
     </row>
     <row r="138">
@@ -3029,16 +5058,34 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>36.79</v>
+        <v>13.87</v>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>25.7</v>
       </c>
       <c r="D138" t="n">
-        <v>27.22</v>
+        <v>76.88</v>
       </c>
       <c r="E138" t="n">
-        <v>17.71</v>
+        <v>4.92</v>
+      </c>
+      <c r="F138" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G138" t="n">
+        <v>79.70999999999999</v>
+      </c>
+      <c r="H138" t="n">
+        <v>2.285</v>
+      </c>
+      <c r="I138" t="n">
+        <v>30.419</v>
+      </c>
+      <c r="J138" t="n">
+        <v>66.02000000000001</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0.674</v>
       </c>
     </row>
     <row r="139">
@@ -3046,16 +5093,34 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>39.37</v>
+        <v>14.39</v>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
+        <v>25.74</v>
       </c>
       <c r="D139" t="n">
-        <v>25.28</v>
+        <v>72.64</v>
       </c>
       <c r="E139" t="n">
-        <v>17.07</v>
+        <v>4.2</v>
+      </c>
+      <c r="F139" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G139" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1.801</v>
+      </c>
+      <c r="I139" t="n">
+        <v>28.572</v>
+      </c>
+      <c r="J139" t="n">
+        <v>66.819</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0.337</v>
       </c>
     </row>
     <row r="140">
@@ -3063,16 +5128,34 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>42.07</v>
+        <v>15.21</v>
       </c>
       <c r="C140" t="n">
+        <v>25.77</v>
+      </c>
+      <c r="D140" t="n">
+        <v>68.29000000000001</v>
+      </c>
+      <c r="E140" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="F140" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G140" t="n">
+        <v>96.06999999999999</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1.317</v>
+      </c>
+      <c r="I140" t="n">
+        <v>26.735</v>
+      </c>
+      <c r="J140" t="n">
+        <v>67.61</v>
+      </c>
+      <c r="K140" t="n">
         <v>0</v>
-      </c>
-      <c r="D140" t="n">
-        <v>23.26</v>
-      </c>
-      <c r="E140" t="n">
-        <v>16.39</v>
       </c>
     </row>
     <row r="141">
@@ -3080,19 +5163,34 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>44.39</v>
+        <v>17.59</v>
       </c>
       <c r="C141" t="n">
+        <v>25.82</v>
+      </c>
+      <c r="D141" t="n">
+        <v>64.37</v>
+      </c>
+      <c r="E141" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="F141" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G141" t="n">
+        <v>103.88</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0.868</v>
+      </c>
+      <c r="I141" t="n">
+        <v>24.292</v>
+      </c>
+      <c r="J141" t="n">
+        <v>66.91</v>
+      </c>
+      <c r="K141" t="n">
         <v>0</v>
-      </c>
-      <c r="D141" t="n">
-        <v>21.62</v>
-      </c>
-      <c r="E141" t="n">
-        <v>15.71</v>
-      </c>
-      <c r="F141" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="142">
@@ -3100,19 +5198,34 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>44.81</v>
+        <v>19.92</v>
       </c>
       <c r="C142" t="n">
+        <v>25.35</v>
+      </c>
+      <c r="D142" t="n">
+        <v>60.41</v>
+      </c>
+      <c r="E142" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="F142" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G142" t="n">
+        <v>111.65</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="I142" t="n">
+        <v>22.261</v>
+      </c>
+      <c r="J142" t="n">
+        <v>66.42999999999999</v>
+      </c>
+      <c r="K142" t="n">
         <v>0</v>
-      </c>
-      <c r="D142" t="n">
-        <v>22.58</v>
-      </c>
-      <c r="E142" t="n">
-        <v>14.33</v>
-      </c>
-      <c r="F142" t="n">
-        <v>19.715</v>
       </c>
     </row>
     <row r="143">
@@ -3120,19 +5233,34 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>45.23</v>
+        <v>22.47</v>
       </c>
       <c r="C143" t="n">
+        <v>24.87</v>
+      </c>
+      <c r="D143" t="n">
+        <v>56.35</v>
+      </c>
+      <c r="E143" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="F143" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G143" t="n">
+        <v>119.23</v>
+      </c>
+      <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="D143" t="n">
-        <v>23.41</v>
-      </c>
-      <c r="E143" t="n">
-        <v>13.13</v>
-      </c>
-      <c r="F143" t="n">
-        <v>19.55333333333333</v>
+      <c r="I143" t="n">
+        <v>20.25</v>
+      </c>
+      <c r="J143" t="n">
+        <v>65.95999999999999</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -3140,19 +5268,34 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>45.27</v>
+        <v>25.67</v>
       </c>
       <c r="C144" t="n">
+        <v>24.39</v>
+      </c>
+      <c r="D144" t="n">
+        <v>52.3</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="F144" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G144" t="n">
+        <v>126.19</v>
+      </c>
+      <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="D144" t="n">
-        <v>24.23</v>
-      </c>
-      <c r="E144" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="F144" t="n">
-        <v>19.4475</v>
+      <c r="I144" t="n">
+        <v>17.785</v>
+      </c>
+      <c r="J144" t="n">
+        <v>65.47999999999999</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -3160,19 +5303,34 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>45.48</v>
+        <v>28.63</v>
       </c>
       <c r="C145" t="n">
+        <v>24.08</v>
+      </c>
+      <c r="D145" t="n">
+        <v>48.32</v>
+      </c>
+      <c r="E145" t="n">
         <v>0</v>
       </c>
-      <c r="D145" t="n">
-        <v>24.79</v>
-      </c>
-      <c r="E145" t="n">
-        <v>10.81</v>
-      </c>
       <c r="F145" t="n">
-        <v>19.384</v>
+        <v>9.51</v>
+      </c>
+      <c r="G145" t="n">
+        <v>133.25</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>15.32</v>
+      </c>
+      <c r="J145" t="n">
+        <v>64.90000000000001</v>
+      </c>
+      <c r="K145" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -3180,19 +5338,34 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>45.01</v>
+        <v>31.77</v>
       </c>
       <c r="C146" t="n">
+        <v>23.95</v>
+      </c>
+      <c r="D146" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="E146" t="n">
         <v>0</v>
       </c>
-      <c r="D146" t="n">
-        <v>25.31</v>
-      </c>
-      <c r="E146" t="n">
-        <v>10.41</v>
-      </c>
       <c r="F146" t="n">
-        <v>18.96166666666667</v>
+        <v>9.51</v>
+      </c>
+      <c r="G146" t="n">
+        <v>140.48</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>8.864000000000001</v>
+      </c>
+      <c r="J146" t="n">
+        <v>64.626</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -3200,19 +5373,34 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>44.47</v>
+        <v>35.19</v>
       </c>
       <c r="C147" t="n">
+        <v>23.73</v>
+      </c>
+      <c r="D147" t="n">
+        <v>45.21</v>
+      </c>
+      <c r="E147" t="n">
         <v>0</v>
       </c>
-      <c r="D147" t="n">
-        <v>25.78</v>
-      </c>
-      <c r="E147" t="n">
-        <v>10.38</v>
-      </c>
       <c r="F147" t="n">
-        <v>18.53142857142857</v>
+        <v>9.51</v>
+      </c>
+      <c r="G147" t="n">
+        <v>147.97</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>2.048</v>
+      </c>
+      <c r="J147" t="n">
+        <v>64.342</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -3220,839 +5408,34 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>43.9</v>
+        <v>39.85</v>
       </c>
       <c r="C148" t="n">
+        <v>23.52</v>
+      </c>
+      <c r="D148" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="E148" t="n">
         <v>0</v>
       </c>
-      <c r="D148" t="n">
-        <v>26.77</v>
-      </c>
-      <c r="E148" t="n">
-        <v>10.35</v>
-      </c>
       <c r="F148" t="n">
-        <v>18.23375</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>43.34</v>
-      </c>
-      <c r="C149" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G148" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="D149" t="n">
-        <v>27.73</v>
-      </c>
-      <c r="E149" t="n">
-        <v>10.34</v>
-      </c>
-      <c r="F149" t="n">
-        <v>17.93555555555555</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>42.8</v>
-      </c>
-      <c r="C150" t="n">
+      <c r="I148" t="n">
+        <v>1.412</v>
+      </c>
+      <c r="J148" t="n">
+        <v>59.713</v>
+      </c>
+      <c r="K148" t="n">
         <v>0</v>
-      </c>
-      <c r="D150" t="n">
-        <v>28.91</v>
-      </c>
-      <c r="E150" t="n">
-        <v>10.16</v>
-      </c>
-      <c r="F150" t="n">
-        <v>16.512</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>42.68</v>
-      </c>
-      <c r="C151" t="n">
-        <v>0</v>
-      </c>
-      <c r="D151" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="E151" t="n">
-        <v>11.21</v>
-      </c>
-      <c r="F151" t="n">
-        <v>16.512</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>42.85</v>
-      </c>
-      <c r="C152" t="n">
-        <v>0</v>
-      </c>
-      <c r="D152" t="n">
-        <v>29.34</v>
-      </c>
-      <c r="E152" t="n">
-        <v>12.99</v>
-      </c>
-      <c r="F152" t="n">
-        <v>14.822</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>43.98</v>
-      </c>
-      <c r="C153" t="n">
-        <v>0</v>
-      </c>
-      <c r="D153" t="n">
-        <v>28.31</v>
-      </c>
-      <c r="E153" t="n">
-        <v>14.53</v>
-      </c>
-      <c r="F153" t="n">
-        <v>13.179</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>45.21</v>
-      </c>
-      <c r="C154" t="n">
-        <v>0</v>
-      </c>
-      <c r="D154" t="n">
-        <v>27.24</v>
-      </c>
-      <c r="E154" t="n">
-        <v>15.99</v>
-      </c>
-      <c r="F154" t="n">
-        <v>11.556</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>45.84</v>
-      </c>
-      <c r="C155" t="n">
-        <v>0</v>
-      </c>
-      <c r="D155" t="n">
-        <v>26.41</v>
-      </c>
-      <c r="E155" t="n">
-        <v>17.81</v>
-      </c>
-      <c r="F155" t="n">
-        <v>9.943000000000001</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="C156" t="n">
-        <v>0</v>
-      </c>
-      <c r="D156" t="n">
-        <v>25.61</v>
-      </c>
-      <c r="E156" t="n">
-        <v>19.58</v>
-      </c>
-      <c r="F156" t="n">
-        <v>8.309999999999999</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="C157" t="n">
-        <v>0</v>
-      </c>
-      <c r="D157" t="n">
-        <v>24.79</v>
-      </c>
-      <c r="E157" t="n">
-        <v>21.01</v>
-      </c>
-      <c r="F157" t="n">
-        <v>6.895</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>48.11</v>
-      </c>
-      <c r="C158" t="n">
-        <v>0</v>
-      </c>
-      <c r="D158" t="n">
-        <v>23.95</v>
-      </c>
-      <c r="E158" t="n">
-        <v>22.43</v>
-      </c>
-      <c r="F158" t="n">
-        <v>5.513</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>49.02</v>
-      </c>
-      <c r="C159" t="n">
-        <v>0</v>
-      </c>
-      <c r="D159" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="E159" t="n">
-        <v>23.83</v>
-      </c>
-      <c r="F159" t="n">
-        <v>4.111</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>50.08</v>
-      </c>
-      <c r="C160" t="n">
-        <v>0</v>
-      </c>
-      <c r="D160" t="n">
-        <v>20.05</v>
-      </c>
-      <c r="E160" t="n">
-        <v>25.17</v>
-      </c>
-      <c r="F160" t="n">
-        <v>2.749</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>51.2</v>
-      </c>
-      <c r="C161" t="n">
-        <v>0</v>
-      </c>
-      <c r="D161" t="n">
-        <v>18.99</v>
-      </c>
-      <c r="E161" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="F161" t="n">
-        <v>4.561999999999999</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>52.69</v>
-      </c>
-      <c r="C162" t="n">
-        <v>0</v>
-      </c>
-      <c r="D162" t="n">
-        <v>17.97</v>
-      </c>
-      <c r="E162" t="n">
-        <v>25.42</v>
-      </c>
-      <c r="F162" t="n">
-        <v>5.976</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>53.27</v>
-      </c>
-      <c r="C163" t="n">
-        <v>0</v>
-      </c>
-      <c r="D163" t="n">
-        <v>17.67</v>
-      </c>
-      <c r="E163" t="n">
-        <v>25.72</v>
-      </c>
-      <c r="F163" t="n">
-        <v>7.4</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>53.7</v>
-      </c>
-      <c r="C164" t="n">
-        <v>0</v>
-      </c>
-      <c r="D164" t="n">
-        <v>17.45</v>
-      </c>
-      <c r="E164" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="F164" t="n">
-        <v>8.803999999999998</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>54.97</v>
-      </c>
-      <c r="C165" t="n">
-        <v>0</v>
-      </c>
-      <c r="D165" t="n">
-        <v>16.78</v>
-      </c>
-      <c r="E165" t="n">
-        <v>26.11</v>
-      </c>
-      <c r="F165" t="n">
-        <v>10.198</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>56.22</v>
-      </c>
-      <c r="C166" t="n">
-        <v>0</v>
-      </c>
-      <c r="D166" t="n">
-        <v>16.09</v>
-      </c>
-      <c r="E166" t="n">
-        <v>26.16</v>
-      </c>
-      <c r="F166" t="n">
-        <v>11.592</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>57.29</v>
-      </c>
-      <c r="C167" t="n">
-        <v>0</v>
-      </c>
-      <c r="D167" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="E167" t="n">
-        <v>26.13</v>
-      </c>
-      <c r="F167" t="n">
-        <v>12.996</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>58.36</v>
-      </c>
-      <c r="C168" t="n">
-        <v>0</v>
-      </c>
-      <c r="D168" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="E168" t="n">
-        <v>26.12</v>
-      </c>
-      <c r="F168" t="n">
-        <v>14.387</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>59.34</v>
-      </c>
-      <c r="C169" t="n">
-        <v>0</v>
-      </c>
-      <c r="D169" t="n">
-        <v>16.84</v>
-      </c>
-      <c r="E169" t="n">
-        <v>26.12</v>
-      </c>
-      <c r="F169" t="n">
-        <v>15.768</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>60.3</v>
-      </c>
-      <c r="C170" t="n">
-        <v>0</v>
-      </c>
-      <c r="D170" t="n">
-        <v>16.47</v>
-      </c>
-      <c r="E170" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="F170" t="n">
-        <v>17.169</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>61.2</v>
-      </c>
-      <c r="C171" t="n">
-        <v>0</v>
-      </c>
-      <c r="D171" t="n">
-        <v>16.18</v>
-      </c>
-      <c r="E171" t="n">
-        <v>26.25</v>
-      </c>
-      <c r="F171" t="n">
-        <v>16.58</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>62.23</v>
-      </c>
-      <c r="C172" t="n">
-        <v>0</v>
-      </c>
-      <c r="D172" t="n">
-        <v>15.31</v>
-      </c>
-      <c r="E172" t="n">
-        <v>26.31</v>
-      </c>
-      <c r="F172" t="n">
-        <v>16.43</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>63.06</v>
-      </c>
-      <c r="C173" t="n">
-        <v>0</v>
-      </c>
-      <c r="D173" t="n">
-        <v>14.54</v>
-      </c>
-      <c r="E173" t="n">
-        <v>26.25</v>
-      </c>
-      <c r="F173" t="n">
-        <v>16.52</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>63.92</v>
-      </c>
-      <c r="C174" t="n">
-        <v>0</v>
-      </c>
-      <c r="D174" t="n">
-        <v>13.72</v>
-      </c>
-      <c r="E174" t="n">
-        <v>26.19</v>
-      </c>
-      <c r="F174" t="n">
-        <v>16.61</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>64.27</v>
-      </c>
-      <c r="C175" t="n">
-        <v>0</v>
-      </c>
-      <c r="D175" t="n">
-        <v>13.31</v>
-      </c>
-      <c r="E175" t="n">
-        <v>26.15</v>
-      </c>
-      <c r="F175" t="n">
-        <v>16.777</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>64.72</v>
-      </c>
-      <c r="C176" t="n">
-        <v>0</v>
-      </c>
-      <c r="D176" t="n">
-        <v>12.85</v>
-      </c>
-      <c r="E176" t="n">
-        <v>26.07</v>
-      </c>
-      <c r="F176" t="n">
-        <v>16.944</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>65.38</v>
-      </c>
-      <c r="C177" t="n">
-        <v>0</v>
-      </c>
-      <c r="D177" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="E177" t="n">
-        <v>26.07</v>
-      </c>
-      <c r="F177" t="n">
-        <v>17.046</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>66.28</v>
-      </c>
-      <c r="C178" t="n">
-        <v>0</v>
-      </c>
-      <c r="D178" t="n">
-        <v>11.36</v>
-      </c>
-      <c r="E178" t="n">
-        <v>26.07</v>
-      </c>
-      <c r="F178" t="n">
-        <v>17.003</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>67.17</v>
-      </c>
-      <c r="C179" t="n">
-        <v>0</v>
-      </c>
-      <c r="D179" t="n">
-        <v>10.55</v>
-      </c>
-      <c r="E179" t="n">
-        <v>26.07</v>
-      </c>
-      <c r="F179" t="n">
-        <v>16.925</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>68.15000000000001</v>
-      </c>
-      <c r="C180" t="n">
-        <v>0</v>
-      </c>
-      <c r="D180" t="n">
-        <v>9.68</v>
-      </c>
-      <c r="E180" t="n">
-        <v>26.07</v>
-      </c>
-      <c r="F180" t="n">
-        <v>16.827</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>69.18000000000001</v>
-      </c>
-      <c r="C181" t="n">
-        <v>0</v>
-      </c>
-      <c r="D181" t="n">
-        <v>8.76</v>
-      </c>
-      <c r="E181" t="n">
-        <v>26.07</v>
-      </c>
-      <c r="F181" t="n">
-        <v>16.709</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>69.53</v>
-      </c>
-      <c r="C182" t="n">
-        <v>0</v>
-      </c>
-      <c r="D182" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="E182" t="n">
-        <v>26.07</v>
-      </c>
-      <c r="F182" t="n">
-        <v>16.611</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>70.33</v>
-      </c>
-      <c r="C183" t="n">
-        <v>0</v>
-      </c>
-      <c r="D183" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="E183" t="n">
-        <v>26.07</v>
-      </c>
-      <c r="F183" t="n">
-        <v>16.253</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>71.09999999999999</v>
-      </c>
-      <c r="C184" t="n">
-        <v>0</v>
-      </c>
-      <c r="D184" t="n">
-        <v>7.49</v>
-      </c>
-      <c r="E184" t="n">
-        <v>26.07</v>
-      </c>
-      <c r="F184" t="n">
-        <v>16.035</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>72.36</v>
-      </c>
-      <c r="C185" t="n">
-        <v>0</v>
-      </c>
-      <c r="D185" t="n">
-        <v>6.54</v>
-      </c>
-      <c r="E185" t="n">
-        <v>26.07</v>
-      </c>
-      <c r="F185" t="n">
-        <v>15.73</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>74.84999999999999</v>
-      </c>
-      <c r="C186" t="n">
-        <v>0</v>
-      </c>
-      <c r="D186" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="E186" t="n">
-        <v>26.07</v>
-      </c>
-      <c r="F186" t="n">
-        <v>14.105</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>77.23</v>
-      </c>
-      <c r="C187" t="n">
-        <v>0</v>
-      </c>
-      <c r="D187" t="n">
-        <v>4.87</v>
-      </c>
-      <c r="E187" t="n">
-        <v>26.07</v>
-      </c>
-      <c r="F187" t="n">
-        <v>12.535</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>79.37</v>
-      </c>
-      <c r="C188" t="n">
-        <v>0</v>
-      </c>
-      <c r="D188" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="E188" t="n">
-        <v>26.07</v>
-      </c>
-      <c r="F188" t="n">
-        <v>11.18</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>81.54000000000001</v>
-      </c>
-      <c r="C189" t="n">
-        <v>0</v>
-      </c>
-      <c r="D189" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="E189" t="n">
-        <v>26.07</v>
-      </c>
-      <c r="F189" t="n">
-        <v>9.860000000000003</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/stacks_over_time_avg.xlsx
+++ b/Outputs/stacks_over_time_avg.xlsx
@@ -306,12 +306,12 @@
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>9</col>
+      <col>0</col>
       <colOff>0</colOff>
-      <row>1</row>
+      <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5400000" cy="2700000"/>
+    <ext cx="11520000" cy="6480000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>

--- a/Outputs/stacks_over_time_avg.xlsx
+++ b/Outputs/stacks_over_time_avg.xlsx
@@ -194,7 +194,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$B$2:$B$227</f>
+              <f>'data'!$B$2:$B$148</f>
             </numRef>
           </val>
         </ser>
@@ -221,7 +221,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$C$2:$C$227</f>
+              <f>'data'!$C$2:$C$148</f>
             </numRef>
           </val>
         </ser>
@@ -248,7 +248,196 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$D$2:$D$227</f>
+              <f>'data'!$D$2:$D$148</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'data'!E1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'data'!$E$2:$E$148</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <strRef>
+              <f>'data'!F1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'data'!$F$2:$F$148</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="5"/>
+          <order val="5"/>
+          <tx>
+            <strRef>
+              <f>'data'!G1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'data'!$G$2:$G$148</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="6"/>
+          <order val="6"/>
+          <tx>
+            <strRef>
+              <f>'data'!H1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'data'!$H$2:$H$148</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="7"/>
+          <order val="7"/>
+          <tx>
+            <strRef>
+              <f>'data'!I1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'data'!$I$2:$I$148</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="8"/>
+          <order val="8"/>
+          <tx>
+            <strRef>
+              <f>'data'!J1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'data'!$J$2:$J$148</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="9"/>
+          <order val="9"/>
+          <tx>
+            <strRef>
+              <f>'data'!K1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'data'!$K$2:$K$148</f>
             </numRef>
           </val>
         </ser>
@@ -618,7 +807,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D227"/>
+  <dimension ref="A1:K148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -634,7 +823,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Raymond</t>
+          <t>Scott</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -644,7 +833,42 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Kynan</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Jonathan</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Fish</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Jacob</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Marshall</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Regan</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Cheyenne</t>
         </is>
       </c>
     </row>
@@ -653,13 +877,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" t="n">
+        <v>10</v>
+      </c>
+      <c r="G2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -667,13 +900,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20.38</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>19.71</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>19.9</v>
+        <v>10</v>
+      </c>
+      <c r="E3" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="F3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G3" t="n">
+        <v>10.15</v>
       </c>
     </row>
     <row r="4">
@@ -681,13 +923,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20.21</v>
+        <v>9.93</v>
       </c>
       <c r="C4" t="n">
-        <v>19.55</v>
+        <v>9.92</v>
       </c>
       <c r="D4" t="n">
-        <v>20.23</v>
+        <v>9.970000000000001</v>
+      </c>
+      <c r="E4" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="F4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G4" t="n">
+        <v>10.17</v>
       </c>
     </row>
     <row r="5">
@@ -695,13 +946,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20.18</v>
+        <v>9.93</v>
       </c>
       <c r="C5" t="n">
-        <v>19.42</v>
+        <v>9.9</v>
       </c>
       <c r="D5" t="n">
-        <v>20.4</v>
+        <v>9.880000000000001</v>
+      </c>
+      <c r="E5" t="n">
+        <v>10.03</v>
+      </c>
+      <c r="F5" t="n">
+        <v>9.970000000000001</v>
+      </c>
+      <c r="G5" t="n">
+        <v>10.3</v>
       </c>
     </row>
     <row r="6">
@@ -709,13 +969,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20.16</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>19.32</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>20.52</v>
+        <v>9.82</v>
+      </c>
+      <c r="E6" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="F6" t="n">
+        <v>9.94</v>
+      </c>
+      <c r="G6" t="n">
+        <v>10.38</v>
       </c>
     </row>
     <row r="7">
@@ -723,13 +992,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20.19</v>
+        <v>10.32</v>
       </c>
       <c r="C7" t="n">
-        <v>19.22</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>20.58</v>
+        <v>9.529999999999999</v>
+      </c>
+      <c r="E7" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="F7" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="G7" t="n">
+        <v>10.42</v>
       </c>
     </row>
     <row r="8">
@@ -737,13 +1015,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>20.12</v>
+        <v>10.58</v>
       </c>
       <c r="C8" t="n">
-        <v>19.34</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>20.54</v>
+        <v>9.31</v>
+      </c>
+      <c r="E8" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="F8" t="n">
+        <v>9.890000000000001</v>
+      </c>
+      <c r="G8" t="n">
+        <v>10.44</v>
       </c>
     </row>
     <row r="9">
@@ -751,13 +1038,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>20.07</v>
+        <v>10.73</v>
       </c>
       <c r="C9" t="n">
-        <v>19.35</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>20.58</v>
+        <v>9.31</v>
+      </c>
+      <c r="E9" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="F9" t="n">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10.41</v>
       </c>
     </row>
     <row r="10">
@@ -765,13 +1061,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>19.99</v>
+        <v>10.85</v>
       </c>
       <c r="C10" t="n">
-        <v>19.36</v>
+        <v>9.59</v>
       </c>
       <c r="D10" t="n">
-        <v>20.65</v>
+        <v>9.56</v>
+      </c>
+      <c r="E10" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="F10" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="G10" t="n">
+        <v>10.27</v>
       </c>
     </row>
     <row r="11">
@@ -779,13 +1084,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>19.9</v>
+        <v>10.94</v>
       </c>
       <c r="C11" t="n">
-        <v>19.41</v>
+        <v>9.49</v>
       </c>
       <c r="D11" t="n">
-        <v>20.69</v>
+        <v>9.76</v>
+      </c>
+      <c r="E11" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="F11" t="n">
+        <v>9.66</v>
+      </c>
+      <c r="G11" t="n">
+        <v>10.16</v>
       </c>
     </row>
     <row r="12">
@@ -793,13 +1107,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>19.9</v>
+        <v>10.94</v>
       </c>
       <c r="C12" t="n">
-        <v>19.41</v>
+        <v>9.49</v>
       </c>
       <c r="D12" t="n">
-        <v>20.69</v>
+        <v>9.76</v>
+      </c>
+      <c r="E12" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="F12" t="n">
+        <v>9.66</v>
+      </c>
+      <c r="G12" t="n">
+        <v>10.16</v>
       </c>
     </row>
     <row r="13">
@@ -807,13 +1130,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>19.82</v>
+        <v>11.31</v>
       </c>
       <c r="C13" t="n">
-        <v>19.41</v>
+        <v>9.35</v>
       </c>
       <c r="D13" t="n">
-        <v>20.78</v>
+        <v>9.85</v>
+      </c>
+      <c r="E13" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="F13" t="n">
+        <v>9.49</v>
+      </c>
+      <c r="G13" t="n">
+        <v>10.02</v>
       </c>
     </row>
     <row r="14">
@@ -821,13 +1153,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>19.67</v>
+        <v>11.69</v>
       </c>
       <c r="C14" t="n">
-        <v>19.47</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>20.86</v>
+        <v>9.859999999999999</v>
+      </c>
+      <c r="E14" t="n">
+        <v>9.960000000000001</v>
+      </c>
+      <c r="F14" t="n">
+        <v>9.43</v>
+      </c>
+      <c r="G14" t="n">
+        <v>9.84</v>
       </c>
     </row>
     <row r="15">
@@ -835,13 +1176,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>19.59</v>
+        <v>13.07</v>
       </c>
       <c r="C15" t="n">
-        <v>19.83</v>
+        <v>9.09</v>
       </c>
       <c r="D15" t="n">
-        <v>20.58</v>
+        <v>8.94</v>
+      </c>
+      <c r="E15" t="n">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="F15" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="G15" t="n">
+        <v>9.66</v>
       </c>
     </row>
     <row r="16">
@@ -849,13 +1199,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>19.57</v>
+        <v>14.38</v>
       </c>
       <c r="C16" t="n">
-        <v>20.2</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>20.23</v>
+        <v>7.99</v>
+      </c>
+      <c r="E16" t="n">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="F16" t="n">
+        <v>9.59</v>
+      </c>
+      <c r="G16" t="n">
+        <v>9.359999999999999</v>
       </c>
     </row>
     <row r="17">
@@ -863,13 +1222,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>19.56</v>
+        <v>15.61</v>
       </c>
       <c r="C17" t="n">
-        <v>20.58</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>19.86</v>
+        <v>8.039999999999999</v>
+      </c>
+      <c r="E17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="F17" t="n">
+        <v>9.74</v>
+      </c>
+      <c r="G17" t="n">
+        <v>8.73</v>
       </c>
     </row>
     <row r="18">
@@ -877,13 +1245,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>19.37</v>
+        <v>16.65</v>
       </c>
       <c r="C18" t="n">
-        <v>21.13</v>
+        <v>9.81</v>
       </c>
       <c r="D18" t="n">
-        <v>19.5</v>
+        <v>8.27</v>
+      </c>
+      <c r="E18" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="F18" t="n">
+        <v>9.890000000000001</v>
+      </c>
+      <c r="G18" t="n">
+        <v>8.1</v>
       </c>
     </row>
     <row r="19">
@@ -891,13 +1268,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>19.25</v>
+        <v>17.67</v>
       </c>
       <c r="C19" t="n">
-        <v>21.5</v>
+        <v>10.28</v>
       </c>
       <c r="D19" t="n">
-        <v>19.25</v>
+        <v>8.5</v>
+      </c>
+      <c r="E19" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="G19" t="n">
+        <v>7.44</v>
       </c>
     </row>
     <row r="20">
@@ -905,13 +1291,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>19.13</v>
+        <v>18.32</v>
       </c>
       <c r="C20" t="n">
-        <v>21.93</v>
+        <v>10.79</v>
       </c>
       <c r="D20" t="n">
-        <v>18.94</v>
+        <v>8.609999999999999</v>
+      </c>
+      <c r="E20" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="F20" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="G20" t="n">
+        <v>7.26</v>
       </c>
     </row>
     <row r="21">
@@ -919,13 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>19.11</v>
+        <v>18.97</v>
       </c>
       <c r="C21" t="n">
-        <v>22.31</v>
+        <v>11.33</v>
       </c>
       <c r="D21" t="n">
-        <v>18.58</v>
+        <v>8.48</v>
+      </c>
+      <c r="E21" t="n">
+        <v>8.77</v>
+      </c>
+      <c r="F21" t="n">
+        <v>10.28</v>
+      </c>
+      <c r="G21" t="n">
+        <v>7.18</v>
       </c>
     </row>
     <row r="22">
@@ -933,13 +1337,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>19.18</v>
+        <v>19.62</v>
       </c>
       <c r="C22" t="n">
-        <v>22.64</v>
+        <v>11.78</v>
       </c>
       <c r="D22" t="n">
-        <v>18.18</v>
+        <v>8.35</v>
+      </c>
+      <c r="E22" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="F22" t="n">
+        <v>10.51</v>
+      </c>
+      <c r="G22" t="n">
+        <v>7.2</v>
       </c>
     </row>
     <row r="23">
@@ -947,13 +1360,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>19.22</v>
+        <v>20.09</v>
       </c>
       <c r="C23" t="n">
-        <v>22.99</v>
+        <v>12.23</v>
       </c>
       <c r="D23" t="n">
-        <v>17.79</v>
+        <v>8.25</v>
+      </c>
+      <c r="E23" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="F23" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="G23" t="n">
+        <v>7.29</v>
       </c>
     </row>
     <row r="24">
@@ -961,13 +1383,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>19.28</v>
+        <v>20.55</v>
       </c>
       <c r="C24" t="n">
-        <v>23.32</v>
+        <v>12.67</v>
       </c>
       <c r="D24" t="n">
-        <v>17.4</v>
+        <v>8.18</v>
+      </c>
+      <c r="E24" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="F24" t="n">
+        <v>10.89</v>
+      </c>
+      <c r="G24" t="n">
+        <v>7.37</v>
       </c>
     </row>
     <row r="25">
@@ -975,13 +1406,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>19.37</v>
+        <v>20.01</v>
       </c>
       <c r="C25" t="n">
-        <v>23.39</v>
+        <v>13.08</v>
       </c>
       <c r="D25" t="n">
-        <v>17.24</v>
+        <v>9.06</v>
+      </c>
+      <c r="E25" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="F25" t="n">
+        <v>11.02</v>
+      </c>
+      <c r="G25" t="n">
+        <v>7.44</v>
       </c>
     </row>
     <row r="26">
@@ -989,13 +1429,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>19.43</v>
+        <v>19.54</v>
       </c>
       <c r="C26" t="n">
-        <v>23.45</v>
+        <v>13.49</v>
       </c>
       <c r="D26" t="n">
-        <v>17.12</v>
+        <v>9.99</v>
+      </c>
+      <c r="E26" t="n">
+        <v>8.56</v>
+      </c>
+      <c r="F26" t="n">
+        <v>10.88</v>
+      </c>
+      <c r="G26" t="n">
+        <v>7.6</v>
       </c>
     </row>
     <row r="27">
@@ -1003,13 +1452,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>19.45</v>
+        <v>19.13</v>
       </c>
       <c r="C27" t="n">
-        <v>23.54</v>
+        <v>13.38</v>
       </c>
       <c r="D27" t="n">
-        <v>17.01</v>
+        <v>9.92</v>
+      </c>
+      <c r="E27" t="n">
+        <v>8.720000000000001</v>
+      </c>
+      <c r="F27" t="n">
+        <v>10.81</v>
+      </c>
+      <c r="G27" t="n">
+        <v>8.1</v>
       </c>
     </row>
     <row r="28">
@@ -1017,13 +1475,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>19.63</v>
+        <v>18.7</v>
       </c>
       <c r="C28" t="n">
-        <v>23.47</v>
+        <v>13.26</v>
       </c>
       <c r="D28" t="n">
-        <v>16.9</v>
+        <v>9.9</v>
+      </c>
+      <c r="E28" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="F28" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="G28" t="n">
+        <v>8.59</v>
       </c>
     </row>
     <row r="29">
@@ -1031,13 +1498,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>19.75</v>
+        <v>18.31</v>
       </c>
       <c r="C29" t="n">
-        <v>23.45</v>
+        <v>13.12</v>
       </c>
       <c r="D29" t="n">
-        <v>16.8</v>
+        <v>9.859999999999999</v>
+      </c>
+      <c r="E29" t="n">
+        <v>9.06</v>
+      </c>
+      <c r="F29" t="n">
+        <v>10.61</v>
+      </c>
+      <c r="G29" t="n">
+        <v>9.130000000000001</v>
       </c>
     </row>
     <row r="30">
@@ -1045,13 +1521,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>19.77</v>
+        <v>18.31</v>
       </c>
       <c r="C30" t="n">
-        <v>23.22</v>
+        <v>12.98</v>
       </c>
       <c r="D30" t="n">
-        <v>17.01</v>
+        <v>9.56</v>
+      </c>
+      <c r="E30" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="F30" t="n">
+        <v>10.81</v>
+      </c>
+      <c r="G30" t="n">
+        <v>9.210000000000001</v>
       </c>
     </row>
     <row r="31">
@@ -1059,13 +1544,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>19.77</v>
+        <v>18.31</v>
       </c>
       <c r="C31" t="n">
-        <v>23.03</v>
+        <v>12.87</v>
       </c>
       <c r="D31" t="n">
-        <v>17.2</v>
+        <v>9.27</v>
+      </c>
+      <c r="E31" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="F31" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="G31" t="n">
+        <v>9.289999999999999</v>
       </c>
     </row>
     <row r="32">
@@ -1073,13 +1567,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>19.76</v>
+        <v>18.31</v>
       </c>
       <c r="C32" t="n">
-        <v>22.84</v>
+        <v>13.55</v>
       </c>
       <c r="D32" t="n">
-        <v>17.4</v>
+        <v>8.98</v>
+      </c>
+      <c r="E32" t="n">
+        <v>9.16</v>
+      </c>
+      <c r="F32" t="n">
+        <v>11.14</v>
+      </c>
+      <c r="G32" t="n">
+        <v>8.960000000000001</v>
       </c>
     </row>
     <row r="33">
@@ -1087,13 +1590,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>19.74</v>
+        <v>18.31</v>
       </c>
       <c r="C33" t="n">
-        <v>22.72</v>
+        <v>14.23</v>
       </c>
       <c r="D33" t="n">
-        <v>17.54</v>
+        <v>8.68</v>
+      </c>
+      <c r="E33" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="F33" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="G33" t="n">
+        <v>8.619999999999999</v>
       </c>
     </row>
     <row r="34">
@@ -1101,13 +1613,28 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>19.68</v>
+        <v>18.31</v>
       </c>
       <c r="C34" t="n">
-        <v>22.61</v>
+        <v>14.91</v>
       </c>
       <c r="D34" t="n">
-        <v>17.71</v>
+        <v>8.35</v>
+      </c>
+      <c r="E34" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="F34" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="G34" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+      <c r="I34" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="35">
@@ -1115,13 +1642,28 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>19.59</v>
+        <v>18.3</v>
       </c>
       <c r="C35" t="n">
-        <v>22.56</v>
+        <v>16.23</v>
       </c>
       <c r="D35" t="n">
-        <v>17.85</v>
+        <v>7.72</v>
+      </c>
+      <c r="E35" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="F35" t="n">
+        <v>12.55</v>
+      </c>
+      <c r="G35" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+      <c r="I35" t="n">
+        <v>9.75</v>
       </c>
     </row>
     <row r="36">
@@ -1129,13 +1671,28 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>19.44</v>
+        <v>18.04</v>
       </c>
       <c r="C36" t="n">
-        <v>22.56</v>
+        <v>17.55</v>
       </c>
       <c r="D36" t="n">
-        <v>18</v>
+        <v>7.05</v>
+      </c>
+      <c r="E36" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="F36" t="n">
+        <v>13.09</v>
+      </c>
+      <c r="G36" t="n">
+        <v>6.96</v>
+      </c>
+      <c r="H36" t="n">
+        <v>9.866666666666667</v>
+      </c>
+      <c r="I36" t="n">
+        <v>9.533333333333333</v>
       </c>
     </row>
     <row r="37">
@@ -1143,13 +1700,28 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>19.31</v>
+        <v>17.74</v>
       </c>
       <c r="C37" t="n">
-        <v>22.54</v>
+        <v>18.84</v>
       </c>
       <c r="D37" t="n">
-        <v>18.15</v>
+        <v>6.76</v>
+      </c>
+      <c r="E37" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="F37" t="n">
+        <v>13.59</v>
+      </c>
+      <c r="G37" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="H37" t="n">
+        <v>9.725</v>
+      </c>
+      <c r="I37" t="n">
+        <v>9.175000000000001</v>
       </c>
     </row>
     <row r="38">
@@ -1157,13 +1729,28 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>18.58</v>
+        <v>17.88</v>
       </c>
       <c r="C38" t="n">
-        <v>22.54</v>
+        <v>20.13</v>
       </c>
       <c r="D38" t="n">
-        <v>18.88</v>
+        <v>6.4</v>
+      </c>
+      <c r="E38" t="n">
+        <v>6.76</v>
+      </c>
+      <c r="F38" t="n">
+        <v>14.04</v>
+      </c>
+      <c r="G38" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H38" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="I38" t="n">
+        <v>8.940000000000001</v>
       </c>
     </row>
     <row r="39">
@@ -1171,13 +1758,28 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>17.94</v>
+        <v>18.14</v>
       </c>
       <c r="C39" t="n">
-        <v>22.52</v>
+        <v>21.45</v>
       </c>
       <c r="D39" t="n">
-        <v>19.54</v>
+        <v>5.99</v>
+      </c>
+      <c r="E39" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="F39" t="n">
+        <v>14.49</v>
+      </c>
+      <c r="G39" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="H39" t="n">
+        <v>9.366666666666665</v>
+      </c>
+      <c r="I39" t="n">
+        <v>7.725000000000001</v>
       </c>
     </row>
     <row r="40">
@@ -1185,13 +1787,28 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>17.39</v>
+        <v>19.26</v>
       </c>
       <c r="C40" t="n">
-        <v>22.7</v>
+        <v>22.76</v>
       </c>
       <c r="D40" t="n">
-        <v>19.91</v>
+        <v>5.85</v>
+      </c>
+      <c r="E40" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="F40" t="n">
+        <v>14.65</v>
+      </c>
+      <c r="G40" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="H40" t="n">
+        <v>9.185714285714287</v>
+      </c>
+      <c r="I40" t="n">
+        <v>6.857142857142857</v>
       </c>
     </row>
     <row r="41">
@@ -1199,13 +1816,28 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>16.79</v>
+        <v>19.93</v>
       </c>
       <c r="C41" t="n">
-        <v>22.89</v>
+        <v>24.04</v>
       </c>
       <c r="D41" t="n">
-        <v>20.32</v>
+        <v>5.65</v>
+      </c>
+      <c r="E41" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="F41" t="n">
+        <v>14.82</v>
+      </c>
+      <c r="G41" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="H41" t="n">
+        <v>10.0875</v>
+      </c>
+      <c r="I41" t="n">
+        <v>6.20625</v>
       </c>
     </row>
     <row r="42">
@@ -1213,13 +1845,28 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>17.12</v>
+        <v>20.17</v>
       </c>
       <c r="C42" t="n">
-        <v>23.06</v>
+        <v>24.57</v>
       </c>
       <c r="D42" t="n">
-        <v>20.82</v>
+        <v>5.28</v>
+      </c>
+      <c r="E42" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="F42" t="n">
+        <v>15.04</v>
+      </c>
+      <c r="G42" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="H42" t="n">
+        <v>10.72222222222222</v>
+      </c>
+      <c r="I42" t="n">
+        <v>5.794444444444444</v>
       </c>
     </row>
     <row r="43">
@@ -1227,13 +1874,31 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>17.47</v>
+        <v>20.5</v>
       </c>
       <c r="C43" t="n">
-        <v>23.15</v>
+        <v>25.05</v>
       </c>
       <c r="D43" t="n">
-        <v>21.38</v>
+        <v>4.96</v>
+      </c>
+      <c r="E43" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="F43" t="n">
+        <v>15.12</v>
+      </c>
+      <c r="G43" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="H43" t="n">
+        <v>12.122</v>
+      </c>
+      <c r="I43" t="n">
+        <v>5.395</v>
+      </c>
+      <c r="J43" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="44">
@@ -1241,13 +1906,31 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>17.75</v>
+        <v>20.83</v>
       </c>
       <c r="C44" t="n">
-        <v>23.23</v>
+        <v>25.52</v>
       </c>
       <c r="D44" t="n">
-        <v>22.01</v>
+        <v>4.34</v>
+      </c>
+      <c r="E44" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="F44" t="n">
+        <v>14.41</v>
+      </c>
+      <c r="G44" t="n">
+        <v>8.609999999999999</v>
+      </c>
+      <c r="H44" t="n">
+        <v>12.122</v>
+      </c>
+      <c r="I44" t="n">
+        <v>5.395</v>
+      </c>
+      <c r="J44" t="n">
+        <v>9.949999999999999</v>
       </c>
     </row>
     <row r="45">
@@ -1255,13 +1938,31 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>18.1</v>
+        <v>21.46</v>
       </c>
       <c r="C45" t="n">
-        <v>23.21</v>
+        <v>25.4</v>
       </c>
       <c r="D45" t="n">
-        <v>22.69</v>
+        <v>4.02</v>
+      </c>
+      <c r="E45" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="F45" t="n">
+        <v>13.71</v>
+      </c>
+      <c r="G45" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="H45" t="n">
+        <v>13.315</v>
+      </c>
+      <c r="I45" t="n">
+        <v>4.575</v>
+      </c>
+      <c r="J45" t="n">
+        <v>9.916666666666666</v>
       </c>
     </row>
     <row r="46">
@@ -1269,13 +1970,31 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>18.29</v>
+        <v>22.33</v>
       </c>
       <c r="C46" t="n">
-        <v>23.1</v>
+        <v>25.26</v>
       </c>
       <c r="D46" t="n">
-        <v>23.6</v>
+        <v>4.74</v>
+      </c>
+      <c r="E46" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="F46" t="n">
+        <v>13.06</v>
+      </c>
+      <c r="G46" t="n">
+        <v>10.61</v>
+      </c>
+      <c r="H46" t="n">
+        <v>14.498</v>
+      </c>
+      <c r="I46" t="n">
+        <v>3.795</v>
+      </c>
+      <c r="J46" t="n">
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="47">
@@ -1283,13 +2002,31 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>18.47</v>
+        <v>23.25</v>
       </c>
       <c r="C47" t="n">
-        <v>22.98</v>
+        <v>25.12</v>
       </c>
       <c r="D47" t="n">
-        <v>24.56</v>
+        <v>5.01</v>
+      </c>
+      <c r="E47" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="F47" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="G47" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="H47" t="n">
+        <v>15.716</v>
+      </c>
+      <c r="I47" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="J47" t="n">
+        <v>9.790000000000001</v>
       </c>
     </row>
     <row r="48">
@@ -1297,13 +2034,31 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>19.23</v>
+        <v>23.73</v>
       </c>
       <c r="C48" t="n">
-        <v>22.86</v>
+        <v>24.99</v>
       </c>
       <c r="D48" t="n">
-        <v>24.91</v>
+        <v>5.23</v>
+      </c>
+      <c r="E48" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="F48" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="G48" t="n">
+        <v>13</v>
+      </c>
+      <c r="H48" t="n">
+        <v>16.964</v>
+      </c>
+      <c r="I48" t="n">
+        <v>3.015</v>
+      </c>
+      <c r="J48" t="n">
+        <v>9.85</v>
       </c>
     </row>
     <row r="49">
@@ -1311,13 +2066,31 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>19.89</v>
+        <v>23.85</v>
       </c>
       <c r="C49" t="n">
-        <v>22.88</v>
+        <v>24.86</v>
       </c>
       <c r="D49" t="n">
-        <v>25.23</v>
+        <v>5.78</v>
+      </c>
+      <c r="E49" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="F49" t="n">
+        <v>11.43</v>
+      </c>
+      <c r="G49" t="n">
+        <v>13.27</v>
+      </c>
+      <c r="H49" t="n">
+        <v>18.272</v>
+      </c>
+      <c r="I49" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="J49" t="n">
+        <v>9.892857142857142</v>
       </c>
     </row>
     <row r="50">
@@ -1325,13 +2098,31 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>20.54</v>
+        <v>23.2</v>
       </c>
       <c r="C50" t="n">
-        <v>22.94</v>
+        <v>24.71</v>
       </c>
       <c r="D50" t="n">
-        <v>25.52</v>
+        <v>6.33</v>
+      </c>
+      <c r="E50" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="F50" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="G50" t="n">
+        <v>13.61</v>
+      </c>
+      <c r="H50" t="n">
+        <v>19.58</v>
+      </c>
+      <c r="I50" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="J50" t="n">
+        <v>9.925000000000001</v>
       </c>
     </row>
     <row r="51">
@@ -1339,13 +2130,31 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>21.2</v>
+        <v>23</v>
       </c>
       <c r="C51" t="n">
-        <v>23.02</v>
+        <v>24.46</v>
       </c>
       <c r="D51" t="n">
-        <v>25.78</v>
+        <v>6.92</v>
+      </c>
+      <c r="E51" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="F51" t="n">
+        <v>10.44</v>
+      </c>
+      <c r="G51" t="n">
+        <v>13.39</v>
+      </c>
+      <c r="H51" t="n">
+        <v>20.918</v>
+      </c>
+      <c r="I51" t="n">
+        <v>3.095</v>
+      </c>
+      <c r="J51" t="n">
+        <v>9.949999999999999</v>
       </c>
     </row>
     <row r="52">
@@ -1353,13 +2162,31 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>20.9</v>
+        <v>23.83</v>
       </c>
       <c r="C52" t="n">
-        <v>23.11</v>
+        <v>24.29</v>
       </c>
       <c r="D52" t="n">
-        <v>25.99</v>
+        <v>7.68</v>
+      </c>
+      <c r="E52" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="F52" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="G52" t="n">
+        <v>13.09</v>
+      </c>
+      <c r="H52" t="n">
+        <v>21.426</v>
+      </c>
+      <c r="I52" t="n">
+        <v>3.359999999999999</v>
+      </c>
+      <c r="J52" t="n">
+        <v>9.959999999999999</v>
       </c>
     </row>
     <row r="53">
@@ -1367,13 +2194,31 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>20.18</v>
+        <v>24.56</v>
       </c>
       <c r="C53" t="n">
-        <v>23.62</v>
+        <v>24.17</v>
       </c>
       <c r="D53" t="n">
-        <v>26.2</v>
+        <v>8.44</v>
+      </c>
+      <c r="E53" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="F53" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G53" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="H53" t="n">
+        <v>21.934</v>
+      </c>
+      <c r="I53" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="J53" t="n">
+        <v>9.959999999999999</v>
       </c>
     </row>
     <row r="54">
@@ -1381,13 +2226,31 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>19.44</v>
+        <v>24.94</v>
       </c>
       <c r="C54" t="n">
-        <v>24.31</v>
+        <v>24.05</v>
       </c>
       <c r="D54" t="n">
-        <v>26.25</v>
+        <v>10.92</v>
+      </c>
+      <c r="E54" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="F54" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G54" t="n">
+        <v>11.98</v>
+      </c>
+      <c r="H54" t="n">
+        <v>21.54</v>
+      </c>
+      <c r="I54" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="J54" t="n">
+        <v>8.959999999999999</v>
       </c>
     </row>
     <row r="55">
@@ -1395,13 +2258,31 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>18.67</v>
+        <v>25.03</v>
       </c>
       <c r="C55" t="n">
-        <v>25.04</v>
+        <v>23.86</v>
       </c>
       <c r="D55" t="n">
-        <v>26.29</v>
+        <v>13.32</v>
+      </c>
+      <c r="E55" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="F55" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G55" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="H55" t="n">
+        <v>21.42</v>
+      </c>
+      <c r="I55" t="n">
+        <v>5.080000000000001</v>
+      </c>
+      <c r="J55" t="n">
+        <v>8.969999999999999</v>
       </c>
     </row>
     <row r="56">
@@ -1409,13 +2290,31 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>18.05</v>
+        <v>24.8</v>
       </c>
       <c r="C56" t="n">
-        <v>25.86</v>
+        <v>23.67</v>
       </c>
       <c r="D56" t="n">
-        <v>26.09</v>
+        <v>16.05</v>
+      </c>
+      <c r="E56" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="F56" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G56" t="n">
+        <v>10.23</v>
+      </c>
+      <c r="H56" t="n">
+        <v>20.385</v>
+      </c>
+      <c r="I56" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="J56" t="n">
+        <v>8.93</v>
       </c>
     </row>
     <row r="57">
@@ -1423,13 +2322,31 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>17.55</v>
+        <v>24.56</v>
       </c>
       <c r="C57" t="n">
-        <v>26.67</v>
+        <v>23.49</v>
       </c>
       <c r="D57" t="n">
-        <v>25.79</v>
+        <v>18.86</v>
+      </c>
+      <c r="E57" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="F57" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G57" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="H57" t="n">
+        <v>19.355</v>
+      </c>
+      <c r="I57" t="n">
+        <v>5.924999999999999</v>
+      </c>
+      <c r="J57" t="n">
+        <v>9.005000000000001</v>
       </c>
     </row>
     <row r="58">
@@ -1437,13 +2354,31 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>17.05</v>
+        <v>24.27</v>
       </c>
       <c r="C58" t="n">
-        <v>27.36</v>
+        <v>23.26</v>
       </c>
       <c r="D58" t="n">
-        <v>25.59</v>
+        <v>21.68</v>
+      </c>
+      <c r="E58" t="n">
+        <v>10.87</v>
+      </c>
+      <c r="F58" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G58" t="n">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="H58" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="I58" t="n">
+        <v>7.164999999999999</v>
+      </c>
+      <c r="J58" t="n">
+        <v>8.81</v>
       </c>
     </row>
     <row r="59">
@@ -1451,13 +2386,31 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>16.45</v>
+        <v>24.21</v>
       </c>
       <c r="C59" t="n">
-        <v>27.94</v>
+        <v>23.03</v>
       </c>
       <c r="D59" t="n">
-        <v>25.62</v>
+        <v>24.23</v>
+      </c>
+      <c r="E59" t="n">
+        <v>12.37</v>
+      </c>
+      <c r="F59" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G59" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="H59" t="n">
+        <v>16.245</v>
+      </c>
+      <c r="I59" t="n">
+        <v>8.425000000000001</v>
+      </c>
+      <c r="J59" t="n">
+        <v>8.665000000000003</v>
       </c>
     </row>
     <row r="60">
@@ -1465,13 +2418,31 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>15.84</v>
+        <v>23.8</v>
       </c>
       <c r="C60" t="n">
-        <v>28.46</v>
+        <v>22.71</v>
       </c>
       <c r="D60" t="n">
-        <v>25.7</v>
+        <v>26.23</v>
+      </c>
+      <c r="E60" t="n">
+        <v>13.32</v>
+      </c>
+      <c r="F60" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G60" t="n">
+        <v>10.51</v>
+      </c>
+      <c r="H60" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="I60" t="n">
+        <v>9.703999999999999</v>
+      </c>
+      <c r="J60" t="n">
+        <v>8.52</v>
       </c>
     </row>
     <row r="61">
@@ -1479,13 +2450,31 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>15.25</v>
+        <v>23.4</v>
       </c>
       <c r="C61" t="n">
-        <v>28.95</v>
+        <v>22.49</v>
       </c>
       <c r="D61" t="n">
-        <v>25.79</v>
+        <v>28.29</v>
+      </c>
+      <c r="E61" t="n">
+        <v>14.26</v>
+      </c>
+      <c r="F61" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G61" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="H61" t="n">
+        <v>13.175</v>
+      </c>
+      <c r="I61" t="n">
+        <v>10.908</v>
+      </c>
+      <c r="J61" t="n">
+        <v>8.355</v>
       </c>
     </row>
     <row r="62">
@@ -1493,13 +2482,31 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>14.58</v>
+        <v>22.24</v>
       </c>
       <c r="C62" t="n">
-        <v>29.45</v>
+        <v>22.27</v>
       </c>
       <c r="D62" t="n">
-        <v>25.96</v>
+        <v>30.31</v>
+      </c>
+      <c r="E62" t="n">
+        <v>15.55</v>
+      </c>
+      <c r="F62" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G62" t="n">
+        <v>12.94</v>
+      </c>
+      <c r="H62" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="I62" t="n">
+        <v>12.392</v>
+      </c>
+      <c r="J62" t="n">
+        <v>8.139999999999999</v>
       </c>
     </row>
     <row r="63">
@@ -1507,13 +2514,31 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>14.33</v>
+        <v>20.11</v>
       </c>
       <c r="C63" t="n">
-        <v>29.48</v>
+        <v>22.05</v>
       </c>
       <c r="D63" t="n">
-        <v>26.18</v>
+        <v>33.52</v>
+      </c>
+      <c r="E63" t="n">
+        <v>15.84</v>
+      </c>
+      <c r="F63" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G63" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="H63" t="n">
+        <v>10.185</v>
+      </c>
+      <c r="I63" t="n">
+        <v>13.356</v>
+      </c>
+      <c r="J63" t="n">
+        <v>7.935</v>
       </c>
     </row>
     <row r="64">
@@ -1521,13 +2546,31 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>14.17</v>
+        <v>18.76</v>
       </c>
       <c r="C64" t="n">
-        <v>29.38</v>
+        <v>21.82</v>
       </c>
       <c r="D64" t="n">
-        <v>26.45</v>
+        <v>35.34</v>
+      </c>
+      <c r="E64" t="n">
+        <v>15.88</v>
+      </c>
+      <c r="F64" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G64" t="n">
+        <v>15.97</v>
+      </c>
+      <c r="H64" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="I64" t="n">
+        <v>14.32</v>
+      </c>
+      <c r="J64" t="n">
+        <v>8.735000000000001</v>
       </c>
     </row>
     <row r="65">
@@ -1535,13 +2578,31 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>13.94</v>
+        <v>17.41</v>
       </c>
       <c r="C65" t="n">
-        <v>29.49</v>
+        <v>21.67</v>
       </c>
       <c r="D65" t="n">
-        <v>26.57</v>
+        <v>37.24</v>
+      </c>
+      <c r="E65" t="n">
+        <v>14.93</v>
+      </c>
+      <c r="F65" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G65" t="n">
+        <v>18.29</v>
+      </c>
+      <c r="H65" t="n">
+        <v>7.280000000000001</v>
+      </c>
+      <c r="I65" t="n">
+        <v>15.294</v>
+      </c>
+      <c r="J65" t="n">
+        <v>8.535</v>
       </c>
     </row>
     <row r="66">
@@ -1549,13 +2610,31 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>13.71</v>
+        <v>15.95</v>
       </c>
       <c r="C66" t="n">
-        <v>29.73</v>
+        <v>21.51</v>
       </c>
       <c r="D66" t="n">
-        <v>26.56</v>
+        <v>37.75</v>
+      </c>
+      <c r="E66" t="n">
+        <v>13.97</v>
+      </c>
+      <c r="F66" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G66" t="n">
+        <v>20.17</v>
+      </c>
+      <c r="H66" t="n">
+        <v>6.755000000000001</v>
+      </c>
+      <c r="I66" t="n">
+        <v>16.198</v>
+      </c>
+      <c r="J66" t="n">
+        <v>8.34</v>
       </c>
     </row>
     <row r="67">
@@ -1563,13 +2642,31 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>13.38</v>
+        <v>14.54</v>
       </c>
       <c r="C67" t="n">
-        <v>29.99</v>
+        <v>21.35</v>
       </c>
       <c r="D67" t="n">
-        <v>26.63</v>
+        <v>38.19</v>
+      </c>
+      <c r="E67" t="n">
+        <v>13.08</v>
+      </c>
+      <c r="F67" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G67" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="H67" t="n">
+        <v>6.167000000000002</v>
+      </c>
+      <c r="I67" t="n">
+        <v>17.107</v>
+      </c>
+      <c r="J67" t="n">
+        <v>8.1</v>
       </c>
     </row>
     <row r="68">
@@ -1577,13 +2674,31 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>13.03</v>
+        <v>13.14</v>
       </c>
       <c r="C68" t="n">
-        <v>30.39</v>
+        <v>21.23</v>
       </c>
       <c r="D68" t="n">
-        <v>26.58</v>
+        <v>38.67</v>
+      </c>
+      <c r="E68" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F68" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G68" t="n">
+        <v>23.99</v>
+      </c>
+      <c r="H68" t="n">
+        <v>6.104000000000002</v>
+      </c>
+      <c r="I68" t="n">
+        <v>17.896</v>
+      </c>
+      <c r="J68" t="n">
+        <v>7.325</v>
       </c>
     </row>
     <row r="69">
@@ -1591,13 +2706,31 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>12.84</v>
+        <v>11.69</v>
       </c>
       <c r="C69" t="n">
-        <v>30.82</v>
+        <v>21.11</v>
       </c>
       <c r="D69" t="n">
-        <v>26.34</v>
+        <v>39.15</v>
+      </c>
+      <c r="E69" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="F69" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G69" t="n">
+        <v>25.91</v>
+      </c>
+      <c r="H69" t="n">
+        <v>5.996000000000002</v>
+      </c>
+      <c r="I69" t="n">
+        <v>18.64</v>
+      </c>
+      <c r="J69" t="n">
+        <v>6.645</v>
       </c>
     </row>
     <row r="70">
@@ -1605,13 +2738,31 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>12.67</v>
+        <v>10.43</v>
       </c>
       <c r="C70" t="n">
-        <v>31.28</v>
+        <v>21.03</v>
       </c>
       <c r="D70" t="n">
-        <v>26.05</v>
+        <v>40.44</v>
+      </c>
+      <c r="E70" t="n">
+        <v>11.29</v>
+      </c>
+      <c r="F70" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G70" t="n">
+        <v>26.24</v>
+      </c>
+      <c r="H70" t="n">
+        <v>5.828000000000001</v>
+      </c>
+      <c r="I70" t="n">
+        <v>19.435</v>
+      </c>
+      <c r="J70" t="n">
+        <v>5.965</v>
       </c>
     </row>
     <row r="71">
@@ -1619,13 +2770,31 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>12.54</v>
+        <v>9.16</v>
       </c>
       <c r="C71" t="n">
-        <v>31.75</v>
+        <v>20.86</v>
       </c>
       <c r="D71" t="n">
-        <v>25.72</v>
+        <v>41.66</v>
+      </c>
+      <c r="E71" t="n">
+        <v>10.88</v>
+      </c>
+      <c r="F71" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G71" t="n">
+        <v>26.61</v>
+      </c>
+      <c r="H71" t="n">
+        <v>5.650000000000001</v>
+      </c>
+      <c r="I71" t="n">
+        <v>20.22</v>
+      </c>
+      <c r="J71" t="n">
+        <v>5.617</v>
       </c>
     </row>
     <row r="72">
@@ -1633,13 +2802,31 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>12.53</v>
+        <v>8.73</v>
       </c>
       <c r="C72" t="n">
-        <v>32.2</v>
+        <v>20.65</v>
       </c>
       <c r="D72" t="n">
-        <v>25.27</v>
+        <v>42.9</v>
+      </c>
+      <c r="E72" t="n">
+        <v>10.43</v>
+      </c>
+      <c r="F72" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G72" t="n">
+        <v>26.92</v>
+      </c>
+      <c r="H72" t="n">
+        <v>5.027000000000001</v>
+      </c>
+      <c r="I72" t="n">
+        <v>20.68</v>
+      </c>
+      <c r="J72" t="n">
+        <v>5.319</v>
       </c>
     </row>
     <row r="73">
@@ -1647,13 +2834,31 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>12.54</v>
+        <v>9.26</v>
       </c>
       <c r="C73" t="n">
-        <v>32.65</v>
+        <v>20.65</v>
       </c>
       <c r="D73" t="n">
-        <v>24.8</v>
+        <v>42.85</v>
+      </c>
+      <c r="E73" t="n">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="F73" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G73" t="n">
+        <v>27.28</v>
+      </c>
+      <c r="H73" t="n">
+        <v>5.404000000000001</v>
+      </c>
+      <c r="I73" t="n">
+        <v>21.29</v>
+      </c>
+      <c r="J73" t="n">
+        <v>5.020999999999999</v>
       </c>
     </row>
     <row r="74">
@@ -1661,13 +2866,31 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>12.88</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>32.93</v>
+        <v>20.65</v>
       </c>
       <c r="D74" t="n">
-        <v>24.19</v>
+        <v>42.82</v>
+      </c>
+      <c r="E74" t="n">
+        <v>9.58</v>
+      </c>
+      <c r="F74" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G74" t="n">
+        <v>28.04</v>
+      </c>
+      <c r="H74" t="n">
+        <v>5.501</v>
+      </c>
+      <c r="I74" t="n">
+        <v>21.89</v>
+      </c>
+      <c r="J74" t="n">
+        <v>4.723</v>
       </c>
     </row>
     <row r="75">
@@ -1675,13 +2898,31 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>13.27</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>32.89</v>
+        <v>20.66</v>
       </c>
       <c r="D75" t="n">
-        <v>23.85</v>
+        <v>43.1</v>
+      </c>
+      <c r="E75" t="n">
+        <v>9.27</v>
+      </c>
+      <c r="F75" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G75" t="n">
+        <v>28.69</v>
+      </c>
+      <c r="H75" t="n">
+        <v>5.518000000000001</v>
+      </c>
+      <c r="I75" t="n">
+        <v>22.39</v>
+      </c>
+      <c r="J75" t="n">
+        <v>6.415000000000001</v>
       </c>
     </row>
     <row r="76">
@@ -1689,13 +2930,31 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>13.68</v>
+        <v>10</v>
       </c>
       <c r="C76" t="n">
-        <v>32.65</v>
+        <v>20.66</v>
       </c>
       <c r="D76" t="n">
-        <v>23.67</v>
+        <v>43.44</v>
+      </c>
+      <c r="E76" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="F76" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G76" t="n">
+        <v>28.76</v>
+      </c>
+      <c r="H76" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="I76" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="J76" t="n">
+        <v>7.827000000000001</v>
       </c>
     </row>
     <row r="77">
@@ -1703,13 +2962,31 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>13.94</v>
+        <v>10.48</v>
       </c>
       <c r="C77" t="n">
-        <v>32.43</v>
+        <v>20.67</v>
       </c>
       <c r="D77" t="n">
-        <v>23.63</v>
+        <v>43.85</v>
+      </c>
+      <c r="E77" t="n">
+        <v>8.52</v>
+      </c>
+      <c r="F77" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G77" t="n">
+        <v>28.71</v>
+      </c>
+      <c r="H77" t="n">
+        <v>5.515000000000001</v>
+      </c>
+      <c r="I77" t="n">
+        <v>24.935</v>
+      </c>
+      <c r="J77" t="n">
+        <v>8.818999999999999</v>
       </c>
     </row>
     <row r="78">
@@ -1717,13 +2994,31 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>14.2</v>
+        <v>11.03</v>
       </c>
       <c r="C78" t="n">
-        <v>32.45</v>
+        <v>20.62</v>
       </c>
       <c r="D78" t="n">
-        <v>23.35</v>
+        <v>44.25</v>
+      </c>
+      <c r="E78" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="F78" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G78" t="n">
+        <v>28.71</v>
+      </c>
+      <c r="H78" t="n">
+        <v>5.535</v>
+      </c>
+      <c r="I78" t="n">
+        <v>25.418</v>
+      </c>
+      <c r="J78" t="n">
+        <v>10.506</v>
       </c>
     </row>
     <row r="79">
@@ -1731,13 +3026,31 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>14.66</v>
+        <v>11.61</v>
       </c>
       <c r="C79" t="n">
-        <v>32.43</v>
+        <v>20.58</v>
       </c>
       <c r="D79" t="n">
-        <v>22.91</v>
+        <v>44.66</v>
+      </c>
+      <c r="E79" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="F79" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G79" t="n">
+        <v>28.69</v>
+      </c>
+      <c r="H79" t="n">
+        <v>5.555000000000001</v>
+      </c>
+      <c r="I79" t="n">
+        <v>25.901</v>
+      </c>
+      <c r="J79" t="n">
+        <v>12.163</v>
       </c>
     </row>
     <row r="80">
@@ -1745,13 +3058,31 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>15.11</v>
+        <v>12.23</v>
       </c>
       <c r="C80" t="n">
-        <v>32.39</v>
+        <v>20.47</v>
       </c>
       <c r="D80" t="n">
-        <v>22.5</v>
+        <v>44.8</v>
+      </c>
+      <c r="E80" t="n">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="F80" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G80" t="n">
+        <v>28.61</v>
+      </c>
+      <c r="H80" t="n">
+        <v>6.065</v>
+      </c>
+      <c r="I80" t="n">
+        <v>26.364</v>
+      </c>
+      <c r="J80" t="n">
+        <v>13.82</v>
       </c>
     </row>
     <row r="81">
@@ -1759,13 +3090,31 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>15.51</v>
+        <v>12.78</v>
       </c>
       <c r="C81" t="n">
-        <v>32.39</v>
+        <v>20.44</v>
       </c>
       <c r="D81" t="n">
-        <v>22.09</v>
+        <v>44.94</v>
+      </c>
+      <c r="E81" t="n">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="F81" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G81" t="n">
+        <v>29.11</v>
+      </c>
+      <c r="H81" t="n">
+        <v>6.505000000000001</v>
+      </c>
+      <c r="I81" t="n">
+        <v>26.757</v>
+      </c>
+      <c r="J81" t="n">
+        <v>14.855</v>
       </c>
     </row>
     <row r="82">
@@ -1773,13 +3122,31 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>15.77</v>
+        <v>12.66</v>
       </c>
       <c r="C82" t="n">
-        <v>32.54</v>
+        <v>20.52</v>
       </c>
       <c r="D82" t="n">
-        <v>21.7</v>
+        <v>45.12</v>
+      </c>
+      <c r="E82" t="n">
+        <v>8.130000000000001</v>
+      </c>
+      <c r="F82" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G82" t="n">
+        <v>29.64</v>
+      </c>
+      <c r="H82" t="n">
+        <v>7.390000000000001</v>
+      </c>
+      <c r="I82" t="n">
+        <v>27.195</v>
+      </c>
+      <c r="J82" t="n">
+        <v>15.845</v>
       </c>
     </row>
     <row r="83">
@@ -1787,13 +3154,31 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>16.01</v>
+        <v>12.15</v>
       </c>
       <c r="C83" t="n">
-        <v>32.65</v>
+        <v>20.38</v>
       </c>
       <c r="D83" t="n">
-        <v>21.35</v>
+        <v>45.39</v>
+      </c>
+      <c r="E83" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="F83" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G83" t="n">
+        <v>30.13</v>
+      </c>
+      <c r="H83" t="n">
+        <v>7.275</v>
+      </c>
+      <c r="I83" t="n">
+        <v>27.653</v>
+      </c>
+      <c r="J83" t="n">
+        <v>17.335</v>
       </c>
     </row>
     <row r="84">
@@ -1801,13 +3186,31 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>15.84</v>
+        <v>11.64</v>
       </c>
       <c r="C84" t="n">
-        <v>33.02</v>
+        <v>20.25</v>
       </c>
       <c r="D84" t="n">
-        <v>21.14</v>
+        <v>45.83</v>
+      </c>
+      <c r="E84" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="F84" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G84" t="n">
+        <v>30.26</v>
+      </c>
+      <c r="H84" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="I84" t="n">
+        <v>28.121</v>
+      </c>
+      <c r="J84" t="n">
+        <v>18.77</v>
       </c>
     </row>
     <row r="85">
@@ -1815,13 +3218,31 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>15.68</v>
+        <v>11.08</v>
       </c>
       <c r="C85" t="n">
-        <v>33.69</v>
+        <v>19.8</v>
       </c>
       <c r="D85" t="n">
-        <v>20.63</v>
+        <v>45.96</v>
+      </c>
+      <c r="E85" t="n">
+        <v>8.16</v>
+      </c>
+      <c r="F85" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G85" t="n">
+        <v>30.48</v>
+      </c>
+      <c r="H85" t="n">
+        <v>7.675</v>
+      </c>
+      <c r="I85" t="n">
+        <v>28.639</v>
+      </c>
+      <c r="J85" t="n">
+        <v>18.69</v>
       </c>
     </row>
     <row r="86">
@@ -1829,13 +3250,31 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>15.51</v>
+        <v>10.52</v>
       </c>
       <c r="C86" t="n">
-        <v>34.36</v>
+        <v>19.69</v>
       </c>
       <c r="D86" t="n">
-        <v>20.13</v>
+        <v>46.02</v>
+      </c>
+      <c r="E86" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="F86" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G86" t="n">
+        <v>30.63</v>
+      </c>
+      <c r="H86" t="n">
+        <v>7.949999999999998</v>
+      </c>
+      <c r="I86" t="n">
+        <v>28.647</v>
+      </c>
+      <c r="J86" t="n">
+        <v>18.94</v>
       </c>
     </row>
     <row r="87">
@@ -1843,13 +3282,31 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>15.47</v>
+        <v>9.91</v>
       </c>
       <c r="C87" t="n">
-        <v>35.06</v>
+        <v>19.53</v>
       </c>
       <c r="D87" t="n">
-        <v>19.47</v>
+        <v>46.02</v>
+      </c>
+      <c r="E87" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="F87" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G87" t="n">
+        <v>31.12</v>
+      </c>
+      <c r="H87" t="n">
+        <v>8.234999999999999</v>
+      </c>
+      <c r="I87" t="n">
+        <v>28.085</v>
+      </c>
+      <c r="J87" t="n">
+        <v>19.57</v>
       </c>
     </row>
     <row r="88">
@@ -1857,13 +3314,31 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>15.45</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="C88" t="n">
-        <v>35.47</v>
+        <v>19.41</v>
       </c>
       <c r="D88" t="n">
-        <v>19.08</v>
+        <v>45.98</v>
+      </c>
+      <c r="E88" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="F88" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G88" t="n">
+        <v>31.61</v>
+      </c>
+      <c r="H88" t="n">
+        <v>8.525</v>
+      </c>
+      <c r="I88" t="n">
+        <v>27.75</v>
+      </c>
+      <c r="J88" t="n">
+        <v>20.2</v>
       </c>
     </row>
     <row r="89">
@@ -1871,13 +3346,31 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>15.24</v>
+        <v>8.84</v>
       </c>
       <c r="C89" t="n">
-        <v>35.88</v>
+        <v>19.29</v>
       </c>
       <c r="D89" t="n">
-        <v>18.87</v>
+        <v>45.94</v>
+      </c>
+      <c r="E89" t="n">
+        <v>7.26</v>
+      </c>
+      <c r="F89" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G89" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="H89" t="n">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="I89" t="n">
+        <v>27.58</v>
+      </c>
+      <c r="J89" t="n">
+        <v>20.65</v>
       </c>
     </row>
     <row r="90">
@@ -1885,13 +3378,34 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>15.08</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="C90" t="n">
-        <v>36.28</v>
+        <v>19.24</v>
       </c>
       <c r="D90" t="n">
-        <v>18.65</v>
+        <v>45.9</v>
+      </c>
+      <c r="E90" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="F90" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G90" t="n">
+        <v>32.66</v>
+      </c>
+      <c r="H90" t="n">
+        <v>8.719999999999999</v>
+      </c>
+      <c r="I90" t="n">
+        <v>27.43</v>
+      </c>
+      <c r="J90" t="n">
+        <v>21.245</v>
+      </c>
+      <c r="K90" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="91">
@@ -1899,13 +3413,34 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>14.92</v>
+        <v>8.65</v>
       </c>
       <c r="C91" t="n">
-        <v>36.63</v>
+        <v>18.51</v>
       </c>
       <c r="D91" t="n">
-        <v>18.45</v>
+        <v>45.88</v>
+      </c>
+      <c r="E91" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="F91" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G91" t="n">
+        <v>32.68</v>
+      </c>
+      <c r="H91" t="n">
+        <v>8.649999999999999</v>
+      </c>
+      <c r="I91" t="n">
+        <v>27.36</v>
+      </c>
+      <c r="J91" t="n">
+        <v>22.09</v>
+      </c>
+      <c r="K91" t="n">
+        <v>11.435</v>
       </c>
     </row>
     <row r="92">
@@ -1913,13 +3448,34 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>14.8</v>
+        <v>9.01</v>
       </c>
       <c r="C92" t="n">
-        <v>36.91</v>
+        <v>17.71</v>
       </c>
       <c r="D92" t="n">
-        <v>18.29</v>
+        <v>45.84</v>
+      </c>
+      <c r="E92" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="F92" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G92" t="n">
+        <v>32.69</v>
+      </c>
+      <c r="H92" t="n">
+        <v>8.514999999999999</v>
+      </c>
+      <c r="I92" t="n">
+        <v>27.108</v>
+      </c>
+      <c r="J92" t="n">
+        <v>22.97000000000001</v>
+      </c>
+      <c r="K92" t="n">
+        <v>11.91333333333333</v>
       </c>
     </row>
     <row r="93">
@@ -1927,13 +3483,34 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>14.72</v>
+        <v>9.85</v>
       </c>
       <c r="C93" t="n">
-        <v>37.21</v>
+        <v>16.9</v>
       </c>
       <c r="D93" t="n">
-        <v>18.07</v>
+        <v>45.8</v>
+      </c>
+      <c r="E93" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="F93" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G93" t="n">
+        <v>32.75</v>
+      </c>
+      <c r="H93" t="n">
+        <v>8.32</v>
+      </c>
+      <c r="I93" t="n">
+        <v>26.856</v>
+      </c>
+      <c r="J93" t="n">
+        <v>23.345</v>
+      </c>
+      <c r="K93" t="n">
+        <v>12.1525</v>
       </c>
     </row>
     <row r="94">
@@ -1941,13 +3518,34 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>14.72</v>
+        <v>10.61</v>
       </c>
       <c r="C94" t="n">
-        <v>37.45</v>
+        <v>15.93</v>
       </c>
       <c r="D94" t="n">
-        <v>17.83</v>
+        <v>46.84</v>
+      </c>
+      <c r="E94" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="F94" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G94" t="n">
+        <v>31.92</v>
+      </c>
+      <c r="H94" t="n">
+        <v>8.120000000000001</v>
+      </c>
+      <c r="I94" t="n">
+        <v>26.604</v>
+      </c>
+      <c r="J94" t="n">
+        <v>23.775</v>
+      </c>
+      <c r="K94" t="n">
+        <v>12.276</v>
       </c>
     </row>
     <row r="95">
@@ -1955,13 +3553,34 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>14.96</v>
+        <v>11.42</v>
       </c>
       <c r="C95" t="n">
-        <v>37.49</v>
+        <v>15.28</v>
       </c>
       <c r="D95" t="n">
-        <v>17.55</v>
+        <v>47.82</v>
+      </c>
+      <c r="E95" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="F95" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G95" t="n">
+        <v>31.04</v>
+      </c>
+      <c r="H95" t="n">
+        <v>7.930000000000001</v>
+      </c>
+      <c r="I95" t="n">
+        <v>26.30700000000001</v>
+      </c>
+      <c r="J95" t="n">
+        <v>23.945</v>
+      </c>
+      <c r="K95" t="n">
+        <v>12.29166666666667</v>
       </c>
     </row>
     <row r="96">
@@ -1969,13 +3588,34 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>15.21</v>
+        <v>12.22</v>
       </c>
       <c r="C96" t="n">
-        <v>37.46</v>
+        <v>14.3</v>
       </c>
       <c r="D96" t="n">
-        <v>17.33</v>
+        <v>48.88</v>
+      </c>
+      <c r="E96" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="F96" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G96" t="n">
+        <v>30.21</v>
+      </c>
+      <c r="H96" t="n">
+        <v>7.745</v>
+      </c>
+      <c r="I96" t="n">
+        <v>26.05</v>
+      </c>
+      <c r="J96" t="n">
+        <v>24.115</v>
+      </c>
+      <c r="K96" t="n">
+        <v>12.22428571428571</v>
       </c>
     </row>
     <row r="97">
@@ -1983,13 +3623,34 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>15.47</v>
+        <v>13.29</v>
       </c>
       <c r="C97" t="n">
-        <v>37.5</v>
+        <v>13.36</v>
       </c>
       <c r="D97" t="n">
-        <v>17.03</v>
+        <v>49.99</v>
+      </c>
+      <c r="E97" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="F97" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G97" t="n">
+        <v>29.07</v>
+      </c>
+      <c r="H97" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="I97" t="n">
+        <v>25.788</v>
+      </c>
+      <c r="J97" t="n">
+        <v>24.28</v>
+      </c>
+      <c r="K97" t="n">
+        <v>12.16125</v>
       </c>
     </row>
     <row r="98">
@@ -1997,13 +3658,34 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>15.77</v>
+        <v>13.39</v>
       </c>
       <c r="C98" t="n">
-        <v>37.54</v>
+        <v>12.42</v>
       </c>
       <c r="D98" t="n">
-        <v>16.69</v>
+        <v>51.14</v>
+      </c>
+      <c r="E98" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="F98" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G98" t="n">
+        <v>27.88</v>
+      </c>
+      <c r="H98" t="n">
+        <v>7.375</v>
+      </c>
+      <c r="I98" t="n">
+        <v>25.536</v>
+      </c>
+      <c r="J98" t="n">
+        <v>25.482</v>
+      </c>
+      <c r="K98" t="n">
+        <v>12.06777777777778</v>
       </c>
     </row>
     <row r="99">
@@ -2011,13 +3693,34 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>16.05</v>
+        <v>13.94</v>
       </c>
       <c r="C99" t="n">
-        <v>37.56</v>
+        <v>11.48</v>
       </c>
       <c r="D99" t="n">
-        <v>16.39</v>
+        <v>52.29</v>
+      </c>
+      <c r="E99" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="F99" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G99" t="n">
+        <v>26.74</v>
+      </c>
+      <c r="H99" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="I99" t="n">
+        <v>24.824</v>
+      </c>
+      <c r="J99" t="n">
+        <v>26.749</v>
+      </c>
+      <c r="K99" t="n">
+        <v>11.993</v>
       </c>
     </row>
     <row r="100">
@@ -2025,13 +3728,34 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>16.31</v>
+        <v>14.54</v>
       </c>
       <c r="C100" t="n">
-        <v>37.6</v>
+        <v>10.6</v>
       </c>
       <c r="D100" t="n">
-        <v>16.1</v>
+        <v>55.72</v>
+      </c>
+      <c r="E100" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="F100" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G100" t="n">
+        <v>25.58</v>
+      </c>
+      <c r="H100" t="n">
+        <v>8.275000000000002</v>
+      </c>
+      <c r="I100" t="n">
+        <v>24.112</v>
+      </c>
+      <c r="J100" t="n">
+        <v>24.307</v>
+      </c>
+      <c r="K100" t="n">
+        <v>11.993</v>
       </c>
     </row>
     <row r="101">
@@ -2039,13 +3763,34 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>16.43</v>
+        <v>14.31</v>
       </c>
       <c r="C101" t="n">
-        <v>37.65</v>
+        <v>10.41</v>
       </c>
       <c r="D101" t="n">
-        <v>15.94</v>
+        <v>59.12</v>
+      </c>
+      <c r="E101" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="F101" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G101" t="n">
+        <v>24.32</v>
+      </c>
+      <c r="H101" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="I101" t="n">
+        <v>23.58</v>
+      </c>
+      <c r="J101" t="n">
+        <v>21.925</v>
+      </c>
+      <c r="K101" t="n">
+        <v>12.105</v>
       </c>
     </row>
     <row r="102">
@@ -2053,13 +3798,34 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>16.56</v>
+        <v>14.07</v>
       </c>
       <c r="C102" t="n">
-        <v>37.66</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>15.81</v>
+        <v>62.49</v>
+      </c>
+      <c r="E102" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="F102" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G102" t="n">
+        <v>23.95</v>
+      </c>
+      <c r="H102" t="n">
+        <v>10.585</v>
+      </c>
+      <c r="I102" t="n">
+        <v>23.089</v>
+      </c>
+      <c r="J102" t="n">
+        <v>19.553</v>
+      </c>
+      <c r="K102" t="n">
+        <v>11.894</v>
       </c>
     </row>
     <row r="103">
@@ -2067,13 +3833,34 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>16.63</v>
+        <v>13.76</v>
       </c>
       <c r="C103" t="n">
-        <v>37.69</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="D103" t="n">
-        <v>15.72</v>
+        <v>66.05</v>
+      </c>
+      <c r="E103" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="F103" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G103" t="n">
+        <v>23.52</v>
+      </c>
+      <c r="H103" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="I103" t="n">
+        <v>22.568</v>
+      </c>
+      <c r="J103" t="n">
+        <v>17.186</v>
+      </c>
+      <c r="K103" t="n">
+        <v>11.653</v>
       </c>
     </row>
     <row r="104">
@@ -2081,13 +3868,34 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>16.75</v>
+        <v>13.52</v>
       </c>
       <c r="C104" t="n">
-        <v>37.68</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="D104" t="n">
-        <v>15.62</v>
+        <v>68.34</v>
+      </c>
+      <c r="E104" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="F104" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G104" t="n">
+        <v>24.02</v>
+      </c>
+      <c r="H104" t="n">
+        <v>13.05</v>
+      </c>
+      <c r="I104" t="n">
+        <v>22.137</v>
+      </c>
+      <c r="J104" t="n">
+        <v>16.819</v>
+      </c>
+      <c r="K104" t="n">
+        <v>11.392</v>
       </c>
     </row>
     <row r="105">
@@ -2095,13 +3903,34 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>16.51</v>
+        <v>13.23</v>
       </c>
       <c r="C105" t="n">
-        <v>37.66</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="D105" t="n">
-        <v>15.88</v>
+        <v>70.63</v>
+      </c>
+      <c r="E105" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="F105" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G105" t="n">
+        <v>24.96</v>
+      </c>
+      <c r="H105" t="n">
+        <v>14.28</v>
+      </c>
+      <c r="I105" t="n">
+        <v>21.80099999999999</v>
+      </c>
+      <c r="J105" t="n">
+        <v>15.967</v>
+      </c>
+      <c r="K105" t="n">
+        <v>11.131</v>
       </c>
     </row>
     <row r="106">
@@ -2109,13 +3938,34 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>16.28</v>
+        <v>12.95</v>
       </c>
       <c r="C106" t="n">
-        <v>37.68</v>
+        <v>10.77</v>
       </c>
       <c r="D106" t="n">
-        <v>16.09</v>
+        <v>72.93000000000001</v>
+      </c>
+      <c r="E106" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="F106" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G106" t="n">
+        <v>25.93</v>
+      </c>
+      <c r="H106" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="I106" t="n">
+        <v>21.505</v>
+      </c>
+      <c r="J106" t="n">
+        <v>15.13</v>
+      </c>
+      <c r="K106" t="n">
+        <v>10.905</v>
       </c>
     </row>
     <row r="107">
@@ -2123,13 +3973,34 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>16.13</v>
+        <v>12.44</v>
       </c>
       <c r="C107" t="n">
-        <v>37.54</v>
+        <v>12.11</v>
       </c>
       <c r="D107" t="n">
-        <v>16.38</v>
+        <v>75.11</v>
+      </c>
+      <c r="E107" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="F107" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G107" t="n">
+        <v>26.95</v>
+      </c>
+      <c r="H107" t="n">
+        <v>16.73</v>
+      </c>
+      <c r="I107" t="n">
+        <v>21.154</v>
+      </c>
+      <c r="J107" t="n">
+        <v>13.933</v>
+      </c>
+      <c r="K107" t="n">
+        <v>10.724</v>
       </c>
     </row>
     <row r="108">
@@ -2137,13 +4008,34 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>15.93</v>
+        <v>13.3</v>
       </c>
       <c r="C108" t="n">
-        <v>37.51</v>
+        <v>13.45</v>
       </c>
       <c r="D108" t="n">
-        <v>16.61</v>
+        <v>77.31</v>
+      </c>
+      <c r="E108" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="F108" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G108" t="n">
+        <v>27.59</v>
+      </c>
+      <c r="H108" t="n">
+        <v>17.94</v>
+      </c>
+      <c r="I108" t="n">
+        <v>20.803</v>
+      </c>
+      <c r="J108" t="n">
+        <v>11.689</v>
+      </c>
+      <c r="K108" t="n">
+        <v>10.553</v>
       </c>
     </row>
     <row r="109">
@@ -2151,13 +4043,34 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>15.73</v>
+        <v>13.69</v>
       </c>
       <c r="C109" t="n">
-        <v>37.5</v>
+        <v>14.79</v>
       </c>
       <c r="D109" t="n">
-        <v>16.82</v>
+        <v>79.5</v>
+      </c>
+      <c r="E109" t="n">
+        <v>6.43</v>
+      </c>
+      <c r="F109" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G109" t="n">
+        <v>28.21</v>
+      </c>
+      <c r="H109" t="n">
+        <v>19.18</v>
+      </c>
+      <c r="I109" t="n">
+        <v>20.792</v>
+      </c>
+      <c r="J109" t="n">
+        <v>9.434999999999999</v>
+      </c>
+      <c r="K109" t="n">
+        <v>10.472</v>
       </c>
     </row>
     <row r="110">
@@ -2165,13 +4078,34 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>15.52</v>
+        <v>14.09</v>
       </c>
       <c r="C110" t="n">
-        <v>37.48</v>
+        <v>16.13</v>
       </c>
       <c r="D110" t="n">
-        <v>17.04</v>
+        <v>79.41</v>
+      </c>
+      <c r="E110" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="F110" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G110" t="n">
+        <v>31.37</v>
+      </c>
+      <c r="H110" t="n">
+        <v>19.05</v>
+      </c>
+      <c r="I110" t="n">
+        <v>20.716</v>
+      </c>
+      <c r="J110" t="n">
+        <v>9.434999999999999</v>
+      </c>
+      <c r="K110" t="n">
+        <v>10.381</v>
       </c>
     </row>
     <row r="111">
@@ -2179,13 +4113,34 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>15.48</v>
+        <v>14.47</v>
       </c>
       <c r="C111" t="n">
-        <v>37.45</v>
+        <v>17.48</v>
       </c>
       <c r="D111" t="n">
-        <v>17.1</v>
+        <v>79.31999999999999</v>
+      </c>
+      <c r="E111" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="F111" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G111" t="n">
+        <v>34.71</v>
+      </c>
+      <c r="H111" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="I111" t="n">
+        <v>20.46</v>
+      </c>
+      <c r="J111" t="n">
+        <v>9.434999999999999</v>
+      </c>
+      <c r="K111" t="n">
+        <v>10.29</v>
       </c>
     </row>
     <row r="112">
@@ -2193,13 +4148,34 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>15.46</v>
+        <v>14.84</v>
       </c>
       <c r="C112" t="n">
-        <v>37.4</v>
+        <v>19.98</v>
       </c>
       <c r="D112" t="n">
-        <v>17.16</v>
+        <v>79.16</v>
+      </c>
+      <c r="E112" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="F112" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G112" t="n">
+        <v>37.14</v>
+      </c>
+      <c r="H112" t="n">
+        <v>18.555</v>
+      </c>
+      <c r="I112" t="n">
+        <v>20.225</v>
+      </c>
+      <c r="J112" t="n">
+        <v>13.435</v>
+      </c>
+      <c r="K112" t="n">
+        <v>10.215</v>
       </c>
     </row>
     <row r="113">
@@ -2207,13 +4183,34 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>15.45</v>
+        <v>15.2</v>
       </c>
       <c r="C113" t="n">
-        <v>37.31</v>
+        <v>22.49</v>
       </c>
       <c r="D113" t="n">
-        <v>17.24</v>
+        <v>78.66</v>
+      </c>
+      <c r="E113" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="F113" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G113" t="n">
+        <v>39.64</v>
+      </c>
+      <c r="H113" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="I113" t="n">
+        <v>20.015</v>
+      </c>
+      <c r="J113" t="n">
+        <v>17.435</v>
+      </c>
+      <c r="K113" t="n">
+        <v>10.445</v>
       </c>
     </row>
     <row r="114">
@@ -2221,13 +4218,34 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>15.33</v>
+        <v>15.51</v>
       </c>
       <c r="C114" t="n">
-        <v>37.21</v>
+        <v>25.03</v>
       </c>
       <c r="D114" t="n">
-        <v>17.45</v>
+        <v>78.18000000000001</v>
+      </c>
+      <c r="E114" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="F114" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G114" t="n">
+        <v>42.13</v>
+      </c>
+      <c r="H114" t="n">
+        <v>17.845</v>
+      </c>
+      <c r="I114" t="n">
+        <v>19.715</v>
+      </c>
+      <c r="J114" t="n">
+        <v>19.545</v>
+      </c>
+      <c r="K114" t="n">
+        <v>10.685</v>
       </c>
     </row>
     <row r="115">
@@ -2235,13 +4253,34 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>15.28</v>
+        <v>15.87</v>
       </c>
       <c r="C115" t="n">
-        <v>37.11</v>
+        <v>25.56</v>
       </c>
       <c r="D115" t="n">
-        <v>17.62</v>
+        <v>77.73999999999999</v>
+      </c>
+      <c r="E115" t="n">
+        <v>8.32</v>
+      </c>
+      <c r="F115" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G115" t="n">
+        <v>44.18</v>
+      </c>
+      <c r="H115" t="n">
+        <v>17.49</v>
+      </c>
+      <c r="I115" t="n">
+        <v>19.405</v>
+      </c>
+      <c r="J115" t="n">
+        <v>22.015</v>
+      </c>
+      <c r="K115" t="n">
+        <v>10.925</v>
       </c>
     </row>
     <row r="116">
@@ -2249,13 +4288,34 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>15.2</v>
+        <v>15.83</v>
       </c>
       <c r="C116" t="n">
-        <v>37.01</v>
+        <v>26.09</v>
       </c>
       <c r="D116" t="n">
-        <v>17.79</v>
+        <v>80.8</v>
+      </c>
+      <c r="E116" t="n">
+        <v>8.789999999999999</v>
+      </c>
+      <c r="F116" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G116" t="n">
+        <v>46.22</v>
+      </c>
+      <c r="H116" t="n">
+        <v>17.125</v>
+      </c>
+      <c r="I116" t="n">
+        <v>19.025</v>
+      </c>
+      <c r="J116" t="n">
+        <v>21.47</v>
+      </c>
+      <c r="K116" t="n">
+        <v>11.165</v>
       </c>
     </row>
     <row r="117">
@@ -2263,13 +4323,34 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>15.14</v>
+        <v>15.75</v>
       </c>
       <c r="C117" t="n">
-        <v>36.96</v>
+        <v>26.61</v>
       </c>
       <c r="D117" t="n">
-        <v>17.9</v>
+        <v>83.97</v>
+      </c>
+      <c r="E117" t="n">
+        <v>8.58</v>
+      </c>
+      <c r="F117" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G117" t="n">
+        <v>48.27</v>
+      </c>
+      <c r="H117" t="n">
+        <v>16.76</v>
+      </c>
+      <c r="I117" t="n">
+        <v>18.755</v>
+      </c>
+      <c r="J117" t="n">
+        <v>21.405</v>
+      </c>
+      <c r="K117" t="n">
+        <v>11.415</v>
       </c>
     </row>
     <row r="118">
@@ -2277,13 +4358,34 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>15.11</v>
+        <v>15.22</v>
       </c>
       <c r="C118" t="n">
-        <v>36.83</v>
+        <v>27.12</v>
       </c>
       <c r="D118" t="n">
-        <v>18.06</v>
+        <v>87.14</v>
+      </c>
+      <c r="E118" t="n">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="F118" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G118" t="n">
+        <v>50.73</v>
+      </c>
+      <c r="H118" t="n">
+        <v>16.385</v>
+      </c>
+      <c r="I118" t="n">
+        <v>18.465</v>
+      </c>
+      <c r="J118" t="n">
+        <v>21.34</v>
+      </c>
+      <c r="K118" t="n">
+        <v>11.755</v>
       </c>
     </row>
     <row r="119">
@@ -2291,13 +4393,34 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>15.03</v>
+        <v>14.64</v>
       </c>
       <c r="C119" t="n">
-        <v>36.67</v>
+        <v>27.3</v>
       </c>
       <c r="D119" t="n">
-        <v>18.3</v>
+        <v>90.3</v>
+      </c>
+      <c r="E119" t="n">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="F119" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G119" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="H119" t="n">
+        <v>16.015</v>
+      </c>
+      <c r="I119" t="n">
+        <v>18.175</v>
+      </c>
+      <c r="J119" t="n">
+        <v>20.03</v>
+      </c>
+      <c r="K119" t="n">
+        <v>11.995</v>
       </c>
     </row>
     <row r="120">
@@ -2305,13 +4428,34 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>14.99</v>
+        <v>14.05</v>
       </c>
       <c r="C120" t="n">
-        <v>36.49</v>
+        <v>27.48</v>
       </c>
       <c r="D120" t="n">
-        <v>18.52</v>
+        <v>93.79000000000001</v>
+      </c>
+      <c r="E120" t="n">
+        <v>9</v>
+      </c>
+      <c r="F120" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G120" t="n">
+        <v>56.42</v>
+      </c>
+      <c r="H120" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="I120" t="n">
+        <v>17.93</v>
+      </c>
+      <c r="J120" t="n">
+        <v>20.03</v>
+      </c>
+      <c r="K120" t="n">
+        <v>12.12</v>
       </c>
     </row>
     <row r="121">
@@ -2319,13 +4463,34 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>14.92</v>
+        <v>13.34</v>
       </c>
       <c r="C121" t="n">
-        <v>36.31</v>
+        <v>27.64</v>
       </c>
       <c r="D121" t="n">
-        <v>18.77</v>
+        <v>97.23999999999999</v>
+      </c>
+      <c r="E121" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="F121" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G121" t="n">
+        <v>57.88</v>
+      </c>
+      <c r="H121" t="n">
+        <v>15.735</v>
+      </c>
+      <c r="I121" t="n">
+        <v>17.55</v>
+      </c>
+      <c r="J121" t="n">
+        <v>22.03</v>
+      </c>
+      <c r="K121" t="n">
+        <v>12.255</v>
       </c>
     </row>
     <row r="122">
@@ -2333,13 +4498,34 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>14.94</v>
+        <v>12.6</v>
       </c>
       <c r="C122" t="n">
-        <v>36.14</v>
+        <v>27.46</v>
       </c>
       <c r="D122" t="n">
-        <v>18.92</v>
+        <v>100.81</v>
+      </c>
+      <c r="E122" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="F122" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G122" t="n">
+        <v>59.24</v>
+      </c>
+      <c r="H122" t="n">
+        <v>16</v>
+      </c>
+      <c r="I122" t="n">
+        <v>17.27999999999999</v>
+      </c>
+      <c r="J122" t="n">
+        <v>20.03</v>
+      </c>
+      <c r="K122" t="n">
+        <v>12.4</v>
       </c>
     </row>
     <row r="123">
@@ -2347,13 +4533,34 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>15.26</v>
+        <v>11.87</v>
       </c>
       <c r="C123" t="n">
-        <v>35.8</v>
+        <v>27.27</v>
       </c>
       <c r="D123" t="n">
-        <v>18.94</v>
+        <v>102.54</v>
+      </c>
+      <c r="E123" t="n">
+        <v>8.65</v>
+      </c>
+      <c r="F123" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G123" t="n">
+        <v>60.45</v>
+      </c>
+      <c r="H123" t="n">
+        <v>16.116</v>
+      </c>
+      <c r="I123" t="n">
+        <v>16.991</v>
+      </c>
+      <c r="J123" t="n">
+        <v>20.381</v>
+      </c>
+      <c r="K123" t="n">
+        <v>12.246</v>
       </c>
     </row>
     <row r="124">
@@ -2361,13 +4568,34 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>15.64</v>
+        <v>11.18</v>
       </c>
       <c r="C124" t="n">
-        <v>35.46</v>
+        <v>27.08</v>
       </c>
       <c r="D124" t="n">
-        <v>18.9</v>
+        <v>104.27</v>
+      </c>
+      <c r="E124" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="F124" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G124" t="n">
+        <v>63.13</v>
+      </c>
+      <c r="H124" t="n">
+        <v>15.331</v>
+      </c>
+      <c r="I124" t="n">
+        <v>16.702</v>
+      </c>
+      <c r="J124" t="n">
+        <v>20.612</v>
+      </c>
+      <c r="K124" t="n">
+        <v>11.591</v>
       </c>
     </row>
     <row r="125">
@@ -2375,13 +4603,34 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>16.06</v>
+        <v>10.5</v>
       </c>
       <c r="C125" t="n">
-        <v>35.17</v>
+        <v>26.6</v>
       </c>
       <c r="D125" t="n">
-        <v>18.77</v>
+        <v>105.95</v>
+      </c>
+      <c r="E125" t="n">
+        <v>8.56</v>
+      </c>
+      <c r="F125" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G125" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="H125" t="n">
+        <v>14.481</v>
+      </c>
+      <c r="I125" t="n">
+        <v>17.87</v>
+      </c>
+      <c r="J125" t="n">
+        <v>19.868</v>
+      </c>
+      <c r="K125" t="n">
+        <v>10.881</v>
       </c>
     </row>
     <row r="126">
@@ -2389,13 +4638,34 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>16.49</v>
+        <v>10.21</v>
       </c>
       <c r="C126" t="n">
-        <v>34.88</v>
+        <v>26.12</v>
       </c>
       <c r="D126" t="n">
-        <v>18.63</v>
+        <v>103.9</v>
+      </c>
+      <c r="E126" t="n">
+        <v>8.51</v>
+      </c>
+      <c r="F126" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G126" t="n">
+        <v>68.28</v>
+      </c>
+      <c r="H126" t="n">
+        <v>13.631</v>
+      </c>
+      <c r="I126" t="n">
+        <v>19.758</v>
+      </c>
+      <c r="J126" t="n">
+        <v>21.914</v>
+      </c>
+      <c r="K126" t="n">
+        <v>10.176</v>
       </c>
     </row>
     <row r="127">
@@ -2403,13 +4673,34 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>16.82</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="C127" t="n">
-        <v>34.6</v>
+        <v>25.64</v>
       </c>
       <c r="D127" t="n">
-        <v>18.59</v>
+        <v>101.86</v>
+      </c>
+      <c r="E127" t="n">
+        <v>8.460000000000001</v>
+      </c>
+      <c r="F127" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G127" t="n">
+        <v>70.43000000000001</v>
+      </c>
+      <c r="H127" t="n">
+        <v>13.184</v>
+      </c>
+      <c r="I127" t="n">
+        <v>21.546</v>
+      </c>
+      <c r="J127" t="n">
+        <v>24.289</v>
+      </c>
+      <c r="K127" t="n">
+        <v>9.471</v>
       </c>
     </row>
     <row r="128">
@@ -2417,13 +4708,34 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>17.19</v>
+        <v>10.03</v>
       </c>
       <c r="C128" t="n">
-        <v>34.27</v>
+        <v>25.19</v>
       </c>
       <c r="D128" t="n">
-        <v>18.54</v>
+        <v>99.77</v>
+      </c>
+      <c r="E128" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="F128" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G128" t="n">
+        <v>72.54000000000001</v>
+      </c>
+      <c r="H128" t="n">
+        <v>12.252</v>
+      </c>
+      <c r="I128" t="n">
+        <v>23.344</v>
+      </c>
+      <c r="J128" t="n">
+        <v>27.461</v>
+      </c>
+      <c r="K128" t="n">
+        <v>8.494</v>
       </c>
     </row>
     <row r="129">
@@ -2431,13 +4743,34 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>17.55</v>
+        <v>10.38</v>
       </c>
       <c r="C129" t="n">
-        <v>34.01</v>
+        <v>25.05</v>
       </c>
       <c r="D129" t="n">
-        <v>18.43</v>
+        <v>97.68000000000001</v>
+      </c>
+      <c r="E129" t="n">
+        <v>8.289999999999999</v>
+      </c>
+      <c r="F129" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G129" t="n">
+        <v>72.86</v>
+      </c>
+      <c r="H129" t="n">
+        <v>11.221</v>
+      </c>
+      <c r="I129" t="n">
+        <v>24.168</v>
+      </c>
+      <c r="J129" t="n">
+        <v>33.31</v>
+      </c>
+      <c r="K129" t="n">
+        <v>7.540000000000001</v>
       </c>
     </row>
     <row r="130">
@@ -2445,13 +4778,34 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>17.96</v>
+        <v>11.2</v>
       </c>
       <c r="C130" t="n">
-        <v>33.76</v>
+        <v>24.92</v>
       </c>
       <c r="D130" t="n">
-        <v>18.27</v>
+        <v>95.28</v>
+      </c>
+      <c r="E130" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="F130" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G130" t="n">
+        <v>73.19</v>
+      </c>
+      <c r="H130" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="I130" t="n">
+        <v>25.002</v>
+      </c>
+      <c r="J130" t="n">
+        <v>38.842</v>
+      </c>
+      <c r="K130" t="n">
+        <v>6.711</v>
       </c>
     </row>
     <row r="131">
@@ -2459,13 +4813,34 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>18.1</v>
+        <v>11.71</v>
       </c>
       <c r="C131" t="n">
-        <v>33.53</v>
+        <v>24.79</v>
       </c>
       <c r="D131" t="n">
-        <v>18.37</v>
+        <v>92.48999999999999</v>
+      </c>
+      <c r="E131" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="F131" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G131" t="n">
+        <v>73.47</v>
+      </c>
+      <c r="H131" t="n">
+        <v>8.803999999999998</v>
+      </c>
+      <c r="I131" t="n">
+        <v>25.871</v>
+      </c>
+      <c r="J131" t="n">
+        <v>43.765</v>
+      </c>
+      <c r="K131" t="n">
+        <v>5.555000000000001</v>
       </c>
     </row>
     <row r="132">
@@ -2473,13 +4848,34 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>18.09</v>
+        <v>12.27</v>
       </c>
       <c r="C132" t="n">
-        <v>33.38</v>
+        <v>24.94</v>
       </c>
       <c r="D132" t="n">
-        <v>18.53</v>
+        <v>89.7</v>
+      </c>
+      <c r="E132" t="n">
+        <v>7.88</v>
+      </c>
+      <c r="F132" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G132" t="n">
+        <v>73.87</v>
+      </c>
+      <c r="H132" t="n">
+        <v>7.407999999999999</v>
+      </c>
+      <c r="I132" t="n">
+        <v>26.338</v>
+      </c>
+      <c r="J132" t="n">
+        <v>48.678</v>
+      </c>
+      <c r="K132" t="n">
+        <v>4.409000000000001</v>
       </c>
     </row>
     <row r="133">
@@ -2487,13 +4883,34 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>17.81</v>
+        <v>12.82</v>
       </c>
       <c r="C133" t="n">
-        <v>33.43</v>
+        <v>25.09</v>
       </c>
       <c r="D133" t="n">
-        <v>18.76</v>
+        <v>88.89</v>
+      </c>
+      <c r="E133" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="F133" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G133" t="n">
+        <v>74.48999999999999</v>
+      </c>
+      <c r="H133" t="n">
+        <v>6.151</v>
+      </c>
+      <c r="I133" t="n">
+        <v>26.809</v>
+      </c>
+      <c r="J133" t="n">
+        <v>51.23</v>
+      </c>
+      <c r="K133" t="n">
+        <v>3.287</v>
       </c>
     </row>
     <row r="134">
@@ -2501,13 +4918,34 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>17.59</v>
+        <v>13.39</v>
       </c>
       <c r="C134" t="n">
-        <v>33.48</v>
+        <v>25.24</v>
       </c>
       <c r="D134" t="n">
-        <v>18.93</v>
+        <v>88.08</v>
+      </c>
+      <c r="E134" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="F134" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G134" t="n">
+        <v>73.64</v>
+      </c>
+      <c r="H134" t="n">
+        <v>5.375999999999999</v>
+      </c>
+      <c r="I134" t="n">
+        <v>27.734</v>
+      </c>
+      <c r="J134" t="n">
+        <v>53.79199999999999</v>
+      </c>
+      <c r="K134" t="n">
+        <v>2.676</v>
       </c>
     </row>
     <row r="135">
@@ -2515,13 +4953,34 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>17.38</v>
+        <v>14.2</v>
       </c>
       <c r="C135" t="n">
-        <v>33.12</v>
+        <v>25.52</v>
       </c>
       <c r="D135" t="n">
-        <v>19.49</v>
+        <v>87.26000000000001</v>
+      </c>
+      <c r="E135" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F135" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G135" t="n">
+        <v>72.86</v>
+      </c>
+      <c r="H135" t="n">
+        <v>4.665999999999999</v>
+      </c>
+      <c r="I135" t="n">
+        <v>27.212</v>
+      </c>
+      <c r="J135" t="n">
+        <v>57.23900000000001</v>
+      </c>
+      <c r="K135" t="n">
+        <v>2.13</v>
       </c>
     </row>
     <row r="136">
@@ -2529,13 +4988,34 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>17.18</v>
+        <v>14.8</v>
       </c>
       <c r="C136" t="n">
-        <v>32.78</v>
+        <v>25.58</v>
       </c>
       <c r="D136" t="n">
-        <v>20.04</v>
+        <v>84.2</v>
+      </c>
+      <c r="E136" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="F136" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G136" t="n">
+        <v>72.06999999999999</v>
+      </c>
+      <c r="H136" t="n">
+        <v>3.966</v>
+      </c>
+      <c r="I136" t="n">
+        <v>30.03100000000001</v>
+      </c>
+      <c r="J136" t="n">
+        <v>60.691</v>
+      </c>
+      <c r="K136" t="n">
+        <v>1.584</v>
       </c>
     </row>
     <row r="137">
@@ -2543,13 +5023,34 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>16.96</v>
+        <v>15.45</v>
       </c>
       <c r="C137" t="n">
-        <v>32.45</v>
+        <v>25.65</v>
       </c>
       <c r="D137" t="n">
-        <v>20.6</v>
+        <v>81.14</v>
+      </c>
+      <c r="E137" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="F137" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G137" t="n">
+        <v>71.54000000000001</v>
+      </c>
+      <c r="H137" t="n">
+        <v>2.873</v>
+      </c>
+      <c r="I137" t="n">
+        <v>33.31</v>
+      </c>
+      <c r="J137" t="n">
+        <v>63.749</v>
+      </c>
+      <c r="K137" t="n">
+        <v>1.038</v>
       </c>
     </row>
     <row r="138">
@@ -2557,13 +5058,34 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>16.55</v>
+        <v>13.87</v>
       </c>
       <c r="C138" t="n">
-        <v>32.11</v>
+        <v>25.7</v>
       </c>
       <c r="D138" t="n">
-        <v>21.34</v>
+        <v>76.88</v>
+      </c>
+      <c r="E138" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="F138" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G138" t="n">
+        <v>79.70999999999999</v>
+      </c>
+      <c r="H138" t="n">
+        <v>2.285</v>
+      </c>
+      <c r="I138" t="n">
+        <v>30.419</v>
+      </c>
+      <c r="J138" t="n">
+        <v>66.02000000000001</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0.674</v>
       </c>
     </row>
     <row r="139">
@@ -2571,13 +5093,34 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>16.19</v>
+        <v>14.39</v>
       </c>
       <c r="C139" t="n">
-        <v>31.77</v>
+        <v>25.74</v>
       </c>
       <c r="D139" t="n">
-        <v>22.04</v>
+        <v>72.64</v>
+      </c>
+      <c r="E139" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="F139" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G139" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1.801</v>
+      </c>
+      <c r="I139" t="n">
+        <v>28.572</v>
+      </c>
+      <c r="J139" t="n">
+        <v>66.819</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0.337</v>
       </c>
     </row>
     <row r="140">
@@ -2585,13 +5128,34 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>15.72</v>
+        <v>15.21</v>
       </c>
       <c r="C140" t="n">
-        <v>31.45</v>
+        <v>25.77</v>
       </c>
       <c r="D140" t="n">
-        <v>22.83</v>
+        <v>68.29000000000001</v>
+      </c>
+      <c r="E140" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="F140" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G140" t="n">
+        <v>96.06999999999999</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1.317</v>
+      </c>
+      <c r="I140" t="n">
+        <v>26.735</v>
+      </c>
+      <c r="J140" t="n">
+        <v>67.61</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -2599,13 +5163,34 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>15.52</v>
+        <v>17.59</v>
       </c>
       <c r="C141" t="n">
-        <v>31.11</v>
+        <v>25.82</v>
       </c>
       <c r="D141" t="n">
-        <v>23.38</v>
+        <v>64.37</v>
+      </c>
+      <c r="E141" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="F141" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G141" t="n">
+        <v>103.88</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0.868</v>
+      </c>
+      <c r="I141" t="n">
+        <v>24.292</v>
+      </c>
+      <c r="J141" t="n">
+        <v>66.91</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -2613,13 +5198,34 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>15.36</v>
+        <v>19.92</v>
       </c>
       <c r="C142" t="n">
-        <v>30.66</v>
+        <v>25.35</v>
       </c>
       <c r="D142" t="n">
-        <v>23.98</v>
+        <v>60.41</v>
+      </c>
+      <c r="E142" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="F142" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G142" t="n">
+        <v>111.65</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="I142" t="n">
+        <v>22.261</v>
+      </c>
+      <c r="J142" t="n">
+        <v>66.42999999999999</v>
+      </c>
+      <c r="K142" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -2627,13 +5233,34 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>15.25</v>
+        <v>22.47</v>
       </c>
       <c r="C143" t="n">
-        <v>30.23</v>
+        <v>24.87</v>
       </c>
       <c r="D143" t="n">
-        <v>24.53</v>
+        <v>56.35</v>
+      </c>
+      <c r="E143" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="F143" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G143" t="n">
+        <v>119.23</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>20.25</v>
+      </c>
+      <c r="J143" t="n">
+        <v>65.95999999999999</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -2641,13 +5268,34 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>15</v>
+        <v>25.67</v>
       </c>
       <c r="C144" t="n">
-        <v>29.88</v>
+        <v>24.39</v>
       </c>
       <c r="D144" t="n">
-        <v>25.12</v>
+        <v>52.3</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="F144" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G144" t="n">
+        <v>126.19</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>17.785</v>
+      </c>
+      <c r="J144" t="n">
+        <v>65.47999999999999</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -2655,13 +5303,34 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>14.77</v>
+        <v>28.63</v>
       </c>
       <c r="C145" t="n">
-        <v>29.89</v>
+        <v>24.08</v>
       </c>
       <c r="D145" t="n">
-        <v>25.34</v>
+        <v>48.32</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0</v>
+      </c>
+      <c r="F145" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G145" t="n">
+        <v>133.25</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>15.32</v>
+      </c>
+      <c r="J145" t="n">
+        <v>64.90000000000001</v>
+      </c>
+      <c r="K145" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -2669,13 +5338,34 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>14.47</v>
+        <v>31.77</v>
       </c>
       <c r="C146" t="n">
-        <v>30.05</v>
+        <v>23.95</v>
       </c>
       <c r="D146" t="n">
-        <v>25.48</v>
+        <v>46.8</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0</v>
+      </c>
+      <c r="F146" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G146" t="n">
+        <v>140.48</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>8.864000000000001</v>
+      </c>
+      <c r="J146" t="n">
+        <v>64.626</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -2683,13 +5373,34 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>14.21</v>
+        <v>35.19</v>
       </c>
       <c r="C147" t="n">
-        <v>30.19</v>
+        <v>23.73</v>
       </c>
       <c r="D147" t="n">
-        <v>25.6</v>
+        <v>45.21</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0</v>
+      </c>
+      <c r="F147" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G147" t="n">
+        <v>147.97</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>2.048</v>
+      </c>
+      <c r="J147" t="n">
+        <v>64.342</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -2697,1119 +5408,34 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>14.16</v>
+        <v>39.85</v>
       </c>
       <c r="C148" t="n">
-        <v>30.34</v>
+        <v>23.52</v>
       </c>
       <c r="D148" t="n">
-        <v>25.5</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>14.12</v>
-      </c>
-      <c r="C149" t="n">
-        <v>30.47</v>
-      </c>
-      <c r="D149" t="n">
-        <v>25.43</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>14.11</v>
-      </c>
-      <c r="C150" t="n">
-        <v>30.62</v>
-      </c>
-      <c r="D150" t="n">
-        <v>25.31</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>15.23</v>
-      </c>
-      <c r="C151" t="n">
-        <v>29.66</v>
-      </c>
-      <c r="D151" t="n">
-        <v>25.14</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>16.36</v>
-      </c>
-      <c r="C152" t="n">
-        <v>28.75</v>
-      </c>
-      <c r="D152" t="n">
-        <v>24.93</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>17.41</v>
-      </c>
-      <c r="C153" t="n">
-        <v>27.88</v>
-      </c>
-      <c r="D153" t="n">
-        <v>24.76</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>18.55</v>
-      </c>
-      <c r="C154" t="n">
-        <v>26.91</v>
-      </c>
-      <c r="D154" t="n">
-        <v>24.58</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>19.63</v>
-      </c>
-      <c r="C155" t="n">
-        <v>25.95</v>
-      </c>
-      <c r="D155" t="n">
-        <v>24.46</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>20.82</v>
-      </c>
-      <c r="C156" t="n">
-        <v>24.82</v>
-      </c>
-      <c r="D156" t="n">
-        <v>24.4</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>22.04</v>
-      </c>
-      <c r="C157" t="n">
-        <v>23.66</v>
-      </c>
-      <c r="D157" t="n">
-        <v>24.33</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="C158" t="n">
-        <v>22.51</v>
-      </c>
-      <c r="D158" t="n">
-        <v>24.33</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>24.32</v>
-      </c>
-      <c r="C159" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="D159" t="n">
-        <v>24.31</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>25.58</v>
-      </c>
-      <c r="C160" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="D160" t="n">
-        <v>24.23</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>25.72</v>
-      </c>
-      <c r="C161" t="n">
-        <v>20.14</v>
-      </c>
-      <c r="D161" t="n">
-        <v>24.14</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>25.88</v>
-      </c>
-      <c r="C162" t="n">
-        <v>20.06</v>
-      </c>
-      <c r="D162" t="n">
-        <v>24.05</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="C163" t="n">
-        <v>19.88</v>
-      </c>
-      <c r="D163" t="n">
-        <v>24.41</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>25.49</v>
-      </c>
-      <c r="C164" t="n">
-        <v>19.76</v>
-      </c>
-      <c r="D164" t="n">
-        <v>24.75</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>25.17</v>
-      </c>
-      <c r="C165" t="n">
-        <v>19.98</v>
-      </c>
-      <c r="D165" t="n">
-        <v>24.85</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>24.8</v>
-      </c>
-      <c r="C166" t="n">
-        <v>20.24</v>
-      </c>
-      <c r="D166" t="n">
-        <v>24.96</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>24.38</v>
-      </c>
-      <c r="C167" t="n">
-        <v>20.56</v>
-      </c>
-      <c r="D167" t="n">
-        <v>25.06</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="C168" t="n">
-        <v>20.82</v>
-      </c>
-      <c r="D168" t="n">
-        <v>25.28</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>23.34</v>
-      </c>
-      <c r="C169" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="D169" t="n">
-        <v>25.53</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>22.64</v>
-      </c>
-      <c r="C170" t="n">
-        <v>21.51</v>
-      </c>
-      <c r="D170" t="n">
-        <v>25.85</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>22</v>
-      </c>
-      <c r="C171" t="n">
-        <v>21.86</v>
-      </c>
-      <c r="D171" t="n">
-        <v>26.14</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>21.33</v>
-      </c>
-      <c r="C172" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="D172" t="n">
-        <v>26.47</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>21.01</v>
-      </c>
-      <c r="C173" t="n">
-        <v>22.66</v>
-      </c>
-      <c r="D173" t="n">
-        <v>26.33</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="C174" t="n">
-        <v>23.05</v>
-      </c>
-      <c r="D174" t="n">
-        <v>26.25</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>20.48</v>
-      </c>
-      <c r="C175" t="n">
-        <v>23.11</v>
-      </c>
-      <c r="D175" t="n">
-        <v>26.41</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>20.38</v>
-      </c>
-      <c r="C176" t="n">
-        <v>23.08</v>
-      </c>
-      <c r="D176" t="n">
-        <v>26.54</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>20.26</v>
-      </c>
-      <c r="C177" t="n">
-        <v>23.05</v>
-      </c>
-      <c r="D177" t="n">
-        <v>26.69</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="C178" t="n">
-        <v>23.06</v>
-      </c>
-      <c r="D178" t="n">
-        <v>26.74</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>20.24</v>
-      </c>
-      <c r="C179" t="n">
-        <v>23.03</v>
-      </c>
-      <c r="D179" t="n">
-        <v>26.73</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>20.26</v>
-      </c>
-      <c r="C180" t="n">
-        <v>22.89</v>
-      </c>
-      <c r="D180" t="n">
-        <v>26.85</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>20.42</v>
-      </c>
-      <c r="C181" t="n">
-        <v>22.73</v>
-      </c>
-      <c r="D181" t="n">
-        <v>26.85</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>20.59</v>
-      </c>
-      <c r="C182" t="n">
-        <v>22.58</v>
-      </c>
-      <c r="D182" t="n">
-        <v>26.83</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>20.78</v>
-      </c>
-      <c r="C183" t="n">
-        <v>22.37</v>
-      </c>
-      <c r="D183" t="n">
-        <v>26.86</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>20.98</v>
-      </c>
-      <c r="C184" t="n">
-        <v>22.21</v>
-      </c>
-      <c r="D184" t="n">
-        <v>26.82</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>21.24</v>
-      </c>
-      <c r="C185" t="n">
-        <v>22.09</v>
-      </c>
-      <c r="D185" t="n">
-        <v>26.67</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>21.41</v>
-      </c>
-      <c r="C186" t="n">
-        <v>22.02</v>
-      </c>
-      <c r="D186" t="n">
-        <v>26.57</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="C187" t="n">
-        <v>21.94</v>
-      </c>
-      <c r="D187" t="n">
-        <v>26.36</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>22</v>
-      </c>
-      <c r="C188" t="n">
-        <v>21.86</v>
-      </c>
-      <c r="D188" t="n">
-        <v>26.14</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>22.28</v>
-      </c>
-      <c r="C189" t="n">
-        <v>21.77</v>
-      </c>
-      <c r="D189" t="n">
-        <v>25.95</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>22.57</v>
-      </c>
-      <c r="C190" t="n">
-        <v>21.83</v>
-      </c>
-      <c r="D190" t="n">
-        <v>25.6</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>22.67</v>
-      </c>
-      <c r="C191" t="n">
-        <v>21.67</v>
-      </c>
-      <c r="D191" t="n">
-        <v>25.66</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>22.75</v>
-      </c>
-      <c r="C192" t="n">
-        <v>21.56</v>
-      </c>
-      <c r="D192" t="n">
-        <v>25.69</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>22.83</v>
-      </c>
-      <c r="C193" t="n">
-        <v>21.43</v>
-      </c>
-      <c r="D193" t="n">
-        <v>25.74</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>22.92</v>
-      </c>
-      <c r="C194" t="n">
-        <v>21.29</v>
-      </c>
-      <c r="D194" t="n">
-        <v>25.79</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>22.92</v>
-      </c>
-      <c r="C195" t="n">
-        <v>21.04</v>
-      </c>
-      <c r="D195" t="n">
-        <v>25.86</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>22.86</v>
-      </c>
-      <c r="C196" t="n">
-        <v>20.85</v>
-      </c>
-      <c r="D196" t="n">
-        <v>25.95</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>22.71</v>
-      </c>
-      <c r="C197" t="n">
-        <v>20.66</v>
-      </c>
-      <c r="D197" t="n">
-        <v>26.12</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="C198" t="n">
-        <v>20.44</v>
-      </c>
-      <c r="D198" t="n">
-        <v>26.28</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>22.52</v>
-      </c>
-      <c r="C199" t="n">
-        <v>20.16</v>
-      </c>
-      <c r="D199" t="n">
-        <v>26.63</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>22.46</v>
-      </c>
-      <c r="C200" t="n">
-        <v>19.93</v>
-      </c>
-      <c r="D200" t="n">
-        <v>26.93</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>22.54</v>
-      </c>
-      <c r="C201" t="n">
-        <v>19.93</v>
-      </c>
-      <c r="D201" t="n">
-        <v>26.85</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>22.63</v>
-      </c>
-      <c r="C202" t="n">
-        <v>19.99</v>
-      </c>
-      <c r="D202" t="n">
-        <v>26.7</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="C203" t="n">
-        <v>20.06</v>
-      </c>
-      <c r="D203" t="n">
-        <v>26.56</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>22.56</v>
-      </c>
-      <c r="C204" t="n">
-        <v>20.12</v>
-      </c>
-      <c r="D204" t="n">
-        <v>26.64</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="C205" t="n">
-        <v>20.28</v>
-      </c>
-      <c r="D205" t="n">
-        <v>26.71</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>22.49</v>
-      </c>
-      <c r="C206" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="D206" t="n">
-        <v>26.78</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>23.01</v>
-      </c>
-      <c r="C207" t="n">
-        <v>20.11</v>
-      </c>
-      <c r="D207" t="n">
-        <v>26.71</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>23.46</v>
-      </c>
-      <c r="C208" t="n">
-        <v>19.89</v>
-      </c>
-      <c r="D208" t="n">
-        <v>26.65</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>23.79</v>
-      </c>
-      <c r="C209" t="n">
-        <v>19.67</v>
-      </c>
-      <c r="D209" t="n">
-        <v>26.54</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>24.09</v>
-      </c>
-      <c r="C210" t="n">
-        <v>19.37</v>
-      </c>
-      <c r="D210" t="n">
-        <v>26.54</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>24.24</v>
-      </c>
-      <c r="C211" t="n">
-        <v>19.13</v>
-      </c>
-      <c r="D211" t="n">
-        <v>26.63</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="C212" t="n">
-        <v>18.78</v>
-      </c>
-      <c r="D212" t="n">
-        <v>26.81</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>24.51</v>
-      </c>
-      <c r="C213" t="n">
-        <v>18.58</v>
-      </c>
-      <c r="D213" t="n">
-        <v>26.92</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>24.76</v>
-      </c>
-      <c r="C214" t="n">
-        <v>18.42</v>
-      </c>
-      <c r="D214" t="n">
-        <v>26.83</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>25.02</v>
-      </c>
-      <c r="C215" t="n">
-        <v>18.22</v>
-      </c>
-      <c r="D215" t="n">
-        <v>26.76</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>25.34</v>
-      </c>
-      <c r="C216" t="n">
-        <v>18.03</v>
-      </c>
-      <c r="D216" t="n">
-        <v>26.63</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>25.25</v>
-      </c>
-      <c r="C217" t="n">
-        <v>18.17</v>
-      </c>
-      <c r="D217" t="n">
-        <v>26.58</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>25.79</v>
-      </c>
-      <c r="C218" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="D218" t="n">
-        <v>25.91</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>26.56</v>
-      </c>
-      <c r="C219" t="n">
-        <v>18.43</v>
-      </c>
-      <c r="D219" t="n">
-        <v>25.01</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>27.51</v>
-      </c>
-      <c r="C220" t="n">
-        <v>18.56</v>
-      </c>
-      <c r="D220" t="n">
-        <v>23.93</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>28.46</v>
-      </c>
-      <c r="C221" t="n">
-        <v>18.65</v>
-      </c>
-      <c r="D221" t="n">
-        <v>22.89</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>29.35</v>
-      </c>
-      <c r="C222" t="n">
-        <v>18.87</v>
-      </c>
-      <c r="D222" t="n">
-        <v>21.78</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>30.29</v>
-      </c>
-      <c r="C223" t="n">
-        <v>18.99</v>
-      </c>
-      <c r="D223" t="n">
-        <v>20.71</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>31.29</v>
-      </c>
-      <c r="C224" t="n">
-        <v>19.09</v>
-      </c>
-      <c r="D224" t="n">
-        <v>19.62</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>32.21</v>
-      </c>
-      <c r="C225" t="n">
-        <v>18.91</v>
-      </c>
-      <c r="D225" t="n">
-        <v>18.88</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>33.02</v>
-      </c>
-      <c r="C226" t="n">
-        <v>17.89</v>
-      </c>
-      <c r="D226" t="n">
-        <v>19.09</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>33.57</v>
-      </c>
-      <c r="C227" t="n">
-        <v>16.93</v>
-      </c>
-      <c r="D227" t="n">
-        <v>19.5</v>
+        <v>49.2</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0</v>
+      </c>
+      <c r="F148" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G148" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1.412</v>
+      </c>
+      <c r="J148" t="n">
+        <v>59.713</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/stacks_over_time_avg.xlsx
+++ b/Outputs/stacks_over_time_avg.xlsx
@@ -2,8 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
@@ -25,12 +26,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <family val="2"/>
       <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -50,19 +46,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -75,7 +62,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -194,7 +181,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$B$2:$B$148</f>
+              <f>'data'!$B$2:$B$188</f>
             </numRef>
           </val>
         </ser>
@@ -221,7 +208,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$C$2:$C$148</f>
+              <f>'data'!$C$2:$C$188</f>
             </numRef>
           </val>
         </ser>
@@ -248,7 +235,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$D$2:$D$148</f>
+              <f>'data'!$D$2:$D$188</f>
             </numRef>
           </val>
         </ser>
@@ -275,7 +262,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$E$2:$E$148</f>
+              <f>'data'!$E$2:$E$188</f>
             </numRef>
           </val>
         </ser>
@@ -302,142 +289,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$F$2:$F$148</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="5"/>
-          <order val="5"/>
-          <tx>
-            <strRef>
-              <f>'data'!G1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'data'!$G$2:$G$148</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="6"/>
-          <order val="6"/>
-          <tx>
-            <strRef>
-              <f>'data'!H1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'data'!$H$2:$H$148</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="7"/>
-          <order val="7"/>
-          <tx>
-            <strRef>
-              <f>'data'!I1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'data'!$I$2:$I$148</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="8"/>
-          <order val="8"/>
-          <tx>
-            <strRef>
-              <f>'data'!J1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'data'!$J$2:$J$148</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="9"/>
-          <order val="9"/>
-          <tx>
-            <strRef>
-              <f>'data'!K1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'data'!$K$2:$K$148</f>
+              <f>'data'!$F$2:$F$188</f>
             </numRef>
           </val>
         </ser>
@@ -807,9 +659,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K148"/>
+  <dimension ref="A1:F188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -823,76 +675,48 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Fish</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Scott</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Raymond</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Jonathan</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Cedric</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Bill</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Kynan</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Jonathan</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Fish</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Jacob</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Marshall</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Regan</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Cheyenne</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>10</v>
-      </c>
-      <c r="G2" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -900,22 +724,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9.949999999999999</v>
+        <v>20</v>
       </c>
       <c r="C3" t="n">
-        <v>9.949999999999999</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E3" t="n">
-        <v>9.949999999999999</v>
+        <v>20.1</v>
       </c>
       <c r="F3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G3" t="n">
-        <v>10.15</v>
+        <v>19.9</v>
       </c>
     </row>
     <row r="4">
@@ -923,22 +744,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9.93</v>
+        <v>19.93</v>
       </c>
       <c r="C4" t="n">
-        <v>9.92</v>
+        <v>20.1</v>
       </c>
       <c r="D4" t="n">
-        <v>9.970000000000001</v>
+        <v>20</v>
       </c>
       <c r="E4" t="n">
-        <v>10.02</v>
+        <v>20.13</v>
       </c>
       <c r="F4" t="n">
-        <v>10</v>
-      </c>
-      <c r="G4" t="n">
-        <v>10.17</v>
+        <v>19.83</v>
       </c>
     </row>
     <row r="5">
@@ -946,22 +764,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9.93</v>
+        <v>19.85</v>
       </c>
       <c r="C5" t="n">
-        <v>9.9</v>
+        <v>18.26</v>
       </c>
       <c r="D5" t="n">
-        <v>9.880000000000001</v>
+        <v>20</v>
       </c>
       <c r="E5" t="n">
-        <v>10.03</v>
+        <v>20.1</v>
       </c>
       <c r="F5" t="n">
-        <v>9.970000000000001</v>
-      </c>
-      <c r="G5" t="n">
-        <v>10.3</v>
+        <v>21.79</v>
       </c>
     </row>
     <row r="6">
@@ -969,22 +784,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9.949999999999999</v>
+        <v>20.46</v>
       </c>
       <c r="C6" t="n">
-        <v>9.890000000000001</v>
+        <v>16.54</v>
       </c>
       <c r="D6" t="n">
-        <v>9.82</v>
+        <v>19.96</v>
       </c>
       <c r="E6" t="n">
-        <v>10.02</v>
+        <v>20.08</v>
       </c>
       <c r="F6" t="n">
-        <v>9.94</v>
-      </c>
-      <c r="G6" t="n">
-        <v>10.38</v>
+        <v>22.96</v>
       </c>
     </row>
     <row r="7">
@@ -992,22 +804,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>10.32</v>
+        <v>20.51</v>
       </c>
       <c r="C7" t="n">
-        <v>9.880000000000001</v>
+        <v>15.39</v>
       </c>
       <c r="D7" t="n">
-        <v>9.529999999999999</v>
+        <v>20.32</v>
       </c>
       <c r="E7" t="n">
-        <v>9.93</v>
+        <v>20.03</v>
       </c>
       <c r="F7" t="n">
-        <v>9.91</v>
-      </c>
-      <c r="G7" t="n">
-        <v>10.42</v>
+        <v>23.74</v>
       </c>
     </row>
     <row r="8">
@@ -1015,22 +824,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>10.58</v>
+        <v>20.51</v>
       </c>
       <c r="C8" t="n">
-        <v>9.800000000000001</v>
+        <v>14.77</v>
       </c>
       <c r="D8" t="n">
-        <v>9.31</v>
+        <v>20.59</v>
       </c>
       <c r="E8" t="n">
-        <v>9.98</v>
+        <v>19.91</v>
       </c>
       <c r="F8" t="n">
-        <v>9.890000000000001</v>
-      </c>
-      <c r="G8" t="n">
-        <v>10.44</v>
+        <v>24.21</v>
       </c>
     </row>
     <row r="9">
@@ -1038,22 +844,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>10.73</v>
+        <v>20.44</v>
       </c>
       <c r="C9" t="n">
-        <v>9.710000000000001</v>
+        <v>14.31</v>
       </c>
       <c r="D9" t="n">
-        <v>9.31</v>
+        <v>20.78</v>
       </c>
       <c r="E9" t="n">
-        <v>9.98</v>
+        <v>19.95</v>
       </c>
       <c r="F9" t="n">
-        <v>9.869999999999999</v>
-      </c>
-      <c r="G9" t="n">
-        <v>10.41</v>
+        <v>24.52</v>
       </c>
     </row>
     <row r="10">
@@ -1061,22 +864,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>10.85</v>
+        <v>21.08</v>
       </c>
       <c r="C10" t="n">
-        <v>9.59</v>
+        <v>13.3</v>
       </c>
       <c r="D10" t="n">
-        <v>9.56</v>
+        <v>20.91</v>
       </c>
       <c r="E10" t="n">
-        <v>9.93</v>
+        <v>19.96</v>
       </c>
       <c r="F10" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="G10" t="n">
-        <v>10.27</v>
+        <v>24.76</v>
       </c>
     </row>
     <row r="11">
@@ -1084,22 +884,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>10.94</v>
+        <v>21.59</v>
       </c>
       <c r="C11" t="n">
-        <v>9.49</v>
+        <v>12.47</v>
       </c>
       <c r="D11" t="n">
-        <v>9.76</v>
+        <v>21.04</v>
       </c>
       <c r="E11" t="n">
-        <v>9.99</v>
+        <v>19.96</v>
       </c>
       <c r="F11" t="n">
-        <v>9.66</v>
-      </c>
-      <c r="G11" t="n">
-        <v>10.16</v>
+        <v>24.95</v>
       </c>
     </row>
     <row r="12">
@@ -1107,22 +904,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>10.94</v>
+        <v>21.59</v>
       </c>
       <c r="C12" t="n">
-        <v>9.49</v>
+        <v>12.47</v>
       </c>
       <c r="D12" t="n">
-        <v>9.76</v>
+        <v>21.04</v>
       </c>
       <c r="E12" t="n">
-        <v>9.99</v>
+        <v>19.96</v>
       </c>
       <c r="F12" t="n">
-        <v>9.66</v>
-      </c>
-      <c r="G12" t="n">
-        <v>10.16</v>
+        <v>24.95</v>
       </c>
     </row>
     <row r="13">
@@ -1130,22 +924,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>11.31</v>
+        <v>22.2</v>
       </c>
       <c r="C13" t="n">
-        <v>9.35</v>
+        <v>10.98</v>
       </c>
       <c r="D13" t="n">
-        <v>9.85</v>
+        <v>21.19</v>
       </c>
       <c r="E13" t="n">
-        <v>9.98</v>
+        <v>19.94</v>
       </c>
       <c r="F13" t="n">
-        <v>9.49</v>
-      </c>
-      <c r="G13" t="n">
-        <v>10.02</v>
+        <v>25.7</v>
       </c>
     </row>
     <row r="14">
@@ -1153,22 +944,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>11.69</v>
+        <v>22.82</v>
       </c>
       <c r="C14" t="n">
-        <v>9.220000000000001</v>
+        <v>9.48</v>
       </c>
       <c r="D14" t="n">
-        <v>9.859999999999999</v>
+        <v>21.4</v>
       </c>
       <c r="E14" t="n">
-        <v>9.960000000000001</v>
+        <v>19.89</v>
       </c>
       <c r="F14" t="n">
-        <v>9.43</v>
-      </c>
-      <c r="G14" t="n">
-        <v>9.84</v>
+        <v>26.41</v>
       </c>
     </row>
     <row r="15">
@@ -1176,22 +964,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>13.07</v>
+        <v>23.39</v>
       </c>
       <c r="C15" t="n">
-        <v>9.09</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>8.94</v>
+        <v>21.69</v>
       </c>
       <c r="E15" t="n">
-        <v>9.859999999999999</v>
+        <v>19.84</v>
       </c>
       <c r="F15" t="n">
-        <v>9.369999999999999</v>
-      </c>
-      <c r="G15" t="n">
-        <v>9.66</v>
+        <v>27.12</v>
       </c>
     </row>
     <row r="16">
@@ -1199,22 +984,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>14.38</v>
+        <v>23.98</v>
       </c>
       <c r="C16" t="n">
-        <v>8.960000000000001</v>
+        <v>10.2</v>
       </c>
       <c r="D16" t="n">
-        <v>7.99</v>
+        <v>21.97</v>
       </c>
       <c r="E16" t="n">
-        <v>9.710000000000001</v>
+        <v>19.81</v>
       </c>
       <c r="F16" t="n">
-        <v>9.59</v>
-      </c>
-      <c r="G16" t="n">
-        <v>9.359999999999999</v>
+        <v>27.04</v>
       </c>
     </row>
     <row r="17">
@@ -1222,22 +1004,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>15.61</v>
+        <v>24.18</v>
       </c>
       <c r="C17" t="n">
-        <v>9.380000000000001</v>
+        <v>11.33</v>
       </c>
       <c r="D17" t="n">
-        <v>8.039999999999999</v>
+        <v>22.25</v>
       </c>
       <c r="E17" t="n">
-        <v>9.5</v>
+        <v>19.78</v>
       </c>
       <c r="F17" t="n">
-        <v>9.74</v>
-      </c>
-      <c r="G17" t="n">
-        <v>8.73</v>
+        <v>26.96</v>
       </c>
     </row>
     <row r="18">
@@ -1245,22 +1024,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>16.65</v>
+        <v>24.7</v>
       </c>
       <c r="C18" t="n">
-        <v>9.81</v>
+        <v>12.38</v>
       </c>
       <c r="D18" t="n">
-        <v>8.27</v>
+        <v>22.29</v>
       </c>
       <c r="E18" t="n">
-        <v>9.279999999999999</v>
+        <v>19.75</v>
       </c>
       <c r="F18" t="n">
-        <v>9.890000000000001</v>
-      </c>
-      <c r="G18" t="n">
-        <v>8.1</v>
+        <v>26.88</v>
       </c>
     </row>
     <row r="19">
@@ -1268,22 +1044,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>17.67</v>
+        <v>25.25</v>
       </c>
       <c r="C19" t="n">
-        <v>10.28</v>
+        <v>13.58</v>
       </c>
       <c r="D19" t="n">
-        <v>8.5</v>
+        <v>22.33</v>
       </c>
       <c r="E19" t="n">
-        <v>9.1</v>
+        <v>19.77</v>
       </c>
       <c r="F19" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="G19" t="n">
-        <v>7.44</v>
+        <v>26.57</v>
       </c>
     </row>
     <row r="20">
@@ -1291,22 +1064,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>18.32</v>
+        <v>26.86</v>
       </c>
       <c r="C20" t="n">
-        <v>10.79</v>
+        <v>14.07</v>
       </c>
       <c r="D20" t="n">
-        <v>8.609999999999999</v>
+        <v>22.37</v>
       </c>
       <c r="E20" t="n">
-        <v>8.9</v>
+        <v>19.63</v>
       </c>
       <c r="F20" t="n">
-        <v>10.12</v>
-      </c>
-      <c r="G20" t="n">
-        <v>7.26</v>
+        <v>26.07</v>
       </c>
     </row>
     <row r="21">
@@ -1314,22 +1084,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>18.97</v>
+        <v>27.84</v>
       </c>
       <c r="C21" t="n">
-        <v>11.33</v>
+        <v>15.21</v>
       </c>
       <c r="D21" t="n">
-        <v>8.48</v>
+        <v>22.43</v>
       </c>
       <c r="E21" t="n">
-        <v>8.77</v>
+        <v>19.45</v>
       </c>
       <c r="F21" t="n">
-        <v>10.28</v>
-      </c>
-      <c r="G21" t="n">
-        <v>7.18</v>
+        <v>25.57</v>
       </c>
     </row>
     <row r="22">
@@ -1337,22 +1104,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>19.62</v>
+        <v>28.8</v>
       </c>
       <c r="C22" t="n">
-        <v>11.78</v>
+        <v>16.41</v>
       </c>
       <c r="D22" t="n">
-        <v>8.35</v>
+        <v>22.45</v>
       </c>
       <c r="E22" t="n">
-        <v>8.550000000000001</v>
+        <v>19.27</v>
       </c>
       <c r="F22" t="n">
-        <v>10.51</v>
-      </c>
-      <c r="G22" t="n">
-        <v>7.2</v>
+        <v>25.07</v>
       </c>
     </row>
     <row r="23">
@@ -1360,22 +1124,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>20.09</v>
+        <v>29.77</v>
       </c>
       <c r="C23" t="n">
-        <v>12.23</v>
+        <v>17.61</v>
       </c>
       <c r="D23" t="n">
-        <v>8.25</v>
+        <v>22.52</v>
       </c>
       <c r="E23" t="n">
-        <v>8.43</v>
+        <v>18.99</v>
       </c>
       <c r="F23" t="n">
-        <v>10.76</v>
-      </c>
-      <c r="G23" t="n">
-        <v>7.29</v>
+        <v>24.48</v>
       </c>
     </row>
     <row r="24">
@@ -1383,22 +1144,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>20.55</v>
+        <v>30.73</v>
       </c>
       <c r="C24" t="n">
-        <v>12.67</v>
+        <v>18.81</v>
       </c>
       <c r="D24" t="n">
-        <v>8.18</v>
+        <v>22.53</v>
       </c>
       <c r="E24" t="n">
-        <v>8.380000000000001</v>
+        <v>18.7</v>
       </c>
       <c r="F24" t="n">
-        <v>10.89</v>
-      </c>
-      <c r="G24" t="n">
-        <v>7.37</v>
+        <v>23.97</v>
       </c>
     </row>
     <row r="25">
@@ -1406,22 +1164,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>20.01</v>
+        <v>31.75</v>
       </c>
       <c r="C25" t="n">
-        <v>13.08</v>
+        <v>18.49</v>
       </c>
       <c r="D25" t="n">
-        <v>9.06</v>
+        <v>22.47</v>
       </c>
       <c r="E25" t="n">
-        <v>8.449999999999999</v>
+        <v>18.42</v>
       </c>
       <c r="F25" t="n">
-        <v>11.02</v>
-      </c>
-      <c r="G25" t="n">
-        <v>7.44</v>
+        <v>23.49</v>
       </c>
     </row>
     <row r="26">
@@ -1429,22 +1184,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>19.54</v>
+        <v>32.91</v>
       </c>
       <c r="C26" t="n">
-        <v>13.49</v>
+        <v>18.18</v>
       </c>
       <c r="D26" t="n">
-        <v>9.99</v>
+        <v>22.39</v>
       </c>
       <c r="E26" t="n">
-        <v>8.56</v>
+        <v>18.13</v>
       </c>
       <c r="F26" t="n">
-        <v>10.88</v>
-      </c>
-      <c r="G26" t="n">
-        <v>7.6</v>
+        <v>23.01</v>
       </c>
     </row>
     <row r="27">
@@ -1452,22 +1204,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>19.13</v>
+        <v>34.04</v>
       </c>
       <c r="C27" t="n">
-        <v>13.38</v>
+        <v>17.51</v>
       </c>
       <c r="D27" t="n">
-        <v>9.92</v>
+        <v>22.32</v>
       </c>
       <c r="E27" t="n">
-        <v>8.720000000000001</v>
+        <v>18.22</v>
       </c>
       <c r="F27" t="n">
-        <v>10.81</v>
-      </c>
-      <c r="G27" t="n">
-        <v>8.1</v>
+        <v>22.53</v>
       </c>
     </row>
     <row r="28">
@@ -1475,22 +1224,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>18.7</v>
+        <v>35.05</v>
       </c>
       <c r="C28" t="n">
-        <v>13.26</v>
+        <v>16.84</v>
       </c>
       <c r="D28" t="n">
-        <v>9.9</v>
+        <v>22.43</v>
       </c>
       <c r="E28" t="n">
-        <v>8.94</v>
+        <v>18.32</v>
       </c>
       <c r="F28" t="n">
-        <v>10.69</v>
-      </c>
-      <c r="G28" t="n">
-        <v>8.59</v>
+        <v>21.97</v>
       </c>
     </row>
     <row r="29">
@@ -1498,22 +1244,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>18.31</v>
+        <v>36.05</v>
       </c>
       <c r="C29" t="n">
-        <v>13.12</v>
+        <v>15.91</v>
       </c>
       <c r="D29" t="n">
-        <v>9.859999999999999</v>
+        <v>22.54</v>
       </c>
       <c r="E29" t="n">
-        <v>9.06</v>
+        <v>18.43</v>
       </c>
       <c r="F29" t="n">
-        <v>10.61</v>
-      </c>
-      <c r="G29" t="n">
-        <v>9.130000000000001</v>
+        <v>21.68</v>
       </c>
     </row>
     <row r="30">
@@ -1521,22 +1264,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>18.31</v>
+        <v>36.03</v>
       </c>
       <c r="C30" t="n">
-        <v>12.98</v>
+        <v>15.76</v>
       </c>
       <c r="D30" t="n">
-        <v>9.56</v>
+        <v>22.65</v>
       </c>
       <c r="E30" t="n">
-        <v>9.23</v>
+        <v>18.55</v>
       </c>
       <c r="F30" t="n">
-        <v>10.81</v>
-      </c>
-      <c r="G30" t="n">
-        <v>9.210000000000001</v>
+        <v>21.63</v>
       </c>
     </row>
     <row r="31">
@@ -1544,22 +1284,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>18.31</v>
+        <v>36</v>
       </c>
       <c r="C31" t="n">
-        <v>12.87</v>
+        <v>15.52</v>
       </c>
       <c r="D31" t="n">
-        <v>9.27</v>
+        <v>22.8</v>
       </c>
       <c r="E31" t="n">
-        <v>9.35</v>
+        <v>18.72</v>
       </c>
       <c r="F31" t="n">
-        <v>11.01</v>
-      </c>
-      <c r="G31" t="n">
-        <v>9.289999999999999</v>
+        <v>21.58</v>
       </c>
     </row>
     <row r="32">
@@ -1567,22 +1304,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>18.31</v>
+        <v>35.99</v>
       </c>
       <c r="C32" t="n">
-        <v>13.55</v>
+        <v>15.29</v>
       </c>
       <c r="D32" t="n">
-        <v>8.98</v>
+        <v>22.96</v>
       </c>
       <c r="E32" t="n">
-        <v>9.16</v>
+        <v>18.87</v>
       </c>
       <c r="F32" t="n">
-        <v>11.14</v>
-      </c>
-      <c r="G32" t="n">
-        <v>8.960000000000001</v>
+        <v>21.51</v>
       </c>
     </row>
     <row r="33">
@@ -1590,22 +1324,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>18.31</v>
+        <v>36.01</v>
       </c>
       <c r="C33" t="n">
-        <v>14.23</v>
+        <v>15.06</v>
       </c>
       <c r="D33" t="n">
-        <v>8.68</v>
+        <v>23.13</v>
       </c>
       <c r="E33" t="n">
-        <v>8.890000000000001</v>
+        <v>19.12</v>
       </c>
       <c r="F33" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="G33" t="n">
-        <v>8.619999999999999</v>
+        <v>21.42</v>
       </c>
     </row>
     <row r="34">
@@ -1613,28 +1344,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>18.31</v>
+        <v>35.96</v>
       </c>
       <c r="C34" t="n">
-        <v>14.91</v>
+        <v>14.92</v>
       </c>
       <c r="D34" t="n">
-        <v>8.35</v>
+        <v>23.3</v>
       </c>
       <c r="E34" t="n">
-        <v>8.5</v>
+        <v>19.39</v>
       </c>
       <c r="F34" t="n">
-        <v>11.96</v>
-      </c>
-      <c r="G34" t="n">
-        <v>8.06</v>
-      </c>
-      <c r="H34" t="n">
-        <v>10</v>
-      </c>
-      <c r="I34" t="n">
-        <v>10</v>
+        <v>21.3</v>
       </c>
     </row>
     <row r="35">
@@ -1642,28 +1364,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>18.3</v>
+        <v>35.85</v>
       </c>
       <c r="C35" t="n">
-        <v>16.23</v>
+        <v>15.23</v>
       </c>
       <c r="D35" t="n">
-        <v>7.72</v>
+        <v>23.09</v>
       </c>
       <c r="E35" t="n">
-        <v>7.77</v>
+        <v>19.66</v>
       </c>
       <c r="F35" t="n">
-        <v>12.55</v>
-      </c>
-      <c r="G35" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="H35" t="n">
-        <v>10</v>
-      </c>
-      <c r="I35" t="n">
-        <v>9.75</v>
+        <v>21.16</v>
       </c>
     </row>
     <row r="36">
@@ -1671,28 +1384,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>18.04</v>
+        <v>35.54</v>
       </c>
       <c r="C36" t="n">
-        <v>17.55</v>
+        <v>15.51</v>
       </c>
       <c r="D36" t="n">
-        <v>7.05</v>
+        <v>23.03</v>
       </c>
       <c r="E36" t="n">
-        <v>7.44</v>
+        <v>19.91</v>
       </c>
       <c r="F36" t="n">
-        <v>13.09</v>
-      </c>
-      <c r="G36" t="n">
-        <v>6.96</v>
-      </c>
-      <c r="H36" t="n">
-        <v>9.866666666666667</v>
-      </c>
-      <c r="I36" t="n">
-        <v>9.533333333333333</v>
+        <v>21.02</v>
       </c>
     </row>
     <row r="37">
@@ -1700,28 +1404,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>17.74</v>
+        <v>35.25</v>
       </c>
       <c r="C37" t="n">
-        <v>18.84</v>
+        <v>16.21</v>
       </c>
       <c r="D37" t="n">
-        <v>6.76</v>
+        <v>22.96</v>
       </c>
       <c r="E37" t="n">
-        <v>7.1</v>
+        <v>19.76</v>
       </c>
       <c r="F37" t="n">
-        <v>13.59</v>
-      </c>
-      <c r="G37" t="n">
-        <v>6.22</v>
-      </c>
-      <c r="H37" t="n">
-        <v>9.725</v>
-      </c>
-      <c r="I37" t="n">
-        <v>9.175000000000001</v>
+        <v>20.82</v>
       </c>
     </row>
     <row r="38">
@@ -1729,28 +1424,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>17.88</v>
+        <v>34.89</v>
       </c>
       <c r="C38" t="n">
-        <v>20.13</v>
+        <v>17</v>
       </c>
       <c r="D38" t="n">
-        <v>6.4</v>
+        <v>22.94</v>
       </c>
       <c r="E38" t="n">
-        <v>6.76</v>
+        <v>19.55</v>
       </c>
       <c r="F38" t="n">
-        <v>14.04</v>
-      </c>
-      <c r="G38" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="H38" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="I38" t="n">
-        <v>8.940000000000001</v>
+        <v>20.63</v>
       </c>
     </row>
     <row r="39">
@@ -1758,28 +1444,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>18.14</v>
+        <v>34.6</v>
       </c>
       <c r="C39" t="n">
-        <v>21.45</v>
+        <v>17.75</v>
       </c>
       <c r="D39" t="n">
-        <v>5.99</v>
+        <v>22.92</v>
       </c>
       <c r="E39" t="n">
-        <v>6.4</v>
+        <v>19.3</v>
       </c>
       <c r="F39" t="n">
-        <v>14.49</v>
-      </c>
-      <c r="G39" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="H39" t="n">
-        <v>9.366666666666665</v>
-      </c>
-      <c r="I39" t="n">
-        <v>7.725000000000001</v>
+        <v>20.44</v>
       </c>
     </row>
     <row r="40">
@@ -1787,28 +1464,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>19.26</v>
+        <v>34.24</v>
       </c>
       <c r="C40" t="n">
-        <v>22.76</v>
+        <v>17.45</v>
       </c>
       <c r="D40" t="n">
-        <v>5.85</v>
+        <v>22.82</v>
       </c>
       <c r="E40" t="n">
-        <v>5.97</v>
+        <v>19.1</v>
       </c>
       <c r="F40" t="n">
-        <v>14.65</v>
-      </c>
-      <c r="G40" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="H40" t="n">
-        <v>9.185714285714287</v>
-      </c>
-      <c r="I40" t="n">
-        <v>6.857142857142857</v>
+        <v>21.38</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1484,19 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>19.93</v>
+        <v>33.9</v>
       </c>
       <c r="C41" t="n">
-        <v>24.04</v>
+        <v>17.29</v>
       </c>
       <c r="D41" t="n">
-        <v>5.65</v>
+        <v>22.58</v>
       </c>
       <c r="E41" t="n">
-        <v>5.49</v>
+        <v>18.89</v>
       </c>
       <c r="F41" t="n">
-        <v>14.82</v>
-      </c>
-      <c r="G41" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="H41" t="n">
-        <v>10.0875</v>
-      </c>
-      <c r="I41" t="n">
-        <v>6.20625</v>
+        <v>22.33</v>
       </c>
     </row>
     <row r="42">
@@ -1845,28 +1504,19 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>20.17</v>
+        <v>33.67</v>
       </c>
       <c r="C42" t="n">
-        <v>24.57</v>
+        <v>16.99</v>
       </c>
       <c r="D42" t="n">
-        <v>5.28</v>
+        <v>22.35</v>
       </c>
       <c r="E42" t="n">
-        <v>5.27</v>
+        <v>18.68</v>
       </c>
       <c r="F42" t="n">
-        <v>15.04</v>
-      </c>
-      <c r="G42" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="H42" t="n">
-        <v>10.72222222222222</v>
-      </c>
-      <c r="I42" t="n">
-        <v>5.794444444444444</v>
+        <v>23.3</v>
       </c>
     </row>
     <row r="43">
@@ -1874,31 +1524,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>20.5</v>
+        <v>33.4</v>
       </c>
       <c r="C43" t="n">
-        <v>25.05</v>
+        <v>16.62</v>
       </c>
       <c r="D43" t="n">
-        <v>4.96</v>
+        <v>22.12</v>
       </c>
       <c r="E43" t="n">
-        <v>5.06</v>
+        <v>18.41</v>
       </c>
       <c r="F43" t="n">
-        <v>15.12</v>
-      </c>
-      <c r="G43" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="H43" t="n">
-        <v>12.122</v>
-      </c>
-      <c r="I43" t="n">
-        <v>5.395</v>
-      </c>
-      <c r="J43" t="n">
-        <v>10</v>
+        <v>24.47</v>
       </c>
     </row>
     <row r="44">
@@ -1906,31 +1544,19 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>20.83</v>
+        <v>33.22</v>
       </c>
       <c r="C44" t="n">
-        <v>25.52</v>
+        <v>16.13</v>
       </c>
       <c r="D44" t="n">
-        <v>4.34</v>
+        <v>21.89</v>
       </c>
       <c r="E44" t="n">
-        <v>4.92</v>
+        <v>18.14</v>
       </c>
       <c r="F44" t="n">
-        <v>14.41</v>
-      </c>
-      <c r="G44" t="n">
-        <v>8.609999999999999</v>
-      </c>
-      <c r="H44" t="n">
-        <v>12.122</v>
-      </c>
-      <c r="I44" t="n">
-        <v>5.395</v>
-      </c>
-      <c r="J44" t="n">
-        <v>9.949999999999999</v>
+        <v>25.67</v>
       </c>
     </row>
     <row r="45">
@@ -1938,31 +1564,19 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>21.46</v>
+        <v>33.06</v>
       </c>
       <c r="C45" t="n">
-        <v>25.4</v>
+        <v>15.23</v>
       </c>
       <c r="D45" t="n">
-        <v>4.02</v>
+        <v>22.02</v>
       </c>
       <c r="E45" t="n">
-        <v>5.07</v>
+        <v>17.86</v>
       </c>
       <c r="F45" t="n">
-        <v>13.71</v>
-      </c>
-      <c r="G45" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="H45" t="n">
-        <v>13.315</v>
-      </c>
-      <c r="I45" t="n">
-        <v>4.575</v>
-      </c>
-      <c r="J45" t="n">
-        <v>9.916666666666666</v>
+        <v>26.86</v>
       </c>
     </row>
     <row r="46">
@@ -1970,31 +1584,19 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>22.33</v>
+        <v>32.96</v>
       </c>
       <c r="C46" t="n">
-        <v>25.26</v>
+        <v>14.35</v>
       </c>
       <c r="D46" t="n">
-        <v>4.74</v>
+        <v>22.01</v>
       </c>
       <c r="E46" t="n">
-        <v>4.87</v>
+        <v>17.65</v>
       </c>
       <c r="F46" t="n">
-        <v>13.06</v>
-      </c>
-      <c r="G46" t="n">
-        <v>10.61</v>
-      </c>
-      <c r="H46" t="n">
-        <v>14.498</v>
-      </c>
-      <c r="I46" t="n">
-        <v>3.795</v>
-      </c>
-      <c r="J46" t="n">
-        <v>9.699999999999999</v>
+        <v>28.06</v>
       </c>
     </row>
     <row r="47">
@@ -2002,31 +1604,19 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>23.25</v>
+        <v>32.86</v>
       </c>
       <c r="C47" t="n">
-        <v>25.12</v>
+        <v>13.46</v>
       </c>
       <c r="D47" t="n">
-        <v>5.01</v>
+        <v>22.02</v>
       </c>
       <c r="E47" t="n">
-        <v>4.62</v>
+        <v>17.4</v>
       </c>
       <c r="F47" t="n">
-        <v>12.45</v>
-      </c>
-      <c r="G47" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="H47" t="n">
-        <v>15.716</v>
-      </c>
-      <c r="I47" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="J47" t="n">
-        <v>9.790000000000001</v>
+        <v>29.32</v>
       </c>
     </row>
     <row r="48">
@@ -2034,31 +1624,19 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>23.73</v>
+        <v>32.81</v>
       </c>
       <c r="C48" t="n">
-        <v>24.99</v>
+        <v>12.59</v>
       </c>
       <c r="D48" t="n">
-        <v>5.23</v>
+        <v>21.81</v>
       </c>
       <c r="E48" t="n">
-        <v>4.38</v>
+        <v>17.22</v>
       </c>
       <c r="F48" t="n">
-        <v>11.94</v>
-      </c>
-      <c r="G48" t="n">
-        <v>13</v>
-      </c>
-      <c r="H48" t="n">
-        <v>16.964</v>
-      </c>
-      <c r="I48" t="n">
-        <v>3.015</v>
-      </c>
-      <c r="J48" t="n">
-        <v>9.85</v>
+        <v>30.65</v>
       </c>
     </row>
     <row r="49">
@@ -2066,31 +1644,19 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>23.85</v>
+        <v>32.7</v>
       </c>
       <c r="C49" t="n">
-        <v>24.86</v>
+        <v>11.96</v>
       </c>
       <c r="D49" t="n">
-        <v>5.78</v>
+        <v>21.6</v>
       </c>
       <c r="E49" t="n">
-        <v>4.13</v>
+        <v>16.85</v>
       </c>
       <c r="F49" t="n">
-        <v>11.43</v>
-      </c>
-      <c r="G49" t="n">
-        <v>13.27</v>
-      </c>
-      <c r="H49" t="n">
-        <v>18.272</v>
-      </c>
-      <c r="I49" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="J49" t="n">
-        <v>9.892857142857142</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="50">
@@ -2098,31 +1664,19 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>23.2</v>
+        <v>32.67</v>
       </c>
       <c r="C50" t="n">
-        <v>24.71</v>
+        <v>12.33</v>
       </c>
       <c r="D50" t="n">
-        <v>6.33</v>
+        <v>21.45</v>
       </c>
       <c r="E50" t="n">
-        <v>3.96</v>
+        <v>16.48</v>
       </c>
       <c r="F50" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="G50" t="n">
-        <v>13.61</v>
-      </c>
-      <c r="H50" t="n">
-        <v>19.58</v>
-      </c>
-      <c r="I50" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="J50" t="n">
-        <v>9.925000000000001</v>
+        <v>32.17</v>
       </c>
     </row>
     <row r="51">
@@ -2130,31 +1684,19 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>23</v>
+        <v>32.54</v>
       </c>
       <c r="C51" t="n">
-        <v>24.46</v>
+        <v>12.32</v>
       </c>
       <c r="D51" t="n">
-        <v>6.92</v>
+        <v>21.38</v>
       </c>
       <c r="E51" t="n">
-        <v>3.83</v>
+        <v>16.11</v>
       </c>
       <c r="F51" t="n">
-        <v>10.44</v>
-      </c>
-      <c r="G51" t="n">
-        <v>13.39</v>
-      </c>
-      <c r="H51" t="n">
-        <v>20.918</v>
-      </c>
-      <c r="I51" t="n">
-        <v>3.095</v>
-      </c>
-      <c r="J51" t="n">
-        <v>9.949999999999999</v>
+        <v>32.75</v>
       </c>
     </row>
     <row r="52">
@@ -2162,31 +1704,19 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>23.83</v>
+        <v>32.3</v>
       </c>
       <c r="C52" t="n">
-        <v>24.29</v>
+        <v>12.39</v>
       </c>
       <c r="D52" t="n">
-        <v>7.68</v>
+        <v>21.4</v>
       </c>
       <c r="E52" t="n">
-        <v>3.41</v>
+        <v>15.7</v>
       </c>
       <c r="F52" t="n">
-        <v>9.949999999999999</v>
-      </c>
-      <c r="G52" t="n">
-        <v>13.09</v>
-      </c>
-      <c r="H52" t="n">
-        <v>21.426</v>
-      </c>
-      <c r="I52" t="n">
-        <v>3.359999999999999</v>
-      </c>
-      <c r="J52" t="n">
-        <v>9.959999999999999</v>
+        <v>33.31</v>
       </c>
     </row>
     <row r="53">
@@ -2194,31 +1724,19 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>24.56</v>
+        <v>32.04</v>
       </c>
       <c r="C53" t="n">
-        <v>24.17</v>
+        <v>12.63</v>
       </c>
       <c r="D53" t="n">
-        <v>8.44</v>
+        <v>21.35</v>
       </c>
       <c r="E53" t="n">
-        <v>4.01</v>
+        <v>15.38</v>
       </c>
       <c r="F53" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G53" t="n">
-        <v>12.53</v>
-      </c>
-      <c r="H53" t="n">
-        <v>21.934</v>
-      </c>
-      <c r="I53" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="J53" t="n">
-        <v>9.959999999999999</v>
+        <v>33.68</v>
       </c>
     </row>
     <row r="54">
@@ -2226,31 +1744,19 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>24.94</v>
+        <v>31.77</v>
       </c>
       <c r="C54" t="n">
-        <v>24.05</v>
+        <v>13.03</v>
       </c>
       <c r="D54" t="n">
-        <v>10.92</v>
+        <v>21.19</v>
       </c>
       <c r="E54" t="n">
-        <v>4.61</v>
+        <v>15.05</v>
       </c>
       <c r="F54" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G54" t="n">
-        <v>11.98</v>
-      </c>
-      <c r="H54" t="n">
-        <v>21.54</v>
-      </c>
-      <c r="I54" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="J54" t="n">
-        <v>8.959999999999999</v>
+        <v>34.03</v>
       </c>
     </row>
     <row r="55">
@@ -2258,31 +1764,19 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>25.03</v>
+        <v>31.52</v>
       </c>
       <c r="C55" t="n">
-        <v>23.86</v>
+        <v>13.46</v>
       </c>
       <c r="D55" t="n">
-        <v>13.32</v>
+        <v>20.98</v>
       </c>
       <c r="E55" t="n">
-        <v>6.21</v>
+        <v>14.72</v>
       </c>
       <c r="F55" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G55" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="H55" t="n">
-        <v>21.42</v>
-      </c>
-      <c r="I55" t="n">
-        <v>5.080000000000001</v>
-      </c>
-      <c r="J55" t="n">
-        <v>8.969999999999999</v>
+        <v>34.38</v>
       </c>
     </row>
     <row r="56">
@@ -2290,31 +1784,19 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>24.8</v>
+        <v>31.28</v>
       </c>
       <c r="C56" t="n">
-        <v>23.67</v>
+        <v>13.96</v>
       </c>
       <c r="D56" t="n">
-        <v>16.05</v>
+        <v>20.76</v>
       </c>
       <c r="E56" t="n">
-        <v>7.75</v>
+        <v>14.33</v>
       </c>
       <c r="F56" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G56" t="n">
-        <v>10.23</v>
-      </c>
-      <c r="H56" t="n">
-        <v>20.385</v>
-      </c>
-      <c r="I56" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="J56" t="n">
-        <v>8.93</v>
+        <v>34.73</v>
       </c>
     </row>
     <row r="57">
@@ -2322,31 +1804,19 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>24.56</v>
+        <v>31.08</v>
       </c>
       <c r="C57" t="n">
-        <v>23.49</v>
+        <v>14.31</v>
       </c>
       <c r="D57" t="n">
-        <v>18.86</v>
+        <v>20.52</v>
       </c>
       <c r="E57" t="n">
-        <v>9.369999999999999</v>
+        <v>14</v>
       </c>
       <c r="F57" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G57" t="n">
-        <v>9.93</v>
-      </c>
-      <c r="H57" t="n">
-        <v>19.355</v>
-      </c>
-      <c r="I57" t="n">
-        <v>5.924999999999999</v>
-      </c>
-      <c r="J57" t="n">
-        <v>9.005000000000001</v>
+        <v>35.13</v>
       </c>
     </row>
     <row r="58">
@@ -2354,31 +1824,19 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>24.27</v>
+        <v>30.88</v>
       </c>
       <c r="C58" t="n">
-        <v>23.26</v>
+        <v>14.73</v>
       </c>
       <c r="D58" t="n">
-        <v>21.68</v>
+        <v>20.28</v>
       </c>
       <c r="E58" t="n">
-        <v>10.87</v>
+        <v>13.6</v>
       </c>
       <c r="F58" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G58" t="n">
-        <v>9.630000000000001</v>
-      </c>
-      <c r="H58" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="I58" t="n">
-        <v>7.164999999999999</v>
-      </c>
-      <c r="J58" t="n">
-        <v>8.81</v>
+        <v>35.52</v>
       </c>
     </row>
     <row r="59">
@@ -2386,31 +1844,19 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>24.21</v>
+        <v>30.61</v>
       </c>
       <c r="C59" t="n">
-        <v>23.03</v>
+        <v>15.1</v>
       </c>
       <c r="D59" t="n">
-        <v>24.23</v>
+        <v>20.05</v>
       </c>
       <c r="E59" t="n">
-        <v>12.37</v>
+        <v>13.41</v>
       </c>
       <c r="F59" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G59" t="n">
-        <v>9.31</v>
-      </c>
-      <c r="H59" t="n">
-        <v>16.245</v>
-      </c>
-      <c r="I59" t="n">
-        <v>8.425000000000001</v>
-      </c>
-      <c r="J59" t="n">
-        <v>8.665000000000003</v>
+        <v>35.83</v>
       </c>
     </row>
     <row r="60">
@@ -2418,31 +1864,19 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>23.8</v>
+        <v>30.26</v>
       </c>
       <c r="C60" t="n">
-        <v>22.71</v>
+        <v>15.62</v>
       </c>
       <c r="D60" t="n">
-        <v>26.23</v>
+        <v>19.81</v>
       </c>
       <c r="E60" t="n">
-        <v>13.32</v>
+        <v>13.23</v>
       </c>
       <c r="F60" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G60" t="n">
-        <v>10.51</v>
-      </c>
-      <c r="H60" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="I60" t="n">
-        <v>9.703999999999999</v>
-      </c>
-      <c r="J60" t="n">
-        <v>8.52</v>
+        <v>36.08</v>
       </c>
     </row>
     <row r="61">
@@ -2450,31 +1884,19 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>23.4</v>
+        <v>30.11</v>
       </c>
       <c r="C61" t="n">
-        <v>22.49</v>
+        <v>16.42</v>
       </c>
       <c r="D61" t="n">
-        <v>28.29</v>
+        <v>19.52</v>
       </c>
       <c r="E61" t="n">
-        <v>14.26</v>
+        <v>13.04</v>
       </c>
       <c r="F61" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G61" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="H61" t="n">
-        <v>13.175</v>
-      </c>
-      <c r="I61" t="n">
-        <v>10.908</v>
-      </c>
-      <c r="J61" t="n">
-        <v>8.355</v>
+        <v>35.91</v>
       </c>
     </row>
     <row r="62">
@@ -2482,31 +1904,19 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>22.24</v>
+        <v>29.96</v>
       </c>
       <c r="C62" t="n">
-        <v>22.27</v>
+        <v>17.29</v>
       </c>
       <c r="D62" t="n">
-        <v>30.31</v>
+        <v>19.15</v>
       </c>
       <c r="E62" t="n">
-        <v>15.55</v>
+        <v>12.9</v>
       </c>
       <c r="F62" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G62" t="n">
-        <v>12.94</v>
-      </c>
-      <c r="H62" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="I62" t="n">
-        <v>12.392</v>
-      </c>
-      <c r="J62" t="n">
-        <v>8.139999999999999</v>
+        <v>35.7</v>
       </c>
     </row>
     <row r="63">
@@ -2514,31 +1924,19 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>20.11</v>
+        <v>29.81</v>
       </c>
       <c r="C63" t="n">
-        <v>22.05</v>
+        <v>18.06</v>
       </c>
       <c r="D63" t="n">
-        <v>33.52</v>
+        <v>18.85</v>
       </c>
       <c r="E63" t="n">
-        <v>15.84</v>
+        <v>12.76</v>
       </c>
       <c r="F63" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G63" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="H63" t="n">
-        <v>10.185</v>
-      </c>
-      <c r="I63" t="n">
-        <v>13.356</v>
-      </c>
-      <c r="J63" t="n">
-        <v>7.935</v>
+        <v>35.52</v>
       </c>
     </row>
     <row r="64">
@@ -2546,31 +1944,19 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>18.76</v>
+        <v>29.66</v>
       </c>
       <c r="C64" t="n">
-        <v>21.82</v>
+        <v>18.71</v>
       </c>
       <c r="D64" t="n">
+        <v>18.67</v>
+      </c>
+      <c r="E64" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="F64" t="n">
         <v>35.34</v>
-      </c>
-      <c r="E64" t="n">
-        <v>15.88</v>
-      </c>
-      <c r="F64" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G64" t="n">
-        <v>15.97</v>
-      </c>
-      <c r="H64" t="n">
-        <v>8.73</v>
-      </c>
-      <c r="I64" t="n">
-        <v>14.32</v>
-      </c>
-      <c r="J64" t="n">
-        <v>8.735000000000001</v>
       </c>
     </row>
     <row r="65">
@@ -2578,31 +1964,19 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>17.41</v>
+        <v>29.43</v>
       </c>
       <c r="C65" t="n">
-        <v>21.67</v>
+        <v>19.48</v>
       </c>
       <c r="D65" t="n">
-        <v>37.24</v>
+        <v>18.47</v>
       </c>
       <c r="E65" t="n">
-        <v>14.93</v>
+        <v>12.46</v>
       </c>
       <c r="F65" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G65" t="n">
-        <v>18.29</v>
-      </c>
-      <c r="H65" t="n">
-        <v>7.280000000000001</v>
-      </c>
-      <c r="I65" t="n">
-        <v>15.294</v>
-      </c>
-      <c r="J65" t="n">
-        <v>8.535</v>
+        <v>35.16</v>
       </c>
     </row>
     <row r="66">
@@ -2610,31 +1984,19 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>15.95</v>
+        <v>29.52</v>
       </c>
       <c r="C66" t="n">
-        <v>21.51</v>
+        <v>19.92</v>
       </c>
       <c r="D66" t="n">
-        <v>37.75</v>
+        <v>18.28</v>
       </c>
       <c r="E66" t="n">
-        <v>13.97</v>
+        <v>12.3</v>
       </c>
       <c r="F66" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G66" t="n">
-        <v>20.17</v>
-      </c>
-      <c r="H66" t="n">
-        <v>6.755000000000001</v>
-      </c>
-      <c r="I66" t="n">
-        <v>16.198</v>
-      </c>
-      <c r="J66" t="n">
-        <v>8.34</v>
+        <v>34.98</v>
       </c>
     </row>
     <row r="67">
@@ -2642,31 +2004,19 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>14.54</v>
+        <v>29.57</v>
       </c>
       <c r="C67" t="n">
-        <v>21.35</v>
+        <v>20.4</v>
       </c>
       <c r="D67" t="n">
-        <v>38.19</v>
+        <v>18.15</v>
       </c>
       <c r="E67" t="n">
-        <v>13.08</v>
+        <v>12.14</v>
       </c>
       <c r="F67" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G67" t="n">
-        <v>22.11</v>
-      </c>
-      <c r="H67" t="n">
-        <v>6.167000000000002</v>
-      </c>
-      <c r="I67" t="n">
-        <v>17.107</v>
-      </c>
-      <c r="J67" t="n">
-        <v>8.1</v>
+        <v>34.73</v>
       </c>
     </row>
     <row r="68">
@@ -2674,31 +2024,19 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>13.14</v>
+        <v>29.64</v>
       </c>
       <c r="C68" t="n">
-        <v>21.23</v>
+        <v>20.8</v>
       </c>
       <c r="D68" t="n">
-        <v>38.67</v>
+        <v>18.03</v>
       </c>
       <c r="E68" t="n">
-        <v>12.3</v>
+        <v>12.09</v>
       </c>
       <c r="F68" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G68" t="n">
-        <v>23.99</v>
-      </c>
-      <c r="H68" t="n">
-        <v>6.104000000000002</v>
-      </c>
-      <c r="I68" t="n">
-        <v>17.896</v>
-      </c>
-      <c r="J68" t="n">
-        <v>7.325</v>
+        <v>34.48</v>
       </c>
     </row>
     <row r="69">
@@ -2706,31 +2044,19 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>11.69</v>
+        <v>29.79</v>
       </c>
       <c r="C69" t="n">
         <v>21.11</v>
       </c>
       <c r="D69" t="n">
-        <v>39.15</v>
+        <v>17.86</v>
       </c>
       <c r="E69" t="n">
-        <v>11.52</v>
+        <v>12.06</v>
       </c>
       <c r="F69" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G69" t="n">
-        <v>25.91</v>
-      </c>
-      <c r="H69" t="n">
-        <v>5.996000000000002</v>
-      </c>
-      <c r="I69" t="n">
-        <v>18.64</v>
-      </c>
-      <c r="J69" t="n">
-        <v>6.645</v>
+        <v>34.26</v>
       </c>
     </row>
     <row r="70">
@@ -2738,31 +2064,19 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>10.43</v>
+        <v>29.98</v>
       </c>
       <c r="C70" t="n">
-        <v>21.03</v>
+        <v>21.05</v>
       </c>
       <c r="D70" t="n">
-        <v>40.44</v>
+        <v>18.4</v>
       </c>
       <c r="E70" t="n">
-        <v>11.29</v>
+        <v>12.03</v>
       </c>
       <c r="F70" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G70" t="n">
-        <v>26.24</v>
-      </c>
-      <c r="H70" t="n">
-        <v>5.828000000000001</v>
-      </c>
-      <c r="I70" t="n">
-        <v>19.435</v>
-      </c>
-      <c r="J70" t="n">
-        <v>5.965</v>
+        <v>33.62</v>
       </c>
     </row>
     <row r="71">
@@ -2770,31 +2084,19 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>9.16</v>
+        <v>30.06</v>
       </c>
       <c r="C71" t="n">
-        <v>20.86</v>
+        <v>21.02</v>
       </c>
       <c r="D71" t="n">
-        <v>41.66</v>
+        <v>19</v>
       </c>
       <c r="E71" t="n">
-        <v>10.88</v>
+        <v>12</v>
       </c>
       <c r="F71" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G71" t="n">
-        <v>26.61</v>
-      </c>
-      <c r="H71" t="n">
-        <v>5.650000000000001</v>
-      </c>
-      <c r="I71" t="n">
-        <v>20.22</v>
-      </c>
-      <c r="J71" t="n">
-        <v>5.617</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72">
@@ -2802,31 +2104,19 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>8.73</v>
+        <v>30.07</v>
       </c>
       <c r="C72" t="n">
-        <v>20.65</v>
+        <v>21.03</v>
       </c>
       <c r="D72" t="n">
-        <v>42.9</v>
+        <v>19.59</v>
       </c>
       <c r="E72" t="n">
-        <v>10.43</v>
+        <v>11.97</v>
       </c>
       <c r="F72" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G72" t="n">
-        <v>26.92</v>
-      </c>
-      <c r="H72" t="n">
-        <v>5.027000000000001</v>
-      </c>
-      <c r="I72" t="n">
-        <v>20.68</v>
-      </c>
-      <c r="J72" t="n">
-        <v>5.319</v>
+        <v>32.42</v>
       </c>
     </row>
     <row r="73">
@@ -2834,31 +2124,19 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>9.26</v>
+        <v>30.08</v>
       </c>
       <c r="C73" t="n">
-        <v>20.65</v>
+        <v>21.06</v>
       </c>
       <c r="D73" t="n">
-        <v>42.85</v>
+        <v>20.18</v>
       </c>
       <c r="E73" t="n">
-        <v>9.880000000000001</v>
+        <v>11.94</v>
       </c>
       <c r="F73" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G73" t="n">
-        <v>27.28</v>
-      </c>
-      <c r="H73" t="n">
-        <v>5.404000000000001</v>
-      </c>
-      <c r="I73" t="n">
-        <v>21.29</v>
-      </c>
-      <c r="J73" t="n">
-        <v>5.020999999999999</v>
+        <v>31.81</v>
       </c>
     </row>
     <row r="74">
@@ -2866,31 +2144,19 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>9.359999999999999</v>
+        <v>30.04</v>
       </c>
       <c r="C74" t="n">
-        <v>20.65</v>
+        <v>20.83</v>
       </c>
       <c r="D74" t="n">
-        <v>42.82</v>
+        <v>21.15</v>
       </c>
       <c r="E74" t="n">
-        <v>9.58</v>
+        <v>11.85</v>
       </c>
       <c r="F74" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G74" t="n">
-        <v>28.04</v>
-      </c>
-      <c r="H74" t="n">
-        <v>5.501</v>
-      </c>
-      <c r="I74" t="n">
-        <v>21.89</v>
-      </c>
-      <c r="J74" t="n">
-        <v>4.723</v>
+        <v>31.2</v>
       </c>
     </row>
     <row r="75">
@@ -2898,31 +2164,19 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>9.460000000000001</v>
+        <v>30.09</v>
       </c>
       <c r="C75" t="n">
-        <v>20.66</v>
+        <v>20.44</v>
       </c>
       <c r="D75" t="n">
-        <v>43.1</v>
+        <v>22.18</v>
       </c>
       <c r="E75" t="n">
-        <v>9.27</v>
+        <v>11.79</v>
       </c>
       <c r="F75" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G75" t="n">
-        <v>28.69</v>
-      </c>
-      <c r="H75" t="n">
-        <v>5.518000000000001</v>
-      </c>
-      <c r="I75" t="n">
-        <v>22.39</v>
-      </c>
-      <c r="J75" t="n">
-        <v>6.415000000000001</v>
+        <v>30.59</v>
       </c>
     </row>
     <row r="76">
@@ -2930,31 +2184,19 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>10</v>
+        <v>30.12</v>
       </c>
       <c r="C76" t="n">
-        <v>20.66</v>
+        <v>20.11</v>
       </c>
       <c r="D76" t="n">
-        <v>43.44</v>
+        <v>23.2</v>
       </c>
       <c r="E76" t="n">
-        <v>8.92</v>
+        <v>11.66</v>
       </c>
       <c r="F76" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G76" t="n">
-        <v>28.76</v>
-      </c>
-      <c r="H76" t="n">
-        <v>5.49</v>
-      </c>
-      <c r="I76" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="J76" t="n">
-        <v>7.827000000000001</v>
+        <v>29.98</v>
       </c>
     </row>
     <row r="77">
@@ -2962,31 +2204,19 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>10.48</v>
+        <v>30.11</v>
       </c>
       <c r="C77" t="n">
-        <v>20.67</v>
+        <v>19.63</v>
       </c>
       <c r="D77" t="n">
-        <v>43.85</v>
+        <v>24.18</v>
       </c>
       <c r="E77" t="n">
-        <v>8.52</v>
+        <v>11.53</v>
       </c>
       <c r="F77" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G77" t="n">
-        <v>28.71</v>
-      </c>
-      <c r="H77" t="n">
-        <v>5.515000000000001</v>
-      </c>
-      <c r="I77" t="n">
-        <v>24.935</v>
-      </c>
-      <c r="J77" t="n">
-        <v>8.818999999999999</v>
+        <v>29.63</v>
       </c>
     </row>
     <row r="78">
@@ -2994,31 +2224,19 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>11.03</v>
+        <v>30.07</v>
       </c>
       <c r="C78" t="n">
-        <v>20.62</v>
+        <v>19.2</v>
       </c>
       <c r="D78" t="n">
-        <v>44.25</v>
+        <v>25.16</v>
       </c>
       <c r="E78" t="n">
-        <v>8.43</v>
+        <v>11.33</v>
       </c>
       <c r="F78" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G78" t="n">
-        <v>28.71</v>
-      </c>
-      <c r="H78" t="n">
-        <v>5.535</v>
-      </c>
-      <c r="I78" t="n">
-        <v>25.418</v>
-      </c>
-      <c r="J78" t="n">
-        <v>10.506</v>
+        <v>29.27</v>
       </c>
     </row>
     <row r="79">
@@ -3026,31 +2244,19 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>11.61</v>
+        <v>30.01</v>
       </c>
       <c r="C79" t="n">
-        <v>20.58</v>
+        <v>18.75</v>
       </c>
       <c r="D79" t="n">
-        <v>44.66</v>
+        <v>26.2</v>
       </c>
       <c r="E79" t="n">
-        <v>8.35</v>
+        <v>11.08</v>
       </c>
       <c r="F79" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G79" t="n">
-        <v>28.69</v>
-      </c>
-      <c r="H79" t="n">
-        <v>5.555000000000001</v>
-      </c>
-      <c r="I79" t="n">
-        <v>25.901</v>
-      </c>
-      <c r="J79" t="n">
-        <v>12.163</v>
+        <v>28.96</v>
       </c>
     </row>
     <row r="80">
@@ -3058,31 +2264,19 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>12.23</v>
+        <v>29.98</v>
       </c>
       <c r="C80" t="n">
-        <v>20.47</v>
+        <v>18.57</v>
       </c>
       <c r="D80" t="n">
-        <v>44.8</v>
+        <v>26.59</v>
       </c>
       <c r="E80" t="n">
-        <v>8.140000000000001</v>
+        <v>10.82</v>
       </c>
       <c r="F80" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G80" t="n">
-        <v>28.61</v>
-      </c>
-      <c r="H80" t="n">
-        <v>6.065</v>
-      </c>
-      <c r="I80" t="n">
-        <v>26.364</v>
-      </c>
-      <c r="J80" t="n">
-        <v>13.82</v>
+        <v>29.04</v>
       </c>
     </row>
     <row r="81">
@@ -3090,31 +2284,19 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>12.78</v>
+        <v>29.89</v>
       </c>
       <c r="C81" t="n">
-        <v>20.44</v>
+        <v>18.29</v>
       </c>
       <c r="D81" t="n">
-        <v>44.94</v>
+        <v>27.14</v>
       </c>
       <c r="E81" t="n">
-        <v>8.119999999999999</v>
+        <v>10.56</v>
       </c>
       <c r="F81" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G81" t="n">
-        <v>29.11</v>
-      </c>
-      <c r="H81" t="n">
-        <v>6.505000000000001</v>
-      </c>
-      <c r="I81" t="n">
-        <v>26.757</v>
-      </c>
-      <c r="J81" t="n">
-        <v>14.855</v>
+        <v>29.12</v>
       </c>
     </row>
     <row r="82">
@@ -3122,31 +2304,19 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>12.66</v>
+        <v>29.83</v>
       </c>
       <c r="C82" t="n">
-        <v>20.52</v>
+        <v>17.91</v>
       </c>
       <c r="D82" t="n">
-        <v>45.12</v>
+        <v>27.68</v>
       </c>
       <c r="E82" t="n">
-        <v>8.130000000000001</v>
+        <v>10.31</v>
       </c>
       <c r="F82" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G82" t="n">
-        <v>29.64</v>
-      </c>
-      <c r="H82" t="n">
-        <v>7.390000000000001</v>
-      </c>
-      <c r="I82" t="n">
-        <v>27.195</v>
-      </c>
-      <c r="J82" t="n">
-        <v>15.845</v>
+        <v>29.27</v>
       </c>
     </row>
     <row r="83">
@@ -3154,31 +2324,19 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>12.15</v>
+        <v>29.71</v>
       </c>
       <c r="C83" t="n">
-        <v>20.38</v>
+        <v>16.99</v>
       </c>
       <c r="D83" t="n">
-        <v>45.39</v>
+        <v>28.23</v>
       </c>
       <c r="E83" t="n">
-        <v>8.18</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="F83" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G83" t="n">
-        <v>30.13</v>
-      </c>
-      <c r="H83" t="n">
-        <v>7.275</v>
-      </c>
-      <c r="I83" t="n">
-        <v>27.653</v>
-      </c>
-      <c r="J83" t="n">
-        <v>17.335</v>
+        <v>30.09</v>
       </c>
     </row>
     <row r="84">
@@ -3186,31 +2344,19 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>11.64</v>
+        <v>29.64</v>
       </c>
       <c r="C84" t="n">
-        <v>20.25</v>
+        <v>16.35</v>
       </c>
       <c r="D84" t="n">
-        <v>45.83</v>
+        <v>28.41</v>
       </c>
       <c r="E84" t="n">
-        <v>8.19</v>
+        <v>9.69</v>
       </c>
       <c r="F84" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G84" t="n">
-        <v>30.26</v>
-      </c>
-      <c r="H84" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="I84" t="n">
-        <v>28.121</v>
-      </c>
-      <c r="J84" t="n">
-        <v>18.77</v>
+        <v>30.91</v>
       </c>
     </row>
     <row r="85">
@@ -3218,31 +2364,19 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>11.08</v>
+        <v>29.51</v>
       </c>
       <c r="C85" t="n">
-        <v>19.8</v>
+        <v>15.77</v>
       </c>
       <c r="D85" t="n">
-        <v>45.96</v>
+        <v>28.58</v>
       </c>
       <c r="E85" t="n">
-        <v>8.16</v>
+        <v>9.41</v>
       </c>
       <c r="F85" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G85" t="n">
-        <v>30.48</v>
-      </c>
-      <c r="H85" t="n">
-        <v>7.675</v>
-      </c>
-      <c r="I85" t="n">
-        <v>28.639</v>
-      </c>
-      <c r="J85" t="n">
-        <v>18.69</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="86">
@@ -3250,31 +2384,19 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>10.52</v>
+        <v>29.09</v>
       </c>
       <c r="C86" t="n">
-        <v>19.69</v>
+        <v>15.38</v>
       </c>
       <c r="D86" t="n">
-        <v>46.02</v>
+        <v>28.68</v>
       </c>
       <c r="E86" t="n">
-        <v>8.1</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="F86" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G86" t="n">
-        <v>30.63</v>
-      </c>
-      <c r="H86" t="n">
-        <v>7.949999999999998</v>
-      </c>
-      <c r="I86" t="n">
-        <v>28.647</v>
-      </c>
-      <c r="J86" t="n">
-        <v>18.94</v>
+        <v>32.47</v>
       </c>
     </row>
     <row r="87">
@@ -3282,31 +2404,19 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>9.91</v>
+        <v>28.89</v>
       </c>
       <c r="C87" t="n">
-        <v>19.53</v>
+        <v>15.04</v>
       </c>
       <c r="D87" t="n">
-        <v>46.02</v>
+        <v>28.79</v>
       </c>
       <c r="E87" t="n">
-        <v>8.029999999999999</v>
+        <v>9.33</v>
       </c>
       <c r="F87" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G87" t="n">
-        <v>31.12</v>
-      </c>
-      <c r="H87" t="n">
-        <v>8.234999999999999</v>
-      </c>
-      <c r="I87" t="n">
-        <v>28.085</v>
-      </c>
-      <c r="J87" t="n">
-        <v>19.57</v>
+        <v>32.95</v>
       </c>
     </row>
     <row r="88">
@@ -3314,31 +2424,19 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>9.369999999999999</v>
+        <v>28.78</v>
       </c>
       <c r="C88" t="n">
-        <v>19.41</v>
+        <v>14.64</v>
       </c>
       <c r="D88" t="n">
-        <v>45.98</v>
+        <v>28.84</v>
       </c>
       <c r="E88" t="n">
-        <v>7.64</v>
+        <v>9.31</v>
       </c>
       <c r="F88" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G88" t="n">
-        <v>31.61</v>
-      </c>
-      <c r="H88" t="n">
-        <v>8.525</v>
-      </c>
-      <c r="I88" t="n">
-        <v>27.75</v>
-      </c>
-      <c r="J88" t="n">
-        <v>20.2</v>
+        <v>33.44</v>
       </c>
     </row>
     <row r="89">
@@ -3346,31 +2444,19 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>8.84</v>
+        <v>28.46</v>
       </c>
       <c r="C89" t="n">
-        <v>19.29</v>
+        <v>14.45</v>
       </c>
       <c r="D89" t="n">
-        <v>45.94</v>
+        <v>28.89</v>
       </c>
       <c r="E89" t="n">
-        <v>7.26</v>
+        <v>9.31</v>
       </c>
       <c r="F89" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G89" t="n">
-        <v>32.08</v>
-      </c>
-      <c r="H89" t="n">
-        <v>8.859999999999999</v>
-      </c>
-      <c r="I89" t="n">
-        <v>27.58</v>
-      </c>
-      <c r="J89" t="n">
-        <v>20.65</v>
+        <v>33.89</v>
       </c>
     </row>
     <row r="90">
@@ -3378,34 +2464,19 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>8.289999999999999</v>
+        <v>28.15</v>
       </c>
       <c r="C90" t="n">
-        <v>19.24</v>
+        <v>14.46</v>
       </c>
       <c r="D90" t="n">
-        <v>45.9</v>
+        <v>28.69</v>
       </c>
       <c r="E90" t="n">
-        <v>6.99</v>
+        <v>9.31</v>
       </c>
       <c r="F90" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G90" t="n">
-        <v>32.66</v>
-      </c>
-      <c r="H90" t="n">
-        <v>8.719999999999999</v>
-      </c>
-      <c r="I90" t="n">
-        <v>27.43</v>
-      </c>
-      <c r="J90" t="n">
-        <v>21.245</v>
-      </c>
-      <c r="K90" t="n">
-        <v>10</v>
+        <v>34.39</v>
       </c>
     </row>
     <row r="91">
@@ -3413,34 +2484,19 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>8.65</v>
+        <v>27.84</v>
       </c>
       <c r="C91" t="n">
-        <v>18.51</v>
+        <v>14.62</v>
       </c>
       <c r="D91" t="n">
-        <v>45.88</v>
+        <v>28.34</v>
       </c>
       <c r="E91" t="n">
-        <v>6.68</v>
+        <v>9.31</v>
       </c>
       <c r="F91" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G91" t="n">
-        <v>32.68</v>
-      </c>
-      <c r="H91" t="n">
-        <v>8.649999999999999</v>
-      </c>
-      <c r="I91" t="n">
-        <v>27.36</v>
-      </c>
-      <c r="J91" t="n">
-        <v>22.09</v>
-      </c>
-      <c r="K91" t="n">
-        <v>11.435</v>
+        <v>34.89</v>
       </c>
     </row>
     <row r="92">
@@ -3448,34 +2504,19 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>9.01</v>
+        <v>27.54</v>
       </c>
       <c r="C92" t="n">
-        <v>17.71</v>
+        <v>14.78</v>
       </c>
       <c r="D92" t="n">
-        <v>45.84</v>
+        <v>27.99</v>
       </c>
       <c r="E92" t="n">
-        <v>6.37</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="F92" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G92" t="n">
-        <v>32.69</v>
-      </c>
-      <c r="H92" t="n">
-        <v>8.514999999999999</v>
-      </c>
-      <c r="I92" t="n">
-        <v>27.108</v>
-      </c>
-      <c r="J92" t="n">
-        <v>22.97000000000001</v>
-      </c>
-      <c r="K92" t="n">
-        <v>11.91333333333333</v>
+        <v>35.38</v>
       </c>
     </row>
     <row r="93">
@@ -3483,34 +2524,19 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>9.85</v>
+        <v>26.85</v>
       </c>
       <c r="C93" t="n">
-        <v>16.9</v>
+        <v>15.93</v>
       </c>
       <c r="D93" t="n">
-        <v>45.8</v>
+        <v>27.65</v>
       </c>
       <c r="E93" t="n">
-        <v>6.1</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="F93" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G93" t="n">
-        <v>32.75</v>
-      </c>
-      <c r="H93" t="n">
-        <v>8.32</v>
-      </c>
-      <c r="I93" t="n">
-        <v>26.856</v>
-      </c>
-      <c r="J93" t="n">
-        <v>23.345</v>
-      </c>
-      <c r="K93" t="n">
-        <v>12.1525</v>
+        <v>35.2</v>
       </c>
     </row>
     <row r="94">
@@ -3518,34 +2544,19 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>10.61</v>
+        <v>26.09</v>
       </c>
       <c r="C94" t="n">
-        <v>15.93</v>
+        <v>17.17</v>
       </c>
       <c r="D94" t="n">
-        <v>46.84</v>
+        <v>27.3</v>
       </c>
       <c r="E94" t="n">
-        <v>5.83</v>
+        <v>9.42</v>
       </c>
       <c r="F94" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G94" t="n">
-        <v>31.92</v>
-      </c>
-      <c r="H94" t="n">
-        <v>8.120000000000001</v>
-      </c>
-      <c r="I94" t="n">
-        <v>26.604</v>
-      </c>
-      <c r="J94" t="n">
-        <v>23.775</v>
-      </c>
-      <c r="K94" t="n">
-        <v>12.276</v>
+        <v>35.02</v>
       </c>
     </row>
     <row r="95">
@@ -3553,34 +2564,19 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>11.42</v>
+        <v>25.37</v>
       </c>
       <c r="C95" t="n">
-        <v>15.28</v>
+        <v>18.23</v>
       </c>
       <c r="D95" t="n">
-        <v>47.82</v>
+        <v>27.99</v>
       </c>
       <c r="E95" t="n">
-        <v>5.61</v>
+        <v>8.57</v>
       </c>
       <c r="F95" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G95" t="n">
-        <v>31.04</v>
-      </c>
-      <c r="H95" t="n">
-        <v>7.930000000000001</v>
-      </c>
-      <c r="I95" t="n">
-        <v>26.30700000000001</v>
-      </c>
-      <c r="J95" t="n">
-        <v>23.945</v>
-      </c>
-      <c r="K95" t="n">
-        <v>12.29166666666667</v>
+        <v>34.84</v>
       </c>
     </row>
     <row r="96">
@@ -3588,34 +2584,19 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>12.22</v>
+        <v>25.33</v>
       </c>
       <c r="C96" t="n">
-        <v>14.3</v>
+        <v>18.63</v>
       </c>
       <c r="D96" t="n">
-        <v>48.88</v>
+        <v>28.75</v>
       </c>
       <c r="E96" t="n">
-        <v>5.6</v>
+        <v>7.57</v>
       </c>
       <c r="F96" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G96" t="n">
-        <v>30.21</v>
-      </c>
-      <c r="H96" t="n">
-        <v>7.745</v>
-      </c>
-      <c r="I96" t="n">
-        <v>26.05</v>
-      </c>
-      <c r="J96" t="n">
-        <v>24.115</v>
-      </c>
-      <c r="K96" t="n">
-        <v>12.22428571428571</v>
+        <v>34.72</v>
       </c>
     </row>
     <row r="97">
@@ -3623,34 +2604,19 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>13.29</v>
+        <v>25.17</v>
       </c>
       <c r="C97" t="n">
-        <v>13.36</v>
+        <v>20.02</v>
       </c>
       <c r="D97" t="n">
-        <v>49.99</v>
+        <v>28.63</v>
       </c>
       <c r="E97" t="n">
-        <v>5.59</v>
+        <v>6.57</v>
       </c>
       <c r="F97" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G97" t="n">
-        <v>29.07</v>
-      </c>
-      <c r="H97" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="I97" t="n">
-        <v>25.788</v>
-      </c>
-      <c r="J97" t="n">
-        <v>24.28</v>
-      </c>
-      <c r="K97" t="n">
-        <v>12.16125</v>
+        <v>34.61</v>
       </c>
     </row>
     <row r="98">
@@ -3658,34 +2624,19 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>13.39</v>
+        <v>24.9</v>
       </c>
       <c r="C98" t="n">
-        <v>12.42</v>
+        <v>21.45</v>
       </c>
       <c r="D98" t="n">
-        <v>51.14</v>
+        <v>28.56</v>
       </c>
       <c r="E98" t="n">
-        <v>5.54</v>
+        <v>5.58</v>
       </c>
       <c r="F98" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G98" t="n">
-        <v>27.88</v>
-      </c>
-      <c r="H98" t="n">
-        <v>7.375</v>
-      </c>
-      <c r="I98" t="n">
-        <v>25.536</v>
-      </c>
-      <c r="J98" t="n">
-        <v>25.482</v>
-      </c>
-      <c r="K98" t="n">
-        <v>12.06777777777778</v>
+        <v>34.51</v>
       </c>
     </row>
     <row r="99">
@@ -3693,34 +2644,19 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>13.94</v>
+        <v>24.85</v>
       </c>
       <c r="C99" t="n">
-        <v>11.48</v>
+        <v>22.61</v>
       </c>
       <c r="D99" t="n">
-        <v>52.29</v>
+        <v>28.47</v>
       </c>
       <c r="E99" t="n">
-        <v>5.45</v>
+        <v>4.62</v>
       </c>
       <c r="F99" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G99" t="n">
-        <v>26.74</v>
-      </c>
-      <c r="H99" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="I99" t="n">
-        <v>24.824</v>
-      </c>
-      <c r="J99" t="n">
-        <v>26.749</v>
-      </c>
-      <c r="K99" t="n">
-        <v>11.993</v>
+        <v>34.45</v>
       </c>
     </row>
     <row r="100">
@@ -3728,34 +2664,19 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>14.54</v>
+        <v>24.85</v>
       </c>
       <c r="C100" t="n">
-        <v>10.6</v>
+        <v>23.5</v>
       </c>
       <c r="D100" t="n">
-        <v>55.72</v>
+        <v>28.56</v>
       </c>
       <c r="E100" t="n">
-        <v>5.36</v>
+        <v>3.66</v>
       </c>
       <c r="F100" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G100" t="n">
-        <v>25.58</v>
-      </c>
-      <c r="H100" t="n">
-        <v>8.275000000000002</v>
-      </c>
-      <c r="I100" t="n">
-        <v>24.112</v>
-      </c>
-      <c r="J100" t="n">
-        <v>24.307</v>
-      </c>
-      <c r="K100" t="n">
-        <v>11.993</v>
+        <v>34.43</v>
       </c>
     </row>
     <row r="101">
@@ -3763,34 +2684,19 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>14.31</v>
+        <v>24.89</v>
       </c>
       <c r="C101" t="n">
-        <v>10.41</v>
+        <v>24.3</v>
       </c>
       <c r="D101" t="n">
-        <v>59.12</v>
+        <v>28.65</v>
       </c>
       <c r="E101" t="n">
-        <v>5.32</v>
+        <v>2.73</v>
       </c>
       <c r="F101" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G101" t="n">
-        <v>24.32</v>
-      </c>
-      <c r="H101" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="I101" t="n">
-        <v>23.58</v>
-      </c>
-      <c r="J101" t="n">
-        <v>21.925</v>
-      </c>
-      <c r="K101" t="n">
-        <v>12.105</v>
+        <v>34.43</v>
       </c>
     </row>
     <row r="102">
@@ -3798,34 +2704,19 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>14.07</v>
+        <v>24.89</v>
       </c>
       <c r="C102" t="n">
-        <v>9.609999999999999</v>
+        <v>25.22</v>
       </c>
       <c r="D102" t="n">
-        <v>62.49</v>
+        <v>28.75</v>
       </c>
       <c r="E102" t="n">
-        <v>5.25</v>
+        <v>1.81</v>
       </c>
       <c r="F102" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G102" t="n">
-        <v>23.95</v>
-      </c>
-      <c r="H102" t="n">
-        <v>10.585</v>
-      </c>
-      <c r="I102" t="n">
-        <v>23.089</v>
-      </c>
-      <c r="J102" t="n">
-        <v>19.553</v>
-      </c>
-      <c r="K102" t="n">
-        <v>11.894</v>
+        <v>34.33</v>
       </c>
     </row>
     <row r="103">
@@ -3833,34 +2724,19 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>13.76</v>
+        <v>25.37</v>
       </c>
       <c r="C103" t="n">
-        <v>8.789999999999999</v>
+        <v>25.73</v>
       </c>
       <c r="D103" t="n">
-        <v>66.05</v>
+        <v>28.82</v>
       </c>
       <c r="E103" t="n">
-        <v>5.15</v>
+        <v>0.9</v>
       </c>
       <c r="F103" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G103" t="n">
-        <v>23.52</v>
-      </c>
-      <c r="H103" t="n">
-        <v>11.82</v>
-      </c>
-      <c r="I103" t="n">
-        <v>22.568</v>
-      </c>
-      <c r="J103" t="n">
-        <v>17.186</v>
-      </c>
-      <c r="K103" t="n">
-        <v>11.653</v>
+        <v>34.18</v>
       </c>
     </row>
     <row r="104">
@@ -3868,34 +2744,19 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>13.52</v>
+        <v>25.87</v>
       </c>
       <c r="C104" t="n">
-        <v>8.119999999999999</v>
+        <v>26.24</v>
       </c>
       <c r="D104" t="n">
-        <v>68.34</v>
+        <v>28.88</v>
       </c>
       <c r="E104" t="n">
-        <v>5.11</v>
+        <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G104" t="n">
-        <v>24.02</v>
-      </c>
-      <c r="H104" t="n">
-        <v>13.05</v>
-      </c>
-      <c r="I104" t="n">
-        <v>22.137</v>
-      </c>
-      <c r="J104" t="n">
-        <v>16.819</v>
-      </c>
-      <c r="K104" t="n">
-        <v>11.392</v>
+        <v>34.01</v>
       </c>
     </row>
     <row r="105">
@@ -3903,34 +2764,19 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>13.23</v>
+        <v>26.37</v>
       </c>
       <c r="C105" t="n">
-        <v>9.449999999999999</v>
+        <v>26.84</v>
       </c>
       <c r="D105" t="n">
-        <v>70.63</v>
+        <v>27.96</v>
       </c>
       <c r="E105" t="n">
-        <v>5.06</v>
+        <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G105" t="n">
-        <v>24.96</v>
-      </c>
-      <c r="H105" t="n">
-        <v>14.28</v>
-      </c>
-      <c r="I105" t="n">
-        <v>21.80099999999999</v>
-      </c>
-      <c r="J105" t="n">
-        <v>15.967</v>
-      </c>
-      <c r="K105" t="n">
-        <v>11.131</v>
+        <v>33.83</v>
       </c>
     </row>
     <row r="106">
@@ -3938,34 +2784,19 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>12.95</v>
+        <v>26.12</v>
       </c>
       <c r="C106" t="n">
-        <v>10.77</v>
+        <v>28.16</v>
       </c>
       <c r="D106" t="n">
-        <v>72.93000000000001</v>
+        <v>27.05</v>
       </c>
       <c r="E106" t="n">
-        <v>4.87</v>
+        <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G106" t="n">
-        <v>25.93</v>
-      </c>
-      <c r="H106" t="n">
-        <v>15.51</v>
-      </c>
-      <c r="I106" t="n">
-        <v>21.505</v>
-      </c>
-      <c r="J106" t="n">
-        <v>15.13</v>
-      </c>
-      <c r="K106" t="n">
-        <v>10.905</v>
+        <v>33.67</v>
       </c>
     </row>
     <row r="107">
@@ -3973,34 +2804,19 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>12.44</v>
+        <v>25.89</v>
       </c>
       <c r="C107" t="n">
-        <v>12.11</v>
+        <v>28.45</v>
       </c>
       <c r="D107" t="n">
-        <v>75.11</v>
+        <v>27.14</v>
       </c>
       <c r="E107" t="n">
-        <v>5.34</v>
+        <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G107" t="n">
-        <v>26.95</v>
-      </c>
-      <c r="H107" t="n">
-        <v>16.73</v>
-      </c>
-      <c r="I107" t="n">
-        <v>21.154</v>
-      </c>
-      <c r="J107" t="n">
-        <v>13.933</v>
-      </c>
-      <c r="K107" t="n">
-        <v>10.724</v>
+        <v>33.52</v>
       </c>
     </row>
     <row r="108">
@@ -4008,34 +2824,19 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>13.3</v>
+        <v>25.64</v>
       </c>
       <c r="C108" t="n">
-        <v>13.45</v>
+        <v>28.7</v>
       </c>
       <c r="D108" t="n">
-        <v>77.31</v>
+        <v>27.22</v>
       </c>
       <c r="E108" t="n">
-        <v>5.86</v>
+        <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G108" t="n">
-        <v>27.59</v>
-      </c>
-      <c r="H108" t="n">
-        <v>17.94</v>
-      </c>
-      <c r="I108" t="n">
-        <v>20.803</v>
-      </c>
-      <c r="J108" t="n">
-        <v>11.689</v>
-      </c>
-      <c r="K108" t="n">
-        <v>10.553</v>
+        <v>33.44</v>
       </c>
     </row>
     <row r="109">
@@ -4043,34 +2844,19 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>13.69</v>
+        <v>25.34</v>
       </c>
       <c r="C109" t="n">
-        <v>14.79</v>
+        <v>28.83</v>
       </c>
       <c r="D109" t="n">
-        <v>79.5</v>
+        <v>27.26</v>
       </c>
       <c r="E109" t="n">
-        <v>6.43</v>
+        <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G109" t="n">
-        <v>28.21</v>
-      </c>
-      <c r="H109" t="n">
-        <v>19.18</v>
-      </c>
-      <c r="I109" t="n">
-        <v>20.792</v>
-      </c>
-      <c r="J109" t="n">
-        <v>9.434999999999999</v>
-      </c>
-      <c r="K109" t="n">
-        <v>10.472</v>
+        <v>33.57</v>
       </c>
     </row>
     <row r="110">
@@ -4078,34 +2864,19 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>14.09</v>
+        <v>24.99</v>
       </c>
       <c r="C110" t="n">
-        <v>16.13</v>
+        <v>28.97</v>
       </c>
       <c r="D110" t="n">
-        <v>79.41</v>
+        <v>27.31</v>
       </c>
       <c r="E110" t="n">
-        <v>5.92</v>
+        <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G110" t="n">
-        <v>31.37</v>
-      </c>
-      <c r="H110" t="n">
-        <v>19.05</v>
-      </c>
-      <c r="I110" t="n">
-        <v>20.716</v>
-      </c>
-      <c r="J110" t="n">
-        <v>9.434999999999999</v>
-      </c>
-      <c r="K110" t="n">
-        <v>10.381</v>
+        <v>33.73</v>
       </c>
     </row>
     <row r="111">
@@ -4113,34 +2884,19 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>14.47</v>
+        <v>24.66</v>
       </c>
       <c r="C111" t="n">
-        <v>17.48</v>
+        <v>28.93</v>
       </c>
       <c r="D111" t="n">
-        <v>79.31999999999999</v>
+        <v>27.54</v>
       </c>
       <c r="E111" t="n">
-        <v>6.42</v>
+        <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G111" t="n">
-        <v>34.71</v>
-      </c>
-      <c r="H111" t="n">
-        <v>18.92</v>
-      </c>
-      <c r="I111" t="n">
-        <v>20.46</v>
-      </c>
-      <c r="J111" t="n">
-        <v>9.434999999999999</v>
-      </c>
-      <c r="K111" t="n">
-        <v>10.29</v>
+        <v>33.87</v>
       </c>
     </row>
     <row r="112">
@@ -4148,34 +2904,19 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>14.84</v>
+        <v>24.32</v>
       </c>
       <c r="C112" t="n">
-        <v>19.98</v>
+        <v>28.77</v>
       </c>
       <c r="D112" t="n">
-        <v>79.16</v>
+        <v>27.85</v>
       </c>
       <c r="E112" t="n">
-        <v>6.95</v>
+        <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G112" t="n">
-        <v>37.14</v>
-      </c>
-      <c r="H112" t="n">
-        <v>18.555</v>
-      </c>
-      <c r="I112" t="n">
-        <v>20.225</v>
-      </c>
-      <c r="J112" t="n">
-        <v>13.435</v>
-      </c>
-      <c r="K112" t="n">
-        <v>10.215</v>
+        <v>34.06</v>
       </c>
     </row>
     <row r="113">
@@ -4183,34 +2924,19 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>15.2</v>
+        <v>23.99</v>
       </c>
       <c r="C113" t="n">
-        <v>22.49</v>
+        <v>28.51</v>
       </c>
       <c r="D113" t="n">
-        <v>78.66</v>
+        <v>28.18</v>
       </c>
       <c r="E113" t="n">
-        <v>7.41</v>
+        <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G113" t="n">
-        <v>39.64</v>
-      </c>
-      <c r="H113" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="I113" t="n">
-        <v>20.015</v>
-      </c>
-      <c r="J113" t="n">
-        <v>17.435</v>
-      </c>
-      <c r="K113" t="n">
-        <v>10.445</v>
+        <v>34.32</v>
       </c>
     </row>
     <row r="114">
@@ -4218,34 +2944,19 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>15.51</v>
+        <v>23.48</v>
       </c>
       <c r="C114" t="n">
-        <v>25.03</v>
+        <v>28.46</v>
       </c>
       <c r="D114" t="n">
-        <v>78.18000000000001</v>
+        <v>28.46</v>
       </c>
       <c r="E114" t="n">
-        <v>7.87</v>
+        <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G114" t="n">
-        <v>42.13</v>
-      </c>
-      <c r="H114" t="n">
-        <v>17.845</v>
-      </c>
-      <c r="I114" t="n">
-        <v>19.715</v>
-      </c>
-      <c r="J114" t="n">
-        <v>19.545</v>
-      </c>
-      <c r="K114" t="n">
-        <v>10.685</v>
+        <v>34.6</v>
       </c>
     </row>
     <row r="115">
@@ -4253,34 +2964,19 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>15.87</v>
+        <v>22.92</v>
       </c>
       <c r="C115" t="n">
-        <v>25.56</v>
+        <v>28.41</v>
       </c>
       <c r="D115" t="n">
-        <v>77.73999999999999</v>
+        <v>28.81</v>
       </c>
       <c r="E115" t="n">
-        <v>8.32</v>
+        <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G115" t="n">
-        <v>44.18</v>
-      </c>
-      <c r="H115" t="n">
-        <v>17.49</v>
-      </c>
-      <c r="I115" t="n">
-        <v>19.405</v>
-      </c>
-      <c r="J115" t="n">
-        <v>22.015</v>
-      </c>
-      <c r="K115" t="n">
-        <v>10.925</v>
+        <v>34.86</v>
       </c>
     </row>
     <row r="116">
@@ -4288,34 +2984,19 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>15.83</v>
+        <v>22.43</v>
       </c>
       <c r="C116" t="n">
-        <v>26.09</v>
+        <v>28.3</v>
       </c>
       <c r="D116" t="n">
-        <v>80.8</v>
+        <v>29.16</v>
       </c>
       <c r="E116" t="n">
-        <v>8.789999999999999</v>
+        <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G116" t="n">
-        <v>46.22</v>
-      </c>
-      <c r="H116" t="n">
-        <v>17.125</v>
-      </c>
-      <c r="I116" t="n">
-        <v>19.025</v>
-      </c>
-      <c r="J116" t="n">
-        <v>21.47</v>
-      </c>
-      <c r="K116" t="n">
-        <v>11.165</v>
+        <v>35.1</v>
       </c>
     </row>
     <row r="117">
@@ -4323,34 +3004,19 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>15.75</v>
+        <v>21.93</v>
       </c>
       <c r="C117" t="n">
-        <v>26.61</v>
+        <v>28.32</v>
       </c>
       <c r="D117" t="n">
-        <v>83.97</v>
+        <v>29.4</v>
       </c>
       <c r="E117" t="n">
-        <v>8.58</v>
+        <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G117" t="n">
-        <v>48.27</v>
-      </c>
-      <c r="H117" t="n">
-        <v>16.76</v>
-      </c>
-      <c r="I117" t="n">
-        <v>18.755</v>
-      </c>
-      <c r="J117" t="n">
-        <v>21.405</v>
-      </c>
-      <c r="K117" t="n">
-        <v>11.415</v>
+        <v>35.35</v>
       </c>
     </row>
     <row r="118">
@@ -4358,34 +3024,19 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>15.22</v>
+        <v>21.57</v>
       </c>
       <c r="C118" t="n">
-        <v>27.12</v>
+        <v>28.32</v>
       </c>
       <c r="D118" t="n">
-        <v>87.14</v>
+        <v>29.62</v>
       </c>
       <c r="E118" t="n">
-        <v>8.359999999999999</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G118" t="n">
-        <v>50.73</v>
-      </c>
-      <c r="H118" t="n">
-        <v>16.385</v>
-      </c>
-      <c r="I118" t="n">
-        <v>18.465</v>
-      </c>
-      <c r="J118" t="n">
-        <v>21.34</v>
-      </c>
-      <c r="K118" t="n">
-        <v>11.755</v>
+        <v>35.49</v>
       </c>
     </row>
     <row r="119">
@@ -4393,34 +3044,19 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>14.64</v>
+        <v>21.21</v>
       </c>
       <c r="C119" t="n">
-        <v>27.3</v>
+        <v>28.36</v>
       </c>
       <c r="D119" t="n">
-        <v>90.3</v>
+        <v>29.89</v>
       </c>
       <c r="E119" t="n">
-        <v>8.140000000000001</v>
+        <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G119" t="n">
-        <v>54.91</v>
-      </c>
-      <c r="H119" t="n">
-        <v>16.015</v>
-      </c>
-      <c r="I119" t="n">
-        <v>18.175</v>
-      </c>
-      <c r="J119" t="n">
-        <v>20.03</v>
-      </c>
-      <c r="K119" t="n">
-        <v>11.995</v>
+        <v>35.54</v>
       </c>
     </row>
     <row r="120">
@@ -4428,34 +3064,19 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>14.05</v>
+        <v>20.92</v>
       </c>
       <c r="C120" t="n">
-        <v>27.48</v>
+        <v>28.39</v>
       </c>
       <c r="D120" t="n">
-        <v>93.79000000000001</v>
+        <v>30.16</v>
       </c>
       <c r="E120" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G120" t="n">
-        <v>56.42</v>
-      </c>
-      <c r="H120" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="I120" t="n">
-        <v>17.93</v>
-      </c>
-      <c r="J120" t="n">
-        <v>20.03</v>
-      </c>
-      <c r="K120" t="n">
-        <v>12.12</v>
+        <v>35.53</v>
       </c>
     </row>
     <row r="121">
@@ -4463,34 +3084,19 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>13.34</v>
+        <v>20.62</v>
       </c>
       <c r="C121" t="n">
-        <v>27.64</v>
+        <v>28.69</v>
       </c>
       <c r="D121" t="n">
-        <v>97.23999999999999</v>
+        <v>30.25</v>
       </c>
       <c r="E121" t="n">
-        <v>8.85</v>
+        <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G121" t="n">
-        <v>57.88</v>
-      </c>
-      <c r="H121" t="n">
-        <v>15.735</v>
-      </c>
-      <c r="I121" t="n">
-        <v>17.55</v>
-      </c>
-      <c r="J121" t="n">
-        <v>22.03</v>
-      </c>
-      <c r="K121" t="n">
-        <v>12.255</v>
+        <v>35.44</v>
       </c>
     </row>
     <row r="122">
@@ -4498,34 +3104,19 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>12.6</v>
+        <v>20.39</v>
       </c>
       <c r="C122" t="n">
-        <v>27.46</v>
+        <v>28.93</v>
       </c>
       <c r="D122" t="n">
-        <v>100.81</v>
+        <v>30.33</v>
       </c>
       <c r="E122" t="n">
-        <v>8.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G122" t="n">
-        <v>59.24</v>
-      </c>
-      <c r="H122" t="n">
-        <v>16</v>
-      </c>
-      <c r="I122" t="n">
-        <v>17.27999999999999</v>
-      </c>
-      <c r="J122" t="n">
-        <v>20.03</v>
-      </c>
-      <c r="K122" t="n">
-        <v>12.4</v>
+        <v>35.35</v>
       </c>
     </row>
     <row r="123">
@@ -4533,34 +3124,19 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>11.87</v>
+        <v>20.15</v>
       </c>
       <c r="C123" t="n">
-        <v>27.27</v>
+        <v>29.22</v>
       </c>
       <c r="D123" t="n">
-        <v>102.54</v>
+        <v>30.39</v>
       </c>
       <c r="E123" t="n">
-        <v>8.65</v>
+        <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G123" t="n">
-        <v>60.45</v>
-      </c>
-      <c r="H123" t="n">
-        <v>16.116</v>
-      </c>
-      <c r="I123" t="n">
-        <v>16.991</v>
-      </c>
-      <c r="J123" t="n">
-        <v>20.381</v>
-      </c>
-      <c r="K123" t="n">
-        <v>12.246</v>
+        <v>35.24</v>
       </c>
     </row>
     <row r="124">
@@ -4568,34 +3144,19 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>11.18</v>
+        <v>20.13</v>
       </c>
       <c r="C124" t="n">
-        <v>27.08</v>
+        <v>29.19</v>
       </c>
       <c r="D124" t="n">
-        <v>104.27</v>
+        <v>30.51</v>
       </c>
       <c r="E124" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G124" t="n">
-        <v>63.13</v>
-      </c>
-      <c r="H124" t="n">
-        <v>15.331</v>
-      </c>
-      <c r="I124" t="n">
-        <v>16.702</v>
-      </c>
-      <c r="J124" t="n">
-        <v>20.612</v>
-      </c>
-      <c r="K124" t="n">
-        <v>11.591</v>
+        <v>35.17</v>
       </c>
     </row>
     <row r="125">
@@ -4603,34 +3164,19 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>10.5</v>
+        <v>20.17</v>
       </c>
       <c r="C125" t="n">
-        <v>26.6</v>
+        <v>29.17</v>
       </c>
       <c r="D125" t="n">
-        <v>105.95</v>
+        <v>30.53</v>
       </c>
       <c r="E125" t="n">
-        <v>8.56</v>
+        <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G125" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="H125" t="n">
-        <v>14.481</v>
-      </c>
-      <c r="I125" t="n">
-        <v>17.87</v>
-      </c>
-      <c r="J125" t="n">
-        <v>19.868</v>
-      </c>
-      <c r="K125" t="n">
-        <v>10.881</v>
+        <v>35.13</v>
       </c>
     </row>
     <row r="126">
@@ -4638,34 +3184,19 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>10.21</v>
+        <v>19.59</v>
       </c>
       <c r="C126" t="n">
-        <v>26.12</v>
+        <v>29.13</v>
       </c>
       <c r="D126" t="n">
-        <v>103.9</v>
+        <v>31.2</v>
       </c>
       <c r="E126" t="n">
-        <v>8.51</v>
+        <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G126" t="n">
-        <v>68.28</v>
-      </c>
-      <c r="H126" t="n">
-        <v>13.631</v>
-      </c>
-      <c r="I126" t="n">
-        <v>19.758</v>
-      </c>
-      <c r="J126" t="n">
-        <v>21.914</v>
-      </c>
-      <c r="K126" t="n">
-        <v>10.176</v>
+        <v>35.08</v>
       </c>
     </row>
     <row r="127">
@@ -4673,34 +3204,19 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>9.619999999999999</v>
+        <v>18.97</v>
       </c>
       <c r="C127" t="n">
-        <v>25.64</v>
+        <v>29.22</v>
       </c>
       <c r="D127" t="n">
-        <v>101.86</v>
+        <v>31.8</v>
       </c>
       <c r="E127" t="n">
-        <v>8.460000000000001</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G127" t="n">
-        <v>70.43000000000001</v>
-      </c>
-      <c r="H127" t="n">
-        <v>13.184</v>
-      </c>
-      <c r="I127" t="n">
-        <v>21.546</v>
-      </c>
-      <c r="J127" t="n">
-        <v>24.289</v>
-      </c>
-      <c r="K127" t="n">
-        <v>9.471</v>
+        <v>35.01</v>
       </c>
     </row>
     <row r="128">
@@ -4708,34 +3224,19 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>10.03</v>
+        <v>18.24</v>
       </c>
       <c r="C128" t="n">
-        <v>25.19</v>
+        <v>29.36</v>
       </c>
       <c r="D128" t="n">
-        <v>99.77</v>
+        <v>32.42</v>
       </c>
       <c r="E128" t="n">
-        <v>8.43</v>
+        <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G128" t="n">
-        <v>72.54000000000001</v>
-      </c>
-      <c r="H128" t="n">
-        <v>12.252</v>
-      </c>
-      <c r="I128" t="n">
-        <v>23.344</v>
-      </c>
-      <c r="J128" t="n">
-        <v>27.461</v>
-      </c>
-      <c r="K128" t="n">
-        <v>8.494</v>
+        <v>34.97</v>
       </c>
     </row>
     <row r="129">
@@ -4743,34 +3244,19 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>10.38</v>
+        <v>17.34</v>
       </c>
       <c r="C129" t="n">
-        <v>25.05</v>
+        <v>29.8</v>
       </c>
       <c r="D129" t="n">
-        <v>97.68000000000001</v>
+        <v>33.06</v>
       </c>
       <c r="E129" t="n">
-        <v>8.289999999999999</v>
+        <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G129" t="n">
-        <v>72.86</v>
-      </c>
-      <c r="H129" t="n">
-        <v>11.221</v>
-      </c>
-      <c r="I129" t="n">
-        <v>24.168</v>
-      </c>
-      <c r="J129" t="n">
-        <v>33.31</v>
-      </c>
-      <c r="K129" t="n">
-        <v>7.540000000000001</v>
+        <v>34.8</v>
       </c>
     </row>
     <row r="130">
@@ -4778,34 +3264,19 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>11.2</v>
+        <v>16.38</v>
       </c>
       <c r="C130" t="n">
-        <v>24.92</v>
+        <v>30.4</v>
       </c>
       <c r="D130" t="n">
-        <v>95.28</v>
+        <v>33.54</v>
       </c>
       <c r="E130" t="n">
-        <v>8.15</v>
+        <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G130" t="n">
-        <v>73.19</v>
-      </c>
-      <c r="H130" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="I130" t="n">
-        <v>25.002</v>
-      </c>
-      <c r="J130" t="n">
-        <v>38.842</v>
-      </c>
-      <c r="K130" t="n">
-        <v>6.711</v>
+        <v>34.69</v>
       </c>
     </row>
     <row r="131">
@@ -4813,34 +3284,19 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>11.71</v>
+        <v>15.42</v>
       </c>
       <c r="C131" t="n">
-        <v>24.79</v>
+        <v>31.39</v>
       </c>
       <c r="D131" t="n">
-        <v>92.48999999999999</v>
+        <v>33.55</v>
       </c>
       <c r="E131" t="n">
-        <v>8.02</v>
+        <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G131" t="n">
-        <v>73.47</v>
-      </c>
-      <c r="H131" t="n">
-        <v>8.803999999999998</v>
-      </c>
-      <c r="I131" t="n">
-        <v>25.871</v>
-      </c>
-      <c r="J131" t="n">
-        <v>43.765</v>
-      </c>
-      <c r="K131" t="n">
-        <v>5.555000000000001</v>
+        <v>34.64</v>
       </c>
     </row>
     <row r="132">
@@ -4848,34 +3304,19 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>12.27</v>
+        <v>14.37</v>
       </c>
       <c r="C132" t="n">
-        <v>24.94</v>
+        <v>32.54</v>
       </c>
       <c r="D132" t="n">
-        <v>89.7</v>
+        <v>33.51</v>
       </c>
       <c r="E132" t="n">
-        <v>7.88</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G132" t="n">
-        <v>73.87</v>
-      </c>
-      <c r="H132" t="n">
-        <v>7.407999999999999</v>
-      </c>
-      <c r="I132" t="n">
-        <v>26.338</v>
-      </c>
-      <c r="J132" t="n">
-        <v>48.678</v>
-      </c>
-      <c r="K132" t="n">
-        <v>4.409000000000001</v>
+        <v>34.58</v>
       </c>
     </row>
     <row r="133">
@@ -4883,34 +3324,19 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>12.82</v>
+        <v>13.32</v>
       </c>
       <c r="C133" t="n">
-        <v>25.09</v>
+        <v>33.6</v>
       </c>
       <c r="D133" t="n">
-        <v>88.89</v>
+        <v>33.54</v>
       </c>
       <c r="E133" t="n">
-        <v>7.73</v>
+        <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G133" t="n">
-        <v>74.48999999999999</v>
-      </c>
-      <c r="H133" t="n">
-        <v>6.151</v>
-      </c>
-      <c r="I133" t="n">
-        <v>26.809</v>
-      </c>
-      <c r="J133" t="n">
-        <v>51.23</v>
-      </c>
-      <c r="K133" t="n">
-        <v>3.287</v>
+        <v>34.54</v>
       </c>
     </row>
     <row r="134">
@@ -4918,34 +3344,19 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>13.39</v>
+        <v>12.19</v>
       </c>
       <c r="C134" t="n">
-        <v>25.24</v>
+        <v>34.68</v>
       </c>
       <c r="D134" t="n">
-        <v>88.08</v>
+        <v>33.67</v>
       </c>
       <c r="E134" t="n">
-        <v>7.57</v>
+        <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G134" t="n">
-        <v>73.64</v>
-      </c>
-      <c r="H134" t="n">
-        <v>5.375999999999999</v>
-      </c>
-      <c r="I134" t="n">
-        <v>27.734</v>
-      </c>
-      <c r="J134" t="n">
-        <v>53.79199999999999</v>
-      </c>
-      <c r="K134" t="n">
-        <v>2.676</v>
+        <v>34.46</v>
       </c>
     </row>
     <row r="135">
@@ -4953,34 +3364,19 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>14.2</v>
+        <v>11.07</v>
       </c>
       <c r="C135" t="n">
-        <v>25.52</v>
+        <v>35.77</v>
       </c>
       <c r="D135" t="n">
-        <v>87.26000000000001</v>
+        <v>33.8</v>
       </c>
       <c r="E135" t="n">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G135" t="n">
-        <v>72.86</v>
-      </c>
-      <c r="H135" t="n">
-        <v>4.665999999999999</v>
-      </c>
-      <c r="I135" t="n">
-        <v>27.212</v>
-      </c>
-      <c r="J135" t="n">
-        <v>57.23900000000001</v>
-      </c>
-      <c r="K135" t="n">
-        <v>2.13</v>
+        <v>34.36</v>
       </c>
     </row>
     <row r="136">
@@ -4988,34 +3384,19 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>14.8</v>
+        <v>10.54</v>
       </c>
       <c r="C136" t="n">
-        <v>25.58</v>
+        <v>37.36</v>
       </c>
       <c r="D136" t="n">
-        <v>84.2</v>
+        <v>33.28</v>
       </c>
       <c r="E136" t="n">
-        <v>6.57</v>
+        <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G136" t="n">
-        <v>72.06999999999999</v>
-      </c>
-      <c r="H136" t="n">
-        <v>3.966</v>
-      </c>
-      <c r="I136" t="n">
-        <v>30.03100000000001</v>
-      </c>
-      <c r="J136" t="n">
-        <v>60.691</v>
-      </c>
-      <c r="K136" t="n">
-        <v>1.584</v>
+        <v>33.82</v>
       </c>
     </row>
     <row r="137">
@@ -5023,34 +3404,19 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>15.45</v>
+        <v>10.08</v>
       </c>
       <c r="C137" t="n">
-        <v>25.65</v>
+        <v>38.8</v>
       </c>
       <c r="D137" t="n">
-        <v>81.14</v>
+        <v>32.83</v>
       </c>
       <c r="E137" t="n">
-        <v>5.75</v>
+        <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G137" t="n">
-        <v>71.54000000000001</v>
-      </c>
-      <c r="H137" t="n">
-        <v>2.873</v>
-      </c>
-      <c r="I137" t="n">
-        <v>33.31</v>
-      </c>
-      <c r="J137" t="n">
-        <v>63.749</v>
-      </c>
-      <c r="K137" t="n">
-        <v>1.038</v>
+        <v>33.3</v>
       </c>
     </row>
     <row r="138">
@@ -5058,34 +3424,19 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>13.87</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="C138" t="n">
-        <v>25.7</v>
+        <v>40.3</v>
       </c>
       <c r="D138" t="n">
-        <v>76.88</v>
+        <v>32.17</v>
       </c>
       <c r="E138" t="n">
-        <v>4.92</v>
+        <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G138" t="n">
-        <v>79.70999999999999</v>
-      </c>
-      <c r="H138" t="n">
-        <v>2.285</v>
-      </c>
-      <c r="I138" t="n">
-        <v>30.419</v>
-      </c>
-      <c r="J138" t="n">
-        <v>66.02000000000001</v>
-      </c>
-      <c r="K138" t="n">
-        <v>0.674</v>
+        <v>32.89</v>
       </c>
     </row>
     <row r="139">
@@ -5093,34 +3444,19 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>14.39</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="C139" t="n">
-        <v>25.74</v>
+        <v>41.28</v>
       </c>
       <c r="D139" t="n">
-        <v>72.64</v>
+        <v>31.5</v>
       </c>
       <c r="E139" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G139" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="H139" t="n">
-        <v>1.801</v>
-      </c>
-      <c r="I139" t="n">
-        <v>28.572</v>
-      </c>
-      <c r="J139" t="n">
-        <v>66.819</v>
-      </c>
-      <c r="K139" t="n">
-        <v>0.337</v>
+        <v>32.77</v>
       </c>
     </row>
     <row r="140">
@@ -5128,34 +3464,19 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>15.21</v>
+        <v>9.07</v>
       </c>
       <c r="C140" t="n">
-        <v>25.77</v>
+        <v>42.29</v>
       </c>
       <c r="D140" t="n">
-        <v>68.29000000000001</v>
+        <v>30.99</v>
       </c>
       <c r="E140" t="n">
-        <v>3.48</v>
+        <v>2</v>
       </c>
       <c r="F140" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G140" t="n">
-        <v>96.06999999999999</v>
-      </c>
-      <c r="H140" t="n">
-        <v>1.317</v>
-      </c>
-      <c r="I140" t="n">
-        <v>26.735</v>
-      </c>
-      <c r="J140" t="n">
-        <v>67.61</v>
-      </c>
-      <c r="K140" t="n">
-        <v>0</v>
+        <v>32.65</v>
       </c>
     </row>
     <row r="141">
@@ -5163,34 +3484,19 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>17.59</v>
+        <v>8.66</v>
       </c>
       <c r="C141" t="n">
-        <v>25.82</v>
+        <v>42.75</v>
       </c>
       <c r="D141" t="n">
-        <v>64.37</v>
+        <v>30.94</v>
       </c>
       <c r="E141" t="n">
-        <v>2.76</v>
+        <v>4</v>
       </c>
       <c r="F141" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G141" t="n">
-        <v>103.88</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0.868</v>
-      </c>
-      <c r="I141" t="n">
-        <v>24.292</v>
-      </c>
-      <c r="J141" t="n">
-        <v>66.91</v>
-      </c>
-      <c r="K141" t="n">
-        <v>0</v>
+        <v>32.64</v>
       </c>
     </row>
     <row r="142">
@@ -5198,34 +3504,19 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>19.92</v>
+        <v>8.26</v>
       </c>
       <c r="C142" t="n">
-        <v>25.35</v>
+        <v>43.1</v>
       </c>
       <c r="D142" t="n">
-        <v>60.41</v>
+        <v>30.67</v>
       </c>
       <c r="E142" t="n">
-        <v>2.05</v>
+        <v>6</v>
       </c>
       <c r="F142" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G142" t="n">
-        <v>111.65</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0.429</v>
-      </c>
-      <c r="I142" t="n">
-        <v>22.261</v>
-      </c>
-      <c r="J142" t="n">
-        <v>66.42999999999999</v>
-      </c>
-      <c r="K142" t="n">
-        <v>0</v>
+        <v>32.98</v>
       </c>
     </row>
     <row r="143">
@@ -5233,34 +3524,19 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>22.47</v>
+        <v>8.1</v>
       </c>
       <c r="C143" t="n">
-        <v>24.87</v>
+        <v>43.3</v>
       </c>
       <c r="D143" t="n">
-        <v>56.35</v>
+        <v>30.31</v>
       </c>
       <c r="E143" t="n">
-        <v>1.36</v>
+        <v>7.98</v>
       </c>
       <c r="F143" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G143" t="n">
-        <v>119.23</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>20.25</v>
-      </c>
-      <c r="J143" t="n">
-        <v>65.95999999999999</v>
-      </c>
-      <c r="K143" t="n">
-        <v>0</v>
+        <v>33.31</v>
       </c>
     </row>
     <row r="144">
@@ -5268,34 +3544,19 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>25.67</v>
+        <v>8</v>
       </c>
       <c r="C144" t="n">
-        <v>24.39</v>
+        <v>43.5</v>
       </c>
       <c r="D144" t="n">
-        <v>52.3</v>
+        <v>29.85</v>
       </c>
       <c r="E144" t="n">
-        <v>0.68</v>
+        <v>9.92</v>
       </c>
       <c r="F144" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G144" t="n">
-        <v>126.19</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>17.785</v>
-      </c>
-      <c r="J144" t="n">
-        <v>65.47999999999999</v>
-      </c>
-      <c r="K144" t="n">
-        <v>0</v>
+        <v>33.73</v>
       </c>
     </row>
     <row r="145">
@@ -5303,34 +3564,19 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>28.63</v>
+        <v>8.27</v>
       </c>
       <c r="C145" t="n">
-        <v>24.08</v>
+        <v>43.49</v>
       </c>
       <c r="D145" t="n">
-        <v>48.32</v>
+        <v>29.22</v>
       </c>
       <c r="E145" t="n">
-        <v>0</v>
+        <v>11.86</v>
       </c>
       <c r="F145" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G145" t="n">
-        <v>133.25</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>15.32</v>
-      </c>
-      <c r="J145" t="n">
-        <v>64.90000000000001</v>
-      </c>
-      <c r="K145" t="n">
-        <v>0</v>
+        <v>34.15</v>
       </c>
     </row>
     <row r="146">
@@ -5338,34 +3584,19 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>31.77</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="C146" t="n">
-        <v>23.95</v>
+        <v>43.23</v>
       </c>
       <c r="D146" t="n">
-        <v>46.8</v>
+        <v>28.59</v>
       </c>
       <c r="E146" t="n">
-        <v>0</v>
+        <v>13.78</v>
       </c>
       <c r="F146" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G146" t="n">
-        <v>140.48</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>8.864000000000001</v>
-      </c>
-      <c r="J146" t="n">
-        <v>64.626</v>
-      </c>
-      <c r="K146" t="n">
-        <v>0</v>
+        <v>34.94</v>
       </c>
     </row>
     <row r="147">
@@ -5373,34 +3604,19 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>35.19</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="C147" t="n">
-        <v>23.73</v>
+        <v>42.89</v>
       </c>
       <c r="D147" t="n">
-        <v>45.21</v>
+        <v>27.86</v>
       </c>
       <c r="E147" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="F147" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G147" t="n">
-        <v>147.97</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>2.048</v>
-      </c>
-      <c r="J147" t="n">
-        <v>64.342</v>
-      </c>
-      <c r="K147" t="n">
-        <v>0</v>
+        <v>36.02</v>
       </c>
     </row>
     <row r="148">
@@ -5408,38 +3624,823 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>39.85</v>
+        <v>8.6</v>
       </c>
       <c r="C148" t="n">
-        <v>23.52</v>
+        <v>42.44</v>
       </c>
       <c r="D148" t="n">
-        <v>49.2</v>
+        <v>27.27</v>
       </c>
       <c r="E148" t="n">
-        <v>0</v>
+        <v>17.68</v>
       </c>
       <c r="F148" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G148" t="n">
-        <v>146.8</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>1.412</v>
-      </c>
-      <c r="J148" t="n">
-        <v>59.713</v>
-      </c>
-      <c r="K148" t="n">
-        <v>0</v>
+        <v>37.01</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>8.76</v>
+      </c>
+      <c r="C149" t="n">
+        <v>42.28</v>
+      </c>
+      <c r="D149" t="n">
+        <v>26.69</v>
+      </c>
+      <c r="E149" t="n">
+        <v>19.59</v>
+      </c>
+      <c r="F149" t="n">
+        <v>37.7</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>9.210000000000001</v>
+      </c>
+      <c r="C150" t="n">
+        <v>41.92</v>
+      </c>
+      <c r="D150" t="n">
+        <v>26.01</v>
+      </c>
+      <c r="E150" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="F150" t="n">
+        <v>38.4</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="C151" t="n">
+        <v>41.48</v>
+      </c>
+      <c r="D151" t="n">
+        <v>25.33</v>
+      </c>
+      <c r="E151" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="F151" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>10.61</v>
+      </c>
+      <c r="C152" t="n">
+        <v>41.04</v>
+      </c>
+      <c r="D152" t="n">
+        <v>24.86</v>
+      </c>
+      <c r="E152" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="F152" t="n">
+        <v>39.25</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>11.08</v>
+      </c>
+      <c r="C153" t="n">
+        <v>40.91</v>
+      </c>
+      <c r="D153" t="n">
+        <v>24.39</v>
+      </c>
+      <c r="E153" t="n">
+        <v>19.19</v>
+      </c>
+      <c r="F153" t="n">
+        <v>39.49</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>11.37</v>
+      </c>
+      <c r="C154" t="n">
+        <v>40.56</v>
+      </c>
+      <c r="D154" t="n">
+        <v>23.92</v>
+      </c>
+      <c r="E154" t="n">
+        <v>19.11</v>
+      </c>
+      <c r="F154" t="n">
+        <v>40.1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>11.21</v>
+      </c>
+      <c r="C155" t="n">
+        <v>40.48</v>
+      </c>
+      <c r="D155" t="n">
+        <v>23.63</v>
+      </c>
+      <c r="E155" t="n">
+        <v>19.03</v>
+      </c>
+      <c r="F155" t="n">
+        <v>40.71</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="C156" t="n">
+        <v>40.38</v>
+      </c>
+      <c r="D156" t="n">
+        <v>23.34</v>
+      </c>
+      <c r="E156" t="n">
+        <v>18.97</v>
+      </c>
+      <c r="F156" t="n">
+        <v>41.4</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="C157" t="n">
+        <v>40.04</v>
+      </c>
+      <c r="D157" t="n">
+        <v>23.13</v>
+      </c>
+      <c r="E157" t="n">
+        <v>18.83</v>
+      </c>
+      <c r="F157" t="n">
+        <v>42.31</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>10.53</v>
+      </c>
+      <c r="C158" t="n">
+        <v>39.78</v>
+      </c>
+      <c r="D158" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="E158" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="F158" t="n">
+        <v>43.21</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="C159" t="n">
+        <v>39.52</v>
+      </c>
+      <c r="D159" t="n">
+        <v>22.74</v>
+      </c>
+      <c r="E159" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="F159" t="n">
+        <v>44.04</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="C160" t="n">
+        <v>39.38</v>
+      </c>
+      <c r="D160" t="n">
+        <v>22.61</v>
+      </c>
+      <c r="E160" t="n">
+        <v>18.56</v>
+      </c>
+      <c r="F160" t="n">
+        <v>44.87</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="C161" t="n">
+        <v>39.29</v>
+      </c>
+      <c r="D161" t="n">
+        <v>22.47</v>
+      </c>
+      <c r="E161" t="n">
+        <v>18.53</v>
+      </c>
+      <c r="F161" t="n">
+        <v>45.69</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="C162" t="n">
+        <v>37.71</v>
+      </c>
+      <c r="D162" t="n">
+        <v>23.91</v>
+      </c>
+      <c r="E162" t="n">
+        <v>18.51</v>
+      </c>
+      <c r="F162" t="n">
+        <v>46.53</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>8</v>
+      </c>
+      <c r="C163" t="n">
+        <v>35.77</v>
+      </c>
+      <c r="D163" t="n">
+        <v>25.35</v>
+      </c>
+      <c r="E163" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="F163" t="n">
+        <v>47.39</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="C164" t="n">
+        <v>34.13</v>
+      </c>
+      <c r="D164" t="n">
+        <v>26.79</v>
+      </c>
+      <c r="E164" t="n">
+        <v>18.49</v>
+      </c>
+      <c r="F164" t="n">
+        <v>47.77</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>7.72</v>
+      </c>
+      <c r="C165" t="n">
+        <v>32.55</v>
+      </c>
+      <c r="D165" t="n">
+        <v>28.23</v>
+      </c>
+      <c r="E165" t="n">
+        <v>18.47</v>
+      </c>
+      <c r="F165" t="n">
+        <v>48.04</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>7.82</v>
+      </c>
+      <c r="C166" t="n">
+        <v>30.74</v>
+      </c>
+      <c r="D166" t="n">
+        <v>29.66</v>
+      </c>
+      <c r="E166" t="n">
+        <v>18.44</v>
+      </c>
+      <c r="F166" t="n">
+        <v>48.33</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="C167" t="n">
+        <v>29.77</v>
+      </c>
+      <c r="D167" t="n">
+        <v>31.06</v>
+      </c>
+      <c r="E167" t="n">
+        <v>18.48</v>
+      </c>
+      <c r="F167" t="n">
+        <v>48.11</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="C168" t="n">
+        <v>28.73</v>
+      </c>
+      <c r="D168" t="n">
+        <v>32.46</v>
+      </c>
+      <c r="E168" t="n">
+        <v>18.67</v>
+      </c>
+      <c r="F168" t="n">
+        <v>47.89</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>7</v>
+      </c>
+      <c r="C169" t="n">
+        <v>27.72</v>
+      </c>
+      <c r="D169" t="n">
+        <v>33.93</v>
+      </c>
+      <c r="E169" t="n">
+        <v>18.63</v>
+      </c>
+      <c r="F169" t="n">
+        <v>47.72</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="C170" t="n">
+        <v>26.61</v>
+      </c>
+      <c r="D170" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="E170" t="n">
+        <v>18.65</v>
+      </c>
+      <c r="F170" t="n">
+        <v>47.55</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="C171" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="D171" t="n">
+        <v>36.87</v>
+      </c>
+      <c r="E171" t="n">
+        <v>18.67</v>
+      </c>
+      <c r="F171" t="n">
+        <v>47.38</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>6.23</v>
+      </c>
+      <c r="C172" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="D172" t="n">
+        <v>36.53</v>
+      </c>
+      <c r="E172" t="n">
+        <v>16.79</v>
+      </c>
+      <c r="F172" t="n">
+        <v>47.15</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="C173" t="n">
+        <v>31.26</v>
+      </c>
+      <c r="D173" t="n">
+        <v>36.13</v>
+      </c>
+      <c r="E173" t="n">
+        <v>14.94</v>
+      </c>
+      <c r="F173" t="n">
+        <v>46.85</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="C174" t="n">
+        <v>34.14</v>
+      </c>
+      <c r="D174" t="n">
+        <v>35.68</v>
+      </c>
+      <c r="E174" t="n">
+        <v>13.09</v>
+      </c>
+      <c r="F174" t="n">
+        <v>46.69</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="C175" t="n">
+        <v>36.87</v>
+      </c>
+      <c r="D175" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="E175" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="F175" t="n">
+        <v>46.58</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="C176" t="n">
+        <v>39.63</v>
+      </c>
+      <c r="D176" t="n">
+        <v>34.85</v>
+      </c>
+      <c r="E176" t="n">
+        <v>9.42</v>
+      </c>
+      <c r="F176" t="n">
+        <v>47.1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="C177" t="n">
+        <v>41.89</v>
+      </c>
+      <c r="D177" t="n">
+        <v>34.77</v>
+      </c>
+      <c r="E177" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="F177" t="n">
+        <v>47.31</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="C178" t="n">
+        <v>44.14</v>
+      </c>
+      <c r="D178" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="E178" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="F178" t="n">
+        <v>47.51</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="C179" t="n">
+        <v>46.37</v>
+      </c>
+      <c r="D179" t="n">
+        <v>34.39</v>
+      </c>
+      <c r="E179" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="F179" t="n">
+        <v>47.98</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="C180" t="n">
+        <v>48.56</v>
+      </c>
+      <c r="D180" t="n">
+        <v>34.11</v>
+      </c>
+      <c r="E180" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F180" t="n">
+        <v>48.43</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="C181" t="n">
+        <v>50.78</v>
+      </c>
+      <c r="D181" t="n">
+        <v>33.76</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0</v>
+      </c>
+      <c r="F181" t="n">
+        <v>48.94</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="C182" t="n">
+        <v>50.78</v>
+      </c>
+      <c r="D182" t="n">
+        <v>33.69</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0</v>
+      </c>
+      <c r="F182" t="n">
+        <v>49.49</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="C183" t="n">
+        <v>50.78</v>
+      </c>
+      <c r="D183" t="n">
+        <v>33.71</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0</v>
+      </c>
+      <c r="F183" t="n">
+        <v>50.09</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="C184" t="n">
+        <v>50.78</v>
+      </c>
+      <c r="D184" t="n">
+        <v>33.77</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0</v>
+      </c>
+      <c r="F184" t="n">
+        <v>50.6</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0</v>
+      </c>
+      <c r="C185" t="n">
+        <v>50.78</v>
+      </c>
+      <c r="D185" t="n">
+        <v>33.35</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0</v>
+      </c>
+      <c r="F185" t="n">
+        <v>51.57</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0</v>
+      </c>
+      <c r="C186" t="n">
+        <v>50.78</v>
+      </c>
+      <c r="D186" t="n">
+        <v>33.06</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0</v>
+      </c>
+      <c r="F186" t="n">
+        <v>51.86</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0</v>
+      </c>
+      <c r="C187" t="n">
+        <v>50.78</v>
+      </c>
+      <c r="D187" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0</v>
+      </c>
+      <c r="F187" t="n">
+        <v>52.43</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0</v>
+      </c>
+      <c r="C188" t="n">
+        <v>50.78</v>
+      </c>
+      <c r="D188" t="n">
+        <v>31.97</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0</v>
+      </c>
+      <c r="F188" t="n">
+        <v>52.95</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Outputs/stacks_over_time_avg.xlsx
+++ b/Outputs/stacks_over_time_avg.xlsx
@@ -2,9 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
@@ -26,7 +25,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,10 +50,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -62,7 +75,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -661,7 +674,7 @@
   </sheetPr>
   <dimension ref="A1:F188"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -4440,7 +4453,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Outputs/stacks_over_time_avg.xlsx
+++ b/Outputs/stacks_over_time_avg.xlsx
@@ -194,7 +194,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$B$2:$B$188</f>
+              <f>'data'!$B$2:$B$148</f>
             </numRef>
           </val>
         </ser>
@@ -221,7 +221,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$C$2:$C$188</f>
+              <f>'data'!$C$2:$C$148</f>
             </numRef>
           </val>
         </ser>
@@ -248,7 +248,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$D$2:$D$188</f>
+              <f>'data'!$D$2:$D$148</f>
             </numRef>
           </val>
         </ser>
@@ -275,7 +275,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$E$2:$E$188</f>
+              <f>'data'!$E$2:$E$148</f>
             </numRef>
           </val>
         </ser>
@@ -302,7 +302,142 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$F$2:$F$188</f>
+              <f>'data'!$F$2:$F$148</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="5"/>
+          <order val="5"/>
+          <tx>
+            <strRef>
+              <f>'data'!G1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'data'!$G$2:$G$148</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="6"/>
+          <order val="6"/>
+          <tx>
+            <strRef>
+              <f>'data'!H1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'data'!$H$2:$H$148</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="7"/>
+          <order val="7"/>
+          <tx>
+            <strRef>
+              <f>'data'!I1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'data'!$I$2:$I$148</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="8"/>
+          <order val="8"/>
+          <tx>
+            <strRef>
+              <f>'data'!J1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'data'!$J$2:$J$148</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="9"/>
+          <order val="9"/>
+          <tx>
+            <strRef>
+              <f>'data'!K1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'data'!$K$2:$K$148</f>
             </numRef>
           </val>
         </ser>
@@ -672,7 +807,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F188"/>
+  <dimension ref="A1:K148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -688,27 +823,52 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Fish</t>
+          <t>Scott</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Scott</t>
+          <t>Cedric</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Raymond</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Kynan</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Jonathan</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Cedric</t>
+          <t>Fish</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Jacob</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Marshall</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Regan</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Cheyenne</t>
         </is>
       </c>
     </row>
@@ -717,19 +877,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F2" t="n">
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="G2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -737,19 +900,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E3" t="n">
-        <v>20.1</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>19.9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" t="n">
+        <v>10.15</v>
       </c>
     </row>
     <row r="4">
@@ -757,19 +923,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>19.93</v>
+        <v>9.93</v>
       </c>
       <c r="C4" t="n">
-        <v>20.1</v>
+        <v>9.92</v>
       </c>
       <c r="D4" t="n">
-        <v>20</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>20.13</v>
+        <v>10.02</v>
       </c>
       <c r="F4" t="n">
-        <v>19.83</v>
+        <v>10</v>
+      </c>
+      <c r="G4" t="n">
+        <v>10.17</v>
       </c>
     </row>
     <row r="5">
@@ -777,19 +946,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>19.85</v>
+        <v>9.93</v>
       </c>
       <c r="C5" t="n">
-        <v>18.26</v>
+        <v>9.9</v>
       </c>
       <c r="D5" t="n">
-        <v>20</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>20.1</v>
+        <v>10.03</v>
       </c>
       <c r="F5" t="n">
-        <v>21.79</v>
+        <v>9.970000000000001</v>
+      </c>
+      <c r="G5" t="n">
+        <v>10.3</v>
       </c>
     </row>
     <row r="6">
@@ -797,19 +969,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20.46</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>16.54</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>19.96</v>
+        <v>9.82</v>
       </c>
       <c r="E6" t="n">
-        <v>20.08</v>
+        <v>10.02</v>
       </c>
       <c r="F6" t="n">
-        <v>22.96</v>
+        <v>9.94</v>
+      </c>
+      <c r="G6" t="n">
+        <v>10.38</v>
       </c>
     </row>
     <row r="7">
@@ -817,19 +992,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20.51</v>
+        <v>10.32</v>
       </c>
       <c r="C7" t="n">
-        <v>15.39</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>20.32</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>20.03</v>
+        <v>9.93</v>
       </c>
       <c r="F7" t="n">
-        <v>23.74</v>
+        <v>9.91</v>
+      </c>
+      <c r="G7" t="n">
+        <v>10.42</v>
       </c>
     </row>
     <row r="8">
@@ -837,19 +1015,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>20.51</v>
+        <v>10.58</v>
       </c>
       <c r="C8" t="n">
-        <v>14.77</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>20.59</v>
+        <v>9.31</v>
       </c>
       <c r="E8" t="n">
-        <v>19.91</v>
+        <v>9.98</v>
       </c>
       <c r="F8" t="n">
-        <v>24.21</v>
+        <v>9.890000000000001</v>
+      </c>
+      <c r="G8" t="n">
+        <v>10.44</v>
       </c>
     </row>
     <row r="9">
@@ -857,19 +1038,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>20.44</v>
+        <v>10.73</v>
       </c>
       <c r="C9" t="n">
-        <v>14.31</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>20.78</v>
+        <v>9.31</v>
       </c>
       <c r="E9" t="n">
-        <v>19.95</v>
+        <v>9.98</v>
       </c>
       <c r="F9" t="n">
-        <v>24.52</v>
+        <v>9.869999999999999</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10.41</v>
       </c>
     </row>
     <row r="10">
@@ -877,19 +1061,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>21.08</v>
+        <v>10.85</v>
       </c>
       <c r="C10" t="n">
-        <v>13.3</v>
+        <v>9.59</v>
       </c>
       <c r="D10" t="n">
-        <v>20.91</v>
+        <v>9.56</v>
       </c>
       <c r="E10" t="n">
-        <v>19.96</v>
+        <v>9.93</v>
       </c>
       <c r="F10" t="n">
-        <v>24.76</v>
+        <v>9.800000000000001</v>
+      </c>
+      <c r="G10" t="n">
+        <v>10.27</v>
       </c>
     </row>
     <row r="11">
@@ -897,19 +1084,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>21.59</v>
+        <v>10.94</v>
       </c>
       <c r="C11" t="n">
-        <v>12.47</v>
+        <v>9.49</v>
       </c>
       <c r="D11" t="n">
-        <v>21.04</v>
+        <v>9.76</v>
       </c>
       <c r="E11" t="n">
-        <v>19.96</v>
+        <v>9.99</v>
       </c>
       <c r="F11" t="n">
-        <v>24.95</v>
+        <v>9.66</v>
+      </c>
+      <c r="G11" t="n">
+        <v>10.16</v>
       </c>
     </row>
     <row r="12">
@@ -917,19 +1107,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>21.59</v>
+        <v>10.94</v>
       </c>
       <c r="C12" t="n">
-        <v>12.47</v>
+        <v>9.49</v>
       </c>
       <c r="D12" t="n">
-        <v>21.04</v>
+        <v>9.76</v>
       </c>
       <c r="E12" t="n">
-        <v>19.96</v>
+        <v>9.99</v>
       </c>
       <c r="F12" t="n">
-        <v>24.95</v>
+        <v>9.66</v>
+      </c>
+      <c r="G12" t="n">
+        <v>10.16</v>
       </c>
     </row>
     <row r="13">
@@ -937,19 +1130,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>22.2</v>
+        <v>11.31</v>
       </c>
       <c r="C13" t="n">
-        <v>10.98</v>
+        <v>9.35</v>
       </c>
       <c r="D13" t="n">
-        <v>21.19</v>
+        <v>9.85</v>
       </c>
       <c r="E13" t="n">
-        <v>19.94</v>
+        <v>9.98</v>
       </c>
       <c r="F13" t="n">
-        <v>25.7</v>
+        <v>9.49</v>
+      </c>
+      <c r="G13" t="n">
+        <v>10.02</v>
       </c>
     </row>
     <row r="14">
@@ -957,19 +1153,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>22.82</v>
+        <v>11.69</v>
       </c>
       <c r="C14" t="n">
-        <v>9.48</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>21.4</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>19.89</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>26.41</v>
+        <v>9.43</v>
+      </c>
+      <c r="G14" t="n">
+        <v>9.84</v>
       </c>
     </row>
     <row r="15">
@@ -977,19 +1176,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>23.39</v>
+        <v>13.07</v>
       </c>
       <c r="C15" t="n">
-        <v>9.460000000000001</v>
+        <v>9.09</v>
       </c>
       <c r="D15" t="n">
-        <v>21.69</v>
+        <v>8.94</v>
       </c>
       <c r="E15" t="n">
-        <v>19.84</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="F15" t="n">
-        <v>27.12</v>
+        <v>9.369999999999999</v>
+      </c>
+      <c r="G15" t="n">
+        <v>9.66</v>
       </c>
     </row>
     <row r="16">
@@ -997,19 +1199,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>23.98</v>
+        <v>14.38</v>
       </c>
       <c r="C16" t="n">
-        <v>10.2</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>21.97</v>
+        <v>7.99</v>
       </c>
       <c r="E16" t="n">
-        <v>19.81</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="F16" t="n">
-        <v>27.04</v>
+        <v>9.59</v>
+      </c>
+      <c r="G16" t="n">
+        <v>9.359999999999999</v>
       </c>
     </row>
     <row r="17">
@@ -1017,19 +1222,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>24.18</v>
+        <v>15.61</v>
       </c>
       <c r="C17" t="n">
-        <v>11.33</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>22.25</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>19.78</v>
+        <v>9.5</v>
       </c>
       <c r="F17" t="n">
-        <v>26.96</v>
+        <v>9.74</v>
+      </c>
+      <c r="G17" t="n">
+        <v>8.73</v>
       </c>
     </row>
     <row r="18">
@@ -1037,19 +1245,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>24.7</v>
+        <v>16.65</v>
       </c>
       <c r="C18" t="n">
-        <v>12.38</v>
+        <v>9.81</v>
       </c>
       <c r="D18" t="n">
-        <v>22.29</v>
+        <v>8.27</v>
       </c>
       <c r="E18" t="n">
-        <v>19.75</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="F18" t="n">
-        <v>26.88</v>
+        <v>9.890000000000001</v>
+      </c>
+      <c r="G18" t="n">
+        <v>8.1</v>
       </c>
     </row>
     <row r="19">
@@ -1057,19 +1268,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>25.25</v>
+        <v>17.67</v>
       </c>
       <c r="C19" t="n">
-        <v>13.58</v>
+        <v>10.28</v>
       </c>
       <c r="D19" t="n">
-        <v>22.33</v>
+        <v>8.5</v>
       </c>
       <c r="E19" t="n">
-        <v>19.77</v>
+        <v>9.1</v>
       </c>
       <c r="F19" t="n">
-        <v>26.57</v>
+        <v>10.01</v>
+      </c>
+      <c r="G19" t="n">
+        <v>7.44</v>
       </c>
     </row>
     <row r="20">
@@ -1077,19 +1291,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>26.86</v>
+        <v>18.32</v>
       </c>
       <c r="C20" t="n">
-        <v>14.07</v>
+        <v>10.79</v>
       </c>
       <c r="D20" t="n">
-        <v>22.37</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>19.63</v>
+        <v>8.9</v>
       </c>
       <c r="F20" t="n">
-        <v>26.07</v>
+        <v>10.12</v>
+      </c>
+      <c r="G20" t="n">
+        <v>7.26</v>
       </c>
     </row>
     <row r="21">
@@ -1097,19 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>27.84</v>
+        <v>18.97</v>
       </c>
       <c r="C21" t="n">
-        <v>15.21</v>
+        <v>11.33</v>
       </c>
       <c r="D21" t="n">
-        <v>22.43</v>
+        <v>8.48</v>
       </c>
       <c r="E21" t="n">
-        <v>19.45</v>
+        <v>8.77</v>
       </c>
       <c r="F21" t="n">
-        <v>25.57</v>
+        <v>10.28</v>
+      </c>
+      <c r="G21" t="n">
+        <v>7.18</v>
       </c>
     </row>
     <row r="22">
@@ -1117,19 +1337,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>28.8</v>
+        <v>19.62</v>
       </c>
       <c r="C22" t="n">
-        <v>16.41</v>
+        <v>11.78</v>
       </c>
       <c r="D22" t="n">
-        <v>22.45</v>
+        <v>8.35</v>
       </c>
       <c r="E22" t="n">
-        <v>19.27</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="F22" t="n">
-        <v>25.07</v>
+        <v>10.51</v>
+      </c>
+      <c r="G22" t="n">
+        <v>7.2</v>
       </c>
     </row>
     <row r="23">
@@ -1137,19 +1360,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>29.77</v>
+        <v>20.09</v>
       </c>
       <c r="C23" t="n">
-        <v>17.61</v>
+        <v>12.23</v>
       </c>
       <c r="D23" t="n">
-        <v>22.52</v>
+        <v>8.25</v>
       </c>
       <c r="E23" t="n">
-        <v>18.99</v>
+        <v>8.43</v>
       </c>
       <c r="F23" t="n">
-        <v>24.48</v>
+        <v>10.76</v>
+      </c>
+      <c r="G23" t="n">
+        <v>7.29</v>
       </c>
     </row>
     <row r="24">
@@ -1157,19 +1383,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>30.73</v>
+        <v>20.55</v>
       </c>
       <c r="C24" t="n">
-        <v>18.81</v>
+        <v>12.67</v>
       </c>
       <c r="D24" t="n">
-        <v>22.53</v>
+        <v>8.18</v>
       </c>
       <c r="E24" t="n">
-        <v>18.7</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="F24" t="n">
-        <v>23.97</v>
+        <v>10.89</v>
+      </c>
+      <c r="G24" t="n">
+        <v>7.37</v>
       </c>
     </row>
     <row r="25">
@@ -1177,19 +1406,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>31.75</v>
+        <v>20.01</v>
       </c>
       <c r="C25" t="n">
-        <v>18.49</v>
+        <v>13.08</v>
       </c>
       <c r="D25" t="n">
-        <v>22.47</v>
+        <v>9.06</v>
       </c>
       <c r="E25" t="n">
-        <v>18.42</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="F25" t="n">
-        <v>23.49</v>
+        <v>11.02</v>
+      </c>
+      <c r="G25" t="n">
+        <v>7.44</v>
       </c>
     </row>
     <row r="26">
@@ -1197,19 +1429,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>32.91</v>
+        <v>19.54</v>
       </c>
       <c r="C26" t="n">
-        <v>18.18</v>
+        <v>13.49</v>
       </c>
       <c r="D26" t="n">
-        <v>22.39</v>
+        <v>9.99</v>
       </c>
       <c r="E26" t="n">
-        <v>18.13</v>
+        <v>8.56</v>
       </c>
       <c r="F26" t="n">
-        <v>23.01</v>
+        <v>10.88</v>
+      </c>
+      <c r="G26" t="n">
+        <v>7.6</v>
       </c>
     </row>
     <row r="27">
@@ -1217,19 +1452,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>34.04</v>
+        <v>19.13</v>
       </c>
       <c r="C27" t="n">
-        <v>17.51</v>
+        <v>13.38</v>
       </c>
       <c r="D27" t="n">
-        <v>22.32</v>
+        <v>9.92</v>
       </c>
       <c r="E27" t="n">
-        <v>18.22</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="F27" t="n">
-        <v>22.53</v>
+        <v>10.81</v>
+      </c>
+      <c r="G27" t="n">
+        <v>8.1</v>
       </c>
     </row>
     <row r="28">
@@ -1237,19 +1475,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>35.05</v>
+        <v>18.7</v>
       </c>
       <c r="C28" t="n">
-        <v>16.84</v>
+        <v>13.26</v>
       </c>
       <c r="D28" t="n">
-        <v>22.43</v>
+        <v>9.9</v>
       </c>
       <c r="E28" t="n">
-        <v>18.32</v>
+        <v>8.94</v>
       </c>
       <c r="F28" t="n">
-        <v>21.97</v>
+        <v>10.69</v>
+      </c>
+      <c r="G28" t="n">
+        <v>8.59</v>
       </c>
     </row>
     <row r="29">
@@ -1257,19 +1498,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>36.05</v>
+        <v>18.31</v>
       </c>
       <c r="C29" t="n">
-        <v>15.91</v>
+        <v>13.12</v>
       </c>
       <c r="D29" t="n">
-        <v>22.54</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="E29" t="n">
-        <v>18.43</v>
+        <v>9.06</v>
       </c>
       <c r="F29" t="n">
-        <v>21.68</v>
+        <v>10.61</v>
+      </c>
+      <c r="G29" t="n">
+        <v>9.130000000000001</v>
       </c>
     </row>
     <row r="30">
@@ -1277,19 +1521,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>36.03</v>
+        <v>18.31</v>
       </c>
       <c r="C30" t="n">
-        <v>15.76</v>
+        <v>12.98</v>
       </c>
       <c r="D30" t="n">
-        <v>22.65</v>
+        <v>9.56</v>
       </c>
       <c r="E30" t="n">
-        <v>18.55</v>
+        <v>9.23</v>
       </c>
       <c r="F30" t="n">
-        <v>21.63</v>
+        <v>10.81</v>
+      </c>
+      <c r="G30" t="n">
+        <v>9.210000000000001</v>
       </c>
     </row>
     <row r="31">
@@ -1297,19 +1544,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>36</v>
+        <v>18.31</v>
       </c>
       <c r="C31" t="n">
-        <v>15.52</v>
+        <v>12.87</v>
       </c>
       <c r="D31" t="n">
-        <v>22.8</v>
+        <v>9.27</v>
       </c>
       <c r="E31" t="n">
-        <v>18.72</v>
+        <v>9.35</v>
       </c>
       <c r="F31" t="n">
-        <v>21.58</v>
+        <v>11.01</v>
+      </c>
+      <c r="G31" t="n">
+        <v>9.289999999999999</v>
       </c>
     </row>
     <row r="32">
@@ -1317,19 +1567,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>35.99</v>
+        <v>18.31</v>
       </c>
       <c r="C32" t="n">
-        <v>15.29</v>
+        <v>13.55</v>
       </c>
       <c r="D32" t="n">
-        <v>22.96</v>
+        <v>8.98</v>
       </c>
       <c r="E32" t="n">
-        <v>18.87</v>
+        <v>9.16</v>
       </c>
       <c r="F32" t="n">
-        <v>21.51</v>
+        <v>11.14</v>
+      </c>
+      <c r="G32" t="n">
+        <v>8.960000000000001</v>
       </c>
     </row>
     <row r="33">
@@ -1337,19 +1590,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>36.01</v>
+        <v>18.31</v>
       </c>
       <c r="C33" t="n">
-        <v>15.06</v>
+        <v>14.23</v>
       </c>
       <c r="D33" t="n">
-        <v>23.13</v>
+        <v>8.68</v>
       </c>
       <c r="E33" t="n">
-        <v>19.12</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="F33" t="n">
-        <v>21.42</v>
+        <v>11.38</v>
+      </c>
+      <c r="G33" t="n">
+        <v>8.619999999999999</v>
       </c>
     </row>
     <row r="34">
@@ -1357,19 +1613,28 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>35.96</v>
+        <v>18.31</v>
       </c>
       <c r="C34" t="n">
-        <v>14.92</v>
+        <v>14.91</v>
       </c>
       <c r="D34" t="n">
-        <v>23.3</v>
+        <v>8.35</v>
       </c>
       <c r="E34" t="n">
-        <v>19.39</v>
+        <v>8.5</v>
       </c>
       <c r="F34" t="n">
-        <v>21.3</v>
+        <v>11.96</v>
+      </c>
+      <c r="G34" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+      <c r="I34" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="35">
@@ -1377,19 +1642,28 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>35.85</v>
+        <v>18.3</v>
       </c>
       <c r="C35" t="n">
-        <v>15.23</v>
+        <v>16.23</v>
       </c>
       <c r="D35" t="n">
-        <v>23.09</v>
+        <v>7.72</v>
       </c>
       <c r="E35" t="n">
-        <v>19.66</v>
+        <v>7.77</v>
       </c>
       <c r="F35" t="n">
-        <v>21.16</v>
+        <v>12.55</v>
+      </c>
+      <c r="G35" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+      <c r="I35" t="n">
+        <v>9.75</v>
       </c>
     </row>
     <row r="36">
@@ -1397,19 +1671,28 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>35.54</v>
+        <v>18.04</v>
       </c>
       <c r="C36" t="n">
-        <v>15.51</v>
+        <v>17.55</v>
       </c>
       <c r="D36" t="n">
-        <v>23.03</v>
+        <v>7.05</v>
       </c>
       <c r="E36" t="n">
-        <v>19.91</v>
+        <v>7.44</v>
       </c>
       <c r="F36" t="n">
-        <v>21.02</v>
+        <v>13.09</v>
+      </c>
+      <c r="G36" t="n">
+        <v>6.96</v>
+      </c>
+      <c r="H36" t="n">
+        <v>9.866666666666667</v>
+      </c>
+      <c r="I36" t="n">
+        <v>9.533333333333333</v>
       </c>
     </row>
     <row r="37">
@@ -1417,19 +1700,28 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>35.25</v>
+        <v>17.74</v>
       </c>
       <c r="C37" t="n">
-        <v>16.21</v>
+        <v>18.84</v>
       </c>
       <c r="D37" t="n">
-        <v>22.96</v>
+        <v>6.76</v>
       </c>
       <c r="E37" t="n">
-        <v>19.76</v>
+        <v>7.1</v>
       </c>
       <c r="F37" t="n">
-        <v>20.82</v>
+        <v>13.59</v>
+      </c>
+      <c r="G37" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="H37" t="n">
+        <v>9.725</v>
+      </c>
+      <c r="I37" t="n">
+        <v>9.175000000000001</v>
       </c>
     </row>
     <row r="38">
@@ -1437,19 +1729,28 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>34.89</v>
+        <v>17.88</v>
       </c>
       <c r="C38" t="n">
-        <v>17</v>
+        <v>20.13</v>
       </c>
       <c r="D38" t="n">
-        <v>22.94</v>
+        <v>6.4</v>
       </c>
       <c r="E38" t="n">
-        <v>19.55</v>
+        <v>6.76</v>
       </c>
       <c r="F38" t="n">
-        <v>20.63</v>
+        <v>14.04</v>
+      </c>
+      <c r="G38" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H38" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="I38" t="n">
+        <v>8.940000000000001</v>
       </c>
     </row>
     <row r="39">
@@ -1457,19 +1758,28 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>34.6</v>
+        <v>18.14</v>
       </c>
       <c r="C39" t="n">
-        <v>17.75</v>
+        <v>21.45</v>
       </c>
       <c r="D39" t="n">
-        <v>22.92</v>
+        <v>5.99</v>
       </c>
       <c r="E39" t="n">
-        <v>19.3</v>
+        <v>6.4</v>
       </c>
       <c r="F39" t="n">
-        <v>20.44</v>
+        <v>14.49</v>
+      </c>
+      <c r="G39" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="H39" t="n">
+        <v>9.366666666666665</v>
+      </c>
+      <c r="I39" t="n">
+        <v>7.725000000000001</v>
       </c>
     </row>
     <row r="40">
@@ -1477,19 +1787,28 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>34.24</v>
+        <v>19.26</v>
       </c>
       <c r="C40" t="n">
-        <v>17.45</v>
+        <v>22.76</v>
       </c>
       <c r="D40" t="n">
-        <v>22.82</v>
+        <v>5.85</v>
       </c>
       <c r="E40" t="n">
-        <v>19.1</v>
+        <v>5.97</v>
       </c>
       <c r="F40" t="n">
-        <v>21.38</v>
+        <v>14.65</v>
+      </c>
+      <c r="G40" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="H40" t="n">
+        <v>9.185714285714287</v>
+      </c>
+      <c r="I40" t="n">
+        <v>6.857142857142857</v>
       </c>
     </row>
     <row r="41">
@@ -1497,19 +1816,28 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>33.9</v>
+        <v>19.93</v>
       </c>
       <c r="C41" t="n">
-        <v>17.29</v>
+        <v>24.04</v>
       </c>
       <c r="D41" t="n">
-        <v>22.58</v>
+        <v>5.65</v>
       </c>
       <c r="E41" t="n">
-        <v>18.89</v>
+        <v>5.49</v>
       </c>
       <c r="F41" t="n">
-        <v>22.33</v>
+        <v>14.82</v>
+      </c>
+      <c r="G41" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="H41" t="n">
+        <v>10.0875</v>
+      </c>
+      <c r="I41" t="n">
+        <v>6.20625</v>
       </c>
     </row>
     <row r="42">
@@ -1517,19 +1845,28 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>33.67</v>
+        <v>20.17</v>
       </c>
       <c r="C42" t="n">
-        <v>16.99</v>
+        <v>24.57</v>
       </c>
       <c r="D42" t="n">
-        <v>22.35</v>
+        <v>5.28</v>
       </c>
       <c r="E42" t="n">
-        <v>18.68</v>
+        <v>5.27</v>
       </c>
       <c r="F42" t="n">
-        <v>23.3</v>
+        <v>15.04</v>
+      </c>
+      <c r="G42" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="H42" t="n">
+        <v>10.72222222222222</v>
+      </c>
+      <c r="I42" t="n">
+        <v>5.794444444444444</v>
       </c>
     </row>
     <row r="43">
@@ -1537,19 +1874,31 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>33.4</v>
+        <v>20.5</v>
       </c>
       <c r="C43" t="n">
-        <v>16.62</v>
+        <v>25.05</v>
       </c>
       <c r="D43" t="n">
-        <v>22.12</v>
+        <v>4.96</v>
       </c>
       <c r="E43" t="n">
-        <v>18.41</v>
+        <v>5.06</v>
       </c>
       <c r="F43" t="n">
-        <v>24.47</v>
+        <v>15.12</v>
+      </c>
+      <c r="G43" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="H43" t="n">
+        <v>12.122</v>
+      </c>
+      <c r="I43" t="n">
+        <v>5.395</v>
+      </c>
+      <c r="J43" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="44">
@@ -1557,19 +1906,31 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>33.22</v>
+        <v>20.83</v>
       </c>
       <c r="C44" t="n">
-        <v>16.13</v>
+        <v>25.52</v>
       </c>
       <c r="D44" t="n">
-        <v>21.89</v>
+        <v>4.34</v>
       </c>
       <c r="E44" t="n">
-        <v>18.14</v>
+        <v>4.92</v>
       </c>
       <c r="F44" t="n">
-        <v>25.67</v>
+        <v>14.41</v>
+      </c>
+      <c r="G44" t="n">
+        <v>8.609999999999999</v>
+      </c>
+      <c r="H44" t="n">
+        <v>12.122</v>
+      </c>
+      <c r="I44" t="n">
+        <v>5.395</v>
+      </c>
+      <c r="J44" t="n">
+        <v>9.949999999999999</v>
       </c>
     </row>
     <row r="45">
@@ -1577,19 +1938,31 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>33.06</v>
+        <v>21.46</v>
       </c>
       <c r="C45" t="n">
-        <v>15.23</v>
+        <v>25.4</v>
       </c>
       <c r="D45" t="n">
-        <v>22.02</v>
+        <v>4.02</v>
       </c>
       <c r="E45" t="n">
-        <v>17.86</v>
+        <v>5.07</v>
       </c>
       <c r="F45" t="n">
-        <v>26.86</v>
+        <v>13.71</v>
+      </c>
+      <c r="G45" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="H45" t="n">
+        <v>13.315</v>
+      </c>
+      <c r="I45" t="n">
+        <v>4.575</v>
+      </c>
+      <c r="J45" t="n">
+        <v>9.916666666666666</v>
       </c>
     </row>
     <row r="46">
@@ -1597,19 +1970,31 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>32.96</v>
+        <v>22.33</v>
       </c>
       <c r="C46" t="n">
-        <v>14.35</v>
+        <v>25.26</v>
       </c>
       <c r="D46" t="n">
-        <v>22.01</v>
+        <v>4.74</v>
       </c>
       <c r="E46" t="n">
-        <v>17.65</v>
+        <v>4.87</v>
       </c>
       <c r="F46" t="n">
-        <v>28.06</v>
+        <v>13.06</v>
+      </c>
+      <c r="G46" t="n">
+        <v>10.61</v>
+      </c>
+      <c r="H46" t="n">
+        <v>14.498</v>
+      </c>
+      <c r="I46" t="n">
+        <v>3.795</v>
+      </c>
+      <c r="J46" t="n">
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="47">
@@ -1617,19 +2002,31 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>32.86</v>
+        <v>23.25</v>
       </c>
       <c r="C47" t="n">
-        <v>13.46</v>
+        <v>25.12</v>
       </c>
       <c r="D47" t="n">
-        <v>22.02</v>
+        <v>5.01</v>
       </c>
       <c r="E47" t="n">
-        <v>17.4</v>
+        <v>4.62</v>
       </c>
       <c r="F47" t="n">
-        <v>29.32</v>
+        <v>12.45</v>
+      </c>
+      <c r="G47" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="H47" t="n">
+        <v>15.716</v>
+      </c>
+      <c r="I47" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="J47" t="n">
+        <v>9.790000000000001</v>
       </c>
     </row>
     <row r="48">
@@ -1637,19 +2034,31 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>32.81</v>
+        <v>23.73</v>
       </c>
       <c r="C48" t="n">
-        <v>12.59</v>
+        <v>24.99</v>
       </c>
       <c r="D48" t="n">
-        <v>21.81</v>
+        <v>5.23</v>
       </c>
       <c r="E48" t="n">
-        <v>17.22</v>
+        <v>4.38</v>
       </c>
       <c r="F48" t="n">
-        <v>30.65</v>
+        <v>11.94</v>
+      </c>
+      <c r="G48" t="n">
+        <v>13</v>
+      </c>
+      <c r="H48" t="n">
+        <v>16.964</v>
+      </c>
+      <c r="I48" t="n">
+        <v>3.015</v>
+      </c>
+      <c r="J48" t="n">
+        <v>9.85</v>
       </c>
     </row>
     <row r="49">
@@ -1657,19 +2066,31 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>32.7</v>
+        <v>23.85</v>
       </c>
       <c r="C49" t="n">
-        <v>11.96</v>
+        <v>24.86</v>
       </c>
       <c r="D49" t="n">
-        <v>21.6</v>
+        <v>5.78</v>
       </c>
       <c r="E49" t="n">
-        <v>16.85</v>
+        <v>4.13</v>
       </c>
       <c r="F49" t="n">
-        <v>31.99</v>
+        <v>11.43</v>
+      </c>
+      <c r="G49" t="n">
+        <v>13.27</v>
+      </c>
+      <c r="H49" t="n">
+        <v>18.272</v>
+      </c>
+      <c r="I49" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="J49" t="n">
+        <v>9.892857142857142</v>
       </c>
     </row>
     <row r="50">
@@ -1677,19 +2098,31 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>32.67</v>
+        <v>23.2</v>
       </c>
       <c r="C50" t="n">
-        <v>12.33</v>
+        <v>24.71</v>
       </c>
       <c r="D50" t="n">
-        <v>21.45</v>
+        <v>6.33</v>
       </c>
       <c r="E50" t="n">
-        <v>16.48</v>
+        <v>3.96</v>
       </c>
       <c r="F50" t="n">
-        <v>32.17</v>
+        <v>10.93</v>
+      </c>
+      <c r="G50" t="n">
+        <v>13.61</v>
+      </c>
+      <c r="H50" t="n">
+        <v>19.58</v>
+      </c>
+      <c r="I50" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="J50" t="n">
+        <v>9.925000000000001</v>
       </c>
     </row>
     <row r="51">
@@ -1697,19 +2130,31 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>32.54</v>
+        <v>23</v>
       </c>
       <c r="C51" t="n">
-        <v>12.32</v>
+        <v>24.46</v>
       </c>
       <c r="D51" t="n">
-        <v>21.38</v>
+        <v>6.92</v>
       </c>
       <c r="E51" t="n">
-        <v>16.11</v>
+        <v>3.83</v>
       </c>
       <c r="F51" t="n">
-        <v>32.75</v>
+        <v>10.44</v>
+      </c>
+      <c r="G51" t="n">
+        <v>13.39</v>
+      </c>
+      <c r="H51" t="n">
+        <v>20.918</v>
+      </c>
+      <c r="I51" t="n">
+        <v>3.095</v>
+      </c>
+      <c r="J51" t="n">
+        <v>9.949999999999999</v>
       </c>
     </row>
     <row r="52">
@@ -1717,19 +2162,31 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>32.3</v>
+        <v>23.83</v>
       </c>
       <c r="C52" t="n">
-        <v>12.39</v>
+        <v>24.29</v>
       </c>
       <c r="D52" t="n">
-        <v>21.4</v>
+        <v>7.68</v>
       </c>
       <c r="E52" t="n">
-        <v>15.7</v>
+        <v>3.41</v>
       </c>
       <c r="F52" t="n">
-        <v>33.31</v>
+        <v>9.949999999999999</v>
+      </c>
+      <c r="G52" t="n">
+        <v>13.09</v>
+      </c>
+      <c r="H52" t="n">
+        <v>21.426</v>
+      </c>
+      <c r="I52" t="n">
+        <v>3.359999999999999</v>
+      </c>
+      <c r="J52" t="n">
+        <v>9.959999999999999</v>
       </c>
     </row>
     <row r="53">
@@ -1737,19 +2194,31 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>32.04</v>
+        <v>24.56</v>
       </c>
       <c r="C53" t="n">
-        <v>12.63</v>
+        <v>24.17</v>
       </c>
       <c r="D53" t="n">
-        <v>21.35</v>
+        <v>8.44</v>
       </c>
       <c r="E53" t="n">
-        <v>15.38</v>
+        <v>4.01</v>
       </c>
       <c r="F53" t="n">
-        <v>33.68</v>
+        <v>9.51</v>
+      </c>
+      <c r="G53" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="H53" t="n">
+        <v>21.934</v>
+      </c>
+      <c r="I53" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="J53" t="n">
+        <v>9.959999999999999</v>
       </c>
     </row>
     <row r="54">
@@ -1757,19 +2226,31 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>31.77</v>
+        <v>24.94</v>
       </c>
       <c r="C54" t="n">
-        <v>13.03</v>
+        <v>24.05</v>
       </c>
       <c r="D54" t="n">
-        <v>21.19</v>
+        <v>10.92</v>
       </c>
       <c r="E54" t="n">
-        <v>15.05</v>
+        <v>4.61</v>
       </c>
       <c r="F54" t="n">
-        <v>34.03</v>
+        <v>9.51</v>
+      </c>
+      <c r="G54" t="n">
+        <v>11.98</v>
+      </c>
+      <c r="H54" t="n">
+        <v>21.54</v>
+      </c>
+      <c r="I54" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="J54" t="n">
+        <v>8.959999999999999</v>
       </c>
     </row>
     <row r="55">
@@ -1777,19 +2258,31 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>31.52</v>
+        <v>25.03</v>
       </c>
       <c r="C55" t="n">
-        <v>13.46</v>
+        <v>23.86</v>
       </c>
       <c r="D55" t="n">
-        <v>20.98</v>
+        <v>13.32</v>
       </c>
       <c r="E55" t="n">
-        <v>14.72</v>
+        <v>6.21</v>
       </c>
       <c r="F55" t="n">
-        <v>34.38</v>
+        <v>9.51</v>
+      </c>
+      <c r="G55" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="H55" t="n">
+        <v>21.42</v>
+      </c>
+      <c r="I55" t="n">
+        <v>5.080000000000001</v>
+      </c>
+      <c r="J55" t="n">
+        <v>8.969999999999999</v>
       </c>
     </row>
     <row r="56">
@@ -1797,19 +2290,31 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>31.28</v>
+        <v>24.8</v>
       </c>
       <c r="C56" t="n">
-        <v>13.96</v>
+        <v>23.67</v>
       </c>
       <c r="D56" t="n">
-        <v>20.76</v>
+        <v>16.05</v>
       </c>
       <c r="E56" t="n">
-        <v>14.33</v>
+        <v>7.75</v>
       </c>
       <c r="F56" t="n">
-        <v>34.73</v>
+        <v>9.51</v>
+      </c>
+      <c r="G56" t="n">
+        <v>10.23</v>
+      </c>
+      <c r="H56" t="n">
+        <v>20.385</v>
+      </c>
+      <c r="I56" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="J56" t="n">
+        <v>8.93</v>
       </c>
     </row>
     <row r="57">
@@ -1817,19 +2322,31 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>31.08</v>
+        <v>24.56</v>
       </c>
       <c r="C57" t="n">
-        <v>14.31</v>
+        <v>23.49</v>
       </c>
       <c r="D57" t="n">
-        <v>20.52</v>
+        <v>18.86</v>
       </c>
       <c r="E57" t="n">
-        <v>14</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="F57" t="n">
-        <v>35.13</v>
+        <v>9.51</v>
+      </c>
+      <c r="G57" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="H57" t="n">
+        <v>19.355</v>
+      </c>
+      <c r="I57" t="n">
+        <v>5.924999999999999</v>
+      </c>
+      <c r="J57" t="n">
+        <v>9.005000000000001</v>
       </c>
     </row>
     <row r="58">
@@ -1837,19 +2354,31 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>30.88</v>
+        <v>24.27</v>
       </c>
       <c r="C58" t="n">
-        <v>14.73</v>
+        <v>23.26</v>
       </c>
       <c r="D58" t="n">
-        <v>20.28</v>
+        <v>21.68</v>
       </c>
       <c r="E58" t="n">
-        <v>13.6</v>
+        <v>10.87</v>
       </c>
       <c r="F58" t="n">
-        <v>35.52</v>
+        <v>9.51</v>
+      </c>
+      <c r="G58" t="n">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="H58" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="I58" t="n">
+        <v>7.164999999999999</v>
+      </c>
+      <c r="J58" t="n">
+        <v>8.81</v>
       </c>
     </row>
     <row r="59">
@@ -1857,19 +2386,31 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>30.61</v>
+        <v>24.21</v>
       </c>
       <c r="C59" t="n">
-        <v>15.1</v>
+        <v>23.03</v>
       </c>
       <c r="D59" t="n">
-        <v>20.05</v>
+        <v>24.23</v>
       </c>
       <c r="E59" t="n">
-        <v>13.41</v>
+        <v>12.37</v>
       </c>
       <c r="F59" t="n">
-        <v>35.83</v>
+        <v>9.51</v>
+      </c>
+      <c r="G59" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="H59" t="n">
+        <v>16.245</v>
+      </c>
+      <c r="I59" t="n">
+        <v>8.425000000000001</v>
+      </c>
+      <c r="J59" t="n">
+        <v>8.665000000000003</v>
       </c>
     </row>
     <row r="60">
@@ -1877,19 +2418,31 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>30.26</v>
+        <v>23.8</v>
       </c>
       <c r="C60" t="n">
-        <v>15.62</v>
+        <v>22.71</v>
       </c>
       <c r="D60" t="n">
-        <v>19.81</v>
+        <v>26.23</v>
       </c>
       <c r="E60" t="n">
-        <v>13.23</v>
+        <v>13.32</v>
       </c>
       <c r="F60" t="n">
-        <v>36.08</v>
+        <v>9.51</v>
+      </c>
+      <c r="G60" t="n">
+        <v>10.51</v>
+      </c>
+      <c r="H60" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="I60" t="n">
+        <v>9.703999999999999</v>
+      </c>
+      <c r="J60" t="n">
+        <v>8.52</v>
       </c>
     </row>
     <row r="61">
@@ -1897,19 +2450,31 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>30.11</v>
+        <v>23.4</v>
       </c>
       <c r="C61" t="n">
-        <v>16.42</v>
+        <v>22.49</v>
       </c>
       <c r="D61" t="n">
-        <v>19.52</v>
+        <v>28.29</v>
       </c>
       <c r="E61" t="n">
-        <v>13.04</v>
+        <v>14.26</v>
       </c>
       <c r="F61" t="n">
-        <v>35.91</v>
+        <v>9.51</v>
+      </c>
+      <c r="G61" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="H61" t="n">
+        <v>13.175</v>
+      </c>
+      <c r="I61" t="n">
+        <v>10.908</v>
+      </c>
+      <c r="J61" t="n">
+        <v>8.355</v>
       </c>
     </row>
     <row r="62">
@@ -1917,19 +2482,31 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>29.96</v>
+        <v>22.24</v>
       </c>
       <c r="C62" t="n">
-        <v>17.29</v>
+        <v>22.27</v>
       </c>
       <c r="D62" t="n">
-        <v>19.15</v>
+        <v>30.31</v>
       </c>
       <c r="E62" t="n">
-        <v>12.9</v>
+        <v>15.55</v>
       </c>
       <c r="F62" t="n">
-        <v>35.7</v>
+        <v>9.51</v>
+      </c>
+      <c r="G62" t="n">
+        <v>12.94</v>
+      </c>
+      <c r="H62" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="I62" t="n">
+        <v>12.392</v>
+      </c>
+      <c r="J62" t="n">
+        <v>8.139999999999999</v>
       </c>
     </row>
     <row r="63">
@@ -1937,19 +2514,31 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>29.81</v>
+        <v>20.11</v>
       </c>
       <c r="C63" t="n">
-        <v>18.06</v>
+        <v>22.05</v>
       </c>
       <c r="D63" t="n">
-        <v>18.85</v>
+        <v>33.52</v>
       </c>
       <c r="E63" t="n">
-        <v>12.76</v>
+        <v>15.84</v>
       </c>
       <c r="F63" t="n">
-        <v>35.52</v>
+        <v>9.51</v>
+      </c>
+      <c r="G63" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="H63" t="n">
+        <v>10.185</v>
+      </c>
+      <c r="I63" t="n">
+        <v>13.356</v>
+      </c>
+      <c r="J63" t="n">
+        <v>7.935</v>
       </c>
     </row>
     <row r="64">
@@ -1957,19 +2546,31 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>29.66</v>
+        <v>18.76</v>
       </c>
       <c r="C64" t="n">
-        <v>18.71</v>
+        <v>21.82</v>
       </c>
       <c r="D64" t="n">
-        <v>18.67</v>
+        <v>35.34</v>
       </c>
       <c r="E64" t="n">
-        <v>12.62</v>
+        <v>15.88</v>
       </c>
       <c r="F64" t="n">
-        <v>35.34</v>
+        <v>9.51</v>
+      </c>
+      <c r="G64" t="n">
+        <v>15.97</v>
+      </c>
+      <c r="H64" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="I64" t="n">
+        <v>14.32</v>
+      </c>
+      <c r="J64" t="n">
+        <v>8.735000000000001</v>
       </c>
     </row>
     <row r="65">
@@ -1977,19 +2578,31 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>29.43</v>
+        <v>17.41</v>
       </c>
       <c r="C65" t="n">
-        <v>19.48</v>
+        <v>21.67</v>
       </c>
       <c r="D65" t="n">
-        <v>18.47</v>
+        <v>37.24</v>
       </c>
       <c r="E65" t="n">
-        <v>12.46</v>
+        <v>14.93</v>
       </c>
       <c r="F65" t="n">
-        <v>35.16</v>
+        <v>9.51</v>
+      </c>
+      <c r="G65" t="n">
+        <v>18.29</v>
+      </c>
+      <c r="H65" t="n">
+        <v>7.280000000000001</v>
+      </c>
+      <c r="I65" t="n">
+        <v>15.294</v>
+      </c>
+      <c r="J65" t="n">
+        <v>8.535</v>
       </c>
     </row>
     <row r="66">
@@ -1997,19 +2610,31 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>29.52</v>
+        <v>15.95</v>
       </c>
       <c r="C66" t="n">
-        <v>19.92</v>
+        <v>21.51</v>
       </c>
       <c r="D66" t="n">
-        <v>18.28</v>
+        <v>37.75</v>
       </c>
       <c r="E66" t="n">
-        <v>12.3</v>
+        <v>13.97</v>
       </c>
       <c r="F66" t="n">
-        <v>34.98</v>
+        <v>9.51</v>
+      </c>
+      <c r="G66" t="n">
+        <v>20.17</v>
+      </c>
+      <c r="H66" t="n">
+        <v>6.755000000000001</v>
+      </c>
+      <c r="I66" t="n">
+        <v>16.198</v>
+      </c>
+      <c r="J66" t="n">
+        <v>8.34</v>
       </c>
     </row>
     <row r="67">
@@ -2017,19 +2642,31 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>29.57</v>
+        <v>14.54</v>
       </c>
       <c r="C67" t="n">
-        <v>20.4</v>
+        <v>21.35</v>
       </c>
       <c r="D67" t="n">
-        <v>18.15</v>
+        <v>38.19</v>
       </c>
       <c r="E67" t="n">
-        <v>12.14</v>
+        <v>13.08</v>
       </c>
       <c r="F67" t="n">
-        <v>34.73</v>
+        <v>9.51</v>
+      </c>
+      <c r="G67" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="H67" t="n">
+        <v>6.167000000000002</v>
+      </c>
+      <c r="I67" t="n">
+        <v>17.107</v>
+      </c>
+      <c r="J67" t="n">
+        <v>8.1</v>
       </c>
     </row>
     <row r="68">
@@ -2037,19 +2674,31 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>29.64</v>
+        <v>13.14</v>
       </c>
       <c r="C68" t="n">
-        <v>20.8</v>
+        <v>21.23</v>
       </c>
       <c r="D68" t="n">
-        <v>18.03</v>
+        <v>38.67</v>
       </c>
       <c r="E68" t="n">
-        <v>12.09</v>
+        <v>12.3</v>
       </c>
       <c r="F68" t="n">
-        <v>34.48</v>
+        <v>9.51</v>
+      </c>
+      <c r="G68" t="n">
+        <v>23.99</v>
+      </c>
+      <c r="H68" t="n">
+        <v>6.104000000000002</v>
+      </c>
+      <c r="I68" t="n">
+        <v>17.896</v>
+      </c>
+      <c r="J68" t="n">
+        <v>7.325</v>
       </c>
     </row>
     <row r="69">
@@ -2057,19 +2706,31 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>29.79</v>
+        <v>11.69</v>
       </c>
       <c r="C69" t="n">
         <v>21.11</v>
       </c>
       <c r="D69" t="n">
-        <v>17.86</v>
+        <v>39.15</v>
       </c>
       <c r="E69" t="n">
-        <v>12.06</v>
+        <v>11.52</v>
       </c>
       <c r="F69" t="n">
-        <v>34.26</v>
+        <v>9.51</v>
+      </c>
+      <c r="G69" t="n">
+        <v>25.91</v>
+      </c>
+      <c r="H69" t="n">
+        <v>5.996000000000002</v>
+      </c>
+      <c r="I69" t="n">
+        <v>18.64</v>
+      </c>
+      <c r="J69" t="n">
+        <v>6.645</v>
       </c>
     </row>
     <row r="70">
@@ -2077,19 +2738,31 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>29.98</v>
+        <v>10.43</v>
       </c>
       <c r="C70" t="n">
-        <v>21.05</v>
+        <v>21.03</v>
       </c>
       <c r="D70" t="n">
-        <v>18.4</v>
+        <v>40.44</v>
       </c>
       <c r="E70" t="n">
-        <v>12.03</v>
+        <v>11.29</v>
       </c>
       <c r="F70" t="n">
-        <v>33.62</v>
+        <v>9.51</v>
+      </c>
+      <c r="G70" t="n">
+        <v>26.24</v>
+      </c>
+      <c r="H70" t="n">
+        <v>5.828000000000001</v>
+      </c>
+      <c r="I70" t="n">
+        <v>19.435</v>
+      </c>
+      <c r="J70" t="n">
+        <v>5.965</v>
       </c>
     </row>
     <row r="71">
@@ -2097,19 +2770,31 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>30.06</v>
+        <v>9.16</v>
       </c>
       <c r="C71" t="n">
-        <v>21.02</v>
+        <v>20.86</v>
       </c>
       <c r="D71" t="n">
-        <v>19</v>
+        <v>41.66</v>
       </c>
       <c r="E71" t="n">
-        <v>12</v>
+        <v>10.88</v>
       </c>
       <c r="F71" t="n">
-        <v>33</v>
+        <v>9.51</v>
+      </c>
+      <c r="G71" t="n">
+        <v>26.61</v>
+      </c>
+      <c r="H71" t="n">
+        <v>5.650000000000001</v>
+      </c>
+      <c r="I71" t="n">
+        <v>20.22</v>
+      </c>
+      <c r="J71" t="n">
+        <v>5.617</v>
       </c>
     </row>
     <row r="72">
@@ -2117,19 +2802,31 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>30.07</v>
+        <v>8.73</v>
       </c>
       <c r="C72" t="n">
-        <v>21.03</v>
+        <v>20.65</v>
       </c>
       <c r="D72" t="n">
-        <v>19.59</v>
+        <v>42.9</v>
       </c>
       <c r="E72" t="n">
-        <v>11.97</v>
+        <v>10.43</v>
       </c>
       <c r="F72" t="n">
-        <v>32.42</v>
+        <v>9.51</v>
+      </c>
+      <c r="G72" t="n">
+        <v>26.92</v>
+      </c>
+      <c r="H72" t="n">
+        <v>5.027000000000001</v>
+      </c>
+      <c r="I72" t="n">
+        <v>20.68</v>
+      </c>
+      <c r="J72" t="n">
+        <v>5.319</v>
       </c>
     </row>
     <row r="73">
@@ -2137,19 +2834,31 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>30.08</v>
+        <v>9.26</v>
       </c>
       <c r="C73" t="n">
-        <v>21.06</v>
+        <v>20.65</v>
       </c>
       <c r="D73" t="n">
-        <v>20.18</v>
+        <v>42.85</v>
       </c>
       <c r="E73" t="n">
-        <v>11.94</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="F73" t="n">
-        <v>31.81</v>
+        <v>9.51</v>
+      </c>
+      <c r="G73" t="n">
+        <v>27.28</v>
+      </c>
+      <c r="H73" t="n">
+        <v>5.404000000000001</v>
+      </c>
+      <c r="I73" t="n">
+        <v>21.29</v>
+      </c>
+      <c r="J73" t="n">
+        <v>5.020999999999999</v>
       </c>
     </row>
     <row r="74">
@@ -2157,19 +2866,31 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>30.04</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>20.83</v>
+        <v>20.65</v>
       </c>
       <c r="D74" t="n">
-        <v>21.15</v>
+        <v>42.82</v>
       </c>
       <c r="E74" t="n">
-        <v>11.85</v>
+        <v>9.58</v>
       </c>
       <c r="F74" t="n">
-        <v>31.2</v>
+        <v>9.51</v>
+      </c>
+      <c r="G74" t="n">
+        <v>28.04</v>
+      </c>
+      <c r="H74" t="n">
+        <v>5.501</v>
+      </c>
+      <c r="I74" t="n">
+        <v>21.89</v>
+      </c>
+      <c r="J74" t="n">
+        <v>4.723</v>
       </c>
     </row>
     <row r="75">
@@ -2177,19 +2898,31 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>30.09</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>20.44</v>
+        <v>20.66</v>
       </c>
       <c r="D75" t="n">
-        <v>22.18</v>
+        <v>43.1</v>
       </c>
       <c r="E75" t="n">
-        <v>11.79</v>
+        <v>9.27</v>
       </c>
       <c r="F75" t="n">
-        <v>30.59</v>
+        <v>9.51</v>
+      </c>
+      <c r="G75" t="n">
+        <v>28.69</v>
+      </c>
+      <c r="H75" t="n">
+        <v>5.518000000000001</v>
+      </c>
+      <c r="I75" t="n">
+        <v>22.39</v>
+      </c>
+      <c r="J75" t="n">
+        <v>6.415000000000001</v>
       </c>
     </row>
     <row r="76">
@@ -2197,19 +2930,31 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>30.12</v>
+        <v>10</v>
       </c>
       <c r="C76" t="n">
-        <v>20.11</v>
+        <v>20.66</v>
       </c>
       <c r="D76" t="n">
-        <v>23.2</v>
+        <v>43.44</v>
       </c>
       <c r="E76" t="n">
-        <v>11.66</v>
+        <v>8.92</v>
       </c>
       <c r="F76" t="n">
-        <v>29.98</v>
+        <v>9.51</v>
+      </c>
+      <c r="G76" t="n">
+        <v>28.76</v>
+      </c>
+      <c r="H76" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="I76" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="J76" t="n">
+        <v>7.827000000000001</v>
       </c>
     </row>
     <row r="77">
@@ -2217,19 +2962,31 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>30.11</v>
+        <v>10.48</v>
       </c>
       <c r="C77" t="n">
-        <v>19.63</v>
+        <v>20.67</v>
       </c>
       <c r="D77" t="n">
-        <v>24.18</v>
+        <v>43.85</v>
       </c>
       <c r="E77" t="n">
-        <v>11.53</v>
+        <v>8.52</v>
       </c>
       <c r="F77" t="n">
-        <v>29.63</v>
+        <v>9.51</v>
+      </c>
+      <c r="G77" t="n">
+        <v>28.71</v>
+      </c>
+      <c r="H77" t="n">
+        <v>5.515000000000001</v>
+      </c>
+      <c r="I77" t="n">
+        <v>24.935</v>
+      </c>
+      <c r="J77" t="n">
+        <v>8.818999999999999</v>
       </c>
     </row>
     <row r="78">
@@ -2237,19 +2994,31 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>30.07</v>
+        <v>11.03</v>
       </c>
       <c r="C78" t="n">
-        <v>19.2</v>
+        <v>20.62</v>
       </c>
       <c r="D78" t="n">
-        <v>25.16</v>
+        <v>44.25</v>
       </c>
       <c r="E78" t="n">
-        <v>11.33</v>
+        <v>8.43</v>
       </c>
       <c r="F78" t="n">
-        <v>29.27</v>
+        <v>9.51</v>
+      </c>
+      <c r="G78" t="n">
+        <v>28.71</v>
+      </c>
+      <c r="H78" t="n">
+        <v>5.535</v>
+      </c>
+      <c r="I78" t="n">
+        <v>25.418</v>
+      </c>
+      <c r="J78" t="n">
+        <v>10.506</v>
       </c>
     </row>
     <row r="79">
@@ -2257,19 +3026,31 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>30.01</v>
+        <v>11.61</v>
       </c>
       <c r="C79" t="n">
-        <v>18.75</v>
+        <v>20.58</v>
       </c>
       <c r="D79" t="n">
-        <v>26.2</v>
+        <v>44.66</v>
       </c>
       <c r="E79" t="n">
-        <v>11.08</v>
+        <v>8.35</v>
       </c>
       <c r="F79" t="n">
-        <v>28.96</v>
+        <v>9.51</v>
+      </c>
+      <c r="G79" t="n">
+        <v>28.69</v>
+      </c>
+      <c r="H79" t="n">
+        <v>5.555000000000001</v>
+      </c>
+      <c r="I79" t="n">
+        <v>25.901</v>
+      </c>
+      <c r="J79" t="n">
+        <v>12.163</v>
       </c>
     </row>
     <row r="80">
@@ -2277,19 +3058,31 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>29.98</v>
+        <v>12.23</v>
       </c>
       <c r="C80" t="n">
-        <v>18.57</v>
+        <v>20.47</v>
       </c>
       <c r="D80" t="n">
-        <v>26.59</v>
+        <v>44.8</v>
       </c>
       <c r="E80" t="n">
-        <v>10.82</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="F80" t="n">
-        <v>29.04</v>
+        <v>9.51</v>
+      </c>
+      <c r="G80" t="n">
+        <v>28.61</v>
+      </c>
+      <c r="H80" t="n">
+        <v>6.065</v>
+      </c>
+      <c r="I80" t="n">
+        <v>26.364</v>
+      </c>
+      <c r="J80" t="n">
+        <v>13.82</v>
       </c>
     </row>
     <row r="81">
@@ -2297,19 +3090,31 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>29.89</v>
+        <v>12.78</v>
       </c>
       <c r="C81" t="n">
-        <v>18.29</v>
+        <v>20.44</v>
       </c>
       <c r="D81" t="n">
-        <v>27.14</v>
+        <v>44.94</v>
       </c>
       <c r="E81" t="n">
-        <v>10.56</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="F81" t="n">
-        <v>29.12</v>
+        <v>9.51</v>
+      </c>
+      <c r="G81" t="n">
+        <v>29.11</v>
+      </c>
+      <c r="H81" t="n">
+        <v>6.505000000000001</v>
+      </c>
+      <c r="I81" t="n">
+        <v>26.757</v>
+      </c>
+      <c r="J81" t="n">
+        <v>14.855</v>
       </c>
     </row>
     <row r="82">
@@ -2317,19 +3122,31 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>29.83</v>
+        <v>12.66</v>
       </c>
       <c r="C82" t="n">
-        <v>17.91</v>
+        <v>20.52</v>
       </c>
       <c r="D82" t="n">
-        <v>27.68</v>
+        <v>45.12</v>
       </c>
       <c r="E82" t="n">
-        <v>10.31</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="F82" t="n">
-        <v>29.27</v>
+        <v>9.51</v>
+      </c>
+      <c r="G82" t="n">
+        <v>29.64</v>
+      </c>
+      <c r="H82" t="n">
+        <v>7.390000000000001</v>
+      </c>
+      <c r="I82" t="n">
+        <v>27.195</v>
+      </c>
+      <c r="J82" t="n">
+        <v>15.845</v>
       </c>
     </row>
     <row r="83">
@@ -2337,19 +3154,31 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>29.71</v>
+        <v>12.15</v>
       </c>
       <c r="C83" t="n">
-        <v>16.99</v>
+        <v>20.38</v>
       </c>
       <c r="D83" t="n">
-        <v>28.23</v>
+        <v>45.39</v>
       </c>
       <c r="E83" t="n">
-        <v>9.970000000000001</v>
+        <v>8.18</v>
       </c>
       <c r="F83" t="n">
-        <v>30.09</v>
+        <v>9.51</v>
+      </c>
+      <c r="G83" t="n">
+        <v>30.13</v>
+      </c>
+      <c r="H83" t="n">
+        <v>7.275</v>
+      </c>
+      <c r="I83" t="n">
+        <v>27.653</v>
+      </c>
+      <c r="J83" t="n">
+        <v>17.335</v>
       </c>
     </row>
     <row r="84">
@@ -2357,19 +3186,31 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>29.64</v>
+        <v>11.64</v>
       </c>
       <c r="C84" t="n">
-        <v>16.35</v>
+        <v>20.25</v>
       </c>
       <c r="D84" t="n">
-        <v>28.41</v>
+        <v>45.83</v>
       </c>
       <c r="E84" t="n">
-        <v>9.69</v>
+        <v>8.19</v>
       </c>
       <c r="F84" t="n">
-        <v>30.91</v>
+        <v>9.51</v>
+      </c>
+      <c r="G84" t="n">
+        <v>30.26</v>
+      </c>
+      <c r="H84" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="I84" t="n">
+        <v>28.121</v>
+      </c>
+      <c r="J84" t="n">
+        <v>18.77</v>
       </c>
     </row>
     <row r="85">
@@ -2377,19 +3218,31 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>29.51</v>
+        <v>11.08</v>
       </c>
       <c r="C85" t="n">
-        <v>15.77</v>
+        <v>19.8</v>
       </c>
       <c r="D85" t="n">
-        <v>28.58</v>
+        <v>45.96</v>
       </c>
       <c r="E85" t="n">
-        <v>9.41</v>
+        <v>8.16</v>
       </c>
       <c r="F85" t="n">
-        <v>31.73</v>
+        <v>9.51</v>
+      </c>
+      <c r="G85" t="n">
+        <v>30.48</v>
+      </c>
+      <c r="H85" t="n">
+        <v>7.675</v>
+      </c>
+      <c r="I85" t="n">
+        <v>28.639</v>
+      </c>
+      <c r="J85" t="n">
+        <v>18.69</v>
       </c>
     </row>
     <row r="86">
@@ -2397,19 +3250,31 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>29.09</v>
+        <v>10.52</v>
       </c>
       <c r="C86" t="n">
-        <v>15.38</v>
+        <v>19.69</v>
       </c>
       <c r="D86" t="n">
-        <v>28.68</v>
+        <v>46.02</v>
       </c>
       <c r="E86" t="n">
-        <v>9.369999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="F86" t="n">
-        <v>32.47</v>
+        <v>9.51</v>
+      </c>
+      <c r="G86" t="n">
+        <v>30.63</v>
+      </c>
+      <c r="H86" t="n">
+        <v>7.949999999999998</v>
+      </c>
+      <c r="I86" t="n">
+        <v>28.647</v>
+      </c>
+      <c r="J86" t="n">
+        <v>18.94</v>
       </c>
     </row>
     <row r="87">
@@ -2417,19 +3282,31 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>28.89</v>
+        <v>9.91</v>
       </c>
       <c r="C87" t="n">
-        <v>15.04</v>
+        <v>19.53</v>
       </c>
       <c r="D87" t="n">
-        <v>28.79</v>
+        <v>46.02</v>
       </c>
       <c r="E87" t="n">
-        <v>9.33</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="F87" t="n">
-        <v>32.95</v>
+        <v>9.51</v>
+      </c>
+      <c r="G87" t="n">
+        <v>31.12</v>
+      </c>
+      <c r="H87" t="n">
+        <v>8.234999999999999</v>
+      </c>
+      <c r="I87" t="n">
+        <v>28.085</v>
+      </c>
+      <c r="J87" t="n">
+        <v>19.57</v>
       </c>
     </row>
     <row r="88">
@@ -2437,19 +3314,31 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>28.78</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="C88" t="n">
-        <v>14.64</v>
+        <v>19.41</v>
       </c>
       <c r="D88" t="n">
-        <v>28.84</v>
+        <v>45.98</v>
       </c>
       <c r="E88" t="n">
-        <v>9.31</v>
+        <v>7.64</v>
       </c>
       <c r="F88" t="n">
-        <v>33.44</v>
+        <v>9.51</v>
+      </c>
+      <c r="G88" t="n">
+        <v>31.61</v>
+      </c>
+      <c r="H88" t="n">
+        <v>8.525</v>
+      </c>
+      <c r="I88" t="n">
+        <v>27.75</v>
+      </c>
+      <c r="J88" t="n">
+        <v>20.2</v>
       </c>
     </row>
     <row r="89">
@@ -2457,19 +3346,31 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>28.46</v>
+        <v>8.84</v>
       </c>
       <c r="C89" t="n">
-        <v>14.45</v>
+        <v>19.29</v>
       </c>
       <c r="D89" t="n">
-        <v>28.89</v>
+        <v>45.94</v>
       </c>
       <c r="E89" t="n">
-        <v>9.31</v>
+        <v>7.26</v>
       </c>
       <c r="F89" t="n">
-        <v>33.89</v>
+        <v>9.51</v>
+      </c>
+      <c r="G89" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="H89" t="n">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="I89" t="n">
+        <v>27.58</v>
+      </c>
+      <c r="J89" t="n">
+        <v>20.65</v>
       </c>
     </row>
     <row r="90">
@@ -2477,19 +3378,34 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>28.15</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="C90" t="n">
-        <v>14.46</v>
+        <v>19.24</v>
       </c>
       <c r="D90" t="n">
-        <v>28.69</v>
+        <v>45.9</v>
       </c>
       <c r="E90" t="n">
-        <v>9.31</v>
+        <v>6.99</v>
       </c>
       <c r="F90" t="n">
-        <v>34.39</v>
+        <v>9.51</v>
+      </c>
+      <c r="G90" t="n">
+        <v>32.66</v>
+      </c>
+      <c r="H90" t="n">
+        <v>8.719999999999999</v>
+      </c>
+      <c r="I90" t="n">
+        <v>27.43</v>
+      </c>
+      <c r="J90" t="n">
+        <v>21.245</v>
+      </c>
+      <c r="K90" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="91">
@@ -2497,19 +3413,34 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>27.84</v>
+        <v>8.65</v>
       </c>
       <c r="C91" t="n">
-        <v>14.62</v>
+        <v>18.51</v>
       </c>
       <c r="D91" t="n">
-        <v>28.34</v>
+        <v>45.88</v>
       </c>
       <c r="E91" t="n">
-        <v>9.31</v>
+        <v>6.68</v>
       </c>
       <c r="F91" t="n">
-        <v>34.89</v>
+        <v>9.51</v>
+      </c>
+      <c r="G91" t="n">
+        <v>32.68</v>
+      </c>
+      <c r="H91" t="n">
+        <v>8.649999999999999</v>
+      </c>
+      <c r="I91" t="n">
+        <v>27.36</v>
+      </c>
+      <c r="J91" t="n">
+        <v>22.09</v>
+      </c>
+      <c r="K91" t="n">
+        <v>11.435</v>
       </c>
     </row>
     <row r="92">
@@ -2517,19 +3448,34 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>27.54</v>
+        <v>9.01</v>
       </c>
       <c r="C92" t="n">
-        <v>14.78</v>
+        <v>17.71</v>
       </c>
       <c r="D92" t="n">
-        <v>27.99</v>
+        <v>45.84</v>
       </c>
       <c r="E92" t="n">
-        <v>9.300000000000001</v>
+        <v>6.37</v>
       </c>
       <c r="F92" t="n">
-        <v>35.38</v>
+        <v>9.51</v>
+      </c>
+      <c r="G92" t="n">
+        <v>32.69</v>
+      </c>
+      <c r="H92" t="n">
+        <v>8.514999999999999</v>
+      </c>
+      <c r="I92" t="n">
+        <v>27.108</v>
+      </c>
+      <c r="J92" t="n">
+        <v>22.97000000000001</v>
+      </c>
+      <c r="K92" t="n">
+        <v>11.91333333333333</v>
       </c>
     </row>
     <row r="93">
@@ -2537,19 +3483,34 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>26.85</v>
+        <v>9.85</v>
       </c>
       <c r="C93" t="n">
-        <v>15.93</v>
+        <v>16.9</v>
       </c>
       <c r="D93" t="n">
-        <v>27.65</v>
+        <v>45.8</v>
       </c>
       <c r="E93" t="n">
-        <v>9.369999999999999</v>
+        <v>6.1</v>
       </c>
       <c r="F93" t="n">
-        <v>35.2</v>
+        <v>9.51</v>
+      </c>
+      <c r="G93" t="n">
+        <v>32.75</v>
+      </c>
+      <c r="H93" t="n">
+        <v>8.32</v>
+      </c>
+      <c r="I93" t="n">
+        <v>26.856</v>
+      </c>
+      <c r="J93" t="n">
+        <v>23.345</v>
+      </c>
+      <c r="K93" t="n">
+        <v>12.1525</v>
       </c>
     </row>
     <row r="94">
@@ -2557,19 +3518,34 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>26.09</v>
+        <v>10.61</v>
       </c>
       <c r="C94" t="n">
-        <v>17.17</v>
+        <v>15.93</v>
       </c>
       <c r="D94" t="n">
-        <v>27.3</v>
+        <v>46.84</v>
       </c>
       <c r="E94" t="n">
-        <v>9.42</v>
+        <v>5.83</v>
       </c>
       <c r="F94" t="n">
-        <v>35.02</v>
+        <v>9.51</v>
+      </c>
+      <c r="G94" t="n">
+        <v>31.92</v>
+      </c>
+      <c r="H94" t="n">
+        <v>8.120000000000001</v>
+      </c>
+      <c r="I94" t="n">
+        <v>26.604</v>
+      </c>
+      <c r="J94" t="n">
+        <v>23.775</v>
+      </c>
+      <c r="K94" t="n">
+        <v>12.276</v>
       </c>
     </row>
     <row r="95">
@@ -2577,19 +3553,34 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>25.37</v>
+        <v>11.42</v>
       </c>
       <c r="C95" t="n">
-        <v>18.23</v>
+        <v>15.28</v>
       </c>
       <c r="D95" t="n">
-        <v>27.99</v>
+        <v>47.82</v>
       </c>
       <c r="E95" t="n">
-        <v>8.57</v>
+        <v>5.61</v>
       </c>
       <c r="F95" t="n">
-        <v>34.84</v>
+        <v>9.51</v>
+      </c>
+      <c r="G95" t="n">
+        <v>31.04</v>
+      </c>
+      <c r="H95" t="n">
+        <v>7.930000000000001</v>
+      </c>
+      <c r="I95" t="n">
+        <v>26.30700000000001</v>
+      </c>
+      <c r="J95" t="n">
+        <v>23.945</v>
+      </c>
+      <c r="K95" t="n">
+        <v>12.29166666666667</v>
       </c>
     </row>
     <row r="96">
@@ -2597,19 +3588,34 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>25.33</v>
+        <v>12.22</v>
       </c>
       <c r="C96" t="n">
-        <v>18.63</v>
+        <v>14.3</v>
       </c>
       <c r="D96" t="n">
-        <v>28.75</v>
+        <v>48.88</v>
       </c>
       <c r="E96" t="n">
-        <v>7.57</v>
+        <v>5.6</v>
       </c>
       <c r="F96" t="n">
-        <v>34.72</v>
+        <v>9.51</v>
+      </c>
+      <c r="G96" t="n">
+        <v>30.21</v>
+      </c>
+      <c r="H96" t="n">
+        <v>7.745</v>
+      </c>
+      <c r="I96" t="n">
+        <v>26.05</v>
+      </c>
+      <c r="J96" t="n">
+        <v>24.115</v>
+      </c>
+      <c r="K96" t="n">
+        <v>12.22428571428571</v>
       </c>
     </row>
     <row r="97">
@@ -2617,19 +3623,34 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>25.17</v>
+        <v>13.29</v>
       </c>
       <c r="C97" t="n">
-        <v>20.02</v>
+        <v>13.36</v>
       </c>
       <c r="D97" t="n">
-        <v>28.63</v>
+        <v>49.99</v>
       </c>
       <c r="E97" t="n">
-        <v>6.57</v>
+        <v>5.59</v>
       </c>
       <c r="F97" t="n">
-        <v>34.61</v>
+        <v>9.51</v>
+      </c>
+      <c r="G97" t="n">
+        <v>29.07</v>
+      </c>
+      <c r="H97" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="I97" t="n">
+        <v>25.788</v>
+      </c>
+      <c r="J97" t="n">
+        <v>24.28</v>
+      </c>
+      <c r="K97" t="n">
+        <v>12.16125</v>
       </c>
     </row>
     <row r="98">
@@ -2637,19 +3658,34 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>24.9</v>
+        <v>13.39</v>
       </c>
       <c r="C98" t="n">
-        <v>21.45</v>
+        <v>12.42</v>
       </c>
       <c r="D98" t="n">
-        <v>28.56</v>
+        <v>51.14</v>
       </c>
       <c r="E98" t="n">
-        <v>5.58</v>
+        <v>5.54</v>
       </c>
       <c r="F98" t="n">
-        <v>34.51</v>
+        <v>9.51</v>
+      </c>
+      <c r="G98" t="n">
+        <v>27.88</v>
+      </c>
+      <c r="H98" t="n">
+        <v>7.375</v>
+      </c>
+      <c r="I98" t="n">
+        <v>25.536</v>
+      </c>
+      <c r="J98" t="n">
+        <v>25.482</v>
+      </c>
+      <c r="K98" t="n">
+        <v>12.06777777777778</v>
       </c>
     </row>
     <row r="99">
@@ -2657,19 +3693,34 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>24.85</v>
+        <v>13.94</v>
       </c>
       <c r="C99" t="n">
-        <v>22.61</v>
+        <v>11.48</v>
       </c>
       <c r="D99" t="n">
-        <v>28.47</v>
+        <v>52.29</v>
       </c>
       <c r="E99" t="n">
-        <v>4.62</v>
+        <v>5.45</v>
       </c>
       <c r="F99" t="n">
-        <v>34.45</v>
+        <v>9.51</v>
+      </c>
+      <c r="G99" t="n">
+        <v>26.74</v>
+      </c>
+      <c r="H99" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="I99" t="n">
+        <v>24.824</v>
+      </c>
+      <c r="J99" t="n">
+        <v>26.749</v>
+      </c>
+      <c r="K99" t="n">
+        <v>11.993</v>
       </c>
     </row>
     <row r="100">
@@ -2677,19 +3728,34 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>24.85</v>
+        <v>14.54</v>
       </c>
       <c r="C100" t="n">
-        <v>23.5</v>
+        <v>10.6</v>
       </c>
       <c r="D100" t="n">
-        <v>28.56</v>
+        <v>55.72</v>
       </c>
       <c r="E100" t="n">
-        <v>3.66</v>
+        <v>5.36</v>
       </c>
       <c r="F100" t="n">
-        <v>34.43</v>
+        <v>9.51</v>
+      </c>
+      <c r="G100" t="n">
+        <v>25.58</v>
+      </c>
+      <c r="H100" t="n">
+        <v>8.275000000000002</v>
+      </c>
+      <c r="I100" t="n">
+        <v>24.112</v>
+      </c>
+      <c r="J100" t="n">
+        <v>24.307</v>
+      </c>
+      <c r="K100" t="n">
+        <v>11.993</v>
       </c>
     </row>
     <row r="101">
@@ -2697,19 +3763,34 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>24.89</v>
+        <v>14.31</v>
       </c>
       <c r="C101" t="n">
-        <v>24.3</v>
+        <v>10.41</v>
       </c>
       <c r="D101" t="n">
-        <v>28.65</v>
+        <v>59.12</v>
       </c>
       <c r="E101" t="n">
-        <v>2.73</v>
+        <v>5.32</v>
       </c>
       <c r="F101" t="n">
-        <v>34.43</v>
+        <v>9.51</v>
+      </c>
+      <c r="G101" t="n">
+        <v>24.32</v>
+      </c>
+      <c r="H101" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="I101" t="n">
+        <v>23.58</v>
+      </c>
+      <c r="J101" t="n">
+        <v>21.925</v>
+      </c>
+      <c r="K101" t="n">
+        <v>12.105</v>
       </c>
     </row>
     <row r="102">
@@ -2717,19 +3798,34 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>24.89</v>
+        <v>14.07</v>
       </c>
       <c r="C102" t="n">
-        <v>25.22</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>28.75</v>
+        <v>62.49</v>
       </c>
       <c r="E102" t="n">
-        <v>1.81</v>
+        <v>5.25</v>
       </c>
       <c r="F102" t="n">
-        <v>34.33</v>
+        <v>9.51</v>
+      </c>
+      <c r="G102" t="n">
+        <v>23.95</v>
+      </c>
+      <c r="H102" t="n">
+        <v>10.585</v>
+      </c>
+      <c r="I102" t="n">
+        <v>23.089</v>
+      </c>
+      <c r="J102" t="n">
+        <v>19.553</v>
+      </c>
+      <c r="K102" t="n">
+        <v>11.894</v>
       </c>
     </row>
     <row r="103">
@@ -2737,19 +3833,34 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>25.37</v>
+        <v>13.76</v>
       </c>
       <c r="C103" t="n">
-        <v>25.73</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="D103" t="n">
-        <v>28.82</v>
+        <v>66.05</v>
       </c>
       <c r="E103" t="n">
-        <v>0.9</v>
+        <v>5.15</v>
       </c>
       <c r="F103" t="n">
-        <v>34.18</v>
+        <v>9.51</v>
+      </c>
+      <c r="G103" t="n">
+        <v>23.52</v>
+      </c>
+      <c r="H103" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="I103" t="n">
+        <v>22.568</v>
+      </c>
+      <c r="J103" t="n">
+        <v>17.186</v>
+      </c>
+      <c r="K103" t="n">
+        <v>11.653</v>
       </c>
     </row>
     <row r="104">
@@ -2757,19 +3868,34 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>25.87</v>
+        <v>13.52</v>
       </c>
       <c r="C104" t="n">
-        <v>26.24</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="D104" t="n">
-        <v>28.88</v>
+        <v>68.34</v>
       </c>
       <c r="E104" t="n">
-        <v>0</v>
+        <v>5.11</v>
       </c>
       <c r="F104" t="n">
-        <v>34.01</v>
+        <v>9.51</v>
+      </c>
+      <c r="G104" t="n">
+        <v>24.02</v>
+      </c>
+      <c r="H104" t="n">
+        <v>13.05</v>
+      </c>
+      <c r="I104" t="n">
+        <v>22.137</v>
+      </c>
+      <c r="J104" t="n">
+        <v>16.819</v>
+      </c>
+      <c r="K104" t="n">
+        <v>11.392</v>
       </c>
     </row>
     <row r="105">
@@ -2777,19 +3903,34 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>26.37</v>
+        <v>13.23</v>
       </c>
       <c r="C105" t="n">
-        <v>26.84</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="D105" t="n">
-        <v>27.96</v>
+        <v>70.63</v>
       </c>
       <c r="E105" t="n">
-        <v>0</v>
+        <v>5.06</v>
       </c>
       <c r="F105" t="n">
-        <v>33.83</v>
+        <v>9.51</v>
+      </c>
+      <c r="G105" t="n">
+        <v>24.96</v>
+      </c>
+      <c r="H105" t="n">
+        <v>14.28</v>
+      </c>
+      <c r="I105" t="n">
+        <v>21.80099999999999</v>
+      </c>
+      <c r="J105" t="n">
+        <v>15.967</v>
+      </c>
+      <c r="K105" t="n">
+        <v>11.131</v>
       </c>
     </row>
     <row r="106">
@@ -2797,19 +3938,34 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>26.12</v>
+        <v>12.95</v>
       </c>
       <c r="C106" t="n">
-        <v>28.16</v>
+        <v>10.77</v>
       </c>
       <c r="D106" t="n">
-        <v>27.05</v>
+        <v>72.93000000000001</v>
       </c>
       <c r="E106" t="n">
-        <v>0</v>
+        <v>4.87</v>
       </c>
       <c r="F106" t="n">
-        <v>33.67</v>
+        <v>9.51</v>
+      </c>
+      <c r="G106" t="n">
+        <v>25.93</v>
+      </c>
+      <c r="H106" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="I106" t="n">
+        <v>21.505</v>
+      </c>
+      <c r="J106" t="n">
+        <v>15.13</v>
+      </c>
+      <c r="K106" t="n">
+        <v>10.905</v>
       </c>
     </row>
     <row r="107">
@@ -2817,19 +3973,34 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>25.89</v>
+        <v>12.44</v>
       </c>
       <c r="C107" t="n">
-        <v>28.45</v>
+        <v>12.11</v>
       </c>
       <c r="D107" t="n">
-        <v>27.14</v>
+        <v>75.11</v>
       </c>
       <c r="E107" t="n">
-        <v>0</v>
+        <v>5.34</v>
       </c>
       <c r="F107" t="n">
-        <v>33.52</v>
+        <v>9.51</v>
+      </c>
+      <c r="G107" t="n">
+        <v>26.95</v>
+      </c>
+      <c r="H107" t="n">
+        <v>16.73</v>
+      </c>
+      <c r="I107" t="n">
+        <v>21.154</v>
+      </c>
+      <c r="J107" t="n">
+        <v>13.933</v>
+      </c>
+      <c r="K107" t="n">
+        <v>10.724</v>
       </c>
     </row>
     <row r="108">
@@ -2837,19 +4008,34 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>25.64</v>
+        <v>13.3</v>
       </c>
       <c r="C108" t="n">
-        <v>28.7</v>
+        <v>13.45</v>
       </c>
       <c r="D108" t="n">
-        <v>27.22</v>
+        <v>77.31</v>
       </c>
       <c r="E108" t="n">
-        <v>0</v>
+        <v>5.86</v>
       </c>
       <c r="F108" t="n">
-        <v>33.44</v>
+        <v>9.51</v>
+      </c>
+      <c r="G108" t="n">
+        <v>27.59</v>
+      </c>
+      <c r="H108" t="n">
+        <v>17.94</v>
+      </c>
+      <c r="I108" t="n">
+        <v>20.803</v>
+      </c>
+      <c r="J108" t="n">
+        <v>11.689</v>
+      </c>
+      <c r="K108" t="n">
+        <v>10.553</v>
       </c>
     </row>
     <row r="109">
@@ -2857,19 +4043,34 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>25.34</v>
+        <v>13.69</v>
       </c>
       <c r="C109" t="n">
-        <v>28.83</v>
+        <v>14.79</v>
       </c>
       <c r="D109" t="n">
-        <v>27.26</v>
+        <v>79.5</v>
       </c>
       <c r="E109" t="n">
-        <v>0</v>
+        <v>6.43</v>
       </c>
       <c r="F109" t="n">
-        <v>33.57</v>
+        <v>9.51</v>
+      </c>
+      <c r="G109" t="n">
+        <v>28.21</v>
+      </c>
+      <c r="H109" t="n">
+        <v>19.18</v>
+      </c>
+      <c r="I109" t="n">
+        <v>20.792</v>
+      </c>
+      <c r="J109" t="n">
+        <v>9.434999999999999</v>
+      </c>
+      <c r="K109" t="n">
+        <v>10.472</v>
       </c>
     </row>
     <row r="110">
@@ -2877,19 +4078,34 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>24.99</v>
+        <v>14.09</v>
       </c>
       <c r="C110" t="n">
-        <v>28.97</v>
+        <v>16.13</v>
       </c>
       <c r="D110" t="n">
-        <v>27.31</v>
+        <v>79.41</v>
       </c>
       <c r="E110" t="n">
-        <v>0</v>
+        <v>5.92</v>
       </c>
       <c r="F110" t="n">
-        <v>33.73</v>
+        <v>9.51</v>
+      </c>
+      <c r="G110" t="n">
+        <v>31.37</v>
+      </c>
+      <c r="H110" t="n">
+        <v>19.05</v>
+      </c>
+      <c r="I110" t="n">
+        <v>20.716</v>
+      </c>
+      <c r="J110" t="n">
+        <v>9.434999999999999</v>
+      </c>
+      <c r="K110" t="n">
+        <v>10.381</v>
       </c>
     </row>
     <row r="111">
@@ -2897,19 +4113,34 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>24.66</v>
+        <v>14.47</v>
       </c>
       <c r="C111" t="n">
-        <v>28.93</v>
+        <v>17.48</v>
       </c>
       <c r="D111" t="n">
-        <v>27.54</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="E111" t="n">
-        <v>0</v>
+        <v>6.42</v>
       </c>
       <c r="F111" t="n">
-        <v>33.87</v>
+        <v>9.51</v>
+      </c>
+      <c r="G111" t="n">
+        <v>34.71</v>
+      </c>
+      <c r="H111" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="I111" t="n">
+        <v>20.46</v>
+      </c>
+      <c r="J111" t="n">
+        <v>9.434999999999999</v>
+      </c>
+      <c r="K111" t="n">
+        <v>10.29</v>
       </c>
     </row>
     <row r="112">
@@ -2917,19 +4148,34 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>24.32</v>
+        <v>14.84</v>
       </c>
       <c r="C112" t="n">
-        <v>28.77</v>
+        <v>19.98</v>
       </c>
       <c r="D112" t="n">
-        <v>27.85</v>
+        <v>79.16</v>
       </c>
       <c r="E112" t="n">
-        <v>0</v>
+        <v>6.95</v>
       </c>
       <c r="F112" t="n">
-        <v>34.06</v>
+        <v>9.51</v>
+      </c>
+      <c r="G112" t="n">
+        <v>37.14</v>
+      </c>
+      <c r="H112" t="n">
+        <v>18.555</v>
+      </c>
+      <c r="I112" t="n">
+        <v>20.225</v>
+      </c>
+      <c r="J112" t="n">
+        <v>13.435</v>
+      </c>
+      <c r="K112" t="n">
+        <v>10.215</v>
       </c>
     </row>
     <row r="113">
@@ -2937,19 +4183,34 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>23.99</v>
+        <v>15.2</v>
       </c>
       <c r="C113" t="n">
-        <v>28.51</v>
+        <v>22.49</v>
       </c>
       <c r="D113" t="n">
-        <v>28.18</v>
+        <v>78.66</v>
       </c>
       <c r="E113" t="n">
-        <v>0</v>
+        <v>7.41</v>
       </c>
       <c r="F113" t="n">
-        <v>34.32</v>
+        <v>9.51</v>
+      </c>
+      <c r="G113" t="n">
+        <v>39.64</v>
+      </c>
+      <c r="H113" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="I113" t="n">
+        <v>20.015</v>
+      </c>
+      <c r="J113" t="n">
+        <v>17.435</v>
+      </c>
+      <c r="K113" t="n">
+        <v>10.445</v>
       </c>
     </row>
     <row r="114">
@@ -2957,19 +4218,34 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>23.48</v>
+        <v>15.51</v>
       </c>
       <c r="C114" t="n">
-        <v>28.46</v>
+        <v>25.03</v>
       </c>
       <c r="D114" t="n">
-        <v>28.46</v>
+        <v>78.18000000000001</v>
       </c>
       <c r="E114" t="n">
-        <v>0</v>
+        <v>7.87</v>
       </c>
       <c r="F114" t="n">
-        <v>34.6</v>
+        <v>9.51</v>
+      </c>
+      <c r="G114" t="n">
+        <v>42.13</v>
+      </c>
+      <c r="H114" t="n">
+        <v>17.845</v>
+      </c>
+      <c r="I114" t="n">
+        <v>19.715</v>
+      </c>
+      <c r="J114" t="n">
+        <v>19.545</v>
+      </c>
+      <c r="K114" t="n">
+        <v>10.685</v>
       </c>
     </row>
     <row r="115">
@@ -2977,19 +4253,34 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>22.92</v>
+        <v>15.87</v>
       </c>
       <c r="C115" t="n">
-        <v>28.41</v>
+        <v>25.56</v>
       </c>
       <c r="D115" t="n">
-        <v>28.81</v>
+        <v>77.73999999999999</v>
       </c>
       <c r="E115" t="n">
-        <v>0</v>
+        <v>8.32</v>
       </c>
       <c r="F115" t="n">
-        <v>34.86</v>
+        <v>9.51</v>
+      </c>
+      <c r="G115" t="n">
+        <v>44.18</v>
+      </c>
+      <c r="H115" t="n">
+        <v>17.49</v>
+      </c>
+      <c r="I115" t="n">
+        <v>19.405</v>
+      </c>
+      <c r="J115" t="n">
+        <v>22.015</v>
+      </c>
+      <c r="K115" t="n">
+        <v>10.925</v>
       </c>
     </row>
     <row r="116">
@@ -2997,19 +4288,34 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>22.43</v>
+        <v>15.83</v>
       </c>
       <c r="C116" t="n">
-        <v>28.3</v>
+        <v>26.09</v>
       </c>
       <c r="D116" t="n">
-        <v>29.16</v>
+        <v>80.8</v>
       </c>
       <c r="E116" t="n">
-        <v>0</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="F116" t="n">
-        <v>35.1</v>
+        <v>9.51</v>
+      </c>
+      <c r="G116" t="n">
+        <v>46.22</v>
+      </c>
+      <c r="H116" t="n">
+        <v>17.125</v>
+      </c>
+      <c r="I116" t="n">
+        <v>19.025</v>
+      </c>
+      <c r="J116" t="n">
+        <v>21.47</v>
+      </c>
+      <c r="K116" t="n">
+        <v>11.165</v>
       </c>
     </row>
     <row r="117">
@@ -3017,19 +4323,34 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>21.93</v>
+        <v>15.75</v>
       </c>
       <c r="C117" t="n">
-        <v>28.32</v>
+        <v>26.61</v>
       </c>
       <c r="D117" t="n">
-        <v>29.4</v>
+        <v>83.97</v>
       </c>
       <c r="E117" t="n">
-        <v>0</v>
+        <v>8.58</v>
       </c>
       <c r="F117" t="n">
-        <v>35.35</v>
+        <v>9.51</v>
+      </c>
+      <c r="G117" t="n">
+        <v>48.27</v>
+      </c>
+      <c r="H117" t="n">
+        <v>16.76</v>
+      </c>
+      <c r="I117" t="n">
+        <v>18.755</v>
+      </c>
+      <c r="J117" t="n">
+        <v>21.405</v>
+      </c>
+      <c r="K117" t="n">
+        <v>11.415</v>
       </c>
     </row>
     <row r="118">
@@ -3037,19 +4358,34 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>21.57</v>
+        <v>15.22</v>
       </c>
       <c r="C118" t="n">
-        <v>28.32</v>
+        <v>27.12</v>
       </c>
       <c r="D118" t="n">
-        <v>29.62</v>
+        <v>87.14</v>
       </c>
       <c r="E118" t="n">
-        <v>0</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="F118" t="n">
-        <v>35.49</v>
+        <v>9.51</v>
+      </c>
+      <c r="G118" t="n">
+        <v>50.73</v>
+      </c>
+      <c r="H118" t="n">
+        <v>16.385</v>
+      </c>
+      <c r="I118" t="n">
+        <v>18.465</v>
+      </c>
+      <c r="J118" t="n">
+        <v>21.34</v>
+      </c>
+      <c r="K118" t="n">
+        <v>11.755</v>
       </c>
     </row>
     <row r="119">
@@ -3057,19 +4393,34 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>21.21</v>
+        <v>14.64</v>
       </c>
       <c r="C119" t="n">
-        <v>28.36</v>
+        <v>27.3</v>
       </c>
       <c r="D119" t="n">
-        <v>29.89</v>
+        <v>90.3</v>
       </c>
       <c r="E119" t="n">
-        <v>0</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="F119" t="n">
-        <v>35.54</v>
+        <v>9.51</v>
+      </c>
+      <c r="G119" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="H119" t="n">
+        <v>16.015</v>
+      </c>
+      <c r="I119" t="n">
+        <v>18.175</v>
+      </c>
+      <c r="J119" t="n">
+        <v>20.03</v>
+      </c>
+      <c r="K119" t="n">
+        <v>11.995</v>
       </c>
     </row>
     <row r="120">
@@ -3077,19 +4428,34 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>20.92</v>
+        <v>14.05</v>
       </c>
       <c r="C120" t="n">
-        <v>28.39</v>
+        <v>27.48</v>
       </c>
       <c r="D120" t="n">
-        <v>30.16</v>
+        <v>93.79000000000001</v>
       </c>
       <c r="E120" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F120" t="n">
-        <v>35.53</v>
+        <v>9.51</v>
+      </c>
+      <c r="G120" t="n">
+        <v>56.42</v>
+      </c>
+      <c r="H120" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="I120" t="n">
+        <v>17.93</v>
+      </c>
+      <c r="J120" t="n">
+        <v>20.03</v>
+      </c>
+      <c r="K120" t="n">
+        <v>12.12</v>
       </c>
     </row>
     <row r="121">
@@ -3097,19 +4463,34 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>20.62</v>
+        <v>13.34</v>
       </c>
       <c r="C121" t="n">
-        <v>28.69</v>
+        <v>27.64</v>
       </c>
       <c r="D121" t="n">
-        <v>30.25</v>
+        <v>97.23999999999999</v>
       </c>
       <c r="E121" t="n">
-        <v>0</v>
+        <v>8.85</v>
       </c>
       <c r="F121" t="n">
-        <v>35.44</v>
+        <v>9.51</v>
+      </c>
+      <c r="G121" t="n">
+        <v>57.88</v>
+      </c>
+      <c r="H121" t="n">
+        <v>15.735</v>
+      </c>
+      <c r="I121" t="n">
+        <v>17.55</v>
+      </c>
+      <c r="J121" t="n">
+        <v>22.03</v>
+      </c>
+      <c r="K121" t="n">
+        <v>12.255</v>
       </c>
     </row>
     <row r="122">
@@ -3117,19 +4498,34 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>20.39</v>
+        <v>12.6</v>
       </c>
       <c r="C122" t="n">
-        <v>28.93</v>
+        <v>27.46</v>
       </c>
       <c r="D122" t="n">
-        <v>30.33</v>
+        <v>100.81</v>
       </c>
       <c r="E122" t="n">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F122" t="n">
-        <v>35.35</v>
+        <v>9.51</v>
+      </c>
+      <c r="G122" t="n">
+        <v>59.24</v>
+      </c>
+      <c r="H122" t="n">
+        <v>16</v>
+      </c>
+      <c r="I122" t="n">
+        <v>17.27999999999999</v>
+      </c>
+      <c r="J122" t="n">
+        <v>20.03</v>
+      </c>
+      <c r="K122" t="n">
+        <v>12.4</v>
       </c>
     </row>
     <row r="123">
@@ -3137,19 +4533,34 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>20.15</v>
+        <v>11.87</v>
       </c>
       <c r="C123" t="n">
-        <v>29.22</v>
+        <v>27.27</v>
       </c>
       <c r="D123" t="n">
-        <v>30.39</v>
+        <v>102.54</v>
       </c>
       <c r="E123" t="n">
-        <v>0</v>
+        <v>8.65</v>
       </c>
       <c r="F123" t="n">
-        <v>35.24</v>
+        <v>9.51</v>
+      </c>
+      <c r="G123" t="n">
+        <v>60.45</v>
+      </c>
+      <c r="H123" t="n">
+        <v>16.116</v>
+      </c>
+      <c r="I123" t="n">
+        <v>16.991</v>
+      </c>
+      <c r="J123" t="n">
+        <v>20.381</v>
+      </c>
+      <c r="K123" t="n">
+        <v>12.246</v>
       </c>
     </row>
     <row r="124">
@@ -3157,19 +4568,34 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>20.13</v>
+        <v>11.18</v>
       </c>
       <c r="C124" t="n">
-        <v>29.19</v>
+        <v>27.08</v>
       </c>
       <c r="D124" t="n">
-        <v>30.51</v>
+        <v>104.27</v>
       </c>
       <c r="E124" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="F124" t="n">
-        <v>35.17</v>
+        <v>9.51</v>
+      </c>
+      <c r="G124" t="n">
+        <v>63.13</v>
+      </c>
+      <c r="H124" t="n">
+        <v>15.331</v>
+      </c>
+      <c r="I124" t="n">
+        <v>16.702</v>
+      </c>
+      <c r="J124" t="n">
+        <v>20.612</v>
+      </c>
+      <c r="K124" t="n">
+        <v>11.591</v>
       </c>
     </row>
     <row r="125">
@@ -3177,19 +4603,34 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>20.17</v>
+        <v>10.5</v>
       </c>
       <c r="C125" t="n">
-        <v>29.17</v>
+        <v>26.6</v>
       </c>
       <c r="D125" t="n">
-        <v>30.53</v>
+        <v>105.95</v>
       </c>
       <c r="E125" t="n">
-        <v>0</v>
+        <v>8.56</v>
       </c>
       <c r="F125" t="n">
-        <v>35.13</v>
+        <v>9.51</v>
+      </c>
+      <c r="G125" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="H125" t="n">
+        <v>14.481</v>
+      </c>
+      <c r="I125" t="n">
+        <v>17.87</v>
+      </c>
+      <c r="J125" t="n">
+        <v>19.868</v>
+      </c>
+      <c r="K125" t="n">
+        <v>10.881</v>
       </c>
     </row>
     <row r="126">
@@ -3197,19 +4638,34 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>19.59</v>
+        <v>10.21</v>
       </c>
       <c r="C126" t="n">
-        <v>29.13</v>
+        <v>26.12</v>
       </c>
       <c r="D126" t="n">
-        <v>31.2</v>
+        <v>103.9</v>
       </c>
       <c r="E126" t="n">
-        <v>0</v>
+        <v>8.51</v>
       </c>
       <c r="F126" t="n">
-        <v>35.08</v>
+        <v>9.51</v>
+      </c>
+      <c r="G126" t="n">
+        <v>68.28</v>
+      </c>
+      <c r="H126" t="n">
+        <v>13.631</v>
+      </c>
+      <c r="I126" t="n">
+        <v>19.758</v>
+      </c>
+      <c r="J126" t="n">
+        <v>21.914</v>
+      </c>
+      <c r="K126" t="n">
+        <v>10.176</v>
       </c>
     </row>
     <row r="127">
@@ -3217,19 +4673,34 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>18.97</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="C127" t="n">
-        <v>29.22</v>
+        <v>25.64</v>
       </c>
       <c r="D127" t="n">
-        <v>31.8</v>
+        <v>101.86</v>
       </c>
       <c r="E127" t="n">
-        <v>0</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="F127" t="n">
-        <v>35.01</v>
+        <v>9.51</v>
+      </c>
+      <c r="G127" t="n">
+        <v>70.43000000000001</v>
+      </c>
+      <c r="H127" t="n">
+        <v>13.184</v>
+      </c>
+      <c r="I127" t="n">
+        <v>21.546</v>
+      </c>
+      <c r="J127" t="n">
+        <v>24.289</v>
+      </c>
+      <c r="K127" t="n">
+        <v>9.471</v>
       </c>
     </row>
     <row r="128">
@@ -3237,19 +4708,34 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>18.24</v>
+        <v>10.03</v>
       </c>
       <c r="C128" t="n">
-        <v>29.36</v>
+        <v>25.19</v>
       </c>
       <c r="D128" t="n">
-        <v>32.42</v>
+        <v>99.77</v>
       </c>
       <c r="E128" t="n">
-        <v>0</v>
+        <v>8.43</v>
       </c>
       <c r="F128" t="n">
-        <v>34.97</v>
+        <v>9.51</v>
+      </c>
+      <c r="G128" t="n">
+        <v>72.54000000000001</v>
+      </c>
+      <c r="H128" t="n">
+        <v>12.252</v>
+      </c>
+      <c r="I128" t="n">
+        <v>23.344</v>
+      </c>
+      <c r="J128" t="n">
+        <v>27.461</v>
+      </c>
+      <c r="K128" t="n">
+        <v>8.494</v>
       </c>
     </row>
     <row r="129">
@@ -3257,19 +4743,34 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>17.34</v>
+        <v>10.38</v>
       </c>
       <c r="C129" t="n">
-        <v>29.8</v>
+        <v>25.05</v>
       </c>
       <c r="D129" t="n">
-        <v>33.06</v>
+        <v>97.68000000000001</v>
       </c>
       <c r="E129" t="n">
-        <v>0</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="F129" t="n">
-        <v>34.8</v>
+        <v>9.51</v>
+      </c>
+      <c r="G129" t="n">
+        <v>72.86</v>
+      </c>
+      <c r="H129" t="n">
+        <v>11.221</v>
+      </c>
+      <c r="I129" t="n">
+        <v>24.168</v>
+      </c>
+      <c r="J129" t="n">
+        <v>33.31</v>
+      </c>
+      <c r="K129" t="n">
+        <v>7.540000000000001</v>
       </c>
     </row>
     <row r="130">
@@ -3277,19 +4778,34 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>16.38</v>
+        <v>11.2</v>
       </c>
       <c r="C130" t="n">
-        <v>30.4</v>
+        <v>24.92</v>
       </c>
       <c r="D130" t="n">
-        <v>33.54</v>
+        <v>95.28</v>
       </c>
       <c r="E130" t="n">
-        <v>0</v>
+        <v>8.15</v>
       </c>
       <c r="F130" t="n">
-        <v>34.69</v>
+        <v>9.51</v>
+      </c>
+      <c r="G130" t="n">
+        <v>73.19</v>
+      </c>
+      <c r="H130" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="I130" t="n">
+        <v>25.002</v>
+      </c>
+      <c r="J130" t="n">
+        <v>38.842</v>
+      </c>
+      <c r="K130" t="n">
+        <v>6.711</v>
       </c>
     </row>
     <row r="131">
@@ -3297,19 +4813,34 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>15.42</v>
+        <v>11.71</v>
       </c>
       <c r="C131" t="n">
-        <v>31.39</v>
+        <v>24.79</v>
       </c>
       <c r="D131" t="n">
-        <v>33.55</v>
+        <v>92.48999999999999</v>
       </c>
       <c r="E131" t="n">
-        <v>0</v>
+        <v>8.02</v>
       </c>
       <c r="F131" t="n">
-        <v>34.64</v>
+        <v>9.51</v>
+      </c>
+      <c r="G131" t="n">
+        <v>73.47</v>
+      </c>
+      <c r="H131" t="n">
+        <v>8.803999999999998</v>
+      </c>
+      <c r="I131" t="n">
+        <v>25.871</v>
+      </c>
+      <c r="J131" t="n">
+        <v>43.765</v>
+      </c>
+      <c r="K131" t="n">
+        <v>5.555000000000001</v>
       </c>
     </row>
     <row r="132">
@@ -3317,19 +4848,34 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>14.37</v>
+        <v>12.27</v>
       </c>
       <c r="C132" t="n">
-        <v>32.54</v>
+        <v>24.94</v>
       </c>
       <c r="D132" t="n">
-        <v>33.51</v>
+        <v>89.7</v>
       </c>
       <c r="E132" t="n">
-        <v>0</v>
+        <v>7.88</v>
       </c>
       <c r="F132" t="n">
-        <v>34.58</v>
+        <v>9.51</v>
+      </c>
+      <c r="G132" t="n">
+        <v>73.87</v>
+      </c>
+      <c r="H132" t="n">
+        <v>7.407999999999999</v>
+      </c>
+      <c r="I132" t="n">
+        <v>26.338</v>
+      </c>
+      <c r="J132" t="n">
+        <v>48.678</v>
+      </c>
+      <c r="K132" t="n">
+        <v>4.409000000000001</v>
       </c>
     </row>
     <row r="133">
@@ -3337,19 +4883,34 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>13.32</v>
+        <v>12.82</v>
       </c>
       <c r="C133" t="n">
-        <v>33.6</v>
+        <v>25.09</v>
       </c>
       <c r="D133" t="n">
-        <v>33.54</v>
+        <v>88.89</v>
       </c>
       <c r="E133" t="n">
-        <v>0</v>
+        <v>7.73</v>
       </c>
       <c r="F133" t="n">
-        <v>34.54</v>
+        <v>9.51</v>
+      </c>
+      <c r="G133" t="n">
+        <v>74.48999999999999</v>
+      </c>
+      <c r="H133" t="n">
+        <v>6.151</v>
+      </c>
+      <c r="I133" t="n">
+        <v>26.809</v>
+      </c>
+      <c r="J133" t="n">
+        <v>51.23</v>
+      </c>
+      <c r="K133" t="n">
+        <v>3.287</v>
       </c>
     </row>
     <row r="134">
@@ -3357,19 +4918,34 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>12.19</v>
+        <v>13.39</v>
       </c>
       <c r="C134" t="n">
-        <v>34.68</v>
+        <v>25.24</v>
       </c>
       <c r="D134" t="n">
-        <v>33.67</v>
+        <v>88.08</v>
       </c>
       <c r="E134" t="n">
-        <v>0</v>
+        <v>7.57</v>
       </c>
       <c r="F134" t="n">
-        <v>34.46</v>
+        <v>9.51</v>
+      </c>
+      <c r="G134" t="n">
+        <v>73.64</v>
+      </c>
+      <c r="H134" t="n">
+        <v>5.375999999999999</v>
+      </c>
+      <c r="I134" t="n">
+        <v>27.734</v>
+      </c>
+      <c r="J134" t="n">
+        <v>53.79199999999999</v>
+      </c>
+      <c r="K134" t="n">
+        <v>2.676</v>
       </c>
     </row>
     <row r="135">
@@ -3377,19 +4953,34 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>11.07</v>
+        <v>14.2</v>
       </c>
       <c r="C135" t="n">
-        <v>35.77</v>
+        <v>25.52</v>
       </c>
       <c r="D135" t="n">
-        <v>33.8</v>
+        <v>87.26000000000001</v>
       </c>
       <c r="E135" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F135" t="n">
-        <v>34.36</v>
+        <v>9.51</v>
+      </c>
+      <c r="G135" t="n">
+        <v>72.86</v>
+      </c>
+      <c r="H135" t="n">
+        <v>4.665999999999999</v>
+      </c>
+      <c r="I135" t="n">
+        <v>27.212</v>
+      </c>
+      <c r="J135" t="n">
+        <v>57.23900000000001</v>
+      </c>
+      <c r="K135" t="n">
+        <v>2.13</v>
       </c>
     </row>
     <row r="136">
@@ -3397,19 +4988,34 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>10.54</v>
+        <v>14.8</v>
       </c>
       <c r="C136" t="n">
-        <v>37.36</v>
+        <v>25.58</v>
       </c>
       <c r="D136" t="n">
-        <v>33.28</v>
+        <v>84.2</v>
       </c>
       <c r="E136" t="n">
-        <v>0</v>
+        <v>6.57</v>
       </c>
       <c r="F136" t="n">
-        <v>33.82</v>
+        <v>9.51</v>
+      </c>
+      <c r="G136" t="n">
+        <v>72.06999999999999</v>
+      </c>
+      <c r="H136" t="n">
+        <v>3.966</v>
+      </c>
+      <c r="I136" t="n">
+        <v>30.03100000000001</v>
+      </c>
+      <c r="J136" t="n">
+        <v>60.691</v>
+      </c>
+      <c r="K136" t="n">
+        <v>1.584</v>
       </c>
     </row>
     <row r="137">
@@ -3417,19 +5023,34 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>10.08</v>
+        <v>15.45</v>
       </c>
       <c r="C137" t="n">
-        <v>38.8</v>
+        <v>25.65</v>
       </c>
       <c r="D137" t="n">
-        <v>32.83</v>
+        <v>81.14</v>
       </c>
       <c r="E137" t="n">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="F137" t="n">
-        <v>33.3</v>
+        <v>9.51</v>
+      </c>
+      <c r="G137" t="n">
+        <v>71.54000000000001</v>
+      </c>
+      <c r="H137" t="n">
+        <v>2.873</v>
+      </c>
+      <c r="I137" t="n">
+        <v>33.31</v>
+      </c>
+      <c r="J137" t="n">
+        <v>63.749</v>
+      </c>
+      <c r="K137" t="n">
+        <v>1.038</v>
       </c>
     </row>
     <row r="138">
@@ -3437,19 +5058,34 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>9.640000000000001</v>
+        <v>13.87</v>
       </c>
       <c r="C138" t="n">
-        <v>40.3</v>
+        <v>25.7</v>
       </c>
       <c r="D138" t="n">
-        <v>32.17</v>
+        <v>76.88</v>
       </c>
       <c r="E138" t="n">
-        <v>0</v>
+        <v>4.92</v>
       </c>
       <c r="F138" t="n">
-        <v>32.89</v>
+        <v>9.51</v>
+      </c>
+      <c r="G138" t="n">
+        <v>79.70999999999999</v>
+      </c>
+      <c r="H138" t="n">
+        <v>2.285</v>
+      </c>
+      <c r="I138" t="n">
+        <v>30.419</v>
+      </c>
+      <c r="J138" t="n">
+        <v>66.02000000000001</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0.674</v>
       </c>
     </row>
     <row r="139">
@@ -3457,19 +5093,34 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>9.449999999999999</v>
+        <v>14.39</v>
       </c>
       <c r="C139" t="n">
-        <v>41.28</v>
+        <v>25.74</v>
       </c>
       <c r="D139" t="n">
-        <v>31.5</v>
+        <v>72.64</v>
       </c>
       <c r="E139" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="F139" t="n">
-        <v>32.77</v>
+        <v>9.51</v>
+      </c>
+      <c r="G139" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1.801</v>
+      </c>
+      <c r="I139" t="n">
+        <v>28.572</v>
+      </c>
+      <c r="J139" t="n">
+        <v>66.819</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0.337</v>
       </c>
     </row>
     <row r="140">
@@ -3477,19 +5128,34 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>9.07</v>
+        <v>15.21</v>
       </c>
       <c r="C140" t="n">
-        <v>42.29</v>
+        <v>25.77</v>
       </c>
       <c r="D140" t="n">
-        <v>30.99</v>
+        <v>68.29000000000001</v>
       </c>
       <c r="E140" t="n">
-        <v>2</v>
+        <v>3.48</v>
       </c>
       <c r="F140" t="n">
-        <v>32.65</v>
+        <v>9.51</v>
+      </c>
+      <c r="G140" t="n">
+        <v>96.06999999999999</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1.317</v>
+      </c>
+      <c r="I140" t="n">
+        <v>26.735</v>
+      </c>
+      <c r="J140" t="n">
+        <v>67.61</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -3497,19 +5163,34 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>8.66</v>
+        <v>17.59</v>
       </c>
       <c r="C141" t="n">
-        <v>42.75</v>
+        <v>25.82</v>
       </c>
       <c r="D141" t="n">
-        <v>30.94</v>
+        <v>64.37</v>
       </c>
       <c r="E141" t="n">
-        <v>4</v>
+        <v>2.76</v>
       </c>
       <c r="F141" t="n">
-        <v>32.64</v>
+        <v>9.51</v>
+      </c>
+      <c r="G141" t="n">
+        <v>103.88</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0.868</v>
+      </c>
+      <c r="I141" t="n">
+        <v>24.292</v>
+      </c>
+      <c r="J141" t="n">
+        <v>66.91</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -3517,19 +5198,34 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>8.26</v>
+        <v>19.92</v>
       </c>
       <c r="C142" t="n">
-        <v>43.1</v>
+        <v>25.35</v>
       </c>
       <c r="D142" t="n">
-        <v>30.67</v>
+        <v>60.41</v>
       </c>
       <c r="E142" t="n">
-        <v>6</v>
+        <v>2.05</v>
       </c>
       <c r="F142" t="n">
-        <v>32.98</v>
+        <v>9.51</v>
+      </c>
+      <c r="G142" t="n">
+        <v>111.65</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="I142" t="n">
+        <v>22.261</v>
+      </c>
+      <c r="J142" t="n">
+        <v>66.42999999999999</v>
+      </c>
+      <c r="K142" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -3537,19 +5233,34 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>8.1</v>
+        <v>22.47</v>
       </c>
       <c r="C143" t="n">
-        <v>43.3</v>
+        <v>24.87</v>
       </c>
       <c r="D143" t="n">
-        <v>30.31</v>
+        <v>56.35</v>
       </c>
       <c r="E143" t="n">
-        <v>7.98</v>
+        <v>1.36</v>
       </c>
       <c r="F143" t="n">
-        <v>33.31</v>
+        <v>9.51</v>
+      </c>
+      <c r="G143" t="n">
+        <v>119.23</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>20.25</v>
+      </c>
+      <c r="J143" t="n">
+        <v>65.95999999999999</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -3557,19 +5268,34 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>8</v>
+        <v>25.67</v>
       </c>
       <c r="C144" t="n">
-        <v>43.5</v>
+        <v>24.39</v>
       </c>
       <c r="D144" t="n">
-        <v>29.85</v>
+        <v>52.3</v>
       </c>
       <c r="E144" t="n">
-        <v>9.92</v>
+        <v>0.68</v>
       </c>
       <c r="F144" t="n">
-        <v>33.73</v>
+        <v>9.51</v>
+      </c>
+      <c r="G144" t="n">
+        <v>126.19</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>17.785</v>
+      </c>
+      <c r="J144" t="n">
+        <v>65.47999999999999</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -3577,19 +5303,34 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>8.27</v>
+        <v>28.63</v>
       </c>
       <c r="C145" t="n">
-        <v>43.49</v>
+        <v>24.08</v>
       </c>
       <c r="D145" t="n">
-        <v>29.22</v>
+        <v>48.32</v>
       </c>
       <c r="E145" t="n">
-        <v>11.86</v>
+        <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>34.15</v>
+        <v>9.51</v>
+      </c>
+      <c r="G145" t="n">
+        <v>133.25</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>15.32</v>
+      </c>
+      <c r="J145" t="n">
+        <v>64.90000000000001</v>
+      </c>
+      <c r="K145" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -3597,19 +5338,34 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>8.460000000000001</v>
+        <v>31.77</v>
       </c>
       <c r="C146" t="n">
-        <v>43.23</v>
+        <v>23.95</v>
       </c>
       <c r="D146" t="n">
-        <v>28.59</v>
+        <v>46.8</v>
       </c>
       <c r="E146" t="n">
-        <v>13.78</v>
+        <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>34.94</v>
+        <v>9.51</v>
+      </c>
+      <c r="G146" t="n">
+        <v>140.48</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>8.864000000000001</v>
+      </c>
+      <c r="J146" t="n">
+        <v>64.626</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -3617,19 +5373,34 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>8.529999999999999</v>
+        <v>35.19</v>
       </c>
       <c r="C147" t="n">
-        <v>42.89</v>
+        <v>23.73</v>
       </c>
       <c r="D147" t="n">
-        <v>27.86</v>
+        <v>45.21</v>
       </c>
       <c r="E147" t="n">
-        <v>15.7</v>
+        <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>36.02</v>
+        <v>9.51</v>
+      </c>
+      <c r="G147" t="n">
+        <v>147.97</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>2.048</v>
+      </c>
+      <c r="J147" t="n">
+        <v>64.342</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -3637,819 +5408,34 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>8.6</v>
+        <v>39.85</v>
       </c>
       <c r="C148" t="n">
-        <v>42.44</v>
+        <v>23.52</v>
       </c>
       <c r="D148" t="n">
-        <v>27.27</v>
+        <v>49.2</v>
       </c>
       <c r="E148" t="n">
-        <v>17.68</v>
+        <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>37.01</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>8.76</v>
-      </c>
-      <c r="C149" t="n">
-        <v>42.28</v>
-      </c>
-      <c r="D149" t="n">
-        <v>26.69</v>
-      </c>
-      <c r="E149" t="n">
-        <v>19.59</v>
-      </c>
-      <c r="F149" t="n">
-        <v>37.7</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>9.210000000000001</v>
-      </c>
-      <c r="C150" t="n">
-        <v>41.92</v>
-      </c>
-      <c r="D150" t="n">
-        <v>26.01</v>
-      </c>
-      <c r="E150" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="F150" t="n">
-        <v>38.4</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>9.84</v>
-      </c>
-      <c r="C151" t="n">
-        <v>41.48</v>
-      </c>
-      <c r="D151" t="n">
-        <v>25.33</v>
-      </c>
-      <c r="E151" t="n">
-        <v>19.41</v>
-      </c>
-      <c r="F151" t="n">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>10.61</v>
-      </c>
-      <c r="C152" t="n">
-        <v>41.04</v>
-      </c>
-      <c r="D152" t="n">
-        <v>24.86</v>
-      </c>
-      <c r="E152" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="F152" t="n">
-        <v>39.25</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>11.08</v>
-      </c>
-      <c r="C153" t="n">
-        <v>40.91</v>
-      </c>
-      <c r="D153" t="n">
-        <v>24.39</v>
-      </c>
-      <c r="E153" t="n">
-        <v>19.19</v>
-      </c>
-      <c r="F153" t="n">
-        <v>39.49</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>11.37</v>
-      </c>
-      <c r="C154" t="n">
-        <v>40.56</v>
-      </c>
-      <c r="D154" t="n">
-        <v>23.92</v>
-      </c>
-      <c r="E154" t="n">
-        <v>19.11</v>
-      </c>
-      <c r="F154" t="n">
-        <v>40.1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>11.21</v>
-      </c>
-      <c r="C155" t="n">
-        <v>40.48</v>
-      </c>
-      <c r="D155" t="n">
-        <v>23.63</v>
-      </c>
-      <c r="E155" t="n">
-        <v>19.03</v>
-      </c>
-      <c r="F155" t="n">
-        <v>40.71</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="C156" t="n">
-        <v>40.38</v>
-      </c>
-      <c r="D156" t="n">
-        <v>23.34</v>
-      </c>
-      <c r="E156" t="n">
-        <v>18.97</v>
-      </c>
-      <c r="F156" t="n">
-        <v>41.4</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="C157" t="n">
-        <v>40.04</v>
-      </c>
-      <c r="D157" t="n">
-        <v>23.13</v>
-      </c>
-      <c r="E157" t="n">
-        <v>18.83</v>
-      </c>
-      <c r="F157" t="n">
-        <v>42.31</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>10.53</v>
-      </c>
-      <c r="C158" t="n">
-        <v>39.78</v>
-      </c>
-      <c r="D158" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="E158" t="n">
-        <v>18.57</v>
-      </c>
-      <c r="F158" t="n">
-        <v>43.21</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>10.15</v>
-      </c>
-      <c r="C159" t="n">
-        <v>39.52</v>
-      </c>
-      <c r="D159" t="n">
-        <v>22.74</v>
-      </c>
-      <c r="E159" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="F159" t="n">
-        <v>44.04</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="C160" t="n">
-        <v>39.38</v>
-      </c>
-      <c r="D160" t="n">
-        <v>22.61</v>
-      </c>
-      <c r="E160" t="n">
-        <v>18.56</v>
-      </c>
-      <c r="F160" t="n">
-        <v>44.87</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="C161" t="n">
-        <v>39.29</v>
-      </c>
-      <c r="D161" t="n">
-        <v>22.47</v>
-      </c>
-      <c r="E161" t="n">
-        <v>18.53</v>
-      </c>
-      <c r="F161" t="n">
-        <v>45.69</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="C162" t="n">
-        <v>37.71</v>
-      </c>
-      <c r="D162" t="n">
-        <v>23.91</v>
-      </c>
-      <c r="E162" t="n">
-        <v>18.51</v>
-      </c>
-      <c r="F162" t="n">
-        <v>46.53</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>8</v>
-      </c>
-      <c r="C163" t="n">
-        <v>35.77</v>
-      </c>
-      <c r="D163" t="n">
-        <v>25.35</v>
-      </c>
-      <c r="E163" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="F163" t="n">
-        <v>47.39</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="C164" t="n">
-        <v>34.13</v>
-      </c>
-      <c r="D164" t="n">
-        <v>26.79</v>
-      </c>
-      <c r="E164" t="n">
-        <v>18.49</v>
-      </c>
-      <c r="F164" t="n">
-        <v>47.77</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>7.72</v>
-      </c>
-      <c r="C165" t="n">
-        <v>32.55</v>
-      </c>
-      <c r="D165" t="n">
-        <v>28.23</v>
-      </c>
-      <c r="E165" t="n">
-        <v>18.47</v>
-      </c>
-      <c r="F165" t="n">
-        <v>48.04</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>7.82</v>
-      </c>
-      <c r="C166" t="n">
-        <v>30.74</v>
-      </c>
-      <c r="D166" t="n">
-        <v>29.66</v>
-      </c>
-      <c r="E166" t="n">
-        <v>18.44</v>
-      </c>
-      <c r="F166" t="n">
-        <v>48.33</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>7.57</v>
-      </c>
-      <c r="C167" t="n">
-        <v>29.77</v>
-      </c>
-      <c r="D167" t="n">
-        <v>31.06</v>
-      </c>
-      <c r="E167" t="n">
-        <v>18.48</v>
-      </c>
-      <c r="F167" t="n">
-        <v>48.11</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="C168" t="n">
-        <v>28.73</v>
-      </c>
-      <c r="D168" t="n">
-        <v>32.46</v>
-      </c>
-      <c r="E168" t="n">
-        <v>18.67</v>
-      </c>
-      <c r="F168" t="n">
-        <v>47.89</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>7</v>
-      </c>
-      <c r="C169" t="n">
-        <v>27.72</v>
-      </c>
-      <c r="D169" t="n">
-        <v>33.93</v>
-      </c>
-      <c r="E169" t="n">
-        <v>18.63</v>
-      </c>
-      <c r="F169" t="n">
-        <v>47.72</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="C170" t="n">
-        <v>26.61</v>
-      </c>
-      <c r="D170" t="n">
-        <v>35.4</v>
-      </c>
-      <c r="E170" t="n">
-        <v>18.65</v>
-      </c>
-      <c r="F170" t="n">
-        <v>47.55</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>6.48</v>
-      </c>
-      <c r="C171" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="D171" t="n">
-        <v>36.87</v>
-      </c>
-      <c r="E171" t="n">
-        <v>18.67</v>
-      </c>
-      <c r="F171" t="n">
-        <v>47.38</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>6.23</v>
-      </c>
-      <c r="C172" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="D172" t="n">
-        <v>36.53</v>
-      </c>
-      <c r="E172" t="n">
-        <v>16.79</v>
-      </c>
-      <c r="F172" t="n">
-        <v>47.15</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="C173" t="n">
-        <v>31.26</v>
-      </c>
-      <c r="D173" t="n">
-        <v>36.13</v>
-      </c>
-      <c r="E173" t="n">
-        <v>14.94</v>
-      </c>
-      <c r="F173" t="n">
-        <v>46.85</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="C174" t="n">
-        <v>34.14</v>
-      </c>
-      <c r="D174" t="n">
-        <v>35.68</v>
-      </c>
-      <c r="E174" t="n">
-        <v>13.09</v>
-      </c>
-      <c r="F174" t="n">
-        <v>46.69</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="C175" t="n">
-        <v>36.87</v>
-      </c>
-      <c r="D175" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="E175" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="F175" t="n">
-        <v>46.58</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="C176" t="n">
-        <v>39.63</v>
-      </c>
-      <c r="D176" t="n">
-        <v>34.85</v>
-      </c>
-      <c r="E176" t="n">
-        <v>9.42</v>
-      </c>
-      <c r="F176" t="n">
-        <v>47.1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="C177" t="n">
-        <v>41.89</v>
-      </c>
-      <c r="D177" t="n">
-        <v>34.77</v>
-      </c>
-      <c r="E177" t="n">
-        <v>7.59</v>
-      </c>
-      <c r="F177" t="n">
-        <v>47.31</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="C178" t="n">
-        <v>44.14</v>
-      </c>
-      <c r="D178" t="n">
-        <v>34.7</v>
-      </c>
-      <c r="E178" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="F178" t="n">
-        <v>47.51</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="C179" t="n">
-        <v>46.37</v>
-      </c>
-      <c r="D179" t="n">
-        <v>34.39</v>
-      </c>
-      <c r="E179" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="F179" t="n">
-        <v>47.98</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="C180" t="n">
-        <v>48.56</v>
-      </c>
-      <c r="D180" t="n">
-        <v>34.11</v>
-      </c>
-      <c r="E180" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="F180" t="n">
-        <v>48.43</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="C181" t="n">
-        <v>50.78</v>
-      </c>
-      <c r="D181" t="n">
-        <v>33.76</v>
-      </c>
-      <c r="E181" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="G148" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="F181" t="n">
-        <v>48.94</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="C182" t="n">
-        <v>50.78</v>
-      </c>
-      <c r="D182" t="n">
-        <v>33.69</v>
-      </c>
-      <c r="E182" t="n">
+      <c r="I148" t="n">
+        <v>1.412</v>
+      </c>
+      <c r="J148" t="n">
+        <v>59.713</v>
+      </c>
+      <c r="K148" t="n">
         <v>0</v>
-      </c>
-      <c r="F182" t="n">
-        <v>49.49</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="C183" t="n">
-        <v>50.78</v>
-      </c>
-      <c r="D183" t="n">
-        <v>33.71</v>
-      </c>
-      <c r="E183" t="n">
-        <v>0</v>
-      </c>
-      <c r="F183" t="n">
-        <v>50.09</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="C184" t="n">
-        <v>50.78</v>
-      </c>
-      <c r="D184" t="n">
-        <v>33.77</v>
-      </c>
-      <c r="E184" t="n">
-        <v>0</v>
-      </c>
-      <c r="F184" t="n">
-        <v>50.6</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>0</v>
-      </c>
-      <c r="C185" t="n">
-        <v>50.78</v>
-      </c>
-      <c r="D185" t="n">
-        <v>33.35</v>
-      </c>
-      <c r="E185" t="n">
-        <v>0</v>
-      </c>
-      <c r="F185" t="n">
-        <v>51.57</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>0</v>
-      </c>
-      <c r="C186" t="n">
-        <v>50.78</v>
-      </c>
-      <c r="D186" t="n">
-        <v>33.06</v>
-      </c>
-      <c r="E186" t="n">
-        <v>0</v>
-      </c>
-      <c r="F186" t="n">
-        <v>51.86</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>0</v>
-      </c>
-      <c r="C187" t="n">
-        <v>50.78</v>
-      </c>
-      <c r="D187" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="E187" t="n">
-        <v>0</v>
-      </c>
-      <c r="F187" t="n">
-        <v>52.43</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>0</v>
-      </c>
-      <c r="C188" t="n">
-        <v>50.78</v>
-      </c>
-      <c r="D188" t="n">
-        <v>31.97</v>
-      </c>
-      <c r="E188" t="n">
-        <v>0</v>
-      </c>
-      <c r="F188" t="n">
-        <v>52.95</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/stacks_over_time_avg.xlsx
+++ b/Outputs/stacks_over_time_avg.xlsx
@@ -194,7 +194,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$B$2:$B$148</f>
+              <f>'data'!$B$2:$B$188</f>
             </numRef>
           </val>
         </ser>
@@ -221,7 +221,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$C$2:$C$148</f>
+              <f>'data'!$C$2:$C$188</f>
             </numRef>
           </val>
         </ser>
@@ -248,7 +248,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$D$2:$D$148</f>
+              <f>'data'!$D$2:$D$188</f>
             </numRef>
           </val>
         </ser>
@@ -275,7 +275,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$E$2:$E$148</f>
+              <f>'data'!$E$2:$E$188</f>
             </numRef>
           </val>
         </ser>
@@ -302,142 +302,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$F$2:$F$148</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="5"/>
-          <order val="5"/>
-          <tx>
-            <strRef>
-              <f>'data'!G1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'data'!$G$2:$G$148</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="6"/>
-          <order val="6"/>
-          <tx>
-            <strRef>
-              <f>'data'!H1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'data'!$H$2:$H$148</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="7"/>
-          <order val="7"/>
-          <tx>
-            <strRef>
-              <f>'data'!I1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'data'!$I$2:$I$148</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="8"/>
-          <order val="8"/>
-          <tx>
-            <strRef>
-              <f>'data'!J1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'data'!$J$2:$J$148</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="9"/>
-          <order val="9"/>
-          <tx>
-            <strRef>
-              <f>'data'!K1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'data'!$K$2:$K$148</f>
+              <f>'data'!$F$2:$F$188</f>
             </numRef>
           </val>
         </ser>
@@ -807,7 +672,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K148"/>
+  <dimension ref="A1:F188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -823,76 +688,48 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Fish</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Scott</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Raymond</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Jonathan</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Cedric</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Bill</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Kynan</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Jonathan</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Fish</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Jacob</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Marshall</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Regan</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Cheyenne</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>10</v>
-      </c>
-      <c r="G2" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -900,22 +737,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9.949999999999999</v>
+        <v>20</v>
       </c>
       <c r="C3" t="n">
-        <v>9.949999999999999</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E3" t="n">
-        <v>9.949999999999999</v>
+        <v>20.1</v>
       </c>
       <c r="F3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G3" t="n">
-        <v>10.15</v>
+        <v>19.9</v>
       </c>
     </row>
     <row r="4">
@@ -923,22 +757,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9.93</v>
+        <v>19.93</v>
       </c>
       <c r="C4" t="n">
-        <v>9.92</v>
+        <v>20.1</v>
       </c>
       <c r="D4" t="n">
-        <v>9.970000000000001</v>
+        <v>20</v>
       </c>
       <c r="E4" t="n">
-        <v>10.02</v>
+        <v>20.13</v>
       </c>
       <c r="F4" t="n">
-        <v>10</v>
-      </c>
-      <c r="G4" t="n">
-        <v>10.17</v>
+        <v>19.83</v>
       </c>
     </row>
     <row r="5">
@@ -946,22 +777,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9.93</v>
+        <v>19.85</v>
       </c>
       <c r="C5" t="n">
-        <v>9.9</v>
+        <v>18.26</v>
       </c>
       <c r="D5" t="n">
-        <v>9.880000000000001</v>
+        <v>20</v>
       </c>
       <c r="E5" t="n">
-        <v>10.03</v>
+        <v>20.1</v>
       </c>
       <c r="F5" t="n">
-        <v>9.970000000000001</v>
-      </c>
-      <c r="G5" t="n">
-        <v>10.3</v>
+        <v>21.79</v>
       </c>
     </row>
     <row r="6">
@@ -969,22 +797,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9.949999999999999</v>
+        <v>20.46</v>
       </c>
       <c r="C6" t="n">
-        <v>9.890000000000001</v>
+        <v>16.54</v>
       </c>
       <c r="D6" t="n">
-        <v>9.82</v>
+        <v>19.96</v>
       </c>
       <c r="E6" t="n">
-        <v>10.02</v>
+        <v>20.08</v>
       </c>
       <c r="F6" t="n">
-        <v>9.94</v>
-      </c>
-      <c r="G6" t="n">
-        <v>10.38</v>
+        <v>22.96</v>
       </c>
     </row>
     <row r="7">
@@ -992,22 +817,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>10.32</v>
+        <v>20.51</v>
       </c>
       <c r="C7" t="n">
-        <v>9.880000000000001</v>
+        <v>15.39</v>
       </c>
       <c r="D7" t="n">
-        <v>9.529999999999999</v>
+        <v>20.32</v>
       </c>
       <c r="E7" t="n">
-        <v>9.93</v>
+        <v>20.03</v>
       </c>
       <c r="F7" t="n">
-        <v>9.91</v>
-      </c>
-      <c r="G7" t="n">
-        <v>10.42</v>
+        <v>23.74</v>
       </c>
     </row>
     <row r="8">
@@ -1015,22 +837,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>10.58</v>
+        <v>20.51</v>
       </c>
       <c r="C8" t="n">
-        <v>9.800000000000001</v>
+        <v>14.77</v>
       </c>
       <c r="D8" t="n">
-        <v>9.31</v>
+        <v>20.59</v>
       </c>
       <c r="E8" t="n">
-        <v>9.98</v>
+        <v>19.91</v>
       </c>
       <c r="F8" t="n">
-        <v>9.890000000000001</v>
-      </c>
-      <c r="G8" t="n">
-        <v>10.44</v>
+        <v>24.21</v>
       </c>
     </row>
     <row r="9">
@@ -1038,22 +857,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>10.73</v>
+        <v>20.44</v>
       </c>
       <c r="C9" t="n">
-        <v>9.710000000000001</v>
+        <v>14.31</v>
       </c>
       <c r="D9" t="n">
-        <v>9.31</v>
+        <v>20.78</v>
       </c>
       <c r="E9" t="n">
-        <v>9.98</v>
+        <v>19.95</v>
       </c>
       <c r="F9" t="n">
-        <v>9.869999999999999</v>
-      </c>
-      <c r="G9" t="n">
-        <v>10.41</v>
+        <v>24.52</v>
       </c>
     </row>
     <row r="10">
@@ -1061,22 +877,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>10.85</v>
+        <v>21.08</v>
       </c>
       <c r="C10" t="n">
-        <v>9.59</v>
+        <v>13.3</v>
       </c>
       <c r="D10" t="n">
-        <v>9.56</v>
+        <v>20.91</v>
       </c>
       <c r="E10" t="n">
-        <v>9.93</v>
+        <v>19.96</v>
       </c>
       <c r="F10" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="G10" t="n">
-        <v>10.27</v>
+        <v>24.76</v>
       </c>
     </row>
     <row r="11">
@@ -1084,22 +897,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>10.94</v>
+        <v>21.59</v>
       </c>
       <c r="C11" t="n">
-        <v>9.49</v>
+        <v>12.47</v>
       </c>
       <c r="D11" t="n">
-        <v>9.76</v>
+        <v>21.04</v>
       </c>
       <c r="E11" t="n">
-        <v>9.99</v>
+        <v>19.96</v>
       </c>
       <c r="F11" t="n">
-        <v>9.66</v>
-      </c>
-      <c r="G11" t="n">
-        <v>10.16</v>
+        <v>24.95</v>
       </c>
     </row>
     <row r="12">
@@ -1107,22 +917,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>10.94</v>
+        <v>21.59</v>
       </c>
       <c r="C12" t="n">
-        <v>9.49</v>
+        <v>12.47</v>
       </c>
       <c r="D12" t="n">
-        <v>9.76</v>
+        <v>21.04</v>
       </c>
       <c r="E12" t="n">
-        <v>9.99</v>
+        <v>19.96</v>
       </c>
       <c r="F12" t="n">
-        <v>9.66</v>
-      </c>
-      <c r="G12" t="n">
-        <v>10.16</v>
+        <v>24.95</v>
       </c>
     </row>
     <row r="13">
@@ -1130,22 +937,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>11.31</v>
+        <v>22.2</v>
       </c>
       <c r="C13" t="n">
-        <v>9.35</v>
+        <v>10.98</v>
       </c>
       <c r="D13" t="n">
-        <v>9.85</v>
+        <v>21.19</v>
       </c>
       <c r="E13" t="n">
-        <v>9.98</v>
+        <v>19.94</v>
       </c>
       <c r="F13" t="n">
-        <v>9.49</v>
-      </c>
-      <c r="G13" t="n">
-        <v>10.02</v>
+        <v>25.7</v>
       </c>
     </row>
     <row r="14">
@@ -1153,22 +957,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>11.69</v>
+        <v>22.82</v>
       </c>
       <c r="C14" t="n">
-        <v>9.220000000000001</v>
+        <v>9.48</v>
       </c>
       <c r="D14" t="n">
-        <v>9.859999999999999</v>
+        <v>21.4</v>
       </c>
       <c r="E14" t="n">
-        <v>9.960000000000001</v>
+        <v>19.89</v>
       </c>
       <c r="F14" t="n">
-        <v>9.43</v>
-      </c>
-      <c r="G14" t="n">
-        <v>9.84</v>
+        <v>26.41</v>
       </c>
     </row>
     <row r="15">
@@ -1176,22 +977,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>13.07</v>
+        <v>23.39</v>
       </c>
       <c r="C15" t="n">
-        <v>9.09</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>8.94</v>
+        <v>21.69</v>
       </c>
       <c r="E15" t="n">
-        <v>9.859999999999999</v>
+        <v>19.84</v>
       </c>
       <c r="F15" t="n">
-        <v>9.369999999999999</v>
-      </c>
-      <c r="G15" t="n">
-        <v>9.66</v>
+        <v>27.12</v>
       </c>
     </row>
     <row r="16">
@@ -1199,22 +997,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>14.38</v>
+        <v>23.98</v>
       </c>
       <c r="C16" t="n">
-        <v>8.960000000000001</v>
+        <v>10.2</v>
       </c>
       <c r="D16" t="n">
-        <v>7.99</v>
+        <v>21.97</v>
       </c>
       <c r="E16" t="n">
-        <v>9.710000000000001</v>
+        <v>19.81</v>
       </c>
       <c r="F16" t="n">
-        <v>9.59</v>
-      </c>
-      <c r="G16" t="n">
-        <v>9.359999999999999</v>
+        <v>27.04</v>
       </c>
     </row>
     <row r="17">
@@ -1222,22 +1017,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>15.61</v>
+        <v>24.18</v>
       </c>
       <c r="C17" t="n">
-        <v>9.380000000000001</v>
+        <v>11.33</v>
       </c>
       <c r="D17" t="n">
-        <v>8.039999999999999</v>
+        <v>22.25</v>
       </c>
       <c r="E17" t="n">
-        <v>9.5</v>
+        <v>19.78</v>
       </c>
       <c r="F17" t="n">
-        <v>9.74</v>
-      </c>
-      <c r="G17" t="n">
-        <v>8.73</v>
+        <v>26.96</v>
       </c>
     </row>
     <row r="18">
@@ -1245,22 +1037,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>16.65</v>
+        <v>24.7</v>
       </c>
       <c r="C18" t="n">
-        <v>9.81</v>
+        <v>12.38</v>
       </c>
       <c r="D18" t="n">
-        <v>8.27</v>
+        <v>22.29</v>
       </c>
       <c r="E18" t="n">
-        <v>9.279999999999999</v>
+        <v>19.75</v>
       </c>
       <c r="F18" t="n">
-        <v>9.890000000000001</v>
-      </c>
-      <c r="G18" t="n">
-        <v>8.1</v>
+        <v>26.88</v>
       </c>
     </row>
     <row r="19">
@@ -1268,22 +1057,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>17.67</v>
+        <v>25.25</v>
       </c>
       <c r="C19" t="n">
-        <v>10.28</v>
+        <v>13.58</v>
       </c>
       <c r="D19" t="n">
-        <v>8.5</v>
+        <v>22.33</v>
       </c>
       <c r="E19" t="n">
-        <v>9.1</v>
+        <v>19.77</v>
       </c>
       <c r="F19" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="G19" t="n">
-        <v>7.44</v>
+        <v>26.57</v>
       </c>
     </row>
     <row r="20">
@@ -1291,22 +1077,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>18.32</v>
+        <v>26.86</v>
       </c>
       <c r="C20" t="n">
-        <v>10.79</v>
+        <v>14.07</v>
       </c>
       <c r="D20" t="n">
-        <v>8.609999999999999</v>
+        <v>22.37</v>
       </c>
       <c r="E20" t="n">
-        <v>8.9</v>
+        <v>19.63</v>
       </c>
       <c r="F20" t="n">
-        <v>10.12</v>
-      </c>
-      <c r="G20" t="n">
-        <v>7.26</v>
+        <v>26.07</v>
       </c>
     </row>
     <row r="21">
@@ -1314,22 +1097,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>18.97</v>
+        <v>27.84</v>
       </c>
       <c r="C21" t="n">
-        <v>11.33</v>
+        <v>15.21</v>
       </c>
       <c r="D21" t="n">
-        <v>8.48</v>
+        <v>22.43</v>
       </c>
       <c r="E21" t="n">
-        <v>8.77</v>
+        <v>19.45</v>
       </c>
       <c r="F21" t="n">
-        <v>10.28</v>
-      </c>
-      <c r="G21" t="n">
-        <v>7.18</v>
+        <v>25.57</v>
       </c>
     </row>
     <row r="22">
@@ -1337,22 +1117,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>19.62</v>
+        <v>28.8</v>
       </c>
       <c r="C22" t="n">
-        <v>11.78</v>
+        <v>16.41</v>
       </c>
       <c r="D22" t="n">
-        <v>8.35</v>
+        <v>22.45</v>
       </c>
       <c r="E22" t="n">
-        <v>8.550000000000001</v>
+        <v>19.27</v>
       </c>
       <c r="F22" t="n">
-        <v>10.51</v>
-      </c>
-      <c r="G22" t="n">
-        <v>7.2</v>
+        <v>25.07</v>
       </c>
     </row>
     <row r="23">
@@ -1360,22 +1137,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>20.09</v>
+        <v>29.77</v>
       </c>
       <c r="C23" t="n">
-        <v>12.23</v>
+        <v>17.61</v>
       </c>
       <c r="D23" t="n">
-        <v>8.25</v>
+        <v>22.52</v>
       </c>
       <c r="E23" t="n">
-        <v>8.43</v>
+        <v>18.99</v>
       </c>
       <c r="F23" t="n">
-        <v>10.76</v>
-      </c>
-      <c r="G23" t="n">
-        <v>7.29</v>
+        <v>24.48</v>
       </c>
     </row>
     <row r="24">
@@ -1383,22 +1157,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>20.55</v>
+        <v>30.73</v>
       </c>
       <c r="C24" t="n">
-        <v>12.67</v>
+        <v>18.81</v>
       </c>
       <c r="D24" t="n">
-        <v>8.18</v>
+        <v>22.53</v>
       </c>
       <c r="E24" t="n">
-        <v>8.380000000000001</v>
+        <v>18.7</v>
       </c>
       <c r="F24" t="n">
-        <v>10.89</v>
-      </c>
-      <c r="G24" t="n">
-        <v>7.37</v>
+        <v>23.97</v>
       </c>
     </row>
     <row r="25">
@@ -1406,22 +1177,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>20.01</v>
+        <v>31.75</v>
       </c>
       <c r="C25" t="n">
-        <v>13.08</v>
+        <v>18.49</v>
       </c>
       <c r="D25" t="n">
-        <v>9.06</v>
+        <v>22.47</v>
       </c>
       <c r="E25" t="n">
-        <v>8.449999999999999</v>
+        <v>18.42</v>
       </c>
       <c r="F25" t="n">
-        <v>11.02</v>
-      </c>
-      <c r="G25" t="n">
-        <v>7.44</v>
+        <v>23.49</v>
       </c>
     </row>
     <row r="26">
@@ -1429,22 +1197,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>19.54</v>
+        <v>32.91</v>
       </c>
       <c r="C26" t="n">
-        <v>13.49</v>
+        <v>18.18</v>
       </c>
       <c r="D26" t="n">
-        <v>9.99</v>
+        <v>22.39</v>
       </c>
       <c r="E26" t="n">
-        <v>8.56</v>
+        <v>18.13</v>
       </c>
       <c r="F26" t="n">
-        <v>10.88</v>
-      </c>
-      <c r="G26" t="n">
-        <v>7.6</v>
+        <v>23.01</v>
       </c>
     </row>
     <row r="27">
@@ -1452,22 +1217,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>19.13</v>
+        <v>34.04</v>
       </c>
       <c r="C27" t="n">
-        <v>13.38</v>
+        <v>17.51</v>
       </c>
       <c r="D27" t="n">
-        <v>9.92</v>
+        <v>22.32</v>
       </c>
       <c r="E27" t="n">
-        <v>8.720000000000001</v>
+        <v>18.22</v>
       </c>
       <c r="F27" t="n">
-        <v>10.81</v>
-      </c>
-      <c r="G27" t="n">
-        <v>8.1</v>
+        <v>22.53</v>
       </c>
     </row>
     <row r="28">
@@ -1475,22 +1237,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>18.7</v>
+        <v>35.05</v>
       </c>
       <c r="C28" t="n">
-        <v>13.26</v>
+        <v>16.84</v>
       </c>
       <c r="D28" t="n">
-        <v>9.9</v>
+        <v>22.43</v>
       </c>
       <c r="E28" t="n">
-        <v>8.94</v>
+        <v>18.32</v>
       </c>
       <c r="F28" t="n">
-        <v>10.69</v>
-      </c>
-      <c r="G28" t="n">
-        <v>8.59</v>
+        <v>21.97</v>
       </c>
     </row>
     <row r="29">
@@ -1498,22 +1257,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>18.31</v>
+        <v>36.05</v>
       </c>
       <c r="C29" t="n">
-        <v>13.12</v>
+        <v>15.91</v>
       </c>
       <c r="D29" t="n">
-        <v>9.859999999999999</v>
+        <v>22.54</v>
       </c>
       <c r="E29" t="n">
-        <v>9.06</v>
+        <v>18.43</v>
       </c>
       <c r="F29" t="n">
-        <v>10.61</v>
-      </c>
-      <c r="G29" t="n">
-        <v>9.130000000000001</v>
+        <v>21.68</v>
       </c>
     </row>
     <row r="30">
@@ -1521,22 +1277,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>18.31</v>
+        <v>36.03</v>
       </c>
       <c r="C30" t="n">
-        <v>12.98</v>
+        <v>15.76</v>
       </c>
       <c r="D30" t="n">
-        <v>9.56</v>
+        <v>22.65</v>
       </c>
       <c r="E30" t="n">
-        <v>9.23</v>
+        <v>18.55</v>
       </c>
       <c r="F30" t="n">
-        <v>10.81</v>
-      </c>
-      <c r="G30" t="n">
-        <v>9.210000000000001</v>
+        <v>21.63</v>
       </c>
     </row>
     <row r="31">
@@ -1544,22 +1297,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>18.31</v>
+        <v>36</v>
       </c>
       <c r="C31" t="n">
-        <v>12.87</v>
+        <v>15.52</v>
       </c>
       <c r="D31" t="n">
-        <v>9.27</v>
+        <v>22.8</v>
       </c>
       <c r="E31" t="n">
-        <v>9.35</v>
+        <v>18.72</v>
       </c>
       <c r="F31" t="n">
-        <v>11.01</v>
-      </c>
-      <c r="G31" t="n">
-        <v>9.289999999999999</v>
+        <v>21.58</v>
       </c>
     </row>
     <row r="32">
@@ -1567,22 +1317,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>18.31</v>
+        <v>35.99</v>
       </c>
       <c r="C32" t="n">
-        <v>13.55</v>
+        <v>15.29</v>
       </c>
       <c r="D32" t="n">
-        <v>8.98</v>
+        <v>22.96</v>
       </c>
       <c r="E32" t="n">
-        <v>9.16</v>
+        <v>18.87</v>
       </c>
       <c r="F32" t="n">
-        <v>11.14</v>
-      </c>
-      <c r="G32" t="n">
-        <v>8.960000000000001</v>
+        <v>21.51</v>
       </c>
     </row>
     <row r="33">
@@ -1590,22 +1337,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>18.31</v>
+        <v>36.01</v>
       </c>
       <c r="C33" t="n">
-        <v>14.23</v>
+        <v>15.06</v>
       </c>
       <c r="D33" t="n">
-        <v>8.68</v>
+        <v>23.13</v>
       </c>
       <c r="E33" t="n">
-        <v>8.890000000000001</v>
+        <v>19.12</v>
       </c>
       <c r="F33" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="G33" t="n">
-        <v>8.619999999999999</v>
+        <v>21.42</v>
       </c>
     </row>
     <row r="34">
@@ -1613,28 +1357,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>18.31</v>
+        <v>35.96</v>
       </c>
       <c r="C34" t="n">
-        <v>14.91</v>
+        <v>14.92</v>
       </c>
       <c r="D34" t="n">
-        <v>8.35</v>
+        <v>23.3</v>
       </c>
       <c r="E34" t="n">
-        <v>8.5</v>
+        <v>19.39</v>
       </c>
       <c r="F34" t="n">
-        <v>11.96</v>
-      </c>
-      <c r="G34" t="n">
-        <v>8.06</v>
-      </c>
-      <c r="H34" t="n">
-        <v>10</v>
-      </c>
-      <c r="I34" t="n">
-        <v>10</v>
+        <v>21.3</v>
       </c>
     </row>
     <row r="35">
@@ -1642,28 +1377,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>18.3</v>
+        <v>35.85</v>
       </c>
       <c r="C35" t="n">
-        <v>16.23</v>
+        <v>15.23</v>
       </c>
       <c r="D35" t="n">
-        <v>7.72</v>
+        <v>23.09</v>
       </c>
       <c r="E35" t="n">
-        <v>7.77</v>
+        <v>19.66</v>
       </c>
       <c r="F35" t="n">
-        <v>12.55</v>
-      </c>
-      <c r="G35" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="H35" t="n">
-        <v>10</v>
-      </c>
-      <c r="I35" t="n">
-        <v>9.75</v>
+        <v>21.16</v>
       </c>
     </row>
     <row r="36">
@@ -1671,28 +1397,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>18.04</v>
+        <v>35.54</v>
       </c>
       <c r="C36" t="n">
-        <v>17.55</v>
+        <v>15.51</v>
       </c>
       <c r="D36" t="n">
-        <v>7.05</v>
+        <v>23.03</v>
       </c>
       <c r="E36" t="n">
-        <v>7.44</v>
+        <v>19.91</v>
       </c>
       <c r="F36" t="n">
-        <v>13.09</v>
-      </c>
-      <c r="G36" t="n">
-        <v>6.96</v>
-      </c>
-      <c r="H36" t="n">
-        <v>9.866666666666667</v>
-      </c>
-      <c r="I36" t="n">
-        <v>9.533333333333333</v>
+        <v>21.02</v>
       </c>
     </row>
     <row r="37">
@@ -1700,28 +1417,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>17.74</v>
+        <v>35.25</v>
       </c>
       <c r="C37" t="n">
-        <v>18.84</v>
+        <v>16.21</v>
       </c>
       <c r="D37" t="n">
-        <v>6.76</v>
+        <v>22.96</v>
       </c>
       <c r="E37" t="n">
-        <v>7.1</v>
+        <v>19.76</v>
       </c>
       <c r="F37" t="n">
-        <v>13.59</v>
-      </c>
-      <c r="G37" t="n">
-        <v>6.22</v>
-      </c>
-      <c r="H37" t="n">
-        <v>9.725</v>
-      </c>
-      <c r="I37" t="n">
-        <v>9.175000000000001</v>
+        <v>20.82</v>
       </c>
     </row>
     <row r="38">
@@ -1729,28 +1437,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>17.88</v>
+        <v>34.89</v>
       </c>
       <c r="C38" t="n">
-        <v>20.13</v>
+        <v>17</v>
       </c>
       <c r="D38" t="n">
-        <v>6.4</v>
+        <v>22.94</v>
       </c>
       <c r="E38" t="n">
-        <v>6.76</v>
+        <v>19.55</v>
       </c>
       <c r="F38" t="n">
-        <v>14.04</v>
-      </c>
-      <c r="G38" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="H38" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="I38" t="n">
-        <v>8.940000000000001</v>
+        <v>20.63</v>
       </c>
     </row>
     <row r="39">
@@ -1758,28 +1457,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>18.14</v>
+        <v>34.6</v>
       </c>
       <c r="C39" t="n">
-        <v>21.45</v>
+        <v>17.75</v>
       </c>
       <c r="D39" t="n">
-        <v>5.99</v>
+        <v>22.92</v>
       </c>
       <c r="E39" t="n">
-        <v>6.4</v>
+        <v>19.3</v>
       </c>
       <c r="F39" t="n">
-        <v>14.49</v>
-      </c>
-      <c r="G39" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="H39" t="n">
-        <v>9.366666666666665</v>
-      </c>
-      <c r="I39" t="n">
-        <v>7.725000000000001</v>
+        <v>20.44</v>
       </c>
     </row>
     <row r="40">
@@ -1787,28 +1477,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>19.26</v>
+        <v>34.24</v>
       </c>
       <c r="C40" t="n">
-        <v>22.76</v>
+        <v>17.45</v>
       </c>
       <c r="D40" t="n">
-        <v>5.85</v>
+        <v>22.82</v>
       </c>
       <c r="E40" t="n">
-        <v>5.97</v>
+        <v>19.1</v>
       </c>
       <c r="F40" t="n">
-        <v>14.65</v>
-      </c>
-      <c r="G40" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="H40" t="n">
-        <v>9.185714285714287</v>
-      </c>
-      <c r="I40" t="n">
-        <v>6.857142857142857</v>
+        <v>21.38</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1497,19 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>19.93</v>
+        <v>33.9</v>
       </c>
       <c r="C41" t="n">
-        <v>24.04</v>
+        <v>17.29</v>
       </c>
       <c r="D41" t="n">
-        <v>5.65</v>
+        <v>22.58</v>
       </c>
       <c r="E41" t="n">
-        <v>5.49</v>
+        <v>18.89</v>
       </c>
       <c r="F41" t="n">
-        <v>14.82</v>
-      </c>
-      <c r="G41" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="H41" t="n">
-        <v>10.0875</v>
-      </c>
-      <c r="I41" t="n">
-        <v>6.20625</v>
+        <v>22.33</v>
       </c>
     </row>
     <row r="42">
@@ -1845,28 +1517,19 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>20.17</v>
+        <v>33.67</v>
       </c>
       <c r="C42" t="n">
-        <v>24.57</v>
+        <v>16.99</v>
       </c>
       <c r="D42" t="n">
-        <v>5.28</v>
+        <v>22.35</v>
       </c>
       <c r="E42" t="n">
-        <v>5.27</v>
+        <v>18.68</v>
       </c>
       <c r="F42" t="n">
-        <v>15.04</v>
-      </c>
-      <c r="G42" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="H42" t="n">
-        <v>10.72222222222222</v>
-      </c>
-      <c r="I42" t="n">
-        <v>5.794444444444444</v>
+        <v>23.3</v>
       </c>
     </row>
     <row r="43">
@@ -1874,31 +1537,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>20.5</v>
+        <v>33.4</v>
       </c>
       <c r="C43" t="n">
-        <v>25.05</v>
+        <v>16.62</v>
       </c>
       <c r="D43" t="n">
-        <v>4.96</v>
+        <v>22.12</v>
       </c>
       <c r="E43" t="n">
-        <v>5.06</v>
+        <v>18.41</v>
       </c>
       <c r="F43" t="n">
-        <v>15.12</v>
-      </c>
-      <c r="G43" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="H43" t="n">
-        <v>12.122</v>
-      </c>
-      <c r="I43" t="n">
-        <v>5.395</v>
-      </c>
-      <c r="J43" t="n">
-        <v>10</v>
+        <v>24.47</v>
       </c>
     </row>
     <row r="44">
@@ -1906,31 +1557,19 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>20.83</v>
+        <v>33.22</v>
       </c>
       <c r="C44" t="n">
-        <v>25.52</v>
+        <v>16.13</v>
       </c>
       <c r="D44" t="n">
-        <v>4.34</v>
+        <v>21.89</v>
       </c>
       <c r="E44" t="n">
-        <v>4.92</v>
+        <v>18.14</v>
       </c>
       <c r="F44" t="n">
-        <v>14.41</v>
-      </c>
-      <c r="G44" t="n">
-        <v>8.609999999999999</v>
-      </c>
-      <c r="H44" t="n">
-        <v>12.122</v>
-      </c>
-      <c r="I44" t="n">
-        <v>5.395</v>
-      </c>
-      <c r="J44" t="n">
-        <v>9.949999999999999</v>
+        <v>25.67</v>
       </c>
     </row>
     <row r="45">
@@ -1938,31 +1577,19 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>21.46</v>
+        <v>33.06</v>
       </c>
       <c r="C45" t="n">
-        <v>25.4</v>
+        <v>15.23</v>
       </c>
       <c r="D45" t="n">
-        <v>4.02</v>
+        <v>22.02</v>
       </c>
       <c r="E45" t="n">
-        <v>5.07</v>
+        <v>17.86</v>
       </c>
       <c r="F45" t="n">
-        <v>13.71</v>
-      </c>
-      <c r="G45" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="H45" t="n">
-        <v>13.315</v>
-      </c>
-      <c r="I45" t="n">
-        <v>4.575</v>
-      </c>
-      <c r="J45" t="n">
-        <v>9.916666666666666</v>
+        <v>26.86</v>
       </c>
     </row>
     <row r="46">
@@ -1970,31 +1597,19 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>22.33</v>
+        <v>32.96</v>
       </c>
       <c r="C46" t="n">
-        <v>25.26</v>
+        <v>14.35</v>
       </c>
       <c r="D46" t="n">
-        <v>4.74</v>
+        <v>22.01</v>
       </c>
       <c r="E46" t="n">
-        <v>4.87</v>
+        <v>17.65</v>
       </c>
       <c r="F46" t="n">
-        <v>13.06</v>
-      </c>
-      <c r="G46" t="n">
-        <v>10.61</v>
-      </c>
-      <c r="H46" t="n">
-        <v>14.498</v>
-      </c>
-      <c r="I46" t="n">
-        <v>3.795</v>
-      </c>
-      <c r="J46" t="n">
-        <v>9.699999999999999</v>
+        <v>28.06</v>
       </c>
     </row>
     <row r="47">
@@ -2002,31 +1617,19 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>23.25</v>
+        <v>32.86</v>
       </c>
       <c r="C47" t="n">
-        <v>25.12</v>
+        <v>13.46</v>
       </c>
       <c r="D47" t="n">
-        <v>5.01</v>
+        <v>22.02</v>
       </c>
       <c r="E47" t="n">
-        <v>4.62</v>
+        <v>17.4</v>
       </c>
       <c r="F47" t="n">
-        <v>12.45</v>
-      </c>
-      <c r="G47" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="H47" t="n">
-        <v>15.716</v>
-      </c>
-      <c r="I47" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="J47" t="n">
-        <v>9.790000000000001</v>
+        <v>29.32</v>
       </c>
     </row>
     <row r="48">
@@ -2034,31 +1637,19 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>23.73</v>
+        <v>32.81</v>
       </c>
       <c r="C48" t="n">
-        <v>24.99</v>
+        <v>12.59</v>
       </c>
       <c r="D48" t="n">
-        <v>5.23</v>
+        <v>21.81</v>
       </c>
       <c r="E48" t="n">
-        <v>4.38</v>
+        <v>17.22</v>
       </c>
       <c r="F48" t="n">
-        <v>11.94</v>
-      </c>
-      <c r="G48" t="n">
-        <v>13</v>
-      </c>
-      <c r="H48" t="n">
-        <v>16.964</v>
-      </c>
-      <c r="I48" t="n">
-        <v>3.015</v>
-      </c>
-      <c r="J48" t="n">
-        <v>9.85</v>
+        <v>30.65</v>
       </c>
     </row>
     <row r="49">
@@ -2066,31 +1657,19 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>23.85</v>
+        <v>32.7</v>
       </c>
       <c r="C49" t="n">
-        <v>24.86</v>
+        <v>11.96</v>
       </c>
       <c r="D49" t="n">
-        <v>5.78</v>
+        <v>21.6</v>
       </c>
       <c r="E49" t="n">
-        <v>4.13</v>
+        <v>16.85</v>
       </c>
       <c r="F49" t="n">
-        <v>11.43</v>
-      </c>
-      <c r="G49" t="n">
-        <v>13.27</v>
-      </c>
-      <c r="H49" t="n">
-        <v>18.272</v>
-      </c>
-      <c r="I49" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="J49" t="n">
-        <v>9.892857142857142</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="50">
@@ -2098,31 +1677,19 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>23.2</v>
+        <v>32.67</v>
       </c>
       <c r="C50" t="n">
-        <v>24.71</v>
+        <v>12.33</v>
       </c>
       <c r="D50" t="n">
-        <v>6.33</v>
+        <v>21.45</v>
       </c>
       <c r="E50" t="n">
-        <v>3.96</v>
+        <v>16.48</v>
       </c>
       <c r="F50" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="G50" t="n">
-        <v>13.61</v>
-      </c>
-      <c r="H50" t="n">
-        <v>19.58</v>
-      </c>
-      <c r="I50" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="J50" t="n">
-        <v>9.925000000000001</v>
+        <v>32.17</v>
       </c>
     </row>
     <row r="51">
@@ -2130,31 +1697,19 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>23</v>
+        <v>32.54</v>
       </c>
       <c r="C51" t="n">
-        <v>24.46</v>
+        <v>12.32</v>
       </c>
       <c r="D51" t="n">
-        <v>6.92</v>
+        <v>21.38</v>
       </c>
       <c r="E51" t="n">
-        <v>3.83</v>
+        <v>16.11</v>
       </c>
       <c r="F51" t="n">
-        <v>10.44</v>
-      </c>
-      <c r="G51" t="n">
-        <v>13.39</v>
-      </c>
-      <c r="H51" t="n">
-        <v>20.918</v>
-      </c>
-      <c r="I51" t="n">
-        <v>3.095</v>
-      </c>
-      <c r="J51" t="n">
-        <v>9.949999999999999</v>
+        <v>32.75</v>
       </c>
     </row>
     <row r="52">
@@ -2162,31 +1717,19 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>23.83</v>
+        <v>32.3</v>
       </c>
       <c r="C52" t="n">
-        <v>24.29</v>
+        <v>12.39</v>
       </c>
       <c r="D52" t="n">
-        <v>7.68</v>
+        <v>21.4</v>
       </c>
       <c r="E52" t="n">
-        <v>3.41</v>
+        <v>15.7</v>
       </c>
       <c r="F52" t="n">
-        <v>9.949999999999999</v>
-      </c>
-      <c r="G52" t="n">
-        <v>13.09</v>
-      </c>
-      <c r="H52" t="n">
-        <v>21.426</v>
-      </c>
-      <c r="I52" t="n">
-        <v>3.359999999999999</v>
-      </c>
-      <c r="J52" t="n">
-        <v>9.959999999999999</v>
+        <v>33.31</v>
       </c>
     </row>
     <row r="53">
@@ -2194,31 +1737,19 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>24.56</v>
+        <v>32.04</v>
       </c>
       <c r="C53" t="n">
-        <v>24.17</v>
+        <v>12.63</v>
       </c>
       <c r="D53" t="n">
-        <v>8.44</v>
+        <v>21.35</v>
       </c>
       <c r="E53" t="n">
-        <v>4.01</v>
+        <v>15.38</v>
       </c>
       <c r="F53" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G53" t="n">
-        <v>12.53</v>
-      </c>
-      <c r="H53" t="n">
-        <v>21.934</v>
-      </c>
-      <c r="I53" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="J53" t="n">
-        <v>9.959999999999999</v>
+        <v>33.68</v>
       </c>
     </row>
     <row r="54">
@@ -2226,31 +1757,19 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>24.94</v>
+        <v>31.77</v>
       </c>
       <c r="C54" t="n">
-        <v>24.05</v>
+        <v>13.03</v>
       </c>
       <c r="D54" t="n">
-        <v>10.92</v>
+        <v>21.19</v>
       </c>
       <c r="E54" t="n">
-        <v>4.61</v>
+        <v>15.05</v>
       </c>
       <c r="F54" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G54" t="n">
-        <v>11.98</v>
-      </c>
-      <c r="H54" t="n">
-        <v>21.54</v>
-      </c>
-      <c r="I54" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="J54" t="n">
-        <v>8.959999999999999</v>
+        <v>34.03</v>
       </c>
     </row>
     <row r="55">
@@ -2258,31 +1777,19 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>25.03</v>
+        <v>31.52</v>
       </c>
       <c r="C55" t="n">
-        <v>23.86</v>
+        <v>13.46</v>
       </c>
       <c r="D55" t="n">
-        <v>13.32</v>
+        <v>20.98</v>
       </c>
       <c r="E55" t="n">
-        <v>6.21</v>
+        <v>14.72</v>
       </c>
       <c r="F55" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G55" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="H55" t="n">
-        <v>21.42</v>
-      </c>
-      <c r="I55" t="n">
-        <v>5.080000000000001</v>
-      </c>
-      <c r="J55" t="n">
-        <v>8.969999999999999</v>
+        <v>34.38</v>
       </c>
     </row>
     <row r="56">
@@ -2290,31 +1797,19 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>24.8</v>
+        <v>31.28</v>
       </c>
       <c r="C56" t="n">
-        <v>23.67</v>
+        <v>13.96</v>
       </c>
       <c r="D56" t="n">
-        <v>16.05</v>
+        <v>20.76</v>
       </c>
       <c r="E56" t="n">
-        <v>7.75</v>
+        <v>14.33</v>
       </c>
       <c r="F56" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G56" t="n">
-        <v>10.23</v>
-      </c>
-      <c r="H56" t="n">
-        <v>20.385</v>
-      </c>
-      <c r="I56" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="J56" t="n">
-        <v>8.93</v>
+        <v>34.73</v>
       </c>
     </row>
     <row r="57">
@@ -2322,31 +1817,19 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>24.56</v>
+        <v>31.08</v>
       </c>
       <c r="C57" t="n">
-        <v>23.49</v>
+        <v>14.31</v>
       </c>
       <c r="D57" t="n">
-        <v>18.86</v>
+        <v>20.52</v>
       </c>
       <c r="E57" t="n">
-        <v>9.369999999999999</v>
+        <v>14</v>
       </c>
       <c r="F57" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G57" t="n">
-        <v>9.93</v>
-      </c>
-      <c r="H57" t="n">
-        <v>19.355</v>
-      </c>
-      <c r="I57" t="n">
-        <v>5.924999999999999</v>
-      </c>
-      <c r="J57" t="n">
-        <v>9.005000000000001</v>
+        <v>35.13</v>
       </c>
     </row>
     <row r="58">
@@ -2354,31 +1837,19 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>24.27</v>
+        <v>30.88</v>
       </c>
       <c r="C58" t="n">
-        <v>23.26</v>
+        <v>14.73</v>
       </c>
       <c r="D58" t="n">
-        <v>21.68</v>
+        <v>20.28</v>
       </c>
       <c r="E58" t="n">
-        <v>10.87</v>
+        <v>13.6</v>
       </c>
       <c r="F58" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G58" t="n">
-        <v>9.630000000000001</v>
-      </c>
-      <c r="H58" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="I58" t="n">
-        <v>7.164999999999999</v>
-      </c>
-      <c r="J58" t="n">
-        <v>8.81</v>
+        <v>35.52</v>
       </c>
     </row>
     <row r="59">
@@ -2386,31 +1857,19 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>24.21</v>
+        <v>30.61</v>
       </c>
       <c r="C59" t="n">
-        <v>23.03</v>
+        <v>15.1</v>
       </c>
       <c r="D59" t="n">
-        <v>24.23</v>
+        <v>20.05</v>
       </c>
       <c r="E59" t="n">
-        <v>12.37</v>
+        <v>13.41</v>
       </c>
       <c r="F59" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G59" t="n">
-        <v>9.31</v>
-      </c>
-      <c r="H59" t="n">
-        <v>16.245</v>
-      </c>
-      <c r="I59" t="n">
-        <v>8.425000000000001</v>
-      </c>
-      <c r="J59" t="n">
-        <v>8.665000000000003</v>
+        <v>35.83</v>
       </c>
     </row>
     <row r="60">
@@ -2418,31 +1877,19 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>23.8</v>
+        <v>30.26</v>
       </c>
       <c r="C60" t="n">
-        <v>22.71</v>
+        <v>15.62</v>
       </c>
       <c r="D60" t="n">
-        <v>26.23</v>
+        <v>19.81</v>
       </c>
       <c r="E60" t="n">
-        <v>13.32</v>
+        <v>13.23</v>
       </c>
       <c r="F60" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G60" t="n">
-        <v>10.51</v>
-      </c>
-      <c r="H60" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="I60" t="n">
-        <v>9.703999999999999</v>
-      </c>
-      <c r="J60" t="n">
-        <v>8.52</v>
+        <v>36.08</v>
       </c>
     </row>
     <row r="61">
@@ -2450,31 +1897,19 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>23.4</v>
+        <v>30.11</v>
       </c>
       <c r="C61" t="n">
-        <v>22.49</v>
+        <v>16.42</v>
       </c>
       <c r="D61" t="n">
-        <v>28.29</v>
+        <v>19.52</v>
       </c>
       <c r="E61" t="n">
-        <v>14.26</v>
+        <v>13.04</v>
       </c>
       <c r="F61" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G61" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="H61" t="n">
-        <v>13.175</v>
-      </c>
-      <c r="I61" t="n">
-        <v>10.908</v>
-      </c>
-      <c r="J61" t="n">
-        <v>8.355</v>
+        <v>35.91</v>
       </c>
     </row>
     <row r="62">
@@ -2482,31 +1917,19 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>22.24</v>
+        <v>29.96</v>
       </c>
       <c r="C62" t="n">
-        <v>22.27</v>
+        <v>17.29</v>
       </c>
       <c r="D62" t="n">
-        <v>30.31</v>
+        <v>19.15</v>
       </c>
       <c r="E62" t="n">
-        <v>15.55</v>
+        <v>12.9</v>
       </c>
       <c r="F62" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G62" t="n">
-        <v>12.94</v>
-      </c>
-      <c r="H62" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="I62" t="n">
-        <v>12.392</v>
-      </c>
-      <c r="J62" t="n">
-        <v>8.139999999999999</v>
+        <v>35.7</v>
       </c>
     </row>
     <row r="63">
@@ -2514,31 +1937,19 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>20.11</v>
+        <v>29.81</v>
       </c>
       <c r="C63" t="n">
-        <v>22.05</v>
+        <v>18.06</v>
       </c>
       <c r="D63" t="n">
-        <v>33.52</v>
+        <v>18.85</v>
       </c>
       <c r="E63" t="n">
-        <v>15.84</v>
+        <v>12.76</v>
       </c>
       <c r="F63" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G63" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="H63" t="n">
-        <v>10.185</v>
-      </c>
-      <c r="I63" t="n">
-        <v>13.356</v>
-      </c>
-      <c r="J63" t="n">
-        <v>7.935</v>
+        <v>35.52</v>
       </c>
     </row>
     <row r="64">
@@ -2546,31 +1957,19 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>18.76</v>
+        <v>29.66</v>
       </c>
       <c r="C64" t="n">
-        <v>21.82</v>
+        <v>18.71</v>
       </c>
       <c r="D64" t="n">
+        <v>18.67</v>
+      </c>
+      <c r="E64" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="F64" t="n">
         <v>35.34</v>
-      </c>
-      <c r="E64" t="n">
-        <v>15.88</v>
-      </c>
-      <c r="F64" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G64" t="n">
-        <v>15.97</v>
-      </c>
-      <c r="H64" t="n">
-        <v>8.73</v>
-      </c>
-      <c r="I64" t="n">
-        <v>14.32</v>
-      </c>
-      <c r="J64" t="n">
-        <v>8.735000000000001</v>
       </c>
     </row>
     <row r="65">
@@ -2578,31 +1977,19 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>17.41</v>
+        <v>29.43</v>
       </c>
       <c r="C65" t="n">
-        <v>21.67</v>
+        <v>19.48</v>
       </c>
       <c r="D65" t="n">
-        <v>37.24</v>
+        <v>18.47</v>
       </c>
       <c r="E65" t="n">
-        <v>14.93</v>
+        <v>12.46</v>
       </c>
       <c r="F65" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G65" t="n">
-        <v>18.29</v>
-      </c>
-      <c r="H65" t="n">
-        <v>7.280000000000001</v>
-      </c>
-      <c r="I65" t="n">
-        <v>15.294</v>
-      </c>
-      <c r="J65" t="n">
-        <v>8.535</v>
+        <v>35.16</v>
       </c>
     </row>
     <row r="66">
@@ -2610,31 +1997,19 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>15.95</v>
+        <v>29.52</v>
       </c>
       <c r="C66" t="n">
-        <v>21.51</v>
+        <v>19.92</v>
       </c>
       <c r="D66" t="n">
-        <v>37.75</v>
+        <v>18.28</v>
       </c>
       <c r="E66" t="n">
-        <v>13.97</v>
+        <v>12.3</v>
       </c>
       <c r="F66" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G66" t="n">
-        <v>20.17</v>
-      </c>
-      <c r="H66" t="n">
-        <v>6.755000000000001</v>
-      </c>
-      <c r="I66" t="n">
-        <v>16.198</v>
-      </c>
-      <c r="J66" t="n">
-        <v>8.34</v>
+        <v>34.98</v>
       </c>
     </row>
     <row r="67">
@@ -2642,31 +2017,19 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>14.54</v>
+        <v>29.57</v>
       </c>
       <c r="C67" t="n">
-        <v>21.35</v>
+        <v>20.4</v>
       </c>
       <c r="D67" t="n">
-        <v>38.19</v>
+        <v>18.15</v>
       </c>
       <c r="E67" t="n">
-        <v>13.08</v>
+        <v>12.14</v>
       </c>
       <c r="F67" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G67" t="n">
-        <v>22.11</v>
-      </c>
-      <c r="H67" t="n">
-        <v>6.167000000000002</v>
-      </c>
-      <c r="I67" t="n">
-        <v>17.107</v>
-      </c>
-      <c r="J67" t="n">
-        <v>8.1</v>
+        <v>34.73</v>
       </c>
     </row>
     <row r="68">
@@ -2674,31 +2037,19 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>13.14</v>
+        <v>29.64</v>
       </c>
       <c r="C68" t="n">
-        <v>21.23</v>
+        <v>20.8</v>
       </c>
       <c r="D68" t="n">
-        <v>38.67</v>
+        <v>18.03</v>
       </c>
       <c r="E68" t="n">
-        <v>12.3</v>
+        <v>12.09</v>
       </c>
       <c r="F68" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G68" t="n">
-        <v>23.99</v>
-      </c>
-      <c r="H68" t="n">
-        <v>6.104000000000002</v>
-      </c>
-      <c r="I68" t="n">
-        <v>17.896</v>
-      </c>
-      <c r="J68" t="n">
-        <v>7.325</v>
+        <v>34.48</v>
       </c>
     </row>
     <row r="69">
@@ -2706,31 +2057,19 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>11.69</v>
+        <v>29.79</v>
       </c>
       <c r="C69" t="n">
         <v>21.11</v>
       </c>
       <c r="D69" t="n">
-        <v>39.15</v>
+        <v>17.86</v>
       </c>
       <c r="E69" t="n">
-        <v>11.52</v>
+        <v>12.06</v>
       </c>
       <c r="F69" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G69" t="n">
-        <v>25.91</v>
-      </c>
-      <c r="H69" t="n">
-        <v>5.996000000000002</v>
-      </c>
-      <c r="I69" t="n">
-        <v>18.64</v>
-      </c>
-      <c r="J69" t="n">
-        <v>6.645</v>
+        <v>34.26</v>
       </c>
     </row>
     <row r="70">
@@ -2738,31 +2077,19 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>10.43</v>
+        <v>29.98</v>
       </c>
       <c r="C70" t="n">
-        <v>21.03</v>
+        <v>21.05</v>
       </c>
       <c r="D70" t="n">
-        <v>40.44</v>
+        <v>18.4</v>
       </c>
       <c r="E70" t="n">
-        <v>11.29</v>
+        <v>12.03</v>
       </c>
       <c r="F70" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G70" t="n">
-        <v>26.24</v>
-      </c>
-      <c r="H70" t="n">
-        <v>5.828000000000001</v>
-      </c>
-      <c r="I70" t="n">
-        <v>19.435</v>
-      </c>
-      <c r="J70" t="n">
-        <v>5.965</v>
+        <v>33.62</v>
       </c>
     </row>
     <row r="71">
@@ -2770,31 +2097,19 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>9.16</v>
+        <v>30.06</v>
       </c>
       <c r="C71" t="n">
-        <v>20.86</v>
+        <v>21.02</v>
       </c>
       <c r="D71" t="n">
-        <v>41.66</v>
+        <v>19</v>
       </c>
       <c r="E71" t="n">
-        <v>10.88</v>
+        <v>12</v>
       </c>
       <c r="F71" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G71" t="n">
-        <v>26.61</v>
-      </c>
-      <c r="H71" t="n">
-        <v>5.650000000000001</v>
-      </c>
-      <c r="I71" t="n">
-        <v>20.22</v>
-      </c>
-      <c r="J71" t="n">
-        <v>5.617</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72">
@@ -2802,31 +2117,19 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>8.73</v>
+        <v>30.07</v>
       </c>
       <c r="C72" t="n">
-        <v>20.65</v>
+        <v>21.03</v>
       </c>
       <c r="D72" t="n">
-        <v>42.9</v>
+        <v>19.59</v>
       </c>
       <c r="E72" t="n">
-        <v>10.43</v>
+        <v>11.97</v>
       </c>
       <c r="F72" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G72" t="n">
-        <v>26.92</v>
-      </c>
-      <c r="H72" t="n">
-        <v>5.027000000000001</v>
-      </c>
-      <c r="I72" t="n">
-        <v>20.68</v>
-      </c>
-      <c r="J72" t="n">
-        <v>5.319</v>
+        <v>32.42</v>
       </c>
     </row>
     <row r="73">
@@ -2834,31 +2137,19 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>9.26</v>
+        <v>30.08</v>
       </c>
       <c r="C73" t="n">
-        <v>20.65</v>
+        <v>21.06</v>
       </c>
       <c r="D73" t="n">
-        <v>42.85</v>
+        <v>20.18</v>
       </c>
       <c r="E73" t="n">
-        <v>9.880000000000001</v>
+        <v>11.94</v>
       </c>
       <c r="F73" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G73" t="n">
-        <v>27.28</v>
-      </c>
-      <c r="H73" t="n">
-        <v>5.404000000000001</v>
-      </c>
-      <c r="I73" t="n">
-        <v>21.29</v>
-      </c>
-      <c r="J73" t="n">
-        <v>5.020999999999999</v>
+        <v>31.81</v>
       </c>
     </row>
     <row r="74">
@@ -2866,31 +2157,19 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>9.359999999999999</v>
+        <v>30.04</v>
       </c>
       <c r="C74" t="n">
-        <v>20.65</v>
+        <v>20.83</v>
       </c>
       <c r="D74" t="n">
-        <v>42.82</v>
+        <v>21.15</v>
       </c>
       <c r="E74" t="n">
-        <v>9.58</v>
+        <v>11.85</v>
       </c>
       <c r="F74" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G74" t="n">
-        <v>28.04</v>
-      </c>
-      <c r="H74" t="n">
-        <v>5.501</v>
-      </c>
-      <c r="I74" t="n">
-        <v>21.89</v>
-      </c>
-      <c r="J74" t="n">
-        <v>4.723</v>
+        <v>31.2</v>
       </c>
     </row>
     <row r="75">
@@ -2898,31 +2177,19 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>9.460000000000001</v>
+        <v>30.09</v>
       </c>
       <c r="C75" t="n">
-        <v>20.66</v>
+        <v>20.44</v>
       </c>
       <c r="D75" t="n">
-        <v>43.1</v>
+        <v>22.18</v>
       </c>
       <c r="E75" t="n">
-        <v>9.27</v>
+        <v>11.79</v>
       </c>
       <c r="F75" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G75" t="n">
-        <v>28.69</v>
-      </c>
-      <c r="H75" t="n">
-        <v>5.518000000000001</v>
-      </c>
-      <c r="I75" t="n">
-        <v>22.39</v>
-      </c>
-      <c r="J75" t="n">
-        <v>6.415000000000001</v>
+        <v>30.59</v>
       </c>
     </row>
     <row r="76">
@@ -2930,31 +2197,19 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>10</v>
+        <v>30.12</v>
       </c>
       <c r="C76" t="n">
-        <v>20.66</v>
+        <v>20.11</v>
       </c>
       <c r="D76" t="n">
-        <v>43.44</v>
+        <v>23.2</v>
       </c>
       <c r="E76" t="n">
-        <v>8.92</v>
+        <v>11.66</v>
       </c>
       <c r="F76" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G76" t="n">
-        <v>28.76</v>
-      </c>
-      <c r="H76" t="n">
-        <v>5.49</v>
-      </c>
-      <c r="I76" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="J76" t="n">
-        <v>7.827000000000001</v>
+        <v>29.98</v>
       </c>
     </row>
     <row r="77">
@@ -2962,31 +2217,19 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>10.48</v>
+        <v>30.11</v>
       </c>
       <c r="C77" t="n">
-        <v>20.67</v>
+        <v>19.63</v>
       </c>
       <c r="D77" t="n">
-        <v>43.85</v>
+        <v>24.18</v>
       </c>
       <c r="E77" t="n">
-        <v>8.52</v>
+        <v>11.53</v>
       </c>
       <c r="F77" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G77" t="n">
-        <v>28.71</v>
-      </c>
-      <c r="H77" t="n">
-        <v>5.515000000000001</v>
-      </c>
-      <c r="I77" t="n">
-        <v>24.935</v>
-      </c>
-      <c r="J77" t="n">
-        <v>8.818999999999999</v>
+        <v>29.63</v>
       </c>
     </row>
     <row r="78">
@@ -2994,31 +2237,19 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>11.03</v>
+        <v>30.07</v>
       </c>
       <c r="C78" t="n">
-        <v>20.62</v>
+        <v>19.2</v>
       </c>
       <c r="D78" t="n">
-        <v>44.25</v>
+        <v>25.16</v>
       </c>
       <c r="E78" t="n">
-        <v>8.43</v>
+        <v>11.33</v>
       </c>
       <c r="F78" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G78" t="n">
-        <v>28.71</v>
-      </c>
-      <c r="H78" t="n">
-        <v>5.535</v>
-      </c>
-      <c r="I78" t="n">
-        <v>25.418</v>
-      </c>
-      <c r="J78" t="n">
-        <v>10.506</v>
+        <v>29.27</v>
       </c>
     </row>
     <row r="79">
@@ -3026,31 +2257,19 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>11.61</v>
+        <v>30.01</v>
       </c>
       <c r="C79" t="n">
-        <v>20.58</v>
+        <v>18.75</v>
       </c>
       <c r="D79" t="n">
-        <v>44.66</v>
+        <v>26.2</v>
       </c>
       <c r="E79" t="n">
-        <v>8.35</v>
+        <v>11.08</v>
       </c>
       <c r="F79" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G79" t="n">
-        <v>28.69</v>
-      </c>
-      <c r="H79" t="n">
-        <v>5.555000000000001</v>
-      </c>
-      <c r="I79" t="n">
-        <v>25.901</v>
-      </c>
-      <c r="J79" t="n">
-        <v>12.163</v>
+        <v>28.96</v>
       </c>
     </row>
     <row r="80">
@@ -3058,31 +2277,19 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>12.23</v>
+        <v>29.98</v>
       </c>
       <c r="C80" t="n">
-        <v>20.47</v>
+        <v>18.57</v>
       </c>
       <c r="D80" t="n">
-        <v>44.8</v>
+        <v>26.59</v>
       </c>
       <c r="E80" t="n">
-        <v>8.140000000000001</v>
+        <v>10.82</v>
       </c>
       <c r="F80" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G80" t="n">
-        <v>28.61</v>
-      </c>
-      <c r="H80" t="n">
-        <v>6.065</v>
-      </c>
-      <c r="I80" t="n">
-        <v>26.364</v>
-      </c>
-      <c r="J80" t="n">
-        <v>13.82</v>
+        <v>29.04</v>
       </c>
     </row>
     <row r="81">
@@ -3090,31 +2297,19 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>12.78</v>
+        <v>29.89</v>
       </c>
       <c r="C81" t="n">
-        <v>20.44</v>
+        <v>18.29</v>
       </c>
       <c r="D81" t="n">
-        <v>44.94</v>
+        <v>27.14</v>
       </c>
       <c r="E81" t="n">
-        <v>8.119999999999999</v>
+        <v>10.56</v>
       </c>
       <c r="F81" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G81" t="n">
-        <v>29.11</v>
-      </c>
-      <c r="H81" t="n">
-        <v>6.505000000000001</v>
-      </c>
-      <c r="I81" t="n">
-        <v>26.757</v>
-      </c>
-      <c r="J81" t="n">
-        <v>14.855</v>
+        <v>29.12</v>
       </c>
     </row>
     <row r="82">
@@ -3122,31 +2317,19 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>12.66</v>
+        <v>29.83</v>
       </c>
       <c r="C82" t="n">
-        <v>20.52</v>
+        <v>17.91</v>
       </c>
       <c r="D82" t="n">
-        <v>45.12</v>
+        <v>27.68</v>
       </c>
       <c r="E82" t="n">
-        <v>8.130000000000001</v>
+        <v>10.31</v>
       </c>
       <c r="F82" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G82" t="n">
-        <v>29.64</v>
-      </c>
-      <c r="H82" t="n">
-        <v>7.390000000000001</v>
-      </c>
-      <c r="I82" t="n">
-        <v>27.195</v>
-      </c>
-      <c r="J82" t="n">
-        <v>15.845</v>
+        <v>29.27</v>
       </c>
     </row>
     <row r="83">
@@ -3154,31 +2337,19 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>12.15</v>
+        <v>29.71</v>
       </c>
       <c r="C83" t="n">
-        <v>20.38</v>
+        <v>16.99</v>
       </c>
       <c r="D83" t="n">
-        <v>45.39</v>
+        <v>28.23</v>
       </c>
       <c r="E83" t="n">
-        <v>8.18</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="F83" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G83" t="n">
-        <v>30.13</v>
-      </c>
-      <c r="H83" t="n">
-        <v>7.275</v>
-      </c>
-      <c r="I83" t="n">
-        <v>27.653</v>
-      </c>
-      <c r="J83" t="n">
-        <v>17.335</v>
+        <v>30.09</v>
       </c>
     </row>
     <row r="84">
@@ -3186,31 +2357,19 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>11.64</v>
+        <v>29.64</v>
       </c>
       <c r="C84" t="n">
-        <v>20.25</v>
+        <v>16.35</v>
       </c>
       <c r="D84" t="n">
-        <v>45.83</v>
+        <v>28.41</v>
       </c>
       <c r="E84" t="n">
-        <v>8.19</v>
+        <v>9.69</v>
       </c>
       <c r="F84" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G84" t="n">
-        <v>30.26</v>
-      </c>
-      <c r="H84" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="I84" t="n">
-        <v>28.121</v>
-      </c>
-      <c r="J84" t="n">
-        <v>18.77</v>
+        <v>30.91</v>
       </c>
     </row>
     <row r="85">
@@ -3218,31 +2377,19 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>11.08</v>
+        <v>29.51</v>
       </c>
       <c r="C85" t="n">
-        <v>19.8</v>
+        <v>15.77</v>
       </c>
       <c r="D85" t="n">
-        <v>45.96</v>
+        <v>28.58</v>
       </c>
       <c r="E85" t="n">
-        <v>8.16</v>
+        <v>9.41</v>
       </c>
       <c r="F85" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G85" t="n">
-        <v>30.48</v>
-      </c>
-      <c r="H85" t="n">
-        <v>7.675</v>
-      </c>
-      <c r="I85" t="n">
-        <v>28.639</v>
-      </c>
-      <c r="J85" t="n">
-        <v>18.69</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="86">
@@ -3250,31 +2397,19 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>10.52</v>
+        <v>29.09</v>
       </c>
       <c r="C86" t="n">
-        <v>19.69</v>
+        <v>15.38</v>
       </c>
       <c r="D86" t="n">
-        <v>46.02</v>
+        <v>28.68</v>
       </c>
       <c r="E86" t="n">
-        <v>8.1</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="F86" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G86" t="n">
-        <v>30.63</v>
-      </c>
-      <c r="H86" t="n">
-        <v>7.949999999999998</v>
-      </c>
-      <c r="I86" t="n">
-        <v>28.647</v>
-      </c>
-      <c r="J86" t="n">
-        <v>18.94</v>
+        <v>32.47</v>
       </c>
     </row>
     <row r="87">
@@ -3282,31 +2417,19 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>9.91</v>
+        <v>28.89</v>
       </c>
       <c r="C87" t="n">
-        <v>19.53</v>
+        <v>15.04</v>
       </c>
       <c r="D87" t="n">
-        <v>46.02</v>
+        <v>28.79</v>
       </c>
       <c r="E87" t="n">
-        <v>8.029999999999999</v>
+        <v>9.33</v>
       </c>
       <c r="F87" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G87" t="n">
-        <v>31.12</v>
-      </c>
-      <c r="H87" t="n">
-        <v>8.234999999999999</v>
-      </c>
-      <c r="I87" t="n">
-        <v>28.085</v>
-      </c>
-      <c r="J87" t="n">
-        <v>19.57</v>
+        <v>32.95</v>
       </c>
     </row>
     <row r="88">
@@ -3314,31 +2437,19 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>9.369999999999999</v>
+        <v>28.78</v>
       </c>
       <c r="C88" t="n">
-        <v>19.41</v>
+        <v>14.64</v>
       </c>
       <c r="D88" t="n">
-        <v>45.98</v>
+        <v>28.84</v>
       </c>
       <c r="E88" t="n">
-        <v>7.64</v>
+        <v>9.31</v>
       </c>
       <c r="F88" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G88" t="n">
-        <v>31.61</v>
-      </c>
-      <c r="H88" t="n">
-        <v>8.525</v>
-      </c>
-      <c r="I88" t="n">
-        <v>27.75</v>
-      </c>
-      <c r="J88" t="n">
-        <v>20.2</v>
+        <v>33.44</v>
       </c>
     </row>
     <row r="89">
@@ -3346,31 +2457,19 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>8.84</v>
+        <v>28.46</v>
       </c>
       <c r="C89" t="n">
-        <v>19.29</v>
+        <v>14.45</v>
       </c>
       <c r="D89" t="n">
-        <v>45.94</v>
+        <v>28.89</v>
       </c>
       <c r="E89" t="n">
-        <v>7.26</v>
+        <v>9.31</v>
       </c>
       <c r="F89" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G89" t="n">
-        <v>32.08</v>
-      </c>
-      <c r="H89" t="n">
-        <v>8.859999999999999</v>
-      </c>
-      <c r="I89" t="n">
-        <v>27.58</v>
-      </c>
-      <c r="J89" t="n">
-        <v>20.65</v>
+        <v>33.89</v>
       </c>
     </row>
     <row r="90">
@@ -3378,34 +2477,19 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>8.289999999999999</v>
+        <v>28.15</v>
       </c>
       <c r="C90" t="n">
-        <v>19.24</v>
+        <v>14.46</v>
       </c>
       <c r="D90" t="n">
-        <v>45.9</v>
+        <v>28.69</v>
       </c>
       <c r="E90" t="n">
-        <v>6.99</v>
+        <v>9.31</v>
       </c>
       <c r="F90" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G90" t="n">
-        <v>32.66</v>
-      </c>
-      <c r="H90" t="n">
-        <v>8.719999999999999</v>
-      </c>
-      <c r="I90" t="n">
-        <v>27.43</v>
-      </c>
-      <c r="J90" t="n">
-        <v>21.245</v>
-      </c>
-      <c r="K90" t="n">
-        <v>10</v>
+        <v>34.39</v>
       </c>
     </row>
     <row r="91">
@@ -3413,34 +2497,19 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>8.65</v>
+        <v>27.84</v>
       </c>
       <c r="C91" t="n">
-        <v>18.51</v>
+        <v>14.62</v>
       </c>
       <c r="D91" t="n">
-        <v>45.88</v>
+        <v>28.34</v>
       </c>
       <c r="E91" t="n">
-        <v>6.68</v>
+        <v>9.31</v>
       </c>
       <c r="F91" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G91" t="n">
-        <v>32.68</v>
-      </c>
-      <c r="H91" t="n">
-        <v>8.649999999999999</v>
-      </c>
-      <c r="I91" t="n">
-        <v>27.36</v>
-      </c>
-      <c r="J91" t="n">
-        <v>22.09</v>
-      </c>
-      <c r="K91" t="n">
-        <v>11.435</v>
+        <v>34.89</v>
       </c>
     </row>
     <row r="92">
@@ -3448,34 +2517,19 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>9.01</v>
+        <v>27.54</v>
       </c>
       <c r="C92" t="n">
-        <v>17.71</v>
+        <v>14.78</v>
       </c>
       <c r="D92" t="n">
-        <v>45.84</v>
+        <v>27.99</v>
       </c>
       <c r="E92" t="n">
-        <v>6.37</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="F92" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G92" t="n">
-        <v>32.69</v>
-      </c>
-      <c r="H92" t="n">
-        <v>8.514999999999999</v>
-      </c>
-      <c r="I92" t="n">
-        <v>27.108</v>
-      </c>
-      <c r="J92" t="n">
-        <v>22.97000000000001</v>
-      </c>
-      <c r="K92" t="n">
-        <v>11.91333333333333</v>
+        <v>35.38</v>
       </c>
     </row>
     <row r="93">
@@ -3483,34 +2537,19 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>9.85</v>
+        <v>26.85</v>
       </c>
       <c r="C93" t="n">
-        <v>16.9</v>
+        <v>15.93</v>
       </c>
       <c r="D93" t="n">
-        <v>45.8</v>
+        <v>27.65</v>
       </c>
       <c r="E93" t="n">
-        <v>6.1</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="F93" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G93" t="n">
-        <v>32.75</v>
-      </c>
-      <c r="H93" t="n">
-        <v>8.32</v>
-      </c>
-      <c r="I93" t="n">
-        <v>26.856</v>
-      </c>
-      <c r="J93" t="n">
-        <v>23.345</v>
-      </c>
-      <c r="K93" t="n">
-        <v>12.1525</v>
+        <v>35.2</v>
       </c>
     </row>
     <row r="94">
@@ -3518,34 +2557,19 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>10.61</v>
+        <v>26.09</v>
       </c>
       <c r="C94" t="n">
-        <v>15.93</v>
+        <v>17.17</v>
       </c>
       <c r="D94" t="n">
-        <v>46.84</v>
+        <v>27.3</v>
       </c>
       <c r="E94" t="n">
-        <v>5.83</v>
+        <v>9.42</v>
       </c>
       <c r="F94" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G94" t="n">
-        <v>31.92</v>
-      </c>
-      <c r="H94" t="n">
-        <v>8.120000000000001</v>
-      </c>
-      <c r="I94" t="n">
-        <v>26.604</v>
-      </c>
-      <c r="J94" t="n">
-        <v>23.775</v>
-      </c>
-      <c r="K94" t="n">
-        <v>12.276</v>
+        <v>35.02</v>
       </c>
     </row>
     <row r="95">
@@ -3553,34 +2577,19 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>11.42</v>
+        <v>25.37</v>
       </c>
       <c r="C95" t="n">
-        <v>15.28</v>
+        <v>18.23</v>
       </c>
       <c r="D95" t="n">
-        <v>47.82</v>
+        <v>27.99</v>
       </c>
       <c r="E95" t="n">
-        <v>5.61</v>
+        <v>8.57</v>
       </c>
       <c r="F95" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G95" t="n">
-        <v>31.04</v>
-      </c>
-      <c r="H95" t="n">
-        <v>7.930000000000001</v>
-      </c>
-      <c r="I95" t="n">
-        <v>26.30700000000001</v>
-      </c>
-      <c r="J95" t="n">
-        <v>23.945</v>
-      </c>
-      <c r="K95" t="n">
-        <v>12.29166666666667</v>
+        <v>34.84</v>
       </c>
     </row>
     <row r="96">
@@ -3588,34 +2597,19 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>12.22</v>
+        <v>25.33</v>
       </c>
       <c r="C96" t="n">
-        <v>14.3</v>
+        <v>18.63</v>
       </c>
       <c r="D96" t="n">
-        <v>48.88</v>
+        <v>28.75</v>
       </c>
       <c r="E96" t="n">
-        <v>5.6</v>
+        <v>7.57</v>
       </c>
       <c r="F96" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G96" t="n">
-        <v>30.21</v>
-      </c>
-      <c r="H96" t="n">
-        <v>7.745</v>
-      </c>
-      <c r="I96" t="n">
-        <v>26.05</v>
-      </c>
-      <c r="J96" t="n">
-        <v>24.115</v>
-      </c>
-      <c r="K96" t="n">
-        <v>12.22428571428571</v>
+        <v>34.72</v>
       </c>
     </row>
     <row r="97">
@@ -3623,34 +2617,19 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>13.29</v>
+        <v>25.17</v>
       </c>
       <c r="C97" t="n">
-        <v>13.36</v>
+        <v>20.02</v>
       </c>
       <c r="D97" t="n">
-        <v>49.99</v>
+        <v>28.63</v>
       </c>
       <c r="E97" t="n">
-        <v>5.59</v>
+        <v>6.57</v>
       </c>
       <c r="F97" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G97" t="n">
-        <v>29.07</v>
-      </c>
-      <c r="H97" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="I97" t="n">
-        <v>25.788</v>
-      </c>
-      <c r="J97" t="n">
-        <v>24.28</v>
-      </c>
-      <c r="K97" t="n">
-        <v>12.16125</v>
+        <v>34.61</v>
       </c>
     </row>
     <row r="98">
@@ -3658,34 +2637,19 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>13.39</v>
+        <v>24.9</v>
       </c>
       <c r="C98" t="n">
-        <v>12.42</v>
+        <v>21.45</v>
       </c>
       <c r="D98" t="n">
-        <v>51.14</v>
+        <v>28.56</v>
       </c>
       <c r="E98" t="n">
-        <v>5.54</v>
+        <v>5.58</v>
       </c>
       <c r="F98" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G98" t="n">
-        <v>27.88</v>
-      </c>
-      <c r="H98" t="n">
-        <v>7.375</v>
-      </c>
-      <c r="I98" t="n">
-        <v>25.536</v>
-      </c>
-      <c r="J98" t="n">
-        <v>25.482</v>
-      </c>
-      <c r="K98" t="n">
-        <v>12.06777777777778</v>
+        <v>34.51</v>
       </c>
     </row>
     <row r="99">
@@ -3693,34 +2657,19 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>13.94</v>
+        <v>24.85</v>
       </c>
       <c r="C99" t="n">
-        <v>11.48</v>
+        <v>22.61</v>
       </c>
       <c r="D99" t="n">
-        <v>52.29</v>
+        <v>28.47</v>
       </c>
       <c r="E99" t="n">
-        <v>5.45</v>
+        <v>4.62</v>
       </c>
       <c r="F99" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G99" t="n">
-        <v>26.74</v>
-      </c>
-      <c r="H99" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="I99" t="n">
-        <v>24.824</v>
-      </c>
-      <c r="J99" t="n">
-        <v>26.749</v>
-      </c>
-      <c r="K99" t="n">
-        <v>11.993</v>
+        <v>34.45</v>
       </c>
     </row>
     <row r="100">
@@ -3728,34 +2677,19 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>14.54</v>
+        <v>24.85</v>
       </c>
       <c r="C100" t="n">
-        <v>10.6</v>
+        <v>23.5</v>
       </c>
       <c r="D100" t="n">
-        <v>55.72</v>
+        <v>28.56</v>
       </c>
       <c r="E100" t="n">
-        <v>5.36</v>
+        <v>3.66</v>
       </c>
       <c r="F100" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G100" t="n">
-        <v>25.58</v>
-      </c>
-      <c r="H100" t="n">
-        <v>8.275000000000002</v>
-      </c>
-      <c r="I100" t="n">
-        <v>24.112</v>
-      </c>
-      <c r="J100" t="n">
-        <v>24.307</v>
-      </c>
-      <c r="K100" t="n">
-        <v>11.993</v>
+        <v>34.43</v>
       </c>
     </row>
     <row r="101">
@@ -3763,34 +2697,19 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>14.31</v>
+        <v>24.89</v>
       </c>
       <c r="C101" t="n">
-        <v>10.41</v>
+        <v>24.3</v>
       </c>
       <c r="D101" t="n">
-        <v>59.12</v>
+        <v>28.65</v>
       </c>
       <c r="E101" t="n">
-        <v>5.32</v>
+        <v>2.73</v>
       </c>
       <c r="F101" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G101" t="n">
-        <v>24.32</v>
-      </c>
-      <c r="H101" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="I101" t="n">
-        <v>23.58</v>
-      </c>
-      <c r="J101" t="n">
-        <v>21.925</v>
-      </c>
-      <c r="K101" t="n">
-        <v>12.105</v>
+        <v>34.43</v>
       </c>
     </row>
     <row r="102">
@@ -3798,34 +2717,19 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>14.07</v>
+        <v>24.89</v>
       </c>
       <c r="C102" t="n">
-        <v>9.609999999999999</v>
+        <v>25.22</v>
       </c>
       <c r="D102" t="n">
-        <v>62.49</v>
+        <v>28.75</v>
       </c>
       <c r="E102" t="n">
-        <v>5.25</v>
+        <v>1.81</v>
       </c>
       <c r="F102" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G102" t="n">
-        <v>23.95</v>
-      </c>
-      <c r="H102" t="n">
-        <v>10.585</v>
-      </c>
-      <c r="I102" t="n">
-        <v>23.089</v>
-      </c>
-      <c r="J102" t="n">
-        <v>19.553</v>
-      </c>
-      <c r="K102" t="n">
-        <v>11.894</v>
+        <v>34.33</v>
       </c>
     </row>
     <row r="103">
@@ -3833,34 +2737,19 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>13.76</v>
+        <v>25.37</v>
       </c>
       <c r="C103" t="n">
-        <v>8.789999999999999</v>
+        <v>25.73</v>
       </c>
       <c r="D103" t="n">
-        <v>66.05</v>
+        <v>28.82</v>
       </c>
       <c r="E103" t="n">
-        <v>5.15</v>
+        <v>0.9</v>
       </c>
       <c r="F103" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G103" t="n">
-        <v>23.52</v>
-      </c>
-      <c r="H103" t="n">
-        <v>11.82</v>
-      </c>
-      <c r="I103" t="n">
-        <v>22.568</v>
-      </c>
-      <c r="J103" t="n">
-        <v>17.186</v>
-      </c>
-      <c r="K103" t="n">
-        <v>11.653</v>
+        <v>34.18</v>
       </c>
     </row>
     <row r="104">
@@ -3868,34 +2757,19 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>13.52</v>
+        <v>25.87</v>
       </c>
       <c r="C104" t="n">
-        <v>8.119999999999999</v>
+        <v>26.24</v>
       </c>
       <c r="D104" t="n">
-        <v>68.34</v>
+        <v>28.88</v>
       </c>
       <c r="E104" t="n">
-        <v>5.11</v>
+        <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G104" t="n">
-        <v>24.02</v>
-      </c>
-      <c r="H104" t="n">
-        <v>13.05</v>
-      </c>
-      <c r="I104" t="n">
-        <v>22.137</v>
-      </c>
-      <c r="J104" t="n">
-        <v>16.819</v>
-      </c>
-      <c r="K104" t="n">
-        <v>11.392</v>
+        <v>34.01</v>
       </c>
     </row>
     <row r="105">
@@ -3903,34 +2777,19 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>13.23</v>
+        <v>26.37</v>
       </c>
       <c r="C105" t="n">
-        <v>9.449999999999999</v>
+        <v>26.84</v>
       </c>
       <c r="D105" t="n">
-        <v>70.63</v>
+        <v>27.96</v>
       </c>
       <c r="E105" t="n">
-        <v>5.06</v>
+        <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G105" t="n">
-        <v>24.96</v>
-      </c>
-      <c r="H105" t="n">
-        <v>14.28</v>
-      </c>
-      <c r="I105" t="n">
-        <v>21.80099999999999</v>
-      </c>
-      <c r="J105" t="n">
-        <v>15.967</v>
-      </c>
-      <c r="K105" t="n">
-        <v>11.131</v>
+        <v>33.83</v>
       </c>
     </row>
     <row r="106">
@@ -3938,34 +2797,19 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>12.95</v>
+        <v>26.12</v>
       </c>
       <c r="C106" t="n">
-        <v>10.77</v>
+        <v>28.16</v>
       </c>
       <c r="D106" t="n">
-        <v>72.93000000000001</v>
+        <v>27.05</v>
       </c>
       <c r="E106" t="n">
-        <v>4.87</v>
+        <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G106" t="n">
-        <v>25.93</v>
-      </c>
-      <c r="H106" t="n">
-        <v>15.51</v>
-      </c>
-      <c r="I106" t="n">
-        <v>21.505</v>
-      </c>
-      <c r="J106" t="n">
-        <v>15.13</v>
-      </c>
-      <c r="K106" t="n">
-        <v>10.905</v>
+        <v>33.67</v>
       </c>
     </row>
     <row r="107">
@@ -3973,34 +2817,19 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>12.44</v>
+        <v>25.89</v>
       </c>
       <c r="C107" t="n">
-        <v>12.11</v>
+        <v>28.45</v>
       </c>
       <c r="D107" t="n">
-        <v>75.11</v>
+        <v>27.14</v>
       </c>
       <c r="E107" t="n">
-        <v>5.34</v>
+        <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G107" t="n">
-        <v>26.95</v>
-      </c>
-      <c r="H107" t="n">
-        <v>16.73</v>
-      </c>
-      <c r="I107" t="n">
-        <v>21.154</v>
-      </c>
-      <c r="J107" t="n">
-        <v>13.933</v>
-      </c>
-      <c r="K107" t="n">
-        <v>10.724</v>
+        <v>33.52</v>
       </c>
     </row>
     <row r="108">
@@ -4008,34 +2837,19 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>13.3</v>
+        <v>25.64</v>
       </c>
       <c r="C108" t="n">
-        <v>13.45</v>
+        <v>28.7</v>
       </c>
       <c r="D108" t="n">
-        <v>77.31</v>
+        <v>27.22</v>
       </c>
       <c r="E108" t="n">
-        <v>5.86</v>
+        <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G108" t="n">
-        <v>27.59</v>
-      </c>
-      <c r="H108" t="n">
-        <v>17.94</v>
-      </c>
-      <c r="I108" t="n">
-        <v>20.803</v>
-      </c>
-      <c r="J108" t="n">
-        <v>11.689</v>
-      </c>
-      <c r="K108" t="n">
-        <v>10.553</v>
+        <v>33.44</v>
       </c>
     </row>
     <row r="109">
@@ -4043,34 +2857,19 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>13.69</v>
+        <v>25.34</v>
       </c>
       <c r="C109" t="n">
-        <v>14.79</v>
+        <v>28.83</v>
       </c>
       <c r="D109" t="n">
-        <v>79.5</v>
+        <v>27.26</v>
       </c>
       <c r="E109" t="n">
-        <v>6.43</v>
+        <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G109" t="n">
-        <v>28.21</v>
-      </c>
-      <c r="H109" t="n">
-        <v>19.18</v>
-      </c>
-      <c r="I109" t="n">
-        <v>20.792</v>
-      </c>
-      <c r="J109" t="n">
-        <v>9.434999999999999</v>
-      </c>
-      <c r="K109" t="n">
-        <v>10.472</v>
+        <v>33.57</v>
       </c>
     </row>
     <row r="110">
@@ -4078,34 +2877,19 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>14.09</v>
+        <v>24.99</v>
       </c>
       <c r="C110" t="n">
-        <v>16.13</v>
+        <v>28.97</v>
       </c>
       <c r="D110" t="n">
-        <v>79.41</v>
+        <v>27.31</v>
       </c>
       <c r="E110" t="n">
-        <v>5.92</v>
+        <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G110" t="n">
-        <v>31.37</v>
-      </c>
-      <c r="H110" t="n">
-        <v>19.05</v>
-      </c>
-      <c r="I110" t="n">
-        <v>20.716</v>
-      </c>
-      <c r="J110" t="n">
-        <v>9.434999999999999</v>
-      </c>
-      <c r="K110" t="n">
-        <v>10.381</v>
+        <v>33.73</v>
       </c>
     </row>
     <row r="111">
@@ -4113,34 +2897,19 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>14.47</v>
+        <v>24.66</v>
       </c>
       <c r="C111" t="n">
-        <v>17.48</v>
+        <v>28.93</v>
       </c>
       <c r="D111" t="n">
-        <v>79.31999999999999</v>
+        <v>27.54</v>
       </c>
       <c r="E111" t="n">
-        <v>6.42</v>
+        <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G111" t="n">
-        <v>34.71</v>
-      </c>
-      <c r="H111" t="n">
-        <v>18.92</v>
-      </c>
-      <c r="I111" t="n">
-        <v>20.46</v>
-      </c>
-      <c r="J111" t="n">
-        <v>9.434999999999999</v>
-      </c>
-      <c r="K111" t="n">
-        <v>10.29</v>
+        <v>33.87</v>
       </c>
     </row>
     <row r="112">
@@ -4148,34 +2917,19 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>14.84</v>
+        <v>24.32</v>
       </c>
       <c r="C112" t="n">
-        <v>19.98</v>
+        <v>28.77</v>
       </c>
       <c r="D112" t="n">
-        <v>79.16</v>
+        <v>27.85</v>
       </c>
       <c r="E112" t="n">
-        <v>6.95</v>
+        <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G112" t="n">
-        <v>37.14</v>
-      </c>
-      <c r="H112" t="n">
-        <v>18.555</v>
-      </c>
-      <c r="I112" t="n">
-        <v>20.225</v>
-      </c>
-      <c r="J112" t="n">
-        <v>13.435</v>
-      </c>
-      <c r="K112" t="n">
-        <v>10.215</v>
+        <v>34.06</v>
       </c>
     </row>
     <row r="113">
@@ -4183,34 +2937,19 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>15.2</v>
+        <v>23.99</v>
       </c>
       <c r="C113" t="n">
-        <v>22.49</v>
+        <v>28.51</v>
       </c>
       <c r="D113" t="n">
-        <v>78.66</v>
+        <v>28.18</v>
       </c>
       <c r="E113" t="n">
-        <v>7.41</v>
+        <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G113" t="n">
-        <v>39.64</v>
-      </c>
-      <c r="H113" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="I113" t="n">
-        <v>20.015</v>
-      </c>
-      <c r="J113" t="n">
-        <v>17.435</v>
-      </c>
-      <c r="K113" t="n">
-        <v>10.445</v>
+        <v>34.32</v>
       </c>
     </row>
     <row r="114">
@@ -4218,34 +2957,19 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>15.51</v>
+        <v>23.48</v>
       </c>
       <c r="C114" t="n">
-        <v>25.03</v>
+        <v>28.46</v>
       </c>
       <c r="D114" t="n">
-        <v>78.18000000000001</v>
+        <v>28.46</v>
       </c>
       <c r="E114" t="n">
-        <v>7.87</v>
+        <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G114" t="n">
-        <v>42.13</v>
-      </c>
-      <c r="H114" t="n">
-        <v>17.845</v>
-      </c>
-      <c r="I114" t="n">
-        <v>19.715</v>
-      </c>
-      <c r="J114" t="n">
-        <v>19.545</v>
-      </c>
-      <c r="K114" t="n">
-        <v>10.685</v>
+        <v>34.6</v>
       </c>
     </row>
     <row r="115">
@@ -4253,34 +2977,19 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>15.87</v>
+        <v>22.92</v>
       </c>
       <c r="C115" t="n">
-        <v>25.56</v>
+        <v>28.41</v>
       </c>
       <c r="D115" t="n">
-        <v>77.73999999999999</v>
+        <v>28.81</v>
       </c>
       <c r="E115" t="n">
-        <v>8.32</v>
+        <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G115" t="n">
-        <v>44.18</v>
-      </c>
-      <c r="H115" t="n">
-        <v>17.49</v>
-      </c>
-      <c r="I115" t="n">
-        <v>19.405</v>
-      </c>
-      <c r="J115" t="n">
-        <v>22.015</v>
-      </c>
-      <c r="K115" t="n">
-        <v>10.925</v>
+        <v>34.86</v>
       </c>
     </row>
     <row r="116">
@@ -4288,34 +2997,19 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>15.83</v>
+        <v>22.43</v>
       </c>
       <c r="C116" t="n">
-        <v>26.09</v>
+        <v>28.3</v>
       </c>
       <c r="D116" t="n">
-        <v>80.8</v>
+        <v>29.16</v>
       </c>
       <c r="E116" t="n">
-        <v>8.789999999999999</v>
+        <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G116" t="n">
-        <v>46.22</v>
-      </c>
-      <c r="H116" t="n">
-        <v>17.125</v>
-      </c>
-      <c r="I116" t="n">
-        <v>19.025</v>
-      </c>
-      <c r="J116" t="n">
-        <v>21.47</v>
-      </c>
-      <c r="K116" t="n">
-        <v>11.165</v>
+        <v>35.1</v>
       </c>
     </row>
     <row r="117">
@@ -4323,34 +3017,19 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>15.75</v>
+        <v>21.93</v>
       </c>
       <c r="C117" t="n">
-        <v>26.61</v>
+        <v>28.32</v>
       </c>
       <c r="D117" t="n">
-        <v>83.97</v>
+        <v>29.4</v>
       </c>
       <c r="E117" t="n">
-        <v>8.58</v>
+        <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G117" t="n">
-        <v>48.27</v>
-      </c>
-      <c r="H117" t="n">
-        <v>16.76</v>
-      </c>
-      <c r="I117" t="n">
-        <v>18.755</v>
-      </c>
-      <c r="J117" t="n">
-        <v>21.405</v>
-      </c>
-      <c r="K117" t="n">
-        <v>11.415</v>
+        <v>35.35</v>
       </c>
     </row>
     <row r="118">
@@ -4358,34 +3037,19 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>15.22</v>
+        <v>21.57</v>
       </c>
       <c r="C118" t="n">
-        <v>27.12</v>
+        <v>28.32</v>
       </c>
       <c r="D118" t="n">
-        <v>87.14</v>
+        <v>29.62</v>
       </c>
       <c r="E118" t="n">
-        <v>8.359999999999999</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G118" t="n">
-        <v>50.73</v>
-      </c>
-      <c r="H118" t="n">
-        <v>16.385</v>
-      </c>
-      <c r="I118" t="n">
-        <v>18.465</v>
-      </c>
-      <c r="J118" t="n">
-        <v>21.34</v>
-      </c>
-      <c r="K118" t="n">
-        <v>11.755</v>
+        <v>35.49</v>
       </c>
     </row>
     <row r="119">
@@ -4393,34 +3057,19 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>14.64</v>
+        <v>21.21</v>
       </c>
       <c r="C119" t="n">
-        <v>27.3</v>
+        <v>28.36</v>
       </c>
       <c r="D119" t="n">
-        <v>90.3</v>
+        <v>29.89</v>
       </c>
       <c r="E119" t="n">
-        <v>8.140000000000001</v>
+        <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G119" t="n">
-        <v>54.91</v>
-      </c>
-      <c r="H119" t="n">
-        <v>16.015</v>
-      </c>
-      <c r="I119" t="n">
-        <v>18.175</v>
-      </c>
-      <c r="J119" t="n">
-        <v>20.03</v>
-      </c>
-      <c r="K119" t="n">
-        <v>11.995</v>
+        <v>35.54</v>
       </c>
     </row>
     <row r="120">
@@ -4428,34 +3077,19 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>14.05</v>
+        <v>20.92</v>
       </c>
       <c r="C120" t="n">
-        <v>27.48</v>
+        <v>28.39</v>
       </c>
       <c r="D120" t="n">
-        <v>93.79000000000001</v>
+        <v>30.16</v>
       </c>
       <c r="E120" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G120" t="n">
-        <v>56.42</v>
-      </c>
-      <c r="H120" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="I120" t="n">
-        <v>17.93</v>
-      </c>
-      <c r="J120" t="n">
-        <v>20.03</v>
-      </c>
-      <c r="K120" t="n">
-        <v>12.12</v>
+        <v>35.53</v>
       </c>
     </row>
     <row r="121">
@@ -4463,34 +3097,19 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>13.34</v>
+        <v>20.62</v>
       </c>
       <c r="C121" t="n">
-        <v>27.64</v>
+        <v>28.69</v>
       </c>
       <c r="D121" t="n">
-        <v>97.23999999999999</v>
+        <v>30.25</v>
       </c>
       <c r="E121" t="n">
-        <v>8.85</v>
+        <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G121" t="n">
-        <v>57.88</v>
-      </c>
-      <c r="H121" t="n">
-        <v>15.735</v>
-      </c>
-      <c r="I121" t="n">
-        <v>17.55</v>
-      </c>
-      <c r="J121" t="n">
-        <v>22.03</v>
-      </c>
-      <c r="K121" t="n">
-        <v>12.255</v>
+        <v>35.44</v>
       </c>
     </row>
     <row r="122">
@@ -4498,34 +3117,19 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>12.6</v>
+        <v>20.39</v>
       </c>
       <c r="C122" t="n">
-        <v>27.46</v>
+        <v>28.93</v>
       </c>
       <c r="D122" t="n">
-        <v>100.81</v>
+        <v>30.33</v>
       </c>
       <c r="E122" t="n">
-        <v>8.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G122" t="n">
-        <v>59.24</v>
-      </c>
-      <c r="H122" t="n">
-        <v>16</v>
-      </c>
-      <c r="I122" t="n">
-        <v>17.27999999999999</v>
-      </c>
-      <c r="J122" t="n">
-        <v>20.03</v>
-      </c>
-      <c r="K122" t="n">
-        <v>12.4</v>
+        <v>35.35</v>
       </c>
     </row>
     <row r="123">
@@ -4533,34 +3137,19 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>11.87</v>
+        <v>20.15</v>
       </c>
       <c r="C123" t="n">
-        <v>27.27</v>
+        <v>29.22</v>
       </c>
       <c r="D123" t="n">
-        <v>102.54</v>
+        <v>30.39</v>
       </c>
       <c r="E123" t="n">
-        <v>8.65</v>
+        <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G123" t="n">
-        <v>60.45</v>
-      </c>
-      <c r="H123" t="n">
-        <v>16.116</v>
-      </c>
-      <c r="I123" t="n">
-        <v>16.991</v>
-      </c>
-      <c r="J123" t="n">
-        <v>20.381</v>
-      </c>
-      <c r="K123" t="n">
-        <v>12.246</v>
+        <v>35.24</v>
       </c>
     </row>
     <row r="124">
@@ -4568,34 +3157,19 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>11.18</v>
+        <v>20.13</v>
       </c>
       <c r="C124" t="n">
-        <v>27.08</v>
+        <v>29.19</v>
       </c>
       <c r="D124" t="n">
-        <v>104.27</v>
+        <v>30.51</v>
       </c>
       <c r="E124" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G124" t="n">
-        <v>63.13</v>
-      </c>
-      <c r="H124" t="n">
-        <v>15.331</v>
-      </c>
-      <c r="I124" t="n">
-        <v>16.702</v>
-      </c>
-      <c r="J124" t="n">
-        <v>20.612</v>
-      </c>
-      <c r="K124" t="n">
-        <v>11.591</v>
+        <v>35.17</v>
       </c>
     </row>
     <row r="125">
@@ -4603,34 +3177,19 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>10.5</v>
+        <v>20.17</v>
       </c>
       <c r="C125" t="n">
-        <v>26.6</v>
+        <v>29.17</v>
       </c>
       <c r="D125" t="n">
-        <v>105.95</v>
+        <v>30.53</v>
       </c>
       <c r="E125" t="n">
-        <v>8.56</v>
+        <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G125" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="H125" t="n">
-        <v>14.481</v>
-      </c>
-      <c r="I125" t="n">
-        <v>17.87</v>
-      </c>
-      <c r="J125" t="n">
-        <v>19.868</v>
-      </c>
-      <c r="K125" t="n">
-        <v>10.881</v>
+        <v>35.13</v>
       </c>
     </row>
     <row r="126">
@@ -4638,34 +3197,19 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>10.21</v>
+        <v>19.59</v>
       </c>
       <c r="C126" t="n">
-        <v>26.12</v>
+        <v>29.13</v>
       </c>
       <c r="D126" t="n">
-        <v>103.9</v>
+        <v>31.2</v>
       </c>
       <c r="E126" t="n">
-        <v>8.51</v>
+        <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G126" t="n">
-        <v>68.28</v>
-      </c>
-      <c r="H126" t="n">
-        <v>13.631</v>
-      </c>
-      <c r="I126" t="n">
-        <v>19.758</v>
-      </c>
-      <c r="J126" t="n">
-        <v>21.914</v>
-      </c>
-      <c r="K126" t="n">
-        <v>10.176</v>
+        <v>35.08</v>
       </c>
     </row>
     <row r="127">
@@ -4673,34 +3217,19 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>9.619999999999999</v>
+        <v>18.97</v>
       </c>
       <c r="C127" t="n">
-        <v>25.64</v>
+        <v>29.22</v>
       </c>
       <c r="D127" t="n">
-        <v>101.86</v>
+        <v>31.8</v>
       </c>
       <c r="E127" t="n">
-        <v>8.460000000000001</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G127" t="n">
-        <v>70.43000000000001</v>
-      </c>
-      <c r="H127" t="n">
-        <v>13.184</v>
-      </c>
-      <c r="I127" t="n">
-        <v>21.546</v>
-      </c>
-      <c r="J127" t="n">
-        <v>24.289</v>
-      </c>
-      <c r="K127" t="n">
-        <v>9.471</v>
+        <v>35.01</v>
       </c>
     </row>
     <row r="128">
@@ -4708,34 +3237,19 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>10.03</v>
+        <v>18.24</v>
       </c>
       <c r="C128" t="n">
-        <v>25.19</v>
+        <v>29.36</v>
       </c>
       <c r="D128" t="n">
-        <v>99.77</v>
+        <v>32.42</v>
       </c>
       <c r="E128" t="n">
-        <v>8.43</v>
+        <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G128" t="n">
-        <v>72.54000000000001</v>
-      </c>
-      <c r="H128" t="n">
-        <v>12.252</v>
-      </c>
-      <c r="I128" t="n">
-        <v>23.344</v>
-      </c>
-      <c r="J128" t="n">
-        <v>27.461</v>
-      </c>
-      <c r="K128" t="n">
-        <v>8.494</v>
+        <v>34.97</v>
       </c>
     </row>
     <row r="129">
@@ -4743,34 +3257,19 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>10.38</v>
+        <v>17.34</v>
       </c>
       <c r="C129" t="n">
-        <v>25.05</v>
+        <v>29.8</v>
       </c>
       <c r="D129" t="n">
-        <v>97.68000000000001</v>
+        <v>33.06</v>
       </c>
       <c r="E129" t="n">
-        <v>8.289999999999999</v>
+        <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G129" t="n">
-        <v>72.86</v>
-      </c>
-      <c r="H129" t="n">
-        <v>11.221</v>
-      </c>
-      <c r="I129" t="n">
-        <v>24.168</v>
-      </c>
-      <c r="J129" t="n">
-        <v>33.31</v>
-      </c>
-      <c r="K129" t="n">
-        <v>7.540000000000001</v>
+        <v>34.8</v>
       </c>
     </row>
     <row r="130">
@@ -4778,34 +3277,19 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>11.2</v>
+        <v>16.38</v>
       </c>
       <c r="C130" t="n">
-        <v>24.92</v>
+        <v>30.4</v>
       </c>
       <c r="D130" t="n">
-        <v>95.28</v>
+        <v>33.54</v>
       </c>
       <c r="E130" t="n">
-        <v>8.15</v>
+        <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G130" t="n">
-        <v>73.19</v>
-      </c>
-      <c r="H130" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="I130" t="n">
-        <v>25.002</v>
-      </c>
-      <c r="J130" t="n">
-        <v>38.842</v>
-      </c>
-      <c r="K130" t="n">
-        <v>6.711</v>
+        <v>34.69</v>
       </c>
     </row>
     <row r="131">
@@ -4813,34 +3297,19 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>11.71</v>
+        <v>15.42</v>
       </c>
       <c r="C131" t="n">
-        <v>24.79</v>
+        <v>31.39</v>
       </c>
       <c r="D131" t="n">
-        <v>92.48999999999999</v>
+        <v>33.55</v>
       </c>
       <c r="E131" t="n">
-        <v>8.02</v>
+        <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G131" t="n">
-        <v>73.47</v>
-      </c>
-      <c r="H131" t="n">
-        <v>8.803999999999998</v>
-      </c>
-      <c r="I131" t="n">
-        <v>25.871</v>
-      </c>
-      <c r="J131" t="n">
-        <v>43.765</v>
-      </c>
-      <c r="K131" t="n">
-        <v>5.555000000000001</v>
+        <v>34.64</v>
       </c>
     </row>
     <row r="132">
@@ -4848,34 +3317,19 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>12.27</v>
+        <v>14.37</v>
       </c>
       <c r="C132" t="n">
-        <v>24.94</v>
+        <v>32.54</v>
       </c>
       <c r="D132" t="n">
-        <v>89.7</v>
+        <v>33.51</v>
       </c>
       <c r="E132" t="n">
-        <v>7.88</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G132" t="n">
-        <v>73.87</v>
-      </c>
-      <c r="H132" t="n">
-        <v>7.407999999999999</v>
-      </c>
-      <c r="I132" t="n">
-        <v>26.338</v>
-      </c>
-      <c r="J132" t="n">
-        <v>48.678</v>
-      </c>
-      <c r="K132" t="n">
-        <v>4.409000000000001</v>
+        <v>34.58</v>
       </c>
     </row>
     <row r="133">
@@ -4883,34 +3337,19 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>12.82</v>
+        <v>13.32</v>
       </c>
       <c r="C133" t="n">
-        <v>25.09</v>
+        <v>33.6</v>
       </c>
       <c r="D133" t="n">
-        <v>88.89</v>
+        <v>33.54</v>
       </c>
       <c r="E133" t="n">
-        <v>7.73</v>
+        <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G133" t="n">
-        <v>74.48999999999999</v>
-      </c>
-      <c r="H133" t="n">
-        <v>6.151</v>
-      </c>
-      <c r="I133" t="n">
-        <v>26.809</v>
-      </c>
-      <c r="J133" t="n">
-        <v>51.23</v>
-      </c>
-      <c r="K133" t="n">
-        <v>3.287</v>
+        <v>34.54</v>
       </c>
     </row>
     <row r="134">
@@ -4918,34 +3357,19 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>13.39</v>
+        <v>12.19</v>
       </c>
       <c r="C134" t="n">
-        <v>25.24</v>
+        <v>34.68</v>
       </c>
       <c r="D134" t="n">
-        <v>88.08</v>
+        <v>33.67</v>
       </c>
       <c r="E134" t="n">
-        <v>7.57</v>
+        <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G134" t="n">
-        <v>73.64</v>
-      </c>
-      <c r="H134" t="n">
-        <v>5.375999999999999</v>
-      </c>
-      <c r="I134" t="n">
-        <v>27.734</v>
-      </c>
-      <c r="J134" t="n">
-        <v>53.79199999999999</v>
-      </c>
-      <c r="K134" t="n">
-        <v>2.676</v>
+        <v>34.46</v>
       </c>
     </row>
     <row r="135">
@@ -4953,34 +3377,19 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>14.2</v>
+        <v>11.07</v>
       </c>
       <c r="C135" t="n">
-        <v>25.52</v>
+        <v>35.77</v>
       </c>
       <c r="D135" t="n">
-        <v>87.26000000000001</v>
+        <v>33.8</v>
       </c>
       <c r="E135" t="n">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G135" t="n">
-        <v>72.86</v>
-      </c>
-      <c r="H135" t="n">
-        <v>4.665999999999999</v>
-      </c>
-      <c r="I135" t="n">
-        <v>27.212</v>
-      </c>
-      <c r="J135" t="n">
-        <v>57.23900000000001</v>
-      </c>
-      <c r="K135" t="n">
-        <v>2.13</v>
+        <v>34.36</v>
       </c>
     </row>
     <row r="136">
@@ -4988,34 +3397,19 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>14.8</v>
+        <v>10.54</v>
       </c>
       <c r="C136" t="n">
-        <v>25.58</v>
+        <v>37.36</v>
       </c>
       <c r="D136" t="n">
-        <v>84.2</v>
+        <v>33.28</v>
       </c>
       <c r="E136" t="n">
-        <v>6.57</v>
+        <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G136" t="n">
-        <v>72.06999999999999</v>
-      </c>
-      <c r="H136" t="n">
-        <v>3.966</v>
-      </c>
-      <c r="I136" t="n">
-        <v>30.03100000000001</v>
-      </c>
-      <c r="J136" t="n">
-        <v>60.691</v>
-      </c>
-      <c r="K136" t="n">
-        <v>1.584</v>
+        <v>33.82</v>
       </c>
     </row>
     <row r="137">
@@ -5023,34 +3417,19 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>15.45</v>
+        <v>10.08</v>
       </c>
       <c r="C137" t="n">
-        <v>25.65</v>
+        <v>38.8</v>
       </c>
       <c r="D137" t="n">
-        <v>81.14</v>
+        <v>32.83</v>
       </c>
       <c r="E137" t="n">
-        <v>5.75</v>
+        <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G137" t="n">
-        <v>71.54000000000001</v>
-      </c>
-      <c r="H137" t="n">
-        <v>2.873</v>
-      </c>
-      <c r="I137" t="n">
-        <v>33.31</v>
-      </c>
-      <c r="J137" t="n">
-        <v>63.749</v>
-      </c>
-      <c r="K137" t="n">
-        <v>1.038</v>
+        <v>33.3</v>
       </c>
     </row>
     <row r="138">
@@ -5058,34 +3437,19 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>13.87</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="C138" t="n">
-        <v>25.7</v>
+        <v>40.3</v>
       </c>
       <c r="D138" t="n">
-        <v>76.88</v>
+        <v>32.17</v>
       </c>
       <c r="E138" t="n">
-        <v>4.92</v>
+        <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G138" t="n">
-        <v>79.70999999999999</v>
-      </c>
-      <c r="H138" t="n">
-        <v>2.285</v>
-      </c>
-      <c r="I138" t="n">
-        <v>30.419</v>
-      </c>
-      <c r="J138" t="n">
-        <v>66.02000000000001</v>
-      </c>
-      <c r="K138" t="n">
-        <v>0.674</v>
+        <v>32.89</v>
       </c>
     </row>
     <row r="139">
@@ -5093,34 +3457,19 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>14.39</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="C139" t="n">
-        <v>25.74</v>
+        <v>41.28</v>
       </c>
       <c r="D139" t="n">
-        <v>72.64</v>
+        <v>31.5</v>
       </c>
       <c r="E139" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G139" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="H139" t="n">
-        <v>1.801</v>
-      </c>
-      <c r="I139" t="n">
-        <v>28.572</v>
-      </c>
-      <c r="J139" t="n">
-        <v>66.819</v>
-      </c>
-      <c r="K139" t="n">
-        <v>0.337</v>
+        <v>32.77</v>
       </c>
     </row>
     <row r="140">
@@ -5128,34 +3477,19 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>15.21</v>
+        <v>9.07</v>
       </c>
       <c r="C140" t="n">
-        <v>25.77</v>
+        <v>42.29</v>
       </c>
       <c r="D140" t="n">
-        <v>68.29000000000001</v>
+        <v>30.99</v>
       </c>
       <c r="E140" t="n">
-        <v>3.48</v>
+        <v>2</v>
       </c>
       <c r="F140" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G140" t="n">
-        <v>96.06999999999999</v>
-      </c>
-      <c r="H140" t="n">
-        <v>1.317</v>
-      </c>
-      <c r="I140" t="n">
-        <v>26.735</v>
-      </c>
-      <c r="J140" t="n">
-        <v>67.61</v>
-      </c>
-      <c r="K140" t="n">
-        <v>0</v>
+        <v>32.65</v>
       </c>
     </row>
     <row r="141">
@@ -5163,34 +3497,19 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>17.59</v>
+        <v>8.66</v>
       </c>
       <c r="C141" t="n">
-        <v>25.82</v>
+        <v>42.75</v>
       </c>
       <c r="D141" t="n">
-        <v>64.37</v>
+        <v>30.94</v>
       </c>
       <c r="E141" t="n">
-        <v>2.76</v>
+        <v>4</v>
       </c>
       <c r="F141" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G141" t="n">
-        <v>103.88</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0.868</v>
-      </c>
-      <c r="I141" t="n">
-        <v>24.292</v>
-      </c>
-      <c r="J141" t="n">
-        <v>66.91</v>
-      </c>
-      <c r="K141" t="n">
-        <v>0</v>
+        <v>32.64</v>
       </c>
     </row>
     <row r="142">
@@ -5198,34 +3517,19 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>19.92</v>
+        <v>8.26</v>
       </c>
       <c r="C142" t="n">
-        <v>25.35</v>
+        <v>43.1</v>
       </c>
       <c r="D142" t="n">
-        <v>60.41</v>
+        <v>30.67</v>
       </c>
       <c r="E142" t="n">
-        <v>2.05</v>
+        <v>6</v>
       </c>
       <c r="F142" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G142" t="n">
-        <v>111.65</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0.429</v>
-      </c>
-      <c r="I142" t="n">
-        <v>22.261</v>
-      </c>
-      <c r="J142" t="n">
-        <v>66.42999999999999</v>
-      </c>
-      <c r="K142" t="n">
-        <v>0</v>
+        <v>32.98</v>
       </c>
     </row>
     <row r="143">
@@ -5233,34 +3537,19 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>22.47</v>
+        <v>8.1</v>
       </c>
       <c r="C143" t="n">
-        <v>24.87</v>
+        <v>43.3</v>
       </c>
       <c r="D143" t="n">
-        <v>56.35</v>
+        <v>30.31</v>
       </c>
       <c r="E143" t="n">
-        <v>1.36</v>
+        <v>7.98</v>
       </c>
       <c r="F143" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G143" t="n">
-        <v>119.23</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>20.25</v>
-      </c>
-      <c r="J143" t="n">
-        <v>65.95999999999999</v>
-      </c>
-      <c r="K143" t="n">
-        <v>0</v>
+        <v>33.31</v>
       </c>
     </row>
     <row r="144">
@@ -5268,34 +3557,19 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>25.67</v>
+        <v>8</v>
       </c>
       <c r="C144" t="n">
-        <v>24.39</v>
+        <v>43.5</v>
       </c>
       <c r="D144" t="n">
-        <v>52.3</v>
+        <v>29.85</v>
       </c>
       <c r="E144" t="n">
-        <v>0.68</v>
+        <v>9.92</v>
       </c>
       <c r="F144" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G144" t="n">
-        <v>126.19</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>17.785</v>
-      </c>
-      <c r="J144" t="n">
-        <v>65.47999999999999</v>
-      </c>
-      <c r="K144" t="n">
-        <v>0</v>
+        <v>33.73</v>
       </c>
     </row>
     <row r="145">
@@ -5303,34 +3577,19 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>28.63</v>
+        <v>8.27</v>
       </c>
       <c r="C145" t="n">
-        <v>24.08</v>
+        <v>43.49</v>
       </c>
       <c r="D145" t="n">
-        <v>48.32</v>
+        <v>29.22</v>
       </c>
       <c r="E145" t="n">
-        <v>0</v>
+        <v>11.86</v>
       </c>
       <c r="F145" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G145" t="n">
-        <v>133.25</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>15.32</v>
-      </c>
-      <c r="J145" t="n">
-        <v>64.90000000000001</v>
-      </c>
-      <c r="K145" t="n">
-        <v>0</v>
+        <v>34.15</v>
       </c>
     </row>
     <row r="146">
@@ -5338,34 +3597,19 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>31.77</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="C146" t="n">
-        <v>23.95</v>
+        <v>43.23</v>
       </c>
       <c r="D146" t="n">
-        <v>46.8</v>
+        <v>28.59</v>
       </c>
       <c r="E146" t="n">
-        <v>0</v>
+        <v>13.78</v>
       </c>
       <c r="F146" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G146" t="n">
-        <v>140.48</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>8.864000000000001</v>
-      </c>
-      <c r="J146" t="n">
-        <v>64.626</v>
-      </c>
-      <c r="K146" t="n">
-        <v>0</v>
+        <v>34.94</v>
       </c>
     </row>
     <row r="147">
@@ -5373,34 +3617,19 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>35.19</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="C147" t="n">
-        <v>23.73</v>
+        <v>42.89</v>
       </c>
       <c r="D147" t="n">
-        <v>45.21</v>
+        <v>27.86</v>
       </c>
       <c r="E147" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="F147" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G147" t="n">
-        <v>147.97</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>2.048</v>
-      </c>
-      <c r="J147" t="n">
-        <v>64.342</v>
-      </c>
-      <c r="K147" t="n">
-        <v>0</v>
+        <v>36.02</v>
       </c>
     </row>
     <row r="148">
@@ -5408,34 +3637,819 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>39.85</v>
+        <v>8.6</v>
       </c>
       <c r="C148" t="n">
-        <v>23.52</v>
+        <v>42.44</v>
       </c>
       <c r="D148" t="n">
-        <v>49.2</v>
+        <v>27.27</v>
       </c>
       <c r="E148" t="n">
-        <v>0</v>
+        <v>17.68</v>
       </c>
       <c r="F148" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="G148" t="n">
-        <v>146.8</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>1.412</v>
-      </c>
-      <c r="J148" t="n">
-        <v>59.713</v>
-      </c>
-      <c r="K148" t="n">
-        <v>0</v>
+        <v>37.01</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>8.76</v>
+      </c>
+      <c r="C149" t="n">
+        <v>42.28</v>
+      </c>
+      <c r="D149" t="n">
+        <v>26.69</v>
+      </c>
+      <c r="E149" t="n">
+        <v>19.59</v>
+      </c>
+      <c r="F149" t="n">
+        <v>37.7</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>9.210000000000001</v>
+      </c>
+      <c r="C150" t="n">
+        <v>41.92</v>
+      </c>
+      <c r="D150" t="n">
+        <v>26.01</v>
+      </c>
+      <c r="E150" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="F150" t="n">
+        <v>38.4</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="C151" t="n">
+        <v>41.48</v>
+      </c>
+      <c r="D151" t="n">
+        <v>25.33</v>
+      </c>
+      <c r="E151" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="F151" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>10.61</v>
+      </c>
+      <c r="C152" t="n">
+        <v>41.04</v>
+      </c>
+      <c r="D152" t="n">
+        <v>24.86</v>
+      </c>
+      <c r="E152" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="F152" t="n">
+        <v>39.25</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>11.08</v>
+      </c>
+      <c r="C153" t="n">
+        <v>40.91</v>
+      </c>
+      <c r="D153" t="n">
+        <v>24.39</v>
+      </c>
+      <c r="E153" t="n">
+        <v>19.19</v>
+      </c>
+      <c r="F153" t="n">
+        <v>39.49</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>11.37</v>
+      </c>
+      <c r="C154" t="n">
+        <v>40.56</v>
+      </c>
+      <c r="D154" t="n">
+        <v>23.92</v>
+      </c>
+      <c r="E154" t="n">
+        <v>19.11</v>
+      </c>
+      <c r="F154" t="n">
+        <v>40.1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>11.21</v>
+      </c>
+      <c r="C155" t="n">
+        <v>40.48</v>
+      </c>
+      <c r="D155" t="n">
+        <v>23.63</v>
+      </c>
+      <c r="E155" t="n">
+        <v>19.03</v>
+      </c>
+      <c r="F155" t="n">
+        <v>40.71</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="C156" t="n">
+        <v>40.38</v>
+      </c>
+      <c r="D156" t="n">
+        <v>23.34</v>
+      </c>
+      <c r="E156" t="n">
+        <v>18.97</v>
+      </c>
+      <c r="F156" t="n">
+        <v>41.4</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="C157" t="n">
+        <v>40.04</v>
+      </c>
+      <c r="D157" t="n">
+        <v>23.13</v>
+      </c>
+      <c r="E157" t="n">
+        <v>18.83</v>
+      </c>
+      <c r="F157" t="n">
+        <v>42.31</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>10.53</v>
+      </c>
+      <c r="C158" t="n">
+        <v>39.78</v>
+      </c>
+      <c r="D158" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="E158" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="F158" t="n">
+        <v>43.21</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="C159" t="n">
+        <v>39.52</v>
+      </c>
+      <c r="D159" t="n">
+        <v>22.74</v>
+      </c>
+      <c r="E159" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="F159" t="n">
+        <v>44.04</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="C160" t="n">
+        <v>39.38</v>
+      </c>
+      <c r="D160" t="n">
+        <v>22.61</v>
+      </c>
+      <c r="E160" t="n">
+        <v>18.56</v>
+      </c>
+      <c r="F160" t="n">
+        <v>44.87</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="C161" t="n">
+        <v>39.29</v>
+      </c>
+      <c r="D161" t="n">
+        <v>22.47</v>
+      </c>
+      <c r="E161" t="n">
+        <v>18.53</v>
+      </c>
+      <c r="F161" t="n">
+        <v>45.69</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="C162" t="n">
+        <v>37.71</v>
+      </c>
+      <c r="D162" t="n">
+        <v>23.91</v>
+      </c>
+      <c r="E162" t="n">
+        <v>18.51</v>
+      </c>
+      <c r="F162" t="n">
+        <v>46.53</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>8</v>
+      </c>
+      <c r="C163" t="n">
+        <v>35.77</v>
+      </c>
+      <c r="D163" t="n">
+        <v>25.35</v>
+      </c>
+      <c r="E163" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="F163" t="n">
+        <v>47.39</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="C164" t="n">
+        <v>34.13</v>
+      </c>
+      <c r="D164" t="n">
+        <v>26.79</v>
+      </c>
+      <c r="E164" t="n">
+        <v>18.49</v>
+      </c>
+      <c r="F164" t="n">
+        <v>47.77</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>7.72</v>
+      </c>
+      <c r="C165" t="n">
+        <v>32.55</v>
+      </c>
+      <c r="D165" t="n">
+        <v>28.23</v>
+      </c>
+      <c r="E165" t="n">
+        <v>18.47</v>
+      </c>
+      <c r="F165" t="n">
+        <v>48.04</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>7.82</v>
+      </c>
+      <c r="C166" t="n">
+        <v>30.74</v>
+      </c>
+      <c r="D166" t="n">
+        <v>29.66</v>
+      </c>
+      <c r="E166" t="n">
+        <v>18.44</v>
+      </c>
+      <c r="F166" t="n">
+        <v>48.33</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="C167" t="n">
+        <v>29.77</v>
+      </c>
+      <c r="D167" t="n">
+        <v>31.06</v>
+      </c>
+      <c r="E167" t="n">
+        <v>18.48</v>
+      </c>
+      <c r="F167" t="n">
+        <v>48.11</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="C168" t="n">
+        <v>28.73</v>
+      </c>
+      <c r="D168" t="n">
+        <v>32.46</v>
+      </c>
+      <c r="E168" t="n">
+        <v>18.67</v>
+      </c>
+      <c r="F168" t="n">
+        <v>47.89</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>7</v>
+      </c>
+      <c r="C169" t="n">
+        <v>27.72</v>
+      </c>
+      <c r="D169" t="n">
+        <v>33.93</v>
+      </c>
+      <c r="E169" t="n">
+        <v>18.63</v>
+      </c>
+      <c r="F169" t="n">
+        <v>47.72</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="C170" t="n">
+        <v>26.61</v>
+      </c>
+      <c r="D170" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="E170" t="n">
+        <v>18.65</v>
+      </c>
+      <c r="F170" t="n">
+        <v>47.55</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="C171" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="D171" t="n">
+        <v>36.87</v>
+      </c>
+      <c r="E171" t="n">
+        <v>18.67</v>
+      </c>
+      <c r="F171" t="n">
+        <v>47.38</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>6.23</v>
+      </c>
+      <c r="C172" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="D172" t="n">
+        <v>36.53</v>
+      </c>
+      <c r="E172" t="n">
+        <v>16.79</v>
+      </c>
+      <c r="F172" t="n">
+        <v>47.15</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="C173" t="n">
+        <v>31.26</v>
+      </c>
+      <c r="D173" t="n">
+        <v>36.13</v>
+      </c>
+      <c r="E173" t="n">
+        <v>14.94</v>
+      </c>
+      <c r="F173" t="n">
+        <v>46.85</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="C174" t="n">
+        <v>34.14</v>
+      </c>
+      <c r="D174" t="n">
+        <v>35.68</v>
+      </c>
+      <c r="E174" t="n">
+        <v>13.09</v>
+      </c>
+      <c r="F174" t="n">
+        <v>46.69</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="C175" t="n">
+        <v>36.87</v>
+      </c>
+      <c r="D175" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="E175" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="F175" t="n">
+        <v>46.58</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="C176" t="n">
+        <v>39.63</v>
+      </c>
+      <c r="D176" t="n">
+        <v>34.85</v>
+      </c>
+      <c r="E176" t="n">
+        <v>9.42</v>
+      </c>
+      <c r="F176" t="n">
+        <v>47.1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="C177" t="n">
+        <v>41.89</v>
+      </c>
+      <c r="D177" t="n">
+        <v>34.77</v>
+      </c>
+      <c r="E177" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="F177" t="n">
+        <v>47.31</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="C178" t="n">
+        <v>44.14</v>
+      </c>
+      <c r="D178" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="E178" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="F178" t="n">
+        <v>47.51</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="C179" t="n">
+        <v>46.37</v>
+      </c>
+      <c r="D179" t="n">
+        <v>34.39</v>
+      </c>
+      <c r="E179" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="F179" t="n">
+        <v>47.98</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="C180" t="n">
+        <v>48.56</v>
+      </c>
+      <c r="D180" t="n">
+        <v>34.11</v>
+      </c>
+      <c r="E180" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F180" t="n">
+        <v>48.43</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="C181" t="n">
+        <v>50.78</v>
+      </c>
+      <c r="D181" t="n">
+        <v>33.76</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0</v>
+      </c>
+      <c r="F181" t="n">
+        <v>48.94</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="C182" t="n">
+        <v>50.78</v>
+      </c>
+      <c r="D182" t="n">
+        <v>33.69</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0</v>
+      </c>
+      <c r="F182" t="n">
+        <v>49.49</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="C183" t="n">
+        <v>50.78</v>
+      </c>
+      <c r="D183" t="n">
+        <v>33.71</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0</v>
+      </c>
+      <c r="F183" t="n">
+        <v>50.09</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="C184" t="n">
+        <v>50.78</v>
+      </c>
+      <c r="D184" t="n">
+        <v>33.77</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0</v>
+      </c>
+      <c r="F184" t="n">
+        <v>50.6</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0</v>
+      </c>
+      <c r="C185" t="n">
+        <v>50.78</v>
+      </c>
+      <c r="D185" t="n">
+        <v>33.35</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0</v>
+      </c>
+      <c r="F185" t="n">
+        <v>51.57</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0</v>
+      </c>
+      <c r="C186" t="n">
+        <v>50.78</v>
+      </c>
+      <c r="D186" t="n">
+        <v>33.06</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0</v>
+      </c>
+      <c r="F186" t="n">
+        <v>51.86</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0</v>
+      </c>
+      <c r="C187" t="n">
+        <v>50.78</v>
+      </c>
+      <c r="D187" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0</v>
+      </c>
+      <c r="F187" t="n">
+        <v>52.43</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0</v>
+      </c>
+      <c r="C188" t="n">
+        <v>50.78</v>
+      </c>
+      <c r="D188" t="n">
+        <v>31.97</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0</v>
+      </c>
+      <c r="F188" t="n">
+        <v>52.95</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/stacks_over_time_avg.xlsx
+++ b/Outputs/stacks_over_time_avg.xlsx
@@ -194,7 +194,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$B$2:$B$188</f>
+              <f>'data'!$B$2:$B$185</f>
             </numRef>
           </val>
         </ser>
@@ -221,7 +221,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$C$2:$C$188</f>
+              <f>'data'!$C$2:$C$185</f>
             </numRef>
           </val>
         </ser>
@@ -248,7 +248,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$D$2:$D$188</f>
+              <f>'data'!$D$2:$D$185</f>
             </numRef>
           </val>
         </ser>
@@ -275,34 +275,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$E$2:$E$188</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="4"/>
-          <order val="4"/>
-          <tx>
-            <strRef>
-              <f>'data'!F1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'data'!$F$2:$F$188</f>
+              <f>'data'!$E$2:$E$185</f>
             </numRef>
           </val>
         </ser>
@@ -672,7 +645,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F188"/>
+  <dimension ref="A1:E185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -688,29 +661,24 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Raymond</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Cedric</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Fish</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Scott</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Raymond</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Jonathan</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Cedric</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -725,31 +693,19 @@
       <c r="D2" t="n">
         <v>20</v>
       </c>
-      <c r="E2" t="n">
-        <v>20</v>
-      </c>
-      <c r="F2" t="n">
-        <v>20</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>20.05</v>
       </c>
       <c r="C3" t="n">
         <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>20</v>
-      </c>
-      <c r="E3" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="F3" t="n">
-        <v>19.9</v>
+        <v>19.95</v>
       </c>
     </row>
     <row r="4">
@@ -757,19 +713,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>19.93</v>
+        <v>19.53</v>
       </c>
       <c r="C4" t="n">
-        <v>20.1</v>
+        <v>20.76</v>
       </c>
       <c r="D4" t="n">
-        <v>20</v>
-      </c>
-      <c r="E4" t="n">
-        <v>20.13</v>
-      </c>
-      <c r="F4" t="n">
-        <v>19.83</v>
+        <v>19.72</v>
       </c>
     </row>
     <row r="5">
@@ -777,19 +727,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>19.85</v>
+        <v>19.27</v>
       </c>
       <c r="C5" t="n">
-        <v>18.26</v>
+        <v>21.18</v>
       </c>
       <c r="D5" t="n">
-        <v>20</v>
-      </c>
-      <c r="E5" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>21.79</v>
+        <v>19.55</v>
       </c>
     </row>
     <row r="6">
@@ -797,19 +741,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20.46</v>
+        <v>19.03</v>
       </c>
       <c r="C6" t="n">
-        <v>16.54</v>
+        <v>21.44</v>
       </c>
       <c r="D6" t="n">
-        <v>19.96</v>
-      </c>
-      <c r="E6" t="n">
-        <v>20.08</v>
-      </c>
-      <c r="F6" t="n">
-        <v>22.96</v>
+        <v>19.53</v>
       </c>
     </row>
     <row r="7">
@@ -817,19 +755,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20.51</v>
+        <v>18.6</v>
       </c>
       <c r="C7" t="n">
-        <v>15.39</v>
+        <v>22.15</v>
       </c>
       <c r="D7" t="n">
-        <v>20.32</v>
-      </c>
-      <c r="E7" t="n">
-        <v>20.03</v>
-      </c>
-      <c r="F7" t="n">
-        <v>23.74</v>
+        <v>19.25</v>
       </c>
     </row>
     <row r="8">
@@ -837,19 +769,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>20.51</v>
+        <v>18.29</v>
       </c>
       <c r="C8" t="n">
-        <v>14.77</v>
+        <v>22.65</v>
       </c>
       <c r="D8" t="n">
-        <v>20.59</v>
-      </c>
-      <c r="E8" t="n">
-        <v>19.91</v>
-      </c>
-      <c r="F8" t="n">
-        <v>24.21</v>
+        <v>19.06</v>
       </c>
     </row>
     <row r="9">
@@ -857,19 +783,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>20.44</v>
+        <v>18.04</v>
       </c>
       <c r="C9" t="n">
-        <v>14.31</v>
+        <v>23.02</v>
       </c>
       <c r="D9" t="n">
-        <v>20.78</v>
-      </c>
-      <c r="E9" t="n">
-        <v>19.95</v>
-      </c>
-      <c r="F9" t="n">
-        <v>24.52</v>
+        <v>18.94</v>
       </c>
     </row>
     <row r="10">
@@ -877,19 +797,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>21.08</v>
+        <v>17.83</v>
       </c>
       <c r="C10" t="n">
-        <v>13.3</v>
+        <v>23.24</v>
       </c>
       <c r="D10" t="n">
-        <v>20.91</v>
-      </c>
-      <c r="E10" t="n">
-        <v>19.96</v>
-      </c>
-      <c r="F10" t="n">
-        <v>24.76</v>
+        <v>18.93</v>
       </c>
     </row>
     <row r="11">
@@ -897,19 +811,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>21.59</v>
+        <v>17.69</v>
       </c>
       <c r="C11" t="n">
-        <v>12.47</v>
+        <v>23.41</v>
       </c>
       <c r="D11" t="n">
-        <v>21.04</v>
-      </c>
-      <c r="E11" t="n">
-        <v>19.96</v>
-      </c>
-      <c r="F11" t="n">
-        <v>24.95</v>
+        <v>18.9</v>
       </c>
     </row>
     <row r="12">
@@ -917,19 +825,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>21.59</v>
+        <v>17.69</v>
       </c>
       <c r="C12" t="n">
-        <v>12.47</v>
+        <v>23.41</v>
       </c>
       <c r="D12" t="n">
-        <v>21.04</v>
-      </c>
-      <c r="E12" t="n">
-        <v>19.96</v>
-      </c>
-      <c r="F12" t="n">
-        <v>24.95</v>
+        <v>18.9</v>
       </c>
     </row>
     <row r="13">
@@ -937,19 +839,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>22.2</v>
+        <v>18.04</v>
       </c>
       <c r="C13" t="n">
-        <v>10.98</v>
+        <v>23.76</v>
       </c>
       <c r="D13" t="n">
-        <v>21.19</v>
-      </c>
-      <c r="E13" t="n">
-        <v>19.94</v>
-      </c>
-      <c r="F13" t="n">
-        <v>25.7</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="14">
@@ -957,19 +853,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>22.82</v>
+        <v>18.37</v>
       </c>
       <c r="C14" t="n">
-        <v>9.48</v>
+        <v>24.12</v>
       </c>
       <c r="D14" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="E14" t="n">
-        <v>19.89</v>
-      </c>
-      <c r="F14" t="n">
-        <v>26.41</v>
+        <v>17.52</v>
       </c>
     </row>
     <row r="15">
@@ -977,19 +867,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>23.39</v>
+        <v>18.93</v>
       </c>
       <c r="C15" t="n">
-        <v>9.460000000000001</v>
+        <v>24.24</v>
       </c>
       <c r="D15" t="n">
-        <v>21.69</v>
-      </c>
-      <c r="E15" t="n">
-        <v>19.84</v>
-      </c>
-      <c r="F15" t="n">
-        <v>27.12</v>
+        <v>16.82</v>
       </c>
     </row>
     <row r="16">
@@ -997,19 +881,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>23.98</v>
+        <v>19.48</v>
       </c>
       <c r="C16" t="n">
-        <v>10.2</v>
+        <v>24.38</v>
       </c>
       <c r="D16" t="n">
-        <v>21.97</v>
-      </c>
-      <c r="E16" t="n">
-        <v>19.81</v>
-      </c>
-      <c r="F16" t="n">
-        <v>27.04</v>
+        <v>16.14</v>
       </c>
     </row>
     <row r="17">
@@ -1017,19 +895,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>24.18</v>
+        <v>20.06</v>
       </c>
       <c r="C17" t="n">
-        <v>11.33</v>
+        <v>24.71</v>
       </c>
       <c r="D17" t="n">
-        <v>22.25</v>
-      </c>
-      <c r="E17" t="n">
-        <v>19.78</v>
-      </c>
-      <c r="F17" t="n">
-        <v>26.96</v>
+        <v>15.23</v>
       </c>
     </row>
     <row r="18">
@@ -1037,19 +909,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>24.7</v>
+        <v>20.4</v>
       </c>
       <c r="C18" t="n">
-        <v>12.38</v>
+        <v>25.16</v>
       </c>
       <c r="D18" t="n">
-        <v>22.29</v>
-      </c>
-      <c r="E18" t="n">
-        <v>19.75</v>
-      </c>
-      <c r="F18" t="n">
-        <v>26.88</v>
+        <v>14.43</v>
       </c>
     </row>
     <row r="19">
@@ -1057,19 +923,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>25.25</v>
+        <v>20.77</v>
       </c>
       <c r="C19" t="n">
-        <v>13.58</v>
+        <v>25.61</v>
       </c>
       <c r="D19" t="n">
-        <v>22.33</v>
-      </c>
-      <c r="E19" t="n">
-        <v>19.77</v>
-      </c>
-      <c r="F19" t="n">
-        <v>26.57</v>
+        <v>13.61</v>
       </c>
     </row>
     <row r="20">
@@ -1077,19 +937,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>26.86</v>
+        <v>21.1</v>
       </c>
       <c r="C20" t="n">
-        <v>14.07</v>
+        <v>25.9</v>
       </c>
       <c r="D20" t="n">
-        <v>22.37</v>
-      </c>
-      <c r="E20" t="n">
-        <v>19.63</v>
-      </c>
-      <c r="F20" t="n">
-        <v>26.07</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21">
@@ -1097,19 +951,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>27.84</v>
+        <v>21.22</v>
       </c>
       <c r="C21" t="n">
-        <v>15.21</v>
+        <v>26.24</v>
       </c>
       <c r="D21" t="n">
-        <v>22.43</v>
-      </c>
-      <c r="E21" t="n">
-        <v>19.45</v>
-      </c>
-      <c r="F21" t="n">
-        <v>25.57</v>
+        <v>12.54</v>
       </c>
     </row>
     <row r="22">
@@ -1117,19 +965,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>28.8</v>
+        <v>21.32</v>
       </c>
       <c r="C22" t="n">
-        <v>16.41</v>
+        <v>26.59</v>
       </c>
       <c r="D22" t="n">
-        <v>22.45</v>
-      </c>
-      <c r="E22" t="n">
-        <v>19.27</v>
-      </c>
-      <c r="F22" t="n">
-        <v>25.07</v>
+        <v>12.09</v>
       </c>
     </row>
     <row r="23">
@@ -1137,19 +979,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>29.77</v>
+        <v>20.86</v>
       </c>
       <c r="C23" t="n">
-        <v>17.61</v>
+        <v>27.01</v>
       </c>
       <c r="D23" t="n">
-        <v>22.52</v>
-      </c>
-      <c r="E23" t="n">
-        <v>18.99</v>
-      </c>
-      <c r="F23" t="n">
-        <v>24.48</v>
+        <v>12.13</v>
       </c>
     </row>
     <row r="24">
@@ -1157,19 +993,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>30.73</v>
+        <v>20.23</v>
       </c>
       <c r="C24" t="n">
-        <v>18.81</v>
+        <v>26.99</v>
       </c>
       <c r="D24" t="n">
-        <v>22.53</v>
-      </c>
-      <c r="E24" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="F24" t="n">
-        <v>23.97</v>
+        <v>12.78</v>
       </c>
     </row>
     <row r="25">
@@ -1177,19 +1007,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>31.75</v>
+        <v>19.47</v>
       </c>
       <c r="C25" t="n">
-        <v>18.49</v>
+        <v>26.97</v>
       </c>
       <c r="D25" t="n">
-        <v>22.47</v>
-      </c>
-      <c r="E25" t="n">
-        <v>18.42</v>
-      </c>
-      <c r="F25" t="n">
-        <v>23.49</v>
+        <v>13.56</v>
       </c>
     </row>
     <row r="26">
@@ -1197,19 +1021,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>32.91</v>
+        <v>18.72</v>
       </c>
       <c r="C26" t="n">
-        <v>18.18</v>
+        <v>26.91</v>
       </c>
       <c r="D26" t="n">
-        <v>22.39</v>
-      </c>
-      <c r="E26" t="n">
-        <v>18.13</v>
-      </c>
-      <c r="F26" t="n">
-        <v>23.01</v>
+        <v>14.27</v>
       </c>
     </row>
     <row r="27">
@@ -1217,19 +1035,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>34.04</v>
+        <v>17.98</v>
       </c>
       <c r="C27" t="n">
-        <v>17.51</v>
+        <v>26.71</v>
       </c>
       <c r="D27" t="n">
-        <v>22.32</v>
-      </c>
-      <c r="E27" t="n">
-        <v>18.22</v>
-      </c>
-      <c r="F27" t="n">
-        <v>22.53</v>
+        <v>15.11</v>
       </c>
     </row>
     <row r="28">
@@ -1237,19 +1049,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>35.05</v>
+        <v>17.64</v>
       </c>
       <c r="C28" t="n">
-        <v>16.84</v>
+        <v>26.07</v>
       </c>
       <c r="D28" t="n">
-        <v>22.43</v>
-      </c>
-      <c r="E28" t="n">
-        <v>18.32</v>
-      </c>
-      <c r="F28" t="n">
-        <v>21.97</v>
+        <v>15.99</v>
       </c>
     </row>
     <row r="29">
@@ -1257,19 +1063,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>36.05</v>
+        <v>17.37</v>
       </c>
       <c r="C29" t="n">
-        <v>15.91</v>
+        <v>25.42</v>
       </c>
       <c r="D29" t="n">
-        <v>22.54</v>
-      </c>
-      <c r="E29" t="n">
-        <v>18.43</v>
-      </c>
-      <c r="F29" t="n">
-        <v>21.68</v>
+        <v>16.91</v>
       </c>
     </row>
     <row r="30">
@@ -1277,19 +1077,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>36.03</v>
+        <v>17.09</v>
       </c>
       <c r="C30" t="n">
-        <v>15.76</v>
+        <v>24.87</v>
       </c>
       <c r="D30" t="n">
-        <v>22.65</v>
-      </c>
-      <c r="E30" t="n">
-        <v>18.55</v>
-      </c>
-      <c r="F30" t="n">
-        <v>21.63</v>
+        <v>17.74</v>
       </c>
     </row>
     <row r="31">
@@ -1297,19 +1091,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>36</v>
+        <v>17.02</v>
       </c>
       <c r="C31" t="n">
-        <v>15.52</v>
+        <v>24.32</v>
       </c>
       <c r="D31" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="E31" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="F31" t="n">
-        <v>21.58</v>
+        <v>18.36</v>
       </c>
     </row>
     <row r="32">
@@ -1317,19 +1105,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>35.99</v>
+        <v>16.76</v>
       </c>
       <c r="C32" t="n">
-        <v>15.29</v>
+        <v>23.96</v>
       </c>
       <c r="D32" t="n">
-        <v>22.96</v>
-      </c>
-      <c r="E32" t="n">
-        <v>18.87</v>
-      </c>
-      <c r="F32" t="n">
-        <v>21.51</v>
+        <v>18.98</v>
       </c>
     </row>
     <row r="33">
@@ -1337,19 +1119,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>36.01</v>
+        <v>16.37</v>
       </c>
       <c r="C33" t="n">
-        <v>15.06</v>
+        <v>23.74</v>
       </c>
       <c r="D33" t="n">
-        <v>23.13</v>
-      </c>
-      <c r="E33" t="n">
-        <v>19.12</v>
-      </c>
-      <c r="F33" t="n">
-        <v>21.42</v>
+        <v>19.59</v>
       </c>
     </row>
     <row r="34">
@@ -1357,19 +1133,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>35.96</v>
+        <v>16.23</v>
       </c>
       <c r="C34" t="n">
-        <v>14.92</v>
+        <v>23.95</v>
       </c>
       <c r="D34" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="E34" t="n">
-        <v>19.39</v>
-      </c>
-      <c r="F34" t="n">
-        <v>21.3</v>
+        <v>19.52</v>
       </c>
     </row>
     <row r="35">
@@ -1377,19 +1147,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>35.85</v>
+        <v>15.6</v>
       </c>
       <c r="C35" t="n">
-        <v>15.23</v>
+        <v>24.73</v>
       </c>
       <c r="D35" t="n">
-        <v>23.09</v>
-      </c>
-      <c r="E35" t="n">
-        <v>19.66</v>
-      </c>
-      <c r="F35" t="n">
-        <v>21.16</v>
+        <v>19.37</v>
       </c>
     </row>
     <row r="36">
@@ -1397,19 +1161,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>35.54</v>
+        <v>15.16</v>
       </c>
       <c r="C36" t="n">
-        <v>15.51</v>
+        <v>25.51</v>
       </c>
       <c r="D36" t="n">
-        <v>23.03</v>
-      </c>
-      <c r="E36" t="n">
-        <v>19.91</v>
-      </c>
-      <c r="F36" t="n">
-        <v>21.02</v>
+        <v>19.13</v>
       </c>
     </row>
     <row r="37">
@@ -1417,19 +1175,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>35.25</v>
+        <v>15.72</v>
       </c>
       <c r="C37" t="n">
-        <v>16.21</v>
+        <v>26.22</v>
       </c>
       <c r="D37" t="n">
-        <v>22.96</v>
-      </c>
-      <c r="E37" t="n">
-        <v>19.76</v>
-      </c>
-      <c r="F37" t="n">
-        <v>20.82</v>
+        <v>18.96</v>
       </c>
     </row>
     <row r="38">
@@ -1437,19 +1189,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>34.89</v>
+        <v>16.51</v>
       </c>
       <c r="C38" t="n">
-        <v>17</v>
+        <v>26.76</v>
       </c>
       <c r="D38" t="n">
-        <v>22.94</v>
-      </c>
-      <c r="E38" t="n">
-        <v>19.55</v>
-      </c>
-      <c r="F38" t="n">
-        <v>20.63</v>
+        <v>18.73</v>
       </c>
     </row>
     <row r="39">
@@ -1457,19 +1203,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>34.6</v>
+        <v>17.17</v>
       </c>
       <c r="C39" t="n">
-        <v>17.75</v>
+        <v>27.42</v>
       </c>
       <c r="D39" t="n">
-        <v>22.92</v>
-      </c>
-      <c r="E39" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="F39" t="n">
-        <v>20.44</v>
+        <v>18.41</v>
       </c>
     </row>
     <row r="40">
@@ -1477,19 +1217,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>34.24</v>
+        <v>17.88</v>
       </c>
       <c r="C40" t="n">
-        <v>17.45</v>
+        <v>28.13</v>
       </c>
       <c r="D40" t="n">
-        <v>22.82</v>
-      </c>
-      <c r="E40" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="F40" t="n">
-        <v>21.38</v>
+        <v>17.99</v>
       </c>
     </row>
     <row r="41">
@@ -1497,19 +1231,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>33.9</v>
+        <v>18.6</v>
       </c>
       <c r="C41" t="n">
-        <v>17.29</v>
+        <v>28.86</v>
       </c>
       <c r="D41" t="n">
-        <v>22.58</v>
-      </c>
-      <c r="E41" t="n">
-        <v>18.89</v>
-      </c>
-      <c r="F41" t="n">
-        <v>22.33</v>
+        <v>17.54</v>
       </c>
     </row>
     <row r="42">
@@ -1517,19 +1245,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>33.67</v>
+        <v>19.61</v>
       </c>
       <c r="C42" t="n">
-        <v>16.99</v>
+        <v>29.28</v>
       </c>
       <c r="D42" t="n">
-        <v>22.35</v>
-      </c>
-      <c r="E42" t="n">
-        <v>18.68</v>
-      </c>
-      <c r="F42" t="n">
-        <v>23.3</v>
+        <v>17.11</v>
       </c>
     </row>
     <row r="43">
@@ -1537,19 +1259,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>33.4</v>
+        <v>20.63</v>
       </c>
       <c r="C43" t="n">
-        <v>16.62</v>
+        <v>29.61</v>
       </c>
       <c r="D43" t="n">
-        <v>22.12</v>
-      </c>
-      <c r="E43" t="n">
-        <v>18.41</v>
-      </c>
-      <c r="F43" t="n">
-        <v>24.47</v>
+        <v>16.76</v>
       </c>
     </row>
     <row r="44">
@@ -1557,19 +1273,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>33.22</v>
+        <v>21.58</v>
       </c>
       <c r="C44" t="n">
-        <v>16.13</v>
+        <v>29.95</v>
       </c>
       <c r="D44" t="n">
-        <v>21.89</v>
-      </c>
-      <c r="E44" t="n">
-        <v>18.14</v>
-      </c>
-      <c r="F44" t="n">
-        <v>25.67</v>
+        <v>16.47</v>
       </c>
     </row>
     <row r="45">
@@ -1577,19 +1287,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>33.06</v>
+        <v>23.19</v>
       </c>
       <c r="C45" t="n">
-        <v>15.23</v>
+        <v>29.69</v>
       </c>
       <c r="D45" t="n">
-        <v>22.02</v>
-      </c>
-      <c r="E45" t="n">
-        <v>17.86</v>
-      </c>
-      <c r="F45" t="n">
-        <v>26.86</v>
+        <v>16.12</v>
       </c>
     </row>
     <row r="46">
@@ -1597,19 +1301,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>32.96</v>
+        <v>24.6</v>
       </c>
       <c r="C46" t="n">
-        <v>14.35</v>
+        <v>29.48</v>
       </c>
       <c r="D46" t="n">
-        <v>22.01</v>
-      </c>
-      <c r="E46" t="n">
-        <v>17.65</v>
-      </c>
-      <c r="F46" t="n">
-        <v>28.06</v>
+        <v>15.92</v>
       </c>
     </row>
     <row r="47">
@@ -1617,19 +1315,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>32.86</v>
+        <v>25.02</v>
       </c>
       <c r="C47" t="n">
-        <v>13.46</v>
+        <v>29.28</v>
       </c>
       <c r="D47" t="n">
-        <v>22.02</v>
-      </c>
-      <c r="E47" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="F47" t="n">
-        <v>29.32</v>
+        <v>15.7</v>
       </c>
     </row>
     <row r="48">
@@ -1637,19 +1329,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>32.81</v>
+        <v>25.13</v>
       </c>
       <c r="C48" t="n">
-        <v>12.59</v>
+        <v>29.34</v>
       </c>
       <c r="D48" t="n">
-        <v>21.81</v>
-      </c>
-      <c r="E48" t="n">
-        <v>17.22</v>
-      </c>
-      <c r="F48" t="n">
-        <v>30.65</v>
+        <v>15.53</v>
       </c>
     </row>
     <row r="49">
@@ -1657,19 +1343,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>32.7</v>
+        <v>25.27</v>
       </c>
       <c r="C49" t="n">
-        <v>11.96</v>
+        <v>29.32</v>
       </c>
       <c r="D49" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="E49" t="n">
-        <v>16.85</v>
-      </c>
-      <c r="F49" t="n">
-        <v>31.99</v>
+        <v>15.41</v>
       </c>
     </row>
     <row r="50">
@@ -1677,19 +1357,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>32.67</v>
+        <v>25</v>
       </c>
       <c r="C50" t="n">
-        <v>12.33</v>
+        <v>29.31</v>
       </c>
       <c r="D50" t="n">
-        <v>21.45</v>
-      </c>
-      <c r="E50" t="n">
-        <v>16.48</v>
-      </c>
-      <c r="F50" t="n">
-        <v>32.17</v>
+        <v>15.69</v>
       </c>
     </row>
     <row r="51">
@@ -1697,19 +1371,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>32.54</v>
+        <v>24.7</v>
       </c>
       <c r="C51" t="n">
-        <v>12.32</v>
+        <v>29.26</v>
       </c>
       <c r="D51" t="n">
-        <v>21.38</v>
-      </c>
-      <c r="E51" t="n">
-        <v>16.11</v>
-      </c>
-      <c r="F51" t="n">
-        <v>32.75</v>
+        <v>16.04</v>
       </c>
     </row>
     <row r="52">
@@ -1717,19 +1385,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>32.3</v>
+        <v>24.28</v>
       </c>
       <c r="C52" t="n">
-        <v>12.39</v>
+        <v>29.32</v>
       </c>
       <c r="D52" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="E52" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="F52" t="n">
-        <v>33.31</v>
+        <v>16.4</v>
       </c>
     </row>
     <row r="53">
@@ -1737,19 +1399,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>32.04</v>
+        <v>23.87</v>
       </c>
       <c r="C53" t="n">
-        <v>12.63</v>
+        <v>29.39</v>
       </c>
       <c r="D53" t="n">
-        <v>21.35</v>
-      </c>
-      <c r="E53" t="n">
-        <v>15.38</v>
-      </c>
-      <c r="F53" t="n">
-        <v>33.68</v>
+        <v>16.74</v>
       </c>
     </row>
     <row r="54">
@@ -1757,19 +1413,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>31.77</v>
+        <v>23.44</v>
       </c>
       <c r="C54" t="n">
-        <v>13.03</v>
+        <v>29.08</v>
       </c>
       <c r="D54" t="n">
-        <v>21.19</v>
-      </c>
-      <c r="E54" t="n">
-        <v>15.05</v>
-      </c>
-      <c r="F54" t="n">
-        <v>34.03</v>
+        <v>17.48</v>
       </c>
     </row>
     <row r="55">
@@ -1777,19 +1427,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>31.52</v>
+        <v>22.99</v>
       </c>
       <c r="C55" t="n">
-        <v>13.46</v>
+        <v>28.73</v>
       </c>
       <c r="D55" t="n">
-        <v>20.98</v>
-      </c>
-      <c r="E55" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="F55" t="n">
-        <v>34.38</v>
+        <v>18.28</v>
       </c>
     </row>
     <row r="56">
@@ -1797,19 +1441,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>31.28</v>
+        <v>22.51</v>
       </c>
       <c r="C56" t="n">
-        <v>13.96</v>
+        <v>28.36</v>
       </c>
       <c r="D56" t="n">
-        <v>20.76</v>
-      </c>
-      <c r="E56" t="n">
-        <v>14.33</v>
-      </c>
-      <c r="F56" t="n">
-        <v>34.73</v>
+        <v>19.13</v>
       </c>
     </row>
     <row r="57">
@@ -1817,19 +1455,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>31.08</v>
+        <v>22.05</v>
       </c>
       <c r="C57" t="n">
-        <v>14.31</v>
+        <v>27.97</v>
       </c>
       <c r="D57" t="n">
-        <v>20.52</v>
-      </c>
-      <c r="E57" t="n">
-        <v>14</v>
-      </c>
-      <c r="F57" t="n">
-        <v>35.13</v>
+        <v>19.98</v>
       </c>
     </row>
     <row r="58">
@@ -1837,19 +1469,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>30.88</v>
+        <v>21.67</v>
       </c>
       <c r="C58" t="n">
-        <v>14.73</v>
+        <v>27.5</v>
       </c>
       <c r="D58" t="n">
-        <v>20.28</v>
-      </c>
-      <c r="E58" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="F58" t="n">
-        <v>35.52</v>
+        <v>20.83</v>
       </c>
     </row>
     <row r="59">
@@ -1857,19 +1483,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>30.61</v>
+        <v>20.91</v>
       </c>
       <c r="C59" t="n">
-        <v>15.1</v>
+        <v>27.48</v>
       </c>
       <c r="D59" t="n">
-        <v>20.05</v>
-      </c>
-      <c r="E59" t="n">
-        <v>13.41</v>
-      </c>
-      <c r="F59" t="n">
-        <v>35.83</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="60">
@@ -1877,19 +1497,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>30.26</v>
+        <v>20.59</v>
       </c>
       <c r="C60" t="n">
-        <v>15.62</v>
+        <v>27.44</v>
       </c>
       <c r="D60" t="n">
-        <v>19.81</v>
-      </c>
-      <c r="E60" t="n">
-        <v>13.23</v>
-      </c>
-      <c r="F60" t="n">
-        <v>36.08</v>
+        <v>21.96</v>
       </c>
     </row>
     <row r="61">
@@ -1897,19 +1511,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>30.11</v>
+        <v>20.28</v>
       </c>
       <c r="C61" t="n">
-        <v>16.42</v>
+        <v>27.43</v>
       </c>
       <c r="D61" t="n">
-        <v>19.52</v>
-      </c>
-      <c r="E61" t="n">
-        <v>13.04</v>
-      </c>
-      <c r="F61" t="n">
-        <v>35.91</v>
+        <v>22.29</v>
       </c>
     </row>
     <row r="62">
@@ -1917,19 +1525,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>29.96</v>
+        <v>19.95</v>
       </c>
       <c r="C62" t="n">
-        <v>17.29</v>
+        <v>27.44</v>
       </c>
       <c r="D62" t="n">
-        <v>19.15</v>
-      </c>
-      <c r="E62" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="F62" t="n">
-        <v>35.7</v>
+        <v>22.62</v>
       </c>
     </row>
     <row r="63">
@@ -1937,19 +1539,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>29.81</v>
+        <v>20.21</v>
       </c>
       <c r="C63" t="n">
-        <v>18.06</v>
+        <v>27.42</v>
       </c>
       <c r="D63" t="n">
-        <v>18.85</v>
-      </c>
-      <c r="E63" t="n">
-        <v>12.76</v>
-      </c>
-      <c r="F63" t="n">
-        <v>35.52</v>
+        <v>22.37</v>
       </c>
     </row>
     <row r="64">
@@ -1957,19 +1553,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>29.66</v>
+        <v>20.49</v>
       </c>
       <c r="C64" t="n">
-        <v>18.71</v>
+        <v>27.8</v>
       </c>
       <c r="D64" t="n">
-        <v>18.67</v>
-      </c>
-      <c r="E64" t="n">
-        <v>12.62</v>
-      </c>
-      <c r="F64" t="n">
-        <v>35.34</v>
+        <v>21.71</v>
       </c>
     </row>
     <row r="65">
@@ -1977,19 +1567,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>29.43</v>
+        <v>20.67</v>
       </c>
       <c r="C65" t="n">
-        <v>19.48</v>
+        <v>28.42</v>
       </c>
       <c r="D65" t="n">
-        <v>18.47</v>
-      </c>
-      <c r="E65" t="n">
-        <v>12.46</v>
-      </c>
-      <c r="F65" t="n">
-        <v>35.16</v>
+        <v>20.91</v>
       </c>
     </row>
     <row r="66">
@@ -1997,19 +1581,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>29.52</v>
+        <v>20.91</v>
       </c>
       <c r="C66" t="n">
-        <v>19.92</v>
+        <v>29.04</v>
       </c>
       <c r="D66" t="n">
-        <v>18.28</v>
-      </c>
-      <c r="E66" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F66" t="n">
-        <v>34.98</v>
+        <v>20.07</v>
       </c>
     </row>
     <row r="67">
@@ -2017,19 +1595,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>29.57</v>
+        <v>21.15</v>
       </c>
       <c r="C67" t="n">
-        <v>20.4</v>
+        <v>29.68</v>
       </c>
       <c r="D67" t="n">
-        <v>18.15</v>
-      </c>
-      <c r="E67" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="F67" t="n">
-        <v>34.73</v>
+        <v>19.21</v>
       </c>
     </row>
     <row r="68">
@@ -2037,19 +1609,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>29.64</v>
+        <v>21.4</v>
       </c>
       <c r="C68" t="n">
-        <v>20.8</v>
+        <v>30.3</v>
       </c>
       <c r="D68" t="n">
-        <v>18.03</v>
+        <v>18.36</v>
       </c>
       <c r="E68" t="n">
-        <v>12.09</v>
-      </c>
-      <c r="F68" t="n">
-        <v>34.48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69">
@@ -2057,19 +1626,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>29.79</v>
+        <v>22.04</v>
       </c>
       <c r="C69" t="n">
-        <v>21.11</v>
+        <v>30.45</v>
       </c>
       <c r="D69" t="n">
-        <v>17.86</v>
+        <v>17.59</v>
       </c>
       <c r="E69" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="F69" t="n">
-        <v>34.26</v>
+        <v>21.7</v>
       </c>
     </row>
     <row r="70">
@@ -2077,19 +1643,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>29.98</v>
+        <v>22.62</v>
       </c>
       <c r="C70" t="n">
-        <v>21.05</v>
+        <v>30.62</v>
       </c>
       <c r="D70" t="n">
-        <v>18.4</v>
+        <v>16.52</v>
       </c>
       <c r="E70" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="F70" t="n">
-        <v>33.62</v>
+        <v>22.07666666666666</v>
       </c>
     </row>
     <row r="71">
@@ -2097,19 +1660,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>30.06</v>
+        <v>23.14</v>
       </c>
       <c r="C71" t="n">
-        <v>21.02</v>
+        <v>30.8</v>
       </c>
       <c r="D71" t="n">
-        <v>19</v>
+        <v>15.55</v>
       </c>
       <c r="E71" t="n">
-        <v>12</v>
-      </c>
-      <c r="F71" t="n">
-        <v>33</v>
+        <v>22.965</v>
       </c>
     </row>
     <row r="72">
@@ -2117,19 +1677,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>30.07</v>
+        <v>23.67</v>
       </c>
       <c r="C72" t="n">
-        <v>21.03</v>
+        <v>30.96</v>
       </c>
       <c r="D72" t="n">
-        <v>19.59</v>
+        <v>14.31</v>
       </c>
       <c r="E72" t="n">
-        <v>11.97</v>
-      </c>
-      <c r="F72" t="n">
-        <v>32.42</v>
+        <v>23.458</v>
       </c>
     </row>
     <row r="73">
@@ -2137,19 +1694,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>30.08</v>
+        <v>22.75</v>
       </c>
       <c r="C73" t="n">
-        <v>21.06</v>
+        <v>31.99</v>
       </c>
       <c r="D73" t="n">
-        <v>20.18</v>
+        <v>13.65</v>
       </c>
       <c r="E73" t="n">
-        <v>11.94</v>
-      </c>
-      <c r="F73" t="n">
-        <v>31.81</v>
+        <v>23.92</v>
       </c>
     </row>
     <row r="74">
@@ -2157,19 +1711,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>30.04</v>
+        <v>21.84</v>
       </c>
       <c r="C74" t="n">
-        <v>20.83</v>
+        <v>32.91</v>
       </c>
       <c r="D74" t="n">
-        <v>21.15</v>
+        <v>13.02</v>
       </c>
       <c r="E74" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="F74" t="n">
-        <v>31.2</v>
+        <v>24.35</v>
       </c>
     </row>
     <row r="75">
@@ -2177,19 +1728,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>30.09</v>
+        <v>20.95</v>
       </c>
       <c r="C75" t="n">
-        <v>20.44</v>
+        <v>33.65</v>
       </c>
       <c r="D75" t="n">
-        <v>22.18</v>
+        <v>12.48</v>
       </c>
       <c r="E75" t="n">
-        <v>11.79</v>
-      </c>
-      <c r="F75" t="n">
-        <v>30.59</v>
+        <v>24.6725</v>
       </c>
     </row>
     <row r="76">
@@ -2197,19 +1745,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>30.12</v>
+        <v>20.04</v>
       </c>
       <c r="C76" t="n">
-        <v>20.11</v>
+        <v>34.38</v>
       </c>
       <c r="D76" t="n">
-        <v>23.2</v>
+        <v>11.94</v>
       </c>
       <c r="E76" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="F76" t="n">
-        <v>29.98</v>
+        <v>24.99</v>
       </c>
     </row>
     <row r="77">
@@ -2217,19 +1762,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>30.11</v>
+        <v>19.09</v>
       </c>
       <c r="C77" t="n">
-        <v>19.63</v>
+        <v>35.1</v>
       </c>
       <c r="D77" t="n">
-        <v>24.18</v>
+        <v>11.41</v>
       </c>
       <c r="E77" t="n">
-        <v>11.53</v>
-      </c>
-      <c r="F77" t="n">
-        <v>29.63</v>
+        <v>25.234</v>
       </c>
     </row>
     <row r="78">
@@ -2237,19 +1779,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>30.07</v>
+        <v>18.15</v>
       </c>
       <c r="C78" t="n">
-        <v>19.2</v>
+        <v>35.79</v>
       </c>
       <c r="D78" t="n">
-        <v>25.16</v>
+        <v>10.88</v>
       </c>
       <c r="E78" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="F78" t="n">
-        <v>29.27</v>
+        <v>25.234</v>
       </c>
     </row>
     <row r="79">
@@ -2257,19 +1796,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>30.01</v>
+        <v>17.2</v>
       </c>
       <c r="C79" t="n">
-        <v>18.75</v>
+        <v>36.41</v>
       </c>
       <c r="D79" t="n">
-        <v>26.2</v>
+        <v>10.46</v>
       </c>
       <c r="E79" t="n">
-        <v>11.08</v>
-      </c>
-      <c r="F79" t="n">
-        <v>28.96</v>
+        <v>25.977</v>
       </c>
     </row>
     <row r="80">
@@ -2277,19 +1813,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>29.98</v>
+        <v>16.27</v>
       </c>
       <c r="C80" t="n">
-        <v>18.57</v>
+        <v>37.02</v>
       </c>
       <c r="D80" t="n">
-        <v>26.59</v>
+        <v>10.28</v>
       </c>
       <c r="E80" t="n">
-        <v>10.82</v>
-      </c>
-      <c r="F80" t="n">
-        <v>29.04</v>
+        <v>26.45</v>
       </c>
     </row>
     <row r="81">
@@ -2297,19 +1830,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>29.89</v>
+        <v>15.32</v>
       </c>
       <c r="C81" t="n">
-        <v>18.29</v>
+        <v>37.55</v>
       </c>
       <c r="D81" t="n">
-        <v>27.14</v>
+        <v>9.91</v>
       </c>
       <c r="E81" t="n">
-        <v>10.56</v>
-      </c>
-      <c r="F81" t="n">
-        <v>29.12</v>
+        <v>27.22000000000001</v>
       </c>
     </row>
     <row r="82">
@@ -2317,19 +1847,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>29.83</v>
+        <v>14.36</v>
       </c>
       <c r="C82" t="n">
-        <v>17.91</v>
+        <v>38.09</v>
       </c>
       <c r="D82" t="n">
-        <v>27.68</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="E82" t="n">
-        <v>10.31</v>
-      </c>
-      <c r="F82" t="n">
-        <v>29.27</v>
+        <v>27.69</v>
       </c>
     </row>
     <row r="83">
@@ -2337,19 +1864,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>29.71</v>
+        <v>14.23</v>
       </c>
       <c r="C83" t="n">
-        <v>16.99</v>
+        <v>37.9</v>
       </c>
       <c r="D83" t="n">
-        <v>28.23</v>
+        <v>9.68</v>
       </c>
       <c r="E83" t="n">
-        <v>9.970000000000001</v>
-      </c>
-      <c r="F83" t="n">
-        <v>30.09</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="84">
@@ -2357,19 +1881,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>29.64</v>
+        <v>14.13</v>
       </c>
       <c r="C84" t="n">
-        <v>16.35</v>
+        <v>37.78</v>
       </c>
       <c r="D84" t="n">
-        <v>28.41</v>
+        <v>9.5</v>
       </c>
       <c r="E84" t="n">
-        <v>9.69</v>
-      </c>
-      <c r="F84" t="n">
-        <v>30.91</v>
+        <v>28.59</v>
       </c>
     </row>
     <row r="85">
@@ -2377,19 +1898,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>29.51</v>
+        <v>14.33</v>
       </c>
       <c r="C85" t="n">
-        <v>15.77</v>
+        <v>37.66</v>
       </c>
       <c r="D85" t="n">
-        <v>28.58</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="E85" t="n">
-        <v>9.41</v>
-      </c>
-      <c r="F85" t="n">
-        <v>31.73</v>
+        <v>28.63</v>
       </c>
     </row>
     <row r="86">
@@ -2397,19 +1915,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>29.09</v>
+        <v>14.64</v>
       </c>
       <c r="C86" t="n">
-        <v>15.38</v>
+        <v>37.53</v>
       </c>
       <c r="D86" t="n">
-        <v>28.68</v>
+        <v>9.25</v>
       </c>
       <c r="E86" t="n">
-        <v>9.369999999999999</v>
-      </c>
-      <c r="F86" t="n">
-        <v>32.47</v>
+        <v>28.57999999999999</v>
       </c>
     </row>
     <row r="87">
@@ -2417,19 +1932,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>28.89</v>
+        <v>14.97</v>
       </c>
       <c r="C87" t="n">
-        <v>15.04</v>
+        <v>37.83</v>
       </c>
       <c r="D87" t="n">
-        <v>28.79</v>
+        <v>8.81</v>
       </c>
       <c r="E87" t="n">
-        <v>9.33</v>
-      </c>
-      <c r="F87" t="n">
-        <v>32.95</v>
+        <v>28.39</v>
       </c>
     </row>
     <row r="88">
@@ -2437,19 +1949,16 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>28.78</v>
+        <v>15.28</v>
       </c>
       <c r="C88" t="n">
-        <v>14.64</v>
+        <v>38.16</v>
       </c>
       <c r="D88" t="n">
-        <v>28.84</v>
+        <v>8.35</v>
       </c>
       <c r="E88" t="n">
-        <v>9.31</v>
-      </c>
-      <c r="F88" t="n">
-        <v>33.44</v>
+        <v>28.21</v>
       </c>
     </row>
     <row r="89">
@@ -2457,19 +1966,16 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>28.46</v>
+        <v>15.57</v>
       </c>
       <c r="C89" t="n">
-        <v>14.45</v>
+        <v>38.48</v>
       </c>
       <c r="D89" t="n">
-        <v>28.89</v>
+        <v>7.73</v>
       </c>
       <c r="E89" t="n">
-        <v>9.31</v>
-      </c>
-      <c r="F89" t="n">
-        <v>33.89</v>
+        <v>28.21</v>
       </c>
     </row>
     <row r="90">
@@ -2477,19 +1983,16 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>28.15</v>
+        <v>15.92</v>
       </c>
       <c r="C90" t="n">
-        <v>14.46</v>
+        <v>38.74</v>
       </c>
       <c r="D90" t="n">
-        <v>28.69</v>
+        <v>7.21</v>
       </c>
       <c r="E90" t="n">
-        <v>9.31</v>
-      </c>
-      <c r="F90" t="n">
-        <v>34.39</v>
+        <v>28.13</v>
       </c>
     </row>
     <row r="91">
@@ -2497,19 +2000,16 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>27.84</v>
+        <v>16.35</v>
       </c>
       <c r="C91" t="n">
-        <v>14.62</v>
+        <v>39.06</v>
       </c>
       <c r="D91" t="n">
-        <v>28.34</v>
+        <v>6.75</v>
       </c>
       <c r="E91" t="n">
-        <v>9.31</v>
-      </c>
-      <c r="F91" t="n">
-        <v>34.89</v>
+        <v>27.83999999999999</v>
       </c>
     </row>
     <row r="92">
@@ -2517,19 +2017,16 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>27.54</v>
+        <v>16.6</v>
       </c>
       <c r="C92" t="n">
-        <v>14.78</v>
+        <v>39.68</v>
       </c>
       <c r="D92" t="n">
-        <v>27.99</v>
+        <v>6.21</v>
       </c>
       <c r="E92" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="F92" t="n">
-        <v>35.38</v>
+        <v>27.51</v>
       </c>
     </row>
     <row r="93">
@@ -2537,19 +2034,16 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>26.85</v>
+        <v>16.95</v>
       </c>
       <c r="C93" t="n">
-        <v>15.93</v>
+        <v>40.17</v>
       </c>
       <c r="D93" t="n">
-        <v>27.65</v>
+        <v>5.78</v>
       </c>
       <c r="E93" t="n">
-        <v>9.369999999999999</v>
-      </c>
-      <c r="F93" t="n">
-        <v>35.2</v>
+        <v>27.1</v>
       </c>
     </row>
     <row r="94">
@@ -2557,19 +2051,16 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>26.09</v>
+        <v>17.26</v>
       </c>
       <c r="C94" t="n">
-        <v>17.17</v>
+        <v>40.67</v>
       </c>
       <c r="D94" t="n">
-        <v>27.3</v>
+        <v>5.82</v>
       </c>
       <c r="E94" t="n">
-        <v>9.42</v>
-      </c>
-      <c r="F94" t="n">
-        <v>35.02</v>
+        <v>26.254</v>
       </c>
     </row>
     <row r="95">
@@ -2577,19 +2068,16 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>25.37</v>
+        <v>17.28</v>
       </c>
       <c r="C95" t="n">
-        <v>18.23</v>
+        <v>41.15</v>
       </c>
       <c r="D95" t="n">
-        <v>27.99</v>
+        <v>5.83</v>
       </c>
       <c r="E95" t="n">
-        <v>8.57</v>
-      </c>
-      <c r="F95" t="n">
-        <v>34.84</v>
+        <v>25.738</v>
       </c>
     </row>
     <row r="96">
@@ -2597,19 +2085,16 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>25.33</v>
+        <v>17.81</v>
       </c>
       <c r="C96" t="n">
-        <v>18.63</v>
+        <v>41.65</v>
       </c>
       <c r="D96" t="n">
-        <v>28.75</v>
+        <v>5.86</v>
       </c>
       <c r="E96" t="n">
-        <v>7.57</v>
-      </c>
-      <c r="F96" t="n">
-        <v>34.72</v>
+        <v>24.68</v>
       </c>
     </row>
     <row r="97">
@@ -2617,19 +2102,16 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>25.17</v>
+        <v>18.24</v>
       </c>
       <c r="C97" t="n">
-        <v>20.02</v>
+        <v>41.63</v>
       </c>
       <c r="D97" t="n">
-        <v>28.63</v>
+        <v>6.52</v>
       </c>
       <c r="E97" t="n">
-        <v>6.57</v>
-      </c>
-      <c r="F97" t="n">
-        <v>34.61</v>
+        <v>23.602</v>
       </c>
     </row>
     <row r="98">
@@ -2637,19 +2119,16 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>24.9</v>
+        <v>18.64</v>
       </c>
       <c r="C98" t="n">
-        <v>21.45</v>
+        <v>41.54</v>
       </c>
       <c r="D98" t="n">
-        <v>28.56</v>
+        <v>7.3</v>
       </c>
       <c r="E98" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="F98" t="n">
-        <v>34.51</v>
+        <v>22.514</v>
       </c>
     </row>
     <row r="99">
@@ -2657,19 +2136,16 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>24.85</v>
+        <v>17.59</v>
       </c>
       <c r="C99" t="n">
-        <v>22.61</v>
+        <v>41.52</v>
       </c>
       <c r="D99" t="n">
-        <v>28.47</v>
+        <v>8.09</v>
       </c>
       <c r="E99" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="F99" t="n">
-        <v>34.45</v>
+        <v>22.801</v>
       </c>
     </row>
     <row r="100">
@@ -2677,19 +2153,16 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>24.85</v>
+        <v>15.81</v>
       </c>
       <c r="C100" t="n">
-        <v>23.5</v>
+        <v>41.47</v>
       </c>
       <c r="D100" t="n">
-        <v>28.56</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="E100" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="F100" t="n">
-        <v>34.43</v>
+        <v>23.078</v>
       </c>
     </row>
     <row r="101">
@@ -2697,19 +2170,16 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>24.89</v>
+        <v>16.04</v>
       </c>
       <c r="C101" t="n">
-        <v>24.3</v>
+        <v>41.41</v>
       </c>
       <c r="D101" t="n">
-        <v>28.65</v>
+        <v>10.99</v>
       </c>
       <c r="E101" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="F101" t="n">
-        <v>34.43</v>
+        <v>23.56</v>
       </c>
     </row>
     <row r="102">
@@ -2717,19 +2187,16 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>24.89</v>
+        <v>16.27</v>
       </c>
       <c r="C102" t="n">
-        <v>25.22</v>
+        <v>41.06</v>
       </c>
       <c r="D102" t="n">
-        <v>28.75</v>
+        <v>12.35</v>
       </c>
       <c r="E102" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="F102" t="n">
-        <v>34.33</v>
+        <v>24.312</v>
       </c>
     </row>
     <row r="103">
@@ -2737,19 +2204,16 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>25.37</v>
+        <v>16.49</v>
       </c>
       <c r="C103" t="n">
-        <v>25.73</v>
+        <v>40.7</v>
       </c>
       <c r="D103" t="n">
-        <v>28.82</v>
+        <v>13.67</v>
       </c>
       <c r="E103" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="F103" t="n">
-        <v>34.18</v>
+        <v>25.144</v>
       </c>
     </row>
     <row r="104">
@@ -2757,19 +2221,16 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>25.87</v>
+        <v>16.63</v>
       </c>
       <c r="C104" t="n">
-        <v>26.24</v>
+        <v>40.28</v>
       </c>
       <c r="D104" t="n">
-        <v>28.88</v>
+        <v>14.68</v>
       </c>
       <c r="E104" t="n">
-        <v>0</v>
-      </c>
-      <c r="F104" t="n">
-        <v>34.01</v>
+        <v>26.412</v>
       </c>
     </row>
     <row r="105">
@@ -2777,19 +2238,16 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>26.37</v>
+        <v>16.55</v>
       </c>
       <c r="C105" t="n">
-        <v>26.84</v>
+        <v>39.79</v>
       </c>
       <c r="D105" t="n">
-        <v>27.96</v>
+        <v>16.08</v>
       </c>
       <c r="E105" t="n">
-        <v>0</v>
-      </c>
-      <c r="F105" t="n">
-        <v>33.83</v>
+        <v>27.578</v>
       </c>
     </row>
     <row r="106">
@@ -2797,19 +2255,16 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>26.12</v>
+        <v>15.83</v>
       </c>
       <c r="C106" t="n">
-        <v>28.16</v>
+        <v>39.55</v>
       </c>
       <c r="D106" t="n">
-        <v>27.05</v>
+        <v>17.49</v>
       </c>
       <c r="E106" t="n">
-        <v>0</v>
-      </c>
-      <c r="F106" t="n">
-        <v>33.67</v>
+        <v>29.136</v>
       </c>
     </row>
     <row r="107">
@@ -2817,19 +2272,16 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>25.89</v>
+        <v>15.14</v>
       </c>
       <c r="C107" t="n">
-        <v>28.45</v>
+        <v>39.63</v>
       </c>
       <c r="D107" t="n">
-        <v>27.14</v>
+        <v>18.43</v>
       </c>
       <c r="E107" t="n">
-        <v>0</v>
-      </c>
-      <c r="F107" t="n">
-        <v>33.52</v>
+        <v>30.794</v>
       </c>
     </row>
     <row r="108">
@@ -2837,19 +2289,16 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>25.64</v>
+        <v>14.47</v>
       </c>
       <c r="C108" t="n">
-        <v>28.7</v>
+        <v>39.54</v>
       </c>
       <c r="D108" t="n">
-        <v>27.22</v>
+        <v>19.6</v>
       </c>
       <c r="E108" t="n">
-        <v>0</v>
-      </c>
-      <c r="F108" t="n">
-        <v>33.44</v>
+        <v>32.402</v>
       </c>
     </row>
     <row r="109">
@@ -2857,19 +2306,16 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>25.34</v>
+        <v>15.99</v>
       </c>
       <c r="C109" t="n">
-        <v>28.83</v>
+        <v>39.01</v>
       </c>
       <c r="D109" t="n">
-        <v>27.26</v>
+        <v>20.76</v>
       </c>
       <c r="E109" t="n">
-        <v>0</v>
-      </c>
-      <c r="F109" t="n">
-        <v>33.57</v>
+        <v>32.24300000000001</v>
       </c>
     </row>
     <row r="110">
@@ -2877,19 +2323,16 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>24.99</v>
+        <v>20.7</v>
       </c>
       <c r="C110" t="n">
-        <v>28.97</v>
+        <v>36.33</v>
       </c>
       <c r="D110" t="n">
-        <v>27.31</v>
+        <v>21.02</v>
       </c>
       <c r="E110" t="n">
-        <v>0</v>
-      </c>
-      <c r="F110" t="n">
-        <v>33.73</v>
+        <v>31.95000000000001</v>
       </c>
     </row>
     <row r="111">
@@ -2897,19 +2340,16 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>24.66</v>
+        <v>24.08</v>
       </c>
       <c r="C111" t="n">
-        <v>28.93</v>
+        <v>33.59</v>
       </c>
       <c r="D111" t="n">
-        <v>27.54</v>
+        <v>21.21</v>
       </c>
       <c r="E111" t="n">
-        <v>0</v>
-      </c>
-      <c r="F111" t="n">
-        <v>33.87</v>
+        <v>31.127</v>
       </c>
     </row>
     <row r="112">
@@ -2917,19 +2357,16 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>24.32</v>
+        <v>27.63</v>
       </c>
       <c r="C112" t="n">
-        <v>28.77</v>
+        <v>31.1</v>
       </c>
       <c r="D112" t="n">
-        <v>27.85</v>
+        <v>21.17</v>
       </c>
       <c r="E112" t="n">
-        <v>0</v>
-      </c>
-      <c r="F112" t="n">
-        <v>34.06</v>
+        <v>30.094</v>
       </c>
     </row>
     <row r="113">
@@ -2937,19 +2374,16 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>23.99</v>
+        <v>31.11</v>
       </c>
       <c r="C113" t="n">
-        <v>28.51</v>
+        <v>28.56</v>
       </c>
       <c r="D113" t="n">
-        <v>28.18</v>
+        <v>21.14</v>
       </c>
       <c r="E113" t="n">
-        <v>0</v>
-      </c>
-      <c r="F113" t="n">
-        <v>34.32</v>
+        <v>29.191</v>
       </c>
     </row>
     <row r="114">
@@ -2957,19 +2391,16 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>23.48</v>
+        <v>34.48</v>
       </c>
       <c r="C114" t="n">
-        <v>28.46</v>
+        <v>26.1</v>
       </c>
       <c r="D114" t="n">
-        <v>28.46</v>
+        <v>21.62</v>
       </c>
       <c r="E114" t="n">
-        <v>0</v>
-      </c>
-      <c r="F114" t="n">
-        <v>34.6</v>
+        <v>27.816</v>
       </c>
     </row>
     <row r="115">
@@ -2977,19 +2408,16 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>22.92</v>
+        <v>38.05</v>
       </c>
       <c r="C115" t="n">
-        <v>28.41</v>
+        <v>23.71</v>
       </c>
       <c r="D115" t="n">
-        <v>28.81</v>
+        <v>21.75</v>
       </c>
       <c r="E115" t="n">
-        <v>0</v>
-      </c>
-      <c r="F115" t="n">
-        <v>34.86</v>
+        <v>26.533</v>
       </c>
     </row>
     <row r="116">
@@ -2997,19 +2425,16 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>22.43</v>
+        <v>41.84</v>
       </c>
       <c r="C116" t="n">
-        <v>28.3</v>
+        <v>21.05</v>
       </c>
       <c r="D116" t="n">
-        <v>29.16</v>
+        <v>21.86</v>
       </c>
       <c r="E116" t="n">
-        <v>0</v>
-      </c>
-      <c r="F116" t="n">
-        <v>35.1</v>
+        <v>25.29</v>
       </c>
     </row>
     <row r="117">
@@ -3017,19 +2442,16 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>21.93</v>
+        <v>45.4</v>
       </c>
       <c r="C117" t="n">
-        <v>28.32</v>
+        <v>18.56</v>
       </c>
       <c r="D117" t="n">
-        <v>29.4</v>
+        <v>22.11</v>
       </c>
       <c r="E117" t="n">
-        <v>0</v>
-      </c>
-      <c r="F117" t="n">
-        <v>35.35</v>
+        <v>23.967</v>
       </c>
     </row>
     <row r="118">
@@ -3037,19 +2459,16 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>21.57</v>
+        <v>48.67</v>
       </c>
       <c r="C118" t="n">
-        <v>28.32</v>
+        <v>16.29</v>
       </c>
       <c r="D118" t="n">
-        <v>29.62</v>
+        <v>20.8</v>
       </c>
       <c r="E118" t="n">
-        <v>0</v>
-      </c>
-      <c r="F118" t="n">
-        <v>35.49</v>
+        <v>24.279</v>
       </c>
     </row>
     <row r="119">
@@ -3057,19 +2476,16 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>21.21</v>
+        <v>51.56</v>
       </c>
       <c r="C119" t="n">
-        <v>28.36</v>
+        <v>14.4</v>
       </c>
       <c r="D119" t="n">
-        <v>29.89</v>
+        <v>19.34</v>
       </c>
       <c r="E119" t="n">
-        <v>0</v>
-      </c>
-      <c r="F119" t="n">
-        <v>35.54</v>
+        <v>24.743</v>
       </c>
     </row>
     <row r="120">
@@ -3077,19 +2493,16 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>20.92</v>
+        <v>51.97</v>
       </c>
       <c r="C120" t="n">
-        <v>28.39</v>
+        <v>14.77</v>
       </c>
       <c r="D120" t="n">
-        <v>30.16</v>
+        <v>17.04</v>
       </c>
       <c r="E120" t="n">
-        <v>0</v>
-      </c>
-      <c r="F120" t="n">
-        <v>35.53</v>
+        <v>26.258</v>
       </c>
     </row>
     <row r="121">
@@ -3097,19 +2510,16 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>20.62</v>
+        <v>51.72</v>
       </c>
       <c r="C121" t="n">
-        <v>28.69</v>
+        <v>15.21</v>
       </c>
       <c r="D121" t="n">
-        <v>30.25</v>
+        <v>15.04</v>
       </c>
       <c r="E121" t="n">
-        <v>0</v>
-      </c>
-      <c r="F121" t="n">
-        <v>35.44</v>
+        <v>28.06799999999999</v>
       </c>
     </row>
     <row r="122">
@@ -3117,19 +2527,16 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>20.39</v>
+        <v>51.42</v>
       </c>
       <c r="C122" t="n">
-        <v>28.93</v>
+        <v>15.41</v>
       </c>
       <c r="D122" t="n">
-        <v>30.33</v>
+        <v>15.25</v>
       </c>
       <c r="E122" t="n">
-        <v>0</v>
-      </c>
-      <c r="F122" t="n">
-        <v>35.35</v>
+        <v>29.95499999999999</v>
       </c>
     </row>
     <row r="123">
@@ -3137,19 +2544,16 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>20.15</v>
+        <v>51.04</v>
       </c>
       <c r="C123" t="n">
-        <v>29.22</v>
+        <v>15.66</v>
       </c>
       <c r="D123" t="n">
-        <v>30.39</v>
+        <v>15.45</v>
       </c>
       <c r="E123" t="n">
-        <v>0</v>
-      </c>
-      <c r="F123" t="n">
-        <v>35.24</v>
+        <v>31.882</v>
       </c>
     </row>
     <row r="124">
@@ -3157,19 +2561,16 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>20.13</v>
+        <v>50.87</v>
       </c>
       <c r="C124" t="n">
-        <v>29.19</v>
+        <v>15.91</v>
       </c>
       <c r="D124" t="n">
-        <v>30.51</v>
+        <v>14.96</v>
       </c>
       <c r="E124" t="n">
-        <v>0</v>
-      </c>
-      <c r="F124" t="n">
-        <v>35.17</v>
+        <v>34.281</v>
       </c>
     </row>
     <row r="125">
@@ -3177,19 +2578,16 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>20.17</v>
+        <v>50.72</v>
       </c>
       <c r="C125" t="n">
-        <v>29.17</v>
+        <v>16.16</v>
       </c>
       <c r="D125" t="n">
-        <v>30.53</v>
+        <v>14.45</v>
       </c>
       <c r="E125" t="n">
-        <v>0</v>
-      </c>
-      <c r="F125" t="n">
-        <v>35.13</v>
+        <v>36.67</v>
       </c>
     </row>
     <row r="126">
@@ -3197,19 +2595,16 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>19.59</v>
+        <v>50.34</v>
       </c>
       <c r="C126" t="n">
-        <v>29.13</v>
+        <v>16.41</v>
       </c>
       <c r="D126" t="n">
-        <v>31.2</v>
+        <v>13.97</v>
       </c>
       <c r="E126" t="n">
-        <v>0</v>
-      </c>
-      <c r="F126" t="n">
-        <v>35.08</v>
+        <v>39.279</v>
       </c>
     </row>
     <row r="127">
@@ -3217,19 +2612,16 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>18.97</v>
+        <v>50.27</v>
       </c>
       <c r="C127" t="n">
-        <v>29.22</v>
+        <v>16.27</v>
       </c>
       <c r="D127" t="n">
-        <v>31.8</v>
+        <v>13.49</v>
       </c>
       <c r="E127" t="n">
-        <v>0</v>
-      </c>
-      <c r="F127" t="n">
-        <v>35.01</v>
+        <v>41.968</v>
       </c>
     </row>
     <row r="128">
@@ -3237,19 +2629,16 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>18.24</v>
+        <v>50.49</v>
       </c>
       <c r="C128" t="n">
-        <v>29.36</v>
+        <v>16.15</v>
       </c>
       <c r="D128" t="n">
-        <v>32.42</v>
+        <v>14.25</v>
       </c>
       <c r="E128" t="n">
-        <v>0</v>
-      </c>
-      <c r="F128" t="n">
-        <v>34.97</v>
+        <v>43.112</v>
       </c>
     </row>
     <row r="129">
@@ -3257,19 +2646,16 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>17.34</v>
+        <v>50.08</v>
       </c>
       <c r="C129" t="n">
-        <v>29.8</v>
+        <v>16.09</v>
       </c>
       <c r="D129" t="n">
-        <v>33.06</v>
+        <v>15.22</v>
       </c>
       <c r="E129" t="n">
-        <v>0</v>
-      </c>
-      <c r="F129" t="n">
-        <v>34.8</v>
+        <v>44.611</v>
       </c>
     </row>
     <row r="130">
@@ -3277,19 +2663,16 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>16.38</v>
+        <v>49.61</v>
       </c>
       <c r="C130" t="n">
-        <v>30.4</v>
+        <v>16.01</v>
       </c>
       <c r="D130" t="n">
-        <v>33.54</v>
+        <v>17.18</v>
       </c>
       <c r="E130" t="n">
-        <v>0</v>
-      </c>
-      <c r="F130" t="n">
-        <v>34.69</v>
+        <v>45.203</v>
       </c>
     </row>
     <row r="131">
@@ -3297,19 +2680,16 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>15.42</v>
+        <v>49.11</v>
       </c>
       <c r="C131" t="n">
-        <v>31.39</v>
+        <v>15.92</v>
       </c>
       <c r="D131" t="n">
-        <v>33.55</v>
+        <v>19.17</v>
       </c>
       <c r="E131" t="n">
-        <v>0</v>
-      </c>
-      <c r="F131" t="n">
-        <v>34.64</v>
+        <v>45.795</v>
       </c>
     </row>
     <row r="132">
@@ -3317,19 +2697,16 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>14.37</v>
+        <v>48.67</v>
       </c>
       <c r="C132" t="n">
-        <v>32.54</v>
+        <v>15.85</v>
       </c>
       <c r="D132" t="n">
-        <v>33.51</v>
+        <v>19.08</v>
       </c>
       <c r="E132" t="n">
-        <v>0</v>
-      </c>
-      <c r="F132" t="n">
-        <v>34.58</v>
+        <v>46.40000000000001</v>
       </c>
     </row>
     <row r="133">
@@ -3337,19 +2714,16 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>13.32</v>
+        <v>48.3</v>
       </c>
       <c r="C133" t="n">
-        <v>33.6</v>
+        <v>15.5</v>
       </c>
       <c r="D133" t="n">
-        <v>33.54</v>
+        <v>19.06</v>
       </c>
       <c r="E133" t="n">
-        <v>0</v>
-      </c>
-      <c r="F133" t="n">
-        <v>34.54</v>
+        <v>47.13</v>
       </c>
     </row>
     <row r="134">
@@ -3357,19 +2731,16 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>12.19</v>
+        <v>47.72</v>
       </c>
       <c r="C134" t="n">
-        <v>34.68</v>
+        <v>15.14</v>
       </c>
       <c r="D134" t="n">
-        <v>33.67</v>
+        <v>19.29</v>
       </c>
       <c r="E134" t="n">
-        <v>0</v>
-      </c>
-      <c r="F134" t="n">
-        <v>34.46</v>
+        <v>47.85000000000001</v>
       </c>
     </row>
     <row r="135">
@@ -3377,19 +2748,16 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>11.07</v>
+        <v>47.11</v>
       </c>
       <c r="C135" t="n">
-        <v>35.77</v>
+        <v>14.83</v>
       </c>
       <c r="D135" t="n">
-        <v>33.8</v>
+        <v>19.51</v>
       </c>
       <c r="E135" t="n">
-        <v>0</v>
-      </c>
-      <c r="F135" t="n">
-        <v>34.36</v>
+        <v>48.54000000000001</v>
       </c>
     </row>
     <row r="136">
@@ -3397,19 +2765,16 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>10.54</v>
+        <v>46.5</v>
       </c>
       <c r="C136" t="n">
-        <v>37.36</v>
+        <v>14.55</v>
       </c>
       <c r="D136" t="n">
-        <v>33.28</v>
+        <v>20.5</v>
       </c>
       <c r="E136" t="n">
-        <v>0</v>
-      </c>
-      <c r="F136" t="n">
-        <v>33.82</v>
+        <v>48.45</v>
       </c>
     </row>
     <row r="137">
@@ -3417,19 +2782,16 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>10.08</v>
+        <v>45.87</v>
       </c>
       <c r="C137" t="n">
-        <v>38.8</v>
+        <v>14.25</v>
       </c>
       <c r="D137" t="n">
-        <v>32.83</v>
+        <v>21.47</v>
       </c>
       <c r="E137" t="n">
-        <v>0</v>
-      </c>
-      <c r="F137" t="n">
-        <v>33.3</v>
+        <v>48.4</v>
       </c>
     </row>
     <row r="138">
@@ -3437,19 +2799,16 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>9.640000000000001</v>
+        <v>45.26</v>
       </c>
       <c r="C138" t="n">
-        <v>40.3</v>
+        <v>13.94</v>
       </c>
       <c r="D138" t="n">
-        <v>32.17</v>
+        <v>22.45</v>
       </c>
       <c r="E138" t="n">
-        <v>0</v>
-      </c>
-      <c r="F138" t="n">
-        <v>32.89</v>
+        <v>48.36</v>
       </c>
     </row>
     <row r="139">
@@ -3457,19 +2816,16 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>9.449999999999999</v>
+        <v>44.9</v>
       </c>
       <c r="C139" t="n">
-        <v>41.28</v>
+        <v>13.62</v>
       </c>
       <c r="D139" t="n">
-        <v>31.5</v>
+        <v>23.43</v>
       </c>
       <c r="E139" t="n">
-        <v>0</v>
-      </c>
-      <c r="F139" t="n">
-        <v>32.77</v>
+        <v>48.05499999999999</v>
       </c>
     </row>
     <row r="140">
@@ -3477,19 +2833,16 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>9.07</v>
+        <v>44.75</v>
       </c>
       <c r="C140" t="n">
-        <v>42.29</v>
+        <v>13.25</v>
       </c>
       <c r="D140" t="n">
-        <v>30.99</v>
+        <v>24.24</v>
       </c>
       <c r="E140" t="n">
-        <v>2</v>
-      </c>
-      <c r="F140" t="n">
-        <v>32.65</v>
+        <v>47.76000000000001</v>
       </c>
     </row>
     <row r="141">
@@ -3497,19 +2850,16 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>8.66</v>
+        <v>44.62</v>
       </c>
       <c r="C141" t="n">
-        <v>42.75</v>
+        <v>12.87</v>
       </c>
       <c r="D141" t="n">
-        <v>30.94</v>
+        <v>25.07</v>
       </c>
       <c r="E141" t="n">
-        <v>4</v>
-      </c>
-      <c r="F141" t="n">
-        <v>32.64</v>
+        <v>47.44500000000001</v>
       </c>
     </row>
     <row r="142">
@@ -3517,19 +2867,16 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>8.26</v>
+        <v>44.5</v>
       </c>
       <c r="C142" t="n">
-        <v>43.1</v>
+        <v>12.46</v>
       </c>
       <c r="D142" t="n">
-        <v>30.67</v>
+        <v>25.71</v>
       </c>
       <c r="E142" t="n">
-        <v>6</v>
-      </c>
-      <c r="F142" t="n">
-        <v>32.98</v>
+        <v>47.32000000000001</v>
       </c>
     </row>
     <row r="143">
@@ -3537,19 +2884,16 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>8.1</v>
+        <v>44.86</v>
       </c>
       <c r="C143" t="n">
-        <v>43.3</v>
+        <v>11.93</v>
       </c>
       <c r="D143" t="n">
-        <v>30.31</v>
+        <v>26.37</v>
       </c>
       <c r="E143" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="F143" t="n">
-        <v>33.31</v>
+        <v>46.84</v>
       </c>
     </row>
     <row r="144">
@@ -3557,19 +2901,16 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>8</v>
+        <v>45.38</v>
       </c>
       <c r="C144" t="n">
-        <v>43.5</v>
+        <v>11.41</v>
       </c>
       <c r="D144" t="n">
-        <v>29.85</v>
+        <v>26.84</v>
       </c>
       <c r="E144" t="n">
-        <v>9.92</v>
-      </c>
-      <c r="F144" t="n">
-        <v>33.73</v>
+        <v>46.37</v>
       </c>
     </row>
     <row r="145">
@@ -3577,19 +2918,16 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>8.27</v>
+        <v>45.92</v>
       </c>
       <c r="C145" t="n">
-        <v>43.49</v>
+        <v>11.1</v>
       </c>
       <c r="D145" t="n">
-        <v>29.22</v>
+        <v>27.31</v>
       </c>
       <c r="E145" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="F145" t="n">
-        <v>34.15</v>
+        <v>45.67</v>
       </c>
     </row>
     <row r="146">
@@ -3597,19 +2935,16 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>8.460000000000001</v>
+        <v>46.47</v>
       </c>
       <c r="C146" t="n">
-        <v>43.23</v>
+        <v>10.76</v>
       </c>
       <c r="D146" t="n">
-        <v>28.59</v>
+        <v>27.09</v>
       </c>
       <c r="E146" t="n">
-        <v>13.78</v>
-      </c>
-      <c r="F146" t="n">
-        <v>34.94</v>
+        <v>45.67</v>
       </c>
     </row>
     <row r="147">
@@ -3617,19 +2952,16 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>8.529999999999999</v>
+        <v>46.57</v>
       </c>
       <c r="C147" t="n">
-        <v>42.89</v>
+        <v>10.38</v>
       </c>
       <c r="D147" t="n">
-        <v>27.86</v>
+        <v>27.42</v>
       </c>
       <c r="E147" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="F147" t="n">
-        <v>36.02</v>
+        <v>45.63000000000001</v>
       </c>
     </row>
     <row r="148">
@@ -3637,19 +2969,16 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>8.6</v>
+        <v>46.58</v>
       </c>
       <c r="C148" t="n">
-        <v>42.44</v>
+        <v>10.19</v>
       </c>
       <c r="D148" t="n">
-        <v>27.27</v>
+        <v>27.68</v>
       </c>
       <c r="E148" t="n">
-        <v>17.68</v>
-      </c>
-      <c r="F148" t="n">
-        <v>37.01</v>
+        <v>45.55</v>
       </c>
     </row>
     <row r="149">
@@ -3657,19 +2986,16 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>8.76</v>
+        <v>46.94</v>
       </c>
       <c r="C149" t="n">
-        <v>42.28</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="D149" t="n">
-        <v>26.69</v>
+        <v>27.66</v>
       </c>
       <c r="E149" t="n">
-        <v>19.59</v>
-      </c>
-      <c r="F149" t="n">
-        <v>37.7</v>
+        <v>45.42</v>
       </c>
     </row>
     <row r="150">
@@ -3677,19 +3003,16 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>9.210000000000001</v>
+        <v>47.17</v>
       </c>
       <c r="C150" t="n">
-        <v>41.92</v>
+        <v>9.65</v>
       </c>
       <c r="D150" t="n">
-        <v>26.01</v>
+        <v>27.71</v>
       </c>
       <c r="E150" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="F150" t="n">
-        <v>38.4</v>
+        <v>45.47000000000001</v>
       </c>
     </row>
     <row r="151">
@@ -3697,19 +3020,16 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>9.84</v>
+        <v>47.32</v>
       </c>
       <c r="C151" t="n">
-        <v>41.48</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="D151" t="n">
-        <v>25.33</v>
+        <v>27.52</v>
       </c>
       <c r="E151" t="n">
-        <v>19.41</v>
-      </c>
-      <c r="F151" t="n">
-        <v>39</v>
+        <v>45.54000000000001</v>
       </c>
     </row>
     <row r="152">
@@ -3717,19 +3037,16 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>10.61</v>
+        <v>46.82</v>
       </c>
       <c r="C152" t="n">
-        <v>41.04</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="D152" t="n">
-        <v>24.86</v>
+        <v>26.95</v>
       </c>
       <c r="E152" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="F152" t="n">
-        <v>39.25</v>
+        <v>46.61</v>
       </c>
     </row>
     <row r="153">
@@ -3737,19 +3054,16 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>11.08</v>
+        <v>45.85</v>
       </c>
       <c r="C153" t="n">
-        <v>40.91</v>
+        <v>9.67</v>
       </c>
       <c r="D153" t="n">
-        <v>24.39</v>
+        <v>26.37</v>
       </c>
       <c r="E153" t="n">
-        <v>19.19</v>
-      </c>
-      <c r="F153" t="n">
-        <v>39.49</v>
+        <v>48.119</v>
       </c>
     </row>
     <row r="154">
@@ -3757,19 +3071,16 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>11.37</v>
+        <v>44.92</v>
       </c>
       <c r="C154" t="n">
-        <v>40.56</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="D154" t="n">
-        <v>23.92</v>
+        <v>25.75</v>
       </c>
       <c r="E154" t="n">
-        <v>19.11</v>
-      </c>
-      <c r="F154" t="n">
-        <v>40.1</v>
+        <v>49.608</v>
       </c>
     </row>
     <row r="155">
@@ -3777,19 +3088,16 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>11.21</v>
+        <v>43.91</v>
       </c>
       <c r="C155" t="n">
-        <v>40.48</v>
+        <v>9.51</v>
       </c>
       <c r="D155" t="n">
-        <v>23.63</v>
+        <v>25.24</v>
       </c>
       <c r="E155" t="n">
-        <v>19.03</v>
-      </c>
-      <c r="F155" t="n">
-        <v>40.71</v>
+        <v>51.347</v>
       </c>
     </row>
     <row r="156">
@@ -3797,19 +3105,16 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>10.97</v>
+        <v>42.92</v>
       </c>
       <c r="C156" t="n">
-        <v>40.38</v>
+        <v>9.31</v>
       </c>
       <c r="D156" t="n">
-        <v>23.34</v>
+        <v>24.62</v>
       </c>
       <c r="E156" t="n">
-        <v>18.97</v>
-      </c>
-      <c r="F156" t="n">
-        <v>41.4</v>
+        <v>53.146</v>
       </c>
     </row>
     <row r="157">
@@ -3817,19 +3122,16 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>10.75</v>
+        <v>42.38</v>
       </c>
       <c r="C157" t="n">
-        <v>40.04</v>
+        <v>9.27</v>
       </c>
       <c r="D157" t="n">
-        <v>23.13</v>
+        <v>23.47</v>
       </c>
       <c r="E157" t="n">
-        <v>18.83</v>
-      </c>
-      <c r="F157" t="n">
-        <v>42.31</v>
+        <v>54.88500000000001</v>
       </c>
     </row>
     <row r="158">
@@ -3837,19 +3139,16 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>10.53</v>
+        <v>42.49</v>
       </c>
       <c r="C158" t="n">
-        <v>39.78</v>
+        <v>8.98</v>
       </c>
       <c r="D158" t="n">
-        <v>22.97</v>
+        <v>21.92</v>
       </c>
       <c r="E158" t="n">
-        <v>18.57</v>
-      </c>
-      <c r="F158" t="n">
-        <v>43.21</v>
+        <v>56.61400000000001</v>
       </c>
     </row>
     <row r="159">
@@ -3857,19 +3156,16 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>10.15</v>
+        <v>42.79</v>
       </c>
       <c r="C159" t="n">
-        <v>39.52</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D159" t="n">
-        <v>22.74</v>
+        <v>20.59</v>
       </c>
       <c r="E159" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="F159" t="n">
-        <v>44.04</v>
+        <v>57.92399999999999</v>
       </c>
     </row>
     <row r="160">
@@ -3877,19 +3173,16 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>9.609999999999999</v>
+        <v>43</v>
       </c>
       <c r="C160" t="n">
-        <v>39.38</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="D160" t="n">
-        <v>22.61</v>
+        <v>19.36</v>
       </c>
       <c r="E160" t="n">
-        <v>18.56</v>
-      </c>
-      <c r="F160" t="n">
-        <v>44.87</v>
+        <v>59.03400000000001</v>
       </c>
     </row>
     <row r="161">
@@ -3897,19 +3190,16 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>9.02</v>
+        <v>42.44</v>
       </c>
       <c r="C161" t="n">
-        <v>39.29</v>
+        <v>8.16</v>
       </c>
       <c r="D161" t="n">
-        <v>22.47</v>
+        <v>19.33</v>
       </c>
       <c r="E161" t="n">
-        <v>18.53</v>
-      </c>
-      <c r="F161" t="n">
-        <v>45.69</v>
+        <v>60.072</v>
       </c>
     </row>
     <row r="162">
@@ -3917,19 +3207,16 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>8.33</v>
+        <v>42.53</v>
       </c>
       <c r="C162" t="n">
-        <v>37.71</v>
+        <v>7.05</v>
       </c>
       <c r="D162" t="n">
-        <v>23.91</v>
+        <v>19.91</v>
       </c>
       <c r="E162" t="n">
-        <v>18.51</v>
-      </c>
-      <c r="F162" t="n">
-        <v>46.53</v>
+        <v>60.515</v>
       </c>
     </row>
     <row r="163">
@@ -3937,19 +3224,16 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>8</v>
+        <v>42.71</v>
       </c>
       <c r="C163" t="n">
-        <v>35.77</v>
+        <v>6.27</v>
       </c>
       <c r="D163" t="n">
-        <v>25.35</v>
+        <v>20.48</v>
       </c>
       <c r="E163" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="F163" t="n">
-        <v>47.39</v>
+        <v>60.544</v>
       </c>
     </row>
     <row r="164">
@@ -3957,19 +3241,16 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>7.83</v>
+        <v>43.26</v>
       </c>
       <c r="C164" t="n">
-        <v>34.13</v>
+        <v>8.48</v>
       </c>
       <c r="D164" t="n">
-        <v>26.79</v>
+        <v>20.67</v>
       </c>
       <c r="E164" t="n">
-        <v>18.49</v>
-      </c>
-      <c r="F164" t="n">
-        <v>47.77</v>
+        <v>60.593</v>
       </c>
     </row>
     <row r="165">
@@ -3977,19 +3258,16 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>7.72</v>
+        <v>43.97</v>
       </c>
       <c r="C165" t="n">
-        <v>32.55</v>
+        <v>10.68</v>
       </c>
       <c r="D165" t="n">
-        <v>28.23</v>
+        <v>20.76</v>
       </c>
       <c r="E165" t="n">
-        <v>18.47</v>
-      </c>
-      <c r="F165" t="n">
-        <v>48.04</v>
+        <v>60.58200000000001</v>
       </c>
     </row>
     <row r="166">
@@ -3997,19 +3275,16 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>7.82</v>
+        <v>44.67</v>
       </c>
       <c r="C166" t="n">
-        <v>30.74</v>
+        <v>13.12</v>
       </c>
       <c r="D166" t="n">
-        <v>29.66</v>
+        <v>20.67</v>
       </c>
       <c r="E166" t="n">
-        <v>18.44</v>
-      </c>
-      <c r="F166" t="n">
-        <v>48.33</v>
+        <v>60.55100000000001</v>
       </c>
     </row>
     <row r="167">
@@ -4017,19 +3292,16 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>7.57</v>
+        <v>45.34</v>
       </c>
       <c r="C167" t="n">
-        <v>29.77</v>
+        <v>14.35</v>
       </c>
       <c r="D167" t="n">
-        <v>31.06</v>
+        <v>21.81</v>
       </c>
       <c r="E167" t="n">
-        <v>18.48</v>
-      </c>
-      <c r="F167" t="n">
-        <v>48.11</v>
+        <v>60.5</v>
       </c>
     </row>
     <row r="168">
@@ -4037,19 +3309,16 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>7.25</v>
+        <v>42.28</v>
       </c>
       <c r="C168" t="n">
-        <v>28.73</v>
+        <v>13.57</v>
       </c>
       <c r="D168" t="n">
-        <v>32.46</v>
+        <v>28.76</v>
       </c>
       <c r="E168" t="n">
-        <v>18.67</v>
-      </c>
-      <c r="F168" t="n">
-        <v>47.89</v>
+        <v>60.399</v>
       </c>
     </row>
     <row r="169">
@@ -4057,19 +3326,16 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>7</v>
+        <v>38.7</v>
       </c>
       <c r="C169" t="n">
-        <v>27.72</v>
+        <v>12.8</v>
       </c>
       <c r="D169" t="n">
-        <v>33.93</v>
+        <v>35.75</v>
       </c>
       <c r="E169" t="n">
-        <v>18.63</v>
-      </c>
-      <c r="F169" t="n">
-        <v>47.72</v>
+        <v>60.747</v>
       </c>
     </row>
     <row r="170">
@@ -4077,19 +3343,16 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>6.79</v>
+        <v>34.86</v>
       </c>
       <c r="C170" t="n">
-        <v>26.61</v>
+        <v>12.02</v>
       </c>
       <c r="D170" t="n">
-        <v>35.4</v>
+        <v>43.02</v>
       </c>
       <c r="E170" t="n">
-        <v>18.65</v>
-      </c>
-      <c r="F170" t="n">
-        <v>47.55</v>
+        <v>61.09499999999999</v>
       </c>
     </row>
     <row r="171">
@@ -4097,19 +3360,16 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>6.48</v>
+        <v>31.87</v>
       </c>
       <c r="C171" t="n">
-        <v>25.6</v>
+        <v>11.32</v>
       </c>
       <c r="D171" t="n">
-        <v>36.87</v>
+        <v>49.22</v>
       </c>
       <c r="E171" t="n">
-        <v>18.67</v>
-      </c>
-      <c r="F171" t="n">
-        <v>47.38</v>
+        <v>61.585</v>
       </c>
     </row>
     <row r="172">
@@ -4117,19 +3377,16 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>6.23</v>
+        <v>28.87</v>
       </c>
       <c r="C172" t="n">
-        <v>28.3</v>
+        <v>11.29</v>
       </c>
       <c r="D172" t="n">
-        <v>36.53</v>
+        <v>55.3</v>
       </c>
       <c r="E172" t="n">
-        <v>16.79</v>
-      </c>
-      <c r="F172" t="n">
-        <v>47.15</v>
+        <v>61.53999999999998</v>
       </c>
     </row>
     <row r="173">
@@ -4137,19 +3394,16 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>5.81</v>
+        <v>25.85</v>
       </c>
       <c r="C173" t="n">
-        <v>31.26</v>
+        <v>11.29</v>
       </c>
       <c r="D173" t="n">
-        <v>36.13</v>
+        <v>61.34</v>
       </c>
       <c r="E173" t="n">
-        <v>14.94</v>
-      </c>
-      <c r="F173" t="n">
-        <v>46.85</v>
+        <v>61.52</v>
       </c>
     </row>
     <row r="174">
@@ -4157,19 +3411,16 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>5.39</v>
+        <v>22.39</v>
       </c>
       <c r="C174" t="n">
-        <v>34.14</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="D174" t="n">
-        <v>35.68</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E174" t="n">
-        <v>13.09</v>
-      </c>
-      <c r="F174" t="n">
-        <v>46.69</v>
+        <v>61.41999999999999</v>
       </c>
     </row>
     <row r="175">
@@ -4177,19 +3428,16 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>5.07</v>
+        <v>19.76</v>
       </c>
       <c r="C175" t="n">
-        <v>36.87</v>
+        <v>5.31</v>
       </c>
       <c r="D175" t="n">
-        <v>35.3</v>
+        <v>74.41</v>
       </c>
       <c r="E175" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="F175" t="n">
-        <v>46.58</v>
+        <v>61.52</v>
       </c>
     </row>
     <row r="176">
@@ -4197,19 +3445,16 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>4.14</v>
+        <v>17.06</v>
       </c>
       <c r="C176" t="n">
-        <v>39.63</v>
+        <v>2.09</v>
       </c>
       <c r="D176" t="n">
-        <v>34.85</v>
+        <v>80.76000000000001</v>
       </c>
       <c r="E176" t="n">
-        <v>9.42</v>
-      </c>
-      <c r="F176" t="n">
-        <v>47.1</v>
+        <v>62.08000000000001</v>
       </c>
     </row>
     <row r="177">
@@ -4217,19 +3462,16 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>3.65</v>
+        <v>14.32</v>
       </c>
       <c r="C177" t="n">
-        <v>41.89</v>
+        <v>0</v>
       </c>
       <c r="D177" t="n">
-        <v>34.77</v>
+        <v>85.70999999999999</v>
       </c>
       <c r="E177" t="n">
-        <v>7.59</v>
-      </c>
-      <c r="F177" t="n">
-        <v>47.31</v>
+        <v>62.97500000000001</v>
       </c>
     </row>
     <row r="178">
@@ -4237,19 +3479,16 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>3.24</v>
+        <v>14.69</v>
       </c>
       <c r="C178" t="n">
-        <v>44.14</v>
+        <v>0</v>
       </c>
       <c r="D178" t="n">
-        <v>34.7</v>
+        <v>85.31</v>
       </c>
       <c r="E178" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="F178" t="n">
-        <v>47.51</v>
+        <v>63.997</v>
       </c>
     </row>
     <row r="179">
@@ -4257,19 +3496,16 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>2.82</v>
+        <v>13.24</v>
       </c>
       <c r="C179" t="n">
-        <v>46.37</v>
+        <v>0</v>
       </c>
       <c r="D179" t="n">
-        <v>34.39</v>
+        <v>84.93000000000001</v>
       </c>
       <c r="E179" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="F179" t="n">
-        <v>47.98</v>
+        <v>66.83600000000001</v>
       </c>
     </row>
     <row r="180">
@@ -4277,19 +3513,16 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>2.43</v>
+        <v>12.13</v>
       </c>
       <c r="C180" t="n">
-        <v>48.56</v>
+        <v>0</v>
       </c>
       <c r="D180" t="n">
-        <v>34.11</v>
+        <v>84.70999999999999</v>
       </c>
       <c r="E180" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="F180" t="n">
-        <v>48.43</v>
+        <v>69.155</v>
       </c>
     </row>
     <row r="181">
@@ -4297,19 +3530,16 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>2.01</v>
+        <v>11.04</v>
       </c>
       <c r="C181" t="n">
-        <v>50.78</v>
+        <v>0</v>
       </c>
       <c r="D181" t="n">
-        <v>33.76</v>
+        <v>84.48999999999999</v>
       </c>
       <c r="E181" t="n">
-        <v>0</v>
-      </c>
-      <c r="F181" t="n">
-        <v>48.94</v>
+        <v>71.46400000000001</v>
       </c>
     </row>
     <row r="182">
@@ -4317,19 +3547,16 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>1.59</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="C182" t="n">
-        <v>50.78</v>
+        <v>0</v>
       </c>
       <c r="D182" t="n">
-        <v>33.69</v>
+        <v>83.95</v>
       </c>
       <c r="E182" t="n">
-        <v>0</v>
-      </c>
-      <c r="F182" t="n">
-        <v>49.49</v>
+        <v>74.10299999999999</v>
       </c>
     </row>
     <row r="183">
@@ -4337,19 +3564,16 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>1.05</v>
+        <v>8.77</v>
       </c>
       <c r="C183" t="n">
-        <v>50.78</v>
+        <v>0</v>
       </c>
       <c r="D183" t="n">
-        <v>33.71</v>
+        <v>83.5</v>
       </c>
       <c r="E183" t="n">
-        <v>0</v>
-      </c>
-      <c r="F183" t="n">
-        <v>50.09</v>
+        <v>76.732</v>
       </c>
     </row>
     <row r="184">
@@ -4357,19 +3581,16 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>0.5600000000000001</v>
+        <v>7.68</v>
       </c>
       <c r="C184" t="n">
-        <v>50.78</v>
+        <v>0</v>
       </c>
       <c r="D184" t="n">
-        <v>33.77</v>
+        <v>82.81999999999999</v>
       </c>
       <c r="E184" t="n">
-        <v>0</v>
-      </c>
-      <c r="F184" t="n">
-        <v>50.6</v>
+        <v>79.501</v>
       </c>
     </row>
     <row r="185">
@@ -4377,79 +3598,16 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="C185" t="n">
         <v>0</v>
       </c>
-      <c r="C185" t="n">
-        <v>50.78</v>
-      </c>
       <c r="D185" t="n">
-        <v>33.35</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="E185" t="n">
-        <v>0</v>
-      </c>
-      <c r="F185" t="n">
-        <v>51.57</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>0</v>
-      </c>
-      <c r="C186" t="n">
-        <v>50.78</v>
-      </c>
-      <c r="D186" t="n">
-        <v>33.06</v>
-      </c>
-      <c r="E186" t="n">
-        <v>0</v>
-      </c>
-      <c r="F186" t="n">
-        <v>51.86</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>0</v>
-      </c>
-      <c r="C187" t="n">
-        <v>50.78</v>
-      </c>
-      <c r="D187" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="E187" t="n">
-        <v>0</v>
-      </c>
-      <c r="F187" t="n">
-        <v>52.43</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>0</v>
-      </c>
-      <c r="C188" t="n">
-        <v>50.78</v>
-      </c>
-      <c r="D188" t="n">
-        <v>31.97</v>
-      </c>
-      <c r="E188" t="n">
-        <v>0</v>
-      </c>
-      <c r="F188" t="n">
-        <v>52.95</v>
+        <v>81.95</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/stacks_over_time_avg.xlsx
+++ b/Outputs/stacks_over_time_avg.xlsx
@@ -194,7 +194,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$B$2:$B$185</f>
+              <f>'data'!$B$2:$B$205</f>
             </numRef>
           </val>
         </ser>
@@ -221,7 +221,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$C$2:$C$185</f>
+              <f>'data'!$C$2:$C$205</f>
             </numRef>
           </val>
         </ser>
@@ -248,7 +248,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$D$2:$D$185</f>
+              <f>'data'!$D$2:$D$205</f>
             </numRef>
           </val>
         </ser>
@@ -275,7 +275,34 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$E$2:$E$185</f>
+              <f>'data'!$E$2:$E$205</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <strRef>
+              <f>'data'!F1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'data'!$F$2:$F$205</f>
             </numRef>
           </val>
         </ser>
@@ -645,7 +672,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E185"/>
+  <dimension ref="A1:F205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -679,6 +706,11 @@
           <t>Scott</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Regan</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -699,13 +731,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>19.95</v>
+      </c>
+      <c r="C3" t="n">
         <v>20.05</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>20</v>
-      </c>
-      <c r="D3" t="n">
-        <v>19.95</v>
       </c>
     </row>
     <row r="4">
@@ -713,13 +745,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>19.53</v>
+        <v>19.93</v>
       </c>
       <c r="C4" t="n">
-        <v>20.76</v>
+        <v>20.13</v>
       </c>
       <c r="D4" t="n">
-        <v>19.72</v>
+        <v>19.93</v>
       </c>
     </row>
     <row r="5">
@@ -727,13 +759,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>19.27</v>
+        <v>20.8</v>
       </c>
       <c r="C5" t="n">
-        <v>21.18</v>
+        <v>20.12</v>
       </c>
       <c r="D5" t="n">
-        <v>19.55</v>
+        <v>19.07</v>
       </c>
     </row>
     <row r="6">
@@ -741,13 +773,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>19.03</v>
+        <v>21.52</v>
       </c>
       <c r="C6" t="n">
-        <v>21.44</v>
+        <v>20.08</v>
       </c>
       <c r="D6" t="n">
-        <v>19.53</v>
+        <v>18.4</v>
       </c>
     </row>
     <row r="7">
@@ -755,13 +787,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>18.6</v>
+        <v>22</v>
       </c>
       <c r="C7" t="n">
-        <v>22.15</v>
+        <v>20.08</v>
       </c>
       <c r="D7" t="n">
-        <v>19.25</v>
+        <v>17.92</v>
       </c>
     </row>
     <row r="8">
@@ -769,13 +801,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>18.29</v>
+        <v>22.31</v>
       </c>
       <c r="C8" t="n">
-        <v>22.65</v>
+        <v>20.14</v>
       </c>
       <c r="D8" t="n">
-        <v>19.06</v>
+        <v>17.54</v>
       </c>
     </row>
     <row r="9">
@@ -783,13 +815,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>18.04</v>
+        <v>22.54</v>
       </c>
       <c r="C9" t="n">
-        <v>23.02</v>
+        <v>20.1</v>
       </c>
       <c r="D9" t="n">
-        <v>18.94</v>
+        <v>17.36</v>
       </c>
     </row>
     <row r="10">
@@ -797,13 +829,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>17.83</v>
+        <v>22.71</v>
       </c>
       <c r="C10" t="n">
-        <v>23.24</v>
+        <v>20.09</v>
       </c>
       <c r="D10" t="n">
-        <v>18.93</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="11">
@@ -811,13 +843,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>17.69</v>
+        <v>22.95</v>
       </c>
       <c r="C11" t="n">
-        <v>23.41</v>
+        <v>20.06</v>
       </c>
       <c r="D11" t="n">
-        <v>18.9</v>
+        <v>16.99</v>
       </c>
     </row>
     <row r="12">
@@ -825,13 +857,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>17.69</v>
+        <v>22.95</v>
       </c>
       <c r="C12" t="n">
-        <v>23.41</v>
+        <v>20.06</v>
       </c>
       <c r="D12" t="n">
-        <v>18.9</v>
+        <v>16.99</v>
       </c>
     </row>
     <row r="13">
@@ -839,13 +871,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>18.04</v>
+        <v>23.48</v>
       </c>
       <c r="C13" t="n">
-        <v>23.76</v>
+        <v>20.02</v>
       </c>
       <c r="D13" t="n">
-        <v>18.2</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="14">
@@ -853,13 +885,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>18.37</v>
+        <v>24.02</v>
       </c>
       <c r="C14" t="n">
-        <v>24.12</v>
+        <v>19.96</v>
       </c>
       <c r="D14" t="n">
-        <v>17.52</v>
+        <v>16.02</v>
       </c>
     </row>
     <row r="15">
@@ -867,13 +899,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>18.93</v>
+        <v>24.52</v>
       </c>
       <c r="C15" t="n">
-        <v>24.24</v>
+        <v>19.93</v>
       </c>
       <c r="D15" t="n">
-        <v>16.82</v>
+        <v>15.55</v>
       </c>
     </row>
     <row r="16">
@@ -881,13 +913,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>19.48</v>
+        <v>24.66</v>
       </c>
       <c r="C16" t="n">
-        <v>24.38</v>
+        <v>19.9</v>
       </c>
       <c r="D16" t="n">
-        <v>16.14</v>
+        <v>15.44</v>
       </c>
     </row>
     <row r="17">
@@ -895,13 +927,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>20.06</v>
+        <v>26.35</v>
       </c>
       <c r="C17" t="n">
-        <v>24.71</v>
+        <v>19.78</v>
       </c>
       <c r="D17" t="n">
-        <v>15.23</v>
+        <v>13.87</v>
       </c>
     </row>
     <row r="18">
@@ -909,13 +941,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>20.4</v>
+        <v>28.16</v>
       </c>
       <c r="C18" t="n">
-        <v>25.16</v>
+        <v>19.52</v>
       </c>
       <c r="D18" t="n">
-        <v>14.43</v>
+        <v>12.32</v>
       </c>
     </row>
     <row r="19">
@@ -923,13 +955,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>20.77</v>
+        <v>30.01</v>
       </c>
       <c r="C19" t="n">
-        <v>25.61</v>
+        <v>19.2</v>
       </c>
       <c r="D19" t="n">
-        <v>13.61</v>
+        <v>10.79</v>
       </c>
     </row>
     <row r="20">
@@ -937,13 +969,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>21.1</v>
+        <v>31.82</v>
       </c>
       <c r="C20" t="n">
-        <v>25.9</v>
+        <v>19</v>
       </c>
       <c r="D20" t="n">
-        <v>13</v>
+        <v>9.18</v>
       </c>
     </row>
     <row r="21">
@@ -951,13 +983,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>21.22</v>
+        <v>33.33</v>
       </c>
       <c r="C21" t="n">
-        <v>26.24</v>
+        <v>19.08</v>
       </c>
       <c r="D21" t="n">
-        <v>12.54</v>
+        <v>7.59</v>
       </c>
     </row>
     <row r="22">
@@ -965,13 +997,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>21.32</v>
+        <v>34.72</v>
       </c>
       <c r="C22" t="n">
-        <v>26.59</v>
+        <v>19.2</v>
       </c>
       <c r="D22" t="n">
-        <v>12.09</v>
+        <v>8.08</v>
       </c>
     </row>
     <row r="23">
@@ -979,13 +1011,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>20.86</v>
+        <v>36.09</v>
       </c>
       <c r="C23" t="n">
-        <v>27.01</v>
+        <v>19.36</v>
       </c>
       <c r="D23" t="n">
-        <v>12.13</v>
+        <v>8.550000000000001</v>
       </c>
     </row>
     <row r="24">
@@ -993,13 +1025,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>20.23</v>
+        <v>37.48</v>
       </c>
       <c r="C24" t="n">
-        <v>26.99</v>
+        <v>19.53</v>
       </c>
       <c r="D24" t="n">
-        <v>12.78</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="25">
@@ -1007,13 +1039,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>19.47</v>
+        <v>38.9</v>
       </c>
       <c r="C25" t="n">
-        <v>26.97</v>
+        <v>19.7</v>
       </c>
       <c r="D25" t="n">
-        <v>13.56</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="26">
@@ -1021,13 +1053,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>18.72</v>
+        <v>40.33</v>
       </c>
       <c r="C26" t="n">
-        <v>26.91</v>
+        <v>19.91</v>
       </c>
       <c r="D26" t="n">
-        <v>14.27</v>
+        <v>9.76</v>
       </c>
     </row>
     <row r="27">
@@ -1035,13 +1067,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>17.98</v>
+        <v>40.3</v>
       </c>
       <c r="C27" t="n">
-        <v>26.71</v>
+        <v>20.05</v>
       </c>
       <c r="D27" t="n">
-        <v>15.11</v>
+        <v>11.65</v>
       </c>
     </row>
     <row r="28">
@@ -1049,13 +1081,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>17.64</v>
+        <v>40.26</v>
       </c>
       <c r="C28" t="n">
-        <v>26.07</v>
+        <v>20.25</v>
       </c>
       <c r="D28" t="n">
-        <v>15.99</v>
+        <v>13.49</v>
       </c>
     </row>
     <row r="29">
@@ -1063,13 +1095,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>17.37</v>
+        <v>40.2</v>
       </c>
       <c r="C29" t="n">
-        <v>25.42</v>
+        <v>20.5</v>
       </c>
       <c r="D29" t="n">
-        <v>16.91</v>
+        <v>15.31</v>
       </c>
     </row>
     <row r="30">
@@ -1077,13 +1109,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>17.09</v>
+        <v>40.06</v>
       </c>
       <c r="C30" t="n">
-        <v>24.87</v>
+        <v>20.89</v>
       </c>
       <c r="D30" t="n">
-        <v>17.74</v>
+        <v>17.05</v>
       </c>
     </row>
     <row r="31">
@@ -1091,13 +1123,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>17.02</v>
+        <v>40.21</v>
       </c>
       <c r="C31" t="n">
-        <v>24.32</v>
+        <v>20.99</v>
       </c>
       <c r="D31" t="n">
-        <v>18.36</v>
+        <v>18.79</v>
       </c>
     </row>
     <row r="32">
@@ -1105,13 +1137,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>16.76</v>
+        <v>40.35</v>
       </c>
       <c r="C32" t="n">
-        <v>23.96</v>
+        <v>21.14</v>
       </c>
       <c r="D32" t="n">
-        <v>18.98</v>
+        <v>18.51</v>
       </c>
     </row>
     <row r="33">
@@ -1119,13 +1151,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>16.37</v>
+        <v>40.5</v>
       </c>
       <c r="C33" t="n">
-        <v>23.74</v>
+        <v>21.27</v>
       </c>
       <c r="D33" t="n">
-        <v>19.59</v>
+        <v>18.23</v>
       </c>
     </row>
     <row r="34">
@@ -1133,13 +1165,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>16.23</v>
+        <v>40.73</v>
       </c>
       <c r="C34" t="n">
-        <v>23.95</v>
+        <v>21.39</v>
       </c>
       <c r="D34" t="n">
-        <v>19.52</v>
+        <v>17.89</v>
       </c>
     </row>
     <row r="35">
@@ -1147,13 +1179,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>15.6</v>
+        <v>41</v>
       </c>
       <c r="C35" t="n">
-        <v>24.73</v>
+        <v>21.44</v>
       </c>
       <c r="D35" t="n">
-        <v>19.37</v>
+        <v>17.57</v>
       </c>
     </row>
     <row r="36">
@@ -1161,13 +1193,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>15.16</v>
+        <v>41.08</v>
       </c>
       <c r="C36" t="n">
-        <v>25.51</v>
+        <v>21.66</v>
       </c>
       <c r="D36" t="n">
-        <v>19.13</v>
+        <v>17.26</v>
       </c>
     </row>
     <row r="37">
@@ -1175,13 +1207,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>15.72</v>
+        <v>40.61</v>
       </c>
       <c r="C37" t="n">
-        <v>26.22</v>
+        <v>21.69</v>
       </c>
       <c r="D37" t="n">
-        <v>18.96</v>
+        <v>17.7</v>
       </c>
     </row>
     <row r="38">
@@ -1189,13 +1221,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>16.51</v>
+        <v>40.1</v>
       </c>
       <c r="C38" t="n">
-        <v>26.76</v>
+        <v>21.77</v>
       </c>
       <c r="D38" t="n">
-        <v>18.73</v>
+        <v>18.13</v>
+      </c>
+      <c r="E38" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="39">
@@ -1203,13 +1238,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>17.17</v>
+        <v>39.41</v>
       </c>
       <c r="C39" t="n">
-        <v>27.42</v>
+        <v>21.83</v>
       </c>
       <c r="D39" t="n">
-        <v>18.41</v>
+        <v>18.77</v>
+      </c>
+      <c r="E39" t="n">
+        <v>20.05</v>
       </c>
     </row>
     <row r="40">
@@ -1217,13 +1255,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>17.88</v>
+        <v>38.83</v>
       </c>
       <c r="C40" t="n">
-        <v>28.13</v>
+        <v>21.68</v>
       </c>
       <c r="D40" t="n">
-        <v>17.99</v>
+        <v>19.48</v>
+      </c>
+      <c r="E40" t="n">
+        <v>20.13333333333334</v>
       </c>
     </row>
     <row r="41">
@@ -1231,13 +1272,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>18.6</v>
+        <v>38.26</v>
       </c>
       <c r="C41" t="n">
-        <v>28.86</v>
+        <v>21.51</v>
       </c>
       <c r="D41" t="n">
-        <v>17.54</v>
+        <v>20.19</v>
+      </c>
+      <c r="E41" t="n">
+        <v>20.175</v>
       </c>
     </row>
     <row r="42">
@@ -1245,13 +1289,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>19.61</v>
+        <v>37.74</v>
       </c>
       <c r="C42" t="n">
-        <v>29.28</v>
+        <v>21.26</v>
       </c>
       <c r="D42" t="n">
-        <v>17.11</v>
+        <v>20.93</v>
+      </c>
+      <c r="E42" t="n">
+        <v>18.68</v>
       </c>
     </row>
     <row r="43">
@@ -1259,13 +1306,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>20.63</v>
+        <v>37.2</v>
       </c>
       <c r="C43" t="n">
-        <v>29.61</v>
+        <v>21.79</v>
       </c>
       <c r="D43" t="n">
-        <v>16.76</v>
+        <v>21.68</v>
+      </c>
+      <c r="E43" t="n">
+        <v>17.66666666666667</v>
       </c>
     </row>
     <row r="44">
@@ -1273,13 +1323,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>21.58</v>
+        <v>36.58</v>
       </c>
       <c r="C44" t="n">
-        <v>29.95</v>
+        <v>22.31</v>
       </c>
       <c r="D44" t="n">
-        <v>16.47</v>
+        <v>22.51</v>
+      </c>
+      <c r="E44" t="n">
+        <v>16.82857142857143</v>
       </c>
     </row>
     <row r="45">
@@ -1287,13 +1340,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>23.19</v>
+        <v>36.42</v>
       </c>
       <c r="C45" t="n">
-        <v>29.69</v>
+        <v>22.44</v>
       </c>
       <c r="D45" t="n">
-        <v>16.12</v>
+        <v>23.36</v>
+      </c>
+      <c r="E45" t="n">
+        <v>16.11875</v>
       </c>
     </row>
     <row r="46">
@@ -1301,13 +1357,16 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>24.6</v>
+        <v>36.22</v>
       </c>
       <c r="C46" t="n">
-        <v>29.48</v>
+        <v>22.66</v>
       </c>
       <c r="D46" t="n">
-        <v>15.92</v>
+        <v>24.23</v>
+      </c>
+      <c r="E46" t="n">
+        <v>15.55555555555556</v>
       </c>
     </row>
     <row r="47">
@@ -1315,13 +1374,16 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>25.02</v>
+        <v>36.25</v>
       </c>
       <c r="C47" t="n">
-        <v>29.28</v>
+        <v>23.4</v>
       </c>
       <c r="D47" t="n">
-        <v>15.7</v>
+        <v>24.35</v>
+      </c>
+      <c r="E47" t="n">
+        <v>15.105</v>
       </c>
     </row>
     <row r="48">
@@ -1329,13 +1391,16 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>25.13</v>
+        <v>36.22</v>
       </c>
       <c r="C48" t="n">
-        <v>29.34</v>
+        <v>24.15</v>
       </c>
       <c r="D48" t="n">
-        <v>15.53</v>
+        <v>24.53</v>
+      </c>
+      <c r="E48" t="n">
+        <v>15.105</v>
       </c>
     </row>
     <row r="49">
@@ -1343,13 +1408,16 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>25.27</v>
+        <v>36.35</v>
       </c>
       <c r="C49" t="n">
-        <v>29.32</v>
+        <v>24.89</v>
       </c>
       <c r="D49" t="n">
-        <v>15.41</v>
+        <v>24.53</v>
+      </c>
+      <c r="E49" t="n">
+        <v>14.23</v>
       </c>
     </row>
     <row r="50">
@@ -1357,13 +1425,16 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>25</v>
+        <v>35.36</v>
       </c>
       <c r="C50" t="n">
-        <v>29.31</v>
+        <v>25.58</v>
       </c>
       <c r="D50" t="n">
-        <v>15.69</v>
+        <v>24.53</v>
+      </c>
+      <c r="E50" t="n">
+        <v>14.527</v>
       </c>
     </row>
     <row r="51">
@@ -1371,13 +1442,16 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>24.7</v>
+        <v>34.37</v>
       </c>
       <c r="C51" t="n">
-        <v>29.26</v>
+        <v>26.28</v>
       </c>
       <c r="D51" t="n">
-        <v>16.04</v>
+        <v>24.54</v>
+      </c>
+      <c r="E51" t="n">
+        <v>14.804</v>
       </c>
     </row>
     <row r="52">
@@ -1385,13 +1459,16 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>24.28</v>
+        <v>33.36</v>
       </c>
       <c r="C52" t="n">
-        <v>29.32</v>
+        <v>26.97</v>
       </c>
       <c r="D52" t="n">
-        <v>16.4</v>
+        <v>24.59</v>
+      </c>
+      <c r="E52" t="n">
+        <v>15.081</v>
       </c>
     </row>
     <row r="53">
@@ -1399,13 +1476,16 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>23.87</v>
+        <v>32.34</v>
       </c>
       <c r="C53" t="n">
-        <v>29.39</v>
+        <v>26.89</v>
       </c>
       <c r="D53" t="n">
-        <v>16.74</v>
+        <v>24.67</v>
+      </c>
+      <c r="E53" t="n">
+        <v>16.098</v>
       </c>
     </row>
     <row r="54">
@@ -1413,13 +1493,16 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>23.44</v>
+        <v>31.11</v>
       </c>
       <c r="C54" t="n">
-        <v>29.08</v>
+        <v>27.2</v>
       </c>
       <c r="D54" t="n">
-        <v>17.48</v>
+        <v>24.75</v>
+      </c>
+      <c r="E54" t="n">
+        <v>16.94</v>
       </c>
     </row>
     <row r="55">
@@ -1427,13 +1510,16 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>22.99</v>
+        <v>29.43</v>
       </c>
       <c r="C55" t="n">
-        <v>28.73</v>
+        <v>27.9</v>
       </c>
       <c r="D55" t="n">
-        <v>18.28</v>
+        <v>24.81</v>
+      </c>
+      <c r="E55" t="n">
+        <v>17.862</v>
       </c>
     </row>
     <row r="56">
@@ -1441,13 +1527,16 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>22.51</v>
+        <v>27.9</v>
       </c>
       <c r="C56" t="n">
-        <v>28.36</v>
+        <v>27.44</v>
       </c>
       <c r="D56" t="n">
-        <v>19.13</v>
+        <v>24.81</v>
+      </c>
+      <c r="E56" t="n">
+        <v>19.849</v>
       </c>
     </row>
     <row r="57">
@@ -1455,13 +1544,16 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>22.05</v>
+        <v>25.79</v>
       </c>
       <c r="C57" t="n">
-        <v>27.97</v>
+        <v>26.8</v>
       </c>
       <c r="D57" t="n">
-        <v>19.98</v>
+        <v>24.79</v>
+      </c>
+      <c r="E57" t="n">
+        <v>22.616</v>
       </c>
     </row>
     <row r="58">
@@ -1469,13 +1561,16 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>21.67</v>
+        <v>23.67</v>
       </c>
       <c r="C58" t="n">
-        <v>27.5</v>
+        <v>26.19</v>
       </c>
       <c r="D58" t="n">
-        <v>20.83</v>
+        <v>24.77</v>
+      </c>
+      <c r="E58" t="n">
+        <v>25.373</v>
       </c>
     </row>
     <row r="59">
@@ -1483,13 +1578,16 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>20.91</v>
+        <v>21.57</v>
       </c>
       <c r="C59" t="n">
-        <v>27.48</v>
+        <v>25.56</v>
       </c>
       <c r="D59" t="n">
-        <v>21.6</v>
+        <v>26.35</v>
+      </c>
+      <c r="E59" t="n">
+        <v>26.523</v>
       </c>
     </row>
     <row r="60">
@@ -1497,13 +1595,16 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>20.59</v>
+        <v>20.57</v>
       </c>
       <c r="C60" t="n">
-        <v>27.44</v>
+        <v>25.12</v>
       </c>
       <c r="D60" t="n">
-        <v>21.96</v>
+        <v>27.91</v>
+      </c>
+      <c r="E60" t="n">
+        <v>26.391</v>
       </c>
     </row>
     <row r="61">
@@ -1511,13 +1612,16 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>20.28</v>
+        <v>19.57</v>
       </c>
       <c r="C61" t="n">
-        <v>27.43</v>
+        <v>24.69</v>
       </c>
       <c r="D61" t="n">
-        <v>22.29</v>
+        <v>29.45</v>
+      </c>
+      <c r="E61" t="n">
+        <v>26.28900000000001</v>
       </c>
     </row>
     <row r="62">
@@ -1525,13 +1629,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>19.95</v>
+        <v>18.4</v>
       </c>
       <c r="C62" t="n">
-        <v>27.44</v>
+        <v>24.26</v>
       </c>
       <c r="D62" t="n">
-        <v>22.62</v>
+        <v>30.93</v>
+      </c>
+      <c r="E62" t="n">
+        <v>26.407</v>
       </c>
     </row>
     <row r="63">
@@ -1539,13 +1646,16 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>20.21</v>
+        <v>17.84</v>
       </c>
       <c r="C63" t="n">
-        <v>27.42</v>
+        <v>24.16</v>
       </c>
       <c r="D63" t="n">
-        <v>22.37</v>
+        <v>32.26</v>
+      </c>
+      <c r="E63" t="n">
+        <v>26.435</v>
       </c>
     </row>
     <row r="64">
@@ -1553,13 +1663,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>20.49</v>
+        <v>17.38</v>
       </c>
       <c r="C64" t="n">
-        <v>27.8</v>
+        <v>23.61</v>
       </c>
       <c r="D64" t="n">
-        <v>21.71</v>
+        <v>33.76</v>
+      </c>
+      <c r="E64" t="n">
+        <v>26.648</v>
       </c>
     </row>
     <row r="65">
@@ -1567,13 +1680,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>20.67</v>
+        <v>16.87</v>
       </c>
       <c r="C65" t="n">
-        <v>28.42</v>
+        <v>23.07</v>
       </c>
       <c r="D65" t="n">
-        <v>20.91</v>
+        <v>35.26</v>
+      </c>
+      <c r="E65" t="n">
+        <v>26.901</v>
       </c>
     </row>
     <row r="66">
@@ -1581,13 +1697,16 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>20.91</v>
+        <v>16.42</v>
       </c>
       <c r="C66" t="n">
-        <v>29.04</v>
+        <v>23.39</v>
       </c>
       <c r="D66" t="n">
-        <v>20.07</v>
+        <v>36.72</v>
+      </c>
+      <c r="E66" t="n">
+        <v>26.274</v>
       </c>
     </row>
     <row r="67">
@@ -1595,13 +1714,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>21.15</v>
+        <v>16.7</v>
       </c>
       <c r="C67" t="n">
-        <v>29.68</v>
+        <v>23.65</v>
       </c>
       <c r="D67" t="n">
-        <v>19.21</v>
+        <v>38.35</v>
+      </c>
+      <c r="E67" t="n">
+        <v>24.797</v>
       </c>
     </row>
     <row r="68">
@@ -1609,16 +1731,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>21.4</v>
+        <v>17</v>
       </c>
       <c r="C68" t="n">
-        <v>30.3</v>
+        <v>23.9</v>
       </c>
       <c r="D68" t="n">
-        <v>18.36</v>
+        <v>39.97</v>
       </c>
       <c r="E68" t="n">
-        <v>20</v>
+        <v>23.33</v>
       </c>
     </row>
     <row r="69">
@@ -1626,16 +1748,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>22.04</v>
+        <v>17.29</v>
       </c>
       <c r="C69" t="n">
-        <v>30.45</v>
+        <v>24.96</v>
       </c>
       <c r="D69" t="n">
-        <v>17.59</v>
+        <v>39.99</v>
       </c>
       <c r="E69" t="n">
-        <v>21.7</v>
+        <v>22.661</v>
       </c>
     </row>
     <row r="70">
@@ -1643,16 +1765,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>22.62</v>
+        <v>17.6</v>
       </c>
       <c r="C70" t="n">
-        <v>30.62</v>
+        <v>25.92</v>
       </c>
       <c r="D70" t="n">
-        <v>16.52</v>
+        <v>40</v>
       </c>
       <c r="E70" t="n">
-        <v>22.07666666666666</v>
+        <v>22.082</v>
       </c>
     </row>
     <row r="71">
@@ -1660,16 +1782,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>23.14</v>
+        <v>17.92</v>
       </c>
       <c r="C71" t="n">
-        <v>30.8</v>
+        <v>27.18</v>
       </c>
       <c r="D71" t="n">
-        <v>15.55</v>
+        <v>40.01</v>
       </c>
       <c r="E71" t="n">
-        <v>22.965</v>
+        <v>21.193</v>
       </c>
     </row>
     <row r="72">
@@ -1677,16 +1799,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>23.67</v>
+        <v>18.43</v>
       </c>
       <c r="C72" t="n">
-        <v>30.96</v>
+        <v>28.46</v>
       </c>
       <c r="D72" t="n">
-        <v>14.31</v>
+        <v>40.03</v>
       </c>
       <c r="E72" t="n">
-        <v>23.458</v>
+        <v>20.084</v>
       </c>
     </row>
     <row r="73">
@@ -1694,16 +1816,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>22.75</v>
+        <v>18.27</v>
       </c>
       <c r="C73" t="n">
-        <v>31.99</v>
+        <v>29.41</v>
       </c>
       <c r="D73" t="n">
-        <v>13.65</v>
+        <v>40.14</v>
       </c>
       <c r="E73" t="n">
-        <v>23.92</v>
+        <v>19.185</v>
       </c>
     </row>
     <row r="74">
@@ -1711,16 +1833,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>21.84</v>
+        <v>18.24</v>
       </c>
       <c r="C74" t="n">
-        <v>32.91</v>
+        <v>30.41</v>
       </c>
       <c r="D74" t="n">
-        <v>13.02</v>
+        <v>40.07</v>
       </c>
       <c r="E74" t="n">
-        <v>24.35</v>
+        <v>18.276</v>
       </c>
     </row>
     <row r="75">
@@ -1728,16 +1850,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>20.95</v>
+        <v>18.26</v>
       </c>
       <c r="C75" t="n">
-        <v>33.65</v>
+        <v>31.41</v>
       </c>
       <c r="D75" t="n">
-        <v>12.48</v>
+        <v>40</v>
       </c>
       <c r="E75" t="n">
-        <v>24.6725</v>
+        <v>17.327</v>
       </c>
     </row>
     <row r="76">
@@ -1745,16 +1867,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>20.04</v>
+        <v>18.2</v>
       </c>
       <c r="C76" t="n">
-        <v>34.38</v>
+        <v>32.67</v>
       </c>
       <c r="D76" t="n">
-        <v>11.94</v>
+        <v>39.95</v>
       </c>
       <c r="E76" t="n">
-        <v>24.99</v>
+        <v>16.178</v>
       </c>
     </row>
     <row r="77">
@@ -1762,16 +1884,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>19.09</v>
+        <v>16.81</v>
       </c>
       <c r="C77" t="n">
-        <v>35.1</v>
+        <v>34.01</v>
       </c>
       <c r="D77" t="n">
-        <v>11.41</v>
+        <v>39.66</v>
       </c>
       <c r="E77" t="n">
-        <v>25.234</v>
+        <v>16.515</v>
       </c>
     </row>
     <row r="78">
@@ -1779,16 +1901,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>18.15</v>
+        <v>16.91</v>
       </c>
       <c r="C78" t="n">
-        <v>35.79</v>
+        <v>35.29</v>
       </c>
       <c r="D78" t="n">
-        <v>10.88</v>
+        <v>39.39</v>
       </c>
       <c r="E78" t="n">
-        <v>25.234</v>
+        <v>16.912</v>
       </c>
     </row>
     <row r="79">
@@ -1796,16 +1918,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>17.2</v>
+        <v>17.39</v>
       </c>
       <c r="C79" t="n">
-        <v>36.41</v>
+        <v>35.76</v>
       </c>
       <c r="D79" t="n">
-        <v>10.46</v>
+        <v>38.75</v>
       </c>
       <c r="E79" t="n">
-        <v>25.977</v>
+        <v>18.098</v>
       </c>
     </row>
     <row r="80">
@@ -1813,16 +1935,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>16.27</v>
+        <v>17.85</v>
       </c>
       <c r="C80" t="n">
-        <v>37.02</v>
+        <v>35.62</v>
       </c>
       <c r="D80" t="n">
-        <v>10.28</v>
+        <v>38.13</v>
       </c>
       <c r="E80" t="n">
-        <v>26.45</v>
+        <v>19.901</v>
       </c>
     </row>
     <row r="81">
@@ -1830,16 +1952,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>15.32</v>
+        <v>18.37</v>
       </c>
       <c r="C81" t="n">
-        <v>37.55</v>
+        <v>35.17</v>
       </c>
       <c r="D81" t="n">
-        <v>9.91</v>
+        <v>37.5</v>
       </c>
       <c r="E81" t="n">
-        <v>27.22000000000001</v>
+        <v>21.984</v>
       </c>
     </row>
     <row r="82">
@@ -1847,16 +1969,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>14.36</v>
+        <v>18.93</v>
       </c>
       <c r="C82" t="n">
-        <v>38.09</v>
+        <v>34.66</v>
       </c>
       <c r="D82" t="n">
-        <v>9.859999999999999</v>
+        <v>36.88</v>
       </c>
       <c r="E82" t="n">
-        <v>27.69</v>
+        <v>24.067</v>
       </c>
     </row>
     <row r="83">
@@ -1864,16 +1986,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>14.23</v>
+        <v>19.6</v>
       </c>
       <c r="C83" t="n">
-        <v>37.9</v>
+        <v>34.14</v>
       </c>
       <c r="D83" t="n">
-        <v>9.68</v>
+        <v>36.27</v>
       </c>
       <c r="E83" t="n">
-        <v>28.18</v>
+        <v>26.05</v>
       </c>
     </row>
     <row r="84">
@@ -1881,16 +2003,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>14.13</v>
+        <v>20.23</v>
       </c>
       <c r="C84" t="n">
-        <v>37.78</v>
+        <v>33.65</v>
       </c>
       <c r="D84" t="n">
-        <v>9.5</v>
+        <v>35.66</v>
       </c>
       <c r="E84" t="n">
-        <v>28.59</v>
+        <v>28.043</v>
       </c>
     </row>
     <row r="85">
@@ -1898,16 +2020,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>14.33</v>
+        <v>20.82</v>
       </c>
       <c r="C85" t="n">
-        <v>37.66</v>
+        <v>33.03</v>
       </c>
       <c r="D85" t="n">
-        <v>9.369999999999999</v>
+        <v>35.21</v>
       </c>
       <c r="E85" t="n">
-        <v>28.63</v>
+        <v>30.036</v>
       </c>
     </row>
     <row r="86">
@@ -1915,16 +2037,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>14.64</v>
+        <v>21.5</v>
       </c>
       <c r="C86" t="n">
-        <v>37.53</v>
+        <v>32.15</v>
       </c>
       <c r="D86" t="n">
-        <v>9.25</v>
+        <v>34.86</v>
       </c>
       <c r="E86" t="n">
-        <v>28.57999999999999</v>
+        <v>32.109</v>
       </c>
     </row>
     <row r="87">
@@ -1932,16 +2054,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>14.97</v>
+        <v>23.53</v>
       </c>
       <c r="C87" t="n">
-        <v>37.83</v>
+        <v>31.25</v>
       </c>
       <c r="D87" t="n">
-        <v>8.81</v>
+        <v>34.58</v>
       </c>
       <c r="E87" t="n">
-        <v>28.39</v>
+        <v>32.776</v>
       </c>
     </row>
     <row r="88">
@@ -1949,16 +2071,16 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>15.28</v>
+        <v>24.05</v>
       </c>
       <c r="C88" t="n">
-        <v>38.16</v>
+        <v>30.46</v>
       </c>
       <c r="D88" t="n">
-        <v>8.35</v>
+        <v>34.27</v>
       </c>
       <c r="E88" t="n">
-        <v>28.21</v>
+        <v>33.383</v>
       </c>
     </row>
     <row r="89">
@@ -1966,16 +2088,16 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>15.57</v>
+        <v>24.19</v>
       </c>
       <c r="C89" t="n">
-        <v>38.48</v>
+        <v>29.54</v>
       </c>
       <c r="D89" t="n">
-        <v>7.73</v>
+        <v>34.46</v>
       </c>
       <c r="E89" t="n">
-        <v>28.21</v>
+        <v>33.99</v>
       </c>
     </row>
     <row r="90">
@@ -1983,16 +2105,16 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>15.92</v>
+        <v>24.33</v>
       </c>
       <c r="C90" t="n">
-        <v>38.74</v>
+        <v>29.3</v>
       </c>
       <c r="D90" t="n">
-        <v>7.21</v>
+        <v>34.58</v>
       </c>
       <c r="E90" t="n">
-        <v>28.13</v>
+        <v>33.99</v>
       </c>
     </row>
     <row r="91">
@@ -2000,16 +2122,16 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>16.35</v>
+        <v>24.4</v>
       </c>
       <c r="C91" t="n">
-        <v>39.06</v>
+        <v>29.06</v>
       </c>
       <c r="D91" t="n">
-        <v>6.75</v>
+        <v>34.75</v>
       </c>
       <c r="E91" t="n">
-        <v>27.83999999999999</v>
+        <v>33.99</v>
       </c>
     </row>
     <row r="92">
@@ -2017,16 +2139,16 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>16.6</v>
+        <v>24.42</v>
       </c>
       <c r="C92" t="n">
-        <v>39.68</v>
+        <v>28.83</v>
       </c>
       <c r="D92" t="n">
-        <v>6.21</v>
+        <v>34.96</v>
       </c>
       <c r="E92" t="n">
-        <v>27.51</v>
+        <v>33.99</v>
       </c>
     </row>
     <row r="93">
@@ -2034,16 +2156,16 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>16.95</v>
+        <v>24.39</v>
       </c>
       <c r="C93" t="n">
-        <v>40.17</v>
+        <v>28.64</v>
       </c>
       <c r="D93" t="n">
-        <v>5.78</v>
+        <v>35.18</v>
       </c>
       <c r="E93" t="n">
-        <v>27.1</v>
+        <v>33.99</v>
       </c>
     </row>
     <row r="94">
@@ -2051,16 +2173,16 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>17.26</v>
+        <v>24.37</v>
       </c>
       <c r="C94" t="n">
-        <v>40.67</v>
+        <v>28.43</v>
       </c>
       <c r="D94" t="n">
-        <v>5.82</v>
+        <v>35.41</v>
       </c>
       <c r="E94" t="n">
-        <v>26.254</v>
+        <v>33.99</v>
       </c>
     </row>
     <row r="95">
@@ -2068,16 +2190,16 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>17.28</v>
+        <v>24.3</v>
       </c>
       <c r="C95" t="n">
-        <v>41.15</v>
+        <v>28.46</v>
       </c>
       <c r="D95" t="n">
-        <v>5.83</v>
+        <v>35.44</v>
       </c>
       <c r="E95" t="n">
-        <v>25.738</v>
+        <v>33.99</v>
       </c>
     </row>
     <row r="96">
@@ -2085,16 +2207,16 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>17.81</v>
+        <v>24.29</v>
       </c>
       <c r="C96" t="n">
-        <v>41.65</v>
+        <v>28.48</v>
       </c>
       <c r="D96" t="n">
-        <v>5.86</v>
+        <v>35.45</v>
       </c>
       <c r="E96" t="n">
-        <v>24.68</v>
+        <v>33.99</v>
       </c>
     </row>
     <row r="97">
@@ -2102,16 +2224,16 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>18.24</v>
+        <v>24.06</v>
       </c>
       <c r="C97" t="n">
-        <v>41.63</v>
+        <v>28.49</v>
       </c>
       <c r="D97" t="n">
-        <v>6.52</v>
+        <v>35.66</v>
       </c>
       <c r="E97" t="n">
-        <v>23.602</v>
+        <v>33.99</v>
       </c>
     </row>
     <row r="98">
@@ -2119,16 +2241,16 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>18.64</v>
+        <v>23.85</v>
       </c>
       <c r="C98" t="n">
-        <v>41.54</v>
+        <v>28.46</v>
       </c>
       <c r="D98" t="n">
-        <v>7.3</v>
+        <v>35.9</v>
       </c>
       <c r="E98" t="n">
-        <v>22.514</v>
+        <v>33.99</v>
       </c>
     </row>
     <row r="99">
@@ -2136,16 +2258,16 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>17.59</v>
+        <v>23.46</v>
       </c>
       <c r="C99" t="n">
-        <v>41.52</v>
+        <v>28.55</v>
       </c>
       <c r="D99" t="n">
-        <v>8.09</v>
+        <v>36.2</v>
       </c>
       <c r="E99" t="n">
-        <v>22.801</v>
+        <v>33.97000000000001</v>
       </c>
     </row>
     <row r="100">
@@ -2153,16 +2275,16 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>15.81</v>
+        <v>23.08</v>
       </c>
       <c r="C100" t="n">
-        <v>41.47</v>
+        <v>28.52</v>
       </c>
       <c r="D100" t="n">
-        <v>9.640000000000001</v>
+        <v>36.57</v>
       </c>
       <c r="E100" t="n">
-        <v>23.078</v>
+        <v>33.99</v>
       </c>
     </row>
     <row r="101">
@@ -2170,16 +2292,16 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>16.04</v>
+        <v>22.7</v>
       </c>
       <c r="C101" t="n">
-        <v>41.41</v>
+        <v>28.4</v>
       </c>
       <c r="D101" t="n">
-        <v>10.99</v>
+        <v>36.91</v>
       </c>
       <c r="E101" t="n">
-        <v>23.56</v>
+        <v>34.13000000000001</v>
       </c>
     </row>
     <row r="102">
@@ -2187,16 +2309,16 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>16.27</v>
+        <v>22.76</v>
       </c>
       <c r="C102" t="n">
-        <v>41.06</v>
+        <v>28.3</v>
       </c>
       <c r="D102" t="n">
-        <v>12.35</v>
+        <v>37.21</v>
       </c>
       <c r="E102" t="n">
-        <v>24.312</v>
+        <v>33.843</v>
       </c>
     </row>
     <row r="103">
@@ -2204,16 +2326,16 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>16.49</v>
+        <v>22.83</v>
       </c>
       <c r="C103" t="n">
-        <v>40.7</v>
+        <v>28.25</v>
       </c>
       <c r="D103" t="n">
-        <v>13.67</v>
+        <v>37.53</v>
       </c>
       <c r="E103" t="n">
-        <v>25.144</v>
+        <v>33.496</v>
       </c>
     </row>
     <row r="104">
@@ -2221,16 +2343,16 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>16.63</v>
+        <v>22.88</v>
       </c>
       <c r="C104" t="n">
-        <v>40.28</v>
+        <v>28.19</v>
       </c>
       <c r="D104" t="n">
-        <v>14.68</v>
+        <v>37.84</v>
       </c>
       <c r="E104" t="n">
-        <v>26.412</v>
+        <v>33.169</v>
       </c>
     </row>
     <row r="105">
@@ -2238,16 +2360,16 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>16.55</v>
+        <v>23.01</v>
       </c>
       <c r="C105" t="n">
-        <v>39.79</v>
+        <v>28</v>
       </c>
       <c r="D105" t="n">
-        <v>16.08</v>
+        <v>38.21</v>
       </c>
       <c r="E105" t="n">
-        <v>27.578</v>
+        <v>32.842</v>
       </c>
     </row>
     <row r="106">
@@ -2255,16 +2377,16 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>15.83</v>
+        <v>23.07</v>
       </c>
       <c r="C106" t="n">
-        <v>39.55</v>
+        <v>28.76</v>
       </c>
       <c r="D106" t="n">
-        <v>17.49</v>
+        <v>38.59</v>
       </c>
       <c r="E106" t="n">
-        <v>29.136</v>
+        <v>31.615</v>
       </c>
     </row>
     <row r="107">
@@ -2272,16 +2394,16 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>15.14</v>
+        <v>23.31</v>
       </c>
       <c r="C107" t="n">
-        <v>39.63</v>
+        <v>29.55</v>
       </c>
       <c r="D107" t="n">
-        <v>18.43</v>
+        <v>38.78</v>
       </c>
       <c r="E107" t="n">
-        <v>30.794</v>
+        <v>30.378</v>
       </c>
     </row>
     <row r="108">
@@ -2289,16 +2411,16 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>14.47</v>
+        <v>23.57</v>
       </c>
       <c r="C108" t="n">
-        <v>39.54</v>
+        <v>30.33</v>
       </c>
       <c r="D108" t="n">
-        <v>19.6</v>
+        <v>38.96</v>
       </c>
       <c r="E108" t="n">
-        <v>32.402</v>
+        <v>29.141</v>
       </c>
     </row>
     <row r="109">
@@ -2306,16 +2428,16 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>15.99</v>
+        <v>24</v>
       </c>
       <c r="C109" t="n">
-        <v>39.01</v>
+        <v>31.11</v>
       </c>
       <c r="D109" t="n">
-        <v>20.76</v>
+        <v>38.96</v>
       </c>
       <c r="E109" t="n">
-        <v>32.24300000000001</v>
+        <v>27.934</v>
       </c>
     </row>
     <row r="110">
@@ -2323,16 +2445,16 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>20.7</v>
+        <v>24.43</v>
       </c>
       <c r="C110" t="n">
-        <v>36.33</v>
+        <v>31.91</v>
       </c>
       <c r="D110" t="n">
-        <v>21.02</v>
+        <v>38.96</v>
       </c>
       <c r="E110" t="n">
-        <v>31.95000000000001</v>
+        <v>26.697</v>
       </c>
     </row>
     <row r="111">
@@ -2340,16 +2462,16 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>24.08</v>
+        <v>24.85</v>
       </c>
       <c r="C111" t="n">
-        <v>33.59</v>
+        <v>32.83</v>
       </c>
       <c r="D111" t="n">
-        <v>21.21</v>
+        <v>39.06</v>
       </c>
       <c r="E111" t="n">
-        <v>31.127</v>
+        <v>25.26</v>
       </c>
     </row>
     <row r="112">
@@ -2357,16 +2479,16 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>27.63</v>
+        <v>24.75</v>
       </c>
       <c r="C112" t="n">
-        <v>31.1</v>
+        <v>33.76</v>
       </c>
       <c r="D112" t="n">
-        <v>21.17</v>
+        <v>39.08</v>
       </c>
       <c r="E112" t="n">
-        <v>30.094</v>
+        <v>24.41</v>
       </c>
     </row>
     <row r="113">
@@ -2374,16 +2496,16 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>31.11</v>
+        <v>24.59</v>
       </c>
       <c r="C113" t="n">
-        <v>28.56</v>
+        <v>34.62</v>
       </c>
       <c r="D113" t="n">
-        <v>21.14</v>
+        <v>39.18</v>
       </c>
       <c r="E113" t="n">
-        <v>29.191</v>
+        <v>23.61</v>
       </c>
     </row>
     <row r="114">
@@ -2391,16 +2513,16 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>34.48</v>
+        <v>24.41</v>
       </c>
       <c r="C114" t="n">
-        <v>26.1</v>
+        <v>35.5</v>
       </c>
       <c r="D114" t="n">
-        <v>21.62</v>
+        <v>39.4</v>
       </c>
       <c r="E114" t="n">
-        <v>27.816</v>
+        <v>22.69</v>
       </c>
     </row>
     <row r="115">
@@ -2408,16 +2530,16 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>38.05</v>
+        <v>24.2</v>
       </c>
       <c r="C115" t="n">
-        <v>23.71</v>
+        <v>36.16</v>
       </c>
       <c r="D115" t="n">
-        <v>21.75</v>
+        <v>39.93</v>
       </c>
       <c r="E115" t="n">
-        <v>26.533</v>
+        <v>21.705</v>
       </c>
     </row>
     <row r="116">
@@ -2425,16 +2547,16 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>41.84</v>
+        <v>23.98</v>
       </c>
       <c r="C116" t="n">
-        <v>21.05</v>
+        <v>35.9</v>
       </c>
       <c r="D116" t="n">
-        <v>21.86</v>
+        <v>40.78</v>
       </c>
       <c r="E116" t="n">
-        <v>25.29</v>
+        <v>21.34</v>
       </c>
     </row>
     <row r="117">
@@ -2442,16 +2564,16 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>45.4</v>
+        <v>23.99</v>
       </c>
       <c r="C117" t="n">
-        <v>18.56</v>
+        <v>35.57</v>
       </c>
       <c r="D117" t="n">
-        <v>22.11</v>
+        <v>41.61</v>
       </c>
       <c r="E117" t="n">
-        <v>23.967</v>
+        <v>20.833</v>
       </c>
     </row>
     <row r="118">
@@ -2459,16 +2581,16 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>48.67</v>
+        <v>23.96</v>
       </c>
       <c r="C118" t="n">
-        <v>16.29</v>
+        <v>35.25</v>
       </c>
       <c r="D118" t="n">
-        <v>20.8</v>
+        <v>42.43</v>
       </c>
       <c r="E118" t="n">
-        <v>24.279</v>
+        <v>20.356</v>
       </c>
     </row>
     <row r="119">
@@ -2476,16 +2598,16 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>51.56</v>
+        <v>23.88</v>
       </c>
       <c r="C119" t="n">
-        <v>14.4</v>
+        <v>34.94</v>
       </c>
       <c r="D119" t="n">
-        <v>19.34</v>
+        <v>43.38</v>
       </c>
       <c r="E119" t="n">
-        <v>24.743</v>
+        <v>19.809</v>
       </c>
     </row>
     <row r="120">
@@ -2493,16 +2615,16 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>51.97</v>
+        <v>23.81</v>
       </c>
       <c r="C120" t="n">
-        <v>14.77</v>
+        <v>34.61</v>
       </c>
       <c r="D120" t="n">
-        <v>17.04</v>
+        <v>44.35</v>
       </c>
       <c r="E120" t="n">
-        <v>26.258</v>
+        <v>19.242</v>
       </c>
     </row>
     <row r="121">
@@ -2510,16 +2632,16 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>51.72</v>
+        <v>23.75</v>
       </c>
       <c r="C121" t="n">
-        <v>15.21</v>
+        <v>33.95</v>
       </c>
       <c r="D121" t="n">
-        <v>15.04</v>
+        <v>45.64</v>
       </c>
       <c r="E121" t="n">
-        <v>28.06799999999999</v>
+        <v>18.655</v>
       </c>
     </row>
     <row r="122">
@@ -2527,16 +2649,16 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>51.42</v>
+        <v>23.58</v>
       </c>
       <c r="C122" t="n">
-        <v>15.41</v>
+        <v>33.29</v>
       </c>
       <c r="D122" t="n">
-        <v>15.25</v>
+        <v>47.78</v>
       </c>
       <c r="E122" t="n">
-        <v>29.95499999999999</v>
+        <v>17.348</v>
       </c>
     </row>
     <row r="123">
@@ -2544,16 +2666,16 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>51.04</v>
+        <v>23.47</v>
       </c>
       <c r="C123" t="n">
-        <v>15.66</v>
+        <v>32.57</v>
       </c>
       <c r="D123" t="n">
-        <v>15.45</v>
+        <v>50.15</v>
       </c>
       <c r="E123" t="n">
-        <v>31.882</v>
+        <v>15.801</v>
       </c>
     </row>
     <row r="124">
@@ -2561,16 +2683,16 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>50.87</v>
+        <v>23.38</v>
       </c>
       <c r="C124" t="n">
-        <v>15.91</v>
+        <v>31.83</v>
       </c>
       <c r="D124" t="n">
-        <v>14.96</v>
+        <v>52.45</v>
       </c>
       <c r="E124" t="n">
-        <v>34.281</v>
+        <v>14.334</v>
       </c>
     </row>
     <row r="125">
@@ -2578,16 +2700,16 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>50.72</v>
+        <v>23.3</v>
       </c>
       <c r="C125" t="n">
-        <v>16.16</v>
+        <v>31.32</v>
       </c>
       <c r="D125" t="n">
-        <v>14.45</v>
+        <v>54.36</v>
       </c>
       <c r="E125" t="n">
-        <v>36.67</v>
+        <v>13.022</v>
       </c>
     </row>
     <row r="126">
@@ -2595,16 +2717,16 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>50.34</v>
+        <v>23.22</v>
       </c>
       <c r="C126" t="n">
-        <v>16.41</v>
+        <v>30.83</v>
       </c>
       <c r="D126" t="n">
-        <v>13.97</v>
+        <v>55.94</v>
       </c>
       <c r="E126" t="n">
-        <v>39.279</v>
+        <v>12.09</v>
       </c>
     </row>
     <row r="127">
@@ -2612,16 +2734,16 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>50.27</v>
+        <v>22.03</v>
       </c>
       <c r="C127" t="n">
-        <v>16.27</v>
+        <v>30.31</v>
       </c>
       <c r="D127" t="n">
-        <v>13.49</v>
+        <v>57.46</v>
       </c>
       <c r="E127" t="n">
-        <v>41.968</v>
+        <v>12.265</v>
       </c>
     </row>
     <row r="128">
@@ -2629,16 +2751,16 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>50.49</v>
+        <v>21.58</v>
       </c>
       <c r="C128" t="n">
-        <v>16.15</v>
+        <v>29.74</v>
       </c>
       <c r="D128" t="n">
-        <v>14.25</v>
+        <v>59</v>
       </c>
       <c r="E128" t="n">
-        <v>43.112</v>
+        <v>12.353</v>
       </c>
     </row>
     <row r="129">
@@ -2646,16 +2768,19 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>50.08</v>
+        <v>21.17</v>
       </c>
       <c r="C129" t="n">
-        <v>16.09</v>
+        <v>29.11</v>
       </c>
       <c r="D129" t="n">
-        <v>15.22</v>
+        <v>60.41</v>
       </c>
       <c r="E129" t="n">
-        <v>44.611</v>
+        <v>12.581</v>
+      </c>
+      <c r="F129" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="130">
@@ -2663,16 +2788,19 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>49.61</v>
+        <v>20.75</v>
       </c>
       <c r="C130" t="n">
-        <v>16.01</v>
+        <v>28.53</v>
       </c>
       <c r="D130" t="n">
-        <v>17.18</v>
+        <v>61.8</v>
       </c>
       <c r="E130" t="n">
-        <v>45.203</v>
+        <v>12.799</v>
+      </c>
+      <c r="F130" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="131">
@@ -2680,16 +2808,19 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>49.11</v>
+        <v>20.33</v>
       </c>
       <c r="C131" t="n">
-        <v>15.92</v>
+        <v>30.14</v>
       </c>
       <c r="D131" t="n">
-        <v>19.17</v>
+        <v>62.73</v>
       </c>
       <c r="E131" t="n">
-        <v>45.795</v>
+        <v>11.284</v>
+      </c>
+      <c r="F131" t="n">
+        <v>19.76666666666667</v>
       </c>
     </row>
     <row r="132">
@@ -2697,16 +2828,19 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>48.67</v>
+        <v>20.11</v>
       </c>
       <c r="C132" t="n">
-        <v>15.85</v>
+        <v>31.73</v>
       </c>
       <c r="D132" t="n">
-        <v>19.08</v>
+        <v>62.98</v>
       </c>
       <c r="E132" t="n">
-        <v>46.40000000000001</v>
+        <v>10.329</v>
+      </c>
+      <c r="F132" t="n">
+        <v>19.625</v>
       </c>
     </row>
     <row r="133">
@@ -2714,16 +2848,19 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>48.3</v>
+        <v>19.9</v>
       </c>
       <c r="C133" t="n">
-        <v>15.5</v>
+        <v>33.32</v>
       </c>
       <c r="D133" t="n">
-        <v>19.06</v>
+        <v>62.99</v>
       </c>
       <c r="E133" t="n">
-        <v>47.13</v>
+        <v>9.623999999999999</v>
+      </c>
+      <c r="F133" t="n">
+        <v>19.54</v>
       </c>
     </row>
     <row r="134">
@@ -2731,16 +2868,19 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>47.72</v>
+        <v>19.57</v>
       </c>
       <c r="C134" t="n">
-        <v>15.14</v>
+        <v>34.92</v>
       </c>
       <c r="D134" t="n">
-        <v>19.29</v>
+        <v>63.08</v>
       </c>
       <c r="E134" t="n">
-        <v>47.85000000000001</v>
+        <v>8.939</v>
+      </c>
+      <c r="F134" t="n">
+        <v>19.48333333333333</v>
       </c>
     </row>
     <row r="135">
@@ -2748,16 +2888,19 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>47.11</v>
+        <v>21.22</v>
       </c>
       <c r="C135" t="n">
-        <v>14.83</v>
+        <v>36.52</v>
       </c>
       <c r="D135" t="n">
-        <v>19.51</v>
+        <v>63.29</v>
       </c>
       <c r="E135" t="n">
-        <v>48.54000000000001</v>
+        <v>8.164</v>
+      </c>
+      <c r="F135" t="n">
+        <v>19.1</v>
       </c>
     </row>
     <row r="136">
@@ -2765,16 +2908,19 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>46.5</v>
+        <v>22.89</v>
       </c>
       <c r="C136" t="n">
-        <v>14.55</v>
+        <v>37.88</v>
       </c>
       <c r="D136" t="n">
-        <v>20.5</v>
+        <v>63.98</v>
       </c>
       <c r="E136" t="n">
-        <v>48.45</v>
+        <v>7.289</v>
+      </c>
+      <c r="F136" t="n">
+        <v>18.74125</v>
       </c>
     </row>
     <row r="137">
@@ -2782,16 +2928,19 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>45.87</v>
+        <v>26</v>
       </c>
       <c r="C137" t="n">
-        <v>14.25</v>
+        <v>38.85</v>
       </c>
       <c r="D137" t="n">
-        <v>21.47</v>
+        <v>64.69</v>
       </c>
       <c r="E137" t="n">
-        <v>48.4</v>
+        <v>5.459000000000001</v>
+      </c>
+      <c r="F137" t="n">
+        <v>18.66222222222222</v>
       </c>
     </row>
     <row r="138">
@@ -2799,16 +2948,19 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>45.26</v>
+        <v>28.35</v>
       </c>
       <c r="C138" t="n">
-        <v>13.94</v>
+        <v>39.83</v>
       </c>
       <c r="D138" t="n">
-        <v>22.45</v>
+        <v>65.34999999999999</v>
       </c>
       <c r="E138" t="n">
-        <v>48.36</v>
+        <v>3.686</v>
+      </c>
+      <c r="F138" t="n">
+        <v>18.599</v>
       </c>
     </row>
     <row r="139">
@@ -2816,16 +2968,19 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>44.9</v>
+        <v>30.7</v>
       </c>
       <c r="C139" t="n">
-        <v>13.62</v>
+        <v>40.64</v>
       </c>
       <c r="D139" t="n">
-        <v>23.43</v>
+        <v>66.23</v>
       </c>
       <c r="E139" t="n">
-        <v>48.05499999999999</v>
+        <v>1.833</v>
+      </c>
+      <c r="F139" t="n">
+        <v>18.599</v>
       </c>
     </row>
     <row r="140">
@@ -2833,16 +2988,19 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>44.75</v>
+        <v>32.98</v>
       </c>
       <c r="C140" t="n">
-        <v>13.25</v>
+        <v>41.52</v>
       </c>
       <c r="D140" t="n">
-        <v>24.24</v>
+        <v>67.11</v>
       </c>
       <c r="E140" t="n">
-        <v>47.76000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="F140" t="n">
+        <v>18.382</v>
       </c>
     </row>
     <row r="141">
@@ -2850,16 +3008,19 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>44.62</v>
+        <v>35.81</v>
       </c>
       <c r="C141" t="n">
-        <v>12.87</v>
+        <v>40.48</v>
       </c>
       <c r="D141" t="n">
-        <v>25.07</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="E141" t="n">
-        <v>47.44500000000001</v>
+        <v>0</v>
+      </c>
+      <c r="F141" t="n">
+        <v>17.71</v>
       </c>
     </row>
     <row r="142">
@@ -2867,16 +3028,19 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>44.5</v>
+        <v>38.58</v>
       </c>
       <c r="C142" t="n">
-        <v>12.46</v>
+        <v>39.42</v>
       </c>
       <c r="D142" t="n">
-        <v>25.71</v>
+        <v>68.76000000000001</v>
       </c>
       <c r="E142" t="n">
-        <v>47.32000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="F142" t="n">
+        <v>17.248</v>
       </c>
     </row>
     <row r="143">
@@ -2884,16 +3048,19 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>44.86</v>
+        <v>41.51</v>
       </c>
       <c r="C143" t="n">
-        <v>11.93</v>
+        <v>38.35</v>
       </c>
       <c r="D143" t="n">
-        <v>26.37</v>
+        <v>69.34999999999999</v>
       </c>
       <c r="E143" t="n">
-        <v>46.84</v>
+        <v>0</v>
+      </c>
+      <c r="F143" t="n">
+        <v>16.796</v>
       </c>
     </row>
     <row r="144">
@@ -2901,16 +3068,19 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>45.38</v>
+        <v>44.55</v>
       </c>
       <c r="C144" t="n">
-        <v>11.41</v>
+        <v>37.32</v>
       </c>
       <c r="D144" t="n">
-        <v>26.84</v>
+        <v>69.8</v>
       </c>
       <c r="E144" t="n">
-        <v>46.37</v>
+        <v>0</v>
+      </c>
+      <c r="F144" t="n">
+        <v>16.324</v>
       </c>
     </row>
     <row r="145">
@@ -2918,16 +3088,19 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>45.92</v>
+        <v>45.75</v>
       </c>
       <c r="C145" t="n">
-        <v>11.1</v>
+        <v>36.25</v>
       </c>
       <c r="D145" t="n">
-        <v>27.31</v>
+        <v>70.16</v>
       </c>
       <c r="E145" t="n">
-        <v>45.67</v>
+        <v>0</v>
+      </c>
+      <c r="F145" t="n">
+        <v>15.842</v>
       </c>
     </row>
     <row r="146">
@@ -2935,16 +3108,19 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>46.47</v>
+        <v>46.97</v>
       </c>
       <c r="C146" t="n">
-        <v>10.76</v>
+        <v>35.43</v>
       </c>
       <c r="D146" t="n">
-        <v>27.09</v>
+        <v>70.03</v>
       </c>
       <c r="E146" t="n">
-        <v>45.67</v>
+        <v>0</v>
+      </c>
+      <c r="F146" t="n">
+        <v>15.58</v>
       </c>
     </row>
     <row r="147">
@@ -2952,16 +3128,19 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>46.57</v>
+        <v>47.66</v>
       </c>
       <c r="C147" t="n">
-        <v>10.38</v>
+        <v>35.04</v>
       </c>
       <c r="D147" t="n">
-        <v>27.42</v>
+        <v>69.95</v>
       </c>
       <c r="E147" t="n">
-        <v>45.63000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="F147" t="n">
+        <v>15.355</v>
       </c>
     </row>
     <row r="148">
@@ -2969,16 +3148,19 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>46.58</v>
+        <v>48.41</v>
       </c>
       <c r="C148" t="n">
-        <v>10.19</v>
+        <v>34.8</v>
       </c>
       <c r="D148" t="n">
-        <v>27.68</v>
+        <v>69.87</v>
       </c>
       <c r="E148" t="n">
-        <v>45.55</v>
+        <v>0</v>
+      </c>
+      <c r="F148" t="n">
+        <v>14.93</v>
       </c>
     </row>
     <row r="149">
@@ -2986,16 +3168,19 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>46.94</v>
+        <v>49.16</v>
       </c>
       <c r="C149" t="n">
-        <v>9.970000000000001</v>
+        <v>34.7</v>
       </c>
       <c r="D149" t="n">
-        <v>27.66</v>
+        <v>69.64</v>
       </c>
       <c r="E149" t="n">
-        <v>45.42</v>
+        <v>0</v>
+      </c>
+      <c r="F149" t="n">
+        <v>14.495</v>
       </c>
     </row>
     <row r="150">
@@ -3003,16 +3188,19 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>47.17</v>
+        <v>49.87</v>
       </c>
       <c r="C150" t="n">
-        <v>9.65</v>
+        <v>34.38</v>
       </c>
       <c r="D150" t="n">
-        <v>27.71</v>
+        <v>69.39</v>
       </c>
       <c r="E150" t="n">
-        <v>45.47000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="F150" t="n">
+        <v>14.35</v>
       </c>
     </row>
     <row r="151">
@@ -3020,16 +3208,19 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>47.32</v>
+        <v>50.03</v>
       </c>
       <c r="C151" t="n">
-        <v>9.619999999999999</v>
+        <v>34.07</v>
       </c>
       <c r="D151" t="n">
-        <v>27.52</v>
+        <v>69.11</v>
       </c>
       <c r="E151" t="n">
-        <v>45.54000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="F151" t="n">
+        <v>14.8</v>
       </c>
     </row>
     <row r="152">
@@ -3037,16 +3228,19 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>46.82</v>
+        <v>50.17</v>
       </c>
       <c r="C152" t="n">
-        <v>9.619999999999999</v>
+        <v>33.93</v>
       </c>
       <c r="D152" t="n">
-        <v>26.95</v>
+        <v>68.81</v>
       </c>
       <c r="E152" t="n">
-        <v>46.61</v>
+        <v>0</v>
+      </c>
+      <c r="F152" t="n">
+        <v>15.09</v>
       </c>
     </row>
     <row r="153">
@@ -3054,16 +3248,19 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>45.85</v>
+        <v>49.94</v>
       </c>
       <c r="C153" t="n">
-        <v>9.67</v>
+        <v>34.15</v>
       </c>
       <c r="D153" t="n">
-        <v>26.37</v>
+        <v>68.53</v>
       </c>
       <c r="E153" t="n">
-        <v>48.119</v>
+        <v>0</v>
+      </c>
+      <c r="F153" t="n">
+        <v>15.37</v>
       </c>
     </row>
     <row r="154">
@@ -3071,16 +3268,19 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>44.92</v>
+        <v>49.64</v>
       </c>
       <c r="C154" t="n">
-        <v>9.720000000000001</v>
+        <v>34.33</v>
       </c>
       <c r="D154" t="n">
-        <v>25.75</v>
+        <v>68.2</v>
       </c>
       <c r="E154" t="n">
-        <v>49.608</v>
+        <v>0</v>
+      </c>
+      <c r="F154" t="n">
+        <v>15.83</v>
       </c>
     </row>
     <row r="155">
@@ -3088,16 +3288,19 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>43.91</v>
+        <v>49.2</v>
       </c>
       <c r="C155" t="n">
-        <v>9.51</v>
+        <v>34.6</v>
       </c>
       <c r="D155" t="n">
-        <v>25.24</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E155" t="n">
-        <v>51.347</v>
+        <v>0</v>
+      </c>
+      <c r="F155" t="n">
+        <v>16.3</v>
       </c>
     </row>
     <row r="156">
@@ -3105,16 +3308,19 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>42.92</v>
+        <v>48.73</v>
       </c>
       <c r="C156" t="n">
-        <v>9.31</v>
+        <v>34.86</v>
       </c>
       <c r="D156" t="n">
-        <v>24.62</v>
+        <v>67.66</v>
       </c>
       <c r="E156" t="n">
-        <v>53.146</v>
+        <v>0</v>
+      </c>
+      <c r="F156" t="n">
+        <v>16.75</v>
       </c>
     </row>
     <row r="157">
@@ -3122,16 +3328,19 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>42.38</v>
+        <v>48.22</v>
       </c>
       <c r="C157" t="n">
-        <v>9.27</v>
+        <v>35.14</v>
       </c>
       <c r="D157" t="n">
-        <v>23.47</v>
+        <v>67.66</v>
       </c>
       <c r="E157" t="n">
-        <v>54.88500000000001</v>
+        <v>0</v>
+      </c>
+      <c r="F157" t="n">
+        <v>16.98</v>
       </c>
     </row>
     <row r="158">
@@ -3139,16 +3348,19 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>42.49</v>
+        <v>47.69</v>
       </c>
       <c r="C158" t="n">
-        <v>8.98</v>
+        <v>35.39</v>
       </c>
       <c r="D158" t="n">
-        <v>21.92</v>
+        <v>67.7</v>
       </c>
       <c r="E158" t="n">
-        <v>56.61400000000001</v>
+        <v>0</v>
+      </c>
+      <c r="F158" t="n">
+        <v>17.21</v>
       </c>
     </row>
     <row r="159">
@@ -3156,16 +3368,19 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>42.79</v>
+        <v>47.09</v>
       </c>
       <c r="C159" t="n">
-        <v>8.699999999999999</v>
+        <v>35.7</v>
       </c>
       <c r="D159" t="n">
-        <v>20.59</v>
+        <v>67.77</v>
       </c>
       <c r="E159" t="n">
-        <v>57.92399999999999</v>
+        <v>0</v>
+      </c>
+      <c r="F159" t="n">
+        <v>17.45</v>
       </c>
     </row>
     <row r="160">
@@ -3173,16 +3388,19 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>43</v>
+        <v>46.83</v>
       </c>
       <c r="C160" t="n">
-        <v>8.609999999999999</v>
+        <v>36.12</v>
       </c>
       <c r="D160" t="n">
-        <v>19.36</v>
+        <v>67.65000000000001</v>
       </c>
       <c r="E160" t="n">
-        <v>59.03400000000001</v>
+        <v>0</v>
+      </c>
+      <c r="F160" t="n">
+        <v>17.4</v>
       </c>
     </row>
     <row r="161">
@@ -3190,16 +3408,19 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>42.44</v>
+        <v>46.59</v>
       </c>
       <c r="C161" t="n">
-        <v>8.16</v>
+        <v>36.61</v>
       </c>
       <c r="D161" t="n">
-        <v>19.33</v>
+        <v>67.61</v>
       </c>
       <c r="E161" t="n">
-        <v>60.072</v>
+        <v>0</v>
+      </c>
+      <c r="F161" t="n">
+        <v>17.2</v>
       </c>
     </row>
     <row r="162">
@@ -3207,16 +3428,19 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>42.53</v>
+        <v>46.36</v>
       </c>
       <c r="C162" t="n">
-        <v>7.05</v>
+        <v>36.93</v>
       </c>
       <c r="D162" t="n">
-        <v>19.91</v>
+        <v>67.7</v>
       </c>
       <c r="E162" t="n">
-        <v>60.515</v>
+        <v>0</v>
+      </c>
+      <c r="F162" t="n">
+        <v>17.02</v>
       </c>
     </row>
     <row r="163">
@@ -3224,16 +3448,19 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>42.71</v>
+        <v>46.1</v>
       </c>
       <c r="C163" t="n">
-        <v>6.27</v>
+        <v>36.96</v>
       </c>
       <c r="D163" t="n">
-        <v>20.48</v>
+        <v>67.84</v>
       </c>
       <c r="E163" t="n">
-        <v>60.544</v>
+        <v>0</v>
+      </c>
+      <c r="F163" t="n">
+        <v>17.1</v>
       </c>
     </row>
     <row r="164">
@@ -3241,16 +3468,19 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>43.26</v>
+        <v>45.93</v>
       </c>
       <c r="C164" t="n">
-        <v>8.48</v>
+        <v>37.01</v>
       </c>
       <c r="D164" t="n">
-        <v>20.67</v>
+        <v>68.06</v>
       </c>
       <c r="E164" t="n">
-        <v>60.593</v>
+        <v>0</v>
+      </c>
+      <c r="F164" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="165">
@@ -3258,16 +3488,19 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>43.97</v>
+        <v>45.74</v>
       </c>
       <c r="C165" t="n">
-        <v>10.68</v>
+        <v>36.93</v>
       </c>
       <c r="D165" t="n">
-        <v>20.76</v>
+        <v>68.31</v>
       </c>
       <c r="E165" t="n">
-        <v>60.58200000000001</v>
+        <v>0</v>
+      </c>
+      <c r="F165" t="n">
+        <v>17.02</v>
       </c>
     </row>
     <row r="166">
@@ -3275,16 +3508,19 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>44.67</v>
+        <v>45.55</v>
       </c>
       <c r="C166" t="n">
-        <v>13.12</v>
+        <v>37.02</v>
       </c>
       <c r="D166" t="n">
-        <v>20.67</v>
+        <v>68.51000000000001</v>
       </c>
       <c r="E166" t="n">
-        <v>60.55100000000001</v>
+        <v>0</v>
+      </c>
+      <c r="F166" t="n">
+        <v>16.93</v>
       </c>
     </row>
     <row r="167">
@@ -3292,16 +3528,19 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>45.34</v>
+        <v>45.35</v>
       </c>
       <c r="C167" t="n">
-        <v>14.35</v>
+        <v>37.21</v>
       </c>
       <c r="D167" t="n">
-        <v>21.81</v>
+        <v>68.38</v>
       </c>
       <c r="E167" t="n">
-        <v>60.5</v>
+        <v>0</v>
+      </c>
+      <c r="F167" t="n">
+        <v>17.06</v>
       </c>
     </row>
     <row r="168">
@@ -3309,16 +3548,19 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>42.28</v>
+        <v>45.17</v>
       </c>
       <c r="C168" t="n">
-        <v>13.57</v>
+        <v>37.38</v>
       </c>
       <c r="D168" t="n">
-        <v>28.76</v>
+        <v>68.25</v>
       </c>
       <c r="E168" t="n">
-        <v>60.399</v>
+        <v>0</v>
+      </c>
+      <c r="F168" t="n">
+        <v>17.19</v>
       </c>
     </row>
     <row r="169">
@@ -3326,16 +3568,19 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>38.7</v>
+        <v>45.02</v>
       </c>
       <c r="C169" t="n">
-        <v>12.8</v>
+        <v>37.58</v>
       </c>
       <c r="D169" t="n">
-        <v>35.75</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="E169" t="n">
-        <v>60.747</v>
+        <v>0</v>
+      </c>
+      <c r="F169" t="n">
+        <v>17.385</v>
       </c>
     </row>
     <row r="170">
@@ -3343,16 +3588,19 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>34.86</v>
+        <v>44.63</v>
       </c>
       <c r="C170" t="n">
-        <v>12.02</v>
+        <v>37.98</v>
       </c>
       <c r="D170" t="n">
-        <v>43.02</v>
+        <v>67.79000000000001</v>
       </c>
       <c r="E170" t="n">
-        <v>61.09499999999999</v>
+        <v>0</v>
+      </c>
+      <c r="F170" t="n">
+        <v>17.6</v>
       </c>
     </row>
     <row r="171">
@@ -3360,16 +3608,19 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>31.87</v>
+        <v>44.23</v>
       </c>
       <c r="C171" t="n">
-        <v>11.32</v>
+        <v>38.4</v>
       </c>
       <c r="D171" t="n">
-        <v>49.22</v>
+        <v>67.56</v>
       </c>
       <c r="E171" t="n">
-        <v>61.585</v>
+        <v>0</v>
+      </c>
+      <c r="F171" t="n">
+        <v>17.805</v>
       </c>
     </row>
     <row r="172">
@@ -3377,16 +3628,19 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>28.87</v>
+        <v>43.9</v>
       </c>
       <c r="C172" t="n">
-        <v>11.29</v>
+        <v>38.8</v>
       </c>
       <c r="D172" t="n">
-        <v>55.3</v>
+        <v>67.25</v>
       </c>
       <c r="E172" t="n">
-        <v>61.53999999999998</v>
+        <v>0</v>
+      </c>
+      <c r="F172" t="n">
+        <v>18.05</v>
       </c>
     </row>
     <row r="173">
@@ -3394,16 +3648,19 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>25.85</v>
+        <v>43.75</v>
       </c>
       <c r="C173" t="n">
-        <v>11.29</v>
+        <v>39.06</v>
       </c>
       <c r="D173" t="n">
-        <v>61.34</v>
+        <v>67.15000000000001</v>
       </c>
       <c r="E173" t="n">
-        <v>61.52</v>
+        <v>0</v>
+      </c>
+      <c r="F173" t="n">
+        <v>18.045</v>
       </c>
     </row>
     <row r="174">
@@ -3411,16 +3668,19 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>22.39</v>
+        <v>43.96</v>
       </c>
       <c r="C174" t="n">
-        <v>8.289999999999999</v>
+        <v>39.28</v>
       </c>
       <c r="D174" t="n">
-        <v>67.90000000000001</v>
+        <v>66.7</v>
       </c>
       <c r="E174" t="n">
-        <v>61.41999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="F174" t="n">
+        <v>18.06</v>
       </c>
     </row>
     <row r="175">
@@ -3428,16 +3688,19 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>19.76</v>
+        <v>44.25</v>
       </c>
       <c r="C175" t="n">
-        <v>5.31</v>
+        <v>39.59</v>
       </c>
       <c r="D175" t="n">
-        <v>74.41</v>
+        <v>66.23</v>
       </c>
       <c r="E175" t="n">
-        <v>61.52</v>
+        <v>0</v>
+      </c>
+      <c r="F175" t="n">
+        <v>17.935</v>
       </c>
     </row>
     <row r="176">
@@ -3445,16 +3708,19 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>17.06</v>
+        <v>44.54</v>
       </c>
       <c r="C176" t="n">
-        <v>2.09</v>
+        <v>39.74</v>
       </c>
       <c r="D176" t="n">
-        <v>80.76000000000001</v>
+        <v>65.76000000000001</v>
       </c>
       <c r="E176" t="n">
-        <v>62.08000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="F176" t="n">
+        <v>17.96</v>
       </c>
     </row>
     <row r="177">
@@ -3462,16 +3728,19 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>14.32</v>
+        <v>44.79</v>
       </c>
       <c r="C177" t="n">
-        <v>0</v>
+        <v>39.79</v>
       </c>
       <c r="D177" t="n">
-        <v>85.70999999999999</v>
+        <v>65.36</v>
       </c>
       <c r="E177" t="n">
-        <v>62.97500000000001</v>
+        <v>0</v>
+      </c>
+      <c r="F177" t="n">
+        <v>18.06</v>
       </c>
     </row>
     <row r="178">
@@ -3479,16 +3748,19 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>14.69</v>
+        <v>45.03</v>
       </c>
       <c r="C178" t="n">
-        <v>0</v>
+        <v>39.87</v>
       </c>
       <c r="D178" t="n">
-        <v>85.31</v>
+        <v>64.92</v>
       </c>
       <c r="E178" t="n">
-        <v>63.997</v>
+        <v>0</v>
+      </c>
+      <c r="F178" t="n">
+        <v>18.18</v>
       </c>
     </row>
     <row r="179">
@@ -3496,16 +3768,19 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>13.24</v>
+        <v>45.33</v>
       </c>
       <c r="C179" t="n">
-        <v>0</v>
+        <v>39.92</v>
       </c>
       <c r="D179" t="n">
-        <v>84.93000000000001</v>
+        <v>64.68000000000001</v>
       </c>
       <c r="E179" t="n">
-        <v>66.83600000000001</v>
+        <v>0</v>
+      </c>
+      <c r="F179" t="n">
+        <v>18.072</v>
       </c>
     </row>
     <row r="180">
@@ -3513,16 +3788,19 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>12.13</v>
+        <v>45.64</v>
       </c>
       <c r="C180" t="n">
-        <v>0</v>
+        <v>39.88</v>
       </c>
       <c r="D180" t="n">
-        <v>84.70999999999999</v>
+        <v>64.56999999999999</v>
       </c>
       <c r="E180" t="n">
-        <v>69.155</v>
+        <v>0</v>
+      </c>
+      <c r="F180" t="n">
+        <v>17.914</v>
       </c>
     </row>
     <row r="181">
@@ -3530,16 +3808,19 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>11.04</v>
+        <v>46.05</v>
       </c>
       <c r="C181" t="n">
-        <v>0</v>
+        <v>39.81</v>
       </c>
       <c r="D181" t="n">
-        <v>84.48999999999999</v>
+        <v>64.38</v>
       </c>
       <c r="E181" t="n">
-        <v>71.46400000000001</v>
+        <v>0</v>
+      </c>
+      <c r="F181" t="n">
+        <v>17.756</v>
       </c>
     </row>
     <row r="182">
@@ -3547,16 +3828,19 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>9.949999999999999</v>
+        <v>46.46</v>
       </c>
       <c r="C182" t="n">
-        <v>0</v>
+        <v>39.81</v>
       </c>
       <c r="D182" t="n">
-        <v>83.95</v>
+        <v>64.17</v>
       </c>
       <c r="E182" t="n">
-        <v>74.10299999999999</v>
+        <v>0</v>
+      </c>
+      <c r="F182" t="n">
+        <v>17.558</v>
       </c>
     </row>
     <row r="183">
@@ -3564,16 +3848,19 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>8.77</v>
+        <v>46.91</v>
       </c>
       <c r="C183" t="n">
-        <v>0</v>
+        <v>39.92</v>
       </c>
       <c r="D183" t="n">
-        <v>83.5</v>
+        <v>63.59</v>
       </c>
       <c r="E183" t="n">
-        <v>76.732</v>
+        <v>0</v>
+      </c>
+      <c r="F183" t="n">
+        <v>17.575</v>
       </c>
     </row>
     <row r="184">
@@ -3581,16 +3868,19 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>7.68</v>
+        <v>47.33</v>
       </c>
       <c r="C184" t="n">
-        <v>0</v>
+        <v>39.74</v>
       </c>
       <c r="D184" t="n">
-        <v>82.81999999999999</v>
+        <v>63.35</v>
       </c>
       <c r="E184" t="n">
-        <v>79.501</v>
+        <v>0</v>
+      </c>
+      <c r="F184" t="n">
+        <v>17.582</v>
       </c>
     </row>
     <row r="185">
@@ -3598,16 +3888,419 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>5.65</v>
+        <v>47.66</v>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>39.56</v>
       </c>
       <c r="D185" t="n">
-        <v>82.40000000000001</v>
+        <v>63.12</v>
       </c>
       <c r="E185" t="n">
-        <v>81.95</v>
+        <v>0</v>
+      </c>
+      <c r="F185" t="n">
+        <v>17.659</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>47.99</v>
+      </c>
+      <c r="C186" t="n">
+        <v>39.41</v>
+      </c>
+      <c r="D186" t="n">
+        <v>62.86</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0</v>
+      </c>
+      <c r="F186" t="n">
+        <v>17.736</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>49.24</v>
+      </c>
+      <c r="C187" t="n">
+        <v>39.24</v>
+      </c>
+      <c r="D187" t="n">
+        <v>62.6</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0</v>
+      </c>
+      <c r="F187" t="n">
+        <v>16.913</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="C188" t="n">
+        <v>38.99</v>
+      </c>
+      <c r="D188" t="n">
+        <v>62.42</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0</v>
+      </c>
+      <c r="F188" t="n">
+        <v>16.08</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>51.74</v>
+      </c>
+      <c r="C189" t="n">
+        <v>38.77</v>
+      </c>
+      <c r="D189" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0</v>
+      </c>
+      <c r="F189" t="n">
+        <v>14.385</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>52.97</v>
+      </c>
+      <c r="C190" t="n">
+        <v>38.41</v>
+      </c>
+      <c r="D190" t="n">
+        <v>63.84</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0</v>
+      </c>
+      <c r="F190" t="n">
+        <v>12.74</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>53.83</v>
+      </c>
+      <c r="C191" t="n">
+        <v>38.34</v>
+      </c>
+      <c r="D191" t="n">
+        <v>64.69</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0</v>
+      </c>
+      <c r="F191" t="n">
+        <v>13.115</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>54.68</v>
+      </c>
+      <c r="C192" t="n">
+        <v>38.19</v>
+      </c>
+      <c r="D192" t="n">
+        <v>65.55</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0</v>
+      </c>
+      <c r="F192" t="n">
+        <v>13.55</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>55.52</v>
+      </c>
+      <c r="C193" t="n">
+        <v>38.15</v>
+      </c>
+      <c r="D193" t="n">
+        <v>66.55</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0</v>
+      </c>
+      <c r="F193" t="n">
+        <v>13.75</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>54</v>
+      </c>
+      <c r="C194" t="n">
+        <v>38.27</v>
+      </c>
+      <c r="D194" t="n">
+        <v>67.56</v>
+      </c>
+      <c r="E194" t="n">
+        <v>0</v>
+      </c>
+      <c r="F194" t="n">
+        <v>16.14</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="C195" t="n">
+        <v>38.33</v>
+      </c>
+      <c r="D195" t="n">
+        <v>68.69</v>
+      </c>
+      <c r="E195" t="n">
+        <v>0</v>
+      </c>
+      <c r="F195" t="n">
+        <v>18.46</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>51.24</v>
+      </c>
+      <c r="C196" t="n">
+        <v>38.28</v>
+      </c>
+      <c r="D196" t="n">
+        <v>69.75</v>
+      </c>
+      <c r="E196" t="n">
+        <v>0</v>
+      </c>
+      <c r="F196" t="n">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>49.1</v>
+      </c>
+      <c r="C197" t="n">
+        <v>37.64</v>
+      </c>
+      <c r="D197" t="n">
+        <v>71.64</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0</v>
+      </c>
+      <c r="F197" t="n">
+        <v>23.59</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>45.61</v>
+      </c>
+      <c r="C198" t="n">
+        <v>38.47</v>
+      </c>
+      <c r="D198" t="n">
+        <v>73.41</v>
+      </c>
+      <c r="E198" t="n">
+        <v>0</v>
+      </c>
+      <c r="F198" t="n">
+        <v>26.48</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>42.14</v>
+      </c>
+      <c r="C199" t="n">
+        <v>39</v>
+      </c>
+      <c r="D199" t="n">
+        <v>74.43000000000001</v>
+      </c>
+      <c r="E199" t="n">
+        <v>0</v>
+      </c>
+      <c r="F199" t="n">
+        <v>30.395</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="C200" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="D200" t="n">
+        <v>76.44</v>
+      </c>
+      <c r="E200" t="n">
+        <v>0</v>
+      </c>
+      <c r="F200" t="n">
+        <v>33.86</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>35.32</v>
+      </c>
+      <c r="C201" t="n">
+        <v>38.98</v>
+      </c>
+      <c r="D201" t="n">
+        <v>78.39</v>
+      </c>
+      <c r="E201" t="n">
+        <v>0</v>
+      </c>
+      <c r="F201" t="n">
+        <v>35.305</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>32.06</v>
+      </c>
+      <c r="C202" t="n">
+        <v>38.89</v>
+      </c>
+      <c r="D202" t="n">
+        <v>80.37</v>
+      </c>
+      <c r="E202" t="n">
+        <v>0</v>
+      </c>
+      <c r="F202" t="n">
+        <v>36.68</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="C203" t="n">
+        <v>38.79</v>
+      </c>
+      <c r="D203" t="n">
+        <v>82.34</v>
+      </c>
+      <c r="E203" t="n">
+        <v>0</v>
+      </c>
+      <c r="F203" t="n">
+        <v>38.055</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>27.51</v>
+      </c>
+      <c r="C204" t="n">
+        <v>38.83</v>
+      </c>
+      <c r="D204" t="n">
+        <v>87.81999999999999</v>
+      </c>
+      <c r="E204" t="n">
+        <v>0</v>
+      </c>
+      <c r="F204" t="n">
+        <v>33.835</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>26.21</v>
+      </c>
+      <c r="C205" t="n">
+        <v>38.98</v>
+      </c>
+      <c r="D205" t="n">
+        <v>93.18000000000001</v>
+      </c>
+      <c r="E205" t="n">
+        <v>0</v>
+      </c>
+      <c r="F205" t="n">
+        <v>29.635</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/stacks_over_time_avg.xlsx
+++ b/Outputs/stacks_over_time_avg.xlsx
@@ -194,7 +194,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$B$2:$B$205</f>
+              <f>'data'!$B$2:$B$185</f>
             </numRef>
           </val>
         </ser>
@@ -221,7 +221,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$C$2:$C$205</f>
+              <f>'data'!$C$2:$C$185</f>
             </numRef>
           </val>
         </ser>
@@ -248,7 +248,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$D$2:$D$205</f>
+              <f>'data'!$D$2:$D$185</f>
             </numRef>
           </val>
         </ser>
@@ -275,34 +275,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$E$2:$E$205</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="4"/>
-          <order val="4"/>
-          <tx>
-            <strRef>
-              <f>'data'!F1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'data'!$F$2:$F$205</f>
+              <f>'data'!$E$2:$E$185</f>
             </numRef>
           </val>
         </ser>
@@ -672,7 +645,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F205"/>
+  <dimension ref="A1:E185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -706,11 +679,6 @@
           <t>Scott</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Regan</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -731,13 +699,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>20.05</v>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
         <v>19.95</v>
-      </c>
-      <c r="C3" t="n">
-        <v>20.05</v>
-      </c>
-      <c r="D3" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -745,13 +713,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>19.93</v>
+        <v>19.53</v>
       </c>
       <c r="C4" t="n">
-        <v>20.13</v>
+        <v>20.76</v>
       </c>
       <c r="D4" t="n">
-        <v>19.93</v>
+        <v>19.72</v>
       </c>
     </row>
     <row r="5">
@@ -759,13 +727,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20.8</v>
+        <v>19.27</v>
       </c>
       <c r="C5" t="n">
-        <v>20.12</v>
+        <v>21.18</v>
       </c>
       <c r="D5" t="n">
-        <v>19.07</v>
+        <v>19.55</v>
       </c>
     </row>
     <row r="6">
@@ -773,13 +741,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>21.52</v>
+        <v>19.03</v>
       </c>
       <c r="C6" t="n">
-        <v>20.08</v>
+        <v>21.44</v>
       </c>
       <c r="D6" t="n">
-        <v>18.4</v>
+        <v>19.53</v>
       </c>
     </row>
     <row r="7">
@@ -787,13 +755,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>22</v>
+        <v>18.6</v>
       </c>
       <c r="C7" t="n">
-        <v>20.08</v>
+        <v>22.15</v>
       </c>
       <c r="D7" t="n">
-        <v>17.92</v>
+        <v>19.25</v>
       </c>
     </row>
     <row r="8">
@@ -801,13 +769,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>22.31</v>
+        <v>18.29</v>
       </c>
       <c r="C8" t="n">
-        <v>20.14</v>
+        <v>22.65</v>
       </c>
       <c r="D8" t="n">
-        <v>17.54</v>
+        <v>19.06</v>
       </c>
     </row>
     <row r="9">
@@ -815,13 +783,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>22.54</v>
+        <v>18.04</v>
       </c>
       <c r="C9" t="n">
-        <v>20.1</v>
+        <v>23.02</v>
       </c>
       <c r="D9" t="n">
-        <v>17.36</v>
+        <v>18.94</v>
       </c>
     </row>
     <row r="10">
@@ -829,13 +797,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>22.71</v>
+        <v>17.83</v>
       </c>
       <c r="C10" t="n">
-        <v>20.09</v>
+        <v>23.24</v>
       </c>
       <c r="D10" t="n">
-        <v>17.2</v>
+        <v>18.93</v>
       </c>
     </row>
     <row r="11">
@@ -843,13 +811,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>22.95</v>
+        <v>17.69</v>
       </c>
       <c r="C11" t="n">
-        <v>20.06</v>
+        <v>23.41</v>
       </c>
       <c r="D11" t="n">
-        <v>16.99</v>
+        <v>18.9</v>
       </c>
     </row>
     <row r="12">
@@ -857,13 +825,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>22.95</v>
+        <v>17.69</v>
       </c>
       <c r="C12" t="n">
-        <v>20.06</v>
+        <v>23.41</v>
       </c>
       <c r="D12" t="n">
-        <v>16.99</v>
+        <v>18.9</v>
       </c>
     </row>
     <row r="13">
@@ -871,13 +839,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>23.48</v>
+        <v>18.04</v>
       </c>
       <c r="C13" t="n">
-        <v>20.02</v>
+        <v>23.76</v>
       </c>
       <c r="D13" t="n">
-        <v>16.5</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="14">
@@ -885,13 +853,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>24.02</v>
+        <v>18.37</v>
       </c>
       <c r="C14" t="n">
-        <v>19.96</v>
+        <v>24.12</v>
       </c>
       <c r="D14" t="n">
-        <v>16.02</v>
+        <v>17.52</v>
       </c>
     </row>
     <row r="15">
@@ -899,13 +867,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>24.52</v>
+        <v>18.93</v>
       </c>
       <c r="C15" t="n">
-        <v>19.93</v>
+        <v>24.24</v>
       </c>
       <c r="D15" t="n">
-        <v>15.55</v>
+        <v>16.82</v>
       </c>
     </row>
     <row r="16">
@@ -913,13 +881,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>24.66</v>
+        <v>19.48</v>
       </c>
       <c r="C16" t="n">
-        <v>19.9</v>
+        <v>24.38</v>
       </c>
       <c r="D16" t="n">
-        <v>15.44</v>
+        <v>16.14</v>
       </c>
     </row>
     <row r="17">
@@ -927,13 +895,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>26.35</v>
+        <v>20.06</v>
       </c>
       <c r="C17" t="n">
-        <v>19.78</v>
+        <v>24.71</v>
       </c>
       <c r="D17" t="n">
-        <v>13.87</v>
+        <v>15.23</v>
       </c>
     </row>
     <row r="18">
@@ -941,13 +909,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>28.16</v>
+        <v>20.4</v>
       </c>
       <c r="C18" t="n">
-        <v>19.52</v>
+        <v>25.16</v>
       </c>
       <c r="D18" t="n">
-        <v>12.32</v>
+        <v>14.43</v>
       </c>
     </row>
     <row r="19">
@@ -955,13 +923,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>30.01</v>
+        <v>20.77</v>
       </c>
       <c r="C19" t="n">
-        <v>19.2</v>
+        <v>25.61</v>
       </c>
       <c r="D19" t="n">
-        <v>10.79</v>
+        <v>13.61</v>
       </c>
     </row>
     <row r="20">
@@ -969,13 +937,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>31.82</v>
+        <v>21.1</v>
       </c>
       <c r="C20" t="n">
-        <v>19</v>
+        <v>25.9</v>
       </c>
       <c r="D20" t="n">
-        <v>9.18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21">
@@ -983,13 +951,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>33.33</v>
+        <v>21.22</v>
       </c>
       <c r="C21" t="n">
-        <v>19.08</v>
+        <v>26.24</v>
       </c>
       <c r="D21" t="n">
-        <v>7.59</v>
+        <v>12.54</v>
       </c>
     </row>
     <row r="22">
@@ -997,13 +965,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>34.72</v>
+        <v>21.32</v>
       </c>
       <c r="C22" t="n">
-        <v>19.2</v>
+        <v>26.59</v>
       </c>
       <c r="D22" t="n">
-        <v>8.08</v>
+        <v>12.09</v>
       </c>
     </row>
     <row r="23">
@@ -1011,13 +979,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>36.09</v>
+        <v>20.86</v>
       </c>
       <c r="C23" t="n">
-        <v>19.36</v>
+        <v>27.01</v>
       </c>
       <c r="D23" t="n">
-        <v>8.550000000000001</v>
+        <v>12.13</v>
       </c>
     </row>
     <row r="24">
@@ -1025,13 +993,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>37.48</v>
+        <v>20.23</v>
       </c>
       <c r="C24" t="n">
-        <v>19.53</v>
+        <v>26.99</v>
       </c>
       <c r="D24" t="n">
-        <v>8.99</v>
+        <v>12.78</v>
       </c>
     </row>
     <row r="25">
@@ -1039,13 +1007,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>38.9</v>
+        <v>19.47</v>
       </c>
       <c r="C25" t="n">
-        <v>19.7</v>
+        <v>26.97</v>
       </c>
       <c r="D25" t="n">
-        <v>9.4</v>
+        <v>13.56</v>
       </c>
     </row>
     <row r="26">
@@ -1053,13 +1021,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>40.33</v>
+        <v>18.72</v>
       </c>
       <c r="C26" t="n">
-        <v>19.91</v>
+        <v>26.91</v>
       </c>
       <c r="D26" t="n">
-        <v>9.76</v>
+        <v>14.27</v>
       </c>
     </row>
     <row r="27">
@@ -1067,13 +1035,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>40.3</v>
+        <v>17.98</v>
       </c>
       <c r="C27" t="n">
-        <v>20.05</v>
+        <v>26.71</v>
       </c>
       <c r="D27" t="n">
-        <v>11.65</v>
+        <v>15.11</v>
       </c>
     </row>
     <row r="28">
@@ -1081,13 +1049,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>40.26</v>
+        <v>17.64</v>
       </c>
       <c r="C28" t="n">
-        <v>20.25</v>
+        <v>26.07</v>
       </c>
       <c r="D28" t="n">
-        <v>13.49</v>
+        <v>15.99</v>
       </c>
     </row>
     <row r="29">
@@ -1095,13 +1063,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>40.2</v>
+        <v>17.37</v>
       </c>
       <c r="C29" t="n">
-        <v>20.5</v>
+        <v>25.42</v>
       </c>
       <c r="D29" t="n">
-        <v>15.31</v>
+        <v>16.91</v>
       </c>
     </row>
     <row r="30">
@@ -1109,13 +1077,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>40.06</v>
+        <v>17.09</v>
       </c>
       <c r="C30" t="n">
-        <v>20.89</v>
+        <v>24.87</v>
       </c>
       <c r="D30" t="n">
-        <v>17.05</v>
+        <v>17.74</v>
       </c>
     </row>
     <row r="31">
@@ -1123,13 +1091,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>40.21</v>
+        <v>17.02</v>
       </c>
       <c r="C31" t="n">
-        <v>20.99</v>
+        <v>24.32</v>
       </c>
       <c r="D31" t="n">
-        <v>18.79</v>
+        <v>18.36</v>
       </c>
     </row>
     <row r="32">
@@ -1137,13 +1105,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>40.35</v>
+        <v>16.76</v>
       </c>
       <c r="C32" t="n">
-        <v>21.14</v>
+        <v>23.96</v>
       </c>
       <c r="D32" t="n">
-        <v>18.51</v>
+        <v>18.98</v>
       </c>
     </row>
     <row r="33">
@@ -1151,13 +1119,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>40.5</v>
+        <v>16.37</v>
       </c>
       <c r="C33" t="n">
-        <v>21.27</v>
+        <v>23.74</v>
       </c>
       <c r="D33" t="n">
-        <v>18.23</v>
+        <v>19.59</v>
       </c>
     </row>
     <row r="34">
@@ -1165,13 +1133,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>40.73</v>
+        <v>16.23</v>
       </c>
       <c r="C34" t="n">
-        <v>21.39</v>
+        <v>23.95</v>
       </c>
       <c r="D34" t="n">
-        <v>17.89</v>
+        <v>19.52</v>
       </c>
     </row>
     <row r="35">
@@ -1179,13 +1147,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>41</v>
+        <v>15.6</v>
       </c>
       <c r="C35" t="n">
-        <v>21.44</v>
+        <v>24.73</v>
       </c>
       <c r="D35" t="n">
-        <v>17.57</v>
+        <v>19.37</v>
       </c>
     </row>
     <row r="36">
@@ -1193,13 +1161,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>41.08</v>
+        <v>15.16</v>
       </c>
       <c r="C36" t="n">
-        <v>21.66</v>
+        <v>25.51</v>
       </c>
       <c r="D36" t="n">
-        <v>17.26</v>
+        <v>19.13</v>
       </c>
     </row>
     <row r="37">
@@ -1207,13 +1175,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>40.61</v>
+        <v>15.72</v>
       </c>
       <c r="C37" t="n">
-        <v>21.69</v>
+        <v>26.22</v>
       </c>
       <c r="D37" t="n">
-        <v>17.7</v>
+        <v>18.96</v>
       </c>
     </row>
     <row r="38">
@@ -1221,16 +1189,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>40.1</v>
+        <v>16.51</v>
       </c>
       <c r="C38" t="n">
-        <v>21.77</v>
+        <v>26.76</v>
       </c>
       <c r="D38" t="n">
-        <v>18.13</v>
-      </c>
-      <c r="E38" t="n">
-        <v>20</v>
+        <v>18.73</v>
       </c>
     </row>
     <row r="39">
@@ -1238,16 +1203,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>39.41</v>
+        <v>17.17</v>
       </c>
       <c r="C39" t="n">
-        <v>21.83</v>
+        <v>27.42</v>
       </c>
       <c r="D39" t="n">
-        <v>18.77</v>
-      </c>
-      <c r="E39" t="n">
-        <v>20.05</v>
+        <v>18.41</v>
       </c>
     </row>
     <row r="40">
@@ -1255,16 +1217,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>38.83</v>
+        <v>17.88</v>
       </c>
       <c r="C40" t="n">
-        <v>21.68</v>
+        <v>28.13</v>
       </c>
       <c r="D40" t="n">
-        <v>19.48</v>
-      </c>
-      <c r="E40" t="n">
-        <v>20.13333333333334</v>
+        <v>17.99</v>
       </c>
     </row>
     <row r="41">
@@ -1272,16 +1231,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>38.26</v>
+        <v>18.6</v>
       </c>
       <c r="C41" t="n">
-        <v>21.51</v>
+        <v>28.86</v>
       </c>
       <c r="D41" t="n">
-        <v>20.19</v>
-      </c>
-      <c r="E41" t="n">
-        <v>20.175</v>
+        <v>17.54</v>
       </c>
     </row>
     <row r="42">
@@ -1289,16 +1245,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>37.74</v>
+        <v>19.61</v>
       </c>
       <c r="C42" t="n">
-        <v>21.26</v>
+        <v>29.28</v>
       </c>
       <c r="D42" t="n">
-        <v>20.93</v>
-      </c>
-      <c r="E42" t="n">
-        <v>18.68</v>
+        <v>17.11</v>
       </c>
     </row>
     <row r="43">
@@ -1306,16 +1259,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>37.2</v>
+        <v>20.63</v>
       </c>
       <c r="C43" t="n">
-        <v>21.79</v>
+        <v>29.61</v>
       </c>
       <c r="D43" t="n">
-        <v>21.68</v>
-      </c>
-      <c r="E43" t="n">
-        <v>17.66666666666667</v>
+        <v>16.76</v>
       </c>
     </row>
     <row r="44">
@@ -1323,16 +1273,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>36.58</v>
+        <v>21.58</v>
       </c>
       <c r="C44" t="n">
-        <v>22.31</v>
+        <v>29.95</v>
       </c>
       <c r="D44" t="n">
-        <v>22.51</v>
-      </c>
-      <c r="E44" t="n">
-        <v>16.82857142857143</v>
+        <v>16.47</v>
       </c>
     </row>
     <row r="45">
@@ -1340,16 +1287,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>36.42</v>
+        <v>23.19</v>
       </c>
       <c r="C45" t="n">
-        <v>22.44</v>
+        <v>29.69</v>
       </c>
       <c r="D45" t="n">
-        <v>23.36</v>
-      </c>
-      <c r="E45" t="n">
-        <v>16.11875</v>
+        <v>16.12</v>
       </c>
     </row>
     <row r="46">
@@ -1357,16 +1301,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>36.22</v>
+        <v>24.6</v>
       </c>
       <c r="C46" t="n">
-        <v>22.66</v>
+        <v>29.48</v>
       </c>
       <c r="D46" t="n">
-        <v>24.23</v>
-      </c>
-      <c r="E46" t="n">
-        <v>15.55555555555556</v>
+        <v>15.92</v>
       </c>
     </row>
     <row r="47">
@@ -1374,16 +1315,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>36.25</v>
+        <v>25.02</v>
       </c>
       <c r="C47" t="n">
-        <v>23.4</v>
+        <v>29.28</v>
       </c>
       <c r="D47" t="n">
-        <v>24.35</v>
-      </c>
-      <c r="E47" t="n">
-        <v>15.105</v>
+        <v>15.7</v>
       </c>
     </row>
     <row r="48">
@@ -1391,16 +1329,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>36.22</v>
+        <v>25.13</v>
       </c>
       <c r="C48" t="n">
-        <v>24.15</v>
+        <v>29.34</v>
       </c>
       <c r="D48" t="n">
-        <v>24.53</v>
-      </c>
-      <c r="E48" t="n">
-        <v>15.105</v>
+        <v>15.53</v>
       </c>
     </row>
     <row r="49">
@@ -1408,16 +1343,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>36.35</v>
+        <v>25.27</v>
       </c>
       <c r="C49" t="n">
-        <v>24.89</v>
+        <v>29.32</v>
       </c>
       <c r="D49" t="n">
-        <v>24.53</v>
-      </c>
-      <c r="E49" t="n">
-        <v>14.23</v>
+        <v>15.41</v>
       </c>
     </row>
     <row r="50">
@@ -1425,16 +1357,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>35.36</v>
+        <v>25</v>
       </c>
       <c r="C50" t="n">
-        <v>25.58</v>
+        <v>29.31</v>
       </c>
       <c r="D50" t="n">
-        <v>24.53</v>
-      </c>
-      <c r="E50" t="n">
-        <v>14.527</v>
+        <v>15.69</v>
       </c>
     </row>
     <row r="51">
@@ -1442,16 +1371,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>34.37</v>
+        <v>24.7</v>
       </c>
       <c r="C51" t="n">
-        <v>26.28</v>
+        <v>29.26</v>
       </c>
       <c r="D51" t="n">
-        <v>24.54</v>
-      </c>
-      <c r="E51" t="n">
-        <v>14.804</v>
+        <v>16.04</v>
       </c>
     </row>
     <row r="52">
@@ -1459,16 +1385,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>33.36</v>
+        <v>24.28</v>
       </c>
       <c r="C52" t="n">
-        <v>26.97</v>
+        <v>29.32</v>
       </c>
       <c r="D52" t="n">
-        <v>24.59</v>
-      </c>
-      <c r="E52" t="n">
-        <v>15.081</v>
+        <v>16.4</v>
       </c>
     </row>
     <row r="53">
@@ -1476,16 +1399,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>32.34</v>
+        <v>23.87</v>
       </c>
       <c r="C53" t="n">
-        <v>26.89</v>
+        <v>29.39</v>
       </c>
       <c r="D53" t="n">
-        <v>24.67</v>
-      </c>
-      <c r="E53" t="n">
-        <v>16.098</v>
+        <v>16.74</v>
       </c>
     </row>
     <row r="54">
@@ -1493,16 +1413,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>31.11</v>
+        <v>23.44</v>
       </c>
       <c r="C54" t="n">
-        <v>27.2</v>
+        <v>29.08</v>
       </c>
       <c r="D54" t="n">
-        <v>24.75</v>
-      </c>
-      <c r="E54" t="n">
-        <v>16.94</v>
+        <v>17.48</v>
       </c>
     </row>
     <row r="55">
@@ -1510,16 +1427,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>29.43</v>
+        <v>22.99</v>
       </c>
       <c r="C55" t="n">
-        <v>27.9</v>
+        <v>28.73</v>
       </c>
       <c r="D55" t="n">
-        <v>24.81</v>
-      </c>
-      <c r="E55" t="n">
-        <v>17.862</v>
+        <v>18.28</v>
       </c>
     </row>
     <row r="56">
@@ -1527,16 +1441,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>27.9</v>
+        <v>22.51</v>
       </c>
       <c r="C56" t="n">
-        <v>27.44</v>
+        <v>28.36</v>
       </c>
       <c r="D56" t="n">
-        <v>24.81</v>
-      </c>
-      <c r="E56" t="n">
-        <v>19.849</v>
+        <v>19.13</v>
       </c>
     </row>
     <row r="57">
@@ -1544,16 +1455,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>25.79</v>
+        <v>22.05</v>
       </c>
       <c r="C57" t="n">
-        <v>26.8</v>
+        <v>27.97</v>
       </c>
       <c r="D57" t="n">
-        <v>24.79</v>
-      </c>
-      <c r="E57" t="n">
-        <v>22.616</v>
+        <v>19.98</v>
       </c>
     </row>
     <row r="58">
@@ -1561,16 +1469,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>23.67</v>
+        <v>21.67</v>
       </c>
       <c r="C58" t="n">
-        <v>26.19</v>
+        <v>27.5</v>
       </c>
       <c r="D58" t="n">
-        <v>24.77</v>
-      </c>
-      <c r="E58" t="n">
-        <v>25.373</v>
+        <v>20.83</v>
       </c>
     </row>
     <row r="59">
@@ -1578,16 +1483,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>21.57</v>
+        <v>20.91</v>
       </c>
       <c r="C59" t="n">
-        <v>25.56</v>
+        <v>27.48</v>
       </c>
       <c r="D59" t="n">
-        <v>26.35</v>
-      </c>
-      <c r="E59" t="n">
-        <v>26.523</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="60">
@@ -1595,16 +1497,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>20.57</v>
+        <v>20.59</v>
       </c>
       <c r="C60" t="n">
-        <v>25.12</v>
+        <v>27.44</v>
       </c>
       <c r="D60" t="n">
-        <v>27.91</v>
-      </c>
-      <c r="E60" t="n">
-        <v>26.391</v>
+        <v>21.96</v>
       </c>
     </row>
     <row r="61">
@@ -1612,16 +1511,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>19.57</v>
+        <v>20.28</v>
       </c>
       <c r="C61" t="n">
-        <v>24.69</v>
+        <v>27.43</v>
       </c>
       <c r="D61" t="n">
-        <v>29.45</v>
-      </c>
-      <c r="E61" t="n">
-        <v>26.28900000000001</v>
+        <v>22.29</v>
       </c>
     </row>
     <row r="62">
@@ -1629,16 +1525,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>18.4</v>
+        <v>19.95</v>
       </c>
       <c r="C62" t="n">
-        <v>24.26</v>
+        <v>27.44</v>
       </c>
       <c r="D62" t="n">
-        <v>30.93</v>
-      </c>
-      <c r="E62" t="n">
-        <v>26.407</v>
+        <v>22.62</v>
       </c>
     </row>
     <row r="63">
@@ -1646,16 +1539,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>17.84</v>
+        <v>20.21</v>
       </c>
       <c r="C63" t="n">
-        <v>24.16</v>
+        <v>27.42</v>
       </c>
       <c r="D63" t="n">
-        <v>32.26</v>
-      </c>
-      <c r="E63" t="n">
-        <v>26.435</v>
+        <v>22.37</v>
       </c>
     </row>
     <row r="64">
@@ -1663,16 +1553,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>17.38</v>
+        <v>20.49</v>
       </c>
       <c r="C64" t="n">
-        <v>23.61</v>
+        <v>27.8</v>
       </c>
       <c r="D64" t="n">
-        <v>33.76</v>
-      </c>
-      <c r="E64" t="n">
-        <v>26.648</v>
+        <v>21.71</v>
       </c>
     </row>
     <row r="65">
@@ -1680,16 +1567,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>16.87</v>
+        <v>20.67</v>
       </c>
       <c r="C65" t="n">
-        <v>23.07</v>
+        <v>28.42</v>
       </c>
       <c r="D65" t="n">
-        <v>35.26</v>
-      </c>
-      <c r="E65" t="n">
-        <v>26.901</v>
+        <v>20.91</v>
       </c>
     </row>
     <row r="66">
@@ -1697,16 +1581,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>16.42</v>
+        <v>20.91</v>
       </c>
       <c r="C66" t="n">
-        <v>23.39</v>
+        <v>29.04</v>
       </c>
       <c r="D66" t="n">
-        <v>36.72</v>
-      </c>
-      <c r="E66" t="n">
-        <v>26.274</v>
+        <v>20.07</v>
       </c>
     </row>
     <row r="67">
@@ -1714,16 +1595,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>16.7</v>
+        <v>21.15</v>
       </c>
       <c r="C67" t="n">
-        <v>23.65</v>
+        <v>29.68</v>
       </c>
       <c r="D67" t="n">
-        <v>38.35</v>
-      </c>
-      <c r="E67" t="n">
-        <v>24.797</v>
+        <v>19.21</v>
       </c>
     </row>
     <row r="68">
@@ -1731,16 +1609,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>17</v>
+        <v>21.4</v>
       </c>
       <c r="C68" t="n">
-        <v>23.9</v>
+        <v>30.3</v>
       </c>
       <c r="D68" t="n">
-        <v>39.97</v>
+        <v>18.36</v>
       </c>
       <c r="E68" t="n">
-        <v>23.33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69">
@@ -1748,16 +1626,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>17.29</v>
+        <v>22.04</v>
       </c>
       <c r="C69" t="n">
-        <v>24.96</v>
+        <v>30.45</v>
       </c>
       <c r="D69" t="n">
-        <v>39.99</v>
+        <v>17.59</v>
       </c>
       <c r="E69" t="n">
-        <v>22.661</v>
+        <v>21.7</v>
       </c>
     </row>
     <row r="70">
@@ -1765,16 +1643,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>17.6</v>
+        <v>22.62</v>
       </c>
       <c r="C70" t="n">
-        <v>25.92</v>
+        <v>30.62</v>
       </c>
       <c r="D70" t="n">
-        <v>40</v>
+        <v>16.52</v>
       </c>
       <c r="E70" t="n">
-        <v>22.082</v>
+        <v>22.07666666666666</v>
       </c>
     </row>
     <row r="71">
@@ -1782,16 +1660,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>17.92</v>
+        <v>23.14</v>
       </c>
       <c r="C71" t="n">
-        <v>27.18</v>
+        <v>30.8</v>
       </c>
       <c r="D71" t="n">
-        <v>40.01</v>
+        <v>15.55</v>
       </c>
       <c r="E71" t="n">
-        <v>21.193</v>
+        <v>22.965</v>
       </c>
     </row>
     <row r="72">
@@ -1799,16 +1677,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>18.43</v>
+        <v>23.67</v>
       </c>
       <c r="C72" t="n">
-        <v>28.46</v>
+        <v>30.96</v>
       </c>
       <c r="D72" t="n">
-        <v>40.03</v>
+        <v>14.31</v>
       </c>
       <c r="E72" t="n">
-        <v>20.084</v>
+        <v>23.458</v>
       </c>
     </row>
     <row r="73">
@@ -1816,16 +1694,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>18.27</v>
+        <v>22.75</v>
       </c>
       <c r="C73" t="n">
-        <v>29.41</v>
+        <v>31.99</v>
       </c>
       <c r="D73" t="n">
-        <v>40.14</v>
+        <v>13.65</v>
       </c>
       <c r="E73" t="n">
-        <v>19.185</v>
+        <v>23.92</v>
       </c>
     </row>
     <row r="74">
@@ -1833,16 +1711,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>18.24</v>
+        <v>21.84</v>
       </c>
       <c r="C74" t="n">
-        <v>30.41</v>
+        <v>32.91</v>
       </c>
       <c r="D74" t="n">
-        <v>40.07</v>
+        <v>13.02</v>
       </c>
       <c r="E74" t="n">
-        <v>18.276</v>
+        <v>24.35</v>
       </c>
     </row>
     <row r="75">
@@ -1850,16 +1728,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>18.26</v>
+        <v>20.95</v>
       </c>
       <c r="C75" t="n">
-        <v>31.41</v>
+        <v>33.65</v>
       </c>
       <c r="D75" t="n">
-        <v>40</v>
+        <v>12.48</v>
       </c>
       <c r="E75" t="n">
-        <v>17.327</v>
+        <v>24.6725</v>
       </c>
     </row>
     <row r="76">
@@ -1867,16 +1745,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>18.2</v>
+        <v>20.04</v>
       </c>
       <c r="C76" t="n">
-        <v>32.67</v>
+        <v>34.38</v>
       </c>
       <c r="D76" t="n">
-        <v>39.95</v>
+        <v>11.94</v>
       </c>
       <c r="E76" t="n">
-        <v>16.178</v>
+        <v>24.99</v>
       </c>
     </row>
     <row r="77">
@@ -1884,16 +1762,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>16.81</v>
+        <v>19.09</v>
       </c>
       <c r="C77" t="n">
-        <v>34.01</v>
+        <v>35.1</v>
       </c>
       <c r="D77" t="n">
-        <v>39.66</v>
+        <v>11.41</v>
       </c>
       <c r="E77" t="n">
-        <v>16.515</v>
+        <v>25.234</v>
       </c>
     </row>
     <row r="78">
@@ -1901,16 +1779,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>16.91</v>
+        <v>18.15</v>
       </c>
       <c r="C78" t="n">
-        <v>35.29</v>
+        <v>35.79</v>
       </c>
       <c r="D78" t="n">
-        <v>39.39</v>
+        <v>10.88</v>
       </c>
       <c r="E78" t="n">
-        <v>16.912</v>
+        <v>25.234</v>
       </c>
     </row>
     <row r="79">
@@ -1918,16 +1796,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>17.39</v>
+        <v>17.2</v>
       </c>
       <c r="C79" t="n">
-        <v>35.76</v>
+        <v>36.41</v>
       </c>
       <c r="D79" t="n">
-        <v>38.75</v>
+        <v>10.46</v>
       </c>
       <c r="E79" t="n">
-        <v>18.098</v>
+        <v>25.977</v>
       </c>
     </row>
     <row r="80">
@@ -1935,16 +1813,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>17.85</v>
+        <v>16.27</v>
       </c>
       <c r="C80" t="n">
-        <v>35.62</v>
+        <v>37.02</v>
       </c>
       <c r="D80" t="n">
-        <v>38.13</v>
+        <v>10.28</v>
       </c>
       <c r="E80" t="n">
-        <v>19.901</v>
+        <v>26.45</v>
       </c>
     </row>
     <row r="81">
@@ -1952,16 +1830,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>18.37</v>
+        <v>15.32</v>
       </c>
       <c r="C81" t="n">
-        <v>35.17</v>
+        <v>37.55</v>
       </c>
       <c r="D81" t="n">
-        <v>37.5</v>
+        <v>9.91</v>
       </c>
       <c r="E81" t="n">
-        <v>21.984</v>
+        <v>27.22000000000001</v>
       </c>
     </row>
     <row r="82">
@@ -1969,16 +1847,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>18.93</v>
+        <v>14.36</v>
       </c>
       <c r="C82" t="n">
-        <v>34.66</v>
+        <v>38.09</v>
       </c>
       <c r="D82" t="n">
-        <v>36.88</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="E82" t="n">
-        <v>24.067</v>
+        <v>27.69</v>
       </c>
     </row>
     <row r="83">
@@ -1986,16 +1864,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>19.6</v>
+        <v>14.23</v>
       </c>
       <c r="C83" t="n">
-        <v>34.14</v>
+        <v>37.9</v>
       </c>
       <c r="D83" t="n">
-        <v>36.27</v>
+        <v>9.68</v>
       </c>
       <c r="E83" t="n">
-        <v>26.05</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="84">
@@ -2003,16 +1881,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>20.23</v>
+        <v>14.13</v>
       </c>
       <c r="C84" t="n">
-        <v>33.65</v>
+        <v>37.78</v>
       </c>
       <c r="D84" t="n">
-        <v>35.66</v>
+        <v>9.5</v>
       </c>
       <c r="E84" t="n">
-        <v>28.043</v>
+        <v>28.59</v>
       </c>
     </row>
     <row r="85">
@@ -2020,16 +1898,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>20.82</v>
+        <v>14.33</v>
       </c>
       <c r="C85" t="n">
-        <v>33.03</v>
+        <v>37.66</v>
       </c>
       <c r="D85" t="n">
-        <v>35.21</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="E85" t="n">
-        <v>30.036</v>
+        <v>28.63</v>
       </c>
     </row>
     <row r="86">
@@ -2037,16 +1915,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>21.5</v>
+        <v>14.64</v>
       </c>
       <c r="C86" t="n">
-        <v>32.15</v>
+        <v>37.53</v>
       </c>
       <c r="D86" t="n">
-        <v>34.86</v>
+        <v>9.25</v>
       </c>
       <c r="E86" t="n">
-        <v>32.109</v>
+        <v>28.57999999999999</v>
       </c>
     </row>
     <row r="87">
@@ -2054,16 +1932,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>23.53</v>
+        <v>14.97</v>
       </c>
       <c r="C87" t="n">
-        <v>31.25</v>
+        <v>37.83</v>
       </c>
       <c r="D87" t="n">
-        <v>34.58</v>
+        <v>8.81</v>
       </c>
       <c r="E87" t="n">
-        <v>32.776</v>
+        <v>28.39</v>
       </c>
     </row>
     <row r="88">
@@ -2071,16 +1949,16 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>24.05</v>
+        <v>15.28</v>
       </c>
       <c r="C88" t="n">
-        <v>30.46</v>
+        <v>38.16</v>
       </c>
       <c r="D88" t="n">
-        <v>34.27</v>
+        <v>8.35</v>
       </c>
       <c r="E88" t="n">
-        <v>33.383</v>
+        <v>28.21</v>
       </c>
     </row>
     <row r="89">
@@ -2088,16 +1966,16 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>24.19</v>
+        <v>15.57</v>
       </c>
       <c r="C89" t="n">
-        <v>29.54</v>
+        <v>38.48</v>
       </c>
       <c r="D89" t="n">
-        <v>34.46</v>
+        <v>7.73</v>
       </c>
       <c r="E89" t="n">
-        <v>33.99</v>
+        <v>28.21</v>
       </c>
     </row>
     <row r="90">
@@ -2105,16 +1983,16 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>24.33</v>
+        <v>15.92</v>
       </c>
       <c r="C90" t="n">
-        <v>29.3</v>
+        <v>38.74</v>
       </c>
       <c r="D90" t="n">
-        <v>34.58</v>
+        <v>7.21</v>
       </c>
       <c r="E90" t="n">
-        <v>33.99</v>
+        <v>28.13</v>
       </c>
     </row>
     <row r="91">
@@ -2122,16 +2000,16 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>24.4</v>
+        <v>16.35</v>
       </c>
       <c r="C91" t="n">
-        <v>29.06</v>
+        <v>39.06</v>
       </c>
       <c r="D91" t="n">
-        <v>34.75</v>
+        <v>6.75</v>
       </c>
       <c r="E91" t="n">
-        <v>33.99</v>
+        <v>27.83999999999999</v>
       </c>
     </row>
     <row r="92">
@@ -2139,16 +2017,16 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>24.42</v>
+        <v>16.6</v>
       </c>
       <c r="C92" t="n">
-        <v>28.83</v>
+        <v>39.68</v>
       </c>
       <c r="D92" t="n">
-        <v>34.96</v>
+        <v>6.21</v>
       </c>
       <c r="E92" t="n">
-        <v>33.99</v>
+        <v>27.51</v>
       </c>
     </row>
     <row r="93">
@@ -2156,16 +2034,16 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>24.39</v>
+        <v>16.95</v>
       </c>
       <c r="C93" t="n">
-        <v>28.64</v>
+        <v>40.17</v>
       </c>
       <c r="D93" t="n">
-        <v>35.18</v>
+        <v>5.78</v>
       </c>
       <c r="E93" t="n">
-        <v>33.99</v>
+        <v>27.1</v>
       </c>
     </row>
     <row r="94">
@@ -2173,16 +2051,16 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>24.37</v>
+        <v>17.26</v>
       </c>
       <c r="C94" t="n">
-        <v>28.43</v>
+        <v>40.67</v>
       </c>
       <c r="D94" t="n">
-        <v>35.41</v>
+        <v>5.82</v>
       </c>
       <c r="E94" t="n">
-        <v>33.99</v>
+        <v>26.254</v>
       </c>
     </row>
     <row r="95">
@@ -2190,16 +2068,16 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>24.3</v>
+        <v>17.28</v>
       </c>
       <c r="C95" t="n">
-        <v>28.46</v>
+        <v>41.15</v>
       </c>
       <c r="D95" t="n">
-        <v>35.44</v>
+        <v>5.83</v>
       </c>
       <c r="E95" t="n">
-        <v>33.99</v>
+        <v>25.738</v>
       </c>
     </row>
     <row r="96">
@@ -2207,16 +2085,16 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>24.29</v>
+        <v>17.81</v>
       </c>
       <c r="C96" t="n">
-        <v>28.48</v>
+        <v>41.65</v>
       </c>
       <c r="D96" t="n">
-        <v>35.45</v>
+        <v>5.86</v>
       </c>
       <c r="E96" t="n">
-        <v>33.99</v>
+        <v>24.68</v>
       </c>
     </row>
     <row r="97">
@@ -2224,16 +2102,16 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>24.06</v>
+        <v>18.24</v>
       </c>
       <c r="C97" t="n">
-        <v>28.49</v>
+        <v>41.63</v>
       </c>
       <c r="D97" t="n">
-        <v>35.66</v>
+        <v>6.52</v>
       </c>
       <c r="E97" t="n">
-        <v>33.99</v>
+        <v>23.602</v>
       </c>
     </row>
     <row r="98">
@@ -2241,16 +2119,16 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>23.85</v>
+        <v>18.64</v>
       </c>
       <c r="C98" t="n">
-        <v>28.46</v>
+        <v>41.54</v>
       </c>
       <c r="D98" t="n">
-        <v>35.9</v>
+        <v>7.3</v>
       </c>
       <c r="E98" t="n">
-        <v>33.99</v>
+        <v>22.514</v>
       </c>
     </row>
     <row r="99">
@@ -2258,16 +2136,16 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>23.46</v>
+        <v>17.59</v>
       </c>
       <c r="C99" t="n">
-        <v>28.55</v>
+        <v>41.52</v>
       </c>
       <c r="D99" t="n">
-        <v>36.2</v>
+        <v>8.09</v>
       </c>
       <c r="E99" t="n">
-        <v>33.97000000000001</v>
+        <v>22.801</v>
       </c>
     </row>
     <row r="100">
@@ -2275,16 +2153,16 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>23.08</v>
+        <v>15.81</v>
       </c>
       <c r="C100" t="n">
-        <v>28.52</v>
+        <v>41.47</v>
       </c>
       <c r="D100" t="n">
-        <v>36.57</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="E100" t="n">
-        <v>33.99</v>
+        <v>23.078</v>
       </c>
     </row>
     <row r="101">
@@ -2292,16 +2170,16 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>22.7</v>
+        <v>16.04</v>
       </c>
       <c r="C101" t="n">
-        <v>28.4</v>
+        <v>41.41</v>
       </c>
       <c r="D101" t="n">
-        <v>36.91</v>
+        <v>10.99</v>
       </c>
       <c r="E101" t="n">
-        <v>34.13000000000001</v>
+        <v>23.56</v>
       </c>
     </row>
     <row r="102">
@@ -2309,16 +2187,16 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>22.76</v>
+        <v>16.27</v>
       </c>
       <c r="C102" t="n">
-        <v>28.3</v>
+        <v>41.06</v>
       </c>
       <c r="D102" t="n">
-        <v>37.21</v>
+        <v>12.35</v>
       </c>
       <c r="E102" t="n">
-        <v>33.843</v>
+        <v>24.312</v>
       </c>
     </row>
     <row r="103">
@@ -2326,16 +2204,16 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>22.83</v>
+        <v>16.49</v>
       </c>
       <c r="C103" t="n">
-        <v>28.25</v>
+        <v>40.7</v>
       </c>
       <c r="D103" t="n">
-        <v>37.53</v>
+        <v>13.67</v>
       </c>
       <c r="E103" t="n">
-        <v>33.496</v>
+        <v>25.144</v>
       </c>
     </row>
     <row r="104">
@@ -2343,16 +2221,16 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>22.88</v>
+        <v>16.63</v>
       </c>
       <c r="C104" t="n">
-        <v>28.19</v>
+        <v>40.28</v>
       </c>
       <c r="D104" t="n">
-        <v>37.84</v>
+        <v>14.68</v>
       </c>
       <c r="E104" t="n">
-        <v>33.169</v>
+        <v>26.412</v>
       </c>
     </row>
     <row r="105">
@@ -2360,16 +2238,16 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>23.01</v>
+        <v>16.55</v>
       </c>
       <c r="C105" t="n">
-        <v>28</v>
+        <v>39.79</v>
       </c>
       <c r="D105" t="n">
-        <v>38.21</v>
+        <v>16.08</v>
       </c>
       <c r="E105" t="n">
-        <v>32.842</v>
+        <v>27.578</v>
       </c>
     </row>
     <row r="106">
@@ -2377,16 +2255,16 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>23.07</v>
+        <v>15.83</v>
       </c>
       <c r="C106" t="n">
-        <v>28.76</v>
+        <v>39.55</v>
       </c>
       <c r="D106" t="n">
-        <v>38.59</v>
+        <v>17.49</v>
       </c>
       <c r="E106" t="n">
-        <v>31.615</v>
+        <v>29.136</v>
       </c>
     </row>
     <row r="107">
@@ -2394,16 +2272,16 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>23.31</v>
+        <v>15.14</v>
       </c>
       <c r="C107" t="n">
-        <v>29.55</v>
+        <v>39.63</v>
       </c>
       <c r="D107" t="n">
-        <v>38.78</v>
+        <v>18.43</v>
       </c>
       <c r="E107" t="n">
-        <v>30.378</v>
+        <v>30.794</v>
       </c>
     </row>
     <row r="108">
@@ -2411,16 +2289,16 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>23.57</v>
+        <v>14.47</v>
       </c>
       <c r="C108" t="n">
-        <v>30.33</v>
+        <v>39.54</v>
       </c>
       <c r="D108" t="n">
-        <v>38.96</v>
+        <v>19.6</v>
       </c>
       <c r="E108" t="n">
-        <v>29.141</v>
+        <v>32.402</v>
       </c>
     </row>
     <row r="109">
@@ -2428,16 +2306,16 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>24</v>
+        <v>15.99</v>
       </c>
       <c r="C109" t="n">
-        <v>31.11</v>
+        <v>39.01</v>
       </c>
       <c r="D109" t="n">
-        <v>38.96</v>
+        <v>20.76</v>
       </c>
       <c r="E109" t="n">
-        <v>27.934</v>
+        <v>32.24300000000001</v>
       </c>
     </row>
     <row r="110">
@@ -2445,16 +2323,16 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>24.43</v>
+        <v>20.7</v>
       </c>
       <c r="C110" t="n">
-        <v>31.91</v>
+        <v>36.33</v>
       </c>
       <c r="D110" t="n">
-        <v>38.96</v>
+        <v>21.02</v>
       </c>
       <c r="E110" t="n">
-        <v>26.697</v>
+        <v>31.95000000000001</v>
       </c>
     </row>
     <row r="111">
@@ -2462,16 +2340,16 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>24.85</v>
+        <v>24.08</v>
       </c>
       <c r="C111" t="n">
-        <v>32.83</v>
+        <v>33.59</v>
       </c>
       <c r="D111" t="n">
-        <v>39.06</v>
+        <v>21.21</v>
       </c>
       <c r="E111" t="n">
-        <v>25.26</v>
+        <v>31.127</v>
       </c>
     </row>
     <row r="112">
@@ -2479,16 +2357,16 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>24.75</v>
+        <v>27.63</v>
       </c>
       <c r="C112" t="n">
-        <v>33.76</v>
+        <v>31.1</v>
       </c>
       <c r="D112" t="n">
-        <v>39.08</v>
+        <v>21.17</v>
       </c>
       <c r="E112" t="n">
-        <v>24.41</v>
+        <v>30.094</v>
       </c>
     </row>
     <row r="113">
@@ -2496,16 +2374,16 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>24.59</v>
+        <v>31.11</v>
       </c>
       <c r="C113" t="n">
-        <v>34.62</v>
+        <v>28.56</v>
       </c>
       <c r="D113" t="n">
-        <v>39.18</v>
+        <v>21.14</v>
       </c>
       <c r="E113" t="n">
-        <v>23.61</v>
+        <v>29.191</v>
       </c>
     </row>
     <row r="114">
@@ -2513,16 +2391,16 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>24.41</v>
+        <v>34.48</v>
       </c>
       <c r="C114" t="n">
-        <v>35.5</v>
+        <v>26.1</v>
       </c>
       <c r="D114" t="n">
-        <v>39.4</v>
+        <v>21.62</v>
       </c>
       <c r="E114" t="n">
-        <v>22.69</v>
+        <v>27.816</v>
       </c>
     </row>
     <row r="115">
@@ -2530,16 +2408,16 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>24.2</v>
+        <v>38.05</v>
       </c>
       <c r="C115" t="n">
-        <v>36.16</v>
+        <v>23.71</v>
       </c>
       <c r="D115" t="n">
-        <v>39.93</v>
+        <v>21.75</v>
       </c>
       <c r="E115" t="n">
-        <v>21.705</v>
+        <v>26.533</v>
       </c>
     </row>
     <row r="116">
@@ -2547,16 +2425,16 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>23.98</v>
+        <v>41.84</v>
       </c>
       <c r="C116" t="n">
-        <v>35.9</v>
+        <v>21.05</v>
       </c>
       <c r="D116" t="n">
-        <v>40.78</v>
+        <v>21.86</v>
       </c>
       <c r="E116" t="n">
-        <v>21.34</v>
+        <v>25.29</v>
       </c>
     </row>
     <row r="117">
@@ -2564,16 +2442,16 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>23.99</v>
+        <v>45.4</v>
       </c>
       <c r="C117" t="n">
-        <v>35.57</v>
+        <v>18.56</v>
       </c>
       <c r="D117" t="n">
-        <v>41.61</v>
+        <v>22.11</v>
       </c>
       <c r="E117" t="n">
-        <v>20.833</v>
+        <v>23.967</v>
       </c>
     </row>
     <row r="118">
@@ -2581,16 +2459,16 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>23.96</v>
+        <v>48.67</v>
       </c>
       <c r="C118" t="n">
-        <v>35.25</v>
+        <v>16.29</v>
       </c>
       <c r="D118" t="n">
-        <v>42.43</v>
+        <v>20.8</v>
       </c>
       <c r="E118" t="n">
-        <v>20.356</v>
+        <v>24.279</v>
       </c>
     </row>
     <row r="119">
@@ -2598,16 +2476,16 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>23.88</v>
+        <v>51.56</v>
       </c>
       <c r="C119" t="n">
-        <v>34.94</v>
+        <v>14.4</v>
       </c>
       <c r="D119" t="n">
-        <v>43.38</v>
+        <v>19.34</v>
       </c>
       <c r="E119" t="n">
-        <v>19.809</v>
+        <v>24.743</v>
       </c>
     </row>
     <row r="120">
@@ -2615,16 +2493,16 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>23.81</v>
+        <v>51.97</v>
       </c>
       <c r="C120" t="n">
-        <v>34.61</v>
+        <v>14.77</v>
       </c>
       <c r="D120" t="n">
-        <v>44.35</v>
+        <v>17.04</v>
       </c>
       <c r="E120" t="n">
-        <v>19.242</v>
+        <v>26.258</v>
       </c>
     </row>
     <row r="121">
@@ -2632,16 +2510,16 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>23.75</v>
+        <v>51.72</v>
       </c>
       <c r="C121" t="n">
-        <v>33.95</v>
+        <v>15.21</v>
       </c>
       <c r="D121" t="n">
-        <v>45.64</v>
+        <v>15.04</v>
       </c>
       <c r="E121" t="n">
-        <v>18.655</v>
+        <v>28.06799999999999</v>
       </c>
     </row>
     <row r="122">
@@ -2649,16 +2527,16 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>23.58</v>
+        <v>51.42</v>
       </c>
       <c r="C122" t="n">
-        <v>33.29</v>
+        <v>15.41</v>
       </c>
       <c r="D122" t="n">
-        <v>47.78</v>
+        <v>15.25</v>
       </c>
       <c r="E122" t="n">
-        <v>17.348</v>
+        <v>29.95499999999999</v>
       </c>
     </row>
     <row r="123">
@@ -2666,16 +2544,16 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>23.47</v>
+        <v>51.04</v>
       </c>
       <c r="C123" t="n">
-        <v>32.57</v>
+        <v>15.66</v>
       </c>
       <c r="D123" t="n">
-        <v>50.15</v>
+        <v>15.45</v>
       </c>
       <c r="E123" t="n">
-        <v>15.801</v>
+        <v>31.882</v>
       </c>
     </row>
     <row r="124">
@@ -2683,16 +2561,16 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>23.38</v>
+        <v>50.87</v>
       </c>
       <c r="C124" t="n">
-        <v>31.83</v>
+        <v>15.91</v>
       </c>
       <c r="D124" t="n">
-        <v>52.45</v>
+        <v>14.96</v>
       </c>
       <c r="E124" t="n">
-        <v>14.334</v>
+        <v>34.281</v>
       </c>
     </row>
     <row r="125">
@@ -2700,16 +2578,16 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>23.3</v>
+        <v>50.72</v>
       </c>
       <c r="C125" t="n">
-        <v>31.32</v>
+        <v>16.16</v>
       </c>
       <c r="D125" t="n">
-        <v>54.36</v>
+        <v>14.45</v>
       </c>
       <c r="E125" t="n">
-        <v>13.022</v>
+        <v>36.67</v>
       </c>
     </row>
     <row r="126">
@@ -2717,16 +2595,16 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>23.22</v>
+        <v>50.34</v>
       </c>
       <c r="C126" t="n">
-        <v>30.83</v>
+        <v>16.41</v>
       </c>
       <c r="D126" t="n">
-        <v>55.94</v>
+        <v>13.97</v>
       </c>
       <c r="E126" t="n">
-        <v>12.09</v>
+        <v>39.279</v>
       </c>
     </row>
     <row r="127">
@@ -2734,16 +2612,16 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>22.03</v>
+        <v>50.27</v>
       </c>
       <c r="C127" t="n">
-        <v>30.31</v>
+        <v>16.27</v>
       </c>
       <c r="D127" t="n">
-        <v>57.46</v>
+        <v>13.49</v>
       </c>
       <c r="E127" t="n">
-        <v>12.265</v>
+        <v>41.968</v>
       </c>
     </row>
     <row r="128">
@@ -2751,16 +2629,16 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>21.58</v>
+        <v>50.49</v>
       </c>
       <c r="C128" t="n">
-        <v>29.74</v>
+        <v>16.15</v>
       </c>
       <c r="D128" t="n">
-        <v>59</v>
+        <v>14.25</v>
       </c>
       <c r="E128" t="n">
-        <v>12.353</v>
+        <v>43.112</v>
       </c>
     </row>
     <row r="129">
@@ -2768,19 +2646,16 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>21.17</v>
+        <v>50.08</v>
       </c>
       <c r="C129" t="n">
-        <v>29.11</v>
+        <v>16.09</v>
       </c>
       <c r="D129" t="n">
-        <v>60.41</v>
+        <v>15.22</v>
       </c>
       <c r="E129" t="n">
-        <v>12.581</v>
-      </c>
-      <c r="F129" t="n">
-        <v>20</v>
+        <v>44.611</v>
       </c>
     </row>
     <row r="130">
@@ -2788,19 +2663,16 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>20.75</v>
+        <v>49.61</v>
       </c>
       <c r="C130" t="n">
-        <v>28.53</v>
+        <v>16.01</v>
       </c>
       <c r="D130" t="n">
-        <v>61.8</v>
+        <v>17.18</v>
       </c>
       <c r="E130" t="n">
-        <v>12.799</v>
-      </c>
-      <c r="F130" t="n">
-        <v>20</v>
+        <v>45.203</v>
       </c>
     </row>
     <row r="131">
@@ -2808,19 +2680,16 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>20.33</v>
+        <v>49.11</v>
       </c>
       <c r="C131" t="n">
-        <v>30.14</v>
+        <v>15.92</v>
       </c>
       <c r="D131" t="n">
-        <v>62.73</v>
+        <v>19.17</v>
       </c>
       <c r="E131" t="n">
-        <v>11.284</v>
-      </c>
-      <c r="F131" t="n">
-        <v>19.76666666666667</v>
+        <v>45.795</v>
       </c>
     </row>
     <row r="132">
@@ -2828,19 +2697,16 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>20.11</v>
+        <v>48.67</v>
       </c>
       <c r="C132" t="n">
-        <v>31.73</v>
+        <v>15.85</v>
       </c>
       <c r="D132" t="n">
-        <v>62.98</v>
+        <v>19.08</v>
       </c>
       <c r="E132" t="n">
-        <v>10.329</v>
-      </c>
-      <c r="F132" t="n">
-        <v>19.625</v>
+        <v>46.40000000000001</v>
       </c>
     </row>
     <row r="133">
@@ -2848,19 +2714,16 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>19.9</v>
+        <v>48.3</v>
       </c>
       <c r="C133" t="n">
-        <v>33.32</v>
+        <v>15.5</v>
       </c>
       <c r="D133" t="n">
-        <v>62.99</v>
+        <v>19.06</v>
       </c>
       <c r="E133" t="n">
-        <v>9.623999999999999</v>
-      </c>
-      <c r="F133" t="n">
-        <v>19.54</v>
+        <v>47.13</v>
       </c>
     </row>
     <row r="134">
@@ -2868,19 +2731,16 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>19.57</v>
+        <v>47.72</v>
       </c>
       <c r="C134" t="n">
-        <v>34.92</v>
+        <v>15.14</v>
       </c>
       <c r="D134" t="n">
-        <v>63.08</v>
+        <v>19.29</v>
       </c>
       <c r="E134" t="n">
-        <v>8.939</v>
-      </c>
-      <c r="F134" t="n">
-        <v>19.48333333333333</v>
+        <v>47.85000000000001</v>
       </c>
     </row>
     <row r="135">
@@ -2888,19 +2748,16 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>21.22</v>
+        <v>47.11</v>
       </c>
       <c r="C135" t="n">
-        <v>36.52</v>
+        <v>14.83</v>
       </c>
       <c r="D135" t="n">
-        <v>63.29</v>
+        <v>19.51</v>
       </c>
       <c r="E135" t="n">
-        <v>8.164</v>
-      </c>
-      <c r="F135" t="n">
-        <v>19.1</v>
+        <v>48.54000000000001</v>
       </c>
     </row>
     <row r="136">
@@ -2908,19 +2765,16 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>22.89</v>
+        <v>46.5</v>
       </c>
       <c r="C136" t="n">
-        <v>37.88</v>
+        <v>14.55</v>
       </c>
       <c r="D136" t="n">
-        <v>63.98</v>
+        <v>20.5</v>
       </c>
       <c r="E136" t="n">
-        <v>7.289</v>
-      </c>
-      <c r="F136" t="n">
-        <v>18.74125</v>
+        <v>48.45</v>
       </c>
     </row>
     <row r="137">
@@ -2928,19 +2782,16 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>26</v>
+        <v>45.87</v>
       </c>
       <c r="C137" t="n">
-        <v>38.85</v>
+        <v>14.25</v>
       </c>
       <c r="D137" t="n">
-        <v>64.69</v>
+        <v>21.47</v>
       </c>
       <c r="E137" t="n">
-        <v>5.459000000000001</v>
-      </c>
-      <c r="F137" t="n">
-        <v>18.66222222222222</v>
+        <v>48.4</v>
       </c>
     </row>
     <row r="138">
@@ -2948,19 +2799,16 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>28.35</v>
+        <v>45.26</v>
       </c>
       <c r="C138" t="n">
-        <v>39.83</v>
+        <v>13.94</v>
       </c>
       <c r="D138" t="n">
-        <v>65.34999999999999</v>
+        <v>22.45</v>
       </c>
       <c r="E138" t="n">
-        <v>3.686</v>
-      </c>
-      <c r="F138" t="n">
-        <v>18.599</v>
+        <v>48.36</v>
       </c>
     </row>
     <row r="139">
@@ -2968,19 +2816,16 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>30.7</v>
+        <v>44.9</v>
       </c>
       <c r="C139" t="n">
-        <v>40.64</v>
+        <v>13.62</v>
       </c>
       <c r="D139" t="n">
-        <v>66.23</v>
+        <v>23.43</v>
       </c>
       <c r="E139" t="n">
-        <v>1.833</v>
-      </c>
-      <c r="F139" t="n">
-        <v>18.599</v>
+        <v>48.05499999999999</v>
       </c>
     </row>
     <row r="140">
@@ -2988,19 +2833,16 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>32.98</v>
+        <v>44.75</v>
       </c>
       <c r="C140" t="n">
-        <v>41.52</v>
+        <v>13.25</v>
       </c>
       <c r="D140" t="n">
-        <v>67.11</v>
+        <v>24.24</v>
       </c>
       <c r="E140" t="n">
-        <v>0</v>
-      </c>
-      <c r="F140" t="n">
-        <v>18.382</v>
+        <v>47.76000000000001</v>
       </c>
     </row>
     <row r="141">
@@ -3008,19 +2850,16 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>35.81</v>
+        <v>44.62</v>
       </c>
       <c r="C141" t="n">
-        <v>40.48</v>
+        <v>12.87</v>
       </c>
       <c r="D141" t="n">
-        <v>68.01000000000001</v>
+        <v>25.07</v>
       </c>
       <c r="E141" t="n">
-        <v>0</v>
-      </c>
-      <c r="F141" t="n">
-        <v>17.71</v>
+        <v>47.44500000000001</v>
       </c>
     </row>
     <row r="142">
@@ -3028,19 +2867,16 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>38.58</v>
+        <v>44.5</v>
       </c>
       <c r="C142" t="n">
-        <v>39.42</v>
+        <v>12.46</v>
       </c>
       <c r="D142" t="n">
-        <v>68.76000000000001</v>
+        <v>25.71</v>
       </c>
       <c r="E142" t="n">
-        <v>0</v>
-      </c>
-      <c r="F142" t="n">
-        <v>17.248</v>
+        <v>47.32000000000001</v>
       </c>
     </row>
     <row r="143">
@@ -3048,19 +2884,16 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>41.51</v>
+        <v>44.86</v>
       </c>
       <c r="C143" t="n">
-        <v>38.35</v>
+        <v>11.93</v>
       </c>
       <c r="D143" t="n">
-        <v>69.34999999999999</v>
+        <v>26.37</v>
       </c>
       <c r="E143" t="n">
-        <v>0</v>
-      </c>
-      <c r="F143" t="n">
-        <v>16.796</v>
+        <v>46.84</v>
       </c>
     </row>
     <row r="144">
@@ -3068,19 +2901,16 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>44.55</v>
+        <v>45.38</v>
       </c>
       <c r="C144" t="n">
-        <v>37.32</v>
+        <v>11.41</v>
       </c>
       <c r="D144" t="n">
-        <v>69.8</v>
+        <v>26.84</v>
       </c>
       <c r="E144" t="n">
-        <v>0</v>
-      </c>
-      <c r="F144" t="n">
-        <v>16.324</v>
+        <v>46.37</v>
       </c>
     </row>
     <row r="145">
@@ -3088,19 +2918,16 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>45.75</v>
+        <v>45.92</v>
       </c>
       <c r="C145" t="n">
-        <v>36.25</v>
+        <v>11.1</v>
       </c>
       <c r="D145" t="n">
-        <v>70.16</v>
+        <v>27.31</v>
       </c>
       <c r="E145" t="n">
-        <v>0</v>
-      </c>
-      <c r="F145" t="n">
-        <v>15.842</v>
+        <v>45.67</v>
       </c>
     </row>
     <row r="146">
@@ -3108,19 +2935,16 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>46.97</v>
+        <v>46.47</v>
       </c>
       <c r="C146" t="n">
-        <v>35.43</v>
+        <v>10.76</v>
       </c>
       <c r="D146" t="n">
-        <v>70.03</v>
+        <v>27.09</v>
       </c>
       <c r="E146" t="n">
-        <v>0</v>
-      </c>
-      <c r="F146" t="n">
-        <v>15.58</v>
+        <v>45.67</v>
       </c>
     </row>
     <row r="147">
@@ -3128,19 +2952,16 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>47.66</v>
+        <v>46.57</v>
       </c>
       <c r="C147" t="n">
-        <v>35.04</v>
+        <v>10.38</v>
       </c>
       <c r="D147" t="n">
-        <v>69.95</v>
+        <v>27.42</v>
       </c>
       <c r="E147" t="n">
-        <v>0</v>
-      </c>
-      <c r="F147" t="n">
-        <v>15.355</v>
+        <v>45.63000000000001</v>
       </c>
     </row>
     <row r="148">
@@ -3148,19 +2969,16 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>48.41</v>
+        <v>46.58</v>
       </c>
       <c r="C148" t="n">
-        <v>34.8</v>
+        <v>10.19</v>
       </c>
       <c r="D148" t="n">
-        <v>69.87</v>
+        <v>27.68</v>
       </c>
       <c r="E148" t="n">
-        <v>0</v>
-      </c>
-      <c r="F148" t="n">
-        <v>14.93</v>
+        <v>45.55</v>
       </c>
     </row>
     <row r="149">
@@ -3168,19 +2986,16 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>49.16</v>
+        <v>46.94</v>
       </c>
       <c r="C149" t="n">
-        <v>34.7</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="D149" t="n">
-        <v>69.64</v>
+        <v>27.66</v>
       </c>
       <c r="E149" t="n">
-        <v>0</v>
-      </c>
-      <c r="F149" t="n">
-        <v>14.495</v>
+        <v>45.42</v>
       </c>
     </row>
     <row r="150">
@@ -3188,19 +3003,16 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>49.87</v>
+        <v>47.17</v>
       </c>
       <c r="C150" t="n">
-        <v>34.38</v>
+        <v>9.65</v>
       </c>
       <c r="D150" t="n">
-        <v>69.39</v>
+        <v>27.71</v>
       </c>
       <c r="E150" t="n">
-        <v>0</v>
-      </c>
-      <c r="F150" t="n">
-        <v>14.35</v>
+        <v>45.47000000000001</v>
       </c>
     </row>
     <row r="151">
@@ -3208,19 +3020,16 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>50.03</v>
+        <v>47.32</v>
       </c>
       <c r="C151" t="n">
-        <v>34.07</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="D151" t="n">
-        <v>69.11</v>
+        <v>27.52</v>
       </c>
       <c r="E151" t="n">
-        <v>0</v>
-      </c>
-      <c r="F151" t="n">
-        <v>14.8</v>
+        <v>45.54000000000001</v>
       </c>
     </row>
     <row r="152">
@@ -3228,19 +3037,16 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>50.17</v>
+        <v>46.82</v>
       </c>
       <c r="C152" t="n">
-        <v>33.93</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="D152" t="n">
-        <v>68.81</v>
+        <v>26.95</v>
       </c>
       <c r="E152" t="n">
-        <v>0</v>
-      </c>
-      <c r="F152" t="n">
-        <v>15.09</v>
+        <v>46.61</v>
       </c>
     </row>
     <row r="153">
@@ -3248,19 +3054,16 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>49.94</v>
+        <v>45.85</v>
       </c>
       <c r="C153" t="n">
-        <v>34.15</v>
+        <v>9.67</v>
       </c>
       <c r="D153" t="n">
-        <v>68.53</v>
+        <v>26.37</v>
       </c>
       <c r="E153" t="n">
-        <v>0</v>
-      </c>
-      <c r="F153" t="n">
-        <v>15.37</v>
+        <v>48.119</v>
       </c>
     </row>
     <row r="154">
@@ -3268,19 +3071,16 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>49.64</v>
+        <v>44.92</v>
       </c>
       <c r="C154" t="n">
-        <v>34.33</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="D154" t="n">
-        <v>68.2</v>
+        <v>25.75</v>
       </c>
       <c r="E154" t="n">
-        <v>0</v>
-      </c>
-      <c r="F154" t="n">
-        <v>15.83</v>
+        <v>49.608</v>
       </c>
     </row>
     <row r="155">
@@ -3288,19 +3088,16 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>49.2</v>
+        <v>43.91</v>
       </c>
       <c r="C155" t="n">
-        <v>34.6</v>
+        <v>9.51</v>
       </c>
       <c r="D155" t="n">
-        <v>67.90000000000001</v>
+        <v>25.24</v>
       </c>
       <c r="E155" t="n">
-        <v>0</v>
-      </c>
-      <c r="F155" t="n">
-        <v>16.3</v>
+        <v>51.347</v>
       </c>
     </row>
     <row r="156">
@@ -3308,19 +3105,16 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>48.73</v>
+        <v>42.92</v>
       </c>
       <c r="C156" t="n">
-        <v>34.86</v>
+        <v>9.31</v>
       </c>
       <c r="D156" t="n">
-        <v>67.66</v>
+        <v>24.62</v>
       </c>
       <c r="E156" t="n">
-        <v>0</v>
-      </c>
-      <c r="F156" t="n">
-        <v>16.75</v>
+        <v>53.146</v>
       </c>
     </row>
     <row r="157">
@@ -3328,19 +3122,16 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>48.22</v>
+        <v>42.38</v>
       </c>
       <c r="C157" t="n">
-        <v>35.14</v>
+        <v>9.27</v>
       </c>
       <c r="D157" t="n">
-        <v>67.66</v>
+        <v>23.47</v>
       </c>
       <c r="E157" t="n">
-        <v>0</v>
-      </c>
-      <c r="F157" t="n">
-        <v>16.98</v>
+        <v>54.88500000000001</v>
       </c>
     </row>
     <row r="158">
@@ -3348,19 +3139,16 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>47.69</v>
+        <v>42.49</v>
       </c>
       <c r="C158" t="n">
-        <v>35.39</v>
+        <v>8.98</v>
       </c>
       <c r="D158" t="n">
-        <v>67.7</v>
+        <v>21.92</v>
       </c>
       <c r="E158" t="n">
-        <v>0</v>
-      </c>
-      <c r="F158" t="n">
-        <v>17.21</v>
+        <v>56.61400000000001</v>
       </c>
     </row>
     <row r="159">
@@ -3368,19 +3156,16 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>47.09</v>
+        <v>42.79</v>
       </c>
       <c r="C159" t="n">
-        <v>35.7</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D159" t="n">
-        <v>67.77</v>
+        <v>20.59</v>
       </c>
       <c r="E159" t="n">
-        <v>0</v>
-      </c>
-      <c r="F159" t="n">
-        <v>17.45</v>
+        <v>57.92399999999999</v>
       </c>
     </row>
     <row r="160">
@@ -3388,19 +3173,16 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>46.83</v>
+        <v>43</v>
       </c>
       <c r="C160" t="n">
-        <v>36.12</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="D160" t="n">
-        <v>67.65000000000001</v>
+        <v>19.36</v>
       </c>
       <c r="E160" t="n">
-        <v>0</v>
-      </c>
-      <c r="F160" t="n">
-        <v>17.4</v>
+        <v>59.03400000000001</v>
       </c>
     </row>
     <row r="161">
@@ -3408,19 +3190,16 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>46.59</v>
+        <v>42.44</v>
       </c>
       <c r="C161" t="n">
-        <v>36.61</v>
+        <v>8.16</v>
       </c>
       <c r="D161" t="n">
-        <v>67.61</v>
+        <v>19.33</v>
       </c>
       <c r="E161" t="n">
-        <v>0</v>
-      </c>
-      <c r="F161" t="n">
-        <v>17.2</v>
+        <v>60.072</v>
       </c>
     </row>
     <row r="162">
@@ -3428,19 +3207,16 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>46.36</v>
+        <v>42.53</v>
       </c>
       <c r="C162" t="n">
-        <v>36.93</v>
+        <v>7.05</v>
       </c>
       <c r="D162" t="n">
-        <v>67.7</v>
+        <v>19.91</v>
       </c>
       <c r="E162" t="n">
-        <v>0</v>
-      </c>
-      <c r="F162" t="n">
-        <v>17.02</v>
+        <v>60.515</v>
       </c>
     </row>
     <row r="163">
@@ -3448,19 +3224,16 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>46.1</v>
+        <v>42.71</v>
       </c>
       <c r="C163" t="n">
-        <v>36.96</v>
+        <v>6.27</v>
       </c>
       <c r="D163" t="n">
-        <v>67.84</v>
+        <v>20.48</v>
       </c>
       <c r="E163" t="n">
-        <v>0</v>
-      </c>
-      <c r="F163" t="n">
-        <v>17.1</v>
+        <v>60.544</v>
       </c>
     </row>
     <row r="164">
@@ -3468,19 +3241,16 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>45.93</v>
+        <v>43.26</v>
       </c>
       <c r="C164" t="n">
-        <v>37.01</v>
+        <v>8.48</v>
       </c>
       <c r="D164" t="n">
-        <v>68.06</v>
+        <v>20.67</v>
       </c>
       <c r="E164" t="n">
-        <v>0</v>
-      </c>
-      <c r="F164" t="n">
-        <v>17</v>
+        <v>60.593</v>
       </c>
     </row>
     <row r="165">
@@ -3488,19 +3258,16 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>45.74</v>
+        <v>43.97</v>
       </c>
       <c r="C165" t="n">
-        <v>36.93</v>
+        <v>10.68</v>
       </c>
       <c r="D165" t="n">
-        <v>68.31</v>
+        <v>20.76</v>
       </c>
       <c r="E165" t="n">
-        <v>0</v>
-      </c>
-      <c r="F165" t="n">
-        <v>17.02</v>
+        <v>60.58200000000001</v>
       </c>
     </row>
     <row r="166">
@@ -3508,19 +3275,16 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>45.55</v>
+        <v>44.67</v>
       </c>
       <c r="C166" t="n">
-        <v>37.02</v>
+        <v>13.12</v>
       </c>
       <c r="D166" t="n">
-        <v>68.51000000000001</v>
+        <v>20.67</v>
       </c>
       <c r="E166" t="n">
-        <v>0</v>
-      </c>
-      <c r="F166" t="n">
-        <v>16.93</v>
+        <v>60.55100000000001</v>
       </c>
     </row>
     <row r="167">
@@ -3528,19 +3292,16 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>45.35</v>
+        <v>45.34</v>
       </c>
       <c r="C167" t="n">
-        <v>37.21</v>
+        <v>14.35</v>
       </c>
       <c r="D167" t="n">
-        <v>68.38</v>
+        <v>21.81</v>
       </c>
       <c r="E167" t="n">
-        <v>0</v>
-      </c>
-      <c r="F167" t="n">
-        <v>17.06</v>
+        <v>60.5</v>
       </c>
     </row>
     <row r="168">
@@ -3548,19 +3309,16 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>45.17</v>
+        <v>42.28</v>
       </c>
       <c r="C168" t="n">
-        <v>37.38</v>
+        <v>13.57</v>
       </c>
       <c r="D168" t="n">
-        <v>68.25</v>
+        <v>28.76</v>
       </c>
       <c r="E168" t="n">
-        <v>0</v>
-      </c>
-      <c r="F168" t="n">
-        <v>17.19</v>
+        <v>60.399</v>
       </c>
     </row>
     <row r="169">
@@ -3568,19 +3326,16 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>45.02</v>
+        <v>38.7</v>
       </c>
       <c r="C169" t="n">
-        <v>37.58</v>
+        <v>12.8</v>
       </c>
       <c r="D169" t="n">
-        <v>68.01000000000001</v>
+        <v>35.75</v>
       </c>
       <c r="E169" t="n">
-        <v>0</v>
-      </c>
-      <c r="F169" t="n">
-        <v>17.385</v>
+        <v>60.747</v>
       </c>
     </row>
     <row r="170">
@@ -3588,19 +3343,16 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>44.63</v>
+        <v>34.86</v>
       </c>
       <c r="C170" t="n">
-        <v>37.98</v>
+        <v>12.02</v>
       </c>
       <c r="D170" t="n">
-        <v>67.79000000000001</v>
+        <v>43.02</v>
       </c>
       <c r="E170" t="n">
-        <v>0</v>
-      </c>
-      <c r="F170" t="n">
-        <v>17.6</v>
+        <v>61.09499999999999</v>
       </c>
     </row>
     <row r="171">
@@ -3608,19 +3360,16 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>44.23</v>
+        <v>31.87</v>
       </c>
       <c r="C171" t="n">
-        <v>38.4</v>
+        <v>11.32</v>
       </c>
       <c r="D171" t="n">
-        <v>67.56</v>
+        <v>49.22</v>
       </c>
       <c r="E171" t="n">
-        <v>0</v>
-      </c>
-      <c r="F171" t="n">
-        <v>17.805</v>
+        <v>61.585</v>
       </c>
     </row>
     <row r="172">
@@ -3628,19 +3377,16 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>43.9</v>
+        <v>28.87</v>
       </c>
       <c r="C172" t="n">
-        <v>38.8</v>
+        <v>11.29</v>
       </c>
       <c r="D172" t="n">
-        <v>67.25</v>
+        <v>55.3</v>
       </c>
       <c r="E172" t="n">
-        <v>0</v>
-      </c>
-      <c r="F172" t="n">
-        <v>18.05</v>
+        <v>61.53999999999998</v>
       </c>
     </row>
     <row r="173">
@@ -3648,19 +3394,16 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>43.75</v>
+        <v>25.85</v>
       </c>
       <c r="C173" t="n">
-        <v>39.06</v>
+        <v>11.29</v>
       </c>
       <c r="D173" t="n">
-        <v>67.15000000000001</v>
+        <v>61.34</v>
       </c>
       <c r="E173" t="n">
-        <v>0</v>
-      </c>
-      <c r="F173" t="n">
-        <v>18.045</v>
+        <v>61.52</v>
       </c>
     </row>
     <row r="174">
@@ -3668,19 +3411,16 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>43.96</v>
+        <v>22.39</v>
       </c>
       <c r="C174" t="n">
-        <v>39.28</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="D174" t="n">
-        <v>66.7</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E174" t="n">
-        <v>0</v>
-      </c>
-      <c r="F174" t="n">
-        <v>18.06</v>
+        <v>61.41999999999999</v>
       </c>
     </row>
     <row r="175">
@@ -3688,19 +3428,16 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>44.25</v>
+        <v>19.76</v>
       </c>
       <c r="C175" t="n">
-        <v>39.59</v>
+        <v>5.31</v>
       </c>
       <c r="D175" t="n">
-        <v>66.23</v>
+        <v>74.41</v>
       </c>
       <c r="E175" t="n">
-        <v>0</v>
-      </c>
-      <c r="F175" t="n">
-        <v>17.935</v>
+        <v>61.52</v>
       </c>
     </row>
     <row r="176">
@@ -3708,19 +3445,16 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>44.54</v>
+        <v>17.06</v>
       </c>
       <c r="C176" t="n">
-        <v>39.74</v>
+        <v>2.09</v>
       </c>
       <c r="D176" t="n">
-        <v>65.76000000000001</v>
+        <v>80.76000000000001</v>
       </c>
       <c r="E176" t="n">
-        <v>0</v>
-      </c>
-      <c r="F176" t="n">
-        <v>17.96</v>
+        <v>62.08000000000001</v>
       </c>
     </row>
     <row r="177">
@@ -3728,19 +3462,16 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>44.79</v>
+        <v>14.32</v>
       </c>
       <c r="C177" t="n">
-        <v>39.79</v>
+        <v>0</v>
       </c>
       <c r="D177" t="n">
-        <v>65.36</v>
+        <v>85.70999999999999</v>
       </c>
       <c r="E177" t="n">
-        <v>0</v>
-      </c>
-      <c r="F177" t="n">
-        <v>18.06</v>
+        <v>62.97500000000001</v>
       </c>
     </row>
     <row r="178">
@@ -3748,19 +3479,16 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>45.03</v>
+        <v>14.69</v>
       </c>
       <c r="C178" t="n">
-        <v>39.87</v>
+        <v>0</v>
       </c>
       <c r="D178" t="n">
-        <v>64.92</v>
+        <v>85.31</v>
       </c>
       <c r="E178" t="n">
-        <v>0</v>
-      </c>
-      <c r="F178" t="n">
-        <v>18.18</v>
+        <v>63.997</v>
       </c>
     </row>
     <row r="179">
@@ -3768,19 +3496,16 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>45.33</v>
+        <v>13.24</v>
       </c>
       <c r="C179" t="n">
-        <v>39.92</v>
+        <v>0</v>
       </c>
       <c r="D179" t="n">
-        <v>64.68000000000001</v>
+        <v>84.93000000000001</v>
       </c>
       <c r="E179" t="n">
-        <v>0</v>
-      </c>
-      <c r="F179" t="n">
-        <v>18.072</v>
+        <v>66.83600000000001</v>
       </c>
     </row>
     <row r="180">
@@ -3788,19 +3513,16 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>45.64</v>
+        <v>12.13</v>
       </c>
       <c r="C180" t="n">
-        <v>39.88</v>
+        <v>0</v>
       </c>
       <c r="D180" t="n">
-        <v>64.56999999999999</v>
+        <v>84.70999999999999</v>
       </c>
       <c r="E180" t="n">
-        <v>0</v>
-      </c>
-      <c r="F180" t="n">
-        <v>17.914</v>
+        <v>69.155</v>
       </c>
     </row>
     <row r="181">
@@ -3808,19 +3530,16 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>46.05</v>
+        <v>11.04</v>
       </c>
       <c r="C181" t="n">
-        <v>39.81</v>
+        <v>0</v>
       </c>
       <c r="D181" t="n">
-        <v>64.38</v>
+        <v>84.48999999999999</v>
       </c>
       <c r="E181" t="n">
-        <v>0</v>
-      </c>
-      <c r="F181" t="n">
-        <v>17.756</v>
+        <v>71.46400000000001</v>
       </c>
     </row>
     <row r="182">
@@ -3828,19 +3547,16 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>46.46</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="C182" t="n">
-        <v>39.81</v>
+        <v>0</v>
       </c>
       <c r="D182" t="n">
-        <v>64.17</v>
+        <v>83.95</v>
       </c>
       <c r="E182" t="n">
-        <v>0</v>
-      </c>
-      <c r="F182" t="n">
-        <v>17.558</v>
+        <v>74.10299999999999</v>
       </c>
     </row>
     <row r="183">
@@ -3848,19 +3564,16 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>46.91</v>
+        <v>8.77</v>
       </c>
       <c r="C183" t="n">
-        <v>39.92</v>
+        <v>0</v>
       </c>
       <c r="D183" t="n">
-        <v>63.59</v>
+        <v>83.5</v>
       </c>
       <c r="E183" t="n">
-        <v>0</v>
-      </c>
-      <c r="F183" t="n">
-        <v>17.575</v>
+        <v>76.732</v>
       </c>
     </row>
     <row r="184">
@@ -3868,19 +3581,16 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>47.33</v>
+        <v>7.68</v>
       </c>
       <c r="C184" t="n">
-        <v>39.74</v>
+        <v>0</v>
       </c>
       <c r="D184" t="n">
-        <v>63.35</v>
+        <v>82.81999999999999</v>
       </c>
       <c r="E184" t="n">
-        <v>0</v>
-      </c>
-      <c r="F184" t="n">
-        <v>17.582</v>
+        <v>79.501</v>
       </c>
     </row>
     <row r="185">
@@ -3888,419 +3598,16 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>47.66</v>
+        <v>5.65</v>
       </c>
       <c r="C185" t="n">
-        <v>39.56</v>
+        <v>0</v>
       </c>
       <c r="D185" t="n">
-        <v>63.12</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="E185" t="n">
-        <v>0</v>
-      </c>
-      <c r="F185" t="n">
-        <v>17.659</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>47.99</v>
-      </c>
-      <c r="C186" t="n">
-        <v>39.41</v>
-      </c>
-      <c r="D186" t="n">
-        <v>62.86</v>
-      </c>
-      <c r="E186" t="n">
-        <v>0</v>
-      </c>
-      <c r="F186" t="n">
-        <v>17.736</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>49.24</v>
-      </c>
-      <c r="C187" t="n">
-        <v>39.24</v>
-      </c>
-      <c r="D187" t="n">
-        <v>62.6</v>
-      </c>
-      <c r="E187" t="n">
-        <v>0</v>
-      </c>
-      <c r="F187" t="n">
-        <v>16.913</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="C188" t="n">
-        <v>38.99</v>
-      </c>
-      <c r="D188" t="n">
-        <v>62.42</v>
-      </c>
-      <c r="E188" t="n">
-        <v>0</v>
-      </c>
-      <c r="F188" t="n">
-        <v>16.08</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>51.74</v>
-      </c>
-      <c r="C189" t="n">
-        <v>38.77</v>
-      </c>
-      <c r="D189" t="n">
-        <v>63.1</v>
-      </c>
-      <c r="E189" t="n">
-        <v>0</v>
-      </c>
-      <c r="F189" t="n">
-        <v>14.385</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>52.97</v>
-      </c>
-      <c r="C190" t="n">
-        <v>38.41</v>
-      </c>
-      <c r="D190" t="n">
-        <v>63.84</v>
-      </c>
-      <c r="E190" t="n">
-        <v>0</v>
-      </c>
-      <c r="F190" t="n">
-        <v>12.74</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>53.83</v>
-      </c>
-      <c r="C191" t="n">
-        <v>38.34</v>
-      </c>
-      <c r="D191" t="n">
-        <v>64.69</v>
-      </c>
-      <c r="E191" t="n">
-        <v>0</v>
-      </c>
-      <c r="F191" t="n">
-        <v>13.115</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>54.68</v>
-      </c>
-      <c r="C192" t="n">
-        <v>38.19</v>
-      </c>
-      <c r="D192" t="n">
-        <v>65.55</v>
-      </c>
-      <c r="E192" t="n">
-        <v>0</v>
-      </c>
-      <c r="F192" t="n">
-        <v>13.55</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>55.52</v>
-      </c>
-      <c r="C193" t="n">
-        <v>38.15</v>
-      </c>
-      <c r="D193" t="n">
-        <v>66.55</v>
-      </c>
-      <c r="E193" t="n">
-        <v>0</v>
-      </c>
-      <c r="F193" t="n">
-        <v>13.75</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>54</v>
-      </c>
-      <c r="C194" t="n">
-        <v>38.27</v>
-      </c>
-      <c r="D194" t="n">
-        <v>67.56</v>
-      </c>
-      <c r="E194" t="n">
-        <v>0</v>
-      </c>
-      <c r="F194" t="n">
-        <v>16.14</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>52.5</v>
-      </c>
-      <c r="C195" t="n">
-        <v>38.33</v>
-      </c>
-      <c r="D195" t="n">
-        <v>68.69</v>
-      </c>
-      <c r="E195" t="n">
-        <v>0</v>
-      </c>
-      <c r="F195" t="n">
-        <v>18.46</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>51.24</v>
-      </c>
-      <c r="C196" t="n">
-        <v>38.28</v>
-      </c>
-      <c r="D196" t="n">
-        <v>69.75</v>
-      </c>
-      <c r="E196" t="n">
-        <v>0</v>
-      </c>
-      <c r="F196" t="n">
-        <v>20.7</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>49.1</v>
-      </c>
-      <c r="C197" t="n">
-        <v>37.64</v>
-      </c>
-      <c r="D197" t="n">
-        <v>71.64</v>
-      </c>
-      <c r="E197" t="n">
-        <v>0</v>
-      </c>
-      <c r="F197" t="n">
-        <v>23.59</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>45.61</v>
-      </c>
-      <c r="C198" t="n">
-        <v>38.47</v>
-      </c>
-      <c r="D198" t="n">
-        <v>73.41</v>
-      </c>
-      <c r="E198" t="n">
-        <v>0</v>
-      </c>
-      <c r="F198" t="n">
-        <v>26.48</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>42.14</v>
-      </c>
-      <c r="C199" t="n">
-        <v>39</v>
-      </c>
-      <c r="D199" t="n">
-        <v>74.43000000000001</v>
-      </c>
-      <c r="E199" t="n">
-        <v>0</v>
-      </c>
-      <c r="F199" t="n">
-        <v>30.395</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>38.6</v>
-      </c>
-      <c r="C200" t="n">
-        <v>39.1</v>
-      </c>
-      <c r="D200" t="n">
-        <v>76.44</v>
-      </c>
-      <c r="E200" t="n">
-        <v>0</v>
-      </c>
-      <c r="F200" t="n">
-        <v>33.86</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>35.32</v>
-      </c>
-      <c r="C201" t="n">
-        <v>38.98</v>
-      </c>
-      <c r="D201" t="n">
-        <v>78.39</v>
-      </c>
-      <c r="E201" t="n">
-        <v>0</v>
-      </c>
-      <c r="F201" t="n">
-        <v>35.305</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>32.06</v>
-      </c>
-      <c r="C202" t="n">
-        <v>38.89</v>
-      </c>
-      <c r="D202" t="n">
-        <v>80.37</v>
-      </c>
-      <c r="E202" t="n">
-        <v>0</v>
-      </c>
-      <c r="F202" t="n">
-        <v>36.68</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="C203" t="n">
-        <v>38.79</v>
-      </c>
-      <c r="D203" t="n">
-        <v>82.34</v>
-      </c>
-      <c r="E203" t="n">
-        <v>0</v>
-      </c>
-      <c r="F203" t="n">
-        <v>38.055</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>27.51</v>
-      </c>
-      <c r="C204" t="n">
-        <v>38.83</v>
-      </c>
-      <c r="D204" t="n">
-        <v>87.81999999999999</v>
-      </c>
-      <c r="E204" t="n">
-        <v>0</v>
-      </c>
-      <c r="F204" t="n">
-        <v>33.835</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>26.21</v>
-      </c>
-      <c r="C205" t="n">
-        <v>38.98</v>
-      </c>
-      <c r="D205" t="n">
-        <v>93.18000000000001</v>
-      </c>
-      <c r="E205" t="n">
-        <v>0</v>
-      </c>
-      <c r="F205" t="n">
-        <v>29.635</v>
+        <v>81.95</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/stacks_over_time_avg.xlsx
+++ b/Outputs/stacks_over_time_avg.xlsx
@@ -2,9 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
@@ -26,7 +25,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,10 +50,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -62,7 +75,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -580,7 +593,7 @@
   </sheetPr>
   <dimension ref="A1:C96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1649,7 +1662,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Outputs/stacks_over_time_avg.xlsx
+++ b/Outputs/stacks_over_time_avg.xlsx
@@ -162,7 +162,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Stacks vs time this session: 10-hand moving averages</a:t>
+              <a:t>Stacks vs time this session (06/15/21): 10-hand moving averages</a:t>
             </a:r>
           </a:p>
         </rich>

--- a/Outputs/stacks_over_time_avg.xlsx
+++ b/Outputs/stacks_over_time_avg.xlsx
@@ -2,8 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
@@ -25,12 +26,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <family val="2"/>
       <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -50,19 +46,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -75,7 +62,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -162,7 +149,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Stacks vs time this session (06/15/21): 10-hand moving averages</a:t>
+              <a:t>Stacks vs time this session (06/17/21): 10-hand moving averages</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -194,7 +181,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$B$2:$B$96</f>
+              <f>'data'!$B$2:$B$168</f>
             </numRef>
           </val>
         </ser>
@@ -221,7 +208,88 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$C$2:$C$96</f>
+              <f>'data'!$C$2:$C$168</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <strRef>
+              <f>'data'!D1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'data'!$D$2:$D$168</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'data'!E1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'data'!$E$2:$E$168</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <strRef>
+              <f>'data'!F1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'data'!$F$2:$F$168</f>
             </numRef>
           </val>
         </ser>
@@ -591,9 +659,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C96"/>
+  <dimension ref="A1:F168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -612,7 +680,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Scott</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Fish</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Cedric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Ben</t>
         </is>
       </c>
     </row>
@@ -621,10 +704,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E2" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -632,10 +721,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10.15</v>
+        <v>18.25</v>
       </c>
       <c r="C3" t="n">
-        <v>9.85</v>
+        <v>19.9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>21.85</v>
+      </c>
+      <c r="E3" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -643,10 +738,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9.949999999999999</v>
+        <v>17.67</v>
       </c>
       <c r="C4" t="n">
-        <v>10.05</v>
+        <v>20.13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -654,10 +755,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9.93</v>
+        <v>17.71</v>
       </c>
       <c r="C5" t="n">
-        <v>10.07</v>
+        <v>20.11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>22.23</v>
+      </c>
+      <c r="E5" t="n">
+        <v>19.95</v>
       </c>
     </row>
     <row r="6">
@@ -665,10 +772,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9.85</v>
+        <v>17.7</v>
       </c>
       <c r="C6" t="n">
-        <v>10.15</v>
+        <v>20.09</v>
+      </c>
+      <c r="D6" t="n">
+        <v>22.21</v>
+      </c>
+      <c r="E6" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -676,10 +789,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9.75</v>
+        <v>17.85</v>
       </c>
       <c r="C7" t="n">
-        <v>10.25</v>
+        <v>20.05</v>
+      </c>
+      <c r="D7" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>19.9</v>
       </c>
     </row>
     <row r="8">
@@ -687,10 +806,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9.57</v>
+        <v>17.97</v>
       </c>
       <c r="C8" t="n">
-        <v>10.43</v>
+        <v>19.42</v>
+      </c>
+      <c r="D8" t="n">
+        <v>21.59</v>
+      </c>
+      <c r="E8" t="n">
+        <v>21.03</v>
       </c>
     </row>
     <row r="9">
@@ -698,10 +823,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>9.43</v>
+        <v>18.05</v>
       </c>
       <c r="C9" t="n">
-        <v>10.57</v>
+        <v>18.94</v>
+      </c>
+      <c r="D9" t="n">
+        <v>21.11</v>
+      </c>
+      <c r="E9" t="n">
+        <v>21.9</v>
       </c>
     </row>
     <row r="10">
@@ -709,10 +840,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9.33</v>
+        <v>18.09</v>
       </c>
       <c r="C10" t="n">
-        <v>10.67</v>
+        <v>18.3</v>
+      </c>
+      <c r="D10" t="n">
+        <v>20.73</v>
+      </c>
+      <c r="E10" t="n">
+        <v>22.88</v>
       </c>
     </row>
     <row r="11">
@@ -720,10 +857,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9.210000000000001</v>
+        <v>18.23</v>
       </c>
       <c r="C11" t="n">
-        <v>10.79</v>
+        <v>17.76</v>
+      </c>
+      <c r="D11" t="n">
+        <v>20.35</v>
+      </c>
+      <c r="E11" t="n">
+        <v>23.66</v>
       </c>
     </row>
     <row r="12">
@@ -731,10 +874,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>9.210000000000001</v>
+        <v>18.23</v>
       </c>
       <c r="C12" t="n">
-        <v>10.79</v>
+        <v>17.76</v>
+      </c>
+      <c r="D12" t="n">
+        <v>20.35</v>
+      </c>
+      <c r="E12" t="n">
+        <v>23.66</v>
       </c>
     </row>
     <row r="13">
@@ -742,10 +891,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>9.06</v>
+        <v>18.34</v>
       </c>
       <c r="C13" t="n">
-        <v>10.94</v>
+        <v>16.98</v>
+      </c>
+      <c r="D13" t="n">
+        <v>20.02</v>
+      </c>
+      <c r="E13" t="n">
+        <v>24.66</v>
       </c>
     </row>
     <row r="14">
@@ -753,10 +908,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>8.48</v>
+        <v>18.79</v>
       </c>
       <c r="C14" t="n">
-        <v>11.52</v>
+        <v>16.16</v>
+      </c>
+      <c r="D14" t="n">
+        <v>19.32</v>
+      </c>
+      <c r="E14" t="n">
+        <v>25.73</v>
       </c>
     </row>
     <row r="15">
@@ -764,10 +925,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>8.48</v>
+        <v>19.23</v>
       </c>
       <c r="C15" t="n">
-        <v>12.02</v>
+        <v>15.26</v>
+      </c>
+      <c r="D15" t="n">
+        <v>18.81</v>
+      </c>
+      <c r="E15" t="n">
+        <v>26.69</v>
       </c>
     </row>
     <row r="16">
@@ -775,10 +942,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>8.609999999999999</v>
+        <v>19.59</v>
       </c>
       <c r="C16" t="n">
-        <v>12.39</v>
+        <v>14.37</v>
+      </c>
+      <c r="D16" t="n">
+        <v>18.36</v>
+      </c>
+      <c r="E16" t="n">
+        <v>27.68</v>
       </c>
     </row>
     <row r="17">
@@ -786,10 +959,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>8.76</v>
+        <v>19.9</v>
       </c>
       <c r="C17" t="n">
-        <v>12.74</v>
+        <v>13.56</v>
+      </c>
+      <c r="D17" t="n">
+        <v>17.91</v>
+      </c>
+      <c r="E17" t="n">
+        <v>28.63</v>
       </c>
     </row>
     <row r="18">
@@ -797,10 +976,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>8.94</v>
+        <v>20.06</v>
       </c>
       <c r="C18" t="n">
-        <v>13.06</v>
+        <v>12.99</v>
+      </c>
+      <c r="D18" t="n">
+        <v>17.31</v>
+      </c>
+      <c r="E18" t="n">
+        <v>29.64</v>
       </c>
     </row>
     <row r="19">
@@ -808,10 +993,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>9.17</v>
+        <v>20.2</v>
       </c>
       <c r="C19" t="n">
-        <v>13.33</v>
+        <v>12.77</v>
+      </c>
+      <c r="D19" t="n">
+        <v>17.38</v>
+      </c>
+      <c r="E19" t="n">
+        <v>29.65</v>
       </c>
     </row>
     <row r="20">
@@ -819,10 +1010,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>9.49</v>
+        <v>20.33</v>
       </c>
       <c r="C20" t="n">
-        <v>13.51</v>
+        <v>12.34</v>
+      </c>
+      <c r="D20" t="n">
+        <v>17.77</v>
+      </c>
+      <c r="E20" t="n">
+        <v>29.55</v>
       </c>
     </row>
     <row r="21">
@@ -830,10 +1027,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>9.68</v>
+        <v>20.48</v>
       </c>
       <c r="C21" t="n">
-        <v>13.82</v>
+        <v>12.07</v>
+      </c>
+      <c r="D21" t="n">
+        <v>18.43</v>
+      </c>
+      <c r="E21" t="n">
+        <v>29.01</v>
       </c>
     </row>
     <row r="22">
@@ -841,10 +1044,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>9.960000000000001</v>
+        <v>20.53</v>
       </c>
       <c r="C22" t="n">
-        <v>14.04</v>
+        <v>11.8</v>
+      </c>
+      <c r="D22" t="n">
+        <v>19.15</v>
+      </c>
+      <c r="E22" t="n">
+        <v>28.51</v>
       </c>
     </row>
     <row r="23">
@@ -852,10 +1061,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>10.37</v>
+        <v>20.45</v>
       </c>
       <c r="C23" t="n">
-        <v>14.13</v>
+        <v>11.61</v>
+      </c>
+      <c r="D23" t="n">
+        <v>19.87</v>
+      </c>
+      <c r="E23" t="n">
+        <v>28.07</v>
       </c>
     </row>
     <row r="24">
@@ -863,10 +1078,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>11.21</v>
+        <v>20.35</v>
       </c>
       <c r="C24" t="n">
-        <v>13.79</v>
+        <v>11.2</v>
+      </c>
+      <c r="D24" t="n">
+        <v>20.88</v>
+      </c>
+      <c r="E24" t="n">
+        <v>27.56</v>
       </c>
     </row>
     <row r="25">
@@ -874,10 +1095,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>11.5</v>
+        <v>20.28</v>
       </c>
       <c r="C25" t="n">
-        <v>13.49</v>
+        <v>11.52</v>
+      </c>
+      <c r="D25" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="E25" t="n">
+        <v>26.94</v>
       </c>
     </row>
     <row r="26">
@@ -885,10 +1112,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>11.47</v>
+        <v>20.16</v>
       </c>
       <c r="C26" t="n">
-        <v>13.53</v>
+        <v>11.92</v>
+      </c>
+      <c r="D26" t="n">
+        <v>21.62</v>
+      </c>
+      <c r="E26" t="n">
+        <v>26.3</v>
       </c>
     </row>
     <row r="27">
@@ -896,10 +1129,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>11.4</v>
+        <v>20.09</v>
       </c>
       <c r="C27" t="n">
-        <v>13.6</v>
+        <v>13.36</v>
+      </c>
+      <c r="D27" t="n">
+        <v>21.93</v>
+      </c>
+      <c r="E27" t="n">
+        <v>24.62</v>
       </c>
     </row>
     <row r="28">
@@ -907,10 +1146,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>11.3</v>
+        <v>20.08</v>
       </c>
       <c r="C28" t="n">
-        <v>13.7</v>
+        <v>14.53</v>
+      </c>
+      <c r="D28" t="n">
+        <v>22.45</v>
+      </c>
+      <c r="E28" t="n">
+        <v>22.94</v>
       </c>
     </row>
     <row r="29">
@@ -918,10 +1163,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>11.29</v>
+        <v>20.09</v>
       </c>
       <c r="C29" t="n">
-        <v>13.71</v>
+        <v>16.07</v>
+      </c>
+      <c r="D29" t="n">
+        <v>22.44</v>
+      </c>
+      <c r="E29" t="n">
+        <v>21.4</v>
       </c>
     </row>
     <row r="30">
@@ -929,10 +1180,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>11.25</v>
+        <v>20.11</v>
       </c>
       <c r="C30" t="n">
-        <v>13.75</v>
+        <v>17.79</v>
+      </c>
+      <c r="D30" t="n">
+        <v>22.18</v>
+      </c>
+      <c r="E30" t="n">
+        <v>19.92</v>
       </c>
     </row>
     <row r="31">
@@ -940,10 +1197,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>11.37</v>
+        <v>20.13</v>
       </c>
       <c r="C31" t="n">
-        <v>13.63</v>
+        <v>19.41</v>
+      </c>
+      <c r="D31" t="n">
+        <v>21.84</v>
+      </c>
+      <c r="E31" t="n">
+        <v>18.62</v>
+      </c>
+      <c r="F31" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="32">
@@ -951,10 +1217,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>11.27</v>
+        <v>20.15</v>
       </c>
       <c r="C32" t="n">
-        <v>13.73</v>
+        <v>20.95</v>
+      </c>
+      <c r="D32" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="E32" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="F32" t="n">
+        <v>9.9</v>
       </c>
     </row>
     <row r="33">
@@ -962,10 +1237,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>10.9</v>
+        <v>20.14</v>
       </c>
       <c r="C33" t="n">
-        <v>14.1</v>
+        <v>22.6</v>
+      </c>
+      <c r="D33" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="E33" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="F33" t="n">
+        <v>9.799999999999999</v>
       </c>
     </row>
     <row r="34">
@@ -973,10 +1257,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>10.45</v>
+        <v>20.14</v>
       </c>
       <c r="C34" t="n">
-        <v>14.55</v>
+        <v>24.43</v>
+      </c>
+      <c r="D34" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="E34" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="F34" t="n">
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="35">
@@ -984,10 +1277,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>9.960000000000001</v>
+        <v>20.14</v>
       </c>
       <c r="C35" t="n">
-        <v>15.04</v>
+        <v>25.35</v>
+      </c>
+      <c r="D35" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="E35" t="n">
+        <v>13.94</v>
+      </c>
+      <c r="F35" t="n">
+        <v>9.640000000000001</v>
       </c>
     </row>
     <row r="36">
@@ -995,10 +1297,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>9.359999999999999</v>
+        <v>20.14</v>
       </c>
       <c r="C36" t="n">
-        <v>15.64</v>
+        <v>26.17</v>
+      </c>
+      <c r="D36" t="n">
+        <v>21.18</v>
+      </c>
+      <c r="E36" t="n">
+        <v>12.69</v>
+      </c>
+      <c r="F36" t="n">
+        <v>9.566666666666668</v>
       </c>
     </row>
     <row r="37">
@@ -1006,10 +1317,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>8.789999999999999</v>
+        <v>20.14</v>
       </c>
       <c r="C37" t="n">
-        <v>16.2</v>
+        <v>25.87</v>
+      </c>
+      <c r="D37" t="n">
+        <v>21.72</v>
+      </c>
+      <c r="E37" t="n">
+        <v>12.52</v>
+      </c>
+      <c r="F37" t="n">
+        <v>9.285714285714286</v>
       </c>
     </row>
     <row r="38">
@@ -1017,10 +1337,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>8.789999999999999</v>
+        <v>20.14</v>
       </c>
       <c r="C38" t="n">
-        <v>16.71</v>
+        <v>25.46</v>
+      </c>
+      <c r="D38" t="n">
+        <v>22.55</v>
+      </c>
+      <c r="E38" t="n">
+        <v>12.36</v>
+      </c>
+      <c r="F38" t="n">
+        <v>9.074999999999999</v>
       </c>
     </row>
     <row r="39">
@@ -1028,10 +1357,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>8.65</v>
+        <v>20.14</v>
       </c>
       <c r="C39" t="n">
-        <v>17.35</v>
+        <v>24.85</v>
+      </c>
+      <c r="D39" t="n">
+        <v>23.61</v>
+      </c>
+      <c r="E39" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="F39" t="n">
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="40">
@@ -1039,10 +1377,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>8.380000000000001</v>
+        <v>20.14</v>
       </c>
       <c r="C40" t="n">
-        <v>18.12</v>
+        <v>24.52</v>
+      </c>
+      <c r="D40" t="n">
+        <v>24.63</v>
+      </c>
+      <c r="E40" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="F40" t="n">
+        <v>8.559999999999999</v>
       </c>
     </row>
     <row r="41">
@@ -1050,10 +1397,19 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>8.130000000000001</v>
+        <v>20.14</v>
       </c>
       <c r="C41" t="n">
-        <v>18.87</v>
+        <v>24.56</v>
+      </c>
+      <c r="D41" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="E41" t="n">
+        <v>11.36</v>
+      </c>
+      <c r="F41" t="n">
+        <v>8.559999999999999</v>
       </c>
     </row>
     <row r="42">
@@ -1061,10 +1417,19 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>8.949999999999999</v>
+        <v>20.14</v>
       </c>
       <c r="C42" t="n">
-        <v>18.55</v>
+        <v>24.68</v>
+      </c>
+      <c r="D42" t="n">
+        <v>26.23</v>
+      </c>
+      <c r="E42" t="n">
+        <v>10.77</v>
+      </c>
+      <c r="F42" t="n">
+        <v>8.18</v>
       </c>
     </row>
     <row r="43">
@@ -1072,10 +1437,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>9.83</v>
+        <v>20.14</v>
       </c>
       <c r="C43" t="n">
-        <v>18.17</v>
+        <v>24.95</v>
+      </c>
+      <c r="D43" t="n">
+        <v>27.14</v>
+      </c>
+      <c r="E43" t="n">
+        <v>9.970000000000001</v>
+      </c>
+      <c r="F43" t="n">
+        <v>7.8</v>
       </c>
     </row>
     <row r="44">
@@ -1083,10 +1457,19 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>10.79</v>
+        <v>20.14</v>
       </c>
       <c r="C44" t="n">
-        <v>17.71</v>
+        <v>25.3</v>
+      </c>
+      <c r="D44" t="n">
+        <v>27.83</v>
+      </c>
+      <c r="E44" t="n">
+        <v>9.33</v>
+      </c>
+      <c r="F44" t="n">
+        <v>7.400000000000001</v>
       </c>
     </row>
     <row r="45">
@@ -1094,10 +1477,19 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>11.63</v>
+        <v>20.14</v>
       </c>
       <c r="C45" t="n">
-        <v>17.37</v>
+        <v>25.85</v>
+      </c>
+      <c r="D45" t="n">
+        <v>28.04</v>
+      </c>
+      <c r="E45" t="n">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="F45" t="n">
+        <v>7.000000000000002</v>
       </c>
     </row>
     <row r="46">
@@ -1105,10 +1497,19 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>12.77</v>
+        <v>20.14</v>
       </c>
       <c r="C46" t="n">
-        <v>16.73</v>
+        <v>25.72</v>
+      </c>
+      <c r="D46" t="n">
+        <v>28.17</v>
+      </c>
+      <c r="E46" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="F46" t="n">
+        <v>6.580000000000001</v>
       </c>
     </row>
     <row r="47">
@@ -1116,10 +1517,19 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>13.91</v>
+        <v>20.14</v>
       </c>
       <c r="C47" t="n">
-        <v>16.09</v>
+        <v>25.27</v>
+      </c>
+      <c r="D47" t="n">
+        <v>28.32</v>
+      </c>
+      <c r="E47" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="F47" t="n">
+        <v>6.180000000000001</v>
       </c>
     </row>
     <row r="48">
@@ -1127,10 +1537,19 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>14.51</v>
+        <v>20.14</v>
       </c>
       <c r="C48" t="n">
-        <v>15.49</v>
+        <v>25.05</v>
+      </c>
+      <c r="D48" t="n">
+        <v>28.05</v>
+      </c>
+      <c r="E48" t="n">
+        <v>11.04</v>
+      </c>
+      <c r="F48" t="n">
+        <v>5.880000000000001</v>
       </c>
     </row>
     <row r="49">
@@ -1138,10 +1557,19 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>15.19</v>
+        <v>20.14</v>
       </c>
       <c r="C49" t="n">
-        <v>14.81</v>
+        <v>25.22</v>
+      </c>
+      <c r="D49" t="n">
+        <v>27.46</v>
+      </c>
+      <c r="E49" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="F49" t="n">
+        <v>5.5</v>
       </c>
     </row>
     <row r="50">
@@ -1149,10 +1577,19 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>15.95</v>
+        <v>20.14</v>
       </c>
       <c r="C50" t="n">
-        <v>14.04</v>
+        <v>24.19</v>
+      </c>
+      <c r="D50" t="n">
+        <v>27.99</v>
+      </c>
+      <c r="E50" t="n">
+        <v>12.72</v>
+      </c>
+      <c r="F50" t="n">
+        <v>5.118</v>
       </c>
     </row>
     <row r="51">
@@ -1160,10 +1597,19 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>16.36</v>
+        <v>20.14</v>
       </c>
       <c r="C51" t="n">
-        <v>13.64</v>
+        <v>23.24</v>
+      </c>
+      <c r="D51" t="n">
+        <v>27.77</v>
+      </c>
+      <c r="E51" t="n">
+        <v>13.67</v>
+      </c>
+      <c r="F51" t="n">
+        <v>5.332</v>
       </c>
     </row>
     <row r="52">
@@ -1171,10 +1617,19 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>15.82</v>
+        <v>20.14</v>
       </c>
       <c r="C52" t="n">
-        <v>14.18</v>
+        <v>22.62</v>
+      </c>
+      <c r="D52" t="n">
+        <v>27.46</v>
+      </c>
+      <c r="E52" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="F52" t="n">
+        <v>5.446000000000001</v>
       </c>
     </row>
     <row r="53">
@@ -1182,10 +1637,19 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>15.42</v>
+        <v>20.14</v>
       </c>
       <c r="C53" t="n">
-        <v>14.58</v>
+        <v>21.83</v>
+      </c>
+      <c r="D53" t="n">
+        <v>27.16</v>
+      </c>
+      <c r="E53" t="n">
+        <v>15.47</v>
+      </c>
+      <c r="F53" t="n">
+        <v>5.56</v>
       </c>
     </row>
     <row r="54">
@@ -1193,10 +1657,19 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>15.17</v>
+        <v>20.14</v>
       </c>
       <c r="C54" t="n">
-        <v>14.83</v>
+        <v>21.14</v>
+      </c>
+      <c r="D54" t="n">
+        <v>26.88</v>
+      </c>
+      <c r="E54" t="n">
+        <v>16.36</v>
+      </c>
+      <c r="F54" t="n">
+        <v>5.634</v>
       </c>
     </row>
     <row r="55">
@@ -1204,10 +1677,19 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>15.09</v>
+        <v>20.14</v>
       </c>
       <c r="C55" t="n">
-        <v>14.91</v>
+        <v>20.37</v>
+      </c>
+      <c r="D55" t="n">
+        <v>26.71</v>
+      </c>
+      <c r="E55" t="n">
+        <v>17.21</v>
+      </c>
+      <c r="F55" t="n">
+        <v>5.728000000000001</v>
       </c>
     </row>
     <row r="56">
@@ -1215,10 +1697,19 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>15.02</v>
+        <v>20.14</v>
       </c>
       <c r="C56" t="n">
-        <v>14.98</v>
+        <v>20.61</v>
+      </c>
+      <c r="D56" t="n">
+        <v>26.79</v>
+      </c>
+      <c r="E56" t="n">
+        <v>16.76</v>
+      </c>
+      <c r="F56" t="n">
+        <v>5.782000000000001</v>
       </c>
     </row>
     <row r="57">
@@ -1226,10 +1717,19 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>15.01</v>
+        <v>20.14</v>
       </c>
       <c r="C57" t="n">
-        <v>14.99</v>
+        <v>21.17</v>
+      </c>
+      <c r="D57" t="n">
+        <v>26.88</v>
+      </c>
+      <c r="E57" t="n">
+        <v>15.99</v>
+      </c>
+      <c r="F57" t="n">
+        <v>5.826</v>
       </c>
     </row>
     <row r="58">
@@ -1237,10 +1737,19 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>15.03</v>
+        <v>20.14</v>
       </c>
       <c r="C58" t="n">
-        <v>14.97</v>
+        <v>20.99</v>
+      </c>
+      <c r="D58" t="n">
+        <v>27.04</v>
+      </c>
+      <c r="E58" t="n">
+        <v>15.96</v>
+      </c>
+      <c r="F58" t="n">
+        <v>5.869999999999999</v>
       </c>
     </row>
     <row r="59">
@@ -1248,10 +1757,19 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>15.04</v>
+        <v>20.14</v>
       </c>
       <c r="C59" t="n">
-        <v>14.96</v>
+        <v>20.26</v>
+      </c>
+      <c r="D59" t="n">
+        <v>27.54</v>
+      </c>
+      <c r="E59" t="n">
+        <v>15.74</v>
+      </c>
+      <c r="F59" t="n">
+        <v>6.314000000000001</v>
       </c>
     </row>
     <row r="60">
@@ -1259,10 +1777,19 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>14.96</v>
+        <v>20.14</v>
       </c>
       <c r="C60" t="n">
-        <v>15.04</v>
+        <v>21.23</v>
+      </c>
+      <c r="D60" t="n">
+        <v>26.92</v>
+      </c>
+      <c r="E60" t="n">
+        <v>14.87</v>
+      </c>
+      <c r="F60" t="n">
+        <v>6.85</v>
       </c>
     </row>
     <row r="61">
@@ -1270,10 +1797,19 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>15.09</v>
+        <v>20.14</v>
       </c>
       <c r="C61" t="n">
-        <v>14.91</v>
+        <v>22.01</v>
+      </c>
+      <c r="D61" t="n">
+        <v>27.03</v>
+      </c>
+      <c r="E61" t="n">
+        <v>14.02</v>
+      </c>
+      <c r="F61" t="n">
+        <v>6.81</v>
       </c>
     </row>
     <row r="62">
@@ -1281,10 +1817,19 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>15.23</v>
+        <v>20.14</v>
       </c>
       <c r="C62" t="n">
-        <v>14.77</v>
+        <v>22.47</v>
+      </c>
+      <c r="D62" t="n">
+        <v>27.24</v>
+      </c>
+      <c r="E62" t="n">
+        <v>13.21</v>
+      </c>
+      <c r="F62" t="n">
+        <v>6.950000000000001</v>
       </c>
     </row>
     <row r="63">
@@ -1292,10 +1837,19 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>15.29</v>
+        <v>20.14</v>
       </c>
       <c r="C63" t="n">
-        <v>14.71</v>
+        <v>22.61</v>
+      </c>
+      <c r="D63" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E63" t="n">
+        <v>12.46</v>
+      </c>
+      <c r="F63" t="n">
+        <v>7.090000000000001</v>
       </c>
     </row>
     <row r="64">
@@ -1303,10 +1857,19 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>15.15</v>
+        <v>20.14</v>
       </c>
       <c r="C64" t="n">
-        <v>14.85</v>
+        <v>22.62</v>
+      </c>
+      <c r="D64" t="n">
+        <v>28.16</v>
+      </c>
+      <c r="E64" t="n">
+        <v>11.72</v>
+      </c>
+      <c r="F64" t="n">
+        <v>7.35</v>
       </c>
     </row>
     <row r="65">
@@ -1314,10 +1877,19 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>14.99</v>
+        <v>20.14</v>
       </c>
       <c r="C65" t="n">
-        <v>15.01</v>
+        <v>22.19</v>
+      </c>
+      <c r="D65" t="n">
+        <v>28.45</v>
+      </c>
+      <c r="E65" t="n">
+        <v>11.62</v>
+      </c>
+      <c r="F65" t="n">
+        <v>7.609999999999999</v>
       </c>
     </row>
     <row r="66">
@@ -1325,10 +1897,19 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>14.87</v>
+        <v>20.14</v>
       </c>
       <c r="C66" t="n">
-        <v>15.13</v>
+        <v>21.47</v>
+      </c>
+      <c r="D66" t="n">
+        <v>28.43</v>
+      </c>
+      <c r="E66" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="F66" t="n">
+        <v>7.930000000000001</v>
       </c>
     </row>
     <row r="67">
@@ -1336,10 +1917,19 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>14.66</v>
+        <v>20.14</v>
       </c>
       <c r="C67" t="n">
-        <v>15.34</v>
+        <v>20.74</v>
+      </c>
+      <c r="D67" t="n">
+        <v>28.46</v>
+      </c>
+      <c r="E67" t="n">
+        <v>12.44</v>
+      </c>
+      <c r="F67" t="n">
+        <v>8.219999999999999</v>
       </c>
     </row>
     <row r="68">
@@ -1347,10 +1937,19 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>14.46</v>
+        <v>20.14</v>
       </c>
       <c r="C68" t="n">
-        <v>15.54</v>
+        <v>21.07</v>
+      </c>
+      <c r="D68" t="n">
+        <v>28.49</v>
+      </c>
+      <c r="E68" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="F68" t="n">
+        <v>8.550000000000001</v>
       </c>
     </row>
     <row r="69">
@@ -1358,10 +1957,19 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>14.27</v>
+        <v>20.14</v>
       </c>
       <c r="C69" t="n">
-        <v>15.73</v>
+        <v>21.54</v>
+      </c>
+      <c r="D69" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="E69" t="n">
+        <v>11.32</v>
+      </c>
+      <c r="F69" t="n">
+        <v>8.499999999999998</v>
       </c>
     </row>
     <row r="70">
@@ -1369,10 +1977,19 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>14.16</v>
+        <v>20.14</v>
       </c>
       <c r="C70" t="n">
-        <v>15.84</v>
+        <v>21.19</v>
+      </c>
+      <c r="D70" t="n">
+        <v>28.47</v>
+      </c>
+      <c r="E70" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="F70" t="n">
+        <v>8.157999999999998</v>
       </c>
     </row>
     <row r="71">
@@ -1380,10 +1997,19 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>14.17</v>
+        <v>20.14</v>
       </c>
       <c r="C71" t="n">
-        <v>15.83</v>
+        <v>20.76</v>
+      </c>
+      <c r="D71" t="n">
+        <v>28.49</v>
+      </c>
+      <c r="E71" t="n">
+        <v>12.77</v>
+      </c>
+      <c r="F71" t="n">
+        <v>7.845999999999999</v>
       </c>
     </row>
     <row r="72">
@@ -1391,10 +2017,19 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>14.18</v>
+        <v>20.14</v>
       </c>
       <c r="C72" t="n">
-        <v>15.82</v>
+        <v>20.43</v>
+      </c>
+      <c r="D72" t="n">
+        <v>28.53</v>
+      </c>
+      <c r="E72" t="n">
+        <v>13.44</v>
+      </c>
+      <c r="F72" t="n">
+        <v>7.463999999999999</v>
       </c>
     </row>
     <row r="73">
@@ -1402,10 +2037,19 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>14.19</v>
+        <v>20.14</v>
       </c>
       <c r="C73" t="n">
-        <v>15.81</v>
+        <v>20.14</v>
+      </c>
+      <c r="D73" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="E73" t="n">
+        <v>14.12</v>
+      </c>
+      <c r="F73" t="n">
+        <v>7.101999999999999</v>
       </c>
     </row>
     <row r="74">
@@ -1413,10 +2057,19 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>14.26</v>
+        <v>20.14</v>
       </c>
       <c r="C74" t="n">
-        <v>15.74</v>
+        <v>19.81</v>
+      </c>
+      <c r="D74" t="n">
+        <v>28.43</v>
+      </c>
+      <c r="E74" t="n">
+        <v>14.92</v>
+      </c>
+      <c r="F74" t="n">
+        <v>6.7</v>
       </c>
     </row>
     <row r="75">
@@ -1424,10 +2077,19 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>14.35</v>
+        <v>20.14</v>
       </c>
       <c r="C75" t="n">
-        <v>15.65</v>
+        <v>20.02</v>
+      </c>
+      <c r="D75" t="n">
+        <v>28.44</v>
+      </c>
+      <c r="E75" t="n">
+        <v>15.09</v>
+      </c>
+      <c r="F75" t="n">
+        <v>6.302999999999999</v>
       </c>
     </row>
     <row r="76">
@@ -1435,10 +2097,19 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>14.32</v>
+        <v>20.14</v>
       </c>
       <c r="C76" t="n">
-        <v>15.68</v>
+        <v>20.3</v>
+      </c>
+      <c r="D76" t="n">
+        <v>28.49</v>
+      </c>
+      <c r="E76" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="F76" t="n">
+        <v>5.886000000000001</v>
       </c>
     </row>
     <row r="77">
@@ -1446,10 +2117,19 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>14.34</v>
+        <v>20.14</v>
       </c>
       <c r="C77" t="n">
-        <v>15.66</v>
+        <v>20.66</v>
+      </c>
+      <c r="D77" t="n">
+        <v>28.41</v>
+      </c>
+      <c r="E77" t="n">
+        <v>15.29</v>
+      </c>
+      <c r="F77" t="n">
+        <v>5.509</v>
       </c>
     </row>
     <row r="78">
@@ -1457,10 +2137,19 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>14.3</v>
+        <v>20.14</v>
       </c>
       <c r="C78" t="n">
-        <v>15.7</v>
+        <v>21.26</v>
+      </c>
+      <c r="D78" t="n">
+        <v>27.71</v>
+      </c>
+      <c r="E78" t="n">
+        <v>15.74</v>
+      </c>
+      <c r="F78" t="n">
+        <v>5.152</v>
       </c>
     </row>
     <row r="79">
@@ -1468,10 +2157,19 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>14.26</v>
+        <v>20.14</v>
       </c>
       <c r="C79" t="n">
-        <v>15.74</v>
+        <v>22.02</v>
+      </c>
+      <c r="D79" t="n">
+        <v>26.82</v>
+      </c>
+      <c r="E79" t="n">
+        <v>16.18</v>
+      </c>
+      <c r="F79" t="n">
+        <v>4.834999999999999</v>
       </c>
     </row>
     <row r="80">
@@ -1479,10 +2177,19 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>14.13</v>
+        <v>20.14</v>
       </c>
       <c r="C80" t="n">
-        <v>15.87</v>
+        <v>22.85</v>
+      </c>
+      <c r="D80" t="n">
+        <v>25.99</v>
+      </c>
+      <c r="E80" t="n">
+        <v>16.16</v>
+      </c>
+      <c r="F80" t="n">
+        <v>4.859999999999999</v>
       </c>
     </row>
     <row r="81">
@@ -1490,10 +2197,19 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>13.98</v>
+        <v>20.14</v>
       </c>
       <c r="C81" t="n">
-        <v>16.02</v>
+        <v>23.71</v>
+      </c>
+      <c r="D81" t="n">
+        <v>25.16</v>
+      </c>
+      <c r="E81" t="n">
+        <v>16.15</v>
+      </c>
+      <c r="F81" t="n">
+        <v>4.835</v>
       </c>
     </row>
     <row r="82">
@@ -1501,10 +2217,19 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>13.81</v>
+        <v>20.14</v>
       </c>
       <c r="C82" t="n">
-        <v>16.2</v>
+        <v>24.62</v>
+      </c>
+      <c r="D82" t="n">
+        <v>24.23</v>
+      </c>
+      <c r="E82" t="n">
+        <v>16.19</v>
+      </c>
+      <c r="F82" t="n">
+        <v>4.82</v>
       </c>
     </row>
     <row r="83">
@@ -1512,10 +2237,19 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>13.63</v>
+        <v>20.14</v>
       </c>
       <c r="C83" t="n">
-        <v>16.37</v>
+        <v>25.77</v>
+      </c>
+      <c r="D83" t="n">
+        <v>23.12</v>
+      </c>
+      <c r="E83" t="n">
+        <v>16.23</v>
+      </c>
+      <c r="F83" t="n">
+        <v>4.745</v>
       </c>
     </row>
     <row r="84">
@@ -1523,10 +2257,19 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>13.24</v>
+        <v>20.14</v>
       </c>
       <c r="C84" t="n">
-        <v>16.76</v>
+        <v>27.06</v>
+      </c>
+      <c r="D84" t="n">
+        <v>22.01</v>
+      </c>
+      <c r="E84" t="n">
+        <v>16.15</v>
+      </c>
+      <c r="F84" t="n">
+        <v>4.659999999999999</v>
       </c>
     </row>
     <row r="85">
@@ -1534,10 +2277,19 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>13.08</v>
+        <v>20.14</v>
       </c>
       <c r="C85" t="n">
-        <v>16.91</v>
+        <v>27.93</v>
+      </c>
+      <c r="D85" t="n">
+        <v>20.88</v>
+      </c>
+      <c r="E85" t="n">
+        <v>16.08</v>
+      </c>
+      <c r="F85" t="n">
+        <v>4.996999999999998</v>
       </c>
     </row>
     <row r="86">
@@ -1545,10 +2297,19 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>13.39</v>
+        <v>20.14</v>
       </c>
       <c r="C86" t="n">
-        <v>16.62</v>
+        <v>28.8</v>
+      </c>
+      <c r="D86" t="n">
+        <v>19.74</v>
+      </c>
+      <c r="E86" t="n">
+        <v>16.03</v>
+      </c>
+      <c r="F86" t="n">
+        <v>5.333999999999999</v>
       </c>
     </row>
     <row r="87">
@@ -1556,10 +2317,19 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>13.43</v>
+        <v>20.14</v>
       </c>
       <c r="C87" t="n">
-        <v>16.57</v>
+        <v>29.56</v>
+      </c>
+      <c r="D87" t="n">
+        <v>18.66</v>
+      </c>
+      <c r="E87" t="n">
+        <v>15.98</v>
+      </c>
+      <c r="F87" t="n">
+        <v>5.711</v>
       </c>
     </row>
     <row r="88">
@@ -1567,10 +2337,19 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>13.5</v>
+        <v>20.14</v>
       </c>
       <c r="C88" t="n">
-        <v>16.5</v>
+        <v>29.42</v>
+      </c>
+      <c r="D88" t="n">
+        <v>18.52</v>
+      </c>
+      <c r="E88" t="n">
+        <v>15.94</v>
+      </c>
+      <c r="F88" t="n">
+        <v>6.028</v>
       </c>
     </row>
     <row r="89">
@@ -1578,10 +2357,19 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>13.57</v>
+        <v>20.14</v>
       </c>
       <c r="C89" t="n">
-        <v>16.43</v>
+        <v>29.16</v>
+      </c>
+      <c r="D89" t="n">
+        <v>18.51</v>
+      </c>
+      <c r="E89" t="n">
+        <v>15.88</v>
+      </c>
+      <c r="F89" t="n">
+        <v>6.365</v>
       </c>
     </row>
     <row r="90">
@@ -1589,10 +2377,19 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>13.32</v>
+        <v>20.14</v>
       </c>
       <c r="C90" t="n">
-        <v>16.68</v>
+        <v>28.4</v>
+      </c>
+      <c r="D90" t="n">
+        <v>18.46</v>
+      </c>
+      <c r="E90" t="n">
+        <v>16.41</v>
+      </c>
+      <c r="F90" t="n">
+        <v>6.642</v>
       </c>
     </row>
     <row r="91">
@@ -1600,10 +2397,19 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>13.03</v>
+        <v>20.14</v>
       </c>
       <c r="C91" t="n">
-        <v>16.98</v>
+        <v>26.93</v>
+      </c>
+      <c r="D91" t="n">
+        <v>19.11</v>
+      </c>
+      <c r="E91" t="n">
+        <v>16.94</v>
+      </c>
+      <c r="F91" t="n">
+        <v>6.928999999999999</v>
       </c>
     </row>
     <row r="92">
@@ -1611,10 +2417,19 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>12.61</v>
+        <v>20.14</v>
       </c>
       <c r="C92" t="n">
-        <v>17.39</v>
+        <v>25.52</v>
+      </c>
+      <c r="D92" t="n">
+        <v>19.68</v>
+      </c>
+      <c r="E92" t="n">
+        <v>17.49</v>
+      </c>
+      <c r="F92" t="n">
+        <v>7.216000000000001</v>
       </c>
     </row>
     <row r="93">
@@ -1622,10 +2437,19 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>12.19</v>
+        <v>20.14</v>
       </c>
       <c r="C93" t="n">
-        <v>17.81</v>
+        <v>24.97</v>
+      </c>
+      <c r="D93" t="n">
+        <v>20.23</v>
+      </c>
+      <c r="E93" t="n">
+        <v>17.14</v>
+      </c>
+      <c r="F93" t="n">
+        <v>7.563</v>
       </c>
     </row>
     <row r="94">
@@ -1633,10 +2457,19 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>11.95</v>
+        <v>20.14</v>
       </c>
       <c r="C94" t="n">
-        <v>18.05</v>
+        <v>24.52</v>
+      </c>
+      <c r="D94" t="n">
+        <v>20.76</v>
+      </c>
+      <c r="E94" t="n">
+        <v>16.71</v>
+      </c>
+      <c r="F94" t="n">
+        <v>7.9</v>
       </c>
     </row>
     <row r="95">
@@ -1644,10 +2477,19 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>11.59</v>
+        <v>20.14</v>
       </c>
       <c r="C95" t="n">
-        <v>18.41</v>
+        <v>24.26</v>
+      </c>
+      <c r="D95" t="n">
+        <v>21.31</v>
+      </c>
+      <c r="E95" t="n">
+        <v>16.39</v>
+      </c>
+      <c r="F95" t="n">
+        <v>7.92</v>
       </c>
     </row>
     <row r="96">
@@ -1655,14 +2497,1463 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>11.03</v>
+        <v>20.14</v>
       </c>
       <c r="C96" t="n">
+        <v>24.03</v>
+      </c>
+      <c r="D96" t="n">
+        <v>21.81</v>
+      </c>
+      <c r="E96" t="n">
+        <v>16.07</v>
+      </c>
+      <c r="F96" t="n">
+        <v>7.959999999999999</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="C97" t="n">
+        <v>23.74</v>
+      </c>
+      <c r="D97" t="n">
+        <v>22.73</v>
+      </c>
+      <c r="E97" t="n">
+        <v>15.43</v>
+      </c>
+      <c r="F97" t="n">
+        <v>7.959999999999999</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="C98" t="n">
+        <v>23.95</v>
+      </c>
+      <c r="D98" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="E98" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="F98" t="n">
+        <v>7.94</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="C99" t="n">
+        <v>24.14</v>
+      </c>
+      <c r="D99" t="n">
+        <v>23.77</v>
+      </c>
+      <c r="E99" t="n">
+        <v>14.04</v>
+      </c>
+      <c r="F99" t="n">
+        <v>7.909999999999998</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="C100" t="n">
+        <v>24.82</v>
+      </c>
+      <c r="D100" t="n">
+        <v>24.33</v>
+      </c>
+      <c r="E100" t="n">
+        <v>12.81</v>
+      </c>
+      <c r="F100" t="n">
+        <v>7.899999999999999</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="C101" t="n">
+        <v>25.65</v>
+      </c>
+      <c r="D101" t="n">
+        <v>24.77</v>
+      </c>
+      <c r="E101" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="F101" t="n">
+        <v>7.899999999999999</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="C102" t="n">
+        <v>26.41</v>
+      </c>
+      <c r="D102" t="n">
+        <v>25.31</v>
+      </c>
+      <c r="E102" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="F102" t="n">
+        <v>7.88</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="C103" t="n">
+        <v>26.39</v>
+      </c>
+      <c r="D103" t="n">
+        <v>25.77</v>
+      </c>
+      <c r="E103" t="n">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="F103" t="n">
+        <v>7.840000000000001</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="C104" t="n">
+        <v>26.34</v>
+      </c>
+      <c r="D104" t="n">
+        <v>26.16</v>
+      </c>
+      <c r="E104" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="F104" t="n">
+        <v>7.819999999999999</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="C105" t="n">
+        <v>26.63</v>
+      </c>
+      <c r="D105" t="n">
+        <v>26.47</v>
+      </c>
+      <c r="E105" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="F105" t="n">
+        <v>7.669999999999999</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="C106" t="n">
+        <v>26.95</v>
+      </c>
+      <c r="D106" t="n">
+        <v>26.78</v>
+      </c>
+      <c r="E106" t="n">
+        <v>8.630000000000001</v>
+      </c>
+      <c r="F106" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="C107" t="n">
+        <v>27.33</v>
+      </c>
+      <c r="D107" t="n">
+        <v>26.75</v>
+      </c>
+      <c r="E107" t="n">
+        <v>8.49</v>
+      </c>
+      <c r="F107" t="n">
+        <v>7.289999999999999</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="C108" t="n">
+        <v>26.53</v>
+      </c>
+      <c r="D108" t="n">
+        <v>27.84</v>
+      </c>
+      <c r="E108" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="F108" t="n">
+        <v>7.139999999999999</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="C109" t="n">
+        <v>25.84</v>
+      </c>
+      <c r="D109" t="n">
+        <v>28.93</v>
+      </c>
+      <c r="E109" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="F109" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="C110" t="n">
+        <v>24.87</v>
+      </c>
+      <c r="D110" t="n">
+        <v>30.05</v>
+      </c>
+      <c r="E110" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="F110" t="n">
+        <v>6.640000000000001</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="C111" t="n">
+        <v>23.93</v>
+      </c>
+      <c r="D111" t="n">
+        <v>30.58</v>
+      </c>
+      <c r="E111" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="F111" t="n">
+        <v>6.904000000000001</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="C112" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="D112" t="n">
+        <v>32.58</v>
+      </c>
+      <c r="E112" t="n">
+        <v>8.609999999999999</v>
+      </c>
+      <c r="F112" t="n">
+        <v>7.188</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="C113" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="D113" t="n">
+        <v>34.67</v>
+      </c>
+      <c r="E113" t="n">
+        <v>8.77</v>
+      </c>
+      <c r="F113" t="n">
+        <v>7.522</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="C114" t="n">
+        <v>20.17</v>
+      </c>
+      <c r="D114" t="n">
+        <v>36.87</v>
+      </c>
+      <c r="E114" t="n">
+        <v>8.91</v>
+      </c>
+      <c r="F114" t="n">
+        <v>7.916000000000001</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="C115" t="n">
+        <v>21.24</v>
+      </c>
+      <c r="D115" t="n">
+        <v>39.23</v>
+      </c>
+      <c r="E115" t="n">
+        <v>9.07</v>
+      </c>
+      <c r="F115" t="n">
+        <v>8.32</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="C116" t="n">
+        <v>22.31</v>
+      </c>
+      <c r="D116" t="n">
+        <v>41.59</v>
+      </c>
+      <c r="E116" t="n">
+        <v>9.24</v>
+      </c>
+      <c r="F116" t="n">
+        <v>8.724</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="C117" t="n">
+        <v>23.43</v>
+      </c>
+      <c r="D117" t="n">
+        <v>43.87</v>
+      </c>
+      <c r="E117" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="F117" t="n">
+        <v>9.167999999999999</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="C118" t="n">
+        <v>25.44</v>
+      </c>
+      <c r="D118" t="n">
+        <v>45.05</v>
+      </c>
+      <c r="E118" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="F118" t="n">
+        <v>9.762</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="C119" t="n">
+        <v>27.18</v>
+      </c>
+      <c r="D119" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="E119" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="F119" t="n">
+        <v>10.446</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="C120" t="n">
+        <v>29.25</v>
+      </c>
+      <c r="D120" t="n">
+        <v>47.54</v>
+      </c>
+      <c r="E120" t="n">
+        <v>9.94</v>
+      </c>
+      <c r="F120" t="n">
+        <v>11.13</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="C121" t="n">
+        <v>31.87</v>
+      </c>
+      <c r="D121" t="n">
+        <v>48.79</v>
+      </c>
+      <c r="E121" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="F121" t="n">
+        <v>11.29</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="C122" t="n">
+        <v>35.08</v>
+      </c>
+      <c r="D122" t="n">
+        <v>48.65</v>
+      </c>
+      <c r="E122" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="F122" t="n">
+        <v>11.37</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="C123" t="n">
+        <v>38.27</v>
+      </c>
+      <c r="D123" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="E123" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="F123" t="n">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="C124" t="n">
+        <v>37.44</v>
+      </c>
+      <c r="D124" t="n">
+        <v>48.37</v>
+      </c>
+      <c r="E124" t="n">
+        <v>12.68</v>
+      </c>
+      <c r="F124" t="n">
+        <v>11.37</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="C125" t="n">
+        <v>36.71</v>
+      </c>
+      <c r="D125" t="n">
+        <v>48.15</v>
+      </c>
+      <c r="E125" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="F125" t="n">
+        <v>11.35</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="C126" t="n">
+        <v>35.74</v>
+      </c>
+      <c r="D126" t="n">
+        <v>48.18</v>
+      </c>
+      <c r="E126" t="n">
+        <v>14.61</v>
+      </c>
+      <c r="F126" t="n">
+        <v>11.33</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="C127" t="n">
+        <v>34.87</v>
+      </c>
+      <c r="D127" t="n">
+        <v>48.17</v>
+      </c>
+      <c r="E127" t="n">
+        <v>15.57</v>
+      </c>
+      <c r="F127" t="n">
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="C128" t="n">
+        <v>34.04</v>
+      </c>
+      <c r="D128" t="n">
+        <v>48.22</v>
+      </c>
+      <c r="E128" t="n">
+        <v>16.54</v>
+      </c>
+      <c r="F128" t="n">
+        <v>11.02</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="C129" t="n">
+        <v>33.26</v>
+      </c>
+      <c r="D129" t="n">
+        <v>48.27</v>
+      </c>
+      <c r="E129" t="n">
+        <v>17.45</v>
+      </c>
+      <c r="F129" t="n">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="C130" t="n">
+        <v>32.47</v>
+      </c>
+      <c r="D130" t="n">
+        <v>48.34</v>
+      </c>
+      <c r="E130" t="n">
+        <v>18.35</v>
+      </c>
+      <c r="F130" t="n">
+        <v>10.58</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="C131" t="n">
+        <v>31.65</v>
+      </c>
+      <c r="D131" t="n">
+        <v>48.42</v>
+      </c>
+      <c r="E131" t="n">
+        <v>19.29</v>
+      </c>
+      <c r="F131" t="n">
+        <v>10.34</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="C132" t="n">
+        <v>31.65</v>
+      </c>
+      <c r="D132" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="E132" t="n">
+        <v>19.33</v>
+      </c>
+      <c r="F132" t="n">
+        <v>10.18</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="C133" t="n">
+        <v>32.03</v>
+      </c>
+      <c r="D133" t="n">
+        <v>48.64</v>
+      </c>
+      <c r="E133" t="n">
         <v>18.97</v>
       </c>
+      <c r="F133" t="n">
+        <v>10.02</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="C134" t="n">
+        <v>32.56</v>
+      </c>
+      <c r="D134" t="n">
+        <v>48.77</v>
+      </c>
+      <c r="E134" t="n">
+        <v>18.55</v>
+      </c>
+      <c r="F134" t="n">
+        <v>9.779999999999998</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="C135" t="n">
+        <v>32.55</v>
+      </c>
+      <c r="D135" t="n">
+        <v>49.45</v>
+      </c>
+      <c r="E135" t="n">
+        <v>18.13</v>
+      </c>
+      <c r="F135" t="n">
+        <v>9.540000000000001</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="C136" t="n">
+        <v>32.67</v>
+      </c>
+      <c r="D136" t="n">
+        <v>49.91</v>
+      </c>
+      <c r="E136" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="F136" t="n">
+        <v>9.379999999999999</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="C137" t="n">
+        <v>32.38</v>
+      </c>
+      <c r="D137" t="n">
+        <v>51.08</v>
+      </c>
+      <c r="E137" t="n">
+        <v>17.01</v>
+      </c>
+      <c r="F137" t="n">
+        <v>9.199999999999999</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="C138" t="n">
+        <v>32.17</v>
+      </c>
+      <c r="D138" t="n">
+        <v>52.18</v>
+      </c>
+      <c r="E138" t="n">
+        <v>16.32</v>
+      </c>
+      <c r="F138" t="n">
+        <v>9.030000000000001</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="C139" t="n">
+        <v>32.14</v>
+      </c>
+      <c r="D139" t="n">
+        <v>53.27</v>
+      </c>
+      <c r="E139" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="F139" t="n">
+        <v>8.74</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="C140" t="n">
+        <v>32.12</v>
+      </c>
+      <c r="D140" t="n">
+        <v>54.34</v>
+      </c>
+      <c r="E140" t="n">
+        <v>14.85</v>
+      </c>
+      <c r="F140" t="n">
+        <v>8.470000000000002</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="C141" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="D141" t="n">
+        <v>55.45</v>
+      </c>
+      <c r="E141" t="n">
+        <v>14.09</v>
+      </c>
+      <c r="F141" t="n">
+        <v>8.200000000000001</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="C142" t="n">
+        <v>32.23</v>
+      </c>
+      <c r="D142" t="n">
+        <v>56.57</v>
+      </c>
+      <c r="E142" t="n">
+        <v>13.35</v>
+      </c>
+      <c r="F142" t="n">
+        <v>7.710000000000001</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="C143" t="n">
+        <v>32.12</v>
+      </c>
+      <c r="D143" t="n">
+        <v>57.56</v>
+      </c>
+      <c r="E143" t="n">
+        <v>12.93</v>
+      </c>
+      <c r="F143" t="n">
+        <v>7.24</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="C144" t="n">
+        <v>32.37</v>
+      </c>
+      <c r="D144" t="n">
+        <v>58.35</v>
+      </c>
+      <c r="E144" t="n">
+        <v>12.29</v>
+      </c>
+      <c r="F144" t="n">
+        <v>6.85</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="C145" t="n">
+        <v>32.53</v>
+      </c>
+      <c r="D145" t="n">
+        <v>59.6</v>
+      </c>
+      <c r="E145" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="F145" t="n">
+        <v>6.380000000000001</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="C146" t="n">
+        <v>32.63</v>
+      </c>
+      <c r="D146" t="n">
+        <v>60.91</v>
+      </c>
+      <c r="E146" t="n">
+        <v>10.43</v>
+      </c>
+      <c r="F146" t="n">
+        <v>5.89</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="C147" t="n">
+        <v>33.05</v>
+      </c>
+      <c r="D147" t="n">
+        <v>61.56</v>
+      </c>
+      <c r="E147" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="F147" t="n">
+        <v>5.46</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="C148" t="n">
+        <v>33</v>
+      </c>
+      <c r="D148" t="n">
+        <v>62.19</v>
+      </c>
+      <c r="E148" t="n">
+        <v>9.130000000000001</v>
+      </c>
+      <c r="F148" t="n">
+        <v>5.538000000000001</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="C149" t="n">
+        <v>32.79</v>
+      </c>
+      <c r="D149" t="n">
+        <v>62.89</v>
+      </c>
+      <c r="E149" t="n">
+        <v>8.48</v>
+      </c>
+      <c r="F149" t="n">
+        <v>5.696000000000001</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="C150" t="n">
+        <v>32.71</v>
+      </c>
+      <c r="D150" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="E150" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="F150" t="n">
+        <v>5.704</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="C151" t="n">
+        <v>32.61</v>
+      </c>
+      <c r="D151" t="n">
+        <v>64.34999999999999</v>
+      </c>
+      <c r="E151" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="F151" t="n">
+        <v>5.731999999999999</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="C152" t="n">
+        <v>32.21</v>
+      </c>
+      <c r="D152" t="n">
+        <v>65.26000000000001</v>
+      </c>
+      <c r="E152" t="n">
+        <v>6.41</v>
+      </c>
+      <c r="F152" t="n">
+        <v>5.98</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="C153" t="n">
+        <v>31.71</v>
+      </c>
+      <c r="D153" t="n">
+        <v>66.25</v>
+      </c>
+      <c r="E153" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="F153" t="n">
+        <v>6.208</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="C154" t="n">
+        <v>30.64</v>
+      </c>
+      <c r="D154" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="E154" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="F154" t="n">
+        <v>6.425999999999999</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="C155" t="n">
+        <v>30.48</v>
+      </c>
+      <c r="D155" t="n">
+        <v>67.70999999999999</v>
+      </c>
+      <c r="E155" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="F155" t="n">
+        <v>6.724000000000001</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="C156" t="n">
+        <v>30.25</v>
+      </c>
+      <c r="D156" t="n">
+        <v>67.76000000000001</v>
+      </c>
+      <c r="E156" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="F156" t="n">
+        <v>6.962000000000002</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="C157" t="n">
+        <v>30.28</v>
+      </c>
+      <c r="D157" t="n">
+        <v>67.56999999999999</v>
+      </c>
+      <c r="E157" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="F157" t="n">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="C158" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="D158" t="n">
+        <v>67.45999999999999</v>
+      </c>
+      <c r="E158" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="F158" t="n">
+        <v>6.93</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="C159" t="n">
+        <v>31.33</v>
+      </c>
+      <c r="D159" t="n">
+        <v>68.15000000000001</v>
+      </c>
+      <c r="E159" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="F159" t="n">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="C160" t="n">
+        <v>31.32</v>
+      </c>
+      <c r="D160" t="n">
+        <v>68.81999999999999</v>
+      </c>
+      <c r="E160" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="F160" t="n">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="C161" t="n">
+        <v>30.86</v>
+      </c>
+      <c r="D161" t="n">
+        <v>69.95</v>
+      </c>
+      <c r="E161" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="F161" t="n">
+        <v>6.419999999999999</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="C162" t="n">
+        <v>30.64</v>
+      </c>
+      <c r="D162" t="n">
+        <v>70.84</v>
+      </c>
+      <c r="E162" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="F162" t="n">
+        <v>6.159999999999999</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="C163" t="n">
+        <v>30.42</v>
+      </c>
+      <c r="D163" t="n">
+        <v>71.75</v>
+      </c>
+      <c r="E163" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="F163" t="n">
+        <v>5.899999999999999</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="C164" t="n">
+        <v>30.33</v>
+      </c>
+      <c r="D164" t="n">
+        <v>72.52</v>
+      </c>
+      <c r="E164" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="F164" t="n">
+        <v>5.63</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="C165" t="n">
+        <v>29.44</v>
+      </c>
+      <c r="D165" t="n">
+        <v>74.03</v>
+      </c>
+      <c r="E165" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="F165" t="n">
+        <v>5.36</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="C166" t="n">
+        <v>28.67</v>
+      </c>
+      <c r="D166" t="n">
+        <v>75.53</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F166" t="n">
+        <v>5.149999999999999</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="C167" t="n">
+        <v>27.61</v>
+      </c>
+      <c r="D167" t="n">
+        <v>77.3</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0</v>
+      </c>
+      <c r="F167" t="n">
+        <v>4.949999999999999</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="C168" t="n">
+        <v>26.02</v>
+      </c>
+      <c r="D168" t="n">
+        <v>79.08</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0</v>
+      </c>
+      <c r="F168" t="n">
+        <v>4.76</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Outputs/stacks_over_time_avg.xlsx
+++ b/Outputs/stacks_over_time_avg.xlsx
@@ -2,9 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
@@ -26,7 +25,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,10 +50,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -62,7 +75,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -661,7 +674,7 @@
   </sheetPr>
   <dimension ref="A1:F168"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -3953,7 +3966,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Outputs/stacks_over_time_avg.xlsx
+++ b/Outputs/stacks_over_time_avg.xlsx
@@ -162,7 +162,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Stacks vs time this session (06/17/21): 10-hand moving averages</a:t>
+              <a:t>Stacks vs time this session (05/31/21): 10-hand moving averages</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -194,7 +194,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$B$2:$B$168</f>
+              <f>'data'!$B$2:$B$227</f>
             </numRef>
           </val>
         </ser>
@@ -221,7 +221,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$C$2:$C$168</f>
+              <f>'data'!$C$2:$C$227</f>
             </numRef>
           </val>
         </ser>
@@ -248,61 +248,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$D$2:$D$168</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="3"/>
-          <order val="3"/>
-          <tx>
-            <strRef>
-              <f>'data'!E1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'data'!$E$2:$E$168</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="4"/>
-          <order val="4"/>
-          <tx>
-            <strRef>
-              <f>'data'!F1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'data'!$F$2:$F$168</f>
+              <f>'data'!$D$2:$D$227</f>
             </numRef>
           </val>
         </ser>
@@ -672,7 +618,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F168"/>
+  <dimension ref="A1:D227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -693,7 +639,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Scott</t>
+          <t>Cedric</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -701,16 +647,6 @@
           <t>Fish</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Cedric</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Ben</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -725,25 +661,19 @@
       <c r="D2" t="n">
         <v>20</v>
       </c>
-      <c r="E2" t="n">
-        <v>20</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>18.25</v>
+        <v>20.38</v>
       </c>
       <c r="C3" t="n">
+        <v>19.71</v>
+      </c>
+      <c r="D3" t="n">
         <v>19.9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>21.85</v>
-      </c>
-      <c r="E3" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -751,16 +681,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>17.67</v>
+        <v>20.21</v>
       </c>
       <c r="C4" t="n">
-        <v>20.13</v>
+        <v>19.55</v>
       </c>
       <c r="D4" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="E4" t="n">
-        <v>20</v>
+        <v>20.23</v>
       </c>
     </row>
     <row r="5">
@@ -768,16 +695,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>17.71</v>
+        <v>20.18</v>
       </c>
       <c r="C5" t="n">
-        <v>20.11</v>
+        <v>19.42</v>
       </c>
       <c r="D5" t="n">
-        <v>22.23</v>
-      </c>
-      <c r="E5" t="n">
-        <v>19.95</v>
+        <v>20.4</v>
       </c>
     </row>
     <row r="6">
@@ -785,16 +709,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>17.7</v>
+        <v>20.16</v>
       </c>
       <c r="C6" t="n">
-        <v>20.09</v>
+        <v>19.32</v>
       </c>
       <c r="D6" t="n">
-        <v>22.21</v>
-      </c>
-      <c r="E6" t="n">
-        <v>20</v>
+        <v>20.52</v>
       </c>
     </row>
     <row r="7">
@@ -802,16 +723,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>17.85</v>
+        <v>20.19</v>
       </c>
       <c r="C7" t="n">
-        <v>20.05</v>
+        <v>19.22</v>
       </c>
       <c r="D7" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="E7" t="n">
-        <v>19.9</v>
+        <v>20.58</v>
       </c>
     </row>
     <row r="8">
@@ -819,16 +737,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>17.97</v>
+        <v>20.12</v>
       </c>
       <c r="C8" t="n">
-        <v>19.42</v>
+        <v>19.34</v>
       </c>
       <c r="D8" t="n">
-        <v>21.59</v>
-      </c>
-      <c r="E8" t="n">
-        <v>21.03</v>
+        <v>20.54</v>
       </c>
     </row>
     <row r="9">
@@ -836,16 +751,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>18.05</v>
+        <v>20.07</v>
       </c>
       <c r="C9" t="n">
-        <v>18.94</v>
+        <v>19.35</v>
       </c>
       <c r="D9" t="n">
-        <v>21.11</v>
-      </c>
-      <c r="E9" t="n">
-        <v>21.9</v>
+        <v>20.58</v>
       </c>
     </row>
     <row r="10">
@@ -853,16 +765,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>18.09</v>
+        <v>19.99</v>
       </c>
       <c r="C10" t="n">
-        <v>18.3</v>
+        <v>19.36</v>
       </c>
       <c r="D10" t="n">
-        <v>20.73</v>
-      </c>
-      <c r="E10" t="n">
-        <v>22.88</v>
+        <v>20.65</v>
       </c>
     </row>
     <row r="11">
@@ -870,16 +779,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>18.23</v>
+        <v>19.9</v>
       </c>
       <c r="C11" t="n">
-        <v>17.76</v>
+        <v>19.41</v>
       </c>
       <c r="D11" t="n">
-        <v>20.35</v>
-      </c>
-      <c r="E11" t="n">
-        <v>23.66</v>
+        <v>20.69</v>
       </c>
     </row>
     <row r="12">
@@ -887,16 +793,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>18.23</v>
+        <v>19.9</v>
       </c>
       <c r="C12" t="n">
-        <v>17.76</v>
+        <v>19.41</v>
       </c>
       <c r="D12" t="n">
-        <v>20.35</v>
-      </c>
-      <c r="E12" t="n">
-        <v>23.66</v>
+        <v>20.69</v>
       </c>
     </row>
     <row r="13">
@@ -904,16 +807,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>18.34</v>
+        <v>19.82</v>
       </c>
       <c r="C13" t="n">
-        <v>16.98</v>
+        <v>19.41</v>
       </c>
       <c r="D13" t="n">
-        <v>20.02</v>
-      </c>
-      <c r="E13" t="n">
-        <v>24.66</v>
+        <v>20.78</v>
       </c>
     </row>
     <row r="14">
@@ -921,16 +821,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>18.79</v>
+        <v>19.67</v>
       </c>
       <c r="C14" t="n">
-        <v>16.16</v>
+        <v>19.47</v>
       </c>
       <c r="D14" t="n">
-        <v>19.32</v>
-      </c>
-      <c r="E14" t="n">
-        <v>25.73</v>
+        <v>20.86</v>
       </c>
     </row>
     <row r="15">
@@ -938,16 +835,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>19.23</v>
+        <v>19.59</v>
       </c>
       <c r="C15" t="n">
-        <v>15.26</v>
+        <v>19.83</v>
       </c>
       <c r="D15" t="n">
-        <v>18.81</v>
-      </c>
-      <c r="E15" t="n">
-        <v>26.69</v>
+        <v>20.58</v>
       </c>
     </row>
     <row r="16">
@@ -955,16 +849,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>19.59</v>
+        <v>19.57</v>
       </c>
       <c r="C16" t="n">
-        <v>14.37</v>
+        <v>20.2</v>
       </c>
       <c r="D16" t="n">
-        <v>18.36</v>
-      </c>
-      <c r="E16" t="n">
-        <v>27.68</v>
+        <v>20.23</v>
       </c>
     </row>
     <row r="17">
@@ -972,16 +863,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>19.9</v>
+        <v>19.56</v>
       </c>
       <c r="C17" t="n">
-        <v>13.56</v>
+        <v>20.58</v>
       </c>
       <c r="D17" t="n">
-        <v>17.91</v>
-      </c>
-      <c r="E17" t="n">
-        <v>28.63</v>
+        <v>19.86</v>
       </c>
     </row>
     <row r="18">
@@ -989,16 +877,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>20.06</v>
+        <v>19.37</v>
       </c>
       <c r="C18" t="n">
-        <v>12.99</v>
+        <v>21.13</v>
       </c>
       <c r="D18" t="n">
-        <v>17.31</v>
-      </c>
-      <c r="E18" t="n">
-        <v>29.64</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="19">
@@ -1006,16 +891,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>20.2</v>
+        <v>19.25</v>
       </c>
       <c r="C19" t="n">
-        <v>12.77</v>
+        <v>21.5</v>
       </c>
       <c r="D19" t="n">
-        <v>17.38</v>
-      </c>
-      <c r="E19" t="n">
-        <v>29.65</v>
+        <v>19.25</v>
       </c>
     </row>
     <row r="20">
@@ -1023,16 +905,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>20.33</v>
+        <v>19.13</v>
       </c>
       <c r="C20" t="n">
-        <v>12.34</v>
+        <v>21.93</v>
       </c>
       <c r="D20" t="n">
-        <v>17.77</v>
-      </c>
-      <c r="E20" t="n">
-        <v>29.55</v>
+        <v>18.94</v>
       </c>
     </row>
     <row r="21">
@@ -1040,16 +919,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>20.48</v>
+        <v>19.11</v>
       </c>
       <c r="C21" t="n">
-        <v>12.07</v>
+        <v>22.31</v>
       </c>
       <c r="D21" t="n">
-        <v>18.43</v>
-      </c>
-      <c r="E21" t="n">
-        <v>29.01</v>
+        <v>18.58</v>
       </c>
     </row>
     <row r="22">
@@ -1057,16 +933,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>20.53</v>
+        <v>19.18</v>
       </c>
       <c r="C22" t="n">
-        <v>11.8</v>
+        <v>22.64</v>
       </c>
       <c r="D22" t="n">
-        <v>19.15</v>
-      </c>
-      <c r="E22" t="n">
-        <v>28.51</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="23">
@@ -1074,16 +947,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>20.45</v>
+        <v>19.22</v>
       </c>
       <c r="C23" t="n">
-        <v>11.61</v>
+        <v>22.99</v>
       </c>
       <c r="D23" t="n">
-        <v>19.87</v>
-      </c>
-      <c r="E23" t="n">
-        <v>28.07</v>
+        <v>17.79</v>
       </c>
     </row>
     <row r="24">
@@ -1091,16 +961,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>20.35</v>
+        <v>19.28</v>
       </c>
       <c r="C24" t="n">
-        <v>11.2</v>
+        <v>23.32</v>
       </c>
       <c r="D24" t="n">
-        <v>20.88</v>
-      </c>
-      <c r="E24" t="n">
-        <v>27.56</v>
+        <v>17.4</v>
       </c>
     </row>
     <row r="25">
@@ -1108,16 +975,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>20.28</v>
+        <v>19.37</v>
       </c>
       <c r="C25" t="n">
-        <v>11.52</v>
+        <v>23.39</v>
       </c>
       <c r="D25" t="n">
-        <v>21.25</v>
-      </c>
-      <c r="E25" t="n">
-        <v>26.94</v>
+        <v>17.24</v>
       </c>
     </row>
     <row r="26">
@@ -1125,16 +989,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>20.16</v>
+        <v>19.43</v>
       </c>
       <c r="C26" t="n">
-        <v>11.92</v>
+        <v>23.45</v>
       </c>
       <c r="D26" t="n">
-        <v>21.62</v>
-      </c>
-      <c r="E26" t="n">
-        <v>26.3</v>
+        <v>17.12</v>
       </c>
     </row>
     <row r="27">
@@ -1142,16 +1003,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>20.09</v>
+        <v>19.45</v>
       </c>
       <c r="C27" t="n">
-        <v>13.36</v>
+        <v>23.54</v>
       </c>
       <c r="D27" t="n">
-        <v>21.93</v>
-      </c>
-      <c r="E27" t="n">
-        <v>24.62</v>
+        <v>17.01</v>
       </c>
     </row>
     <row r="28">
@@ -1159,16 +1017,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>20.08</v>
+        <v>19.63</v>
       </c>
       <c r="C28" t="n">
-        <v>14.53</v>
+        <v>23.47</v>
       </c>
       <c r="D28" t="n">
-        <v>22.45</v>
-      </c>
-      <c r="E28" t="n">
-        <v>22.94</v>
+        <v>16.9</v>
       </c>
     </row>
     <row r="29">
@@ -1176,16 +1031,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>20.09</v>
+        <v>19.75</v>
       </c>
       <c r="C29" t="n">
-        <v>16.07</v>
+        <v>23.45</v>
       </c>
       <c r="D29" t="n">
-        <v>22.44</v>
-      </c>
-      <c r="E29" t="n">
-        <v>21.4</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="30">
@@ -1193,16 +1045,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>20.11</v>
+        <v>19.77</v>
       </c>
       <c r="C30" t="n">
-        <v>17.79</v>
+        <v>23.22</v>
       </c>
       <c r="D30" t="n">
-        <v>22.18</v>
-      </c>
-      <c r="E30" t="n">
-        <v>19.92</v>
+        <v>17.01</v>
       </c>
     </row>
     <row r="31">
@@ -1210,19 +1059,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>20.13</v>
+        <v>19.77</v>
       </c>
       <c r="C31" t="n">
-        <v>19.41</v>
+        <v>23.03</v>
       </c>
       <c r="D31" t="n">
-        <v>21.84</v>
-      </c>
-      <c r="E31" t="n">
-        <v>18.62</v>
-      </c>
-      <c r="F31" t="n">
-        <v>10</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="32">
@@ -1230,19 +1073,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>20.15</v>
+        <v>19.76</v>
       </c>
       <c r="C32" t="n">
-        <v>20.95</v>
+        <v>22.84</v>
       </c>
       <c r="D32" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="E32" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="F32" t="n">
-        <v>9.9</v>
+        <v>17.4</v>
       </c>
     </row>
     <row r="33">
@@ -1250,19 +1087,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>20.14</v>
+        <v>19.74</v>
       </c>
       <c r="C33" t="n">
-        <v>22.6</v>
+        <v>22.72</v>
       </c>
       <c r="D33" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="E33" t="n">
-        <v>16.38</v>
-      </c>
-      <c r="F33" t="n">
-        <v>9.799999999999999</v>
+        <v>17.54</v>
       </c>
     </row>
     <row r="34">
@@ -1270,19 +1101,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>20.14</v>
+        <v>19.68</v>
       </c>
       <c r="C34" t="n">
-        <v>24.43</v>
+        <v>22.61</v>
       </c>
       <c r="D34" t="n">
-        <v>20.3</v>
-      </c>
-      <c r="E34" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="F34" t="n">
-        <v>9.699999999999999</v>
+        <v>17.71</v>
       </c>
     </row>
     <row r="35">
@@ -1290,19 +1115,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>20.14</v>
+        <v>19.59</v>
       </c>
       <c r="C35" t="n">
-        <v>25.35</v>
+        <v>22.56</v>
       </c>
       <c r="D35" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="E35" t="n">
-        <v>13.94</v>
-      </c>
-      <c r="F35" t="n">
-        <v>9.640000000000001</v>
+        <v>17.85</v>
       </c>
     </row>
     <row r="36">
@@ -1310,19 +1129,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>20.14</v>
+        <v>19.44</v>
       </c>
       <c r="C36" t="n">
-        <v>26.17</v>
+        <v>22.56</v>
       </c>
       <c r="D36" t="n">
-        <v>21.18</v>
-      </c>
-      <c r="E36" t="n">
-        <v>12.69</v>
-      </c>
-      <c r="F36" t="n">
-        <v>9.566666666666668</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37">
@@ -1330,19 +1143,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>20.14</v>
+        <v>19.31</v>
       </c>
       <c r="C37" t="n">
-        <v>25.87</v>
+        <v>22.54</v>
       </c>
       <c r="D37" t="n">
-        <v>21.72</v>
-      </c>
-      <c r="E37" t="n">
-        <v>12.52</v>
-      </c>
-      <c r="F37" t="n">
-        <v>9.285714285714286</v>
+        <v>18.15</v>
       </c>
     </row>
     <row r="38">
@@ -1350,19 +1157,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>20.14</v>
+        <v>18.58</v>
       </c>
       <c r="C38" t="n">
-        <v>25.46</v>
+        <v>22.54</v>
       </c>
       <c r="D38" t="n">
-        <v>22.55</v>
-      </c>
-      <c r="E38" t="n">
-        <v>12.36</v>
-      </c>
-      <c r="F38" t="n">
-        <v>9.074999999999999</v>
+        <v>18.88</v>
       </c>
     </row>
     <row r="39">
@@ -1370,19 +1171,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>20.14</v>
+        <v>17.94</v>
       </c>
       <c r="C39" t="n">
-        <v>24.85</v>
+        <v>22.52</v>
       </c>
       <c r="D39" t="n">
-        <v>23.61</v>
-      </c>
-      <c r="E39" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="F39" t="n">
-        <v>8.800000000000001</v>
+        <v>19.54</v>
       </c>
     </row>
     <row r="40">
@@ -1390,19 +1185,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>20.14</v>
+        <v>17.39</v>
       </c>
       <c r="C40" t="n">
-        <v>24.52</v>
+        <v>22.7</v>
       </c>
       <c r="D40" t="n">
-        <v>24.63</v>
-      </c>
-      <c r="E40" t="n">
-        <v>11.79</v>
-      </c>
-      <c r="F40" t="n">
-        <v>8.559999999999999</v>
+        <v>19.91</v>
       </c>
     </row>
     <row r="41">
@@ -1410,19 +1199,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>20.14</v>
+        <v>16.79</v>
       </c>
       <c r="C41" t="n">
-        <v>24.56</v>
+        <v>22.89</v>
       </c>
       <c r="D41" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="E41" t="n">
-        <v>11.36</v>
-      </c>
-      <c r="F41" t="n">
-        <v>8.559999999999999</v>
+        <v>20.32</v>
       </c>
     </row>
     <row r="42">
@@ -1430,19 +1213,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>20.14</v>
+        <v>17.12</v>
       </c>
       <c r="C42" t="n">
-        <v>24.68</v>
+        <v>23.06</v>
       </c>
       <c r="D42" t="n">
-        <v>26.23</v>
-      </c>
-      <c r="E42" t="n">
-        <v>10.77</v>
-      </c>
-      <c r="F42" t="n">
-        <v>8.18</v>
+        <v>20.82</v>
       </c>
     </row>
     <row r="43">
@@ -1450,19 +1227,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>20.14</v>
+        <v>17.47</v>
       </c>
       <c r="C43" t="n">
-        <v>24.95</v>
+        <v>23.15</v>
       </c>
       <c r="D43" t="n">
-        <v>27.14</v>
-      </c>
-      <c r="E43" t="n">
-        <v>9.970000000000001</v>
-      </c>
-      <c r="F43" t="n">
-        <v>7.8</v>
+        <v>21.38</v>
       </c>
     </row>
     <row r="44">
@@ -1470,19 +1241,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>20.14</v>
+        <v>17.75</v>
       </c>
       <c r="C44" t="n">
-        <v>25.3</v>
+        <v>23.23</v>
       </c>
       <c r="D44" t="n">
-        <v>27.83</v>
-      </c>
-      <c r="E44" t="n">
-        <v>9.33</v>
-      </c>
-      <c r="F44" t="n">
-        <v>7.400000000000001</v>
+        <v>22.01</v>
       </c>
     </row>
     <row r="45">
@@ -1490,19 +1255,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>20.14</v>
+        <v>18.1</v>
       </c>
       <c r="C45" t="n">
-        <v>25.85</v>
+        <v>23.21</v>
       </c>
       <c r="D45" t="n">
-        <v>28.04</v>
-      </c>
-      <c r="E45" t="n">
-        <v>8.970000000000001</v>
-      </c>
-      <c r="F45" t="n">
-        <v>7.000000000000002</v>
+        <v>22.69</v>
       </c>
     </row>
     <row r="46">
@@ -1510,19 +1269,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>20.14</v>
+        <v>18.29</v>
       </c>
       <c r="C46" t="n">
-        <v>25.72</v>
+        <v>23.1</v>
       </c>
       <c r="D46" t="n">
-        <v>28.17</v>
-      </c>
-      <c r="E46" t="n">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="F46" t="n">
-        <v>6.580000000000001</v>
+        <v>23.6</v>
       </c>
     </row>
     <row r="47">
@@ -1530,19 +1283,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>20.14</v>
+        <v>18.47</v>
       </c>
       <c r="C47" t="n">
-        <v>25.27</v>
+        <v>22.98</v>
       </c>
       <c r="D47" t="n">
-        <v>28.32</v>
-      </c>
-      <c r="E47" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="F47" t="n">
-        <v>6.180000000000001</v>
+        <v>24.56</v>
       </c>
     </row>
     <row r="48">
@@ -1550,19 +1297,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>20.14</v>
+        <v>19.23</v>
       </c>
       <c r="C48" t="n">
-        <v>25.05</v>
+        <v>22.86</v>
       </c>
       <c r="D48" t="n">
-        <v>28.05</v>
-      </c>
-      <c r="E48" t="n">
-        <v>11.04</v>
-      </c>
-      <c r="F48" t="n">
-        <v>5.880000000000001</v>
+        <v>24.91</v>
       </c>
     </row>
     <row r="49">
@@ -1570,19 +1311,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>20.14</v>
+        <v>19.89</v>
       </c>
       <c r="C49" t="n">
-        <v>25.22</v>
+        <v>22.88</v>
       </c>
       <c r="D49" t="n">
-        <v>27.46</v>
-      </c>
-      <c r="E49" t="n">
-        <v>11.83</v>
-      </c>
-      <c r="F49" t="n">
-        <v>5.5</v>
+        <v>25.23</v>
       </c>
     </row>
     <row r="50">
@@ -1590,19 +1325,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>20.14</v>
+        <v>20.54</v>
       </c>
       <c r="C50" t="n">
-        <v>24.19</v>
+        <v>22.94</v>
       </c>
       <c r="D50" t="n">
-        <v>27.99</v>
-      </c>
-      <c r="E50" t="n">
-        <v>12.72</v>
-      </c>
-      <c r="F50" t="n">
-        <v>5.118</v>
+        <v>25.52</v>
       </c>
     </row>
     <row r="51">
@@ -1610,19 +1339,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>20.14</v>
+        <v>21.2</v>
       </c>
       <c r="C51" t="n">
-        <v>23.24</v>
+        <v>23.02</v>
       </c>
       <c r="D51" t="n">
-        <v>27.77</v>
-      </c>
-      <c r="E51" t="n">
-        <v>13.67</v>
-      </c>
-      <c r="F51" t="n">
-        <v>5.332</v>
+        <v>25.78</v>
       </c>
     </row>
     <row r="52">
@@ -1630,19 +1353,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>20.14</v>
+        <v>20.9</v>
       </c>
       <c r="C52" t="n">
-        <v>22.62</v>
+        <v>23.11</v>
       </c>
       <c r="D52" t="n">
-        <v>27.46</v>
-      </c>
-      <c r="E52" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="F52" t="n">
-        <v>5.446000000000001</v>
+        <v>25.99</v>
       </c>
     </row>
     <row r="53">
@@ -1650,19 +1367,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>20.14</v>
+        <v>20.18</v>
       </c>
       <c r="C53" t="n">
-        <v>21.83</v>
+        <v>23.62</v>
       </c>
       <c r="D53" t="n">
-        <v>27.16</v>
-      </c>
-      <c r="E53" t="n">
-        <v>15.47</v>
-      </c>
-      <c r="F53" t="n">
-        <v>5.56</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="54">
@@ -1670,19 +1381,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>20.14</v>
+        <v>19.44</v>
       </c>
       <c r="C54" t="n">
-        <v>21.14</v>
+        <v>24.31</v>
       </c>
       <c r="D54" t="n">
-        <v>26.88</v>
-      </c>
-      <c r="E54" t="n">
-        <v>16.36</v>
-      </c>
-      <c r="F54" t="n">
-        <v>5.634</v>
+        <v>26.25</v>
       </c>
     </row>
     <row r="55">
@@ -1690,19 +1395,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>20.14</v>
+        <v>18.67</v>
       </c>
       <c r="C55" t="n">
-        <v>20.37</v>
+        <v>25.04</v>
       </c>
       <c r="D55" t="n">
-        <v>26.71</v>
-      </c>
-      <c r="E55" t="n">
-        <v>17.21</v>
-      </c>
-      <c r="F55" t="n">
-        <v>5.728000000000001</v>
+        <v>26.29</v>
       </c>
     </row>
     <row r="56">
@@ -1710,19 +1409,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>20.14</v>
+        <v>18.05</v>
       </c>
       <c r="C56" t="n">
-        <v>20.61</v>
+        <v>25.86</v>
       </c>
       <c r="D56" t="n">
-        <v>26.79</v>
-      </c>
-      <c r="E56" t="n">
-        <v>16.76</v>
-      </c>
-      <c r="F56" t="n">
-        <v>5.782000000000001</v>
+        <v>26.09</v>
       </c>
     </row>
     <row r="57">
@@ -1730,19 +1423,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>20.14</v>
+        <v>17.55</v>
       </c>
       <c r="C57" t="n">
-        <v>21.17</v>
+        <v>26.67</v>
       </c>
       <c r="D57" t="n">
-        <v>26.88</v>
-      </c>
-      <c r="E57" t="n">
-        <v>15.99</v>
-      </c>
-      <c r="F57" t="n">
-        <v>5.826</v>
+        <v>25.79</v>
       </c>
     </row>
     <row r="58">
@@ -1750,19 +1437,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>20.14</v>
+        <v>17.05</v>
       </c>
       <c r="C58" t="n">
-        <v>20.99</v>
+        <v>27.36</v>
       </c>
       <c r="D58" t="n">
-        <v>27.04</v>
-      </c>
-      <c r="E58" t="n">
-        <v>15.96</v>
-      </c>
-      <c r="F58" t="n">
-        <v>5.869999999999999</v>
+        <v>25.59</v>
       </c>
     </row>
     <row r="59">
@@ -1770,19 +1451,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>20.14</v>
+        <v>16.45</v>
       </c>
       <c r="C59" t="n">
-        <v>20.26</v>
+        <v>27.94</v>
       </c>
       <c r="D59" t="n">
-        <v>27.54</v>
-      </c>
-      <c r="E59" t="n">
-        <v>15.74</v>
-      </c>
-      <c r="F59" t="n">
-        <v>6.314000000000001</v>
+        <v>25.62</v>
       </c>
     </row>
     <row r="60">
@@ -1790,19 +1465,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>20.14</v>
+        <v>15.84</v>
       </c>
       <c r="C60" t="n">
-        <v>21.23</v>
+        <v>28.46</v>
       </c>
       <c r="D60" t="n">
-        <v>26.92</v>
-      </c>
-      <c r="E60" t="n">
-        <v>14.87</v>
-      </c>
-      <c r="F60" t="n">
-        <v>6.85</v>
+        <v>25.7</v>
       </c>
     </row>
     <row r="61">
@@ -1810,19 +1479,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>20.14</v>
+        <v>15.25</v>
       </c>
       <c r="C61" t="n">
-        <v>22.01</v>
+        <v>28.95</v>
       </c>
       <c r="D61" t="n">
-        <v>27.03</v>
-      </c>
-      <c r="E61" t="n">
-        <v>14.02</v>
-      </c>
-      <c r="F61" t="n">
-        <v>6.81</v>
+        <v>25.79</v>
       </c>
     </row>
     <row r="62">
@@ -1830,19 +1493,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>20.14</v>
+        <v>14.58</v>
       </c>
       <c r="C62" t="n">
-        <v>22.47</v>
+        <v>29.45</v>
       </c>
       <c r="D62" t="n">
-        <v>27.24</v>
-      </c>
-      <c r="E62" t="n">
-        <v>13.21</v>
-      </c>
-      <c r="F62" t="n">
-        <v>6.950000000000001</v>
+        <v>25.96</v>
       </c>
     </row>
     <row r="63">
@@ -1850,19 +1507,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>20.14</v>
+        <v>14.33</v>
       </c>
       <c r="C63" t="n">
-        <v>22.61</v>
+        <v>29.48</v>
       </c>
       <c r="D63" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E63" t="n">
-        <v>12.46</v>
-      </c>
-      <c r="F63" t="n">
-        <v>7.090000000000001</v>
+        <v>26.18</v>
       </c>
     </row>
     <row r="64">
@@ -1870,19 +1521,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>20.14</v>
+        <v>14.17</v>
       </c>
       <c r="C64" t="n">
-        <v>22.62</v>
+        <v>29.38</v>
       </c>
       <c r="D64" t="n">
-        <v>28.16</v>
-      </c>
-      <c r="E64" t="n">
-        <v>11.72</v>
-      </c>
-      <c r="F64" t="n">
-        <v>7.35</v>
+        <v>26.45</v>
       </c>
     </row>
     <row r="65">
@@ -1890,19 +1535,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>20.14</v>
+        <v>13.94</v>
       </c>
       <c r="C65" t="n">
-        <v>22.19</v>
+        <v>29.49</v>
       </c>
       <c r="D65" t="n">
-        <v>28.45</v>
-      </c>
-      <c r="E65" t="n">
-        <v>11.62</v>
-      </c>
-      <c r="F65" t="n">
-        <v>7.609999999999999</v>
+        <v>26.57</v>
       </c>
     </row>
     <row r="66">
@@ -1910,19 +1549,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>20.14</v>
+        <v>13.71</v>
       </c>
       <c r="C66" t="n">
-        <v>21.47</v>
+        <v>29.73</v>
       </c>
       <c r="D66" t="n">
-        <v>28.43</v>
-      </c>
-      <c r="E66" t="n">
-        <v>12.04</v>
-      </c>
-      <c r="F66" t="n">
-        <v>7.930000000000001</v>
+        <v>26.56</v>
       </c>
     </row>
     <row r="67">
@@ -1930,19 +1563,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>20.14</v>
+        <v>13.38</v>
       </c>
       <c r="C67" t="n">
-        <v>20.74</v>
+        <v>29.99</v>
       </c>
       <c r="D67" t="n">
-        <v>28.46</v>
-      </c>
-      <c r="E67" t="n">
-        <v>12.44</v>
-      </c>
-      <c r="F67" t="n">
-        <v>8.219999999999999</v>
+        <v>26.63</v>
       </c>
     </row>
     <row r="68">
@@ -1950,19 +1577,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>20.14</v>
+        <v>13.03</v>
       </c>
       <c r="C68" t="n">
-        <v>21.07</v>
+        <v>30.39</v>
       </c>
       <c r="D68" t="n">
-        <v>28.49</v>
-      </c>
-      <c r="E68" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="F68" t="n">
-        <v>8.550000000000001</v>
+        <v>26.58</v>
       </c>
     </row>
     <row r="69">
@@ -1970,19 +1591,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>20.14</v>
+        <v>12.84</v>
       </c>
       <c r="C69" t="n">
-        <v>21.54</v>
+        <v>30.82</v>
       </c>
       <c r="D69" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="E69" t="n">
-        <v>11.32</v>
-      </c>
-      <c r="F69" t="n">
-        <v>8.499999999999998</v>
+        <v>26.34</v>
       </c>
     </row>
     <row r="70">
@@ -1990,19 +1605,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>20.14</v>
+        <v>12.67</v>
       </c>
       <c r="C70" t="n">
-        <v>21.19</v>
+        <v>31.28</v>
       </c>
       <c r="D70" t="n">
-        <v>28.47</v>
-      </c>
-      <c r="E70" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="F70" t="n">
-        <v>8.157999999999998</v>
+        <v>26.05</v>
       </c>
     </row>
     <row r="71">
@@ -2010,19 +1619,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>20.14</v>
+        <v>12.54</v>
       </c>
       <c r="C71" t="n">
-        <v>20.76</v>
+        <v>31.75</v>
       </c>
       <c r="D71" t="n">
-        <v>28.49</v>
-      </c>
-      <c r="E71" t="n">
-        <v>12.77</v>
-      </c>
-      <c r="F71" t="n">
-        <v>7.845999999999999</v>
+        <v>25.72</v>
       </c>
     </row>
     <row r="72">
@@ -2030,19 +1633,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>20.14</v>
+        <v>12.53</v>
       </c>
       <c r="C72" t="n">
-        <v>20.43</v>
+        <v>32.2</v>
       </c>
       <c r="D72" t="n">
-        <v>28.53</v>
-      </c>
-      <c r="E72" t="n">
-        <v>13.44</v>
-      </c>
-      <c r="F72" t="n">
-        <v>7.463999999999999</v>
+        <v>25.27</v>
       </c>
     </row>
     <row r="73">
@@ -2050,19 +1647,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>20.14</v>
+        <v>12.54</v>
       </c>
       <c r="C73" t="n">
-        <v>20.14</v>
+        <v>32.65</v>
       </c>
       <c r="D73" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="E73" t="n">
-        <v>14.12</v>
-      </c>
-      <c r="F73" t="n">
-        <v>7.101999999999999</v>
+        <v>24.8</v>
       </c>
     </row>
     <row r="74">
@@ -2070,19 +1661,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>20.14</v>
+        <v>12.88</v>
       </c>
       <c r="C74" t="n">
-        <v>19.81</v>
+        <v>32.93</v>
       </c>
       <c r="D74" t="n">
-        <v>28.43</v>
-      </c>
-      <c r="E74" t="n">
-        <v>14.92</v>
-      </c>
-      <c r="F74" t="n">
-        <v>6.7</v>
+        <v>24.19</v>
       </c>
     </row>
     <row r="75">
@@ -2090,19 +1675,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>20.14</v>
+        <v>13.27</v>
       </c>
       <c r="C75" t="n">
-        <v>20.02</v>
+        <v>32.89</v>
       </c>
       <c r="D75" t="n">
-        <v>28.44</v>
-      </c>
-      <c r="E75" t="n">
-        <v>15.09</v>
-      </c>
-      <c r="F75" t="n">
-        <v>6.302999999999999</v>
+        <v>23.85</v>
       </c>
     </row>
     <row r="76">
@@ -2110,19 +1689,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>20.14</v>
+        <v>13.68</v>
       </c>
       <c r="C76" t="n">
-        <v>20.3</v>
+        <v>32.65</v>
       </c>
       <c r="D76" t="n">
-        <v>28.49</v>
-      </c>
-      <c r="E76" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="F76" t="n">
-        <v>5.886000000000001</v>
+        <v>23.67</v>
       </c>
     </row>
     <row r="77">
@@ -2130,19 +1703,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>20.14</v>
+        <v>13.94</v>
       </c>
       <c r="C77" t="n">
-        <v>20.66</v>
+        <v>32.43</v>
       </c>
       <c r="D77" t="n">
-        <v>28.41</v>
-      </c>
-      <c r="E77" t="n">
-        <v>15.29</v>
-      </c>
-      <c r="F77" t="n">
-        <v>5.509</v>
+        <v>23.63</v>
       </c>
     </row>
     <row r="78">
@@ -2150,19 +1717,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>20.14</v>
+        <v>14.2</v>
       </c>
       <c r="C78" t="n">
-        <v>21.26</v>
+        <v>32.45</v>
       </c>
       <c r="D78" t="n">
-        <v>27.71</v>
-      </c>
-      <c r="E78" t="n">
-        <v>15.74</v>
-      </c>
-      <c r="F78" t="n">
-        <v>5.152</v>
+        <v>23.35</v>
       </c>
     </row>
     <row r="79">
@@ -2170,19 +1731,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>20.14</v>
+        <v>14.66</v>
       </c>
       <c r="C79" t="n">
-        <v>22.02</v>
+        <v>32.43</v>
       </c>
       <c r="D79" t="n">
-        <v>26.82</v>
-      </c>
-      <c r="E79" t="n">
-        <v>16.18</v>
-      </c>
-      <c r="F79" t="n">
-        <v>4.834999999999999</v>
+        <v>22.91</v>
       </c>
     </row>
     <row r="80">
@@ -2190,19 +1745,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>20.14</v>
+        <v>15.11</v>
       </c>
       <c r="C80" t="n">
-        <v>22.85</v>
+        <v>32.39</v>
       </c>
       <c r="D80" t="n">
-        <v>25.99</v>
-      </c>
-      <c r="E80" t="n">
-        <v>16.16</v>
-      </c>
-      <c r="F80" t="n">
-        <v>4.859999999999999</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="81">
@@ -2210,19 +1759,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>20.14</v>
+        <v>15.51</v>
       </c>
       <c r="C81" t="n">
-        <v>23.71</v>
+        <v>32.39</v>
       </c>
       <c r="D81" t="n">
-        <v>25.16</v>
-      </c>
-      <c r="E81" t="n">
-        <v>16.15</v>
-      </c>
-      <c r="F81" t="n">
-        <v>4.835</v>
+        <v>22.09</v>
       </c>
     </row>
     <row r="82">
@@ -2230,19 +1773,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>20.14</v>
+        <v>15.77</v>
       </c>
       <c r="C82" t="n">
-        <v>24.62</v>
+        <v>32.54</v>
       </c>
       <c r="D82" t="n">
-        <v>24.23</v>
-      </c>
-      <c r="E82" t="n">
-        <v>16.19</v>
-      </c>
-      <c r="F82" t="n">
-        <v>4.82</v>
+        <v>21.7</v>
       </c>
     </row>
     <row r="83">
@@ -2250,19 +1787,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>20.14</v>
+        <v>16.01</v>
       </c>
       <c r="C83" t="n">
-        <v>25.77</v>
+        <v>32.65</v>
       </c>
       <c r="D83" t="n">
-        <v>23.12</v>
-      </c>
-      <c r="E83" t="n">
-        <v>16.23</v>
-      </c>
-      <c r="F83" t="n">
-        <v>4.745</v>
+        <v>21.35</v>
       </c>
     </row>
     <row r="84">
@@ -2270,19 +1801,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>20.14</v>
+        <v>15.84</v>
       </c>
       <c r="C84" t="n">
-        <v>27.06</v>
+        <v>33.02</v>
       </c>
       <c r="D84" t="n">
-        <v>22.01</v>
-      </c>
-      <c r="E84" t="n">
-        <v>16.15</v>
-      </c>
-      <c r="F84" t="n">
-        <v>4.659999999999999</v>
+        <v>21.14</v>
       </c>
     </row>
     <row r="85">
@@ -2290,19 +1815,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>20.14</v>
+        <v>15.68</v>
       </c>
       <c r="C85" t="n">
-        <v>27.93</v>
+        <v>33.69</v>
       </c>
       <c r="D85" t="n">
-        <v>20.88</v>
-      </c>
-      <c r="E85" t="n">
-        <v>16.08</v>
-      </c>
-      <c r="F85" t="n">
-        <v>4.996999999999998</v>
+        <v>20.63</v>
       </c>
     </row>
     <row r="86">
@@ -2310,19 +1829,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>20.14</v>
+        <v>15.51</v>
       </c>
       <c r="C86" t="n">
-        <v>28.8</v>
+        <v>34.36</v>
       </c>
       <c r="D86" t="n">
-        <v>19.74</v>
-      </c>
-      <c r="E86" t="n">
-        <v>16.03</v>
-      </c>
-      <c r="F86" t="n">
-        <v>5.333999999999999</v>
+        <v>20.13</v>
       </c>
     </row>
     <row r="87">
@@ -2330,19 +1843,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>20.14</v>
+        <v>15.47</v>
       </c>
       <c r="C87" t="n">
-        <v>29.56</v>
+        <v>35.06</v>
       </c>
       <c r="D87" t="n">
-        <v>18.66</v>
-      </c>
-      <c r="E87" t="n">
-        <v>15.98</v>
-      </c>
-      <c r="F87" t="n">
-        <v>5.711</v>
+        <v>19.47</v>
       </c>
     </row>
     <row r="88">
@@ -2350,19 +1857,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>20.14</v>
+        <v>15.45</v>
       </c>
       <c r="C88" t="n">
-        <v>29.42</v>
+        <v>35.47</v>
       </c>
       <c r="D88" t="n">
-        <v>18.52</v>
-      </c>
-      <c r="E88" t="n">
-        <v>15.94</v>
-      </c>
-      <c r="F88" t="n">
-        <v>6.028</v>
+        <v>19.08</v>
       </c>
     </row>
     <row r="89">
@@ -2370,19 +1871,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>20.14</v>
+        <v>15.24</v>
       </c>
       <c r="C89" t="n">
-        <v>29.16</v>
+        <v>35.88</v>
       </c>
       <c r="D89" t="n">
-        <v>18.51</v>
-      </c>
-      <c r="E89" t="n">
-        <v>15.88</v>
-      </c>
-      <c r="F89" t="n">
-        <v>6.365</v>
+        <v>18.87</v>
       </c>
     </row>
     <row r="90">
@@ -2390,19 +1885,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>20.14</v>
+        <v>15.08</v>
       </c>
       <c r="C90" t="n">
-        <v>28.4</v>
+        <v>36.28</v>
       </c>
       <c r="D90" t="n">
-        <v>18.46</v>
-      </c>
-      <c r="E90" t="n">
-        <v>16.41</v>
-      </c>
-      <c r="F90" t="n">
-        <v>6.642</v>
+        <v>18.65</v>
       </c>
     </row>
     <row r="91">
@@ -2410,19 +1899,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>20.14</v>
+        <v>14.92</v>
       </c>
       <c r="C91" t="n">
-        <v>26.93</v>
+        <v>36.63</v>
       </c>
       <c r="D91" t="n">
-        <v>19.11</v>
-      </c>
-      <c r="E91" t="n">
-        <v>16.94</v>
-      </c>
-      <c r="F91" t="n">
-        <v>6.928999999999999</v>
+        <v>18.45</v>
       </c>
     </row>
     <row r="92">
@@ -2430,19 +1913,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>20.14</v>
+        <v>14.8</v>
       </c>
       <c r="C92" t="n">
-        <v>25.52</v>
+        <v>36.91</v>
       </c>
       <c r="D92" t="n">
-        <v>19.68</v>
-      </c>
-      <c r="E92" t="n">
-        <v>17.49</v>
-      </c>
-      <c r="F92" t="n">
-        <v>7.216000000000001</v>
+        <v>18.29</v>
       </c>
     </row>
     <row r="93">
@@ -2450,19 +1927,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>20.14</v>
+        <v>14.72</v>
       </c>
       <c r="C93" t="n">
-        <v>24.97</v>
+        <v>37.21</v>
       </c>
       <c r="D93" t="n">
-        <v>20.23</v>
-      </c>
-      <c r="E93" t="n">
-        <v>17.14</v>
-      </c>
-      <c r="F93" t="n">
-        <v>7.563</v>
+        <v>18.07</v>
       </c>
     </row>
     <row r="94">
@@ -2470,19 +1941,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>20.14</v>
+        <v>14.72</v>
       </c>
       <c r="C94" t="n">
-        <v>24.52</v>
+        <v>37.45</v>
       </c>
       <c r="D94" t="n">
-        <v>20.76</v>
-      </c>
-      <c r="E94" t="n">
-        <v>16.71</v>
-      </c>
-      <c r="F94" t="n">
-        <v>7.9</v>
+        <v>17.83</v>
       </c>
     </row>
     <row r="95">
@@ -2490,19 +1955,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>20.14</v>
+        <v>14.96</v>
       </c>
       <c r="C95" t="n">
-        <v>24.26</v>
+        <v>37.49</v>
       </c>
       <c r="D95" t="n">
-        <v>21.31</v>
-      </c>
-      <c r="E95" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="F95" t="n">
-        <v>7.92</v>
+        <v>17.55</v>
       </c>
     </row>
     <row r="96">
@@ -2510,19 +1969,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>20.14</v>
+        <v>15.21</v>
       </c>
       <c r="C96" t="n">
-        <v>24.03</v>
+        <v>37.46</v>
       </c>
       <c r="D96" t="n">
-        <v>21.81</v>
-      </c>
-      <c r="E96" t="n">
-        <v>16.07</v>
-      </c>
-      <c r="F96" t="n">
-        <v>7.959999999999999</v>
+        <v>17.33</v>
       </c>
     </row>
     <row r="97">
@@ -2530,19 +1983,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>20.14</v>
+        <v>15.47</v>
       </c>
       <c r="C97" t="n">
-        <v>23.74</v>
+        <v>37.5</v>
       </c>
       <c r="D97" t="n">
-        <v>22.73</v>
-      </c>
-      <c r="E97" t="n">
-        <v>15.43</v>
-      </c>
-      <c r="F97" t="n">
-        <v>7.959999999999999</v>
+        <v>17.03</v>
       </c>
     </row>
     <row r="98">
@@ -2550,19 +1997,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>20.14</v>
+        <v>15.77</v>
       </c>
       <c r="C98" t="n">
-        <v>23.95</v>
+        <v>37.54</v>
       </c>
       <c r="D98" t="n">
-        <v>23.25</v>
-      </c>
-      <c r="E98" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="F98" t="n">
-        <v>7.94</v>
+        <v>16.69</v>
       </c>
     </row>
     <row r="99">
@@ -2570,19 +2011,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>20.14</v>
+        <v>16.05</v>
       </c>
       <c r="C99" t="n">
-        <v>24.14</v>
+        <v>37.56</v>
       </c>
       <c r="D99" t="n">
-        <v>23.77</v>
-      </c>
-      <c r="E99" t="n">
-        <v>14.04</v>
-      </c>
-      <c r="F99" t="n">
-        <v>7.909999999999998</v>
+        <v>16.39</v>
       </c>
     </row>
     <row r="100">
@@ -2590,19 +2025,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>20.14</v>
+        <v>16.31</v>
       </c>
       <c r="C100" t="n">
-        <v>24.82</v>
+        <v>37.6</v>
       </c>
       <c r="D100" t="n">
-        <v>24.33</v>
-      </c>
-      <c r="E100" t="n">
-        <v>12.81</v>
-      </c>
-      <c r="F100" t="n">
-        <v>7.899999999999999</v>
+        <v>16.1</v>
       </c>
     </row>
     <row r="101">
@@ -2610,19 +2039,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>20.14</v>
+        <v>16.43</v>
       </c>
       <c r="C101" t="n">
-        <v>25.65</v>
+        <v>37.65</v>
       </c>
       <c r="D101" t="n">
-        <v>24.77</v>
-      </c>
-      <c r="E101" t="n">
-        <v>11.54</v>
-      </c>
-      <c r="F101" t="n">
-        <v>7.899999999999999</v>
+        <v>15.94</v>
       </c>
     </row>
     <row r="102">
@@ -2630,19 +2053,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>20.14</v>
+        <v>16.56</v>
       </c>
       <c r="C102" t="n">
-        <v>26.41</v>
+        <v>37.66</v>
       </c>
       <c r="D102" t="n">
-        <v>25.31</v>
-      </c>
-      <c r="E102" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="F102" t="n">
-        <v>7.88</v>
+        <v>15.81</v>
       </c>
     </row>
     <row r="103">
@@ -2650,19 +2067,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>20.14</v>
+        <v>16.63</v>
       </c>
       <c r="C103" t="n">
-        <v>26.39</v>
+        <v>37.69</v>
       </c>
       <c r="D103" t="n">
-        <v>25.77</v>
-      </c>
-      <c r="E103" t="n">
-        <v>9.859999999999999</v>
-      </c>
-      <c r="F103" t="n">
-        <v>7.840000000000001</v>
+        <v>15.72</v>
       </c>
     </row>
     <row r="104">
@@ -2670,19 +2081,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>20.14</v>
+        <v>16.75</v>
       </c>
       <c r="C104" t="n">
-        <v>26.34</v>
+        <v>37.68</v>
       </c>
       <c r="D104" t="n">
-        <v>26.16</v>
-      </c>
-      <c r="E104" t="n">
-        <v>9.539999999999999</v>
-      </c>
-      <c r="F104" t="n">
-        <v>7.819999999999999</v>
+        <v>15.62</v>
       </c>
     </row>
     <row r="105">
@@ -2690,19 +2095,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>20.14</v>
+        <v>16.51</v>
       </c>
       <c r="C105" t="n">
-        <v>26.63</v>
+        <v>37.66</v>
       </c>
       <c r="D105" t="n">
-        <v>26.47</v>
-      </c>
-      <c r="E105" t="n">
-        <v>9.09</v>
-      </c>
-      <c r="F105" t="n">
-        <v>7.669999999999999</v>
+        <v>15.88</v>
       </c>
     </row>
     <row r="106">
@@ -2710,19 +2109,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>20.14</v>
+        <v>16.28</v>
       </c>
       <c r="C106" t="n">
-        <v>26.95</v>
+        <v>37.68</v>
       </c>
       <c r="D106" t="n">
-        <v>26.78</v>
-      </c>
-      <c r="E106" t="n">
-        <v>8.630000000000001</v>
-      </c>
-      <c r="F106" t="n">
-        <v>7.5</v>
+        <v>16.09</v>
       </c>
     </row>
     <row r="107">
@@ -2730,19 +2123,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>20.14</v>
+        <v>16.13</v>
       </c>
       <c r="C107" t="n">
-        <v>27.33</v>
+        <v>37.54</v>
       </c>
       <c r="D107" t="n">
-        <v>26.75</v>
-      </c>
-      <c r="E107" t="n">
-        <v>8.49</v>
-      </c>
-      <c r="F107" t="n">
-        <v>7.289999999999999</v>
+        <v>16.38</v>
       </c>
     </row>
     <row r="108">
@@ -2750,19 +2137,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>20.14</v>
+        <v>15.93</v>
       </c>
       <c r="C108" t="n">
-        <v>26.53</v>
+        <v>37.51</v>
       </c>
       <c r="D108" t="n">
-        <v>27.84</v>
-      </c>
-      <c r="E108" t="n">
-        <v>8.35</v>
-      </c>
-      <c r="F108" t="n">
-        <v>7.139999999999999</v>
+        <v>16.61</v>
       </c>
     </row>
     <row r="109">
@@ -2770,19 +2151,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>20.14</v>
+        <v>15.73</v>
       </c>
       <c r="C109" t="n">
-        <v>25.84</v>
+        <v>37.5</v>
       </c>
       <c r="D109" t="n">
-        <v>28.93</v>
-      </c>
-      <c r="E109" t="n">
-        <v>8.19</v>
-      </c>
-      <c r="F109" t="n">
-        <v>6.9</v>
+        <v>16.82</v>
       </c>
     </row>
     <row r="110">
@@ -2790,19 +2165,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>20.14</v>
+        <v>15.52</v>
       </c>
       <c r="C110" t="n">
-        <v>24.87</v>
+        <v>37.48</v>
       </c>
       <c r="D110" t="n">
-        <v>30.05</v>
-      </c>
-      <c r="E110" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="F110" t="n">
-        <v>6.640000000000001</v>
+        <v>17.04</v>
       </c>
     </row>
     <row r="111">
@@ -2810,19 +2179,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>20.14</v>
+        <v>15.48</v>
       </c>
       <c r="C111" t="n">
-        <v>23.93</v>
+        <v>37.45</v>
       </c>
       <c r="D111" t="n">
-        <v>30.58</v>
-      </c>
-      <c r="E111" t="n">
-        <v>8.449999999999999</v>
-      </c>
-      <c r="F111" t="n">
-        <v>6.904000000000001</v>
+        <v>17.1</v>
       </c>
     </row>
     <row r="112">
@@ -2830,19 +2193,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>20.14</v>
+        <v>15.46</v>
       </c>
       <c r="C112" t="n">
-        <v>21.48</v>
+        <v>37.4</v>
       </c>
       <c r="D112" t="n">
-        <v>32.58</v>
-      </c>
-      <c r="E112" t="n">
-        <v>8.609999999999999</v>
-      </c>
-      <c r="F112" t="n">
-        <v>7.188</v>
+        <v>17.16</v>
       </c>
     </row>
     <row r="113">
@@ -2850,19 +2207,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>20.14</v>
+        <v>15.45</v>
       </c>
       <c r="C113" t="n">
-        <v>18.9</v>
+        <v>37.31</v>
       </c>
       <c r="D113" t="n">
-        <v>34.67</v>
-      </c>
-      <c r="E113" t="n">
-        <v>8.77</v>
-      </c>
-      <c r="F113" t="n">
-        <v>7.522</v>
+        <v>17.24</v>
       </c>
     </row>
     <row r="114">
@@ -2870,19 +2221,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>20.14</v>
+        <v>15.33</v>
       </c>
       <c r="C114" t="n">
-        <v>20.17</v>
+        <v>37.21</v>
       </c>
       <c r="D114" t="n">
-        <v>36.87</v>
-      </c>
-      <c r="E114" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="F114" t="n">
-        <v>7.916000000000001</v>
+        <v>17.45</v>
       </c>
     </row>
     <row r="115">
@@ -2890,19 +2235,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>20.14</v>
+        <v>15.28</v>
       </c>
       <c r="C115" t="n">
-        <v>21.24</v>
+        <v>37.11</v>
       </c>
       <c r="D115" t="n">
-        <v>39.23</v>
-      </c>
-      <c r="E115" t="n">
-        <v>9.07</v>
-      </c>
-      <c r="F115" t="n">
-        <v>8.32</v>
+        <v>17.62</v>
       </c>
     </row>
     <row r="116">
@@ -2910,19 +2249,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>20.14</v>
+        <v>15.2</v>
       </c>
       <c r="C116" t="n">
-        <v>22.31</v>
+        <v>37.01</v>
       </c>
       <c r="D116" t="n">
-        <v>41.59</v>
-      </c>
-      <c r="E116" t="n">
-        <v>9.24</v>
-      </c>
-      <c r="F116" t="n">
-        <v>8.724</v>
+        <v>17.79</v>
       </c>
     </row>
     <row r="117">
@@ -2930,19 +2263,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>20.14</v>
+        <v>15.14</v>
       </c>
       <c r="C117" t="n">
-        <v>23.43</v>
+        <v>36.96</v>
       </c>
       <c r="D117" t="n">
-        <v>43.87</v>
-      </c>
-      <c r="E117" t="n">
-        <v>9.390000000000001</v>
-      </c>
-      <c r="F117" t="n">
-        <v>9.167999999999999</v>
+        <v>17.9</v>
       </c>
     </row>
     <row r="118">
@@ -2950,19 +2277,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>20.14</v>
+        <v>15.11</v>
       </c>
       <c r="C118" t="n">
-        <v>25.44</v>
+        <v>36.83</v>
       </c>
       <c r="D118" t="n">
-        <v>45.05</v>
-      </c>
-      <c r="E118" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="F118" t="n">
-        <v>9.762</v>
+        <v>18.06</v>
       </c>
     </row>
     <row r="119">
@@ -2970,19 +2291,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>20.14</v>
+        <v>15.03</v>
       </c>
       <c r="C119" t="n">
-        <v>27.18</v>
+        <v>36.67</v>
       </c>
       <c r="D119" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="E119" t="n">
-        <v>9.93</v>
-      </c>
-      <c r="F119" t="n">
-        <v>10.446</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="120">
@@ -2990,19 +2305,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>20.14</v>
+        <v>14.99</v>
       </c>
       <c r="C120" t="n">
-        <v>29.25</v>
+        <v>36.49</v>
       </c>
       <c r="D120" t="n">
-        <v>47.54</v>
-      </c>
-      <c r="E120" t="n">
-        <v>9.94</v>
-      </c>
-      <c r="F120" t="n">
-        <v>11.13</v>
+        <v>18.52</v>
       </c>
     </row>
     <row r="121">
@@ -3010,19 +2319,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>20.14</v>
+        <v>14.92</v>
       </c>
       <c r="C121" t="n">
-        <v>31.87</v>
+        <v>36.31</v>
       </c>
       <c r="D121" t="n">
-        <v>48.79</v>
-      </c>
-      <c r="E121" t="n">
-        <v>9.91</v>
-      </c>
-      <c r="F121" t="n">
-        <v>11.29</v>
+        <v>18.77</v>
       </c>
     </row>
     <row r="122">
@@ -3030,19 +2333,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>20.14</v>
+        <v>14.94</v>
       </c>
       <c r="C122" t="n">
-        <v>35.08</v>
+        <v>36.14</v>
       </c>
       <c r="D122" t="n">
-        <v>48.65</v>
-      </c>
-      <c r="E122" t="n">
-        <v>10.76</v>
-      </c>
-      <c r="F122" t="n">
-        <v>11.37</v>
+        <v>18.92</v>
       </c>
     </row>
     <row r="123">
@@ -3050,19 +2347,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>20.14</v>
+        <v>15.26</v>
       </c>
       <c r="C123" t="n">
-        <v>38.27</v>
+        <v>35.8</v>
       </c>
       <c r="D123" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="E123" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="F123" t="n">
-        <v>11.4</v>
+        <v>18.94</v>
       </c>
     </row>
     <row r="124">
@@ -3070,19 +2361,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>20.14</v>
+        <v>15.64</v>
       </c>
       <c r="C124" t="n">
-        <v>37.44</v>
+        <v>35.46</v>
       </c>
       <c r="D124" t="n">
-        <v>48.37</v>
-      </c>
-      <c r="E124" t="n">
-        <v>12.68</v>
-      </c>
-      <c r="F124" t="n">
-        <v>11.37</v>
+        <v>18.9</v>
       </c>
     </row>
     <row r="125">
@@ -3090,19 +2375,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>20.14</v>
+        <v>16.06</v>
       </c>
       <c r="C125" t="n">
-        <v>36.71</v>
+        <v>35.17</v>
       </c>
       <c r="D125" t="n">
-        <v>48.15</v>
-      </c>
-      <c r="E125" t="n">
-        <v>13.65</v>
-      </c>
-      <c r="F125" t="n">
-        <v>11.35</v>
+        <v>18.77</v>
       </c>
     </row>
     <row r="126">
@@ -3110,19 +2389,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>20.14</v>
+        <v>16.49</v>
       </c>
       <c r="C126" t="n">
-        <v>35.74</v>
+        <v>34.88</v>
       </c>
       <c r="D126" t="n">
-        <v>48.18</v>
-      </c>
-      <c r="E126" t="n">
-        <v>14.61</v>
-      </c>
-      <c r="F126" t="n">
-        <v>11.33</v>
+        <v>18.63</v>
       </c>
     </row>
     <row r="127">
@@ -3130,19 +2403,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>20.14</v>
+        <v>16.82</v>
       </c>
       <c r="C127" t="n">
-        <v>34.87</v>
+        <v>34.6</v>
       </c>
       <c r="D127" t="n">
-        <v>48.17</v>
-      </c>
-      <c r="E127" t="n">
-        <v>15.57</v>
-      </c>
-      <c r="F127" t="n">
-        <v>11.25</v>
+        <v>18.59</v>
       </c>
     </row>
     <row r="128">
@@ -3150,19 +2417,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>20.14</v>
+        <v>17.19</v>
       </c>
       <c r="C128" t="n">
-        <v>34.04</v>
+        <v>34.27</v>
       </c>
       <c r="D128" t="n">
-        <v>48.22</v>
-      </c>
-      <c r="E128" t="n">
-        <v>16.54</v>
-      </c>
-      <c r="F128" t="n">
-        <v>11.02</v>
+        <v>18.54</v>
       </c>
     </row>
     <row r="129">
@@ -3170,19 +2431,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>20.14</v>
+        <v>17.55</v>
       </c>
       <c r="C129" t="n">
-        <v>33.26</v>
+        <v>34.01</v>
       </c>
       <c r="D129" t="n">
-        <v>48.27</v>
-      </c>
-      <c r="E129" t="n">
-        <v>17.45</v>
-      </c>
-      <c r="F129" t="n">
-        <v>10.8</v>
+        <v>18.43</v>
       </c>
     </row>
     <row r="130">
@@ -3190,19 +2445,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>20.14</v>
+        <v>17.96</v>
       </c>
       <c r="C130" t="n">
-        <v>32.47</v>
+        <v>33.76</v>
       </c>
       <c r="D130" t="n">
-        <v>48.34</v>
-      </c>
-      <c r="E130" t="n">
-        <v>18.35</v>
-      </c>
-      <c r="F130" t="n">
-        <v>10.58</v>
+        <v>18.27</v>
       </c>
     </row>
     <row r="131">
@@ -3210,19 +2459,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>20.14</v>
+        <v>18.1</v>
       </c>
       <c r="C131" t="n">
-        <v>31.65</v>
+        <v>33.53</v>
       </c>
       <c r="D131" t="n">
-        <v>48.42</v>
-      </c>
-      <c r="E131" t="n">
-        <v>19.29</v>
-      </c>
-      <c r="F131" t="n">
-        <v>10.34</v>
+        <v>18.37</v>
       </c>
     </row>
     <row r="132">
@@ -3230,19 +2473,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>20.14</v>
+        <v>18.09</v>
       </c>
       <c r="C132" t="n">
-        <v>31.65</v>
+        <v>33.38</v>
       </c>
       <c r="D132" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="E132" t="n">
-        <v>19.33</v>
-      </c>
-      <c r="F132" t="n">
-        <v>10.18</v>
+        <v>18.53</v>
       </c>
     </row>
     <row r="133">
@@ -3250,19 +2487,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>20.14</v>
+        <v>17.81</v>
       </c>
       <c r="C133" t="n">
-        <v>32.03</v>
+        <v>33.43</v>
       </c>
       <c r="D133" t="n">
-        <v>48.64</v>
-      </c>
-      <c r="E133" t="n">
-        <v>18.97</v>
-      </c>
-      <c r="F133" t="n">
-        <v>10.02</v>
+        <v>18.76</v>
       </c>
     </row>
     <row r="134">
@@ -3270,19 +2501,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>20.14</v>
+        <v>17.59</v>
       </c>
       <c r="C134" t="n">
-        <v>32.56</v>
+        <v>33.48</v>
       </c>
       <c r="D134" t="n">
-        <v>48.77</v>
-      </c>
-      <c r="E134" t="n">
-        <v>18.55</v>
-      </c>
-      <c r="F134" t="n">
-        <v>9.779999999999998</v>
+        <v>18.93</v>
       </c>
     </row>
     <row r="135">
@@ -3290,19 +2515,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>20.14</v>
+        <v>17.38</v>
       </c>
       <c r="C135" t="n">
-        <v>32.55</v>
+        <v>33.12</v>
       </c>
       <c r="D135" t="n">
-        <v>49.45</v>
-      </c>
-      <c r="E135" t="n">
-        <v>18.13</v>
-      </c>
-      <c r="F135" t="n">
-        <v>9.540000000000001</v>
+        <v>19.49</v>
       </c>
     </row>
     <row r="136">
@@ -3310,19 +2529,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>20.14</v>
+        <v>17.18</v>
       </c>
       <c r="C136" t="n">
-        <v>32.67</v>
+        <v>32.78</v>
       </c>
       <c r="D136" t="n">
-        <v>49.91</v>
-      </c>
-      <c r="E136" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="F136" t="n">
-        <v>9.379999999999999</v>
+        <v>20.04</v>
       </c>
     </row>
     <row r="137">
@@ -3330,19 +2543,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>20.14</v>
+        <v>16.96</v>
       </c>
       <c r="C137" t="n">
-        <v>32.38</v>
+        <v>32.45</v>
       </c>
       <c r="D137" t="n">
-        <v>51.08</v>
-      </c>
-      <c r="E137" t="n">
-        <v>17.01</v>
-      </c>
-      <c r="F137" t="n">
-        <v>9.199999999999999</v>
+        <v>20.6</v>
       </c>
     </row>
     <row r="138">
@@ -3350,19 +2557,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>20.14</v>
+        <v>16.55</v>
       </c>
       <c r="C138" t="n">
-        <v>32.17</v>
+        <v>32.11</v>
       </c>
       <c r="D138" t="n">
-        <v>52.18</v>
-      </c>
-      <c r="E138" t="n">
-        <v>16.32</v>
-      </c>
-      <c r="F138" t="n">
-        <v>9.030000000000001</v>
+        <v>21.34</v>
       </c>
     </row>
     <row r="139">
@@ -3370,19 +2571,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>20.14</v>
+        <v>16.19</v>
       </c>
       <c r="C139" t="n">
-        <v>32.14</v>
+        <v>31.77</v>
       </c>
       <c r="D139" t="n">
-        <v>53.27</v>
-      </c>
-      <c r="E139" t="n">
-        <v>15.59</v>
-      </c>
-      <c r="F139" t="n">
-        <v>8.74</v>
+        <v>22.04</v>
       </c>
     </row>
     <row r="140">
@@ -3390,19 +2585,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>20.14</v>
+        <v>15.72</v>
       </c>
       <c r="C140" t="n">
-        <v>32.12</v>
+        <v>31.45</v>
       </c>
       <c r="D140" t="n">
-        <v>54.34</v>
-      </c>
-      <c r="E140" t="n">
-        <v>14.85</v>
-      </c>
-      <c r="F140" t="n">
-        <v>8.470000000000002</v>
+        <v>22.83</v>
       </c>
     </row>
     <row r="141">
@@ -3410,19 +2599,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>20.14</v>
+        <v>15.52</v>
       </c>
       <c r="C141" t="n">
-        <v>32.08</v>
+        <v>31.11</v>
       </c>
       <c r="D141" t="n">
-        <v>55.45</v>
-      </c>
-      <c r="E141" t="n">
-        <v>14.09</v>
-      </c>
-      <c r="F141" t="n">
-        <v>8.200000000000001</v>
+        <v>23.38</v>
       </c>
     </row>
     <row r="142">
@@ -3430,19 +2613,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>20.14</v>
+        <v>15.36</v>
       </c>
       <c r="C142" t="n">
-        <v>32.23</v>
+        <v>30.66</v>
       </c>
       <c r="D142" t="n">
-        <v>56.57</v>
-      </c>
-      <c r="E142" t="n">
-        <v>13.35</v>
-      </c>
-      <c r="F142" t="n">
-        <v>7.710000000000001</v>
+        <v>23.98</v>
       </c>
     </row>
     <row r="143">
@@ -3450,19 +2627,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>20.14</v>
+        <v>15.25</v>
       </c>
       <c r="C143" t="n">
-        <v>32.12</v>
+        <v>30.23</v>
       </c>
       <c r="D143" t="n">
-        <v>57.56</v>
-      </c>
-      <c r="E143" t="n">
-        <v>12.93</v>
-      </c>
-      <c r="F143" t="n">
-        <v>7.24</v>
+        <v>24.53</v>
       </c>
     </row>
     <row r="144">
@@ -3470,19 +2641,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>20.14</v>
+        <v>15</v>
       </c>
       <c r="C144" t="n">
-        <v>32.37</v>
+        <v>29.88</v>
       </c>
       <c r="D144" t="n">
-        <v>58.35</v>
-      </c>
-      <c r="E144" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="F144" t="n">
-        <v>6.85</v>
+        <v>25.12</v>
       </c>
     </row>
     <row r="145">
@@ -3490,19 +2655,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>20.14</v>
+        <v>14.77</v>
       </c>
       <c r="C145" t="n">
-        <v>32.53</v>
+        <v>29.89</v>
       </c>
       <c r="D145" t="n">
-        <v>59.6</v>
-      </c>
-      <c r="E145" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="F145" t="n">
-        <v>6.380000000000001</v>
+        <v>25.34</v>
       </c>
     </row>
     <row r="146">
@@ -3510,19 +2669,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>20.14</v>
+        <v>14.47</v>
       </c>
       <c r="C146" t="n">
-        <v>32.63</v>
+        <v>30.05</v>
       </c>
       <c r="D146" t="n">
-        <v>60.91</v>
-      </c>
-      <c r="E146" t="n">
-        <v>10.43</v>
-      </c>
-      <c r="F146" t="n">
-        <v>5.89</v>
+        <v>25.48</v>
       </c>
     </row>
     <row r="147">
@@ -3530,19 +2683,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>20.14</v>
+        <v>14.21</v>
       </c>
       <c r="C147" t="n">
-        <v>33.05</v>
+        <v>30.19</v>
       </c>
       <c r="D147" t="n">
-        <v>61.56</v>
-      </c>
-      <c r="E147" t="n">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="F147" t="n">
-        <v>5.46</v>
+        <v>25.6</v>
       </c>
     </row>
     <row r="148">
@@ -3550,19 +2697,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>20.14</v>
+        <v>14.16</v>
       </c>
       <c r="C148" t="n">
-        <v>33</v>
+        <v>30.34</v>
       </c>
       <c r="D148" t="n">
-        <v>62.19</v>
-      </c>
-      <c r="E148" t="n">
-        <v>9.130000000000001</v>
-      </c>
-      <c r="F148" t="n">
-        <v>5.538000000000001</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="149">
@@ -3570,19 +2711,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>20.14</v>
+        <v>14.12</v>
       </c>
       <c r="C149" t="n">
-        <v>32.79</v>
+        <v>30.47</v>
       </c>
       <c r="D149" t="n">
-        <v>62.89</v>
-      </c>
-      <c r="E149" t="n">
-        <v>8.48</v>
-      </c>
-      <c r="F149" t="n">
-        <v>5.696000000000001</v>
+        <v>25.43</v>
       </c>
     </row>
     <row r="150">
@@ -3590,19 +2725,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>20.14</v>
+        <v>14.11</v>
       </c>
       <c r="C150" t="n">
-        <v>32.71</v>
+        <v>30.62</v>
       </c>
       <c r="D150" t="n">
-        <v>63.6</v>
-      </c>
-      <c r="E150" t="n">
-        <v>7.85</v>
-      </c>
-      <c r="F150" t="n">
-        <v>5.704</v>
+        <v>25.31</v>
       </c>
     </row>
     <row r="151">
@@ -3610,19 +2739,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>20.14</v>
+        <v>15.23</v>
       </c>
       <c r="C151" t="n">
-        <v>32.61</v>
+        <v>29.66</v>
       </c>
       <c r="D151" t="n">
-        <v>64.34999999999999</v>
-      </c>
-      <c r="E151" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="F151" t="n">
-        <v>5.731999999999999</v>
+        <v>25.14</v>
       </c>
     </row>
     <row r="152">
@@ -3630,19 +2753,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>20.14</v>
+        <v>16.36</v>
       </c>
       <c r="C152" t="n">
-        <v>32.21</v>
+        <v>28.75</v>
       </c>
       <c r="D152" t="n">
-        <v>65.26000000000001</v>
-      </c>
-      <c r="E152" t="n">
-        <v>6.41</v>
-      </c>
-      <c r="F152" t="n">
-        <v>5.98</v>
+        <v>24.93</v>
       </c>
     </row>
     <row r="153">
@@ -3650,19 +2767,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>20.14</v>
+        <v>17.41</v>
       </c>
       <c r="C153" t="n">
-        <v>31.71</v>
+        <v>27.88</v>
       </c>
       <c r="D153" t="n">
-        <v>66.25</v>
-      </c>
-      <c r="E153" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="F153" t="n">
-        <v>6.208</v>
+        <v>24.76</v>
       </c>
     </row>
     <row r="154">
@@ -3670,19 +2781,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>20.14</v>
+        <v>18.55</v>
       </c>
       <c r="C154" t="n">
-        <v>30.64</v>
+        <v>26.91</v>
       </c>
       <c r="D154" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="E154" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="F154" t="n">
-        <v>6.425999999999999</v>
+        <v>24.58</v>
       </c>
     </row>
     <row r="155">
@@ -3690,19 +2795,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>20.14</v>
+        <v>19.63</v>
       </c>
       <c r="C155" t="n">
-        <v>30.48</v>
+        <v>25.95</v>
       </c>
       <c r="D155" t="n">
-        <v>67.70999999999999</v>
-      </c>
-      <c r="E155" t="n">
-        <v>4.96</v>
-      </c>
-      <c r="F155" t="n">
-        <v>6.724000000000001</v>
+        <v>24.46</v>
       </c>
     </row>
     <row r="156">
@@ -3710,19 +2809,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>20.14</v>
+        <v>20.82</v>
       </c>
       <c r="C156" t="n">
-        <v>30.25</v>
+        <v>24.82</v>
       </c>
       <c r="D156" t="n">
-        <v>67.76000000000001</v>
-      </c>
-      <c r="E156" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="F156" t="n">
-        <v>6.962000000000002</v>
+        <v>24.4</v>
       </c>
     </row>
     <row r="157">
@@ -3730,19 +2823,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>20.14</v>
+        <v>22.04</v>
       </c>
       <c r="C157" t="n">
-        <v>30.28</v>
+        <v>23.66</v>
       </c>
       <c r="D157" t="n">
-        <v>67.56999999999999</v>
-      </c>
-      <c r="E157" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="F157" t="n">
-        <v>7.2</v>
+        <v>24.33</v>
       </c>
     </row>
     <row r="158">
@@ -3750,19 +2837,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>20.14</v>
+        <v>23.2</v>
       </c>
       <c r="C158" t="n">
-        <v>31.23</v>
+        <v>22.51</v>
       </c>
       <c r="D158" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="E158" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="F158" t="n">
-        <v>6.93</v>
+        <v>24.33</v>
       </c>
     </row>
     <row r="159">
@@ -3770,19 +2851,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>20.14</v>
+        <v>24.32</v>
       </c>
       <c r="C159" t="n">
-        <v>31.33</v>
+        <v>21.4</v>
       </c>
       <c r="D159" t="n">
-        <v>68.15000000000001</v>
-      </c>
-      <c r="E159" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="F159" t="n">
-        <v>6.7</v>
+        <v>24.31</v>
       </c>
     </row>
     <row r="160">
@@ -3790,19 +2865,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>20.14</v>
+        <v>25.58</v>
       </c>
       <c r="C160" t="n">
-        <v>31.32</v>
+        <v>20.2</v>
       </c>
       <c r="D160" t="n">
-        <v>68.81999999999999</v>
-      </c>
-      <c r="E160" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="F160" t="n">
-        <v>6.6</v>
+        <v>24.23</v>
       </c>
     </row>
     <row r="161">
@@ -3810,19 +2879,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
+        <v>25.72</v>
+      </c>
+      <c r="C161" t="n">
         <v>20.14</v>
       </c>
-      <c r="C161" t="n">
-        <v>30.86</v>
-      </c>
       <c r="D161" t="n">
-        <v>69.95</v>
-      </c>
-      <c r="E161" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="F161" t="n">
-        <v>6.419999999999999</v>
+        <v>24.14</v>
       </c>
     </row>
     <row r="162">
@@ -3830,19 +2893,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>20.14</v>
+        <v>25.88</v>
       </c>
       <c r="C162" t="n">
-        <v>30.64</v>
+        <v>20.06</v>
       </c>
       <c r="D162" t="n">
-        <v>70.84</v>
-      </c>
-      <c r="E162" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="F162" t="n">
-        <v>6.159999999999999</v>
+        <v>24.05</v>
       </c>
     </row>
     <row r="163">
@@ -3850,19 +2907,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>20.14</v>
+        <v>25.7</v>
       </c>
       <c r="C163" t="n">
-        <v>30.42</v>
+        <v>19.88</v>
       </c>
       <c r="D163" t="n">
-        <v>71.75</v>
-      </c>
-      <c r="E163" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="F163" t="n">
-        <v>5.899999999999999</v>
+        <v>24.41</v>
       </c>
     </row>
     <row r="164">
@@ -3870,19 +2921,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>20.14</v>
+        <v>25.49</v>
       </c>
       <c r="C164" t="n">
-        <v>30.33</v>
+        <v>19.76</v>
       </c>
       <c r="D164" t="n">
-        <v>72.52</v>
-      </c>
-      <c r="E164" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="F164" t="n">
-        <v>5.63</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="165">
@@ -3890,19 +2935,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>20.14</v>
+        <v>25.17</v>
       </c>
       <c r="C165" t="n">
-        <v>29.44</v>
+        <v>19.98</v>
       </c>
       <c r="D165" t="n">
-        <v>74.03</v>
-      </c>
-      <c r="E165" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="F165" t="n">
-        <v>5.36</v>
+        <v>24.85</v>
       </c>
     </row>
     <row r="166">
@@ -3910,19 +2949,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>20.14</v>
+        <v>24.8</v>
       </c>
       <c r="C166" t="n">
-        <v>28.67</v>
+        <v>20.24</v>
       </c>
       <c r="D166" t="n">
-        <v>75.53</v>
-      </c>
-      <c r="E166" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="F166" t="n">
-        <v>5.149999999999999</v>
+        <v>24.96</v>
       </c>
     </row>
     <row r="167">
@@ -3930,19 +2963,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>20.14</v>
+        <v>24.38</v>
       </c>
       <c r="C167" t="n">
-        <v>27.61</v>
+        <v>20.56</v>
       </c>
       <c r="D167" t="n">
-        <v>77.3</v>
-      </c>
-      <c r="E167" t="n">
-        <v>0</v>
-      </c>
-      <c r="F167" t="n">
-        <v>4.949999999999999</v>
+        <v>25.06</v>
       </c>
     </row>
     <row r="168">
@@ -3950,19 +2977,839 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>20.14</v>
+        <v>23.9</v>
       </c>
       <c r="C168" t="n">
-        <v>26.02</v>
+        <v>20.82</v>
       </c>
       <c r="D168" t="n">
-        <v>79.08</v>
-      </c>
-      <c r="E168" t="n">
-        <v>0</v>
-      </c>
-      <c r="F168" t="n">
-        <v>4.76</v>
+        <v>25.28</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>23.34</v>
+      </c>
+      <c r="C169" t="n">
+        <v>21.13</v>
+      </c>
+      <c r="D169" t="n">
+        <v>25.53</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>22.64</v>
+      </c>
+      <c r="C170" t="n">
+        <v>21.51</v>
+      </c>
+      <c r="D170" t="n">
+        <v>25.85</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>22</v>
+      </c>
+      <c r="C171" t="n">
+        <v>21.86</v>
+      </c>
+      <c r="D171" t="n">
+        <v>26.14</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>21.33</v>
+      </c>
+      <c r="C172" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="D172" t="n">
+        <v>26.47</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>21.01</v>
+      </c>
+      <c r="C173" t="n">
+        <v>22.66</v>
+      </c>
+      <c r="D173" t="n">
+        <v>26.33</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="C174" t="n">
+        <v>23.05</v>
+      </c>
+      <c r="D174" t="n">
+        <v>26.25</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>20.48</v>
+      </c>
+      <c r="C175" t="n">
+        <v>23.11</v>
+      </c>
+      <c r="D175" t="n">
+        <v>26.41</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>20.38</v>
+      </c>
+      <c r="C176" t="n">
+        <v>23.08</v>
+      </c>
+      <c r="D176" t="n">
+        <v>26.54</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>20.26</v>
+      </c>
+      <c r="C177" t="n">
+        <v>23.05</v>
+      </c>
+      <c r="D177" t="n">
+        <v>26.69</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="C178" t="n">
+        <v>23.06</v>
+      </c>
+      <c r="D178" t="n">
+        <v>26.74</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>20.24</v>
+      </c>
+      <c r="C179" t="n">
+        <v>23.03</v>
+      </c>
+      <c r="D179" t="n">
+        <v>26.73</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>20.26</v>
+      </c>
+      <c r="C180" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="D180" t="n">
+        <v>26.85</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>20.42</v>
+      </c>
+      <c r="C181" t="n">
+        <v>22.73</v>
+      </c>
+      <c r="D181" t="n">
+        <v>26.85</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>20.59</v>
+      </c>
+      <c r="C182" t="n">
+        <v>22.58</v>
+      </c>
+      <c r="D182" t="n">
+        <v>26.83</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>20.78</v>
+      </c>
+      <c r="C183" t="n">
+        <v>22.37</v>
+      </c>
+      <c r="D183" t="n">
+        <v>26.86</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>20.98</v>
+      </c>
+      <c r="C184" t="n">
+        <v>22.21</v>
+      </c>
+      <c r="D184" t="n">
+        <v>26.82</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>21.24</v>
+      </c>
+      <c r="C185" t="n">
+        <v>22.09</v>
+      </c>
+      <c r="D185" t="n">
+        <v>26.67</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>21.41</v>
+      </c>
+      <c r="C186" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="D186" t="n">
+        <v>26.57</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="C187" t="n">
+        <v>21.94</v>
+      </c>
+      <c r="D187" t="n">
+        <v>26.36</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>22</v>
+      </c>
+      <c r="C188" t="n">
+        <v>21.86</v>
+      </c>
+      <c r="D188" t="n">
+        <v>26.14</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>22.28</v>
+      </c>
+      <c r="C189" t="n">
+        <v>21.77</v>
+      </c>
+      <c r="D189" t="n">
+        <v>25.95</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>22.57</v>
+      </c>
+      <c r="C190" t="n">
+        <v>21.83</v>
+      </c>
+      <c r="D190" t="n">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>22.67</v>
+      </c>
+      <c r="C191" t="n">
+        <v>21.67</v>
+      </c>
+      <c r="D191" t="n">
+        <v>25.66</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>22.75</v>
+      </c>
+      <c r="C192" t="n">
+        <v>21.56</v>
+      </c>
+      <c r="D192" t="n">
+        <v>25.69</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>22.83</v>
+      </c>
+      <c r="C193" t="n">
+        <v>21.43</v>
+      </c>
+      <c r="D193" t="n">
+        <v>25.74</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>22.92</v>
+      </c>
+      <c r="C194" t="n">
+        <v>21.29</v>
+      </c>
+      <c r="D194" t="n">
+        <v>25.79</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>22.92</v>
+      </c>
+      <c r="C195" t="n">
+        <v>21.04</v>
+      </c>
+      <c r="D195" t="n">
+        <v>25.86</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>22.86</v>
+      </c>
+      <c r="C196" t="n">
+        <v>20.85</v>
+      </c>
+      <c r="D196" t="n">
+        <v>25.95</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>22.71</v>
+      </c>
+      <c r="C197" t="n">
+        <v>20.66</v>
+      </c>
+      <c r="D197" t="n">
+        <v>26.12</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="C198" t="n">
+        <v>20.44</v>
+      </c>
+      <c r="D198" t="n">
+        <v>26.28</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>22.52</v>
+      </c>
+      <c r="C199" t="n">
+        <v>20.16</v>
+      </c>
+      <c r="D199" t="n">
+        <v>26.63</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>22.46</v>
+      </c>
+      <c r="C200" t="n">
+        <v>19.93</v>
+      </c>
+      <c r="D200" t="n">
+        <v>26.93</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>22.54</v>
+      </c>
+      <c r="C201" t="n">
+        <v>19.93</v>
+      </c>
+      <c r="D201" t="n">
+        <v>26.85</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>22.63</v>
+      </c>
+      <c r="C202" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="D202" t="n">
+        <v>26.7</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="C203" t="n">
+        <v>20.06</v>
+      </c>
+      <c r="D203" t="n">
+        <v>26.56</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>22.56</v>
+      </c>
+      <c r="C204" t="n">
+        <v>20.12</v>
+      </c>
+      <c r="D204" t="n">
+        <v>26.64</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="C205" t="n">
+        <v>20.28</v>
+      </c>
+      <c r="D205" t="n">
+        <v>26.71</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>22.49</v>
+      </c>
+      <c r="C206" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="D206" t="n">
+        <v>26.78</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>23.01</v>
+      </c>
+      <c r="C207" t="n">
+        <v>20.11</v>
+      </c>
+      <c r="D207" t="n">
+        <v>26.71</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>23.46</v>
+      </c>
+      <c r="C208" t="n">
+        <v>19.89</v>
+      </c>
+      <c r="D208" t="n">
+        <v>26.65</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>23.79</v>
+      </c>
+      <c r="C209" t="n">
+        <v>19.67</v>
+      </c>
+      <c r="D209" t="n">
+        <v>26.54</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>24.09</v>
+      </c>
+      <c r="C210" t="n">
+        <v>19.37</v>
+      </c>
+      <c r="D210" t="n">
+        <v>26.54</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>24.24</v>
+      </c>
+      <c r="C211" t="n">
+        <v>19.13</v>
+      </c>
+      <c r="D211" t="n">
+        <v>26.63</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="C212" t="n">
+        <v>18.78</v>
+      </c>
+      <c r="D212" t="n">
+        <v>26.81</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>24.51</v>
+      </c>
+      <c r="C213" t="n">
+        <v>18.58</v>
+      </c>
+      <c r="D213" t="n">
+        <v>26.92</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>24.76</v>
+      </c>
+      <c r="C214" t="n">
+        <v>18.42</v>
+      </c>
+      <c r="D214" t="n">
+        <v>26.83</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>25.02</v>
+      </c>
+      <c r="C215" t="n">
+        <v>18.22</v>
+      </c>
+      <c r="D215" t="n">
+        <v>26.76</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>25.34</v>
+      </c>
+      <c r="C216" t="n">
+        <v>18.03</v>
+      </c>
+      <c r="D216" t="n">
+        <v>26.63</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="C217" t="n">
+        <v>18.17</v>
+      </c>
+      <c r="D217" t="n">
+        <v>26.58</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>25.79</v>
+      </c>
+      <c r="C218" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="D218" t="n">
+        <v>25.91</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>26.56</v>
+      </c>
+      <c r="C219" t="n">
+        <v>18.43</v>
+      </c>
+      <c r="D219" t="n">
+        <v>25.01</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>27.51</v>
+      </c>
+      <c r="C220" t="n">
+        <v>18.56</v>
+      </c>
+      <c r="D220" t="n">
+        <v>23.93</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>28.46</v>
+      </c>
+      <c r="C221" t="n">
+        <v>18.65</v>
+      </c>
+      <c r="D221" t="n">
+        <v>22.89</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>29.35</v>
+      </c>
+      <c r="C222" t="n">
+        <v>18.87</v>
+      </c>
+      <c r="D222" t="n">
+        <v>21.78</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>30.29</v>
+      </c>
+      <c r="C223" t="n">
+        <v>18.99</v>
+      </c>
+      <c r="D223" t="n">
+        <v>20.71</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>31.29</v>
+      </c>
+      <c r="C224" t="n">
+        <v>19.09</v>
+      </c>
+      <c r="D224" t="n">
+        <v>19.62</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>32.21</v>
+      </c>
+      <c r="C225" t="n">
+        <v>18.91</v>
+      </c>
+      <c r="D225" t="n">
+        <v>18.88</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>33.02</v>
+      </c>
+      <c r="C226" t="n">
+        <v>17.89</v>
+      </c>
+      <c r="D226" t="n">
+        <v>19.09</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>33.57</v>
+      </c>
+      <c r="C227" t="n">
+        <v>16.93</v>
+      </c>
+      <c r="D227" t="n">
+        <v>19.5</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/stacks_over_time_avg.xlsx
+++ b/Outputs/stacks_over_time_avg.xlsx
@@ -162,7 +162,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Stacks vs time this session (06/15/21): 10-hand moving averages</a:t>
+              <a:t>Stacks vs time this session (06/21/21): 10-hand moving averages</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -194,7 +194,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$B$2:$B$96</f>
+              <f>'data'!$B$2:$B$284</f>
             </numRef>
           </val>
         </ser>
@@ -221,7 +221,61 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$C$2:$C$96</f>
+              <f>'data'!$C$2:$C$284</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <strRef>
+              <f>'data'!D1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'data'!$D$2:$D$284</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'data'!E1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'data'!$E$2:$E$284</f>
             </numRef>
           </val>
         </ser>
@@ -591,7 +645,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C96"/>
+  <dimension ref="A1:E284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -607,10 +661,20 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Scott</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Raymond</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Cedric</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Fish</t>
         </is>
@@ -621,10 +685,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -632,10 +699,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10.15</v>
+        <v>19.7</v>
       </c>
       <c r="C3" t="n">
-        <v>9.85</v>
+        <v>20.4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>19.9</v>
       </c>
     </row>
     <row r="4">
@@ -643,10 +713,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9.949999999999999</v>
+        <v>19.1</v>
       </c>
       <c r="C4" t="n">
-        <v>10.05</v>
+        <v>20.53</v>
+      </c>
+      <c r="D4" t="n">
+        <v>20.37</v>
       </c>
     </row>
     <row r="5">
@@ -654,10 +727,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9.93</v>
+        <v>18.85</v>
       </c>
       <c r="C5" t="n">
-        <v>10.07</v>
+        <v>20.55</v>
+      </c>
+      <c r="D5" t="n">
+        <v>20.6</v>
       </c>
     </row>
     <row r="6">
@@ -665,10 +741,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9.85</v>
+        <v>18.7</v>
       </c>
       <c r="C6" t="n">
-        <v>10.15</v>
+        <v>20.54</v>
+      </c>
+      <c r="D6" t="n">
+        <v>20.76</v>
       </c>
     </row>
     <row r="7">
@@ -676,10 +755,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9.75</v>
+        <v>18.62</v>
       </c>
       <c r="C7" t="n">
-        <v>10.25</v>
+        <v>20.53</v>
+      </c>
+      <c r="D7" t="n">
+        <v>20.85</v>
       </c>
     </row>
     <row r="8">
@@ -687,10 +769,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9.57</v>
+        <v>18.54</v>
       </c>
       <c r="C8" t="n">
-        <v>10.43</v>
+        <v>20.31</v>
+      </c>
+      <c r="D8" t="n">
+        <v>21.14</v>
       </c>
     </row>
     <row r="9">
@@ -698,10 +783,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>9.43</v>
+        <v>18.49</v>
       </c>
       <c r="C9" t="n">
-        <v>10.57</v>
+        <v>20.14</v>
+      </c>
+      <c r="D9" t="n">
+        <v>21.38</v>
       </c>
     </row>
     <row r="10">
@@ -709,10 +797,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9.33</v>
+        <v>18.56</v>
       </c>
       <c r="C10" t="n">
-        <v>10.67</v>
+        <v>19.89</v>
+      </c>
+      <c r="D10" t="n">
+        <v>21.54</v>
       </c>
     </row>
     <row r="11">
@@ -720,10 +811,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9.210000000000001</v>
+        <v>19.18</v>
       </c>
       <c r="C11" t="n">
-        <v>10.79</v>
+        <v>19.14</v>
+      </c>
+      <c r="D11" t="n">
+        <v>21.68</v>
       </c>
     </row>
     <row r="12">
@@ -731,10 +825,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>9.210000000000001</v>
+        <v>19.18</v>
       </c>
       <c r="C12" t="n">
-        <v>10.79</v>
+        <v>19.14</v>
+      </c>
+      <c r="D12" t="n">
+        <v>21.68</v>
       </c>
     </row>
     <row r="13">
@@ -742,10 +839,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>9.06</v>
+        <v>19.66</v>
       </c>
       <c r="C13" t="n">
-        <v>10.94</v>
+        <v>18.5</v>
+      </c>
+      <c r="D13" t="n">
+        <v>21.85</v>
       </c>
     </row>
     <row r="14">
@@ -753,10 +853,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>8.48</v>
+        <v>19.99</v>
       </c>
       <c r="C14" t="n">
-        <v>11.52</v>
+        <v>17.77</v>
+      </c>
+      <c r="D14" t="n">
+        <v>22.24</v>
       </c>
     </row>
     <row r="15">
@@ -764,10 +867,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>8.48</v>
+        <v>20.46</v>
       </c>
       <c r="C15" t="n">
-        <v>12.02</v>
+        <v>17.02</v>
+      </c>
+      <c r="D15" t="n">
+        <v>22.52</v>
       </c>
     </row>
     <row r="16">
@@ -775,10 +881,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>8.609999999999999</v>
+        <v>20.83</v>
       </c>
       <c r="C16" t="n">
-        <v>12.39</v>
+        <v>16.4</v>
+      </c>
+      <c r="D16" t="n">
+        <v>22.77</v>
       </c>
     </row>
     <row r="17">
@@ -786,10 +895,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>8.76</v>
+        <v>21.21</v>
       </c>
       <c r="C17" t="n">
-        <v>12.74</v>
+        <v>15.79</v>
+      </c>
+      <c r="D17" t="n">
+        <v>23.01</v>
       </c>
     </row>
     <row r="18">
@@ -797,10 +909,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>8.94</v>
+        <v>21.32</v>
       </c>
       <c r="C18" t="n">
-        <v>13.06</v>
+        <v>15.15</v>
+      </c>
+      <c r="D18" t="n">
+        <v>23.53</v>
       </c>
     </row>
     <row r="19">
@@ -808,10 +923,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>9.17</v>
+        <v>21.44</v>
       </c>
       <c r="C19" t="n">
-        <v>13.33</v>
+        <v>14.65</v>
+      </c>
+      <c r="D19" t="n">
+        <v>23.9</v>
       </c>
     </row>
     <row r="20">
@@ -819,10 +937,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>9.49</v>
+        <v>22.05</v>
       </c>
       <c r="C20" t="n">
-        <v>13.51</v>
+        <v>14.17</v>
+      </c>
+      <c r="D20" t="n">
+        <v>23.78</v>
       </c>
     </row>
     <row r="21">
@@ -830,10 +951,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>9.68</v>
+        <v>22.55</v>
       </c>
       <c r="C21" t="n">
-        <v>13.82</v>
+        <v>14.37</v>
+      </c>
+      <c r="D21" t="n">
+        <v>23.66</v>
       </c>
     </row>
     <row r="22">
@@ -841,10 +965,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>9.960000000000001</v>
+        <v>21.9</v>
       </c>
       <c r="C22" t="n">
-        <v>14.04</v>
+        <v>15.13</v>
+      </c>
+      <c r="D22" t="n">
+        <v>24.14</v>
       </c>
     </row>
     <row r="23">
@@ -852,10 +979,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>10.37</v>
+        <v>21.27</v>
       </c>
       <c r="C23" t="n">
-        <v>14.13</v>
+        <v>15.77</v>
+      </c>
+      <c r="D23" t="n">
+        <v>24.72</v>
       </c>
     </row>
     <row r="24">
@@ -863,10 +993,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>11.21</v>
+        <v>20.82</v>
       </c>
       <c r="C24" t="n">
-        <v>13.79</v>
+        <v>16.38</v>
+      </c>
+      <c r="D24" t="n">
+        <v>25.14</v>
       </c>
     </row>
     <row r="25">
@@ -874,10 +1007,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>11.5</v>
+        <v>20.38</v>
       </c>
       <c r="C25" t="n">
-        <v>13.49</v>
+        <v>17.03</v>
+      </c>
+      <c r="D25" t="n">
+        <v>25.51</v>
       </c>
     </row>
     <row r="26">
@@ -885,10 +1021,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>11.47</v>
+        <v>19.94</v>
       </c>
       <c r="C26" t="n">
-        <v>13.53</v>
+        <v>17.59</v>
+      </c>
+      <c r="D26" t="n">
+        <v>25.98</v>
       </c>
     </row>
     <row r="27">
@@ -896,10 +1035,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>11.4</v>
+        <v>19.48</v>
       </c>
       <c r="C27" t="n">
-        <v>13.6</v>
+        <v>18.13</v>
+      </c>
+      <c r="D27" t="n">
+        <v>26.49</v>
       </c>
     </row>
     <row r="28">
@@ -907,10 +1049,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>11.3</v>
+        <v>19.28</v>
       </c>
       <c r="C28" t="n">
-        <v>13.7</v>
+        <v>18.67</v>
+      </c>
+      <c r="D28" t="n">
+        <v>26.73</v>
       </c>
     </row>
     <row r="29">
@@ -918,10 +1063,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>11.29</v>
+        <v>18.58</v>
       </c>
       <c r="C29" t="n">
-        <v>13.71</v>
+        <v>19.23</v>
+      </c>
+      <c r="D29" t="n">
+        <v>27.46</v>
       </c>
     </row>
     <row r="30">
@@ -929,10 +1077,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>11.25</v>
+        <v>17.41</v>
       </c>
       <c r="C30" t="n">
-        <v>13.75</v>
+        <v>19.76</v>
+      </c>
+      <c r="D30" t="n">
+        <v>28.68</v>
       </c>
     </row>
     <row r="31">
@@ -940,10 +1091,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>11.37</v>
+        <v>16.28</v>
       </c>
       <c r="C31" t="n">
-        <v>13.63</v>
+        <v>19.69</v>
+      </c>
+      <c r="D31" t="n">
+        <v>29.88</v>
       </c>
     </row>
     <row r="32">
@@ -951,10 +1105,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>11.27</v>
+        <v>15.59</v>
       </c>
       <c r="C32" t="n">
-        <v>13.73</v>
+        <v>19.63</v>
+      </c>
+      <c r="D32" t="n">
+        <v>30.63</v>
       </c>
     </row>
     <row r="33">
@@ -962,10 +1119,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>10.9</v>
+        <v>15.75</v>
       </c>
       <c r="C33" t="n">
-        <v>14.1</v>
+        <v>19.65</v>
+      </c>
+      <c r="D33" t="n">
+        <v>31.32</v>
       </c>
     </row>
     <row r="34">
@@ -973,10 +1133,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>10.45</v>
+        <v>15.93</v>
       </c>
       <c r="C34" t="n">
-        <v>14.55</v>
+        <v>19.71</v>
+      </c>
+      <c r="D34" t="n">
+        <v>31.95</v>
       </c>
     </row>
     <row r="35">
@@ -984,10 +1147,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>9.960000000000001</v>
+        <v>16.21</v>
       </c>
       <c r="C35" t="n">
-        <v>15.04</v>
+        <v>19.75</v>
+      </c>
+      <c r="D35" t="n">
+        <v>32.5</v>
       </c>
     </row>
     <row r="36">
@@ -995,10 +1161,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>9.359999999999999</v>
+        <v>18.82</v>
       </c>
       <c r="C36" t="n">
-        <v>15.64</v>
+        <v>19.64</v>
+      </c>
+      <c r="D36" t="n">
+        <v>30.87</v>
       </c>
     </row>
     <row r="37">
@@ -1006,10 +1175,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>8.789999999999999</v>
+        <v>21.46</v>
       </c>
       <c r="C37" t="n">
-        <v>16.2</v>
+        <v>19.54</v>
+      </c>
+      <c r="D37" t="n">
+        <v>29.19</v>
       </c>
     </row>
     <row r="38">
@@ -1017,10 +1189,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>8.789999999999999</v>
+        <v>24.12</v>
       </c>
       <c r="C38" t="n">
-        <v>16.71</v>
+        <v>19.45</v>
+      </c>
+      <c r="D38" t="n">
+        <v>27.49</v>
       </c>
     </row>
     <row r="39">
@@ -1028,10 +1203,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>8.65</v>
+        <v>27.27</v>
       </c>
       <c r="C39" t="n">
-        <v>17.35</v>
+        <v>19.37</v>
+      </c>
+      <c r="D39" t="n">
+        <v>25.29</v>
       </c>
     </row>
     <row r="40">
@@ -1039,10 +1217,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>8.380000000000001</v>
+        <v>30.2</v>
       </c>
       <c r="C40" t="n">
-        <v>18.12</v>
+        <v>19.11</v>
+      </c>
+      <c r="D40" t="n">
+        <v>23.49</v>
       </c>
     </row>
     <row r="41">
@@ -1050,10 +1231,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>8.130000000000001</v>
+        <v>33.11</v>
       </c>
       <c r="C41" t="n">
-        <v>18.87</v>
+        <v>18.86</v>
+      </c>
+      <c r="D41" t="n">
+        <v>21.7</v>
       </c>
     </row>
     <row r="42">
@@ -1061,10 +1245,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>8.949999999999999</v>
+        <v>36.18</v>
       </c>
       <c r="C42" t="n">
-        <v>18.55</v>
+        <v>18.59</v>
+      </c>
+      <c r="D42" t="n">
+        <v>19.77</v>
       </c>
     </row>
     <row r="43">
@@ -1072,10 +1259,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>9.83</v>
+        <v>38.39</v>
       </c>
       <c r="C43" t="n">
-        <v>18.17</v>
+        <v>18.26</v>
+      </c>
+      <c r="D43" t="n">
+        <v>17.89</v>
       </c>
     </row>
     <row r="44">
@@ -1083,10 +1273,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>10.79</v>
+        <v>40.53</v>
       </c>
       <c r="C44" t="n">
-        <v>17.71</v>
+        <v>18.05</v>
+      </c>
+      <c r="D44" t="n">
+        <v>15.96</v>
       </c>
     </row>
     <row r="45">
@@ -1094,10 +1287,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>11.63</v>
+        <v>42.56</v>
       </c>
       <c r="C45" t="n">
-        <v>17.37</v>
+        <v>17.85</v>
+      </c>
+      <c r="D45" t="n">
+        <v>14.13</v>
       </c>
     </row>
     <row r="46">
@@ -1105,10 +1301,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>12.77</v>
+        <v>42.37</v>
       </c>
       <c r="C46" t="n">
-        <v>16.73</v>
+        <v>17.79</v>
+      </c>
+      <c r="D46" t="n">
+        <v>14.38</v>
       </c>
     </row>
     <row r="47">
@@ -1116,10 +1315,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>13.91</v>
+        <v>42.16</v>
       </c>
       <c r="C47" t="n">
-        <v>16.09</v>
+        <v>17.74</v>
+      </c>
+      <c r="D47" t="n">
+        <v>14.64</v>
       </c>
     </row>
     <row r="48">
@@ -1127,10 +1329,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>14.51</v>
+        <v>41.93</v>
       </c>
       <c r="C48" t="n">
-        <v>15.49</v>
+        <v>17.7</v>
+      </c>
+      <c r="D48" t="n">
+        <v>14.91</v>
       </c>
     </row>
     <row r="49">
@@ -1138,10 +1343,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>15.19</v>
+        <v>41.71</v>
       </c>
       <c r="C49" t="n">
-        <v>14.81</v>
+        <v>17.59</v>
+      </c>
+      <c r="D49" t="n">
+        <v>15.24</v>
       </c>
     </row>
     <row r="50">
@@ -1149,10 +1357,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>15.95</v>
+        <v>41.79</v>
       </c>
       <c r="C50" t="n">
-        <v>14.04</v>
+        <v>17.68</v>
+      </c>
+      <c r="D50" t="n">
+        <v>15.07</v>
       </c>
     </row>
     <row r="51">
@@ -1160,10 +1371,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>16.36</v>
+        <v>41.85</v>
       </c>
       <c r="C51" t="n">
-        <v>13.64</v>
+        <v>17.78</v>
+      </c>
+      <c r="D51" t="n">
+        <v>14.91</v>
       </c>
     </row>
     <row r="52">
@@ -1171,10 +1385,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>15.82</v>
+        <v>41.89</v>
       </c>
       <c r="C52" t="n">
-        <v>14.18</v>
+        <v>17.78</v>
+      </c>
+      <c r="D52" t="n">
+        <v>14.87</v>
       </c>
     </row>
     <row r="53">
@@ -1182,10 +1399,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>15.42</v>
+        <v>41.73</v>
       </c>
       <c r="C53" t="n">
-        <v>14.58</v>
+        <v>17.76</v>
+      </c>
+      <c r="D53" t="n">
+        <v>15.05</v>
       </c>
     </row>
     <row r="54">
@@ -1193,10 +1413,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>15.17</v>
+        <v>41.64</v>
       </c>
       <c r="C54" t="n">
-        <v>14.83</v>
+        <v>17.66</v>
+      </c>
+      <c r="D54" t="n">
+        <v>15.25</v>
       </c>
     </row>
     <row r="55">
@@ -1204,10 +1427,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>15.09</v>
+        <v>41.56</v>
       </c>
       <c r="C55" t="n">
-        <v>14.91</v>
+        <v>17.53</v>
+      </c>
+      <c r="D55" t="n">
+        <v>15.47</v>
       </c>
     </row>
     <row r="56">
@@ -1215,10 +1441,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>15.02</v>
+        <v>41.45</v>
       </c>
       <c r="C56" t="n">
-        <v>14.98</v>
+        <v>17.43</v>
+      </c>
+      <c r="D56" t="n">
+        <v>15.69</v>
       </c>
     </row>
     <row r="57">
@@ -1226,10 +1455,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>15.01</v>
+        <v>41.32</v>
       </c>
       <c r="C57" t="n">
-        <v>14.99</v>
+        <v>17.26</v>
+      </c>
+      <c r="D57" t="n">
+        <v>15.99</v>
       </c>
     </row>
     <row r="58">
@@ -1237,10 +1469,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>15.03</v>
+        <v>41.17</v>
       </c>
       <c r="C58" t="n">
-        <v>14.97</v>
+        <v>17.11</v>
+      </c>
+      <c r="D58" t="n">
+        <v>16.29</v>
       </c>
     </row>
     <row r="59">
@@ -1248,10 +1483,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>15.04</v>
+        <v>41.02</v>
       </c>
       <c r="C59" t="n">
-        <v>14.96</v>
+        <v>17.09</v>
+      </c>
+      <c r="D59" t="n">
+        <v>16.46</v>
       </c>
     </row>
     <row r="60">
@@ -1259,10 +1497,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>14.96</v>
+        <v>40.79</v>
       </c>
       <c r="C60" t="n">
-        <v>15.04</v>
+        <v>17.06</v>
+      </c>
+      <c r="D60" t="n">
+        <v>16.71</v>
       </c>
     </row>
     <row r="61">
@@ -1270,10 +1511,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>15.09</v>
+        <v>40.56</v>
       </c>
       <c r="C61" t="n">
-        <v>14.91</v>
+        <v>17.04</v>
+      </c>
+      <c r="D61" t="n">
+        <v>16.97</v>
       </c>
     </row>
     <row r="62">
@@ -1281,10 +1525,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>15.23</v>
+        <v>40.33</v>
       </c>
       <c r="C62" t="n">
-        <v>14.77</v>
+        <v>17.5</v>
+      </c>
+      <c r="D62" t="n">
+        <v>17.05</v>
       </c>
     </row>
     <row r="63">
@@ -1292,10 +1539,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>15.29</v>
+        <v>40.4</v>
       </c>
       <c r="C63" t="n">
-        <v>14.71</v>
+        <v>17.95</v>
+      </c>
+      <c r="D63" t="n">
+        <v>16.82</v>
       </c>
     </row>
     <row r="64">
@@ -1303,10 +1553,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>15.15</v>
+        <v>39.41</v>
       </c>
       <c r="C64" t="n">
-        <v>14.85</v>
+        <v>18.27</v>
+      </c>
+      <c r="D64" t="n">
+        <v>17.78</v>
       </c>
     </row>
     <row r="65">
@@ -1314,10 +1567,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>14.99</v>
+        <v>38.13</v>
       </c>
       <c r="C65" t="n">
-        <v>15.01</v>
+        <v>18.58</v>
+      </c>
+      <c r="D65" t="n">
+        <v>19.04</v>
       </c>
     </row>
     <row r="66">
@@ -1325,10 +1581,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>14.87</v>
+        <v>36.86</v>
       </c>
       <c r="C66" t="n">
-        <v>15.13</v>
+        <v>18.88</v>
+      </c>
+      <c r="D66" t="n">
+        <v>20.3</v>
       </c>
     </row>
     <row r="67">
@@ -1336,10 +1595,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>14.66</v>
+        <v>35.58</v>
       </c>
       <c r="C67" t="n">
-        <v>15.34</v>
+        <v>19.26</v>
+      </c>
+      <c r="D67" t="n">
+        <v>21.5</v>
       </c>
     </row>
     <row r="68">
@@ -1347,10 +1609,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>14.46</v>
+        <v>34.33</v>
       </c>
       <c r="C68" t="n">
-        <v>15.54</v>
+        <v>19.67</v>
+      </c>
+      <c r="D68" t="n">
+        <v>22.64</v>
       </c>
     </row>
     <row r="69">
@@ -1358,10 +1623,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>14.27</v>
+        <v>33.02</v>
       </c>
       <c r="C69" t="n">
-        <v>15.73</v>
+        <v>20.13</v>
+      </c>
+      <c r="D69" t="n">
+        <v>23.78</v>
       </c>
     </row>
     <row r="70">
@@ -1369,10 +1637,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>14.16</v>
+        <v>31.72</v>
       </c>
       <c r="C70" t="n">
-        <v>15.84</v>
+        <v>20.58</v>
+      </c>
+      <c r="D70" t="n">
+        <v>24.95</v>
       </c>
     </row>
     <row r="71">
@@ -1380,10 +1651,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>14.17</v>
+        <v>30.45</v>
       </c>
       <c r="C71" t="n">
-        <v>15.83</v>
+        <v>21</v>
+      </c>
+      <c r="D71" t="n">
+        <v>26.09</v>
       </c>
     </row>
     <row r="72">
@@ -1391,10 +1665,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>14.18</v>
+        <v>29.16</v>
       </c>
       <c r="C72" t="n">
-        <v>15.82</v>
+        <v>21.07</v>
+      </c>
+      <c r="D72" t="n">
+        <v>27.31</v>
       </c>
     </row>
     <row r="73">
@@ -1402,10 +1679,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>14.19</v>
+        <v>27.54</v>
       </c>
       <c r="C73" t="n">
-        <v>15.81</v>
+        <v>21.11</v>
+      </c>
+      <c r="D73" t="n">
+        <v>28.89</v>
       </c>
     </row>
     <row r="74">
@@ -1413,10 +1693,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>14.26</v>
+        <v>26.95</v>
       </c>
       <c r="C74" t="n">
-        <v>15.74</v>
+        <v>21.27</v>
+      </c>
+      <c r="D74" t="n">
+        <v>29.32</v>
       </c>
     </row>
     <row r="75">
@@ -1424,10 +1707,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>14.35</v>
+        <v>26.73</v>
       </c>
       <c r="C75" t="n">
-        <v>15.65</v>
+        <v>21.39</v>
+      </c>
+      <c r="D75" t="n">
+        <v>29.42</v>
       </c>
     </row>
     <row r="76">
@@ -1435,10 +1721,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>14.32</v>
+        <v>26.54</v>
       </c>
       <c r="C76" t="n">
-        <v>15.68</v>
+        <v>21.48</v>
+      </c>
+      <c r="D76" t="n">
+        <v>29.51</v>
       </c>
     </row>
     <row r="77">
@@ -1446,10 +1735,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>14.34</v>
+        <v>26.38</v>
       </c>
       <c r="C77" t="n">
-        <v>15.66</v>
+        <v>21.58</v>
+      </c>
+      <c r="D77" t="n">
+        <v>29.59</v>
       </c>
     </row>
     <row r="78">
@@ -1457,10 +1749,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>14.3</v>
+        <v>26.22</v>
       </c>
       <c r="C78" t="n">
-        <v>15.7</v>
+        <v>21.61</v>
+      </c>
+      <c r="D78" t="n">
+        <v>29.71</v>
       </c>
     </row>
     <row r="79">
@@ -1468,10 +1763,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>14.26</v>
+        <v>26.11</v>
       </c>
       <c r="C79" t="n">
-        <v>15.74</v>
+        <v>21.54</v>
+      </c>
+      <c r="D79" t="n">
+        <v>29.89</v>
       </c>
     </row>
     <row r="80">
@@ -1479,10 +1777,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>14.13</v>
+        <v>25.98</v>
       </c>
       <c r="C80" t="n">
-        <v>15.87</v>
+        <v>21.51</v>
+      </c>
+      <c r="D80" t="n">
+        <v>30.05</v>
       </c>
     </row>
     <row r="81">
@@ -1490,10 +1791,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>13.98</v>
+        <v>25.8</v>
       </c>
       <c r="C81" t="n">
-        <v>16.02</v>
+        <v>21.49</v>
+      </c>
+      <c r="D81" t="n">
+        <v>30.25</v>
       </c>
     </row>
     <row r="82">
@@ -1501,10 +1805,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>13.81</v>
+        <v>25.72</v>
       </c>
       <c r="C82" t="n">
-        <v>16.2</v>
+        <v>21.45</v>
+      </c>
+      <c r="D82" t="n">
+        <v>30.37</v>
       </c>
     </row>
     <row r="83">
@@ -1512,10 +1819,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>13.63</v>
+        <v>24.79</v>
       </c>
       <c r="C83" t="n">
-        <v>16.37</v>
+        <v>22.54</v>
+      </c>
+      <c r="D83" t="n">
+        <v>30.21</v>
       </c>
     </row>
     <row r="84">
@@ -1523,10 +1833,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>13.24</v>
+        <v>23.98</v>
       </c>
       <c r="C84" t="n">
-        <v>16.76</v>
+        <v>23.59</v>
+      </c>
+      <c r="D84" t="n">
+        <v>29.97</v>
       </c>
     </row>
     <row r="85">
@@ -1534,10 +1847,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>13.08</v>
+        <v>23.11</v>
       </c>
       <c r="C85" t="n">
-        <v>16.91</v>
+        <v>24.69</v>
+      </c>
+      <c r="D85" t="n">
+        <v>29.74</v>
       </c>
     </row>
     <row r="86">
@@ -1545,10 +1861,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>13.39</v>
+        <v>22.28</v>
       </c>
       <c r="C86" t="n">
-        <v>16.62</v>
+        <v>25.75</v>
+      </c>
+      <c r="D86" t="n">
+        <v>29.51</v>
       </c>
     </row>
     <row r="87">
@@ -1556,10 +1875,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>13.43</v>
+        <v>21.46</v>
       </c>
       <c r="C87" t="n">
-        <v>16.57</v>
+        <v>26.79</v>
+      </c>
+      <c r="D87" t="n">
+        <v>29.3</v>
       </c>
     </row>
     <row r="88">
@@ -1567,10 +1889,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>13.5</v>
+        <v>20.61</v>
       </c>
       <c r="C88" t="n">
-        <v>16.5</v>
+        <v>27.85</v>
+      </c>
+      <c r="D88" t="n">
+        <v>29.1</v>
       </c>
     </row>
     <row r="89">
@@ -1578,10 +1903,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>13.57</v>
+        <v>19.75</v>
       </c>
       <c r="C89" t="n">
-        <v>16.43</v>
+        <v>28.92</v>
+      </c>
+      <c r="D89" t="n">
+        <v>28.9</v>
       </c>
     </row>
     <row r="90">
@@ -1589,10 +1917,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>13.32</v>
+        <v>18.91</v>
       </c>
       <c r="C90" t="n">
-        <v>16.68</v>
+        <v>29.95</v>
+      </c>
+      <c r="D90" t="n">
+        <v>28.72</v>
       </c>
     </row>
     <row r="91">
@@ -1600,10 +1931,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>13.03</v>
+        <v>18.07</v>
       </c>
       <c r="C91" t="n">
-        <v>16.98</v>
+        <v>31</v>
+      </c>
+      <c r="D91" t="n">
+        <v>28.52</v>
       </c>
     </row>
     <row r="92">
@@ -1611,10 +1945,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>12.61</v>
+        <v>17.25</v>
       </c>
       <c r="C92" t="n">
-        <v>17.39</v>
+        <v>31.96</v>
+      </c>
+      <c r="D92" t="n">
+        <v>28.38</v>
       </c>
     </row>
     <row r="93">
@@ -1622,10 +1959,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>12.19</v>
+        <v>17.54</v>
       </c>
       <c r="C93" t="n">
-        <v>17.81</v>
+        <v>31.81</v>
+      </c>
+      <c r="D93" t="n">
+        <v>28.26</v>
       </c>
     </row>
     <row r="94">
@@ -1633,10 +1973,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>11.95</v>
+        <v>17.74</v>
       </c>
       <c r="C94" t="n">
-        <v>18.05</v>
+        <v>31.64</v>
+      </c>
+      <c r="D94" t="n">
+        <v>28.24</v>
       </c>
     </row>
     <row r="95">
@@ -1644,10 +1987,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>11.59</v>
+        <v>17.94</v>
       </c>
       <c r="C95" t="n">
-        <v>18.41</v>
+        <v>31.47</v>
+      </c>
+      <c r="D95" t="n">
+        <v>28.22</v>
       </c>
     </row>
     <row r="96">
@@ -1655,10 +2001,2912 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>11.03</v>
+        <v>17.93</v>
       </c>
       <c r="C96" t="n">
-        <v>18.97</v>
+        <v>31.49</v>
+      </c>
+      <c r="D96" t="n">
+        <v>28.22</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="C97" t="n">
+        <v>31.52</v>
+      </c>
+      <c r="D97" t="n">
+        <v>28.22</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>18.61</v>
+      </c>
+      <c r="C98" t="n">
+        <v>30.81</v>
+      </c>
+      <c r="D98" t="n">
+        <v>28.21</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>19.36</v>
+      </c>
+      <c r="C99" t="n">
+        <v>30.09</v>
+      </c>
+      <c r="D99" t="n">
+        <v>28.17</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>20.03</v>
+      </c>
+      <c r="C100" t="n">
+        <v>29.45</v>
+      </c>
+      <c r="D100" t="n">
+        <v>28.13</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>20.76</v>
+      </c>
+      <c r="C101" t="n">
+        <v>28.77</v>
+      </c>
+      <c r="D101" t="n">
+        <v>28.07</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>21.39</v>
+      </c>
+      <c r="C102" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="D102" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>22</v>
+      </c>
+      <c r="C103" t="n">
+        <v>27.72</v>
+      </c>
+      <c r="D103" t="n">
+        <v>27.86</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>22.62</v>
+      </c>
+      <c r="C104" t="n">
+        <v>27.25</v>
+      </c>
+      <c r="D104" t="n">
+        <v>27.7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>23.17</v>
+      </c>
+      <c r="C105" t="n">
+        <v>26.79</v>
+      </c>
+      <c r="D105" t="n">
+        <v>27.6</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>23.83</v>
+      </c>
+      <c r="C106" t="n">
+        <v>26.22</v>
+      </c>
+      <c r="D106" t="n">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>24.51</v>
+      </c>
+      <c r="C107" t="n">
+        <v>25.65</v>
+      </c>
+      <c r="D107" t="n">
+        <v>27.38</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>24.48</v>
+      </c>
+      <c r="C108" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="D108" t="n">
+        <v>27.26</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>24.44</v>
+      </c>
+      <c r="C109" t="n">
+        <v>25.93</v>
+      </c>
+      <c r="D109" t="n">
+        <v>27.17</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>24.49</v>
+      </c>
+      <c r="C110" t="n">
+        <v>25.99</v>
+      </c>
+      <c r="D110" t="n">
+        <v>27.06</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>24.31</v>
+      </c>
+      <c r="C111" t="n">
+        <v>26.06</v>
+      </c>
+      <c r="D111" t="n">
+        <v>27.17</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="C112" t="n">
+        <v>26.11</v>
+      </c>
+      <c r="D112" t="n">
+        <v>27.23</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="C113" t="n">
+        <v>25.63</v>
+      </c>
+      <c r="D113" t="n">
+        <v>27.81</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>23.79</v>
+      </c>
+      <c r="C114" t="n">
+        <v>25.35</v>
+      </c>
+      <c r="D114" t="n">
+        <v>28.4</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>23.42</v>
+      </c>
+      <c r="C115" t="n">
+        <v>25.19</v>
+      </c>
+      <c r="D115" t="n">
+        <v>28.93</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>23.05</v>
+      </c>
+      <c r="C116" t="n">
+        <v>25.05</v>
+      </c>
+      <c r="D116" t="n">
+        <v>29.44</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>22.67</v>
+      </c>
+      <c r="C117" t="n">
+        <v>24.91</v>
+      </c>
+      <c r="D117" t="n">
+        <v>29.96</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>22.27</v>
+      </c>
+      <c r="C118" t="n">
+        <v>24.78</v>
+      </c>
+      <c r="D118" t="n">
+        <v>30.49</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>21.77</v>
+      </c>
+      <c r="C119" t="n">
+        <v>24.77</v>
+      </c>
+      <c r="D119" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>21.18</v>
+      </c>
+      <c r="C120" t="n">
+        <v>24.84</v>
+      </c>
+      <c r="D120" t="n">
+        <v>31.52</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="C121" t="n">
+        <v>26.88</v>
+      </c>
+      <c r="D121" t="n">
+        <v>31.76</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>16.54</v>
+      </c>
+      <c r="C122" t="n">
+        <v>28.93</v>
+      </c>
+      <c r="D122" t="n">
+        <v>32.07</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>14.18</v>
+      </c>
+      <c r="C123" t="n">
+        <v>31.55</v>
+      </c>
+      <c r="D123" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="C124" t="n">
+        <v>34</v>
+      </c>
+      <c r="D124" t="n">
+        <v>31.53</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="C125" t="n">
+        <v>36.34</v>
+      </c>
+      <c r="D125" t="n">
+        <v>31.24</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="C126" t="n">
+        <v>38.56</v>
+      </c>
+      <c r="D126" t="n">
+        <v>31.08</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="C127" t="n">
+        <v>40.71</v>
+      </c>
+      <c r="D127" t="n">
+        <v>30.96</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="C128" t="n">
+        <v>42.8</v>
+      </c>
+      <c r="D128" t="n">
+        <v>30.79</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>14.11</v>
+      </c>
+      <c r="C129" t="n">
+        <v>44.79</v>
+      </c>
+      <c r="D129" t="n">
+        <v>30.64</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>16.26</v>
+      </c>
+      <c r="C130" t="n">
+        <v>46.78</v>
+      </c>
+      <c r="D130" t="n">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>20.01</v>
+      </c>
+      <c r="C131" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="D131" t="n">
+        <v>30.44</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>23.74</v>
+      </c>
+      <c r="C132" t="n">
+        <v>47.43</v>
+      </c>
+      <c r="D132" t="n">
+        <v>30.36</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>27.48</v>
+      </c>
+      <c r="C133" t="n">
+        <v>47.64</v>
+      </c>
+      <c r="D133" t="n">
+        <v>30.42</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>30.99</v>
+      </c>
+      <c r="C134" t="n">
+        <v>48.06</v>
+      </c>
+      <c r="D134" t="n">
+        <v>30.49</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>34.47</v>
+      </c>
+      <c r="C135" t="n">
+        <v>48.49</v>
+      </c>
+      <c r="D135" t="n">
+        <v>30.57</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>37.95</v>
+      </c>
+      <c r="C136" t="n">
+        <v>49.04</v>
+      </c>
+      <c r="D136" t="n">
+        <v>30.56</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>37.43</v>
+      </c>
+      <c r="C137" t="n">
+        <v>49.61</v>
+      </c>
+      <c r="D137" t="n">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>36.82</v>
+      </c>
+      <c r="C138" t="n">
+        <v>50.22</v>
+      </c>
+      <c r="D138" t="n">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="C139" t="n">
+        <v>50.94</v>
+      </c>
+      <c r="D139" t="n">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>35.48</v>
+      </c>
+      <c r="C140" t="n">
+        <v>51.59</v>
+      </c>
+      <c r="D140" t="n">
+        <v>30.47</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>34.98</v>
+      </c>
+      <c r="C141" t="n">
+        <v>51.94</v>
+      </c>
+      <c r="D141" t="n">
+        <v>30.62</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>34.51</v>
+      </c>
+      <c r="C142" t="n">
+        <v>52.26</v>
+      </c>
+      <c r="D142" t="n">
+        <v>30.77</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="C143" t="n">
+        <v>52.61</v>
+      </c>
+      <c r="D143" t="n">
+        <v>30.9</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>33.54</v>
+      </c>
+      <c r="C144" t="n">
+        <v>52.65</v>
+      </c>
+      <c r="D144" t="n">
+        <v>31.35</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>33.09</v>
+      </c>
+      <c r="C145" t="n">
+        <v>52.65</v>
+      </c>
+      <c r="D145" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>32.68</v>
+      </c>
+      <c r="C146" t="n">
+        <v>52.63</v>
+      </c>
+      <c r="D146" t="n">
+        <v>32.23</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="C147" t="n">
+        <v>52.62</v>
+      </c>
+      <c r="D147" t="n">
+        <v>32.62</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>31.89</v>
+      </c>
+      <c r="C148" t="n">
+        <v>52.64</v>
+      </c>
+      <c r="D148" t="n">
+        <v>33.01</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="C149" t="n">
+        <v>52.56</v>
+      </c>
+      <c r="D149" t="n">
+        <v>33.38</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>31.35</v>
+      </c>
+      <c r="C150" t="n">
+        <v>52.49</v>
+      </c>
+      <c r="D150" t="n">
+        <v>33.7</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>30.71</v>
+      </c>
+      <c r="C151" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="D151" t="n">
+        <v>34.44</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>30.04</v>
+      </c>
+      <c r="C152" t="n">
+        <v>52.35</v>
+      </c>
+      <c r="D152" t="n">
+        <v>35.15</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>29.44</v>
+      </c>
+      <c r="C153" t="n">
+        <v>52.22</v>
+      </c>
+      <c r="D153" t="n">
+        <v>35.88</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>29.21</v>
+      </c>
+      <c r="C154" t="n">
+        <v>52.11</v>
+      </c>
+      <c r="D154" t="n">
+        <v>36.22</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="C155" t="n">
+        <v>52.03</v>
+      </c>
+      <c r="D155" t="n">
+        <v>36.55</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>28.69</v>
+      </c>
+      <c r="C156" t="n">
+        <v>51.95</v>
+      </c>
+      <c r="D156" t="n">
+        <v>36.9</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>28.37</v>
+      </c>
+      <c r="C157" t="n">
+        <v>51.88</v>
+      </c>
+      <c r="D157" t="n">
+        <v>37.28</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="C158" t="n">
+        <v>51.75</v>
+      </c>
+      <c r="D158" t="n">
+        <v>37.73</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>27.75</v>
+      </c>
+      <c r="C159" t="n">
+        <v>51.61</v>
+      </c>
+      <c r="D159" t="n">
+        <v>38.17</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>28.41</v>
+      </c>
+      <c r="C160" t="n">
+        <v>50.44</v>
+      </c>
+      <c r="D160" t="n">
+        <v>38.69</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>29.63</v>
+      </c>
+      <c r="C161" t="n">
+        <v>49.3</v>
+      </c>
+      <c r="D161" t="n">
+        <v>38.61</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>30.86</v>
+      </c>
+      <c r="C162" t="n">
+        <v>48.12</v>
+      </c>
+      <c r="D162" t="n">
+        <v>38.56</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>32</v>
+      </c>
+      <c r="C163" t="n">
+        <v>47.03</v>
+      </c>
+      <c r="D163" t="n">
+        <v>38.51</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="C164" t="n">
+        <v>44.94</v>
+      </c>
+      <c r="D164" t="n">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>36.21</v>
+      </c>
+      <c r="C165" t="n">
+        <v>42.81</v>
+      </c>
+      <c r="D165" t="n">
+        <v>38.52</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>38.33</v>
+      </c>
+      <c r="C166" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="D166" t="n">
+        <v>38.51</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>40.58</v>
+      </c>
+      <c r="C167" t="n">
+        <v>38.45</v>
+      </c>
+      <c r="D167" t="n">
+        <v>38.51</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>42.82</v>
+      </c>
+      <c r="C168" t="n">
+        <v>36.26</v>
+      </c>
+      <c r="D168" t="n">
+        <v>38.46</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>45.18</v>
+      </c>
+      <c r="C169" t="n">
+        <v>33.99</v>
+      </c>
+      <c r="D169" t="n">
+        <v>38.37</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>46.48</v>
+      </c>
+      <c r="C170" t="n">
+        <v>32.79</v>
+      </c>
+      <c r="D170" t="n">
+        <v>38.28</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>47.77</v>
+      </c>
+      <c r="C171" t="n">
+        <v>31.77</v>
+      </c>
+      <c r="D171" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>49.08</v>
+      </c>
+      <c r="C172" t="n">
+        <v>30.76</v>
+      </c>
+      <c r="D172" t="n">
+        <v>37.7</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>50.43</v>
+      </c>
+      <c r="C173" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="D173" t="n">
+        <v>37.42</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>50.69</v>
+      </c>
+      <c r="C174" t="n">
+        <v>29.69</v>
+      </c>
+      <c r="D174" t="n">
+        <v>37.16</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>50.94</v>
+      </c>
+      <c r="C175" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="D175" t="n">
+        <v>36.9</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>51.1</v>
+      </c>
+      <c r="C176" t="n">
+        <v>29.79</v>
+      </c>
+      <c r="D176" t="n">
+        <v>36.64</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>51.15</v>
+      </c>
+      <c r="C177" t="n">
+        <v>30.07</v>
+      </c>
+      <c r="D177" t="n">
+        <v>36.33</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="C178" t="n">
+        <v>30.29</v>
+      </c>
+      <c r="D178" t="n">
+        <v>35.94</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>51.28</v>
+      </c>
+      <c r="C179" t="n">
+        <v>30.41</v>
+      </c>
+      <c r="D179" t="n">
+        <v>35.84</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>51.28</v>
+      </c>
+      <c r="C180" t="n">
+        <v>30.51</v>
+      </c>
+      <c r="D180" t="n">
+        <v>35.74</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>51.16</v>
+      </c>
+      <c r="C181" t="n">
+        <v>30.44</v>
+      </c>
+      <c r="D181" t="n">
+        <v>35.94</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>51.05</v>
+      </c>
+      <c r="C182" t="n">
+        <v>30.34</v>
+      </c>
+      <c r="D182" t="n">
+        <v>36.15</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>51.42</v>
+      </c>
+      <c r="C183" t="n">
+        <v>30.06</v>
+      </c>
+      <c r="D183" t="n">
+        <v>36.06</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="C184" t="n">
+        <v>29.79</v>
+      </c>
+      <c r="D184" t="n">
+        <v>35.95</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>52.22</v>
+      </c>
+      <c r="C185" t="n">
+        <v>29.49</v>
+      </c>
+      <c r="D185" t="n">
+        <v>35.83</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="C186" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="D186" t="n">
+        <v>35.74</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>53.03</v>
+      </c>
+      <c r="C187" t="n">
+        <v>28.85</v>
+      </c>
+      <c r="D187" t="n">
+        <v>35.66</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>52.94</v>
+      </c>
+      <c r="C188" t="n">
+        <v>28.64</v>
+      </c>
+      <c r="D188" t="n">
+        <v>35.96</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>53.02</v>
+      </c>
+      <c r="C189" t="n">
+        <v>28.58</v>
+      </c>
+      <c r="D189" t="n">
+        <v>35.94</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>53.09</v>
+      </c>
+      <c r="C190" t="n">
+        <v>28.53</v>
+      </c>
+      <c r="D190" t="n">
+        <v>35.93</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>53.29</v>
+      </c>
+      <c r="C191" t="n">
+        <v>28.45</v>
+      </c>
+      <c r="D191" t="n">
+        <v>35.8</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>53.47</v>
+      </c>
+      <c r="C192" t="n">
+        <v>28.39</v>
+      </c>
+      <c r="D192" t="n">
+        <v>35.67</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>53.53</v>
+      </c>
+      <c r="C193" t="n">
+        <v>28.53</v>
+      </c>
+      <c r="D193" t="n">
+        <v>35.48</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>53.56</v>
+      </c>
+      <c r="C194" t="n">
+        <v>28.68</v>
+      </c>
+      <c r="D194" t="n">
+        <v>35.3</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>53.57</v>
+      </c>
+      <c r="C195" t="n">
+        <v>28.84</v>
+      </c>
+      <c r="D195" t="n">
+        <v>35.13</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>53.53</v>
+      </c>
+      <c r="C196" t="n">
+        <v>28.95</v>
+      </c>
+      <c r="D196" t="n">
+        <v>35.06</v>
+      </c>
+      <c r="E196" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>53.65</v>
+      </c>
+      <c r="C197" t="n">
+        <v>28.85</v>
+      </c>
+      <c r="D197" t="n">
+        <v>35.05</v>
+      </c>
+      <c r="E197" t="n">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>54.08</v>
+      </c>
+      <c r="C198" t="n">
+        <v>28.74</v>
+      </c>
+      <c r="D198" t="n">
+        <v>34.68</v>
+      </c>
+      <c r="E198" t="n">
+        <v>19.25</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>54.4</v>
+      </c>
+      <c r="C199" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="D199" t="n">
+        <v>34.41</v>
+      </c>
+      <c r="E199" t="n">
+        <v>18.825</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>54.72</v>
+      </c>
+      <c r="C200" t="n">
+        <v>29.14</v>
+      </c>
+      <c r="D200" t="n">
+        <v>34.14</v>
+      </c>
+      <c r="E200" t="n">
+        <v>18.57</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>55.01</v>
+      </c>
+      <c r="C201" t="n">
+        <v>29.33</v>
+      </c>
+      <c r="D201" t="n">
+        <v>33.91</v>
+      </c>
+      <c r="E201" t="n">
+        <v>18.4</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>55.32</v>
+      </c>
+      <c r="C202" t="n">
+        <v>29.52</v>
+      </c>
+      <c r="D202" t="n">
+        <v>33.66</v>
+      </c>
+      <c r="E202" t="n">
+        <v>18.16428571428571</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>55.18</v>
+      </c>
+      <c r="C203" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="D203" t="n">
+        <v>33.93</v>
+      </c>
+      <c r="E203" t="n">
+        <v>17.91625</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>55</v>
+      </c>
+      <c r="C204" t="n">
+        <v>30.06</v>
+      </c>
+      <c r="D204" t="n">
+        <v>34.15</v>
+      </c>
+      <c r="E204" t="n">
+        <v>17.70111111111111</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>54.96</v>
+      </c>
+      <c r="C205" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="D205" t="n">
+        <v>34.26</v>
+      </c>
+      <c r="E205" t="n">
+        <v>17.529</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>54.95</v>
+      </c>
+      <c r="C206" t="n">
+        <v>30.83</v>
+      </c>
+      <c r="D206" t="n">
+        <v>34.23</v>
+      </c>
+      <c r="E206" t="n">
+        <v>17.529</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>54.92</v>
+      </c>
+      <c r="C207" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="D207" t="n">
+        <v>34.32</v>
+      </c>
+      <c r="E207" t="n">
+        <v>17.07</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>54.88</v>
+      </c>
+      <c r="C208" t="n">
+        <v>31.65</v>
+      </c>
+      <c r="D208" t="n">
+        <v>34.42</v>
+      </c>
+      <c r="E208" t="n">
+        <v>16.591</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>54.82</v>
+      </c>
+      <c r="C209" t="n">
+        <v>31.74</v>
+      </c>
+      <c r="D209" t="n">
+        <v>34.54</v>
+      </c>
+      <c r="E209" t="n">
+        <v>16.447</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>54.81</v>
+      </c>
+      <c r="C210" t="n">
+        <v>31.81</v>
+      </c>
+      <c r="D210" t="n">
+        <v>34.64</v>
+      </c>
+      <c r="E210" t="n">
+        <v>16.283</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>54.82</v>
+      </c>
+      <c r="C211" t="n">
+        <v>31.93</v>
+      </c>
+      <c r="D211" t="n">
+        <v>34.68</v>
+      </c>
+      <c r="E211" t="n">
+        <v>16.099</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>54.74</v>
+      </c>
+      <c r="C212" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="D212" t="n">
+        <v>34.68</v>
+      </c>
+      <c r="E212" t="n">
+        <v>17.626</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="C213" t="n">
+        <v>29.04</v>
+      </c>
+      <c r="D213" t="n">
+        <v>34.72</v>
+      </c>
+      <c r="E213" t="n">
+        <v>19.067</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>55.13</v>
+      </c>
+      <c r="C214" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D214" t="n">
+        <v>34.56</v>
+      </c>
+      <c r="E214" t="n">
+        <v>20.445</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>55.41</v>
+      </c>
+      <c r="C215" t="n">
+        <v>25.78</v>
+      </c>
+      <c r="D215" t="n">
+        <v>34.58</v>
+      </c>
+      <c r="E215" t="n">
+        <v>21.763</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>55.88</v>
+      </c>
+      <c r="C216" t="n">
+        <v>24.07</v>
+      </c>
+      <c r="D216" t="n">
+        <v>34.57</v>
+      </c>
+      <c r="E216" t="n">
+        <v>23.024</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="C217" t="n">
+        <v>22.56</v>
+      </c>
+      <c r="D217" t="n">
+        <v>34.44</v>
+      </c>
+      <c r="E217" t="n">
+        <v>24.342</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>56.81</v>
+      </c>
+      <c r="C218" t="n">
+        <v>21.04</v>
+      </c>
+      <c r="D218" t="n">
+        <v>34.06</v>
+      </c>
+      <c r="E218" t="n">
+        <v>25.62</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>57.38</v>
+      </c>
+      <c r="C219" t="n">
+        <v>19.54</v>
+      </c>
+      <c r="D219" t="n">
+        <v>33.27</v>
+      </c>
+      <c r="E219" t="n">
+        <v>27.348</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>57.83</v>
+      </c>
+      <c r="C220" t="n">
+        <v>18.06</v>
+      </c>
+      <c r="D220" t="n">
+        <v>32.66</v>
+      </c>
+      <c r="E220" t="n">
+        <v>28.996</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>58.27</v>
+      </c>
+      <c r="C221" t="n">
+        <v>16.47</v>
+      </c>
+      <c r="D221" t="n">
+        <v>32.05</v>
+      </c>
+      <c r="E221" t="n">
+        <v>30.744</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>58.86</v>
+      </c>
+      <c r="C222" t="n">
+        <v>16.44</v>
+      </c>
+      <c r="D222" t="n">
+        <v>31.52</v>
+      </c>
+      <c r="E222" t="n">
+        <v>30.721</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>59.4</v>
+      </c>
+      <c r="C223" t="n">
+        <v>16.55</v>
+      </c>
+      <c r="D223" t="n">
+        <v>30.78</v>
+      </c>
+      <c r="E223" t="n">
+        <v>30.807</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>59.58</v>
+      </c>
+      <c r="C224" t="n">
+        <v>16.65</v>
+      </c>
+      <c r="D224" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="E224" t="n">
+        <v>31.013</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>59.67</v>
+      </c>
+      <c r="C225" t="n">
+        <v>16.73</v>
+      </c>
+      <c r="D225" t="n">
+        <v>30.04</v>
+      </c>
+      <c r="E225" t="n">
+        <v>31.08899999999999</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>59.6</v>
+      </c>
+      <c r="C226" t="n">
+        <v>16.88</v>
+      </c>
+      <c r="D226" t="n">
+        <v>29.83</v>
+      </c>
+      <c r="E226" t="n">
+        <v>31.232</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>59.65</v>
+      </c>
+      <c r="C227" t="n">
+        <v>16.87</v>
+      </c>
+      <c r="D227" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="E227" t="n">
+        <v>31.415</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>59.42</v>
+      </c>
+      <c r="C228" t="n">
+        <v>16.89</v>
+      </c>
+      <c r="D228" t="n">
+        <v>29.61</v>
+      </c>
+      <c r="E228" t="n">
+        <v>31.618</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>59.24</v>
+      </c>
+      <c r="C229" t="n">
+        <v>16.91</v>
+      </c>
+      <c r="D229" t="n">
+        <v>30.02</v>
+      </c>
+      <c r="E229" t="n">
+        <v>31.371</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>59.14</v>
+      </c>
+      <c r="C230" t="n">
+        <v>17.01</v>
+      </c>
+      <c r="D230" t="n">
+        <v>30.26</v>
+      </c>
+      <c r="E230" t="n">
+        <v>31.127</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>59.04</v>
+      </c>
+      <c r="C231" t="n">
+        <v>17.21</v>
+      </c>
+      <c r="D231" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="E231" t="n">
+        <v>30.79300000000001</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>58.85</v>
+      </c>
+      <c r="C232" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="D232" t="n">
+        <v>30.74</v>
+      </c>
+      <c r="E232" t="n">
+        <v>30.44899999999999</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>58.66</v>
+      </c>
+      <c r="C233" t="n">
+        <v>17.67</v>
+      </c>
+      <c r="D233" t="n">
+        <v>30.96</v>
+      </c>
+      <c r="E233" t="n">
+        <v>30.252</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>58.67</v>
+      </c>
+      <c r="C234" t="n">
+        <v>17.86</v>
+      </c>
+      <c r="D234" t="n">
+        <v>30.98</v>
+      </c>
+      <c r="E234" t="n">
+        <v>30.035</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>58.68</v>
+      </c>
+      <c r="C235" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="D235" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="E235" t="n">
+        <v>29.856</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>58.69</v>
+      </c>
+      <c r="C236" t="n">
+        <v>18.54</v>
+      </c>
+      <c r="D236" t="n">
+        <v>30.74</v>
+      </c>
+      <c r="E236" t="n">
+        <v>29.577</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>58.71</v>
+      </c>
+      <c r="C237" t="n">
+        <v>18.87</v>
+      </c>
+      <c r="D237" t="n">
+        <v>30.78</v>
+      </c>
+      <c r="E237" t="n">
+        <v>29.178</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>58.75</v>
+      </c>
+      <c r="C238" t="n">
+        <v>19.19</v>
+      </c>
+      <c r="D238" t="n">
+        <v>30.64</v>
+      </c>
+      <c r="E238" t="n">
+        <v>28.959</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>58.95</v>
+      </c>
+      <c r="C239" t="n">
+        <v>19.52</v>
+      </c>
+      <c r="D239" t="n">
+        <v>30.52</v>
+      </c>
+      <c r="E239" t="n">
+        <v>28.56</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>59.13</v>
+      </c>
+      <c r="C240" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="D240" t="n">
+        <v>30.19</v>
+      </c>
+      <c r="E240" t="n">
+        <v>28.523</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>59.31</v>
+      </c>
+      <c r="C241" t="n">
+        <v>19.83</v>
+      </c>
+      <c r="D241" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="E241" t="n">
+        <v>28.496</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="C242" t="n">
+        <v>19.95</v>
+      </c>
+      <c r="D242" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="E242" t="n">
+        <v>28.482</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>59.77</v>
+      </c>
+      <c r="C243" t="n">
+        <v>20.09</v>
+      </c>
+      <c r="D243" t="n">
+        <v>29.32</v>
+      </c>
+      <c r="E243" t="n">
+        <v>28.368</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>59.75</v>
+      </c>
+      <c r="C244" t="n">
+        <v>20.52</v>
+      </c>
+      <c r="D244" t="n">
+        <v>29.22</v>
+      </c>
+      <c r="E244" t="n">
+        <v>28.054</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>59.59</v>
+      </c>
+      <c r="C245" t="n">
+        <v>21.67</v>
+      </c>
+      <c r="D245" t="n">
+        <v>28.39</v>
+      </c>
+      <c r="E245" t="n">
+        <v>27.892</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>59.9</v>
+      </c>
+      <c r="C246" t="n">
+        <v>23.03</v>
+      </c>
+      <c r="D246" t="n">
+        <v>26.93</v>
+      </c>
+      <c r="E246" t="n">
+        <v>27.68</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>60.22</v>
+      </c>
+      <c r="C247" t="n">
+        <v>24.29</v>
+      </c>
+      <c r="D247" t="n">
+        <v>25.49</v>
+      </c>
+      <c r="E247" t="n">
+        <v>27.53799999999999</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>60.53</v>
+      </c>
+      <c r="C248" t="n">
+        <v>25.63</v>
+      </c>
+      <c r="D248" t="n">
+        <v>24.23</v>
+      </c>
+      <c r="E248" t="n">
+        <v>27.146</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>60.47</v>
+      </c>
+      <c r="C249" t="n">
+        <v>26.97</v>
+      </c>
+      <c r="D249" t="n">
+        <v>23.21</v>
+      </c>
+      <c r="E249" t="n">
+        <v>26.884</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>60.43</v>
+      </c>
+      <c r="C250" t="n">
+        <v>28.35</v>
+      </c>
+      <c r="D250" t="n">
+        <v>22.44</v>
+      </c>
+      <c r="E250" t="n">
+        <v>26.317</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>59.9</v>
+      </c>
+      <c r="C251" t="n">
+        <v>29.76</v>
+      </c>
+      <c r="D251" t="n">
+        <v>21.62</v>
+      </c>
+      <c r="E251" t="n">
+        <v>26.25</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>59.37</v>
+      </c>
+      <c r="C252" t="n">
+        <v>31.06</v>
+      </c>
+      <c r="D252" t="n">
+        <v>20.82</v>
+      </c>
+      <c r="E252" t="n">
+        <v>26.29</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>58.77</v>
+      </c>
+      <c r="C253" t="n">
+        <v>32.35</v>
+      </c>
+      <c r="D253" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="E253" t="n">
+        <v>26.02999999999999</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>57.76</v>
+      </c>
+      <c r="C254" t="n">
+        <v>34.72</v>
+      </c>
+      <c r="D254" t="n">
+        <v>19.09</v>
+      </c>
+      <c r="E254" t="n">
+        <v>25.97</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>56.95</v>
+      </c>
+      <c r="C255" t="n">
+        <v>36.12</v>
+      </c>
+      <c r="D255" t="n">
+        <v>18.55</v>
+      </c>
+      <c r="E255" t="n">
+        <v>25.91</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>55.63</v>
+      </c>
+      <c r="C256" t="n">
+        <v>37.34</v>
+      </c>
+      <c r="D256" t="n">
+        <v>18.16</v>
+      </c>
+      <c r="E256" t="n">
+        <v>26.41</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>54.29</v>
+      </c>
+      <c r="C257" t="n">
+        <v>38.55</v>
+      </c>
+      <c r="D257" t="n">
+        <v>17.92</v>
+      </c>
+      <c r="E257" t="n">
+        <v>26.775</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>53.06</v>
+      </c>
+      <c r="C258" t="n">
+        <v>39.62</v>
+      </c>
+      <c r="D258" t="n">
+        <v>17.67</v>
+      </c>
+      <c r="E258" t="n">
+        <v>27.19</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>51.32</v>
+      </c>
+      <c r="C259" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="D259" t="n">
+        <v>17.18</v>
+      </c>
+      <c r="E259" t="n">
+        <v>28.34500000000001</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>49.66</v>
+      </c>
+      <c r="C260" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="D260" t="n">
+        <v>16.66</v>
+      </c>
+      <c r="E260" t="n">
+        <v>29.52</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="C261" t="n">
+        <v>42.69</v>
+      </c>
+      <c r="D261" t="n">
+        <v>16.05</v>
+      </c>
+      <c r="E261" t="n">
+        <v>30.295</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>47.43</v>
+      </c>
+      <c r="C262" t="n">
+        <v>43.72</v>
+      </c>
+      <c r="D262" t="n">
+        <v>15.39</v>
+      </c>
+      <c r="E262" t="n">
+        <v>31.00000000000001</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="C263" t="n">
+        <v>44.76</v>
+      </c>
+      <c r="D263" t="n">
+        <v>14.27</v>
+      </c>
+      <c r="E263" t="n">
+        <v>31.815</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>46.37</v>
+      </c>
+      <c r="C264" t="n">
+        <v>44.48</v>
+      </c>
+      <c r="D264" t="n">
+        <v>14.04</v>
+      </c>
+      <c r="E264" t="n">
+        <v>32.65000000000001</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>46</v>
+      </c>
+      <c r="C265" t="n">
+        <v>44.18</v>
+      </c>
+      <c r="D265" t="n">
+        <v>13.88</v>
+      </c>
+      <c r="E265" t="n">
+        <v>33.485</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>45.81</v>
+      </c>
+      <c r="C266" t="n">
+        <v>44.06</v>
+      </c>
+      <c r="D266" t="n">
+        <v>13.83</v>
+      </c>
+      <c r="E266" t="n">
+        <v>33.84</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="C267" t="n">
+        <v>43.95</v>
+      </c>
+      <c r="D267" t="n">
+        <v>13.79</v>
+      </c>
+      <c r="E267" t="n">
+        <v>34.2</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>45.98</v>
+      </c>
+      <c r="C268" t="n">
+        <v>43.23</v>
+      </c>
+      <c r="D268" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="E268" t="n">
+        <v>34.55999999999999</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>47.03</v>
+      </c>
+      <c r="C269" t="n">
+        <v>42.51</v>
+      </c>
+      <c r="D269" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="E269" t="n">
+        <v>34.2</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>48.02</v>
+      </c>
+      <c r="C270" t="n">
+        <v>41.86</v>
+      </c>
+      <c r="D270" t="n">
+        <v>13.83</v>
+      </c>
+      <c r="E270" t="n">
+        <v>33.81999999999999</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>49</v>
+      </c>
+      <c r="C271" t="n">
+        <v>41.23</v>
+      </c>
+      <c r="D271" t="n">
+        <v>13.98</v>
+      </c>
+      <c r="E271" t="n">
+        <v>33.33</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>50.27</v>
+      </c>
+      <c r="C272" t="n">
+        <v>40.21</v>
+      </c>
+      <c r="D272" t="n">
+        <v>14.19</v>
+      </c>
+      <c r="E272" t="n">
+        <v>32.86</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>51.27</v>
+      </c>
+      <c r="C273" t="n">
+        <v>39.19</v>
+      </c>
+      <c r="D273" t="n">
+        <v>14.49</v>
+      </c>
+      <c r="E273" t="n">
+        <v>32.58999999999999</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>52.41</v>
+      </c>
+      <c r="C274" t="n">
+        <v>38.05</v>
+      </c>
+      <c r="D274" t="n">
+        <v>14.78</v>
+      </c>
+      <c r="E274" t="n">
+        <v>32.3</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>53.63</v>
+      </c>
+      <c r="C275" t="n">
+        <v>36.92</v>
+      </c>
+      <c r="D275" t="n">
+        <v>14.97</v>
+      </c>
+      <c r="E275" t="n">
+        <v>32.02</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>54.72</v>
+      </c>
+      <c r="C276" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="D276" t="n">
+        <v>14.92</v>
+      </c>
+      <c r="E276" t="n">
+        <v>31.71</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>55.82</v>
+      </c>
+      <c r="C277" t="n">
+        <v>35.46</v>
+      </c>
+      <c r="D277" t="n">
+        <v>14.69</v>
+      </c>
+      <c r="E277" t="n">
+        <v>31.57</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>56.05</v>
+      </c>
+      <c r="C278" t="n">
+        <v>35.39</v>
+      </c>
+      <c r="D278" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="E278" t="n">
+        <v>31.70499999999999</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>56.26</v>
+      </c>
+      <c r="C279" t="n">
+        <v>35.47</v>
+      </c>
+      <c r="D279" t="n">
+        <v>14.04</v>
+      </c>
+      <c r="E279" t="n">
+        <v>31.77</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>56.46</v>
+      </c>
+      <c r="C280" t="n">
+        <v>35.53</v>
+      </c>
+      <c r="D280" t="n">
+        <v>13.69</v>
+      </c>
+      <c r="E280" t="n">
+        <v>31.855</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>56.67</v>
+      </c>
+      <c r="C281" t="n">
+        <v>35.57</v>
+      </c>
+      <c r="D281" t="n">
+        <v>13.29</v>
+      </c>
+      <c r="E281" t="n">
+        <v>32.01</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>56.23</v>
+      </c>
+      <c r="C282" t="n">
+        <v>35.99</v>
+      </c>
+      <c r="D282" t="n">
+        <v>12.83</v>
+      </c>
+      <c r="E282" t="n">
+        <v>32.495</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
+        <v>56.05</v>
+      </c>
+      <c r="C283" t="n">
+        <v>36.42</v>
+      </c>
+      <c r="D283" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E283" t="n">
+        <v>32.97</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="n">
+        <v>55.77</v>
+      </c>
+      <c r="C284" t="n">
+        <v>36.93</v>
+      </c>
+      <c r="D284" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="E284" t="n">
+        <v>33.465</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/stacks_over_time_avg.xlsx
+++ b/Outputs/stacks_over_time_avg.xlsx
@@ -162,7 +162,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Stacks vs time this session (06/21/21): 10-hand moving averages</a:t>
+              <a:t>Stacks vs time this session (06/07/21): 10-hand moving averages</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -194,7 +194,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$B$2:$B$284</f>
+              <f>'data'!$B$2:$B$188</f>
             </numRef>
           </val>
         </ser>
@@ -221,7 +221,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$C$2:$C$284</f>
+              <f>'data'!$C$2:$C$188</f>
             </numRef>
           </val>
         </ser>
@@ -248,7 +248,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$D$2:$D$284</f>
+              <f>'data'!$D$2:$D$188</f>
             </numRef>
           </val>
         </ser>
@@ -275,7 +275,34 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$E$2:$E$284</f>
+              <f>'data'!$E$2:$E$188</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <strRef>
+              <f>'data'!F1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'data'!$F$2:$F$188</f>
             </numRef>
           </val>
         </ser>
@@ -645,7 +672,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E284"/>
+  <dimension ref="A1:F188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -661,24 +688,29 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Fish</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Scott</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Raymond</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Jonathan</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Cedric</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Fish</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -691,6 +723,12 @@
         <v>20</v>
       </c>
       <c r="D2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E2" t="n">
+        <v>20</v>
+      </c>
+      <c r="F2" t="n">
         <v>20</v>
       </c>
     </row>
@@ -699,12 +737,18 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19.7</v>
+        <v>20</v>
       </c>
       <c r="C3" t="n">
-        <v>20.4</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
+        <v>20</v>
+      </c>
+      <c r="E3" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="F3" t="n">
         <v>19.9</v>
       </c>
     </row>
@@ -713,13 +757,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>19.1</v>
+        <v>19.93</v>
       </c>
       <c r="C4" t="n">
-        <v>20.53</v>
+        <v>20.1</v>
       </c>
       <c r="D4" t="n">
-        <v>20.37</v>
+        <v>20</v>
+      </c>
+      <c r="E4" t="n">
+        <v>20.13</v>
+      </c>
+      <c r="F4" t="n">
+        <v>19.83</v>
       </c>
     </row>
     <row r="5">
@@ -727,13 +777,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>18.85</v>
+        <v>19.85</v>
       </c>
       <c r="C5" t="n">
-        <v>20.55</v>
+        <v>18.26</v>
       </c>
       <c r="D5" t="n">
-        <v>20.6</v>
+        <v>20</v>
+      </c>
+      <c r="E5" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>21.79</v>
       </c>
     </row>
     <row r="6">
@@ -741,13 +797,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>18.7</v>
+        <v>20.46</v>
       </c>
       <c r="C6" t="n">
-        <v>20.54</v>
+        <v>16.54</v>
       </c>
       <c r="D6" t="n">
-        <v>20.76</v>
+        <v>19.96</v>
+      </c>
+      <c r="E6" t="n">
+        <v>20.08</v>
+      </c>
+      <c r="F6" t="n">
+        <v>22.96</v>
       </c>
     </row>
     <row r="7">
@@ -755,13 +817,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>18.62</v>
+        <v>20.51</v>
       </c>
       <c r="C7" t="n">
-        <v>20.53</v>
+        <v>15.39</v>
       </c>
       <c r="D7" t="n">
-        <v>20.85</v>
+        <v>20.32</v>
+      </c>
+      <c r="E7" t="n">
+        <v>20.03</v>
+      </c>
+      <c r="F7" t="n">
+        <v>23.74</v>
       </c>
     </row>
     <row r="8">
@@ -769,13 +837,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>18.54</v>
+        <v>20.51</v>
       </c>
       <c r="C8" t="n">
-        <v>20.31</v>
+        <v>14.77</v>
       </c>
       <c r="D8" t="n">
-        <v>21.14</v>
+        <v>20.59</v>
+      </c>
+      <c r="E8" t="n">
+        <v>19.91</v>
+      </c>
+      <c r="F8" t="n">
+        <v>24.21</v>
       </c>
     </row>
     <row r="9">
@@ -783,13 +857,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>18.49</v>
+        <v>20.44</v>
       </c>
       <c r="C9" t="n">
-        <v>20.14</v>
+        <v>14.31</v>
       </c>
       <c r="D9" t="n">
-        <v>21.38</v>
+        <v>20.78</v>
+      </c>
+      <c r="E9" t="n">
+        <v>19.95</v>
+      </c>
+      <c r="F9" t="n">
+        <v>24.52</v>
       </c>
     </row>
     <row r="10">
@@ -797,13 +877,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>18.56</v>
+        <v>21.08</v>
       </c>
       <c r="C10" t="n">
-        <v>19.89</v>
+        <v>13.3</v>
       </c>
       <c r="D10" t="n">
-        <v>21.54</v>
+        <v>20.91</v>
+      </c>
+      <c r="E10" t="n">
+        <v>19.96</v>
+      </c>
+      <c r="F10" t="n">
+        <v>24.76</v>
       </c>
     </row>
     <row r="11">
@@ -811,13 +897,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>19.18</v>
+        <v>21.59</v>
       </c>
       <c r="C11" t="n">
-        <v>19.14</v>
+        <v>12.47</v>
       </c>
       <c r="D11" t="n">
-        <v>21.68</v>
+        <v>21.04</v>
+      </c>
+      <c r="E11" t="n">
+        <v>19.96</v>
+      </c>
+      <c r="F11" t="n">
+        <v>24.95</v>
       </c>
     </row>
     <row r="12">
@@ -825,13 +917,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>19.18</v>
+        <v>21.59</v>
       </c>
       <c r="C12" t="n">
-        <v>19.14</v>
+        <v>12.47</v>
       </c>
       <c r="D12" t="n">
-        <v>21.68</v>
+        <v>21.04</v>
+      </c>
+      <c r="E12" t="n">
+        <v>19.96</v>
+      </c>
+      <c r="F12" t="n">
+        <v>24.95</v>
       </c>
     </row>
     <row r="13">
@@ -839,13 +937,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>19.66</v>
+        <v>22.2</v>
       </c>
       <c r="C13" t="n">
-        <v>18.5</v>
+        <v>10.98</v>
       </c>
       <c r="D13" t="n">
-        <v>21.85</v>
+        <v>21.19</v>
+      </c>
+      <c r="E13" t="n">
+        <v>19.94</v>
+      </c>
+      <c r="F13" t="n">
+        <v>25.7</v>
       </c>
     </row>
     <row r="14">
@@ -853,13 +957,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>19.99</v>
+        <v>22.82</v>
       </c>
       <c r="C14" t="n">
-        <v>17.77</v>
+        <v>9.48</v>
       </c>
       <c r="D14" t="n">
-        <v>22.24</v>
+        <v>21.4</v>
+      </c>
+      <c r="E14" t="n">
+        <v>19.89</v>
+      </c>
+      <c r="F14" t="n">
+        <v>26.41</v>
       </c>
     </row>
     <row r="15">
@@ -867,13 +977,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>20.46</v>
+        <v>23.39</v>
       </c>
       <c r="C15" t="n">
-        <v>17.02</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>22.52</v>
+        <v>21.69</v>
+      </c>
+      <c r="E15" t="n">
+        <v>19.84</v>
+      </c>
+      <c r="F15" t="n">
+        <v>27.12</v>
       </c>
     </row>
     <row r="16">
@@ -881,13 +997,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>20.83</v>
+        <v>23.98</v>
       </c>
       <c r="C16" t="n">
-        <v>16.4</v>
+        <v>10.2</v>
       </c>
       <c r="D16" t="n">
-        <v>22.77</v>
+        <v>21.97</v>
+      </c>
+      <c r="E16" t="n">
+        <v>19.81</v>
+      </c>
+      <c r="F16" t="n">
+        <v>27.04</v>
       </c>
     </row>
     <row r="17">
@@ -895,13 +1017,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>21.21</v>
+        <v>24.18</v>
       </c>
       <c r="C17" t="n">
-        <v>15.79</v>
+        <v>11.33</v>
       </c>
       <c r="D17" t="n">
-        <v>23.01</v>
+        <v>22.25</v>
+      </c>
+      <c r="E17" t="n">
+        <v>19.78</v>
+      </c>
+      <c r="F17" t="n">
+        <v>26.96</v>
       </c>
     </row>
     <row r="18">
@@ -909,13 +1037,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>21.32</v>
+        <v>24.7</v>
       </c>
       <c r="C18" t="n">
-        <v>15.15</v>
+        <v>12.38</v>
       </c>
       <c r="D18" t="n">
-        <v>23.53</v>
+        <v>22.29</v>
+      </c>
+      <c r="E18" t="n">
+        <v>19.75</v>
+      </c>
+      <c r="F18" t="n">
+        <v>26.88</v>
       </c>
     </row>
     <row r="19">
@@ -923,13 +1057,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>21.44</v>
+        <v>25.25</v>
       </c>
       <c r="C19" t="n">
-        <v>14.65</v>
+        <v>13.58</v>
       </c>
       <c r="D19" t="n">
-        <v>23.9</v>
+        <v>22.33</v>
+      </c>
+      <c r="E19" t="n">
+        <v>19.77</v>
+      </c>
+      <c r="F19" t="n">
+        <v>26.57</v>
       </c>
     </row>
     <row r="20">
@@ -937,13 +1077,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>22.05</v>
+        <v>26.86</v>
       </c>
       <c r="C20" t="n">
-        <v>14.17</v>
+        <v>14.07</v>
       </c>
       <c r="D20" t="n">
-        <v>23.78</v>
+        <v>22.37</v>
+      </c>
+      <c r="E20" t="n">
+        <v>19.63</v>
+      </c>
+      <c r="F20" t="n">
+        <v>26.07</v>
       </c>
     </row>
     <row r="21">
@@ -951,13 +1097,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>22.55</v>
+        <v>27.84</v>
       </c>
       <c r="C21" t="n">
-        <v>14.37</v>
+        <v>15.21</v>
       </c>
       <c r="D21" t="n">
-        <v>23.66</v>
+        <v>22.43</v>
+      </c>
+      <c r="E21" t="n">
+        <v>19.45</v>
+      </c>
+      <c r="F21" t="n">
+        <v>25.57</v>
       </c>
     </row>
     <row r="22">
@@ -965,13 +1117,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>21.9</v>
+        <v>28.8</v>
       </c>
       <c r="C22" t="n">
-        <v>15.13</v>
+        <v>16.41</v>
       </c>
       <c r="D22" t="n">
-        <v>24.14</v>
+        <v>22.45</v>
+      </c>
+      <c r="E22" t="n">
+        <v>19.27</v>
+      </c>
+      <c r="F22" t="n">
+        <v>25.07</v>
       </c>
     </row>
     <row r="23">
@@ -979,13 +1137,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>21.27</v>
+        <v>29.77</v>
       </c>
       <c r="C23" t="n">
-        <v>15.77</v>
+        <v>17.61</v>
       </c>
       <c r="D23" t="n">
-        <v>24.72</v>
+        <v>22.52</v>
+      </c>
+      <c r="E23" t="n">
+        <v>18.99</v>
+      </c>
+      <c r="F23" t="n">
+        <v>24.48</v>
       </c>
     </row>
     <row r="24">
@@ -993,13 +1157,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>20.82</v>
+        <v>30.73</v>
       </c>
       <c r="C24" t="n">
-        <v>16.38</v>
+        <v>18.81</v>
       </c>
       <c r="D24" t="n">
-        <v>25.14</v>
+        <v>22.53</v>
+      </c>
+      <c r="E24" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="F24" t="n">
+        <v>23.97</v>
       </c>
     </row>
     <row r="25">
@@ -1007,13 +1177,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>20.38</v>
+        <v>31.75</v>
       </c>
       <c r="C25" t="n">
-        <v>17.03</v>
+        <v>18.49</v>
       </c>
       <c r="D25" t="n">
-        <v>25.51</v>
+        <v>22.47</v>
+      </c>
+      <c r="E25" t="n">
+        <v>18.42</v>
+      </c>
+      <c r="F25" t="n">
+        <v>23.49</v>
       </c>
     </row>
     <row r="26">
@@ -1021,13 +1197,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>19.94</v>
+        <v>32.91</v>
       </c>
       <c r="C26" t="n">
-        <v>17.59</v>
+        <v>18.18</v>
       </c>
       <c r="D26" t="n">
-        <v>25.98</v>
+        <v>22.39</v>
+      </c>
+      <c r="E26" t="n">
+        <v>18.13</v>
+      </c>
+      <c r="F26" t="n">
+        <v>23.01</v>
       </c>
     </row>
     <row r="27">
@@ -1035,13 +1217,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>19.48</v>
+        <v>34.04</v>
       </c>
       <c r="C27" t="n">
-        <v>18.13</v>
+        <v>17.51</v>
       </c>
       <c r="D27" t="n">
-        <v>26.49</v>
+        <v>22.32</v>
+      </c>
+      <c r="E27" t="n">
+        <v>18.22</v>
+      </c>
+      <c r="F27" t="n">
+        <v>22.53</v>
       </c>
     </row>
     <row r="28">
@@ -1049,13 +1237,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>19.28</v>
+        <v>35.05</v>
       </c>
       <c r="C28" t="n">
-        <v>18.67</v>
+        <v>16.84</v>
       </c>
       <c r="D28" t="n">
-        <v>26.73</v>
+        <v>22.43</v>
+      </c>
+      <c r="E28" t="n">
+        <v>18.32</v>
+      </c>
+      <c r="F28" t="n">
+        <v>21.97</v>
       </c>
     </row>
     <row r="29">
@@ -1063,13 +1257,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>18.58</v>
+        <v>36.05</v>
       </c>
       <c r="C29" t="n">
-        <v>19.23</v>
+        <v>15.91</v>
       </c>
       <c r="D29" t="n">
-        <v>27.46</v>
+        <v>22.54</v>
+      </c>
+      <c r="E29" t="n">
+        <v>18.43</v>
+      </c>
+      <c r="F29" t="n">
+        <v>21.68</v>
       </c>
     </row>
     <row r="30">
@@ -1077,13 +1277,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>17.41</v>
+        <v>36.03</v>
       </c>
       <c r="C30" t="n">
-        <v>19.76</v>
+        <v>15.76</v>
       </c>
       <c r="D30" t="n">
-        <v>28.68</v>
+        <v>22.65</v>
+      </c>
+      <c r="E30" t="n">
+        <v>18.55</v>
+      </c>
+      <c r="F30" t="n">
+        <v>21.63</v>
       </c>
     </row>
     <row r="31">
@@ -1091,13 +1297,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>16.28</v>
+        <v>36</v>
       </c>
       <c r="C31" t="n">
-        <v>19.69</v>
+        <v>15.52</v>
       </c>
       <c r="D31" t="n">
-        <v>29.88</v>
+        <v>22.8</v>
+      </c>
+      <c r="E31" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="F31" t="n">
+        <v>21.58</v>
       </c>
     </row>
     <row r="32">
@@ -1105,13 +1317,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>15.59</v>
+        <v>35.99</v>
       </c>
       <c r="C32" t="n">
-        <v>19.63</v>
+        <v>15.29</v>
       </c>
       <c r="D32" t="n">
-        <v>30.63</v>
+        <v>22.96</v>
+      </c>
+      <c r="E32" t="n">
+        <v>18.87</v>
+      </c>
+      <c r="F32" t="n">
+        <v>21.51</v>
       </c>
     </row>
     <row r="33">
@@ -1119,13 +1337,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>15.75</v>
+        <v>36.01</v>
       </c>
       <c r="C33" t="n">
-        <v>19.65</v>
+        <v>15.06</v>
       </c>
       <c r="D33" t="n">
-        <v>31.32</v>
+        <v>23.13</v>
+      </c>
+      <c r="E33" t="n">
+        <v>19.12</v>
+      </c>
+      <c r="F33" t="n">
+        <v>21.42</v>
       </c>
     </row>
     <row r="34">
@@ -1133,13 +1357,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>15.93</v>
+        <v>35.96</v>
       </c>
       <c r="C34" t="n">
-        <v>19.71</v>
+        <v>14.92</v>
       </c>
       <c r="D34" t="n">
-        <v>31.95</v>
+        <v>23.3</v>
+      </c>
+      <c r="E34" t="n">
+        <v>19.39</v>
+      </c>
+      <c r="F34" t="n">
+        <v>21.3</v>
       </c>
     </row>
     <row r="35">
@@ -1147,13 +1377,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>16.21</v>
+        <v>35.85</v>
       </c>
       <c r="C35" t="n">
-        <v>19.75</v>
+        <v>15.23</v>
       </c>
       <c r="D35" t="n">
-        <v>32.5</v>
+        <v>23.09</v>
+      </c>
+      <c r="E35" t="n">
+        <v>19.66</v>
+      </c>
+      <c r="F35" t="n">
+        <v>21.16</v>
       </c>
     </row>
     <row r="36">
@@ -1161,13 +1397,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>18.82</v>
+        <v>35.54</v>
       </c>
       <c r="C36" t="n">
-        <v>19.64</v>
+        <v>15.51</v>
       </c>
       <c r="D36" t="n">
-        <v>30.87</v>
+        <v>23.03</v>
+      </c>
+      <c r="E36" t="n">
+        <v>19.91</v>
+      </c>
+      <c r="F36" t="n">
+        <v>21.02</v>
       </c>
     </row>
     <row r="37">
@@ -1175,13 +1417,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>21.46</v>
+        <v>35.25</v>
       </c>
       <c r="C37" t="n">
-        <v>19.54</v>
+        <v>16.21</v>
       </c>
       <c r="D37" t="n">
-        <v>29.19</v>
+        <v>22.96</v>
+      </c>
+      <c r="E37" t="n">
+        <v>19.76</v>
+      </c>
+      <c r="F37" t="n">
+        <v>20.82</v>
       </c>
     </row>
     <row r="38">
@@ -1189,13 +1437,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>24.12</v>
+        <v>34.89</v>
       </c>
       <c r="C38" t="n">
-        <v>19.45</v>
+        <v>17</v>
       </c>
       <c r="D38" t="n">
-        <v>27.49</v>
+        <v>22.94</v>
+      </c>
+      <c r="E38" t="n">
+        <v>19.55</v>
+      </c>
+      <c r="F38" t="n">
+        <v>20.63</v>
       </c>
     </row>
     <row r="39">
@@ -1203,13 +1457,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>27.27</v>
+        <v>34.6</v>
       </c>
       <c r="C39" t="n">
-        <v>19.37</v>
+        <v>17.75</v>
       </c>
       <c r="D39" t="n">
-        <v>25.29</v>
+        <v>22.92</v>
+      </c>
+      <c r="E39" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="F39" t="n">
+        <v>20.44</v>
       </c>
     </row>
     <row r="40">
@@ -1217,13 +1477,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>30.2</v>
+        <v>34.24</v>
       </c>
       <c r="C40" t="n">
-        <v>19.11</v>
+        <v>17.45</v>
       </c>
       <c r="D40" t="n">
-        <v>23.49</v>
+        <v>22.82</v>
+      </c>
+      <c r="E40" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="F40" t="n">
+        <v>21.38</v>
       </c>
     </row>
     <row r="41">
@@ -1231,13 +1497,19 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>33.11</v>
+        <v>33.9</v>
       </c>
       <c r="C41" t="n">
-        <v>18.86</v>
+        <v>17.29</v>
       </c>
       <c r="D41" t="n">
-        <v>21.7</v>
+        <v>22.58</v>
+      </c>
+      <c r="E41" t="n">
+        <v>18.89</v>
+      </c>
+      <c r="F41" t="n">
+        <v>22.33</v>
       </c>
     </row>
     <row r="42">
@@ -1245,13 +1517,19 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>36.18</v>
+        <v>33.67</v>
       </c>
       <c r="C42" t="n">
-        <v>18.59</v>
+        <v>16.99</v>
       </c>
       <c r="D42" t="n">
-        <v>19.77</v>
+        <v>22.35</v>
+      </c>
+      <c r="E42" t="n">
+        <v>18.68</v>
+      </c>
+      <c r="F42" t="n">
+        <v>23.3</v>
       </c>
     </row>
     <row r="43">
@@ -1259,13 +1537,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>38.39</v>
+        <v>33.4</v>
       </c>
       <c r="C43" t="n">
-        <v>18.26</v>
+        <v>16.62</v>
       </c>
       <c r="D43" t="n">
-        <v>17.89</v>
+        <v>22.12</v>
+      </c>
+      <c r="E43" t="n">
+        <v>18.41</v>
+      </c>
+      <c r="F43" t="n">
+        <v>24.47</v>
       </c>
     </row>
     <row r="44">
@@ -1273,13 +1557,19 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>40.53</v>
+        <v>33.22</v>
       </c>
       <c r="C44" t="n">
-        <v>18.05</v>
+        <v>16.13</v>
       </c>
       <c r="D44" t="n">
-        <v>15.96</v>
+        <v>21.89</v>
+      </c>
+      <c r="E44" t="n">
+        <v>18.14</v>
+      </c>
+      <c r="F44" t="n">
+        <v>25.67</v>
       </c>
     </row>
     <row r="45">
@@ -1287,13 +1577,19 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>42.56</v>
+        <v>33.06</v>
       </c>
       <c r="C45" t="n">
-        <v>17.85</v>
+        <v>15.23</v>
       </c>
       <c r="D45" t="n">
-        <v>14.13</v>
+        <v>22.02</v>
+      </c>
+      <c r="E45" t="n">
+        <v>17.86</v>
+      </c>
+      <c r="F45" t="n">
+        <v>26.86</v>
       </c>
     </row>
     <row r="46">
@@ -1301,13 +1597,19 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>42.37</v>
+        <v>32.96</v>
       </c>
       <c r="C46" t="n">
-        <v>17.79</v>
+        <v>14.35</v>
       </c>
       <c r="D46" t="n">
-        <v>14.38</v>
+        <v>22.01</v>
+      </c>
+      <c r="E46" t="n">
+        <v>17.65</v>
+      </c>
+      <c r="F46" t="n">
+        <v>28.06</v>
       </c>
     </row>
     <row r="47">
@@ -1315,13 +1617,19 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>42.16</v>
+        <v>32.86</v>
       </c>
       <c r="C47" t="n">
-        <v>17.74</v>
+        <v>13.46</v>
       </c>
       <c r="D47" t="n">
-        <v>14.64</v>
+        <v>22.02</v>
+      </c>
+      <c r="E47" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="F47" t="n">
+        <v>29.32</v>
       </c>
     </row>
     <row r="48">
@@ -1329,13 +1637,19 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>41.93</v>
+        <v>32.81</v>
       </c>
       <c r="C48" t="n">
-        <v>17.7</v>
+        <v>12.59</v>
       </c>
       <c r="D48" t="n">
-        <v>14.91</v>
+        <v>21.81</v>
+      </c>
+      <c r="E48" t="n">
+        <v>17.22</v>
+      </c>
+      <c r="F48" t="n">
+        <v>30.65</v>
       </c>
     </row>
     <row r="49">
@@ -1343,13 +1657,19 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>41.71</v>
+        <v>32.7</v>
       </c>
       <c r="C49" t="n">
-        <v>17.59</v>
+        <v>11.96</v>
       </c>
       <c r="D49" t="n">
-        <v>15.24</v>
+        <v>21.6</v>
+      </c>
+      <c r="E49" t="n">
+        <v>16.85</v>
+      </c>
+      <c r="F49" t="n">
+        <v>31.99</v>
       </c>
     </row>
     <row r="50">
@@ -1357,13 +1677,19 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>41.79</v>
+        <v>32.67</v>
       </c>
       <c r="C50" t="n">
-        <v>17.68</v>
+        <v>12.33</v>
       </c>
       <c r="D50" t="n">
-        <v>15.07</v>
+        <v>21.45</v>
+      </c>
+      <c r="E50" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="F50" t="n">
+        <v>32.17</v>
       </c>
     </row>
     <row r="51">
@@ -1371,13 +1697,19 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>41.85</v>
+        <v>32.54</v>
       </c>
       <c r="C51" t="n">
-        <v>17.78</v>
+        <v>12.32</v>
       </c>
       <c r="D51" t="n">
-        <v>14.91</v>
+        <v>21.38</v>
+      </c>
+      <c r="E51" t="n">
+        <v>16.11</v>
+      </c>
+      <c r="F51" t="n">
+        <v>32.75</v>
       </c>
     </row>
     <row r="52">
@@ -1385,13 +1717,19 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>41.89</v>
+        <v>32.3</v>
       </c>
       <c r="C52" t="n">
-        <v>17.78</v>
+        <v>12.39</v>
       </c>
       <c r="D52" t="n">
-        <v>14.87</v>
+        <v>21.4</v>
+      </c>
+      <c r="E52" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="F52" t="n">
+        <v>33.31</v>
       </c>
     </row>
     <row r="53">
@@ -1399,13 +1737,19 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>41.73</v>
+        <v>32.04</v>
       </c>
       <c r="C53" t="n">
-        <v>17.76</v>
+        <v>12.63</v>
       </c>
       <c r="D53" t="n">
-        <v>15.05</v>
+        <v>21.35</v>
+      </c>
+      <c r="E53" t="n">
+        <v>15.38</v>
+      </c>
+      <c r="F53" t="n">
+        <v>33.68</v>
       </c>
     </row>
     <row r="54">
@@ -1413,13 +1757,19 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>41.64</v>
+        <v>31.77</v>
       </c>
       <c r="C54" t="n">
-        <v>17.66</v>
+        <v>13.03</v>
       </c>
       <c r="D54" t="n">
-        <v>15.25</v>
+        <v>21.19</v>
+      </c>
+      <c r="E54" t="n">
+        <v>15.05</v>
+      </c>
+      <c r="F54" t="n">
+        <v>34.03</v>
       </c>
     </row>
     <row r="55">
@@ -1427,13 +1777,19 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>41.56</v>
+        <v>31.52</v>
       </c>
       <c r="C55" t="n">
-        <v>17.53</v>
+        <v>13.46</v>
       </c>
       <c r="D55" t="n">
-        <v>15.47</v>
+        <v>20.98</v>
+      </c>
+      <c r="E55" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="F55" t="n">
+        <v>34.38</v>
       </c>
     </row>
     <row r="56">
@@ -1441,13 +1797,19 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>41.45</v>
+        <v>31.28</v>
       </c>
       <c r="C56" t="n">
-        <v>17.43</v>
+        <v>13.96</v>
       </c>
       <c r="D56" t="n">
-        <v>15.69</v>
+        <v>20.76</v>
+      </c>
+      <c r="E56" t="n">
+        <v>14.33</v>
+      </c>
+      <c r="F56" t="n">
+        <v>34.73</v>
       </c>
     </row>
     <row r="57">
@@ -1455,13 +1817,19 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>41.32</v>
+        <v>31.08</v>
       </c>
       <c r="C57" t="n">
-        <v>17.26</v>
+        <v>14.31</v>
       </c>
       <c r="D57" t="n">
-        <v>15.99</v>
+        <v>20.52</v>
+      </c>
+      <c r="E57" t="n">
+        <v>14</v>
+      </c>
+      <c r="F57" t="n">
+        <v>35.13</v>
       </c>
     </row>
     <row r="58">
@@ -1469,13 +1837,19 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>41.17</v>
+        <v>30.88</v>
       </c>
       <c r="C58" t="n">
-        <v>17.11</v>
+        <v>14.73</v>
       </c>
       <c r="D58" t="n">
-        <v>16.29</v>
+        <v>20.28</v>
+      </c>
+      <c r="E58" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="F58" t="n">
+        <v>35.52</v>
       </c>
     </row>
     <row r="59">
@@ -1483,13 +1857,19 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>41.02</v>
+        <v>30.61</v>
       </c>
       <c r="C59" t="n">
-        <v>17.09</v>
+        <v>15.1</v>
       </c>
       <c r="D59" t="n">
-        <v>16.46</v>
+        <v>20.05</v>
+      </c>
+      <c r="E59" t="n">
+        <v>13.41</v>
+      </c>
+      <c r="F59" t="n">
+        <v>35.83</v>
       </c>
     </row>
     <row r="60">
@@ -1497,13 +1877,19 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>40.79</v>
+        <v>30.26</v>
       </c>
       <c r="C60" t="n">
-        <v>17.06</v>
+        <v>15.62</v>
       </c>
       <c r="D60" t="n">
-        <v>16.71</v>
+        <v>19.81</v>
+      </c>
+      <c r="E60" t="n">
+        <v>13.23</v>
+      </c>
+      <c r="F60" t="n">
+        <v>36.08</v>
       </c>
     </row>
     <row r="61">
@@ -1511,13 +1897,19 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>40.56</v>
+        <v>30.11</v>
       </c>
       <c r="C61" t="n">
-        <v>17.04</v>
+        <v>16.42</v>
       </c>
       <c r="D61" t="n">
-        <v>16.97</v>
+        <v>19.52</v>
+      </c>
+      <c r="E61" t="n">
+        <v>13.04</v>
+      </c>
+      <c r="F61" t="n">
+        <v>35.91</v>
       </c>
     </row>
     <row r="62">
@@ -1525,13 +1917,19 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>40.33</v>
+        <v>29.96</v>
       </c>
       <c r="C62" t="n">
-        <v>17.5</v>
+        <v>17.29</v>
       </c>
       <c r="D62" t="n">
-        <v>17.05</v>
+        <v>19.15</v>
+      </c>
+      <c r="E62" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="F62" t="n">
+        <v>35.7</v>
       </c>
     </row>
     <row r="63">
@@ -1539,13 +1937,19 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>40.4</v>
+        <v>29.81</v>
       </c>
       <c r="C63" t="n">
-        <v>17.95</v>
+        <v>18.06</v>
       </c>
       <c r="D63" t="n">
-        <v>16.82</v>
+        <v>18.85</v>
+      </c>
+      <c r="E63" t="n">
+        <v>12.76</v>
+      </c>
+      <c r="F63" t="n">
+        <v>35.52</v>
       </c>
     </row>
     <row r="64">
@@ -1553,13 +1957,19 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>39.41</v>
+        <v>29.66</v>
       </c>
       <c r="C64" t="n">
-        <v>18.27</v>
+        <v>18.71</v>
       </c>
       <c r="D64" t="n">
-        <v>17.78</v>
+        <v>18.67</v>
+      </c>
+      <c r="E64" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="F64" t="n">
+        <v>35.34</v>
       </c>
     </row>
     <row r="65">
@@ -1567,13 +1977,19 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>38.13</v>
+        <v>29.43</v>
       </c>
       <c r="C65" t="n">
-        <v>18.58</v>
+        <v>19.48</v>
       </c>
       <c r="D65" t="n">
-        <v>19.04</v>
+        <v>18.47</v>
+      </c>
+      <c r="E65" t="n">
+        <v>12.46</v>
+      </c>
+      <c r="F65" t="n">
+        <v>35.16</v>
       </c>
     </row>
     <row r="66">
@@ -1581,13 +1997,19 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>36.86</v>
+        <v>29.52</v>
       </c>
       <c r="C66" t="n">
-        <v>18.88</v>
+        <v>19.92</v>
       </c>
       <c r="D66" t="n">
-        <v>20.3</v>
+        <v>18.28</v>
+      </c>
+      <c r="E66" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F66" t="n">
+        <v>34.98</v>
       </c>
     </row>
     <row r="67">
@@ -1595,13 +2017,19 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>35.58</v>
+        <v>29.57</v>
       </c>
       <c r="C67" t="n">
-        <v>19.26</v>
+        <v>20.4</v>
       </c>
       <c r="D67" t="n">
-        <v>21.5</v>
+        <v>18.15</v>
+      </c>
+      <c r="E67" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="F67" t="n">
+        <v>34.73</v>
       </c>
     </row>
     <row r="68">
@@ -1609,13 +2037,19 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>34.33</v>
+        <v>29.64</v>
       </c>
       <c r="C68" t="n">
-        <v>19.67</v>
+        <v>20.8</v>
       </c>
       <c r="D68" t="n">
-        <v>22.64</v>
+        <v>18.03</v>
+      </c>
+      <c r="E68" t="n">
+        <v>12.09</v>
+      </c>
+      <c r="F68" t="n">
+        <v>34.48</v>
       </c>
     </row>
     <row r="69">
@@ -1623,13 +2057,19 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>33.02</v>
+        <v>29.79</v>
       </c>
       <c r="C69" t="n">
-        <v>20.13</v>
+        <v>21.11</v>
       </c>
       <c r="D69" t="n">
-        <v>23.78</v>
+        <v>17.86</v>
+      </c>
+      <c r="E69" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="F69" t="n">
+        <v>34.26</v>
       </c>
     </row>
     <row r="70">
@@ -1637,13 +2077,19 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>31.72</v>
+        <v>29.98</v>
       </c>
       <c r="C70" t="n">
-        <v>20.58</v>
+        <v>21.05</v>
       </c>
       <c r="D70" t="n">
-        <v>24.95</v>
+        <v>18.4</v>
+      </c>
+      <c r="E70" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="F70" t="n">
+        <v>33.62</v>
       </c>
     </row>
     <row r="71">
@@ -1651,13 +2097,19 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>30.45</v>
+        <v>30.06</v>
       </c>
       <c r="C71" t="n">
-        <v>21</v>
+        <v>21.02</v>
       </c>
       <c r="D71" t="n">
-        <v>26.09</v>
+        <v>19</v>
+      </c>
+      <c r="E71" t="n">
+        <v>12</v>
+      </c>
+      <c r="F71" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="72">
@@ -1665,13 +2117,19 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>29.16</v>
+        <v>30.07</v>
       </c>
       <c r="C72" t="n">
-        <v>21.07</v>
+        <v>21.03</v>
       </c>
       <c r="D72" t="n">
-        <v>27.31</v>
+        <v>19.59</v>
+      </c>
+      <c r="E72" t="n">
+        <v>11.97</v>
+      </c>
+      <c r="F72" t="n">
+        <v>32.42</v>
       </c>
     </row>
     <row r="73">
@@ -1679,13 +2137,19 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>27.54</v>
+        <v>30.08</v>
       </c>
       <c r="C73" t="n">
-        <v>21.11</v>
+        <v>21.06</v>
       </c>
       <c r="D73" t="n">
-        <v>28.89</v>
+        <v>20.18</v>
+      </c>
+      <c r="E73" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="F73" t="n">
+        <v>31.81</v>
       </c>
     </row>
     <row r="74">
@@ -1693,13 +2157,19 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>26.95</v>
+        <v>30.04</v>
       </c>
       <c r="C74" t="n">
-        <v>21.27</v>
+        <v>20.83</v>
       </c>
       <c r="D74" t="n">
-        <v>29.32</v>
+        <v>21.15</v>
+      </c>
+      <c r="E74" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="F74" t="n">
+        <v>31.2</v>
       </c>
     </row>
     <row r="75">
@@ -1707,13 +2177,19 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>26.73</v>
+        <v>30.09</v>
       </c>
       <c r="C75" t="n">
-        <v>21.39</v>
+        <v>20.44</v>
       </c>
       <c r="D75" t="n">
-        <v>29.42</v>
+        <v>22.18</v>
+      </c>
+      <c r="E75" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="F75" t="n">
+        <v>30.59</v>
       </c>
     </row>
     <row r="76">
@@ -1721,13 +2197,19 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>26.54</v>
+        <v>30.12</v>
       </c>
       <c r="C76" t="n">
-        <v>21.48</v>
+        <v>20.11</v>
       </c>
       <c r="D76" t="n">
-        <v>29.51</v>
+        <v>23.2</v>
+      </c>
+      <c r="E76" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="F76" t="n">
+        <v>29.98</v>
       </c>
     </row>
     <row r="77">
@@ -1735,13 +2217,19 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>26.38</v>
+        <v>30.11</v>
       </c>
       <c r="C77" t="n">
-        <v>21.58</v>
+        <v>19.63</v>
       </c>
       <c r="D77" t="n">
-        <v>29.59</v>
+        <v>24.18</v>
+      </c>
+      <c r="E77" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="F77" t="n">
+        <v>29.63</v>
       </c>
     </row>
     <row r="78">
@@ -1749,13 +2237,19 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>26.22</v>
+        <v>30.07</v>
       </c>
       <c r="C78" t="n">
-        <v>21.61</v>
+        <v>19.2</v>
       </c>
       <c r="D78" t="n">
-        <v>29.71</v>
+        <v>25.16</v>
+      </c>
+      <c r="E78" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="F78" t="n">
+        <v>29.27</v>
       </c>
     </row>
     <row r="79">
@@ -1763,13 +2257,19 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>26.11</v>
+        <v>30.01</v>
       </c>
       <c r="C79" t="n">
-        <v>21.54</v>
+        <v>18.75</v>
       </c>
       <c r="D79" t="n">
-        <v>29.89</v>
+        <v>26.2</v>
+      </c>
+      <c r="E79" t="n">
+        <v>11.08</v>
+      </c>
+      <c r="F79" t="n">
+        <v>28.96</v>
       </c>
     </row>
     <row r="80">
@@ -1777,13 +2277,19 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>25.98</v>
+        <v>29.98</v>
       </c>
       <c r="C80" t="n">
-        <v>21.51</v>
+        <v>18.57</v>
       </c>
       <c r="D80" t="n">
-        <v>30.05</v>
+        <v>26.59</v>
+      </c>
+      <c r="E80" t="n">
+        <v>10.82</v>
+      </c>
+      <c r="F80" t="n">
+        <v>29.04</v>
       </c>
     </row>
     <row r="81">
@@ -1791,13 +2297,19 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>25.8</v>
+        <v>29.89</v>
       </c>
       <c r="C81" t="n">
-        <v>21.49</v>
+        <v>18.29</v>
       </c>
       <c r="D81" t="n">
-        <v>30.25</v>
+        <v>27.14</v>
+      </c>
+      <c r="E81" t="n">
+        <v>10.56</v>
+      </c>
+      <c r="F81" t="n">
+        <v>29.12</v>
       </c>
     </row>
     <row r="82">
@@ -1805,13 +2317,19 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>25.72</v>
+        <v>29.83</v>
       </c>
       <c r="C82" t="n">
-        <v>21.45</v>
+        <v>17.91</v>
       </c>
       <c r="D82" t="n">
-        <v>30.37</v>
+        <v>27.68</v>
+      </c>
+      <c r="E82" t="n">
+        <v>10.31</v>
+      </c>
+      <c r="F82" t="n">
+        <v>29.27</v>
       </c>
     </row>
     <row r="83">
@@ -1819,13 +2337,19 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>24.79</v>
+        <v>29.71</v>
       </c>
       <c r="C83" t="n">
-        <v>22.54</v>
+        <v>16.99</v>
       </c>
       <c r="D83" t="n">
-        <v>30.21</v>
+        <v>28.23</v>
+      </c>
+      <c r="E83" t="n">
+        <v>9.970000000000001</v>
+      </c>
+      <c r="F83" t="n">
+        <v>30.09</v>
       </c>
     </row>
     <row r="84">
@@ -1833,13 +2357,19 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>23.98</v>
+        <v>29.64</v>
       </c>
       <c r="C84" t="n">
-        <v>23.59</v>
+        <v>16.35</v>
       </c>
       <c r="D84" t="n">
-        <v>29.97</v>
+        <v>28.41</v>
+      </c>
+      <c r="E84" t="n">
+        <v>9.69</v>
+      </c>
+      <c r="F84" t="n">
+        <v>30.91</v>
       </c>
     </row>
     <row r="85">
@@ -1847,13 +2377,19 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>23.11</v>
+        <v>29.51</v>
       </c>
       <c r="C85" t="n">
-        <v>24.69</v>
+        <v>15.77</v>
       </c>
       <c r="D85" t="n">
-        <v>29.74</v>
+        <v>28.58</v>
+      </c>
+      <c r="E85" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="F85" t="n">
+        <v>31.73</v>
       </c>
     </row>
     <row r="86">
@@ -1861,13 +2397,19 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>22.28</v>
+        <v>29.09</v>
       </c>
       <c r="C86" t="n">
-        <v>25.75</v>
+        <v>15.38</v>
       </c>
       <c r="D86" t="n">
-        <v>29.51</v>
+        <v>28.68</v>
+      </c>
+      <c r="E86" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="F86" t="n">
+        <v>32.47</v>
       </c>
     </row>
     <row r="87">
@@ -1875,13 +2417,19 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>21.46</v>
+        <v>28.89</v>
       </c>
       <c r="C87" t="n">
-        <v>26.79</v>
+        <v>15.04</v>
       </c>
       <c r="D87" t="n">
-        <v>29.3</v>
+        <v>28.79</v>
+      </c>
+      <c r="E87" t="n">
+        <v>9.33</v>
+      </c>
+      <c r="F87" t="n">
+        <v>32.95</v>
       </c>
     </row>
     <row r="88">
@@ -1889,13 +2437,19 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>20.61</v>
+        <v>28.78</v>
       </c>
       <c r="C88" t="n">
-        <v>27.85</v>
+        <v>14.64</v>
       </c>
       <c r="D88" t="n">
-        <v>29.1</v>
+        <v>28.84</v>
+      </c>
+      <c r="E88" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="F88" t="n">
+        <v>33.44</v>
       </c>
     </row>
     <row r="89">
@@ -1903,13 +2457,19 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>19.75</v>
+        <v>28.46</v>
       </c>
       <c r="C89" t="n">
-        <v>28.92</v>
+        <v>14.45</v>
       </c>
       <c r="D89" t="n">
-        <v>28.9</v>
+        <v>28.89</v>
+      </c>
+      <c r="E89" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="F89" t="n">
+        <v>33.89</v>
       </c>
     </row>
     <row r="90">
@@ -1917,13 +2477,19 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>18.91</v>
+        <v>28.15</v>
       </c>
       <c r="C90" t="n">
-        <v>29.95</v>
+        <v>14.46</v>
       </c>
       <c r="D90" t="n">
-        <v>28.72</v>
+        <v>28.69</v>
+      </c>
+      <c r="E90" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="F90" t="n">
+        <v>34.39</v>
       </c>
     </row>
     <row r="91">
@@ -1931,13 +2497,19 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>18.07</v>
+        <v>27.84</v>
       </c>
       <c r="C91" t="n">
-        <v>31</v>
+        <v>14.62</v>
       </c>
       <c r="D91" t="n">
-        <v>28.52</v>
+        <v>28.34</v>
+      </c>
+      <c r="E91" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="F91" t="n">
+        <v>34.89</v>
       </c>
     </row>
     <row r="92">
@@ -1945,13 +2517,19 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>17.25</v>
+        <v>27.54</v>
       </c>
       <c r="C92" t="n">
-        <v>31.96</v>
+        <v>14.78</v>
       </c>
       <c r="D92" t="n">
-        <v>28.38</v>
+        <v>27.99</v>
+      </c>
+      <c r="E92" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="F92" t="n">
+        <v>35.38</v>
       </c>
     </row>
     <row r="93">
@@ -1959,13 +2537,19 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>17.54</v>
+        <v>26.85</v>
       </c>
       <c r="C93" t="n">
-        <v>31.81</v>
+        <v>15.93</v>
       </c>
       <c r="D93" t="n">
-        <v>28.26</v>
+        <v>27.65</v>
+      </c>
+      <c r="E93" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="F93" t="n">
+        <v>35.2</v>
       </c>
     </row>
     <row r="94">
@@ -1973,13 +2557,19 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>17.74</v>
+        <v>26.09</v>
       </c>
       <c r="C94" t="n">
-        <v>31.64</v>
+        <v>17.17</v>
       </c>
       <c r="D94" t="n">
-        <v>28.24</v>
+        <v>27.3</v>
+      </c>
+      <c r="E94" t="n">
+        <v>9.42</v>
+      </c>
+      <c r="F94" t="n">
+        <v>35.02</v>
       </c>
     </row>
     <row r="95">
@@ -1987,13 +2577,19 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>17.94</v>
+        <v>25.37</v>
       </c>
       <c r="C95" t="n">
-        <v>31.47</v>
+        <v>18.23</v>
       </c>
       <c r="D95" t="n">
-        <v>28.22</v>
+        <v>27.99</v>
+      </c>
+      <c r="E95" t="n">
+        <v>8.57</v>
+      </c>
+      <c r="F95" t="n">
+        <v>34.84</v>
       </c>
     </row>
     <row r="96">
@@ -2001,13 +2597,19 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>17.93</v>
+        <v>25.33</v>
       </c>
       <c r="C96" t="n">
-        <v>31.49</v>
+        <v>18.63</v>
       </c>
       <c r="D96" t="n">
-        <v>28.22</v>
+        <v>28.75</v>
+      </c>
+      <c r="E96" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="F96" t="n">
+        <v>34.72</v>
       </c>
     </row>
     <row r="97">
@@ -2015,13 +2617,19 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>17.9</v>
+        <v>25.17</v>
       </c>
       <c r="C97" t="n">
-        <v>31.52</v>
+        <v>20.02</v>
       </c>
       <c r="D97" t="n">
-        <v>28.22</v>
+        <v>28.63</v>
+      </c>
+      <c r="E97" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="F97" t="n">
+        <v>34.61</v>
       </c>
     </row>
     <row r="98">
@@ -2029,13 +2637,19 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>18.61</v>
+        <v>24.9</v>
       </c>
       <c r="C98" t="n">
-        <v>30.81</v>
+        <v>21.45</v>
       </c>
       <c r="D98" t="n">
-        <v>28.21</v>
+        <v>28.56</v>
+      </c>
+      <c r="E98" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="F98" t="n">
+        <v>34.51</v>
       </c>
     </row>
     <row r="99">
@@ -2043,13 +2657,19 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>19.36</v>
+        <v>24.85</v>
       </c>
       <c r="C99" t="n">
-        <v>30.09</v>
+        <v>22.61</v>
       </c>
       <c r="D99" t="n">
-        <v>28.17</v>
+        <v>28.47</v>
+      </c>
+      <c r="E99" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="F99" t="n">
+        <v>34.45</v>
       </c>
     </row>
     <row r="100">
@@ -2057,13 +2677,19 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>20.03</v>
+        <v>24.85</v>
       </c>
       <c r="C100" t="n">
-        <v>29.45</v>
+        <v>23.5</v>
       </c>
       <c r="D100" t="n">
-        <v>28.13</v>
+        <v>28.56</v>
+      </c>
+      <c r="E100" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="F100" t="n">
+        <v>34.43</v>
       </c>
     </row>
     <row r="101">
@@ -2071,13 +2697,19 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>20.76</v>
+        <v>24.89</v>
       </c>
       <c r="C101" t="n">
-        <v>28.77</v>
+        <v>24.3</v>
       </c>
       <c r="D101" t="n">
-        <v>28.07</v>
+        <v>28.65</v>
+      </c>
+      <c r="E101" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="F101" t="n">
+        <v>34.43</v>
       </c>
     </row>
     <row r="102">
@@ -2085,13 +2717,19 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>21.39</v>
+        <v>24.89</v>
       </c>
       <c r="C102" t="n">
-        <v>28.2</v>
+        <v>25.22</v>
       </c>
       <c r="D102" t="n">
-        <v>28</v>
+        <v>28.75</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="F102" t="n">
+        <v>34.33</v>
       </c>
     </row>
     <row r="103">
@@ -2099,13 +2737,19 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>22</v>
+        <v>25.37</v>
       </c>
       <c r="C103" t="n">
-        <v>27.72</v>
+        <v>25.73</v>
       </c>
       <c r="D103" t="n">
-        <v>27.86</v>
+        <v>28.82</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F103" t="n">
+        <v>34.18</v>
       </c>
     </row>
     <row r="104">
@@ -2113,13 +2757,19 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>22.62</v>
+        <v>25.87</v>
       </c>
       <c r="C104" t="n">
-        <v>27.25</v>
+        <v>26.24</v>
       </c>
       <c r="D104" t="n">
-        <v>27.7</v>
+        <v>28.88</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
+      <c r="F104" t="n">
+        <v>34.01</v>
       </c>
     </row>
     <row r="105">
@@ -2127,13 +2777,19 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>23.17</v>
+        <v>26.37</v>
       </c>
       <c r="C105" t="n">
-        <v>26.79</v>
+        <v>26.84</v>
       </c>
       <c r="D105" t="n">
-        <v>27.6</v>
+        <v>27.96</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0</v>
+      </c>
+      <c r="F105" t="n">
+        <v>33.83</v>
       </c>
     </row>
     <row r="106">
@@ -2141,13 +2797,19 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>23.83</v>
+        <v>26.12</v>
       </c>
       <c r="C106" t="n">
-        <v>26.22</v>
+        <v>28.16</v>
       </c>
       <c r="D106" t="n">
-        <v>27.5</v>
+        <v>27.05</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0</v>
+      </c>
+      <c r="F106" t="n">
+        <v>33.67</v>
       </c>
     </row>
     <row r="107">
@@ -2155,13 +2817,19 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>24.51</v>
+        <v>25.89</v>
       </c>
       <c r="C107" t="n">
-        <v>25.65</v>
+        <v>28.45</v>
       </c>
       <c r="D107" t="n">
-        <v>27.38</v>
+        <v>27.14</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0</v>
+      </c>
+      <c r="F107" t="n">
+        <v>33.52</v>
       </c>
     </row>
     <row r="108">
@@ -2169,13 +2837,19 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>24.48</v>
+        <v>25.64</v>
       </c>
       <c r="C108" t="n">
-        <v>25.8</v>
+        <v>28.7</v>
       </c>
       <c r="D108" t="n">
-        <v>27.26</v>
+        <v>27.22</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0</v>
+      </c>
+      <c r="F108" t="n">
+        <v>33.44</v>
       </c>
     </row>
     <row r="109">
@@ -2183,13 +2857,19 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>24.44</v>
+        <v>25.34</v>
       </c>
       <c r="C109" t="n">
-        <v>25.93</v>
+        <v>28.83</v>
       </c>
       <c r="D109" t="n">
-        <v>27.17</v>
+        <v>27.26</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0</v>
+      </c>
+      <c r="F109" t="n">
+        <v>33.57</v>
       </c>
     </row>
     <row r="110">
@@ -2197,13 +2877,19 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>24.49</v>
+        <v>24.99</v>
       </c>
       <c r="C110" t="n">
-        <v>25.99</v>
+        <v>28.97</v>
       </c>
       <c r="D110" t="n">
-        <v>27.06</v>
+        <v>27.31</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0</v>
+      </c>
+      <c r="F110" t="n">
+        <v>33.73</v>
       </c>
     </row>
     <row r="111">
@@ -2211,13 +2897,19 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>24.31</v>
+        <v>24.66</v>
       </c>
       <c r="C111" t="n">
-        <v>26.06</v>
+        <v>28.93</v>
       </c>
       <c r="D111" t="n">
-        <v>27.17</v>
+        <v>27.54</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0</v>
+      </c>
+      <c r="F111" t="n">
+        <v>33.87</v>
       </c>
     </row>
     <row r="112">
@@ -2225,13 +2917,19 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>24.2</v>
+        <v>24.32</v>
       </c>
       <c r="C112" t="n">
-        <v>26.11</v>
+        <v>28.77</v>
       </c>
       <c r="D112" t="n">
-        <v>27.23</v>
+        <v>27.85</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
+      <c r="F112" t="n">
+        <v>34.06</v>
       </c>
     </row>
     <row r="113">
@@ -2239,13 +2937,19 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>24.1</v>
+        <v>23.99</v>
       </c>
       <c r="C113" t="n">
-        <v>25.63</v>
+        <v>28.51</v>
       </c>
       <c r="D113" t="n">
-        <v>27.81</v>
+        <v>28.18</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0</v>
+      </c>
+      <c r="F113" t="n">
+        <v>34.32</v>
       </c>
     </row>
     <row r="114">
@@ -2253,13 +2957,19 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>23.79</v>
+        <v>23.48</v>
       </c>
       <c r="C114" t="n">
-        <v>25.35</v>
+        <v>28.46</v>
       </c>
       <c r="D114" t="n">
-        <v>28.4</v>
+        <v>28.46</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>34.6</v>
       </c>
     </row>
     <row r="115">
@@ -2267,13 +2977,19 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>23.42</v>
+        <v>22.92</v>
       </c>
       <c r="C115" t="n">
-        <v>25.19</v>
+        <v>28.41</v>
       </c>
       <c r="D115" t="n">
-        <v>28.93</v>
+        <v>28.81</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
+      <c r="F115" t="n">
+        <v>34.86</v>
       </c>
     </row>
     <row r="116">
@@ -2281,13 +2997,19 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>23.05</v>
+        <v>22.43</v>
       </c>
       <c r="C116" t="n">
-        <v>25.05</v>
+        <v>28.3</v>
       </c>
       <c r="D116" t="n">
-        <v>29.44</v>
+        <v>29.16</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0</v>
+      </c>
+      <c r="F116" t="n">
+        <v>35.1</v>
       </c>
     </row>
     <row r="117">
@@ -2295,13 +3017,19 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>22.67</v>
+        <v>21.93</v>
       </c>
       <c r="C117" t="n">
-        <v>24.91</v>
+        <v>28.32</v>
       </c>
       <c r="D117" t="n">
-        <v>29.96</v>
+        <v>29.4</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0</v>
+      </c>
+      <c r="F117" t="n">
+        <v>35.35</v>
       </c>
     </row>
     <row r="118">
@@ -2309,13 +3037,19 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>22.27</v>
+        <v>21.57</v>
       </c>
       <c r="C118" t="n">
-        <v>24.78</v>
+        <v>28.32</v>
       </c>
       <c r="D118" t="n">
-        <v>30.49</v>
+        <v>29.62</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0</v>
+      </c>
+      <c r="F118" t="n">
+        <v>35.49</v>
       </c>
     </row>
     <row r="119">
@@ -2323,13 +3057,19 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>21.77</v>
+        <v>21.21</v>
       </c>
       <c r="C119" t="n">
-        <v>24.77</v>
+        <v>28.36</v>
       </c>
       <c r="D119" t="n">
-        <v>31</v>
+        <v>29.89</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0</v>
+      </c>
+      <c r="F119" t="n">
+        <v>35.54</v>
       </c>
     </row>
     <row r="120">
@@ -2337,13 +3077,19 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>21.18</v>
+        <v>20.92</v>
       </c>
       <c r="C120" t="n">
-        <v>24.84</v>
+        <v>28.39</v>
       </c>
       <c r="D120" t="n">
-        <v>31.52</v>
+        <v>30.16</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0</v>
+      </c>
+      <c r="F120" t="n">
+        <v>35.53</v>
       </c>
     </row>
     <row r="121">
@@ -2351,13 +3097,19 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>18.9</v>
+        <v>20.62</v>
       </c>
       <c r="C121" t="n">
-        <v>26.88</v>
+        <v>28.69</v>
       </c>
       <c r="D121" t="n">
-        <v>31.76</v>
+        <v>30.25</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0</v>
+      </c>
+      <c r="F121" t="n">
+        <v>35.44</v>
       </c>
     </row>
     <row r="122">
@@ -2365,13 +3117,19 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>16.54</v>
+        <v>20.39</v>
       </c>
       <c r="C122" t="n">
         <v>28.93</v>
       </c>
       <c r="D122" t="n">
-        <v>32.07</v>
+        <v>30.33</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0</v>
+      </c>
+      <c r="F122" t="n">
+        <v>35.35</v>
       </c>
     </row>
     <row r="123">
@@ -2379,13 +3137,19 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>14.18</v>
+        <v>20.15</v>
       </c>
       <c r="C123" t="n">
-        <v>31.55</v>
+        <v>29.22</v>
       </c>
       <c r="D123" t="n">
-        <v>31.8</v>
+        <v>30.39</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0</v>
+      </c>
+      <c r="F123" t="n">
+        <v>35.24</v>
       </c>
     </row>
     <row r="124">
@@ -2393,13 +3157,19 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>12.01</v>
+        <v>20.13</v>
       </c>
       <c r="C124" t="n">
-        <v>34</v>
+        <v>29.19</v>
       </c>
       <c r="D124" t="n">
-        <v>31.53</v>
+        <v>30.51</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0</v>
+      </c>
+      <c r="F124" t="n">
+        <v>35.17</v>
       </c>
     </row>
     <row r="125">
@@ -2407,13 +3177,19 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>9.949999999999999</v>
+        <v>20.17</v>
       </c>
       <c r="C125" t="n">
-        <v>36.34</v>
+        <v>29.17</v>
       </c>
       <c r="D125" t="n">
-        <v>31.24</v>
+        <v>30.53</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0</v>
+      </c>
+      <c r="F125" t="n">
+        <v>35.13</v>
       </c>
     </row>
     <row r="126">
@@ -2421,13 +3197,19 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>7.9</v>
+        <v>19.59</v>
       </c>
       <c r="C126" t="n">
-        <v>38.56</v>
+        <v>29.13</v>
       </c>
       <c r="D126" t="n">
-        <v>31.08</v>
+        <v>31.2</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0</v>
+      </c>
+      <c r="F126" t="n">
+        <v>35.08</v>
       </c>
     </row>
     <row r="127">
@@ -2435,13 +3217,19 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>9.859999999999999</v>
+        <v>18.97</v>
       </c>
       <c r="C127" t="n">
-        <v>40.71</v>
+        <v>29.22</v>
       </c>
       <c r="D127" t="n">
-        <v>30.96</v>
+        <v>31.8</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0</v>
+      </c>
+      <c r="F127" t="n">
+        <v>35.01</v>
       </c>
     </row>
     <row r="128">
@@ -2449,13 +3237,19 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>11.95</v>
+        <v>18.24</v>
       </c>
       <c r="C128" t="n">
-        <v>42.8</v>
+        <v>29.36</v>
       </c>
       <c r="D128" t="n">
-        <v>30.79</v>
+        <v>32.42</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0</v>
+      </c>
+      <c r="F128" t="n">
+        <v>34.97</v>
       </c>
     </row>
     <row r="129">
@@ -2463,13 +3257,19 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>14.11</v>
+        <v>17.34</v>
       </c>
       <c r="C129" t="n">
-        <v>44.79</v>
+        <v>29.8</v>
       </c>
       <c r="D129" t="n">
-        <v>30.64</v>
+        <v>33.06</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0</v>
+      </c>
+      <c r="F129" t="n">
+        <v>34.8</v>
       </c>
     </row>
     <row r="130">
@@ -2477,13 +3277,19 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>16.26</v>
+        <v>16.38</v>
       </c>
       <c r="C130" t="n">
-        <v>46.78</v>
+        <v>30.4</v>
       </c>
       <c r="D130" t="n">
-        <v>30.5</v>
+        <v>33.54</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0</v>
+      </c>
+      <c r="F130" t="n">
+        <v>34.69</v>
       </c>
     </row>
     <row r="131">
@@ -2491,13 +3297,19 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>20.01</v>
+        <v>15.42</v>
       </c>
       <c r="C131" t="n">
-        <v>47.1</v>
+        <v>31.39</v>
       </c>
       <c r="D131" t="n">
-        <v>30.44</v>
+        <v>33.55</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0</v>
+      </c>
+      <c r="F131" t="n">
+        <v>34.64</v>
       </c>
     </row>
     <row r="132">
@@ -2505,13 +3317,19 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>23.74</v>
+        <v>14.37</v>
       </c>
       <c r="C132" t="n">
-        <v>47.43</v>
+        <v>32.54</v>
       </c>
       <c r="D132" t="n">
-        <v>30.36</v>
+        <v>33.51</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0</v>
+      </c>
+      <c r="F132" t="n">
+        <v>34.58</v>
       </c>
     </row>
     <row r="133">
@@ -2519,13 +3337,19 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>27.48</v>
+        <v>13.32</v>
       </c>
       <c r="C133" t="n">
-        <v>47.64</v>
+        <v>33.6</v>
       </c>
       <c r="D133" t="n">
-        <v>30.42</v>
+        <v>33.54</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0</v>
+      </c>
+      <c r="F133" t="n">
+        <v>34.54</v>
       </c>
     </row>
     <row r="134">
@@ -2533,13 +3357,19 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>30.99</v>
+        <v>12.19</v>
       </c>
       <c r="C134" t="n">
-        <v>48.06</v>
+        <v>34.68</v>
       </c>
       <c r="D134" t="n">
-        <v>30.49</v>
+        <v>33.67</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0</v>
+      </c>
+      <c r="F134" t="n">
+        <v>34.46</v>
       </c>
     </row>
     <row r="135">
@@ -2547,13 +3377,19 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>34.47</v>
+        <v>11.07</v>
       </c>
       <c r="C135" t="n">
-        <v>48.49</v>
+        <v>35.77</v>
       </c>
       <c r="D135" t="n">
-        <v>30.57</v>
+        <v>33.8</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0</v>
+      </c>
+      <c r="F135" t="n">
+        <v>34.36</v>
       </c>
     </row>
     <row r="136">
@@ -2561,13 +3397,19 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>37.95</v>
+        <v>10.54</v>
       </c>
       <c r="C136" t="n">
-        <v>49.04</v>
+        <v>37.36</v>
       </c>
       <c r="D136" t="n">
-        <v>30.56</v>
+        <v>33.28</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0</v>
+      </c>
+      <c r="F136" t="n">
+        <v>33.82</v>
       </c>
     </row>
     <row r="137">
@@ -2575,13 +3417,19 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>37.43</v>
+        <v>10.08</v>
       </c>
       <c r="C137" t="n">
-        <v>49.61</v>
+        <v>38.8</v>
       </c>
       <c r="D137" t="n">
-        <v>30.5</v>
+        <v>32.83</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0</v>
+      </c>
+      <c r="F137" t="n">
+        <v>33.3</v>
       </c>
     </row>
     <row r="138">
@@ -2589,13 +3437,19 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>36.82</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="C138" t="n">
-        <v>50.22</v>
+        <v>40.3</v>
       </c>
       <c r="D138" t="n">
-        <v>30.5</v>
+        <v>32.17</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0</v>
+      </c>
+      <c r="F138" t="n">
+        <v>32.89</v>
       </c>
     </row>
     <row r="139">
@@ -2603,13 +3457,19 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>36.1</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="C139" t="n">
-        <v>50.94</v>
+        <v>41.28</v>
       </c>
       <c r="D139" t="n">
-        <v>30.5</v>
+        <v>31.5</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0</v>
+      </c>
+      <c r="F139" t="n">
+        <v>32.77</v>
       </c>
     </row>
     <row r="140">
@@ -2617,13 +3477,19 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>35.48</v>
+        <v>9.07</v>
       </c>
       <c r="C140" t="n">
-        <v>51.59</v>
+        <v>42.29</v>
       </c>
       <c r="D140" t="n">
-        <v>30.47</v>
+        <v>30.99</v>
+      </c>
+      <c r="E140" t="n">
+        <v>2</v>
+      </c>
+      <c r="F140" t="n">
+        <v>32.65</v>
       </c>
     </row>
     <row r="141">
@@ -2631,13 +3497,19 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>34.98</v>
+        <v>8.66</v>
       </c>
       <c r="C141" t="n">
-        <v>51.94</v>
+        <v>42.75</v>
       </c>
       <c r="D141" t="n">
-        <v>30.62</v>
+        <v>30.94</v>
+      </c>
+      <c r="E141" t="n">
+        <v>4</v>
+      </c>
+      <c r="F141" t="n">
+        <v>32.64</v>
       </c>
     </row>
     <row r="142">
@@ -2645,13 +3517,19 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>34.51</v>
+        <v>8.26</v>
       </c>
       <c r="C142" t="n">
-        <v>52.26</v>
+        <v>43.1</v>
       </c>
       <c r="D142" t="n">
-        <v>30.77</v>
+        <v>30.67</v>
+      </c>
+      <c r="E142" t="n">
+        <v>6</v>
+      </c>
+      <c r="F142" t="n">
+        <v>32.98</v>
       </c>
     </row>
     <row r="143">
@@ -2659,13 +3537,19 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>34.03</v>
+        <v>8.1</v>
       </c>
       <c r="C143" t="n">
-        <v>52.61</v>
+        <v>43.3</v>
       </c>
       <c r="D143" t="n">
-        <v>30.9</v>
+        <v>30.31</v>
+      </c>
+      <c r="E143" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="F143" t="n">
+        <v>33.31</v>
       </c>
     </row>
     <row r="144">
@@ -2673,13 +3557,19 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>33.54</v>
+        <v>8</v>
       </c>
       <c r="C144" t="n">
-        <v>52.65</v>
+        <v>43.5</v>
       </c>
       <c r="D144" t="n">
-        <v>31.35</v>
+        <v>29.85</v>
+      </c>
+      <c r="E144" t="n">
+        <v>9.92</v>
+      </c>
+      <c r="F144" t="n">
+        <v>33.73</v>
       </c>
     </row>
     <row r="145">
@@ -2687,13 +3577,19 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>33.09</v>
+        <v>8.27</v>
       </c>
       <c r="C145" t="n">
-        <v>52.65</v>
+        <v>43.49</v>
       </c>
       <c r="D145" t="n">
-        <v>31.8</v>
+        <v>29.22</v>
+      </c>
+      <c r="E145" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="F145" t="n">
+        <v>34.15</v>
       </c>
     </row>
     <row r="146">
@@ -2701,13 +3597,19 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>32.68</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="C146" t="n">
-        <v>52.63</v>
+        <v>43.23</v>
       </c>
       <c r="D146" t="n">
-        <v>32.23</v>
+        <v>28.59</v>
+      </c>
+      <c r="E146" t="n">
+        <v>13.78</v>
+      </c>
+      <c r="F146" t="n">
+        <v>34.94</v>
       </c>
     </row>
     <row r="147">
@@ -2715,13 +3617,19 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>32.3</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="C147" t="n">
-        <v>52.62</v>
+        <v>42.89</v>
       </c>
       <c r="D147" t="n">
-        <v>32.62</v>
+        <v>27.86</v>
+      </c>
+      <c r="E147" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="F147" t="n">
+        <v>36.02</v>
       </c>
     </row>
     <row r="148">
@@ -2729,13 +3637,19 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>31.89</v>
+        <v>8.6</v>
       </c>
       <c r="C148" t="n">
-        <v>52.64</v>
+        <v>42.44</v>
       </c>
       <c r="D148" t="n">
-        <v>33.01</v>
+        <v>27.27</v>
+      </c>
+      <c r="E148" t="n">
+        <v>17.68</v>
+      </c>
+      <c r="F148" t="n">
+        <v>37.01</v>
       </c>
     </row>
     <row r="149">
@@ -2743,13 +3657,19 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>31.6</v>
+        <v>8.76</v>
       </c>
       <c r="C149" t="n">
-        <v>52.56</v>
+        <v>42.28</v>
       </c>
       <c r="D149" t="n">
-        <v>33.38</v>
+        <v>26.69</v>
+      </c>
+      <c r="E149" t="n">
+        <v>19.59</v>
+      </c>
+      <c r="F149" t="n">
+        <v>37.7</v>
       </c>
     </row>
     <row r="150">
@@ -2757,13 +3677,19 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>31.35</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="C150" t="n">
-        <v>52.49</v>
+        <v>41.92</v>
       </c>
       <c r="D150" t="n">
-        <v>33.7</v>
+        <v>26.01</v>
+      </c>
+      <c r="E150" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="F150" t="n">
+        <v>38.4</v>
       </c>
     </row>
     <row r="151">
@@ -2771,13 +3697,19 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>30.71</v>
+        <v>9.84</v>
       </c>
       <c r="C151" t="n">
-        <v>52.4</v>
+        <v>41.48</v>
       </c>
       <c r="D151" t="n">
-        <v>34.44</v>
+        <v>25.33</v>
+      </c>
+      <c r="E151" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="F151" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="152">
@@ -2785,13 +3717,19 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>30.04</v>
+        <v>10.61</v>
       </c>
       <c r="C152" t="n">
-        <v>52.35</v>
+        <v>41.04</v>
       </c>
       <c r="D152" t="n">
-        <v>35.15</v>
+        <v>24.86</v>
+      </c>
+      <c r="E152" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="F152" t="n">
+        <v>39.25</v>
       </c>
     </row>
     <row r="153">
@@ -2799,13 +3737,19 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>29.44</v>
+        <v>11.08</v>
       </c>
       <c r="C153" t="n">
-        <v>52.22</v>
+        <v>40.91</v>
       </c>
       <c r="D153" t="n">
-        <v>35.88</v>
+        <v>24.39</v>
+      </c>
+      <c r="E153" t="n">
+        <v>19.19</v>
+      </c>
+      <c r="F153" t="n">
+        <v>39.49</v>
       </c>
     </row>
     <row r="154">
@@ -2813,13 +3757,19 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>29.21</v>
+        <v>11.37</v>
       </c>
       <c r="C154" t="n">
-        <v>52.11</v>
+        <v>40.56</v>
       </c>
       <c r="D154" t="n">
-        <v>36.22</v>
+        <v>23.92</v>
+      </c>
+      <c r="E154" t="n">
+        <v>19.11</v>
+      </c>
+      <c r="F154" t="n">
+        <v>40.1</v>
       </c>
     </row>
     <row r="155">
@@ -2827,13 +3777,19 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>28.97</v>
+        <v>11.21</v>
       </c>
       <c r="C155" t="n">
-        <v>52.03</v>
+        <v>40.48</v>
       </c>
       <c r="D155" t="n">
-        <v>36.55</v>
+        <v>23.63</v>
+      </c>
+      <c r="E155" t="n">
+        <v>19.03</v>
+      </c>
+      <c r="F155" t="n">
+        <v>40.71</v>
       </c>
     </row>
     <row r="156">
@@ -2841,13 +3797,19 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>28.69</v>
+        <v>10.97</v>
       </c>
       <c r="C156" t="n">
-        <v>51.95</v>
+        <v>40.38</v>
       </c>
       <c r="D156" t="n">
-        <v>36.9</v>
+        <v>23.34</v>
+      </c>
+      <c r="E156" t="n">
+        <v>18.97</v>
+      </c>
+      <c r="F156" t="n">
+        <v>41.4</v>
       </c>
     </row>
     <row r="157">
@@ -2855,13 +3817,19 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>28.37</v>
+        <v>10.75</v>
       </c>
       <c r="C157" t="n">
-        <v>51.88</v>
+        <v>40.04</v>
       </c>
       <c r="D157" t="n">
-        <v>37.28</v>
+        <v>23.13</v>
+      </c>
+      <c r="E157" t="n">
+        <v>18.83</v>
+      </c>
+      <c r="F157" t="n">
+        <v>42.31</v>
       </c>
     </row>
     <row r="158">
@@ -2869,13 +3837,19 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>28.06</v>
+        <v>10.53</v>
       </c>
       <c r="C158" t="n">
-        <v>51.75</v>
+        <v>39.78</v>
       </c>
       <c r="D158" t="n">
-        <v>37.73</v>
+        <v>22.97</v>
+      </c>
+      <c r="E158" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="F158" t="n">
+        <v>43.21</v>
       </c>
     </row>
     <row r="159">
@@ -2883,13 +3857,19 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>27.75</v>
+        <v>10.15</v>
       </c>
       <c r="C159" t="n">
-        <v>51.61</v>
+        <v>39.52</v>
       </c>
       <c r="D159" t="n">
-        <v>38.17</v>
+        <v>22.74</v>
+      </c>
+      <c r="E159" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="F159" t="n">
+        <v>44.04</v>
       </c>
     </row>
     <row r="160">
@@ -2897,13 +3877,19 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>28.41</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="C160" t="n">
-        <v>50.44</v>
+        <v>39.38</v>
       </c>
       <c r="D160" t="n">
-        <v>38.69</v>
+        <v>22.61</v>
+      </c>
+      <c r="E160" t="n">
+        <v>18.56</v>
+      </c>
+      <c r="F160" t="n">
+        <v>44.87</v>
       </c>
     </row>
     <row r="161">
@@ -2911,13 +3897,19 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>29.63</v>
+        <v>9.02</v>
       </c>
       <c r="C161" t="n">
-        <v>49.3</v>
+        <v>39.29</v>
       </c>
       <c r="D161" t="n">
-        <v>38.61</v>
+        <v>22.47</v>
+      </c>
+      <c r="E161" t="n">
+        <v>18.53</v>
+      </c>
+      <c r="F161" t="n">
+        <v>45.69</v>
       </c>
     </row>
     <row r="162">
@@ -2925,13 +3917,19 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>30.86</v>
+        <v>8.33</v>
       </c>
       <c r="C162" t="n">
-        <v>48.12</v>
+        <v>37.71</v>
       </c>
       <c r="D162" t="n">
-        <v>38.56</v>
+        <v>23.91</v>
+      </c>
+      <c r="E162" t="n">
+        <v>18.51</v>
+      </c>
+      <c r="F162" t="n">
+        <v>46.53</v>
       </c>
     </row>
     <row r="163">
@@ -2939,13 +3937,19 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C163" t="n">
-        <v>47.03</v>
+        <v>35.77</v>
       </c>
       <c r="D163" t="n">
-        <v>38.51</v>
+        <v>25.35</v>
+      </c>
+      <c r="E163" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="F163" t="n">
+        <v>47.39</v>
       </c>
     </row>
     <row r="164">
@@ -2953,13 +3957,19 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>34.1</v>
+        <v>7.83</v>
       </c>
       <c r="C164" t="n">
-        <v>44.94</v>
+        <v>34.13</v>
       </c>
       <c r="D164" t="n">
-        <v>38.5</v>
+        <v>26.79</v>
+      </c>
+      <c r="E164" t="n">
+        <v>18.49</v>
+      </c>
+      <c r="F164" t="n">
+        <v>47.77</v>
       </c>
     </row>
     <row r="165">
@@ -2967,13 +3977,19 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>36.21</v>
+        <v>7.72</v>
       </c>
       <c r="C165" t="n">
-        <v>42.81</v>
+        <v>32.55</v>
       </c>
       <c r="D165" t="n">
-        <v>38.52</v>
+        <v>28.23</v>
+      </c>
+      <c r="E165" t="n">
+        <v>18.47</v>
+      </c>
+      <c r="F165" t="n">
+        <v>48.04</v>
       </c>
     </row>
     <row r="166">
@@ -2981,13 +3997,19 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>38.33</v>
+        <v>7.82</v>
       </c>
       <c r="C166" t="n">
-        <v>40.7</v>
+        <v>30.74</v>
       </c>
       <c r="D166" t="n">
-        <v>38.51</v>
+        <v>29.66</v>
+      </c>
+      <c r="E166" t="n">
+        <v>18.44</v>
+      </c>
+      <c r="F166" t="n">
+        <v>48.33</v>
       </c>
     </row>
     <row r="167">
@@ -2995,13 +4017,19 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>40.58</v>
+        <v>7.57</v>
       </c>
       <c r="C167" t="n">
-        <v>38.45</v>
+        <v>29.77</v>
       </c>
       <c r="D167" t="n">
-        <v>38.51</v>
+        <v>31.06</v>
+      </c>
+      <c r="E167" t="n">
+        <v>18.48</v>
+      </c>
+      <c r="F167" t="n">
+        <v>48.11</v>
       </c>
     </row>
     <row r="168">
@@ -3009,13 +4037,19 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>42.82</v>
+        <v>7.25</v>
       </c>
       <c r="C168" t="n">
-        <v>36.26</v>
+        <v>28.73</v>
       </c>
       <c r="D168" t="n">
-        <v>38.46</v>
+        <v>32.46</v>
+      </c>
+      <c r="E168" t="n">
+        <v>18.67</v>
+      </c>
+      <c r="F168" t="n">
+        <v>47.89</v>
       </c>
     </row>
     <row r="169">
@@ -3023,13 +4057,19 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>45.18</v>
+        <v>7</v>
       </c>
       <c r="C169" t="n">
-        <v>33.99</v>
+        <v>27.72</v>
       </c>
       <c r="D169" t="n">
-        <v>38.37</v>
+        <v>33.93</v>
+      </c>
+      <c r="E169" t="n">
+        <v>18.63</v>
+      </c>
+      <c r="F169" t="n">
+        <v>47.72</v>
       </c>
     </row>
     <row r="170">
@@ -3037,13 +4077,19 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>46.48</v>
+        <v>6.79</v>
       </c>
       <c r="C170" t="n">
-        <v>32.79</v>
+        <v>26.61</v>
       </c>
       <c r="D170" t="n">
-        <v>38.28</v>
+        <v>35.4</v>
+      </c>
+      <c r="E170" t="n">
+        <v>18.65</v>
+      </c>
+      <c r="F170" t="n">
+        <v>47.55</v>
       </c>
     </row>
     <row r="171">
@@ -3051,13 +4097,19 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>47.77</v>
+        <v>6.48</v>
       </c>
       <c r="C171" t="n">
-        <v>31.77</v>
+        <v>25.6</v>
       </c>
       <c r="D171" t="n">
-        <v>38</v>
+        <v>36.87</v>
+      </c>
+      <c r="E171" t="n">
+        <v>18.67</v>
+      </c>
+      <c r="F171" t="n">
+        <v>47.38</v>
       </c>
     </row>
     <row r="172">
@@ -3065,13 +4117,19 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>49.08</v>
+        <v>6.23</v>
       </c>
       <c r="C172" t="n">
-        <v>30.76</v>
+        <v>28.3</v>
       </c>
       <c r="D172" t="n">
-        <v>37.7</v>
+        <v>36.53</v>
+      </c>
+      <c r="E172" t="n">
+        <v>16.79</v>
+      </c>
+      <c r="F172" t="n">
+        <v>47.15</v>
       </c>
     </row>
     <row r="173">
@@ -3079,13 +4137,19 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>50.43</v>
+        <v>5.81</v>
       </c>
       <c r="C173" t="n">
-        <v>29.7</v>
+        <v>31.26</v>
       </c>
       <c r="D173" t="n">
-        <v>37.42</v>
+        <v>36.13</v>
+      </c>
+      <c r="E173" t="n">
+        <v>14.94</v>
+      </c>
+      <c r="F173" t="n">
+        <v>46.85</v>
       </c>
     </row>
     <row r="174">
@@ -3093,13 +4157,19 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>50.69</v>
+        <v>5.39</v>
       </c>
       <c r="C174" t="n">
-        <v>29.69</v>
+        <v>34.14</v>
       </c>
       <c r="D174" t="n">
-        <v>37.16</v>
+        <v>35.68</v>
+      </c>
+      <c r="E174" t="n">
+        <v>13.09</v>
+      </c>
+      <c r="F174" t="n">
+        <v>46.69</v>
       </c>
     </row>
     <row r="175">
@@ -3107,13 +4177,19 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>50.94</v>
+        <v>5.07</v>
       </c>
       <c r="C175" t="n">
-        <v>29.7</v>
+        <v>36.87</v>
       </c>
       <c r="D175" t="n">
-        <v>36.9</v>
+        <v>35.3</v>
+      </c>
+      <c r="E175" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="F175" t="n">
+        <v>46.58</v>
       </c>
     </row>
     <row r="176">
@@ -3121,13 +4197,19 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>51.1</v>
+        <v>4.14</v>
       </c>
       <c r="C176" t="n">
-        <v>29.79</v>
+        <v>39.63</v>
       </c>
       <c r="D176" t="n">
-        <v>36.64</v>
+        <v>34.85</v>
+      </c>
+      <c r="E176" t="n">
+        <v>9.42</v>
+      </c>
+      <c r="F176" t="n">
+        <v>47.1</v>
       </c>
     </row>
     <row r="177">
@@ -3135,13 +4217,19 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>51.15</v>
+        <v>3.65</v>
       </c>
       <c r="C177" t="n">
-        <v>30.07</v>
+        <v>41.89</v>
       </c>
       <c r="D177" t="n">
-        <v>36.33</v>
+        <v>34.77</v>
+      </c>
+      <c r="E177" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="F177" t="n">
+        <v>47.31</v>
       </c>
     </row>
     <row r="178">
@@ -3149,13 +4237,19 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>51.3</v>
+        <v>3.24</v>
       </c>
       <c r="C178" t="n">
-        <v>30.29</v>
+        <v>44.14</v>
       </c>
       <c r="D178" t="n">
-        <v>35.94</v>
+        <v>34.7</v>
+      </c>
+      <c r="E178" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="F178" t="n">
+        <v>47.51</v>
       </c>
     </row>
     <row r="179">
@@ -3163,13 +4257,19 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>51.28</v>
+        <v>2.82</v>
       </c>
       <c r="C179" t="n">
-        <v>30.41</v>
+        <v>46.37</v>
       </c>
       <c r="D179" t="n">
-        <v>35.84</v>
+        <v>34.39</v>
+      </c>
+      <c r="E179" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="F179" t="n">
+        <v>47.98</v>
       </c>
     </row>
     <row r="180">
@@ -3177,13 +4277,19 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>51.28</v>
+        <v>2.43</v>
       </c>
       <c r="C180" t="n">
-        <v>30.51</v>
+        <v>48.56</v>
       </c>
       <c r="D180" t="n">
-        <v>35.74</v>
+        <v>34.11</v>
+      </c>
+      <c r="E180" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F180" t="n">
+        <v>48.43</v>
       </c>
     </row>
     <row r="181">
@@ -3191,13 +4297,19 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>51.16</v>
+        <v>2.01</v>
       </c>
       <c r="C181" t="n">
-        <v>30.44</v>
+        <v>50.78</v>
       </c>
       <c r="D181" t="n">
-        <v>35.94</v>
+        <v>33.76</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0</v>
+      </c>
+      <c r="F181" t="n">
+        <v>48.94</v>
       </c>
     </row>
     <row r="182">
@@ -3205,13 +4317,19 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>51.05</v>
+        <v>1.59</v>
       </c>
       <c r="C182" t="n">
-        <v>30.34</v>
+        <v>50.78</v>
       </c>
       <c r="D182" t="n">
-        <v>36.15</v>
+        <v>33.69</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0</v>
+      </c>
+      <c r="F182" t="n">
+        <v>49.49</v>
       </c>
     </row>
     <row r="183">
@@ -3219,13 +4337,19 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>51.42</v>
+        <v>1.05</v>
       </c>
       <c r="C183" t="n">
-        <v>30.06</v>
+        <v>50.78</v>
       </c>
       <c r="D183" t="n">
-        <v>36.06</v>
+        <v>33.71</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0</v>
+      </c>
+      <c r="F183" t="n">
+        <v>50.09</v>
       </c>
     </row>
     <row r="184">
@@ -3233,13 +4357,19 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>51.8</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C184" t="n">
-        <v>29.79</v>
+        <v>50.78</v>
       </c>
       <c r="D184" t="n">
-        <v>35.95</v>
+        <v>33.77</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0</v>
+      </c>
+      <c r="F184" t="n">
+        <v>50.6</v>
       </c>
     </row>
     <row r="185">
@@ -3247,13 +4377,19 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>52.22</v>
+        <v>0</v>
       </c>
       <c r="C185" t="n">
-        <v>29.49</v>
+        <v>50.78</v>
       </c>
       <c r="D185" t="n">
-        <v>35.83</v>
+        <v>33.35</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0</v>
+      </c>
+      <c r="F185" t="n">
+        <v>51.57</v>
       </c>
     </row>
     <row r="186">
@@ -3261,13 +4397,19 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>52.7</v>
+        <v>0</v>
       </c>
       <c r="C186" t="n">
-        <v>29.1</v>
+        <v>50.78</v>
       </c>
       <c r="D186" t="n">
-        <v>35.74</v>
+        <v>33.06</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0</v>
+      </c>
+      <c r="F186" t="n">
+        <v>51.86</v>
       </c>
     </row>
     <row r="187">
@@ -3275,13 +4417,19 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>53.03</v>
+        <v>0</v>
       </c>
       <c r="C187" t="n">
-        <v>28.85</v>
+        <v>50.78</v>
       </c>
       <c r="D187" t="n">
-        <v>35.66</v>
+        <v>32.49</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0</v>
+      </c>
+      <c r="F187" t="n">
+        <v>52.43</v>
       </c>
     </row>
     <row r="188">
@@ -3289,1624 +4437,19 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>52.94</v>
+        <v>0</v>
       </c>
       <c r="C188" t="n">
-        <v>28.64</v>
+        <v>50.78</v>
       </c>
       <c r="D188" t="n">
-        <v>35.96</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>53.02</v>
-      </c>
-      <c r="C189" t="n">
-        <v>28.58</v>
-      </c>
-      <c r="D189" t="n">
-        <v>35.94</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>53.09</v>
-      </c>
-      <c r="C190" t="n">
-        <v>28.53</v>
-      </c>
-      <c r="D190" t="n">
-        <v>35.93</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>53.29</v>
-      </c>
-      <c r="C191" t="n">
-        <v>28.45</v>
-      </c>
-      <c r="D191" t="n">
-        <v>35.8</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>53.47</v>
-      </c>
-      <c r="C192" t="n">
-        <v>28.39</v>
-      </c>
-      <c r="D192" t="n">
-        <v>35.67</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>53.53</v>
-      </c>
-      <c r="C193" t="n">
-        <v>28.53</v>
-      </c>
-      <c r="D193" t="n">
-        <v>35.48</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>53.56</v>
-      </c>
-      <c r="C194" t="n">
-        <v>28.68</v>
-      </c>
-      <c r="D194" t="n">
-        <v>35.3</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>53.57</v>
-      </c>
-      <c r="C195" t="n">
-        <v>28.84</v>
-      </c>
-      <c r="D195" t="n">
-        <v>35.13</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>53.53</v>
-      </c>
-      <c r="C196" t="n">
-        <v>28.95</v>
-      </c>
-      <c r="D196" t="n">
-        <v>35.06</v>
-      </c>
-      <c r="E196" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>53.65</v>
-      </c>
-      <c r="C197" t="n">
-        <v>28.85</v>
-      </c>
-      <c r="D197" t="n">
-        <v>35.05</v>
-      </c>
-      <c r="E197" t="n">
-        <v>20.2</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="C198" t="n">
-        <v>28.74</v>
-      </c>
-      <c r="D198" t="n">
-        <v>34.68</v>
-      </c>
-      <c r="E198" t="n">
-        <v>19.25</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>54.4</v>
-      </c>
-      <c r="C199" t="n">
-        <v>28.96</v>
-      </c>
-      <c r="D199" t="n">
-        <v>34.41</v>
-      </c>
-      <c r="E199" t="n">
-        <v>18.825</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>54.72</v>
-      </c>
-      <c r="C200" t="n">
-        <v>29.14</v>
-      </c>
-      <c r="D200" t="n">
-        <v>34.14</v>
-      </c>
-      <c r="E200" t="n">
-        <v>18.57</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>55.01</v>
-      </c>
-      <c r="C201" t="n">
-        <v>29.33</v>
-      </c>
-      <c r="D201" t="n">
-        <v>33.91</v>
-      </c>
-      <c r="E201" t="n">
-        <v>18.4</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>55.32</v>
-      </c>
-      <c r="C202" t="n">
-        <v>29.52</v>
-      </c>
-      <c r="D202" t="n">
-        <v>33.66</v>
-      </c>
-      <c r="E202" t="n">
-        <v>18.16428571428571</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>55.18</v>
-      </c>
-      <c r="C203" t="n">
-        <v>29.71</v>
-      </c>
-      <c r="D203" t="n">
-        <v>33.93</v>
-      </c>
-      <c r="E203" t="n">
-        <v>17.91625</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>55</v>
-      </c>
-      <c r="C204" t="n">
-        <v>30.06</v>
-      </c>
-      <c r="D204" t="n">
-        <v>34.15</v>
-      </c>
-      <c r="E204" t="n">
-        <v>17.70111111111111</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>54.96</v>
-      </c>
-      <c r="C205" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="D205" t="n">
-        <v>34.26</v>
-      </c>
-      <c r="E205" t="n">
-        <v>17.529</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>54.95</v>
-      </c>
-      <c r="C206" t="n">
-        <v>30.83</v>
-      </c>
-      <c r="D206" t="n">
-        <v>34.23</v>
-      </c>
-      <c r="E206" t="n">
-        <v>17.529</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>54.92</v>
-      </c>
-      <c r="C207" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="D207" t="n">
-        <v>34.32</v>
-      </c>
-      <c r="E207" t="n">
-        <v>17.07</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>54.88</v>
-      </c>
-      <c r="C208" t="n">
-        <v>31.65</v>
-      </c>
-      <c r="D208" t="n">
-        <v>34.42</v>
-      </c>
-      <c r="E208" t="n">
-        <v>16.591</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>54.82</v>
-      </c>
-      <c r="C209" t="n">
-        <v>31.74</v>
-      </c>
-      <c r="D209" t="n">
-        <v>34.54</v>
-      </c>
-      <c r="E209" t="n">
-        <v>16.447</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>54.81</v>
-      </c>
-      <c r="C210" t="n">
-        <v>31.81</v>
-      </c>
-      <c r="D210" t="n">
-        <v>34.64</v>
-      </c>
-      <c r="E210" t="n">
-        <v>16.283</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>54.82</v>
-      </c>
-      <c r="C211" t="n">
-        <v>31.93</v>
-      </c>
-      <c r="D211" t="n">
-        <v>34.68</v>
-      </c>
-      <c r="E211" t="n">
-        <v>16.099</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>54.74</v>
-      </c>
-      <c r="C212" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="D212" t="n">
-        <v>34.68</v>
-      </c>
-      <c r="E212" t="n">
-        <v>17.626</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>54.71</v>
-      </c>
-      <c r="C213" t="n">
-        <v>29.04</v>
-      </c>
-      <c r="D213" t="n">
-        <v>34.72</v>
-      </c>
-      <c r="E213" t="n">
-        <v>19.067</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>55.13</v>
-      </c>
-      <c r="C214" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="D214" t="n">
-        <v>34.56</v>
-      </c>
-      <c r="E214" t="n">
-        <v>20.445</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>55.41</v>
-      </c>
-      <c r="C215" t="n">
-        <v>25.78</v>
-      </c>
-      <c r="D215" t="n">
-        <v>34.58</v>
-      </c>
-      <c r="E215" t="n">
-        <v>21.763</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>55.88</v>
-      </c>
-      <c r="C216" t="n">
-        <v>24.07</v>
-      </c>
-      <c r="D216" t="n">
-        <v>34.57</v>
-      </c>
-      <c r="E216" t="n">
-        <v>23.024</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="C217" t="n">
-        <v>22.56</v>
-      </c>
-      <c r="D217" t="n">
-        <v>34.44</v>
-      </c>
-      <c r="E217" t="n">
-        <v>24.342</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>56.81</v>
-      </c>
-      <c r="C218" t="n">
-        <v>21.04</v>
-      </c>
-      <c r="D218" t="n">
-        <v>34.06</v>
-      </c>
-      <c r="E218" t="n">
-        <v>25.62</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>57.38</v>
-      </c>
-      <c r="C219" t="n">
-        <v>19.54</v>
-      </c>
-      <c r="D219" t="n">
-        <v>33.27</v>
-      </c>
-      <c r="E219" t="n">
-        <v>27.348</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>57.83</v>
-      </c>
-      <c r="C220" t="n">
-        <v>18.06</v>
-      </c>
-      <c r="D220" t="n">
-        <v>32.66</v>
-      </c>
-      <c r="E220" t="n">
-        <v>28.996</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>58.27</v>
-      </c>
-      <c r="C221" t="n">
-        <v>16.47</v>
-      </c>
-      <c r="D221" t="n">
-        <v>32.05</v>
-      </c>
-      <c r="E221" t="n">
-        <v>30.744</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>58.86</v>
-      </c>
-      <c r="C222" t="n">
-        <v>16.44</v>
-      </c>
-      <c r="D222" t="n">
-        <v>31.52</v>
-      </c>
-      <c r="E222" t="n">
-        <v>30.721</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>59.4</v>
-      </c>
-      <c r="C223" t="n">
-        <v>16.55</v>
-      </c>
-      <c r="D223" t="n">
-        <v>30.78</v>
-      </c>
-      <c r="E223" t="n">
-        <v>30.807</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>59.58</v>
-      </c>
-      <c r="C224" t="n">
-        <v>16.65</v>
-      </c>
-      <c r="D224" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="E224" t="n">
-        <v>31.013</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>59.67</v>
-      </c>
-      <c r="C225" t="n">
-        <v>16.73</v>
-      </c>
-      <c r="D225" t="n">
-        <v>30.04</v>
-      </c>
-      <c r="E225" t="n">
-        <v>31.08899999999999</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>59.6</v>
-      </c>
-      <c r="C226" t="n">
-        <v>16.88</v>
-      </c>
-      <c r="D226" t="n">
-        <v>29.83</v>
-      </c>
-      <c r="E226" t="n">
-        <v>31.232</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>59.65</v>
-      </c>
-      <c r="C227" t="n">
-        <v>16.87</v>
-      </c>
-      <c r="D227" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="E227" t="n">
-        <v>31.415</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>59.42</v>
-      </c>
-      <c r="C228" t="n">
-        <v>16.89</v>
-      </c>
-      <c r="D228" t="n">
-        <v>29.61</v>
-      </c>
-      <c r="E228" t="n">
-        <v>31.618</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>59.24</v>
-      </c>
-      <c r="C229" t="n">
-        <v>16.91</v>
-      </c>
-      <c r="D229" t="n">
-        <v>30.02</v>
-      </c>
-      <c r="E229" t="n">
-        <v>31.371</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>59.14</v>
-      </c>
-      <c r="C230" t="n">
-        <v>17.01</v>
-      </c>
-      <c r="D230" t="n">
-        <v>30.26</v>
-      </c>
-      <c r="E230" t="n">
-        <v>31.127</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>59.04</v>
-      </c>
-      <c r="C231" t="n">
-        <v>17.21</v>
-      </c>
-      <c r="D231" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="E231" t="n">
-        <v>30.79300000000001</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>58.85</v>
-      </c>
-      <c r="C232" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="D232" t="n">
-        <v>30.74</v>
-      </c>
-      <c r="E232" t="n">
-        <v>30.44899999999999</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>58.66</v>
-      </c>
-      <c r="C233" t="n">
-        <v>17.67</v>
-      </c>
-      <c r="D233" t="n">
-        <v>30.96</v>
-      </c>
-      <c r="E233" t="n">
-        <v>30.252</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>58.67</v>
-      </c>
-      <c r="C234" t="n">
-        <v>17.86</v>
-      </c>
-      <c r="D234" t="n">
-        <v>30.98</v>
-      </c>
-      <c r="E234" t="n">
-        <v>30.035</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>58.68</v>
-      </c>
-      <c r="C235" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="D235" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="E235" t="n">
-        <v>29.856</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>58.69</v>
-      </c>
-      <c r="C236" t="n">
-        <v>18.54</v>
-      </c>
-      <c r="D236" t="n">
-        <v>30.74</v>
-      </c>
-      <c r="E236" t="n">
-        <v>29.577</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>58.71</v>
-      </c>
-      <c r="C237" t="n">
-        <v>18.87</v>
-      </c>
-      <c r="D237" t="n">
-        <v>30.78</v>
-      </c>
-      <c r="E237" t="n">
-        <v>29.178</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>58.75</v>
-      </c>
-      <c r="C238" t="n">
-        <v>19.19</v>
-      </c>
-      <c r="D238" t="n">
-        <v>30.64</v>
-      </c>
-      <c r="E238" t="n">
-        <v>28.959</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>58.95</v>
-      </c>
-      <c r="C239" t="n">
-        <v>19.52</v>
-      </c>
-      <c r="D239" t="n">
-        <v>30.52</v>
-      </c>
-      <c r="E239" t="n">
-        <v>28.56</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>59.13</v>
-      </c>
-      <c r="C240" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="D240" t="n">
-        <v>30.19</v>
-      </c>
-      <c r="E240" t="n">
-        <v>28.523</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>59.31</v>
-      </c>
-      <c r="C241" t="n">
-        <v>19.83</v>
-      </c>
-      <c r="D241" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="E241" t="n">
-        <v>28.496</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>59.5</v>
-      </c>
-      <c r="C242" t="n">
-        <v>19.95</v>
-      </c>
-      <c r="D242" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="E242" t="n">
-        <v>28.482</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>59.77</v>
-      </c>
-      <c r="C243" t="n">
-        <v>20.09</v>
-      </c>
-      <c r="D243" t="n">
-        <v>29.32</v>
-      </c>
-      <c r="E243" t="n">
-        <v>28.368</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>59.75</v>
-      </c>
-      <c r="C244" t="n">
-        <v>20.52</v>
-      </c>
-      <c r="D244" t="n">
-        <v>29.22</v>
-      </c>
-      <c r="E244" t="n">
-        <v>28.054</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>59.59</v>
-      </c>
-      <c r="C245" t="n">
-        <v>21.67</v>
-      </c>
-      <c r="D245" t="n">
-        <v>28.39</v>
-      </c>
-      <c r="E245" t="n">
-        <v>27.892</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>59.9</v>
-      </c>
-      <c r="C246" t="n">
-        <v>23.03</v>
-      </c>
-      <c r="D246" t="n">
-        <v>26.93</v>
-      </c>
-      <c r="E246" t="n">
-        <v>27.68</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>60.22</v>
-      </c>
-      <c r="C247" t="n">
-        <v>24.29</v>
-      </c>
-      <c r="D247" t="n">
-        <v>25.49</v>
-      </c>
-      <c r="E247" t="n">
-        <v>27.53799999999999</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>60.53</v>
-      </c>
-      <c r="C248" t="n">
-        <v>25.63</v>
-      </c>
-      <c r="D248" t="n">
-        <v>24.23</v>
-      </c>
-      <c r="E248" t="n">
-        <v>27.146</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>60.47</v>
-      </c>
-      <c r="C249" t="n">
-        <v>26.97</v>
-      </c>
-      <c r="D249" t="n">
-        <v>23.21</v>
-      </c>
-      <c r="E249" t="n">
-        <v>26.884</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>60.43</v>
-      </c>
-      <c r="C250" t="n">
-        <v>28.35</v>
-      </c>
-      <c r="D250" t="n">
-        <v>22.44</v>
-      </c>
-      <c r="E250" t="n">
-        <v>26.317</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>59.9</v>
-      </c>
-      <c r="C251" t="n">
-        <v>29.76</v>
-      </c>
-      <c r="D251" t="n">
-        <v>21.62</v>
-      </c>
-      <c r="E251" t="n">
-        <v>26.25</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>59.37</v>
-      </c>
-      <c r="C252" t="n">
-        <v>31.06</v>
-      </c>
-      <c r="D252" t="n">
-        <v>20.82</v>
-      </c>
-      <c r="E252" t="n">
-        <v>26.29</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>58.77</v>
-      </c>
-      <c r="C253" t="n">
-        <v>32.35</v>
-      </c>
-      <c r="D253" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="E253" t="n">
-        <v>26.02999999999999</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
-        <v>57.76</v>
-      </c>
-      <c r="C254" t="n">
-        <v>34.72</v>
-      </c>
-      <c r="D254" t="n">
-        <v>19.09</v>
-      </c>
-      <c r="E254" t="n">
-        <v>25.97</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="n">
-        <v>56.95</v>
-      </c>
-      <c r="C255" t="n">
-        <v>36.12</v>
-      </c>
-      <c r="D255" t="n">
-        <v>18.55</v>
-      </c>
-      <c r="E255" t="n">
-        <v>25.91</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="n">
-        <v>55.63</v>
-      </c>
-      <c r="C256" t="n">
-        <v>37.34</v>
-      </c>
-      <c r="D256" t="n">
-        <v>18.16</v>
-      </c>
-      <c r="E256" t="n">
-        <v>26.41</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="n">
-        <v>54.29</v>
-      </c>
-      <c r="C257" t="n">
-        <v>38.55</v>
-      </c>
-      <c r="D257" t="n">
-        <v>17.92</v>
-      </c>
-      <c r="E257" t="n">
-        <v>26.775</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="n">
-        <v>53.06</v>
-      </c>
-      <c r="C258" t="n">
-        <v>39.62</v>
-      </c>
-      <c r="D258" t="n">
-        <v>17.67</v>
-      </c>
-      <c r="E258" t="n">
-        <v>27.19</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="n">
-        <v>51.32</v>
-      </c>
-      <c r="C259" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="D259" t="n">
-        <v>17.18</v>
-      </c>
-      <c r="E259" t="n">
-        <v>28.34500000000001</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>258</v>
-      </c>
-      <c r="B260" t="n">
-        <v>49.66</v>
-      </c>
-      <c r="C260" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="D260" t="n">
-        <v>16.66</v>
-      </c>
-      <c r="E260" t="n">
-        <v>29.52</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B261" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="C261" t="n">
-        <v>42.69</v>
-      </c>
-      <c r="D261" t="n">
-        <v>16.05</v>
-      </c>
-      <c r="E261" t="n">
-        <v>30.295</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="n">
-        <v>47.43</v>
-      </c>
-      <c r="C262" t="n">
-        <v>43.72</v>
-      </c>
-      <c r="D262" t="n">
-        <v>15.39</v>
-      </c>
-      <c r="E262" t="n">
-        <v>31.00000000000001</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="B263" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="C263" t="n">
-        <v>44.76</v>
-      </c>
-      <c r="D263" t="n">
-        <v>14.27</v>
-      </c>
-      <c r="E263" t="n">
-        <v>31.815</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="n">
-        <v>46.37</v>
-      </c>
-      <c r="C264" t="n">
-        <v>44.48</v>
-      </c>
-      <c r="D264" t="n">
-        <v>14.04</v>
-      </c>
-      <c r="E264" t="n">
-        <v>32.65000000000001</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="n">
-        <v>46</v>
-      </c>
-      <c r="C265" t="n">
-        <v>44.18</v>
-      </c>
-      <c r="D265" t="n">
-        <v>13.88</v>
-      </c>
-      <c r="E265" t="n">
-        <v>33.485</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="n">
-        <v>45.81</v>
-      </c>
-      <c r="C266" t="n">
-        <v>44.06</v>
-      </c>
-      <c r="D266" t="n">
-        <v>13.83</v>
-      </c>
-      <c r="E266" t="n">
-        <v>33.84</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="n">
-        <v>45.6</v>
-      </c>
-      <c r="C267" t="n">
-        <v>43.95</v>
-      </c>
-      <c r="D267" t="n">
-        <v>13.79</v>
-      </c>
-      <c r="E267" t="n">
-        <v>34.2</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="n">
-        <v>45.98</v>
-      </c>
-      <c r="C268" t="n">
-        <v>43.23</v>
-      </c>
-      <c r="D268" t="n">
-        <v>13.76</v>
-      </c>
-      <c r="E268" t="n">
-        <v>34.55999999999999</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="n">
-        <v>47.03</v>
-      </c>
-      <c r="C269" t="n">
-        <v>42.51</v>
-      </c>
-      <c r="D269" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="E269" t="n">
-        <v>34.2</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="n">
-        <v>48.02</v>
-      </c>
-      <c r="C270" t="n">
-        <v>41.86</v>
-      </c>
-      <c r="D270" t="n">
-        <v>13.83</v>
-      </c>
-      <c r="E270" t="n">
-        <v>33.81999999999999</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="n">
-        <v>49</v>
-      </c>
-      <c r="C271" t="n">
-        <v>41.23</v>
-      </c>
-      <c r="D271" t="n">
-        <v>13.98</v>
-      </c>
-      <c r="E271" t="n">
-        <v>33.33</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B272" t="n">
-        <v>50.27</v>
-      </c>
-      <c r="C272" t="n">
-        <v>40.21</v>
-      </c>
-      <c r="D272" t="n">
-        <v>14.19</v>
-      </c>
-      <c r="E272" t="n">
-        <v>32.86</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="n">
-        <v>51.27</v>
-      </c>
-      <c r="C273" t="n">
-        <v>39.19</v>
-      </c>
-      <c r="D273" t="n">
-        <v>14.49</v>
-      </c>
-      <c r="E273" t="n">
-        <v>32.58999999999999</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B274" t="n">
-        <v>52.41</v>
-      </c>
-      <c r="C274" t="n">
-        <v>38.05</v>
-      </c>
-      <c r="D274" t="n">
-        <v>14.78</v>
-      </c>
-      <c r="E274" t="n">
-        <v>32.3</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B275" t="n">
-        <v>53.63</v>
-      </c>
-      <c r="C275" t="n">
-        <v>36.92</v>
-      </c>
-      <c r="D275" t="n">
-        <v>14.97</v>
-      </c>
-      <c r="E275" t="n">
-        <v>32.02</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B276" t="n">
-        <v>54.72</v>
-      </c>
-      <c r="C276" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="D276" t="n">
-        <v>14.92</v>
-      </c>
-      <c r="E276" t="n">
-        <v>31.71</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
-        <v>275</v>
-      </c>
-      <c r="B277" t="n">
-        <v>55.82</v>
-      </c>
-      <c r="C277" t="n">
-        <v>35.46</v>
-      </c>
-      <c r="D277" t="n">
-        <v>14.69</v>
-      </c>
-      <c r="E277" t="n">
-        <v>31.57</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
-        <v>276</v>
-      </c>
-      <c r="B278" t="n">
-        <v>56.05</v>
-      </c>
-      <c r="C278" t="n">
-        <v>35.39</v>
-      </c>
-      <c r="D278" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="E278" t="n">
-        <v>31.70499999999999</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
-        <v>277</v>
-      </c>
-      <c r="B279" t="n">
-        <v>56.26</v>
-      </c>
-      <c r="C279" t="n">
-        <v>35.47</v>
-      </c>
-      <c r="D279" t="n">
-        <v>14.04</v>
-      </c>
-      <c r="E279" t="n">
-        <v>31.77</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
-        <v>278</v>
-      </c>
-      <c r="B280" t="n">
-        <v>56.46</v>
-      </c>
-      <c r="C280" t="n">
-        <v>35.53</v>
-      </c>
-      <c r="D280" t="n">
-        <v>13.69</v>
-      </c>
-      <c r="E280" t="n">
-        <v>31.855</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
-        <v>279</v>
-      </c>
-      <c r="B281" t="n">
-        <v>56.67</v>
-      </c>
-      <c r="C281" t="n">
-        <v>35.57</v>
-      </c>
-      <c r="D281" t="n">
-        <v>13.29</v>
-      </c>
-      <c r="E281" t="n">
-        <v>32.01</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
-        <v>280</v>
-      </c>
-      <c r="B282" t="n">
-        <v>56.23</v>
-      </c>
-      <c r="C282" t="n">
-        <v>35.99</v>
-      </c>
-      <c r="D282" t="n">
-        <v>12.83</v>
-      </c>
-      <c r="E282" t="n">
-        <v>32.495</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
-        <v>281</v>
-      </c>
-      <c r="B283" t="n">
-        <v>56.05</v>
-      </c>
-      <c r="C283" t="n">
-        <v>36.42</v>
-      </c>
-      <c r="D283" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E283" t="n">
-        <v>32.97</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
-        <v>282</v>
-      </c>
-      <c r="B284" t="n">
-        <v>55.77</v>
-      </c>
-      <c r="C284" t="n">
-        <v>36.93</v>
-      </c>
-      <c r="D284" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="E284" t="n">
-        <v>33.465</v>
+        <v>31.97</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0</v>
+      </c>
+      <c r="F188" t="n">
+        <v>52.95</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/stacks_over_time_avg.xlsx
+++ b/Outputs/stacks_over_time_avg.xlsx
@@ -162,7 +162,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Stacks vs time this session (06/07/21): 10-hand moving averages</a:t>
+              <a:t>Stacks vs time this session (06/21/21): 10-hand moving averages</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -194,7 +194,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$B$2:$B$188</f>
+              <f>'data'!$B$2:$B$284</f>
             </numRef>
           </val>
         </ser>
@@ -221,7 +221,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$C$2:$C$188</f>
+              <f>'data'!$C$2:$C$284</f>
             </numRef>
           </val>
         </ser>
@@ -248,7 +248,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$D$2:$D$188</f>
+              <f>'data'!$D$2:$D$284</f>
             </numRef>
           </val>
         </ser>
@@ -275,34 +275,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$E$2:$E$188</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="4"/>
-          <order val="4"/>
-          <tx>
-            <strRef>
-              <f>'data'!F1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'data'!$F$2:$F$188</f>
+              <f>'data'!$E$2:$E$284</f>
             </numRef>
           </val>
         </ser>
@@ -672,7 +645,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F188"/>
+  <dimension ref="A1:E284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -688,29 +661,24 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Fish</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>Scott</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Raymond</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Jonathan</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Cedric</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Fish</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -725,30 +693,18 @@
       <c r="D2" t="n">
         <v>20</v>
       </c>
-      <c r="E2" t="n">
-        <v>20</v>
-      </c>
-      <c r="F2" t="n">
-        <v>20</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>19.7</v>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>20.4</v>
       </c>
       <c r="D3" t="n">
-        <v>20</v>
-      </c>
-      <c r="E3" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="F3" t="n">
         <v>19.9</v>
       </c>
     </row>
@@ -757,19 +713,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>19.93</v>
+        <v>19.1</v>
       </c>
       <c r="C4" t="n">
-        <v>20.1</v>
+        <v>20.53</v>
       </c>
       <c r="D4" t="n">
-        <v>20</v>
-      </c>
-      <c r="E4" t="n">
-        <v>20.13</v>
-      </c>
-      <c r="F4" t="n">
-        <v>19.83</v>
+        <v>20.37</v>
       </c>
     </row>
     <row r="5">
@@ -777,19 +727,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>19.85</v>
+        <v>18.85</v>
       </c>
       <c r="C5" t="n">
-        <v>18.26</v>
+        <v>20.55</v>
       </c>
       <c r="D5" t="n">
-        <v>20</v>
-      </c>
-      <c r="E5" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>21.79</v>
+        <v>20.6</v>
       </c>
     </row>
     <row r="6">
@@ -797,19 +741,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20.46</v>
+        <v>18.7</v>
       </c>
       <c r="C6" t="n">
-        <v>16.54</v>
+        <v>20.54</v>
       </c>
       <c r="D6" t="n">
-        <v>19.96</v>
-      </c>
-      <c r="E6" t="n">
-        <v>20.08</v>
-      </c>
-      <c r="F6" t="n">
-        <v>22.96</v>
+        <v>20.76</v>
       </c>
     </row>
     <row r="7">
@@ -817,19 +755,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20.51</v>
+        <v>18.62</v>
       </c>
       <c r="C7" t="n">
-        <v>15.39</v>
+        <v>20.53</v>
       </c>
       <c r="D7" t="n">
-        <v>20.32</v>
-      </c>
-      <c r="E7" t="n">
-        <v>20.03</v>
-      </c>
-      <c r="F7" t="n">
-        <v>23.74</v>
+        <v>20.85</v>
       </c>
     </row>
     <row r="8">
@@ -837,19 +769,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>20.51</v>
+        <v>18.54</v>
       </c>
       <c r="C8" t="n">
-        <v>14.77</v>
+        <v>20.31</v>
       </c>
       <c r="D8" t="n">
-        <v>20.59</v>
-      </c>
-      <c r="E8" t="n">
-        <v>19.91</v>
-      </c>
-      <c r="F8" t="n">
-        <v>24.21</v>
+        <v>21.14</v>
       </c>
     </row>
     <row r="9">
@@ -857,19 +783,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>20.44</v>
+        <v>18.49</v>
       </c>
       <c r="C9" t="n">
-        <v>14.31</v>
+        <v>20.14</v>
       </c>
       <c r="D9" t="n">
-        <v>20.78</v>
-      </c>
-      <c r="E9" t="n">
-        <v>19.95</v>
-      </c>
-      <c r="F9" t="n">
-        <v>24.52</v>
+        <v>21.38</v>
       </c>
     </row>
     <row r="10">
@@ -877,19 +797,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>21.08</v>
+        <v>18.56</v>
       </c>
       <c r="C10" t="n">
-        <v>13.3</v>
+        <v>19.89</v>
       </c>
       <c r="D10" t="n">
-        <v>20.91</v>
-      </c>
-      <c r="E10" t="n">
-        <v>19.96</v>
-      </c>
-      <c r="F10" t="n">
-        <v>24.76</v>
+        <v>21.54</v>
       </c>
     </row>
     <row r="11">
@@ -897,19 +811,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>21.59</v>
+        <v>19.18</v>
       </c>
       <c r="C11" t="n">
-        <v>12.47</v>
+        <v>19.14</v>
       </c>
       <c r="D11" t="n">
-        <v>21.04</v>
-      </c>
-      <c r="E11" t="n">
-        <v>19.96</v>
-      </c>
-      <c r="F11" t="n">
-        <v>24.95</v>
+        <v>21.68</v>
       </c>
     </row>
     <row r="12">
@@ -917,19 +825,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>21.59</v>
+        <v>19.18</v>
       </c>
       <c r="C12" t="n">
-        <v>12.47</v>
+        <v>19.14</v>
       </c>
       <c r="D12" t="n">
-        <v>21.04</v>
-      </c>
-      <c r="E12" t="n">
-        <v>19.96</v>
-      </c>
-      <c r="F12" t="n">
-        <v>24.95</v>
+        <v>21.68</v>
       </c>
     </row>
     <row r="13">
@@ -937,19 +839,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>22.2</v>
+        <v>19.66</v>
       </c>
       <c r="C13" t="n">
-        <v>10.98</v>
+        <v>18.5</v>
       </c>
       <c r="D13" t="n">
-        <v>21.19</v>
-      </c>
-      <c r="E13" t="n">
-        <v>19.94</v>
-      </c>
-      <c r="F13" t="n">
-        <v>25.7</v>
+        <v>21.85</v>
       </c>
     </row>
     <row r="14">
@@ -957,19 +853,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>22.82</v>
+        <v>19.99</v>
       </c>
       <c r="C14" t="n">
-        <v>9.48</v>
+        <v>17.77</v>
       </c>
       <c r="D14" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="E14" t="n">
-        <v>19.89</v>
-      </c>
-      <c r="F14" t="n">
-        <v>26.41</v>
+        <v>22.24</v>
       </c>
     </row>
     <row r="15">
@@ -977,19 +867,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>23.39</v>
+        <v>20.46</v>
       </c>
       <c r="C15" t="n">
-        <v>9.460000000000001</v>
+        <v>17.02</v>
       </c>
       <c r="D15" t="n">
-        <v>21.69</v>
-      </c>
-      <c r="E15" t="n">
-        <v>19.84</v>
-      </c>
-      <c r="F15" t="n">
-        <v>27.12</v>
+        <v>22.52</v>
       </c>
     </row>
     <row r="16">
@@ -997,19 +881,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>23.98</v>
+        <v>20.83</v>
       </c>
       <c r="C16" t="n">
-        <v>10.2</v>
+        <v>16.4</v>
       </c>
       <c r="D16" t="n">
-        <v>21.97</v>
-      </c>
-      <c r="E16" t="n">
-        <v>19.81</v>
-      </c>
-      <c r="F16" t="n">
-        <v>27.04</v>
+        <v>22.77</v>
       </c>
     </row>
     <row r="17">
@@ -1017,19 +895,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>24.18</v>
+        <v>21.21</v>
       </c>
       <c r="C17" t="n">
-        <v>11.33</v>
+        <v>15.79</v>
       </c>
       <c r="D17" t="n">
-        <v>22.25</v>
-      </c>
-      <c r="E17" t="n">
-        <v>19.78</v>
-      </c>
-      <c r="F17" t="n">
-        <v>26.96</v>
+        <v>23.01</v>
       </c>
     </row>
     <row r="18">
@@ -1037,19 +909,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>24.7</v>
+        <v>21.32</v>
       </c>
       <c r="C18" t="n">
-        <v>12.38</v>
+        <v>15.15</v>
       </c>
       <c r="D18" t="n">
-        <v>22.29</v>
-      </c>
-      <c r="E18" t="n">
-        <v>19.75</v>
-      </c>
-      <c r="F18" t="n">
-        <v>26.88</v>
+        <v>23.53</v>
       </c>
     </row>
     <row r="19">
@@ -1057,19 +923,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>25.25</v>
+        <v>21.44</v>
       </c>
       <c r="C19" t="n">
-        <v>13.58</v>
+        <v>14.65</v>
       </c>
       <c r="D19" t="n">
-        <v>22.33</v>
-      </c>
-      <c r="E19" t="n">
-        <v>19.77</v>
-      </c>
-      <c r="F19" t="n">
-        <v>26.57</v>
+        <v>23.9</v>
       </c>
     </row>
     <row r="20">
@@ -1077,19 +937,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>26.86</v>
+        <v>22.05</v>
       </c>
       <c r="C20" t="n">
-        <v>14.07</v>
+        <v>14.17</v>
       </c>
       <c r="D20" t="n">
-        <v>22.37</v>
-      </c>
-      <c r="E20" t="n">
-        <v>19.63</v>
-      </c>
-      <c r="F20" t="n">
-        <v>26.07</v>
+        <v>23.78</v>
       </c>
     </row>
     <row r="21">
@@ -1097,19 +951,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>27.84</v>
+        <v>22.55</v>
       </c>
       <c r="C21" t="n">
-        <v>15.21</v>
+        <v>14.37</v>
       </c>
       <c r="D21" t="n">
-        <v>22.43</v>
-      </c>
-      <c r="E21" t="n">
-        <v>19.45</v>
-      </c>
-      <c r="F21" t="n">
-        <v>25.57</v>
+        <v>23.66</v>
       </c>
     </row>
     <row r="22">
@@ -1117,19 +965,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>28.8</v>
+        <v>21.9</v>
       </c>
       <c r="C22" t="n">
-        <v>16.41</v>
+        <v>15.13</v>
       </c>
       <c r="D22" t="n">
-        <v>22.45</v>
-      </c>
-      <c r="E22" t="n">
-        <v>19.27</v>
-      </c>
-      <c r="F22" t="n">
-        <v>25.07</v>
+        <v>24.14</v>
       </c>
     </row>
     <row r="23">
@@ -1137,19 +979,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>29.77</v>
+        <v>21.27</v>
       </c>
       <c r="C23" t="n">
-        <v>17.61</v>
+        <v>15.77</v>
       </c>
       <c r="D23" t="n">
-        <v>22.52</v>
-      </c>
-      <c r="E23" t="n">
-        <v>18.99</v>
-      </c>
-      <c r="F23" t="n">
-        <v>24.48</v>
+        <v>24.72</v>
       </c>
     </row>
     <row r="24">
@@ -1157,19 +993,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>30.73</v>
+        <v>20.82</v>
       </c>
       <c r="C24" t="n">
-        <v>18.81</v>
+        <v>16.38</v>
       </c>
       <c r="D24" t="n">
-        <v>22.53</v>
-      </c>
-      <c r="E24" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="F24" t="n">
-        <v>23.97</v>
+        <v>25.14</v>
       </c>
     </row>
     <row r="25">
@@ -1177,19 +1007,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>31.75</v>
+        <v>20.38</v>
       </c>
       <c r="C25" t="n">
-        <v>18.49</v>
+        <v>17.03</v>
       </c>
       <c r="D25" t="n">
-        <v>22.47</v>
-      </c>
-      <c r="E25" t="n">
-        <v>18.42</v>
-      </c>
-      <c r="F25" t="n">
-        <v>23.49</v>
+        <v>25.51</v>
       </c>
     </row>
     <row r="26">
@@ -1197,19 +1021,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>32.91</v>
+        <v>19.94</v>
       </c>
       <c r="C26" t="n">
-        <v>18.18</v>
+        <v>17.59</v>
       </c>
       <c r="D26" t="n">
-        <v>22.39</v>
-      </c>
-      <c r="E26" t="n">
-        <v>18.13</v>
-      </c>
-      <c r="F26" t="n">
-        <v>23.01</v>
+        <v>25.98</v>
       </c>
     </row>
     <row r="27">
@@ -1217,19 +1035,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>34.04</v>
+        <v>19.48</v>
       </c>
       <c r="C27" t="n">
-        <v>17.51</v>
+        <v>18.13</v>
       </c>
       <c r="D27" t="n">
-        <v>22.32</v>
-      </c>
-      <c r="E27" t="n">
-        <v>18.22</v>
-      </c>
-      <c r="F27" t="n">
-        <v>22.53</v>
+        <v>26.49</v>
       </c>
     </row>
     <row r="28">
@@ -1237,19 +1049,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>35.05</v>
+        <v>19.28</v>
       </c>
       <c r="C28" t="n">
-        <v>16.84</v>
+        <v>18.67</v>
       </c>
       <c r="D28" t="n">
-        <v>22.43</v>
-      </c>
-      <c r="E28" t="n">
-        <v>18.32</v>
-      </c>
-      <c r="F28" t="n">
-        <v>21.97</v>
+        <v>26.73</v>
       </c>
     </row>
     <row r="29">
@@ -1257,19 +1063,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>36.05</v>
+        <v>18.58</v>
       </c>
       <c r="C29" t="n">
-        <v>15.91</v>
+        <v>19.23</v>
       </c>
       <c r="D29" t="n">
-        <v>22.54</v>
-      </c>
-      <c r="E29" t="n">
-        <v>18.43</v>
-      </c>
-      <c r="F29" t="n">
-        <v>21.68</v>
+        <v>27.46</v>
       </c>
     </row>
     <row r="30">
@@ -1277,19 +1077,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>36.03</v>
+        <v>17.41</v>
       </c>
       <c r="C30" t="n">
-        <v>15.76</v>
+        <v>19.76</v>
       </c>
       <c r="D30" t="n">
-        <v>22.65</v>
-      </c>
-      <c r="E30" t="n">
-        <v>18.55</v>
-      </c>
-      <c r="F30" t="n">
-        <v>21.63</v>
+        <v>28.68</v>
       </c>
     </row>
     <row r="31">
@@ -1297,19 +1091,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>36</v>
+        <v>16.28</v>
       </c>
       <c r="C31" t="n">
-        <v>15.52</v>
+        <v>19.69</v>
       </c>
       <c r="D31" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="E31" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="F31" t="n">
-        <v>21.58</v>
+        <v>29.88</v>
       </c>
     </row>
     <row r="32">
@@ -1317,19 +1105,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>35.99</v>
+        <v>15.59</v>
       </c>
       <c r="C32" t="n">
-        <v>15.29</v>
+        <v>19.63</v>
       </c>
       <c r="D32" t="n">
-        <v>22.96</v>
-      </c>
-      <c r="E32" t="n">
-        <v>18.87</v>
-      </c>
-      <c r="F32" t="n">
-        <v>21.51</v>
+        <v>30.63</v>
       </c>
     </row>
     <row r="33">
@@ -1337,19 +1119,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>36.01</v>
+        <v>15.75</v>
       </c>
       <c r="C33" t="n">
-        <v>15.06</v>
+        <v>19.65</v>
       </c>
       <c r="D33" t="n">
-        <v>23.13</v>
-      </c>
-      <c r="E33" t="n">
-        <v>19.12</v>
-      </c>
-      <c r="F33" t="n">
-        <v>21.42</v>
+        <v>31.32</v>
       </c>
     </row>
     <row r="34">
@@ -1357,19 +1133,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>35.96</v>
+        <v>15.93</v>
       </c>
       <c r="C34" t="n">
-        <v>14.92</v>
+        <v>19.71</v>
       </c>
       <c r="D34" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="E34" t="n">
-        <v>19.39</v>
-      </c>
-      <c r="F34" t="n">
-        <v>21.3</v>
+        <v>31.95</v>
       </c>
     </row>
     <row r="35">
@@ -1377,19 +1147,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>35.85</v>
+        <v>16.21</v>
       </c>
       <c r="C35" t="n">
-        <v>15.23</v>
+        <v>19.75</v>
       </c>
       <c r="D35" t="n">
-        <v>23.09</v>
-      </c>
-      <c r="E35" t="n">
-        <v>19.66</v>
-      </c>
-      <c r="F35" t="n">
-        <v>21.16</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="36">
@@ -1397,19 +1161,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>35.54</v>
+        <v>18.82</v>
       </c>
       <c r="C36" t="n">
-        <v>15.51</v>
+        <v>19.64</v>
       </c>
       <c r="D36" t="n">
-        <v>23.03</v>
-      </c>
-      <c r="E36" t="n">
-        <v>19.91</v>
-      </c>
-      <c r="F36" t="n">
-        <v>21.02</v>
+        <v>30.87</v>
       </c>
     </row>
     <row r="37">
@@ -1417,19 +1175,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>35.25</v>
+        <v>21.46</v>
       </c>
       <c r="C37" t="n">
-        <v>16.21</v>
+        <v>19.54</v>
       </c>
       <c r="D37" t="n">
-        <v>22.96</v>
-      </c>
-      <c r="E37" t="n">
-        <v>19.76</v>
-      </c>
-      <c r="F37" t="n">
-        <v>20.82</v>
+        <v>29.19</v>
       </c>
     </row>
     <row r="38">
@@ -1437,19 +1189,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>34.89</v>
+        <v>24.12</v>
       </c>
       <c r="C38" t="n">
-        <v>17</v>
+        <v>19.45</v>
       </c>
       <c r="D38" t="n">
-        <v>22.94</v>
-      </c>
-      <c r="E38" t="n">
-        <v>19.55</v>
-      </c>
-      <c r="F38" t="n">
-        <v>20.63</v>
+        <v>27.49</v>
       </c>
     </row>
     <row r="39">
@@ -1457,19 +1203,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>34.6</v>
+        <v>27.27</v>
       </c>
       <c r="C39" t="n">
-        <v>17.75</v>
+        <v>19.37</v>
       </c>
       <c r="D39" t="n">
-        <v>22.92</v>
-      </c>
-      <c r="E39" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="F39" t="n">
-        <v>20.44</v>
+        <v>25.29</v>
       </c>
     </row>
     <row r="40">
@@ -1477,19 +1217,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>34.24</v>
+        <v>30.2</v>
       </c>
       <c r="C40" t="n">
-        <v>17.45</v>
+        <v>19.11</v>
       </c>
       <c r="D40" t="n">
-        <v>22.82</v>
-      </c>
-      <c r="E40" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="F40" t="n">
-        <v>21.38</v>
+        <v>23.49</v>
       </c>
     </row>
     <row r="41">
@@ -1497,19 +1231,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>33.9</v>
+        <v>33.11</v>
       </c>
       <c r="C41" t="n">
-        <v>17.29</v>
+        <v>18.86</v>
       </c>
       <c r="D41" t="n">
-        <v>22.58</v>
-      </c>
-      <c r="E41" t="n">
-        <v>18.89</v>
-      </c>
-      <c r="F41" t="n">
-        <v>22.33</v>
+        <v>21.7</v>
       </c>
     </row>
     <row r="42">
@@ -1517,19 +1245,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>33.67</v>
+        <v>36.18</v>
       </c>
       <c r="C42" t="n">
-        <v>16.99</v>
+        <v>18.59</v>
       </c>
       <c r="D42" t="n">
-        <v>22.35</v>
-      </c>
-      <c r="E42" t="n">
-        <v>18.68</v>
-      </c>
-      <c r="F42" t="n">
-        <v>23.3</v>
+        <v>19.77</v>
       </c>
     </row>
     <row r="43">
@@ -1537,19 +1259,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>33.4</v>
+        <v>38.39</v>
       </c>
       <c r="C43" t="n">
-        <v>16.62</v>
+        <v>18.26</v>
       </c>
       <c r="D43" t="n">
-        <v>22.12</v>
-      </c>
-      <c r="E43" t="n">
-        <v>18.41</v>
-      </c>
-      <c r="F43" t="n">
-        <v>24.47</v>
+        <v>17.89</v>
       </c>
     </row>
     <row r="44">
@@ -1557,19 +1273,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>33.22</v>
+        <v>40.53</v>
       </c>
       <c r="C44" t="n">
-        <v>16.13</v>
+        <v>18.05</v>
       </c>
       <c r="D44" t="n">
-        <v>21.89</v>
-      </c>
-      <c r="E44" t="n">
-        <v>18.14</v>
-      </c>
-      <c r="F44" t="n">
-        <v>25.67</v>
+        <v>15.96</v>
       </c>
     </row>
     <row r="45">
@@ -1577,19 +1287,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>33.06</v>
+        <v>42.56</v>
       </c>
       <c r="C45" t="n">
-        <v>15.23</v>
+        <v>17.85</v>
       </c>
       <c r="D45" t="n">
-        <v>22.02</v>
-      </c>
-      <c r="E45" t="n">
-        <v>17.86</v>
-      </c>
-      <c r="F45" t="n">
-        <v>26.86</v>
+        <v>14.13</v>
       </c>
     </row>
     <row r="46">
@@ -1597,19 +1301,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>32.96</v>
+        <v>42.37</v>
       </c>
       <c r="C46" t="n">
-        <v>14.35</v>
+        <v>17.79</v>
       </c>
       <c r="D46" t="n">
-        <v>22.01</v>
-      </c>
-      <c r="E46" t="n">
-        <v>17.65</v>
-      </c>
-      <c r="F46" t="n">
-        <v>28.06</v>
+        <v>14.38</v>
       </c>
     </row>
     <row r="47">
@@ -1617,19 +1315,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>32.86</v>
+        <v>42.16</v>
       </c>
       <c r="C47" t="n">
-        <v>13.46</v>
+        <v>17.74</v>
       </c>
       <c r="D47" t="n">
-        <v>22.02</v>
-      </c>
-      <c r="E47" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="F47" t="n">
-        <v>29.32</v>
+        <v>14.64</v>
       </c>
     </row>
     <row r="48">
@@ -1637,19 +1329,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>32.81</v>
+        <v>41.93</v>
       </c>
       <c r="C48" t="n">
-        <v>12.59</v>
+        <v>17.7</v>
       </c>
       <c r="D48" t="n">
-        <v>21.81</v>
-      </c>
-      <c r="E48" t="n">
-        <v>17.22</v>
-      </c>
-      <c r="F48" t="n">
-        <v>30.65</v>
+        <v>14.91</v>
       </c>
     </row>
     <row r="49">
@@ -1657,19 +1343,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>32.7</v>
+        <v>41.71</v>
       </c>
       <c r="C49" t="n">
-        <v>11.96</v>
+        <v>17.59</v>
       </c>
       <c r="D49" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="E49" t="n">
-        <v>16.85</v>
-      </c>
-      <c r="F49" t="n">
-        <v>31.99</v>
+        <v>15.24</v>
       </c>
     </row>
     <row r="50">
@@ -1677,19 +1357,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>32.67</v>
+        <v>41.79</v>
       </c>
       <c r="C50" t="n">
-        <v>12.33</v>
+        <v>17.68</v>
       </c>
       <c r="D50" t="n">
-        <v>21.45</v>
-      </c>
-      <c r="E50" t="n">
-        <v>16.48</v>
-      </c>
-      <c r="F50" t="n">
-        <v>32.17</v>
+        <v>15.07</v>
       </c>
     </row>
     <row r="51">
@@ -1697,19 +1371,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>32.54</v>
+        <v>41.85</v>
       </c>
       <c r="C51" t="n">
-        <v>12.32</v>
+        <v>17.78</v>
       </c>
       <c r="D51" t="n">
-        <v>21.38</v>
-      </c>
-      <c r="E51" t="n">
-        <v>16.11</v>
-      </c>
-      <c r="F51" t="n">
-        <v>32.75</v>
+        <v>14.91</v>
       </c>
     </row>
     <row r="52">
@@ -1717,19 +1385,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>32.3</v>
+        <v>41.89</v>
       </c>
       <c r="C52" t="n">
-        <v>12.39</v>
+        <v>17.78</v>
       </c>
       <c r="D52" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="E52" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="F52" t="n">
-        <v>33.31</v>
+        <v>14.87</v>
       </c>
     </row>
     <row r="53">
@@ -1737,19 +1399,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>32.04</v>
+        <v>41.73</v>
       </c>
       <c r="C53" t="n">
-        <v>12.63</v>
+        <v>17.76</v>
       </c>
       <c r="D53" t="n">
-        <v>21.35</v>
-      </c>
-      <c r="E53" t="n">
-        <v>15.38</v>
-      </c>
-      <c r="F53" t="n">
-        <v>33.68</v>
+        <v>15.05</v>
       </c>
     </row>
     <row r="54">
@@ -1757,19 +1413,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>31.77</v>
+        <v>41.64</v>
       </c>
       <c r="C54" t="n">
-        <v>13.03</v>
+        <v>17.66</v>
       </c>
       <c r="D54" t="n">
-        <v>21.19</v>
-      </c>
-      <c r="E54" t="n">
-        <v>15.05</v>
-      </c>
-      <c r="F54" t="n">
-        <v>34.03</v>
+        <v>15.25</v>
       </c>
     </row>
     <row r="55">
@@ -1777,19 +1427,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>31.52</v>
+        <v>41.56</v>
       </c>
       <c r="C55" t="n">
-        <v>13.46</v>
+        <v>17.53</v>
       </c>
       <c r="D55" t="n">
-        <v>20.98</v>
-      </c>
-      <c r="E55" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="F55" t="n">
-        <v>34.38</v>
+        <v>15.47</v>
       </c>
     </row>
     <row r="56">
@@ -1797,19 +1441,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>31.28</v>
+        <v>41.45</v>
       </c>
       <c r="C56" t="n">
-        <v>13.96</v>
+        <v>17.43</v>
       </c>
       <c r="D56" t="n">
-        <v>20.76</v>
-      </c>
-      <c r="E56" t="n">
-        <v>14.33</v>
-      </c>
-      <c r="F56" t="n">
-        <v>34.73</v>
+        <v>15.69</v>
       </c>
     </row>
     <row r="57">
@@ -1817,19 +1455,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>31.08</v>
+        <v>41.32</v>
       </c>
       <c r="C57" t="n">
-        <v>14.31</v>
+        <v>17.26</v>
       </c>
       <c r="D57" t="n">
-        <v>20.52</v>
-      </c>
-      <c r="E57" t="n">
-        <v>14</v>
-      </c>
-      <c r="F57" t="n">
-        <v>35.13</v>
+        <v>15.99</v>
       </c>
     </row>
     <row r="58">
@@ -1837,19 +1469,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>30.88</v>
+        <v>41.17</v>
       </c>
       <c r="C58" t="n">
-        <v>14.73</v>
+        <v>17.11</v>
       </c>
       <c r="D58" t="n">
-        <v>20.28</v>
-      </c>
-      <c r="E58" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="F58" t="n">
-        <v>35.52</v>
+        <v>16.29</v>
       </c>
     </row>
     <row r="59">
@@ -1857,19 +1483,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>30.61</v>
+        <v>41.02</v>
       </c>
       <c r="C59" t="n">
-        <v>15.1</v>
+        <v>17.09</v>
       </c>
       <c r="D59" t="n">
-        <v>20.05</v>
-      </c>
-      <c r="E59" t="n">
-        <v>13.41</v>
-      </c>
-      <c r="F59" t="n">
-        <v>35.83</v>
+        <v>16.46</v>
       </c>
     </row>
     <row r="60">
@@ -1877,19 +1497,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>30.26</v>
+        <v>40.79</v>
       </c>
       <c r="C60" t="n">
-        <v>15.62</v>
+        <v>17.06</v>
       </c>
       <c r="D60" t="n">
-        <v>19.81</v>
-      </c>
-      <c r="E60" t="n">
-        <v>13.23</v>
-      </c>
-      <c r="F60" t="n">
-        <v>36.08</v>
+        <v>16.71</v>
       </c>
     </row>
     <row r="61">
@@ -1897,19 +1511,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>30.11</v>
+        <v>40.56</v>
       </c>
       <c r="C61" t="n">
-        <v>16.42</v>
+        <v>17.04</v>
       </c>
       <c r="D61" t="n">
-        <v>19.52</v>
-      </c>
-      <c r="E61" t="n">
-        <v>13.04</v>
-      </c>
-      <c r="F61" t="n">
-        <v>35.91</v>
+        <v>16.97</v>
       </c>
     </row>
     <row r="62">
@@ -1917,19 +1525,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>29.96</v>
+        <v>40.33</v>
       </c>
       <c r="C62" t="n">
-        <v>17.29</v>
+        <v>17.5</v>
       </c>
       <c r="D62" t="n">
-        <v>19.15</v>
-      </c>
-      <c r="E62" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="F62" t="n">
-        <v>35.7</v>
+        <v>17.05</v>
       </c>
     </row>
     <row r="63">
@@ -1937,19 +1539,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>29.81</v>
+        <v>40.4</v>
       </c>
       <c r="C63" t="n">
-        <v>18.06</v>
+        <v>17.95</v>
       </c>
       <c r="D63" t="n">
-        <v>18.85</v>
-      </c>
-      <c r="E63" t="n">
-        <v>12.76</v>
-      </c>
-      <c r="F63" t="n">
-        <v>35.52</v>
+        <v>16.82</v>
       </c>
     </row>
     <row r="64">
@@ -1957,19 +1553,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>29.66</v>
+        <v>39.41</v>
       </c>
       <c r="C64" t="n">
-        <v>18.71</v>
+        <v>18.27</v>
       </c>
       <c r="D64" t="n">
-        <v>18.67</v>
-      </c>
-      <c r="E64" t="n">
-        <v>12.62</v>
-      </c>
-      <c r="F64" t="n">
-        <v>35.34</v>
+        <v>17.78</v>
       </c>
     </row>
     <row r="65">
@@ -1977,19 +1567,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>29.43</v>
+        <v>38.13</v>
       </c>
       <c r="C65" t="n">
-        <v>19.48</v>
+        <v>18.58</v>
       </c>
       <c r="D65" t="n">
-        <v>18.47</v>
-      </c>
-      <c r="E65" t="n">
-        <v>12.46</v>
-      </c>
-      <c r="F65" t="n">
-        <v>35.16</v>
+        <v>19.04</v>
       </c>
     </row>
     <row r="66">
@@ -1997,19 +1581,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>29.52</v>
+        <v>36.86</v>
       </c>
       <c r="C66" t="n">
-        <v>19.92</v>
+        <v>18.88</v>
       </c>
       <c r="D66" t="n">
-        <v>18.28</v>
-      </c>
-      <c r="E66" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F66" t="n">
-        <v>34.98</v>
+        <v>20.3</v>
       </c>
     </row>
     <row r="67">
@@ -2017,19 +1595,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>29.57</v>
+        <v>35.58</v>
       </c>
       <c r="C67" t="n">
-        <v>20.4</v>
+        <v>19.26</v>
       </c>
       <c r="D67" t="n">
-        <v>18.15</v>
-      </c>
-      <c r="E67" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="F67" t="n">
-        <v>34.73</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="68">
@@ -2037,19 +1609,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>29.64</v>
+        <v>34.33</v>
       </c>
       <c r="C68" t="n">
-        <v>20.8</v>
+        <v>19.67</v>
       </c>
       <c r="D68" t="n">
-        <v>18.03</v>
-      </c>
-      <c r="E68" t="n">
-        <v>12.09</v>
-      </c>
-      <c r="F68" t="n">
-        <v>34.48</v>
+        <v>22.64</v>
       </c>
     </row>
     <row r="69">
@@ -2057,19 +1623,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>29.79</v>
+        <v>33.02</v>
       </c>
       <c r="C69" t="n">
-        <v>21.11</v>
+        <v>20.13</v>
       </c>
       <c r="D69" t="n">
-        <v>17.86</v>
-      </c>
-      <c r="E69" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="F69" t="n">
-        <v>34.26</v>
+        <v>23.78</v>
       </c>
     </row>
     <row r="70">
@@ -2077,19 +1637,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>29.98</v>
+        <v>31.72</v>
       </c>
       <c r="C70" t="n">
-        <v>21.05</v>
+        <v>20.58</v>
       </c>
       <c r="D70" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="E70" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="F70" t="n">
-        <v>33.62</v>
+        <v>24.95</v>
       </c>
     </row>
     <row r="71">
@@ -2097,19 +1651,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>30.06</v>
+        <v>30.45</v>
       </c>
       <c r="C71" t="n">
-        <v>21.02</v>
+        <v>21</v>
       </c>
       <c r="D71" t="n">
-        <v>19</v>
-      </c>
-      <c r="E71" t="n">
-        <v>12</v>
-      </c>
-      <c r="F71" t="n">
-        <v>33</v>
+        <v>26.09</v>
       </c>
     </row>
     <row r="72">
@@ -2117,19 +1665,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>30.07</v>
+        <v>29.16</v>
       </c>
       <c r="C72" t="n">
-        <v>21.03</v>
+        <v>21.07</v>
       </c>
       <c r="D72" t="n">
-        <v>19.59</v>
-      </c>
-      <c r="E72" t="n">
-        <v>11.97</v>
-      </c>
-      <c r="F72" t="n">
-        <v>32.42</v>
+        <v>27.31</v>
       </c>
     </row>
     <row r="73">
@@ -2137,19 +1679,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>30.08</v>
+        <v>27.54</v>
       </c>
       <c r="C73" t="n">
-        <v>21.06</v>
+        <v>21.11</v>
       </c>
       <c r="D73" t="n">
-        <v>20.18</v>
-      </c>
-      <c r="E73" t="n">
-        <v>11.94</v>
-      </c>
-      <c r="F73" t="n">
-        <v>31.81</v>
+        <v>28.89</v>
       </c>
     </row>
     <row r="74">
@@ -2157,19 +1693,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>30.04</v>
+        <v>26.95</v>
       </c>
       <c r="C74" t="n">
-        <v>20.83</v>
+        <v>21.27</v>
       </c>
       <c r="D74" t="n">
-        <v>21.15</v>
-      </c>
-      <c r="E74" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="F74" t="n">
-        <v>31.2</v>
+        <v>29.32</v>
       </c>
     </row>
     <row r="75">
@@ -2177,19 +1707,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>30.09</v>
+        <v>26.73</v>
       </c>
       <c r="C75" t="n">
-        <v>20.44</v>
+        <v>21.39</v>
       </c>
       <c r="D75" t="n">
-        <v>22.18</v>
-      </c>
-      <c r="E75" t="n">
-        <v>11.79</v>
-      </c>
-      <c r="F75" t="n">
-        <v>30.59</v>
+        <v>29.42</v>
       </c>
     </row>
     <row r="76">
@@ -2197,19 +1721,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>30.12</v>
+        <v>26.54</v>
       </c>
       <c r="C76" t="n">
-        <v>20.11</v>
+        <v>21.48</v>
       </c>
       <c r="D76" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="E76" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="F76" t="n">
-        <v>29.98</v>
+        <v>29.51</v>
       </c>
     </row>
     <row r="77">
@@ -2217,19 +1735,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>30.11</v>
+        <v>26.38</v>
       </c>
       <c r="C77" t="n">
-        <v>19.63</v>
+        <v>21.58</v>
       </c>
       <c r="D77" t="n">
-        <v>24.18</v>
-      </c>
-      <c r="E77" t="n">
-        <v>11.53</v>
-      </c>
-      <c r="F77" t="n">
-        <v>29.63</v>
+        <v>29.59</v>
       </c>
     </row>
     <row r="78">
@@ -2237,19 +1749,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>30.07</v>
+        <v>26.22</v>
       </c>
       <c r="C78" t="n">
-        <v>19.2</v>
+        <v>21.61</v>
       </c>
       <c r="D78" t="n">
-        <v>25.16</v>
-      </c>
-      <c r="E78" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="F78" t="n">
-        <v>29.27</v>
+        <v>29.71</v>
       </c>
     </row>
     <row r="79">
@@ -2257,19 +1763,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>30.01</v>
+        <v>26.11</v>
       </c>
       <c r="C79" t="n">
-        <v>18.75</v>
+        <v>21.54</v>
       </c>
       <c r="D79" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="E79" t="n">
-        <v>11.08</v>
-      </c>
-      <c r="F79" t="n">
-        <v>28.96</v>
+        <v>29.89</v>
       </c>
     </row>
     <row r="80">
@@ -2277,19 +1777,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>29.98</v>
+        <v>25.98</v>
       </c>
       <c r="C80" t="n">
-        <v>18.57</v>
+        <v>21.51</v>
       </c>
       <c r="D80" t="n">
-        <v>26.59</v>
-      </c>
-      <c r="E80" t="n">
-        <v>10.82</v>
-      </c>
-      <c r="F80" t="n">
-        <v>29.04</v>
+        <v>30.05</v>
       </c>
     </row>
     <row r="81">
@@ -2297,19 +1791,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>29.89</v>
+        <v>25.8</v>
       </c>
       <c r="C81" t="n">
-        <v>18.29</v>
+        <v>21.49</v>
       </c>
       <c r="D81" t="n">
-        <v>27.14</v>
-      </c>
-      <c r="E81" t="n">
-        <v>10.56</v>
-      </c>
-      <c r="F81" t="n">
-        <v>29.12</v>
+        <v>30.25</v>
       </c>
     </row>
     <row r="82">
@@ -2317,19 +1805,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>29.83</v>
+        <v>25.72</v>
       </c>
       <c r="C82" t="n">
-        <v>17.91</v>
+        <v>21.45</v>
       </c>
       <c r="D82" t="n">
-        <v>27.68</v>
-      </c>
-      <c r="E82" t="n">
-        <v>10.31</v>
-      </c>
-      <c r="F82" t="n">
-        <v>29.27</v>
+        <v>30.37</v>
       </c>
     </row>
     <row r="83">
@@ -2337,19 +1819,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>29.71</v>
+        <v>24.79</v>
       </c>
       <c r="C83" t="n">
-        <v>16.99</v>
+        <v>22.54</v>
       </c>
       <c r="D83" t="n">
-        <v>28.23</v>
-      </c>
-      <c r="E83" t="n">
-        <v>9.970000000000001</v>
-      </c>
-      <c r="F83" t="n">
-        <v>30.09</v>
+        <v>30.21</v>
       </c>
     </row>
     <row r="84">
@@ -2357,19 +1833,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>29.64</v>
+        <v>23.98</v>
       </c>
       <c r="C84" t="n">
-        <v>16.35</v>
+        <v>23.59</v>
       </c>
       <c r="D84" t="n">
-        <v>28.41</v>
-      </c>
-      <c r="E84" t="n">
-        <v>9.69</v>
-      </c>
-      <c r="F84" t="n">
-        <v>30.91</v>
+        <v>29.97</v>
       </c>
     </row>
     <row r="85">
@@ -2377,19 +1847,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>29.51</v>
+        <v>23.11</v>
       </c>
       <c r="C85" t="n">
-        <v>15.77</v>
+        <v>24.69</v>
       </c>
       <c r="D85" t="n">
-        <v>28.58</v>
-      </c>
-      <c r="E85" t="n">
-        <v>9.41</v>
-      </c>
-      <c r="F85" t="n">
-        <v>31.73</v>
+        <v>29.74</v>
       </c>
     </row>
     <row r="86">
@@ -2397,19 +1861,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>29.09</v>
+        <v>22.28</v>
       </c>
       <c r="C86" t="n">
-        <v>15.38</v>
+        <v>25.75</v>
       </c>
       <c r="D86" t="n">
-        <v>28.68</v>
-      </c>
-      <c r="E86" t="n">
-        <v>9.369999999999999</v>
-      </c>
-      <c r="F86" t="n">
-        <v>32.47</v>
+        <v>29.51</v>
       </c>
     </row>
     <row r="87">
@@ -2417,19 +1875,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>28.89</v>
+        <v>21.46</v>
       </c>
       <c r="C87" t="n">
-        <v>15.04</v>
+        <v>26.79</v>
       </c>
       <c r="D87" t="n">
-        <v>28.79</v>
-      </c>
-      <c r="E87" t="n">
-        <v>9.33</v>
-      </c>
-      <c r="F87" t="n">
-        <v>32.95</v>
+        <v>29.3</v>
       </c>
     </row>
     <row r="88">
@@ -2437,19 +1889,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>28.78</v>
+        <v>20.61</v>
       </c>
       <c r="C88" t="n">
-        <v>14.64</v>
+        <v>27.85</v>
       </c>
       <c r="D88" t="n">
-        <v>28.84</v>
-      </c>
-      <c r="E88" t="n">
-        <v>9.31</v>
-      </c>
-      <c r="F88" t="n">
-        <v>33.44</v>
+        <v>29.1</v>
       </c>
     </row>
     <row r="89">
@@ -2457,19 +1903,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>28.46</v>
+        <v>19.75</v>
       </c>
       <c r="C89" t="n">
-        <v>14.45</v>
+        <v>28.92</v>
       </c>
       <c r="D89" t="n">
-        <v>28.89</v>
-      </c>
-      <c r="E89" t="n">
-        <v>9.31</v>
-      </c>
-      <c r="F89" t="n">
-        <v>33.89</v>
+        <v>28.9</v>
       </c>
     </row>
     <row r="90">
@@ -2477,19 +1917,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>28.15</v>
+        <v>18.91</v>
       </c>
       <c r="C90" t="n">
-        <v>14.46</v>
+        <v>29.95</v>
       </c>
       <c r="D90" t="n">
-        <v>28.69</v>
-      </c>
-      <c r="E90" t="n">
-        <v>9.31</v>
-      </c>
-      <c r="F90" t="n">
-        <v>34.39</v>
+        <v>28.72</v>
       </c>
     </row>
     <row r="91">
@@ -2497,19 +1931,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>27.84</v>
+        <v>18.07</v>
       </c>
       <c r="C91" t="n">
-        <v>14.62</v>
+        <v>31</v>
       </c>
       <c r="D91" t="n">
-        <v>28.34</v>
-      </c>
-      <c r="E91" t="n">
-        <v>9.31</v>
-      </c>
-      <c r="F91" t="n">
-        <v>34.89</v>
+        <v>28.52</v>
       </c>
     </row>
     <row r="92">
@@ -2517,19 +1945,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>27.54</v>
+        <v>17.25</v>
       </c>
       <c r="C92" t="n">
-        <v>14.78</v>
+        <v>31.96</v>
       </c>
       <c r="D92" t="n">
-        <v>27.99</v>
-      </c>
-      <c r="E92" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="F92" t="n">
-        <v>35.38</v>
+        <v>28.38</v>
       </c>
     </row>
     <row r="93">
@@ -2537,19 +1959,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>26.85</v>
+        <v>17.54</v>
       </c>
       <c r="C93" t="n">
-        <v>15.93</v>
+        <v>31.81</v>
       </c>
       <c r="D93" t="n">
-        <v>27.65</v>
-      </c>
-      <c r="E93" t="n">
-        <v>9.369999999999999</v>
-      </c>
-      <c r="F93" t="n">
-        <v>35.2</v>
+        <v>28.26</v>
       </c>
     </row>
     <row r="94">
@@ -2557,19 +1973,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>26.09</v>
+        <v>17.74</v>
       </c>
       <c r="C94" t="n">
-        <v>17.17</v>
+        <v>31.64</v>
       </c>
       <c r="D94" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="E94" t="n">
-        <v>9.42</v>
-      </c>
-      <c r="F94" t="n">
-        <v>35.02</v>
+        <v>28.24</v>
       </c>
     </row>
     <row r="95">
@@ -2577,19 +1987,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>25.37</v>
+        <v>17.94</v>
       </c>
       <c r="C95" t="n">
-        <v>18.23</v>
+        <v>31.47</v>
       </c>
       <c r="D95" t="n">
-        <v>27.99</v>
-      </c>
-      <c r="E95" t="n">
-        <v>8.57</v>
-      </c>
-      <c r="F95" t="n">
-        <v>34.84</v>
+        <v>28.22</v>
       </c>
     </row>
     <row r="96">
@@ -2597,19 +2001,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>25.33</v>
+        <v>17.93</v>
       </c>
       <c r="C96" t="n">
-        <v>18.63</v>
+        <v>31.49</v>
       </c>
       <c r="D96" t="n">
-        <v>28.75</v>
-      </c>
-      <c r="E96" t="n">
-        <v>7.57</v>
-      </c>
-      <c r="F96" t="n">
-        <v>34.72</v>
+        <v>28.22</v>
       </c>
     </row>
     <row r="97">
@@ -2617,19 +2015,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>25.17</v>
+        <v>17.9</v>
       </c>
       <c r="C97" t="n">
-        <v>20.02</v>
+        <v>31.52</v>
       </c>
       <c r="D97" t="n">
-        <v>28.63</v>
-      </c>
-      <c r="E97" t="n">
-        <v>6.57</v>
-      </c>
-      <c r="F97" t="n">
-        <v>34.61</v>
+        <v>28.22</v>
       </c>
     </row>
     <row r="98">
@@ -2637,19 +2029,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>24.9</v>
+        <v>18.61</v>
       </c>
       <c r="C98" t="n">
-        <v>21.45</v>
+        <v>30.81</v>
       </c>
       <c r="D98" t="n">
-        <v>28.56</v>
-      </c>
-      <c r="E98" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="F98" t="n">
-        <v>34.51</v>
+        <v>28.21</v>
       </c>
     </row>
     <row r="99">
@@ -2657,19 +2043,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>24.85</v>
+        <v>19.36</v>
       </c>
       <c r="C99" t="n">
-        <v>22.61</v>
+        <v>30.09</v>
       </c>
       <c r="D99" t="n">
-        <v>28.47</v>
-      </c>
-      <c r="E99" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="F99" t="n">
-        <v>34.45</v>
+        <v>28.17</v>
       </c>
     </row>
     <row r="100">
@@ -2677,19 +2057,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>24.85</v>
+        <v>20.03</v>
       </c>
       <c r="C100" t="n">
-        <v>23.5</v>
+        <v>29.45</v>
       </c>
       <c r="D100" t="n">
-        <v>28.56</v>
-      </c>
-      <c r="E100" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="F100" t="n">
-        <v>34.43</v>
+        <v>28.13</v>
       </c>
     </row>
     <row r="101">
@@ -2697,19 +2071,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>24.89</v>
+        <v>20.76</v>
       </c>
       <c r="C101" t="n">
-        <v>24.3</v>
+        <v>28.77</v>
       </c>
       <c r="D101" t="n">
-        <v>28.65</v>
-      </c>
-      <c r="E101" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="F101" t="n">
-        <v>34.43</v>
+        <v>28.07</v>
       </c>
     </row>
     <row r="102">
@@ -2717,19 +2085,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>24.89</v>
+        <v>21.39</v>
       </c>
       <c r="C102" t="n">
-        <v>25.22</v>
+        <v>28.2</v>
       </c>
       <c r="D102" t="n">
-        <v>28.75</v>
-      </c>
-      <c r="E102" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="F102" t="n">
-        <v>34.33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="103">
@@ -2737,19 +2099,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>25.37</v>
+        <v>22</v>
       </c>
       <c r="C103" t="n">
-        <v>25.73</v>
+        <v>27.72</v>
       </c>
       <c r="D103" t="n">
-        <v>28.82</v>
-      </c>
-      <c r="E103" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="F103" t="n">
-        <v>34.18</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="104">
@@ -2757,19 +2113,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>25.87</v>
+        <v>22.62</v>
       </c>
       <c r="C104" t="n">
-        <v>26.24</v>
+        <v>27.25</v>
       </c>
       <c r="D104" t="n">
-        <v>28.88</v>
-      </c>
-      <c r="E104" t="n">
-        <v>0</v>
-      </c>
-      <c r="F104" t="n">
-        <v>34.01</v>
+        <v>27.7</v>
       </c>
     </row>
     <row r="105">
@@ -2777,19 +2127,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>26.37</v>
+        <v>23.17</v>
       </c>
       <c r="C105" t="n">
-        <v>26.84</v>
+        <v>26.79</v>
       </c>
       <c r="D105" t="n">
-        <v>27.96</v>
-      </c>
-      <c r="E105" t="n">
-        <v>0</v>
-      </c>
-      <c r="F105" t="n">
-        <v>33.83</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="106">
@@ -2797,19 +2141,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>26.12</v>
+        <v>23.83</v>
       </c>
       <c r="C106" t="n">
-        <v>28.16</v>
+        <v>26.22</v>
       </c>
       <c r="D106" t="n">
-        <v>27.05</v>
-      </c>
-      <c r="E106" t="n">
-        <v>0</v>
-      </c>
-      <c r="F106" t="n">
-        <v>33.67</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="107">
@@ -2817,19 +2155,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>25.89</v>
+        <v>24.51</v>
       </c>
       <c r="C107" t="n">
-        <v>28.45</v>
+        <v>25.65</v>
       </c>
       <c r="D107" t="n">
-        <v>27.14</v>
-      </c>
-      <c r="E107" t="n">
-        <v>0</v>
-      </c>
-      <c r="F107" t="n">
-        <v>33.52</v>
+        <v>27.38</v>
       </c>
     </row>
     <row r="108">
@@ -2837,19 +2169,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>25.64</v>
+        <v>24.48</v>
       </c>
       <c r="C108" t="n">
-        <v>28.7</v>
+        <v>25.8</v>
       </c>
       <c r="D108" t="n">
-        <v>27.22</v>
-      </c>
-      <c r="E108" t="n">
-        <v>0</v>
-      </c>
-      <c r="F108" t="n">
-        <v>33.44</v>
+        <v>27.26</v>
       </c>
     </row>
     <row r="109">
@@ -2857,19 +2183,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>25.34</v>
+        <v>24.44</v>
       </c>
       <c r="C109" t="n">
-        <v>28.83</v>
+        <v>25.93</v>
       </c>
       <c r="D109" t="n">
-        <v>27.26</v>
-      </c>
-      <c r="E109" t="n">
-        <v>0</v>
-      </c>
-      <c r="F109" t="n">
-        <v>33.57</v>
+        <v>27.17</v>
       </c>
     </row>
     <row r="110">
@@ -2877,19 +2197,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>24.99</v>
+        <v>24.49</v>
       </c>
       <c r="C110" t="n">
-        <v>28.97</v>
+        <v>25.99</v>
       </c>
       <c r="D110" t="n">
-        <v>27.31</v>
-      </c>
-      <c r="E110" t="n">
-        <v>0</v>
-      </c>
-      <c r="F110" t="n">
-        <v>33.73</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="111">
@@ -2897,19 +2211,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>24.66</v>
+        <v>24.31</v>
       </c>
       <c r="C111" t="n">
-        <v>28.93</v>
+        <v>26.06</v>
       </c>
       <c r="D111" t="n">
-        <v>27.54</v>
-      </c>
-      <c r="E111" t="n">
-        <v>0</v>
-      </c>
-      <c r="F111" t="n">
-        <v>33.87</v>
+        <v>27.17</v>
       </c>
     </row>
     <row r="112">
@@ -2917,19 +2225,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>24.32</v>
+        <v>24.2</v>
       </c>
       <c r="C112" t="n">
-        <v>28.77</v>
+        <v>26.11</v>
       </c>
       <c r="D112" t="n">
-        <v>27.85</v>
-      </c>
-      <c r="E112" t="n">
-        <v>0</v>
-      </c>
-      <c r="F112" t="n">
-        <v>34.06</v>
+        <v>27.23</v>
       </c>
     </row>
     <row r="113">
@@ -2937,19 +2239,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>23.99</v>
+        <v>24.1</v>
       </c>
       <c r="C113" t="n">
-        <v>28.51</v>
+        <v>25.63</v>
       </c>
       <c r="D113" t="n">
-        <v>28.18</v>
-      </c>
-      <c r="E113" t="n">
-        <v>0</v>
-      </c>
-      <c r="F113" t="n">
-        <v>34.32</v>
+        <v>27.81</v>
       </c>
     </row>
     <row r="114">
@@ -2957,19 +2253,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>23.48</v>
+        <v>23.79</v>
       </c>
       <c r="C114" t="n">
-        <v>28.46</v>
+        <v>25.35</v>
       </c>
       <c r="D114" t="n">
-        <v>28.46</v>
-      </c>
-      <c r="E114" t="n">
-        <v>0</v>
-      </c>
-      <c r="F114" t="n">
-        <v>34.6</v>
+        <v>28.4</v>
       </c>
     </row>
     <row r="115">
@@ -2977,19 +2267,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>22.92</v>
+        <v>23.42</v>
       </c>
       <c r="C115" t="n">
-        <v>28.41</v>
+        <v>25.19</v>
       </c>
       <c r="D115" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="E115" t="n">
-        <v>0</v>
-      </c>
-      <c r="F115" t="n">
-        <v>34.86</v>
+        <v>28.93</v>
       </c>
     </row>
     <row r="116">
@@ -2997,19 +2281,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>22.43</v>
+        <v>23.05</v>
       </c>
       <c r="C116" t="n">
-        <v>28.3</v>
+        <v>25.05</v>
       </c>
       <c r="D116" t="n">
-        <v>29.16</v>
-      </c>
-      <c r="E116" t="n">
-        <v>0</v>
-      </c>
-      <c r="F116" t="n">
-        <v>35.1</v>
+        <v>29.44</v>
       </c>
     </row>
     <row r="117">
@@ -3017,19 +2295,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>21.93</v>
+        <v>22.67</v>
       </c>
       <c r="C117" t="n">
-        <v>28.32</v>
+        <v>24.91</v>
       </c>
       <c r="D117" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="E117" t="n">
-        <v>0</v>
-      </c>
-      <c r="F117" t="n">
-        <v>35.35</v>
+        <v>29.96</v>
       </c>
     </row>
     <row r="118">
@@ -3037,19 +2309,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>21.57</v>
+        <v>22.27</v>
       </c>
       <c r="C118" t="n">
-        <v>28.32</v>
+        <v>24.78</v>
       </c>
       <c r="D118" t="n">
-        <v>29.62</v>
-      </c>
-      <c r="E118" t="n">
-        <v>0</v>
-      </c>
-      <c r="F118" t="n">
-        <v>35.49</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="119">
@@ -3057,19 +2323,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>21.21</v>
+        <v>21.77</v>
       </c>
       <c r="C119" t="n">
-        <v>28.36</v>
+        <v>24.77</v>
       </c>
       <c r="D119" t="n">
-        <v>29.89</v>
-      </c>
-      <c r="E119" t="n">
-        <v>0</v>
-      </c>
-      <c r="F119" t="n">
-        <v>35.54</v>
+        <v>31</v>
       </c>
     </row>
     <row r="120">
@@ -3077,19 +2337,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>20.92</v>
+        <v>21.18</v>
       </c>
       <c r="C120" t="n">
-        <v>28.39</v>
+        <v>24.84</v>
       </c>
       <c r="D120" t="n">
-        <v>30.16</v>
-      </c>
-      <c r="E120" t="n">
-        <v>0</v>
-      </c>
-      <c r="F120" t="n">
-        <v>35.53</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="121">
@@ -3097,19 +2351,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>20.62</v>
+        <v>18.9</v>
       </c>
       <c r="C121" t="n">
-        <v>28.69</v>
+        <v>26.88</v>
       </c>
       <c r="D121" t="n">
-        <v>30.25</v>
-      </c>
-      <c r="E121" t="n">
-        <v>0</v>
-      </c>
-      <c r="F121" t="n">
-        <v>35.44</v>
+        <v>31.76</v>
       </c>
     </row>
     <row r="122">
@@ -3117,19 +2365,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>20.39</v>
+        <v>16.54</v>
       </c>
       <c r="C122" t="n">
         <v>28.93</v>
       </c>
       <c r="D122" t="n">
-        <v>30.33</v>
-      </c>
-      <c r="E122" t="n">
-        <v>0</v>
-      </c>
-      <c r="F122" t="n">
-        <v>35.35</v>
+        <v>32.07</v>
       </c>
     </row>
     <row r="123">
@@ -3137,19 +2379,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>20.15</v>
+        <v>14.18</v>
       </c>
       <c r="C123" t="n">
-        <v>29.22</v>
+        <v>31.55</v>
       </c>
       <c r="D123" t="n">
-        <v>30.39</v>
-      </c>
-      <c r="E123" t="n">
-        <v>0</v>
-      </c>
-      <c r="F123" t="n">
-        <v>35.24</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="124">
@@ -3157,19 +2393,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>20.13</v>
+        <v>12.01</v>
       </c>
       <c r="C124" t="n">
-        <v>29.19</v>
+        <v>34</v>
       </c>
       <c r="D124" t="n">
-        <v>30.51</v>
-      </c>
-      <c r="E124" t="n">
-        <v>0</v>
-      </c>
-      <c r="F124" t="n">
-        <v>35.17</v>
+        <v>31.53</v>
       </c>
     </row>
     <row r="125">
@@ -3177,19 +2407,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>20.17</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="C125" t="n">
-        <v>29.17</v>
+        <v>36.34</v>
       </c>
       <c r="D125" t="n">
-        <v>30.53</v>
-      </c>
-      <c r="E125" t="n">
-        <v>0</v>
-      </c>
-      <c r="F125" t="n">
-        <v>35.13</v>
+        <v>31.24</v>
       </c>
     </row>
     <row r="126">
@@ -3197,19 +2421,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>19.59</v>
+        <v>7.9</v>
       </c>
       <c r="C126" t="n">
-        <v>29.13</v>
+        <v>38.56</v>
       </c>
       <c r="D126" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="E126" t="n">
-        <v>0</v>
-      </c>
-      <c r="F126" t="n">
-        <v>35.08</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="127">
@@ -3217,19 +2435,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>18.97</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="C127" t="n">
-        <v>29.22</v>
+        <v>40.71</v>
       </c>
       <c r="D127" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="E127" t="n">
-        <v>0</v>
-      </c>
-      <c r="F127" t="n">
-        <v>35.01</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="128">
@@ -3237,19 +2449,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>18.24</v>
+        <v>11.95</v>
       </c>
       <c r="C128" t="n">
-        <v>29.36</v>
+        <v>42.8</v>
       </c>
       <c r="D128" t="n">
-        <v>32.42</v>
-      </c>
-      <c r="E128" t="n">
-        <v>0</v>
-      </c>
-      <c r="F128" t="n">
-        <v>34.97</v>
+        <v>30.79</v>
       </c>
     </row>
     <row r="129">
@@ -3257,19 +2463,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>17.34</v>
+        <v>14.11</v>
       </c>
       <c r="C129" t="n">
-        <v>29.8</v>
+        <v>44.79</v>
       </c>
       <c r="D129" t="n">
-        <v>33.06</v>
-      </c>
-      <c r="E129" t="n">
-        <v>0</v>
-      </c>
-      <c r="F129" t="n">
-        <v>34.8</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="130">
@@ -3277,19 +2477,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>16.38</v>
+        <v>16.26</v>
       </c>
       <c r="C130" t="n">
-        <v>30.4</v>
+        <v>46.78</v>
       </c>
       <c r="D130" t="n">
-        <v>33.54</v>
-      </c>
-      <c r="E130" t="n">
-        <v>0</v>
-      </c>
-      <c r="F130" t="n">
-        <v>34.69</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="131">
@@ -3297,19 +2491,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>15.42</v>
+        <v>20.01</v>
       </c>
       <c r="C131" t="n">
-        <v>31.39</v>
+        <v>47.1</v>
       </c>
       <c r="D131" t="n">
-        <v>33.55</v>
-      </c>
-      <c r="E131" t="n">
-        <v>0</v>
-      </c>
-      <c r="F131" t="n">
-        <v>34.64</v>
+        <v>30.44</v>
       </c>
     </row>
     <row r="132">
@@ -3317,19 +2505,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>14.37</v>
+        <v>23.74</v>
       </c>
       <c r="C132" t="n">
-        <v>32.54</v>
+        <v>47.43</v>
       </c>
       <c r="D132" t="n">
-        <v>33.51</v>
-      </c>
-      <c r="E132" t="n">
-        <v>0</v>
-      </c>
-      <c r="F132" t="n">
-        <v>34.58</v>
+        <v>30.36</v>
       </c>
     </row>
     <row r="133">
@@ -3337,19 +2519,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>13.32</v>
+        <v>27.48</v>
       </c>
       <c r="C133" t="n">
-        <v>33.6</v>
+        <v>47.64</v>
       </c>
       <c r="D133" t="n">
-        <v>33.54</v>
-      </c>
-      <c r="E133" t="n">
-        <v>0</v>
-      </c>
-      <c r="F133" t="n">
-        <v>34.54</v>
+        <v>30.42</v>
       </c>
     </row>
     <row r="134">
@@ -3357,19 +2533,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>12.19</v>
+        <v>30.99</v>
       </c>
       <c r="C134" t="n">
-        <v>34.68</v>
+        <v>48.06</v>
       </c>
       <c r="D134" t="n">
-        <v>33.67</v>
-      </c>
-      <c r="E134" t="n">
-        <v>0</v>
-      </c>
-      <c r="F134" t="n">
-        <v>34.46</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="135">
@@ -3377,19 +2547,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>11.07</v>
+        <v>34.47</v>
       </c>
       <c r="C135" t="n">
-        <v>35.77</v>
+        <v>48.49</v>
       </c>
       <c r="D135" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="E135" t="n">
-        <v>0</v>
-      </c>
-      <c r="F135" t="n">
-        <v>34.36</v>
+        <v>30.57</v>
       </c>
     </row>
     <row r="136">
@@ -3397,19 +2561,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>10.54</v>
+        <v>37.95</v>
       </c>
       <c r="C136" t="n">
-        <v>37.36</v>
+        <v>49.04</v>
       </c>
       <c r="D136" t="n">
-        <v>33.28</v>
-      </c>
-      <c r="E136" t="n">
-        <v>0</v>
-      </c>
-      <c r="F136" t="n">
-        <v>33.82</v>
+        <v>30.56</v>
       </c>
     </row>
     <row r="137">
@@ -3417,19 +2575,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>10.08</v>
+        <v>37.43</v>
       </c>
       <c r="C137" t="n">
-        <v>38.8</v>
+        <v>49.61</v>
       </c>
       <c r="D137" t="n">
-        <v>32.83</v>
-      </c>
-      <c r="E137" t="n">
-        <v>0</v>
-      </c>
-      <c r="F137" t="n">
-        <v>33.3</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="138">
@@ -3437,19 +2589,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>9.640000000000001</v>
+        <v>36.82</v>
       </c>
       <c r="C138" t="n">
-        <v>40.3</v>
+        <v>50.22</v>
       </c>
       <c r="D138" t="n">
-        <v>32.17</v>
-      </c>
-      <c r="E138" t="n">
-        <v>0</v>
-      </c>
-      <c r="F138" t="n">
-        <v>32.89</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="139">
@@ -3457,19 +2603,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>9.449999999999999</v>
+        <v>36.1</v>
       </c>
       <c r="C139" t="n">
-        <v>41.28</v>
+        <v>50.94</v>
       </c>
       <c r="D139" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="E139" t="n">
-        <v>0</v>
-      </c>
-      <c r="F139" t="n">
-        <v>32.77</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="140">
@@ -3477,19 +2617,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>9.07</v>
+        <v>35.48</v>
       </c>
       <c r="C140" t="n">
-        <v>42.29</v>
+        <v>51.59</v>
       </c>
       <c r="D140" t="n">
-        <v>30.99</v>
-      </c>
-      <c r="E140" t="n">
-        <v>2</v>
-      </c>
-      <c r="F140" t="n">
-        <v>32.65</v>
+        <v>30.47</v>
       </c>
     </row>
     <row r="141">
@@ -3497,19 +2631,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>8.66</v>
+        <v>34.98</v>
       </c>
       <c r="C141" t="n">
-        <v>42.75</v>
+        <v>51.94</v>
       </c>
       <c r="D141" t="n">
-        <v>30.94</v>
-      </c>
-      <c r="E141" t="n">
-        <v>4</v>
-      </c>
-      <c r="F141" t="n">
-        <v>32.64</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="142">
@@ -3517,19 +2645,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>8.26</v>
+        <v>34.51</v>
       </c>
       <c r="C142" t="n">
-        <v>43.1</v>
+        <v>52.26</v>
       </c>
       <c r="D142" t="n">
-        <v>30.67</v>
-      </c>
-      <c r="E142" t="n">
-        <v>6</v>
-      </c>
-      <c r="F142" t="n">
-        <v>32.98</v>
+        <v>30.77</v>
       </c>
     </row>
     <row r="143">
@@ -3537,19 +2659,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>8.1</v>
+        <v>34.03</v>
       </c>
       <c r="C143" t="n">
-        <v>43.3</v>
+        <v>52.61</v>
       </c>
       <c r="D143" t="n">
-        <v>30.31</v>
-      </c>
-      <c r="E143" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="F143" t="n">
-        <v>33.31</v>
+        <v>30.9</v>
       </c>
     </row>
     <row r="144">
@@ -3557,19 +2673,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>8</v>
+        <v>33.54</v>
       </c>
       <c r="C144" t="n">
-        <v>43.5</v>
+        <v>52.65</v>
       </c>
       <c r="D144" t="n">
-        <v>29.85</v>
-      </c>
-      <c r="E144" t="n">
-        <v>9.92</v>
-      </c>
-      <c r="F144" t="n">
-        <v>33.73</v>
+        <v>31.35</v>
       </c>
     </row>
     <row r="145">
@@ -3577,19 +2687,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>8.27</v>
+        <v>33.09</v>
       </c>
       <c r="C145" t="n">
-        <v>43.49</v>
+        <v>52.65</v>
       </c>
       <c r="D145" t="n">
-        <v>29.22</v>
-      </c>
-      <c r="E145" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="F145" t="n">
-        <v>34.15</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="146">
@@ -3597,19 +2701,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>8.460000000000001</v>
+        <v>32.68</v>
       </c>
       <c r="C146" t="n">
-        <v>43.23</v>
+        <v>52.63</v>
       </c>
       <c r="D146" t="n">
-        <v>28.59</v>
-      </c>
-      <c r="E146" t="n">
-        <v>13.78</v>
-      </c>
-      <c r="F146" t="n">
-        <v>34.94</v>
+        <v>32.23</v>
       </c>
     </row>
     <row r="147">
@@ -3617,19 +2715,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>8.529999999999999</v>
+        <v>32.3</v>
       </c>
       <c r="C147" t="n">
-        <v>42.89</v>
+        <v>52.62</v>
       </c>
       <c r="D147" t="n">
-        <v>27.86</v>
-      </c>
-      <c r="E147" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="F147" t="n">
-        <v>36.02</v>
+        <v>32.62</v>
       </c>
     </row>
     <row r="148">
@@ -3637,19 +2729,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>8.6</v>
+        <v>31.89</v>
       </c>
       <c r="C148" t="n">
-        <v>42.44</v>
+        <v>52.64</v>
       </c>
       <c r="D148" t="n">
-        <v>27.27</v>
-      </c>
-      <c r="E148" t="n">
-        <v>17.68</v>
-      </c>
-      <c r="F148" t="n">
-        <v>37.01</v>
+        <v>33.01</v>
       </c>
     </row>
     <row r="149">
@@ -3657,19 +2743,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>8.76</v>
+        <v>31.6</v>
       </c>
       <c r="C149" t="n">
-        <v>42.28</v>
+        <v>52.56</v>
       </c>
       <c r="D149" t="n">
-        <v>26.69</v>
-      </c>
-      <c r="E149" t="n">
-        <v>19.59</v>
-      </c>
-      <c r="F149" t="n">
-        <v>37.7</v>
+        <v>33.38</v>
       </c>
     </row>
     <row r="150">
@@ -3677,19 +2757,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>9.210000000000001</v>
+        <v>31.35</v>
       </c>
       <c r="C150" t="n">
-        <v>41.92</v>
+        <v>52.49</v>
       </c>
       <c r="D150" t="n">
-        <v>26.01</v>
-      </c>
-      <c r="E150" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="F150" t="n">
-        <v>38.4</v>
+        <v>33.7</v>
       </c>
     </row>
     <row r="151">
@@ -3697,19 +2771,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>9.84</v>
+        <v>30.71</v>
       </c>
       <c r="C151" t="n">
-        <v>41.48</v>
+        <v>52.4</v>
       </c>
       <c r="D151" t="n">
-        <v>25.33</v>
-      </c>
-      <c r="E151" t="n">
-        <v>19.41</v>
-      </c>
-      <c r="F151" t="n">
-        <v>39</v>
+        <v>34.44</v>
       </c>
     </row>
     <row r="152">
@@ -3717,19 +2785,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>10.61</v>
+        <v>30.04</v>
       </c>
       <c r="C152" t="n">
-        <v>41.04</v>
+        <v>52.35</v>
       </c>
       <c r="D152" t="n">
-        <v>24.86</v>
-      </c>
-      <c r="E152" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="F152" t="n">
-        <v>39.25</v>
+        <v>35.15</v>
       </c>
     </row>
     <row r="153">
@@ -3737,19 +2799,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>11.08</v>
+        <v>29.44</v>
       </c>
       <c r="C153" t="n">
-        <v>40.91</v>
+        <v>52.22</v>
       </c>
       <c r="D153" t="n">
-        <v>24.39</v>
-      </c>
-      <c r="E153" t="n">
-        <v>19.19</v>
-      </c>
-      <c r="F153" t="n">
-        <v>39.49</v>
+        <v>35.88</v>
       </c>
     </row>
     <row r="154">
@@ -3757,19 +2813,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>11.37</v>
+        <v>29.21</v>
       </c>
       <c r="C154" t="n">
-        <v>40.56</v>
+        <v>52.11</v>
       </c>
       <c r="D154" t="n">
-        <v>23.92</v>
-      </c>
-      <c r="E154" t="n">
-        <v>19.11</v>
-      </c>
-      <c r="F154" t="n">
-        <v>40.1</v>
+        <v>36.22</v>
       </c>
     </row>
     <row r="155">
@@ -3777,19 +2827,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>11.21</v>
+        <v>28.97</v>
       </c>
       <c r="C155" t="n">
-        <v>40.48</v>
+        <v>52.03</v>
       </c>
       <c r="D155" t="n">
-        <v>23.63</v>
-      </c>
-      <c r="E155" t="n">
-        <v>19.03</v>
-      </c>
-      <c r="F155" t="n">
-        <v>40.71</v>
+        <v>36.55</v>
       </c>
     </row>
     <row r="156">
@@ -3797,19 +2841,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>10.97</v>
+        <v>28.69</v>
       </c>
       <c r="C156" t="n">
-        <v>40.38</v>
+        <v>51.95</v>
       </c>
       <c r="D156" t="n">
-        <v>23.34</v>
-      </c>
-      <c r="E156" t="n">
-        <v>18.97</v>
-      </c>
-      <c r="F156" t="n">
-        <v>41.4</v>
+        <v>36.9</v>
       </c>
     </row>
     <row r="157">
@@ -3817,19 +2855,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>10.75</v>
+        <v>28.37</v>
       </c>
       <c r="C157" t="n">
-        <v>40.04</v>
+        <v>51.88</v>
       </c>
       <c r="D157" t="n">
-        <v>23.13</v>
-      </c>
-      <c r="E157" t="n">
-        <v>18.83</v>
-      </c>
-      <c r="F157" t="n">
-        <v>42.31</v>
+        <v>37.28</v>
       </c>
     </row>
     <row r="158">
@@ -3837,19 +2869,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>10.53</v>
+        <v>28.06</v>
       </c>
       <c r="C158" t="n">
-        <v>39.78</v>
+        <v>51.75</v>
       </c>
       <c r="D158" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="E158" t="n">
-        <v>18.57</v>
-      </c>
-      <c r="F158" t="n">
-        <v>43.21</v>
+        <v>37.73</v>
       </c>
     </row>
     <row r="159">
@@ -3857,19 +2883,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>10.15</v>
+        <v>27.75</v>
       </c>
       <c r="C159" t="n">
-        <v>39.52</v>
+        <v>51.61</v>
       </c>
       <c r="D159" t="n">
-        <v>22.74</v>
-      </c>
-      <c r="E159" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="F159" t="n">
-        <v>44.04</v>
+        <v>38.17</v>
       </c>
     </row>
     <row r="160">
@@ -3877,19 +2897,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>9.609999999999999</v>
+        <v>28.41</v>
       </c>
       <c r="C160" t="n">
-        <v>39.38</v>
+        <v>50.44</v>
       </c>
       <c r="D160" t="n">
-        <v>22.61</v>
-      </c>
-      <c r="E160" t="n">
-        <v>18.56</v>
-      </c>
-      <c r="F160" t="n">
-        <v>44.87</v>
+        <v>38.69</v>
       </c>
     </row>
     <row r="161">
@@ -3897,19 +2911,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>9.02</v>
+        <v>29.63</v>
       </c>
       <c r="C161" t="n">
-        <v>39.29</v>
+        <v>49.3</v>
       </c>
       <c r="D161" t="n">
-        <v>22.47</v>
-      </c>
-      <c r="E161" t="n">
-        <v>18.53</v>
-      </c>
-      <c r="F161" t="n">
-        <v>45.69</v>
+        <v>38.61</v>
       </c>
     </row>
     <row r="162">
@@ -3917,19 +2925,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>8.33</v>
+        <v>30.86</v>
       </c>
       <c r="C162" t="n">
-        <v>37.71</v>
+        <v>48.12</v>
       </c>
       <c r="D162" t="n">
-        <v>23.91</v>
-      </c>
-      <c r="E162" t="n">
-        <v>18.51</v>
-      </c>
-      <c r="F162" t="n">
-        <v>46.53</v>
+        <v>38.56</v>
       </c>
     </row>
     <row r="163">
@@ -3937,19 +2939,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C163" t="n">
-        <v>35.77</v>
+        <v>47.03</v>
       </c>
       <c r="D163" t="n">
-        <v>25.35</v>
-      </c>
-      <c r="E163" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="F163" t="n">
-        <v>47.39</v>
+        <v>38.51</v>
       </c>
     </row>
     <row r="164">
@@ -3957,19 +2953,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>7.83</v>
+        <v>34.1</v>
       </c>
       <c r="C164" t="n">
-        <v>34.13</v>
+        <v>44.94</v>
       </c>
       <c r="D164" t="n">
-        <v>26.79</v>
-      </c>
-      <c r="E164" t="n">
-        <v>18.49</v>
-      </c>
-      <c r="F164" t="n">
-        <v>47.77</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="165">
@@ -3977,19 +2967,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>7.72</v>
+        <v>36.21</v>
       </c>
       <c r="C165" t="n">
-        <v>32.55</v>
+        <v>42.81</v>
       </c>
       <c r="D165" t="n">
-        <v>28.23</v>
-      </c>
-      <c r="E165" t="n">
-        <v>18.47</v>
-      </c>
-      <c r="F165" t="n">
-        <v>48.04</v>
+        <v>38.52</v>
       </c>
     </row>
     <row r="166">
@@ -3997,19 +2981,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>7.82</v>
+        <v>38.33</v>
       </c>
       <c r="C166" t="n">
-        <v>30.74</v>
+        <v>40.7</v>
       </c>
       <c r="D166" t="n">
-        <v>29.66</v>
-      </c>
-      <c r="E166" t="n">
-        <v>18.44</v>
-      </c>
-      <c r="F166" t="n">
-        <v>48.33</v>
+        <v>38.51</v>
       </c>
     </row>
     <row r="167">
@@ -4017,19 +2995,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>7.57</v>
+        <v>40.58</v>
       </c>
       <c r="C167" t="n">
-        <v>29.77</v>
+        <v>38.45</v>
       </c>
       <c r="D167" t="n">
-        <v>31.06</v>
-      </c>
-      <c r="E167" t="n">
-        <v>18.48</v>
-      </c>
-      <c r="F167" t="n">
-        <v>48.11</v>
+        <v>38.51</v>
       </c>
     </row>
     <row r="168">
@@ -4037,19 +3009,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>7.25</v>
+        <v>42.82</v>
       </c>
       <c r="C168" t="n">
-        <v>28.73</v>
+        <v>36.26</v>
       </c>
       <c r="D168" t="n">
-        <v>32.46</v>
-      </c>
-      <c r="E168" t="n">
-        <v>18.67</v>
-      </c>
-      <c r="F168" t="n">
-        <v>47.89</v>
+        <v>38.46</v>
       </c>
     </row>
     <row r="169">
@@ -4057,19 +3023,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>7</v>
+        <v>45.18</v>
       </c>
       <c r="C169" t="n">
-        <v>27.72</v>
+        <v>33.99</v>
       </c>
       <c r="D169" t="n">
-        <v>33.93</v>
-      </c>
-      <c r="E169" t="n">
-        <v>18.63</v>
-      </c>
-      <c r="F169" t="n">
-        <v>47.72</v>
+        <v>38.37</v>
       </c>
     </row>
     <row r="170">
@@ -4077,19 +3037,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>6.79</v>
+        <v>46.48</v>
       </c>
       <c r="C170" t="n">
-        <v>26.61</v>
+        <v>32.79</v>
       </c>
       <c r="D170" t="n">
-        <v>35.4</v>
-      </c>
-      <c r="E170" t="n">
-        <v>18.65</v>
-      </c>
-      <c r="F170" t="n">
-        <v>47.55</v>
+        <v>38.28</v>
       </c>
     </row>
     <row r="171">
@@ -4097,19 +3051,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>6.48</v>
+        <v>47.77</v>
       </c>
       <c r="C171" t="n">
-        <v>25.6</v>
+        <v>31.77</v>
       </c>
       <c r="D171" t="n">
-        <v>36.87</v>
-      </c>
-      <c r="E171" t="n">
-        <v>18.67</v>
-      </c>
-      <c r="F171" t="n">
-        <v>47.38</v>
+        <v>38</v>
       </c>
     </row>
     <row r="172">
@@ -4117,19 +3065,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>6.23</v>
+        <v>49.08</v>
       </c>
       <c r="C172" t="n">
-        <v>28.3</v>
+        <v>30.76</v>
       </c>
       <c r="D172" t="n">
-        <v>36.53</v>
-      </c>
-      <c r="E172" t="n">
-        <v>16.79</v>
-      </c>
-      <c r="F172" t="n">
-        <v>47.15</v>
+        <v>37.7</v>
       </c>
     </row>
     <row r="173">
@@ -4137,19 +3079,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>5.81</v>
+        <v>50.43</v>
       </c>
       <c r="C173" t="n">
-        <v>31.26</v>
+        <v>29.7</v>
       </c>
       <c r="D173" t="n">
-        <v>36.13</v>
-      </c>
-      <c r="E173" t="n">
-        <v>14.94</v>
-      </c>
-      <c r="F173" t="n">
-        <v>46.85</v>
+        <v>37.42</v>
       </c>
     </row>
     <row r="174">
@@ -4157,19 +3093,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>5.39</v>
+        <v>50.69</v>
       </c>
       <c r="C174" t="n">
-        <v>34.14</v>
+        <v>29.69</v>
       </c>
       <c r="D174" t="n">
-        <v>35.68</v>
-      </c>
-      <c r="E174" t="n">
-        <v>13.09</v>
-      </c>
-      <c r="F174" t="n">
-        <v>46.69</v>
+        <v>37.16</v>
       </c>
     </row>
     <row r="175">
@@ -4177,19 +3107,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>5.07</v>
+        <v>50.94</v>
       </c>
       <c r="C175" t="n">
-        <v>36.87</v>
+        <v>29.7</v>
       </c>
       <c r="D175" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="E175" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="F175" t="n">
-        <v>46.58</v>
+        <v>36.9</v>
       </c>
     </row>
     <row r="176">
@@ -4197,19 +3121,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>4.14</v>
+        <v>51.1</v>
       </c>
       <c r="C176" t="n">
-        <v>39.63</v>
+        <v>29.79</v>
       </c>
       <c r="D176" t="n">
-        <v>34.85</v>
-      </c>
-      <c r="E176" t="n">
-        <v>9.42</v>
-      </c>
-      <c r="F176" t="n">
-        <v>47.1</v>
+        <v>36.64</v>
       </c>
     </row>
     <row r="177">
@@ -4217,19 +3135,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>3.65</v>
+        <v>51.15</v>
       </c>
       <c r="C177" t="n">
-        <v>41.89</v>
+        <v>30.07</v>
       </c>
       <c r="D177" t="n">
-        <v>34.77</v>
-      </c>
-      <c r="E177" t="n">
-        <v>7.59</v>
-      </c>
-      <c r="F177" t="n">
-        <v>47.31</v>
+        <v>36.33</v>
       </c>
     </row>
     <row r="178">
@@ -4237,19 +3149,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>3.24</v>
+        <v>51.3</v>
       </c>
       <c r="C178" t="n">
-        <v>44.14</v>
+        <v>30.29</v>
       </c>
       <c r="D178" t="n">
-        <v>34.7</v>
-      </c>
-      <c r="E178" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="F178" t="n">
-        <v>47.51</v>
+        <v>35.94</v>
       </c>
     </row>
     <row r="179">
@@ -4257,19 +3163,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>2.82</v>
+        <v>51.28</v>
       </c>
       <c r="C179" t="n">
-        <v>46.37</v>
+        <v>30.41</v>
       </c>
       <c r="D179" t="n">
-        <v>34.39</v>
-      </c>
-      <c r="E179" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="F179" t="n">
-        <v>47.98</v>
+        <v>35.84</v>
       </c>
     </row>
     <row r="180">
@@ -4277,19 +3177,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>2.43</v>
+        <v>51.28</v>
       </c>
       <c r="C180" t="n">
-        <v>48.56</v>
+        <v>30.51</v>
       </c>
       <c r="D180" t="n">
-        <v>34.11</v>
-      </c>
-      <c r="E180" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="F180" t="n">
-        <v>48.43</v>
+        <v>35.74</v>
       </c>
     </row>
     <row r="181">
@@ -4297,19 +3191,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>2.01</v>
+        <v>51.16</v>
       </c>
       <c r="C181" t="n">
-        <v>50.78</v>
+        <v>30.44</v>
       </c>
       <c r="D181" t="n">
-        <v>33.76</v>
-      </c>
-      <c r="E181" t="n">
-        <v>0</v>
-      </c>
-      <c r="F181" t="n">
-        <v>48.94</v>
+        <v>35.94</v>
       </c>
     </row>
     <row r="182">
@@ -4317,19 +3205,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>1.59</v>
+        <v>51.05</v>
       </c>
       <c r="C182" t="n">
-        <v>50.78</v>
+        <v>30.34</v>
       </c>
       <c r="D182" t="n">
-        <v>33.69</v>
-      </c>
-      <c r="E182" t="n">
-        <v>0</v>
-      </c>
-      <c r="F182" t="n">
-        <v>49.49</v>
+        <v>36.15</v>
       </c>
     </row>
     <row r="183">
@@ -4337,19 +3219,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>1.05</v>
+        <v>51.42</v>
       </c>
       <c r="C183" t="n">
-        <v>50.78</v>
+        <v>30.06</v>
       </c>
       <c r="D183" t="n">
-        <v>33.71</v>
-      </c>
-      <c r="E183" t="n">
-        <v>0</v>
-      </c>
-      <c r="F183" t="n">
-        <v>50.09</v>
+        <v>36.06</v>
       </c>
     </row>
     <row r="184">
@@ -4357,19 +3233,13 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>0.5600000000000001</v>
+        <v>51.8</v>
       </c>
       <c r="C184" t="n">
-        <v>50.78</v>
+        <v>29.79</v>
       </c>
       <c r="D184" t="n">
-        <v>33.77</v>
-      </c>
-      <c r="E184" t="n">
-        <v>0</v>
-      </c>
-      <c r="F184" t="n">
-        <v>50.6</v>
+        <v>35.95</v>
       </c>
     </row>
     <row r="185">
@@ -4377,19 +3247,13 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>0</v>
+        <v>52.22</v>
       </c>
       <c r="C185" t="n">
-        <v>50.78</v>
+        <v>29.49</v>
       </c>
       <c r="D185" t="n">
-        <v>33.35</v>
-      </c>
-      <c r="E185" t="n">
-        <v>0</v>
-      </c>
-      <c r="F185" t="n">
-        <v>51.57</v>
+        <v>35.83</v>
       </c>
     </row>
     <row r="186">
@@ -4397,19 +3261,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>0</v>
+        <v>52.7</v>
       </c>
       <c r="C186" t="n">
-        <v>50.78</v>
+        <v>29.1</v>
       </c>
       <c r="D186" t="n">
-        <v>33.06</v>
-      </c>
-      <c r="E186" t="n">
-        <v>0</v>
-      </c>
-      <c r="F186" t="n">
-        <v>51.86</v>
+        <v>35.74</v>
       </c>
     </row>
     <row r="187">
@@ -4417,19 +3275,13 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>0</v>
+        <v>53.03</v>
       </c>
       <c r="C187" t="n">
-        <v>50.78</v>
+        <v>28.85</v>
       </c>
       <c r="D187" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="E187" t="n">
-        <v>0</v>
-      </c>
-      <c r="F187" t="n">
-        <v>52.43</v>
+        <v>35.66</v>
       </c>
     </row>
     <row r="188">
@@ -4437,19 +3289,1624 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>0</v>
+        <v>52.94</v>
       </c>
       <c r="C188" t="n">
-        <v>50.78</v>
+        <v>28.64</v>
       </c>
       <c r="D188" t="n">
-        <v>31.97</v>
-      </c>
-      <c r="E188" t="n">
-        <v>0</v>
-      </c>
-      <c r="F188" t="n">
-        <v>52.95</v>
+        <v>35.96</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>53.02</v>
+      </c>
+      <c r="C189" t="n">
+        <v>28.58</v>
+      </c>
+      <c r="D189" t="n">
+        <v>35.94</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>53.09</v>
+      </c>
+      <c r="C190" t="n">
+        <v>28.53</v>
+      </c>
+      <c r="D190" t="n">
+        <v>35.93</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>53.29</v>
+      </c>
+      <c r="C191" t="n">
+        <v>28.45</v>
+      </c>
+      <c r="D191" t="n">
+        <v>35.8</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>53.47</v>
+      </c>
+      <c r="C192" t="n">
+        <v>28.39</v>
+      </c>
+      <c r="D192" t="n">
+        <v>35.67</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>53.53</v>
+      </c>
+      <c r="C193" t="n">
+        <v>28.53</v>
+      </c>
+      <c r="D193" t="n">
+        <v>35.48</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>53.56</v>
+      </c>
+      <c r="C194" t="n">
+        <v>28.68</v>
+      </c>
+      <c r="D194" t="n">
+        <v>35.3</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>53.57</v>
+      </c>
+      <c r="C195" t="n">
+        <v>28.84</v>
+      </c>
+      <c r="D195" t="n">
+        <v>35.13</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>53.53</v>
+      </c>
+      <c r="C196" t="n">
+        <v>28.95</v>
+      </c>
+      <c r="D196" t="n">
+        <v>35.06</v>
+      </c>
+      <c r="E196" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>53.65</v>
+      </c>
+      <c r="C197" t="n">
+        <v>28.85</v>
+      </c>
+      <c r="D197" t="n">
+        <v>35.05</v>
+      </c>
+      <c r="E197" t="n">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>54.08</v>
+      </c>
+      <c r="C198" t="n">
+        <v>28.74</v>
+      </c>
+      <c r="D198" t="n">
+        <v>34.68</v>
+      </c>
+      <c r="E198" t="n">
+        <v>19.25</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>54.4</v>
+      </c>
+      <c r="C199" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="D199" t="n">
+        <v>34.41</v>
+      </c>
+      <c r="E199" t="n">
+        <v>18.825</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>54.72</v>
+      </c>
+      <c r="C200" t="n">
+        <v>29.14</v>
+      </c>
+      <c r="D200" t="n">
+        <v>34.14</v>
+      </c>
+      <c r="E200" t="n">
+        <v>18.57</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>55.01</v>
+      </c>
+      <c r="C201" t="n">
+        <v>29.33</v>
+      </c>
+      <c r="D201" t="n">
+        <v>33.91</v>
+      </c>
+      <c r="E201" t="n">
+        <v>18.4</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>55.32</v>
+      </c>
+      <c r="C202" t="n">
+        <v>29.52</v>
+      </c>
+      <c r="D202" t="n">
+        <v>33.66</v>
+      </c>
+      <c r="E202" t="n">
+        <v>18.16428571428571</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>55.18</v>
+      </c>
+      <c r="C203" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="D203" t="n">
+        <v>33.93</v>
+      </c>
+      <c r="E203" t="n">
+        <v>17.91625</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>55</v>
+      </c>
+      <c r="C204" t="n">
+        <v>30.06</v>
+      </c>
+      <c r="D204" t="n">
+        <v>34.15</v>
+      </c>
+      <c r="E204" t="n">
+        <v>17.70111111111111</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>54.96</v>
+      </c>
+      <c r="C205" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="D205" t="n">
+        <v>34.26</v>
+      </c>
+      <c r="E205" t="n">
+        <v>17.529</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>54.95</v>
+      </c>
+      <c r="C206" t="n">
+        <v>30.83</v>
+      </c>
+      <c r="D206" t="n">
+        <v>34.23</v>
+      </c>
+      <c r="E206" t="n">
+        <v>17.529</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>54.92</v>
+      </c>
+      <c r="C207" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="D207" t="n">
+        <v>34.32</v>
+      </c>
+      <c r="E207" t="n">
+        <v>17.07</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>54.88</v>
+      </c>
+      <c r="C208" t="n">
+        <v>31.65</v>
+      </c>
+      <c r="D208" t="n">
+        <v>34.42</v>
+      </c>
+      <c r="E208" t="n">
+        <v>16.591</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>54.82</v>
+      </c>
+      <c r="C209" t="n">
+        <v>31.74</v>
+      </c>
+      <c r="D209" t="n">
+        <v>34.54</v>
+      </c>
+      <c r="E209" t="n">
+        <v>16.447</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>54.81</v>
+      </c>
+      <c r="C210" t="n">
+        <v>31.81</v>
+      </c>
+      <c r="D210" t="n">
+        <v>34.64</v>
+      </c>
+      <c r="E210" t="n">
+        <v>16.283</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>54.82</v>
+      </c>
+      <c r="C211" t="n">
+        <v>31.93</v>
+      </c>
+      <c r="D211" t="n">
+        <v>34.68</v>
+      </c>
+      <c r="E211" t="n">
+        <v>16.099</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>54.74</v>
+      </c>
+      <c r="C212" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="D212" t="n">
+        <v>34.68</v>
+      </c>
+      <c r="E212" t="n">
+        <v>17.626</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="C213" t="n">
+        <v>29.04</v>
+      </c>
+      <c r="D213" t="n">
+        <v>34.72</v>
+      </c>
+      <c r="E213" t="n">
+        <v>19.067</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>55.13</v>
+      </c>
+      <c r="C214" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D214" t="n">
+        <v>34.56</v>
+      </c>
+      <c r="E214" t="n">
+        <v>20.445</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>55.41</v>
+      </c>
+      <c r="C215" t="n">
+        <v>25.78</v>
+      </c>
+      <c r="D215" t="n">
+        <v>34.58</v>
+      </c>
+      <c r="E215" t="n">
+        <v>21.763</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>55.88</v>
+      </c>
+      <c r="C216" t="n">
+        <v>24.07</v>
+      </c>
+      <c r="D216" t="n">
+        <v>34.57</v>
+      </c>
+      <c r="E216" t="n">
+        <v>23.024</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="C217" t="n">
+        <v>22.56</v>
+      </c>
+      <c r="D217" t="n">
+        <v>34.44</v>
+      </c>
+      <c r="E217" t="n">
+        <v>24.342</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>56.81</v>
+      </c>
+      <c r="C218" t="n">
+        <v>21.04</v>
+      </c>
+      <c r="D218" t="n">
+        <v>34.06</v>
+      </c>
+      <c r="E218" t="n">
+        <v>25.62</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>57.38</v>
+      </c>
+      <c r="C219" t="n">
+        <v>19.54</v>
+      </c>
+      <c r="D219" t="n">
+        <v>33.27</v>
+      </c>
+      <c r="E219" t="n">
+        <v>27.348</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>57.83</v>
+      </c>
+      <c r="C220" t="n">
+        <v>18.06</v>
+      </c>
+      <c r="D220" t="n">
+        <v>32.66</v>
+      </c>
+      <c r="E220" t="n">
+        <v>28.996</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>58.27</v>
+      </c>
+      <c r="C221" t="n">
+        <v>16.47</v>
+      </c>
+      <c r="D221" t="n">
+        <v>32.05</v>
+      </c>
+      <c r="E221" t="n">
+        <v>30.744</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>58.86</v>
+      </c>
+      <c r="C222" t="n">
+        <v>16.44</v>
+      </c>
+      <c r="D222" t="n">
+        <v>31.52</v>
+      </c>
+      <c r="E222" t="n">
+        <v>30.721</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>59.4</v>
+      </c>
+      <c r="C223" t="n">
+        <v>16.55</v>
+      </c>
+      <c r="D223" t="n">
+        <v>30.78</v>
+      </c>
+      <c r="E223" t="n">
+        <v>30.807</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>59.58</v>
+      </c>
+      <c r="C224" t="n">
+        <v>16.65</v>
+      </c>
+      <c r="D224" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="E224" t="n">
+        <v>31.013</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>59.67</v>
+      </c>
+      <c r="C225" t="n">
+        <v>16.73</v>
+      </c>
+      <c r="D225" t="n">
+        <v>30.04</v>
+      </c>
+      <c r="E225" t="n">
+        <v>31.08899999999999</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>59.6</v>
+      </c>
+      <c r="C226" t="n">
+        <v>16.88</v>
+      </c>
+      <c r="D226" t="n">
+        <v>29.83</v>
+      </c>
+      <c r="E226" t="n">
+        <v>31.232</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>59.65</v>
+      </c>
+      <c r="C227" t="n">
+        <v>16.87</v>
+      </c>
+      <c r="D227" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="E227" t="n">
+        <v>31.415</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>59.42</v>
+      </c>
+      <c r="C228" t="n">
+        <v>16.89</v>
+      </c>
+      <c r="D228" t="n">
+        <v>29.61</v>
+      </c>
+      <c r="E228" t="n">
+        <v>31.618</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>59.24</v>
+      </c>
+      <c r="C229" t="n">
+        <v>16.91</v>
+      </c>
+      <c r="D229" t="n">
+        <v>30.02</v>
+      </c>
+      <c r="E229" t="n">
+        <v>31.371</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>59.14</v>
+      </c>
+      <c r="C230" t="n">
+        <v>17.01</v>
+      </c>
+      <c r="D230" t="n">
+        <v>30.26</v>
+      </c>
+      <c r="E230" t="n">
+        <v>31.127</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>59.04</v>
+      </c>
+      <c r="C231" t="n">
+        <v>17.21</v>
+      </c>
+      <c r="D231" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="E231" t="n">
+        <v>30.79300000000001</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>58.85</v>
+      </c>
+      <c r="C232" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="D232" t="n">
+        <v>30.74</v>
+      </c>
+      <c r="E232" t="n">
+        <v>30.44899999999999</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>58.66</v>
+      </c>
+      <c r="C233" t="n">
+        <v>17.67</v>
+      </c>
+      <c r="D233" t="n">
+        <v>30.96</v>
+      </c>
+      <c r="E233" t="n">
+        <v>30.252</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>58.67</v>
+      </c>
+      <c r="C234" t="n">
+        <v>17.86</v>
+      </c>
+      <c r="D234" t="n">
+        <v>30.98</v>
+      </c>
+      <c r="E234" t="n">
+        <v>30.035</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>58.68</v>
+      </c>
+      <c r="C235" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="D235" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="E235" t="n">
+        <v>29.856</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>58.69</v>
+      </c>
+      <c r="C236" t="n">
+        <v>18.54</v>
+      </c>
+      <c r="D236" t="n">
+        <v>30.74</v>
+      </c>
+      <c r="E236" t="n">
+        <v>29.577</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>58.71</v>
+      </c>
+      <c r="C237" t="n">
+        <v>18.87</v>
+      </c>
+      <c r="D237" t="n">
+        <v>30.78</v>
+      </c>
+      <c r="E237" t="n">
+        <v>29.178</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>58.75</v>
+      </c>
+      <c r="C238" t="n">
+        <v>19.19</v>
+      </c>
+      <c r="D238" t="n">
+        <v>30.64</v>
+      </c>
+      <c r="E238" t="n">
+        <v>28.959</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>58.95</v>
+      </c>
+      <c r="C239" t="n">
+        <v>19.52</v>
+      </c>
+      <c r="D239" t="n">
+        <v>30.52</v>
+      </c>
+      <c r="E239" t="n">
+        <v>28.56</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>59.13</v>
+      </c>
+      <c r="C240" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="D240" t="n">
+        <v>30.19</v>
+      </c>
+      <c r="E240" t="n">
+        <v>28.523</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>59.31</v>
+      </c>
+      <c r="C241" t="n">
+        <v>19.83</v>
+      </c>
+      <c r="D241" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="E241" t="n">
+        <v>28.496</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="C242" t="n">
+        <v>19.95</v>
+      </c>
+      <c r="D242" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="E242" t="n">
+        <v>28.482</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>59.77</v>
+      </c>
+      <c r="C243" t="n">
+        <v>20.09</v>
+      </c>
+      <c r="D243" t="n">
+        <v>29.32</v>
+      </c>
+      <c r="E243" t="n">
+        <v>28.368</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>59.75</v>
+      </c>
+      <c r="C244" t="n">
+        <v>20.52</v>
+      </c>
+      <c r="D244" t="n">
+        <v>29.22</v>
+      </c>
+      <c r="E244" t="n">
+        <v>28.054</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>59.59</v>
+      </c>
+      <c r="C245" t="n">
+        <v>21.67</v>
+      </c>
+      <c r="D245" t="n">
+        <v>28.39</v>
+      </c>
+      <c r="E245" t="n">
+        <v>27.892</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>59.9</v>
+      </c>
+      <c r="C246" t="n">
+        <v>23.03</v>
+      </c>
+      <c r="D246" t="n">
+        <v>26.93</v>
+      </c>
+      <c r="E246" t="n">
+        <v>27.68</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>60.22</v>
+      </c>
+      <c r="C247" t="n">
+        <v>24.29</v>
+      </c>
+      <c r="D247" t="n">
+        <v>25.49</v>
+      </c>
+      <c r="E247" t="n">
+        <v>27.53799999999999</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>60.53</v>
+      </c>
+      <c r="C248" t="n">
+        <v>25.63</v>
+      </c>
+      <c r="D248" t="n">
+        <v>24.23</v>
+      </c>
+      <c r="E248" t="n">
+        <v>27.146</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>60.47</v>
+      </c>
+      <c r="C249" t="n">
+        <v>26.97</v>
+      </c>
+      <c r="D249" t="n">
+        <v>23.21</v>
+      </c>
+      <c r="E249" t="n">
+        <v>26.884</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>60.43</v>
+      </c>
+      <c r="C250" t="n">
+        <v>28.35</v>
+      </c>
+      <c r="D250" t="n">
+        <v>22.44</v>
+      </c>
+      <c r="E250" t="n">
+        <v>26.317</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>59.9</v>
+      </c>
+      <c r="C251" t="n">
+        <v>29.76</v>
+      </c>
+      <c r="D251" t="n">
+        <v>21.62</v>
+      </c>
+      <c r="E251" t="n">
+        <v>26.25</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>59.37</v>
+      </c>
+      <c r="C252" t="n">
+        <v>31.06</v>
+      </c>
+      <c r="D252" t="n">
+        <v>20.82</v>
+      </c>
+      <c r="E252" t="n">
+        <v>26.29</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>58.77</v>
+      </c>
+      <c r="C253" t="n">
+        <v>32.35</v>
+      </c>
+      <c r="D253" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="E253" t="n">
+        <v>26.02999999999999</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>57.76</v>
+      </c>
+      <c r="C254" t="n">
+        <v>34.72</v>
+      </c>
+      <c r="D254" t="n">
+        <v>19.09</v>
+      </c>
+      <c r="E254" t="n">
+        <v>25.97</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>56.95</v>
+      </c>
+      <c r="C255" t="n">
+        <v>36.12</v>
+      </c>
+      <c r="D255" t="n">
+        <v>18.55</v>
+      </c>
+      <c r="E255" t="n">
+        <v>25.91</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>55.63</v>
+      </c>
+      <c r="C256" t="n">
+        <v>37.34</v>
+      </c>
+      <c r="D256" t="n">
+        <v>18.16</v>
+      </c>
+      <c r="E256" t="n">
+        <v>26.41</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>54.29</v>
+      </c>
+      <c r="C257" t="n">
+        <v>38.55</v>
+      </c>
+      <c r="D257" t="n">
+        <v>17.92</v>
+      </c>
+      <c r="E257" t="n">
+        <v>26.775</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>53.06</v>
+      </c>
+      <c r="C258" t="n">
+        <v>39.62</v>
+      </c>
+      <c r="D258" t="n">
+        <v>17.67</v>
+      </c>
+      <c r="E258" t="n">
+        <v>27.19</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>51.32</v>
+      </c>
+      <c r="C259" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="D259" t="n">
+        <v>17.18</v>
+      </c>
+      <c r="E259" t="n">
+        <v>28.34500000000001</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>49.66</v>
+      </c>
+      <c r="C260" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="D260" t="n">
+        <v>16.66</v>
+      </c>
+      <c r="E260" t="n">
+        <v>29.52</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="C261" t="n">
+        <v>42.69</v>
+      </c>
+      <c r="D261" t="n">
+        <v>16.05</v>
+      </c>
+      <c r="E261" t="n">
+        <v>30.295</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>47.43</v>
+      </c>
+      <c r="C262" t="n">
+        <v>43.72</v>
+      </c>
+      <c r="D262" t="n">
+        <v>15.39</v>
+      </c>
+      <c r="E262" t="n">
+        <v>31.00000000000001</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="C263" t="n">
+        <v>44.76</v>
+      </c>
+      <c r="D263" t="n">
+        <v>14.27</v>
+      </c>
+      <c r="E263" t="n">
+        <v>31.815</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>46.37</v>
+      </c>
+      <c r="C264" t="n">
+        <v>44.48</v>
+      </c>
+      <c r="D264" t="n">
+        <v>14.04</v>
+      </c>
+      <c r="E264" t="n">
+        <v>32.65000000000001</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>46</v>
+      </c>
+      <c r="C265" t="n">
+        <v>44.18</v>
+      </c>
+      <c r="D265" t="n">
+        <v>13.88</v>
+      </c>
+      <c r="E265" t="n">
+        <v>33.485</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>45.81</v>
+      </c>
+      <c r="C266" t="n">
+        <v>44.06</v>
+      </c>
+      <c r="D266" t="n">
+        <v>13.83</v>
+      </c>
+      <c r="E266" t="n">
+        <v>33.84</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="C267" t="n">
+        <v>43.95</v>
+      </c>
+      <c r="D267" t="n">
+        <v>13.79</v>
+      </c>
+      <c r="E267" t="n">
+        <v>34.2</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>45.98</v>
+      </c>
+      <c r="C268" t="n">
+        <v>43.23</v>
+      </c>
+      <c r="D268" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="E268" t="n">
+        <v>34.55999999999999</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>47.03</v>
+      </c>
+      <c r="C269" t="n">
+        <v>42.51</v>
+      </c>
+      <c r="D269" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="E269" t="n">
+        <v>34.2</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>48.02</v>
+      </c>
+      <c r="C270" t="n">
+        <v>41.86</v>
+      </c>
+      <c r="D270" t="n">
+        <v>13.83</v>
+      </c>
+      <c r="E270" t="n">
+        <v>33.81999999999999</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>49</v>
+      </c>
+      <c r="C271" t="n">
+        <v>41.23</v>
+      </c>
+      <c r="D271" t="n">
+        <v>13.98</v>
+      </c>
+      <c r="E271" t="n">
+        <v>33.33</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>50.27</v>
+      </c>
+      <c r="C272" t="n">
+        <v>40.21</v>
+      </c>
+      <c r="D272" t="n">
+        <v>14.19</v>
+      </c>
+      <c r="E272" t="n">
+        <v>32.86</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>51.27</v>
+      </c>
+      <c r="C273" t="n">
+        <v>39.19</v>
+      </c>
+      <c r="D273" t="n">
+        <v>14.49</v>
+      </c>
+      <c r="E273" t="n">
+        <v>32.58999999999999</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>52.41</v>
+      </c>
+      <c r="C274" t="n">
+        <v>38.05</v>
+      </c>
+      <c r="D274" t="n">
+        <v>14.78</v>
+      </c>
+      <c r="E274" t="n">
+        <v>32.3</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>53.63</v>
+      </c>
+      <c r="C275" t="n">
+        <v>36.92</v>
+      </c>
+      <c r="D275" t="n">
+        <v>14.97</v>
+      </c>
+      <c r="E275" t="n">
+        <v>32.02</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>54.72</v>
+      </c>
+      <c r="C276" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="D276" t="n">
+        <v>14.92</v>
+      </c>
+      <c r="E276" t="n">
+        <v>31.71</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>55.82</v>
+      </c>
+      <c r="C277" t="n">
+        <v>35.46</v>
+      </c>
+      <c r="D277" t="n">
+        <v>14.69</v>
+      </c>
+      <c r="E277" t="n">
+        <v>31.57</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>56.05</v>
+      </c>
+      <c r="C278" t="n">
+        <v>35.39</v>
+      </c>
+      <c r="D278" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="E278" t="n">
+        <v>31.70499999999999</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>56.26</v>
+      </c>
+      <c r="C279" t="n">
+        <v>35.47</v>
+      </c>
+      <c r="D279" t="n">
+        <v>14.04</v>
+      </c>
+      <c r="E279" t="n">
+        <v>31.77</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>56.46</v>
+      </c>
+      <c r="C280" t="n">
+        <v>35.53</v>
+      </c>
+      <c r="D280" t="n">
+        <v>13.69</v>
+      </c>
+      <c r="E280" t="n">
+        <v>31.855</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>56.67</v>
+      </c>
+      <c r="C281" t="n">
+        <v>35.57</v>
+      </c>
+      <c r="D281" t="n">
+        <v>13.29</v>
+      </c>
+      <c r="E281" t="n">
+        <v>32.01</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>56.23</v>
+      </c>
+      <c r="C282" t="n">
+        <v>35.99</v>
+      </c>
+      <c r="D282" t="n">
+        <v>12.83</v>
+      </c>
+      <c r="E282" t="n">
+        <v>32.495</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
+        <v>56.05</v>
+      </c>
+      <c r="C283" t="n">
+        <v>36.42</v>
+      </c>
+      <c r="D283" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E283" t="n">
+        <v>32.97</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="n">
+        <v>55.77</v>
+      </c>
+      <c r="C284" t="n">
+        <v>36.93</v>
+      </c>
+      <c r="D284" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="E284" t="n">
+        <v>33.465</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/stacks_over_time_avg.xlsx
+++ b/Outputs/stacks_over_time_avg.xlsx
@@ -162,7 +162,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Stacks vs time this session (06/21/21): 10-hand moving averages</a:t>
+              <a:t>Stacks vs time this session (05/13/21): 10-hand moving averages</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -194,7 +194,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$B$2:$B$284</f>
+              <f>'data'!$B$2:$B$214</f>
             </numRef>
           </val>
         </ser>
@@ -221,61 +221,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$C$2:$C$284</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="2"/>
-          <order val="2"/>
-          <tx>
-            <strRef>
-              <f>'data'!D1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'data'!$D$2:$D$284</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="3"/>
-          <order val="3"/>
-          <tx>
-            <strRef>
-              <f>'data'!E1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'data'!$E$2:$E$284</f>
+              <f>'data'!$C$2:$C$214</f>
             </numRef>
           </val>
         </ser>
@@ -645,7 +591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E284"/>
+  <dimension ref="A1:C214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -661,22 +607,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Scott</t>
+          <t>Fish</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Raymond</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Cedric</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Fish</t>
+          <t>Scott</t>
         </is>
       </c>
     </row>
@@ -685,13 +621,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D2" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -699,13 +632,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19.7</v>
+        <v>10.15</v>
       </c>
       <c r="C3" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>19.9</v>
+        <v>9.85</v>
       </c>
     </row>
     <row r="4">
@@ -713,13 +643,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>19.1</v>
+        <v>10.3</v>
       </c>
       <c r="C4" t="n">
-        <v>20.53</v>
-      </c>
-      <c r="D4" t="n">
-        <v>20.37</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -727,13 +654,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>18.85</v>
+        <v>10.6</v>
       </c>
       <c r="C5" t="n">
-        <v>20.55</v>
-      </c>
-      <c r="D5" t="n">
-        <v>20.6</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="6">
@@ -741,13 +665,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>18.7</v>
+        <v>10.8</v>
       </c>
       <c r="C6" t="n">
-        <v>20.54</v>
-      </c>
-      <c r="D6" t="n">
-        <v>20.76</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -755,13 +676,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>18.62</v>
+        <v>10.78</v>
       </c>
       <c r="C7" t="n">
-        <v>20.53</v>
-      </c>
-      <c r="D7" t="n">
-        <v>20.85</v>
+        <v>9.220000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -769,13 +687,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>18.54</v>
+        <v>10.5</v>
       </c>
       <c r="C8" t="n">
-        <v>20.31</v>
-      </c>
-      <c r="D8" t="n">
-        <v>21.14</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="9">
@@ -783,13 +698,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>18.49</v>
+        <v>10.26</v>
       </c>
       <c r="C9" t="n">
-        <v>20.14</v>
-      </c>
-      <c r="D9" t="n">
-        <v>21.38</v>
+        <v>9.74</v>
       </c>
     </row>
     <row r="10">
@@ -797,13 +709,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>18.56</v>
+        <v>10.12</v>
       </c>
       <c r="C10" t="n">
-        <v>19.89</v>
-      </c>
-      <c r="D10" t="n">
-        <v>21.54</v>
+        <v>9.880000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -811,13 +720,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>19.18</v>
+        <v>10.01</v>
       </c>
       <c r="C11" t="n">
-        <v>19.14</v>
-      </c>
-      <c r="D11" t="n">
-        <v>21.68</v>
+        <v>9.99</v>
       </c>
     </row>
     <row r="12">
@@ -825,13 +731,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>19.18</v>
+        <v>10.01</v>
       </c>
       <c r="C12" t="n">
-        <v>19.14</v>
-      </c>
-      <c r="D12" t="n">
-        <v>21.68</v>
+        <v>9.99</v>
       </c>
     </row>
     <row r="13">
@@ -839,13 +742,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>19.66</v>
+        <v>9.76</v>
       </c>
       <c r="C13" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="D13" t="n">
-        <v>21.85</v>
+        <v>10.24</v>
       </c>
     </row>
     <row r="14">
@@ -853,13 +753,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>19.99</v>
+        <v>9.5</v>
       </c>
       <c r="C14" t="n">
-        <v>17.77</v>
-      </c>
-      <c r="D14" t="n">
-        <v>22.24</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="15">
@@ -867,13 +764,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>20.46</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>17.02</v>
-      </c>
-      <c r="D15" t="n">
-        <v>22.52</v>
+        <v>10.81</v>
       </c>
     </row>
     <row r="16">
@@ -881,13 +775,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>20.83</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="D16" t="n">
-        <v>22.77</v>
+        <v>11.21</v>
       </c>
     </row>
     <row r="17">
@@ -895,13 +786,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>21.21</v>
+        <v>8.23</v>
       </c>
       <c r="C17" t="n">
-        <v>15.79</v>
-      </c>
-      <c r="D17" t="n">
-        <v>23.01</v>
+        <v>11.78</v>
       </c>
     </row>
     <row r="18">
@@ -909,13 +797,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>21.32</v>
+        <v>7.76</v>
       </c>
       <c r="C18" t="n">
-        <v>15.15</v>
-      </c>
-      <c r="D18" t="n">
-        <v>23.53</v>
+        <v>12.24</v>
       </c>
     </row>
     <row r="19">
@@ -923,13 +808,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>21.44</v>
+        <v>7.49</v>
       </c>
       <c r="C19" t="n">
-        <v>14.65</v>
-      </c>
-      <c r="D19" t="n">
-        <v>23.9</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="20">
@@ -937,13 +819,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>22.05</v>
+        <v>6.98</v>
       </c>
       <c r="C20" t="n">
-        <v>14.17</v>
-      </c>
-      <c r="D20" t="n">
-        <v>23.78</v>
+        <v>13.02</v>
       </c>
     </row>
     <row r="21">
@@ -951,13 +830,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>22.55</v>
+        <v>6.42</v>
       </c>
       <c r="C21" t="n">
-        <v>14.37</v>
-      </c>
-      <c r="D21" t="n">
-        <v>23.66</v>
+        <v>13.58</v>
       </c>
     </row>
     <row r="22">
@@ -965,13 +841,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>21.9</v>
+        <v>5.87</v>
       </c>
       <c r="C22" t="n">
-        <v>15.13</v>
-      </c>
-      <c r="D22" t="n">
-        <v>24.14</v>
+        <v>14.13</v>
       </c>
     </row>
     <row r="23">
@@ -979,13 +852,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>21.27</v>
+        <v>5.39</v>
       </c>
       <c r="C23" t="n">
-        <v>15.77</v>
-      </c>
-      <c r="D23" t="n">
-        <v>24.72</v>
+        <v>14.6</v>
       </c>
     </row>
     <row r="24">
@@ -993,13 +863,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>20.82</v>
+        <v>4.9</v>
       </c>
       <c r="C24" t="n">
-        <v>16.38</v>
-      </c>
-      <c r="D24" t="n">
-        <v>25.14</v>
+        <v>15.09</v>
       </c>
     </row>
     <row r="25">
@@ -1007,13 +874,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>20.38</v>
+        <v>4.42</v>
       </c>
       <c r="C25" t="n">
-        <v>17.03</v>
-      </c>
-      <c r="D25" t="n">
-        <v>25.51</v>
+        <v>15.59</v>
       </c>
     </row>
     <row r="26">
@@ -1021,13 +885,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>19.94</v>
+        <v>3.93</v>
       </c>
       <c r="C26" t="n">
-        <v>17.59</v>
-      </c>
-      <c r="D26" t="n">
-        <v>25.98</v>
+        <v>16.07</v>
       </c>
     </row>
     <row r="27">
@@ -1035,13 +896,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>19.48</v>
+        <v>3.62</v>
       </c>
       <c r="C27" t="n">
-        <v>18.13</v>
-      </c>
-      <c r="D27" t="n">
-        <v>26.49</v>
+        <v>16.38</v>
       </c>
     </row>
     <row r="28">
@@ -1049,13 +907,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>19.28</v>
+        <v>3.29</v>
       </c>
       <c r="C28" t="n">
-        <v>18.67</v>
-      </c>
-      <c r="D28" t="n">
-        <v>26.73</v>
+        <v>16.71</v>
       </c>
     </row>
     <row r="29">
@@ -1063,13 +918,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>18.58</v>
+        <v>2.97</v>
       </c>
       <c r="C29" t="n">
-        <v>19.23</v>
-      </c>
-      <c r="D29" t="n">
-        <v>27.46</v>
+        <v>17.03</v>
       </c>
     </row>
     <row r="30">
@@ -1077,13 +929,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>17.41</v>
+        <v>2.91</v>
       </c>
       <c r="C30" t="n">
-        <v>19.76</v>
-      </c>
-      <c r="D30" t="n">
-        <v>28.68</v>
+        <v>17.09</v>
       </c>
     </row>
     <row r="31">
@@ -1091,13 +940,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>16.28</v>
+        <v>2.68</v>
       </c>
       <c r="C31" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="D31" t="n">
-        <v>29.88</v>
+        <v>17.32</v>
       </c>
     </row>
     <row r="32">
@@ -1105,13 +951,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>15.59</v>
+        <v>3.33</v>
       </c>
       <c r="C32" t="n">
-        <v>19.63</v>
-      </c>
-      <c r="D32" t="n">
-        <v>30.63</v>
+        <v>17.68</v>
       </c>
     </row>
     <row r="33">
@@ -1119,13 +962,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>15.75</v>
+        <v>4.01</v>
       </c>
       <c r="C33" t="n">
-        <v>19.65</v>
-      </c>
-      <c r="D33" t="n">
-        <v>31.32</v>
+        <v>17.98</v>
       </c>
     </row>
     <row r="34">
@@ -1133,13 +973,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>15.93</v>
+        <v>4.74</v>
       </c>
       <c r="C34" t="n">
-        <v>19.71</v>
-      </c>
-      <c r="D34" t="n">
-        <v>31.95</v>
+        <v>18.26</v>
       </c>
     </row>
     <row r="35">
@@ -1147,13 +984,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>16.21</v>
+        <v>5.55</v>
       </c>
       <c r="C35" t="n">
-        <v>19.75</v>
-      </c>
-      <c r="D35" t="n">
-        <v>32.5</v>
+        <v>18.45</v>
       </c>
     </row>
     <row r="36">
@@ -1161,13 +995,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>18.82</v>
+        <v>6.35</v>
       </c>
       <c r="C36" t="n">
-        <v>19.64</v>
-      </c>
-      <c r="D36" t="n">
-        <v>30.87</v>
+        <v>18.65</v>
       </c>
     </row>
     <row r="37">
@@ -1175,13 +1006,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>21.46</v>
+        <v>6.86</v>
       </c>
       <c r="C37" t="n">
-        <v>19.54</v>
-      </c>
-      <c r="D37" t="n">
-        <v>29.19</v>
+        <v>19.14</v>
       </c>
     </row>
     <row r="38">
@@ -1189,13 +1017,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>24.12</v>
+        <v>7.38</v>
       </c>
       <c r="C38" t="n">
-        <v>19.45</v>
-      </c>
-      <c r="D38" t="n">
-        <v>27.49</v>
+        <v>19.63</v>
       </c>
     </row>
     <row r="39">
@@ -1203,13 +1028,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>27.27</v>
+        <v>7.96</v>
       </c>
       <c r="C39" t="n">
-        <v>19.37</v>
-      </c>
-      <c r="D39" t="n">
-        <v>25.29</v>
+        <v>20.05</v>
       </c>
     </row>
     <row r="40">
@@ -1217,13 +1039,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>30.2</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>19.11</v>
-      </c>
-      <c r="D40" t="n">
-        <v>23.49</v>
+        <v>20.37</v>
       </c>
     </row>
     <row r="41">
@@ -1231,13 +1050,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>33.11</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>18.86</v>
-      </c>
-      <c r="D41" t="n">
-        <v>21.7</v>
+        <v>20.48</v>
       </c>
     </row>
     <row r="42">
@@ -1245,13 +1061,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>36.18</v>
+        <v>9.43</v>
       </c>
       <c r="C42" t="n">
-        <v>18.59</v>
-      </c>
-      <c r="D42" t="n">
-        <v>19.77</v>
+        <v>20.57</v>
       </c>
     </row>
     <row r="43">
@@ -1259,13 +1072,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>38.39</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>18.26</v>
-      </c>
-      <c r="D43" t="n">
-        <v>17.89</v>
+        <v>20.61</v>
       </c>
     </row>
     <row r="44">
@@ -1273,13 +1083,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>40.53</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="C44" t="n">
-        <v>18.05</v>
-      </c>
-      <c r="D44" t="n">
-        <v>15.96</v>
+        <v>20.64</v>
       </c>
     </row>
     <row r="45">
@@ -1287,13 +1094,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>42.56</v>
+        <v>9.26</v>
       </c>
       <c r="C45" t="n">
-        <v>17.85</v>
-      </c>
-      <c r="D45" t="n">
-        <v>14.13</v>
+        <v>20.74</v>
       </c>
     </row>
     <row r="46">
@@ -1301,13 +1105,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>42.37</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>17.79</v>
-      </c>
-      <c r="D46" t="n">
-        <v>14.38</v>
+        <v>20.86</v>
       </c>
     </row>
     <row r="47">
@@ -1315,13 +1116,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>42.16</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C47" t="n">
-        <v>17.74</v>
-      </c>
-      <c r="D47" t="n">
-        <v>14.64</v>
+        <v>20.8</v>
       </c>
     </row>
     <row r="48">
@@ -1329,13 +1127,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>41.93</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="D48" t="n">
-        <v>14.91</v>
+        <v>20.72</v>
       </c>
     </row>
     <row r="49">
@@ -1343,13 +1138,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>41.71</v>
+        <v>9.26</v>
       </c>
       <c r="C49" t="n">
-        <v>17.59</v>
-      </c>
-      <c r="D49" t="n">
-        <v>15.24</v>
+        <v>20.74</v>
       </c>
     </row>
     <row r="50">
@@ -1357,13 +1149,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>41.79</v>
+        <v>9.07</v>
       </c>
       <c r="C50" t="n">
-        <v>17.68</v>
-      </c>
-      <c r="D50" t="n">
-        <v>15.07</v>
+        <v>20.93</v>
       </c>
     </row>
     <row r="51">
@@ -1371,13 +1160,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>41.85</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>17.78</v>
-      </c>
-      <c r="D51" t="n">
-        <v>14.91</v>
+        <v>20.7</v>
       </c>
     </row>
     <row r="52">
@@ -1385,13 +1171,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>41.89</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>17.78</v>
-      </c>
-      <c r="D52" t="n">
-        <v>14.87</v>
+        <v>20.37</v>
       </c>
     </row>
     <row r="53">
@@ -1399,13 +1182,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>41.73</v>
+        <v>10.02</v>
       </c>
       <c r="C53" t="n">
-        <v>17.76</v>
-      </c>
-      <c r="D53" t="n">
-        <v>15.05</v>
+        <v>19.98</v>
       </c>
     </row>
     <row r="54">
@@ -1413,13 +1193,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>41.64</v>
+        <v>10.29</v>
       </c>
       <c r="C54" t="n">
-        <v>17.66</v>
-      </c>
-      <c r="D54" t="n">
-        <v>15.25</v>
+        <v>19.71</v>
       </c>
     </row>
     <row r="55">
@@ -1427,13 +1204,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>41.56</v>
+        <v>10.61</v>
       </c>
       <c r="C55" t="n">
-        <v>17.53</v>
-      </c>
-      <c r="D55" t="n">
-        <v>15.47</v>
+        <v>19.39</v>
       </c>
     </row>
     <row r="56">
@@ -1441,13 +1215,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>41.45</v>
+        <v>11.18</v>
       </c>
       <c r="C56" t="n">
-        <v>17.43</v>
-      </c>
-      <c r="D56" t="n">
-        <v>15.69</v>
+        <v>18.81</v>
       </c>
     </row>
     <row r="57">
@@ -1455,13 +1226,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>41.32</v>
+        <v>11.88</v>
       </c>
       <c r="C57" t="n">
-        <v>17.26</v>
-      </c>
-      <c r="D57" t="n">
-        <v>15.99</v>
+        <v>18.12</v>
       </c>
     </row>
     <row r="58">
@@ -1469,13 +1237,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>41.17</v>
+        <v>12.57</v>
       </c>
       <c r="C58" t="n">
-        <v>17.11</v>
-      </c>
-      <c r="D58" t="n">
-        <v>16.29</v>
+        <v>17.43</v>
       </c>
     </row>
     <row r="59">
@@ -1483,13 +1248,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>41.02</v>
+        <v>13.26</v>
       </c>
       <c r="C59" t="n">
-        <v>17.09</v>
-      </c>
-      <c r="D59" t="n">
-        <v>16.46</v>
+        <v>16.74</v>
       </c>
     </row>
     <row r="60">
@@ -1497,13 +1259,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>40.79</v>
+        <v>14</v>
       </c>
       <c r="C60" t="n">
-        <v>17.06</v>
-      </c>
-      <c r="D60" t="n">
-        <v>16.71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61">
@@ -1511,13 +1270,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>40.56</v>
+        <v>14.2</v>
       </c>
       <c r="C61" t="n">
-        <v>17.04</v>
-      </c>
-      <c r="D61" t="n">
-        <v>16.97</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="62">
@@ -1525,13 +1281,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>40.33</v>
+        <v>14.36</v>
       </c>
       <c r="C62" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="D62" t="n">
-        <v>17.05</v>
+        <v>15.64</v>
       </c>
     </row>
     <row r="63">
@@ -1539,13 +1292,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>40.4</v>
+        <v>14.44</v>
       </c>
       <c r="C63" t="n">
-        <v>17.95</v>
-      </c>
-      <c r="D63" t="n">
-        <v>16.82</v>
+        <v>15.56</v>
       </c>
     </row>
     <row r="64">
@@ -1553,13 +1303,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>39.41</v>
+        <v>14.58</v>
       </c>
       <c r="C64" t="n">
-        <v>18.27</v>
-      </c>
-      <c r="D64" t="n">
-        <v>17.78</v>
+        <v>15.42</v>
       </c>
     </row>
     <row r="65">
@@ -1567,13 +1314,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>38.13</v>
+        <v>14.69</v>
       </c>
       <c r="C65" t="n">
-        <v>18.58</v>
-      </c>
-      <c r="D65" t="n">
-        <v>19.04</v>
+        <v>15.31</v>
       </c>
     </row>
     <row r="66">
@@ -1581,13 +1325,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>36.86</v>
+        <v>14.56</v>
       </c>
       <c r="C66" t="n">
-        <v>18.88</v>
-      </c>
-      <c r="D66" t="n">
-        <v>20.3</v>
+        <v>15.44</v>
       </c>
     </row>
     <row r="67">
@@ -1595,13 +1336,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>35.58</v>
+        <v>14.39</v>
       </c>
       <c r="C67" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="D67" t="n">
-        <v>21.5</v>
+        <v>15.61</v>
       </c>
     </row>
     <row r="68">
@@ -1609,13 +1347,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>34.33</v>
+        <v>14.18</v>
       </c>
       <c r="C68" t="n">
-        <v>19.67</v>
-      </c>
-      <c r="D68" t="n">
-        <v>22.64</v>
+        <v>15.82</v>
       </c>
     </row>
     <row r="69">
@@ -1623,13 +1358,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>33.02</v>
+        <v>14.08</v>
       </c>
       <c r="C69" t="n">
-        <v>20.13</v>
-      </c>
-      <c r="D69" t="n">
-        <v>23.78</v>
+        <v>15.92</v>
       </c>
     </row>
     <row r="70">
@@ -1637,13 +1369,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>31.72</v>
+        <v>14.37</v>
       </c>
       <c r="C70" t="n">
-        <v>20.58</v>
-      </c>
-      <c r="D70" t="n">
-        <v>24.95</v>
+        <v>15.63</v>
       </c>
     </row>
     <row r="71">
@@ -1651,13 +1380,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>30.45</v>
+        <v>14.73</v>
       </c>
       <c r="C71" t="n">
-        <v>21</v>
-      </c>
-      <c r="D71" t="n">
-        <v>26.09</v>
+        <v>15.27</v>
       </c>
     </row>
     <row r="72">
@@ -1665,13 +1391,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>29.16</v>
+        <v>15.08</v>
       </c>
       <c r="C72" t="n">
-        <v>21.07</v>
-      </c>
-      <c r="D72" t="n">
-        <v>27.31</v>
+        <v>14.92</v>
       </c>
     </row>
     <row r="73">
@@ -1679,13 +1402,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>27.54</v>
+        <v>15.46</v>
       </c>
       <c r="C73" t="n">
-        <v>21.11</v>
-      </c>
-      <c r="D73" t="n">
-        <v>28.89</v>
+        <v>14.54</v>
       </c>
     </row>
     <row r="74">
@@ -1693,13 +1413,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>26.95</v>
+        <v>15.83</v>
       </c>
       <c r="C74" t="n">
-        <v>21.27</v>
-      </c>
-      <c r="D74" t="n">
-        <v>29.32</v>
+        <v>14.18</v>
       </c>
     </row>
     <row r="75">
@@ -1707,13 +1424,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>26.73</v>
+        <v>16.2</v>
       </c>
       <c r="C75" t="n">
-        <v>21.39</v>
-      </c>
-      <c r="D75" t="n">
-        <v>29.42</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="76">
@@ -1721,13 +1435,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>26.54</v>
+        <v>16.58</v>
       </c>
       <c r="C76" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="D76" t="n">
-        <v>29.51</v>
+        <v>13.42</v>
       </c>
     </row>
     <row r="77">
@@ -1735,13 +1446,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>26.38</v>
+        <v>16.88</v>
       </c>
       <c r="C77" t="n">
-        <v>21.58</v>
-      </c>
-      <c r="D77" t="n">
-        <v>29.59</v>
+        <v>13.12</v>
       </c>
     </row>
     <row r="78">
@@ -1749,13 +1457,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>26.22</v>
+        <v>17.18</v>
       </c>
       <c r="C78" t="n">
-        <v>21.61</v>
-      </c>
-      <c r="D78" t="n">
-        <v>29.71</v>
+        <v>12.82</v>
       </c>
     </row>
     <row r="79">
@@ -1763,13 +1468,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>26.11</v>
+        <v>17.42</v>
       </c>
       <c r="C79" t="n">
-        <v>21.54</v>
-      </c>
-      <c r="D79" t="n">
-        <v>29.89</v>
+        <v>12.58</v>
       </c>
     </row>
     <row r="80">
@@ -1777,13 +1479,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>25.98</v>
+        <v>17.38</v>
       </c>
       <c r="C80" t="n">
-        <v>21.51</v>
-      </c>
-      <c r="D80" t="n">
-        <v>30.05</v>
+        <v>12.62</v>
       </c>
     </row>
     <row r="81">
@@ -1791,13 +1490,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>25.8</v>
+        <v>17.4</v>
       </c>
       <c r="C81" t="n">
-        <v>21.49</v>
-      </c>
-      <c r="D81" t="n">
-        <v>30.25</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="82">
@@ -1805,13 +1501,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>25.72</v>
+        <v>17.45</v>
       </c>
       <c r="C82" t="n">
-        <v>21.45</v>
-      </c>
-      <c r="D82" t="n">
-        <v>30.37</v>
+        <v>12.55</v>
       </c>
     </row>
     <row r="83">
@@ -1819,13 +1512,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>24.79</v>
+        <v>17.45</v>
       </c>
       <c r="C83" t="n">
-        <v>22.54</v>
-      </c>
-      <c r="D83" t="n">
-        <v>30.21</v>
+        <v>12.55</v>
       </c>
     </row>
     <row r="84">
@@ -1833,13 +1523,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>23.98</v>
+        <v>17.45</v>
       </c>
       <c r="C84" t="n">
-        <v>23.59</v>
-      </c>
-      <c r="D84" t="n">
-        <v>29.97</v>
+        <v>12.56</v>
       </c>
     </row>
     <row r="85">
@@ -1847,13 +1534,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>23.11</v>
+        <v>17.43</v>
       </c>
       <c r="C85" t="n">
-        <v>24.69</v>
-      </c>
-      <c r="D85" t="n">
-        <v>29.74</v>
+        <v>12.57</v>
       </c>
     </row>
     <row r="86">
@@ -1861,13 +1545,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>22.28</v>
+        <v>17.45</v>
       </c>
       <c r="C86" t="n">
-        <v>25.75</v>
-      </c>
-      <c r="D86" t="n">
-        <v>29.51</v>
+        <v>12.55</v>
       </c>
     </row>
     <row r="87">
@@ -1875,13 +1556,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>21.46</v>
+        <v>17.48</v>
       </c>
       <c r="C87" t="n">
-        <v>26.79</v>
-      </c>
-      <c r="D87" t="n">
-        <v>29.3</v>
+        <v>12.52</v>
       </c>
     </row>
     <row r="88">
@@ -1889,13 +1567,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>20.61</v>
+        <v>17.5</v>
       </c>
       <c r="C88" t="n">
-        <v>27.85</v>
-      </c>
-      <c r="D88" t="n">
-        <v>29.1</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="89">
@@ -1903,13 +1578,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>19.75</v>
+        <v>17.49</v>
       </c>
       <c r="C89" t="n">
-        <v>28.92</v>
-      </c>
-      <c r="D89" t="n">
-        <v>28.9</v>
+        <v>12.51</v>
       </c>
     </row>
     <row r="90">
@@ -1917,13 +1589,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>18.91</v>
+        <v>17.46</v>
       </c>
       <c r="C90" t="n">
-        <v>29.95</v>
-      </c>
-      <c r="D90" t="n">
-        <v>28.72</v>
+        <v>12.54</v>
       </c>
     </row>
     <row r="91">
@@ -1931,13 +1600,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>18.07</v>
+        <v>17.44</v>
       </c>
       <c r="C91" t="n">
-        <v>31</v>
-      </c>
-      <c r="D91" t="n">
-        <v>28.52</v>
+        <v>12.56</v>
       </c>
     </row>
     <row r="92">
@@ -1945,13 +1611,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>17.25</v>
+        <v>16.75</v>
       </c>
       <c r="C92" t="n">
-        <v>31.96</v>
-      </c>
-      <c r="D92" t="n">
-        <v>28.38</v>
+        <v>13.25</v>
       </c>
     </row>
     <row r="93">
@@ -1959,13 +1622,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>17.54</v>
+        <v>16</v>
       </c>
       <c r="C93" t="n">
-        <v>31.81</v>
-      </c>
-      <c r="D93" t="n">
-        <v>28.26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94">
@@ -1973,13 +1633,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>17.74</v>
+        <v>15.27</v>
       </c>
       <c r="C94" t="n">
-        <v>31.64</v>
-      </c>
-      <c r="D94" t="n">
-        <v>28.24</v>
+        <v>14.73</v>
       </c>
     </row>
     <row r="95">
@@ -1987,13 +1644,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>17.94</v>
+        <v>14.28</v>
       </c>
       <c r="C95" t="n">
-        <v>31.47</v>
-      </c>
-      <c r="D95" t="n">
-        <v>28.22</v>
+        <v>15.72</v>
       </c>
     </row>
     <row r="96">
@@ -2001,13 +1655,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>17.93</v>
+        <v>13.25</v>
       </c>
       <c r="C96" t="n">
-        <v>31.49</v>
-      </c>
-      <c r="D96" t="n">
-        <v>28.22</v>
+        <v>16.75</v>
       </c>
     </row>
     <row r="97">
@@ -2015,13 +1666,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>17.9</v>
+        <v>12.3</v>
       </c>
       <c r="C97" t="n">
-        <v>31.52</v>
-      </c>
-      <c r="D97" t="n">
-        <v>28.22</v>
+        <v>17.7</v>
       </c>
     </row>
     <row r="98">
@@ -2029,13 +1677,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>18.61</v>
+        <v>11.78</v>
       </c>
       <c r="C98" t="n">
-        <v>30.81</v>
-      </c>
-      <c r="D98" t="n">
-        <v>28.21</v>
+        <v>18.22</v>
       </c>
     </row>
     <row r="99">
@@ -2043,13 +1688,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>19.36</v>
+        <v>11.25</v>
       </c>
       <c r="C99" t="n">
-        <v>30.09</v>
-      </c>
-      <c r="D99" t="n">
-        <v>28.17</v>
+        <v>18.74</v>
       </c>
     </row>
     <row r="100">
@@ -2057,13 +1699,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>20.03</v>
+        <v>10.68</v>
       </c>
       <c r="C100" t="n">
-        <v>29.45</v>
-      </c>
-      <c r="D100" t="n">
-        <v>28.13</v>
+        <v>19.32</v>
       </c>
     </row>
     <row r="101">
@@ -2071,13 +1710,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>20.76</v>
+        <v>10.04</v>
       </c>
       <c r="C101" t="n">
-        <v>28.77</v>
-      </c>
-      <c r="D101" t="n">
-        <v>28.07</v>
+        <v>19.96</v>
       </c>
     </row>
     <row r="102">
@@ -2085,13 +1721,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>21.39</v>
+        <v>10.07</v>
       </c>
       <c r="C102" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="D102" t="n">
-        <v>28</v>
+        <v>19.93</v>
       </c>
     </row>
     <row r="103">
@@ -2099,13 +1732,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>22</v>
+        <v>10.29</v>
       </c>
       <c r="C103" t="n">
-        <v>27.72</v>
-      </c>
-      <c r="D103" t="n">
-        <v>27.86</v>
+        <v>19.72</v>
       </c>
     </row>
     <row r="104">
@@ -2113,13 +1743,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>22.62</v>
+        <v>10.49</v>
       </c>
       <c r="C104" t="n">
-        <v>27.25</v>
-      </c>
-      <c r="D104" t="n">
-        <v>27.7</v>
+        <v>19.51</v>
       </c>
     </row>
     <row r="105">
@@ -2127,13 +1754,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>23.17</v>
+        <v>10.91</v>
       </c>
       <c r="C105" t="n">
-        <v>26.79</v>
-      </c>
-      <c r="D105" t="n">
-        <v>27.6</v>
+        <v>19.09</v>
       </c>
     </row>
     <row r="106">
@@ -2141,13 +1765,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>23.83</v>
+        <v>12.46</v>
       </c>
       <c r="C106" t="n">
-        <v>26.22</v>
-      </c>
-      <c r="D106" t="n">
-        <v>27.5</v>
+        <v>17.54</v>
       </c>
     </row>
     <row r="107">
@@ -2155,13 +1776,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>24.51</v>
+        <v>13.75</v>
       </c>
       <c r="C107" t="n">
-        <v>25.65</v>
-      </c>
-      <c r="D107" t="n">
-        <v>27.38</v>
+        <v>16.25</v>
       </c>
     </row>
     <row r="108">
@@ -2169,13 +1787,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>24.48</v>
+        <v>14.64</v>
       </c>
       <c r="C108" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="D108" t="n">
-        <v>27.26</v>
+        <v>15.36</v>
       </c>
     </row>
     <row r="109">
@@ -2183,13 +1798,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>24.44</v>
+        <v>15.44</v>
       </c>
       <c r="C109" t="n">
-        <v>25.93</v>
-      </c>
-      <c r="D109" t="n">
-        <v>27.17</v>
+        <v>14.56</v>
       </c>
     </row>
     <row r="110">
@@ -2197,13 +1809,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>24.49</v>
+        <v>16.24</v>
       </c>
       <c r="C110" t="n">
-        <v>25.99</v>
-      </c>
-      <c r="D110" t="n">
-        <v>27.06</v>
+        <v>13.76</v>
       </c>
     </row>
     <row r="111">
@@ -2211,13 +1820,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>24.31</v>
+        <v>17.35</v>
       </c>
       <c r="C111" t="n">
-        <v>26.06</v>
-      </c>
-      <c r="D111" t="n">
-        <v>27.17</v>
+        <v>12.65</v>
       </c>
     </row>
     <row r="112">
@@ -2225,13 +1831,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>24.2</v>
+        <v>18.35</v>
       </c>
       <c r="C112" t="n">
-        <v>26.11</v>
-      </c>
-      <c r="D112" t="n">
-        <v>27.23</v>
+        <v>11.65</v>
       </c>
     </row>
     <row r="113">
@@ -2239,13 +1842,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>24.1</v>
+        <v>18.99</v>
       </c>
       <c r="C113" t="n">
-        <v>25.63</v>
-      </c>
-      <c r="D113" t="n">
-        <v>27.81</v>
+        <v>11.01</v>
       </c>
     </row>
     <row r="114">
@@ -2253,13 +1853,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>23.79</v>
+        <v>19.55</v>
       </c>
       <c r="C114" t="n">
-        <v>25.35</v>
-      </c>
-      <c r="D114" t="n">
-        <v>28.4</v>
+        <v>10.45</v>
       </c>
     </row>
     <row r="115">
@@ -2267,13 +1864,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>23.42</v>
+        <v>20.14</v>
       </c>
       <c r="C115" t="n">
-        <v>25.19</v>
-      </c>
-      <c r="D115" t="n">
-        <v>28.93</v>
+        <v>9.859999999999999</v>
       </c>
     </row>
     <row r="116">
@@ -2281,13 +1875,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>23.05</v>
+        <v>19.56</v>
       </c>
       <c r="C116" t="n">
-        <v>25.05</v>
-      </c>
-      <c r="D116" t="n">
-        <v>29.44</v>
+        <v>10.44</v>
       </c>
     </row>
     <row r="117">
@@ -2295,13 +1886,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>22.67</v>
+        <v>19.25</v>
       </c>
       <c r="C117" t="n">
-        <v>24.91</v>
-      </c>
-      <c r="D117" t="n">
-        <v>29.96</v>
+        <v>10.75</v>
       </c>
     </row>
     <row r="118">
@@ -2309,13 +1897,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>22.27</v>
+        <v>18.79</v>
       </c>
       <c r="C118" t="n">
-        <v>24.78</v>
-      </c>
-      <c r="D118" t="n">
-        <v>30.49</v>
+        <v>11.21</v>
       </c>
     </row>
     <row r="119">
@@ -2323,13 +1908,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>21.77</v>
+        <v>18.42</v>
       </c>
       <c r="C119" t="n">
-        <v>24.77</v>
-      </c>
-      <c r="D119" t="n">
-        <v>31</v>
+        <v>11.58</v>
       </c>
     </row>
     <row r="120">
@@ -2337,13 +1919,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>21.18</v>
+        <v>17.79</v>
       </c>
       <c r="C120" t="n">
-        <v>24.84</v>
-      </c>
-      <c r="D120" t="n">
-        <v>31.52</v>
+        <v>12.21</v>
       </c>
     </row>
     <row r="121">
@@ -2351,13 +1930,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>18.9</v>
+        <v>16.82</v>
       </c>
       <c r="C121" t="n">
-        <v>26.88</v>
-      </c>
-      <c r="D121" t="n">
-        <v>31.76</v>
+        <v>13.18</v>
       </c>
     </row>
     <row r="122">
@@ -2365,13 +1941,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>16.54</v>
+        <v>15.91</v>
       </c>
       <c r="C122" t="n">
-        <v>28.93</v>
-      </c>
-      <c r="D122" t="n">
-        <v>32.07</v>
+        <v>14.09</v>
       </c>
     </row>
     <row r="123">
@@ -2379,13 +1952,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>14.18</v>
+        <v>15.47</v>
       </c>
       <c r="C123" t="n">
-        <v>31.55</v>
-      </c>
-      <c r="D123" t="n">
-        <v>31.8</v>
+        <v>14.53</v>
       </c>
     </row>
     <row r="124">
@@ -2393,13 +1963,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>12.01</v>
+        <v>15.06</v>
       </c>
       <c r="C124" t="n">
-        <v>34</v>
-      </c>
-      <c r="D124" t="n">
-        <v>31.53</v>
+        <v>14.94</v>
       </c>
     </row>
     <row r="125">
@@ -2407,13 +1974,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>9.949999999999999</v>
+        <v>14.34</v>
       </c>
       <c r="C125" t="n">
-        <v>36.34</v>
-      </c>
-      <c r="D125" t="n">
-        <v>31.24</v>
+        <v>15.66</v>
       </c>
     </row>
     <row r="126">
@@ -2421,13 +1985,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>7.9</v>
+        <v>13.59</v>
       </c>
       <c r="C126" t="n">
-        <v>38.56</v>
-      </c>
-      <c r="D126" t="n">
-        <v>31.08</v>
+        <v>16.41</v>
       </c>
     </row>
     <row r="127">
@@ -2435,13 +1996,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>9.859999999999999</v>
+        <v>12.83</v>
       </c>
       <c r="C127" t="n">
-        <v>40.71</v>
-      </c>
-      <c r="D127" t="n">
-        <v>30.96</v>
+        <v>17.16</v>
       </c>
     </row>
     <row r="128">
@@ -2449,13 +2007,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>11.95</v>
+        <v>12.22</v>
       </c>
       <c r="C128" t="n">
-        <v>42.8</v>
-      </c>
-      <c r="D128" t="n">
-        <v>30.79</v>
+        <v>17.78</v>
       </c>
     </row>
     <row r="129">
@@ -2463,13 +2018,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>14.11</v>
+        <v>11.61</v>
       </c>
       <c r="C129" t="n">
-        <v>44.79</v>
-      </c>
-      <c r="D129" t="n">
-        <v>30.64</v>
+        <v>18.39</v>
       </c>
     </row>
     <row r="130">
@@ -2477,13 +2029,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>16.26</v>
+        <v>11.23</v>
       </c>
       <c r="C130" t="n">
-        <v>46.78</v>
-      </c>
-      <c r="D130" t="n">
-        <v>30.5</v>
+        <v>18.77</v>
       </c>
     </row>
     <row r="131">
@@ -2491,13 +2040,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>20.01</v>
+        <v>10.88</v>
       </c>
       <c r="C131" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="D131" t="n">
-        <v>30.44</v>
+        <v>19.12</v>
       </c>
     </row>
     <row r="132">
@@ -2505,13 +2051,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>23.74</v>
+        <v>10.57</v>
       </c>
       <c r="C132" t="n">
-        <v>47.43</v>
-      </c>
-      <c r="D132" t="n">
-        <v>30.36</v>
+        <v>19.43</v>
       </c>
     </row>
     <row r="133">
@@ -2519,13 +2062,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>27.48</v>
+        <v>10.05</v>
       </c>
       <c r="C133" t="n">
-        <v>47.64</v>
-      </c>
-      <c r="D133" t="n">
-        <v>30.42</v>
+        <v>19.95</v>
       </c>
     </row>
     <row r="134">
@@ -2533,13 +2073,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>30.99</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="C134" t="n">
-        <v>48.06</v>
-      </c>
-      <c r="D134" t="n">
-        <v>30.49</v>
+        <v>20.39</v>
       </c>
     </row>
     <row r="135">
@@ -2547,13 +2084,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>34.47</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="C135" t="n">
-        <v>48.49</v>
-      </c>
-      <c r="D135" t="n">
-        <v>30.57</v>
+        <v>20.53</v>
       </c>
     </row>
     <row r="136">
@@ -2561,13 +2095,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>37.95</v>
+        <v>9.41</v>
       </c>
       <c r="C136" t="n">
-        <v>49.04</v>
-      </c>
-      <c r="D136" t="n">
-        <v>30.56</v>
+        <v>20.58</v>
       </c>
     </row>
     <row r="137">
@@ -2575,13 +2106,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>37.43</v>
+        <v>9.52</v>
       </c>
       <c r="C137" t="n">
-        <v>49.61</v>
-      </c>
-      <c r="D137" t="n">
-        <v>30.5</v>
+        <v>20.48</v>
       </c>
     </row>
     <row r="138">
@@ -2589,13 +2117,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>36.82</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="C138" t="n">
-        <v>50.22</v>
-      </c>
-      <c r="D138" t="n">
-        <v>30.5</v>
+        <v>20.38</v>
       </c>
     </row>
     <row r="139">
@@ -2603,13 +2128,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>36.1</v>
+        <v>9.82</v>
       </c>
       <c r="C139" t="n">
-        <v>50.94</v>
-      </c>
-      <c r="D139" t="n">
-        <v>30.5</v>
+        <v>20.19</v>
       </c>
     </row>
     <row r="140">
@@ -2617,13 +2139,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>35.48</v>
+        <v>9.98</v>
       </c>
       <c r="C140" t="n">
-        <v>51.59</v>
-      </c>
-      <c r="D140" t="n">
-        <v>30.47</v>
+        <v>20.02</v>
       </c>
     </row>
     <row r="141">
@@ -2631,13 +2150,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>34.98</v>
+        <v>10.2</v>
       </c>
       <c r="C141" t="n">
-        <v>51.94</v>
-      </c>
-      <c r="D141" t="n">
-        <v>30.62</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="142">
@@ -2645,13 +2161,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>34.51</v>
+        <v>10.91</v>
       </c>
       <c r="C142" t="n">
-        <v>52.26</v>
-      </c>
-      <c r="D142" t="n">
-        <v>30.77</v>
+        <v>19.09</v>
       </c>
     </row>
     <row r="143">
@@ -2659,13 +2172,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>34.03</v>
+        <v>11.62</v>
       </c>
       <c r="C143" t="n">
-        <v>52.61</v>
-      </c>
-      <c r="D143" t="n">
-        <v>30.9</v>
+        <v>18.38</v>
       </c>
     </row>
     <row r="144">
@@ -2673,13 +2183,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>33.54</v>
+        <v>12.34</v>
       </c>
       <c r="C144" t="n">
-        <v>52.65</v>
-      </c>
-      <c r="D144" t="n">
-        <v>31.35</v>
+        <v>17.66</v>
       </c>
     </row>
     <row r="145">
@@ -2687,13 +2194,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>33.09</v>
+        <v>13.06</v>
       </c>
       <c r="C145" t="n">
-        <v>52.65</v>
-      </c>
-      <c r="D145" t="n">
-        <v>31.8</v>
+        <v>16.94</v>
       </c>
     </row>
     <row r="146">
@@ -2701,13 +2205,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>32.68</v>
+        <v>14.27</v>
       </c>
       <c r="C146" t="n">
-        <v>52.63</v>
-      </c>
-      <c r="D146" t="n">
-        <v>32.23</v>
+        <v>15.73</v>
       </c>
     </row>
     <row r="147">
@@ -2715,13 +2216,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>32.3</v>
+        <v>15.32</v>
       </c>
       <c r="C147" t="n">
-        <v>52.62</v>
-      </c>
-      <c r="D147" t="n">
-        <v>32.62</v>
+        <v>14.68</v>
       </c>
     </row>
     <row r="148">
@@ -2729,13 +2227,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>31.89</v>
+        <v>16.16</v>
       </c>
       <c r="C148" t="n">
-        <v>52.64</v>
-      </c>
-      <c r="D148" t="n">
-        <v>33.01</v>
+        <v>13.84</v>
       </c>
     </row>
     <row r="149">
@@ -2743,13 +2238,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>31.6</v>
+        <v>16.93</v>
       </c>
       <c r="C149" t="n">
-        <v>52.56</v>
-      </c>
-      <c r="D149" t="n">
-        <v>33.38</v>
+        <v>13.07</v>
       </c>
     </row>
     <row r="150">
@@ -2757,13 +2249,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>31.35</v>
+        <v>17.66</v>
       </c>
       <c r="C150" t="n">
-        <v>52.49</v>
-      </c>
-      <c r="D150" t="n">
-        <v>33.7</v>
+        <v>12.34</v>
       </c>
     </row>
     <row r="151">
@@ -2771,13 +2260,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>30.71</v>
+        <v>18.54</v>
       </c>
       <c r="C151" t="n">
-        <v>52.4</v>
-      </c>
-      <c r="D151" t="n">
-        <v>34.44</v>
+        <v>11.46</v>
       </c>
     </row>
     <row r="152">
@@ -2785,13 +2271,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>30.04</v>
+        <v>18.89</v>
       </c>
       <c r="C152" t="n">
-        <v>52.35</v>
-      </c>
-      <c r="D152" t="n">
-        <v>35.15</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="153">
@@ -2799,13 +2282,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>29.44</v>
+        <v>19.28</v>
       </c>
       <c r="C153" t="n">
-        <v>52.22</v>
-      </c>
-      <c r="D153" t="n">
-        <v>35.88</v>
+        <v>10.72</v>
       </c>
     </row>
     <row r="154">
@@ -2813,13 +2293,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>29.21</v>
+        <v>19.64</v>
       </c>
       <c r="C154" t="n">
-        <v>52.11</v>
-      </c>
-      <c r="D154" t="n">
-        <v>36.22</v>
+        <v>10.37</v>
       </c>
     </row>
     <row r="155">
@@ -2827,13 +2304,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>28.97</v>
+        <v>19.98</v>
       </c>
       <c r="C155" t="n">
-        <v>52.03</v>
-      </c>
-      <c r="D155" t="n">
-        <v>36.55</v>
+        <v>10.02</v>
       </c>
     </row>
     <row r="156">
@@ -2841,13 +2315,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>28.69</v>
+        <v>19.83</v>
       </c>
       <c r="C156" t="n">
-        <v>51.95</v>
-      </c>
-      <c r="D156" t="n">
-        <v>36.9</v>
+        <v>10.17</v>
       </c>
     </row>
     <row r="157">
@@ -2855,13 +2326,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>28.37</v>
+        <v>19.75</v>
       </c>
       <c r="C157" t="n">
-        <v>51.88</v>
-      </c>
-      <c r="D157" t="n">
-        <v>37.28</v>
+        <v>10.25</v>
       </c>
     </row>
     <row r="158">
@@ -2869,13 +2337,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>28.06</v>
+        <v>20.32</v>
       </c>
       <c r="C158" t="n">
-        <v>51.75</v>
-      </c>
-      <c r="D158" t="n">
-        <v>37.73</v>
+        <v>9.68</v>
       </c>
     </row>
     <row r="159">
@@ -2883,13 +2348,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>27.75</v>
+        <v>20.86</v>
       </c>
       <c r="C159" t="n">
-        <v>51.61</v>
-      </c>
-      <c r="D159" t="n">
-        <v>38.17</v>
+        <v>9.140000000000001</v>
       </c>
     </row>
     <row r="160">
@@ -2897,13 +2359,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>28.41</v>
+        <v>21.3</v>
       </c>
       <c r="C160" t="n">
-        <v>50.44</v>
-      </c>
-      <c r="D160" t="n">
-        <v>38.69</v>
+        <v>8.69</v>
       </c>
     </row>
     <row r="161">
@@ -2911,13 +2370,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>29.63</v>
+        <v>21.59</v>
       </c>
       <c r="C161" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="D161" t="n">
-        <v>38.61</v>
+        <v>8.41</v>
       </c>
     </row>
     <row r="162">
@@ -2925,13 +2381,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>30.86</v>
+        <v>21.57</v>
       </c>
       <c r="C162" t="n">
-        <v>48.12</v>
-      </c>
-      <c r="D162" t="n">
-        <v>38.56</v>
+        <v>8.43</v>
       </c>
     </row>
     <row r="163">
@@ -2939,13 +2392,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>32</v>
+        <v>21.05</v>
       </c>
       <c r="C163" t="n">
-        <v>47.03</v>
-      </c>
-      <c r="D163" t="n">
-        <v>38.51</v>
+        <v>8.949999999999999</v>
       </c>
     </row>
     <row r="164">
@@ -2953,13 +2403,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>34.1</v>
+        <v>20.5</v>
       </c>
       <c r="C164" t="n">
-        <v>44.94</v>
-      </c>
-      <c r="D164" t="n">
-        <v>38.5</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="165">
@@ -2967,13 +2414,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>36.21</v>
+        <v>19.95</v>
       </c>
       <c r="C165" t="n">
-        <v>42.81</v>
-      </c>
-      <c r="D165" t="n">
-        <v>38.52</v>
+        <v>10.04</v>
       </c>
     </row>
     <row r="166">
@@ -2981,13 +2425,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>38.33</v>
+        <v>19.45</v>
       </c>
       <c r="C166" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="D166" t="n">
-        <v>38.51</v>
+        <v>10.54</v>
       </c>
     </row>
     <row r="167">
@@ -2995,13 +2436,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>40.58</v>
+        <v>18.77</v>
       </c>
       <c r="C167" t="n">
-        <v>38.45</v>
-      </c>
-      <c r="D167" t="n">
-        <v>38.51</v>
+        <v>11.22</v>
       </c>
     </row>
     <row r="168">
@@ -3009,13 +2447,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>42.82</v>
+        <v>17.82</v>
       </c>
       <c r="C168" t="n">
-        <v>36.26</v>
-      </c>
-      <c r="D168" t="n">
-        <v>38.46</v>
+        <v>12.18</v>
       </c>
     </row>
     <row r="169">
@@ -3023,13 +2458,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>45.18</v>
+        <v>16.89</v>
       </c>
       <c r="C169" t="n">
-        <v>33.99</v>
-      </c>
-      <c r="D169" t="n">
-        <v>38.37</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="170">
@@ -3037,13 +2469,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>46.48</v>
+        <v>16.12</v>
       </c>
       <c r="C170" t="n">
-        <v>32.79</v>
-      </c>
-      <c r="D170" t="n">
-        <v>38.28</v>
+        <v>13.88</v>
       </c>
     </row>
     <row r="171">
@@ -3051,13 +2480,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>47.77</v>
+        <v>15.09</v>
       </c>
       <c r="C171" t="n">
-        <v>31.77</v>
-      </c>
-      <c r="D171" t="n">
-        <v>38</v>
+        <v>14.91</v>
       </c>
     </row>
     <row r="172">
@@ -3065,13 +2491,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>49.08</v>
+        <v>14.4</v>
       </c>
       <c r="C172" t="n">
-        <v>30.76</v>
-      </c>
-      <c r="D172" t="n">
-        <v>37.7</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="173">
@@ -3079,13 +2502,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>50.43</v>
+        <v>14.16</v>
       </c>
       <c r="C173" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="D173" t="n">
-        <v>37.42</v>
+        <v>15.84</v>
       </c>
     </row>
     <row r="174">
@@ -3093,13 +2513,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>50.69</v>
+        <v>14</v>
       </c>
       <c r="C174" t="n">
-        <v>29.69</v>
-      </c>
-      <c r="D174" t="n">
-        <v>37.16</v>
+        <v>16</v>
       </c>
     </row>
     <row r="175">
@@ -3107,13 +2524,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>50.94</v>
+        <v>13.86</v>
       </c>
       <c r="C175" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="D175" t="n">
-        <v>36.9</v>
+        <v>16.14</v>
       </c>
     </row>
     <row r="176">
@@ -3121,13 +2535,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>51.1</v>
+        <v>13.62</v>
       </c>
       <c r="C176" t="n">
-        <v>29.79</v>
-      </c>
-      <c r="D176" t="n">
-        <v>36.64</v>
+        <v>16.38</v>
       </c>
     </row>
     <row r="177">
@@ -3135,13 +2546,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>51.15</v>
+        <v>13.49</v>
       </c>
       <c r="C177" t="n">
-        <v>30.07</v>
-      </c>
-      <c r="D177" t="n">
-        <v>36.33</v>
+        <v>16.51</v>
       </c>
     </row>
     <row r="178">
@@ -3149,13 +2557,10 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>51.3</v>
+        <v>13.21</v>
       </c>
       <c r="C178" t="n">
-        <v>30.29</v>
-      </c>
-      <c r="D178" t="n">
-        <v>35.94</v>
+        <v>16.79</v>
       </c>
     </row>
     <row r="179">
@@ -3163,13 +2568,10 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>51.28</v>
+        <v>12.96</v>
       </c>
       <c r="C179" t="n">
-        <v>30.41</v>
-      </c>
-      <c r="D179" t="n">
-        <v>35.84</v>
+        <v>17.04</v>
       </c>
     </row>
     <row r="180">
@@ -3177,13 +2579,10 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>51.28</v>
+        <v>12.67</v>
       </c>
       <c r="C180" t="n">
-        <v>30.51</v>
-      </c>
-      <c r="D180" t="n">
-        <v>35.74</v>
+        <v>17.34</v>
       </c>
     </row>
     <row r="181">
@@ -3191,13 +2590,10 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>51.16</v>
+        <v>12.63</v>
       </c>
       <c r="C181" t="n">
-        <v>30.44</v>
-      </c>
-      <c r="D181" t="n">
-        <v>35.94</v>
+        <v>17.37</v>
       </c>
     </row>
     <row r="182">
@@ -3205,13 +2601,10 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>51.05</v>
+        <v>12.6</v>
       </c>
       <c r="C182" t="n">
-        <v>30.34</v>
-      </c>
-      <c r="D182" t="n">
-        <v>36.15</v>
+        <v>17.41</v>
       </c>
     </row>
     <row r="183">
@@ -3219,13 +2612,10 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>51.42</v>
+        <v>12.51</v>
       </c>
       <c r="C183" t="n">
-        <v>30.06</v>
-      </c>
-      <c r="D183" t="n">
-        <v>36.06</v>
+        <v>17.49</v>
       </c>
     </row>
     <row r="184">
@@ -3233,13 +2623,10 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>51.8</v>
+        <v>12.34</v>
       </c>
       <c r="C184" t="n">
-        <v>29.79</v>
-      </c>
-      <c r="D184" t="n">
-        <v>35.95</v>
+        <v>17.66</v>
       </c>
     </row>
     <row r="185">
@@ -3247,13 +2634,10 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>52.22</v>
+        <v>12.12</v>
       </c>
       <c r="C185" t="n">
-        <v>29.49</v>
-      </c>
-      <c r="D185" t="n">
-        <v>35.83</v>
+        <v>17.88</v>
       </c>
     </row>
     <row r="186">
@@ -3261,13 +2645,10 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>52.7</v>
+        <v>11.95</v>
       </c>
       <c r="C186" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="D186" t="n">
-        <v>35.74</v>
+        <v>18.05</v>
       </c>
     </row>
     <row r="187">
@@ -3275,13 +2656,10 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>53.03</v>
+        <v>11.77</v>
       </c>
       <c r="C187" t="n">
-        <v>28.85</v>
-      </c>
-      <c r="D187" t="n">
-        <v>35.66</v>
+        <v>18.23</v>
       </c>
     </row>
     <row r="188">
@@ -3289,13 +2667,10 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">